--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -7,16 +7,15 @@
     <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Module" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -43,10 +42,22 @@
     </r>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>chinese</t>
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>portuguese</t>
+  </si>
+  <si>
+    <t>french</t>
   </si>
   <si>
     <t>##type</t>
@@ -80,19 +91,112 @@
     </r>
   </si>
   <si>
+    <t>类型(默认文本，可以添加Audio,Texture)</t>
+  </si>
+  <si>
     <t>中文</t>
   </si>
   <si>
     <t>英语</t>
   </si>
   <si>
-    <t>A_test</t>
-  </si>
-  <si>
-    <t>这是中文</t>
-  </si>
-  <si>
-    <t>this is english</t>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>Launch_loading</t>
+  </si>
+  <si>
+    <t>加载中</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Chargement en cours</t>
+  </si>
+  <si>
+    <t>Carregando em</t>
+  </si>
+  <si>
+    <t>Cargando en</t>
+  </si>
+  <si>
+    <t>Launch_downloading</t>
+  </si>
+  <si>
+    <t>下载中</t>
+  </si>
+  <si>
+    <t>downloading</t>
+  </si>
+  <si>
+    <t>Descargar en proceso</t>
+  </si>
+  <si>
+    <t>Download em andamento</t>
+  </si>
+  <si>
+    <t>Téléchargement en cours</t>
+  </si>
+  <si>
+    <t>Launch_health</t>
+  </si>
+  <si>
+    <t>抵制不良游戏，拒绝盗版游戏。注意自我保护，谨防受骗上当.适度游戏益脑，沉迷游戏伤身。合理安排游戏，享受健康生活。</t>
+  </si>
+  <si>
+    <t>Boycott bad games, no pirated games. Pay attention to self protection, beware of being cheated. Moderate games benefit the brain, addicted to games hurt the body. Reasonable arrangement of games, enjoy a healthy life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resista el mal juego, rechace los juegos pirateados. </t>
+  </si>
+  <si>
+    <t>Resistir a jogos ruins e rejeitar jogos pirateados. Cuidado com a auto-proteção. Cuidado com ser enganado. Jogos moderados são bons para o cérebro, jogos viciados machucam. Organizar jogos de forma razoável e desfrutar de uma vida saudável.</t>
+  </si>
+  <si>
+    <t>Boicotear los malos juegos y rechazar la piratería. Cuidado con la autoprotección. Cuidado con las estafas. El juego moderado es bueno para el cerebro. La adicción al juego duele. Disfrute de una vida saludable con juegos razonables.</t>
+  </si>
+  <si>
+    <t>Launch_updateComplete</t>
+  </si>
+  <si>
+    <t>更新完成</t>
+  </si>
+  <si>
+    <t>update completed</t>
+  </si>
+  <si>
+    <t>La actualización está completa</t>
+  </si>
+  <si>
+    <t>A atualização está concluída</t>
+  </si>
+  <si>
+    <t>Mise à jour terminée</t>
+  </si>
+  <si>
+    <t>Launch_updateFailed</t>
+  </si>
+  <si>
+    <t>更新失败</t>
+  </si>
+  <si>
+    <t>Update Failed</t>
+  </si>
+  <si>
+    <t>La actualización falló</t>
+  </si>
+  <si>
+    <t>Falha na atualização</t>
+  </si>
+  <si>
+    <t>La mise à jour échoue</t>
   </si>
 </sst>
 </file>
@@ -105,7 +209,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,12 +469,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -485,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -532,15 +617,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -646,48 +722,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,127 +776,124 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1167,15 +1243,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26" style="1" customWidth="1"/>
+    <col min="9" max="13" width="9" style="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:35">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1188,137 +1276,185 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:35">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="9"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:35">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="12"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1347,21 +1483,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="25800" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>La mise à jour échoue</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>切换账号</t>
+  </si>
+  <si>
+    <t>Switch account</t>
+  </si>
+  <si>
+    <t>Cambiar de cuenta</t>
+  </si>
+  <si>
+    <t>Troca de contas</t>
+  </si>
+  <si>
+    <t>Changer de compte</t>
   </si>
 </sst>
 </file>
@@ -867,12 +885,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1243,13 +1258,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
@@ -1259,108 +1274,106 @@
     <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="13" width="9" style="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,6 +1468,26 @@
       </c>
       <c r="H8" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25800" windowHeight="6420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1328">
   <si>
     <t>##var</t>
   </si>
@@ -42,6 +42,9 @@
     </r>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>##</t>
   </si>
   <si>
     <r>
@@ -109,7 +109,10 @@
     <t>法语</t>
   </si>
   <si>
-    <t>Launch_loading</t>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>加载</t>
   </si>
   <si>
     <t>加载中</t>
@@ -118,16 +121,16 @@
     <t>Loading</t>
   </si>
   <si>
-    <t>Chargement en cours</t>
-  </si>
-  <si>
-    <t>Carregando em</t>
-  </si>
-  <si>
-    <t>Cargando en</t>
-  </si>
-  <si>
-    <t>Launch_downloading</t>
+    <t>Cargando</t>
+  </si>
+  <si>
+    <t>Carregamento</t>
+  </si>
+  <si>
+    <t>Chargement</t>
+  </si>
+  <si>
+    <t>100002</t>
   </si>
   <si>
     <t>下载中</t>
@@ -136,16 +139,16 @@
     <t>downloading</t>
   </si>
   <si>
-    <t>Descargar en proceso</t>
-  </si>
-  <si>
-    <t>Download em andamento</t>
-  </si>
-  <si>
-    <t>Téléchargement en cours</t>
-  </si>
-  <si>
-    <t>Launch_health</t>
+    <t>descargando</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>téléchargement</t>
+  </si>
+  <si>
+    <t>100003</t>
   </si>
   <si>
     <t>抵制不良游戏，拒绝盗版游戏。注意自我保护，谨防受骗上当.适度游戏益脑，沉迷游戏伤身。合理安排游戏，享受健康生活。</t>
@@ -154,16 +157,16 @@
     <t>Boycott bad games, no pirated games. Pay attention to self protection, beware of being cheated. Moderate games benefit the brain, addicted to games hurt the body. Reasonable arrangement of games, enjoy a healthy life.</t>
   </si>
   <si>
-    <t xml:space="preserve">Resista el mal juego, rechace los juegos pirateados. </t>
-  </si>
-  <si>
-    <t>Resistir a jogos ruins e rejeitar jogos pirateados. Cuidado com a auto-proteção. Cuidado com ser enganado. Jogos moderados são bons para o cérebro, jogos viciados machucam. Organizar jogos de forma razoável e desfrutar de uma vida saudável.</t>
-  </si>
-  <si>
-    <t>Boicotear los malos juegos y rechazar la piratería. Cuidado con la autoprotección. Cuidado con las estafas. El juego moderado es bueno para el cerebro. La adicción al juego duele. Disfrute de una vida saludable con juegos razonables.</t>
-  </si>
-  <si>
-    <t>Launch_updateComplete</t>
+    <t>Boicotea los juegos malos, nada de juegos piratas. Presta atención a la autoprotección, ten cuidado con las trampas. Los juegos moderados benefician al cerebro, la adicción a los juegos perjudica al cuerpo. Ordena razonablemente los juegos, disfruta de una vida sana.</t>
+  </si>
+  <si>
+    <t>Não jogue jogos ruins, não jogue jogos piratas. Preste atenção à autoproteção, cuidado para não ser enganado. Os jogos moderados beneficiam o cérebro, o vício em jogos prejudica o corpo. Organize os jogos de forma razoável e desfrute de uma vida saudável.</t>
+  </si>
+  <si>
+    <t>Boycottez les mauvais jeux, pas de jeux piratés. Veillez à vous protéger, méfiez-vous de la tromperie. Les jeux modérés sont bénéfiques pour le cerveau, la dépendance aux jeux est néfaste pour le corps. Une organisation raisonnable des jeux permet de mener une vie saine.</t>
+  </si>
+  <si>
+    <t>100004</t>
   </si>
   <si>
     <t>更新完成</t>
@@ -172,16 +175,16 @@
     <t>update completed</t>
   </si>
   <si>
-    <t>La actualización está completa</t>
-  </si>
-  <si>
-    <t>A atualização está concluída</t>
-  </si>
-  <si>
-    <t>Mise à jour terminée</t>
-  </si>
-  <si>
-    <t>Launch_updateFailed</t>
+    <t>actualización completada</t>
+  </si>
+  <si>
+    <t>atualização concluída</t>
+  </si>
+  <si>
+    <t>mise à jour terminée</t>
+  </si>
+  <si>
+    <t>100005</t>
   </si>
   <si>
     <t>更新失败</t>
@@ -190,16 +193,841 @@
     <t>Update Failed</t>
   </si>
   <si>
-    <t>La actualización falló</t>
+    <t>Actualización fallida</t>
   </si>
   <si>
     <t>Falha na atualização</t>
   </si>
   <si>
-    <t>La mise à jour échoue</t>
-  </si>
-  <si>
-    <t>10001</t>
+    <t>Échec de la mise à jour</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>登录则表示您已满18岁且同意T&amp;C隐私协议</t>
+  </si>
+  <si>
+    <t>By logging in,you confirm that you are 18+ and agree to our T&amp;C provacy policy</t>
+  </si>
+  <si>
+    <t>Al iniciar sesión, confirmas que eres mayor de 18 años y aceptas nuestra política de privacidad.</t>
+  </si>
+  <si>
+    <t>Ao fazer o login, você confirma que tem mais de 18 anos e concorda com nossa política de privacidade de T&amp;C</t>
+  </si>
+  <si>
+    <t>En vous connectant, vous confirmez que vous avez plus de 18 ans et que vous acceptez nos conditions générales d'utilisation et notre politique de confidentialité.</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>游客登录</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Invitado</t>
+  </si>
+  <si>
+    <t>Convidado</t>
+  </si>
+  <si>
+    <t>Invité</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>手机登录</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Inicio de sesión</t>
+  </si>
+  <si>
+    <t>Connexion</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>注册账号</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Regístrese en</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Registre</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>游戏账号：</t>
+  </si>
+  <si>
+    <t>Game account:</t>
+  </si>
+  <si>
+    <t>Cuenta de juego:</t>
+  </si>
+  <si>
+    <t>Conta do jogo:</t>
+  </si>
+  <si>
+    <t>Compte de jeu :</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>密码：</t>
+  </si>
+  <si>
+    <t>Game password:</t>
+  </si>
+  <si>
+    <t>Contraseña del juego:</t>
+  </si>
+  <si>
+    <t>Senha do jogo:</t>
+  </si>
+  <si>
+    <t>Mot de passe du jeu :</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>账号或手机号：</t>
+  </si>
+  <si>
+    <t>Account or Phone(no+63&amp;0)</t>
+  </si>
+  <si>
+    <t>Cuenta o Teléfono(no+63&amp;0)</t>
+  </si>
+  <si>
+    <t>Conta ou telefone (no+63&amp;0)</t>
+  </si>
+  <si>
+    <t>Compte ou téléphone (no+63&amp;0)</t>
+  </si>
+  <si>
+    <t>101006</t>
+  </si>
+  <si>
+    <t>忘记密码</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Contraseña olvidada</t>
+  </si>
+  <si>
+    <t>Esqueci minha senha</t>
+  </si>
+  <si>
+    <t>Mot de passe oublié</t>
+  </si>
+  <si>
+    <t>102001</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Confirme</t>
+  </si>
+  <si>
+    <t>Confirmar</t>
+  </si>
+  <si>
+    <t>Confirmer</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>102003</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>Correo electrónico:</t>
+  </si>
+  <si>
+    <t>E-mail:</t>
+  </si>
+  <si>
+    <t>Courriel :</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>手机号码：</t>
+  </si>
+  <si>
+    <t>Phone number:</t>
+  </si>
+  <si>
+    <t>Número de teléfono:</t>
+  </si>
+  <si>
+    <t>Número de telefone:</t>
+  </si>
+  <si>
+    <t>Numéro de téléphone :</t>
+  </si>
+  <si>
+    <t>102005</t>
+  </si>
+  <si>
+    <t>Password:</t>
+  </si>
+  <si>
+    <t>Contraseña:</t>
+  </si>
+  <si>
+    <t>Senha:</t>
+  </si>
+  <si>
+    <t>Mot de passe :</t>
+  </si>
+  <si>
+    <t>102006</t>
+  </si>
+  <si>
+    <t>确认密码：</t>
+  </si>
+  <si>
+    <t>Repeat password:</t>
+  </si>
+  <si>
+    <t>Repite la contraseña:</t>
+  </si>
+  <si>
+    <t>Repetir a senha:</t>
+  </si>
+  <si>
+    <t>Répéter le mot de passe :</t>
+  </si>
+  <si>
+    <t>102007</t>
+  </si>
+  <si>
+    <t>验证码：</t>
+  </si>
+  <si>
+    <t>PhoneCode:</t>
+  </si>
+  <si>
+    <t>Código de teléfono:</t>
+  </si>
+  <si>
+    <t>Code téléphonique :</t>
+  </si>
+  <si>
+    <t>102008</t>
+  </si>
+  <si>
+    <t>邀请码（选填）：</t>
+  </si>
+  <si>
+    <t>Invitation Code(optional):</t>
+  </si>
+  <si>
+    <t>Código de invitación (opcional):</t>
+  </si>
+  <si>
+    <t>Código do convite (opcional):</t>
+  </si>
+  <si>
+    <t>Code d'invitation (facultatif) :</t>
+  </si>
+  <si>
+    <t>102009</t>
+  </si>
+  <si>
+    <t>真实姓名（选填）：</t>
+  </si>
+  <si>
+    <t>Real Name(optional):</t>
+  </si>
+  <si>
+    <t>Nombre real (opcional):</t>
+  </si>
+  <si>
+    <t>Nome real (opcional):</t>
+  </si>
+  <si>
+    <t>Nom réel (facultatif) :</t>
+  </si>
+  <si>
+    <t>102010</t>
+  </si>
+  <si>
+    <t>xxxxxx@xxx.com</t>
+  </si>
+  <si>
+    <t>102011</t>
+  </si>
+  <si>
+    <t>获取验证码</t>
+  </si>
+  <si>
+    <t>get code</t>
+  </si>
+  <si>
+    <t>obtener código</t>
+  </si>
+  <si>
+    <t>obter código</t>
+  </si>
+  <si>
+    <t>obtenir le code</t>
+  </si>
+  <si>
+    <t>102012</t>
+  </si>
+  <si>
+    <t>输入邀请码</t>
+  </si>
+  <si>
+    <t>Enter invitation code</t>
+  </si>
+  <si>
+    <t>Introduzca el código de invitación</t>
+  </si>
+  <si>
+    <t>Digite o código do convite</t>
+  </si>
+  <si>
+    <t>Saisir le code d'invitation</t>
+  </si>
+  <si>
+    <t>102013</t>
+  </si>
+  <si>
+    <t>输入真实姓名</t>
+  </si>
+  <si>
+    <t>FirstName,MiddleName,LastName</t>
+  </si>
+  <si>
+    <t>Nombre,Segundo nombre,Apellido</t>
+  </si>
+  <si>
+    <t>FirstName, MiddleName, LastName</t>
+  </si>
+  <si>
+    <t>Prénom, Second prénom, Nom de famille</t>
+  </si>
+  <si>
+    <t>102014</t>
+  </si>
+  <si>
+    <t>真实姓名将用于验证支付相关信息。错误的信息可能会导致支付订单失败。请确认您的信息！</t>
+  </si>
+  <si>
+    <t>The real name will be used for information verification of recharge and withdrawal.Wrong information may cause the order to fail.Please confirm your info.</t>
+  </si>
+  <si>
+    <t>El nombre real se utilizará para la verificación de la información de recarga y retirada.La información incorrecta puede hacer que el pedido falle.Por favor, confirme su información.</t>
+  </si>
+  <si>
+    <t>O nome real será usado para verificação das informações de recarga e saque. Informações incorretas podem fazer com que o pedido não seja atendido.</t>
+  </si>
+  <si>
+    <t>Le nom réel sera utilisé pour la vérification de l'information de recharge et de retrait.</t>
+  </si>
+  <si>
+    <t>103001</t>
+  </si>
+  <si>
+    <t>服务器提示</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
+  </si>
+  <si>
+    <t>Verification code error</t>
+  </si>
+  <si>
+    <t>Error de código de verificación</t>
+  </si>
+  <si>
+    <t>Erro no código de verificação</t>
+  </si>
+  <si>
+    <t>Erreur du code de vérification</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>发送验证码失败，请检查你的手机号</t>
+  </si>
+  <si>
+    <t>Failed to send verification code. Please check your mobile number</t>
+  </si>
+  <si>
+    <t>No se ha podido enviar el código de verificación. Por favor, compruebe su número de móvil</t>
+  </si>
+  <si>
+    <t>Falha ao enviar o código de verificação. Verifique seu número de celular</t>
+  </si>
+  <si>
+    <t>Le code de vérification n'a pas été envoyé. Veuillez vérifier votre numéro de téléphone portable</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>账号名已被注册</t>
+  </si>
+  <si>
+    <t>Account name has been registered, please log in directly</t>
+  </si>
+  <si>
+    <t>El nombre de cuenta ha sido registrado, por favor conéctese directamente</t>
+  </si>
+  <si>
+    <t>O nome da conta foi registrado, faça o login diretamente</t>
+  </si>
+  <si>
+    <t>Le nom du compte a été enregistré, veuillez vous connecter directement</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>设备已注册</t>
+  </si>
+  <si>
+    <t>The current device is fully registered. Please change the device and try to register again!</t>
+  </si>
+  <si>
+    <t>El dispositivo actual está totalmente registrado. Cambie el dispositivo e intente registrarse de nuevo.</t>
+  </si>
+  <si>
+    <t>O dispositivo atual está totalmente registrado. Troque o dispositivo e tente se registrar novamente!</t>
+  </si>
+  <si>
+    <t>L'appareil actuel est entièrement enregistré. Veuillez changer d'appareil et réessayer de vous enregistrer !</t>
+  </si>
+  <si>
+    <t>103005</t>
+  </si>
+  <si>
+    <t>邀请人未绑定手机</t>
+  </si>
+  <si>
+    <t>This user is not bound phone and cannot use the invitation code</t>
+  </si>
+  <si>
+    <t>Este usuario no tiene teléfono vinculado y no puede utilizar el código de invitación</t>
+  </si>
+  <si>
+    <t>Este usuário não tem telefone vinculado e não pode usar o código de convite</t>
+  </si>
+  <si>
+    <t>Cet utilisateur n'est pas lié au téléphone et ne peut pas utiliser le code d'invitation.</t>
+  </si>
+  <si>
+    <t>103006</t>
+  </si>
+  <si>
+    <t>邀请码错误</t>
+  </si>
+  <si>
+    <t>Please check the invitation code</t>
+  </si>
+  <si>
+    <t>Compruebe el código de invitación</t>
+  </si>
+  <si>
+    <t>Verifique o código do convite</t>
+  </si>
+  <si>
+    <t>Veuillez vérifier le code d'invitation</t>
+  </si>
+  <si>
+    <t>103007</t>
+  </si>
+  <si>
+    <t>账号已被限制登录，请联系管理员</t>
+  </si>
+  <si>
+    <t>The account has been restricted to login. Please contact the administrator!</t>
+  </si>
+  <si>
+    <t>Se ha restringido el acceso a la cuenta. Póngase en contacto con el administrador.</t>
+  </si>
+  <si>
+    <t>A conta foi restringida para login. Entre em contato com o administrador!</t>
+  </si>
+  <si>
+    <t>Le compte n'est pas autorisé à se connecter. Veuillez contacter l'administrateur !</t>
+  </si>
+  <si>
+    <t>103008</t>
+  </si>
+  <si>
+    <t>账号已被注册</t>
+  </si>
+  <si>
+    <t>The account has been registered</t>
+  </si>
+  <si>
+    <t>La cuenta ha sido registrada</t>
+  </si>
+  <si>
+    <t>A conta foi registrada</t>
+  </si>
+  <si>
+    <t>Le compte a été enregistré</t>
+  </si>
+  <si>
+    <t>103009</t>
+  </si>
+  <si>
+    <t>账号或密码错误</t>
+  </si>
+  <si>
+    <t>Account or password error</t>
+  </si>
+  <si>
+    <t>Error de cuenta o contraseña</t>
+  </si>
+  <si>
+    <t>Erro de conta ou senha</t>
+  </si>
+  <si>
+    <t>Erreur de compte ou de mot de passe</t>
+  </si>
+  <si>
+    <t>103010</t>
+  </si>
+  <si>
+    <t>已绑定账号无法进行游客登录</t>
+  </si>
+  <si>
+    <t>The bound account cannot be logged in with tourists</t>
+  </si>
+  <si>
+    <t>La cuenta vinculada no puede iniciar sesión con turistas</t>
+  </si>
+  <si>
+    <t>A conta vinculada não pode ser conectada com turistas</t>
+  </si>
+  <si>
+    <t>Le compte lié ne peut pas être connecté avec des touristes</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>手机号：</t>
+  </si>
+  <si>
+    <t>Phone:</t>
+  </si>
+  <si>
+    <t>Teléfono:</t>
+  </si>
+  <si>
+    <t>Telefone:</t>
+  </si>
+  <si>
+    <t>Téléphone :</t>
+  </si>
+  <si>
+    <t>104002</t>
+  </si>
+  <si>
+    <t>104003</t>
+  </si>
+  <si>
+    <t>104004</t>
+  </si>
+  <si>
+    <t>Phone code:</t>
+  </si>
+  <si>
+    <t>Código telefónico:</t>
+  </si>
+  <si>
+    <t>Código telefônico:</t>
+  </si>
+  <si>
+    <t>104005</t>
+  </si>
+  <si>
+    <t>104006</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>大厅</t>
+  </si>
+  <si>
+    <t>ID：</t>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>ID :</t>
+  </si>
+  <si>
+    <t>201002</t>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>COMPRAR</t>
+  </si>
+  <si>
+    <t>ACHETER</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>优惠</t>
+  </si>
+  <si>
+    <t>SALE</t>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>VENDA</t>
+  </si>
+  <si>
+    <t>VENTE</t>
+  </si>
+  <si>
+    <t>201004</t>
+  </si>
+  <si>
+    <t>在线奖励</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>EN LÍNEA</t>
+  </si>
+  <si>
+    <t>EN LIGNE</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>绑定手机</t>
+  </si>
+  <si>
+    <t>BIND</t>
+  </si>
+  <si>
+    <t>201006</t>
+  </si>
+  <si>
+    <t>免费金币</t>
+  </si>
+  <si>
+    <t>FREE CONIS</t>
+  </si>
+  <si>
+    <t>CONIS LIBRE</t>
+  </si>
+  <si>
+    <t>201007</t>
+  </si>
+  <si>
+    <t>联系我们</t>
+  </si>
+  <si>
+    <t>CONTACT US</t>
+  </si>
+  <si>
+    <t>CONTACTO</t>
+  </si>
+  <si>
+    <t>ENTRE EM CONTATO CONOSCO</t>
+  </si>
+  <si>
+    <t>CONTACTEZ-NOUS</t>
+  </si>
+  <si>
+    <t>201008</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
+    <t>NOTICIAS</t>
+  </si>
+  <si>
+    <t>NOTÍCIAS</t>
+  </si>
+  <si>
+    <t>NOUVELLES</t>
+  </si>
+  <si>
+    <t>201009</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>201010</t>
+  </si>
+  <si>
+    <t>分享代理</t>
+  </si>
+  <si>
+    <t>SHARE</t>
+  </si>
+  <si>
+    <t>COMPARTIR</t>
+  </si>
+  <si>
+    <t>COMPARTILHAR</t>
+  </si>
+  <si>
+    <t>PARTAGER</t>
+  </si>
+  <si>
+    <t>201011</t>
+  </si>
+  <si>
+    <t>INBOX</t>
+  </si>
+  <si>
+    <t>CONTENEDOR</t>
+  </si>
+  <si>
+    <t>201012</t>
+  </si>
+  <si>
+    <t>幸运转盘</t>
+  </si>
+  <si>
+    <t>LUCKY SPIN</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>Personal information</t>
+  </si>
+  <si>
+    <t>Información personal</t>
+  </si>
+  <si>
+    <t>Informações pessoais</t>
+  </si>
+  <si>
+    <t>Informations personnelles</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>切换头像</t>
+  </si>
+  <si>
+    <t>Avatar selsction</t>
+  </si>
+  <si>
+    <t>Selección de avatar</t>
+  </si>
+  <si>
+    <t>Seleção de avatar</t>
+  </si>
+  <si>
+    <t>Fonctionnement d'Avatar</t>
+  </si>
+  <si>
+    <t>202003</t>
+  </si>
+  <si>
+    <t>头像选择</t>
+  </si>
+  <si>
+    <t>change avatar</t>
+  </si>
+  <si>
+    <t>cambiar avatar</t>
+  </si>
+  <si>
+    <t>alterar o avatar</t>
+  </si>
+  <si>
+    <t>changer d'avatar</t>
+  </si>
+  <si>
+    <t>202004</t>
   </si>
   <si>
     <t>切换账号</t>
@@ -211,10 +1039,3005 @@
     <t>Cambiar de cuenta</t>
   </si>
   <si>
-    <t>Troca de contas</t>
+    <t>Mudar de conta</t>
   </si>
   <si>
     <t>Changer de compte</t>
+  </si>
+  <si>
+    <t>202005</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>202006</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>202007</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>DESLIGADO</t>
+  </si>
+  <si>
+    <t>202008</t>
+  </si>
+  <si>
+    <t>昵称：</t>
+  </si>
+  <si>
+    <t>NickName:</t>
+  </si>
+  <si>
+    <t>Nom de Nick :</t>
+  </si>
+  <si>
+    <t>202009</t>
+  </si>
+  <si>
+    <t>202010</t>
+  </si>
+  <si>
+    <t>202011</t>
+  </si>
+  <si>
+    <t>邮箱：</t>
+  </si>
+  <si>
+    <t>202012</t>
+  </si>
+  <si>
+    <t>202013</t>
+  </si>
+  <si>
+    <t>当前账号：</t>
+  </si>
+  <si>
+    <t>Current account:</t>
+  </si>
+  <si>
+    <t>Cuenta corriente:</t>
+  </si>
+  <si>
+    <t>Conta corrente:</t>
+  </si>
+  <si>
+    <t>Compte courant :</t>
+  </si>
+  <si>
+    <t>203001</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Consejos</t>
+  </si>
+  <si>
+    <t>Dicas</t>
+  </si>
+  <si>
+    <t>Conseils</t>
+  </si>
+  <si>
+    <t>203002</t>
+  </si>
+  <si>
+    <t>是否退出游戏？</t>
+  </si>
+  <si>
+    <t>Whether to quit the game?</t>
+  </si>
+  <si>
+    <t>¿Dejar el juego?</t>
+  </si>
+  <si>
+    <t>Se deve sair do jogo?</t>
+  </si>
+  <si>
+    <t>Faut-il quitter le jeu ?</t>
+  </si>
+  <si>
+    <t>203003</t>
+  </si>
+  <si>
+    <t>204001</t>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>TIENDA</t>
+  </si>
+  <si>
+    <t>LOJA</t>
+  </si>
+  <si>
+    <t>MAGASIN</t>
+  </si>
+  <si>
+    <t>204002</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Recarga</t>
+  </si>
+  <si>
+    <t>204003</t>
+  </si>
+  <si>
+    <t>兑换</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Intercambio</t>
+  </si>
+  <si>
+    <t>Câmbio</t>
+  </si>
+  <si>
+    <t>Échange</t>
+  </si>
+  <si>
+    <t>204004</t>
+  </si>
+  <si>
+    <t>记录</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Enregistrer</t>
+  </si>
+  <si>
+    <t>204005</t>
+  </si>
+  <si>
+    <t>有任何问题？</t>
+  </si>
+  <si>
+    <t>Any question?</t>
+  </si>
+  <si>
+    <t>¿Alguna pregunta?</t>
+  </si>
+  <si>
+    <t>Alguma dúvida?</t>
+  </si>
+  <si>
+    <t>Des questions ?</t>
+  </si>
+  <si>
+    <t>204006</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Póngase en contacto con nosotros</t>
+  </si>
+  <si>
+    <t>Entre em contato conosco</t>
+  </si>
+  <si>
+    <t>Nous contacter</t>
+  </si>
+  <si>
+    <t>204007</t>
+  </si>
+  <si>
+    <t>我的金币：</t>
+  </si>
+  <si>
+    <t>My Gold:</t>
+  </si>
+  <si>
+    <t>Mi Oro:</t>
+  </si>
+  <si>
+    <t>Meu ouro:</t>
+  </si>
+  <si>
+    <t>Mon or :</t>
+  </si>
+  <si>
+    <t>204008</t>
+  </si>
+  <si>
+    <t>金币比例：</t>
+  </si>
+  <si>
+    <t>Exchange:</t>
+  </si>
+  <si>
+    <t>Intercambio:</t>
+  </si>
+  <si>
+    <t>Intercâmbio:</t>
+  </si>
+  <si>
+    <t>Échange :</t>
+  </si>
+  <si>
+    <t>204009</t>
+  </si>
+  <si>
+    <t>选择支付渠道：</t>
+  </si>
+  <si>
+    <t>Choose Pay Channel:</t>
+  </si>
+  <si>
+    <t>Seleccione Canal de pago:</t>
+  </si>
+  <si>
+    <t>Selecione Pay Channel (Canal pago):</t>
+  </si>
+  <si>
+    <t>Choisissez Pay Channel :</t>
+  </si>
+  <si>
+    <t>204010</t>
+  </si>
+  <si>
+    <t>支付渠道正在维护，请选择其它渠道</t>
+  </si>
+  <si>
+    <t>Payment chanel maintenance choose another channel</t>
+  </si>
+  <si>
+    <t>Mantenimiento del canal de pago elija otro canal</t>
+  </si>
+  <si>
+    <t>Manutenção do canal de pagamento escolha outro canal</t>
+  </si>
+  <si>
+    <t>Entretien de la chaîne de paiement choisir un autre canal</t>
+  </si>
+  <si>
+    <t>204011</t>
+  </si>
+  <si>
+    <t>基本金币</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Visite</t>
+  </si>
+  <si>
+    <t>Obter</t>
+  </si>
+  <si>
+    <t>Obtenir</t>
+  </si>
+  <si>
+    <t>204012</t>
+  </si>
+  <si>
+    <t>额外获得</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>204013</t>
+  </si>
+  <si>
+    <t>总共获得</t>
+  </si>
+  <si>
+    <t>Total Get</t>
+  </si>
+  <si>
+    <t>Obtenção total</t>
+  </si>
+  <si>
+    <t>Total Obtenir</t>
+  </si>
+  <si>
+    <t>204014</t>
+  </si>
+  <si>
+    <t>输入充值金额：</t>
+  </si>
+  <si>
+    <t>Enter Recharge Amount:</t>
+  </si>
+  <si>
+    <t>Introduzca el importe de la recarga:</t>
+  </si>
+  <si>
+    <t>Insira o valor da recarga:</t>
+  </si>
+  <si>
+    <t>Saisir le montant de la recharge :</t>
+  </si>
+  <si>
+    <t>204015</t>
+  </si>
+  <si>
+    <t>204016</t>
+  </si>
+  <si>
+    <t>204017</t>
+  </si>
+  <si>
+    <t>204018</t>
+  </si>
+  <si>
+    <t>可兑换：</t>
+  </si>
+  <si>
+    <t>Exchangeable:</t>
+  </si>
+  <si>
+    <t>Intercambiable:</t>
+  </si>
+  <si>
+    <t>Pode ser trocado:</t>
+  </si>
+  <si>
+    <t>Échangeable :</t>
+  </si>
+  <si>
+    <t>204019</t>
+  </si>
+  <si>
+    <t>设置你的现金钱包：</t>
+  </si>
+  <si>
+    <t>Set up you Cash Wallet:</t>
+  </si>
+  <si>
+    <t>Configura tu Cash Wallet:</t>
+  </si>
+  <si>
+    <t>Configure sua carteira de dinheiro:</t>
+  </si>
+  <si>
+    <t>Créez votre porte-monnaie électronique :</t>
+  </si>
+  <si>
+    <t>204020</t>
+  </si>
+  <si>
+    <t>204021</t>
+  </si>
+  <si>
+    <t>姓名：</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Nome:</t>
+  </si>
+  <si>
+    <t>Nom :</t>
+  </si>
+  <si>
+    <t>204022</t>
+  </si>
+  <si>
+    <t>选择兑换金额：</t>
+  </si>
+  <si>
+    <t>Choose Exchange Amount:</t>
+  </si>
+  <si>
+    <t>Seleccione Importe del canje:</t>
+  </si>
+  <si>
+    <t>Selecione Exchange Amount:</t>
+  </si>
+  <si>
+    <t>Sélectionnez Montant de l'échange :</t>
+  </si>
+  <si>
+    <t>204023</t>
+  </si>
+  <si>
+    <t>前名</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>204024</t>
+  </si>
+  <si>
+    <t>中名</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Segundo nombre</t>
+  </si>
+  <si>
+    <t>Nome do meio</t>
+  </si>
+  <si>
+    <t>Nom du milieu</t>
+  </si>
+  <si>
+    <t>204025</t>
+  </si>
+  <si>
+    <t>后名</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Sobrenome</t>
+  </si>
+  <si>
+    <t>Nom de famille</t>
+  </si>
+  <si>
+    <t>204026</t>
+  </si>
+  <si>
+    <t>钱包管理</t>
+  </si>
+  <si>
+    <t>Used Wallet</t>
+  </si>
+  <si>
+    <t>Cartera usada</t>
+  </si>
+  <si>
+    <t>Carteira usada</t>
+  </si>
+  <si>
+    <t>Portefeuille usagé</t>
+  </si>
+  <si>
+    <t>204027</t>
+  </si>
+  <si>
+    <t>将获得：</t>
+  </si>
+  <si>
+    <t>You Will Get:</t>
+  </si>
+  <si>
+    <t>Usted recibirá:</t>
+  </si>
+  <si>
+    <t>Você receberá:</t>
+  </si>
+  <si>
+    <t>Vous recevrez :</t>
+  </si>
+  <si>
+    <t>204028</t>
+  </si>
+  <si>
+    <t>兑换手续费：</t>
+  </si>
+  <si>
+    <t>Exchange Fee:</t>
+  </si>
+  <si>
+    <t>Tasa de intercambio:</t>
+  </si>
+  <si>
+    <t>Taxa de câmbio:</t>
+  </si>
+  <si>
+    <t>Frais d'échange :</t>
+  </si>
+  <si>
+    <t>204029</t>
+  </si>
+  <si>
+    <t>钱包管理：</t>
+  </si>
+  <si>
+    <t>Bank Manager</t>
+  </si>
+  <si>
+    <t>Director de banco</t>
+  </si>
+  <si>
+    <t>Gerente de banco</t>
+  </si>
+  <si>
+    <t>Directeur de banque</t>
+  </si>
+  <si>
+    <t>204030</t>
+  </si>
+  <si>
+    <t>钱包账号：</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>Cuenta bancaria</t>
+  </si>
+  <si>
+    <t>Conta bancária</t>
+  </si>
+  <si>
+    <t>Compte bancaire</t>
+  </si>
+  <si>
+    <t>204031</t>
+  </si>
+  <si>
+    <t>Holder Name</t>
+  </si>
+  <si>
+    <t>Nombre del titular</t>
+  </si>
+  <si>
+    <t>Nome do titular</t>
+  </si>
+  <si>
+    <t>Nom du titulaire</t>
+  </si>
+  <si>
+    <t>204032</t>
+  </si>
+  <si>
+    <t>钱包：</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Cartera</t>
+  </si>
+  <si>
+    <t>Carteira</t>
+  </si>
+  <si>
+    <t>Portefeuille</t>
+  </si>
+  <si>
+    <t>204033</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>Hande</t>
+  </si>
+  <si>
+    <t>204034</t>
+  </si>
+  <si>
+    <t>这是你可以兑换的总金额。每次在我们游戏中赢得金币，你的总赢会增加。当你进行兑换时需要足够的总赢和金币。每兑换200PHP，你需要消耗200金币和200*1.5=300总赢。</t>
+  </si>
+  <si>
+    <t>This is the amount you can withdraw in channel.Each time you win coins in our games, your Total Win will increase.When you want to withdrawal, you need enough coins and Total Win.For every 200 PHP exchanged:1. you need 200*1 gold coins to exchange2. You need to accumulate 200*1*1.5=300 Total Win in our games</t>
+  </si>
+  <si>
+    <t>Esta es la cantidad que puedes retirar en el canal.Cada vez que ganes monedas en nuestros juegos, tu Ganancia Total aumentará.Cuando quieras retirar, necesitas suficientes monedas y Ganancia Total.Por cada 200 PHP canjeados:1. Necesitas 200*1 monedas de oro para canjear2. Por cada 200 PHP canjeados:1. necesitas 200*1 monedas de oro para canjear2. necesitas acumular 200*1*1.5=300 Ganancias Totales en nuestros juegos</t>
+  </si>
+  <si>
+    <t>Esse é o valor que você pode sacar no canal. Sempre que você ganhar moedas em nossos jogos, seu Total de Ganhos aumentará. Quando quiser sacar, você precisará de moedas suficientes e do Total de Ganhos. Para cada 200 PHP trocados:1. você precisa de 200*1 moedas de ouro para trocar2. Você precisa acumular 200*1*1,5=300 ganhos totais em nossos jogos</t>
+  </si>
+  <si>
+    <t>C'est le montant que vous pouvez retirer dans le canal.Chaque fois que vous gagnez des pièces dans nos jeux, votre gain total augmentera.Lorsque vous voulez retirer, vous avez besoin de suffisamment de pièces et de gain total.Pour chaque 200 PHP échangés:1. vous avez besoin de 200*1 pièces d'or à échanger2. Vous devez accumuler 200*1*1.5=300 Total Win dans nos jeux.</t>
+  </si>
+  <si>
+    <t>204035</t>
+  </si>
+  <si>
+    <t>充值兑换记录</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>L'heure</t>
+  </si>
+  <si>
+    <t>204036</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
+    <t>204037</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Résultats</t>
+  </si>
+  <si>
+    <t>204038</t>
+  </si>
+  <si>
+    <t>反馈</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Retour d'information</t>
+  </si>
+  <si>
+    <t>204039</t>
+  </si>
+  <si>
+    <t>204040</t>
+  </si>
+  <si>
+    <t>204041</t>
+  </si>
+  <si>
+    <t>获得金币</t>
+  </si>
+  <si>
+    <t>Get Gold</t>
+  </si>
+  <si>
+    <t>Conseguir oro</t>
+  </si>
+  <si>
+    <t>Obter ouro</t>
+  </si>
+  <si>
+    <t>Obtenir de l'or</t>
+  </si>
+  <si>
+    <t>204042</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Fallido</t>
+  </si>
+  <si>
+    <t>Falha</t>
+  </si>
+  <si>
+    <t>Échec</t>
+  </si>
+  <si>
+    <t>204043</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>Sucessd</t>
+  </si>
+  <si>
+    <t>Éxito</t>
+  </si>
+  <si>
+    <t>Bem-sucedido</t>
+  </si>
+  <si>
+    <t>Réussite</t>
+  </si>
+  <si>
+    <t>204044</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>En espera</t>
+  </si>
+  <si>
+    <t>Em espera</t>
+  </si>
+  <si>
+    <t>Attente</t>
+  </si>
+  <si>
+    <t>205001</t>
+  </si>
+  <si>
+    <t>首充</t>
+  </si>
+  <si>
+    <t>205002</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Bônus</t>
+  </si>
+  <si>
+    <t>205003</t>
+  </si>
+  <si>
+    <t>206001</t>
+  </si>
+  <si>
+    <t>随机充值</t>
+  </si>
+  <si>
+    <t>幸运机会</t>
+  </si>
+  <si>
+    <t>LUCKY CHANCE</t>
+  </si>
+  <si>
+    <t>SORTE</t>
+  </si>
+  <si>
+    <t>206002</t>
+  </si>
+  <si>
+    <t>随机充值金额</t>
+  </si>
+  <si>
+    <t>RANDOM AMOUNT</t>
+  </si>
+  <si>
+    <t>IMPORTE ALEATORIO</t>
+  </si>
+  <si>
+    <t>VALOR ALEATÓRIO</t>
+  </si>
+  <si>
+    <t>MONTANT ALÉATOIRE</t>
+  </si>
+  <si>
+    <t>206003</t>
+  </si>
+  <si>
+    <t>随机额外奖励</t>
+  </si>
+  <si>
+    <t>RANDOM EXTRA BONUS</t>
+  </si>
+  <si>
+    <t>BONIFICACIÓN EXTRA ALEATORIA</t>
+  </si>
+  <si>
+    <t>BÔNUS EXTRA ALEATÓRIO</t>
+  </si>
+  <si>
+    <t>BONUS SUPPLÉMENTAIRE ALÉATOIRE</t>
+  </si>
+  <si>
+    <t>206004</t>
+  </si>
+  <si>
+    <t>每日一次机会</t>
+  </si>
+  <si>
+    <t>One chance per day</t>
+  </si>
+  <si>
+    <t>Una oportunidad al día</t>
+  </si>
+  <si>
+    <t>Uma chance por dia</t>
+  </si>
+  <si>
+    <t>Une chance par jour</t>
+  </si>
+  <si>
+    <t>206005</t>
+  </si>
+  <si>
+    <t>获得【】充值机会</t>
+  </si>
+  <si>
+    <t>Get[]to recharge</t>
+  </si>
+  <si>
+    <t>Obtener[]para recargar</t>
+  </si>
+  <si>
+    <t>Obter[]para recarregar</t>
+  </si>
+  <si>
+    <t>206006</t>
+  </si>
+  <si>
+    <t>获得【】额外奖励</t>
+  </si>
+  <si>
+    <t>Get extra bonus[]</t>
+  </si>
+  <si>
+    <t>Consigue una bonificación extra[]</t>
+  </si>
+  <si>
+    <t>Obtenha bônus extra[]</t>
+  </si>
+  <si>
+    <t>Obtenir un bonus supplémentaire[]</t>
+  </si>
+  <si>
+    <t>206007</t>
+  </si>
+  <si>
+    <t>点击转动查看奖励机会</t>
+  </si>
+  <si>
+    <t>Click spin! to see your bouns</t>
+  </si>
+  <si>
+    <t>Pulsa ¡Gira! para ver tus rebotes</t>
+  </si>
+  <si>
+    <t>Clique em girar! para ver seus bouns</t>
+  </si>
+  <si>
+    <t>Cliquez sur spin ! pour voir vos bouns</t>
+  </si>
+  <si>
+    <t>206008</t>
+  </si>
+  <si>
+    <t>转动</t>
+  </si>
+  <si>
+    <t>SPIN</t>
+  </si>
+  <si>
+    <t>GIRAR</t>
+  </si>
+  <si>
+    <t>206009</t>
+  </si>
+  <si>
+    <t>获得</t>
+  </si>
+  <si>
+    <t>206010</t>
+  </si>
+  <si>
+    <t>Extra+</t>
+  </si>
+  <si>
+    <t>206011</t>
+  </si>
+  <si>
+    <t>只要【】！</t>
+  </si>
+  <si>
+    <t>Only [] now!</t>
+  </si>
+  <si>
+    <t>¡Ahora sólo []!</t>
+  </si>
+  <si>
+    <t>Somente [] agora!</t>
+  </si>
+  <si>
+    <t>Seulement [] maintenant !</t>
+  </si>
+  <si>
+    <t>206012</t>
+  </si>
+  <si>
+    <t>今日已完成</t>
+  </si>
+  <si>
+    <t>see you tomorrow</t>
+  </si>
+  <si>
+    <t>hasta mañana</t>
+  </si>
+  <si>
+    <t>Até amanhã</t>
+  </si>
+  <si>
+    <t>à demain</t>
+  </si>
+  <si>
+    <t>207001</t>
+  </si>
+  <si>
+    <t>游戏选场</t>
+  </si>
+  <si>
+    <t>冰球突破</t>
+  </si>
+  <si>
+    <t>Ice Hockey</t>
+  </si>
+  <si>
+    <t>Hockey sobre hielo</t>
+  </si>
+  <si>
+    <t>Hóquei no gelo</t>
+  </si>
+  <si>
+    <t>Hockey sur glace</t>
+  </si>
+  <si>
+    <t>207002</t>
+  </si>
+  <si>
+    <t>跳高高</t>
+  </si>
+  <si>
+    <t>High Jump</t>
+  </si>
+  <si>
+    <t>Salto de altura</t>
+  </si>
+  <si>
+    <t>Salto em altura</t>
+  </si>
+  <si>
+    <t>Saut en hauteur</t>
+  </si>
+  <si>
+    <t>207003</t>
+  </si>
+  <si>
+    <t>埃及大冒险</t>
+  </si>
+  <si>
+    <t>Egypt Treasure</t>
+  </si>
+  <si>
+    <t>Tesoro de Egipto</t>
+  </si>
+  <si>
+    <t>Tesouro do Egito</t>
+  </si>
+  <si>
+    <t>Trésor d'Egypte</t>
+  </si>
+  <si>
+    <t>207004</t>
+  </si>
+  <si>
+    <t>水果小玛丽</t>
+  </si>
+  <si>
+    <t>Fruit Mary</t>
+  </si>
+  <si>
+    <t>Fruta María</t>
+  </si>
+  <si>
+    <t>Fruta Maria</t>
+  </si>
+  <si>
+    <t>207005</t>
+  </si>
+  <si>
+    <t>武士斩杀</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Samouraï</t>
+  </si>
+  <si>
+    <t>207006</t>
+  </si>
+  <si>
+    <t>点球大战</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Fútbol</t>
+  </si>
+  <si>
+    <t>Futebol</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>207007</t>
+  </si>
+  <si>
+    <t>熊猫竹子</t>
+  </si>
+  <si>
+    <t>Fortune Panda</t>
+  </si>
+  <si>
+    <t>Panda de la fortuna</t>
+  </si>
+  <si>
+    <t>Panda de la fortune</t>
+  </si>
+  <si>
+    <t>207008</t>
+  </si>
+  <si>
+    <t>月光宝盒</t>
+  </si>
+  <si>
+    <t>Moonlight Box</t>
+  </si>
+  <si>
+    <t>Caja de luz de luna</t>
+  </si>
+  <si>
+    <t>Caixa do luar</t>
+  </si>
+  <si>
+    <t>Boîte à lumière</t>
+  </si>
+  <si>
+    <t>207009</t>
+  </si>
+  <si>
+    <t>乐高大电影</t>
+  </si>
+  <si>
+    <t>Lego Movie</t>
+  </si>
+  <si>
+    <t>La Lego Película</t>
+  </si>
+  <si>
+    <t>Filme Lego</t>
+  </si>
+  <si>
+    <t>207010</t>
+  </si>
+  <si>
+    <t>金瓶梅</t>
+  </si>
+  <si>
+    <t>Pretty Bride</t>
+  </si>
+  <si>
+    <t>Novia guapa</t>
+  </si>
+  <si>
+    <t>Noiva bonita</t>
+  </si>
+  <si>
+    <t>Jolie mariée</t>
+  </si>
+  <si>
+    <t>207011</t>
+  </si>
+  <si>
+    <t>财神到</t>
+  </si>
+  <si>
+    <t>Fartune Gods</t>
+  </si>
+  <si>
+    <t>Dioses de Fartune</t>
+  </si>
+  <si>
+    <t>Deuses de Fartune</t>
+  </si>
+  <si>
+    <t>Dieux de la fartune</t>
+  </si>
+  <si>
+    <t>207012</t>
+  </si>
+  <si>
+    <t>虎啸龙吟</t>
+  </si>
+  <si>
+    <t>DragonAndTiger</t>
+  </si>
+  <si>
+    <t>Dragon et tigre</t>
+  </si>
+  <si>
+    <t>207013</t>
+  </si>
+  <si>
+    <t>多福多寿</t>
+  </si>
+  <si>
+    <t>duofuduoshou</t>
+  </si>
+  <si>
+    <t>207014</t>
+  </si>
+  <si>
+    <t>淘金者</t>
+  </si>
+  <si>
+    <t>Gold Digger</t>
+  </si>
+  <si>
+    <t>Buscador de oro</t>
+  </si>
+  <si>
+    <t>Garimpeiro</t>
+  </si>
+  <si>
+    <t>Chercheur d'or</t>
+  </si>
+  <si>
+    <t>207015</t>
+  </si>
+  <si>
+    <t>水果777</t>
+  </si>
+  <si>
+    <t>Fruit slot 777</t>
+  </si>
+  <si>
+    <t>Tragaperras 777</t>
+  </si>
+  <si>
+    <t>Caça-níqueis de frutas 777</t>
+  </si>
+  <si>
+    <t>Fente à fruits 777</t>
+  </si>
+  <si>
+    <t>207016</t>
+  </si>
+  <si>
+    <t>龙珠探宝</t>
+  </si>
+  <si>
+    <t>Dragon Legend</t>
+  </si>
+  <si>
+    <t>Leyenda del Dragón</t>
+  </si>
+  <si>
+    <t>Lenda do Dragão</t>
+  </si>
+  <si>
+    <t>Légende du dragon</t>
+  </si>
+  <si>
+    <t>207017</t>
+  </si>
+  <si>
+    <t>金猪送福</t>
+  </si>
+  <si>
+    <t>Golden piggy</t>
+  </si>
+  <si>
+    <t>Cerdito dorado</t>
+  </si>
+  <si>
+    <t>Porquinho dourado</t>
+  </si>
+  <si>
+    <t>Cochon d'or</t>
+  </si>
+  <si>
+    <t>207018</t>
+  </si>
+  <si>
+    <t>麻将胡了</t>
+  </si>
+  <si>
+    <t>Mahjong ways</t>
+  </si>
+  <si>
+    <t>Formas de Mahjong</t>
+  </si>
+  <si>
+    <t>Modes de jeu du mahjong</t>
+  </si>
+  <si>
+    <t>207019</t>
+  </si>
+  <si>
+    <t>3D捕鱼</t>
+  </si>
+  <si>
+    <t>3D Fishing</t>
+  </si>
+  <si>
+    <t>Pesca 3D</t>
+  </si>
+  <si>
+    <t>Pêche en 3D</t>
+  </si>
+  <si>
+    <t>207020</t>
+  </si>
+  <si>
+    <t>小火箭</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Colisão</t>
+  </si>
+  <si>
+    <t>207021</t>
+  </si>
+  <si>
+    <t>初级场</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>PRIMARIO</t>
+  </si>
+  <si>
+    <t>PRIMÁRIO</t>
+  </si>
+  <si>
+    <t>PRIMAIRE</t>
+  </si>
+  <si>
+    <t>207022</t>
+  </si>
+  <si>
+    <t>中级场</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE</t>
+  </si>
+  <si>
+    <t>INTERMEDIO</t>
+  </si>
+  <si>
+    <t>INTERMEDIÁRIO</t>
+  </si>
+  <si>
+    <t>INTERMEDIAIRE</t>
+  </si>
+  <si>
+    <t>207023</t>
+  </si>
+  <si>
+    <t>高级场</t>
+  </si>
+  <si>
+    <t>ADVANCED</t>
+  </si>
+  <si>
+    <t>AVANZADO</t>
+  </si>
+  <si>
+    <t>AVANÇADO</t>
+  </si>
+  <si>
+    <t>AVANCÉ</t>
+  </si>
+  <si>
+    <t>207024</t>
+  </si>
+  <si>
+    <t>大师场</t>
+  </si>
+  <si>
+    <t>MAESTRO</t>
+  </si>
+  <si>
+    <t>207025</t>
+  </si>
+  <si>
+    <t>入场限制：</t>
+  </si>
+  <si>
+    <t>condition：</t>
+  </si>
+  <si>
+    <t>condición：</t>
+  </si>
+  <si>
+    <t>condição：</t>
+  </si>
+  <si>
+    <t>207026</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Démarrage</t>
+  </si>
+  <si>
+    <t>208001</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>MENSAJE</t>
+  </si>
+  <si>
+    <t>MENSAGEM</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>INVITE</t>
+  </si>
+  <si>
+    <t>CONVITE</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>分享代理绑定邀请码</t>
+  </si>
+  <si>
+    <t>分享和绑定</t>
+  </si>
+  <si>
+    <t>Share &amp; Bind</t>
+  </si>
+  <si>
+    <t>Compartir y encuadernar</t>
+  </si>
+  <si>
+    <t>Compartilhar e vincular</t>
+  </si>
+  <si>
+    <t>Partager et lier</t>
+  </si>
+  <si>
+    <t>209003</t>
+  </si>
+  <si>
+    <t>邀请奖励</t>
+  </si>
+  <si>
+    <t>Invitation Reward</t>
+  </si>
+  <si>
+    <t>Invitación Recompensa</t>
+  </si>
+  <si>
+    <t>Recompensa por convite</t>
+  </si>
+  <si>
+    <t>Invitation Récompense</t>
+  </si>
+  <si>
+    <t>209004</t>
+  </si>
+  <si>
+    <t>充值返利</t>
+  </si>
+  <si>
+    <t>Recharge Reward</t>
+  </si>
+  <si>
+    <t>Recompensa por recarga</t>
+  </si>
+  <si>
+    <t>Recompensa de recarga</t>
+  </si>
+  <si>
+    <t>Prime de recharge</t>
+  </si>
+  <si>
+    <t>209005</t>
+  </si>
+  <si>
+    <t>你的邀请人</t>
+  </si>
+  <si>
+    <t>Your invitee</t>
+  </si>
+  <si>
+    <t>Su invitado</t>
+  </si>
+  <si>
+    <t>Seu convidado</t>
+  </si>
+  <si>
+    <t>Votre invité</t>
+  </si>
+  <si>
+    <t>209006</t>
+  </si>
+  <si>
+    <t>你邀请的用户</t>
+  </si>
+  <si>
+    <t>Friends you invite</t>
+  </si>
+  <si>
+    <t>Amigos a los que invita</t>
+  </si>
+  <si>
+    <t>Amigos que você convida</t>
+  </si>
+  <si>
+    <t>Les amis que vous invitez</t>
+  </si>
+  <si>
+    <t>209007</t>
+  </si>
+  <si>
+    <t>Enter Invite code</t>
+  </si>
+  <si>
+    <t>Inserir código de convite</t>
+  </si>
+  <si>
+    <t>209008</t>
+  </si>
+  <si>
+    <t>可分享到：</t>
+  </si>
+  <si>
+    <t>share on：</t>
+  </si>
+  <si>
+    <t>compartir en：</t>
+  </si>
+  <si>
+    <t>compartilhar em：</t>
+  </si>
+  <si>
+    <t>partager sur：</t>
+  </si>
+  <si>
+    <t>209009</t>
+  </si>
+  <si>
+    <t>游戏下载二维码</t>
+  </si>
+  <si>
+    <t>Game download QR</t>
+  </si>
+  <si>
+    <t>Descarga del juego QR</t>
+  </si>
+  <si>
+    <t>Download do jogo QR</t>
+  </si>
+  <si>
+    <t>Téléchargement du jeu QR</t>
+  </si>
+  <si>
+    <t>209010</t>
+  </si>
+  <si>
+    <t>游戏下载链接</t>
+  </si>
+  <si>
+    <t>Game download link</t>
+  </si>
+  <si>
+    <t>Enlace de descarga del juego</t>
+  </si>
+  <si>
+    <t>Link para download do jogo</t>
+  </si>
+  <si>
+    <t>Lien de téléchargement du jeu</t>
+  </si>
+  <si>
+    <t>209011</t>
+  </si>
+  <si>
+    <t>邀请码</t>
+  </si>
+  <si>
+    <t>My Invite code</t>
+  </si>
+  <si>
+    <t>Mi código de invitación</t>
+  </si>
+  <si>
+    <t>Meu código de convite</t>
+  </si>
+  <si>
+    <t>Mon code d'invitation</t>
+  </si>
+  <si>
+    <t>209012</t>
+  </si>
+  <si>
+    <t>绑定</t>
+  </si>
+  <si>
+    <t>Bind</t>
+  </si>
+  <si>
+    <t>Encuadernar</t>
+  </si>
+  <si>
+    <t>Vinculação</t>
+  </si>
+  <si>
+    <t>Relier</t>
+  </si>
+  <si>
+    <t>209013</t>
+  </si>
+  <si>
+    <t>保存二维码</t>
+  </si>
+  <si>
+    <t>Save QR image</t>
+  </si>
+  <si>
+    <t>Guardar imagen QR</t>
+  </si>
+  <si>
+    <t>Salvar imagem QR</t>
+  </si>
+  <si>
+    <t>Enregistrer l'image QR</t>
+  </si>
+  <si>
+    <t>209014</t>
+  </si>
+  <si>
+    <t>图片已保存</t>
+  </si>
+  <si>
+    <t>Image saved</t>
+  </si>
+  <si>
+    <t>Imagen guardada</t>
+  </si>
+  <si>
+    <t>Imagem salva</t>
+  </si>
+  <si>
+    <t>Image sauvegardée</t>
+  </si>
+  <si>
+    <t>209015</t>
+  </si>
+  <si>
+    <t>链接已复制</t>
+  </si>
+  <si>
+    <t>Link saved</t>
+  </si>
+  <si>
+    <t>Enlace guardado</t>
+  </si>
+  <si>
+    <t>Link salvo</t>
+  </si>
+  <si>
+    <t>Lien sauvegardé</t>
+  </si>
+  <si>
+    <t>209016</t>
+  </si>
+  <si>
+    <t>邀请码已复制</t>
+  </si>
+  <si>
+    <t>Code saved</t>
+  </si>
+  <si>
+    <t>Código guardado</t>
+  </si>
+  <si>
+    <t>Código salvo</t>
+  </si>
+  <si>
+    <t>Code sauvegardé</t>
+  </si>
+  <si>
+    <t>209017</t>
+  </si>
+  <si>
+    <t>用户已被邀请</t>
+  </si>
+  <si>
+    <t>You have been invited and cannot be invited again</t>
+  </si>
+  <si>
+    <t>Ha sido invitado y no puede ser invitado de nuevo</t>
+  </si>
+  <si>
+    <t>Você foi convidado e não pode ser convidado novamente</t>
+  </si>
+  <si>
+    <t>Vous avez été invité et vous ne pouvez pas être invité à nouveau</t>
+  </si>
+  <si>
+    <t>209018</t>
+  </si>
+  <si>
+    <t>邀请码绑定错误</t>
+  </si>
+  <si>
+    <t>209019</t>
+  </si>
+  <si>
+    <t>没有奖励可领取</t>
+  </si>
+  <si>
+    <t>No rewards currently available</t>
+  </si>
+  <si>
+    <t>Actualmente no hay recompensas disponibles</t>
+  </si>
+  <si>
+    <t>Não há prêmios disponíveis no momento</t>
+  </si>
+  <si>
+    <t>Aucune récompense n'est actuellement disponible</t>
+  </si>
+  <si>
+    <t>209020</t>
+  </si>
+  <si>
+    <t>抬头说明1</t>
+  </si>
+  <si>
+    <t>使用二维码和链接将游戏分享给你的朋友。让你的朋友在游戏中绑定你的邀请码。你将会获得邀请奖励和充值奖励</t>
+  </si>
+  <si>
+    <t>Share the game with your friends using the QR code and link.Let your friends bind your invitation code in the game.You will get invitation bonus and recharge bonus</t>
+  </si>
+  <si>
+    <t>Comparte el juego con tus amigos utilizando el código QR y el enlace.Deja que tus amigos vinculen tu código de invitación en el juego.Obtendrás bonificación por invitación y bonificación por recarga.</t>
+  </si>
+  <si>
+    <t>Compartilhe o jogo com seus amigos usando o código QR e o link. Deixe que seus amigos vinculem seu código de convite no jogo. Você receberá bônus de convite e bônus de recarga.</t>
+  </si>
+  <si>
+    <t>Partagez le jeu avec vos amis en utilisant le code QR et le lien. Laissez vos amis lier votre code d'invitation dans le jeu. Vous obtiendrez un bonus d'invitation et un bonus de recharge.</t>
+  </si>
+  <si>
+    <t>209021</t>
+  </si>
+  <si>
+    <t>分享代理邀请</t>
+  </si>
+  <si>
+    <t>邀请【】人</t>
+  </si>
+  <si>
+    <t>invite [] friend</t>
+  </si>
+  <si>
+    <t>invitar [] amigo</t>
+  </si>
+  <si>
+    <t>convidar [] amigo</t>
+  </si>
+  <si>
+    <t>inviter [] ami</t>
+  </si>
+  <si>
+    <t>209022</t>
+  </si>
+  <si>
+    <t>抬头说明2</t>
+  </si>
+  <si>
+    <t>让你的朋友在游戏中绑定你的邀请码。你的邀请人数将会增加
+当你的邀请人数满足条件，你可以点击领取奖励。</t>
+  </si>
+  <si>
+    <t>Let your friends bind your invitation code in the game.Your number of invites will increase.When your number of invitations meets the criteria, you can click to receive the reward.</t>
+  </si>
+  <si>
+    <t>Deja que tus amigos vinculen tu código de invitación en el juego.Tu número de invitaciones aumentará.Cuando tu número de invitaciones cumpla los criterios, podrás hacer clic para recibir la recompensa.</t>
+  </si>
+  <si>
+    <t>Permita que seus amigos vinculem seu código de convite no jogo. Seu número de convites aumentará. Quando o número de convites atender aos critérios, você poderá clicar para receber a recompensa.</t>
+  </si>
+  <si>
+    <t>Laissez vos amis lier votre code d'invitation dans le jeu.Votre nombre d'invitations augmentera.Lorsque votre nombre d'invitations répond aux critères, vous pouvez cliquer pour recevoir la récompense.</t>
+  </si>
+  <si>
+    <t>209023</t>
+  </si>
+  <si>
+    <t>分享代理充值返利</t>
+  </si>
+  <si>
+    <t>领取</t>
+  </si>
+  <si>
+    <t>209024</t>
+  </si>
+  <si>
+    <t>我的邀请码</t>
+  </si>
+  <si>
+    <t>209025</t>
+  </si>
+  <si>
+    <t>我的邀请人数</t>
+  </si>
+  <si>
+    <t>Invite number</t>
+  </si>
+  <si>
+    <t>Número de invitación</t>
+  </si>
+  <si>
+    <t>Número do convite</t>
+  </si>
+  <si>
+    <t>Nombre d'invitations</t>
+  </si>
+  <si>
+    <t>209026</t>
+  </si>
+  <si>
+    <t>总获得返利</t>
+  </si>
+  <si>
+    <t>Total Reward</t>
+  </si>
+  <si>
+    <t>Recompensa total</t>
+  </si>
+  <si>
+    <t>Récompense totale</t>
+  </si>
+  <si>
+    <t>209027</t>
+  </si>
+  <si>
+    <t>今日返利</t>
+  </si>
+  <si>
+    <t>Today Reward</t>
+  </si>
+  <si>
+    <t>Recompensa de hoy</t>
+  </si>
+  <si>
+    <t>Prêmio de hoje</t>
+  </si>
+  <si>
+    <t>Récompense d'aujourd'hui</t>
+  </si>
+  <si>
+    <t>209028</t>
+  </si>
+  <si>
+    <t>返利记录</t>
+  </si>
+  <si>
+    <t>Dividend Record</t>
+  </si>
+  <si>
+    <t>Registro de dividendos</t>
+  </si>
+  <si>
+    <t>Enregistrement des dividendes</t>
+  </si>
+  <si>
+    <t>209029</t>
+  </si>
+  <si>
+    <t>当前可领取返利</t>
+  </si>
+  <si>
+    <t>Current cumulative rewards</t>
+  </si>
+  <si>
+    <t>Recompensas acumuladas actuales</t>
+  </si>
+  <si>
+    <t>Prêmios cumulativos atuais</t>
+  </si>
+  <si>
+    <t>Récompenses cumulées actuelles</t>
+  </si>
+  <si>
+    <t>209030</t>
+  </si>
+  <si>
+    <t>充值金额</t>
+  </si>
+  <si>
+    <t>209031</t>
+  </si>
+  <si>
+    <t>我的返利</t>
+  </si>
+  <si>
+    <t>My Dividend</t>
+  </si>
+  <si>
+    <t>Mi dividendo</t>
+  </si>
+  <si>
+    <t>Meus dividendos</t>
+  </si>
+  <si>
+    <t>Mon dividende</t>
+  </si>
+  <si>
+    <t>209032</t>
+  </si>
+  <si>
+    <t>记录显示最近50条</t>
+  </si>
+  <si>
+    <t>Records show the last 50 entries</t>
+  </si>
+  <si>
+    <t>Los registros muestran las últimas 50 entradas</t>
+  </si>
+  <si>
+    <t>Os registros mostram as últimas 50 entradas</t>
+  </si>
+  <si>
+    <t>Les enregistrements montrent les 50 dernières entrées</t>
+  </si>
+  <si>
+    <t>209033</t>
+  </si>
+  <si>
+    <t>抬头说明3</t>
+  </si>
+  <si>
+    <t>绑定后你的朋友每充值500php,你将会获得一笔金币返利。你邀请的朋友每充值500PHP，你会得到3%的金币返利。总共15金币。你邀请的朋友可以邀请其他人。你朋友邀请的人每充值500PHP，你会得到1.5%的金币返利。总共7.5金币。</t>
+  </si>
+  <si>
+    <t>For every 500php your friend recharges after the bind.You will get 3% gold rebate for every 500PHP you invite your friends to top up.Total 15 gold.The friends you invite can invite other people. You will get 1.5% gold rebate for every 500PHP recharge of your friend's invited person.Total 7.5 gold.</t>
+  </si>
+  <si>
+    <t>Por cada 500PHP que recargue tu amigo después del bind.Obtendrás 3% de gold rebate por cada 500PHP que invites a tus amigos a recargar.Total 15 gold.Los amigos que invites pueden invitar a otras personas. Obtendrás 1.5% de oro de reembolso por cada recarga de 500PHP de la persona invitada por tu amigo.Total 7.5 oro.</t>
+  </si>
+  <si>
+    <t>Para cada 500php que seu amigo recarregar após a vinculação, você receberá 3% de desconto em ouro para cada 500PHP que convidar seus amigos para recarregar. Você receberá um desconto de 1,5% em ouro para cada recarga de 500 PHP da pessoa convidada por seu amigo. Total de 7,5 de ouro.</t>
+  </si>
+  <si>
+    <t>Vous obtiendrez 3% de remise en or pour chaque 500PHP que vous invitez vos amis à recharger.Total 15 gold.Les amis que vous invitez peuvent inviter d'autres personnes. Vous obtiendrez 1,5% de remise en or pour chaque recharge de 500PHP de la personne invitée par votre ami.Total 7,5 gold.</t>
+  </si>
+  <si>
+    <t>210001</t>
+  </si>
+  <si>
+    <t>LEADERBOARD</t>
+  </si>
+  <si>
+    <t>TABLERO LÍDER</t>
+  </si>
+  <si>
+    <t>QUADRO DE LÍDERES</t>
+  </si>
+  <si>
+    <t>210002</t>
+  </si>
+  <si>
+    <t>大富翁排行榜</t>
+  </si>
+  <si>
+    <t>Rich Ranking</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>Classificação rica</t>
+  </si>
+  <si>
+    <t>Riche classement</t>
+  </si>
+  <si>
+    <t>210003</t>
+  </si>
+  <si>
+    <t>大赢家排行榜</t>
+  </si>
+  <si>
+    <t>Winner Ranking</t>
+  </si>
+  <si>
+    <t>Clasificación de ganadores</t>
+  </si>
+  <si>
+    <t>Classificação do vencedor</t>
+  </si>
+  <si>
+    <t>Classement des gagnants</t>
+  </si>
+  <si>
+    <t>210004</t>
+  </si>
+  <si>
+    <t>未上榜</t>
+  </si>
+  <si>
+    <t>NO RANKING</t>
+  </si>
+  <si>
+    <t>SIN RANKING</t>
+  </si>
+  <si>
+    <t>SEM RANKING</t>
+  </si>
+  <si>
+    <t>PAS DE CLASSEMENT</t>
+  </si>
+  <si>
+    <t>211001</t>
+  </si>
+  <si>
+    <t>大转盘</t>
+  </si>
+  <si>
+    <t>幸运大转盘</t>
+  </si>
+  <si>
+    <t>211002</t>
+  </si>
+  <si>
+    <t>211003</t>
+  </si>
+  <si>
+    <t>大赢家</t>
+  </si>
+  <si>
+    <t>Winners</t>
+  </si>
+  <si>
+    <t>Ganadores</t>
+  </si>
+  <si>
+    <t>Vencedores</t>
+  </si>
+  <si>
+    <t>Vainqueurs</t>
+  </si>
+  <si>
+    <t>211004</t>
+  </si>
+  <si>
+    <t>个人记录</t>
+  </si>
+  <si>
+    <t>Spinning record</t>
+  </si>
+  <si>
+    <t>Disco giratorio</t>
+  </si>
+  <si>
+    <t>Registro giratório</t>
+  </si>
+  <si>
+    <t>Enregistrement de l'essorage</t>
+  </si>
+  <si>
+    <t>211005</t>
+  </si>
+  <si>
+    <t>赢得了【】金币</t>
+  </si>
+  <si>
+    <t>won【】gold</t>
+  </si>
+  <si>
+    <t>ganhou【】ouro</t>
+  </si>
+  <si>
+    <t>gagné【】gold</t>
+  </si>
+  <si>
+    <t>211006</t>
+  </si>
+  <si>
+    <t>本次转动获得【】</t>
+  </si>
+  <si>
+    <t>You has won【】gold</t>
+  </si>
+  <si>
+    <t>Usted ha ganado 【】gold</t>
+  </si>
+  <si>
+    <t>Você ganhou【】ouro</t>
+  </si>
+  <si>
+    <t>Vous avez gagné【】gold</t>
+  </si>
+  <si>
+    <t>211007</t>
+  </si>
+  <si>
+    <t>今日剩余转动次数：</t>
+  </si>
+  <si>
+    <t>Number of spins lefe today：</t>
+  </si>
+  <si>
+    <t>Número de giros lefe hoy：</t>
+  </si>
+  <si>
+    <t>Número de rotações lefe hoje：</t>
+  </si>
+  <si>
+    <t>Nombre de tours effectués aujourd'hui：</t>
+  </si>
+  <si>
+    <t>211008</t>
+  </si>
+  <si>
+    <t>未使用得转动次数将在每天24：00重置</t>
+  </si>
+  <si>
+    <t>The number of unused spins will be reset at 24：00</t>
+  </si>
+  <si>
+    <t>El número de giros no utilizados se restablecerá en 24：00</t>
+  </si>
+  <si>
+    <t>O número de giros não utilizados será redefinido para 24：00</t>
+  </si>
+  <si>
+    <t>Le nombre de tours inutilisés est remis à 24：00.</t>
+  </si>
+  <si>
+    <t>211009</t>
+  </si>
+  <si>
+    <t>你可以在活动中的这些活动得到转动次数。登录奖励：可获得随机转动次数，每日一次；在线奖励：完成在线时间可获得转动次数；下注奖励：每下注一定数量金币可获得一次转动次数；</t>
+  </si>
+  <si>
+    <t>You can get the number of spins in these activities in the activity.Login reward: you can get random spins, once a day；Online reward: you can get spins for completing online time；Bet reward: Every time you bet a certain amount of coins, you will get one spin；The number of unused spins will be reset at 24:00；</t>
+  </si>
+  <si>
+    <t>Puedes conseguir el número de tiradas en estas actividades en la actividad.Recompensa de inicio de sesión: puedes conseguir tiradas aleatorias, una vez al día；Recompensa online: puedes conseguir tiradas por completar tiempo online；Recompensa de apuesta: Cada vez que apuestes una cierta cantidad de monedas, conseguirás una tirada；El número de tiradas no utilizadas se reiniciará a las 24:00；</t>
+  </si>
+  <si>
+    <t>Você pode obter o número de giros nessas atividades na atividade.Recompensa de login: você pode obter giros aleatórios, uma vez por dia；Recompensa online: você pode obter giros para completar o tempo online；Recompensa de aposta: Toda vez que você apostar uma certa quantidade de moedas, você receberá um giro；O número de giros não utilizados será redefinido às 24:00；</t>
+  </si>
+  <si>
+    <t>Récompense de connexion : vous pouvez obtenir des tours aléatoires, une fois par jour；Récompense en ligne : vous pouvez obtenir des tours pour avoir complété le temps en ligne；Récompense de pari : Chaque fois que vous misez un certain montant de pièces, vous obtenez un tour；Le nombre de tours inutilisés sera réinitialisé à 24:00；.</t>
+  </si>
+  <si>
+    <t>212001</t>
+  </si>
+  <si>
+    <t>客服</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Atención al cliente</t>
+  </si>
+  <si>
+    <t>Atendimento ao cliente</t>
+  </si>
+  <si>
+    <t>Service clientèle</t>
+  </si>
+  <si>
+    <t>212002</t>
+  </si>
+  <si>
+    <t>点击选择客服渠道</t>
+  </si>
+  <si>
+    <t>Click to select the service channel you want to consult</t>
+  </si>
+  <si>
+    <t>Haga clic para seleccionar el canal de servicio que desea consultar</t>
+  </si>
+  <si>
+    <t>Clique para selecionar o canal de serviço que você deseja consultar</t>
+  </si>
+  <si>
+    <t>Cliquez sur pour sélectionner le canal de service que vous souhaitez consulter</t>
+  </si>
+  <si>
+    <t>212003</t>
+  </si>
+  <si>
+    <t>在线客服</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>En línea</t>
+  </si>
+  <si>
+    <t>En ligne</t>
+  </si>
+  <si>
+    <t>212004</t>
+  </si>
+  <si>
+    <t>在viber上联系客服</t>
+  </si>
+  <si>
+    <t>Add customer service on Viber for consultation</t>
+  </si>
+  <si>
+    <t>Añade un servicio de atención al cliente en Viber para realizar consultas</t>
+  </si>
+  <si>
+    <t>Adicionar o serviço de atendimento ao cliente no Viber para consulta</t>
+  </si>
+  <si>
+    <t>Ajouter le service clientèle sur Viber pour une consultation</t>
+  </si>
+  <si>
+    <t>212005</t>
+  </si>
+  <si>
+    <t>复制图片</t>
+  </si>
+  <si>
+    <t>Copy Image</t>
+  </si>
+  <si>
+    <t>Copiar imagen</t>
+  </si>
+  <si>
+    <t>Copiar imagem</t>
+  </si>
+  <si>
+    <t>Copier l'image</t>
+  </si>
+  <si>
+    <t>212006</t>
+  </si>
+  <si>
+    <t>复制账号</t>
+  </si>
+  <si>
+    <t>Copy Account</t>
+  </si>
+  <si>
+    <t>Copiar cuenta</t>
+  </si>
+  <si>
+    <t>Copiar conta</t>
+  </si>
+  <si>
+    <t>Compte de copie</t>
+  </si>
+  <si>
+    <t>213001</t>
+  </si>
+  <si>
+    <t>紧急公告</t>
+  </si>
+  <si>
+    <t>Special Notice</t>
+  </si>
+  <si>
+    <t>Aviso especial</t>
+  </si>
+  <si>
+    <t>Avis spécial</t>
+  </si>
+  <si>
+    <t>213002</t>
+  </si>
+  <si>
+    <t>游戏公告</t>
+  </si>
+  <si>
+    <t>Game Notes</t>
+  </si>
+  <si>
+    <t>Notas de juego</t>
+  </si>
+  <si>
+    <t>Notas do jogo</t>
+  </si>
+  <si>
+    <t>Notes de match</t>
+  </si>
+  <si>
+    <t>213003</t>
+  </si>
+  <si>
+    <t>欢迎来到GTGAME！我们致力于创造最好完最有趣的真金赌场游戏！请阅读下方的提示，有任何问题请随时联系客服！</t>
+  </si>
+  <si>
+    <t>Welcome to GTGAME! We are dedicated to creating the best and most fun real money casino games!Please read the following tips and contact customer service any time with any questions!</t>
+  </si>
+  <si>
+    <t>¡Bienvenido a GTGAME! Nos dedicamos a crear los mejores y más divertidos juegos de casino con dinero real. Por favor, lea los siguientes consejos y póngase en contacto con el servicio de atención al cliente si tiene alguna pregunta.</t>
+  </si>
+  <si>
+    <t>Bem-vindo ao GTGAME! Nós nos dedicamos a criar os melhores e mais divertidos jogos de cassino com dinheiro real! Leia as dicas a seguir e entre em contato com o atendimento ao cliente sempre que tiver alguma dúvida!</t>
+  </si>
+  <si>
+    <t>Bienvenue sur GTGAME ! Nous sommes dédiés à la création des meilleurs et des plus amusants jeux de casino en argent réel ! Veuillez lire les conseils suivants et contacter le service clientèle à tout moment pour toute question !</t>
+  </si>
+  <si>
+    <t>213004</t>
+  </si>
+  <si>
+    <t>绑定你的手机</t>
+  </si>
+  <si>
+    <t>BIND  YOUR  PHONE</t>
+  </si>
+  <si>
+    <t>VINCULA TU TELÉFONO</t>
+  </si>
+  <si>
+    <t>VINCULAR SEU TELEFONE</t>
+  </si>
+  <si>
+    <t>LIER VOTRE TÉLÉPHONE</t>
+  </si>
+  <si>
+    <t>213005</t>
+  </si>
+  <si>
+    <t>获得5金币奖励</t>
+  </si>
+  <si>
+    <t>Get 5 gold reward after binding</t>
+  </si>
+  <si>
+    <t>Consigue 5 de oro de recompensa después de atar</t>
+  </si>
+  <si>
+    <t>Receber 5 prêmios de ouro após a vinculação</t>
+  </si>
+  <si>
+    <t>Obtenez une récompense de 5 pièces d'or après la liaison</t>
+  </si>
+  <si>
+    <t>213006</t>
+  </si>
+  <si>
+    <t>使用手机号登录已保护你的账号</t>
+  </si>
+  <si>
+    <t>Use phone number to login to avoid losing your account</t>
+  </si>
+  <si>
+    <t>Utiliza el número de teléfono para iniciar sesión y evitar perder tu cuenta</t>
+  </si>
+  <si>
+    <t>Use o número de telefone para fazer login e evitar a perda de sua conta</t>
+  </si>
+  <si>
+    <t>Utiliser le numéro de téléphone pour se connecter afin d'éviter de perdre son compte</t>
+  </si>
+  <si>
+    <t>213007</t>
+  </si>
+  <si>
+    <t>解锁更多使用的服务和功能</t>
+  </si>
+  <si>
+    <t>Unlock more useful function and service channels</t>
+  </si>
+  <si>
+    <t>Desbloquear canales de funciones y servicios más útiles</t>
+  </si>
+  <si>
+    <t>Desbloquear canais de serviços e funções mais úteis</t>
+  </si>
+  <si>
+    <t>Débloquer des fonctions et des canaux de service plus utiles</t>
+  </si>
+  <si>
+    <t>213008</t>
+  </si>
+  <si>
+    <t>213009</t>
+  </si>
+  <si>
+    <t>每日签到</t>
+  </si>
+  <si>
+    <t>Daily Login Reward</t>
+  </si>
+  <si>
+    <t>Recompensa por inicio de sesión diario</t>
+  </si>
+  <si>
+    <t>Recompensa de login diário</t>
+  </si>
+  <si>
+    <t>Récompense de connexion quotidienne</t>
+  </si>
+  <si>
+    <t>213010</t>
+  </si>
+  <si>
+    <t>登录游戏点击领取你的奖励</t>
+  </si>
+  <si>
+    <t>Log in and click to get your reward</t>
+  </si>
+  <si>
+    <t>Inicia sesión y haz clic para obtener tu recompensa</t>
+  </si>
+  <si>
+    <t>Faça login e clique para receber seu prêmio</t>
+  </si>
+  <si>
+    <t>Connectez-vous et cliquez pour obtenir votre récompense</t>
+  </si>
+  <si>
+    <t>213011</t>
+  </si>
+  <si>
+    <t>在幸运转盘使用转盘次数</t>
+  </si>
+  <si>
+    <t>Use the number of spins you get at the Lucky Spin</t>
+  </si>
+  <si>
+    <t>Utiliza el número de tiradas que consigas en el Lucky Spin</t>
+  </si>
+  <si>
+    <t>Use o número de giros que você recebe no Lucky Spin</t>
+  </si>
+  <si>
+    <t>Utilisez le nombre de tours que vous obtenez au Lucky Spin</t>
+  </si>
+  <si>
+    <t>213012</t>
+  </si>
+  <si>
+    <t>获得奖励</t>
+  </si>
+  <si>
+    <t>GET REWARD</t>
+  </si>
+  <si>
+    <t>OBTENER RECOMPENSA</t>
+  </si>
+  <si>
+    <t>OBTER RECOMPENSA</t>
+  </si>
+  <si>
+    <t>OBTENIR UNE RÉCOMPENSE</t>
+  </si>
+  <si>
+    <t>213013</t>
+  </si>
+  <si>
+    <t>213014</t>
+  </si>
+  <si>
+    <t>打码返利</t>
+  </si>
+  <si>
+    <t>Betting Reward</t>
+  </si>
+  <si>
+    <t>Recompensa de apuestas</t>
+  </si>
+  <si>
+    <t>Prêmio de apostas</t>
+  </si>
+  <si>
+    <t>Récompense pour les paris</t>
+  </si>
+  <si>
+    <t>213015</t>
+  </si>
+  <si>
+    <t>每日在游戏中下注获得免费金币返利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betting in the game to get free gold </t>
+  </si>
+  <si>
+    <t>Apostar en el juego para conseguir oro gratis</t>
+  </si>
+  <si>
+    <t>Apostar no jogo para obter ouro grátis</t>
+  </si>
+  <si>
+    <t>Parier dans le jeu pour obtenir de l'or gratuit</t>
+  </si>
+  <si>
+    <t>213016</t>
+  </si>
+  <si>
+    <t>213017</t>
+  </si>
+  <si>
+    <t>Recharge Rebate</t>
+  </si>
+  <si>
+    <t>Reembolso por recarga</t>
+  </si>
+  <si>
+    <t>Desconto de recarga</t>
+  </si>
+  <si>
+    <t>Remboursement de la recharge</t>
+  </si>
+  <si>
+    <t>213018</t>
+  </si>
+  <si>
+    <t>充值达到500获得40金币</t>
+  </si>
+  <si>
+    <t>Recharge up to 500PHP to get 40 gold rebate</t>
+  </si>
+  <si>
+    <t>Recarga hasta 500PHP para obtener 40 de oro de reembolso</t>
+  </si>
+  <si>
+    <t>Recarregue até 500PHP para obter um desconto de 40 gold</t>
+  </si>
+  <si>
+    <t>Rechargez jusqu'à 500PHP pour bénéficier d'une remise de 40 or</t>
+  </si>
+  <si>
+    <t>213019</t>
+  </si>
+  <si>
+    <t>充值达到2000获得200金币</t>
+  </si>
+  <si>
+    <t>2000PHP to get 200 gold rebate</t>
+  </si>
+  <si>
+    <t>2000PHP para obtener 200 de reembolso de oro</t>
+  </si>
+  <si>
+    <t>2000PHP para obter 200 de desconto em ouro</t>
+  </si>
+  <si>
+    <t>2000PHP pour obtenir une remise de 200 or</t>
+  </si>
+  <si>
+    <t>213020</t>
+  </si>
+  <si>
+    <t>充值达到10000获得1000金币</t>
+  </si>
+  <si>
+    <t>10000PHP to get 1000 gold rebate</t>
+  </si>
+  <si>
+    <t>10000PHP para obtener 1000 de oro de reembolso</t>
+  </si>
+  <si>
+    <t>10000PHP para obter 1000 descontos em ouro</t>
+  </si>
+  <si>
+    <t>10000PHP pour obtenir une remise de 1000 or</t>
+  </si>
+  <si>
+    <t>213021</t>
+  </si>
+  <si>
+    <t>213022</t>
+  </si>
+  <si>
+    <t>RECHARGE</t>
+  </si>
+  <si>
+    <t>RECARGA</t>
+  </si>
+  <si>
+    <t>RECARREGAR</t>
+  </si>
+  <si>
+    <t>213023</t>
+  </si>
+  <si>
+    <t>Share &amp; Agent</t>
+  </si>
+  <si>
+    <t>Compartir y agente</t>
+  </si>
+  <si>
+    <t>Compartilhar e agente</t>
+  </si>
+  <si>
+    <t>Action et agent</t>
+  </si>
+  <si>
+    <t>213024</t>
+  </si>
+  <si>
+    <t>每邀请一个用户获得一笔免费金币</t>
+  </si>
+  <si>
+    <t>Get one free gold for each friend you invite</t>
+  </si>
+  <si>
+    <t>Consigue un oro gratis por cada amigo que invites</t>
+  </si>
+  <si>
+    <t>Ganhe um ouro grátis para cada amigo que você convidar</t>
+  </si>
+  <si>
+    <t>Obtenez un or gratuit pour chaque ami que vous invitez</t>
+  </si>
+  <si>
+    <t>213025</t>
+  </si>
+  <si>
+    <t>你邀请的用户每充值500PHP你将获得3%的返利金币</t>
+  </si>
+  <si>
+    <t>You will get 3% rebate for every 500 PHP recharge of your invited friends</t>
+  </si>
+  <si>
+    <t>Obtendrás un 3% de reembolso por cada recarga de 500 PHP de tus amigos invitados</t>
+  </si>
+  <si>
+    <t>Você receberá um desconto de 3% para cada recarga de 500 PHP de seus amigos convidados</t>
+  </si>
+  <si>
+    <t>Vous obtiendrez 3 % de rabais pour chaque recharge de 500 PHP de vos amis invités.</t>
+  </si>
+  <si>
+    <t>213026</t>
+  </si>
+  <si>
+    <t>你邀请的用户再邀请的玩家每充值500PHP你将获得1.5%的返利金币</t>
+  </si>
+  <si>
+    <t>You will get 1.5% rebate for every 500 PHP recharge of your invited friend's invited friend</t>
+  </si>
+  <si>
+    <t>Obtendrás un 1,5% de reembolso por cada recarga de 500 PHP del amigo invitado de tu amigo invitado</t>
+  </si>
+  <si>
+    <t>Você receberá 1,5% de desconto para cada recarga de 500 PHP do amigo convidado do seu amigo convidado</t>
+  </si>
+  <si>
+    <t>Vous obtiendrez 1,5 % de réduction pour chaque recharge de 500 PHP de l'ami invité de votre ami invité.</t>
+  </si>
+  <si>
+    <t>213027</t>
+  </si>
+  <si>
+    <t>前往邀请</t>
+  </si>
+  <si>
+    <t>GO TO SHARE</t>
+  </si>
+  <si>
+    <t>IR A COMPARTIR</t>
+  </si>
+  <si>
+    <t>IR PARA COMPARTILHAR</t>
+  </si>
+  <si>
+    <t>ALLER A L'ACTION</t>
+  </si>
+  <si>
+    <t>214001</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>ATIVIDADE</t>
+  </si>
+  <si>
+    <t>ACTIVITÉ</t>
+  </si>
+  <si>
+    <t>214002</t>
+  </si>
+  <si>
+    <t>Login Reward</t>
+  </si>
+  <si>
+    <t>Recompensa por inicio de sesión</t>
+  </si>
+  <si>
+    <t>Prêmio de login</t>
+  </si>
+  <si>
+    <t>Récompense de connexion</t>
+  </si>
+  <si>
+    <t>214003</t>
+  </si>
+  <si>
+    <t>Online Reward</t>
+  </si>
+  <si>
+    <t>Recompensa en línea</t>
+  </si>
+  <si>
+    <t>Prêmio on-line</t>
+  </si>
+  <si>
+    <t>Récompense en ligne</t>
+  </si>
+  <si>
+    <t>214004</t>
+  </si>
+  <si>
+    <t>214005</t>
+  </si>
+  <si>
+    <t>214006</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>DÍA</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>JOUR</t>
+  </si>
+  <si>
+    <t>214007</t>
+  </si>
+  <si>
+    <t>完成7日后活动重置</t>
+  </si>
+  <si>
+    <t>Every 7 days event reset</t>
+  </si>
+  <si>
+    <t>Restablecimiento de eventos cada 7 días</t>
+  </si>
+  <si>
+    <t>Reinicialização do evento a cada 7 dias</t>
+  </si>
+  <si>
+    <t>Tous les 7 jours, réinitialisation de l'événement</t>
+  </si>
+  <si>
+    <t>214008</t>
+  </si>
+  <si>
+    <t>未领取的奖励不会保留至下次重置</t>
+  </si>
+  <si>
+    <t>uncollected rewards will not be available until the next reset</t>
+  </si>
+  <si>
+    <t>las recompensas no cobradas no estarán disponibles hasta el próximo reinicio</t>
+  </si>
+  <si>
+    <t>as recompensas não coletadas não estarão disponíveis até a próxima reinicialização</t>
+  </si>
+  <si>
+    <t>les récompenses non collectées ne seront pas disponibles avant la prochaine réinitialisation</t>
+  </si>
+  <si>
+    <t>214009</t>
+  </si>
+  <si>
+    <t>在线30分钟可领取奖励</t>
+  </si>
+  <si>
+    <t>get rewards by online 30 minutes</t>
+  </si>
+  <si>
+    <t>obtenga recompensas por 30 minutos en línea</t>
+  </si>
+  <si>
+    <t>Receba prêmios por 30 minutos on-line</t>
+  </si>
+  <si>
+    <t>obtenir des récompenses en ligne 30 minutes</t>
+  </si>
+  <si>
+    <t>214010</t>
+  </si>
+  <si>
+    <t>在线60分钟并任意充值可领取</t>
+  </si>
+  <si>
+    <t>get rewards by online 60 minutes and any recharge</t>
+  </si>
+  <si>
+    <t>obtenga recompensas por 60 minutos en línea y cualquier recarga</t>
+  </si>
+  <si>
+    <t>ganhe prêmios por 60 minutos on-line e qualquer recarga</t>
+  </si>
+  <si>
+    <t>obtenez des récompenses en ligne 60 minutes et n'importe quelle recharge</t>
+  </si>
+  <si>
+    <t>214011</t>
+  </si>
+  <si>
+    <t>在线120分钟并任意充值可领取</t>
+  </si>
+  <si>
+    <t>get rewards by online 120 minutes and any recharge</t>
+  </si>
+  <si>
+    <t>obtén recompensas por 120 minutos online y cualquier recarga</t>
+  </si>
+  <si>
+    <t>receba prêmios por 120 minutos on-line e qualquer recarga</t>
+  </si>
+  <si>
+    <t>obtenez des récompenses en ligne 120 minutes et n'importe quelle recharge</t>
+  </si>
+  <si>
+    <t>214012</t>
+  </si>
+  <si>
+    <t>满足在线时长可领取在线奖励。每日充值可解锁更多在线奖励。活动每天24：00重置。</t>
+  </si>
+  <si>
+    <t>Online rewards can be received if the daily online time accumulation meets the requirements. Complete today's recharge to unlock and receive more online rewards. Reward reset at 24:00 every day.</t>
+  </si>
+  <si>
+    <t>Las recompensas en línea se pueden recibir si la acumulación diaria de tiempo en línea cumple los requisitos. Completa la recarga de hoy para desbloquear y recibir más recompensas en línea. Las recompensas se reinician a las 24:00 todos los días.</t>
+  </si>
+  <si>
+    <t>As recompensas on-line podem ser recebidas se o acúmulo diário de tempo on-line atender aos requisitos. Complete a recarga de hoje para desbloquear e receber mais recompensas on-line. Os prêmios são redefinidos às 24:00 todos os dias.</t>
+  </si>
+  <si>
+    <t>Les récompenses en ligne peuvent être reçues si le temps en ligne accumulé quotidiennement remplit les conditions requises. Terminez la recharge d'aujourd'hui pour débloquer et recevoir plus de récompenses en ligne. Les récompenses sont réinitialisées à 24h00 tous les jours.</t>
+  </si>
+  <si>
+    <t>214013</t>
+  </si>
+  <si>
+    <t>倒计时</t>
+  </si>
+  <si>
+    <t>214014</t>
+  </si>
+  <si>
+    <t>重置</t>
+  </si>
+  <si>
+    <t>214015</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>Recoger</t>
+  </si>
+  <si>
+    <t>Coletar</t>
+  </si>
+  <si>
+    <t>Collecter</t>
+  </si>
+  <si>
+    <t>214016</t>
+  </si>
+  <si>
+    <t>已领取</t>
+  </si>
+  <si>
+    <t>Collected</t>
+  </si>
+  <si>
+    <t>Recopilado</t>
+  </si>
+  <si>
+    <t>Coletânea</t>
+  </si>
+  <si>
+    <t>Recueil</t>
+  </si>
+  <si>
+    <t>214017</t>
+  </si>
+  <si>
+    <t>今日充值</t>
+  </si>
+  <si>
+    <t>Today Recharge</t>
+  </si>
+  <si>
+    <t>Hoy Recarga</t>
+  </si>
+  <si>
+    <t>Recarga de hoje</t>
+  </si>
+  <si>
+    <t>Recharge aujourd'hui</t>
+  </si>
+  <si>
+    <t>214018</t>
+  </si>
+  <si>
+    <t>每日充值达到任务数额即可获得奖励。已充值的金额不会累计到下一天。每日24:00后任务刷新，可再次充值领取奖励</t>
+  </si>
+  <si>
+    <t>You will be rewarded for daily recharge up to the task amount.The recharged amounts will not accumulate to the next day.After 24:00 every day, you can recharge again to receive the reward.</t>
+  </si>
+  <si>
+    <t>Se le recompensará por la recarga diaria hasta el importe de la tarea.Los importes recargados no se acumularán al día siguiente.Después de las 24:00 de cada día, puede recargar de nuevo para recibir la recompensa.</t>
+  </si>
+  <si>
+    <t>Você será recompensado pela recarga diária até o valor da tarefa. Os valores recarregados não serão acumulados para o dia seguinte. Após as 24 horas de cada dia, você poderá recarregar novamente para receber a recompensa.</t>
+  </si>
+  <si>
+    <t>Les montants rechargés ne seront pas cumulés pour le jour suivant. Après 24:00 chaque jour, vous pouvez recharger à nouveau pour recevoir la récompense.</t>
+  </si>
+  <si>
+    <t>214019</t>
+  </si>
+  <si>
+    <t>今日下注</t>
+  </si>
+  <si>
+    <t>Today's bets</t>
+  </si>
+  <si>
+    <t>Apuestas de hoy</t>
+  </si>
+  <si>
+    <t>Apostas de hoje</t>
+  </si>
+  <si>
+    <t>Les paris du jour</t>
+  </si>
+  <si>
+    <t>214020</t>
+  </si>
+  <si>
+    <t>需要再下注【】获得奖励</t>
+  </si>
+  <si>
+    <t>Need to bet [] more to receive awards</t>
+  </si>
+  <si>
+    <t>Necesita apostar [] más para recibir premios</t>
+  </si>
+  <si>
+    <t>Precisa apostar [] mais para receber prêmios</t>
+  </si>
+  <si>
+    <t>Il faut miser [] de plus pour recevoir des récompenses</t>
+  </si>
+  <si>
+    <t>214021</t>
+  </si>
+  <si>
+    <t>前往游戏</t>
+  </si>
+  <si>
+    <t>GO TO PLAY</t>
+  </si>
+  <si>
+    <t>IR A JUGAR</t>
+  </si>
+  <si>
+    <t>IR AO JOGO</t>
+  </si>
+  <si>
+    <t>ALLER AU JEU</t>
+  </si>
+  <si>
+    <t>214022</t>
+  </si>
+  <si>
+    <t>每在游戏中下注1000金币你将获得一次转盘转动机会。每日不限完成次数。每日24：00活动重置，未领取的次数将清零。</t>
+  </si>
+  <si>
+    <t>You can receive one spin for every 1000 total bets placed in all games.You can collect multiple times per day.Current progress will be reset at 24:00 every day. Unclaimed rewards will be recycled.</t>
+  </si>
+  <si>
+    <t>Puedes recibir una tirada por cada 1000 apuestas totales realizadas en todos los juegos.Puedes cobrar varias veces al día.El progreso actual se reiniciará a las 24:00 de cada día. Las recompensas no reclamadas serán recicladas.</t>
+  </si>
+  <si>
+    <t>Você pode receber uma rodada para cada 1.000 apostas totais feitas em todos os jogos. Você pode coletar várias vezes por dia. O progresso atual será redefinido às 24:00 todos os dias. Os prêmios não reclamados serão reciclados.</t>
+  </si>
+  <si>
+    <t>Vous pouvez recevoir un tour pour chaque 1000 mises totales placées dans tous les jeux.Vous pouvez collecter plusieurs fois par jour.La progression actuelle sera réinitialisée à 24:00 tous les jours. Les récompenses non réclamées seront recyclées.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +4050,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +4071,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -743,10 +4572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,34 +4584,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,121 +4620,130 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1258,26 +5093,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,79 +5137,84 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="L1" s="2"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" s="3"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1383,18 +5223,18 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1403,18 +5243,18 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="189" spans="2:9">
       <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1423,18 +5263,18 @@
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:9">
       <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1443,18 +5283,18 @@
       <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1463,18 +5303,18 @@
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="2:9">
       <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1483,17 +5323,5161 @@
       <c r="F9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="2:9">
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="2:9">
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="2:9">
+      <c r="B26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="2:9">
+      <c r="B29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="2:9">
+      <c r="B30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" ht="135" spans="2:9">
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="2:9">
+      <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" ht="67.5" spans="2:9">
+      <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" ht="54" spans="2:9">
+      <c r="B34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" ht="67.5" spans="2:9">
+      <c r="B35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="2:9">
+      <c r="B36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="2:9">
+      <c r="B37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" ht="54" spans="2:9">
+      <c r="B38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="2:9">
+      <c r="B39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="2:9">
+      <c r="B40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="2:9">
+      <c r="B41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" ht="27" spans="2:9">
+      <c r="B54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" ht="27" spans="2:9">
+      <c r="B81" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="2:9">
+      <c r="B82" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" ht="27" spans="2:9">
+      <c r="B83" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" ht="27" spans="2:9">
+      <c r="B84" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" ht="40.5" spans="2:9">
+      <c r="B85" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" ht="27" spans="2:9">
+      <c r="B86" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" ht="27" spans="2:9">
+      <c r="B87" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" ht="27" spans="2:9">
+      <c r="B88" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="2:9">
+      <c r="B89" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="2:9">
+      <c r="B90" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" ht="27" spans="2:9">
+      <c r="B91" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="92" ht="27" spans="2:9">
+      <c r="B92" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="93" ht="27" spans="2:9">
+      <c r="B93" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="2:9">
+      <c r="B94" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="2:9">
+      <c r="B95" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="2:9">
+      <c r="B96" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" ht="27" spans="2:9">
+      <c r="B97" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" ht="27" spans="2:9">
+      <c r="B98" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="2:9">
+      <c r="B99" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="2:9">
+      <c r="B100" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" ht="27" spans="2:9">
+      <c r="B101" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="2:9">
+      <c r="B102" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="103" ht="27" spans="2:9">
+      <c r="B103" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="104" ht="27" spans="2:9">
+      <c r="B104" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="105" ht="27" spans="2:9">
+      <c r="B105" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="106" ht="27" spans="2:9">
+      <c r="B106" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="107" ht="27" spans="2:9">
+      <c r="B107" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108" ht="27" spans="2:9">
+      <c r="B108" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="109" ht="297" spans="2:9">
+      <c r="B109" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
+      <c r="B110" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
+      <c r="B111" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="125" ht="27" spans="2:9">
+      <c r="B125" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="2:9">
+      <c r="B128" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="129" ht="27" spans="2:9">
+      <c r="B129" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
+      <c r="B144" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="149" ht="27" spans="2:9">
+      <c r="B149" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
+      <c r="B150" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
+      <c r="B157" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9">
+      <c r="B158" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="B159" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="B161" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9">
+      <c r="B162" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="163" ht="27" spans="2:9">
+      <c r="B163" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9">
+      <c r="B164" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9">
+      <c r="B165" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9">
+      <c r="B166" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="167" ht="27" spans="2:9">
+      <c r="B167" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="168" ht="27" spans="2:9">
+      <c r="B168" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9">
+      <c r="B169" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9">
+      <c r="B170" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="171" ht="27" spans="2:9">
+      <c r="B171" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="172" ht="27" spans="2:9">
+      <c r="B172" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="B173" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="B174" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="B175" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9">
+      <c r="B176" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9">
+      <c r="B177" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="178" ht="40.5" spans="2:9">
+      <c r="B178" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="179" ht="27" spans="2:9">
+      <c r="B179" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" ht="40.5" spans="2:9">
+      <c r="B180" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="181" ht="148.5" spans="2:9">
+      <c r="B181" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="183" ht="135" spans="2:9">
+      <c r="B183" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="184" ht="27" spans="2:9">
+      <c r="B184" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185" ht="27" spans="2:9">
+      <c r="B185" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="186" ht="27" spans="2:9">
+      <c r="B186" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="187" ht="27" spans="2:9">
+      <c r="B187" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="188" ht="27" spans="2:9">
+      <c r="B188" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="189" ht="27" spans="2:9">
+      <c r="B189" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="190" ht="27" spans="2:9">
+      <c r="B190" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="191" ht="27" spans="2:9">
+      <c r="B191" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" ht="27" spans="2:9">
+      <c r="B192" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="193" ht="40.5" spans="2:9">
+      <c r="B193" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="194" ht="229.5" spans="2:9">
+      <c r="B194" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="B195" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9">
+      <c r="B196" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="197" ht="27" spans="2:9">
+      <c r="B197" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9">
+      <c r="B198" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9">
+      <c r="B199" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9">
+      <c r="B200" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9">
+      <c r="B201" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="202" ht="27" spans="2:9">
+      <c r="B202" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I202" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9">
+      <c r="B203" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I203" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="204" ht="27" spans="2:9">
+      <c r="B204" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I204" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="205" ht="27" spans="2:9">
+      <c r="B205" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="206" ht="40.5" spans="2:9">
+      <c r="B206" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="207" ht="297" spans="2:9">
+      <c r="B207" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9">
+      <c r="B208" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="209" ht="54" spans="2:9">
+      <c r="B209" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9">
+      <c r="B210" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="211" ht="54" spans="2:9">
+      <c r="B211" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9">
+      <c r="B212" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
+      <c r="B213" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9">
+      <c r="B214" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="B215" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="216" ht="162" spans="2:9">
+      <c r="B216" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
+      <c r="B217" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="218" ht="40.5" spans="2:9">
+      <c r="B218" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="219" ht="54" spans="2:9">
+      <c r="B219" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="220" ht="40.5" spans="2:9">
+      <c r="B220" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="B221" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" ht="27" spans="2:9">
+      <c r="B222" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="223" ht="40.5" spans="2:9">
+      <c r="B223" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="224" ht="40.5" spans="2:9">
+      <c r="B224" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="B225" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9">
+      <c r="B226" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="B227" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="228" ht="40.5" spans="2:9">
+      <c r="B228" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9">
+      <c r="B229" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="230" ht="27" spans="2:9">
+      <c r="B230" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="231" ht="40.5" spans="2:9">
+      <c r="B231" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="232" ht="40.5" spans="2:9">
+      <c r="B232" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="233" ht="40.5" spans="2:9">
+      <c r="B233" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9">
+      <c r="B235" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9">
+      <c r="B236" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I236" s="4" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="237" ht="40.5" spans="2:9">
+      <c r="B237" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="238" ht="67.5" spans="2:9">
+      <c r="B238" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="239" ht="67.5" spans="2:9">
+      <c r="B239" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="B240" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9">
+      <c r="B241" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="242" ht="27" spans="2:9">
+      <c r="B242" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9">
+      <c r="B243" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9">
+      <c r="B244" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="B245" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="B246" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="247" ht="40.5" spans="2:9">
+      <c r="B247" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G247" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H247" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="248" ht="67.5" spans="2:9">
+      <c r="B248" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="249" ht="40.5" spans="2:9">
+      <c r="B249" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="250" ht="54" spans="2:9">
+      <c r="B250" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="251" ht="40.5" spans="2:9">
+      <c r="B251" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H251" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="252" ht="175.5" spans="2:9">
+      <c r="B252" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H252" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="B253" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9">
+      <c r="B254" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9">
+      <c r="B255" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9">
+      <c r="B256" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H256" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9">
+      <c r="B257" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G257" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="258" ht="148.5" spans="2:9">
+      <c r="B258" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H258" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9">
+      <c r="B259" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H259" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="260" ht="40.5" spans="2:9">
+      <c r="B260" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H260" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9">
+      <c r="B261" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H261" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="262" ht="162" spans="2:9">
+      <c r="B262" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H262" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I262" s="4" t="s">
+        <v>1327</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -63,10 +63,10 @@
     <t>french</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Bahasa Melayu</t>
+    <t>indonesian</t>
+  </si>
+  <si>
+    <t>malay</t>
   </si>
   <si>
     <t>##type</t>
@@ -8442,8 +8442,8 @@
   <sheetPr/>
   <dimension ref="A1:N342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9746,7 +9746,6 @@
       <c r="B49" s="12">
         <v>104007</v>
       </c>
-      <c r="C49" s="2"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="13" t="s">
@@ -9761,7 +9760,6 @@
       <c r="B50" s="12">
         <v>104008</v>
       </c>
-      <c r="C50" s="2"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="13" t="s">
@@ -15659,7 +15657,6 @@
       <c r="B278" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="C278" s="1"/>
       <c r="D278" s="23"/>
       <c r="E278" s="1" t="s">
         <v>1800</v>
@@ -15681,7 +15678,6 @@
       <c r="B279" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="C279" s="1"/>
       <c r="D279" s="23"/>
       <c r="E279" s="1" t="s">
         <v>1806</v>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="11790"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7767" uniqueCount="6670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="7145">
   <si>
     <t>##var</t>
   </si>
@@ -20898,6 +20898,1440 @@
   </si>
   <si>
     <t>Semua grafik perlu berada dalam mana-mana baris dalam tertib kiri ke kanan dari corak kedudukan pertama berturut-turut untuk mendapatkan hadiah yang sepadan</t>
+  </si>
+  <si>
+    <t>366001</t>
+  </si>
+  <si>
+    <t>{} 局未出</t>
+  </si>
+  <si>
+    <t>{} Round no open</t>
+  </si>
+  <si>
+    <t>{} Rodada não aberta</t>
+  </si>
+  <si>
+    <t>{} Putaran tidak terbuka</t>
+  </si>
+  <si>
+    <t>366002</t>
+  </si>
+  <si>
+    <t>牛仔赢</t>
+  </si>
+  <si>
+    <t>COWBOY WIN</t>
+  </si>
+  <si>
+    <t>Vitória do Cowboy</t>
+  </si>
+  <si>
+    <t>Koboi Menang</t>
+  </si>
+  <si>
+    <t>366003</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>TIE</t>
+  </si>
+  <si>
+    <t>EMPATE</t>
+  </si>
+  <si>
+    <t>DASI</t>
+  </si>
+  <si>
+    <t>366004</t>
+  </si>
+  <si>
+    <t>公牛赢</t>
+  </si>
+  <si>
+    <t>BULL WIN</t>
+  </si>
+  <si>
+    <t>Vitória do touro</t>
+  </si>
+  <si>
+    <t>Banteng Menang</t>
+  </si>
+  <si>
+    <t>366005</t>
+  </si>
+  <si>
+    <t>同花/连牌/同花连牌</t>
+  </si>
+  <si>
+    <t>SUITED/CONNECTORS/\n DRAW HAND</t>
+  </si>
+  <si>
+    <t>Suited/Conectores/\nDraw Hand</t>
+  </si>
+  <si>
+    <t>Cocok/Konkuren/\nGambar Tangan</t>
+  </si>
+  <si>
+    <t>366006</t>
+  </si>
+  <si>
+    <t>高牌/一对</t>
+  </si>
+  <si>
+    <t>HIGH/PAIR</t>
+  </si>
+  <si>
+    <t>Alto/Par</t>
+  </si>
+  <si>
+    <t>Tinggi/Pasangan</t>
+  </si>
+  <si>
+    <t>366007</t>
+  </si>
+  <si>
+    <t>两对</t>
+  </si>
+  <si>
+    <t>TWO PAIR</t>
+  </si>
+  <si>
+    <t>Dois pares</t>
+  </si>
+  <si>
+    <t>Dua Pasang</t>
+  </si>
+  <si>
+    <t>366008</t>
+  </si>
+  <si>
+    <t>对子</t>
+  </si>
+  <si>
+    <t>PAIR</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Pasangan</t>
+  </si>
+  <si>
+    <t>366009</t>
+  </si>
+  <si>
+    <t>对A</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>366010</t>
+  </si>
+  <si>
+    <t>三条/顺子/同花</t>
+  </si>
+  <si>
+    <t>THREE/STRAIGHT/\n Flush</t>
+  </si>
+  <si>
+    <t>Três/Reta/\nFlush</t>
+  </si>
+  <si>
+    <t>Tiga/Lurus/\nFlush</t>
+  </si>
+  <si>
+    <t>366011</t>
+  </si>
+  <si>
+    <t>葫芦</t>
+  </si>
+  <si>
+    <t>FULL HOUSE</t>
+  </si>
+  <si>
+    <t>Full House</t>
+  </si>
+  <si>
+    <t>Rumah Penuh</t>
+  </si>
+  <si>
+    <t>366012</t>
+  </si>
+  <si>
+    <t>金刚/同花顺/皇同</t>
+  </si>
+  <si>
+    <t>FOUR/STRAIGHT\n Flush/ROYAL FLUSH</t>
+  </si>
+  <si>
+    <t>Quatro/ Reta\nFlush/Royal Flush</t>
+  </si>
+  <si>
+    <t>Empat/Straight Flush/Royal Flush</t>
+  </si>
+  <si>
+    <t>Empat/Straight Flush/ Royal Flush</t>
+  </si>
+  <si>
+    <t>366013</t>
+  </si>
+  <si>
+    <t>续投</t>
+  </si>
+  <si>
+    <t>Re bet</t>
+  </si>
+  <si>
+    <t>Rebote</t>
+  </si>
+  <si>
+    <t>Rebet</t>
+  </si>
+  <si>
+    <t>366014</t>
+  </si>
+  <si>
+    <t>清屏</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Limpo</t>
+  </si>
+  <si>
+    <t>Bersih</t>
+  </si>
+  <si>
+    <t>366015</t>
+  </si>
+  <si>
+    <t>大富豪NO.1</t>
+  </si>
+  <si>
+    <t>RICH NO.1</t>
+  </si>
+  <si>
+    <t>Rico NO.1</t>
+  </si>
+  <si>
+    <t>Kaya NO.1</t>
+  </si>
+  <si>
+    <t>366016</t>
+  </si>
+  <si>
+    <t>神算子</t>
+  </si>
+  <si>
+    <t>SHARK</t>
+  </si>
+  <si>
+    <t>Hiu</t>
+  </si>
+  <si>
+    <t>366017</t>
+  </si>
+  <si>
+    <t>皇同</t>
+  </si>
+  <si>
+    <t>ROYAL FLUSH</t>
+  </si>
+  <si>
+    <t>Royal Flush</t>
+  </si>
+  <si>
+    <t>366018</t>
+  </si>
+  <si>
+    <t>同花顺</t>
+  </si>
+  <si>
+    <t>STRAIGHT FLUSH</t>
+  </si>
+  <si>
+    <t>Straight Flush</t>
+  </si>
+  <si>
+    <t>Siram Lurus</t>
+  </si>
+  <si>
+    <t>366019</t>
+  </si>
+  <si>
+    <t>金刚</t>
+  </si>
+  <si>
+    <t>FOUR OF A KIND</t>
+  </si>
+  <si>
+    <t>Quadra</t>
+  </si>
+  <si>
+    <t>Empat dari jenis</t>
+  </si>
+  <si>
+    <t>366020</t>
+  </si>
+  <si>
+    <t>366021</t>
+  </si>
+  <si>
+    <t>同花</t>
+  </si>
+  <si>
+    <t>FLUSH</t>
+  </si>
+  <si>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>Siram</t>
+  </si>
+  <si>
+    <t>366022</t>
+  </si>
+  <si>
+    <t>顺子</t>
+  </si>
+  <si>
+    <t>STRAIGHT</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>Lurus</t>
+  </si>
+  <si>
+    <t>366023</t>
+  </si>
+  <si>
+    <t>三条</t>
+  </si>
+  <si>
+    <t>THREE OF A KIND</t>
+  </si>
+  <si>
+    <t>Trinca</t>
+  </si>
+  <si>
+    <t>Tiga dari jenis</t>
+  </si>
+  <si>
+    <t>366024</t>
+  </si>
+  <si>
+    <t>Dua pasang</t>
+  </si>
+  <si>
+    <t>366025</t>
+  </si>
+  <si>
+    <t>366026</t>
+  </si>
+  <si>
+    <t>高牌</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>366027</t>
+  </si>
+  <si>
+    <t>366028</t>
+  </si>
+  <si>
+    <t>大路：</t>
+  </si>
+  <si>
+    <t>Road:</t>
+  </si>
+  <si>
+    <t>Estrada:</t>
+  </si>
+  <si>
+    <t>Jalan:</t>
+  </si>
+  <si>
+    <t>366029</t>
+  </si>
+  <si>
+    <t>大路是一个6行的多列网格状图，记录时红圈代表牛仔胜，蓝圈代表公牛胜，所以大路会是红蓝圈交替的列。</t>
+  </si>
+  <si>
+    <t>Road is a multi-column grid-like chart with 6 rows,For the record,the red circle means cowboy wins and the blue circle means bull wins, so Road will be a column with alternating red and blue circles.</t>
+  </si>
+  <si>
+    <t>Road é um gráfico em forma de grade com várias colunas e 6 linhas. Para fins de registro, o círculo vermelho significa que o cowboy vence e o círculo azul significa que o touro vence, portanto Road será uma coluna com círculos vermelhos e azuis alternados.</t>
+  </si>
+  <si>
+    <t>Road adalah bagan seperti kisi-kisi multi-kolom dengan 6 baris, Sebagai catatan, lingkaran merah berarti koboi menang dan lingkaran biru berarti banteng menang, jadi Road akan menjadi kolom dengan lingkaran merah dan biru bergantian.</t>
+  </si>
+  <si>
+    <t>366030</t>
+  </si>
+  <si>
+    <t>珠盘路：</t>
+  </si>
+  <si>
+    <t>Pearls:</t>
+  </si>
+  <si>
+    <t>pérolas:</t>
+  </si>
+  <si>
+    <t>Mutiara:</t>
+  </si>
+  <si>
+    <t>366031</t>
+  </si>
+  <si>
+    <t>珠盘路也是一列中有6格的多列网格状图，红圈同样代表牛仔胜，蓝圈代表公牛胜，珠盘使用的标记是实心圆，上面叠加着一个代表结果的文字。</t>
+  </si>
+  <si>
+    <t>Pearls is a multi-column grid with 6 cells in a column, with the red circle representing a Cowboy win and the blue circle representing a Bull win, Pearls uses a solid circle with a text showing the result.</t>
+  </si>
+  <si>
+    <t>Pearls é uma grade de várias colunas com 6 células em uma coluna, com o círculo vermelho representando uma vitória de Cowboy e o círculo azul representando uma vitória de Touro, Pearls usa um círculo sólido com um texto mostrando o resultado.</t>
+  </si>
+  <si>
+    <t>Mutiara adalah kisi multi-kolom dengan 6 sel dalam satu kolom, dengan lingkaran merah mewakili kemenangan Koboi dan lingkaran biru mewakili kemenangan Banteng, Mutiara menggunakan lingkaran padat dengan teks yang menunjukkan hasilnya.</t>
+  </si>
+  <si>
+    <t>366032</t>
+  </si>
+  <si>
+    <t>近1000局数据</t>
+  </si>
+  <si>
+    <t>Last 1000 Round Data</t>
+  </si>
+  <si>
+    <t>dados das últimas 1000 rodadas</t>
+  </si>
+  <si>
+    <t>data 1000 putaran terakhir</t>
+  </si>
+  <si>
+    <t>366033</t>
+  </si>
+  <si>
+    <t>近1000局统计</t>
+  </si>
+  <si>
+    <t>Last 1000 Round Count</t>
+  </si>
+  <si>
+    <t>contagem das últimas 1000 rodadas</t>
+  </si>
+  <si>
+    <t>hitungan 1000 putaran terakhir</t>
+  </si>
+  <si>
+    <t>366034</t>
+  </si>
+  <si>
+    <t>胜负</t>
+  </si>
+  <si>
+    <t>WIN &amp; LOSS</t>
+  </si>
+  <si>
+    <t>vitórias e derrotas</t>
+  </si>
+  <si>
+    <t>menang &amp; kalah</t>
+  </si>
+  <si>
+    <t>366035</t>
+  </si>
+  <si>
+    <t>手牌</t>
+  </si>
+  <si>
+    <t>HAND</t>
+  </si>
+  <si>
+    <t>mão</t>
+  </si>
+  <si>
+    <t>tangan</t>
+  </si>
+  <si>
+    <t>366036</t>
+  </si>
+  <si>
+    <t>获胜牌型</t>
+  </si>
+  <si>
+    <t>WINNING HAND</t>
+  </si>
+  <si>
+    <t>mão vencedora</t>
+  </si>
+  <si>
+    <t>tangan yang menang</t>
+  </si>
+  <si>
+    <t>366037</t>
+  </si>
+  <si>
+    <t>牛仔赢:</t>
+  </si>
+  <si>
+    <t>COWBOY WIN:</t>
+  </si>
+  <si>
+    <t>vitória do cowboy:</t>
+  </si>
+  <si>
+    <t>kemenangan koboi:</t>
+  </si>
+  <si>
+    <t>366038</t>
+  </si>
+  <si>
+    <t>公牛赢:</t>
+  </si>
+  <si>
+    <t>BULL WIN:</t>
+  </si>
+  <si>
+    <t>vitória do touro:</t>
+  </si>
+  <si>
+    <t>kemenangan banteng:</t>
+  </si>
+  <si>
+    <t>366039</t>
+  </si>
+  <si>
+    <t>平:</t>
+  </si>
+  <si>
+    <t>TIE:</t>
+  </si>
+  <si>
+    <t>empate:</t>
+  </si>
+  <si>
+    <t>dasi</t>
+  </si>
+  <si>
+    <t>366040</t>
+  </si>
+  <si>
+    <t>对子:</t>
+  </si>
+  <si>
+    <t>PAIR:</t>
+  </si>
+  <si>
+    <t>par:</t>
+  </si>
+  <si>
+    <t>berpasangan</t>
+  </si>
+  <si>
+    <t>366041</t>
+  </si>
+  <si>
+    <t>对A:</t>
+  </si>
+  <si>
+    <t>AA:</t>
+  </si>
+  <si>
+    <t>aa:</t>
+  </si>
+  <si>
+    <t>366042</t>
+  </si>
+  <si>
+    <t>同花/连牌/同花连牌:</t>
+  </si>
+  <si>
+    <t>SUITED/CONNECTORS/DRAW HAND:</t>
+  </si>
+  <si>
+    <t>Suited/connectors/draw hand:</t>
+  </si>
+  <si>
+    <t>cocok/penghubung/imbang tangan:</t>
+  </si>
+  <si>
+    <t>366043</t>
+  </si>
+  <si>
+    <t>高牌/一对:</t>
+  </si>
+  <si>
+    <t>HIGH/PAIR:</t>
+  </si>
+  <si>
+    <t>high/pair:</t>
+  </si>
+  <si>
+    <t>tinggi/pasangan:</t>
+  </si>
+  <si>
+    <t>366044</t>
+  </si>
+  <si>
+    <t>葫芦:</t>
+  </si>
+  <si>
+    <t>FULL HOUSE:</t>
+  </si>
+  <si>
+    <t>full house:</t>
+  </si>
+  <si>
+    <t>rumah penuh:</t>
+  </si>
+  <si>
+    <t>366045</t>
+  </si>
+  <si>
+    <t>两对:</t>
+  </si>
+  <si>
+    <t>TWO PAIR:</t>
+  </si>
+  <si>
+    <t>dois pares:</t>
+  </si>
+  <si>
+    <t>dua pasang:</t>
+  </si>
+  <si>
+    <t>366046</t>
+  </si>
+  <si>
+    <t>三条/顺子/同花:</t>
+  </si>
+  <si>
+    <t>THREE/STRAIGHT/FLUSH:</t>
+  </si>
+  <si>
+    <t>three/straight/flush:</t>
+  </si>
+  <si>
+    <t>tiga/lurus/flush:</t>
+  </si>
+  <si>
+    <t>366047</t>
+  </si>
+  <si>
+    <t>金刚/同花顺/皇同:</t>
+  </si>
+  <si>
+    <t>FOUR/STRAIGHT FLUSH/ROYSL FLUSH:</t>
+  </si>
+  <si>
+    <t>four/straight flush/roysl flush:</t>
+  </si>
+  <si>
+    <t>empat/straight flush/roysl flush:</t>
+  </si>
+  <si>
+    <t>366048</t>
+  </si>
+  <si>
+    <t>统计数据</t>
+  </si>
+  <si>
+    <t>STATISTICS</t>
+  </si>
+  <si>
+    <t>estatísticas</t>
+  </si>
+  <si>
+    <t>statistik</t>
+  </si>
+  <si>
+    <t>366049</t>
+  </si>
+  <si>
+    <t>历史记录</t>
+  </si>
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>histórico</t>
+  </si>
+  <si>
+    <t>366050</t>
+  </si>
+  <si>
+    <t>在线玩家:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLINE PLSYERS : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jogadores on-line : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plsyer online : </t>
+  </si>
+  <si>
+    <t>366051</t>
+  </si>
+  <si>
+    <t>下注:</t>
+  </si>
+  <si>
+    <t>Betting</t>
+  </si>
+  <si>
+    <t>apostas</t>
+  </si>
+  <si>
+    <t>taruhan</t>
+  </si>
+  <si>
+    <t>366052</t>
+  </si>
+  <si>
+    <t>获胜:</t>
+  </si>
+  <si>
+    <t>Winning</t>
+  </si>
+  <si>
+    <t>vencedoras</t>
+  </si>
+  <si>
+    <t>menang</t>
+  </si>
+  <si>
+    <t>366053</t>
+  </si>
+  <si>
+    <t>近20局</t>
+  </si>
+  <si>
+    <t>Last 20 rounds</t>
+  </si>
+  <si>
+    <t>últimas 20 rodadas</t>
+  </si>
+  <si>
+    <t>20 putaran terakhir</t>
+  </si>
+  <si>
+    <t>366054</t>
+  </si>
+  <si>
+    <t>今日输赢榜:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODAY'S WIN RANK : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">classificação de vitórias de hoje : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">peringkat kemenangan hari ini : </t>
+  </si>
+  <si>
+    <t>366055</t>
+  </si>
+  <si>
+    <t>荣耀榜</t>
+  </si>
+  <si>
+    <t>GLORY LIST</t>
+  </si>
+  <si>
+    <t>lista de glória</t>
+  </si>
+  <si>
+    <t>daftar kemuliaan</t>
+  </si>
+  <si>
+    <t>366056</t>
+  </si>
+  <si>
+    <t>今日赢分:</t>
+  </si>
+  <si>
+    <t>Total Win:</t>
+  </si>
+  <si>
+    <t>vitória total:</t>
+  </si>
+  <si>
+    <t>total kemenangan:</t>
+  </si>
+  <si>
+    <t>366057</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>CONFIRM</t>
+  </si>
+  <si>
+    <t>confirmar</t>
+  </si>
+  <si>
+    <t>konfirmasi</t>
+  </si>
+  <si>
+    <t>366058</t>
+  </si>
+  <si>
+    <t>清除全部</t>
+  </si>
+  <si>
+    <t>CLEAR ALL</t>
+  </si>
+  <si>
+    <t>limpar tudo</t>
+  </si>
+  <si>
+    <t>hapus semua</t>
+  </si>
+  <si>
+    <t>366059</t>
+  </si>
+  <si>
+    <t>续投设置</t>
+  </si>
+  <si>
+    <t>Rebet Setting</t>
+  </si>
+  <si>
+    <t>Configuração de rebote</t>
+  </si>
+  <si>
+    <t>Pengaturan Rebet</t>
+  </si>
+  <si>
+    <t>366060</t>
+  </si>
+  <si>
+    <t>(续投次数可选)</t>
+  </si>
+  <si>
+    <t>(Rebet times can be set)</t>
+  </si>
+  <si>
+    <t>(Os tempos de rebetagem podem ser definidos)</t>
+  </si>
+  <si>
+    <t>(Waktu rebet dapat diatur)</t>
+  </si>
+  <si>
+    <t>366061</t>
+  </si>
+  <si>
+    <t>下注按钮设置，请选择5个不同的下注按钮</t>
+  </si>
+  <si>
+    <t>Bet button setting,please select 5 different bet buttons</t>
+  </si>
+  <si>
+    <t>Configuração do botão de aposta, selecione 5 botões de aposta diferentes</t>
+  </si>
+  <si>
+    <t>Pengaturan tombol taruhan, silakan pilih 5 tombol taruhan yang berbeda</t>
+  </si>
+  <si>
+    <t>366062</t>
+  </si>
+  <si>
+    <t>倍率10倍以下：</t>
+  </si>
+  <si>
+    <t>1:Under 10X:</t>
+  </si>
+  <si>
+    <t>1:Abaixo de 10X:</t>
+  </si>
+  <si>
+    <t>1: Di bawah 10X:</t>
+  </si>
+  <si>
+    <t>366063</t>
+  </si>
+  <si>
+    <t>倍率10-99倍：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:10X-99X: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: 10X-99X: </t>
+  </si>
+  <si>
+    <t>366064</t>
+  </si>
+  <si>
+    <t>倍率100-248倍：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:Over 100X: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:Mais de 100X: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: Lebih dari 100X: </t>
+  </si>
+  <si>
+    <t>366065</t>
+  </si>
+  <si>
+    <t>本桌限红</t>
+  </si>
+  <si>
+    <t>Win Limit</t>
+  </si>
+  <si>
+    <t>Limite de ganho</t>
+  </si>
+  <si>
+    <t>Batas Kemenangan</t>
+  </si>
+  <si>
+    <t>366066</t>
+  </si>
+  <si>
+    <t>牌型</t>
+  </si>
+  <si>
+    <t>Use Card</t>
+  </si>
+  <si>
+    <t>Usar carta</t>
+  </si>
+  <si>
+    <t>Gunakan Kartu</t>
+  </si>
+  <si>
+    <t>366067</t>
+  </si>
+  <si>
+    <t>使用一副牌，去掉"大王""小王"共计52张</t>
+  </si>
+  <si>
+    <t>1:Use a deck of cards, excluding the "joker" for a Total of 52 cards</t>
+  </si>
+  <si>
+    <t>1:Use um baralho de cartas, excluindo o "coringa", para um total de 52 cartas</t>
+  </si>
+  <si>
+    <t>1: Gunakan setumpuk kartu, tidak termasuk "joker" dengan total 52 kartu</t>
+  </si>
+  <si>
+    <t>366068</t>
+  </si>
+  <si>
+    <t>Winning Hand</t>
+  </si>
+  <si>
+    <t>Mão vencedora</t>
+  </si>
+  <si>
+    <t>Tangan yang Menang</t>
+  </si>
+  <si>
+    <t>366069</t>
+  </si>
+  <si>
+    <t>皇家同花顺：相同花色的10,J,Q,K,A;</t>
+  </si>
+  <si>
+    <t>1:Royal Flush: 10,J,Q,K,A of the same suit;</t>
+  </si>
+  <si>
+    <t>1:Royal Flush: 10, J, Q, K, A do mesmo naipe;</t>
+  </si>
+  <si>
+    <t>1: Royal Flush: 10, J, Q, K, A dari jenis yang sama;</t>
+  </si>
+  <si>
+    <t>366070</t>
+  </si>
+  <si>
+    <t>同花顺：五张相同花色的连续牌；</t>
+  </si>
+  <si>
+    <t>2:Straight Flush: five straight cards of the same suit;</t>
+  </si>
+  <si>
+    <t>2:Straight Flush: cinco cartas seguidas do mesmo naipe;</t>
+  </si>
+  <si>
+    <t>2: Straight Flush: lima kartu berurutan dari jenis yang sama;</t>
+  </si>
+  <si>
+    <t>366071</t>
+  </si>
+  <si>
+    <t>葫芦：三张相同点数的牌加另外两张相同点数的牌；</t>
+  </si>
+  <si>
+    <t>4:Full House: three cards of the same number of points with a pair;</t>
+  </si>
+  <si>
+    <t>4:Full House: três cartas do mesmo número de pontos com um par;</t>
+  </si>
+  <si>
+    <t>4: Full House: tiga kartu dengan jumlah poin yang sama dengan sepasang;</t>
+  </si>
+  <si>
+    <t>366072</t>
+  </si>
+  <si>
+    <t>同花：五张相同花色的非连续牌；</t>
+  </si>
+  <si>
+    <t>5:Flush: five non-consecutive cards of the same suit;</t>
+  </si>
+  <si>
+    <t>5:Flush: cinco cartas não consecutivas do mesmo naipe;</t>
+  </si>
+  <si>
+    <t>5: Flush: lima kartu yang tidak berurutan dari jenis yang sama;</t>
+  </si>
+  <si>
+    <t>366073</t>
+  </si>
+  <si>
+    <t>顺子：五张不同花色的连续牌；</t>
+  </si>
+  <si>
+    <t>6:Straight: five consecutive cards of different suits;</t>
+  </si>
+  <si>
+    <t>6:Straight: cinco cartas consecutivas de naipes diferentes;</t>
+  </si>
+  <si>
+    <t>6: Straight: lima kartu berurutan dari jenis yang berbeda;</t>
+  </si>
+  <si>
+    <t>366074</t>
+  </si>
+  <si>
+    <t>三条：三张相同点数的牌加两张单牌；</t>
+  </si>
+  <si>
+    <t>7:Three of a kind: three cards of the same number of points plus two single cards;</t>
+  </si>
+  <si>
+    <t>7:Three of a kind: três cartas do mesmo número de pontos mais duas cartas simples;</t>
+  </si>
+  <si>
+    <t>7: Tiga jenis: tiga kartu dengan jumlah poin yang sama ditambah dua kartu tunggal;</t>
+  </si>
+  <si>
+    <t>366075</t>
+  </si>
+  <si>
+    <t>两对：四张两两相同的牌加一张单牌；</t>
+  </si>
+  <si>
+    <t>8:Two pairs: a pair with two different points and a single card;</t>
+  </si>
+  <si>
+    <t>8:Two pairs: um par com dois pontos diferentes e uma única carta;</t>
+  </si>
+  <si>
+    <t>8: Dua pasang: sepasang kartu dengan dua nilai yang berbeda dan satu kartu;</t>
+  </si>
+  <si>
+    <t>366076</t>
+  </si>
+  <si>
+    <t>高牌：五张不是同一花色的非连续单牌。</t>
+  </si>
+  <si>
+    <t>10:High card: Five non-consecutive single cards that are not of the same suit;</t>
+  </si>
+  <si>
+    <t>10:Carta alta: Cinco cartas simples não consecutivas que não sejam do mesmo naipe;</t>
+  </si>
+  <si>
+    <t>10:Kartu tinggi: Lima kartu tunggal yang tidak berurutan yang tidak memiliki jenis yang sama;</t>
+  </si>
+  <si>
+    <t>366077</t>
+  </si>
+  <si>
+    <t>任一人手牌牌型（必须是牛仔或公牛的手牌组成的牌型）</t>
+  </si>
+  <si>
+    <t>Anyside Hand(Cowboy or Bull's Hand)</t>
+  </si>
+  <si>
+    <t>Mão Anyside (Mão de Cowboy ou de Touro)</t>
+  </si>
+  <si>
+    <t>Tangan Aneh (Tangan Koboi atau Banteng)</t>
+  </si>
+  <si>
+    <t>366078</t>
+  </si>
+  <si>
+    <t>同花/连牌/同花连牌：两张相同花色/两张连续点数/两张相同花色的连续牌；</t>
+  </si>
+  <si>
+    <t>1:Suited/Connectors/Draw Hand：Two cards of the same suit/two straight points/two straight cards of the same suit;</t>
+  </si>
+  <si>
+    <t>1:Suited/Connectors/Draw Hand：Duas cartas do mesmo naipe/dois pontos consecutivos/duas cartas consecutivas do mesmo naipe;</t>
+  </si>
+  <si>
+    <t>1:Suited/Connectors/Draw Hand: Dua kartu dengan jenis yang sama/dua titik lurus/dua kartu lurus dengan jenis yang sama;</t>
+  </si>
+  <si>
+    <t>366079</t>
+  </si>
+  <si>
+    <t>对子：两张相同点数的牌（包含对A）；</t>
+  </si>
+  <si>
+    <t>2:Pair: two cards of the same points (including the pair of Aces);</t>
+  </si>
+  <si>
+    <t>2:Pair: duas cartas com os mesmos pontos (incluindo o par de Ases);</t>
+  </si>
+  <si>
+    <t>2:Pair: dua kartu dengan nilai yang sama (termasuk sepasang kartu As);</t>
+  </si>
+  <si>
+    <t>366080</t>
+  </si>
+  <si>
+    <t>对A：两张A。</t>
+  </si>
+  <si>
+    <t>3:AA: two aces.</t>
+  </si>
+  <si>
+    <t>3:AA: dois ases.</t>
+  </si>
+  <si>
+    <t>3:AA: dua kartu As.</t>
+  </si>
+  <si>
+    <t>366081</t>
+  </si>
+  <si>
+    <t>牌型大小：皇家同花顺&gt;同花顺&gt;金刚&gt;葫芦&gt;同花&gt;顺子&gt;三条&gt;两对&gt;对子&gt;高牌；</t>
+  </si>
+  <si>
+    <t>1:Hand：Royal flush &gt; Straight flush &gt; Four of a kind &gt; Full House &gt; Flush &gt; Straight &gt; Three of a kind &gt; Two pairs &gt; Pair &gt; High card;</t>
+  </si>
+  <si>
+    <t>1:Mão：Royal flush &gt; Straight flush &gt; Quadra &gt; Full House &gt; Flush &gt; Straight &gt; Trinca &gt; Dois pares &gt; Par &gt; Carta alta;</t>
+  </si>
+  <si>
+    <t>1: Tangan: Royal flush &gt; Straight flush &gt; Empat sejenis &gt; Full House &gt; Flush &gt; Straight &gt; Tiga sejenis &gt; Dua pasang &gt; Pair &gt; Kartu tinggi;</t>
+  </si>
+  <si>
+    <t>366082</t>
+  </si>
+  <si>
+    <t>牌值大小（不分花色）：A&gt;K&gt;Q&gt;J&gt;10&gt;9&gt;8&gt;7&gt;6&gt;5&gt;4&gt;3&gt;2；</t>
+  </si>
+  <si>
+    <t>2:Rank：A&gt;K&gt;Q&gt;J&gt;10&gt;9&gt;8&gt;7&gt;6&gt;5&gt;4&gt;3&gt;2;</t>
+  </si>
+  <si>
+    <t>366083</t>
+  </si>
+  <si>
+    <t>相同牌型大小（不分花色）：优先比牌型最大的值，其次
+第二大...直到最小，若5张牌的值一样，则为平局。</t>
+  </si>
+  <si>
+    <t>3:Compare：First compare the Hand,then compare the Rank of the cards from big to small, if the Rank is the same on both sides then it is Tie;</t>
+  </si>
+  <si>
+    <t>3:Comparar: Primeiro compare a mão, depois compare a classificação das cartas da maior para a menor, se a classificação for a mesma em ambos os lados, então é empate;</t>
+  </si>
+  <si>
+    <t>3: Bandingkan: Pertama-tama bandingkan Tangan, kemudian bandingkan Peringkat kartu dari besar ke kecil, jika Peringkat sama di kedua sisi maka itu adalah Tie;</t>
+  </si>
+  <si>
+    <t>366084</t>
+  </si>
+  <si>
+    <t>投注区域</t>
+  </si>
+  <si>
+    <t>Betting Area</t>
+  </si>
+  <si>
+    <t>Área de apostas</t>
+  </si>
+  <si>
+    <t>Area Taruhan</t>
+  </si>
+  <si>
+    <t>366085</t>
+  </si>
+  <si>
+    <t>胜负下注区：牛仔胜，平手，公牛胜，三个投注区，投中获得对应倍率的奖励。</t>
+  </si>
+  <si>
+    <t>1:Win or lose betting area: Cowboys win, tie, Bulls win, three betting areas, throw in to get the bonus of the corresponding multiplier.</t>
+  </si>
+  <si>
+    <t>1: Área de apostas de vitória ou derrota: Os Cowboys vencem, empatam, os Bulls vencem, três áreas de apostas, jogam para obter o bônus do multiplicador correspondente.</t>
+  </si>
+  <si>
+    <t>1: Area taruhan menang atau kalah: Koboi menang, seri, Bulls menang, tiga area taruhan, lempar ke dalam untuk mendapatkan bonus pengganda yang sesuai.</t>
+  </si>
+  <si>
+    <t>366086</t>
+  </si>
+  <si>
+    <t>任一人手牌区：同花/连牌/同花连牌,对子，对A，三个投注区，投中获得对应倍率的奖励；
+牛仔，公牛两人以相同牌型集中投注区牌型，只算击中一次；
+牛仔，公牛两人以不同牌型击中投注区牌型，两个区域都算击中；</t>
+  </si>
+  <si>
+    <t>2:Anyside Hand: Suited/Connectors/Draw Hand, Pair, AA, three betting areas, winning to get the bonus of the corresponding multiplier;
+Cowboys, bulls hitting the betting area with the same hand, only one hit is counted;
+Cowboys, bulls both hitting two betting areas with different hands, both areas counting as hits;</t>
+  </si>
+  <si>
+    <t>2:Mão de qualquer lado: Suited/Connectors/Draw Hand, Pair, AA, três áreas de apostas, ganhando para obter o bônus do multiplicador correspondente;
+Cowboys, touros batendo na área de apostas com a mesma mão, apenas uma batida é contada;
+Cowboys, touros atingindo duas áreas de apostas com mãos diferentes, ambas as áreas contando como acertos;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: Tangan yang mana saja: Cocok / Penghubung / Seri, Pasangan, AA, tiga area taruhan, menang untuk mendapatkan bonus dari pengali yang sesuai;
+Koboi, sapi jantan yang memukul area taruhan dengan tangan yang sama, hanya satu pukulan yang dihitung;
+Koboi, sapi jantan yang memukul dua area taruhan dengan tangan yang berbeda, kedua area dihitung sebagai pukulan; </t>
+  </si>
+  <si>
+    <t>366087</t>
+  </si>
+  <si>
+    <t>获胜牌型下注区：高牌/一对，两对，三条/顺子/同花，</t>
+  </si>
+  <si>
+    <t>3:Winning betting area: high card/pair, two pair, three/straight/flush.</t>
+  </si>
+  <si>
+    <t>3:Área de apostas vencedora: carta alta/par, dois pares, três/sequência/flush.</t>
+  </si>
+  <si>
+    <t>3: Area taruhan yang menang: kartu tinggi/pasangan, dua pasang, tiga/straight/flush.</t>
+  </si>
+  <si>
+    <t>366088</t>
+  </si>
+  <si>
+    <t>葫芦，金刚/同花顺/皇同五个投注区，投中获得对应倍率的奖励。</t>
+  </si>
+  <si>
+    <t>Full House, Four/ Straight Flush/ Royal Flush five betting areas, winning bets get the corresponding multiplier rewards.</t>
+  </si>
+  <si>
+    <t>Full House, Four/ Straight Flush/ Royal Flush cinco áreas de apostas, as apostas vencedoras recebem os prêmios multiplicadores correspondentes.</t>
+  </si>
+  <si>
+    <t>Full House, Empat / Straight Flush / Royal Flush lima area taruhan, taruhan yang menang mendapatkan hadiah pengganda yang sesuai.</t>
+  </si>
+  <si>
+    <t>366089</t>
+  </si>
+  <si>
+    <t>关</t>
+  </si>
+  <si>
+    <t>DESLIGADO</t>
+  </si>
+  <si>
+    <t>MATI</t>
+  </si>
+  <si>
+    <t>366090</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>LIGADO</t>
+  </si>
+  <si>
+    <t>366091</t>
+  </si>
+  <si>
+    <t>任一人手牌</t>
+  </si>
+  <si>
+    <t>ANYSIDE\nHAND</t>
+  </si>
+  <si>
+    <t>LADO A LADO\nMão</t>
+  </si>
+  <si>
+    <t>SESUATU\nTANGAN</t>
+  </si>
+  <si>
+    <t>366092</t>
+  </si>
+  <si>
+    <t>WINNING\nHAND</t>
+  </si>
+  <si>
+    <t>GANHANDO\nMão</t>
+  </si>
+  <si>
+    <t>MENANG\nTANGAN</t>
+  </si>
+  <si>
+    <t>366093</t>
+  </si>
+  <si>
+    <t>规则</t>
+  </si>
+  <si>
+    <t>366094</t>
+  </si>
+  <si>
+    <t>366095</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Cenário</t>
+  </si>
+  <si>
+    <t>366096</t>
+  </si>
+  <si>
+    <t>返回大厅</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Lobi</t>
+  </si>
+  <si>
+    <t>366097</t>
+  </si>
+  <si>
+    <t>游戏开始</t>
+  </si>
+  <si>
+    <t>GAMES STARTING</t>
+  </si>
+  <si>
+    <t>INÍCIO DOS JOGOS</t>
+  </si>
+  <si>
+    <t>PERMAINAN DIMULAI</t>
+  </si>
+  <si>
+    <t>366098</t>
+  </si>
+  <si>
+    <t>玩家列表</t>
+  </si>
+  <si>
+    <t>PLAYER LIST</t>
+  </si>
+  <si>
+    <t>LISTA DE JOGADORES</t>
+  </si>
+  <si>
+    <t>DAFTAR PEMAIN</t>
+  </si>
+  <si>
+    <t>366099</t>
+  </si>
+  <si>
+    <t>大赢家 NO.{0}</t>
+  </si>
+  <si>
+    <t>RICH NO.{0}</t>
+  </si>
+  <si>
+    <t>KAYA NO.{0}</t>
+  </si>
+  <si>
+    <t>366100</t>
+  </si>
+  <si>
+    <t>本局出现</t>
+  </si>
+  <si>
+    <t>This round open</t>
+  </si>
+  <si>
+    <t>Esta rodada está aberta</t>
+  </si>
+  <si>
+    <t>Putaran ini terbuka</t>
+  </si>
+  <si>
+    <t>366101</t>
+  </si>
+  <si>
+    <t>我的名次</t>
+  </si>
+  <si>
+    <t>My Rank</t>
+  </si>
+  <si>
+    <t>Minha classificação</t>
+  </si>
+  <si>
+    <t>Peringkat Saya</t>
+  </si>
+  <si>
+    <t>366102</t>
+  </si>
+  <si>
+    <t>金刚：四张相同点数的牌加一张单牌；</t>
+  </si>
+  <si>
+    <t>3:Four Of A Kind: four cards of the same number of points with a single card;</t>
+  </si>
+  <si>
+    <t>3:Quadra: quatro cartas do mesmo número de pontos com uma única carta;</t>
+  </si>
+  <si>
+    <t>3:Four Of A Kind: empat kartu dengan jumlah poin yang sama dengan satu kartu;</t>
+  </si>
+  <si>
+    <t>366103</t>
+  </si>
+  <si>
+    <t>对子：两张点数相同的牌加三张单牌；</t>
+  </si>
+  <si>
+    <t>9:Pair: two cards of the same number of points with three single cards;</t>
+  </si>
+  <si>
+    <t>9:Par: duas cartas do mesmo número de pontos com três cartas únicas;</t>
+  </si>
+  <si>
+    <t>9:Pair: dua kartu dengan jumlah poin yang sama dengan tiga kartu tunggal;</t>
   </si>
   <si>
     <t>500001</t>
@@ -21182,7 +22616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -21204,12 +22638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -21555,10 +22983,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -21567,16 +22995,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -21588,10 +23016,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -21612,28 +23040,28 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -21642,16 +23070,19 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -21663,41 +23094,38 @@
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21722,13 +23150,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -21737,10 +23165,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -21758,16 +23186,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -21815,17 +23243,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21833,19 +23255,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -21866,14 +23288,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -22232,10 +23657,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N954"/>
+  <dimension ref="A1:N1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" topLeftCell="A1053" workbookViewId="0">
+      <selection activeCell="E1056" sqref="E1056"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33913,288 +35338,288 @@
       </c>
     </row>
     <row r="434" s="8" customFormat="1" ht="54" spans="2:11">
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="9" t="s">
         <v>2883</v>
       </c>
-      <c r="C434" s="7"/>
-      <c r="D434" s="7"/>
+      <c r="C434" s="9"/>
+      <c r="D434" s="9"/>
       <c r="E434" s="39" t="s">
         <v>2884</v>
       </c>
-      <c r="F434" s="7" t="s">
+      <c r="F434" s="9" t="s">
         <v>2885</v>
       </c>
-      <c r="G434" s="38" t="s">
+      <c r="G434" s="40" t="s">
         <v>2886</v>
       </c>
-      <c r="H434" s="38" t="s">
+      <c r="H434" s="40" t="s">
         <v>2887</v>
       </c>
-      <c r="I434" s="38" t="s">
+      <c r="I434" s="40" t="s">
         <v>2888</v>
       </c>
-      <c r="J434" s="7" t="s">
+      <c r="J434" s="9" t="s">
         <v>2889</v>
       </c>
-      <c r="K434" s="7" t="s">
+      <c r="K434" s="9" t="s">
         <v>2890</v>
       </c>
     </row>
     <row r="435" s="8" customFormat="1" ht="27" spans="2:11">
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="9" t="s">
         <v>2891</v>
       </c>
-      <c r="C435" s="7"/>
-      <c r="D435" s="7"/>
+      <c r="C435" s="9"/>
+      <c r="D435" s="9"/>
       <c r="E435" s="8" t="s">
         <v>2892</v>
       </c>
-      <c r="F435" s="7" t="s">
+      <c r="F435" s="9" t="s">
         <v>2893</v>
       </c>
-      <c r="G435" s="38" t="s">
+      <c r="G435" s="40" t="s">
         <v>2894</v>
       </c>
-      <c r="H435" s="38" t="s">
+      <c r="H435" s="40" t="s">
         <v>2895</v>
       </c>
-      <c r="I435" s="38" t="s">
+      <c r="I435" s="40" t="s">
         <v>2896</v>
       </c>
-      <c r="J435" s="7" t="s">
+      <c r="J435" s="9" t="s">
         <v>2897</v>
       </c>
-      <c r="K435" s="7" t="s">
+      <c r="K435" s="9" t="s">
         <v>2898</v>
       </c>
     </row>
     <row r="436" s="8" customFormat="1" ht="67.5" spans="2:11">
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="9" t="s">
         <v>2899</v>
       </c>
-      <c r="C436" s="7" t="s">
+      <c r="C436" s="9" t="s">
         <v>2900</v>
       </c>
-      <c r="D436" s="7"/>
+      <c r="D436" s="9"/>
       <c r="E436" s="39" t="s">
         <v>2901</v>
       </c>
-      <c r="F436" s="7" t="s">
+      <c r="F436" s="9" t="s">
         <v>2902</v>
       </c>
-      <c r="G436" s="38" t="s">
+      <c r="G436" s="40" t="s">
         <v>2903</v>
       </c>
-      <c r="H436" s="38" t="s">
+      <c r="H436" s="40" t="s">
         <v>2904</v>
       </c>
-      <c r="I436" s="38" t="s">
+      <c r="I436" s="40" t="s">
         <v>2905</v>
       </c>
-      <c r="J436" s="7" t="s">
+      <c r="J436" s="9" t="s">
         <v>2906</v>
       </c>
-      <c r="K436" s="7" t="s">
+      <c r="K436" s="9" t="s">
         <v>2907</v>
       </c>
     </row>
     <row r="437" s="8" customFormat="1" ht="67.5" spans="2:11">
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="9" t="s">
         <v>2908</v>
       </c>
-      <c r="C437" s="7" t="s">
+      <c r="C437" s="9" t="s">
         <v>2909</v>
       </c>
-      <c r="D437" s="7"/>
+      <c r="D437" s="9"/>
       <c r="E437" s="39" t="s">
         <v>2910</v>
       </c>
-      <c r="F437" s="7" t="s">
+      <c r="F437" s="9" t="s">
         <v>2911</v>
       </c>
-      <c r="G437" s="38" t="s">
+      <c r="G437" s="40" t="s">
         <v>2912</v>
       </c>
-      <c r="H437" s="38" t="s">
+      <c r="H437" s="40" t="s">
         <v>2913</v>
       </c>
-      <c r="I437" s="38" t="s">
+      <c r="I437" s="40" t="s">
         <v>2914</v>
       </c>
-      <c r="J437" s="7" t="s">
+      <c r="J437" s="9" t="s">
         <v>2915</v>
       </c>
-      <c r="K437" s="7" t="s">
+      <c r="K437" s="9" t="s">
         <v>2916</v>
       </c>
     </row>
-    <row r="438" s="9" customFormat="1" spans="2:11">
-      <c r="B438" s="40" t="s">
+    <row r="438" s="8" customFormat="1" spans="2:11">
+      <c r="B438" s="9" t="s">
         <v>2917</v>
       </c>
-      <c r="C438" s="40" t="s">
+      <c r="C438" s="9" t="s">
         <v>2918</v>
       </c>
-      <c r="D438" s="40"/>
-      <c r="E438" s="9" t="s">
+      <c r="D438" s="9"/>
+      <c r="E438" s="8" t="s">
         <v>2001</v>
       </c>
-      <c r="F438" s="40" t="s">
+      <c r="F438" s="9" t="s">
         <v>2002</v>
       </c>
-      <c r="G438" s="41" t="s">
+      <c r="G438" s="40" t="s">
         <v>2919</v>
       </c>
-      <c r="H438" s="41" t="s">
+      <c r="H438" s="40" t="s">
         <v>2919</v>
       </c>
-      <c r="I438" s="41" t="s">
+      <c r="I438" s="40" t="s">
         <v>2919</v>
       </c>
-      <c r="J438" s="40" t="s">
+      <c r="J438" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="K438" s="40" t="s">
+      <c r="K438" s="9" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="439" s="9" customFormat="1" spans="2:11">
-      <c r="B439" s="40" t="s">
+    <row r="439" s="8" customFormat="1" spans="2:11">
+      <c r="B439" s="9" t="s">
         <v>2920</v>
       </c>
-      <c r="C439" s="40"/>
-      <c r="D439" s="40"/>
-      <c r="E439" s="9" t="s">
+      <c r="C439" s="9"/>
+      <c r="D439" s="9"/>
+      <c r="E439" s="8" t="s">
         <v>2009</v>
       </c>
-      <c r="F439" s="40" t="s">
+      <c r="F439" s="9" t="s">
         <v>2921</v>
       </c>
-      <c r="G439" s="41" t="s">
+      <c r="G439" s="40" t="s">
         <v>2922</v>
       </c>
-      <c r="H439" s="41" t="s">
+      <c r="H439" s="40" t="s">
         <v>2922</v>
       </c>
-      <c r="I439" s="41" t="s">
+      <c r="I439" s="40" t="s">
         <v>2922</v>
       </c>
-      <c r="J439" s="40" t="s">
+      <c r="J439" s="9" t="s">
         <v>2923</v>
       </c>
-      <c r="K439" s="40" t="s">
+      <c r="K439" s="9" t="s">
         <v>2923</v>
       </c>
     </row>
-    <row r="440" s="9" customFormat="1" spans="2:11">
-      <c r="B440" s="40" t="s">
+    <row r="440" s="8" customFormat="1" spans="2:11">
+      <c r="B440" s="9" t="s">
         <v>2924</v>
       </c>
-      <c r="C440" s="40"/>
-      <c r="D440" s="40"/>
-      <c r="E440" s="9" t="s">
+      <c r="C440" s="9"/>
+      <c r="D440" s="9"/>
+      <c r="E440" s="8" t="s">
         <v>2925</v>
       </c>
-      <c r="F440" s="40" t="s">
+      <c r="F440" s="9" t="s">
         <v>2926</v>
       </c>
-      <c r="G440" s="41" t="s">
+      <c r="G440" s="40" t="s">
         <v>2927</v>
       </c>
-      <c r="H440" s="41" t="s">
+      <c r="H440" s="40" t="s">
         <v>2927</v>
       </c>
-      <c r="I440" s="41" t="s">
+      <c r="I440" s="40" t="s">
         <v>2927</v>
       </c>
-      <c r="J440" s="40" t="s">
+      <c r="J440" s="9" t="s">
         <v>2928</v>
       </c>
-      <c r="K440" s="40" t="s">
+      <c r="K440" s="9" t="s">
         <v>2928</v>
       </c>
     </row>
-    <row r="441" s="9" customFormat="1" ht="27" spans="2:11">
-      <c r="B441" s="40" t="s">
+    <row r="441" s="8" customFormat="1" ht="27" spans="2:11">
+      <c r="B441" s="9" t="s">
         <v>2929</v>
       </c>
-      <c r="C441" s="40"/>
-      <c r="D441" s="40"/>
-      <c r="E441" s="9" t="s">
+      <c r="C441" s="9"/>
+      <c r="D441" s="9"/>
+      <c r="E441" s="8" t="s">
         <v>2930</v>
       </c>
-      <c r="F441" s="40" t="s">
+      <c r="F441" s="9" t="s">
         <v>2931</v>
       </c>
-      <c r="G441" s="41" t="s">
+      <c r="G441" s="40" t="s">
         <v>2932</v>
       </c>
-      <c r="H441" s="41" t="s">
+      <c r="H441" s="40" t="s">
         <v>2932</v>
       </c>
-      <c r="I441" s="41" t="s">
+      <c r="I441" s="40" t="s">
         <v>2932</v>
       </c>
-      <c r="J441" s="40" t="s">
+      <c r="J441" s="9" t="s">
         <v>2933</v>
       </c>
-      <c r="K441" s="40" t="s">
+      <c r="K441" s="9" t="s">
         <v>2933</v>
       </c>
     </row>
-    <row r="442" s="9" customFormat="1" ht="243" spans="2:11">
-      <c r="B442" s="40" t="s">
+    <row r="442" s="8" customFormat="1" ht="243" spans="2:11">
+      <c r="B442" s="9" t="s">
         <v>2934</v>
       </c>
-      <c r="C442" s="40"/>
-      <c r="D442" s="40"/>
-      <c r="E442" s="42" t="s">
+      <c r="C442" s="9"/>
+      <c r="D442" s="9"/>
+      <c r="E442" s="39" t="s">
         <v>2935</v>
       </c>
-      <c r="F442" s="40" t="s">
+      <c r="F442" s="9" t="s">
         <v>2936</v>
       </c>
-      <c r="G442" s="41" t="s">
+      <c r="G442" s="40" t="s">
         <v>2937</v>
       </c>
-      <c r="H442" s="41" t="s">
+      <c r="H442" s="40" t="s">
         <v>2937</v>
       </c>
-      <c r="I442" s="41" t="s">
+      <c r="I442" s="40" t="s">
         <v>2937</v>
       </c>
-      <c r="J442" s="40" t="s">
+      <c r="J442" s="9" t="s">
         <v>2938</v>
       </c>
-      <c r="K442" s="40" t="s">
+      <c r="K442" s="9" t="s">
         <v>2938</v>
       </c>
     </row>
-    <row r="443" s="9" customFormat="1" ht="310.5" spans="2:11">
-      <c r="B443" s="40" t="s">
+    <row r="443" s="8" customFormat="1" ht="310.5" spans="2:11">
+      <c r="B443" s="9" t="s">
         <v>2939</v>
       </c>
-      <c r="C443" s="40"/>
-      <c r="D443" s="40"/>
-      <c r="E443" s="42" t="s">
+      <c r="C443" s="9"/>
+      <c r="D443" s="9"/>
+      <c r="E443" s="39" t="s">
         <v>2940</v>
       </c>
-      <c r="F443" s="40" t="s">
+      <c r="F443" s="9" t="s">
         <v>2941</v>
       </c>
-      <c r="G443" s="41" t="s">
+      <c r="G443" s="40" t="s">
         <v>2942</v>
       </c>
-      <c r="H443" s="41" t="s">
+      <c r="H443" s="40" t="s">
         <v>2942</v>
       </c>
-      <c r="I443" s="41" t="s">
+      <c r="I443" s="40" t="s">
         <v>2942</v>
       </c>
-      <c r="J443" s="40" t="s">
+      <c r="J443" s="9" t="s">
         <v>2943</v>
       </c>
-      <c r="K443" s="40" t="s">
+      <c r="K443" s="9" t="s">
         <v>2943</v>
       </c>
     </row>
@@ -34205,11 +35630,11 @@
       <c r="C444" s="1" t="s">
         <v>2945</v>
       </c>
-      <c r="D444" s="43"/>
+      <c r="D444" s="41"/>
       <c r="E444" s="1" t="s">
         <v>2946</v>
       </c>
-      <c r="F444" s="44" t="s">
+      <c r="F444" s="42" t="s">
         <v>2947</v>
       </c>
       <c r="G444" s="15" t="s">
@@ -34232,11 +35657,11 @@
       <c r="B445" s="1" t="s">
         <v>2953</v>
       </c>
-      <c r="D445" s="43"/>
+      <c r="D445" s="41"/>
       <c r="E445" s="1" t="s">
         <v>2954</v>
       </c>
-      <c r="F445" s="44" t="s">
+      <c r="F445" s="42" t="s">
         <v>2955</v>
       </c>
       <c r="G445" s="15" t="s">
@@ -34259,11 +35684,11 @@
       <c r="B446" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="D446" s="43"/>
+      <c r="D446" s="41"/>
       <c r="E446" s="1" t="s">
         <v>2962</v>
       </c>
-      <c r="F446" s="44" t="s">
+      <c r="F446" s="42" t="s">
         <v>2963</v>
       </c>
       <c r="G446" s="15" t="s">
@@ -34282,40 +35707,40 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="447" s="7" customFormat="1" ht="67.5" spans="1:11">
-      <c r="A447" s="45"/>
-      <c r="B447" s="46">
+    <row r="447" s="9" customFormat="1" ht="67.5" spans="1:11">
+      <c r="A447" s="43"/>
+      <c r="B447" s="44">
         <v>215004</v>
       </c>
-      <c r="D447" s="47"/>
-      <c r="E447" s="48" t="s">
+      <c r="D447" s="45"/>
+      <c r="E447" s="46" t="s">
         <v>2969</v>
       </c>
-      <c r="F447" s="49" t="s">
+      <c r="F447" s="47" t="s">
         <v>2970</v>
       </c>
-      <c r="G447" s="48" t="s">
+      <c r="G447" s="46" t="s">
         <v>2971</v>
       </c>
-      <c r="H447" s="48" t="s">
+      <c r="H447" s="46" t="s">
         <v>2972</v>
       </c>
-      <c r="I447" s="48" t="s">
+      <c r="I447" s="46" t="s">
         <v>2973</v>
       </c>
-      <c r="J447" s="7" t="s">
+      <c r="J447" s="9" t="s">
         <v>2974</v>
       </c>
-      <c r="K447" s="7" t="s">
+      <c r="K447" s="9" t="s">
         <v>2975</v>
       </c>
     </row>
     <row r="448" s="1" customFormat="1" ht="67.5" spans="1:11">
-      <c r="A448" s="50"/>
+      <c r="A448" s="48"/>
       <c r="B448" s="11">
         <v>215005</v>
       </c>
-      <c r="D448" s="51"/>
+      <c r="D448" s="49"/>
       <c r="E448" s="26" t="s">
         <v>2976</v>
       </c>
@@ -34345,7 +35770,7 @@
       <c r="E449" s="1" t="s">
         <v>2984</v>
       </c>
-      <c r="F449" s="44" t="s">
+      <c r="F449" s="42" t="s">
         <v>2985</v>
       </c>
       <c r="G449" s="15" t="s">
@@ -35223,7 +36648,7 @@
       <c r="E481" s="1" t="s">
         <v>3202</v>
       </c>
-      <c r="F481" s="52" t="s">
+      <c r="F481" s="50" t="s">
         <v>3203</v>
       </c>
       <c r="G481" s="1" t="s">
@@ -35250,7 +36675,7 @@
       <c r="E482" s="1" t="s">
         <v>3210</v>
       </c>
-      <c r="F482" s="52" t="s">
+      <c r="F482" s="50" t="s">
         <v>3211</v>
       </c>
       <c r="G482" s="1" t="s">
@@ -35277,7 +36702,7 @@
       <c r="E483" s="1" t="s">
         <v>3218</v>
       </c>
-      <c r="F483" s="53" t="s">
+      <c r="F483" s="51" t="s">
         <v>3219</v>
       </c>
       <c r="G483" s="1" t="s">
@@ -35301,7 +36726,7 @@
         <v>3224</v>
       </c>
       <c r="C484" s="1"/>
-      <c r="E484" s="54" t="s">
+      <c r="E484" s="52" t="s">
         <v>3225</v>
       </c>
       <c r="F484" s="1" t="s">
@@ -35328,7 +36753,7 @@
         <v>3231</v>
       </c>
       <c r="C485" s="1"/>
-      <c r="E485" s="54" t="s">
+      <c r="E485" s="52" t="s">
         <v>3232</v>
       </c>
       <c r="F485" s="1" t="s">
@@ -36394,7 +37819,7 @@
       </c>
     </row>
     <row r="523" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B523" s="55" t="s">
+      <c r="B523" s="53" t="s">
         <v>3530</v>
       </c>
       <c r="E523" s="1" t="s">
@@ -36420,7 +37845,7 @@
       </c>
     </row>
     <row r="524" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B524" s="55" t="s">
+      <c r="B524" s="53" t="s">
         <v>3538</v>
       </c>
       <c r="E524" s="1" t="s">
@@ -36864,57 +38289,57 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="540" s="10" customFormat="1" spans="2:11">
-      <c r="B540" s="56" t="s">
+    <row r="540" s="8" customFormat="1" spans="2:11">
+      <c r="B540" s="9" t="s">
         <v>3666</v>
       </c>
-      <c r="C540" s="56"/>
-      <c r="E540" s="56" t="s">
+      <c r="C540" s="9"/>
+      <c r="E540" s="9" t="s">
         <v>3667</v>
       </c>
-      <c r="F540" s="56" t="s">
+      <c r="F540" s="9" t="s">
         <v>3668</v>
       </c>
-      <c r="G540" s="56" t="s">
+      <c r="G540" s="9" t="s">
         <v>3669</v>
       </c>
-      <c r="H540" s="56" t="s">
+      <c r="H540" s="9" t="s">
         <v>3670</v>
       </c>
-      <c r="I540" s="56" t="s">
+      <c r="I540" s="9" t="s">
         <v>3671</v>
       </c>
-      <c r="J540" s="56" t="s">
+      <c r="J540" s="9" t="s">
         <v>3672</v>
       </c>
-      <c r="K540" s="56" t="s">
+      <c r="K540" s="9" t="s">
         <v>3673</v>
       </c>
     </row>
-    <row r="541" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B541" s="56" t="s">
+    <row r="541" s="8" customFormat="1" ht="27" spans="2:11">
+      <c r="B541" s="9" t="s">
         <v>3674</v>
       </c>
-      <c r="C541" s="56"/>
-      <c r="E541" s="56" t="s">
+      <c r="C541" s="9"/>
+      <c r="E541" s="9" t="s">
         <v>3675</v>
       </c>
-      <c r="F541" s="56" t="s">
+      <c r="F541" s="9" t="s">
         <v>3676</v>
       </c>
-      <c r="G541" s="1" t="s">
+      <c r="G541" s="54" t="s">
         <v>3677</v>
       </c>
-      <c r="H541" s="1" t="s">
+      <c r="H541" s="54" t="s">
         <v>3678</v>
       </c>
-      <c r="I541" s="1" t="s">
+      <c r="I541" s="54" t="s">
         <v>3679</v>
       </c>
-      <c r="J541" s="1" t="s">
+      <c r="J541" s="54" t="s">
         <v>3680</v>
       </c>
-      <c r="K541" s="1" t="s">
+      <c r="K541" s="54" t="s">
         <v>3681</v>
       </c>
     </row>
@@ -37182,7 +38607,7 @@
       </c>
     </row>
     <row r="552" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B552" s="55" t="s">
+      <c r="B552" s="53" t="s">
         <v>3744</v>
       </c>
       <c r="E552" s="1" t="s">
@@ -37208,7 +38633,7 @@
       </c>
     </row>
     <row r="553" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B553" s="55" t="s">
+      <c r="B553" s="53" t="s">
         <v>3751</v>
       </c>
       <c r="D553" s="2"/>
@@ -37235,7 +38660,7 @@
       </c>
     </row>
     <row r="554" s="1" customFormat="1" spans="2:11">
-      <c r="B554" s="55" t="s">
+      <c r="B554" s="53" t="s">
         <v>3759</v>
       </c>
       <c r="D554" s="2"/>
@@ -37262,7 +38687,7 @@
       </c>
     </row>
     <row r="555" s="1" customFormat="1" spans="2:11">
-      <c r="B555" s="55" t="s">
+      <c r="B555" s="53" t="s">
         <v>3767</v>
       </c>
       <c r="D555" s="2"/>
@@ -39484,7 +40909,7 @@
       </c>
     </row>
     <row r="635" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B635" s="55" t="s">
+      <c r="B635" s="53" t="s">
         <v>4325</v>
       </c>
       <c r="C635" s="1"/>
@@ -39511,7 +40936,7 @@
       </c>
     </row>
     <row r="636" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B636" s="55" t="s">
+      <c r="B636" s="53" t="s">
         <v>4333</v>
       </c>
       <c r="C636" s="1"/>
@@ -39538,7 +40963,7 @@
       </c>
     </row>
     <row r="637" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B637" s="55" t="s">
+      <c r="B637" s="53" t="s">
         <v>4341</v>
       </c>
       <c r="C637" s="1"/>
@@ -39565,11 +40990,11 @@
       </c>
     </row>
     <row r="638" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B638" s="55" t="s">
+      <c r="B638" s="53" t="s">
         <v>4349</v>
       </c>
       <c r="C638" s="6"/>
-      <c r="D638" s="57"/>
+      <c r="D638" s="55"/>
       <c r="E638" s="6" t="s">
         <v>4350</v>
       </c>
@@ -39593,7 +41018,7 @@
       </c>
     </row>
     <row r="639" s="2" customFormat="1" spans="2:11">
-      <c r="B639" s="55" t="s">
+      <c r="B639" s="53" t="s">
         <v>4357</v>
       </c>
       <c r="C639" s="1"/>
@@ -39620,7 +41045,7 @@
       </c>
     </row>
     <row r="640" s="2" customFormat="1" ht="94.5" spans="2:11">
-      <c r="B640" s="55" t="s">
+      <c r="B640" s="53" t="s">
         <v>4365</v>
       </c>
       <c r="C640" s="1"/>
@@ -39647,110 +41072,110 @@
       </c>
     </row>
     <row r="641" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B641" s="58" t="s">
+      <c r="B641" s="56" t="s">
         <v>4373</v>
       </c>
-      <c r="C641" s="56"/>
-      <c r="E641" s="56" t="s">
+      <c r="C641" s="57"/>
+      <c r="E641" s="57" t="s">
         <v>4374</v>
       </c>
-      <c r="F641" s="56" t="s">
+      <c r="F641" s="57" t="s">
         <v>4375</v>
       </c>
-      <c r="G641" s="56" t="s">
+      <c r="G641" s="57" t="s">
         <v>4376</v>
       </c>
-      <c r="H641" s="56" t="s">
+      <c r="H641" s="57" t="s">
         <v>4377</v>
       </c>
-      <c r="I641" s="56" t="s">
+      <c r="I641" s="57" t="s">
         <v>4378</v>
       </c>
-      <c r="J641" s="56" t="s">
+      <c r="J641" s="57" t="s">
         <v>4379</v>
       </c>
-      <c r="K641" s="56" t="s">
+      <c r="K641" s="57" t="s">
         <v>4375</v>
       </c>
     </row>
     <row r="642" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B642" s="58" t="s">
+      <c r="B642" s="56" t="s">
         <v>4380</v>
       </c>
-      <c r="C642" s="56"/>
-      <c r="E642" s="56" t="s">
+      <c r="C642" s="57"/>
+      <c r="E642" s="57" t="s">
         <v>4381</v>
       </c>
-      <c r="F642" s="56" t="s">
+      <c r="F642" s="57" t="s">
         <v>4382</v>
       </c>
-      <c r="G642" s="56" t="s">
+      <c r="G642" s="57" t="s">
         <v>4383</v>
       </c>
-      <c r="H642" s="56" t="s">
+      <c r="H642" s="57" t="s">
         <v>4384</v>
       </c>
-      <c r="I642" s="56" t="s">
+      <c r="I642" s="57" t="s">
         <v>4385</v>
       </c>
-      <c r="J642" s="56" t="s">
+      <c r="J642" s="57" t="s">
         <v>4386</v>
       </c>
-      <c r="K642" s="56" t="s">
+      <c r="K642" s="57" t="s">
         <v>4387</v>
       </c>
     </row>
     <row r="643" s="10" customFormat="1" ht="54" spans="2:11">
-      <c r="B643" s="58" t="s">
+      <c r="B643" s="56" t="s">
         <v>4388</v>
       </c>
-      <c r="C643" s="56"/>
-      <c r="E643" s="56" t="s">
+      <c r="C643" s="57"/>
+      <c r="E643" s="57" t="s">
         <v>4389</v>
       </c>
-      <c r="F643" s="56" t="s">
+      <c r="F643" s="57" t="s">
         <v>4390</v>
       </c>
-      <c r="G643" s="56" t="s">
+      <c r="G643" s="57" t="s">
         <v>4391</v>
       </c>
-      <c r="H643" s="56" t="s">
+      <c r="H643" s="57" t="s">
         <v>4392</v>
       </c>
-      <c r="I643" s="56" t="s">
+      <c r="I643" s="57" t="s">
         <v>4393</v>
       </c>
-      <c r="J643" s="56" t="s">
+      <c r="J643" s="57" t="s">
         <v>4394</v>
       </c>
-      <c r="K643" s="56" t="s">
+      <c r="K643" s="57" t="s">
         <v>4395</v>
       </c>
     </row>
     <row r="644" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B644" s="58" t="s">
+      <c r="B644" s="56" t="s">
         <v>4396</v>
       </c>
-      <c r="C644" s="56"/>
-      <c r="E644" s="56" t="s">
+      <c r="C644" s="57"/>
+      <c r="E644" s="57" t="s">
         <v>4397</v>
       </c>
-      <c r="F644" s="56" t="s">
+      <c r="F644" s="57" t="s">
         <v>4398</v>
       </c>
-      <c r="G644" s="56" t="s">
+      <c r="G644" s="57" t="s">
         <v>4399</v>
       </c>
-      <c r="H644" s="56" t="s">
+      <c r="H644" s="57" t="s">
         <v>4400</v>
       </c>
-      <c r="I644" s="56" t="s">
+      <c r="I644" s="57" t="s">
         <v>4401</v>
       </c>
-      <c r="J644" s="56" t="s">
+      <c r="J644" s="57" t="s">
         <v>4402</v>
       </c>
-      <c r="K644" s="56" t="s">
+      <c r="K644" s="57" t="s">
         <v>4403</v>
       </c>
     </row>
@@ -45458,7 +46883,7 @@
       <c r="E862" s="6" t="s">
         <v>5969</v>
       </c>
-      <c r="F862" s="59" t="s">
+      <c r="F862" s="58" t="s">
         <v>5970</v>
       </c>
       <c r="G862" s="1" t="s">
@@ -45484,7 +46909,7 @@
       <c r="E863" s="6" t="s">
         <v>5975</v>
       </c>
-      <c r="F863" s="60" t="s">
+      <c r="F863" s="59" t="s">
         <v>5976</v>
       </c>
       <c r="G863" s="1" t="s">
@@ -45510,7 +46935,7 @@
       <c r="E864" s="6" t="s">
         <v>5981</v>
       </c>
-      <c r="F864" s="60" t="s">
+      <c r="F864" s="59" t="s">
         <v>5982</v>
       </c>
       <c r="G864" s="1" t="s">
@@ -45538,7 +46963,7 @@
       <c r="E865" s="6" t="s">
         <v>5986</v>
       </c>
-      <c r="F865" s="54" t="s">
+      <c r="F865" s="52" t="s">
         <v>5987</v>
       </c>
       <c r="G865" s="1" t="s">
@@ -45566,7 +46991,7 @@
       <c r="E866" s="6" t="s">
         <v>5922</v>
       </c>
-      <c r="F866" s="60" t="s">
+      <c r="F866" s="59" t="s">
         <v>5993</v>
       </c>
       <c r="G866" s="1" t="s">
@@ -45594,7 +47019,7 @@
       <c r="E867" s="6" t="s">
         <v>6000</v>
       </c>
-      <c r="F867" s="60" t="s">
+      <c r="F867" s="59" t="s">
         <v>6001</v>
       </c>
       <c r="G867" s="1" t="s">
@@ -45622,7 +47047,7 @@
       <c r="E868" s="6" t="s">
         <v>6008</v>
       </c>
-      <c r="F868" s="60" t="s">
+      <c r="F868" s="59" t="s">
         <v>6009</v>
       </c>
       <c r="G868" s="1" t="s">
@@ -45650,7 +47075,7 @@
       <c r="E869" s="6" t="s">
         <v>6016</v>
       </c>
-      <c r="F869" s="60" t="s">
+      <c r="F869" s="59" t="s">
         <v>6017</v>
       </c>
       <c r="G869" s="1" t="s">
@@ -45678,7 +47103,7 @@
       <c r="E870" s="6" t="s">
         <v>6022</v>
       </c>
-      <c r="F870" s="60" t="s">
+      <c r="F870" s="59" t="s">
         <v>6023</v>
       </c>
       <c r="G870" s="1" t="s">
@@ -45706,7 +47131,7 @@
       <c r="E871" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="F871" s="60" t="s">
+      <c r="F871" s="59" t="s">
         <v>6030</v>
       </c>
       <c r="G871" s="1" t="s">
@@ -45734,7 +47159,7 @@
       <c r="E872" s="6" t="s">
         <v>6036</v>
       </c>
-      <c r="F872" s="60" t="s">
+      <c r="F872" s="59" t="s">
         <v>6037</v>
       </c>
       <c r="G872" s="1" t="s">
@@ -45762,7 +47187,7 @@
       <c r="E873" s="6" t="s">
         <v>6042</v>
       </c>
-      <c r="F873" s="60" t="s">
+      <c r="F873" s="59" t="s">
         <v>6043</v>
       </c>
       <c r="G873" s="1" t="s">
@@ -45790,7 +47215,7 @@
       <c r="E874" s="6" t="s">
         <v>6050</v>
       </c>
-      <c r="F874" s="60" t="s">
+      <c r="F874" s="59" t="s">
         <v>6051</v>
       </c>
       <c r="G874" s="1" t="s">
@@ -45818,7 +47243,7 @@
       <c r="E875" s="6" t="s">
         <v>6058</v>
       </c>
-      <c r="F875" s="61" t="s">
+      <c r="F875" s="60" t="s">
         <v>6059</v>
       </c>
       <c r="G875" s="1" t="s">
@@ -45846,7 +47271,7 @@
       <c r="E876" s="1" t="s">
         <v>6066</v>
       </c>
-      <c r="F876" s="61" t="s">
+      <c r="F876" s="60" t="s">
         <v>6067</v>
       </c>
       <c r="G876" s="1" t="s">
@@ -45874,7 +47299,7 @@
       <c r="E877" s="1" t="s">
         <v>6074</v>
       </c>
-      <c r="F877" s="61" t="s">
+      <c r="F877" s="60" t="s">
         <v>6075</v>
       </c>
       <c r="G877" s="1" t="s">
@@ -45902,7 +47327,7 @@
       <c r="E878" s="1" t="s">
         <v>6082</v>
       </c>
-      <c r="F878" s="61" t="s">
+      <c r="F878" s="60" t="s">
         <v>6083</v>
       </c>
       <c r="G878" s="1" t="s">
@@ -45930,7 +47355,7 @@
       <c r="E879" s="1" t="s">
         <v>6089</v>
       </c>
-      <c r="F879" s="61" t="s">
+      <c r="F879" s="60" t="s">
         <v>6090</v>
       </c>
       <c r="G879" s="1" t="s">
@@ -45958,7 +47383,7 @@
       <c r="E880" s="1" t="s">
         <v>6096</v>
       </c>
-      <c r="F880" s="61" t="s">
+      <c r="F880" s="60" t="s">
         <v>6097</v>
       </c>
       <c r="G880" s="1" t="s">
@@ -45986,7 +47411,7 @@
       <c r="E881" s="1" t="s">
         <v>6104</v>
       </c>
-      <c r="F881" s="61" t="s">
+      <c r="F881" s="60" t="s">
         <v>6105</v>
       </c>
       <c r="G881" s="1" t="s">
@@ -46014,7 +47439,7 @@
       <c r="E882" s="1" t="s">
         <v>6112</v>
       </c>
-      <c r="F882" s="61" t="s">
+      <c r="F882" s="60" t="s">
         <v>6113</v>
       </c>
       <c r="G882" s="1" t="s">
@@ -46042,7 +47467,7 @@
       <c r="E883" s="1" t="s">
         <v>6119</v>
       </c>
-      <c r="F883" s="61" t="s">
+      <c r="F883" s="60" t="s">
         <v>6120</v>
       </c>
       <c r="G883" s="1" t="s">
@@ -46070,7 +47495,7 @@
       <c r="E884" s="1" t="s">
         <v>6127</v>
       </c>
-      <c r="F884" s="61" t="s">
+      <c r="F884" s="60" t="s">
         <v>6128</v>
       </c>
       <c r="G884" s="1" t="s">
@@ -46098,7 +47523,7 @@
       <c r="E885" s="1" t="s">
         <v>6134</v>
       </c>
-      <c r="F885" s="61" t="s">
+      <c r="F885" s="60" t="s">
         <v>6135</v>
       </c>
       <c r="G885" s="1" t="s">
@@ -46584,29 +48009,29 @@
       </c>
     </row>
     <row r="903" s="10" customFormat="1" ht="121.5" spans="2:11">
-      <c r="B903" s="56" t="s">
+      <c r="B903" s="57" t="s">
         <v>6275</v>
       </c>
-      <c r="C903" s="56"/>
-      <c r="E903" s="56" t="s">
+      <c r="C903" s="57"/>
+      <c r="E903" s="57" t="s">
         <v>6276</v>
       </c>
-      <c r="F903" s="56" t="s">
+      <c r="F903" s="57" t="s">
         <v>6277</v>
       </c>
-      <c r="G903" s="56" t="s">
+      <c r="G903" s="57" t="s">
         <v>6278</v>
       </c>
-      <c r="H903" s="56" t="s">
+      <c r="H903" s="57" t="s">
         <v>6279</v>
       </c>
-      <c r="I903" s="56" t="s">
+      <c r="I903" s="57" t="s">
         <v>6280</v>
       </c>
-      <c r="J903" s="56" t="s">
+      <c r="J903" s="57" t="s">
         <v>6281</v>
       </c>
-      <c r="K903" s="56" t="s">
+      <c r="K903" s="57" t="s">
         <v>6282</v>
       </c>
     </row>
@@ -47941,62 +49366,2740 @@
         <v>6653</v>
       </c>
     </row>
-    <row r="953" ht="162" spans="2:11">
+    <row r="953" ht="27" spans="2:11">
       <c r="B953" s="12" t="s">
         <v>6654</v>
       </c>
-      <c r="C953" s="12" t="s">
+      <c r="E953" s="12" t="s">
         <v>6655</v>
       </c>
-      <c r="E953" s="12" t="s">
+      <c r="F953" s="12" t="s">
         <v>6656</v>
       </c>
-      <c r="F953" s="12" t="s">
+      <c r="G953" s="12" t="s">
         <v>6657</v>
       </c>
-      <c r="G953" s="12" t="s">
+      <c r="H953" s="12" t="s">
+        <v>6657</v>
+      </c>
+      <c r="I953" s="12" t="s">
+        <v>6657</v>
+      </c>
+      <c r="J953" s="12" t="s">
         <v>6658</v>
       </c>
-      <c r="H953" s="12" t="s">
+      <c r="K953" s="12" t="s">
+        <v>6658</v>
+      </c>
+    </row>
+    <row r="954" spans="2:11">
+      <c r="B954" s="12" t="s">
         <v>6659</v>
       </c>
-      <c r="I953" s="12" t="s">
+      <c r="E954" s="24" t="s">
         <v>6660</v>
       </c>
-      <c r="J953" s="12" t="s">
+      <c r="F954" s="12" t="s">
         <v>6661</v>
       </c>
-      <c r="K953" s="12" t="s">
-        <v>6661</v>
-      </c>
-    </row>
-    <row r="954" ht="297" spans="2:11">
-      <c r="B954" s="12" t="s">
+      <c r="G954" s="12" t="s">
         <v>6662</v>
       </c>
-      <c r="C954" s="12" t="s">
+      <c r="H954" s="12" t="s">
+        <v>6662</v>
+      </c>
+      <c r="I954" s="12" t="s">
+        <v>6662</v>
+      </c>
+      <c r="J954" s="12" t="s">
         <v>6663</v>
       </c>
-      <c r="E954" s="24" t="s">
+      <c r="K954" s="12" t="s">
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="955" spans="2:11">
+      <c r="B955" s="12" t="s">
         <v>6664</v>
       </c>
-      <c r="F954" s="12" t="s">
+      <c r="E955" s="24" t="s">
         <v>6665</v>
       </c>
-      <c r="G954" s="12" t="s">
+      <c r="F955" s="12" t="s">
         <v>6666</v>
       </c>
-      <c r="H954" s="12" t="s">
+      <c r="G955" s="12" t="s">
         <v>6667</v>
       </c>
-      <c r="I954" s="12" t="s">
+      <c r="H955" s="12" t="s">
+        <v>6667</v>
+      </c>
+      <c r="I955" s="12" t="s">
+        <v>6667</v>
+      </c>
+      <c r="J955" s="12" t="s">
         <v>6668</v>
       </c>
-      <c r="J954" s="12" t="s">
+      <c r="K955" s="12" t="s">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="956" spans="2:11">
+      <c r="B956" s="12" t="s">
         <v>6669</v>
       </c>
-      <c r="K954" s="12" t="s">
-        <v>6669</v>
+      <c r="E956" s="24" t="s">
+        <v>6670</v>
+      </c>
+      <c r="F956" s="12" t="s">
+        <v>6671</v>
+      </c>
+      <c r="G956" s="12" t="s">
+        <v>6672</v>
+      </c>
+      <c r="H956" s="12" t="s">
+        <v>6672</v>
+      </c>
+      <c r="I956" s="12" t="s">
+        <v>6672</v>
+      </c>
+      <c r="J956" s="12" t="s">
+        <v>6673</v>
+      </c>
+      <c r="K956" s="12" t="s">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="957" ht="27" spans="2:11">
+      <c r="B957" s="12" t="s">
+        <v>6674</v>
+      </c>
+      <c r="E957" s="24" t="s">
+        <v>6675</v>
+      </c>
+      <c r="F957" s="12" t="s">
+        <v>6676</v>
+      </c>
+      <c r="G957" s="12" t="s">
+        <v>6677</v>
+      </c>
+      <c r="H957" s="12" t="s">
+        <v>6677</v>
+      </c>
+      <c r="I957" s="12" t="s">
+        <v>6677</v>
+      </c>
+      <c r="J957" s="12" t="s">
+        <v>6678</v>
+      </c>
+      <c r="K957" s="12" t="s">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="958" spans="2:11">
+      <c r="B958" s="12" t="s">
+        <v>6679</v>
+      </c>
+      <c r="E958" s="24" t="s">
+        <v>6680</v>
+      </c>
+      <c r="F958" s="12" t="s">
+        <v>6681</v>
+      </c>
+      <c r="G958" s="12" t="s">
+        <v>6682</v>
+      </c>
+      <c r="H958" s="12" t="s">
+        <v>6682</v>
+      </c>
+      <c r="I958" s="12" t="s">
+        <v>6682</v>
+      </c>
+      <c r="J958" s="12" t="s">
+        <v>6683</v>
+      </c>
+      <c r="K958" s="12" t="s">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="959" spans="2:11">
+      <c r="B959" s="12" t="s">
+        <v>6684</v>
+      </c>
+      <c r="E959" s="24" t="s">
+        <v>6685</v>
+      </c>
+      <c r="F959" s="12" t="s">
+        <v>6686</v>
+      </c>
+      <c r="G959" s="12" t="s">
+        <v>6687</v>
+      </c>
+      <c r="H959" s="12" t="s">
+        <v>6687</v>
+      </c>
+      <c r="I959" s="12" t="s">
+        <v>6687</v>
+      </c>
+      <c r="J959" s="12" t="s">
+        <v>6688</v>
+      </c>
+      <c r="K959" s="12" t="s">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="960" spans="2:11">
+      <c r="B960" s="12" t="s">
+        <v>6689</v>
+      </c>
+      <c r="E960" s="24" t="s">
+        <v>6690</v>
+      </c>
+      <c r="F960" s="12" t="s">
+        <v>6691</v>
+      </c>
+      <c r="G960" s="12" t="s">
+        <v>6692</v>
+      </c>
+      <c r="H960" s="12" t="s">
+        <v>6692</v>
+      </c>
+      <c r="I960" s="12" t="s">
+        <v>6692</v>
+      </c>
+      <c r="J960" s="12" t="s">
+        <v>6693</v>
+      </c>
+      <c r="K960" s="12" t="s">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="961" spans="2:11">
+      <c r="B961" s="12" t="s">
+        <v>6694</v>
+      </c>
+      <c r="E961" s="24" t="s">
+        <v>6695</v>
+      </c>
+      <c r="F961" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="G961" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="H961" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="I961" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="J961" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="K961" s="12" t="s">
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="962" spans="2:11">
+      <c r="B962" s="12" t="s">
+        <v>6697</v>
+      </c>
+      <c r="E962" s="24" t="s">
+        <v>6698</v>
+      </c>
+      <c r="F962" s="12" t="s">
+        <v>6699</v>
+      </c>
+      <c r="G962" s="12" t="s">
+        <v>6700</v>
+      </c>
+      <c r="H962" s="12" t="s">
+        <v>6700</v>
+      </c>
+      <c r="I962" s="12" t="s">
+        <v>6700</v>
+      </c>
+      <c r="J962" s="12" t="s">
+        <v>6701</v>
+      </c>
+      <c r="K962" s="12" t="s">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="963" spans="2:11">
+      <c r="B963" s="12" t="s">
+        <v>6702</v>
+      </c>
+      <c r="E963" s="24" t="s">
+        <v>6703</v>
+      </c>
+      <c r="F963" s="12" t="s">
+        <v>6704</v>
+      </c>
+      <c r="G963" s="12" t="s">
+        <v>6705</v>
+      </c>
+      <c r="H963" s="12" t="s">
+        <v>6705</v>
+      </c>
+      <c r="I963" s="12" t="s">
+        <v>6705</v>
+      </c>
+      <c r="J963" s="12" t="s">
+        <v>6706</v>
+      </c>
+      <c r="K963" s="12" t="s">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="964" ht="40.5" spans="2:11">
+      <c r="B964" s="12" t="s">
+        <v>6707</v>
+      </c>
+      <c r="E964" s="24" t="s">
+        <v>6708</v>
+      </c>
+      <c r="F964" s="12" t="s">
+        <v>6709</v>
+      </c>
+      <c r="G964" s="12" t="s">
+        <v>6710</v>
+      </c>
+      <c r="H964" s="12" t="s">
+        <v>6710</v>
+      </c>
+      <c r="I964" s="12" t="s">
+        <v>6710</v>
+      </c>
+      <c r="J964" s="12" t="s">
+        <v>6711</v>
+      </c>
+      <c r="K964" s="12" t="s">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="965" spans="2:11">
+      <c r="B965" s="12" t="s">
+        <v>6713</v>
+      </c>
+      <c r="E965" s="24" t="s">
+        <v>6714</v>
+      </c>
+      <c r="F965" s="12" t="s">
+        <v>6715</v>
+      </c>
+      <c r="G965" s="12" t="s">
+        <v>6716</v>
+      </c>
+      <c r="H965" s="12" t="s">
+        <v>6716</v>
+      </c>
+      <c r="I965" s="12" t="s">
+        <v>6716</v>
+      </c>
+      <c r="J965" s="12" t="s">
+        <v>6717</v>
+      </c>
+      <c r="K965" s="12" t="s">
+        <v>6717</v>
+      </c>
+    </row>
+    <row r="966" spans="2:11">
+      <c r="B966" s="12" t="s">
+        <v>6718</v>
+      </c>
+      <c r="E966" s="24" t="s">
+        <v>6719</v>
+      </c>
+      <c r="F966" s="12" t="s">
+        <v>6720</v>
+      </c>
+      <c r="G966" s="12" t="s">
+        <v>6721</v>
+      </c>
+      <c r="H966" s="12" t="s">
+        <v>6721</v>
+      </c>
+      <c r="I966" s="12" t="s">
+        <v>6721</v>
+      </c>
+      <c r="J966" s="12" t="s">
+        <v>6722</v>
+      </c>
+      <c r="K966" s="12" t="s">
+        <v>6722</v>
+      </c>
+    </row>
+    <row r="967" spans="2:11">
+      <c r="B967" s="12" t="s">
+        <v>6723</v>
+      </c>
+      <c r="E967" s="24" t="s">
+        <v>6724</v>
+      </c>
+      <c r="F967" s="12" t="s">
+        <v>6725</v>
+      </c>
+      <c r="G967" s="12" t="s">
+        <v>6726</v>
+      </c>
+      <c r="H967" s="12" t="s">
+        <v>6726</v>
+      </c>
+      <c r="I967" s="12" t="s">
+        <v>6726</v>
+      </c>
+      <c r="J967" s="12" t="s">
+        <v>6727</v>
+      </c>
+      <c r="K967" s="12" t="s">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="968" spans="2:11">
+      <c r="B968" s="12" t="s">
+        <v>6728</v>
+      </c>
+      <c r="E968" s="24" t="s">
+        <v>6729</v>
+      </c>
+      <c r="F968" s="12" t="s">
+        <v>6730</v>
+      </c>
+      <c r="G968" s="12" t="s">
+        <v>5607</v>
+      </c>
+      <c r="H968" s="12" t="s">
+        <v>5607</v>
+      </c>
+      <c r="I968" s="12" t="s">
+        <v>5607</v>
+      </c>
+      <c r="J968" s="12" t="s">
+        <v>6731</v>
+      </c>
+      <c r="K968" s="12" t="s">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="969" spans="2:11">
+      <c r="B969" s="12" t="s">
+        <v>6732</v>
+      </c>
+      <c r="E969" s="24" t="s">
+        <v>6733</v>
+      </c>
+      <c r="F969" s="12" t="s">
+        <v>6734</v>
+      </c>
+      <c r="G969" s="12" t="s">
+        <v>6735</v>
+      </c>
+      <c r="H969" s="12" t="s">
+        <v>6735</v>
+      </c>
+      <c r="I969" s="12" t="s">
+        <v>6735</v>
+      </c>
+      <c r="J969" s="12" t="s">
+        <v>6735</v>
+      </c>
+      <c r="K969" s="12" t="s">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="970" spans="2:11">
+      <c r="B970" s="12" t="s">
+        <v>6736</v>
+      </c>
+      <c r="E970" s="24" t="s">
+        <v>6737</v>
+      </c>
+      <c r="F970" s="12" t="s">
+        <v>6738</v>
+      </c>
+      <c r="G970" s="12" t="s">
+        <v>6739</v>
+      </c>
+      <c r="H970" s="12" t="s">
+        <v>6739</v>
+      </c>
+      <c r="I970" s="12" t="s">
+        <v>6739</v>
+      </c>
+      <c r="J970" s="12" t="s">
+        <v>6740</v>
+      </c>
+      <c r="K970" s="12" t="s">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="971" spans="2:11">
+      <c r="B971" s="12" t="s">
+        <v>6741</v>
+      </c>
+      <c r="E971" s="24" t="s">
+        <v>6742</v>
+      </c>
+      <c r="F971" s="12" t="s">
+        <v>6743</v>
+      </c>
+      <c r="G971" s="12" t="s">
+        <v>6744</v>
+      </c>
+      <c r="H971" s="12" t="s">
+        <v>6744</v>
+      </c>
+      <c r="I971" s="12" t="s">
+        <v>6744</v>
+      </c>
+      <c r="J971" s="12" t="s">
+        <v>6745</v>
+      </c>
+      <c r="K971" s="12" t="s">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="972" spans="2:11">
+      <c r="B972" s="12" t="s">
+        <v>6746</v>
+      </c>
+      <c r="E972" s="24" t="s">
+        <v>6703</v>
+      </c>
+      <c r="F972" s="12" t="s">
+        <v>6704</v>
+      </c>
+      <c r="G972" s="12" t="s">
+        <v>6705</v>
+      </c>
+      <c r="H972" s="12" t="s">
+        <v>6705</v>
+      </c>
+      <c r="I972" s="12" t="s">
+        <v>6705</v>
+      </c>
+      <c r="J972" s="12" t="s">
+        <v>6706</v>
+      </c>
+      <c r="K972" s="12" t="s">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="973" spans="2:11">
+      <c r="B973" s="12" t="s">
+        <v>6747</v>
+      </c>
+      <c r="E973" s="24" t="s">
+        <v>6748</v>
+      </c>
+      <c r="F973" s="12" t="s">
+        <v>6749</v>
+      </c>
+      <c r="G973" s="12" t="s">
+        <v>6750</v>
+      </c>
+      <c r="H973" s="12" t="s">
+        <v>6750</v>
+      </c>
+      <c r="I973" s="12" t="s">
+        <v>6750</v>
+      </c>
+      <c r="J973" s="12" t="s">
+        <v>6751</v>
+      </c>
+      <c r="K973" s="12" t="s">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="974" spans="2:11">
+      <c r="B974" s="12" t="s">
+        <v>6752</v>
+      </c>
+      <c r="E974" s="24" t="s">
+        <v>6753</v>
+      </c>
+      <c r="F974" s="12" t="s">
+        <v>6754</v>
+      </c>
+      <c r="G974" s="12" t="s">
+        <v>6755</v>
+      </c>
+      <c r="H974" s="12" t="s">
+        <v>6755</v>
+      </c>
+      <c r="I974" s="12" t="s">
+        <v>6755</v>
+      </c>
+      <c r="J974" s="12" t="s">
+        <v>6756</v>
+      </c>
+      <c r="K974" s="12" t="s">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="975" spans="2:11">
+      <c r="B975" s="12" t="s">
+        <v>6757</v>
+      </c>
+      <c r="E975" s="24" t="s">
+        <v>6758</v>
+      </c>
+      <c r="F975" s="12" t="s">
+        <v>6759</v>
+      </c>
+      <c r="G975" s="12" t="s">
+        <v>6760</v>
+      </c>
+      <c r="H975" s="12" t="s">
+        <v>6760</v>
+      </c>
+      <c r="I975" s="12" t="s">
+        <v>6760</v>
+      </c>
+      <c r="J975" s="12" t="s">
+        <v>6761</v>
+      </c>
+      <c r="K975" s="12" t="s">
+        <v>6761</v>
+      </c>
+    </row>
+    <row r="976" spans="2:11">
+      <c r="B976" s="12" t="s">
+        <v>6762</v>
+      </c>
+      <c r="E976" s="24" t="s">
+        <v>6685</v>
+      </c>
+      <c r="F976" s="12" t="s">
+        <v>6686</v>
+      </c>
+      <c r="G976" s="12" t="s">
+        <v>6687</v>
+      </c>
+      <c r="H976" s="12" t="s">
+        <v>6687</v>
+      </c>
+      <c r="I976" s="12" t="s">
+        <v>6687</v>
+      </c>
+      <c r="J976" s="12" t="s">
+        <v>6763</v>
+      </c>
+      <c r="K976" s="12" t="s">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="977" spans="2:11">
+      <c r="B977" s="12" t="s">
+        <v>6764</v>
+      </c>
+      <c r="E977" s="24" t="s">
+        <v>6690</v>
+      </c>
+      <c r="F977" s="12" t="s">
+        <v>6691</v>
+      </c>
+      <c r="G977" s="12" t="s">
+        <v>6692</v>
+      </c>
+      <c r="H977" s="12" t="s">
+        <v>6692</v>
+      </c>
+      <c r="I977" s="12" t="s">
+        <v>6692</v>
+      </c>
+      <c r="J977" s="12" t="s">
+        <v>6693</v>
+      </c>
+      <c r="K977" s="12" t="s">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="978" spans="2:11">
+      <c r="B978" s="12" t="s">
+        <v>6765</v>
+      </c>
+      <c r="E978" s="24" t="s">
+        <v>6766</v>
+      </c>
+      <c r="F978" s="12" t="s">
+        <v>6767</v>
+      </c>
+      <c r="G978" s="12" t="s">
+        <v>6768</v>
+      </c>
+      <c r="H978" s="12" t="s">
+        <v>6768</v>
+      </c>
+      <c r="I978" s="12" t="s">
+        <v>6768</v>
+      </c>
+      <c r="J978" s="12" t="s">
+        <v>4973</v>
+      </c>
+      <c r="K978" s="12" t="s">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="979" spans="2:11">
+      <c r="B979" s="12" t="s">
+        <v>6769</v>
+      </c>
+      <c r="E979" s="24" t="s">
+        <v>6695</v>
+      </c>
+      <c r="F979" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="G979" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="H979" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="I979" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="J979" s="12" t="s">
+        <v>6696</v>
+      </c>
+      <c r="K979" s="12" t="s">
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="980" spans="2:11">
+      <c r="B980" s="12" t="s">
+        <v>6770</v>
+      </c>
+      <c r="E980" s="24" t="s">
+        <v>6771</v>
+      </c>
+      <c r="F980" s="12" t="s">
+        <v>6772</v>
+      </c>
+      <c r="G980" s="12" t="s">
+        <v>6773</v>
+      </c>
+      <c r="H980" s="12" t="s">
+        <v>6773</v>
+      </c>
+      <c r="I980" s="12" t="s">
+        <v>6773</v>
+      </c>
+      <c r="J980" s="12" t="s">
+        <v>6774</v>
+      </c>
+      <c r="K980" s="12" t="s">
+        <v>6774</v>
+      </c>
+    </row>
+    <row r="981" ht="175.5" spans="2:11">
+      <c r="B981" s="12" t="s">
+        <v>6775</v>
+      </c>
+      <c r="E981" s="24" t="s">
+        <v>6776</v>
+      </c>
+      <c r="F981" s="12" t="s">
+        <v>6777</v>
+      </c>
+      <c r="G981" s="12" t="s">
+        <v>6778</v>
+      </c>
+      <c r="H981" s="12" t="s">
+        <v>6778</v>
+      </c>
+      <c r="I981" s="12" t="s">
+        <v>6778</v>
+      </c>
+      <c r="J981" s="12" t="s">
+        <v>6779</v>
+      </c>
+      <c r="K981" s="12" t="s">
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="982" spans="2:11">
+      <c r="B982" s="12" t="s">
+        <v>6780</v>
+      </c>
+      <c r="E982" s="24" t="s">
+        <v>6781</v>
+      </c>
+      <c r="F982" s="12" t="s">
+        <v>6782</v>
+      </c>
+      <c r="G982" s="12" t="s">
+        <v>6783</v>
+      </c>
+      <c r="H982" s="12" t="s">
+        <v>6783</v>
+      </c>
+      <c r="I982" s="12" t="s">
+        <v>6783</v>
+      </c>
+      <c r="J982" s="12" t="s">
+        <v>6784</v>
+      </c>
+      <c r="K982" s="12" t="s">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="983" ht="162" spans="2:11">
+      <c r="B983" s="12" t="s">
+        <v>6785</v>
+      </c>
+      <c r="E983" s="24" t="s">
+        <v>6786</v>
+      </c>
+      <c r="F983" s="12" t="s">
+        <v>6787</v>
+      </c>
+      <c r="G983" s="12" t="s">
+        <v>6788</v>
+      </c>
+      <c r="H983" s="12" t="s">
+        <v>6788</v>
+      </c>
+      <c r="I983" s="12" t="s">
+        <v>6788</v>
+      </c>
+      <c r="J983" s="12" t="s">
+        <v>6789</v>
+      </c>
+      <c r="K983" s="12" t="s">
+        <v>6789</v>
+      </c>
+    </row>
+    <row r="984" ht="27" spans="2:11">
+      <c r="B984" s="12" t="s">
+        <v>6790</v>
+      </c>
+      <c r="E984" t="s">
+        <v>6791</v>
+      </c>
+      <c r="F984" s="12" t="s">
+        <v>6792</v>
+      </c>
+      <c r="G984" s="12" t="s">
+        <v>6793</v>
+      </c>
+      <c r="H984" s="12" t="s">
+        <v>6793</v>
+      </c>
+      <c r="I984" s="12" t="s">
+        <v>6793</v>
+      </c>
+      <c r="J984" s="12" t="s">
+        <v>6794</v>
+      </c>
+      <c r="K984" s="12" t="s">
+        <v>6794</v>
+      </c>
+    </row>
+    <row r="985" ht="27" spans="2:11">
+      <c r="B985" s="12" t="s">
+        <v>6795</v>
+      </c>
+      <c r="E985" t="s">
+        <v>6796</v>
+      </c>
+      <c r="F985" s="12" t="s">
+        <v>6797</v>
+      </c>
+      <c r="G985" s="12" t="s">
+        <v>6798</v>
+      </c>
+      <c r="H985" s="12" t="s">
+        <v>6798</v>
+      </c>
+      <c r="I985" s="12" t="s">
+        <v>6798</v>
+      </c>
+      <c r="J985" s="12" t="s">
+        <v>6799</v>
+      </c>
+      <c r="K985" s="12" t="s">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="986" spans="2:11">
+      <c r="B986" s="12" t="s">
+        <v>6800</v>
+      </c>
+      <c r="E986" t="s">
+        <v>6801</v>
+      </c>
+      <c r="F986" s="12" t="s">
+        <v>6802</v>
+      </c>
+      <c r="G986" s="12" t="s">
+        <v>6803</v>
+      </c>
+      <c r="H986" s="12" t="s">
+        <v>6803</v>
+      </c>
+      <c r="I986" s="12" t="s">
+        <v>6803</v>
+      </c>
+      <c r="J986" s="12" t="s">
+        <v>6804</v>
+      </c>
+      <c r="K986" s="12" t="s">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="987" spans="2:11">
+      <c r="B987" s="12" t="s">
+        <v>6805</v>
+      </c>
+      <c r="E987" t="s">
+        <v>6806</v>
+      </c>
+      <c r="F987" s="12" t="s">
+        <v>6807</v>
+      </c>
+      <c r="G987" s="12" t="s">
+        <v>6808</v>
+      </c>
+      <c r="H987" s="12" t="s">
+        <v>6808</v>
+      </c>
+      <c r="I987" s="12" t="s">
+        <v>6808</v>
+      </c>
+      <c r="J987" s="12" t="s">
+        <v>6809</v>
+      </c>
+      <c r="K987" s="12" t="s">
+        <v>6809</v>
+      </c>
+    </row>
+    <row r="988" spans="2:11">
+      <c r="B988" s="12" t="s">
+        <v>6810</v>
+      </c>
+      <c r="E988" t="s">
+        <v>6811</v>
+      </c>
+      <c r="F988" s="12" t="s">
+        <v>6812</v>
+      </c>
+      <c r="G988" s="12" t="s">
+        <v>6813</v>
+      </c>
+      <c r="H988" s="12" t="s">
+        <v>6813</v>
+      </c>
+      <c r="I988" s="12" t="s">
+        <v>6813</v>
+      </c>
+      <c r="J988" s="12" t="s">
+        <v>6814</v>
+      </c>
+      <c r="K988" s="12" t="s">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="989" spans="2:11">
+      <c r="B989" s="12" t="s">
+        <v>6815</v>
+      </c>
+      <c r="E989" s="24" t="s">
+        <v>6816</v>
+      </c>
+      <c r="F989" s="12" t="s">
+        <v>6817</v>
+      </c>
+      <c r="G989" s="12" t="s">
+        <v>6818</v>
+      </c>
+      <c r="H989" s="12" t="s">
+        <v>6818</v>
+      </c>
+      <c r="I989" s="12" t="s">
+        <v>6818</v>
+      </c>
+      <c r="J989" s="12" t="s">
+        <v>6819</v>
+      </c>
+      <c r="K989" s="12" t="s">
+        <v>6819</v>
+      </c>
+    </row>
+    <row r="990" spans="2:11">
+      <c r="B990" s="12" t="s">
+        <v>6820</v>
+      </c>
+      <c r="E990" s="24" t="s">
+        <v>6821</v>
+      </c>
+      <c r="F990" s="12" t="s">
+        <v>6822</v>
+      </c>
+      <c r="G990" s="12" t="s">
+        <v>6823</v>
+      </c>
+      <c r="H990" s="12" t="s">
+        <v>6823</v>
+      </c>
+      <c r="I990" s="12" t="s">
+        <v>6823</v>
+      </c>
+      <c r="J990" s="12" t="s">
+        <v>6824</v>
+      </c>
+      <c r="K990" s="12" t="s">
+        <v>6824</v>
+      </c>
+    </row>
+    <row r="991" spans="2:11">
+      <c r="B991" s="12" t="s">
+        <v>6825</v>
+      </c>
+      <c r="E991" s="24" t="s">
+        <v>6826</v>
+      </c>
+      <c r="F991" s="12" t="s">
+        <v>6827</v>
+      </c>
+      <c r="G991" s="12" t="s">
+        <v>6828</v>
+      </c>
+      <c r="H991" s="12" t="s">
+        <v>6828</v>
+      </c>
+      <c r="I991" s="12" t="s">
+        <v>6828</v>
+      </c>
+      <c r="J991" s="12" t="s">
+        <v>6829</v>
+      </c>
+      <c r="K991" s="12" t="s">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="992" spans="2:11">
+      <c r="B992" s="12" t="s">
+        <v>6830</v>
+      </c>
+      <c r="E992" s="24" t="s">
+        <v>6831</v>
+      </c>
+      <c r="F992" s="12" t="s">
+        <v>6832</v>
+      </c>
+      <c r="G992" s="12" t="s">
+        <v>6833</v>
+      </c>
+      <c r="H992" s="12" t="s">
+        <v>6833</v>
+      </c>
+      <c r="I992" s="12" t="s">
+        <v>6833</v>
+      </c>
+      <c r="J992" s="12" t="s">
+        <v>6834</v>
+      </c>
+      <c r="K992" s="12" t="s">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="993" spans="2:11">
+      <c r="B993" s="12" t="s">
+        <v>6835</v>
+      </c>
+      <c r="E993" s="24" t="s">
+        <v>6836</v>
+      </c>
+      <c r="F993" s="12" t="s">
+        <v>6837</v>
+      </c>
+      <c r="G993" s="12" t="s">
+        <v>6838</v>
+      </c>
+      <c r="H993" s="12" t="s">
+        <v>6838</v>
+      </c>
+      <c r="I993" s="12" t="s">
+        <v>6838</v>
+      </c>
+      <c r="J993" s="12" t="s">
+        <v>6838</v>
+      </c>
+      <c r="K993" s="12" t="s">
+        <v>6838</v>
+      </c>
+    </row>
+    <row r="994" ht="27" spans="2:11">
+      <c r="B994" s="12" t="s">
+        <v>6839</v>
+      </c>
+      <c r="E994" s="24" t="s">
+        <v>6840</v>
+      </c>
+      <c r="F994" s="12" t="s">
+        <v>6841</v>
+      </c>
+      <c r="G994" s="12" t="s">
+        <v>6842</v>
+      </c>
+      <c r="H994" s="12" t="s">
+        <v>6842</v>
+      </c>
+      <c r="I994" s="12" t="s">
+        <v>6842</v>
+      </c>
+      <c r="J994" s="12" t="s">
+        <v>6843</v>
+      </c>
+      <c r="K994" s="12" t="s">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="995" spans="2:11">
+      <c r="B995" s="12" t="s">
+        <v>6844</v>
+      </c>
+      <c r="E995" s="24" t="s">
+        <v>6845</v>
+      </c>
+      <c r="F995" s="12" t="s">
+        <v>6846</v>
+      </c>
+      <c r="G995" s="12" t="s">
+        <v>6847</v>
+      </c>
+      <c r="H995" s="12" t="s">
+        <v>6847</v>
+      </c>
+      <c r="I995" s="12" t="s">
+        <v>6847</v>
+      </c>
+      <c r="J995" s="12" t="s">
+        <v>6848</v>
+      </c>
+      <c r="K995" s="12" t="s">
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="996" spans="2:11">
+      <c r="B996" s="12" t="s">
+        <v>6849</v>
+      </c>
+      <c r="E996" s="24" t="s">
+        <v>6850</v>
+      </c>
+      <c r="F996" s="12" t="s">
+        <v>6851</v>
+      </c>
+      <c r="G996" s="12" t="s">
+        <v>6852</v>
+      </c>
+      <c r="H996" s="12" t="s">
+        <v>6852</v>
+      </c>
+      <c r="I996" s="12" t="s">
+        <v>6852</v>
+      </c>
+      <c r="J996" s="12" t="s">
+        <v>6853</v>
+      </c>
+      <c r="K996" s="12" t="s">
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="997" spans="2:11">
+      <c r="B997" s="12" t="s">
+        <v>6854</v>
+      </c>
+      <c r="E997" s="24" t="s">
+        <v>6855</v>
+      </c>
+      <c r="F997" s="12" t="s">
+        <v>6856</v>
+      </c>
+      <c r="G997" s="12" t="s">
+        <v>6857</v>
+      </c>
+      <c r="H997" s="12" t="s">
+        <v>6857</v>
+      </c>
+      <c r="I997" s="12" t="s">
+        <v>6857</v>
+      </c>
+      <c r="J997" s="12" t="s">
+        <v>6858</v>
+      </c>
+      <c r="K997" s="12" t="s">
+        <v>6858</v>
+      </c>
+    </row>
+    <row r="998" spans="2:11">
+      <c r="B998" s="12" t="s">
+        <v>6859</v>
+      </c>
+      <c r="E998" s="24" t="s">
+        <v>6860</v>
+      </c>
+      <c r="F998" s="12" t="s">
+        <v>6861</v>
+      </c>
+      <c r="G998" s="12" t="s">
+        <v>6862</v>
+      </c>
+      <c r="H998" s="12" t="s">
+        <v>6862</v>
+      </c>
+      <c r="I998" s="12" t="s">
+        <v>6862</v>
+      </c>
+      <c r="J998" s="12" t="s">
+        <v>6863</v>
+      </c>
+      <c r="K998" s="12" t="s">
+        <v>6863</v>
+      </c>
+    </row>
+    <row r="999" ht="27" spans="2:11">
+      <c r="B999" s="12" t="s">
+        <v>6864</v>
+      </c>
+      <c r="E999" s="24" t="s">
+        <v>6865</v>
+      </c>
+      <c r="F999" s="12" t="s">
+        <v>6866</v>
+      </c>
+      <c r="G999" s="12" t="s">
+        <v>6867</v>
+      </c>
+      <c r="H999" s="12" t="s">
+        <v>6867</v>
+      </c>
+      <c r="I999" s="12" t="s">
+        <v>6867</v>
+      </c>
+      <c r="J999" s="12" t="s">
+        <v>6868</v>
+      </c>
+      <c r="K999" s="12" t="s">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:11">
+      <c r="B1000" s="12" t="s">
+        <v>6869</v>
+      </c>
+      <c r="E1000" s="24" t="s">
+        <v>6870</v>
+      </c>
+      <c r="F1000" s="12" t="s">
+        <v>6871</v>
+      </c>
+      <c r="G1000" s="12" t="s">
+        <v>6872</v>
+      </c>
+      <c r="H1000" s="12" t="s">
+        <v>6872</v>
+      </c>
+      <c r="I1000" s="12" t="s">
+        <v>6872</v>
+      </c>
+      <c r="J1000" s="12" t="s">
+        <v>6873</v>
+      </c>
+      <c r="K1000" s="12" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:11">
+      <c r="B1001" s="12" t="s">
+        <v>6874</v>
+      </c>
+      <c r="E1001" s="24" t="s">
+        <v>6875</v>
+      </c>
+      <c r="F1001" s="12" t="s">
+        <v>6876</v>
+      </c>
+      <c r="G1001" s="12" t="s">
+        <v>6877</v>
+      </c>
+      <c r="H1001" s="12" t="s">
+        <v>6877</v>
+      </c>
+      <c r="I1001" s="12" t="s">
+        <v>6877</v>
+      </c>
+      <c r="J1001" s="12" t="s">
+        <v>4651</v>
+      </c>
+      <c r="K1001" s="12" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:11">
+      <c r="B1002" s="12" t="s">
+        <v>6878</v>
+      </c>
+      <c r="E1002" s="24" t="s">
+        <v>6879</v>
+      </c>
+      <c r="F1002" s="12" t="s">
+        <v>6880</v>
+      </c>
+      <c r="G1002" s="12" t="s">
+        <v>6881</v>
+      </c>
+      <c r="H1002" s="12" t="s">
+        <v>6881</v>
+      </c>
+      <c r="I1002" s="12" t="s">
+        <v>6881</v>
+      </c>
+      <c r="J1002" s="12" t="s">
+        <v>6882</v>
+      </c>
+      <c r="K1002" s="12" t="s">
+        <v>6882</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:11">
+      <c r="B1003" s="12" t="s">
+        <v>6883</v>
+      </c>
+      <c r="E1003" s="24" t="s">
+        <v>6884</v>
+      </c>
+      <c r="F1003" s="12" t="s">
+        <v>6885</v>
+      </c>
+      <c r="G1003" s="12" t="s">
+        <v>6886</v>
+      </c>
+      <c r="H1003" s="12" t="s">
+        <v>6886</v>
+      </c>
+      <c r="I1003" s="12" t="s">
+        <v>6886</v>
+      </c>
+      <c r="J1003" s="12" t="s">
+        <v>6887</v>
+      </c>
+      <c r="K1003" s="12" t="s">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:11">
+      <c r="B1004" s="12" t="s">
+        <v>6888</v>
+      </c>
+      <c r="E1004" s="24" t="s">
+        <v>6889</v>
+      </c>
+      <c r="F1004" s="12" t="s">
+        <v>6890</v>
+      </c>
+      <c r="G1004" s="12" t="s">
+        <v>6891</v>
+      </c>
+      <c r="H1004" s="12" t="s">
+        <v>6891</v>
+      </c>
+      <c r="I1004" s="12" t="s">
+        <v>6891</v>
+      </c>
+      <c r="J1004" s="12" t="s">
+        <v>6892</v>
+      </c>
+      <c r="K1004" s="12" t="s">
+        <v>6892</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:11">
+      <c r="B1005" s="12" t="s">
+        <v>6893</v>
+      </c>
+      <c r="E1005" s="24" t="s">
+        <v>6894</v>
+      </c>
+      <c r="F1005" s="12" t="s">
+        <v>6895</v>
+      </c>
+      <c r="G1005" s="12" t="s">
+        <v>6896</v>
+      </c>
+      <c r="H1005" s="12" t="s">
+        <v>6896</v>
+      </c>
+      <c r="I1005" s="12" t="s">
+        <v>6896</v>
+      </c>
+      <c r="J1005" s="12" t="s">
+        <v>6897</v>
+      </c>
+      <c r="K1005" s="12" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="1006" ht="27" spans="2:11">
+      <c r="B1006" s="12" t="s">
+        <v>6898</v>
+      </c>
+      <c r="E1006" s="24" t="s">
+        <v>6899</v>
+      </c>
+      <c r="F1006" s="12" t="s">
+        <v>6900</v>
+      </c>
+      <c r="G1006" s="12" t="s">
+        <v>6901</v>
+      </c>
+      <c r="H1006" s="12" t="s">
+        <v>6901</v>
+      </c>
+      <c r="I1006" s="12" t="s">
+        <v>6901</v>
+      </c>
+      <c r="J1006" s="12" t="s">
+        <v>6902</v>
+      </c>
+      <c r="K1006" s="12" t="s">
+        <v>6902</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:11">
+      <c r="B1007" s="12" t="s">
+        <v>6903</v>
+      </c>
+      <c r="E1007" s="24" t="s">
+        <v>6904</v>
+      </c>
+      <c r="F1007" s="12" t="s">
+        <v>6905</v>
+      </c>
+      <c r="G1007" s="12" t="s">
+        <v>6906</v>
+      </c>
+      <c r="H1007" s="12" t="s">
+        <v>6906</v>
+      </c>
+      <c r="I1007" s="12" t="s">
+        <v>6906</v>
+      </c>
+      <c r="J1007" s="12" t="s">
+        <v>6907</v>
+      </c>
+      <c r="K1007" s="12" t="s">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:11">
+      <c r="B1008" s="12" t="s">
+        <v>6908</v>
+      </c>
+      <c r="E1008" s="24" t="s">
+        <v>6909</v>
+      </c>
+      <c r="F1008" s="12" t="s">
+        <v>6910</v>
+      </c>
+      <c r="G1008" s="12" t="s">
+        <v>6911</v>
+      </c>
+      <c r="H1008" s="12" t="s">
+        <v>6911</v>
+      </c>
+      <c r="I1008" s="12" t="s">
+        <v>6911</v>
+      </c>
+      <c r="J1008" s="12" t="s">
+        <v>6912</v>
+      </c>
+      <c r="K1008" s="12" t="s">
+        <v>6912</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:11">
+      <c r="B1009" s="12" t="s">
+        <v>6913</v>
+      </c>
+      <c r="E1009" s="24" t="s">
+        <v>6914</v>
+      </c>
+      <c r="F1009" s="12" t="s">
+        <v>6915</v>
+      </c>
+      <c r="G1009" s="12" t="s">
+        <v>6916</v>
+      </c>
+      <c r="H1009" s="12" t="s">
+        <v>6916</v>
+      </c>
+      <c r="I1009" s="12" t="s">
+        <v>6916</v>
+      </c>
+      <c r="J1009" s="12" t="s">
+        <v>6917</v>
+      </c>
+      <c r="K1009" s="12" t="s">
+        <v>6917</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:11">
+      <c r="B1010" s="12" t="s">
+        <v>6918</v>
+      </c>
+      <c r="E1010" s="24" t="s">
+        <v>6919</v>
+      </c>
+      <c r="F1010" s="12" t="s">
+        <v>6920</v>
+      </c>
+      <c r="G1010" s="12" t="s">
+        <v>6921</v>
+      </c>
+      <c r="H1010" s="12" t="s">
+        <v>6921</v>
+      </c>
+      <c r="I1010" s="12" t="s">
+        <v>6921</v>
+      </c>
+      <c r="J1010" s="12" t="s">
+        <v>6922</v>
+      </c>
+      <c r="K1010" s="12" t="s">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:11">
+      <c r="B1011" s="12" t="s">
+        <v>6923</v>
+      </c>
+      <c r="E1011" s="24" t="s">
+        <v>6924</v>
+      </c>
+      <c r="F1011" s="12" t="s">
+        <v>6925</v>
+      </c>
+      <c r="G1011" s="12" t="s">
+        <v>6926</v>
+      </c>
+      <c r="H1011" s="12" t="s">
+        <v>6926</v>
+      </c>
+      <c r="I1011" s="12" t="s">
+        <v>6926</v>
+      </c>
+      <c r="J1011" s="12" t="s">
+        <v>6927</v>
+      </c>
+      <c r="K1011" s="12" t="s">
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="1012" ht="40.5" spans="2:11">
+      <c r="B1012" s="12" t="s">
+        <v>6928</v>
+      </c>
+      <c r="E1012" s="24" t="s">
+        <v>6929</v>
+      </c>
+      <c r="F1012" s="12" t="s">
+        <v>6930</v>
+      </c>
+      <c r="G1012" s="12" t="s">
+        <v>6931</v>
+      </c>
+      <c r="H1012" s="12" t="s">
+        <v>6931</v>
+      </c>
+      <c r="I1012" s="12" t="s">
+        <v>6931</v>
+      </c>
+      <c r="J1012" s="12" t="s">
+        <v>6932</v>
+      </c>
+      <c r="K1012" s="12" t="s">
+        <v>6932</v>
+      </c>
+    </row>
+    <row r="1013" ht="54" spans="2:11">
+      <c r="B1013" s="12" t="s">
+        <v>6933</v>
+      </c>
+      <c r="E1013" s="24" t="s">
+        <v>6934</v>
+      </c>
+      <c r="F1013" s="12" t="s">
+        <v>6935</v>
+      </c>
+      <c r="G1013" s="12" t="s">
+        <v>6936</v>
+      </c>
+      <c r="H1013" s="12" t="s">
+        <v>6936</v>
+      </c>
+      <c r="I1013" s="12" t="s">
+        <v>6936</v>
+      </c>
+      <c r="J1013" s="12" t="s">
+        <v>6937</v>
+      </c>
+      <c r="K1013" s="12" t="s">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:11">
+      <c r="B1014" s="12" t="s">
+        <v>6938</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>6939</v>
+      </c>
+      <c r="F1014" s="12" t="s">
+        <v>6940</v>
+      </c>
+      <c r="G1014" s="12" t="s">
+        <v>6941</v>
+      </c>
+      <c r="H1014" s="12" t="s">
+        <v>6941</v>
+      </c>
+      <c r="I1014" s="12" t="s">
+        <v>6941</v>
+      </c>
+      <c r="J1014" s="12" t="s">
+        <v>6942</v>
+      </c>
+      <c r="K1014" s="12" t="s">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:11">
+      <c r="B1015" s="12" t="s">
+        <v>6943</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>6944</v>
+      </c>
+      <c r="F1015" s="12" t="s">
+        <v>6945</v>
+      </c>
+      <c r="G1015" s="12" t="s">
+        <v>6945</v>
+      </c>
+      <c r="H1015" s="12" t="s">
+        <v>6945</v>
+      </c>
+      <c r="I1015" s="12" t="s">
+        <v>6945</v>
+      </c>
+      <c r="J1015" s="12" t="s">
+        <v>6946</v>
+      </c>
+      <c r="K1015" s="12" t="s">
+        <v>6946</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:11">
+      <c r="B1016" s="12" t="s">
+        <v>6947</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>6948</v>
+      </c>
+      <c r="F1016" s="12" t="s">
+        <v>6949</v>
+      </c>
+      <c r="G1016" s="12" t="s">
+        <v>6950</v>
+      </c>
+      <c r="H1016" s="12" t="s">
+        <v>6950</v>
+      </c>
+      <c r="I1016" s="12" t="s">
+        <v>6950</v>
+      </c>
+      <c r="J1016" s="12" t="s">
+        <v>6951</v>
+      </c>
+      <c r="K1016" s="12" t="s">
+        <v>6951</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:11">
+      <c r="B1017" s="12" t="s">
+        <v>6952</v>
+      </c>
+      <c r="E1017" s="24" t="s">
+        <v>6953</v>
+      </c>
+      <c r="F1017" s="12" t="s">
+        <v>6954</v>
+      </c>
+      <c r="G1017" s="12" t="s">
+        <v>6955</v>
+      </c>
+      <c r="H1017" s="12" t="s">
+        <v>6955</v>
+      </c>
+      <c r="I1017" s="12" t="s">
+        <v>6955</v>
+      </c>
+      <c r="J1017" s="12" t="s">
+        <v>6956</v>
+      </c>
+      <c r="K1017" s="12" t="s">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:11">
+      <c r="B1018" s="12" t="s">
+        <v>6957</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>6958</v>
+      </c>
+      <c r="F1018" s="12" t="s">
+        <v>6959</v>
+      </c>
+      <c r="G1018" s="12" t="s">
+        <v>6960</v>
+      </c>
+      <c r="H1018" s="12" t="s">
+        <v>6960</v>
+      </c>
+      <c r="I1018" s="12" t="s">
+        <v>6960</v>
+      </c>
+      <c r="J1018" s="12" t="s">
+        <v>6961</v>
+      </c>
+      <c r="K1018" s="12" t="s">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="1019" ht="54" spans="2:11">
+      <c r="B1019" s="12" t="s">
+        <v>6962</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>6963</v>
+      </c>
+      <c r="F1019" s="12" t="s">
+        <v>6964</v>
+      </c>
+      <c r="G1019" s="12" t="s">
+        <v>6965</v>
+      </c>
+      <c r="H1019" s="12" t="s">
+        <v>6965</v>
+      </c>
+      <c r="I1019" s="12" t="s">
+        <v>6965</v>
+      </c>
+      <c r="J1019" s="12" t="s">
+        <v>6966</v>
+      </c>
+      <c r="K1019" s="12" t="s">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:11">
+      <c r="B1020" s="12" t="s">
+        <v>6967</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>6811</v>
+      </c>
+      <c r="F1020" s="12" t="s">
+        <v>6968</v>
+      </c>
+      <c r="G1020" s="12" t="s">
+        <v>6969</v>
+      </c>
+      <c r="H1020" s="12" t="s">
+        <v>6969</v>
+      </c>
+      <c r="I1020" s="12" t="s">
+        <v>6969</v>
+      </c>
+      <c r="J1020" s="12" t="s">
+        <v>6970</v>
+      </c>
+      <c r="K1020" s="12" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="1021" ht="40.5" spans="2:11">
+      <c r="B1021" s="12" t="s">
+        <v>6971</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>6972</v>
+      </c>
+      <c r="F1021" s="12" t="s">
+        <v>6973</v>
+      </c>
+      <c r="G1021" s="12" t="s">
+        <v>6974</v>
+      </c>
+      <c r="H1021" s="12" t="s">
+        <v>6974</v>
+      </c>
+      <c r="I1021" s="12" t="s">
+        <v>6974</v>
+      </c>
+      <c r="J1021" s="12" t="s">
+        <v>6975</v>
+      </c>
+      <c r="K1021" s="12" t="s">
+        <v>6975</v>
+      </c>
+    </row>
+    <row r="1022" ht="40.5" spans="2:11">
+      <c r="B1022" s="12" t="s">
+        <v>6976</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>6977</v>
+      </c>
+      <c r="F1022" s="12" t="s">
+        <v>6978</v>
+      </c>
+      <c r="G1022" s="12" t="s">
+        <v>6979</v>
+      </c>
+      <c r="H1022" s="12" t="s">
+        <v>6979</v>
+      </c>
+      <c r="I1022" s="12" t="s">
+        <v>6979</v>
+      </c>
+      <c r="J1022" s="12" t="s">
+        <v>6980</v>
+      </c>
+      <c r="K1022" s="12" t="s">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="1023" ht="54" spans="2:11">
+      <c r="B1023" s="12" t="s">
+        <v>6981</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>6982</v>
+      </c>
+      <c r="F1023" s="12" t="s">
+        <v>6983</v>
+      </c>
+      <c r="G1023" s="12" t="s">
+        <v>6984</v>
+      </c>
+      <c r="H1023" s="12" t="s">
+        <v>6984</v>
+      </c>
+      <c r="I1023" s="12" t="s">
+        <v>6984</v>
+      </c>
+      <c r="J1023" s="12" t="s">
+        <v>6985</v>
+      </c>
+      <c r="K1023" s="12" t="s">
+        <v>6985</v>
+      </c>
+    </row>
+    <row r="1024" ht="40.5" spans="2:11">
+      <c r="B1024" s="12" t="s">
+        <v>6986</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>6987</v>
+      </c>
+      <c r="F1024" s="12" t="s">
+        <v>6988</v>
+      </c>
+      <c r="G1024" s="12" t="s">
+        <v>6989</v>
+      </c>
+      <c r="H1024" s="12" t="s">
+        <v>6989</v>
+      </c>
+      <c r="I1024" s="12" t="s">
+        <v>6989</v>
+      </c>
+      <c r="J1024" s="12" t="s">
+        <v>6990</v>
+      </c>
+      <c r="K1024" s="12" t="s">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="1025" ht="40.5" spans="2:11">
+      <c r="B1025" s="12" t="s">
+        <v>6991</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>6992</v>
+      </c>
+      <c r="F1025" s="12" t="s">
+        <v>6993</v>
+      </c>
+      <c r="G1025" s="12" t="s">
+        <v>6994</v>
+      </c>
+      <c r="H1025" s="12" t="s">
+        <v>6994</v>
+      </c>
+      <c r="I1025" s="12" t="s">
+        <v>6994</v>
+      </c>
+      <c r="J1025" s="12" t="s">
+        <v>6995</v>
+      </c>
+      <c r="K1025" s="12" t="s">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="1026" ht="67.5" spans="2:11">
+      <c r="B1026" s="12" t="s">
+        <v>6996</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>6997</v>
+      </c>
+      <c r="F1026" s="12" t="s">
+        <v>6998</v>
+      </c>
+      <c r="G1026" s="12" t="s">
+        <v>6999</v>
+      </c>
+      <c r="H1026" s="12" t="s">
+        <v>6999</v>
+      </c>
+      <c r="I1026" s="12" t="s">
+        <v>6999</v>
+      </c>
+      <c r="J1026" s="12" t="s">
+        <v>7000</v>
+      </c>
+      <c r="K1026" s="12" t="s">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="1027" ht="54" spans="2:11">
+      <c r="B1027" s="12" t="s">
+        <v>7001</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>7002</v>
+      </c>
+      <c r="F1027" s="12" t="s">
+        <v>7003</v>
+      </c>
+      <c r="G1027" s="12" t="s">
+        <v>7004</v>
+      </c>
+      <c r="H1027" s="12" t="s">
+        <v>7004</v>
+      </c>
+      <c r="I1027" s="12" t="s">
+        <v>7004</v>
+      </c>
+      <c r="J1027" s="12" t="s">
+        <v>7005</v>
+      </c>
+      <c r="K1027" s="12" t="s">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="1028" ht="67.5" spans="2:11">
+      <c r="B1028" s="12" t="s">
+        <v>7006</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>7007</v>
+      </c>
+      <c r="F1028" s="12" t="s">
+        <v>7008</v>
+      </c>
+      <c r="G1028" s="12" t="s">
+        <v>7009</v>
+      </c>
+      <c r="H1028" s="12" t="s">
+        <v>7009</v>
+      </c>
+      <c r="I1028" s="12" t="s">
+        <v>7009</v>
+      </c>
+      <c r="J1028" s="12" t="s">
+        <v>7010</v>
+      </c>
+      <c r="K1028" s="12" t="s">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="1029" ht="27" spans="2:11">
+      <c r="B1029" s="12" t="s">
+        <v>7011</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>7012</v>
+      </c>
+      <c r="F1029" s="12" t="s">
+        <v>7013</v>
+      </c>
+      <c r="G1029" s="12" t="s">
+        <v>7014</v>
+      </c>
+      <c r="H1029" s="12" t="s">
+        <v>7014</v>
+      </c>
+      <c r="I1029" s="12" t="s">
+        <v>7014</v>
+      </c>
+      <c r="J1029" s="12" t="s">
+        <v>7015</v>
+      </c>
+      <c r="K1029" s="12" t="s">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="1030" ht="94.5" spans="2:11">
+      <c r="B1030" s="12" t="s">
+        <v>7016</v>
+      </c>
+      <c r="E1030" s="24" t="s">
+        <v>7017</v>
+      </c>
+      <c r="F1030" s="12" t="s">
+        <v>7018</v>
+      </c>
+      <c r="G1030" s="12" t="s">
+        <v>7019</v>
+      </c>
+      <c r="H1030" s="12" t="s">
+        <v>7019</v>
+      </c>
+      <c r="I1030" s="12" t="s">
+        <v>7019</v>
+      </c>
+      <c r="J1030" s="12" t="s">
+        <v>7020</v>
+      </c>
+      <c r="K1030" s="12" t="s">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="1031" ht="54" spans="2:11">
+      <c r="B1031" s="12" t="s">
+        <v>7021</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>7022</v>
+      </c>
+      <c r="F1031" s="12" t="s">
+        <v>7023</v>
+      </c>
+      <c r="G1031" s="12" t="s">
+        <v>7024</v>
+      </c>
+      <c r="H1031" s="12" t="s">
+        <v>7024</v>
+      </c>
+      <c r="I1031" s="12" t="s">
+        <v>7024</v>
+      </c>
+      <c r="J1031" s="12" t="s">
+        <v>7025</v>
+      </c>
+      <c r="K1031" s="12" t="s">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:11">
+      <c r="B1032" s="12" t="s">
+        <v>7026</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>7027</v>
+      </c>
+      <c r="F1032" s="12" t="s">
+        <v>7028</v>
+      </c>
+      <c r="G1032" s="12" t="s">
+        <v>7029</v>
+      </c>
+      <c r="H1032" s="12" t="s">
+        <v>7029</v>
+      </c>
+      <c r="I1032" s="12" t="s">
+        <v>7029</v>
+      </c>
+      <c r="J1032" s="12" t="s">
+        <v>7030</v>
+      </c>
+      <c r="K1032" s="12" t="s">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="1033" ht="94.5" spans="2:11">
+      <c r="B1033" s="12" t="s">
+        <v>7031</v>
+      </c>
+      <c r="E1033" s="24" t="s">
+        <v>7032</v>
+      </c>
+      <c r="F1033" s="12" t="s">
+        <v>7033</v>
+      </c>
+      <c r="G1033" s="12" t="s">
+        <v>7034</v>
+      </c>
+      <c r="H1033" s="12" t="s">
+        <v>7034</v>
+      </c>
+      <c r="I1033" s="12" t="s">
+        <v>7034</v>
+      </c>
+      <c r="J1033" s="12" t="s">
+        <v>7035</v>
+      </c>
+      <c r="K1033" s="12" t="s">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="1034" ht="40.5" spans="2:11">
+      <c r="B1034" s="12" t="s">
+        <v>7036</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>7037</v>
+      </c>
+      <c r="F1034" s="12" t="s">
+        <v>7038</v>
+      </c>
+      <c r="G1034" s="12" t="s">
+        <v>7038</v>
+      </c>
+      <c r="H1034" s="12" t="s">
+        <v>7038</v>
+      </c>
+      <c r="I1034" s="12" t="s">
+        <v>7038</v>
+      </c>
+      <c r="J1034" s="12" t="s">
+        <v>7038</v>
+      </c>
+      <c r="K1034" s="12" t="s">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="1035" ht="121.5" spans="2:11">
+      <c r="B1035" s="12" t="s">
+        <v>7039</v>
+      </c>
+      <c r="E1035" s="24" t="s">
+        <v>7040</v>
+      </c>
+      <c r="F1035" s="12" t="s">
+        <v>7041</v>
+      </c>
+      <c r="G1035" s="12" t="s">
+        <v>7042</v>
+      </c>
+      <c r="H1035" s="12" t="s">
+        <v>7042</v>
+      </c>
+      <c r="I1035" s="12" t="s">
+        <v>7042</v>
+      </c>
+      <c r="J1035" s="12" t="s">
+        <v>7043</v>
+      </c>
+      <c r="K1035" s="12" t="s">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:11">
+      <c r="B1036" s="12" t="s">
+        <v>7044</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>7045</v>
+      </c>
+      <c r="F1036" s="12" t="s">
+        <v>7046</v>
+      </c>
+      <c r="G1036" s="12" t="s">
+        <v>7047</v>
+      </c>
+      <c r="H1036" s="12" t="s">
+        <v>7047</v>
+      </c>
+      <c r="I1036" s="12" t="s">
+        <v>7047</v>
+      </c>
+      <c r="J1036" s="12" t="s">
+        <v>7048</v>
+      </c>
+      <c r="K1036" s="12" t="s">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="1037" ht="121.5" spans="2:11">
+      <c r="B1037" s="12" t="s">
+        <v>7049</v>
+      </c>
+      <c r="E1037" s="24" t="s">
+        <v>7050</v>
+      </c>
+      <c r="F1037" s="12" t="s">
+        <v>7051</v>
+      </c>
+      <c r="G1037" s="12" t="s">
+        <v>7052</v>
+      </c>
+      <c r="H1037" s="12" t="s">
+        <v>7052</v>
+      </c>
+      <c r="I1037" s="12" t="s">
+        <v>7052</v>
+      </c>
+      <c r="J1037" s="12" t="s">
+        <v>7053</v>
+      </c>
+      <c r="K1037" s="12" t="s">
+        <v>7053</v>
+      </c>
+    </row>
+    <row r="1038" ht="256.5" spans="2:11">
+      <c r="B1038" s="12" t="s">
+        <v>7054</v>
+      </c>
+      <c r="E1038" s="24" t="s">
+        <v>7055</v>
+      </c>
+      <c r="F1038" s="12" t="s">
+        <v>7056</v>
+      </c>
+      <c r="G1038" s="12" t="s">
+        <v>7057</v>
+      </c>
+      <c r="H1038" s="12" t="s">
+        <v>7057</v>
+      </c>
+      <c r="I1038" s="12" t="s">
+        <v>7057</v>
+      </c>
+      <c r="J1038" s="12" t="s">
+        <v>7058</v>
+      </c>
+      <c r="K1038" s="12" t="s">
+        <v>7058</v>
+      </c>
+    </row>
+    <row r="1039" ht="67.5" spans="2:11">
+      <c r="B1039" s="12" t="s">
+        <v>7059</v>
+      </c>
+      <c r="E1039" s="24" t="s">
+        <v>7060</v>
+      </c>
+      <c r="F1039" s="12" t="s">
+        <v>7061</v>
+      </c>
+      <c r="G1039" s="12" t="s">
+        <v>7062</v>
+      </c>
+      <c r="H1039" s="12" t="s">
+        <v>7062</v>
+      </c>
+      <c r="I1039" s="12" t="s">
+        <v>7062</v>
+      </c>
+      <c r="J1039" s="12" t="s">
+        <v>7063</v>
+      </c>
+      <c r="K1039" s="12" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1040" ht="108" spans="2:11">
+      <c r="B1040" s="12" t="s">
+        <v>7064</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>7065</v>
+      </c>
+      <c r="F1040" s="12" t="s">
+        <v>7066</v>
+      </c>
+      <c r="G1040" s="12" t="s">
+        <v>7067</v>
+      </c>
+      <c r="H1040" s="12" t="s">
+        <v>7067</v>
+      </c>
+      <c r="I1040" s="12" t="s">
+        <v>7067</v>
+      </c>
+      <c r="J1040" s="12" t="s">
+        <v>7068</v>
+      </c>
+      <c r="K1040" s="12" t="s">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:11">
+      <c r="B1041" s="12" t="s">
+        <v>7069</v>
+      </c>
+      <c r="E1041" s="12" t="s">
+        <v>7070</v>
+      </c>
+      <c r="F1041" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="G1041" s="12" t="s">
+        <v>7071</v>
+      </c>
+      <c r="H1041" s="12" t="s">
+        <v>7071</v>
+      </c>
+      <c r="I1041" s="12" t="s">
+        <v>7071</v>
+      </c>
+      <c r="J1041" s="12" t="s">
+        <v>7072</v>
+      </c>
+      <c r="K1041" s="12" t="s">
+        <v>7072</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:11">
+      <c r="B1042" s="12" t="s">
+        <v>7073</v>
+      </c>
+      <c r="E1042" s="24" t="s">
+        <v>7074</v>
+      </c>
+      <c r="F1042" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1042" s="12" t="s">
+        <v>7075</v>
+      </c>
+      <c r="H1042" s="12" t="s">
+        <v>7075</v>
+      </c>
+      <c r="I1042" s="12" t="s">
+        <v>7075</v>
+      </c>
+      <c r="J1042" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="K1042" s="12" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:11">
+      <c r="B1043" s="12" t="s">
+        <v>7076</v>
+      </c>
+      <c r="E1043" s="24" t="s">
+        <v>7077</v>
+      </c>
+      <c r="F1043" s="12" t="s">
+        <v>7078</v>
+      </c>
+      <c r="G1043" s="12" t="s">
+        <v>7079</v>
+      </c>
+      <c r="H1043" s="12" t="s">
+        <v>7079</v>
+      </c>
+      <c r="I1043" s="12" t="s">
+        <v>7079</v>
+      </c>
+      <c r="J1043" s="12" t="s">
+        <v>7080</v>
+      </c>
+      <c r="K1043" s="12" t="s">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:11">
+      <c r="B1044" s="12" t="s">
+        <v>7081</v>
+      </c>
+      <c r="E1044" s="24" t="s">
+        <v>6811</v>
+      </c>
+      <c r="F1044" s="12" t="s">
+        <v>7082</v>
+      </c>
+      <c r="G1044" s="12" t="s">
+        <v>7083</v>
+      </c>
+      <c r="H1044" s="12" t="s">
+        <v>7083</v>
+      </c>
+      <c r="I1044" s="12" t="s">
+        <v>7083</v>
+      </c>
+      <c r="J1044" s="12" t="s">
+        <v>7084</v>
+      </c>
+      <c r="K1044" s="12" t="s">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:11">
+      <c r="B1045" s="12" t="s">
+        <v>7085</v>
+      </c>
+      <c r="E1045" s="24" t="s">
+        <v>7086</v>
+      </c>
+      <c r="F1045" s="12" t="s">
+        <v>4051</v>
+      </c>
+      <c r="G1045" s="12" t="s">
+        <v>4053</v>
+      </c>
+      <c r="H1045" s="12" t="s">
+        <v>4053</v>
+      </c>
+      <c r="I1045" s="12" t="s">
+        <v>4053</v>
+      </c>
+      <c r="J1045" s="12" t="s">
+        <v>4055</v>
+      </c>
+      <c r="K1045" s="12" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:11">
+      <c r="B1046" s="12" t="s">
+        <v>7087</v>
+      </c>
+      <c r="E1046" s="24" t="s">
+        <v>4058</v>
+      </c>
+      <c r="F1046" s="12" t="s">
+        <v>4059</v>
+      </c>
+      <c r="G1046" s="12" t="s">
+        <v>4061</v>
+      </c>
+      <c r="H1046" s="12" t="s">
+        <v>4061</v>
+      </c>
+      <c r="I1046" s="12" t="s">
+        <v>4061</v>
+      </c>
+      <c r="J1046" s="12" t="s">
+        <v>4063</v>
+      </c>
+      <c r="K1046" s="12" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:11">
+      <c r="B1047" s="12" t="s">
+        <v>7088</v>
+      </c>
+      <c r="E1047" s="24" t="s">
+        <v>7089</v>
+      </c>
+      <c r="F1047" s="12" t="s">
+        <v>3652</v>
+      </c>
+      <c r="G1047" s="12" t="s">
+        <v>7090</v>
+      </c>
+      <c r="H1047" s="12" t="s">
+        <v>7090</v>
+      </c>
+      <c r="I1047" s="12" t="s">
+        <v>7090</v>
+      </c>
+      <c r="J1047" s="12" t="s">
+        <v>3656</v>
+      </c>
+      <c r="K1047" s="12" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:11">
+      <c r="B1048" s="12" t="s">
+        <v>7091</v>
+      </c>
+      <c r="E1048" s="24" t="s">
+        <v>7092</v>
+      </c>
+      <c r="F1048" s="12" t="s">
+        <v>7093</v>
+      </c>
+      <c r="G1048" s="12" t="s">
+        <v>7093</v>
+      </c>
+      <c r="H1048" s="12" t="s">
+        <v>7093</v>
+      </c>
+      <c r="I1048" s="12" t="s">
+        <v>7093</v>
+      </c>
+      <c r="J1048" s="12" t="s">
+        <v>7094</v>
+      </c>
+      <c r="K1048" s="12" t="s">
+        <v>7094</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:11">
+      <c r="B1049" s="12" t="s">
+        <v>7095</v>
+      </c>
+      <c r="E1049" s="24" t="s">
+        <v>7096</v>
+      </c>
+      <c r="F1049" s="12" t="s">
+        <v>7097</v>
+      </c>
+      <c r="G1049" s="12" t="s">
+        <v>7098</v>
+      </c>
+      <c r="H1049" s="12" t="s">
+        <v>7098</v>
+      </c>
+      <c r="I1049" s="12" t="s">
+        <v>7098</v>
+      </c>
+      <c r="J1049" s="12" t="s">
+        <v>7099</v>
+      </c>
+      <c r="K1049" s="12" t="s">
+        <v>7099</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:11">
+      <c r="B1050" s="12" t="s">
+        <v>7100</v>
+      </c>
+      <c r="E1050" s="24" t="s">
+        <v>7101</v>
+      </c>
+      <c r="F1050" s="12" t="s">
+        <v>7102</v>
+      </c>
+      <c r="G1050" s="12" t="s">
+        <v>7103</v>
+      </c>
+      <c r="H1050" s="12" t="s">
+        <v>7103</v>
+      </c>
+      <c r="I1050" s="12" t="s">
+        <v>7103</v>
+      </c>
+      <c r="J1050" s="12" t="s">
+        <v>7104</v>
+      </c>
+      <c r="K1050" s="12" t="s">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:11">
+      <c r="B1051" s="12" t="s">
+        <v>7105</v>
+      </c>
+      <c r="E1051" s="24" t="s">
+        <v>7106</v>
+      </c>
+      <c r="F1051" s="12" t="s">
+        <v>7107</v>
+      </c>
+      <c r="G1051" s="12" t="s">
+        <v>7107</v>
+      </c>
+      <c r="H1051" s="12" t="s">
+        <v>7107</v>
+      </c>
+      <c r="I1051" s="12" t="s">
+        <v>7107</v>
+      </c>
+      <c r="J1051" s="12" t="s">
+        <v>7108</v>
+      </c>
+      <c r="K1051" s="12" t="s">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="1052" ht="27" spans="2:11">
+      <c r="B1052" s="12" t="s">
+        <v>7109</v>
+      </c>
+      <c r="E1052" s="24" t="s">
+        <v>7110</v>
+      </c>
+      <c r="F1052" s="12" t="s">
+        <v>7111</v>
+      </c>
+      <c r="G1052" s="12" t="s">
+        <v>7112</v>
+      </c>
+      <c r="H1052" s="12" t="s">
+        <v>7112</v>
+      </c>
+      <c r="I1052" s="12" t="s">
+        <v>7112</v>
+      </c>
+      <c r="J1052" s="12" t="s">
+        <v>7113</v>
+      </c>
+      <c r="K1052" s="12" t="s">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:11">
+      <c r="B1053" s="12" t="s">
+        <v>7114</v>
+      </c>
+      <c r="E1053" s="24" t="s">
+        <v>7115</v>
+      </c>
+      <c r="F1053" s="12" t="s">
+        <v>7116</v>
+      </c>
+      <c r="G1053" s="12" t="s">
+        <v>7117</v>
+      </c>
+      <c r="H1053" s="12" t="s">
+        <v>7117</v>
+      </c>
+      <c r="I1053" s="12" t="s">
+        <v>7117</v>
+      </c>
+      <c r="J1053" s="12" t="s">
+        <v>7118</v>
+      </c>
+      <c r="K1053" s="12" t="s">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="1054" ht="54" spans="2:11">
+      <c r="B1054" s="12" t="s">
+        <v>7119</v>
+      </c>
+      <c r="E1054" s="24" t="s">
+        <v>7120</v>
+      </c>
+      <c r="F1054" s="12" t="s">
+        <v>7121</v>
+      </c>
+      <c r="G1054" s="12" t="s">
+        <v>7122</v>
+      </c>
+      <c r="H1054" s="12" t="s">
+        <v>7122</v>
+      </c>
+      <c r="I1054" s="12" t="s">
+        <v>7122</v>
+      </c>
+      <c r="J1054" s="12" t="s">
+        <v>7123</v>
+      </c>
+      <c r="K1054" s="12" t="s">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="1055" ht="54" spans="2:11">
+      <c r="B1055" s="12" t="s">
+        <v>7124</v>
+      </c>
+      <c r="E1055" s="24" t="s">
+        <v>7125</v>
+      </c>
+      <c r="F1055" s="12" t="s">
+        <v>7126</v>
+      </c>
+      <c r="G1055" s="12" t="s">
+        <v>7127</v>
+      </c>
+      <c r="H1055" s="12" t="s">
+        <v>7127</v>
+      </c>
+      <c r="I1055" s="12" t="s">
+        <v>7127</v>
+      </c>
+      <c r="J1055" s="12" t="s">
+        <v>7128</v>
+      </c>
+      <c r="K1055" s="12" t="s">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="1056" ht="162" spans="2:11">
+      <c r="B1056" s="12" t="s">
+        <v>7129</v>
+      </c>
+      <c r="C1056" s="12" t="s">
+        <v>7130</v>
+      </c>
+      <c r="E1056" s="12" t="s">
+        <v>7131</v>
+      </c>
+      <c r="F1056" s="12" t="s">
+        <v>7132</v>
+      </c>
+      <c r="G1056" s="12" t="s">
+        <v>7133</v>
+      </c>
+      <c r="H1056" s="12" t="s">
+        <v>7134</v>
+      </c>
+      <c r="I1056" s="12" t="s">
+        <v>7135</v>
+      </c>
+      <c r="J1056" s="12" t="s">
+        <v>7136</v>
+      </c>
+      <c r="K1056" s="12" t="s">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="1057" ht="297" spans="2:11">
+      <c r="B1057" s="12" t="s">
+        <v>7137</v>
+      </c>
+      <c r="C1057" s="12" t="s">
+        <v>7138</v>
+      </c>
+      <c r="E1057" s="24" t="s">
+        <v>7139</v>
+      </c>
+      <c r="F1057" s="12" t="s">
+        <v>7140</v>
+      </c>
+      <c r="G1057" s="12" t="s">
+        <v>7141</v>
+      </c>
+      <c r="H1057" s="12" t="s">
+        <v>7142</v>
+      </c>
+      <c r="I1057" s="12" t="s">
+        <v>7143</v>
+      </c>
+      <c r="J1057" s="12" t="s">
+        <v>7144</v>
+      </c>
+      <c r="K1057" s="12" t="s">
+        <v>7144</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="7139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8591" uniqueCount="7138">
   <si>
     <t>##var</t>
   </si>
@@ -20969,10 +20969,12 @@
     <t>SUITED/CONNECTORS/\n DRAW HAND</t>
   </si>
   <si>
-    <t>Suited/Conectores/\nDraw Hand</t>
-  </si>
-  <si>
-    <t>Cocok/Konkuren/\nGambar Tangan</t>
+    <t>Suited/Conectores
+/Draw Hand</t>
+  </si>
+  <si>
+    <t>Cocok/Konkuren
+/Gambar Tangan</t>
   </si>
   <si>
     <t>366006</t>
@@ -21035,13 +21037,16 @@
     <t>三條/順子/同花</t>
   </si>
   <si>
-    <t>THREE/STRAIGHT/\n Flush</t>
-  </si>
-  <si>
-    <t>Três/Reta/\nFlush</t>
-  </si>
-  <si>
-    <t>Tiga/Lurus/\nFlush</t>
+    <t>THREE/STRAIGHT
+/Flush</t>
+  </si>
+  <si>
+    <t>Três/Reta
+/Flush</t>
+  </si>
+  <si>
+    <t>Tiga/Lurus
+/Flush</t>
   </si>
   <si>
     <t>366011</t>
@@ -21065,16 +21070,16 @@
     <t>金剛/同花順/皇同</t>
   </si>
   <si>
-    <t>FOUR/STRAIGHT\n Flush/ROYAL FLUSH</t>
-  </si>
-  <si>
-    <t>Quatro/ Reta\nFlush/Royal Flush</t>
-  </si>
-  <si>
-    <t>Empat/Straight Flush/Royal Flush</t>
-  </si>
-  <si>
-    <t>Empat/Straight Flush/ Royal Flush</t>
+    <t>FOUR/STRAIGHT Flush
+/ROYAL FLUSH</t>
+  </si>
+  <si>
+    <t>Quatro/Reta Flush
+/Royal Flush</t>
+  </si>
+  <si>
+    <t>Empat/Straight Flush
+/Royal Flush</t>
   </si>
   <si>
     <t>366013</t>
@@ -22169,25 +22174,31 @@
     <t>任一人手牌</t>
   </si>
   <si>
-    <t>ANYSIDE\nHAND</t>
-  </si>
-  <si>
-    <t>LADO A LADO\nMão</t>
-  </si>
-  <si>
-    <t>SESUATU\nTANGAN</t>
+    <t>ANYSIDE
+HAND</t>
+  </si>
+  <si>
+    <t>LADO A 
+LADO Mão</t>
+  </si>
+  <si>
+    <t>SESUATU
+TANGAN</t>
   </si>
   <si>
     <t>366092</t>
   </si>
   <si>
-    <t>WINNING\nHAND</t>
-  </si>
-  <si>
-    <t>GANHANDO\nMão</t>
-  </si>
-  <si>
-    <t>MENANG\nTANGAN</t>
+    <t>WINNING
+HAND</t>
+  </si>
+  <si>
+    <t>GANHANDO
+Mão</t>
+  </si>
+  <si>
+    <t>MENANG
+TANGAN</t>
   </si>
   <si>
     <t>366093</t>
@@ -23611,8 +23622,8 @@
   <sheetPr/>
   <dimension ref="A1:N1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1056" workbookViewId="0">
-      <selection activeCell="F959" sqref="F959"/>
+    <sheetView tabSelected="1" topLeftCell="A1038" workbookViewId="0">
+      <selection activeCell="D1040" sqref="D1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49552,7 +49563,7 @@
         <v>6696</v>
       </c>
     </row>
-    <row r="962" spans="2:11">
+    <row r="962" ht="27" spans="2:11">
       <c r="B962" s="10" t="s">
         <v>6697</v>
       </c>
@@ -49604,7 +49615,7 @@
         <v>6706</v>
       </c>
     </row>
-    <row r="964" ht="40.5" spans="2:11">
+    <row r="964" ht="27" spans="2:11">
       <c r="B964" s="10" t="s">
         <v>6707</v>
       </c>
@@ -49627,96 +49638,96 @@
         <v>6711</v>
       </c>
       <c r="K964" s="10" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="965" spans="2:11">
       <c r="B965" s="10" t="s">
+        <v>6712</v>
+      </c>
+      <c r="E965" s="22" t="s">
         <v>6713</v>
       </c>
-      <c r="E965" s="22" t="s">
+      <c r="F965" s="10" t="s">
         <v>6714</v>
       </c>
-      <c r="F965" s="10" t="s">
+      <c r="G965" s="10" t="s">
         <v>6715</v>
       </c>
-      <c r="G965" s="10" t="s">
+      <c r="H965" s="10" t="s">
+        <v>6715</v>
+      </c>
+      <c r="I965" s="10" t="s">
+        <v>6715</v>
+      </c>
+      <c r="J965" s="10" t="s">
         <v>6716</v>
       </c>
-      <c r="H965" s="10" t="s">
+      <c r="K965" s="10" t="s">
         <v>6716</v>
-      </c>
-      <c r="I965" s="10" t="s">
-        <v>6716</v>
-      </c>
-      <c r="J965" s="10" t="s">
-        <v>6717</v>
-      </c>
-      <c r="K965" s="10" t="s">
-        <v>6717</v>
       </c>
     </row>
     <row r="966" spans="2:11">
       <c r="B966" s="10" t="s">
+        <v>6717</v>
+      </c>
+      <c r="E966" s="22" t="s">
         <v>6718</v>
       </c>
-      <c r="E966" s="22" t="s">
+      <c r="F966" s="10" t="s">
         <v>6719</v>
       </c>
-      <c r="F966" s="10" t="s">
+      <c r="G966" s="10" t="s">
         <v>6720</v>
       </c>
-      <c r="G966" s="10" t="s">
+      <c r="H966" s="10" t="s">
+        <v>6720</v>
+      </c>
+      <c r="I966" s="10" t="s">
+        <v>6720</v>
+      </c>
+      <c r="J966" s="10" t="s">
         <v>6721</v>
       </c>
-      <c r="H966" s="10" t="s">
+      <c r="K966" s="10" t="s">
         <v>6721</v>
-      </c>
-      <c r="I966" s="10" t="s">
-        <v>6721</v>
-      </c>
-      <c r="J966" s="10" t="s">
-        <v>6722</v>
-      </c>
-      <c r="K966" s="10" t="s">
-        <v>6722</v>
       </c>
     </row>
     <row r="967" spans="2:11">
       <c r="B967" s="10" t="s">
+        <v>6722</v>
+      </c>
+      <c r="E967" s="22" t="s">
         <v>6723</v>
       </c>
-      <c r="E967" s="22" t="s">
+      <c r="F967" s="10" t="s">
         <v>6724</v>
       </c>
-      <c r="F967" s="10" t="s">
+      <c r="G967" s="10" t="s">
         <v>6725</v>
       </c>
-      <c r="G967" s="10" t="s">
+      <c r="H967" s="10" t="s">
+        <v>6725</v>
+      </c>
+      <c r="I967" s="10" t="s">
+        <v>6725</v>
+      </c>
+      <c r="J967" s="10" t="s">
         <v>6726</v>
       </c>
-      <c r="H967" s="10" t="s">
+      <c r="K967" s="10" t="s">
         <v>6726</v>
-      </c>
-      <c r="I967" s="10" t="s">
-        <v>6726</v>
-      </c>
-      <c r="J967" s="10" t="s">
-        <v>6727</v>
-      </c>
-      <c r="K967" s="10" t="s">
-        <v>6727</v>
       </c>
     </row>
     <row r="968" spans="2:11">
       <c r="B968" s="10" t="s">
+        <v>6727</v>
+      </c>
+      <c r="E968" s="22" t="s">
         <v>6728</v>
       </c>
-      <c r="E968" s="22" t="s">
+      <c r="F968" s="10" t="s">
         <v>6729</v>
-      </c>
-      <c r="F968" s="10" t="s">
-        <v>6730</v>
       </c>
       <c r="G968" s="10" t="s">
         <v>5607</v>
@@ -49728,93 +49739,93 @@
         <v>5607</v>
       </c>
       <c r="J968" s="10" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
       <c r="K968" s="10" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="969" spans="2:11">
       <c r="B969" s="10" t="s">
+        <v>6731</v>
+      </c>
+      <c r="E969" s="22" t="s">
         <v>6732</v>
       </c>
-      <c r="E969" s="22" t="s">
+      <c r="F969" s="10" t="s">
         <v>6733</v>
       </c>
-      <c r="F969" s="10" t="s">
+      <c r="G969" s="10" t="s">
         <v>6734</v>
       </c>
-      <c r="G969" s="10" t="s">
-        <v>6735</v>
-      </c>
       <c r="H969" s="10" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="I969" s="10" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="J969" s="10" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="K969" s="10" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="970" spans="2:11">
       <c r="B970" s="10" t="s">
+        <v>6735</v>
+      </c>
+      <c r="E970" s="22" t="s">
         <v>6736</v>
       </c>
-      <c r="E970" s="22" t="s">
+      <c r="F970" s="10" t="s">
         <v>6737</v>
       </c>
-      <c r="F970" s="10" t="s">
+      <c r="G970" s="10" t="s">
         <v>6738</v>
       </c>
-      <c r="G970" s="10" t="s">
+      <c r="H970" s="10" t="s">
+        <v>6738</v>
+      </c>
+      <c r="I970" s="10" t="s">
+        <v>6738</v>
+      </c>
+      <c r="J970" s="10" t="s">
         <v>6739</v>
       </c>
-      <c r="H970" s="10" t="s">
+      <c r="K970" s="10" t="s">
         <v>6739</v>
-      </c>
-      <c r="I970" s="10" t="s">
-        <v>6739</v>
-      </c>
-      <c r="J970" s="10" t="s">
-        <v>6740</v>
-      </c>
-      <c r="K970" s="10" t="s">
-        <v>6740</v>
       </c>
     </row>
     <row r="971" spans="2:11">
       <c r="B971" s="10" t="s">
+        <v>6740</v>
+      </c>
+      <c r="E971" s="22" t="s">
         <v>6741</v>
       </c>
-      <c r="E971" s="22" t="s">
+      <c r="F971" s="10" t="s">
         <v>6742</v>
       </c>
-      <c r="F971" s="10" t="s">
+      <c r="G971" s="10" t="s">
         <v>6743</v>
       </c>
-      <c r="G971" s="10" t="s">
+      <c r="H971" s="10" t="s">
+        <v>6743</v>
+      </c>
+      <c r="I971" s="10" t="s">
+        <v>6743</v>
+      </c>
+      <c r="J971" s="10" t="s">
         <v>6744</v>
       </c>
-      <c r="H971" s="10" t="s">
+      <c r="K971" s="10" t="s">
         <v>6744</v>
-      </c>
-      <c r="I971" s="10" t="s">
-        <v>6744</v>
-      </c>
-      <c r="J971" s="10" t="s">
-        <v>6745</v>
-      </c>
-      <c r="K971" s="10" t="s">
-        <v>6745</v>
       </c>
     </row>
     <row r="972" spans="2:11">
       <c r="B972" s="10" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="E972" s="22" t="s">
         <v>6703</v>
@@ -49840,85 +49851,85 @@
     </row>
     <row r="973" spans="2:11">
       <c r="B973" s="10" t="s">
+        <v>6746</v>
+      </c>
+      <c r="E973" s="22" t="s">
         <v>6747</v>
       </c>
-      <c r="E973" s="22" t="s">
+      <c r="F973" s="10" t="s">
         <v>6748</v>
       </c>
-      <c r="F973" s="10" t="s">
+      <c r="G973" s="10" t="s">
         <v>6749</v>
       </c>
-      <c r="G973" s="10" t="s">
+      <c r="H973" s="10" t="s">
+        <v>6749</v>
+      </c>
+      <c r="I973" s="10" t="s">
+        <v>6749</v>
+      </c>
+      <c r="J973" s="10" t="s">
         <v>6750</v>
       </c>
-      <c r="H973" s="10" t="s">
+      <c r="K973" s="10" t="s">
         <v>6750</v>
-      </c>
-      <c r="I973" s="10" t="s">
-        <v>6750</v>
-      </c>
-      <c r="J973" s="10" t="s">
-        <v>6751</v>
-      </c>
-      <c r="K973" s="10" t="s">
-        <v>6751</v>
       </c>
     </row>
     <row r="974" spans="2:11">
       <c r="B974" s="10" t="s">
+        <v>6751</v>
+      </c>
+      <c r="E974" s="22" t="s">
         <v>6752</v>
       </c>
-      <c r="E974" s="22" t="s">
+      <c r="F974" s="10" t="s">
         <v>6753</v>
       </c>
-      <c r="F974" s="10" t="s">
+      <c r="G974" s="10" t="s">
         <v>6754</v>
       </c>
-      <c r="G974" s="10" t="s">
+      <c r="H974" s="10" t="s">
+        <v>6754</v>
+      </c>
+      <c r="I974" s="10" t="s">
+        <v>6754</v>
+      </c>
+      <c r="J974" s="10" t="s">
         <v>6755</v>
       </c>
-      <c r="H974" s="10" t="s">
+      <c r="K974" s="10" t="s">
         <v>6755</v>
-      </c>
-      <c r="I974" s="10" t="s">
-        <v>6755</v>
-      </c>
-      <c r="J974" s="10" t="s">
-        <v>6756</v>
-      </c>
-      <c r="K974" s="10" t="s">
-        <v>6756</v>
       </c>
     </row>
     <row r="975" spans="2:11">
       <c r="B975" s="10" t="s">
+        <v>6756</v>
+      </c>
+      <c r="E975" s="22" t="s">
         <v>6757</v>
       </c>
-      <c r="E975" s="22" t="s">
+      <c r="F975" s="10" t="s">
         <v>6758</v>
       </c>
-      <c r="F975" s="10" t="s">
+      <c r="G975" s="10" t="s">
         <v>6759</v>
       </c>
-      <c r="G975" s="10" t="s">
+      <c r="H975" s="10" t="s">
+        <v>6759</v>
+      </c>
+      <c r="I975" s="10" t="s">
+        <v>6759</v>
+      </c>
+      <c r="J975" s="10" t="s">
         <v>6760</v>
       </c>
-      <c r="H975" s="10" t="s">
+      <c r="K975" s="10" t="s">
         <v>6760</v>
-      </c>
-      <c r="I975" s="10" t="s">
-        <v>6760</v>
-      </c>
-      <c r="J975" s="10" t="s">
-        <v>6761</v>
-      </c>
-      <c r="K975" s="10" t="s">
-        <v>6761</v>
       </c>
     </row>
     <row r="976" spans="2:11">
       <c r="B976" s="10" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
       <c r="E976" s="22" t="s">
         <v>6685</v>
@@ -49936,15 +49947,15 @@
         <v>6687</v>
       </c>
       <c r="J976" s="10" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
       <c r="K976" s="10" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="977" spans="2:11">
       <c r="B977" s="10" t="s">
-        <v>6764</v>
+        <v>6763</v>
       </c>
       <c r="E977" s="22" t="s">
         <v>6690</v>
@@ -49970,22 +49981,22 @@
     </row>
     <row r="978" spans="2:11">
       <c r="B978" s="10" t="s">
+        <v>6764</v>
+      </c>
+      <c r="E978" s="22" t="s">
         <v>6765</v>
       </c>
-      <c r="E978" s="22" t="s">
+      <c r="F978" s="10" t="s">
         <v>6766</v>
       </c>
-      <c r="F978" s="10" t="s">
+      <c r="G978" s="10" t="s">
         <v>6767</v>
       </c>
-      <c r="G978" s="10" t="s">
-        <v>6768</v>
-      </c>
       <c r="H978" s="10" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="I978" s="10" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="J978" s="10" t="s">
         <v>4973</v>
@@ -49996,7 +50007,7 @@
     </row>
     <row r="979" spans="2:11">
       <c r="B979" s="10" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
       <c r="E979" s="22" t="s">
         <v>6695</v>
@@ -50022,568 +50033,568 @@
     </row>
     <row r="980" spans="2:11">
       <c r="B980" s="10" t="s">
+        <v>6769</v>
+      </c>
+      <c r="E980" s="22" t="s">
         <v>6770</v>
       </c>
-      <c r="E980" s="22" t="s">
+      <c r="F980" s="10" t="s">
         <v>6771</v>
       </c>
-      <c r="F980" s="10" t="s">
+      <c r="G980" s="10" t="s">
         <v>6772</v>
       </c>
-      <c r="G980" s="10" t="s">
+      <c r="H980" s="10" t="s">
+        <v>6772</v>
+      </c>
+      <c r="I980" s="10" t="s">
+        <v>6772</v>
+      </c>
+      <c r="J980" s="10" t="s">
         <v>6773</v>
       </c>
-      <c r="H980" s="10" t="s">
+      <c r="K980" s="10" t="s">
         <v>6773</v>
-      </c>
-      <c r="I980" s="10" t="s">
-        <v>6773</v>
-      </c>
-      <c r="J980" s="10" t="s">
-        <v>6774</v>
-      </c>
-      <c r="K980" s="10" t="s">
-        <v>6774</v>
       </c>
     </row>
     <row r="981" ht="175.5" spans="2:11">
       <c r="B981" s="10" t="s">
+        <v>6774</v>
+      </c>
+      <c r="E981" s="22" t="s">
         <v>6775</v>
       </c>
-      <c r="E981" s="22" t="s">
+      <c r="F981" s="10" t="s">
         <v>6776</v>
       </c>
-      <c r="F981" s="10" t="s">
+      <c r="G981" s="10" t="s">
         <v>6777</v>
       </c>
-      <c r="G981" s="10" t="s">
+      <c r="H981" s="10" t="s">
+        <v>6777</v>
+      </c>
+      <c r="I981" s="10" t="s">
+        <v>6777</v>
+      </c>
+      <c r="J981" s="10" t="s">
         <v>6778</v>
       </c>
-      <c r="H981" s="10" t="s">
+      <c r="K981" s="10" t="s">
         <v>6778</v>
-      </c>
-      <c r="I981" s="10" t="s">
-        <v>6778</v>
-      </c>
-      <c r="J981" s="10" t="s">
-        <v>6779</v>
-      </c>
-      <c r="K981" s="10" t="s">
-        <v>6779</v>
       </c>
     </row>
     <row r="982" spans="2:11">
       <c r="B982" s="10" t="s">
+        <v>6779</v>
+      </c>
+      <c r="E982" s="22" t="s">
         <v>6780</v>
       </c>
-      <c r="E982" s="22" t="s">
+      <c r="F982" s="10" t="s">
         <v>6781</v>
       </c>
-      <c r="F982" s="10" t="s">
+      <c r="G982" s="10" t="s">
         <v>6782</v>
       </c>
-      <c r="G982" s="10" t="s">
+      <c r="H982" s="10" t="s">
+        <v>6782</v>
+      </c>
+      <c r="I982" s="10" t="s">
+        <v>6782</v>
+      </c>
+      <c r="J982" s="10" t="s">
         <v>6783</v>
       </c>
-      <c r="H982" s="10" t="s">
+      <c r="K982" s="10" t="s">
         <v>6783</v>
-      </c>
-      <c r="I982" s="10" t="s">
-        <v>6783</v>
-      </c>
-      <c r="J982" s="10" t="s">
-        <v>6784</v>
-      </c>
-      <c r="K982" s="10" t="s">
-        <v>6784</v>
       </c>
     </row>
     <row r="983" ht="162" spans="2:11">
       <c r="B983" s="10" t="s">
+        <v>6784</v>
+      </c>
+      <c r="E983" s="22" t="s">
         <v>6785</v>
       </c>
-      <c r="E983" s="22" t="s">
+      <c r="F983" s="10" t="s">
         <v>6786</v>
       </c>
-      <c r="F983" s="10" t="s">
+      <c r="G983" s="10" t="s">
         <v>6787</v>
       </c>
-      <c r="G983" s="10" t="s">
+      <c r="H983" s="10" t="s">
+        <v>6787</v>
+      </c>
+      <c r="I983" s="10" t="s">
+        <v>6787</v>
+      </c>
+      <c r="J983" s="10" t="s">
         <v>6788</v>
       </c>
-      <c r="H983" s="10" t="s">
+      <c r="K983" s="10" t="s">
         <v>6788</v>
-      </c>
-      <c r="I983" s="10" t="s">
-        <v>6788</v>
-      </c>
-      <c r="J983" s="10" t="s">
-        <v>6789</v>
-      </c>
-      <c r="K983" s="10" t="s">
-        <v>6789</v>
       </c>
     </row>
     <row r="984" ht="27" spans="2:11">
       <c r="B984" s="10" t="s">
+        <v>6789</v>
+      </c>
+      <c r="E984" t="s">
         <v>6790</v>
       </c>
-      <c r="E984" t="s">
+      <c r="F984" s="10" t="s">
         <v>6791</v>
       </c>
-      <c r="F984" s="10" t="s">
+      <c r="G984" s="10" t="s">
         <v>6792</v>
       </c>
-      <c r="G984" s="10" t="s">
+      <c r="H984" s="10" t="s">
+        <v>6792</v>
+      </c>
+      <c r="I984" s="10" t="s">
+        <v>6792</v>
+      </c>
+      <c r="J984" s="10" t="s">
         <v>6793</v>
       </c>
-      <c r="H984" s="10" t="s">
+      <c r="K984" s="10" t="s">
         <v>6793</v>
-      </c>
-      <c r="I984" s="10" t="s">
-        <v>6793</v>
-      </c>
-      <c r="J984" s="10" t="s">
-        <v>6794</v>
-      </c>
-      <c r="K984" s="10" t="s">
-        <v>6794</v>
       </c>
     </row>
     <row r="985" ht="27" spans="2:11">
       <c r="B985" s="10" t="s">
+        <v>6794</v>
+      </c>
+      <c r="E985" t="s">
         <v>6795</v>
       </c>
-      <c r="E985" t="s">
+      <c r="F985" s="10" t="s">
         <v>6796</v>
       </c>
-      <c r="F985" s="10" t="s">
+      <c r="G985" s="10" t="s">
         <v>6797</v>
       </c>
-      <c r="G985" s="10" t="s">
+      <c r="H985" s="10" t="s">
+        <v>6797</v>
+      </c>
+      <c r="I985" s="10" t="s">
+        <v>6797</v>
+      </c>
+      <c r="J985" s="10" t="s">
         <v>6798</v>
       </c>
-      <c r="H985" s="10" t="s">
+      <c r="K985" s="10" t="s">
         <v>6798</v>
-      </c>
-      <c r="I985" s="10" t="s">
-        <v>6798</v>
-      </c>
-      <c r="J985" s="10" t="s">
-        <v>6799</v>
-      </c>
-      <c r="K985" s="10" t="s">
-        <v>6799</v>
       </c>
     </row>
     <row r="986" spans="2:11">
       <c r="B986" s="10" t="s">
+        <v>6799</v>
+      </c>
+      <c r="E986" t="s">
         <v>6800</v>
       </c>
-      <c r="E986" t="s">
+      <c r="F986" s="10" t="s">
         <v>6801</v>
       </c>
-      <c r="F986" s="10" t="s">
+      <c r="G986" s="10" t="s">
         <v>6802</v>
       </c>
-      <c r="G986" s="10" t="s">
+      <c r="H986" s="10" t="s">
+        <v>6802</v>
+      </c>
+      <c r="I986" s="10" t="s">
+        <v>6802</v>
+      </c>
+      <c r="J986" s="10" t="s">
         <v>6803</v>
       </c>
-      <c r="H986" s="10" t="s">
+      <c r="K986" s="10" t="s">
         <v>6803</v>
-      </c>
-      <c r="I986" s="10" t="s">
-        <v>6803</v>
-      </c>
-      <c r="J986" s="10" t="s">
-        <v>6804</v>
-      </c>
-      <c r="K986" s="10" t="s">
-        <v>6804</v>
       </c>
     </row>
     <row r="987" spans="2:11">
       <c r="B987" s="10" t="s">
+        <v>6804</v>
+      </c>
+      <c r="E987" t="s">
         <v>6805</v>
       </c>
-      <c r="E987" t="s">
+      <c r="F987" s="10" t="s">
         <v>6806</v>
       </c>
-      <c r="F987" s="10" t="s">
+      <c r="G987" s="10" t="s">
         <v>6807</v>
       </c>
-      <c r="G987" s="10" t="s">
+      <c r="H987" s="10" t="s">
+        <v>6807</v>
+      </c>
+      <c r="I987" s="10" t="s">
+        <v>6807</v>
+      </c>
+      <c r="J987" s="10" t="s">
         <v>6808</v>
       </c>
-      <c r="H987" s="10" t="s">
+      <c r="K987" s="10" t="s">
         <v>6808</v>
-      </c>
-      <c r="I987" s="10" t="s">
-        <v>6808</v>
-      </c>
-      <c r="J987" s="10" t="s">
-        <v>6809</v>
-      </c>
-      <c r="K987" s="10" t="s">
-        <v>6809</v>
       </c>
     </row>
     <row r="988" spans="2:11">
       <c r="B988" s="10" t="s">
+        <v>6809</v>
+      </c>
+      <c r="E988" t="s">
         <v>6810</v>
       </c>
-      <c r="E988" t="s">
+      <c r="F988" s="10" t="s">
         <v>6811</v>
       </c>
-      <c r="F988" s="10" t="s">
+      <c r="G988" s="10" t="s">
         <v>6812</v>
       </c>
-      <c r="G988" s="10" t="s">
+      <c r="H988" s="10" t="s">
+        <v>6812</v>
+      </c>
+      <c r="I988" s="10" t="s">
+        <v>6812</v>
+      </c>
+      <c r="J988" s="10" t="s">
         <v>6813</v>
       </c>
-      <c r="H988" s="10" t="s">
+      <c r="K988" s="10" t="s">
         <v>6813</v>
-      </c>
-      <c r="I988" s="10" t="s">
-        <v>6813</v>
-      </c>
-      <c r="J988" s="10" t="s">
-        <v>6814</v>
-      </c>
-      <c r="K988" s="10" t="s">
-        <v>6814</v>
       </c>
     </row>
     <row r="989" spans="2:11">
       <c r="B989" s="10" t="s">
+        <v>6814</v>
+      </c>
+      <c r="E989" s="22" t="s">
         <v>6815</v>
       </c>
-      <c r="E989" s="22" t="s">
+      <c r="F989" s="10" t="s">
         <v>6816</v>
       </c>
-      <c r="F989" s="10" t="s">
+      <c r="G989" s="10" t="s">
         <v>6817</v>
       </c>
-      <c r="G989" s="10" t="s">
+      <c r="H989" s="10" t="s">
+        <v>6817</v>
+      </c>
+      <c r="I989" s="10" t="s">
+        <v>6817</v>
+      </c>
+      <c r="J989" s="10" t="s">
         <v>6818</v>
       </c>
-      <c r="H989" s="10" t="s">
+      <c r="K989" s="10" t="s">
         <v>6818</v>
-      </c>
-      <c r="I989" s="10" t="s">
-        <v>6818</v>
-      </c>
-      <c r="J989" s="10" t="s">
-        <v>6819</v>
-      </c>
-      <c r="K989" s="10" t="s">
-        <v>6819</v>
       </c>
     </row>
     <row r="990" spans="2:11">
       <c r="B990" s="10" t="s">
+        <v>6819</v>
+      </c>
+      <c r="E990" s="22" t="s">
         <v>6820</v>
       </c>
-      <c r="E990" s="22" t="s">
+      <c r="F990" s="10" t="s">
         <v>6821</v>
       </c>
-      <c r="F990" s="10" t="s">
+      <c r="G990" s="10" t="s">
         <v>6822</v>
       </c>
-      <c r="G990" s="10" t="s">
+      <c r="H990" s="10" t="s">
+        <v>6822</v>
+      </c>
+      <c r="I990" s="10" t="s">
+        <v>6822</v>
+      </c>
+      <c r="J990" s="10" t="s">
         <v>6823</v>
       </c>
-      <c r="H990" s="10" t="s">
+      <c r="K990" s="10" t="s">
         <v>6823</v>
-      </c>
-      <c r="I990" s="10" t="s">
-        <v>6823</v>
-      </c>
-      <c r="J990" s="10" t="s">
-        <v>6824</v>
-      </c>
-      <c r="K990" s="10" t="s">
-        <v>6824</v>
       </c>
     </row>
     <row r="991" spans="2:11">
       <c r="B991" s="10" t="s">
+        <v>6824</v>
+      </c>
+      <c r="E991" s="22" t="s">
         <v>6825</v>
       </c>
-      <c r="E991" s="22" t="s">
+      <c r="F991" s="10" t="s">
         <v>6826</v>
       </c>
-      <c r="F991" s="10" t="s">
+      <c r="G991" s="10" t="s">
         <v>6827</v>
       </c>
-      <c r="G991" s="10" t="s">
+      <c r="H991" s="10" t="s">
+        <v>6827</v>
+      </c>
+      <c r="I991" s="10" t="s">
+        <v>6827</v>
+      </c>
+      <c r="J991" s="10" t="s">
         <v>6828</v>
       </c>
-      <c r="H991" s="10" t="s">
+      <c r="K991" s="10" t="s">
         <v>6828</v>
-      </c>
-      <c r="I991" s="10" t="s">
-        <v>6828</v>
-      </c>
-      <c r="J991" s="10" t="s">
-        <v>6829</v>
-      </c>
-      <c r="K991" s="10" t="s">
-        <v>6829</v>
       </c>
     </row>
     <row r="992" spans="2:11">
       <c r="B992" s="10" t="s">
+        <v>6829</v>
+      </c>
+      <c r="E992" s="22" t="s">
         <v>6830</v>
       </c>
-      <c r="E992" s="22" t="s">
+      <c r="F992" s="10" t="s">
         <v>6831</v>
       </c>
-      <c r="F992" s="10" t="s">
+      <c r="G992" s="10" t="s">
         <v>6832</v>
       </c>
-      <c r="G992" s="10" t="s">
+      <c r="H992" s="10" t="s">
+        <v>6832</v>
+      </c>
+      <c r="I992" s="10" t="s">
+        <v>6832</v>
+      </c>
+      <c r="J992" s="10" t="s">
         <v>6833</v>
       </c>
-      <c r="H992" s="10" t="s">
+      <c r="K992" s="10" t="s">
         <v>6833</v>
-      </c>
-      <c r="I992" s="10" t="s">
-        <v>6833</v>
-      </c>
-      <c r="J992" s="10" t="s">
-        <v>6834</v>
-      </c>
-      <c r="K992" s="10" t="s">
-        <v>6834</v>
       </c>
     </row>
     <row r="993" spans="2:11">
       <c r="B993" s="10" t="s">
+        <v>6834</v>
+      </c>
+      <c r="E993" s="22" t="s">
         <v>6835</v>
       </c>
-      <c r="E993" s="22" t="s">
+      <c r="F993" s="10" t="s">
         <v>6836</v>
       </c>
-      <c r="F993" s="10" t="s">
+      <c r="G993" s="10" t="s">
         <v>6837</v>
       </c>
-      <c r="G993" s="10" t="s">
-        <v>6838</v>
-      </c>
       <c r="H993" s="10" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="I993" s="10" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="J993" s="10" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="K993" s="10" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="994" ht="27" spans="2:11">
       <c r="B994" s="10" t="s">
+        <v>6838</v>
+      </c>
+      <c r="E994" s="22" t="s">
         <v>6839</v>
       </c>
-      <c r="E994" s="22" t="s">
+      <c r="F994" s="10" t="s">
         <v>6840</v>
       </c>
-      <c r="F994" s="10" t="s">
+      <c r="G994" s="10" t="s">
         <v>6841</v>
       </c>
-      <c r="G994" s="10" t="s">
+      <c r="H994" s="10" t="s">
+        <v>6841</v>
+      </c>
+      <c r="I994" s="10" t="s">
+        <v>6841</v>
+      </c>
+      <c r="J994" s="10" t="s">
         <v>6842</v>
       </c>
-      <c r="H994" s="10" t="s">
+      <c r="K994" s="10" t="s">
         <v>6842</v>
-      </c>
-      <c r="I994" s="10" t="s">
-        <v>6842</v>
-      </c>
-      <c r="J994" s="10" t="s">
-        <v>6843</v>
-      </c>
-      <c r="K994" s="10" t="s">
-        <v>6843</v>
       </c>
     </row>
     <row r="995" spans="2:11">
       <c r="B995" s="10" t="s">
+        <v>6843</v>
+      </c>
+      <c r="E995" s="22" t="s">
         <v>6844</v>
       </c>
-      <c r="E995" s="22" t="s">
+      <c r="F995" s="10" t="s">
         <v>6845</v>
       </c>
-      <c r="F995" s="10" t="s">
+      <c r="G995" s="10" t="s">
         <v>6846</v>
       </c>
-      <c r="G995" s="10" t="s">
+      <c r="H995" s="10" t="s">
+        <v>6846</v>
+      </c>
+      <c r="I995" s="10" t="s">
+        <v>6846</v>
+      </c>
+      <c r="J995" s="10" t="s">
         <v>6847</v>
       </c>
-      <c r="H995" s="10" t="s">
+      <c r="K995" s="10" t="s">
         <v>6847</v>
-      </c>
-      <c r="I995" s="10" t="s">
-        <v>6847</v>
-      </c>
-      <c r="J995" s="10" t="s">
-        <v>6848</v>
-      </c>
-      <c r="K995" s="10" t="s">
-        <v>6848</v>
       </c>
     </row>
     <row r="996" spans="2:11">
       <c r="B996" s="10" t="s">
+        <v>6848</v>
+      </c>
+      <c r="E996" s="22" t="s">
         <v>6849</v>
       </c>
-      <c r="E996" s="22" t="s">
+      <c r="F996" s="10" t="s">
         <v>6850</v>
       </c>
-      <c r="F996" s="10" t="s">
+      <c r="G996" s="10" t="s">
         <v>6851</v>
       </c>
-      <c r="G996" s="10" t="s">
+      <c r="H996" s="10" t="s">
+        <v>6851</v>
+      </c>
+      <c r="I996" s="10" t="s">
+        <v>6851</v>
+      </c>
+      <c r="J996" s="10" t="s">
         <v>6852</v>
       </c>
-      <c r="H996" s="10" t="s">
+      <c r="K996" s="10" t="s">
         <v>6852</v>
-      </c>
-      <c r="I996" s="10" t="s">
-        <v>6852</v>
-      </c>
-      <c r="J996" s="10" t="s">
-        <v>6853</v>
-      </c>
-      <c r="K996" s="10" t="s">
-        <v>6853</v>
       </c>
     </row>
     <row r="997" spans="2:11">
       <c r="B997" s="10" t="s">
+        <v>6853</v>
+      </c>
+      <c r="E997" s="22" t="s">
         <v>6854</v>
       </c>
-      <c r="E997" s="22" t="s">
+      <c r="F997" s="10" t="s">
         <v>6855</v>
       </c>
-      <c r="F997" s="10" t="s">
+      <c r="G997" s="10" t="s">
         <v>6856</v>
       </c>
-      <c r="G997" s="10" t="s">
+      <c r="H997" s="10" t="s">
+        <v>6856</v>
+      </c>
+      <c r="I997" s="10" t="s">
+        <v>6856</v>
+      </c>
+      <c r="J997" s="10" t="s">
         <v>6857</v>
       </c>
-      <c r="H997" s="10" t="s">
+      <c r="K997" s="10" t="s">
         <v>6857</v>
-      </c>
-      <c r="I997" s="10" t="s">
-        <v>6857</v>
-      </c>
-      <c r="J997" s="10" t="s">
-        <v>6858</v>
-      </c>
-      <c r="K997" s="10" t="s">
-        <v>6858</v>
       </c>
     </row>
     <row r="998" spans="2:11">
       <c r="B998" s="10" t="s">
+        <v>6858</v>
+      </c>
+      <c r="E998" s="22" t="s">
         <v>6859</v>
       </c>
-      <c r="E998" s="22" t="s">
+      <c r="F998" s="10" t="s">
         <v>6860</v>
       </c>
-      <c r="F998" s="10" t="s">
+      <c r="G998" s="10" t="s">
         <v>6861</v>
       </c>
-      <c r="G998" s="10" t="s">
+      <c r="H998" s="10" t="s">
+        <v>6861</v>
+      </c>
+      <c r="I998" s="10" t="s">
+        <v>6861</v>
+      </c>
+      <c r="J998" s="10" t="s">
         <v>6862</v>
       </c>
-      <c r="H998" s="10" t="s">
+      <c r="K998" s="10" t="s">
         <v>6862</v>
-      </c>
-      <c r="I998" s="10" t="s">
-        <v>6862</v>
-      </c>
-      <c r="J998" s="10" t="s">
-        <v>6863</v>
-      </c>
-      <c r="K998" s="10" t="s">
-        <v>6863</v>
       </c>
     </row>
     <row r="999" ht="27" spans="2:11">
       <c r="B999" s="10" t="s">
+        <v>6863</v>
+      </c>
+      <c r="E999" s="22" t="s">
         <v>6864</v>
       </c>
-      <c r="E999" s="22" t="s">
+      <c r="F999" s="10" t="s">
         <v>6865</v>
       </c>
-      <c r="F999" s="10" t="s">
+      <c r="G999" s="10" t="s">
         <v>6866</v>
       </c>
-      <c r="G999" s="10" t="s">
+      <c r="H999" s="10" t="s">
+        <v>6866</v>
+      </c>
+      <c r="I999" s="10" t="s">
+        <v>6866</v>
+      </c>
+      <c r="J999" s="10" t="s">
         <v>6867</v>
       </c>
-      <c r="H999" s="10" t="s">
+      <c r="K999" s="10" t="s">
         <v>6867</v>
-      </c>
-      <c r="I999" s="10" t="s">
-        <v>6867</v>
-      </c>
-      <c r="J999" s="10" t="s">
-        <v>6868</v>
-      </c>
-      <c r="K999" s="10" t="s">
-        <v>6868</v>
       </c>
     </row>
     <row r="1000" spans="2:11">
       <c r="B1000" s="10" t="s">
+        <v>6868</v>
+      </c>
+      <c r="E1000" s="22" t="s">
         <v>6869</v>
       </c>
-      <c r="E1000" s="22" t="s">
+      <c r="F1000" s="10" t="s">
         <v>6870</v>
       </c>
-      <c r="F1000" s="10" t="s">
+      <c r="G1000" s="10" t="s">
         <v>6871</v>
       </c>
-      <c r="G1000" s="10" t="s">
+      <c r="H1000" s="10" t="s">
+        <v>6871</v>
+      </c>
+      <c r="I1000" s="10" t="s">
+        <v>6871</v>
+      </c>
+      <c r="J1000" s="10" t="s">
         <v>6872</v>
       </c>
-      <c r="H1000" s="10" t="s">
+      <c r="K1000" s="10" t="s">
         <v>6872</v>
-      </c>
-      <c r="I1000" s="10" t="s">
-        <v>6872</v>
-      </c>
-      <c r="J1000" s="10" t="s">
-        <v>6873</v>
-      </c>
-      <c r="K1000" s="10" t="s">
-        <v>6873</v>
       </c>
     </row>
     <row r="1001" spans="2:11">
       <c r="B1001" s="10" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
       <c r="E1001" s="22" t="s">
         <v>4646</v>
       </c>
       <c r="F1001" s="10" t="s">
+        <v>6874</v>
+      </c>
+      <c r="G1001" s="10" t="s">
         <v>6875</v>
       </c>
-      <c r="G1001" s="10" t="s">
-        <v>6876</v>
-      </c>
       <c r="H1001" s="10" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
       <c r="I1001" s="10" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
       <c r="J1001" s="10" t="s">
         <v>4651</v>
@@ -50594,1021 +50605,1021 @@
     </row>
     <row r="1002" spans="2:11">
       <c r="B1002" s="10" t="s">
+        <v>6876</v>
+      </c>
+      <c r="E1002" s="22" t="s">
         <v>6877</v>
       </c>
-      <c r="E1002" s="22" t="s">
+      <c r="F1002" s="10" t="s">
         <v>6878</v>
       </c>
-      <c r="F1002" s="10" t="s">
+      <c r="G1002" s="10" t="s">
         <v>6879</v>
       </c>
-      <c r="G1002" s="10" t="s">
+      <c r="H1002" s="10" t="s">
+        <v>6879</v>
+      </c>
+      <c r="I1002" s="10" t="s">
+        <v>6879</v>
+      </c>
+      <c r="J1002" s="10" t="s">
         <v>6880</v>
       </c>
-      <c r="H1002" s="10" t="s">
+      <c r="K1002" s="10" t="s">
         <v>6880</v>
-      </c>
-      <c r="I1002" s="10" t="s">
-        <v>6880</v>
-      </c>
-      <c r="J1002" s="10" t="s">
-        <v>6881</v>
-      </c>
-      <c r="K1002" s="10" t="s">
-        <v>6881</v>
       </c>
     </row>
     <row r="1003" spans="2:11">
       <c r="B1003" s="10" t="s">
+        <v>6881</v>
+      </c>
+      <c r="E1003" s="22" t="s">
         <v>6882</v>
       </c>
-      <c r="E1003" s="22" t="s">
+      <c r="F1003" s="10" t="s">
         <v>6883</v>
       </c>
-      <c r="F1003" s="10" t="s">
+      <c r="G1003" s="10" t="s">
         <v>6884</v>
       </c>
-      <c r="G1003" s="10" t="s">
+      <c r="H1003" s="10" t="s">
+        <v>6884</v>
+      </c>
+      <c r="I1003" s="10" t="s">
+        <v>6884</v>
+      </c>
+      <c r="J1003" s="10" t="s">
         <v>6885</v>
       </c>
-      <c r="H1003" s="10" t="s">
+      <c r="K1003" s="10" t="s">
         <v>6885</v>
-      </c>
-      <c r="I1003" s="10" t="s">
-        <v>6885</v>
-      </c>
-      <c r="J1003" s="10" t="s">
-        <v>6886</v>
-      </c>
-      <c r="K1003" s="10" t="s">
-        <v>6886</v>
       </c>
     </row>
     <row r="1004" spans="2:11">
       <c r="B1004" s="10" t="s">
+        <v>6886</v>
+      </c>
+      <c r="E1004" s="22" t="s">
         <v>6887</v>
       </c>
-      <c r="E1004" s="22" t="s">
+      <c r="F1004" s="10" t="s">
         <v>6888</v>
       </c>
-      <c r="F1004" s="10" t="s">
+      <c r="G1004" s="10" t="s">
         <v>6889</v>
       </c>
-      <c r="G1004" s="10" t="s">
+      <c r="H1004" s="10" t="s">
+        <v>6889</v>
+      </c>
+      <c r="I1004" s="10" t="s">
+        <v>6889</v>
+      </c>
+      <c r="J1004" s="10" t="s">
         <v>6890</v>
       </c>
-      <c r="H1004" s="10" t="s">
+      <c r="K1004" s="10" t="s">
         <v>6890</v>
-      </c>
-      <c r="I1004" s="10" t="s">
-        <v>6890</v>
-      </c>
-      <c r="J1004" s="10" t="s">
-        <v>6891</v>
-      </c>
-      <c r="K1004" s="10" t="s">
-        <v>6891</v>
       </c>
     </row>
     <row r="1005" spans="2:11">
       <c r="B1005" s="10" t="s">
+        <v>6891</v>
+      </c>
+      <c r="E1005" s="22" t="s">
         <v>6892</v>
       </c>
-      <c r="E1005" s="22" t="s">
+      <c r="F1005" s="10" t="s">
         <v>6893</v>
       </c>
-      <c r="F1005" s="10" t="s">
+      <c r="G1005" s="10" t="s">
         <v>6894</v>
       </c>
-      <c r="G1005" s="10" t="s">
+      <c r="H1005" s="10" t="s">
+        <v>6894</v>
+      </c>
+      <c r="I1005" s="10" t="s">
+        <v>6894</v>
+      </c>
+      <c r="J1005" s="10" t="s">
         <v>6895</v>
       </c>
-      <c r="H1005" s="10" t="s">
+      <c r="K1005" s="10" t="s">
         <v>6895</v>
-      </c>
-      <c r="I1005" s="10" t="s">
-        <v>6895</v>
-      </c>
-      <c r="J1005" s="10" t="s">
-        <v>6896</v>
-      </c>
-      <c r="K1005" s="10" t="s">
-        <v>6896</v>
       </c>
     </row>
     <row r="1006" ht="27" spans="2:11">
       <c r="B1006" s="10" t="s">
+        <v>6896</v>
+      </c>
+      <c r="E1006" s="22" t="s">
         <v>6897</v>
       </c>
-      <c r="E1006" s="22" t="s">
+      <c r="F1006" s="10" t="s">
         <v>6898</v>
       </c>
-      <c r="F1006" s="10" t="s">
+      <c r="G1006" s="10" t="s">
         <v>6899</v>
       </c>
-      <c r="G1006" s="10" t="s">
+      <c r="H1006" s="10" t="s">
+        <v>6899</v>
+      </c>
+      <c r="I1006" s="10" t="s">
+        <v>6899</v>
+      </c>
+      <c r="J1006" s="10" t="s">
         <v>6900</v>
       </c>
-      <c r="H1006" s="10" t="s">
+      <c r="K1006" s="10" t="s">
         <v>6900</v>
-      </c>
-      <c r="I1006" s="10" t="s">
-        <v>6900</v>
-      </c>
-      <c r="J1006" s="10" t="s">
-        <v>6901</v>
-      </c>
-      <c r="K1006" s="10" t="s">
-        <v>6901</v>
       </c>
     </row>
     <row r="1007" spans="2:11">
       <c r="B1007" s="10" t="s">
+        <v>6901</v>
+      </c>
+      <c r="E1007" s="22" t="s">
         <v>6902</v>
       </c>
-      <c r="E1007" s="22" t="s">
+      <c r="F1007" s="10" t="s">
         <v>6903</v>
       </c>
-      <c r="F1007" s="10" t="s">
+      <c r="G1007" s="10" t="s">
         <v>6904</v>
       </c>
-      <c r="G1007" s="10" t="s">
+      <c r="H1007" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="I1007" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="J1007" s="10" t="s">
         <v>6905</v>
       </c>
-      <c r="H1007" s="10" t="s">
+      <c r="K1007" s="10" t="s">
         <v>6905</v>
-      </c>
-      <c r="I1007" s="10" t="s">
-        <v>6905</v>
-      </c>
-      <c r="J1007" s="10" t="s">
-        <v>6906</v>
-      </c>
-      <c r="K1007" s="10" t="s">
-        <v>6906</v>
       </c>
     </row>
     <row r="1008" spans="2:11">
       <c r="B1008" s="10" t="s">
+        <v>6906</v>
+      </c>
+      <c r="E1008" s="22" t="s">
         <v>6907</v>
       </c>
-      <c r="E1008" s="22" t="s">
+      <c r="F1008" s="10" t="s">
         <v>6908</v>
       </c>
-      <c r="F1008" s="10" t="s">
+      <c r="G1008" s="10" t="s">
         <v>6909</v>
       </c>
-      <c r="G1008" s="10" t="s">
+      <c r="H1008" s="10" t="s">
+        <v>6909</v>
+      </c>
+      <c r="I1008" s="10" t="s">
+        <v>6909</v>
+      </c>
+      <c r="J1008" s="10" t="s">
         <v>6910</v>
       </c>
-      <c r="H1008" s="10" t="s">
+      <c r="K1008" s="10" t="s">
         <v>6910</v>
-      </c>
-      <c r="I1008" s="10" t="s">
-        <v>6910</v>
-      </c>
-      <c r="J1008" s="10" t="s">
-        <v>6911</v>
-      </c>
-      <c r="K1008" s="10" t="s">
-        <v>6911</v>
       </c>
     </row>
     <row r="1009" spans="2:11">
       <c r="B1009" s="10" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="E1009" s="22" t="s">
         <v>457</v>
       </c>
       <c r="F1009" s="10" t="s">
+        <v>6912</v>
+      </c>
+      <c r="G1009" s="10" t="s">
         <v>6913</v>
       </c>
-      <c r="G1009" s="10" t="s">
+      <c r="H1009" s="10" t="s">
+        <v>6913</v>
+      </c>
+      <c r="I1009" s="10" t="s">
+        <v>6913</v>
+      </c>
+      <c r="J1009" s="10" t="s">
         <v>6914</v>
       </c>
-      <c r="H1009" s="10" t="s">
+      <c r="K1009" s="10" t="s">
         <v>6914</v>
-      </c>
-      <c r="I1009" s="10" t="s">
-        <v>6914</v>
-      </c>
-      <c r="J1009" s="10" t="s">
-        <v>6915</v>
-      </c>
-      <c r="K1009" s="10" t="s">
-        <v>6915</v>
       </c>
     </row>
     <row r="1010" spans="2:11">
       <c r="B1010" s="10" t="s">
+        <v>6915</v>
+      </c>
+      <c r="E1010" s="22" t="s">
         <v>6916</v>
       </c>
-      <c r="E1010" s="22" t="s">
+      <c r="F1010" s="10" t="s">
         <v>6917</v>
       </c>
-      <c r="F1010" s="10" t="s">
+      <c r="G1010" s="10" t="s">
         <v>6918</v>
       </c>
-      <c r="G1010" s="10" t="s">
+      <c r="H1010" s="10" t="s">
+        <v>6918</v>
+      </c>
+      <c r="I1010" s="10" t="s">
+        <v>6918</v>
+      </c>
+      <c r="J1010" s="10" t="s">
         <v>6919</v>
       </c>
-      <c r="H1010" s="10" t="s">
+      <c r="K1010" s="10" t="s">
         <v>6919</v>
-      </c>
-      <c r="I1010" s="10" t="s">
-        <v>6919</v>
-      </c>
-      <c r="J1010" s="10" t="s">
-        <v>6920</v>
-      </c>
-      <c r="K1010" s="10" t="s">
-        <v>6920</v>
       </c>
     </row>
     <row r="1011" spans="2:11">
       <c r="B1011" s="10" t="s">
+        <v>6920</v>
+      </c>
+      <c r="E1011" s="22" t="s">
         <v>6921</v>
       </c>
-      <c r="E1011" s="22" t="s">
+      <c r="F1011" s="10" t="s">
         <v>6922</v>
       </c>
-      <c r="F1011" s="10" t="s">
+      <c r="G1011" s="10" t="s">
         <v>6923</v>
       </c>
-      <c r="G1011" s="10" t="s">
+      <c r="H1011" s="10" t="s">
+        <v>6923</v>
+      </c>
+      <c r="I1011" s="10" t="s">
+        <v>6923</v>
+      </c>
+      <c r="J1011" s="10" t="s">
         <v>6924</v>
       </c>
-      <c r="H1011" s="10" t="s">
+      <c r="K1011" s="10" t="s">
         <v>6924</v>
-      </c>
-      <c r="I1011" s="10" t="s">
-        <v>6924</v>
-      </c>
-      <c r="J1011" s="10" t="s">
-        <v>6925</v>
-      </c>
-      <c r="K1011" s="10" t="s">
-        <v>6925</v>
       </c>
     </row>
     <row r="1012" ht="40.5" spans="2:11">
       <c r="B1012" s="10" t="s">
+        <v>6925</v>
+      </c>
+      <c r="E1012" s="22" t="s">
         <v>6926</v>
       </c>
-      <c r="E1012" s="22" t="s">
+      <c r="F1012" s="10" t="s">
         <v>6927</v>
       </c>
-      <c r="F1012" s="10" t="s">
+      <c r="G1012" s="10" t="s">
         <v>6928</v>
       </c>
-      <c r="G1012" s="10" t="s">
+      <c r="H1012" s="10" t="s">
+        <v>6928</v>
+      </c>
+      <c r="I1012" s="10" t="s">
+        <v>6928</v>
+      </c>
+      <c r="J1012" s="10" t="s">
         <v>6929</v>
       </c>
-      <c r="H1012" s="10" t="s">
+      <c r="K1012" s="10" t="s">
         <v>6929</v>
-      </c>
-      <c r="I1012" s="10" t="s">
-        <v>6929</v>
-      </c>
-      <c r="J1012" s="10" t="s">
-        <v>6930</v>
-      </c>
-      <c r="K1012" s="10" t="s">
-        <v>6930</v>
       </c>
     </row>
     <row r="1013" ht="54" spans="2:11">
       <c r="B1013" s="10" t="s">
+        <v>6930</v>
+      </c>
+      <c r="E1013" s="22" t="s">
         <v>6931</v>
       </c>
-      <c r="E1013" s="22" t="s">
+      <c r="F1013" s="10" t="s">
         <v>6932</v>
       </c>
-      <c r="F1013" s="10" t="s">
+      <c r="G1013" s="10" t="s">
         <v>6933</v>
       </c>
-      <c r="G1013" s="10" t="s">
+      <c r="H1013" s="10" t="s">
+        <v>6933</v>
+      </c>
+      <c r="I1013" s="10" t="s">
+        <v>6933</v>
+      </c>
+      <c r="J1013" s="10" t="s">
         <v>6934</v>
       </c>
-      <c r="H1013" s="10" t="s">
+      <c r="K1013" s="10" t="s">
         <v>6934</v>
-      </c>
-      <c r="I1013" s="10" t="s">
-        <v>6934</v>
-      </c>
-      <c r="J1013" s="10" t="s">
-        <v>6935</v>
-      </c>
-      <c r="K1013" s="10" t="s">
-        <v>6935</v>
       </c>
     </row>
     <row r="1014" spans="2:11">
       <c r="B1014" s="10" t="s">
+        <v>6935</v>
+      </c>
+      <c r="E1014" t="s">
         <v>6936</v>
       </c>
-      <c r="E1014" t="s">
+      <c r="F1014" s="10" t="s">
         <v>6937</v>
       </c>
-      <c r="F1014" s="10" t="s">
+      <c r="G1014" s="10" t="s">
         <v>6938</v>
       </c>
-      <c r="G1014" s="10" t="s">
+      <c r="H1014" s="10" t="s">
+        <v>6938</v>
+      </c>
+      <c r="I1014" s="10" t="s">
+        <v>6938</v>
+      </c>
+      <c r="J1014" s="10" t="s">
         <v>6939</v>
       </c>
-      <c r="H1014" s="10" t="s">
+      <c r="K1014" s="10" t="s">
         <v>6939</v>
-      </c>
-      <c r="I1014" s="10" t="s">
-        <v>6939</v>
-      </c>
-      <c r="J1014" s="10" t="s">
-        <v>6940</v>
-      </c>
-      <c r="K1014" s="10" t="s">
-        <v>6940</v>
       </c>
     </row>
     <row r="1015" spans="2:11">
       <c r="B1015" s="10" t="s">
+        <v>6940</v>
+      </c>
+      <c r="E1015" t="s">
         <v>6941</v>
       </c>
-      <c r="E1015" t="s">
+      <c r="F1015" s="10" t="s">
         <v>6942</v>
       </c>
-      <c r="F1015" s="10" t="s">
+      <c r="G1015" s="10" t="s">
+        <v>6942</v>
+      </c>
+      <c r="H1015" s="10" t="s">
+        <v>6942</v>
+      </c>
+      <c r="I1015" s="10" t="s">
+        <v>6942</v>
+      </c>
+      <c r="J1015" s="10" t="s">
         <v>6943</v>
       </c>
-      <c r="G1015" s="10" t="s">
+      <c r="K1015" s="10" t="s">
         <v>6943</v>
-      </c>
-      <c r="H1015" s="10" t="s">
-        <v>6943</v>
-      </c>
-      <c r="I1015" s="10" t="s">
-        <v>6943</v>
-      </c>
-      <c r="J1015" s="10" t="s">
-        <v>6944</v>
-      </c>
-      <c r="K1015" s="10" t="s">
-        <v>6944</v>
       </c>
     </row>
     <row r="1016" spans="2:11">
       <c r="B1016" s="10" t="s">
+        <v>6944</v>
+      </c>
+      <c r="E1016" t="s">
         <v>6945</v>
       </c>
-      <c r="E1016" t="s">
+      <c r="F1016" s="10" t="s">
         <v>6946</v>
       </c>
-      <c r="F1016" s="10" t="s">
+      <c r="G1016" s="10" t="s">
         <v>6947</v>
       </c>
-      <c r="G1016" s="10" t="s">
+      <c r="H1016" s="10" t="s">
+        <v>6947</v>
+      </c>
+      <c r="I1016" s="10" t="s">
+        <v>6947</v>
+      </c>
+      <c r="J1016" s="10" t="s">
         <v>6948</v>
       </c>
-      <c r="H1016" s="10" t="s">
+      <c r="K1016" s="10" t="s">
         <v>6948</v>
-      </c>
-      <c r="I1016" s="10" t="s">
-        <v>6948</v>
-      </c>
-      <c r="J1016" s="10" t="s">
-        <v>6949</v>
-      </c>
-      <c r="K1016" s="10" t="s">
-        <v>6949</v>
       </c>
     </row>
     <row r="1017" spans="2:11">
       <c r="B1017" s="10" t="s">
+        <v>6949</v>
+      </c>
+      <c r="E1017" s="22" t="s">
         <v>6950</v>
       </c>
-      <c r="E1017" s="22" t="s">
+      <c r="F1017" s="10" t="s">
         <v>6951</v>
       </c>
-      <c r="F1017" s="10" t="s">
+      <c r="G1017" s="10" t="s">
         <v>6952</v>
       </c>
-      <c r="G1017" s="10" t="s">
+      <c r="H1017" s="10" t="s">
+        <v>6952</v>
+      </c>
+      <c r="I1017" s="10" t="s">
+        <v>6952</v>
+      </c>
+      <c r="J1017" s="10" t="s">
         <v>6953</v>
       </c>
-      <c r="H1017" s="10" t="s">
+      <c r="K1017" s="10" t="s">
         <v>6953</v>
-      </c>
-      <c r="I1017" s="10" t="s">
-        <v>6953</v>
-      </c>
-      <c r="J1017" s="10" t="s">
-        <v>6954</v>
-      </c>
-      <c r="K1017" s="10" t="s">
-        <v>6954</v>
       </c>
     </row>
     <row r="1018" spans="2:11">
       <c r="B1018" s="10" t="s">
+        <v>6954</v>
+      </c>
+      <c r="E1018" t="s">
         <v>6955</v>
       </c>
-      <c r="E1018" t="s">
+      <c r="F1018" s="10" t="s">
         <v>6956</v>
       </c>
-      <c r="F1018" s="10" t="s">
+      <c r="G1018" s="10" t="s">
         <v>6957</v>
       </c>
-      <c r="G1018" s="10" t="s">
+      <c r="H1018" s="10" t="s">
+        <v>6957</v>
+      </c>
+      <c r="I1018" s="10" t="s">
+        <v>6957</v>
+      </c>
+      <c r="J1018" s="10" t="s">
         <v>6958</v>
       </c>
-      <c r="H1018" s="10" t="s">
+      <c r="K1018" s="10" t="s">
         <v>6958</v>
-      </c>
-      <c r="I1018" s="10" t="s">
-        <v>6958</v>
-      </c>
-      <c r="J1018" s="10" t="s">
-        <v>6959</v>
-      </c>
-      <c r="K1018" s="10" t="s">
-        <v>6959</v>
       </c>
     </row>
     <row r="1019" ht="54" spans="2:11">
       <c r="B1019" s="10" t="s">
+        <v>6959</v>
+      </c>
+      <c r="E1019" t="s">
         <v>6960</v>
       </c>
-      <c r="E1019" t="s">
+      <c r="F1019" s="10" t="s">
         <v>6961</v>
       </c>
-      <c r="F1019" s="10" t="s">
+      <c r="G1019" s="10" t="s">
         <v>6962</v>
       </c>
-      <c r="G1019" s="10" t="s">
+      <c r="H1019" s="10" t="s">
+        <v>6962</v>
+      </c>
+      <c r="I1019" s="10" t="s">
+        <v>6962</v>
+      </c>
+      <c r="J1019" s="10" t="s">
         <v>6963</v>
       </c>
-      <c r="H1019" s="10" t="s">
+      <c r="K1019" s="10" t="s">
         <v>6963</v>
-      </c>
-      <c r="I1019" s="10" t="s">
-        <v>6963</v>
-      </c>
-      <c r="J1019" s="10" t="s">
-        <v>6964</v>
-      </c>
-      <c r="K1019" s="10" t="s">
-        <v>6964</v>
       </c>
     </row>
     <row r="1020" spans="2:11">
       <c r="B1020" s="10" t="s">
+        <v>6964</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>6810</v>
+      </c>
+      <c r="F1020" s="10" t="s">
         <v>6965</v>
       </c>
-      <c r="E1020" t="s">
-        <v>6811</v>
-      </c>
-      <c r="F1020" s="10" t="s">
+      <c r="G1020" s="10" t="s">
         <v>6966</v>
       </c>
-      <c r="G1020" s="10" t="s">
+      <c r="H1020" s="10" t="s">
+        <v>6966</v>
+      </c>
+      <c r="I1020" s="10" t="s">
+        <v>6966</v>
+      </c>
+      <c r="J1020" s="10" t="s">
         <v>6967</v>
       </c>
-      <c r="H1020" s="10" t="s">
+      <c r="K1020" s="10" t="s">
         <v>6967</v>
-      </c>
-      <c r="I1020" s="10" t="s">
-        <v>6967</v>
-      </c>
-      <c r="J1020" s="10" t="s">
-        <v>6968</v>
-      </c>
-      <c r="K1020" s="10" t="s">
-        <v>6968</v>
       </c>
     </row>
     <row r="1021" ht="40.5" spans="2:11">
       <c r="B1021" s="10" t="s">
+        <v>6968</v>
+      </c>
+      <c r="E1021" t="s">
         <v>6969</v>
       </c>
-      <c r="E1021" t="s">
+      <c r="F1021" s="10" t="s">
         <v>6970</v>
       </c>
-      <c r="F1021" s="10" t="s">
+      <c r="G1021" s="10" t="s">
         <v>6971</v>
       </c>
-      <c r="G1021" s="10" t="s">
+      <c r="H1021" s="10" t="s">
+        <v>6971</v>
+      </c>
+      <c r="I1021" s="10" t="s">
+        <v>6971</v>
+      </c>
+      <c r="J1021" s="10" t="s">
         <v>6972</v>
       </c>
-      <c r="H1021" s="10" t="s">
+      <c r="K1021" s="10" t="s">
         <v>6972</v>
-      </c>
-      <c r="I1021" s="10" t="s">
-        <v>6972</v>
-      </c>
-      <c r="J1021" s="10" t="s">
-        <v>6973</v>
-      </c>
-      <c r="K1021" s="10" t="s">
-        <v>6973</v>
       </c>
     </row>
     <row r="1022" ht="40.5" spans="2:11">
       <c r="B1022" s="10" t="s">
+        <v>6973</v>
+      </c>
+      <c r="E1022" t="s">
         <v>6974</v>
       </c>
-      <c r="E1022" t="s">
+      <c r="F1022" s="10" t="s">
         <v>6975</v>
       </c>
-      <c r="F1022" s="10" t="s">
+      <c r="G1022" s="10" t="s">
         <v>6976</v>
       </c>
-      <c r="G1022" s="10" t="s">
+      <c r="H1022" s="10" t="s">
+        <v>6976</v>
+      </c>
+      <c r="I1022" s="10" t="s">
+        <v>6976</v>
+      </c>
+      <c r="J1022" s="10" t="s">
         <v>6977</v>
       </c>
-      <c r="H1022" s="10" t="s">
+      <c r="K1022" s="10" t="s">
         <v>6977</v>
-      </c>
-      <c r="I1022" s="10" t="s">
-        <v>6977</v>
-      </c>
-      <c r="J1022" s="10" t="s">
-        <v>6978</v>
-      </c>
-      <c r="K1022" s="10" t="s">
-        <v>6978</v>
       </c>
     </row>
     <row r="1023" ht="54" spans="2:11">
       <c r="B1023" s="10" t="s">
+        <v>6978</v>
+      </c>
+      <c r="E1023" t="s">
         <v>6979</v>
       </c>
-      <c r="E1023" t="s">
+      <c r="F1023" s="10" t="s">
         <v>6980</v>
       </c>
-      <c r="F1023" s="10" t="s">
+      <c r="G1023" s="10" t="s">
         <v>6981</v>
       </c>
-      <c r="G1023" s="10" t="s">
+      <c r="H1023" s="10" t="s">
+        <v>6981</v>
+      </c>
+      <c r="I1023" s="10" t="s">
+        <v>6981</v>
+      </c>
+      <c r="J1023" s="10" t="s">
         <v>6982</v>
       </c>
-      <c r="H1023" s="10" t="s">
+      <c r="K1023" s="10" t="s">
         <v>6982</v>
-      </c>
-      <c r="I1023" s="10" t="s">
-        <v>6982</v>
-      </c>
-      <c r="J1023" s="10" t="s">
-        <v>6983</v>
-      </c>
-      <c r="K1023" s="10" t="s">
-        <v>6983</v>
       </c>
     </row>
     <row r="1024" ht="40.5" spans="2:11">
       <c r="B1024" s="10" t="s">
+        <v>6983</v>
+      </c>
+      <c r="E1024" t="s">
         <v>6984</v>
       </c>
-      <c r="E1024" t="s">
+      <c r="F1024" s="10" t="s">
         <v>6985</v>
       </c>
-      <c r="F1024" s="10" t="s">
+      <c r="G1024" s="10" t="s">
         <v>6986</v>
       </c>
-      <c r="G1024" s="10" t="s">
+      <c r="H1024" s="10" t="s">
+        <v>6986</v>
+      </c>
+      <c r="I1024" s="10" t="s">
+        <v>6986</v>
+      </c>
+      <c r="J1024" s="10" t="s">
         <v>6987</v>
       </c>
-      <c r="H1024" s="10" t="s">
+      <c r="K1024" s="10" t="s">
         <v>6987</v>
-      </c>
-      <c r="I1024" s="10" t="s">
-        <v>6987</v>
-      </c>
-      <c r="J1024" s="10" t="s">
-        <v>6988</v>
-      </c>
-      <c r="K1024" s="10" t="s">
-        <v>6988</v>
       </c>
     </row>
     <row r="1025" ht="40.5" spans="2:11">
       <c r="B1025" s="10" t="s">
+        <v>6988</v>
+      </c>
+      <c r="E1025" t="s">
         <v>6989</v>
       </c>
-      <c r="E1025" t="s">
+      <c r="F1025" s="10" t="s">
         <v>6990</v>
       </c>
-      <c r="F1025" s="10" t="s">
+      <c r="G1025" s="10" t="s">
         <v>6991</v>
       </c>
-      <c r="G1025" s="10" t="s">
+      <c r="H1025" s="10" t="s">
+        <v>6991</v>
+      </c>
+      <c r="I1025" s="10" t="s">
+        <v>6991</v>
+      </c>
+      <c r="J1025" s="10" t="s">
         <v>6992</v>
       </c>
-      <c r="H1025" s="10" t="s">
+      <c r="K1025" s="10" t="s">
         <v>6992</v>
-      </c>
-      <c r="I1025" s="10" t="s">
-        <v>6992</v>
-      </c>
-      <c r="J1025" s="10" t="s">
-        <v>6993</v>
-      </c>
-      <c r="K1025" s="10" t="s">
-        <v>6993</v>
       </c>
     </row>
     <row r="1026" ht="67.5" spans="2:11">
       <c r="B1026" s="10" t="s">
+        <v>6993</v>
+      </c>
+      <c r="E1026" t="s">
         <v>6994</v>
       </c>
-      <c r="E1026" t="s">
+      <c r="F1026" s="10" t="s">
         <v>6995</v>
       </c>
-      <c r="F1026" s="10" t="s">
+      <c r="G1026" s="10" t="s">
         <v>6996</v>
       </c>
-      <c r="G1026" s="10" t="s">
+      <c r="H1026" s="10" t="s">
+        <v>6996</v>
+      </c>
+      <c r="I1026" s="10" t="s">
+        <v>6996</v>
+      </c>
+      <c r="J1026" s="10" t="s">
         <v>6997</v>
       </c>
-      <c r="H1026" s="10" t="s">
+      <c r="K1026" s="10" t="s">
         <v>6997</v>
-      </c>
-      <c r="I1026" s="10" t="s">
-        <v>6997</v>
-      </c>
-      <c r="J1026" s="10" t="s">
-        <v>6998</v>
-      </c>
-      <c r="K1026" s="10" t="s">
-        <v>6998</v>
       </c>
     </row>
     <row r="1027" ht="54" spans="2:11">
       <c r="B1027" s="10" t="s">
+        <v>6998</v>
+      </c>
+      <c r="E1027" t="s">
         <v>6999</v>
       </c>
-      <c r="E1027" t="s">
+      <c r="F1027" s="10" t="s">
         <v>7000</v>
       </c>
-      <c r="F1027" s="10" t="s">
+      <c r="G1027" s="10" t="s">
         <v>7001</v>
       </c>
-      <c r="G1027" s="10" t="s">
+      <c r="H1027" s="10" t="s">
+        <v>7001</v>
+      </c>
+      <c r="I1027" s="10" t="s">
+        <v>7001</v>
+      </c>
+      <c r="J1027" s="10" t="s">
         <v>7002</v>
       </c>
-      <c r="H1027" s="10" t="s">
+      <c r="K1027" s="10" t="s">
         <v>7002</v>
-      </c>
-      <c r="I1027" s="10" t="s">
-        <v>7002</v>
-      </c>
-      <c r="J1027" s="10" t="s">
-        <v>7003</v>
-      </c>
-      <c r="K1027" s="10" t="s">
-        <v>7003</v>
       </c>
     </row>
     <row r="1028" ht="67.5" spans="2:11">
       <c r="B1028" s="10" t="s">
+        <v>7003</v>
+      </c>
+      <c r="E1028" t="s">
         <v>7004</v>
       </c>
-      <c r="E1028" t="s">
+      <c r="F1028" s="10" t="s">
         <v>7005</v>
       </c>
-      <c r="F1028" s="10" t="s">
+      <c r="G1028" s="10" t="s">
         <v>7006</v>
       </c>
-      <c r="G1028" s="10" t="s">
+      <c r="H1028" s="10" t="s">
+        <v>7006</v>
+      </c>
+      <c r="I1028" s="10" t="s">
+        <v>7006</v>
+      </c>
+      <c r="J1028" s="10" t="s">
         <v>7007</v>
       </c>
-      <c r="H1028" s="10" t="s">
+      <c r="K1028" s="10" t="s">
         <v>7007</v>
-      </c>
-      <c r="I1028" s="10" t="s">
-        <v>7007</v>
-      </c>
-      <c r="J1028" s="10" t="s">
-        <v>7008</v>
-      </c>
-      <c r="K1028" s="10" t="s">
-        <v>7008</v>
       </c>
     </row>
     <row r="1029" ht="27" spans="2:11">
       <c r="B1029" s="10" t="s">
+        <v>7008</v>
+      </c>
+      <c r="E1029" t="s">
         <v>7009</v>
       </c>
-      <c r="E1029" t="s">
+      <c r="F1029" s="10" t="s">
         <v>7010</v>
       </c>
-      <c r="F1029" s="10" t="s">
+      <c r="G1029" s="10" t="s">
         <v>7011</v>
       </c>
-      <c r="G1029" s="10" t="s">
+      <c r="H1029" s="10" t="s">
+        <v>7011</v>
+      </c>
+      <c r="I1029" s="10" t="s">
+        <v>7011</v>
+      </c>
+      <c r="J1029" s="10" t="s">
         <v>7012</v>
       </c>
-      <c r="H1029" s="10" t="s">
+      <c r="K1029" s="10" t="s">
         <v>7012</v>
-      </c>
-      <c r="I1029" s="10" t="s">
-        <v>7012</v>
-      </c>
-      <c r="J1029" s="10" t="s">
-        <v>7013</v>
-      </c>
-      <c r="K1029" s="10" t="s">
-        <v>7013</v>
       </c>
     </row>
     <row r="1030" ht="94.5" spans="2:11">
       <c r="B1030" s="10" t="s">
+        <v>7013</v>
+      </c>
+      <c r="E1030" s="22" t="s">
         <v>7014</v>
       </c>
-      <c r="E1030" s="22" t="s">
+      <c r="F1030" s="10" t="s">
         <v>7015</v>
       </c>
-      <c r="F1030" s="10" t="s">
+      <c r="G1030" s="10" t="s">
         <v>7016</v>
       </c>
-      <c r="G1030" s="10" t="s">
+      <c r="H1030" s="10" t="s">
+        <v>7016</v>
+      </c>
+      <c r="I1030" s="10" t="s">
+        <v>7016</v>
+      </c>
+      <c r="J1030" s="10" t="s">
         <v>7017</v>
       </c>
-      <c r="H1030" s="10" t="s">
+      <c r="K1030" s="10" t="s">
         <v>7017</v>
-      </c>
-      <c r="I1030" s="10" t="s">
-        <v>7017</v>
-      </c>
-      <c r="J1030" s="10" t="s">
-        <v>7018</v>
-      </c>
-      <c r="K1030" s="10" t="s">
-        <v>7018</v>
       </c>
     </row>
     <row r="1031" ht="54" spans="2:11">
       <c r="B1031" s="10" t="s">
+        <v>7018</v>
+      </c>
+      <c r="E1031" t="s">
         <v>7019</v>
       </c>
-      <c r="E1031" t="s">
+      <c r="F1031" s="10" t="s">
         <v>7020</v>
       </c>
-      <c r="F1031" s="10" t="s">
+      <c r="G1031" s="10" t="s">
         <v>7021</v>
       </c>
-      <c r="G1031" s="10" t="s">
+      <c r="H1031" s="10" t="s">
+        <v>7021</v>
+      </c>
+      <c r="I1031" s="10" t="s">
+        <v>7021</v>
+      </c>
+      <c r="J1031" s="10" t="s">
         <v>7022</v>
       </c>
-      <c r="H1031" s="10" t="s">
+      <c r="K1031" s="10" t="s">
         <v>7022</v>
-      </c>
-      <c r="I1031" s="10" t="s">
-        <v>7022</v>
-      </c>
-      <c r="J1031" s="10" t="s">
-        <v>7023</v>
-      </c>
-      <c r="K1031" s="10" t="s">
-        <v>7023</v>
       </c>
     </row>
     <row r="1032" spans="2:11">
       <c r="B1032" s="10" t="s">
+        <v>7023</v>
+      </c>
+      <c r="E1032" t="s">
         <v>7024</v>
       </c>
-      <c r="E1032" t="s">
+      <c r="F1032" s="10" t="s">
         <v>7025</v>
       </c>
-      <c r="F1032" s="10" t="s">
+      <c r="G1032" s="10" t="s">
         <v>7026</v>
       </c>
-      <c r="G1032" s="10" t="s">
+      <c r="H1032" s="10" t="s">
+        <v>7026</v>
+      </c>
+      <c r="I1032" s="10" t="s">
+        <v>7026</v>
+      </c>
+      <c r="J1032" s="10" t="s">
         <v>7027</v>
       </c>
-      <c r="H1032" s="10" t="s">
+      <c r="K1032" s="10" t="s">
         <v>7027</v>
-      </c>
-      <c r="I1032" s="10" t="s">
-        <v>7027</v>
-      </c>
-      <c r="J1032" s="10" t="s">
-        <v>7028</v>
-      </c>
-      <c r="K1032" s="10" t="s">
-        <v>7028</v>
       </c>
     </row>
     <row r="1033" ht="94.5" spans="2:11">
       <c r="B1033" s="10" t="s">
+        <v>7028</v>
+      </c>
+      <c r="E1033" s="22" t="s">
         <v>7029</v>
       </c>
-      <c r="E1033" s="22" t="s">
+      <c r="F1033" s="10" t="s">
         <v>7030</v>
       </c>
-      <c r="F1033" s="10" t="s">
+      <c r="G1033" s="10" t="s">
         <v>7031</v>
       </c>
-      <c r="G1033" s="10" t="s">
+      <c r="H1033" s="10" t="s">
+        <v>7031</v>
+      </c>
+      <c r="I1033" s="10" t="s">
+        <v>7031</v>
+      </c>
+      <c r="J1033" s="10" t="s">
         <v>7032</v>
       </c>
-      <c r="H1033" s="10" t="s">
+      <c r="K1033" s="10" t="s">
         <v>7032</v>
-      </c>
-      <c r="I1033" s="10" t="s">
-        <v>7032</v>
-      </c>
-      <c r="J1033" s="10" t="s">
-        <v>7033</v>
-      </c>
-      <c r="K1033" s="10" t="s">
-        <v>7033</v>
       </c>
     </row>
     <row r="1034" ht="40.5" spans="2:11">
       <c r="B1034" s="10" t="s">
+        <v>7033</v>
+      </c>
+      <c r="E1034" t="s">
         <v>7034</v>
       </c>
-      <c r="E1034" t="s">
+      <c r="F1034" s="10" t="s">
         <v>7035</v>
       </c>
-      <c r="F1034" s="10" t="s">
-        <v>7036</v>
-      </c>
       <c r="G1034" s="10" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="H1034" s="10" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="I1034" s="10" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="J1034" s="10" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="K1034" s="10" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="1035" ht="121.5" spans="2:11">
       <c r="B1035" s="10" t="s">
+        <v>7036</v>
+      </c>
+      <c r="E1035" s="22" t="s">
         <v>7037</v>
       </c>
-      <c r="E1035" s="22" t="s">
+      <c r="F1035" s="10" t="s">
         <v>7038</v>
       </c>
-      <c r="F1035" s="10" t="s">
+      <c r="G1035" s="10" t="s">
         <v>7039</v>
       </c>
-      <c r="G1035" s="10" t="s">
+      <c r="H1035" s="10" t="s">
+        <v>7039</v>
+      </c>
+      <c r="I1035" s="10" t="s">
+        <v>7039</v>
+      </c>
+      <c r="J1035" s="10" t="s">
         <v>7040</v>
       </c>
-      <c r="H1035" s="10" t="s">
+      <c r="K1035" s="10" t="s">
         <v>7040</v>
-      </c>
-      <c r="I1035" s="10" t="s">
-        <v>7040</v>
-      </c>
-      <c r="J1035" s="10" t="s">
-        <v>7041</v>
-      </c>
-      <c r="K1035" s="10" t="s">
-        <v>7041</v>
       </c>
     </row>
     <row r="1036" spans="2:11">
       <c r="B1036" s="10" t="s">
+        <v>7041</v>
+      </c>
+      <c r="E1036" t="s">
         <v>7042</v>
       </c>
-      <c r="E1036" t="s">
+      <c r="F1036" s="10" t="s">
         <v>7043</v>
       </c>
-      <c r="F1036" s="10" t="s">
+      <c r="G1036" s="10" t="s">
         <v>7044</v>
       </c>
-      <c r="G1036" s="10" t="s">
+      <c r="H1036" s="10" t="s">
+        <v>7044</v>
+      </c>
+      <c r="I1036" s="10" t="s">
+        <v>7044</v>
+      </c>
+      <c r="J1036" s="10" t="s">
         <v>7045</v>
       </c>
-      <c r="H1036" s="10" t="s">
+      <c r="K1036" s="10" t="s">
         <v>7045</v>
-      </c>
-      <c r="I1036" s="10" t="s">
-        <v>7045</v>
-      </c>
-      <c r="J1036" s="10" t="s">
-        <v>7046</v>
-      </c>
-      <c r="K1036" s="10" t="s">
-        <v>7046</v>
       </c>
     </row>
     <row r="1037" ht="121.5" spans="2:11">
       <c r="B1037" s="10" t="s">
+        <v>7046</v>
+      </c>
+      <c r="E1037" s="22" t="s">
         <v>7047</v>
       </c>
-      <c r="E1037" s="22" t="s">
+      <c r="F1037" s="10" t="s">
         <v>7048</v>
       </c>
-      <c r="F1037" s="10" t="s">
+      <c r="G1037" s="10" t="s">
         <v>7049</v>
       </c>
-      <c r="G1037" s="10" t="s">
+      <c r="H1037" s="10" t="s">
+        <v>7049</v>
+      </c>
+      <c r="I1037" s="10" t="s">
+        <v>7049</v>
+      </c>
+      <c r="J1037" s="10" t="s">
         <v>7050</v>
       </c>
-      <c r="H1037" s="10" t="s">
+      <c r="K1037" s="10" t="s">
         <v>7050</v>
-      </c>
-      <c r="I1037" s="10" t="s">
-        <v>7050</v>
-      </c>
-      <c r="J1037" s="10" t="s">
-        <v>7051</v>
-      </c>
-      <c r="K1037" s="10" t="s">
-        <v>7051</v>
       </c>
     </row>
     <row r="1038" ht="256.5" spans="2:11">
       <c r="B1038" s="10" t="s">
+        <v>7051</v>
+      </c>
+      <c r="E1038" s="22" t="s">
         <v>7052</v>
       </c>
-      <c r="E1038" s="22" t="s">
+      <c r="F1038" s="10" t="s">
         <v>7053</v>
       </c>
-      <c r="F1038" s="10" t="s">
+      <c r="G1038" s="10" t="s">
         <v>7054</v>
       </c>
-      <c r="G1038" s="10" t="s">
+      <c r="H1038" s="10" t="s">
+        <v>7054</v>
+      </c>
+      <c r="I1038" s="10" t="s">
+        <v>7054</v>
+      </c>
+      <c r="J1038" s="10" t="s">
         <v>7055</v>
       </c>
-      <c r="H1038" s="10" t="s">
+      <c r="K1038" s="10" t="s">
         <v>7055</v>
-      </c>
-      <c r="I1038" s="10" t="s">
-        <v>7055</v>
-      </c>
-      <c r="J1038" s="10" t="s">
-        <v>7056</v>
-      </c>
-      <c r="K1038" s="10" t="s">
-        <v>7056</v>
       </c>
     </row>
     <row r="1039" ht="67.5" spans="2:11">
       <c r="B1039" s="10" t="s">
+        <v>7056</v>
+      </c>
+      <c r="E1039" s="22" t="s">
         <v>7057</v>
       </c>
-      <c r="E1039" s="22" t="s">
+      <c r="F1039" s="10" t="s">
         <v>7058</v>
       </c>
-      <c r="F1039" s="10" t="s">
+      <c r="G1039" s="10" t="s">
         <v>7059</v>
       </c>
-      <c r="G1039" s="10" t="s">
+      <c r="H1039" s="10" t="s">
+        <v>7059</v>
+      </c>
+      <c r="I1039" s="10" t="s">
+        <v>7059</v>
+      </c>
+      <c r="J1039" s="10" t="s">
         <v>7060</v>
       </c>
-      <c r="H1039" s="10" t="s">
+      <c r="K1039" s="10" t="s">
         <v>7060</v>
-      </c>
-      <c r="I1039" s="10" t="s">
-        <v>7060</v>
-      </c>
-      <c r="J1039" s="10" t="s">
-        <v>7061</v>
-      </c>
-      <c r="K1039" s="10" t="s">
-        <v>7061</v>
       </c>
     </row>
     <row r="1040" ht="108" spans="2:11">
       <c r="B1040" s="10" t="s">
+        <v>7061</v>
+      </c>
+      <c r="E1040" t="s">
         <v>7062</v>
       </c>
-      <c r="E1040" t="s">
+      <c r="F1040" s="10" t="s">
         <v>7063</v>
       </c>
-      <c r="F1040" s="10" t="s">
+      <c r="G1040" s="10" t="s">
         <v>7064</v>
       </c>
-      <c r="G1040" s="10" t="s">
+      <c r="H1040" s="10" t="s">
+        <v>7064</v>
+      </c>
+      <c r="I1040" s="10" t="s">
+        <v>7064</v>
+      </c>
+      <c r="J1040" s="10" t="s">
         <v>7065</v>
       </c>
-      <c r="H1040" s="10" t="s">
+      <c r="K1040" s="10" t="s">
         <v>7065</v>
-      </c>
-      <c r="I1040" s="10" t="s">
-        <v>7065</v>
-      </c>
-      <c r="J1040" s="10" t="s">
-        <v>7066</v>
-      </c>
-      <c r="K1040" s="10" t="s">
-        <v>7066</v>
       </c>
     </row>
     <row r="1041" spans="2:11">
       <c r="B1041" s="10" t="s">
-        <v>7067</v>
+        <v>7066</v>
       </c>
       <c r="E1041" s="10" t="s">
         <v>4951</v>
@@ -51617,24 +51628,24 @@
         <v>996</v>
       </c>
       <c r="G1041" s="10" t="s">
+        <v>7067</v>
+      </c>
+      <c r="H1041" s="10" t="s">
+        <v>7067</v>
+      </c>
+      <c r="I1041" s="10" t="s">
+        <v>7067</v>
+      </c>
+      <c r="J1041" s="10" t="s">
         <v>7068</v>
       </c>
-      <c r="H1041" s="10" t="s">
+      <c r="K1041" s="10" t="s">
         <v>7068</v>
-      </c>
-      <c r="I1041" s="10" t="s">
-        <v>7068</v>
-      </c>
-      <c r="J1041" s="10" t="s">
-        <v>7069</v>
-      </c>
-      <c r="K1041" s="10" t="s">
-        <v>7069</v>
       </c>
     </row>
     <row r="1042" spans="2:11">
       <c r="B1042" s="10" t="s">
-        <v>7070</v>
+        <v>7069</v>
       </c>
       <c r="E1042" s="22" t="s">
         <v>4947</v>
@@ -51643,13 +51654,13 @@
         <v>993</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>7071</v>
+        <v>7070</v>
       </c>
       <c r="H1042" s="10" t="s">
-        <v>7071</v>
+        <v>7070</v>
       </c>
       <c r="I1042" s="10" t="s">
-        <v>7071</v>
+        <v>7070</v>
       </c>
       <c r="J1042" s="10" t="s">
         <v>993</v>
@@ -51658,61 +51669,61 @@
         <v>993</v>
       </c>
     </row>
-    <row r="1043" spans="2:11">
+    <row r="1043" ht="27" spans="2:11">
       <c r="B1043" s="10" t="s">
+        <v>7071</v>
+      </c>
+      <c r="E1043" s="22" t="s">
         <v>7072</v>
       </c>
-      <c r="E1043" s="22" t="s">
+      <c r="F1043" s="10" t="s">
         <v>7073</v>
       </c>
-      <c r="F1043" s="10" t="s">
+      <c r="G1043" s="10" t="s">
         <v>7074</v>
       </c>
-      <c r="G1043" s="10" t="s">
+      <c r="H1043" s="10" t="s">
+        <v>7074</v>
+      </c>
+      <c r="I1043" s="10" t="s">
+        <v>7074</v>
+      </c>
+      <c r="J1043" s="10" t="s">
         <v>7075</v>
       </c>
-      <c r="H1043" s="10" t="s">
+      <c r="K1043" s="10" t="s">
         <v>7075</v>
       </c>
-      <c r="I1043" s="10" t="s">
-        <v>7075</v>
-      </c>
-      <c r="J1043" s="10" t="s">
+    </row>
+    <row r="1044" ht="27" spans="2:11">
+      <c r="B1044" s="10" t="s">
         <v>7076</v>
       </c>
-      <c r="K1043" s="10" t="s">
-        <v>7076</v>
-      </c>
-    </row>
-    <row r="1044" spans="2:11">
-      <c r="B1044" s="10" t="s">
+      <c r="E1044" s="22" t="s">
+        <v>6810</v>
+      </c>
+      <c r="F1044" s="10" t="s">
         <v>7077</v>
       </c>
-      <c r="E1044" s="22" t="s">
-        <v>6811</v>
-      </c>
-      <c r="F1044" s="10" t="s">
+      <c r="G1044" s="10" t="s">
         <v>7078</v>
       </c>
-      <c r="G1044" s="10" t="s">
+      <c r="H1044" s="10" t="s">
+        <v>7078</v>
+      </c>
+      <c r="I1044" s="10" t="s">
+        <v>7078</v>
+      </c>
+      <c r="J1044" s="10" t="s">
         <v>7079</v>
       </c>
-      <c r="H1044" s="10" t="s">
+      <c r="K1044" s="10" t="s">
         <v>7079</v>
-      </c>
-      <c r="I1044" s="10" t="s">
-        <v>7079</v>
-      </c>
-      <c r="J1044" s="10" t="s">
-        <v>7080</v>
-      </c>
-      <c r="K1044" s="10" t="s">
-        <v>7080</v>
       </c>
     </row>
     <row r="1045" spans="2:11">
       <c r="B1045" s="10" t="s">
-        <v>7081</v>
+        <v>7080</v>
       </c>
       <c r="E1045" s="22" t="s">
         <v>4050</v>
@@ -51738,7 +51749,7 @@
     </row>
     <row r="1046" spans="2:11">
       <c r="B1046" s="10" t="s">
-        <v>7082</v>
+        <v>7081</v>
       </c>
       <c r="E1046" s="22" t="s">
         <v>4058</v>
@@ -51764,7 +51775,7 @@
     </row>
     <row r="1047" spans="2:11">
       <c r="B1047" s="10" t="s">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="E1047" s="22" t="s">
         <v>3651</v>
@@ -51773,13 +51784,13 @@
         <v>3652</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
       <c r="H1047" s="10" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
       <c r="I1047" s="10" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
       <c r="J1047" s="10" t="s">
         <v>3656</v>
@@ -51790,268 +51801,268 @@
     </row>
     <row r="1048" spans="2:11">
       <c r="B1048" s="10" t="s">
+        <v>7084</v>
+      </c>
+      <c r="E1048" s="22" t="s">
         <v>7085</v>
       </c>
-      <c r="E1048" s="22" t="s">
+      <c r="F1048" s="10" t="s">
         <v>7086</v>
       </c>
-      <c r="F1048" s="10" t="s">
+      <c r="G1048" s="10" t="s">
+        <v>7086</v>
+      </c>
+      <c r="H1048" s="10" t="s">
+        <v>7086</v>
+      </c>
+      <c r="I1048" s="10" t="s">
+        <v>7086</v>
+      </c>
+      <c r="J1048" s="10" t="s">
         <v>7087</v>
       </c>
-      <c r="G1048" s="10" t="s">
+      <c r="K1048" s="10" t="s">
         <v>7087</v>
-      </c>
-      <c r="H1048" s="10" t="s">
-        <v>7087</v>
-      </c>
-      <c r="I1048" s="10" t="s">
-        <v>7087</v>
-      </c>
-      <c r="J1048" s="10" t="s">
-        <v>7088</v>
-      </c>
-      <c r="K1048" s="10" t="s">
-        <v>7088</v>
       </c>
     </row>
     <row r="1049" spans="2:11">
       <c r="B1049" s="10" t="s">
+        <v>7088</v>
+      </c>
+      <c r="E1049" s="22" t="s">
         <v>7089</v>
       </c>
-      <c r="E1049" s="22" t="s">
+      <c r="F1049" s="10" t="s">
         <v>7090</v>
       </c>
-      <c r="F1049" s="10" t="s">
+      <c r="G1049" s="10" t="s">
         <v>7091</v>
       </c>
-      <c r="G1049" s="10" t="s">
+      <c r="H1049" s="10" t="s">
+        <v>7091</v>
+      </c>
+      <c r="I1049" s="10" t="s">
+        <v>7091</v>
+      </c>
+      <c r="J1049" s="10" t="s">
         <v>7092</v>
       </c>
-      <c r="H1049" s="10" t="s">
+      <c r="K1049" s="10" t="s">
         <v>7092</v>
-      </c>
-      <c r="I1049" s="10" t="s">
-        <v>7092</v>
-      </c>
-      <c r="J1049" s="10" t="s">
-        <v>7093</v>
-      </c>
-      <c r="K1049" s="10" t="s">
-        <v>7093</v>
       </c>
     </row>
     <row r="1050" spans="2:11">
       <c r="B1050" s="10" t="s">
+        <v>7093</v>
+      </c>
+      <c r="E1050" s="22" t="s">
         <v>7094</v>
       </c>
-      <c r="E1050" s="22" t="s">
+      <c r="F1050" s="10" t="s">
         <v>7095</v>
       </c>
-      <c r="F1050" s="10" t="s">
+      <c r="G1050" s="10" t="s">
         <v>7096</v>
       </c>
-      <c r="G1050" s="10" t="s">
+      <c r="H1050" s="10" t="s">
+        <v>7096</v>
+      </c>
+      <c r="I1050" s="10" t="s">
+        <v>7096</v>
+      </c>
+      <c r="J1050" s="10" t="s">
         <v>7097</v>
       </c>
-      <c r="H1050" s="10" t="s">
+      <c r="K1050" s="10" t="s">
         <v>7097</v>
-      </c>
-      <c r="I1050" s="10" t="s">
-        <v>7097</v>
-      </c>
-      <c r="J1050" s="10" t="s">
-        <v>7098</v>
-      </c>
-      <c r="K1050" s="10" t="s">
-        <v>7098</v>
       </c>
     </row>
     <row r="1051" spans="2:11">
       <c r="B1051" s="10" t="s">
+        <v>7098</v>
+      </c>
+      <c r="E1051" s="22" t="s">
         <v>7099</v>
       </c>
-      <c r="E1051" s="22" t="s">
+      <c r="F1051" s="10" t="s">
         <v>7100</v>
       </c>
-      <c r="F1051" s="10" t="s">
+      <c r="G1051" s="10" t="s">
+        <v>7100</v>
+      </c>
+      <c r="H1051" s="10" t="s">
+        <v>7100</v>
+      </c>
+      <c r="I1051" s="10" t="s">
+        <v>7100</v>
+      </c>
+      <c r="J1051" s="10" t="s">
         <v>7101</v>
       </c>
-      <c r="G1051" s="10" t="s">
+      <c r="K1051" s="10" t="s">
         <v>7101</v>
-      </c>
-      <c r="H1051" s="10" t="s">
-        <v>7101</v>
-      </c>
-      <c r="I1051" s="10" t="s">
-        <v>7101</v>
-      </c>
-      <c r="J1051" s="10" t="s">
-        <v>7102</v>
-      </c>
-      <c r="K1051" s="10" t="s">
-        <v>7102</v>
       </c>
     </row>
     <row r="1052" ht="27" spans="2:11">
       <c r="B1052" s="10" t="s">
+        <v>7102</v>
+      </c>
+      <c r="E1052" s="22" t="s">
         <v>7103</v>
       </c>
-      <c r="E1052" s="22" t="s">
+      <c r="F1052" s="10" t="s">
         <v>7104</v>
       </c>
-      <c r="F1052" s="10" t="s">
+      <c r="G1052" s="10" t="s">
         <v>7105</v>
       </c>
-      <c r="G1052" s="10" t="s">
+      <c r="H1052" s="10" t="s">
+        <v>7105</v>
+      </c>
+      <c r="I1052" s="10" t="s">
+        <v>7105</v>
+      </c>
+      <c r="J1052" s="10" t="s">
         <v>7106</v>
       </c>
-      <c r="H1052" s="10" t="s">
+      <c r="K1052" s="10" t="s">
         <v>7106</v>
-      </c>
-      <c r="I1052" s="10" t="s">
-        <v>7106</v>
-      </c>
-      <c r="J1052" s="10" t="s">
-        <v>7107</v>
-      </c>
-      <c r="K1052" s="10" t="s">
-        <v>7107</v>
       </c>
     </row>
     <row r="1053" spans="2:11">
       <c r="B1053" s="10" t="s">
+        <v>7107</v>
+      </c>
+      <c r="E1053" s="22" t="s">
         <v>7108</v>
       </c>
-      <c r="E1053" s="22" t="s">
+      <c r="F1053" s="10" t="s">
         <v>7109</v>
       </c>
-      <c r="F1053" s="10" t="s">
+      <c r="G1053" s="10" t="s">
         <v>7110</v>
       </c>
-      <c r="G1053" s="10" t="s">
+      <c r="H1053" s="10" t="s">
+        <v>7110</v>
+      </c>
+      <c r="I1053" s="10" t="s">
+        <v>7110</v>
+      </c>
+      <c r="J1053" s="10" t="s">
         <v>7111</v>
       </c>
-      <c r="H1053" s="10" t="s">
+      <c r="K1053" s="10" t="s">
         <v>7111</v>
-      </c>
-      <c r="I1053" s="10" t="s">
-        <v>7111</v>
-      </c>
-      <c r="J1053" s="10" t="s">
-        <v>7112</v>
-      </c>
-      <c r="K1053" s="10" t="s">
-        <v>7112</v>
       </c>
     </row>
     <row r="1054" ht="54" spans="2:11">
       <c r="B1054" s="10" t="s">
+        <v>7112</v>
+      </c>
+      <c r="E1054" s="22" t="s">
         <v>7113</v>
       </c>
-      <c r="E1054" s="22" t="s">
+      <c r="F1054" s="10" t="s">
         <v>7114</v>
       </c>
-      <c r="F1054" s="10" t="s">
+      <c r="G1054" s="10" t="s">
         <v>7115</v>
       </c>
-      <c r="G1054" s="10" t="s">
+      <c r="H1054" s="10" t="s">
+        <v>7115</v>
+      </c>
+      <c r="I1054" s="10" t="s">
+        <v>7115</v>
+      </c>
+      <c r="J1054" s="10" t="s">
         <v>7116</v>
       </c>
-      <c r="H1054" s="10" t="s">
+      <c r="K1054" s="10" t="s">
         <v>7116</v>
-      </c>
-      <c r="I1054" s="10" t="s">
-        <v>7116</v>
-      </c>
-      <c r="J1054" s="10" t="s">
-        <v>7117</v>
-      </c>
-      <c r="K1054" s="10" t="s">
-        <v>7117</v>
       </c>
     </row>
     <row r="1055" ht="54" spans="2:11">
       <c r="B1055" s="10" t="s">
+        <v>7117</v>
+      </c>
+      <c r="E1055" s="22" t="s">
         <v>7118</v>
       </c>
-      <c r="E1055" s="22" t="s">
+      <c r="F1055" s="10" t="s">
         <v>7119</v>
       </c>
-      <c r="F1055" s="10" t="s">
+      <c r="G1055" s="10" t="s">
         <v>7120</v>
       </c>
-      <c r="G1055" s="10" t="s">
+      <c r="H1055" s="10" t="s">
+        <v>7120</v>
+      </c>
+      <c r="I1055" s="10" t="s">
+        <v>7120</v>
+      </c>
+      <c r="J1055" s="10" t="s">
         <v>7121</v>
       </c>
-      <c r="H1055" s="10" t="s">
+      <c r="K1055" s="10" t="s">
         <v>7121</v>
-      </c>
-      <c r="I1055" s="10" t="s">
-        <v>7121</v>
-      </c>
-      <c r="J1055" s="10" t="s">
-        <v>7122</v>
-      </c>
-      <c r="K1055" s="10" t="s">
-        <v>7122</v>
       </c>
     </row>
     <row r="1056" ht="162" spans="2:11">
       <c r="B1056" s="10" t="s">
+        <v>7122</v>
+      </c>
+      <c r="C1056" s="10" t="s">
         <v>7123</v>
       </c>
-      <c r="C1056" s="10" t="s">
+      <c r="E1056" s="10" t="s">
         <v>7124</v>
       </c>
-      <c r="E1056" s="10" t="s">
+      <c r="F1056" s="10" t="s">
         <v>7125</v>
       </c>
-      <c r="F1056" s="10" t="s">
+      <c r="G1056" s="10" t="s">
         <v>7126</v>
       </c>
-      <c r="G1056" s="10" t="s">
+      <c r="H1056" s="10" t="s">
         <v>7127</v>
       </c>
-      <c r="H1056" s="10" t="s">
+      <c r="I1056" s="10" t="s">
         <v>7128</v>
       </c>
-      <c r="I1056" s="10" t="s">
+      <c r="J1056" s="10" t="s">
         <v>7129</v>
       </c>
-      <c r="J1056" s="10" t="s">
-        <v>7130</v>
-      </c>
       <c r="K1056" s="10" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="1057" ht="297" spans="2:11">
       <c r="B1057" s="10" t="s">
+        <v>7130</v>
+      </c>
+      <c r="C1057" s="10" t="s">
         <v>7131</v>
       </c>
-      <c r="C1057" s="10" t="s">
+      <c r="E1057" s="22" t="s">
         <v>7132</v>
       </c>
-      <c r="E1057" s="22" t="s">
+      <c r="F1057" s="10" t="s">
         <v>7133</v>
       </c>
-      <c r="F1057" s="10" t="s">
+      <c r="G1057" s="10" t="s">
         <v>7134</v>
       </c>
-      <c r="G1057" s="10" t="s">
+      <c r="H1057" s="10" t="s">
         <v>7135</v>
       </c>
-      <c r="H1057" s="10" t="s">
+      <c r="I1057" s="10" t="s">
         <v>7136</v>
       </c>
-      <c r="I1057" s="10" t="s">
+      <c r="J1057" s="10" t="s">
         <v>7137</v>
       </c>
-      <c r="J1057" s="10" t="s">
-        <v>7138</v>
-      </c>
       <c r="K1057" s="10" t="s">
-        <v>7138</v>
+        <v>7137</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16830" windowHeight="11985"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -10355,16 +10355,16 @@
     <t>217008</t>
   </si>
   <si>
-    <t>{0}下注{1}</t>
-  </si>
-  <si>
-    <t>{0}Bet {1}</t>
-  </si>
-  <si>
-    <t>{0}Aposta {1}</t>
-  </si>
-  <si>
-    <t>{0}Bertaruh {1}</t>
+    <t>下注{0}</t>
+  </si>
+  <si>
+    <t>Bet {0}</t>
+  </si>
+  <si>
+    <t>Aposta {0}</t>
+  </si>
+  <si>
+    <t>Bertaruh {0}</t>
   </si>
   <si>
     <t>217009</t>
@@ -24218,8 +24218,8 @@
   <sheetPr/>
   <dimension ref="A1:N1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1089" workbookViewId="0">
-      <selection activeCell="B1120" sqref="B1120"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -4776,7 +4776,7 @@
     <t>貨幣單位</t>
   </si>
   <si>
-    <t>BRL</t>
+    <t>PHP</t>
   </si>
   <si>
     <t>205006</t>
@@ -5109,19 +5109,19 @@
     <t>206013</t>
   </si>
   <si>
-    <t>每日一次機會\n獲得&lt;color=#FDFF54&gt;??????&lt;/color&gt;BRL優惠充值\n額外獲得金幣&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\n點擊轉動查看獎勵！206013</t>
-  </si>
-  <si>
-    <t>One chance per day \n Get &lt;color=#FDFF54&gt;??????&lt;/color&gt;BRL to rechange \nGetbonus&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\nClick spin! to see your bouns</t>
-  </si>
-  <si>
-    <t>Una oportunidad al día \nConsigue &lt;color=#FDFF54&gt;??????&lt;/color&gt;BRL para cambiar \nConsigue un bono&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\n¡Haz clic en girar! para ver tus botes</t>
-  </si>
-  <si>
-    <t>Uma chance por dia \nObtenha &lt;color=#FDFF54&gt;??????&lt;/color&gt;BRL para trocar \nObtenha bônus&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\nClique em girar! para ver seus ganhos</t>
-  </si>
-  <si>
-    <t>Une chance par jour \n Recevez &lt;color=#FDFF54&gt;??????&lt;/color&gt;BRL pour échanger \n Gagnez un bonus&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\n Cliquez sur "spin !" pour voir vos gains.</t>
+    <t>每日一次機會\n獲得&lt;color=#FDFF54&gt;??????&lt;/color&gt;PHP優惠充值\n額外獲得金幣&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\n點擊轉動查看獎勵！206013</t>
+  </si>
+  <si>
+    <t>One chance per day \n Get &lt;color=#FDFF54&gt;??????&lt;/color&gt;PHP to rechange \nGetbonus&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\nClick spin! to see your bouns</t>
+  </si>
+  <si>
+    <t>Una oportunidad al día \nConsigue &lt;color=#FDFF54&gt;??????&lt;/color&gt;PHP para cambiar \nConsigue un bono&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\n¡Haz clic en girar! para ver tus botes</t>
+  </si>
+  <si>
+    <t>Uma chance por dia \nObtenha &lt;color=#FDFF54&gt;??????&lt;/color&gt;PHP para trocar \nObtenha bônus&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\nClique em girar! para ver seus ganhos</t>
+  </si>
+  <si>
+    <t>Une chance par jour \n Recevez &lt;color=#FDFF54&gt;??????&lt;/color&gt;PHP pour échanger \n Gagnez un bonus&lt;color=#A6F0FD&gt;??????&lt;/color&gt;\n Cliquez sur "spin !" pour voir vos gains.</t>
   </si>
   <si>
     <t>Satu kesempatan per hari&lt;\n&gt;Dapatkan&lt;sprite name="g" tint=1&gt;{0} untuk mengisi ulang&lt;\n&gt;Dapatkan bonus ekstra&lt;sprite name="g" tint=1&gt;{1}&lt;\n&gt;Klik spin! untuk melihat pantulan Anda</t>
@@ -5133,31 +5133,31 @@
     <t>206014</t>
   </si>
   <si>
-    <t>獲得&lt;color=#FDFE58&gt;{0}&lt;/color&gt; BRL</t>
-  </si>
-  <si>
-    <t>Get &lt;color=#FDFE58&gt;{0}&lt;/color&gt; BRL</t>
-  </si>
-  <si>
-    <t>Obtener&lt;color=#FDFE58&gt;{0}&lt;/color&gt; BRL</t>
-  </si>
-  <si>
-    <t>Obter&lt;color=#FDFE58&gt;{0}&lt;/color&gt; BRL</t>
-  </si>
-  <si>
-    <t>Obtenez&lt;color=#FDFE58&gt;{0}&lt;/color&gt; BRL</t>
-  </si>
-  <si>
-    <t>Dapatkan&lt;color=#FDFE58&gt;{0}&lt;/color&gt; BRL</t>
+    <t>獲得&lt;color=#FDFE58&gt;{0}&lt;/color&gt; PHP</t>
+  </si>
+  <si>
+    <t>Get &lt;color=#FDFE58&gt;{0}&lt;/color&gt; PHP</t>
+  </si>
+  <si>
+    <t>Obtener&lt;color=#FDFE58&gt;{0}&lt;/color&gt; PHP</t>
+  </si>
+  <si>
+    <t>Obter&lt;color=#FDFE58&gt;{0}&lt;/color&gt; PHP</t>
+  </si>
+  <si>
+    <t>Obtenez&lt;color=#FDFE58&gt;{0}&lt;/color&gt; PHP</t>
+  </si>
+  <si>
+    <t>Dapatkan&lt;color=#FDFE58&gt;{0}&lt;/color&gt; PHP</t>
   </si>
   <si>
     <t>206015</t>
   </si>
   <si>
-    <t>只需要{0}BRL</t>
-  </si>
-  <si>
-    <t>Only {0}BRL now</t>
+    <t>只需要{0}PHP</t>
+  </si>
+  <si>
+    <t>Only {0}PHP now</t>
   </si>
   <si>
     <t>Sólo {0} ahora</t>
@@ -7210,30 +7210,30 @@
     <t>抬頭說明3</t>
   </si>
   <si>
-    <t>綁定後你的朋友每充值500BRL,你將會獲得一筆金幣返利。你邀請的朋友每充值500BRL，你會得到3%的金幣返利。總共15金幣。你邀請的朋友可以邀請其他人。你朋友邀請的人每充值500BRL，你會得到1.5%的金幣返利。總共7.5金幣。</t>
-  </si>
-  <si>
-    <t>For every 500BRL your friend recharges after the bind.You will get 3% gold rebate for every 500BRL you invite your friends to top up.Total 15 gold.The friends you invite can invite other people. You will get 1.5% gold rebate for every 500BRL recharge of your friend's invited person.Total 7.5 gold.</t>
-  </si>
-  <si>
-    <t>Por cada 500BRL que recargue tu amigo después del bind.Obtendrás 3% de gold rebate por cada 500BRL que invites a tus amigos a recargar.Total 15 gold.Los amigos que invites pueden invitar a otras personas. Obtendrás 1.5% de oro de reembolso por cada recarga de 500BRL de la persona invitada por tu amigo.Total 7.5 oro.</t>
-  </si>
-  <si>
-    <t>Para cada 500BRL que seu amigo recarregar após a vinculação, você receberá 3% de desconto em ouro para cada 500BRL que convidar seus amigos para recarregar. Você receberá um desconto de 1,5% em ouro para cada recarga de 500 BRL da pessoa convidada por seu amigo. Total de 7,5 de ouro.</t>
-  </si>
-  <si>
-    <t>Vous obtiendrez 3% de remise en or pour chaque 500BRL que vous invitez vos amis à recharger.Total 15 gold.Les amis que vous invitez peuvent inviter d'autres personnes. Vous obtiendrez 1,5% de remise en or pour chaque recharge de 500BRL de la personne invitée par votre ami.Total 7,5 gold.</t>
-  </si>
-  <si>
-    <t>Untuk setiap 500BRL yang diisi ulang oleh teman Anda setelah pengikatan, Anda akan mendapatkan potongan harga 3% emas untuk setiap 500BRL yang Anda ajak teman Anda isi ulang, total 15 emas, dan teman yang Anda ajak dapat mengundang orang lain. Anda akan mendapatkan potongan harga 1,5% emas untuk setiap isi ulang 500BRL dari orang yang diundang oleh teman Anda, total 7,5 emas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forever y500BRL recharges rakan anda selepas 
+    <t>綁定後你的朋友每充值500PHP,你將會獲得一筆金幣返利。你邀請的朋友每充值500PHP，你會得到3%的金幣返利。總共15金幣。你邀請的朋友可以邀請其他人。你朋友邀請的人每充值500PHP，你會得到1.5%的金幣返利。總共7.5金幣。</t>
+  </si>
+  <si>
+    <t>For every 500PHP your friend recharges after the bind.You will get 3% gold rebate for every 500PHP you invite your friends to top up.Total 15 gold.The friends you invite can invite other people. You will get 1.5% gold rebate for every 500PHP recharge of your friend's invited person.Total 7.5 gold.</t>
+  </si>
+  <si>
+    <t>Por cada 500PHP que recargue tu amigo después del bind.Obtendrás 3% de gold rebate por cada 500PHP que invites a tus amigos a recargar.Total 15 gold.Los amigos que invites pueden invitar a otras personas. Obtendrás 1.5% de oro de reembolso por cada recarga de 500PHP de la persona invitada por tu amigo.Total 7.5 oro.</t>
+  </si>
+  <si>
+    <t>Para cada 500PHP que seu amigo recarregar após a vinculação, você receberá 3% de desconto em ouro para cada 500PHP que convidar seus amigos para recarregar. Você receberá um desconto de 1,5% em ouro para cada recarga de 500 PHP da pessoa convidada por seu amigo. Total de 7,5 de ouro.</t>
+  </si>
+  <si>
+    <t>Vous obtiendrez 3% de remise en or pour chaque 500PHP que vous invitez vos amis à recharger.Total 15 gold.Les amis que vous invitez peuvent inviter d'autres personnes. Vous obtiendrez 1,5% de remise en or pour chaque recharge de 500PHP de la personne invitée par votre ami.Total 7,5 gold.</t>
+  </si>
+  <si>
+    <t>Untuk setiap 500PHP yang diisi ulang oleh teman Anda setelah pengikatan, Anda akan mendapatkan potongan harga 3% emas untuk setiap 500PHP yang Anda ajak teman Anda isi ulang, total 15 emas, dan teman yang Anda ajak dapat mengundang orang lain. Anda akan mendapatkan potongan harga 1,5% emas untuk setiap isi ulang 500PHP dari orang yang diundang oleh teman Anda, total 7,5 emas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forever y500PHP recharges rakan anda selepas 
 Anda akan mendapat 3% gold rebate for 
-Every 500BRL you inite your friends to top 
+Every 500PHP you inite your friends to top 
 up.Total 15 gold.The friends you invite can 
 Invite other people. You will get 1.5% gold 
-rebate forever y500BRL recharge of your 
+rebate forever y500PHP recharge of your 
 friend's invited person. Total 7.5 gold. 
 </t>
   </si>
@@ -9479,25 +9479,25 @@
     <t>214025</t>
   </si>
   <si>
-    <t>解鎖後7日登錄可領{0}BRL</t>
-  </si>
-  <si>
-    <t>Unlocked 7 days after login to receive {0}BRL</t>
-  </si>
-  <si>
-    <t>Desbloqueado 7 días después de iniciar sesión para recibir {0}BRL</t>
-  </si>
-  <si>
-    <t>Desbloqueado 7 dias após o login para receber {0}BRL</t>
-  </si>
-  <si>
-    <t>Débloqué 7 jours après la connexion pour recevoir {0}BRL</t>
-  </si>
-  <si>
-    <t>Tidak terkunci 7 hari setelah login untuk menerima {0}BRL</t>
-  </si>
-  <si>
-    <t>Tidak dikunci 7 hari selepas daftar masuk untuk menerima {0}BRL</t>
+    <t>解鎖後7日登錄可領{0}PHP</t>
+  </si>
+  <si>
+    <t>Unlocked 7 days after login to receive {0}PHP</t>
+  </si>
+  <si>
+    <t>Desbloqueado 7 días después de iniciar sesión para recibir {0}PHP</t>
+  </si>
+  <si>
+    <t>Desbloqueado 7 dias após o login para receber {0}PHP</t>
+  </si>
+  <si>
+    <t>Débloqué 7 jours après la connexion pour recevoir {0}PHP</t>
+  </si>
+  <si>
+    <t>Tidak terkunci 7 hari setelah login untuk menerima {0}PHP</t>
+  </si>
+  <si>
+    <t>Tidak dikunci 7 hari selepas daftar masuk untuk menerima {0}PHP</t>
   </si>
   <si>
     <t>214026</t>
@@ -16055,25 +16055,25 @@
     <t>365060</t>
   </si>
   <si>
-    <t>收集\r\nR${0}</t>
-  </si>
-  <si>
-    <t>Collect \r\nR${0}</t>
-  </si>
-  <si>
-    <t>Cobrar \r\nR${0}</t>
-  </si>
-  <si>
-    <t>Coletar \r\nR${0}</t>
-  </si>
-  <si>
-    <t>Collecter \r\nR${0}</t>
-  </si>
-  <si>
-    <t>Kumpulkan \r\nR${0}</t>
-  </si>
-  <si>
-    <t>Kumpul \r\nR${0}</t>
+    <t>收集\r\n₱{0}</t>
+  </si>
+  <si>
+    <t>Collect \r\n₱{0}</t>
+  </si>
+  <si>
+    <t>Cobrar \r\n₱{0}</t>
+  </si>
+  <si>
+    <t>Coletar \r\n₱{0}</t>
+  </si>
+  <si>
+    <t>Collecter \r\n₱{0}</t>
+  </si>
+  <si>
+    <t>Kumpulkan \r\n₱{0}</t>
+  </si>
+  <si>
+    <t>Kumpul \r\n₱{0}</t>
   </si>
   <si>
     <t>362001</t>
@@ -25238,8 +25238,8 @@
   <sheetPr/>
   <dimension ref="A1:N1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1154" workbookViewId="0">
-      <selection activeCell="I1187" sqref="I1187"/>
+    <sheetView tabSelected="1" topLeftCell="C751" workbookViewId="0">
+      <selection activeCell="K748" sqref="K748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -45512,7 +45512,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="748" s="9" customFormat="1" spans="2:11">
+    <row r="748" s="9" customFormat="1" ht="15" spans="2:11">
       <c r="B748" s="1" t="s">
         <v>5055</v>
       </c>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="17445" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9716" uniqueCount="7668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9748" uniqueCount="7688">
   <si>
     <t>##var</t>
   </si>
@@ -21365,16 +21365,16 @@
     <t>366001</t>
   </si>
   <si>
-    <t>{} 局未出</t>
-  </si>
-  <si>
-    <t>{} Round no open</t>
-  </si>
-  <si>
-    <t>{} Rodada não aberta</t>
-  </si>
-  <si>
-    <t>{} Putaran tidak terbuka</t>
+    <t>{0}局未出</t>
+  </si>
+  <si>
+    <t>{0}Round no open</t>
+  </si>
+  <si>
+    <t>{0}Rodada não aberta</t>
+  </si>
+  <si>
+    <t>{0}Putaran tidak terbuka</t>
   </si>
   <si>
     <t>366002</t>
@@ -22796,6 +22796,66 @@
   </si>
   <si>
     <t>Mengatur</t>
+  </si>
+  <si>
+    <t>366105</t>
+  </si>
+  <si>
+    <t>請選擇下注區域</t>
+  </si>
+  <si>
+    <t>Please select the betting area</t>
+  </si>
+  <si>
+    <t>Por favor, selecione a área de apostas</t>
+  </si>
+  <si>
+    <t>Silakan pilih area taruhan</t>
+  </si>
+  <si>
+    <t>366106</t>
+  </si>
+  <si>
+    <t>開始下注</t>
+  </si>
+  <si>
+    <t>Start Betting</t>
+  </si>
+  <si>
+    <t>Iniciar apostas</t>
+  </si>
+  <si>
+    <t>Mulai Taruhan</t>
+  </si>
+  <si>
+    <t>366107</t>
+  </si>
+  <si>
+    <t>停止下注</t>
+  </si>
+  <si>
+    <t>Stop Betting</t>
+  </si>
+  <si>
+    <t>Parar de apostar</t>
+  </si>
+  <si>
+    <t>Berhenti Bertaruh</t>
+  </si>
+  <si>
+    <t>366108</t>
+  </si>
+  <si>
+    <t>時間到</t>
+  </si>
+  <si>
+    <t>Time Up</t>
+  </si>
+  <si>
+    <t>Aumentar o tempo</t>
+  </si>
+  <si>
+    <t>Waktu habis</t>
   </si>
   <si>
     <t>400057</t>
@@ -25236,10 +25296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1182"/>
+  <dimension ref="A1:N1186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1154" workbookViewId="0">
-      <selection activeCell="I1187" sqref="I1187"/>
+    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
+      <selection activeCell="C1092" sqref="C1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -54571,1234 +54631,1210 @@
         <v>7278</v>
       </c>
     </row>
-    <row r="1091" s="10" customFormat="1" spans="2:11">
-      <c r="B1091" s="10" t="s">
+    <row r="1091" customFormat="1" ht="27" spans="2:11">
+      <c r="B1091" s="11" t="s">
         <v>7279</v>
       </c>
-      <c r="E1091" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F1091" s="30" t="s">
-        <v>1665</v>
-      </c>
-      <c r="G1091" s="14" t="s">
-        <v>1666</v>
-      </c>
-      <c r="H1091" s="14" t="s">
-        <v>1667</v>
-      </c>
-      <c r="I1091" s="14" t="s">
-        <v>1668</v>
-      </c>
-      <c r="J1091" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="K1091" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="1092" s="10" customFormat="1" spans="2:11">
-      <c r="B1092" s="10" t="s">
+      <c r="E1091" s="22" t="s">
         <v>7280</v>
       </c>
-      <c r="E1092" s="6" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F1092" s="31" t="s">
-        <v>1673</v>
-      </c>
-      <c r="G1092" s="32" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H1092" s="32" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I1092" s="32" t="s">
-        <v>1676</v>
-      </c>
-      <c r="J1092" s="6" t="s">
-        <v>1677</v>
-      </c>
-      <c r="K1092" s="6" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1093" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1093" s="10" t="s">
+      <c r="F1091" s="11" t="s">
         <v>7281</v>
       </c>
-      <c r="E1093" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F1093" s="30" t="s">
-        <v>1681</v>
-      </c>
-      <c r="G1093" s="14" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H1093" s="14" t="s">
-        <v>1683</v>
-      </c>
-      <c r="I1093" s="14" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J1093" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="K1093" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="1094" s="10" customFormat="1" spans="2:11">
-      <c r="B1094" s="10" t="s">
+      <c r="G1091" s="11" t="s">
         <v>7282</v>
       </c>
-      <c r="E1094" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F1094" s="30" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G1094" s="14" t="s">
-        <v>1690</v>
-      </c>
-      <c r="H1094" s="14" t="s">
-        <v>1691</v>
-      </c>
-      <c r="I1094" s="14" t="s">
-        <v>1689</v>
-      </c>
-      <c r="J1094" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="K1094" s="1" t="s">
-        <v>1693</v>
+      <c r="H1091" s="11" t="s">
+        <v>7282</v>
+      </c>
+      <c r="I1091" s="11" t="s">
+        <v>7282</v>
+      </c>
+      <c r="J1091" s="11" t="s">
+        <v>7283</v>
+      </c>
+      <c r="K1091" s="11" t="s">
+        <v>7283</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="1" spans="2:11">
+      <c r="B1092" s="11" t="s">
+        <v>7284</v>
+      </c>
+      <c r="E1092" s="22" t="s">
+        <v>7285</v>
+      </c>
+      <c r="F1092" s="11" t="s">
+        <v>7286</v>
+      </c>
+      <c r="G1092" s="11" t="s">
+        <v>7287</v>
+      </c>
+      <c r="H1092" s="11" t="s">
+        <v>7287</v>
+      </c>
+      <c r="I1092" s="11" t="s">
+        <v>7287</v>
+      </c>
+      <c r="J1092" s="11" t="s">
+        <v>7288</v>
+      </c>
+      <c r="K1092" s="11" t="s">
+        <v>7288</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="1" spans="2:11">
+      <c r="B1093" s="11" t="s">
+        <v>7289</v>
+      </c>
+      <c r="E1093" s="22" t="s">
+        <v>7290</v>
+      </c>
+      <c r="F1093" s="11" t="s">
+        <v>7291</v>
+      </c>
+      <c r="G1093" s="11" t="s">
+        <v>7292</v>
+      </c>
+      <c r="H1093" s="11" t="s">
+        <v>7292</v>
+      </c>
+      <c r="I1093" s="11" t="s">
+        <v>7292</v>
+      </c>
+      <c r="J1093" s="11" t="s">
+        <v>7293</v>
+      </c>
+      <c r="K1093" s="11" t="s">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="1" spans="2:11">
+      <c r="B1094" s="11" t="s">
+        <v>7294</v>
+      </c>
+      <c r="E1094" s="22" t="s">
+        <v>7295</v>
+      </c>
+      <c r="F1094" s="11" t="s">
+        <v>7296</v>
+      </c>
+      <c r="G1094" s="11" t="s">
+        <v>7297</v>
+      </c>
+      <c r="H1094" s="11" t="s">
+        <v>7297</v>
+      </c>
+      <c r="I1094" s="11" t="s">
+        <v>7297</v>
+      </c>
+      <c r="J1094" s="11" t="s">
+        <v>7298</v>
+      </c>
+      <c r="K1094" s="11" t="s">
+        <v>7298</v>
       </c>
     </row>
     <row r="1095" s="10" customFormat="1" spans="2:11">
       <c r="B1095" s="10" t="s">
-        <v>7283</v>
+        <v>7299</v>
       </c>
       <c r="E1095" s="1" t="s">
-        <v>1695</v>
+        <v>1664</v>
       </c>
       <c r="F1095" s="30" t="s">
-        <v>1696</v>
+        <v>1665</v>
       </c>
       <c r="G1095" s="14" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
       <c r="H1095" s="14" t="s">
-        <v>1696</v>
+        <v>1667</v>
       </c>
       <c r="I1095" s="14" t="s">
-        <v>1697</v>
+        <v>1668</v>
       </c>
       <c r="J1095" s="1" t="s">
-        <v>1696</v>
+        <v>1669</v>
       </c>
       <c r="K1095" s="1" t="s">
-        <v>1698</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1096" s="10" customFormat="1" spans="2:11">
       <c r="B1096" s="10" t="s">
-        <v>7284</v>
-      </c>
-      <c r="E1096" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F1096" s="30" t="s">
-        <v>1701</v>
-      </c>
-      <c r="G1096" s="14" t="s">
-        <v>1702</v>
-      </c>
-      <c r="H1096" s="14" t="s">
-        <v>1703</v>
-      </c>
-      <c r="I1096" s="14" t="s">
-        <v>1704</v>
-      </c>
-      <c r="J1096" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="K1096" s="1" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1097" s="10" customFormat="1" spans="2:11">
+        <v>7300</v>
+      </c>
+      <c r="E1096" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F1096" s="31" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G1096" s="32" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H1096" s="32" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I1096" s="32" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J1096" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K1096" s="6" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1097" s="10" customFormat="1" ht="27" spans="2:11">
       <c r="B1097" s="10" t="s">
-        <v>7285</v>
+        <v>7301</v>
       </c>
       <c r="E1097" s="1" t="s">
-        <v>1708</v>
+        <v>1680</v>
       </c>
       <c r="F1097" s="30" t="s">
-        <v>1709</v>
+        <v>1681</v>
       </c>
       <c r="G1097" s="14" t="s">
-        <v>1710</v>
+        <v>1682</v>
       </c>
       <c r="H1097" s="14" t="s">
-        <v>1711</v>
+        <v>1683</v>
       </c>
       <c r="I1097" s="14" t="s">
-        <v>1712</v>
+        <v>1684</v>
       </c>
       <c r="J1097" s="1" t="s">
-        <v>1709</v>
+        <v>1685</v>
       </c>
       <c r="K1097" s="1" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1098" s="10" customFormat="1" ht="27" spans="2:11">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1098" s="10" customFormat="1" spans="2:11">
       <c r="B1098" s="10" t="s">
-        <v>7286</v>
+        <v>7302</v>
       </c>
       <c r="E1098" s="1" t="s">
-        <v>1714</v>
+        <v>1688</v>
       </c>
       <c r="F1098" s="30" t="s">
-        <v>1715</v>
+        <v>1689</v>
       </c>
       <c r="G1098" s="14" t="s">
-        <v>1716</v>
+        <v>1690</v>
       </c>
       <c r="H1098" s="14" t="s">
-        <v>1717</v>
+        <v>1691</v>
       </c>
       <c r="I1098" s="14" t="s">
-        <v>1718</v>
+        <v>1689</v>
       </c>
       <c r="J1098" s="1" t="s">
-        <v>1719</v>
+        <v>1692</v>
       </c>
       <c r="K1098" s="1" t="s">
-        <v>1720</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1099" s="10" customFormat="1" spans="2:11">
       <c r="B1099" s="10" t="s">
-        <v>7287</v>
+        <v>7303</v>
       </c>
       <c r="E1099" s="1" t="s">
-        <v>1722</v>
+        <v>1695</v>
       </c>
       <c r="F1099" s="30" t="s">
-        <v>1723</v>
+        <v>1696</v>
       </c>
       <c r="G1099" s="14" t="s">
-        <v>1724</v>
+        <v>1696</v>
       </c>
       <c r="H1099" s="14" t="s">
-        <v>1725</v>
+        <v>1696</v>
       </c>
       <c r="I1099" s="14" t="s">
-        <v>1723</v>
+        <v>1697</v>
       </c>
       <c r="J1099" s="1" t="s">
-        <v>1726</v>
+        <v>1696</v>
       </c>
       <c r="K1099" s="1" t="s">
-        <v>1727</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1100" s="10" customFormat="1" spans="2:11">
       <c r="B1100" s="10" t="s">
-        <v>7288</v>
+        <v>7304</v>
       </c>
       <c r="E1100" s="1" t="s">
-        <v>1729</v>
+        <v>1700</v>
       </c>
       <c r="F1100" s="30" t="s">
-        <v>1730</v>
+        <v>1701</v>
       </c>
       <c r="G1100" s="14" t="s">
-        <v>1731</v>
+        <v>1702</v>
       </c>
       <c r="H1100" s="14" t="s">
-        <v>1732</v>
+        <v>1703</v>
       </c>
       <c r="I1100" s="14" t="s">
-        <v>1733</v>
+        <v>1704</v>
       </c>
       <c r="J1100" s="1" t="s">
-        <v>1734</v>
+        <v>1705</v>
       </c>
       <c r="K1100" s="1" t="s">
-        <v>1735</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1101" s="10" customFormat="1" spans="2:11">
       <c r="B1101" s="10" t="s">
-        <v>7289</v>
+        <v>7305</v>
       </c>
       <c r="E1101" s="1" t="s">
-        <v>1737</v>
+        <v>1708</v>
       </c>
       <c r="F1101" s="30" t="s">
-        <v>1738</v>
+        <v>1709</v>
       </c>
       <c r="G1101" s="14" t="s">
-        <v>1739</v>
+        <v>1710</v>
       </c>
       <c r="H1101" s="14" t="s">
-        <v>1740</v>
+        <v>1711</v>
       </c>
       <c r="I1101" s="14" t="s">
-        <v>1741</v>
+        <v>1712</v>
       </c>
       <c r="J1101" s="1" t="s">
-        <v>1742</v>
+        <v>1709</v>
       </c>
       <c r="K1101" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="1102" s="10" customFormat="1" spans="2:11">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1102" s="10" customFormat="1" ht="27" spans="2:11">
       <c r="B1102" s="10" t="s">
-        <v>7290</v>
+        <v>7306</v>
       </c>
       <c r="E1102" s="1" t="s">
-        <v>1745</v>
+        <v>1714</v>
       </c>
       <c r="F1102" s="30" t="s">
-        <v>1746</v>
+        <v>1715</v>
       </c>
       <c r="G1102" s="14" t="s">
-        <v>1746</v>
+        <v>1716</v>
       </c>
       <c r="H1102" s="14" t="s">
-        <v>1746</v>
+        <v>1717</v>
       </c>
       <c r="I1102" s="14" t="s">
-        <v>1747</v>
+        <v>1718</v>
       </c>
       <c r="J1102" s="1" t="s">
-        <v>1748</v>
+        <v>1719</v>
       </c>
       <c r="K1102" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1103" s="10" customFormat="1" ht="27" spans="2:11">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1103" s="10" customFormat="1" spans="2:11">
       <c r="B1103" s="10" t="s">
-        <v>7291</v>
+        <v>7307</v>
       </c>
       <c r="E1103" s="1" t="s">
-        <v>1751</v>
+        <v>1722</v>
       </c>
       <c r="F1103" s="30" t="s">
-        <v>1752</v>
-      </c>
-      <c r="G1103" s="30" t="s">
-        <v>1752</v>
-      </c>
-      <c r="H1103" s="30" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I1103" s="30" t="s">
-        <v>1752</v>
-      </c>
-      <c r="J1103" s="30" t="s">
-        <v>1752</v>
-      </c>
-      <c r="K1103" s="30" t="s">
-        <v>1752</v>
+        <v>1723</v>
+      </c>
+      <c r="G1103" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H1103" s="14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="I1103" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J1103" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K1103" s="1" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="1104" s="10" customFormat="1" spans="2:11">
       <c r="B1104" s="10" t="s">
-        <v>7292</v>
+        <v>7308</v>
       </c>
       <c r="E1104" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F1104" s="30" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G1104" s="14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H1104" s="14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I1104" s="14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J1104" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K1104" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1105" s="10" customFormat="1" spans="2:11">
+      <c r="B1105" s="10" t="s">
+        <v>7309</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F1105" s="30" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G1105" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H1105" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I1105" s="14" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J1105" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K1105" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1106" s="10" customFormat="1" spans="2:11">
+      <c r="B1106" s="10" t="s">
+        <v>7310</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F1106" s="30" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G1106" s="14" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H1106" s="14" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I1106" s="14" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J1106" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K1106" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1107" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1107" s="10" t="s">
+        <v>7311</v>
+      </c>
+      <c r="E1107" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F1107" s="30" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G1107" s="30" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H1107" s="30" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I1107" s="30" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J1107" s="30" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K1107" s="30" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1108" s="10" customFormat="1" spans="2:11">
+      <c r="B1108" s="10" t="s">
+        <v>7312</v>
+      </c>
+      <c r="E1108" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="F1104" s="30" t="s">
+      <c r="F1108" s="30" t="s">
         <v>1755</v>
       </c>
-      <c r="G1104" s="14" t="s">
+      <c r="G1108" s="14" t="s">
         <v>1756</v>
       </c>
-      <c r="H1104" s="14" t="s">
+      <c r="H1108" s="14" t="s">
         <v>1757</v>
       </c>
-      <c r="I1104" s="14" t="s">
+      <c r="I1108" s="14" t="s">
         <v>1758</v>
       </c>
-      <c r="J1104" s="1" t="s">
+      <c r="J1108" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="K1104" s="1" t="s">
+      <c r="K1108" s="1" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="1105" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1105" s="10" t="s">
-        <v>7293</v>
-      </c>
-      <c r="E1105" s="1" t="s">
+    <row r="1109" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1109" s="10" t="s">
+        <v>7313</v>
+      </c>
+      <c r="E1109" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="F1105" s="30" t="s">
+      <c r="F1109" s="30" t="s">
         <v>1763</v>
       </c>
-      <c r="G1105" s="14" t="s">
+      <c r="G1109" s="14" t="s">
         <v>1764</v>
       </c>
-      <c r="H1105" s="14" t="s">
+      <c r="H1109" s="14" t="s">
         <v>1765</v>
       </c>
-      <c r="I1105" s="14" t="s">
+      <c r="I1109" s="14" t="s">
         <v>1766</v>
       </c>
-      <c r="J1105" s="1" t="s">
+      <c r="J1109" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="K1105" s="1" t="s">
+      <c r="K1109" s="1" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="1106" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1106" s="10" t="s">
-        <v>7294</v>
-      </c>
-      <c r="E1106" s="1" t="s">
+    <row r="1110" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1110" s="10" t="s">
+        <v>7314</v>
+      </c>
+      <c r="E1110" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="F1106" s="30" t="s">
+      <c r="F1110" s="30" t="s">
         <v>1771</v>
       </c>
-      <c r="G1106" s="14" t="s">
+      <c r="G1110" s="14" t="s">
         <v>1772</v>
       </c>
-      <c r="H1106" s="14" t="s">
+      <c r="H1110" s="14" t="s">
         <v>1773</v>
       </c>
-      <c r="I1106" s="14" t="s">
+      <c r="I1110" s="14" t="s">
         <v>1774</v>
       </c>
-      <c r="J1106" s="1" t="s">
+      <c r="J1110" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="K1106" s="1" t="s">
+      <c r="K1110" s="1" t="s">
         <v>1776</v>
-      </c>
-    </row>
-    <row r="1107" s="10" customFormat="1" spans="2:11">
-      <c r="B1107" s="10" t="s">
-        <v>7295</v>
-      </c>
-      <c r="E1107" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F1107" s="30" t="s">
-        <v>1779</v>
-      </c>
-      <c r="G1107" s="14" t="s">
-        <v>1780</v>
-      </c>
-      <c r="H1107" s="14" t="s">
-        <v>1781</v>
-      </c>
-      <c r="I1107" s="14" t="s">
-        <v>1782</v>
-      </c>
-      <c r="J1107" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="K1107" s="1" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1108" s="10" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B1108" s="10" t="s">
-        <v>7296</v>
-      </c>
-      <c r="E1108" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F1108" s="30" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G1108" s="14" t="s">
-        <v>1788</v>
-      </c>
-      <c r="H1108" s="14" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I1108" s="35" t="s">
-        <v>1789</v>
-      </c>
-      <c r="J1108" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="K1108" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1109" s="10" customFormat="1" spans="2:11">
-      <c r="B1109" s="10" t="s">
-        <v>7297</v>
-      </c>
-      <c r="E1109" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F1109" s="30" t="s">
-        <v>1794</v>
-      </c>
-      <c r="G1109" s="14" t="s">
-        <v>1795</v>
-      </c>
-      <c r="H1109" s="14" t="s">
-        <v>1795</v>
-      </c>
-      <c r="I1109" s="14" t="s">
-        <v>1796</v>
-      </c>
-      <c r="J1109" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="K1109" s="1" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="1110" s="10" customFormat="1" spans="2:11">
-      <c r="B1110" s="10" t="s">
-        <v>7298</v>
-      </c>
-      <c r="E1110" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F1110" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G1110" s="14" t="s">
-        <v>1801</v>
-      </c>
-      <c r="H1110" s="14" t="s">
-        <v>1802</v>
-      </c>
-      <c r="I1110" s="14" t="s">
-        <v>1801</v>
-      </c>
-      <c r="J1110" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="K1110" s="1" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="1111" s="10" customFormat="1" spans="2:11">
       <c r="B1111" s="10" t="s">
-        <v>7299</v>
+        <v>7315</v>
       </c>
       <c r="E1111" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="F1111" s="1" t="s">
-        <v>1846</v>
+        <v>1778</v>
+      </c>
+      <c r="F1111" s="30" t="s">
+        <v>1779</v>
       </c>
       <c r="G1111" s="14" t="s">
-        <v>1847</v>
+        <v>1780</v>
       </c>
       <c r="H1111" s="14" t="s">
-        <v>1848</v>
+        <v>1781</v>
       </c>
       <c r="I1111" s="14" t="s">
-        <v>1849</v>
+        <v>1782</v>
       </c>
       <c r="J1111" s="1" t="s">
-        <v>1850</v>
+        <v>1783</v>
       </c>
       <c r="K1111" s="1" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1112" s="10" customFormat="1" spans="2:11">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1112" s="10" customFormat="1" ht="15.75" spans="2:11">
       <c r="B1112" s="10" t="s">
-        <v>7300</v>
-      </c>
-      <c r="E1112" s="11" t="s">
-        <v>1911</v>
-      </c>
-      <c r="F1112" s="11" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G1112" s="11" t="s">
-        <v>1913</v>
-      </c>
-      <c r="H1112" s="11" t="s">
-        <v>1914</v>
-      </c>
-      <c r="I1112" s="11" t="s">
-        <v>1915</v>
-      </c>
-      <c r="J1112" s="11" t="s">
-        <v>1916</v>
-      </c>
-      <c r="K1112" s="11" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1113" s="10" customFormat="1" ht="27" spans="2:11">
+        <v>7316</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F1112" s="30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G1112" s="14" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H1112" s="14" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I1112" s="35" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J1112" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K1112" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1113" s="10" customFormat="1" spans="2:11">
       <c r="B1113" s="10" t="s">
-        <v>7301</v>
-      </c>
-      <c r="E1113" s="11" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F1113" s="11" t="s">
-        <v>1919</v>
-      </c>
-      <c r="G1113" s="11" t="s">
-        <v>1920</v>
-      </c>
-      <c r="H1113" s="11" t="s">
-        <v>1921</v>
-      </c>
-      <c r="I1113" s="11" t="s">
-        <v>1922</v>
-      </c>
-      <c r="J1113" s="11" t="s">
-        <v>1923</v>
-      </c>
-      <c r="K1113" s="11" t="s">
-        <v>1924</v>
+        <v>7317</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F1113" s="30" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G1113" s="14" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H1113" s="14" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I1113" s="14" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J1113" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K1113" s="1" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="1114" s="10" customFormat="1" spans="2:11">
       <c r="B1114" s="10" t="s">
-        <v>7302</v>
-      </c>
-      <c r="E1114" s="11" t="s">
-        <v>1926</v>
-      </c>
-      <c r="F1114" s="11" t="s">
-        <v>1927</v>
-      </c>
-      <c r="G1114" s="11" t="s">
-        <v>1928</v>
-      </c>
-      <c r="H1114" s="11" t="s">
-        <v>1929</v>
-      </c>
-      <c r="I1114" s="11" t="s">
-        <v>1930</v>
-      </c>
-      <c r="J1114" s="11" t="s">
-        <v>1931</v>
-      </c>
-      <c r="K1114" s="11" t="s">
-        <v>1932</v>
+        <v>7318</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F1114" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G1114" s="14" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1114" s="14" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I1114" s="14" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J1114" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K1114" s="1" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="1115" s="10" customFormat="1" spans="2:11">
       <c r="B1115" s="10" t="s">
-        <v>7303</v>
-      </c>
-      <c r="E1115" s="11" t="s">
-        <v>1934</v>
-      </c>
-      <c r="F1115" s="11" t="s">
-        <v>1935</v>
-      </c>
-      <c r="G1115" s="11" t="s">
-        <v>1936</v>
-      </c>
-      <c r="H1115" s="11" t="s">
-        <v>1937</v>
-      </c>
-      <c r="I1115" s="11" t="s">
-        <v>1938</v>
-      </c>
-      <c r="J1115" s="11" t="s">
-        <v>1939</v>
-      </c>
-      <c r="K1115" s="11" t="s">
-        <v>1940</v>
+        <v>7319</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F1115" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G1115" s="14" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H1115" s="14" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I1115" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J1115" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K1115" s="1" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="1116" s="10" customFormat="1" spans="2:11">
       <c r="B1116" s="10" t="s">
-        <v>7304</v>
-      </c>
-      <c r="E1116" s="34" t="s">
-        <v>1942</v>
+        <v>7320</v>
+      </c>
+      <c r="E1116" s="11" t="s">
+        <v>1911</v>
       </c>
       <c r="F1116" s="11" t="s">
-        <v>1943</v>
+        <v>1912</v>
       </c>
       <c r="G1116" s="11" t="s">
-        <v>1943</v>
+        <v>1913</v>
       </c>
       <c r="H1116" s="11" t="s">
-        <v>1944</v>
+        <v>1914</v>
       </c>
       <c r="I1116" s="11" t="s">
-        <v>1943</v>
+        <v>1915</v>
       </c>
       <c r="J1116" s="11" t="s">
-        <v>1943</v>
+        <v>1916</v>
       </c>
       <c r="K1116" s="11" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="1117" s="10" customFormat="1" spans="2:11">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1117" s="10" customFormat="1" ht="27" spans="2:11">
       <c r="B1117" s="10" t="s">
-        <v>7305</v>
-      </c>
-      <c r="E1117" s="34" t="s">
-        <v>1946</v>
+        <v>7321</v>
+      </c>
+      <c r="E1117" s="11" t="s">
+        <v>1918</v>
       </c>
       <c r="F1117" s="11" t="s">
-        <v>1947</v>
+        <v>1919</v>
       </c>
       <c r="G1117" s="11" t="s">
-        <v>1948</v>
+        <v>1920</v>
       </c>
       <c r="H1117" s="11" t="s">
-        <v>1947</v>
+        <v>1921</v>
       </c>
       <c r="I1117" s="11" t="s">
-        <v>1947</v>
+        <v>1922</v>
       </c>
       <c r="J1117" s="11" t="s">
-        <v>1949</v>
+        <v>1923</v>
       </c>
       <c r="K1117" s="11" t="s">
-        <v>1947</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1118" s="10" customFormat="1" spans="2:11">
       <c r="B1118" s="10" t="s">
-        <v>7306</v>
-      </c>
-      <c r="E1118" s="34" t="s">
-        <v>1961</v>
+        <v>7322</v>
+      </c>
+      <c r="E1118" s="11" t="s">
+        <v>1926</v>
       </c>
       <c r="F1118" s="11" t="s">
-        <v>1962</v>
+        <v>1927</v>
       </c>
       <c r="G1118" s="11" t="s">
-        <v>1963</v>
+        <v>1928</v>
       </c>
       <c r="H1118" s="11" t="s">
-        <v>1962</v>
+        <v>1929</v>
       </c>
       <c r="I1118" s="11" t="s">
-        <v>1962</v>
+        <v>1930</v>
       </c>
       <c r="J1118" s="11" t="s">
-        <v>1964</v>
+        <v>1931</v>
       </c>
       <c r="K1118" s="11" t="s">
-        <v>1965</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1119" s="10" customFormat="1" spans="2:11">
       <c r="B1119" s="10" t="s">
-        <v>7307</v>
-      </c>
-      <c r="E1119" s="34" t="s">
-        <v>1869</v>
+        <v>7323</v>
+      </c>
+      <c r="E1119" s="11" t="s">
+        <v>1934</v>
       </c>
       <c r="F1119" s="11" t="s">
-        <v>1870</v>
+        <v>1935</v>
       </c>
       <c r="G1119" s="11" t="s">
-        <v>1871</v>
+        <v>1936</v>
       </c>
       <c r="H1119" s="11" t="s">
-        <v>1872</v>
+        <v>1937</v>
       </c>
       <c r="I1119" s="11" t="s">
-        <v>1873</v>
+        <v>1938</v>
       </c>
       <c r="J1119" s="11" t="s">
-        <v>1874</v>
+        <v>1939</v>
       </c>
       <c r="K1119" s="11" t="s">
-        <v>1874</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1120" s="10" customFormat="1" spans="2:11">
       <c r="B1120" s="10" t="s">
-        <v>7308</v>
+        <v>7324</v>
       </c>
       <c r="E1120" s="34" t="s">
-        <v>7309</v>
+        <v>1942</v>
       </c>
       <c r="F1120" s="11" t="s">
-        <v>7310</v>
+        <v>1943</v>
       </c>
       <c r="G1120" s="11" t="s">
-        <v>7310</v>
+        <v>1943</v>
       </c>
       <c r="H1120" s="11" t="s">
-        <v>7310</v>
+        <v>1944</v>
       </c>
       <c r="I1120" s="11" t="s">
-        <v>7310</v>
+        <v>1943</v>
       </c>
       <c r="J1120" s="11" t="s">
-        <v>7311</v>
+        <v>1943</v>
       </c>
       <c r="K1120" s="11" t="s">
-        <v>7311</v>
-      </c>
-    </row>
-    <row r="1121" ht="162" spans="2:11">
-      <c r="B1121" s="11" t="s">
-        <v>7312</v>
-      </c>
-      <c r="C1121" s="11" t="s">
-        <v>7313</v>
-      </c>
-      <c r="E1121" s="11" t="s">
-        <v>7314</v>
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1121" s="10" customFormat="1" spans="2:11">
+      <c r="B1121" s="10" t="s">
+        <v>7325</v>
+      </c>
+      <c r="E1121" s="34" t="s">
+        <v>1946</v>
       </c>
       <c r="F1121" s="11" t="s">
-        <v>7315</v>
+        <v>1947</v>
       </c>
       <c r="G1121" s="11" t="s">
-        <v>7316</v>
+        <v>1948</v>
       </c>
       <c r="H1121" s="11" t="s">
-        <v>7317</v>
+        <v>1947</v>
       </c>
       <c r="I1121" s="11" t="s">
-        <v>7318</v>
+        <v>1947</v>
       </c>
       <c r="J1121" s="11" t="s">
-        <v>7319</v>
+        <v>1949</v>
       </c>
       <c r="K1121" s="11" t="s">
-        <v>7319</v>
-      </c>
-    </row>
-    <row r="1122" ht="297" spans="2:11">
-      <c r="B1122" s="11" t="s">
-        <v>7320</v>
-      </c>
-      <c r="C1122" s="11" t="s">
-        <v>7321</v>
-      </c>
-      <c r="E1122" s="22" t="s">
-        <v>7322</v>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1122" s="10" customFormat="1" spans="2:11">
+      <c r="B1122" s="10" t="s">
+        <v>7326</v>
+      </c>
+      <c r="E1122" s="34" t="s">
+        <v>1961</v>
       </c>
       <c r="F1122" s="11" t="s">
-        <v>7323</v>
+        <v>1962</v>
       </c>
       <c r="G1122" s="11" t="s">
-        <v>7324</v>
+        <v>1963</v>
       </c>
       <c r="H1122" s="11" t="s">
-        <v>7325</v>
+        <v>1962</v>
       </c>
       <c r="I1122" s="11" t="s">
-        <v>7326</v>
+        <v>1962</v>
       </c>
       <c r="J1122" s="11" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K1122" s="11" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1123" s="10" customFormat="1" spans="2:11">
+      <c r="B1123" s="10" t="s">
         <v>7327</v>
       </c>
-      <c r="K1122" s="11" t="s">
-        <v>7327</v>
-      </c>
-    </row>
-    <row r="1123" s="2" customFormat="1" spans="2:11">
-      <c r="B1123" s="1" t="s">
+      <c r="E1123" s="34" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F1123" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G1123" s="11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H1123" s="11" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I1123" s="11" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J1123" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K1123" s="11" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1124" s="10" customFormat="1" spans="2:11">
+      <c r="B1124" s="10" t="s">
         <v>7328</v>
       </c>
-      <c r="C1123" s="1" t="s">
+      <c r="E1124" s="34" t="s">
         <v>7329</v>
       </c>
-      <c r="D1123" s="37" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E1123" s="30" t="s">
+      <c r="F1124" s="11" t="s">
         <v>7330</v>
       </c>
-      <c r="F1123" s="30" t="s">
+      <c r="G1124" s="11" t="s">
+        <v>7330</v>
+      </c>
+      <c r="H1124" s="11" t="s">
+        <v>7330</v>
+      </c>
+      <c r="I1124" s="11" t="s">
+        <v>7330</v>
+      </c>
+      <c r="J1124" s="11" t="s">
         <v>7331</v>
       </c>
-      <c r="G1123" s="30" t="s">
+      <c r="K1124" s="11" t="s">
+        <v>7331</v>
+      </c>
+    </row>
+    <row r="1125" ht="162" spans="2:11">
+      <c r="B1125" s="11" t="s">
         <v>7332</v>
       </c>
-      <c r="H1123" s="30" t="s">
-        <v>7332</v>
-      </c>
-      <c r="I1123" s="30" t="s">
-        <v>7332</v>
-      </c>
-      <c r="J1123" s="30" t="s">
+      <c r="C1125" s="11" t="s">
         <v>7333</v>
       </c>
-      <c r="K1123" s="30" t="s">
-        <v>7333</v>
-      </c>
-    </row>
-    <row r="1124" spans="2:11">
-      <c r="B1124" s="1" t="s">
+      <c r="E1125" s="11" t="s">
         <v>7334</v>
       </c>
-      <c r="C1124" s="11" t="s">
+      <c r="F1125" s="11" t="s">
         <v>7335</v>
       </c>
-      <c r="D1124" s="37" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E1124" s="11" t="s">
+      <c r="G1125" s="11" t="s">
         <v>7336</v>
       </c>
-      <c r="F1124" s="11" t="s">
+      <c r="H1125" s="11" t="s">
         <v>7337</v>
       </c>
-      <c r="G1124" s="11" t="s">
+      <c r="I1125" s="11" t="s">
         <v>7338</v>
       </c>
-      <c r="H1124" s="11" t="s">
-        <v>7338</v>
-      </c>
-      <c r="I1124" s="11" t="s">
-        <v>7338</v>
-      </c>
-      <c r="J1124" s="11" t="s">
+      <c r="J1125" s="11" t="s">
         <v>7339</v>
       </c>
-      <c r="K1124" s="11" t="s">
+      <c r="K1125" s="11" t="s">
         <v>7339</v>
       </c>
     </row>
-    <row r="1125" spans="2:11">
-      <c r="B1125" s="1" t="s">
+    <row r="1126" ht="297" spans="2:11">
+      <c r="B1126" s="11" t="s">
         <v>7340</v>
       </c>
-      <c r="C1125" s="11" t="s">
+      <c r="C1126" s="11" t="s">
         <v>7341</v>
       </c>
-      <c r="D1125" s="37" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E1125" s="11" t="s">
+      <c r="E1126" s="22" t="s">
         <v>7342</v>
       </c>
-      <c r="F1125" s="11" t="s">
+      <c r="F1126" s="11" t="s">
         <v>7343</v>
       </c>
-      <c r="G1125" s="11" t="s">
+      <c r="G1126" s="11" t="s">
         <v>7344</v>
       </c>
-      <c r="H1125" s="11" t="s">
-        <v>7344</v>
-      </c>
-      <c r="I1125" s="11" t="s">
-        <v>7344</v>
-      </c>
-      <c r="J1125" s="11" t="s">
+      <c r="H1126" s="11" t="s">
         <v>7345</v>
       </c>
-      <c r="K1125" s="11" t="s">
-        <v>7345</v>
-      </c>
-    </row>
-    <row r="1126" spans="2:11">
-      <c r="B1126" s="11" t="s">
+      <c r="I1126" s="11" t="s">
         <v>7346</v>
       </c>
-      <c r="C1126" s="11" t="s">
+      <c r="J1126" s="11" t="s">
         <v>7347</v>
       </c>
-      <c r="D1126" s="37" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E1126" s="11" t="s">
+      <c r="K1126" s="11" t="s">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="1127" s="2" customFormat="1" spans="2:11">
+      <c r="B1127" s="1" t="s">
         <v>7348</v>
       </c>
-      <c r="F1126" s="11" t="s">
+      <c r="C1127" s="1" t="s">
         <v>7349</v>
-      </c>
-      <c r="G1126" s="11" t="s">
-        <v>7350</v>
-      </c>
-      <c r="H1126" s="11" t="s">
-        <v>7350</v>
-      </c>
-      <c r="I1126" s="11" t="s">
-        <v>7350</v>
-      </c>
-      <c r="J1126" s="11" t="s">
-        <v>7351</v>
-      </c>
-      <c r="K1126" s="11" t="s">
-        <v>7351</v>
-      </c>
-    </row>
-    <row r="1127" spans="2:11">
-      <c r="B1127" s="11" t="s">
-        <v>7352</v>
-      </c>
-      <c r="C1127" s="11" t="s">
-        <v>7353</v>
       </c>
       <c r="D1127" s="37" t="s">
         <v>3036</v>
       </c>
-      <c r="E1127" s="11" t="s">
+      <c r="E1127" s="30" t="s">
+        <v>7350</v>
+      </c>
+      <c r="F1127" s="30" t="s">
+        <v>7351</v>
+      </c>
+      <c r="G1127" s="30" t="s">
+        <v>7352</v>
+      </c>
+      <c r="H1127" s="30" t="s">
+        <v>7352</v>
+      </c>
+      <c r="I1127" s="30" t="s">
+        <v>7352</v>
+      </c>
+      <c r="J1127" s="30" t="s">
+        <v>7353</v>
+      </c>
+      <c r="K1127" s="30" t="s">
+        <v>7353</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:11">
+      <c r="B1128" s="1" t="s">
         <v>7354</v>
       </c>
-      <c r="F1127" s="11" t="s">
+      <c r="C1128" s="11" t="s">
         <v>7355</v>
-      </c>
-      <c r="G1127" s="11" t="s">
-        <v>7356</v>
-      </c>
-      <c r="H1127" s="11" t="s">
-        <v>7356</v>
-      </c>
-      <c r="I1127" s="11" t="s">
-        <v>7356</v>
-      </c>
-      <c r="J1127" s="11" t="s">
-        <v>7357</v>
-      </c>
-      <c r="K1127" s="11" t="s">
-        <v>7357</v>
-      </c>
-    </row>
-    <row r="1128" spans="2:11">
-      <c r="B1128" s="11" t="s">
-        <v>7358</v>
-      </c>
-      <c r="C1128" s="11" t="s">
-        <v>7359</v>
       </c>
       <c r="D1128" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1128" s="11" t="s">
+        <v>7356</v>
+      </c>
+      <c r="F1128" s="11" t="s">
+        <v>7357</v>
+      </c>
+      <c r="G1128" s="11" t="s">
+        <v>7358</v>
+      </c>
+      <c r="H1128" s="11" t="s">
+        <v>7358</v>
+      </c>
+      <c r="I1128" s="11" t="s">
+        <v>7358</v>
+      </c>
+      <c r="J1128" s="11" t="s">
+        <v>7359</v>
+      </c>
+      <c r="K1128" s="11" t="s">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:11">
+      <c r="B1129" s="1" t="s">
         <v>7360</v>
       </c>
-      <c r="F1128" s="11" t="s">
+      <c r="C1129" s="11" t="s">
         <v>7361</v>
-      </c>
-      <c r="G1128" s="11" t="s">
-        <v>7362</v>
-      </c>
-      <c r="H1128" s="11" t="s">
-        <v>7362</v>
-      </c>
-      <c r="I1128" s="11" t="s">
-        <v>7362</v>
-      </c>
-      <c r="J1128" s="11" t="s">
-        <v>7363</v>
-      </c>
-      <c r="K1128" s="11" t="s">
-        <v>7363</v>
-      </c>
-    </row>
-    <row r="1129" spans="2:11">
-      <c r="B1129" s="11" t="s">
-        <v>7364</v>
-      </c>
-      <c r="C1129" s="11" t="s">
-        <v>7365</v>
       </c>
       <c r="D1129" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1129" s="11" t="s">
-        <v>7366</v>
+        <v>7362</v>
       </c>
       <c r="F1129" s="11" t="s">
-        <v>7367</v>
+        <v>7363</v>
       </c>
       <c r="G1129" s="11" t="s">
-        <v>7368</v>
+        <v>7364</v>
       </c>
       <c r="H1129" s="11" t="s">
-        <v>7368</v>
+        <v>7364</v>
       </c>
       <c r="I1129" s="11" t="s">
-        <v>7368</v>
+        <v>7364</v>
       </c>
       <c r="J1129" s="11" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
       <c r="K1129" s="11" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="1130" spans="2:11">
       <c r="B1130" s="11" t="s">
-        <v>7370</v>
+        <v>7366</v>
       </c>
       <c r="C1130" s="11" t="s">
-        <v>7371</v>
+        <v>7367</v>
       </c>
       <c r="D1130" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1130" s="11" t="s">
-        <v>7372</v>
+        <v>7368</v>
       </c>
       <c r="F1130" s="11" t="s">
-        <v>7373</v>
+        <v>7369</v>
       </c>
       <c r="G1130" s="11" t="s">
-        <v>7374</v>
+        <v>7370</v>
       </c>
       <c r="H1130" s="11" t="s">
-        <v>7374</v>
+        <v>7370</v>
       </c>
       <c r="I1130" s="11" t="s">
-        <v>7374</v>
+        <v>7370</v>
       </c>
       <c r="J1130" s="11" t="s">
-        <v>7375</v>
+        <v>7371</v>
       </c>
       <c r="K1130" s="11" t="s">
-        <v>7375</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="1131" spans="2:11">
       <c r="B1131" s="11" t="s">
-        <v>7376</v>
+        <v>7372</v>
       </c>
       <c r="C1131" s="11" t="s">
-        <v>7377</v>
+        <v>7373</v>
       </c>
       <c r="D1131" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1131" s="11" t="s">
-        <v>7378</v>
+        <v>7374</v>
       </c>
       <c r="F1131" s="11" t="s">
-        <v>7379</v>
+        <v>7375</v>
       </c>
       <c r="G1131" s="11" t="s">
-        <v>7380</v>
+        <v>7376</v>
       </c>
       <c r="H1131" s="11" t="s">
-        <v>7380</v>
+        <v>7376</v>
       </c>
       <c r="I1131" s="11" t="s">
-        <v>7380</v>
+        <v>7376</v>
       </c>
       <c r="J1131" s="11" t="s">
-        <v>7381</v>
+        <v>7377</v>
       </c>
       <c r="K1131" s="11" t="s">
-        <v>7381</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="1132" spans="2:11">
       <c r="B1132" s="11" t="s">
-        <v>7382</v>
-      </c>
-      <c r="C1132" s="1" t="s">
-        <v>1664</v>
+        <v>7378</v>
+      </c>
+      <c r="C1132" s="11" t="s">
+        <v>7379</v>
       </c>
       <c r="D1132" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1132" s="11" t="s">
+        <v>7380</v>
+      </c>
+      <c r="F1132" s="11" t="s">
+        <v>7381</v>
+      </c>
+      <c r="G1132" s="11" t="s">
+        <v>7382</v>
+      </c>
+      <c r="H1132" s="11" t="s">
+        <v>7382</v>
+      </c>
+      <c r="I1132" s="11" t="s">
+        <v>7382</v>
+      </c>
+      <c r="J1132" s="11" t="s">
         <v>7383</v>
       </c>
-      <c r="F1132" s="11" t="s">
-        <v>7384</v>
-      </c>
-      <c r="G1132" s="11" t="s">
-        <v>7385</v>
-      </c>
-      <c r="H1132" s="11" t="s">
-        <v>7385</v>
-      </c>
-      <c r="I1132" s="11" t="s">
-        <v>7385</v>
-      </c>
-      <c r="J1132" s="11" t="s">
-        <v>7386</v>
-      </c>
       <c r="K1132" s="11" t="s">
-        <v>7386</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="1133" spans="2:11">
       <c r="B1133" s="11" t="s">
-        <v>7387</v>
-      </c>
-      <c r="C1133" s="1" t="s">
-        <v>1672</v>
+        <v>7384</v>
+      </c>
+      <c r="C1133" s="11" t="s">
+        <v>7385</v>
       </c>
       <c r="D1133" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1133" s="11" t="s">
+        <v>7386</v>
+      </c>
+      <c r="F1133" s="11" t="s">
+        <v>7387</v>
+      </c>
+      <c r="G1133" s="11" t="s">
         <v>7388</v>
       </c>
-      <c r="F1133" s="11" t="s">
+      <c r="H1133" s="11" t="s">
+        <v>7388</v>
+      </c>
+      <c r="I1133" s="11" t="s">
+        <v>7388</v>
+      </c>
+      <c r="J1133" s="11" t="s">
         <v>7389</v>
       </c>
-      <c r="G1133" s="11" t="s">
-        <v>7390</v>
-      </c>
-      <c r="H1133" s="11" t="s">
-        <v>7390</v>
-      </c>
-      <c r="I1133" s="11" t="s">
-        <v>7390</v>
-      </c>
-      <c r="J1133" s="11" t="s">
-        <v>7391</v>
-      </c>
       <c r="K1133" s="11" t="s">
-        <v>7391</v>
+        <v>7389</v>
       </c>
     </row>
     <row r="1134" spans="2:11">
       <c r="B1134" s="11" t="s">
-        <v>7392</v>
-      </c>
-      <c r="C1134" s="1" t="s">
-        <v>1680</v>
+        <v>7390</v>
+      </c>
+      <c r="C1134" s="11" t="s">
+        <v>7391</v>
       </c>
       <c r="D1134" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1134" s="11" t="s">
+        <v>7392</v>
+      </c>
+      <c r="F1134" s="11" t="s">
         <v>7393</v>
       </c>
-      <c r="F1134" s="11" t="s">
+      <c r="G1134" s="11" t="s">
         <v>7394</v>
       </c>
-      <c r="G1134" s="11" t="s">
+      <c r="H1134" s="11" t="s">
+        <v>7394</v>
+      </c>
+      <c r="I1134" s="11" t="s">
+        <v>7394</v>
+      </c>
+      <c r="J1134" s="11" t="s">
         <v>7395</v>
       </c>
-      <c r="H1134" s="11" t="s">
+      <c r="K1134" s="11" t="s">
         <v>7395</v>
-      </c>
-      <c r="I1134" s="11" t="s">
-        <v>7395</v>
-      </c>
-      <c r="J1134" s="11" t="s">
-        <v>7396</v>
-      </c>
-      <c r="K1134" s="11" t="s">
-        <v>7396</v>
       </c>
     </row>
     <row r="1135" spans="2:11">
       <c r="B1135" s="11" t="s">
+        <v>7396</v>
+      </c>
+      <c r="C1135" s="11" t="s">
         <v>7397</v>
-      </c>
-      <c r="C1135" s="1" t="s">
-        <v>1688</v>
       </c>
       <c r="D1135" s="37" t="s">
         <v>3036</v>
@@ -55830,7 +55866,7 @@
         <v>7402</v>
       </c>
       <c r="C1136" s="1" t="s">
-        <v>1695</v>
+        <v>1664</v>
       </c>
       <c r="D1136" s="37" t="s">
         <v>3036</v>
@@ -55862,7 +55898,7 @@
         <v>7407</v>
       </c>
       <c r="C1137" s="1" t="s">
-        <v>1700</v>
+        <v>1672</v>
       </c>
       <c r="D1137" s="37" t="s">
         <v>3036</v>
@@ -55894,7 +55930,7 @@
         <v>7412</v>
       </c>
       <c r="C1138" s="1" t="s">
-        <v>1708</v>
+        <v>1680</v>
       </c>
       <c r="D1138" s="37" t="s">
         <v>3036</v>
@@ -55926,7 +55962,7 @@
         <v>7417</v>
       </c>
       <c r="C1139" s="1" t="s">
-        <v>1714</v>
+        <v>1688</v>
       </c>
       <c r="D1139" s="37" t="s">
         <v>3036</v>
@@ -55958,7 +55994,7 @@
         <v>7422</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>1722</v>
+        <v>1695</v>
       </c>
       <c r="D1140" s="37" t="s">
         <v>3036</v>
@@ -55990,7 +56026,7 @@
         <v>7427</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>1729</v>
+        <v>1700</v>
       </c>
       <c r="D1141" s="37" t="s">
         <v>3036</v>
@@ -56022,7 +56058,7 @@
         <v>7432</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>1737</v>
+        <v>1708</v>
       </c>
       <c r="D1142" s="37" t="s">
         <v>3036</v>
@@ -56054,7 +56090,7 @@
         <v>7437</v>
       </c>
       <c r="C1143" s="1" t="s">
-        <v>1751</v>
+        <v>1714</v>
       </c>
       <c r="D1143" s="37" t="s">
         <v>3036</v>
@@ -56086,7 +56122,7 @@
         <v>7442</v>
       </c>
       <c r="C1144" s="1" t="s">
-        <v>1754</v>
+        <v>1722</v>
       </c>
       <c r="D1144" s="37" t="s">
         <v>3036</v>
@@ -56118,7 +56154,7 @@
         <v>7447</v>
       </c>
       <c r="C1145" s="1" t="s">
-        <v>1762</v>
+        <v>1729</v>
       </c>
       <c r="D1145" s="37" t="s">
         <v>3036</v>
@@ -56150,7 +56186,7 @@
         <v>7452</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>1770</v>
+        <v>1737</v>
       </c>
       <c r="D1146" s="37" t="s">
         <v>3036</v>
@@ -56182,7 +56218,7 @@
         <v>7457</v>
       </c>
       <c r="C1147" s="1" t="s">
-        <v>1778</v>
+        <v>1751</v>
       </c>
       <c r="D1147" s="37" t="s">
         <v>3036</v>
@@ -56214,7 +56250,7 @@
         <v>7462</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>1786</v>
+        <v>1754</v>
       </c>
       <c r="D1148" s="37" t="s">
         <v>3036</v>
@@ -56246,7 +56282,7 @@
         <v>7467</v>
       </c>
       <c r="C1149" s="1" t="s">
-        <v>1793</v>
+        <v>1762</v>
       </c>
       <c r="D1149" s="37" t="s">
         <v>3036</v>
@@ -56278,7 +56314,7 @@
         <v>7472</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="D1150" s="37" t="s">
         <v>3036</v>
@@ -56310,7 +56346,7 @@
         <v>7477</v>
       </c>
       <c r="C1151" s="1" t="s">
-        <v>1845</v>
+        <v>1778</v>
       </c>
       <c r="D1151" s="37" t="s">
         <v>3036</v>
@@ -56341,992 +56377,1120 @@
       <c r="B1152" s="11" t="s">
         <v>7482</v>
       </c>
-      <c r="C1152" s="11" t="s">
-        <v>7483</v>
+      <c r="C1152" s="1" t="s">
+        <v>1786</v>
       </c>
       <c r="D1152" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1152" s="11" t="s">
+        <v>7483</v>
+      </c>
+      <c r="F1152" s="11" t="s">
         <v>7484</v>
       </c>
-      <c r="F1152" s="11" t="s">
+      <c r="G1152" s="11" t="s">
         <v>7485</v>
       </c>
-      <c r="G1152" s="11" t="s">
+      <c r="H1152" s="11" t="s">
+        <v>7485</v>
+      </c>
+      <c r="I1152" s="11" t="s">
+        <v>7485</v>
+      </c>
+      <c r="J1152" s="11" t="s">
         <v>7486</v>
       </c>
-      <c r="H1152" s="11" t="s">
+      <c r="K1152" s="11" t="s">
         <v>7486</v>
-      </c>
-      <c r="I1152" s="11" t="s">
-        <v>7486</v>
-      </c>
-      <c r="J1152" s="11" t="s">
-        <v>7487</v>
-      </c>
-      <c r="K1152" s="11" t="s">
-        <v>7487</v>
       </c>
     </row>
     <row r="1153" spans="2:11">
       <c r="B1153" s="11" t="s">
-        <v>7488</v>
-      </c>
-      <c r="C1153" s="11" t="s">
-        <v>7489</v>
+        <v>7487</v>
+      </c>
+      <c r="C1153" s="1" t="s">
+        <v>1793</v>
       </c>
       <c r="D1153" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1153" s="11" t="s">
+        <v>7488</v>
+      </c>
+      <c r="F1153" s="11" t="s">
+        <v>7489</v>
+      </c>
+      <c r="G1153" s="11" t="s">
         <v>7490</v>
       </c>
-      <c r="F1153" s="11" t="s">
+      <c r="H1153" s="11" t="s">
+        <v>7490</v>
+      </c>
+      <c r="I1153" s="11" t="s">
+        <v>7490</v>
+      </c>
+      <c r="J1153" s="11" t="s">
         <v>7491</v>
       </c>
-      <c r="G1153" s="11" t="s">
-        <v>7492</v>
-      </c>
-      <c r="H1153" s="11" t="s">
-        <v>7492</v>
-      </c>
-      <c r="I1153" s="11" t="s">
-        <v>7492</v>
-      </c>
-      <c r="J1153" s="11" t="s">
-        <v>7493</v>
-      </c>
       <c r="K1153" s="11" t="s">
-        <v>7493</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="1154" spans="2:11">
       <c r="B1154" s="11" t="s">
-        <v>7494</v>
-      </c>
-      <c r="C1154" s="11" t="s">
-        <v>7495</v>
+        <v>7492</v>
+      </c>
+      <c r="C1154" s="1" t="s">
+        <v>1800</v>
       </c>
       <c r="D1154" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1154" s="11" t="s">
+        <v>7493</v>
+      </c>
+      <c r="F1154" s="11" t="s">
+        <v>7494</v>
+      </c>
+      <c r="G1154" s="11" t="s">
+        <v>7495</v>
+      </c>
+      <c r="H1154" s="11" t="s">
+        <v>7495</v>
+      </c>
+      <c r="I1154" s="11" t="s">
+        <v>7495</v>
+      </c>
+      <c r="J1154" s="11" t="s">
         <v>7496</v>
       </c>
-      <c r="F1154" s="11" t="s">
-        <v>7497</v>
-      </c>
-      <c r="G1154" s="11" t="s">
-        <v>7498</v>
-      </c>
-      <c r="H1154" s="11" t="s">
-        <v>7498</v>
-      </c>
-      <c r="I1154" s="11" t="s">
-        <v>7498</v>
-      </c>
-      <c r="J1154" s="11" t="s">
-        <v>7499</v>
-      </c>
       <c r="K1154" s="11" t="s">
-        <v>7499</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="1155" spans="2:11">
       <c r="B1155" s="11" t="s">
-        <v>7500</v>
-      </c>
-      <c r="C1155" s="11" t="s">
-        <v>7501</v>
+        <v>7497</v>
+      </c>
+      <c r="C1155" s="1" t="s">
+        <v>1845</v>
       </c>
       <c r="D1155" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1155" s="11" t="s">
-        <v>7502</v>
+        <v>7498</v>
       </c>
       <c r="F1155" s="11" t="s">
-        <v>7503</v>
+        <v>7499</v>
       </c>
       <c r="G1155" s="11" t="s">
-        <v>7504</v>
+        <v>7500</v>
       </c>
       <c r="H1155" s="11" t="s">
-        <v>7504</v>
+        <v>7500</v>
       </c>
       <c r="I1155" s="11" t="s">
-        <v>7504</v>
+        <v>7500</v>
       </c>
       <c r="J1155" s="11" t="s">
-        <v>7505</v>
+        <v>7501</v>
       </c>
       <c r="K1155" s="11" t="s">
-        <v>7505</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="1156" spans="2:11">
       <c r="B1156" s="11" t="s">
-        <v>7506</v>
-      </c>
-      <c r="C1156" s="34" t="s">
-        <v>7507</v>
+        <v>7502</v>
+      </c>
+      <c r="C1156" s="11" t="s">
+        <v>7503</v>
       </c>
       <c r="D1156" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1156" s="11" t="s">
-        <v>7508</v>
+        <v>7504</v>
       </c>
       <c r="F1156" s="11" t="s">
-        <v>7509</v>
+        <v>7505</v>
       </c>
       <c r="G1156" s="11" t="s">
-        <v>7510</v>
+        <v>7506</v>
       </c>
       <c r="H1156" s="11" t="s">
-        <v>7510</v>
+        <v>7506</v>
       </c>
       <c r="I1156" s="11" t="s">
-        <v>7510</v>
+        <v>7506</v>
       </c>
       <c r="J1156" s="11" t="s">
-        <v>7511</v>
+        <v>7507</v>
       </c>
       <c r="K1156" s="11" t="s">
-        <v>7511</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="1157" spans="2:11">
       <c r="B1157" s="11" t="s">
-        <v>7512</v>
-      </c>
-      <c r="C1157" s="34" t="s">
-        <v>7513</v>
+        <v>7508</v>
+      </c>
+      <c r="C1157" s="11" t="s">
+        <v>7509</v>
       </c>
       <c r="D1157" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1157" s="11" t="s">
-        <v>7514</v>
+        <v>7510</v>
       </c>
       <c r="F1157" s="11" t="s">
-        <v>7515</v>
+        <v>7511</v>
       </c>
       <c r="G1157" s="11" t="s">
-        <v>7516</v>
+        <v>7512</v>
       </c>
       <c r="H1157" s="11" t="s">
-        <v>7516</v>
+        <v>7512</v>
       </c>
       <c r="I1157" s="11" t="s">
-        <v>7516</v>
+        <v>7512</v>
       </c>
       <c r="J1157" s="11" t="s">
-        <v>7517</v>
+        <v>7513</v>
       </c>
       <c r="K1157" s="11" t="s">
-        <v>7517</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="1158" spans="2:11">
       <c r="B1158" s="11" t="s">
-        <v>7518</v>
-      </c>
-      <c r="C1158" s="34" t="s">
-        <v>7519</v>
+        <v>7514</v>
+      </c>
+      <c r="C1158" s="11" t="s">
+        <v>7515</v>
       </c>
       <c r="D1158" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1158" s="11" t="s">
-        <v>7520</v>
+        <v>7516</v>
       </c>
       <c r="F1158" s="11" t="s">
-        <v>7521</v>
+        <v>7517</v>
       </c>
       <c r="G1158" s="11" t="s">
-        <v>7522</v>
+        <v>7518</v>
       </c>
       <c r="H1158" s="11" t="s">
-        <v>7522</v>
+        <v>7518</v>
       </c>
       <c r="I1158" s="11" t="s">
-        <v>7522</v>
+        <v>7518</v>
       </c>
       <c r="J1158" s="11" t="s">
-        <v>7523</v>
+        <v>7519</v>
       </c>
       <c r="K1158" s="11" t="s">
-        <v>7523</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="1159" spans="2:11">
       <c r="B1159" s="11" t="s">
-        <v>7524</v>
-      </c>
-      <c r="C1159" s="34" t="s">
-        <v>7525</v>
+        <v>7520</v>
+      </c>
+      <c r="C1159" s="11" t="s">
+        <v>7521</v>
       </c>
       <c r="D1159" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1159" s="11" t="s">
-        <v>7526</v>
+        <v>7522</v>
       </c>
       <c r="F1159" s="11" t="s">
-        <v>7527</v>
+        <v>7523</v>
       </c>
       <c r="G1159" s="11" t="s">
-        <v>7528</v>
+        <v>7524</v>
       </c>
       <c r="H1159" s="11" t="s">
-        <v>7528</v>
+        <v>7524</v>
       </c>
       <c r="I1159" s="11" t="s">
-        <v>7528</v>
+        <v>7524</v>
       </c>
       <c r="J1159" s="11" t="s">
-        <v>7529</v>
+        <v>7525</v>
       </c>
       <c r="K1159" s="11" t="s">
-        <v>7529</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="1160" spans="2:11">
       <c r="B1160" s="11" t="s">
-        <v>7530</v>
-      </c>
-      <c r="C1160" s="11" t="s">
-        <v>7531</v>
+        <v>7526</v>
+      </c>
+      <c r="C1160" s="34" t="s">
+        <v>7527</v>
       </c>
       <c r="D1160" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1160" s="11" t="s">
-        <v>7532</v>
+        <v>7528</v>
       </c>
       <c r="F1160" s="11" t="s">
-        <v>7533</v>
+        <v>7529</v>
       </c>
       <c r="G1160" s="11" t="s">
-        <v>7534</v>
+        <v>7530</v>
       </c>
       <c r="H1160" s="11" t="s">
-        <v>7534</v>
+        <v>7530</v>
       </c>
       <c r="I1160" s="11" t="s">
-        <v>7534</v>
+        <v>7530</v>
       </c>
       <c r="J1160" s="11" t="s">
-        <v>7535</v>
+        <v>7531</v>
       </c>
       <c r="K1160" s="11" t="s">
-        <v>7535</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="1161" spans="2:11">
       <c r="B1161" s="11" t="s">
-        <v>7536</v>
-      </c>
-      <c r="C1161" s="11" t="s">
-        <v>7537</v>
+        <v>7532</v>
+      </c>
+      <c r="C1161" s="34" t="s">
+        <v>7533</v>
       </c>
       <c r="D1161" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1161" s="11" t="s">
-        <v>7538</v>
+        <v>7534</v>
       </c>
       <c r="F1161" s="11" t="s">
-        <v>7539</v>
+        <v>7535</v>
       </c>
       <c r="G1161" s="11" t="s">
-        <v>7540</v>
+        <v>7536</v>
       </c>
       <c r="H1161" s="11" t="s">
-        <v>7540</v>
+        <v>7536</v>
       </c>
       <c r="I1161" s="11" t="s">
-        <v>7540</v>
+        <v>7536</v>
       </c>
       <c r="J1161" s="11" t="s">
-        <v>7541</v>
+        <v>7537</v>
       </c>
       <c r="K1161" s="11" t="s">
-        <v>7541</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="1162" spans="2:11">
       <c r="B1162" s="11" t="s">
-        <v>7542</v>
-      </c>
-      <c r="C1162" s="11" t="s">
-        <v>7543</v>
+        <v>7538</v>
+      </c>
+      <c r="C1162" s="34" t="s">
+        <v>7539</v>
       </c>
       <c r="D1162" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1162" s="11" t="s">
-        <v>7544</v>
+        <v>7540</v>
       </c>
       <c r="F1162" s="11" t="s">
-        <v>7545</v>
+        <v>7541</v>
       </c>
       <c r="G1162" s="11" t="s">
-        <v>7546</v>
+        <v>7542</v>
       </c>
       <c r="H1162" s="11" t="s">
-        <v>7546</v>
+        <v>7542</v>
       </c>
       <c r="I1162" s="11" t="s">
-        <v>7546</v>
+        <v>7542</v>
       </c>
       <c r="J1162" s="11" t="s">
-        <v>7547</v>
+        <v>7543</v>
       </c>
       <c r="K1162" s="11" t="s">
-        <v>7547</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="1163" spans="2:11">
       <c r="B1163" s="11" t="s">
-        <v>7548</v>
-      </c>
-      <c r="C1163" s="11" t="s">
-        <v>7549</v>
+        <v>7544</v>
+      </c>
+      <c r="C1163" s="34" t="s">
+        <v>7545</v>
       </c>
       <c r="D1163" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1163" s="11" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
       <c r="F1163" s="11" t="s">
-        <v>7551</v>
+        <v>7547</v>
       </c>
       <c r="G1163" s="11" t="s">
-        <v>7552</v>
+        <v>7548</v>
       </c>
       <c r="H1163" s="11" t="s">
-        <v>7552</v>
+        <v>7548</v>
       </c>
       <c r="I1163" s="11" t="s">
-        <v>7552</v>
+        <v>7548</v>
       </c>
       <c r="J1163" s="11" t="s">
-        <v>7553</v>
+        <v>7549</v>
       </c>
       <c r="K1163" s="11" t="s">
-        <v>7553</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="1164" spans="2:11">
       <c r="B1164" s="11" t="s">
-        <v>7554</v>
+        <v>7550</v>
       </c>
       <c r="C1164" s="11" t="s">
-        <v>7555</v>
+        <v>7551</v>
       </c>
       <c r="D1164" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1164" s="11" t="s">
-        <v>7556</v>
+        <v>7552</v>
       </c>
       <c r="F1164" s="11" t="s">
-        <v>7557</v>
+        <v>7553</v>
       </c>
       <c r="G1164" s="11" t="s">
-        <v>7558</v>
+        <v>7554</v>
       </c>
       <c r="H1164" s="11" t="s">
-        <v>7558</v>
+        <v>7554</v>
       </c>
       <c r="I1164" s="11" t="s">
-        <v>7558</v>
+        <v>7554</v>
       </c>
       <c r="J1164" s="11" t="s">
-        <v>7559</v>
+        <v>7555</v>
       </c>
       <c r="K1164" s="11" t="s">
-        <v>7559</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="1165" spans="2:11">
       <c r="B1165" s="11" t="s">
-        <v>7560</v>
+        <v>7556</v>
       </c>
       <c r="C1165" s="11" t="s">
-        <v>7561</v>
+        <v>7557</v>
       </c>
       <c r="D1165" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1165" s="11" t="s">
-        <v>7562</v>
+        <v>7558</v>
       </c>
       <c r="F1165" s="11" t="s">
-        <v>7563</v>
+        <v>7559</v>
       </c>
       <c r="G1165" s="11" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="H1165" s="11" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="I1165" s="11" t="s">
-        <v>7564</v>
+        <v>7560</v>
       </c>
       <c r="J1165" s="11" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
       <c r="K1165" s="11" t="s">
-        <v>7565</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="1166" spans="2:11">
       <c r="B1166" s="11" t="s">
-        <v>7566</v>
+        <v>7562</v>
       </c>
       <c r="C1166" s="11" t="s">
-        <v>7567</v>
+        <v>7563</v>
       </c>
       <c r="D1166" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1166" s="11" t="s">
-        <v>7568</v>
+        <v>7564</v>
       </c>
       <c r="F1166" s="11" t="s">
-        <v>7569</v>
+        <v>7565</v>
       </c>
       <c r="G1166" s="11" t="s">
-        <v>7570</v>
+        <v>7566</v>
       </c>
       <c r="H1166" s="11" t="s">
-        <v>7570</v>
+        <v>7566</v>
       </c>
       <c r="I1166" s="11" t="s">
-        <v>7570</v>
+        <v>7566</v>
       </c>
       <c r="J1166" s="11" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
       <c r="K1166" s="11" t="s">
-        <v>7571</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="1167" spans="2:11">
       <c r="B1167" s="11" t="s">
-        <v>7572</v>
+        <v>7568</v>
       </c>
       <c r="C1167" s="11" t="s">
-        <v>7573</v>
+        <v>7569</v>
       </c>
       <c r="D1167" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1167" s="11" t="s">
-        <v>7574</v>
+        <v>7570</v>
       </c>
       <c r="F1167" s="11" t="s">
-        <v>7575</v>
+        <v>7571</v>
       </c>
       <c r="G1167" s="11" t="s">
-        <v>7576</v>
+        <v>7572</v>
       </c>
       <c r="H1167" s="11" t="s">
-        <v>7576</v>
+        <v>7572</v>
       </c>
       <c r="I1167" s="11" t="s">
-        <v>7576</v>
+        <v>7572</v>
       </c>
       <c r="J1167" s="11" t="s">
-        <v>7577</v>
+        <v>7573</v>
       </c>
       <c r="K1167" s="11" t="s">
-        <v>7577</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="1168" spans="2:11">
       <c r="B1168" s="11" t="s">
-        <v>7578</v>
+        <v>7574</v>
       </c>
       <c r="C1168" s="11" t="s">
-        <v>7579</v>
+        <v>7575</v>
       </c>
       <c r="D1168" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1168" s="11" t="s">
-        <v>7580</v>
+        <v>7576</v>
       </c>
       <c r="F1168" s="11" t="s">
-        <v>7581</v>
+        <v>7577</v>
       </c>
       <c r="G1168" s="11" t="s">
-        <v>7582</v>
+        <v>7578</v>
       </c>
       <c r="H1168" s="11" t="s">
-        <v>7582</v>
+        <v>7578</v>
       </c>
       <c r="I1168" s="11" t="s">
-        <v>7582</v>
+        <v>7578</v>
       </c>
       <c r="J1168" s="11" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="K1168" s="11" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="1169" spans="2:11">
       <c r="B1169" s="11" t="s">
-        <v>7584</v>
+        <v>7580</v>
       </c>
       <c r="C1169" s="11" t="s">
-        <v>7585</v>
+        <v>7581</v>
       </c>
       <c r="D1169" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1169" s="11" t="s">
-        <v>7586</v>
+        <v>7582</v>
       </c>
       <c r="F1169" s="11" t="s">
-        <v>7587</v>
+        <v>7583</v>
       </c>
       <c r="G1169" s="11" t="s">
-        <v>7588</v>
+        <v>7584</v>
       </c>
       <c r="H1169" s="11" t="s">
-        <v>7588</v>
+        <v>7584</v>
       </c>
       <c r="I1169" s="11" t="s">
-        <v>7588</v>
+        <v>7584</v>
       </c>
       <c r="J1169" s="11" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
       <c r="K1169" s="11" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="1170" spans="2:11">
       <c r="B1170" s="11" t="s">
-        <v>7590</v>
+        <v>7586</v>
       </c>
       <c r="C1170" s="11" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="D1170" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1170" s="11" t="s">
-        <v>7592</v>
+        <v>7588</v>
       </c>
       <c r="F1170" s="11" t="s">
-        <v>7593</v>
+        <v>7589</v>
       </c>
       <c r="G1170" s="11" t="s">
-        <v>7594</v>
+        <v>7590</v>
       </c>
       <c r="H1170" s="11" t="s">
-        <v>7594</v>
+        <v>7590</v>
       </c>
       <c r="I1170" s="11" t="s">
-        <v>7594</v>
+        <v>7590</v>
       </c>
       <c r="J1170" s="11" t="s">
-        <v>7595</v>
+        <v>7591</v>
       </c>
       <c r="K1170" s="11" t="s">
-        <v>7595</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="1171" spans="2:11">
       <c r="B1171" s="11" t="s">
-        <v>7596</v>
+        <v>7592</v>
       </c>
       <c r="C1171" s="11" t="s">
-        <v>7597</v>
+        <v>7593</v>
       </c>
       <c r="D1171" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1171" s="11" t="s">
-        <v>7598</v>
+        <v>7594</v>
       </c>
       <c r="F1171" s="11" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="G1171" s="11" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
       <c r="H1171" s="11" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
       <c r="I1171" s="11" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
       <c r="J1171" s="11" t="s">
-        <v>7601</v>
+        <v>7597</v>
       </c>
       <c r="K1171" s="11" t="s">
-        <v>7601</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="1172" spans="2:11">
       <c r="B1172" s="11" t="s">
-        <v>7602</v>
+        <v>7598</v>
       </c>
       <c r="C1172" s="11" t="s">
-        <v>7603</v>
+        <v>7599</v>
       </c>
       <c r="D1172" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1172" s="11" t="s">
-        <v>7604</v>
+        <v>7600</v>
       </c>
       <c r="F1172" s="11" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="G1172" s="11" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
       <c r="H1172" s="11" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
       <c r="I1172" s="11" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
       <c r="J1172" s="11" t="s">
-        <v>7607</v>
+        <v>7603</v>
       </c>
       <c r="K1172" s="11" t="s">
-        <v>7607</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="1173" spans="2:11">
       <c r="B1173" s="11" t="s">
-        <v>7608</v>
+        <v>7604</v>
       </c>
       <c r="C1173" s="11" t="s">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="D1173" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1173" s="11" t="s">
-        <v>7610</v>
+        <v>7606</v>
       </c>
       <c r="F1173" s="11" t="s">
-        <v>7611</v>
+        <v>7607</v>
       </c>
       <c r="G1173" s="11" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
       <c r="H1173" s="11" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
       <c r="I1173" s="11" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
       <c r="J1173" s="11" t="s">
-        <v>7613</v>
+        <v>7609</v>
       </c>
       <c r="K1173" s="11" t="s">
-        <v>7613</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="1174" spans="2:11">
       <c r="B1174" s="11" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="C1174" s="11" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="D1174" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1174" s="11" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
       <c r="F1174" s="11" t="s">
-        <v>7617</v>
+        <v>7613</v>
       </c>
       <c r="G1174" s="11" t="s">
-        <v>7618</v>
+        <v>7614</v>
       </c>
       <c r="H1174" s="11" t="s">
-        <v>7618</v>
+        <v>7614</v>
       </c>
       <c r="I1174" s="11" t="s">
-        <v>7618</v>
+        <v>7614</v>
       </c>
       <c r="J1174" s="11" t="s">
-        <v>7619</v>
+        <v>7615</v>
       </c>
       <c r="K1174" s="11" t="s">
-        <v>7619</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="1175" spans="2:11">
       <c r="B1175" s="11" t="s">
-        <v>7620</v>
+        <v>7616</v>
       </c>
       <c r="C1175" s="11" t="s">
-        <v>7621</v>
+        <v>7617</v>
       </c>
       <c r="D1175" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1175" s="11" t="s">
-        <v>7622</v>
+        <v>7618</v>
       </c>
       <c r="F1175" s="11" t="s">
-        <v>7623</v>
+        <v>7619</v>
       </c>
       <c r="G1175" s="11" t="s">
-        <v>7624</v>
+        <v>7620</v>
       </c>
       <c r="H1175" s="11" t="s">
-        <v>7624</v>
+        <v>7620</v>
       </c>
       <c r="I1175" s="11" t="s">
-        <v>7624</v>
+        <v>7620</v>
       </c>
       <c r="J1175" s="11" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
       <c r="K1175" s="11" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="1176" spans="2:11">
       <c r="B1176" s="11" t="s">
-        <v>7626</v>
+        <v>7622</v>
       </c>
       <c r="C1176" s="11" t="s">
-        <v>7627</v>
+        <v>7623</v>
       </c>
       <c r="D1176" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1176" s="11" t="s">
-        <v>7628</v>
+        <v>7624</v>
       </c>
       <c r="F1176" s="11" t="s">
-        <v>7629</v>
+        <v>7625</v>
       </c>
       <c r="G1176" s="11" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="H1176" s="11" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="I1176" s="11" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="J1176" s="11" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
       <c r="K1176" s="11" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="1177" spans="2:11">
       <c r="B1177" s="11" t="s">
-        <v>7632</v>
+        <v>7628</v>
       </c>
       <c r="C1177" s="11" t="s">
-        <v>7633</v>
+        <v>7629</v>
       </c>
       <c r="D1177" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1177" s="11" t="s">
-        <v>7634</v>
+        <v>7630</v>
       </c>
       <c r="F1177" s="11" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="G1177" s="11" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="H1177" s="11" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="I1177" s="11" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="J1177" s="11" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
       <c r="K1177" s="11" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="1178" spans="2:11">
       <c r="B1178" s="11" t="s">
-        <v>7638</v>
+        <v>7634</v>
       </c>
       <c r="C1178" s="11" t="s">
-        <v>7639</v>
+        <v>7635</v>
       </c>
       <c r="D1178" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1178" s="11" t="s">
-        <v>7640</v>
+        <v>7636</v>
       </c>
       <c r="F1178" s="11" t="s">
-        <v>7641</v>
+        <v>7637</v>
       </c>
       <c r="G1178" s="11" t="s">
-        <v>7642</v>
+        <v>7638</v>
       </c>
       <c r="H1178" s="11" t="s">
-        <v>7642</v>
+        <v>7638</v>
       </c>
       <c r="I1178" s="11" t="s">
-        <v>7642</v>
+        <v>7638</v>
       </c>
       <c r="J1178" s="11" t="s">
-        <v>7643</v>
+        <v>7639</v>
       </c>
       <c r="K1178" s="11" t="s">
-        <v>7643</v>
+        <v>7639</v>
       </c>
     </row>
     <row r="1179" spans="2:11">
       <c r="B1179" s="11" t="s">
-        <v>7644</v>
+        <v>7640</v>
       </c>
       <c r="C1179" s="11" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="D1179" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1179" s="11" t="s">
-        <v>7646</v>
+        <v>7642</v>
       </c>
       <c r="F1179" s="11" t="s">
-        <v>7647</v>
+        <v>7643</v>
       </c>
       <c r="G1179" s="11" t="s">
-        <v>7648</v>
+        <v>7644</v>
       </c>
       <c r="H1179" s="11" t="s">
-        <v>7648</v>
+        <v>7644</v>
       </c>
       <c r="I1179" s="11" t="s">
-        <v>7648</v>
+        <v>7644</v>
       </c>
       <c r="J1179" s="11" t="s">
-        <v>7649</v>
+        <v>7645</v>
       </c>
       <c r="K1179" s="11" t="s">
-        <v>7649</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="1180" spans="2:11">
       <c r="B1180" s="11" t="s">
-        <v>7650</v>
+        <v>7646</v>
       </c>
       <c r="C1180" s="11" t="s">
-        <v>7651</v>
+        <v>7647</v>
       </c>
       <c r="D1180" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1180" s="11" t="s">
-        <v>7652</v>
+        <v>7648</v>
       </c>
       <c r="F1180" s="11" t="s">
-        <v>7653</v>
+        <v>7649</v>
       </c>
       <c r="G1180" s="11" t="s">
-        <v>7654</v>
+        <v>7650</v>
       </c>
       <c r="H1180" s="11" t="s">
-        <v>7654</v>
+        <v>7650</v>
       </c>
       <c r="I1180" s="11" t="s">
-        <v>7654</v>
+        <v>7650</v>
       </c>
       <c r="J1180" s="11" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
       <c r="K1180" s="11" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="1181" spans="2:11">
       <c r="B1181" s="11" t="s">
-        <v>7656</v>
+        <v>7652</v>
       </c>
       <c r="C1181" s="11" t="s">
-        <v>7657</v>
+        <v>7653</v>
       </c>
       <c r="D1181" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1181" s="11" t="s">
-        <v>7658</v>
+        <v>7654</v>
       </c>
       <c r="F1181" s="11" t="s">
-        <v>7659</v>
+        <v>7655</v>
       </c>
       <c r="G1181" s="11" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
       <c r="H1181" s="11" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
       <c r="I1181" s="11" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
       <c r="J1181" s="11" t="s">
-        <v>7661</v>
+        <v>7657</v>
       </c>
       <c r="K1181" s="11" t="s">
-        <v>7661</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="1182" spans="2:11">
       <c r="B1182" s="11" t="s">
-        <v>7662</v>
+        <v>7658</v>
       </c>
       <c r="C1182" s="11" t="s">
-        <v>7663</v>
+        <v>7659</v>
       </c>
       <c r="D1182" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1182" s="11" t="s">
+        <v>7660</v>
+      </c>
+      <c r="F1182" s="11" t="s">
+        <v>7661</v>
+      </c>
+      <c r="G1182" s="11" t="s">
+        <v>7662</v>
+      </c>
+      <c r="H1182" s="11" t="s">
+        <v>7662</v>
+      </c>
+      <c r="I1182" s="11" t="s">
+        <v>7662</v>
+      </c>
+      <c r="J1182" s="11" t="s">
+        <v>7663</v>
+      </c>
+      <c r="K1182" s="11" t="s">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:11">
+      <c r="B1183" s="11" t="s">
         <v>7664</v>
       </c>
-      <c r="F1182" s="11" t="s">
+      <c r="C1183" s="11" t="s">
         <v>7665</v>
       </c>
-      <c r="G1182" s="11" t="s">
+      <c r="D1183" s="37" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E1183" s="11" t="s">
         <v>7666</v>
       </c>
-      <c r="H1182" s="11" t="s">
-        <v>7666</v>
-      </c>
-      <c r="I1182" s="11" t="s">
-        <v>7666</v>
-      </c>
-      <c r="J1182" s="11" t="s">
+      <c r="F1183" s="11" t="s">
         <v>7667</v>
       </c>
-      <c r="K1182" s="11" t="s">
-        <v>7667</v>
+      <c r="G1183" s="11" t="s">
+        <v>7668</v>
+      </c>
+      <c r="H1183" s="11" t="s">
+        <v>7668</v>
+      </c>
+      <c r="I1183" s="11" t="s">
+        <v>7668</v>
+      </c>
+      <c r="J1183" s="11" t="s">
+        <v>7669</v>
+      </c>
+      <c r="K1183" s="11" t="s">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:11">
+      <c r="B1184" s="11" t="s">
+        <v>7670</v>
+      </c>
+      <c r="C1184" s="11" t="s">
+        <v>7671</v>
+      </c>
+      <c r="D1184" s="37" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E1184" s="11" t="s">
+        <v>7672</v>
+      </c>
+      <c r="F1184" s="11" t="s">
+        <v>7673</v>
+      </c>
+      <c r="G1184" s="11" t="s">
+        <v>7674</v>
+      </c>
+      <c r="H1184" s="11" t="s">
+        <v>7674</v>
+      </c>
+      <c r="I1184" s="11" t="s">
+        <v>7674</v>
+      </c>
+      <c r="J1184" s="11" t="s">
+        <v>7675</v>
+      </c>
+      <c r="K1184" s="11" t="s">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:11">
+      <c r="B1185" s="11" t="s">
+        <v>7676</v>
+      </c>
+      <c r="C1185" s="11" t="s">
+        <v>7677</v>
+      </c>
+      <c r="D1185" s="37" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E1185" s="11" t="s">
+        <v>7678</v>
+      </c>
+      <c r="F1185" s="11" t="s">
+        <v>7679</v>
+      </c>
+      <c r="G1185" s="11" t="s">
+        <v>7680</v>
+      </c>
+      <c r="H1185" s="11" t="s">
+        <v>7680</v>
+      </c>
+      <c r="I1185" s="11" t="s">
+        <v>7680</v>
+      </c>
+      <c r="J1185" s="11" t="s">
+        <v>7681</v>
+      </c>
+      <c r="K1185" s="11" t="s">
+        <v>7681</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:11">
+      <c r="B1186" s="11" t="s">
+        <v>7682</v>
+      </c>
+      <c r="C1186" s="11" t="s">
+        <v>7683</v>
+      </c>
+      <c r="D1186" s="37" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E1186" s="11" t="s">
+        <v>7684</v>
+      </c>
+      <c r="F1186" s="11" t="s">
+        <v>7685</v>
+      </c>
+      <c r="G1186" s="11" t="s">
+        <v>7686</v>
+      </c>
+      <c r="H1186" s="11" t="s">
+        <v>7686</v>
+      </c>
+      <c r="I1186" s="11" t="s">
+        <v>7686</v>
+      </c>
+      <c r="J1186" s="11" t="s">
+        <v>7687</v>
+      </c>
+      <c r="K1186" s="11" t="s">
+        <v>7687</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17445" windowHeight="10620"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -22753,10 +22753,10 @@
     <t>My Rank</t>
   </si>
   <si>
-    <t>Minha classificação</t>
-  </si>
-  <si>
-    <t>Peringkat Saya</t>
+    <t>Meu cargo</t>
+  </si>
+  <si>
+    <t>Pangkatku</t>
   </si>
   <si>
     <t>366102</t>
@@ -25298,8 +25298,8 @@
   <sheetPr/>
   <dimension ref="A1:N1186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
-      <selection activeCell="C1092" sqref="C1092"/>
+    <sheetView tabSelected="1" topLeftCell="A1074" workbookViewId="0">
+      <selection activeCell="F1079" sqref="F1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9748" uniqueCount="7688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9756" uniqueCount="7687">
   <si>
     <t>##var</t>
   </si>
@@ -22858,6 +22858,15 @@
     <t>Waktu habis</t>
   </si>
   <si>
+    <t>366109</t>
+  </si>
+  <si>
+    <t>高級</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
     <t>400057</t>
   </si>
   <si>
@@ -23020,7 +23029,7 @@
     <t>601001</t>
   </si>
   <si>
-    <t>登录标题</t>
+    <t>登錄標題</t>
   </si>
   <si>
     <t>dl_zw</t>
@@ -23038,7 +23047,7 @@
     <t>601002</t>
   </si>
   <si>
-    <t>注册账号标题</t>
+    <t>註冊帳號標題</t>
   </si>
   <si>
     <t>zczh_zw</t>
@@ -23056,7 +23065,7 @@
     <t>601003</t>
   </si>
   <si>
-    <t>修改密码标题</t>
+    <t>修改密碼標題</t>
   </si>
   <si>
     <t>xgmm_zw</t>
@@ -23074,7 +23083,7 @@
     <t>602001</t>
   </si>
   <si>
-    <t>充值标题</t>
+    <t>充值標題</t>
   </si>
   <si>
     <t>czbt_zw</t>
@@ -23092,7 +23101,7 @@
     <t>602002</t>
   </si>
   <si>
-    <t>兑换标题</t>
+    <t>兌換標題</t>
   </si>
   <si>
     <t>dhbt_zw</t>
@@ -23110,7 +23119,7 @@
     <t>602003</t>
   </si>
   <si>
-    <t>代理标题</t>
+    <t>代理標題</t>
   </si>
   <si>
     <t>fxdlbt_zw</t>
@@ -23128,7 +23137,7 @@
     <t>602004</t>
   </si>
   <si>
-    <t>个人中心标题</t>
+    <t>個人中心標題</t>
   </si>
   <si>
     <t>grzxbt_zw</t>
@@ -23146,7 +23155,7 @@
     <t>602005</t>
   </si>
   <si>
-    <t>邮件标题</t>
+    <t>郵件標題</t>
   </si>
   <si>
     <t>yjbt_zw</t>
@@ -23164,7 +23173,7 @@
     <t>602006</t>
   </si>
   <si>
-    <t>任务标题</t>
+    <t>任務標題</t>
   </si>
   <si>
     <t>rwbt_zw</t>
@@ -23482,7 +23491,7 @@
     <t>604001</t>
   </si>
   <si>
-    <t>绑定手机icon</t>
+    <t>綁定手機icon</t>
   </si>
   <si>
     <t>bdsjicon_zw</t>
@@ -23500,7 +23509,7 @@
     <t>604002</t>
   </si>
   <si>
-    <t>绑定手机标题</t>
+    <t>綁定手機標題</t>
   </si>
   <si>
     <t>bdsjbt_zw</t>
@@ -23518,7 +23527,7 @@
     <t>604003</t>
   </si>
   <si>
-    <t>绑定手机说明</t>
+    <t>綁定手機說明</t>
   </si>
   <si>
     <t>bdsjsm_zw</t>
@@ -23536,7 +23545,7 @@
     <t>605001</t>
   </si>
   <si>
-    <t>签到icon</t>
+    <t>簽到icon</t>
   </si>
   <si>
     <t>qdicon_zw</t>
@@ -23554,7 +23563,7 @@
     <t>605002</t>
   </si>
   <si>
-    <t>签到标题</t>
+    <t>簽到標題</t>
   </si>
   <si>
     <t>qdbt_zw</t>
@@ -23572,7 +23581,7 @@
     <t>605003</t>
   </si>
   <si>
-    <t>签到锁定说明</t>
+    <t>簽到鎖定說明</t>
   </si>
   <si>
     <t>qdjssm_zw</t>
@@ -23590,7 +23599,7 @@
     <t>605004</t>
   </si>
   <si>
-    <t>签到领奖说明</t>
+    <t>簽到領獎說明</t>
   </si>
   <si>
     <t>qdlqsm_zw</t>
@@ -23626,7 +23635,7 @@
     <t>606002</t>
   </si>
   <si>
-    <t>首充标题</t>
+    <t>首充標題</t>
   </si>
   <si>
     <t>scbt_zw</t>
@@ -23662,7 +23671,7 @@
     <t>607001</t>
   </si>
   <si>
-    <t>转盘icon</t>
+    <t>轉盤icon</t>
   </si>
   <si>
     <t>zpicon_zw</t>
@@ -23680,7 +23689,7 @@
     <t>607002</t>
   </si>
   <si>
-    <t>转盘标题</t>
+    <t>轉盤標題</t>
   </si>
   <si>
     <t>xyzpbt_zw</t>
@@ -23698,7 +23707,7 @@
     <t>607003</t>
   </si>
   <si>
-    <t>转盘按钮</t>
+    <t>轉盤按鈕</t>
   </si>
   <si>
     <t>zpzd_zw</t>
@@ -23716,7 +23725,7 @@
     <t>607004</t>
   </si>
   <si>
-    <t>白银转盘</t>
+    <t>白銀轉盤</t>
   </si>
   <si>
     <t>byzp_zw</t>
@@ -23734,7 +23743,7 @@
     <t>607005</t>
   </si>
   <si>
-    <t>黄金转盘</t>
+    <t>黃金轉盤</t>
   </si>
   <si>
     <t>hjzp_zw</t>
@@ -23752,7 +23761,7 @@
     <t>607006</t>
   </si>
   <si>
-    <t>钻石转盘</t>
+    <t>鑽石轉盤</t>
   </si>
   <si>
     <t>zszp_zw</t>
@@ -23770,7 +23779,7 @@
     <t>608001</t>
   </si>
   <si>
-    <t>选场金币不足</t>
+    <t>選場金幣不足</t>
   </si>
   <si>
     <t>jbbz_zw</t>
@@ -23788,9 +23797,6 @@
     <t>608002</t>
   </si>
   <si>
-    <t>初级场</t>
-  </si>
-  <si>
     <t>cjc_zw</t>
   </si>
   <si>
@@ -23806,9 +23812,6 @@
     <t>608003</t>
   </si>
   <si>
-    <t>中级场</t>
-  </si>
-  <si>
     <t>zjc_zw</t>
   </si>
   <si>
@@ -23824,9 +23827,6 @@
     <t>608004</t>
   </si>
   <si>
-    <t>高级场</t>
-  </si>
-  <si>
     <t>gjc_zw</t>
   </si>
   <si>
@@ -23842,9 +23842,6 @@
     <t>608005</t>
   </si>
   <si>
-    <t>大师场</t>
-  </si>
-  <si>
     <t>dsc_zw</t>
   </si>
   <si>
@@ -23860,7 +23857,7 @@
     <t>608006</t>
   </si>
   <si>
-    <t>开始游戏按钮</t>
+    <t>開始遊戲按鈕</t>
   </si>
   <si>
     <t>kssy_zw</t>
@@ -23878,7 +23875,7 @@
     <t>609001</t>
   </si>
   <si>
-    <t>公告标题</t>
+    <t>公告標題</t>
   </si>
   <si>
     <t>ggbt_zw</t>
@@ -23896,7 +23893,7 @@
     <t>610001</t>
   </si>
   <si>
-    <t>转盘轮播图</t>
+    <t>轉盤輪播圖</t>
   </si>
   <si>
     <t>zplbt_zw</t>
@@ -23914,7 +23911,7 @@
     <t>610002</t>
   </si>
   <si>
-    <t>首充轮播图1</t>
+    <t>首充輪播圖1</t>
   </si>
   <si>
     <t>sclbt1_zw</t>
@@ -23932,7 +23929,7 @@
     <t>610003</t>
   </si>
   <si>
-    <t>首充轮播图2</t>
+    <t>首充輪播圖2</t>
   </si>
   <si>
     <t>sclbt2_zw</t>
@@ -23950,7 +23947,7 @@
     <t>610004</t>
   </si>
   <si>
-    <t>充值按钮</t>
+    <t>充值按鈕</t>
   </si>
   <si>
     <t>lbtcz_zw</t>
@@ -23968,7 +23965,7 @@
     <t>610005</t>
   </si>
   <si>
-    <t>签到轮播图1</t>
+    <t>簽到輪播圖1</t>
   </si>
   <si>
     <t>qdlbt1_zw</t>
@@ -23986,7 +23983,7 @@
     <t>610006</t>
   </si>
   <si>
-    <t>签到轮播图2</t>
+    <t>簽到輪播圖2</t>
   </si>
   <si>
     <t>qdlbt2_zw</t>
@@ -24004,7 +24001,7 @@
     <t>610007</t>
   </si>
   <si>
-    <t>每日回馈轮播图1</t>
+    <t>每日回饋輪播圖1</t>
   </si>
   <si>
     <t>mrhklbt1_zw</t>
@@ -24022,7 +24019,7 @@
     <t>610008</t>
   </si>
   <si>
-    <t>每日回馈轮播图2</t>
+    <t>每日回饋輪播圖2</t>
   </si>
   <si>
     <t>mrhklbt2_zw</t>
@@ -25296,10 +25293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1186"/>
+  <dimension ref="A1:N1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1074" workbookViewId="0">
-      <selection activeCell="F1079" sqref="F1079"/>
+    <sheetView tabSelected="1" topLeftCell="A1086" workbookViewId="0">
+      <selection activeCell="F1097" sqref="F1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -54735,2762 +54732,2791 @@
         <v>7298</v>
       </c>
     </row>
-    <row r="1095" s="10" customFormat="1" spans="2:11">
-      <c r="B1095" s="10" t="s">
+    <row r="1095" s="10" customFormat="1" spans="1:11">
+      <c r="A1095" s="1"/>
+      <c r="B1095" s="11" t="s">
         <v>7299</v>
       </c>
+      <c r="C1095" s="1"/>
+      <c r="D1095" s="1"/>
       <c r="E1095" s="1" t="s">
-        <v>1664</v>
+        <v>7300</v>
       </c>
       <c r="F1095" s="30" t="s">
-        <v>1665</v>
+        <v>7301</v>
       </c>
       <c r="G1095" s="14" t="s">
-        <v>1666</v>
+        <v>7301</v>
       </c>
       <c r="H1095" s="14" t="s">
-        <v>1667</v>
+        <v>7301</v>
       </c>
       <c r="I1095" s="14" t="s">
-        <v>1668</v>
+        <v>7301</v>
       </c>
       <c r="J1095" s="1" t="s">
-        <v>1669</v>
+        <v>7301</v>
       </c>
       <c r="K1095" s="1" t="s">
-        <v>1670</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="1096" s="10" customFormat="1" spans="2:11">
       <c r="B1096" s="10" t="s">
-        <v>7300</v>
-      </c>
-      <c r="E1096" s="6" t="s">
+        <v>7302</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F1096" s="30" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G1096" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H1096" s="14" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I1096" s="14" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J1096" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K1096" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1097" s="10" customFormat="1" spans="2:11">
+      <c r="B1097" s="10" t="s">
+        <v>7303</v>
+      </c>
+      <c r="E1097" s="6" t="s">
         <v>1672</v>
       </c>
-      <c r="F1096" s="31" t="s">
+      <c r="F1097" s="31" t="s">
         <v>1673</v>
       </c>
-      <c r="G1096" s="32" t="s">
+      <c r="G1097" s="32" t="s">
         <v>1674</v>
       </c>
-      <c r="H1096" s="32" t="s">
+      <c r="H1097" s="32" t="s">
         <v>1675</v>
       </c>
-      <c r="I1096" s="32" t="s">
+      <c r="I1097" s="32" t="s">
         <v>1676</v>
       </c>
-      <c r="J1096" s="6" t="s">
+      <c r="J1097" s="6" t="s">
         <v>1677</v>
       </c>
-      <c r="K1096" s="6" t="s">
+      <c r="K1097" s="6" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="1097" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1097" s="10" t="s">
-        <v>7301</v>
-      </c>
-      <c r="E1097" s="1" t="s">
+    <row r="1098" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1098" s="10" t="s">
+        <v>7304</v>
+      </c>
+      <c r="E1098" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="F1097" s="30" t="s">
+      <c r="F1098" s="30" t="s">
         <v>1681</v>
       </c>
-      <c r="G1097" s="14" t="s">
+      <c r="G1098" s="14" t="s">
         <v>1682</v>
       </c>
-      <c r="H1097" s="14" t="s">
+      <c r="H1098" s="14" t="s">
         <v>1683</v>
       </c>
-      <c r="I1097" s="14" t="s">
+      <c r="I1098" s="14" t="s">
         <v>1684</v>
       </c>
-      <c r="J1097" s="1" t="s">
+      <c r="J1098" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="K1097" s="1" t="s">
+      <c r="K1098" s="1" t="s">
         <v>1686</v>
-      </c>
-    </row>
-    <row r="1098" s="10" customFormat="1" spans="2:11">
-      <c r="B1098" s="10" t="s">
-        <v>7302</v>
-      </c>
-      <c r="E1098" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F1098" s="30" t="s">
-        <v>1689</v>
-      </c>
-      <c r="G1098" s="14" t="s">
-        <v>1690</v>
-      </c>
-      <c r="H1098" s="14" t="s">
-        <v>1691</v>
-      </c>
-      <c r="I1098" s="14" t="s">
-        <v>1689</v>
-      </c>
-      <c r="J1098" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="K1098" s="1" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="1099" s="10" customFormat="1" spans="2:11">
       <c r="B1099" s="10" t="s">
-        <v>7303</v>
+        <v>7305</v>
       </c>
       <c r="E1099" s="1" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="F1099" s="30" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="G1099" s="14" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="H1099" s="14" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="I1099" s="14" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="J1099" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="K1099" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1100" s="10" customFormat="1" spans="2:11">
       <c r="B1100" s="10" t="s">
-        <v>7304</v>
+        <v>7306</v>
       </c>
       <c r="E1100" s="1" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="F1100" s="30" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="G1100" s="14" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="H1100" s="14" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="I1100" s="14" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="J1100" s="1" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="K1100" s="1" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1101" s="10" customFormat="1" spans="2:11">
       <c r="B1101" s="10" t="s">
-        <v>7305</v>
+        <v>7307</v>
       </c>
       <c r="E1101" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F1101" s="30" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G1101" s="14" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H1101" s="14" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I1101" s="14" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J1101" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K1101" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1102" s="10" customFormat="1" spans="2:11">
+      <c r="B1102" s="10" t="s">
+        <v>7308</v>
+      </c>
+      <c r="E1102" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="F1101" s="30" t="s">
+      <c r="F1102" s="30" t="s">
         <v>1709</v>
       </c>
-      <c r="G1101" s="14" t="s">
+      <c r="G1102" s="14" t="s">
         <v>1710</v>
       </c>
-      <c r="H1101" s="14" t="s">
+      <c r="H1102" s="14" t="s">
         <v>1711</v>
       </c>
-      <c r="I1101" s="14" t="s">
+      <c r="I1102" s="14" t="s">
         <v>1712</v>
       </c>
-      <c r="J1101" s="1" t="s">
+      <c r="J1102" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="K1101" s="1" t="s">
+      <c r="K1102" s="1" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="1102" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1102" s="10" t="s">
-        <v>7306</v>
-      </c>
-      <c r="E1102" s="1" t="s">
+    <row r="1103" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1103" s="10" t="s">
+        <v>7309</v>
+      </c>
+      <c r="E1103" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="F1102" s="30" t="s">
+      <c r="F1103" s="30" t="s">
         <v>1715</v>
       </c>
-      <c r="G1102" s="14" t="s">
+      <c r="G1103" s="14" t="s">
         <v>1716</v>
       </c>
-      <c r="H1102" s="14" t="s">
+      <c r="H1103" s="14" t="s">
         <v>1717</v>
       </c>
-      <c r="I1102" s="14" t="s">
+      <c r="I1103" s="14" t="s">
         <v>1718</v>
       </c>
-      <c r="J1102" s="1" t="s">
+      <c r="J1103" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="K1102" s="1" t="s">
+      <c r="K1103" s="1" t="s">
         <v>1720</v>
-      </c>
-    </row>
-    <row r="1103" s="10" customFormat="1" spans="2:11">
-      <c r="B1103" s="10" t="s">
-        <v>7307</v>
-      </c>
-      <c r="E1103" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F1103" s="30" t="s">
-        <v>1723</v>
-      </c>
-      <c r="G1103" s="14" t="s">
-        <v>1724</v>
-      </c>
-      <c r="H1103" s="14" t="s">
-        <v>1725</v>
-      </c>
-      <c r="I1103" s="14" t="s">
-        <v>1723</v>
-      </c>
-      <c r="J1103" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="K1103" s="1" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="1104" s="10" customFormat="1" spans="2:11">
       <c r="B1104" s="10" t="s">
-        <v>7308</v>
+        <v>7310</v>
       </c>
       <c r="E1104" s="1" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="F1104" s="30" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="G1104" s="14" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="H1104" s="14" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="I1104" s="14" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="J1104" s="1" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="K1104" s="1" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1105" s="10" customFormat="1" spans="2:11">
       <c r="B1105" s="10" t="s">
-        <v>7309</v>
+        <v>7311</v>
       </c>
       <c r="E1105" s="1" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="F1105" s="30" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="G1105" s="14" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="H1105" s="14" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="I1105" s="14" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="J1105" s="1" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="K1105" s="1" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1106" s="10" customFormat="1" spans="2:11">
       <c r="B1106" s="10" t="s">
-        <v>7310</v>
+        <v>7312</v>
       </c>
       <c r="E1106" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F1106" s="30" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G1106" s="14" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H1106" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I1106" s="14" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J1106" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K1106" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1107" s="10" customFormat="1" spans="2:11">
+      <c r="B1107" s="10" t="s">
+        <v>7313</v>
+      </c>
+      <c r="E1107" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="F1106" s="30" t="s">
+      <c r="F1107" s="30" t="s">
         <v>1746</v>
       </c>
-      <c r="G1106" s="14" t="s">
+      <c r="G1107" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="H1106" s="14" t="s">
+      <c r="H1107" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="I1106" s="14" t="s">
+      <c r="I1107" s="14" t="s">
         <v>1747</v>
       </c>
-      <c r="J1106" s="1" t="s">
+      <c r="J1107" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="K1106" s="1" t="s">
+      <c r="K1107" s="1" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="1107" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1107" s="10" t="s">
-        <v>7311</v>
-      </c>
-      <c r="E1107" s="1" t="s">
+    <row r="1108" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1108" s="10" t="s">
+        <v>7314</v>
+      </c>
+      <c r="E1108" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="F1107" s="30" t="s">
+      <c r="F1108" s="30" t="s">
         <v>1752</v>
       </c>
-      <c r="G1107" s="30" t="s">
+      <c r="G1108" s="30" t="s">
         <v>1752</v>
       </c>
-      <c r="H1107" s="30" t="s">
+      <c r="H1108" s="30" t="s">
         <v>1752</v>
       </c>
-      <c r="I1107" s="30" t="s">
+      <c r="I1108" s="30" t="s">
         <v>1752</v>
       </c>
-      <c r="J1107" s="30" t="s">
+      <c r="J1108" s="30" t="s">
         <v>1752</v>
       </c>
-      <c r="K1107" s="30" t="s">
+      <c r="K1108" s="30" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="1108" s="10" customFormat="1" spans="2:11">
-      <c r="B1108" s="10" t="s">
-        <v>7312</v>
-      </c>
-      <c r="E1108" s="1" t="s">
+    <row r="1109" s="10" customFormat="1" spans="2:11">
+      <c r="B1109" s="10" t="s">
+        <v>7315</v>
+      </c>
+      <c r="E1109" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="F1108" s="30" t="s">
+      <c r="F1109" s="30" t="s">
         <v>1755</v>
       </c>
-      <c r="G1108" s="14" t="s">
+      <c r="G1109" s="14" t="s">
         <v>1756</v>
       </c>
-      <c r="H1108" s="14" t="s">
+      <c r="H1109" s="14" t="s">
         <v>1757</v>
       </c>
-      <c r="I1108" s="14" t="s">
+      <c r="I1109" s="14" t="s">
         <v>1758</v>
       </c>
-      <c r="J1108" s="1" t="s">
+      <c r="J1109" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="K1108" s="1" t="s">
+      <c r="K1109" s="1" t="s">
         <v>1760</v>
-      </c>
-    </row>
-    <row r="1109" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1109" s="10" t="s">
-        <v>7313</v>
-      </c>
-      <c r="E1109" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F1109" s="30" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G1109" s="14" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H1109" s="14" t="s">
-        <v>1765</v>
-      </c>
-      <c r="I1109" s="14" t="s">
-        <v>1766</v>
-      </c>
-      <c r="J1109" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="K1109" s="1" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1110" s="10" customFormat="1" ht="27" spans="2:11">
       <c r="B1110" s="10" t="s">
-        <v>7314</v>
+        <v>7316</v>
       </c>
       <c r="E1110" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F1110" s="30" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G1110" s="14" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H1110" s="14" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I1110" s="14" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J1110" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="K1110" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1111" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1111" s="10" t="s">
+        <v>7317</v>
+      </c>
+      <c r="E1111" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="F1110" s="30" t="s">
+      <c r="F1111" s="30" t="s">
         <v>1771</v>
       </c>
-      <c r="G1110" s="14" t="s">
+      <c r="G1111" s="14" t="s">
         <v>1772</v>
       </c>
-      <c r="H1110" s="14" t="s">
+      <c r="H1111" s="14" t="s">
         <v>1773</v>
       </c>
-      <c r="I1110" s="14" t="s">
+      <c r="I1111" s="14" t="s">
         <v>1774</v>
       </c>
-      <c r="J1110" s="1" t="s">
+      <c r="J1111" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="K1110" s="1" t="s">
+      <c r="K1111" s="1" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="1111" s="10" customFormat="1" spans="2:11">
-      <c r="B1111" s="10" t="s">
-        <v>7315</v>
-      </c>
-      <c r="E1111" s="1" t="s">
+    <row r="1112" s="10" customFormat="1" spans="2:11">
+      <c r="B1112" s="10" t="s">
+        <v>7318</v>
+      </c>
+      <c r="E1112" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="F1111" s="30" t="s">
+      <c r="F1112" s="30" t="s">
         <v>1779</v>
       </c>
-      <c r="G1111" s="14" t="s">
+      <c r="G1112" s="14" t="s">
         <v>1780</v>
       </c>
-      <c r="H1111" s="14" t="s">
+      <c r="H1112" s="14" t="s">
         <v>1781</v>
       </c>
-      <c r="I1111" s="14" t="s">
+      <c r="I1112" s="14" t="s">
         <v>1782</v>
       </c>
-      <c r="J1111" s="1" t="s">
+      <c r="J1112" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="K1111" s="1" t="s">
+      <c r="K1112" s="1" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="1112" s="10" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B1112" s="10" t="s">
-        <v>7316</v>
-      </c>
-      <c r="E1112" s="1" t="s">
+    <row r="1113" s="10" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B1113" s="10" t="s">
+        <v>7319</v>
+      </c>
+      <c r="E1113" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="F1112" s="30" t="s">
+      <c r="F1113" s="30" t="s">
         <v>1787</v>
       </c>
-      <c r="G1112" s="14" t="s">
+      <c r="G1113" s="14" t="s">
         <v>1788</v>
       </c>
-      <c r="H1112" s="14" t="s">
+      <c r="H1113" s="14" t="s">
         <v>1788</v>
       </c>
-      <c r="I1112" s="35" t="s">
+      <c r="I1113" s="35" t="s">
         <v>1789</v>
       </c>
-      <c r="J1112" s="1" t="s">
+      <c r="J1113" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="K1112" s="1" t="s">
+      <c r="K1113" s="1" t="s">
         <v>1791</v>
-      </c>
-    </row>
-    <row r="1113" s="10" customFormat="1" spans="2:11">
-      <c r="B1113" s="10" t="s">
-        <v>7317</v>
-      </c>
-      <c r="E1113" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F1113" s="30" t="s">
-        <v>1794</v>
-      </c>
-      <c r="G1113" s="14" t="s">
-        <v>1795</v>
-      </c>
-      <c r="H1113" s="14" t="s">
-        <v>1795</v>
-      </c>
-      <c r="I1113" s="14" t="s">
-        <v>1796</v>
-      </c>
-      <c r="J1113" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="K1113" s="1" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="1114" s="10" customFormat="1" spans="2:11">
       <c r="B1114" s="10" t="s">
-        <v>7318</v>
+        <v>7320</v>
       </c>
       <c r="E1114" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F1114" s="1" t="s">
-        <v>1801</v>
+        <v>1793</v>
+      </c>
+      <c r="F1114" s="30" t="s">
+        <v>1794</v>
       </c>
       <c r="G1114" s="14" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="H1114" s="14" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="I1114" s="14" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="J1114" s="1" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="K1114" s="1" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1115" s="10" customFormat="1" spans="2:11">
       <c r="B1115" s="10" t="s">
-        <v>7319</v>
+        <v>7321</v>
       </c>
       <c r="E1115" s="1" t="s">
-        <v>1845</v>
+        <v>1800</v>
       </c>
       <c r="F1115" s="1" t="s">
-        <v>1846</v>
+        <v>1801</v>
       </c>
       <c r="G1115" s="14" t="s">
-        <v>1847</v>
+        <v>1801</v>
       </c>
       <c r="H1115" s="14" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I1115" s="14" t="s">
-        <v>1849</v>
+        <v>1801</v>
       </c>
       <c r="J1115" s="1" t="s">
-        <v>1850</v>
+        <v>1801</v>
       </c>
       <c r="K1115" s="1" t="s">
-        <v>1846</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1116" s="10" customFormat="1" spans="2:11">
       <c r="B1116" s="10" t="s">
-        <v>7320</v>
-      </c>
-      <c r="E1116" s="11" t="s">
+        <v>7322</v>
+      </c>
+      <c r="E1116" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F1116" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G1116" s="14" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H1116" s="14" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I1116" s="14" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J1116" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K1116" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1117" s="10" customFormat="1" spans="2:11">
+      <c r="B1117" s="10" t="s">
+        <v>7323</v>
+      </c>
+      <c r="E1117" s="11" t="s">
         <v>1911</v>
       </c>
-      <c r="F1116" s="11" t="s">
+      <c r="F1117" s="11" t="s">
         <v>1912</v>
       </c>
-      <c r="G1116" s="11" t="s">
+      <c r="G1117" s="11" t="s">
         <v>1913</v>
       </c>
-      <c r="H1116" s="11" t="s">
+      <c r="H1117" s="11" t="s">
         <v>1914</v>
       </c>
-      <c r="I1116" s="11" t="s">
+      <c r="I1117" s="11" t="s">
         <v>1915</v>
       </c>
-      <c r="J1116" s="11" t="s">
+      <c r="J1117" s="11" t="s">
         <v>1916</v>
       </c>
-      <c r="K1116" s="11" t="s">
+      <c r="K1117" s="11" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1117" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B1117" s="10" t="s">
-        <v>7321</v>
-      </c>
-      <c r="E1117" s="11" t="s">
+    <row r="1118" s="10" customFormat="1" ht="27" spans="2:11">
+      <c r="B1118" s="10" t="s">
+        <v>7324</v>
+      </c>
+      <c r="E1118" s="11" t="s">
         <v>1918</v>
       </c>
-      <c r="F1117" s="11" t="s">
+      <c r="F1118" s="11" t="s">
         <v>1919</v>
       </c>
-      <c r="G1117" s="11" t="s">
+      <c r="G1118" s="11" t="s">
         <v>1920</v>
       </c>
-      <c r="H1117" s="11" t="s">
+      <c r="H1118" s="11" t="s">
         <v>1921</v>
       </c>
-      <c r="I1117" s="11" t="s">
+      <c r="I1118" s="11" t="s">
         <v>1922</v>
       </c>
-      <c r="J1117" s="11" t="s">
+      <c r="J1118" s="11" t="s">
         <v>1923</v>
       </c>
-      <c r="K1117" s="11" t="s">
+      <c r="K1118" s="11" t="s">
         <v>1924</v>
-      </c>
-    </row>
-    <row r="1118" s="10" customFormat="1" spans="2:11">
-      <c r="B1118" s="10" t="s">
-        <v>7322</v>
-      </c>
-      <c r="E1118" s="11" t="s">
-        <v>1926</v>
-      </c>
-      <c r="F1118" s="11" t="s">
-        <v>1927</v>
-      </c>
-      <c r="G1118" s="11" t="s">
-        <v>1928</v>
-      </c>
-      <c r="H1118" s="11" t="s">
-        <v>1929</v>
-      </c>
-      <c r="I1118" s="11" t="s">
-        <v>1930</v>
-      </c>
-      <c r="J1118" s="11" t="s">
-        <v>1931</v>
-      </c>
-      <c r="K1118" s="11" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="1119" s="10" customFormat="1" spans="2:11">
       <c r="B1119" s="10" t="s">
-        <v>7323</v>
+        <v>7325</v>
       </c>
       <c r="E1119" s="11" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="F1119" s="11" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="G1119" s="11" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="H1119" s="11" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="I1119" s="11" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
       <c r="J1119" s="11" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="K1119" s="11" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1120" s="10" customFormat="1" spans="2:11">
       <c r="B1120" s="10" t="s">
-        <v>7324</v>
-      </c>
-      <c r="E1120" s="34" t="s">
-        <v>1942</v>
+        <v>7326</v>
+      </c>
+      <c r="E1120" s="11" t="s">
+        <v>1934</v>
       </c>
       <c r="F1120" s="11" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
       <c r="G1120" s="11" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="H1120" s="11" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="I1120" s="11" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="J1120" s="11" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="K1120" s="11" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1121" s="10" customFormat="1" spans="2:11">
       <c r="B1121" s="10" t="s">
-        <v>7325</v>
+        <v>7327</v>
       </c>
       <c r="E1121" s="34" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="F1121" s="11" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="G1121" s="11" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="H1121" s="11" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="I1121" s="11" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="J1121" s="11" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="K1121" s="11" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1122" s="10" customFormat="1" spans="2:11">
       <c r="B1122" s="10" t="s">
-        <v>7326</v>
+        <v>7328</v>
       </c>
       <c r="E1122" s="34" t="s">
-        <v>1961</v>
+        <v>1946</v>
       </c>
       <c r="F1122" s="11" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="G1122" s="11" t="s">
-        <v>1963</v>
+        <v>1948</v>
       </c>
       <c r="H1122" s="11" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="I1122" s="11" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="J1122" s="11" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="K1122" s="11" t="s">
-        <v>1965</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1123" s="10" customFormat="1" spans="2:11">
       <c r="B1123" s="10" t="s">
-        <v>7327</v>
+        <v>7329</v>
       </c>
       <c r="E1123" s="34" t="s">
-        <v>1869</v>
+        <v>1961</v>
       </c>
       <c r="F1123" s="11" t="s">
-        <v>1870</v>
+        <v>1962</v>
       </c>
       <c r="G1123" s="11" t="s">
-        <v>1871</v>
+        <v>1963</v>
       </c>
       <c r="H1123" s="11" t="s">
-        <v>1872</v>
+        <v>1962</v>
       </c>
       <c r="I1123" s="11" t="s">
-        <v>1873</v>
+        <v>1962</v>
       </c>
       <c r="J1123" s="11" t="s">
-        <v>1874</v>
+        <v>1964</v>
       </c>
       <c r="K1123" s="11" t="s">
-        <v>1874</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1124" s="10" customFormat="1" spans="2:11">
       <c r="B1124" s="10" t="s">
-        <v>7328</v>
+        <v>7330</v>
       </c>
       <c r="E1124" s="34" t="s">
-        <v>7329</v>
+        <v>1869</v>
       </c>
       <c r="F1124" s="11" t="s">
-        <v>7330</v>
+        <v>1870</v>
       </c>
       <c r="G1124" s="11" t="s">
-        <v>7330</v>
+        <v>1871</v>
       </c>
       <c r="H1124" s="11" t="s">
-        <v>7330</v>
+        <v>1872</v>
       </c>
       <c r="I1124" s="11" t="s">
-        <v>7330</v>
+        <v>1873</v>
       </c>
       <c r="J1124" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K1124" s="11" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1125" s="10" customFormat="1" spans="2:11">
+      <c r="B1125" s="10" t="s">
         <v>7331</v>
       </c>
-      <c r="K1124" s="11" t="s">
-        <v>7331</v>
-      </c>
-    </row>
-    <row r="1125" ht="162" spans="2:11">
-      <c r="B1125" s="11" t="s">
+      <c r="E1125" s="34" t="s">
         <v>7332</v>
       </c>
-      <c r="C1125" s="11" t="s">
+      <c r="F1125" s="11" t="s">
         <v>7333</v>
       </c>
-      <c r="E1125" s="11" t="s">
+      <c r="G1125" s="11" t="s">
+        <v>7333</v>
+      </c>
+      <c r="H1125" s="11" t="s">
+        <v>7333</v>
+      </c>
+      <c r="I1125" s="11" t="s">
+        <v>7333</v>
+      </c>
+      <c r="J1125" s="11" t="s">
         <v>7334</v>
       </c>
-      <c r="F1125" s="11" t="s">
+      <c r="K1125" s="11" t="s">
+        <v>7334</v>
+      </c>
+    </row>
+    <row r="1126" ht="162" spans="2:11">
+      <c r="B1126" s="11" t="s">
         <v>7335</v>
       </c>
-      <c r="G1125" s="11" t="s">
+      <c r="C1126" s="11" t="s">
         <v>7336</v>
       </c>
-      <c r="H1125" s="11" t="s">
+      <c r="E1126" s="11" t="s">
         <v>7337</v>
       </c>
-      <c r="I1125" s="11" t="s">
+      <c r="F1126" s="11" t="s">
         <v>7338</v>
       </c>
-      <c r="J1125" s="11" t="s">
+      <c r="G1126" s="11" t="s">
         <v>7339</v>
       </c>
-      <c r="K1125" s="11" t="s">
-        <v>7339</v>
-      </c>
-    </row>
-    <row r="1126" ht="297" spans="2:11">
-      <c r="B1126" s="11" t="s">
+      <c r="H1126" s="11" t="s">
         <v>7340</v>
       </c>
-      <c r="C1126" s="11" t="s">
+      <c r="I1126" s="11" t="s">
         <v>7341</v>
       </c>
-      <c r="E1126" s="22" t="s">
+      <c r="J1126" s="11" t="s">
         <v>7342</v>
       </c>
-      <c r="F1126" s="11" t="s">
+      <c r="K1126" s="11" t="s">
+        <v>7342</v>
+      </c>
+    </row>
+    <row r="1127" ht="297" spans="2:11">
+      <c r="B1127" s="11" t="s">
         <v>7343</v>
       </c>
-      <c r="G1126" s="11" t="s">
+      <c r="C1127" s="11" t="s">
         <v>7344</v>
       </c>
-      <c r="H1126" s="11" t="s">
+      <c r="E1127" s="22" t="s">
         <v>7345</v>
       </c>
-      <c r="I1126" s="11" t="s">
+      <c r="F1127" s="11" t="s">
         <v>7346</v>
       </c>
-      <c r="J1126" s="11" t="s">
+      <c r="G1127" s="11" t="s">
         <v>7347</v>
       </c>
-      <c r="K1126" s="11" t="s">
-        <v>7347</v>
-      </c>
-    </row>
-    <row r="1127" s="2" customFormat="1" spans="2:11">
-      <c r="B1127" s="1" t="s">
+      <c r="H1127" s="11" t="s">
         <v>7348</v>
       </c>
-      <c r="C1127" s="1" t="s">
+      <c r="I1127" s="11" t="s">
         <v>7349</v>
       </c>
-      <c r="D1127" s="37" t="s">
-        <v>3036</v>
-      </c>
-      <c r="E1127" s="30" t="s">
+      <c r="J1127" s="11" t="s">
         <v>7350</v>
       </c>
-      <c r="F1127" s="30" t="s">
+      <c r="K1127" s="11" t="s">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="1128" s="2" customFormat="1" spans="2:11">
+      <c r="B1128" s="1" t="s">
         <v>7351</v>
       </c>
-      <c r="G1127" s="30" t="s">
+      <c r="C1128" s="1" t="s">
         <v>7352</v>
-      </c>
-      <c r="H1127" s="30" t="s">
-        <v>7352</v>
-      </c>
-      <c r="I1127" s="30" t="s">
-        <v>7352</v>
-      </c>
-      <c r="J1127" s="30" t="s">
-        <v>7353</v>
-      </c>
-      <c r="K1127" s="30" t="s">
-        <v>7353</v>
-      </c>
-    </row>
-    <row r="1128" spans="2:11">
-      <c r="B1128" s="1" t="s">
-        <v>7354</v>
-      </c>
-      <c r="C1128" s="11" t="s">
-        <v>7355</v>
       </c>
       <c r="D1128" s="37" t="s">
         <v>3036</v>
       </c>
-      <c r="E1128" s="11" t="s">
+      <c r="E1128" s="30" t="s">
+        <v>7353</v>
+      </c>
+      <c r="F1128" s="30" t="s">
+        <v>7354</v>
+      </c>
+      <c r="G1128" s="30" t="s">
+        <v>7355</v>
+      </c>
+      <c r="H1128" s="30" t="s">
+        <v>7355</v>
+      </c>
+      <c r="I1128" s="30" t="s">
+        <v>7355</v>
+      </c>
+      <c r="J1128" s="30" t="s">
         <v>7356</v>
       </c>
-      <c r="F1128" s="11" t="s">
-        <v>7357</v>
-      </c>
-      <c r="G1128" s="11" t="s">
-        <v>7358</v>
-      </c>
-      <c r="H1128" s="11" t="s">
-        <v>7358</v>
-      </c>
-      <c r="I1128" s="11" t="s">
-        <v>7358</v>
-      </c>
-      <c r="J1128" s="11" t="s">
-        <v>7359</v>
-      </c>
-      <c r="K1128" s="11" t="s">
-        <v>7359</v>
+      <c r="K1128" s="30" t="s">
+        <v>7356</v>
       </c>
     </row>
     <row r="1129" spans="2:11">
       <c r="B1129" s="1" t="s">
-        <v>7360</v>
+        <v>7357</v>
       </c>
       <c r="C1129" s="11" t="s">
-        <v>7361</v>
+        <v>7358</v>
       </c>
       <c r="D1129" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1129" s="11" t="s">
+        <v>7359</v>
+      </c>
+      <c r="F1129" s="11" t="s">
+        <v>7360</v>
+      </c>
+      <c r="G1129" s="11" t="s">
+        <v>7361</v>
+      </c>
+      <c r="H1129" s="11" t="s">
+        <v>7361</v>
+      </c>
+      <c r="I1129" s="11" t="s">
+        <v>7361</v>
+      </c>
+      <c r="J1129" s="11" t="s">
         <v>7362</v>
       </c>
-      <c r="F1129" s="11" t="s">
+      <c r="K1129" s="11" t="s">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:11">
+      <c r="B1130" s="1" t="s">
         <v>7363</v>
       </c>
-      <c r="G1129" s="11" t="s">
+      <c r="C1130" s="11" t="s">
         <v>7364</v>
-      </c>
-      <c r="H1129" s="11" t="s">
-        <v>7364</v>
-      </c>
-      <c r="I1129" s="11" t="s">
-        <v>7364</v>
-      </c>
-      <c r="J1129" s="11" t="s">
-        <v>7365</v>
-      </c>
-      <c r="K1129" s="11" t="s">
-        <v>7365</v>
-      </c>
-    </row>
-    <row r="1130" spans="2:11">
-      <c r="B1130" s="11" t="s">
-        <v>7366</v>
-      </c>
-      <c r="C1130" s="11" t="s">
-        <v>7367</v>
       </c>
       <c r="D1130" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1130" s="11" t="s">
+        <v>7365</v>
+      </c>
+      <c r="F1130" s="11" t="s">
+        <v>7366</v>
+      </c>
+      <c r="G1130" s="11" t="s">
+        <v>7367</v>
+      </c>
+      <c r="H1130" s="11" t="s">
+        <v>7367</v>
+      </c>
+      <c r="I1130" s="11" t="s">
+        <v>7367</v>
+      </c>
+      <c r="J1130" s="11" t="s">
         <v>7368</v>
       </c>
-      <c r="F1130" s="11" t="s">
-        <v>7369</v>
-      </c>
-      <c r="G1130" s="11" t="s">
-        <v>7370</v>
-      </c>
-      <c r="H1130" s="11" t="s">
-        <v>7370</v>
-      </c>
-      <c r="I1130" s="11" t="s">
-        <v>7370</v>
-      </c>
-      <c r="J1130" s="11" t="s">
-        <v>7371</v>
-      </c>
       <c r="K1130" s="11" t="s">
-        <v>7371</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="1131" spans="2:11">
       <c r="B1131" s="11" t="s">
-        <v>7372</v>
+        <v>7369</v>
       </c>
       <c r="C1131" s="11" t="s">
-        <v>7373</v>
+        <v>7370</v>
       </c>
       <c r="D1131" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1131" s="11" t="s">
+        <v>7371</v>
+      </c>
+      <c r="F1131" s="11" t="s">
+        <v>7372</v>
+      </c>
+      <c r="G1131" s="11" t="s">
+        <v>7373</v>
+      </c>
+      <c r="H1131" s="11" t="s">
+        <v>7373</v>
+      </c>
+      <c r="I1131" s="11" t="s">
+        <v>7373</v>
+      </c>
+      <c r="J1131" s="11" t="s">
         <v>7374</v>
       </c>
-      <c r="F1131" s="11" t="s">
-        <v>7375</v>
-      </c>
-      <c r="G1131" s="11" t="s">
-        <v>7376</v>
-      </c>
-      <c r="H1131" s="11" t="s">
-        <v>7376</v>
-      </c>
-      <c r="I1131" s="11" t="s">
-        <v>7376</v>
-      </c>
-      <c r="J1131" s="11" t="s">
-        <v>7377</v>
-      </c>
       <c r="K1131" s="11" t="s">
-        <v>7377</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="1132" spans="2:11">
       <c r="B1132" s="11" t="s">
-        <v>7378</v>
+        <v>7375</v>
       </c>
       <c r="C1132" s="11" t="s">
-        <v>7379</v>
+        <v>7376</v>
       </c>
       <c r="D1132" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1132" s="11" t="s">
+        <v>7377</v>
+      </c>
+      <c r="F1132" s="11" t="s">
+        <v>7378</v>
+      </c>
+      <c r="G1132" s="11" t="s">
+        <v>7379</v>
+      </c>
+      <c r="H1132" s="11" t="s">
+        <v>7379</v>
+      </c>
+      <c r="I1132" s="11" t="s">
+        <v>7379</v>
+      </c>
+      <c r="J1132" s="11" t="s">
         <v>7380</v>
       </c>
-      <c r="F1132" s="11" t="s">
-        <v>7381</v>
-      </c>
-      <c r="G1132" s="11" t="s">
-        <v>7382</v>
-      </c>
-      <c r="H1132" s="11" t="s">
-        <v>7382</v>
-      </c>
-      <c r="I1132" s="11" t="s">
-        <v>7382</v>
-      </c>
-      <c r="J1132" s="11" t="s">
-        <v>7383</v>
-      </c>
       <c r="K1132" s="11" t="s">
-        <v>7383</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="1133" spans="2:11">
       <c r="B1133" s="11" t="s">
-        <v>7384</v>
+        <v>7381</v>
       </c>
       <c r="C1133" s="11" t="s">
-        <v>7385</v>
+        <v>7382</v>
       </c>
       <c r="D1133" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1133" s="11" t="s">
+        <v>7383</v>
+      </c>
+      <c r="F1133" s="11" t="s">
+        <v>7384</v>
+      </c>
+      <c r="G1133" s="11" t="s">
+        <v>7385</v>
+      </c>
+      <c r="H1133" s="11" t="s">
+        <v>7385</v>
+      </c>
+      <c r="I1133" s="11" t="s">
+        <v>7385</v>
+      </c>
+      <c r="J1133" s="11" t="s">
         <v>7386</v>
       </c>
-      <c r="F1133" s="11" t="s">
-        <v>7387</v>
-      </c>
-      <c r="G1133" s="11" t="s">
-        <v>7388</v>
-      </c>
-      <c r="H1133" s="11" t="s">
-        <v>7388</v>
-      </c>
-      <c r="I1133" s="11" t="s">
-        <v>7388</v>
-      </c>
-      <c r="J1133" s="11" t="s">
-        <v>7389</v>
-      </c>
       <c r="K1133" s="11" t="s">
-        <v>7389</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="1134" spans="2:11">
       <c r="B1134" s="11" t="s">
-        <v>7390</v>
+        <v>7387</v>
       </c>
       <c r="C1134" s="11" t="s">
-        <v>7391</v>
+        <v>7388</v>
       </c>
       <c r="D1134" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1134" s="11" t="s">
+        <v>7389</v>
+      </c>
+      <c r="F1134" s="11" t="s">
+        <v>7390</v>
+      </c>
+      <c r="G1134" s="11" t="s">
+        <v>7391</v>
+      </c>
+      <c r="H1134" s="11" t="s">
+        <v>7391</v>
+      </c>
+      <c r="I1134" s="11" t="s">
+        <v>7391</v>
+      </c>
+      <c r="J1134" s="11" t="s">
         <v>7392</v>
       </c>
-      <c r="F1134" s="11" t="s">
-        <v>7393</v>
-      </c>
-      <c r="G1134" s="11" t="s">
-        <v>7394</v>
-      </c>
-      <c r="H1134" s="11" t="s">
-        <v>7394</v>
-      </c>
-      <c r="I1134" s="11" t="s">
-        <v>7394</v>
-      </c>
-      <c r="J1134" s="11" t="s">
-        <v>7395</v>
-      </c>
       <c r="K1134" s="11" t="s">
-        <v>7395</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="1135" spans="2:11">
       <c r="B1135" s="11" t="s">
-        <v>7396</v>
+        <v>7393</v>
       </c>
       <c r="C1135" s="11" t="s">
-        <v>7397</v>
+        <v>7394</v>
       </c>
       <c r="D1135" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1135" s="11" t="s">
+        <v>7395</v>
+      </c>
+      <c r="F1135" s="11" t="s">
+        <v>7396</v>
+      </c>
+      <c r="G1135" s="11" t="s">
+        <v>7397</v>
+      </c>
+      <c r="H1135" s="11" t="s">
+        <v>7397</v>
+      </c>
+      <c r="I1135" s="11" t="s">
+        <v>7397</v>
+      </c>
+      <c r="J1135" s="11" t="s">
         <v>7398</v>
       </c>
-      <c r="F1135" s="11" t="s">
-        <v>7399</v>
-      </c>
-      <c r="G1135" s="11" t="s">
-        <v>7400</v>
-      </c>
-      <c r="H1135" s="11" t="s">
-        <v>7400</v>
-      </c>
-      <c r="I1135" s="11" t="s">
-        <v>7400</v>
-      </c>
-      <c r="J1135" s="11" t="s">
-        <v>7401</v>
-      </c>
       <c r="K1135" s="11" t="s">
-        <v>7401</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="1136" spans="2:11">
       <c r="B1136" s="11" t="s">
-        <v>7402</v>
-      </c>
-      <c r="C1136" s="1" t="s">
-        <v>1664</v>
+        <v>7399</v>
+      </c>
+      <c r="C1136" s="11" t="s">
+        <v>7400</v>
       </c>
       <c r="D1136" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1136" s="11" t="s">
+        <v>7401</v>
+      </c>
+      <c r="F1136" s="11" t="s">
+        <v>7402</v>
+      </c>
+      <c r="G1136" s="11" t="s">
         <v>7403</v>
       </c>
-      <c r="F1136" s="11" t="s">
+      <c r="H1136" s="11" t="s">
+        <v>7403</v>
+      </c>
+      <c r="I1136" s="11" t="s">
+        <v>7403</v>
+      </c>
+      <c r="J1136" s="11" t="s">
         <v>7404</v>
       </c>
-      <c r="G1136" s="11" t="s">
-        <v>7405</v>
-      </c>
-      <c r="H1136" s="11" t="s">
-        <v>7405</v>
-      </c>
-      <c r="I1136" s="11" t="s">
-        <v>7405</v>
-      </c>
-      <c r="J1136" s="11" t="s">
-        <v>7406</v>
-      </c>
       <c r="K1136" s="11" t="s">
-        <v>7406</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="1137" spans="2:11">
       <c r="B1137" s="11" t="s">
-        <v>7407</v>
+        <v>7405</v>
       </c>
       <c r="C1137" s="1" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="D1137" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1137" s="11" t="s">
+        <v>7406</v>
+      </c>
+      <c r="F1137" s="11" t="s">
+        <v>7407</v>
+      </c>
+      <c r="G1137" s="11" t="s">
         <v>7408</v>
       </c>
-      <c r="F1137" s="11" t="s">
+      <c r="H1137" s="11" t="s">
+        <v>7408</v>
+      </c>
+      <c r="I1137" s="11" t="s">
+        <v>7408</v>
+      </c>
+      <c r="J1137" s="11" t="s">
         <v>7409</v>
       </c>
-      <c r="G1137" s="11" t="s">
-        <v>7410</v>
-      </c>
-      <c r="H1137" s="11" t="s">
-        <v>7410</v>
-      </c>
-      <c r="I1137" s="11" t="s">
-        <v>7410</v>
-      </c>
-      <c r="J1137" s="11" t="s">
-        <v>7411</v>
-      </c>
       <c r="K1137" s="11" t="s">
-        <v>7411</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="1138" spans="2:11">
       <c r="B1138" s="11" t="s">
-        <v>7412</v>
+        <v>7410</v>
       </c>
       <c r="C1138" s="1" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="D1138" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1138" s="11" t="s">
+        <v>7411</v>
+      </c>
+      <c r="F1138" s="11" t="s">
+        <v>7412</v>
+      </c>
+      <c r="G1138" s="11" t="s">
         <v>7413</v>
       </c>
-      <c r="F1138" s="11" t="s">
+      <c r="H1138" s="11" t="s">
+        <v>7413</v>
+      </c>
+      <c r="I1138" s="11" t="s">
+        <v>7413</v>
+      </c>
+      <c r="J1138" s="11" t="s">
         <v>7414</v>
       </c>
-      <c r="G1138" s="11" t="s">
-        <v>7415</v>
-      </c>
-      <c r="H1138" s="11" t="s">
-        <v>7415</v>
-      </c>
-      <c r="I1138" s="11" t="s">
-        <v>7415</v>
-      </c>
-      <c r="J1138" s="11" t="s">
-        <v>7416</v>
-      </c>
       <c r="K1138" s="11" t="s">
-        <v>7416</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="1139" spans="2:11">
       <c r="B1139" s="11" t="s">
-        <v>7417</v>
+        <v>7415</v>
       </c>
       <c r="C1139" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="D1139" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1139" s="11" t="s">
+        <v>7416</v>
+      </c>
+      <c r="F1139" s="11" t="s">
+        <v>7417</v>
+      </c>
+      <c r="G1139" s="11" t="s">
         <v>7418</v>
       </c>
-      <c r="F1139" s="11" t="s">
+      <c r="H1139" s="11" t="s">
+        <v>7418</v>
+      </c>
+      <c r="I1139" s="11" t="s">
+        <v>7418</v>
+      </c>
+      <c r="J1139" s="11" t="s">
         <v>7419</v>
       </c>
-      <c r="G1139" s="11" t="s">
-        <v>7420</v>
-      </c>
-      <c r="H1139" s="11" t="s">
-        <v>7420</v>
-      </c>
-      <c r="I1139" s="11" t="s">
-        <v>7420</v>
-      </c>
-      <c r="J1139" s="11" t="s">
-        <v>7421</v>
-      </c>
       <c r="K1139" s="11" t="s">
-        <v>7421</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="1140" spans="2:11">
       <c r="B1140" s="11" t="s">
-        <v>7422</v>
+        <v>7420</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="D1140" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1140" s="11" t="s">
+        <v>7421</v>
+      </c>
+      <c r="F1140" s="11" t="s">
+        <v>7422</v>
+      </c>
+      <c r="G1140" s="11" t="s">
         <v>7423</v>
       </c>
-      <c r="F1140" s="11" t="s">
+      <c r="H1140" s="11" t="s">
+        <v>7423</v>
+      </c>
+      <c r="I1140" s="11" t="s">
+        <v>7423</v>
+      </c>
+      <c r="J1140" s="11" t="s">
         <v>7424</v>
       </c>
-      <c r="G1140" s="11" t="s">
-        <v>7425</v>
-      </c>
-      <c r="H1140" s="11" t="s">
-        <v>7425</v>
-      </c>
-      <c r="I1140" s="11" t="s">
-        <v>7425</v>
-      </c>
-      <c r="J1140" s="11" t="s">
-        <v>7426</v>
-      </c>
       <c r="K1140" s="11" t="s">
-        <v>7426</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="1141" spans="2:11">
       <c r="B1141" s="11" t="s">
-        <v>7427</v>
+        <v>7425</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="D1141" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1141" s="11" t="s">
+        <v>7426</v>
+      </c>
+      <c r="F1141" s="11" t="s">
+        <v>7427</v>
+      </c>
+      <c r="G1141" s="11" t="s">
         <v>7428</v>
       </c>
-      <c r="F1141" s="11" t="s">
+      <c r="H1141" s="11" t="s">
+        <v>7428</v>
+      </c>
+      <c r="I1141" s="11" t="s">
+        <v>7428</v>
+      </c>
+      <c r="J1141" s="11" t="s">
         <v>7429</v>
       </c>
-      <c r="G1141" s="11" t="s">
-        <v>7430</v>
-      </c>
-      <c r="H1141" s="11" t="s">
-        <v>7430</v>
-      </c>
-      <c r="I1141" s="11" t="s">
-        <v>7430</v>
-      </c>
-      <c r="J1141" s="11" t="s">
-        <v>7431</v>
-      </c>
       <c r="K1141" s="11" t="s">
-        <v>7431</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="1142" spans="2:11">
       <c r="B1142" s="11" t="s">
-        <v>7432</v>
+        <v>7430</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="D1142" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1142" s="11" t="s">
+        <v>7431</v>
+      </c>
+      <c r="F1142" s="11" t="s">
+        <v>7432</v>
+      </c>
+      <c r="G1142" s="11" t="s">
         <v>7433</v>
       </c>
-      <c r="F1142" s="11" t="s">
+      <c r="H1142" s="11" t="s">
+        <v>7433</v>
+      </c>
+      <c r="I1142" s="11" t="s">
+        <v>7433</v>
+      </c>
+      <c r="J1142" s="11" t="s">
         <v>7434</v>
       </c>
-      <c r="G1142" s="11" t="s">
-        <v>7435</v>
-      </c>
-      <c r="H1142" s="11" t="s">
-        <v>7435</v>
-      </c>
-      <c r="I1142" s="11" t="s">
-        <v>7435</v>
-      </c>
-      <c r="J1142" s="11" t="s">
-        <v>7436</v>
-      </c>
       <c r="K1142" s="11" t="s">
-        <v>7436</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="1143" spans="2:11">
       <c r="B1143" s="11" t="s">
-        <v>7437</v>
+        <v>7435</v>
       </c>
       <c r="C1143" s="1" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="D1143" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1143" s="11" t="s">
+        <v>7436</v>
+      </c>
+      <c r="F1143" s="11" t="s">
+        <v>7437</v>
+      </c>
+      <c r="G1143" s="11" t="s">
         <v>7438</v>
       </c>
-      <c r="F1143" s="11" t="s">
+      <c r="H1143" s="11" t="s">
+        <v>7438</v>
+      </c>
+      <c r="I1143" s="11" t="s">
+        <v>7438</v>
+      </c>
+      <c r="J1143" s="11" t="s">
         <v>7439</v>
       </c>
-      <c r="G1143" s="11" t="s">
-        <v>7440</v>
-      </c>
-      <c r="H1143" s="11" t="s">
-        <v>7440</v>
-      </c>
-      <c r="I1143" s="11" t="s">
-        <v>7440</v>
-      </c>
-      <c r="J1143" s="11" t="s">
-        <v>7441</v>
-      </c>
       <c r="K1143" s="11" t="s">
-        <v>7441</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="1144" spans="2:11">
       <c r="B1144" s="11" t="s">
-        <v>7442</v>
+        <v>7440</v>
       </c>
       <c r="C1144" s="1" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="D1144" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1144" s="11" t="s">
+        <v>7441</v>
+      </c>
+      <c r="F1144" s="11" t="s">
+        <v>7442</v>
+      </c>
+      <c r="G1144" s="11" t="s">
         <v>7443</v>
       </c>
-      <c r="F1144" s="11" t="s">
+      <c r="H1144" s="11" t="s">
+        <v>7443</v>
+      </c>
+      <c r="I1144" s="11" t="s">
+        <v>7443</v>
+      </c>
+      <c r="J1144" s="11" t="s">
         <v>7444</v>
       </c>
-      <c r="G1144" s="11" t="s">
-        <v>7445</v>
-      </c>
-      <c r="H1144" s="11" t="s">
-        <v>7445</v>
-      </c>
-      <c r="I1144" s="11" t="s">
-        <v>7445</v>
-      </c>
-      <c r="J1144" s="11" t="s">
-        <v>7446</v>
-      </c>
       <c r="K1144" s="11" t="s">
-        <v>7446</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="1145" spans="2:11">
       <c r="B1145" s="11" t="s">
-        <v>7447</v>
+        <v>7445</v>
       </c>
       <c r="C1145" s="1" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="D1145" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1145" s="11" t="s">
+        <v>7446</v>
+      </c>
+      <c r="F1145" s="11" t="s">
+        <v>7447</v>
+      </c>
+      <c r="G1145" s="11" t="s">
         <v>7448</v>
       </c>
-      <c r="F1145" s="11" t="s">
+      <c r="H1145" s="11" t="s">
+        <v>7448</v>
+      </c>
+      <c r="I1145" s="11" t="s">
+        <v>7448</v>
+      </c>
+      <c r="J1145" s="11" t="s">
         <v>7449</v>
       </c>
-      <c r="G1145" s="11" t="s">
-        <v>7450</v>
-      </c>
-      <c r="H1145" s="11" t="s">
-        <v>7450</v>
-      </c>
-      <c r="I1145" s="11" t="s">
-        <v>7450</v>
-      </c>
-      <c r="J1145" s="11" t="s">
-        <v>7451</v>
-      </c>
       <c r="K1145" s="11" t="s">
-        <v>7451</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="1146" spans="2:11">
       <c r="B1146" s="11" t="s">
-        <v>7452</v>
+        <v>7450</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="D1146" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1146" s="11" t="s">
+        <v>7451</v>
+      </c>
+      <c r="F1146" s="11" t="s">
+        <v>7452</v>
+      </c>
+      <c r="G1146" s="11" t="s">
         <v>7453</v>
       </c>
-      <c r="F1146" s="11" t="s">
+      <c r="H1146" s="11" t="s">
+        <v>7453</v>
+      </c>
+      <c r="I1146" s="11" t="s">
+        <v>7453</v>
+      </c>
+      <c r="J1146" s="11" t="s">
         <v>7454</v>
       </c>
-      <c r="G1146" s="11" t="s">
-        <v>7455</v>
-      </c>
-      <c r="H1146" s="11" t="s">
-        <v>7455</v>
-      </c>
-      <c r="I1146" s="11" t="s">
-        <v>7455</v>
-      </c>
-      <c r="J1146" s="11" t="s">
-        <v>7456</v>
-      </c>
       <c r="K1146" s="11" t="s">
-        <v>7456</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="1147" spans="2:11">
       <c r="B1147" s="11" t="s">
-        <v>7457</v>
+        <v>7455</v>
       </c>
       <c r="C1147" s="1" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="D1147" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1147" s="11" t="s">
+        <v>7456</v>
+      </c>
+      <c r="F1147" s="11" t="s">
+        <v>7457</v>
+      </c>
+      <c r="G1147" s="11" t="s">
         <v>7458</v>
       </c>
-      <c r="F1147" s="11" t="s">
+      <c r="H1147" s="11" t="s">
+        <v>7458</v>
+      </c>
+      <c r="I1147" s="11" t="s">
+        <v>7458</v>
+      </c>
+      <c r="J1147" s="11" t="s">
         <v>7459</v>
       </c>
-      <c r="G1147" s="11" t="s">
-        <v>7460</v>
-      </c>
-      <c r="H1147" s="11" t="s">
-        <v>7460</v>
-      </c>
-      <c r="I1147" s="11" t="s">
-        <v>7460</v>
-      </c>
-      <c r="J1147" s="11" t="s">
-        <v>7461</v>
-      </c>
       <c r="K1147" s="11" t="s">
-        <v>7461</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="1148" spans="2:11">
       <c r="B1148" s="11" t="s">
-        <v>7462</v>
+        <v>7460</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D1148" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1148" s="11" t="s">
+        <v>7461</v>
+      </c>
+      <c r="F1148" s="11" t="s">
+        <v>7462</v>
+      </c>
+      <c r="G1148" s="11" t="s">
         <v>7463</v>
       </c>
-      <c r="F1148" s="11" t="s">
+      <c r="H1148" s="11" t="s">
+        <v>7463</v>
+      </c>
+      <c r="I1148" s="11" t="s">
+        <v>7463</v>
+      </c>
+      <c r="J1148" s="11" t="s">
         <v>7464</v>
       </c>
-      <c r="G1148" s="11" t="s">
-        <v>7465</v>
-      </c>
-      <c r="H1148" s="11" t="s">
-        <v>7465</v>
-      </c>
-      <c r="I1148" s="11" t="s">
-        <v>7465</v>
-      </c>
-      <c r="J1148" s="11" t="s">
-        <v>7466</v>
-      </c>
       <c r="K1148" s="11" t="s">
-        <v>7466</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="1149" spans="2:11">
       <c r="B1149" s="11" t="s">
-        <v>7467</v>
+        <v>7465</v>
       </c>
       <c r="C1149" s="1" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="D1149" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1149" s="11" t="s">
+        <v>7466</v>
+      </c>
+      <c r="F1149" s="11" t="s">
+        <v>7467</v>
+      </c>
+      <c r="G1149" s="11" t="s">
         <v>7468</v>
       </c>
-      <c r="F1149" s="11" t="s">
+      <c r="H1149" s="11" t="s">
+        <v>7468</v>
+      </c>
+      <c r="I1149" s="11" t="s">
+        <v>7468</v>
+      </c>
+      <c r="J1149" s="11" t="s">
         <v>7469</v>
       </c>
-      <c r="G1149" s="11" t="s">
-        <v>7470</v>
-      </c>
-      <c r="H1149" s="11" t="s">
-        <v>7470</v>
-      </c>
-      <c r="I1149" s="11" t="s">
-        <v>7470</v>
-      </c>
-      <c r="J1149" s="11" t="s">
-        <v>7471</v>
-      </c>
       <c r="K1149" s="11" t="s">
-        <v>7471</v>
+        <v>7469</v>
       </c>
     </row>
     <row r="1150" spans="2:11">
       <c r="B1150" s="11" t="s">
-        <v>7472</v>
+        <v>7470</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="D1150" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1150" s="11" t="s">
+        <v>7471</v>
+      </c>
+      <c r="F1150" s="11" t="s">
+        <v>7472</v>
+      </c>
+      <c r="G1150" s="11" t="s">
         <v>7473</v>
       </c>
-      <c r="F1150" s="11" t="s">
+      <c r="H1150" s="11" t="s">
+        <v>7473</v>
+      </c>
+      <c r="I1150" s="11" t="s">
+        <v>7473</v>
+      </c>
+      <c r="J1150" s="11" t="s">
         <v>7474</v>
       </c>
-      <c r="G1150" s="11" t="s">
-        <v>7475</v>
-      </c>
-      <c r="H1150" s="11" t="s">
-        <v>7475</v>
-      </c>
-      <c r="I1150" s="11" t="s">
-        <v>7475</v>
-      </c>
-      <c r="J1150" s="11" t="s">
-        <v>7476</v>
-      </c>
       <c r="K1150" s="11" t="s">
-        <v>7476</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="1151" spans="2:11">
       <c r="B1151" s="11" t="s">
-        <v>7477</v>
+        <v>7475</v>
       </c>
       <c r="C1151" s="1" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="D1151" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1151" s="11" t="s">
+        <v>7476</v>
+      </c>
+      <c r="F1151" s="11" t="s">
+        <v>7477</v>
+      </c>
+      <c r="G1151" s="11" t="s">
         <v>7478</v>
       </c>
-      <c r="F1151" s="11" t="s">
+      <c r="H1151" s="11" t="s">
+        <v>7478</v>
+      </c>
+      <c r="I1151" s="11" t="s">
+        <v>7478</v>
+      </c>
+      <c r="J1151" s="11" t="s">
         <v>7479</v>
       </c>
-      <c r="G1151" s="11" t="s">
-        <v>7480</v>
-      </c>
-      <c r="H1151" s="11" t="s">
-        <v>7480</v>
-      </c>
-      <c r="I1151" s="11" t="s">
-        <v>7480</v>
-      </c>
-      <c r="J1151" s="11" t="s">
-        <v>7481</v>
-      </c>
       <c r="K1151" s="11" t="s">
-        <v>7481</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="1152" spans="2:11">
       <c r="B1152" s="11" t="s">
-        <v>7482</v>
+        <v>7480</v>
       </c>
       <c r="C1152" s="1" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="D1152" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1152" s="11" t="s">
+        <v>7481</v>
+      </c>
+      <c r="F1152" s="11" t="s">
+        <v>7482</v>
+      </c>
+      <c r="G1152" s="11" t="s">
         <v>7483</v>
       </c>
-      <c r="F1152" s="11" t="s">
+      <c r="H1152" s="11" t="s">
+        <v>7483</v>
+      </c>
+      <c r="I1152" s="11" t="s">
+        <v>7483</v>
+      </c>
+      <c r="J1152" s="11" t="s">
         <v>7484</v>
       </c>
-      <c r="G1152" s="11" t="s">
-        <v>7485</v>
-      </c>
-      <c r="H1152" s="11" t="s">
-        <v>7485</v>
-      </c>
-      <c r="I1152" s="11" t="s">
-        <v>7485</v>
-      </c>
-      <c r="J1152" s="11" t="s">
-        <v>7486</v>
-      </c>
       <c r="K1152" s="11" t="s">
-        <v>7486</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="1153" spans="2:11">
       <c r="B1153" s="11" t="s">
-        <v>7487</v>
+        <v>7485</v>
       </c>
       <c r="C1153" s="1" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="D1153" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1153" s="11" t="s">
+        <v>7486</v>
+      </c>
+      <c r="F1153" s="11" t="s">
+        <v>7487</v>
+      </c>
+      <c r="G1153" s="11" t="s">
         <v>7488</v>
       </c>
-      <c r="F1153" s="11" t="s">
+      <c r="H1153" s="11" t="s">
+        <v>7488</v>
+      </c>
+      <c r="I1153" s="11" t="s">
+        <v>7488</v>
+      </c>
+      <c r="J1153" s="11" t="s">
         <v>7489</v>
       </c>
-      <c r="G1153" s="11" t="s">
-        <v>7490</v>
-      </c>
-      <c r="H1153" s="11" t="s">
-        <v>7490</v>
-      </c>
-      <c r="I1153" s="11" t="s">
-        <v>7490</v>
-      </c>
-      <c r="J1153" s="11" t="s">
-        <v>7491</v>
-      </c>
       <c r="K1153" s="11" t="s">
-        <v>7491</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="1154" spans="2:11">
       <c r="B1154" s="11" t="s">
-        <v>7492</v>
+        <v>7490</v>
       </c>
       <c r="C1154" s="1" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="D1154" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1154" s="11" t="s">
+        <v>7491</v>
+      </c>
+      <c r="F1154" s="11" t="s">
+        <v>7492</v>
+      </c>
+      <c r="G1154" s="11" t="s">
         <v>7493</v>
       </c>
-      <c r="F1154" s="11" t="s">
+      <c r="H1154" s="11" t="s">
+        <v>7493</v>
+      </c>
+      <c r="I1154" s="11" t="s">
+        <v>7493</v>
+      </c>
+      <c r="J1154" s="11" t="s">
         <v>7494</v>
       </c>
-      <c r="G1154" s="11" t="s">
-        <v>7495</v>
-      </c>
-      <c r="H1154" s="11" t="s">
-        <v>7495</v>
-      </c>
-      <c r="I1154" s="11" t="s">
-        <v>7495</v>
-      </c>
-      <c r="J1154" s="11" t="s">
-        <v>7496</v>
-      </c>
       <c r="K1154" s="11" t="s">
-        <v>7496</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="1155" spans="2:11">
       <c r="B1155" s="11" t="s">
-        <v>7497</v>
+        <v>7495</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>1845</v>
+        <v>1800</v>
       </c>
       <c r="D1155" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1155" s="11" t="s">
+        <v>7496</v>
+      </c>
+      <c r="F1155" s="11" t="s">
+        <v>7497</v>
+      </c>
+      <c r="G1155" s="11" t="s">
         <v>7498</v>
       </c>
-      <c r="F1155" s="11" t="s">
+      <c r="H1155" s="11" t="s">
+        <v>7498</v>
+      </c>
+      <c r="I1155" s="11" t="s">
+        <v>7498</v>
+      </c>
+      <c r="J1155" s="11" t="s">
         <v>7499</v>
       </c>
-      <c r="G1155" s="11" t="s">
-        <v>7500</v>
-      </c>
-      <c r="H1155" s="11" t="s">
-        <v>7500</v>
-      </c>
-      <c r="I1155" s="11" t="s">
-        <v>7500</v>
-      </c>
-      <c r="J1155" s="11" t="s">
-        <v>7501</v>
-      </c>
       <c r="K1155" s="11" t="s">
-        <v>7501</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="1156" spans="2:11">
       <c r="B1156" s="11" t="s">
-        <v>7502</v>
-      </c>
-      <c r="C1156" s="11" t="s">
-        <v>7503</v>
+        <v>7500</v>
+      </c>
+      <c r="C1156" s="1" t="s">
+        <v>1845</v>
       </c>
       <c r="D1156" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1156" s="11" t="s">
+        <v>7501</v>
+      </c>
+      <c r="F1156" s="11" t="s">
+        <v>7502</v>
+      </c>
+      <c r="G1156" s="11" t="s">
+        <v>7503</v>
+      </c>
+      <c r="H1156" s="11" t="s">
+        <v>7503</v>
+      </c>
+      <c r="I1156" s="11" t="s">
+        <v>7503</v>
+      </c>
+      <c r="J1156" s="11" t="s">
         <v>7504</v>
       </c>
-      <c r="F1156" s="11" t="s">
-        <v>7505</v>
-      </c>
-      <c r="G1156" s="11" t="s">
-        <v>7506</v>
-      </c>
-      <c r="H1156" s="11" t="s">
-        <v>7506</v>
-      </c>
-      <c r="I1156" s="11" t="s">
-        <v>7506</v>
-      </c>
-      <c r="J1156" s="11" t="s">
-        <v>7507</v>
-      </c>
       <c r="K1156" s="11" t="s">
-        <v>7507</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="1157" spans="2:11">
       <c r="B1157" s="11" t="s">
-        <v>7508</v>
+        <v>7505</v>
       </c>
       <c r="C1157" s="11" t="s">
-        <v>7509</v>
+        <v>7506</v>
       </c>
       <c r="D1157" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1157" s="11" t="s">
+        <v>7507</v>
+      </c>
+      <c r="F1157" s="11" t="s">
+        <v>7508</v>
+      </c>
+      <c r="G1157" s="11" t="s">
+        <v>7509</v>
+      </c>
+      <c r="H1157" s="11" t="s">
+        <v>7509</v>
+      </c>
+      <c r="I1157" s="11" t="s">
+        <v>7509</v>
+      </c>
+      <c r="J1157" s="11" t="s">
         <v>7510</v>
       </c>
-      <c r="F1157" s="11" t="s">
-        <v>7511</v>
-      </c>
-      <c r="G1157" s="11" t="s">
-        <v>7512</v>
-      </c>
-      <c r="H1157" s="11" t="s">
-        <v>7512</v>
-      </c>
-      <c r="I1157" s="11" t="s">
-        <v>7512</v>
-      </c>
-      <c r="J1157" s="11" t="s">
-        <v>7513</v>
-      </c>
       <c r="K1157" s="11" t="s">
-        <v>7513</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="1158" spans="2:11">
       <c r="B1158" s="11" t="s">
-        <v>7514</v>
+        <v>7511</v>
       </c>
       <c r="C1158" s="11" t="s">
-        <v>7515</v>
+        <v>7512</v>
       </c>
       <c r="D1158" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1158" s="11" t="s">
+        <v>7513</v>
+      </c>
+      <c r="F1158" s="11" t="s">
+        <v>7514</v>
+      </c>
+      <c r="G1158" s="11" t="s">
+        <v>7515</v>
+      </c>
+      <c r="H1158" s="11" t="s">
+        <v>7515</v>
+      </c>
+      <c r="I1158" s="11" t="s">
+        <v>7515</v>
+      </c>
+      <c r="J1158" s="11" t="s">
         <v>7516</v>
       </c>
-      <c r="F1158" s="11" t="s">
-        <v>7517</v>
-      </c>
-      <c r="G1158" s="11" t="s">
-        <v>7518</v>
-      </c>
-      <c r="H1158" s="11" t="s">
-        <v>7518</v>
-      </c>
-      <c r="I1158" s="11" t="s">
-        <v>7518</v>
-      </c>
-      <c r="J1158" s="11" t="s">
-        <v>7519</v>
-      </c>
       <c r="K1158" s="11" t="s">
-        <v>7519</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="1159" spans="2:11">
       <c r="B1159" s="11" t="s">
-        <v>7520</v>
+        <v>7517</v>
       </c>
       <c r="C1159" s="11" t="s">
-        <v>7521</v>
+        <v>7518</v>
       </c>
       <c r="D1159" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1159" s="11" t="s">
+        <v>7519</v>
+      </c>
+      <c r="F1159" s="11" t="s">
+        <v>7520</v>
+      </c>
+      <c r="G1159" s="11" t="s">
+        <v>7521</v>
+      </c>
+      <c r="H1159" s="11" t="s">
+        <v>7521</v>
+      </c>
+      <c r="I1159" s="11" t="s">
+        <v>7521</v>
+      </c>
+      <c r="J1159" s="11" t="s">
         <v>7522</v>
       </c>
-      <c r="F1159" s="11" t="s">
-        <v>7523</v>
-      </c>
-      <c r="G1159" s="11" t="s">
-        <v>7524</v>
-      </c>
-      <c r="H1159" s="11" t="s">
-        <v>7524</v>
-      </c>
-      <c r="I1159" s="11" t="s">
-        <v>7524</v>
-      </c>
-      <c r="J1159" s="11" t="s">
-        <v>7525</v>
-      </c>
       <c r="K1159" s="11" t="s">
-        <v>7525</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="1160" spans="2:11">
       <c r="B1160" s="11" t="s">
-        <v>7526</v>
-      </c>
-      <c r="C1160" s="34" t="s">
-        <v>7527</v>
+        <v>7523</v>
+      </c>
+      <c r="C1160" s="11" t="s">
+        <v>7524</v>
       </c>
       <c r="D1160" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1160" s="11" t="s">
+        <v>7525</v>
+      </c>
+      <c r="F1160" s="11" t="s">
+        <v>7526</v>
+      </c>
+      <c r="G1160" s="11" t="s">
+        <v>7527</v>
+      </c>
+      <c r="H1160" s="11" t="s">
+        <v>7527</v>
+      </c>
+      <c r="I1160" s="11" t="s">
+        <v>7527</v>
+      </c>
+      <c r="J1160" s="11" t="s">
         <v>7528</v>
       </c>
-      <c r="F1160" s="11" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G1160" s="11" t="s">
-        <v>7530</v>
-      </c>
-      <c r="H1160" s="11" t="s">
-        <v>7530</v>
-      </c>
-      <c r="I1160" s="11" t="s">
-        <v>7530</v>
-      </c>
-      <c r="J1160" s="11" t="s">
-        <v>7531</v>
-      </c>
       <c r="K1160" s="11" t="s">
-        <v>7531</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="1161" spans="2:11">
       <c r="B1161" s="11" t="s">
-        <v>7532</v>
+        <v>7529</v>
       </c>
       <c r="C1161" s="34" t="s">
-        <v>7533</v>
+        <v>7530</v>
       </c>
       <c r="D1161" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1161" s="11" t="s">
+        <v>7531</v>
+      </c>
+      <c r="F1161" s="11" t="s">
+        <v>7532</v>
+      </c>
+      <c r="G1161" s="11" t="s">
+        <v>7533</v>
+      </c>
+      <c r="H1161" s="11" t="s">
+        <v>7533</v>
+      </c>
+      <c r="I1161" s="11" t="s">
+        <v>7533</v>
+      </c>
+      <c r="J1161" s="11" t="s">
         <v>7534</v>
       </c>
-      <c r="F1161" s="11" t="s">
-        <v>7535</v>
-      </c>
-      <c r="G1161" s="11" t="s">
-        <v>7536</v>
-      </c>
-      <c r="H1161" s="11" t="s">
-        <v>7536</v>
-      </c>
-      <c r="I1161" s="11" t="s">
-        <v>7536</v>
-      </c>
-      <c r="J1161" s="11" t="s">
-        <v>7537</v>
-      </c>
       <c r="K1161" s="11" t="s">
-        <v>7537</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="1162" spans="2:11">
       <c r="B1162" s="11" t="s">
-        <v>7538</v>
+        <v>7535</v>
       </c>
       <c r="C1162" s="34" t="s">
-        <v>7539</v>
+        <v>7536</v>
       </c>
       <c r="D1162" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1162" s="11" t="s">
+        <v>7537</v>
+      </c>
+      <c r="F1162" s="11" t="s">
+        <v>7538</v>
+      </c>
+      <c r="G1162" s="11" t="s">
+        <v>7539</v>
+      </c>
+      <c r="H1162" s="11" t="s">
+        <v>7539</v>
+      </c>
+      <c r="I1162" s="11" t="s">
+        <v>7539</v>
+      </c>
+      <c r="J1162" s="11" t="s">
         <v>7540</v>
       </c>
-      <c r="F1162" s="11" t="s">
-        <v>7541</v>
-      </c>
-      <c r="G1162" s="11" t="s">
-        <v>7542</v>
-      </c>
-      <c r="H1162" s="11" t="s">
-        <v>7542</v>
-      </c>
-      <c r="I1162" s="11" t="s">
-        <v>7542</v>
-      </c>
-      <c r="J1162" s="11" t="s">
-        <v>7543</v>
-      </c>
       <c r="K1162" s="11" t="s">
-        <v>7543</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="1163" spans="2:11">
       <c r="B1163" s="11" t="s">
-        <v>7544</v>
+        <v>7541</v>
       </c>
       <c r="C1163" s="34" t="s">
-        <v>7545</v>
+        <v>7542</v>
       </c>
       <c r="D1163" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1163" s="11" t="s">
+        <v>7543</v>
+      </c>
+      <c r="F1163" s="11" t="s">
+        <v>7544</v>
+      </c>
+      <c r="G1163" s="11" t="s">
+        <v>7545</v>
+      </c>
+      <c r="H1163" s="11" t="s">
+        <v>7545</v>
+      </c>
+      <c r="I1163" s="11" t="s">
+        <v>7545</v>
+      </c>
+      <c r="J1163" s="11" t="s">
         <v>7546</v>
       </c>
-      <c r="F1163" s="11" t="s">
-        <v>7547</v>
-      </c>
-      <c r="G1163" s="11" t="s">
-        <v>7548</v>
-      </c>
-      <c r="H1163" s="11" t="s">
-        <v>7548</v>
-      </c>
-      <c r="I1163" s="11" t="s">
-        <v>7548</v>
-      </c>
-      <c r="J1163" s="11" t="s">
-        <v>7549</v>
-      </c>
       <c r="K1163" s="11" t="s">
-        <v>7549</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="1164" spans="2:11">
       <c r="B1164" s="11" t="s">
-        <v>7550</v>
-      </c>
-      <c r="C1164" s="11" t="s">
-        <v>7551</v>
+        <v>7547</v>
+      </c>
+      <c r="C1164" s="34" t="s">
+        <v>7548</v>
       </c>
       <c r="D1164" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1164" s="11" t="s">
+        <v>7549</v>
+      </c>
+      <c r="F1164" s="11" t="s">
+        <v>7550</v>
+      </c>
+      <c r="G1164" s="11" t="s">
+        <v>7551</v>
+      </c>
+      <c r="H1164" s="11" t="s">
+        <v>7551</v>
+      </c>
+      <c r="I1164" s="11" t="s">
+        <v>7551</v>
+      </c>
+      <c r="J1164" s="11" t="s">
         <v>7552</v>
       </c>
-      <c r="F1164" s="11" t="s">
-        <v>7553</v>
-      </c>
-      <c r="G1164" s="11" t="s">
-        <v>7554</v>
-      </c>
-      <c r="H1164" s="11" t="s">
-        <v>7554</v>
-      </c>
-      <c r="I1164" s="11" t="s">
-        <v>7554</v>
-      </c>
-      <c r="J1164" s="11" t="s">
-        <v>7555</v>
-      </c>
       <c r="K1164" s="11" t="s">
-        <v>7555</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="1165" spans="2:11">
       <c r="B1165" s="11" t="s">
-        <v>7556</v>
+        <v>7553</v>
       </c>
       <c r="C1165" s="11" t="s">
-        <v>7557</v>
+        <v>7554</v>
       </c>
       <c r="D1165" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1165" s="11" t="s">
+        <v>7555</v>
+      </c>
+      <c r="F1165" s="11" t="s">
+        <v>7556</v>
+      </c>
+      <c r="G1165" s="11" t="s">
+        <v>7557</v>
+      </c>
+      <c r="H1165" s="11" t="s">
+        <v>7557</v>
+      </c>
+      <c r="I1165" s="11" t="s">
+        <v>7557</v>
+      </c>
+      <c r="J1165" s="11" t="s">
         <v>7558</v>
       </c>
-      <c r="F1165" s="11" t="s">
-        <v>7559</v>
-      </c>
-      <c r="G1165" s="11" t="s">
-        <v>7560</v>
-      </c>
-      <c r="H1165" s="11" t="s">
-        <v>7560</v>
-      </c>
-      <c r="I1165" s="11" t="s">
-        <v>7560</v>
-      </c>
-      <c r="J1165" s="11" t="s">
-        <v>7561</v>
-      </c>
       <c r="K1165" s="11" t="s">
-        <v>7561</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="1166" spans="2:11">
       <c r="B1166" s="11" t="s">
-        <v>7562</v>
+        <v>7559</v>
       </c>
       <c r="C1166" s="11" t="s">
-        <v>7563</v>
+        <v>7560</v>
       </c>
       <c r="D1166" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1166" s="11" t="s">
+        <v>7561</v>
+      </c>
+      <c r="F1166" s="11" t="s">
+        <v>7562</v>
+      </c>
+      <c r="G1166" s="11" t="s">
+        <v>7563</v>
+      </c>
+      <c r="H1166" s="11" t="s">
+        <v>7563</v>
+      </c>
+      <c r="I1166" s="11" t="s">
+        <v>7563</v>
+      </c>
+      <c r="J1166" s="11" t="s">
         <v>7564</v>
       </c>
-      <c r="F1166" s="11" t="s">
-        <v>7565</v>
-      </c>
-      <c r="G1166" s="11" t="s">
-        <v>7566</v>
-      </c>
-      <c r="H1166" s="11" t="s">
-        <v>7566</v>
-      </c>
-      <c r="I1166" s="11" t="s">
-        <v>7566</v>
-      </c>
-      <c r="J1166" s="11" t="s">
-        <v>7567</v>
-      </c>
       <c r="K1166" s="11" t="s">
-        <v>7567</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="1167" spans="2:11">
       <c r="B1167" s="11" t="s">
-        <v>7568</v>
+        <v>7565</v>
       </c>
       <c r="C1167" s="11" t="s">
-        <v>7569</v>
+        <v>7566</v>
       </c>
       <c r="D1167" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1167" s="11" t="s">
+        <v>7567</v>
+      </c>
+      <c r="F1167" s="11" t="s">
+        <v>7568</v>
+      </c>
+      <c r="G1167" s="11" t="s">
+        <v>7569</v>
+      </c>
+      <c r="H1167" s="11" t="s">
+        <v>7569</v>
+      </c>
+      <c r="I1167" s="11" t="s">
+        <v>7569</v>
+      </c>
+      <c r="J1167" s="11" t="s">
         <v>7570</v>
       </c>
-      <c r="F1167" s="11" t="s">
-        <v>7571</v>
-      </c>
-      <c r="G1167" s="11" t="s">
-        <v>7572</v>
-      </c>
-      <c r="H1167" s="11" t="s">
-        <v>7572</v>
-      </c>
-      <c r="I1167" s="11" t="s">
-        <v>7572</v>
-      </c>
-      <c r="J1167" s="11" t="s">
-        <v>7573</v>
-      </c>
       <c r="K1167" s="11" t="s">
-        <v>7573</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="1168" spans="2:11">
       <c r="B1168" s="11" t="s">
-        <v>7574</v>
+        <v>7571</v>
       </c>
       <c r="C1168" s="11" t="s">
-        <v>7575</v>
+        <v>7572</v>
       </c>
       <c r="D1168" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1168" s="11" t="s">
+        <v>7573</v>
+      </c>
+      <c r="F1168" s="11" t="s">
+        <v>7574</v>
+      </c>
+      <c r="G1168" s="11" t="s">
+        <v>7575</v>
+      </c>
+      <c r="H1168" s="11" t="s">
+        <v>7575</v>
+      </c>
+      <c r="I1168" s="11" t="s">
+        <v>7575</v>
+      </c>
+      <c r="J1168" s="11" t="s">
         <v>7576</v>
       </c>
-      <c r="F1168" s="11" t="s">
-        <v>7577</v>
-      </c>
-      <c r="G1168" s="11" t="s">
-        <v>7578</v>
-      </c>
-      <c r="H1168" s="11" t="s">
-        <v>7578</v>
-      </c>
-      <c r="I1168" s="11" t="s">
-        <v>7578</v>
-      </c>
-      <c r="J1168" s="11" t="s">
-        <v>7579</v>
-      </c>
       <c r="K1168" s="11" t="s">
-        <v>7579</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="1169" spans="2:11">
       <c r="B1169" s="11" t="s">
-        <v>7580</v>
+        <v>7577</v>
       </c>
       <c r="C1169" s="11" t="s">
-        <v>7581</v>
+        <v>7578</v>
       </c>
       <c r="D1169" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1169" s="11" t="s">
+        <v>7579</v>
+      </c>
+      <c r="F1169" s="11" t="s">
+        <v>7580</v>
+      </c>
+      <c r="G1169" s="11" t="s">
+        <v>7581</v>
+      </c>
+      <c r="H1169" s="11" t="s">
+        <v>7581</v>
+      </c>
+      <c r="I1169" s="11" t="s">
+        <v>7581</v>
+      </c>
+      <c r="J1169" s="11" t="s">
         <v>7582</v>
       </c>
-      <c r="F1169" s="11" t="s">
-        <v>7583</v>
-      </c>
-      <c r="G1169" s="11" t="s">
-        <v>7584</v>
-      </c>
-      <c r="H1169" s="11" t="s">
-        <v>7584</v>
-      </c>
-      <c r="I1169" s="11" t="s">
-        <v>7584</v>
-      </c>
-      <c r="J1169" s="11" t="s">
-        <v>7585</v>
-      </c>
       <c r="K1169" s="11" t="s">
-        <v>7585</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="1170" spans="2:11">
       <c r="B1170" s="11" t="s">
-        <v>7586</v>
+        <v>7583</v>
       </c>
       <c r="C1170" s="11" t="s">
-        <v>7587</v>
+        <v>7584</v>
       </c>
       <c r="D1170" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1170" s="11" t="s">
+        <v>7585</v>
+      </c>
+      <c r="F1170" s="11" t="s">
+        <v>7586</v>
+      </c>
+      <c r="G1170" s="11" t="s">
+        <v>7587</v>
+      </c>
+      <c r="H1170" s="11" t="s">
+        <v>7587</v>
+      </c>
+      <c r="I1170" s="11" t="s">
+        <v>7587</v>
+      </c>
+      <c r="J1170" s="11" t="s">
         <v>7588</v>
       </c>
-      <c r="F1170" s="11" t="s">
-        <v>7589</v>
-      </c>
-      <c r="G1170" s="11" t="s">
-        <v>7590</v>
-      </c>
-      <c r="H1170" s="11" t="s">
-        <v>7590</v>
-      </c>
-      <c r="I1170" s="11" t="s">
-        <v>7590</v>
-      </c>
-      <c r="J1170" s="11" t="s">
-        <v>7591</v>
-      </c>
       <c r="K1170" s="11" t="s">
-        <v>7591</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="1171" spans="2:11">
       <c r="B1171" s="11" t="s">
-        <v>7592</v>
+        <v>7589</v>
       </c>
       <c r="C1171" s="11" t="s">
-        <v>7593</v>
+        <v>7590</v>
       </c>
       <c r="D1171" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1171" s="11" t="s">
+        <v>7591</v>
+      </c>
+      <c r="F1171" s="11" t="s">
+        <v>7592</v>
+      </c>
+      <c r="G1171" s="11" t="s">
+        <v>7593</v>
+      </c>
+      <c r="H1171" s="11" t="s">
+        <v>7593</v>
+      </c>
+      <c r="I1171" s="11" t="s">
+        <v>7593</v>
+      </c>
+      <c r="J1171" s="11" t="s">
         <v>7594</v>
       </c>
-      <c r="F1171" s="11" t="s">
-        <v>7595</v>
-      </c>
-      <c r="G1171" s="11" t="s">
-        <v>7596</v>
-      </c>
-      <c r="H1171" s="11" t="s">
-        <v>7596</v>
-      </c>
-      <c r="I1171" s="11" t="s">
-        <v>7596</v>
-      </c>
-      <c r="J1171" s="11" t="s">
-        <v>7597</v>
-      </c>
       <c r="K1171" s="11" t="s">
-        <v>7597</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="1172" spans="2:11">
       <c r="B1172" s="11" t="s">
-        <v>7598</v>
+        <v>7595</v>
       </c>
       <c r="C1172" s="11" t="s">
-        <v>7599</v>
+        <v>7596</v>
       </c>
       <c r="D1172" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1172" s="11" t="s">
+        <v>7597</v>
+      </c>
+      <c r="F1172" s="11" t="s">
+        <v>7598</v>
+      </c>
+      <c r="G1172" s="11" t="s">
+        <v>7599</v>
+      </c>
+      <c r="H1172" s="11" t="s">
+        <v>7599</v>
+      </c>
+      <c r="I1172" s="11" t="s">
+        <v>7599</v>
+      </c>
+      <c r="J1172" s="11" t="s">
         <v>7600</v>
       </c>
-      <c r="F1172" s="11" t="s">
-        <v>7601</v>
-      </c>
-      <c r="G1172" s="11" t="s">
-        <v>7602</v>
-      </c>
-      <c r="H1172" s="11" t="s">
-        <v>7602</v>
-      </c>
-      <c r="I1172" s="11" t="s">
-        <v>7602</v>
-      </c>
-      <c r="J1172" s="11" t="s">
-        <v>7603</v>
-      </c>
       <c r="K1172" s="11" t="s">
-        <v>7603</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="1173" spans="2:11">
       <c r="B1173" s="11" t="s">
-        <v>7604</v>
+        <v>7601</v>
       </c>
       <c r="C1173" s="11" t="s">
-        <v>7605</v>
+        <v>7602</v>
       </c>
       <c r="D1173" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1173" s="11" t="s">
+        <v>7603</v>
+      </c>
+      <c r="F1173" s="11" t="s">
+        <v>7604</v>
+      </c>
+      <c r="G1173" s="11" t="s">
+        <v>7605</v>
+      </c>
+      <c r="H1173" s="11" t="s">
+        <v>7605</v>
+      </c>
+      <c r="I1173" s="11" t="s">
+        <v>7605</v>
+      </c>
+      <c r="J1173" s="11" t="s">
         <v>7606</v>
       </c>
-      <c r="F1173" s="11" t="s">
-        <v>7607</v>
-      </c>
-      <c r="G1173" s="11" t="s">
-        <v>7608</v>
-      </c>
-      <c r="H1173" s="11" t="s">
-        <v>7608</v>
-      </c>
-      <c r="I1173" s="11" t="s">
-        <v>7608</v>
-      </c>
-      <c r="J1173" s="11" t="s">
-        <v>7609</v>
-      </c>
       <c r="K1173" s="11" t="s">
-        <v>7609</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="1174" spans="2:11">
       <c r="B1174" s="11" t="s">
-        <v>7610</v>
+        <v>7607</v>
       </c>
       <c r="C1174" s="11" t="s">
-        <v>7611</v>
+        <v>1804</v>
       </c>
       <c r="D1174" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1174" s="11" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
       <c r="F1174" s="11" t="s">
-        <v>7613</v>
+        <v>7609</v>
       </c>
       <c r="G1174" s="11" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="H1174" s="11" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="I1174" s="11" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="J1174" s="11" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="K1174" s="11" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="1175" spans="2:11">
       <c r="B1175" s="11" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
       <c r="C1175" s="11" t="s">
-        <v>7617</v>
+        <v>1808</v>
       </c>
       <c r="D1175" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1175" s="11" t="s">
-        <v>7618</v>
+        <v>7613</v>
       </c>
       <c r="F1175" s="11" t="s">
-        <v>7619</v>
+        <v>7614</v>
       </c>
       <c r="G1175" s="11" t="s">
-        <v>7620</v>
+        <v>7615</v>
       </c>
       <c r="H1175" s="11" t="s">
-        <v>7620</v>
+        <v>7615</v>
       </c>
       <c r="I1175" s="11" t="s">
-        <v>7620</v>
+        <v>7615</v>
       </c>
       <c r="J1175" s="11" t="s">
-        <v>7621</v>
+        <v>7616</v>
       </c>
       <c r="K1175" s="11" t="s">
-        <v>7621</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="1176" spans="2:11">
       <c r="B1176" s="11" t="s">
-        <v>7622</v>
+        <v>7617</v>
       </c>
       <c r="C1176" s="11" t="s">
-        <v>7623</v>
+        <v>1816</v>
       </c>
       <c r="D1176" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1176" s="11" t="s">
-        <v>7624</v>
+        <v>7618</v>
       </c>
       <c r="F1176" s="11" t="s">
-        <v>7625</v>
+        <v>7619</v>
       </c>
       <c r="G1176" s="11" t="s">
-        <v>7626</v>
+        <v>7620</v>
       </c>
       <c r="H1176" s="11" t="s">
-        <v>7626</v>
+        <v>7620</v>
       </c>
       <c r="I1176" s="11" t="s">
-        <v>7626</v>
+        <v>7620</v>
       </c>
       <c r="J1176" s="11" t="s">
-        <v>7627</v>
+        <v>7621</v>
       </c>
       <c r="K1176" s="11" t="s">
-        <v>7627</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="1177" spans="2:11">
       <c r="B1177" s="11" t="s">
-        <v>7628</v>
+        <v>7622</v>
       </c>
       <c r="C1177" s="11" t="s">
-        <v>7629</v>
+        <v>1823</v>
       </c>
       <c r="D1177" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1177" s="11" t="s">
-        <v>7630</v>
+        <v>7623</v>
       </c>
       <c r="F1177" s="11" t="s">
-        <v>7631</v>
+        <v>7624</v>
       </c>
       <c r="G1177" s="11" t="s">
-        <v>7632</v>
+        <v>7625</v>
       </c>
       <c r="H1177" s="11" t="s">
-        <v>7632</v>
+        <v>7625</v>
       </c>
       <c r="I1177" s="11" t="s">
-        <v>7632</v>
+        <v>7625</v>
       </c>
       <c r="J1177" s="11" t="s">
-        <v>7633</v>
+        <v>7626</v>
       </c>
       <c r="K1177" s="11" t="s">
-        <v>7633</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="1178" spans="2:11">
       <c r="B1178" s="11" t="s">
-        <v>7634</v>
+        <v>7627</v>
       </c>
       <c r="C1178" s="11" t="s">
-        <v>7635</v>
+        <v>7628</v>
       </c>
       <c r="D1178" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1178" s="11" t="s">
-        <v>7636</v>
+        <v>7629</v>
       </c>
       <c r="F1178" s="11" t="s">
-        <v>7637</v>
+        <v>7630</v>
       </c>
       <c r="G1178" s="11" t="s">
-        <v>7638</v>
+        <v>7631</v>
       </c>
       <c r="H1178" s="11" t="s">
-        <v>7638</v>
+        <v>7631</v>
       </c>
       <c r="I1178" s="11" t="s">
-        <v>7638</v>
+        <v>7631</v>
       </c>
       <c r="J1178" s="11" t="s">
-        <v>7639</v>
+        <v>7632</v>
       </c>
       <c r="K1178" s="11" t="s">
-        <v>7639</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="1179" spans="2:11">
       <c r="B1179" s="11" t="s">
-        <v>7640</v>
+        <v>7633</v>
       </c>
       <c r="C1179" s="11" t="s">
-        <v>7641</v>
+        <v>7634</v>
       </c>
       <c r="D1179" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1179" s="11" t="s">
-        <v>7642</v>
+        <v>7635</v>
       </c>
       <c r="F1179" s="11" t="s">
-        <v>7643</v>
+        <v>7636</v>
       </c>
       <c r="G1179" s="11" t="s">
-        <v>7644</v>
+        <v>7637</v>
       </c>
       <c r="H1179" s="11" t="s">
-        <v>7644</v>
+        <v>7637</v>
       </c>
       <c r="I1179" s="11" t="s">
-        <v>7644</v>
+        <v>7637</v>
       </c>
       <c r="J1179" s="11" t="s">
-        <v>7645</v>
+        <v>7638</v>
       </c>
       <c r="K1179" s="11" t="s">
-        <v>7645</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="1180" spans="2:11">
       <c r="B1180" s="11" t="s">
-        <v>7646</v>
+        <v>7639</v>
       </c>
       <c r="C1180" s="11" t="s">
-        <v>7647</v>
+        <v>7640</v>
       </c>
       <c r="D1180" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1180" s="11" t="s">
-        <v>7648</v>
+        <v>7641</v>
       </c>
       <c r="F1180" s="11" t="s">
-        <v>7649</v>
+        <v>7642</v>
       </c>
       <c r="G1180" s="11" t="s">
-        <v>7650</v>
+        <v>7643</v>
       </c>
       <c r="H1180" s="11" t="s">
-        <v>7650</v>
+        <v>7643</v>
       </c>
       <c r="I1180" s="11" t="s">
-        <v>7650</v>
+        <v>7643</v>
       </c>
       <c r="J1180" s="11" t="s">
-        <v>7651</v>
+        <v>7644</v>
       </c>
       <c r="K1180" s="11" t="s">
-        <v>7651</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="1181" spans="2:11">
       <c r="B1181" s="11" t="s">
-        <v>7652</v>
+        <v>7645</v>
       </c>
       <c r="C1181" s="11" t="s">
-        <v>7653</v>
+        <v>7646</v>
       </c>
       <c r="D1181" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1181" s="11" t="s">
-        <v>7654</v>
+        <v>7647</v>
       </c>
       <c r="F1181" s="11" t="s">
-        <v>7655</v>
+        <v>7648</v>
       </c>
       <c r="G1181" s="11" t="s">
-        <v>7656</v>
+        <v>7649</v>
       </c>
       <c r="H1181" s="11" t="s">
-        <v>7656</v>
+        <v>7649</v>
       </c>
       <c r="I1181" s="11" t="s">
-        <v>7656</v>
+        <v>7649</v>
       </c>
       <c r="J1181" s="11" t="s">
-        <v>7657</v>
+        <v>7650</v>
       </c>
       <c r="K1181" s="11" t="s">
-        <v>7657</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="1182" spans="2:11">
       <c r="B1182" s="11" t="s">
-        <v>7658</v>
+        <v>7651</v>
       </c>
       <c r="C1182" s="11" t="s">
-        <v>7659</v>
+        <v>7652</v>
       </c>
       <c r="D1182" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1182" s="11" t="s">
-        <v>7660</v>
+        <v>7653</v>
       </c>
       <c r="F1182" s="11" t="s">
-        <v>7661</v>
+        <v>7654</v>
       </c>
       <c r="G1182" s="11" t="s">
-        <v>7662</v>
+        <v>7655</v>
       </c>
       <c r="H1182" s="11" t="s">
-        <v>7662</v>
+        <v>7655</v>
       </c>
       <c r="I1182" s="11" t="s">
-        <v>7662</v>
+        <v>7655</v>
       </c>
       <c r="J1182" s="11" t="s">
-        <v>7663</v>
+        <v>7656</v>
       </c>
       <c r="K1182" s="11" t="s">
-        <v>7663</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="1183" spans="2:11">
       <c r="B1183" s="11" t="s">
-        <v>7664</v>
+        <v>7657</v>
       </c>
       <c r="C1183" s="11" t="s">
-        <v>7665</v>
+        <v>7658</v>
       </c>
       <c r="D1183" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1183" s="11" t="s">
-        <v>7666</v>
+        <v>7659</v>
       </c>
       <c r="F1183" s="11" t="s">
-        <v>7667</v>
+        <v>7660</v>
       </c>
       <c r="G1183" s="11" t="s">
-        <v>7668</v>
+        <v>7661</v>
       </c>
       <c r="H1183" s="11" t="s">
-        <v>7668</v>
+        <v>7661</v>
       </c>
       <c r="I1183" s="11" t="s">
-        <v>7668</v>
+        <v>7661</v>
       </c>
       <c r="J1183" s="11" t="s">
-        <v>7669</v>
+        <v>7662</v>
       </c>
       <c r="K1183" s="11" t="s">
-        <v>7669</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="1184" spans="2:11">
       <c r="B1184" s="11" t="s">
-        <v>7670</v>
+        <v>7663</v>
       </c>
       <c r="C1184" s="11" t="s">
-        <v>7671</v>
+        <v>7664</v>
       </c>
       <c r="D1184" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1184" s="11" t="s">
-        <v>7672</v>
+        <v>7665</v>
       </c>
       <c r="F1184" s="11" t="s">
-        <v>7673</v>
+        <v>7666</v>
       </c>
       <c r="G1184" s="11" t="s">
-        <v>7674</v>
+        <v>7667</v>
       </c>
       <c r="H1184" s="11" t="s">
-        <v>7674</v>
+        <v>7667</v>
       </c>
       <c r="I1184" s="11" t="s">
-        <v>7674</v>
+        <v>7667</v>
       </c>
       <c r="J1184" s="11" t="s">
-        <v>7675</v>
+        <v>7668</v>
       </c>
       <c r="K1184" s="11" t="s">
-        <v>7675</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="1185" spans="2:11">
       <c r="B1185" s="11" t="s">
-        <v>7676</v>
+        <v>7669</v>
       </c>
       <c r="C1185" s="11" t="s">
-        <v>7677</v>
+        <v>7670</v>
       </c>
       <c r="D1185" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1185" s="11" t="s">
-        <v>7678</v>
+        <v>7671</v>
       </c>
       <c r="F1185" s="11" t="s">
-        <v>7679</v>
+        <v>7672</v>
       </c>
       <c r="G1185" s="11" t="s">
-        <v>7680</v>
+        <v>7673</v>
       </c>
       <c r="H1185" s="11" t="s">
-        <v>7680</v>
+        <v>7673</v>
       </c>
       <c r="I1185" s="11" t="s">
-        <v>7680</v>
+        <v>7673</v>
       </c>
       <c r="J1185" s="11" t="s">
-        <v>7681</v>
+        <v>7674</v>
       </c>
       <c r="K1185" s="11" t="s">
-        <v>7681</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="1186" spans="2:11">
       <c r="B1186" s="11" t="s">
-        <v>7682</v>
+        <v>7675</v>
       </c>
       <c r="C1186" s="11" t="s">
-        <v>7683</v>
+        <v>7676</v>
       </c>
       <c r="D1186" s="37" t="s">
         <v>3036</v>
       </c>
       <c r="E1186" s="11" t="s">
+        <v>7677</v>
+      </c>
+      <c r="F1186" s="11" t="s">
+        <v>7678</v>
+      </c>
+      <c r="G1186" s="11" t="s">
+        <v>7679</v>
+      </c>
+      <c r="H1186" s="11" t="s">
+        <v>7679</v>
+      </c>
+      <c r="I1186" s="11" t="s">
+        <v>7679</v>
+      </c>
+      <c r="J1186" s="11" t="s">
+        <v>7680</v>
+      </c>
+      <c r="K1186" s="11" t="s">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:11">
+      <c r="B1187" s="11" t="s">
+        <v>7681</v>
+      </c>
+      <c r="C1187" s="11" t="s">
+        <v>7682</v>
+      </c>
+      <c r="D1187" s="37" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E1187" s="11" t="s">
+        <v>7683</v>
+      </c>
+      <c r="F1187" s="11" t="s">
         <v>7684</v>
       </c>
-      <c r="F1186" s="11" t="s">
+      <c r="G1187" s="11" t="s">
         <v>7685</v>
       </c>
-      <c r="G1186" s="11" t="s">
+      <c r="H1187" s="11" t="s">
+        <v>7685</v>
+      </c>
+      <c r="I1187" s="11" t="s">
+        <v>7685</v>
+      </c>
+      <c r="J1187" s="11" t="s">
         <v>7686</v>
       </c>
-      <c r="H1186" s="11" t="s">
+      <c r="K1187" s="11" t="s">
         <v>7686</v>
-      </c>
-      <c r="I1186" s="11" t="s">
-        <v>7686</v>
-      </c>
-      <c r="J1186" s="11" t="s">
-        <v>7687</v>
-      </c>
-      <c r="K1186" s="11" t="s">
-        <v>7687</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -10319,31 +10319,31 @@
     <t>217007</t>
   </si>
   <si>
-    <t>累計充值達到{0}</t>
-  </si>
-  <si>
-    <t>Recharge up to {0}</t>
-  </si>
-  <si>
-    <t>Recarga de até {0}</t>
-  </si>
-  <si>
-    <t>Isi ulang hingga {0}</t>
+    <t>累計充值達到{0}PHP</t>
+  </si>
+  <si>
+    <t>Recharge up to {0}PHP</t>
+  </si>
+  <si>
+    <t>Recarga de até {0}PHP</t>
+  </si>
+  <si>
+    <t>Isi ulang hingga {0}PHP</t>
   </si>
   <si>
     <t>217008</t>
   </si>
   <si>
-    <t>下注{0}</t>
-  </si>
-  <si>
-    <t>Bet {0}</t>
-  </si>
-  <si>
-    <t>Aposta {0}</t>
-  </si>
-  <si>
-    <t>Bertaruh {0}</t>
+    <t>下注{0}次</t>
+  </si>
+  <si>
+    <t>Bet {0}times</t>
+  </si>
+  <si>
+    <t>Aposta {0}vezes</t>
+  </si>
+  <si>
+    <t>Taruhan {0} kali</t>
   </si>
   <si>
     <t>217009</t>
@@ -24768,7 +24768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -24920,6 +24920,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -25305,8 +25308,8 @@
   <sheetPr/>
   <dimension ref="A1:N1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A811" workbookViewId="0">
+      <selection activeCell="F508" sqref="F508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38834,31 +38837,31 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="501" s="1" customFormat="1" spans="2:11">
-      <c r="B501" s="49" t="s">
+    <row r="501" s="7" customFormat="1" ht="27" spans="2:11">
+      <c r="B501" s="7" t="s">
         <v>3257</v>
       </c>
-      <c r="C501" s="49"/>
-      <c r="D501" s="50"/>
-      <c r="E501" s="49" t="s">
+      <c r="C501" s="7"/>
+      <c r="D501" s="51"/>
+      <c r="E501" s="7" t="s">
         <v>3258</v>
       </c>
-      <c r="F501" s="1" t="s">
+      <c r="F501" s="7" t="s">
         <v>3259</v>
       </c>
-      <c r="G501" s="1" t="s">
+      <c r="G501" s="7" t="s">
         <v>3260</v>
       </c>
-      <c r="H501" s="1" t="s">
+      <c r="H501" s="7" t="s">
         <v>3260</v>
       </c>
-      <c r="I501" s="1" t="s">
+      <c r="I501" s="7" t="s">
         <v>3260</v>
       </c>
-      <c r="J501" s="1" t="s">
+      <c r="J501" s="7" t="s">
         <v>3261</v>
       </c>
-      <c r="K501" s="1" t="s">
+      <c r="K501" s="7" t="s">
         <v>3261</v>
       </c>
     </row>
@@ -39216,7 +39219,7 @@
       <c r="E515" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="F515" s="51" t="s">
+      <c r="F515" s="52" t="s">
         <v>3355</v>
       </c>
       <c r="G515" s="1" t="s">
@@ -39243,7 +39246,7 @@
       <c r="E516" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="F516" s="51" t="s">
+      <c r="F516" s="52" t="s">
         <v>3363</v>
       </c>
       <c r="G516" s="1" t="s">
@@ -39270,7 +39273,7 @@
       <c r="E517" s="1" t="s">
         <v>3370</v>
       </c>
-      <c r="F517" s="52" t="s">
+      <c r="F517" s="53" t="s">
         <v>3371</v>
       </c>
       <c r="G517" s="1" t="s">
@@ -39294,7 +39297,7 @@
         <v>3376</v>
       </c>
       <c r="C518" s="1"/>
-      <c r="E518" s="53" t="s">
+      <c r="E518" s="54" t="s">
         <v>3377</v>
       </c>
       <c r="F518" s="1" t="s">
@@ -39321,7 +39324,7 @@
         <v>3383</v>
       </c>
       <c r="C519" s="1"/>
-      <c r="E519" s="53" t="s">
+      <c r="E519" s="54" t="s">
         <v>3384</v>
       </c>
       <c r="F519" s="1" t="s">
@@ -40387,7 +40390,7 @@
       </c>
     </row>
     <row r="557" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B557" s="54" t="s">
+      <c r="B557" s="55" t="s">
         <v>3682</v>
       </c>
       <c r="E557" s="1" t="s">
@@ -40413,7 +40416,7 @@
       </c>
     </row>
     <row r="558" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B558" s="54" t="s">
+      <c r="B558" s="55" t="s">
         <v>3690</v>
       </c>
       <c r="E558" s="1" t="s">
@@ -41175,7 +41178,7 @@
       </c>
     </row>
     <row r="586" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B586" s="54" t="s">
+      <c r="B586" s="55" t="s">
         <v>3896</v>
       </c>
       <c r="E586" s="1" t="s">
@@ -41201,7 +41204,7 @@
       </c>
     </row>
     <row r="587" s="1" customFormat="1" ht="27" spans="2:11">
-      <c r="B587" s="54" t="s">
+      <c r="B587" s="55" t="s">
         <v>3903</v>
       </c>
       <c r="D587" s="2"/>
@@ -41228,7 +41231,7 @@
       </c>
     </row>
     <row r="588" s="1" customFormat="1" spans="2:11">
-      <c r="B588" s="54" t="s">
+      <c r="B588" s="55" t="s">
         <v>3911</v>
       </c>
       <c r="D588" s="2"/>
@@ -41255,7 +41258,7 @@
       </c>
     </row>
     <row r="589" s="1" customFormat="1" spans="2:11">
-      <c r="B589" s="54" t="s">
+      <c r="B589" s="55" t="s">
         <v>3919</v>
       </c>
       <c r="D589" s="2"/>
@@ -41421,13 +41424,13 @@
       </c>
     </row>
     <row r="595" s="8" customFormat="1" spans="2:11">
-      <c r="B595" s="55" t="s">
+      <c r="B595" s="56" t="s">
         <v>3957</v>
       </c>
       <c r="E595" s="8" t="s">
         <v>3958</v>
       </c>
-      <c r="F595" s="55" t="s">
+      <c r="F595" s="56" t="s">
         <v>3959</v>
       </c>
       <c r="G595" s="8" t="s">
@@ -43477,7 +43480,7 @@
       </c>
     </row>
     <row r="669" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B669" s="54" t="s">
+      <c r="B669" s="55" t="s">
         <v>4475</v>
       </c>
       <c r="C669" s="1"/>
@@ -43504,7 +43507,7 @@
       </c>
     </row>
     <row r="670" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B670" s="54" t="s">
+      <c r="B670" s="55" t="s">
         <v>4483</v>
       </c>
       <c r="C670" s="1"/>
@@ -43531,7 +43534,7 @@
       </c>
     </row>
     <row r="671" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B671" s="54" t="s">
+      <c r="B671" s="55" t="s">
         <v>4491</v>
       </c>
       <c r="C671" s="1"/>
@@ -43558,11 +43561,11 @@
       </c>
     </row>
     <row r="672" s="2" customFormat="1" ht="27" spans="2:11">
-      <c r="B672" s="54" t="s">
+      <c r="B672" s="55" t="s">
         <v>4499</v>
       </c>
       <c r="C672" s="6"/>
-      <c r="D672" s="56"/>
+      <c r="D672" s="57"/>
       <c r="E672" s="6" t="s">
         <v>4500</v>
       </c>
@@ -43586,7 +43589,7 @@
       </c>
     </row>
     <row r="673" s="2" customFormat="1" spans="2:11">
-      <c r="B673" s="54" t="s">
+      <c r="B673" s="55" t="s">
         <v>4507</v>
       </c>
       <c r="C673" s="1"/>
@@ -43613,7 +43616,7 @@
       </c>
     </row>
     <row r="674" s="2" customFormat="1" ht="94.5" spans="2:11">
-      <c r="B674" s="54" t="s">
+      <c r="B674" s="55" t="s">
         <v>4515</v>
       </c>
       <c r="C674" s="1"/>
@@ -43640,110 +43643,110 @@
       </c>
     </row>
     <row r="675" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B675" s="57" t="s">
+      <c r="B675" s="58" t="s">
         <v>4523</v>
       </c>
-      <c r="C675" s="58"/>
-      <c r="E675" s="58" t="s">
+      <c r="C675" s="59"/>
+      <c r="E675" s="59" t="s">
         <v>4524</v>
       </c>
-      <c r="F675" s="58" t="s">
+      <c r="F675" s="59" t="s">
         <v>4525</v>
       </c>
-      <c r="G675" s="58" t="s">
+      <c r="G675" s="59" t="s">
         <v>4526</v>
       </c>
-      <c r="H675" s="58" t="s">
+      <c r="H675" s="59" t="s">
         <v>4527</v>
       </c>
-      <c r="I675" s="58" t="s">
+      <c r="I675" s="59" t="s">
         <v>4528</v>
       </c>
-      <c r="J675" s="58" t="s">
+      <c r="J675" s="59" t="s">
         <v>4529</v>
       </c>
-      <c r="K675" s="58" t="s">
+      <c r="K675" s="59" t="s">
         <v>4525</v>
       </c>
     </row>
     <row r="676" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B676" s="57" t="s">
+      <c r="B676" s="58" t="s">
         <v>4530</v>
       </c>
-      <c r="C676" s="58"/>
-      <c r="E676" s="58" t="s">
+      <c r="C676" s="59"/>
+      <c r="E676" s="59" t="s">
         <v>4531</v>
       </c>
-      <c r="F676" s="58" t="s">
+      <c r="F676" s="59" t="s">
         <v>4532</v>
       </c>
-      <c r="G676" s="58" t="s">
+      <c r="G676" s="59" t="s">
         <v>4533</v>
       </c>
-      <c r="H676" s="58" t="s">
+      <c r="H676" s="59" t="s">
         <v>4534</v>
       </c>
-      <c r="I676" s="58" t="s">
+      <c r="I676" s="59" t="s">
         <v>4535</v>
       </c>
-      <c r="J676" s="58" t="s">
+      <c r="J676" s="59" t="s">
         <v>4536</v>
       </c>
-      <c r="K676" s="58" t="s">
+      <c r="K676" s="59" t="s">
         <v>4537</v>
       </c>
     </row>
     <row r="677" s="10" customFormat="1" ht="54" spans="2:11">
-      <c r="B677" s="57" t="s">
+      <c r="B677" s="58" t="s">
         <v>4538</v>
       </c>
-      <c r="C677" s="58"/>
-      <c r="E677" s="58" t="s">
+      <c r="C677" s="59"/>
+      <c r="E677" s="59" t="s">
         <v>4539</v>
       </c>
-      <c r="F677" s="58" t="s">
+      <c r="F677" s="59" t="s">
         <v>4540</v>
       </c>
-      <c r="G677" s="58" t="s">
+      <c r="G677" s="59" t="s">
         <v>4541</v>
       </c>
-      <c r="H677" s="58" t="s">
+      <c r="H677" s="59" t="s">
         <v>4542</v>
       </c>
-      <c r="I677" s="58" t="s">
+      <c r="I677" s="59" t="s">
         <v>4543</v>
       </c>
-      <c r="J677" s="58" t="s">
+      <c r="J677" s="59" t="s">
         <v>4544</v>
       </c>
-      <c r="K677" s="58" t="s">
+      <c r="K677" s="59" t="s">
         <v>4545</v>
       </c>
     </row>
     <row r="678" s="10" customFormat="1" ht="27" spans="2:11">
-      <c r="B678" s="57" t="s">
+      <c r="B678" s="58" t="s">
         <v>4546</v>
       </c>
-      <c r="C678" s="58"/>
-      <c r="E678" s="58" t="s">
+      <c r="C678" s="59"/>
+      <c r="E678" s="59" t="s">
         <v>4547</v>
       </c>
-      <c r="F678" s="58" t="s">
+      <c r="F678" s="59" t="s">
         <v>4548</v>
       </c>
-      <c r="G678" s="58" t="s">
+      <c r="G678" s="59" t="s">
         <v>4549</v>
       </c>
-      <c r="H678" s="58" t="s">
+      <c r="H678" s="59" t="s">
         <v>4550</v>
       </c>
-      <c r="I678" s="58" t="s">
+      <c r="I678" s="59" t="s">
         <v>4551</v>
       </c>
-      <c r="J678" s="58" t="s">
+      <c r="J678" s="59" t="s">
         <v>4552</v>
       </c>
-      <c r="K678" s="58" t="s">
+      <c r="K678" s="59" t="s">
         <v>4553</v>
       </c>
     </row>
@@ -49451,7 +49454,7 @@
       <c r="E896" s="6" t="s">
         <v>6119</v>
       </c>
-      <c r="F896" s="59" t="s">
+      <c r="F896" s="60" t="s">
         <v>6120</v>
       </c>
       <c r="G896" s="1" t="s">
@@ -49477,7 +49480,7 @@
       <c r="E897" s="6" t="s">
         <v>6125</v>
       </c>
-      <c r="F897" s="60" t="s">
+      <c r="F897" s="61" t="s">
         <v>6126</v>
       </c>
       <c r="G897" s="1" t="s">
@@ -49503,7 +49506,7 @@
       <c r="E898" s="6" t="s">
         <v>6131</v>
       </c>
-      <c r="F898" s="60" t="s">
+      <c r="F898" s="61" t="s">
         <v>6132</v>
       </c>
       <c r="G898" s="1" t="s">
@@ -49531,7 +49534,7 @@
       <c r="E899" s="6" t="s">
         <v>6136</v>
       </c>
-      <c r="F899" s="53" t="s">
+      <c r="F899" s="54" t="s">
         <v>6137</v>
       </c>
       <c r="G899" s="1" t="s">
@@ -49559,7 +49562,7 @@
       <c r="E900" s="6" t="s">
         <v>6072</v>
       </c>
-      <c r="F900" s="60" t="s">
+      <c r="F900" s="61" t="s">
         <v>6143</v>
       </c>
       <c r="G900" s="1" t="s">
@@ -49587,7 +49590,7 @@
       <c r="E901" s="6" t="s">
         <v>6150</v>
       </c>
-      <c r="F901" s="60" t="s">
+      <c r="F901" s="61" t="s">
         <v>6151</v>
       </c>
       <c r="G901" s="1" t="s">
@@ -49615,7 +49618,7 @@
       <c r="E902" s="6" t="s">
         <v>6158</v>
       </c>
-      <c r="F902" s="60" t="s">
+      <c r="F902" s="61" t="s">
         <v>6159</v>
       </c>
       <c r="G902" s="1" t="s">
@@ -49643,7 +49646,7 @@
       <c r="E903" s="6" t="s">
         <v>6166</v>
       </c>
-      <c r="F903" s="60" t="s">
+      <c r="F903" s="61" t="s">
         <v>6167</v>
       </c>
       <c r="G903" s="1" t="s">
@@ -49671,7 +49674,7 @@
       <c r="E904" s="6" t="s">
         <v>6172</v>
       </c>
-      <c r="F904" s="60" t="s">
+      <c r="F904" s="61" t="s">
         <v>6173</v>
       </c>
       <c r="G904" s="1" t="s">
@@ -49699,7 +49702,7 @@
       <c r="E905" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="F905" s="60" t="s">
+      <c r="F905" s="61" t="s">
         <v>6180</v>
       </c>
       <c r="G905" s="1" t="s">
@@ -49727,7 +49730,7 @@
       <c r="E906" s="6" t="s">
         <v>6186</v>
       </c>
-      <c r="F906" s="60" t="s">
+      <c r="F906" s="61" t="s">
         <v>6187</v>
       </c>
       <c r="G906" s="1" t="s">
@@ -49755,7 +49758,7 @@
       <c r="E907" s="6" t="s">
         <v>6192</v>
       </c>
-      <c r="F907" s="60" t="s">
+      <c r="F907" s="61" t="s">
         <v>6193</v>
       </c>
       <c r="G907" s="1" t="s">
@@ -49783,7 +49786,7 @@
       <c r="E908" s="6" t="s">
         <v>6200</v>
       </c>
-      <c r="F908" s="60" t="s">
+      <c r="F908" s="61" t="s">
         <v>6201</v>
       </c>
       <c r="G908" s="1" t="s">
@@ -49811,7 +49814,7 @@
       <c r="E909" s="6" t="s">
         <v>6208</v>
       </c>
-      <c r="F909" s="61" t="s">
+      <c r="F909" s="62" t="s">
         <v>6209</v>
       </c>
       <c r="G909" s="1" t="s">
@@ -49839,7 +49842,7 @@
       <c r="E910" s="1" t="s">
         <v>6216</v>
       </c>
-      <c r="F910" s="61" t="s">
+      <c r="F910" s="62" t="s">
         <v>6217</v>
       </c>
       <c r="G910" s="1" t="s">
@@ -49867,7 +49870,7 @@
       <c r="E911" s="1" t="s">
         <v>6224</v>
       </c>
-      <c r="F911" s="61" t="s">
+      <c r="F911" s="62" t="s">
         <v>6225</v>
       </c>
       <c r="G911" s="1" t="s">
@@ -49895,7 +49898,7 @@
       <c r="E912" s="1" t="s">
         <v>6232</v>
       </c>
-      <c r="F912" s="61" t="s">
+      <c r="F912" s="62" t="s">
         <v>6233</v>
       </c>
       <c r="G912" s="1" t="s">
@@ -49923,7 +49926,7 @@
       <c r="E913" s="1" t="s">
         <v>6239</v>
       </c>
-      <c r="F913" s="61" t="s">
+      <c r="F913" s="62" t="s">
         <v>6240</v>
       </c>
       <c r="G913" s="1" t="s">
@@ -49951,7 +49954,7 @@
       <c r="E914" s="1" t="s">
         <v>6246</v>
       </c>
-      <c r="F914" s="61" t="s">
+      <c r="F914" s="62" t="s">
         <v>6247</v>
       </c>
       <c r="G914" s="1" t="s">
@@ -49979,7 +49982,7 @@
       <c r="E915" s="1" t="s">
         <v>6254</v>
       </c>
-      <c r="F915" s="61" t="s">
+      <c r="F915" s="62" t="s">
         <v>6255</v>
       </c>
       <c r="G915" s="1" t="s">
@@ -50007,7 +50010,7 @@
       <c r="E916" s="1" t="s">
         <v>6262</v>
       </c>
-      <c r="F916" s="61" t="s">
+      <c r="F916" s="62" t="s">
         <v>6263</v>
       </c>
       <c r="G916" s="1" t="s">
@@ -50035,7 +50038,7 @@
       <c r="E917" s="1" t="s">
         <v>6269</v>
       </c>
-      <c r="F917" s="61" t="s">
+      <c r="F917" s="62" t="s">
         <v>6270</v>
       </c>
       <c r="G917" s="1" t="s">
@@ -50063,7 +50066,7 @@
       <c r="E918" s="1" t="s">
         <v>6277</v>
       </c>
-      <c r="F918" s="61" t="s">
+      <c r="F918" s="62" t="s">
         <v>6278</v>
       </c>
       <c r="G918" s="1" t="s">
@@ -50091,7 +50094,7 @@
       <c r="E919" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="F919" s="61" t="s">
+      <c r="F919" s="62" t="s">
         <v>6285</v>
       </c>
       <c r="G919" s="1" t="s">
@@ -50577,29 +50580,29 @@
       </c>
     </row>
     <row r="937" s="10" customFormat="1" ht="121.5" spans="2:11">
-      <c r="B937" s="58" t="s">
+      <c r="B937" s="59" t="s">
         <v>6425</v>
       </c>
-      <c r="C937" s="58"/>
-      <c r="E937" s="58" t="s">
+      <c r="C937" s="59"/>
+      <c r="E937" s="59" t="s">
         <v>6426</v>
       </c>
-      <c r="F937" s="58" t="s">
+      <c r="F937" s="59" t="s">
         <v>6427</v>
       </c>
-      <c r="G937" s="58" t="s">
+      <c r="G937" s="59" t="s">
         <v>6428</v>
       </c>
-      <c r="H937" s="58" t="s">
+      <c r="H937" s="59" t="s">
         <v>6429</v>
       </c>
-      <c r="I937" s="58" t="s">
+      <c r="I937" s="59" t="s">
         <v>6430</v>
       </c>
-      <c r="J937" s="58" t="s">
+      <c r="J937" s="59" t="s">
         <v>6431</v>
       </c>
-      <c r="K937" s="58" t="s">
+      <c r="K937" s="59" t="s">
         <v>6432</v>
       </c>
     </row>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="17535" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -8448,13 +8448,13 @@
     <t>應用名沒有多語言</t>
   </si>
   <si>
-    <t>ZapZap</t>
+    <t>FaceBook</t>
   </si>
   <si>
     <t>212008</t>
   </si>
   <si>
-    <t>Viber</t>
+    <t>Telegram</t>
   </si>
   <si>
     <t>212009</t>
@@ -25308,8 +25308,8 @@
   <sheetPr/>
   <dimension ref="A1:N1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A811" workbookViewId="0">
-      <selection activeCell="F508" sqref="F508"/>
+    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38841,7 +38841,6 @@
       <c r="B501" s="7" t="s">
         <v>3257</v>
       </c>
-      <c r="C501" s="7"/>
       <c r="D501" s="51"/>
       <c r="E501" s="7" t="s">
         <v>3258</v>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17535" windowHeight="10995"/>
+    <workbookView windowWidth="21885" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9756" uniqueCount="7684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9786" uniqueCount="7693">
   <si>
     <t>##var</t>
   </si>
@@ -23061,6 +23061,33 @@
   </si>
   <si>
     <t>xgmm_yn</t>
+  </si>
+  <si>
+    <t>601004</t>
+  </si>
+  <si>
+    <t>修改头像标题</t>
+  </si>
+  <si>
+    <t>xgtx_yw</t>
+  </si>
+  <si>
+    <t>601005</t>
+  </si>
+  <si>
+    <t>提示标题</t>
+  </si>
+  <si>
+    <t>tips_yw</t>
+  </si>
+  <si>
+    <t>601006</t>
+  </si>
+  <si>
+    <t>客服弹窗标题</t>
+  </si>
+  <si>
+    <t>kftc_yw</t>
   </si>
   <si>
     <t>602001</t>
@@ -25306,10 +25333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1187"/>
+  <dimension ref="A1:N1190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" workbookViewId="0">
-      <selection activeCell="C401" sqref="C401"/>
+    <sheetView tabSelected="1" topLeftCell="A1127" workbookViewId="0">
+      <selection activeCell="E1137" sqref="E1137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -55708,7 +55735,7 @@
       </c>
     </row>
     <row r="1131" spans="2:11">
-      <c r="B1131" s="13" t="s">
+      <c r="B1131" s="1" t="s">
         <v>7366</v>
       </c>
       <c r="C1131" s="13" t="s">
@@ -55721,1814 +55748,1910 @@
         <v>7368</v>
       </c>
       <c r="F1131" s="13" t="s">
+        <v>7368</v>
+      </c>
+      <c r="G1131" s="13" t="s">
+        <v>7368</v>
+      </c>
+      <c r="H1131" s="13" t="s">
+        <v>7368</v>
+      </c>
+      <c r="I1131" s="13" t="s">
+        <v>7368</v>
+      </c>
+      <c r="J1131" s="13" t="s">
+        <v>7368</v>
+      </c>
+      <c r="K1131" s="13" t="s">
+        <v>7368</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:11">
+      <c r="B1132" s="1" t="s">
         <v>7369</v>
       </c>
-      <c r="G1131" s="13" t="s">
+      <c r="C1132" s="13" t="s">
         <v>7370</v>
-      </c>
-      <c r="H1131" s="13" t="s">
-        <v>7370</v>
-      </c>
-      <c r="I1131" s="13" t="s">
-        <v>7370</v>
-      </c>
-      <c r="J1131" s="13" t="s">
-        <v>7371</v>
-      </c>
-      <c r="K1131" s="13" t="s">
-        <v>7371</v>
-      </c>
-    </row>
-    <row r="1132" spans="2:11">
-      <c r="B1132" s="13" t="s">
-        <v>7372</v>
-      </c>
-      <c r="C1132" s="13" t="s">
-        <v>7373</v>
       </c>
       <c r="D1132" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1132" s="13" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="F1132" s="13" t="s">
-        <v>7375</v>
+        <v>7371</v>
       </c>
       <c r="G1132" s="13" t="s">
-        <v>7376</v>
+        <v>7371</v>
       </c>
       <c r="H1132" s="13" t="s">
-        <v>7376</v>
+        <v>7371</v>
       </c>
       <c r="I1132" s="13" t="s">
-        <v>7376</v>
+        <v>7371</v>
       </c>
       <c r="J1132" s="13" t="s">
-        <v>7377</v>
+        <v>7371</v>
       </c>
       <c r="K1132" s="13" t="s">
-        <v>7377</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="1133" spans="2:11">
-      <c r="B1133" s="13" t="s">
-        <v>7378</v>
+      <c r="B1133" s="1" t="s">
+        <v>7372</v>
       </c>
       <c r="C1133" s="13" t="s">
-        <v>7379</v>
+        <v>7373</v>
       </c>
       <c r="D1133" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1133" s="13" t="s">
-        <v>7380</v>
+        <v>7374</v>
       </c>
       <c r="F1133" s="13" t="s">
-        <v>7381</v>
+        <v>7374</v>
       </c>
       <c r="G1133" s="13" t="s">
-        <v>7382</v>
+        <v>7374</v>
       </c>
       <c r="H1133" s="13" t="s">
-        <v>7382</v>
+        <v>7374</v>
       </c>
       <c r="I1133" s="13" t="s">
-        <v>7382</v>
+        <v>7374</v>
       </c>
       <c r="J1133" s="13" t="s">
-        <v>7383</v>
+        <v>7374</v>
       </c>
       <c r="K1133" s="13" t="s">
-        <v>7383</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="1134" spans="2:11">
       <c r="B1134" s="13" t="s">
-        <v>7384</v>
+        <v>7375</v>
       </c>
       <c r="C1134" s="13" t="s">
-        <v>7385</v>
+        <v>7376</v>
       </c>
       <c r="D1134" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1134" s="13" t="s">
-        <v>7386</v>
+        <v>7377</v>
       </c>
       <c r="F1134" s="13" t="s">
-        <v>7387</v>
+        <v>7378</v>
       </c>
       <c r="G1134" s="13" t="s">
-        <v>7388</v>
+        <v>7379</v>
       </c>
       <c r="H1134" s="13" t="s">
-        <v>7388</v>
+        <v>7379</v>
       </c>
       <c r="I1134" s="13" t="s">
-        <v>7388</v>
+        <v>7379</v>
       </c>
       <c r="J1134" s="13" t="s">
-        <v>7389</v>
+        <v>7380</v>
       </c>
       <c r="K1134" s="13" t="s">
-        <v>7389</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="1135" spans="2:11">
       <c r="B1135" s="13" t="s">
-        <v>7390</v>
+        <v>7381</v>
       </c>
       <c r="C1135" s="13" t="s">
-        <v>7391</v>
+        <v>7382</v>
       </c>
       <c r="D1135" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1135" s="13" t="s">
-        <v>7392</v>
+        <v>7383</v>
       </c>
       <c r="F1135" s="13" t="s">
-        <v>7393</v>
+        <v>7384</v>
       </c>
       <c r="G1135" s="13" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="H1135" s="13" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="I1135" s="13" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="J1135" s="13" t="s">
-        <v>7395</v>
+        <v>7386</v>
       </c>
       <c r="K1135" s="13" t="s">
-        <v>7395</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="1136" spans="2:11">
       <c r="B1136" s="13" t="s">
-        <v>7396</v>
+        <v>7387</v>
       </c>
       <c r="C1136" s="13" t="s">
-        <v>7397</v>
+        <v>7388</v>
       </c>
       <c r="D1136" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1136" s="13" t="s">
-        <v>7398</v>
+        <v>7389</v>
       </c>
       <c r="F1136" s="13" t="s">
-        <v>7399</v>
+        <v>7390</v>
       </c>
       <c r="G1136" s="13" t="s">
-        <v>7400</v>
+        <v>7391</v>
       </c>
       <c r="H1136" s="13" t="s">
-        <v>7400</v>
+        <v>7391</v>
       </c>
       <c r="I1136" s="13" t="s">
-        <v>7400</v>
+        <v>7391</v>
       </c>
       <c r="J1136" s="13" t="s">
-        <v>7401</v>
+        <v>7392</v>
       </c>
       <c r="K1136" s="13" t="s">
-        <v>7401</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="1137" spans="2:11">
       <c r="B1137" s="13" t="s">
-        <v>7402</v>
-      </c>
-      <c r="C1137" s="1" t="s">
-        <v>1660</v>
+        <v>7393</v>
+      </c>
+      <c r="C1137" s="13" t="s">
+        <v>7394</v>
       </c>
       <c r="D1137" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1137" s="13" t="s">
-        <v>7403</v>
+        <v>7395</v>
       </c>
       <c r="F1137" s="13" t="s">
-        <v>7404</v>
+        <v>7396</v>
       </c>
       <c r="G1137" s="13" t="s">
-        <v>7405</v>
+        <v>7397</v>
       </c>
       <c r="H1137" s="13" t="s">
-        <v>7405</v>
+        <v>7397</v>
       </c>
       <c r="I1137" s="13" t="s">
-        <v>7405</v>
+        <v>7397</v>
       </c>
       <c r="J1137" s="13" t="s">
-        <v>7406</v>
+        <v>7398</v>
       </c>
       <c r="K1137" s="13" t="s">
-        <v>7406</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="1138" spans="2:11">
       <c r="B1138" s="13" t="s">
-        <v>7407</v>
-      </c>
-      <c r="C1138" s="1" t="s">
-        <v>1668</v>
+        <v>7399</v>
+      </c>
+      <c r="C1138" s="13" t="s">
+        <v>7400</v>
       </c>
       <c r="D1138" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1138" s="13" t="s">
-        <v>7408</v>
+        <v>7401</v>
       </c>
       <c r="F1138" s="13" t="s">
-        <v>7409</v>
+        <v>7402</v>
       </c>
       <c r="G1138" s="13" t="s">
-        <v>7410</v>
+        <v>7403</v>
       </c>
       <c r="H1138" s="13" t="s">
-        <v>7410</v>
+        <v>7403</v>
       </c>
       <c r="I1138" s="13" t="s">
-        <v>7410</v>
+        <v>7403</v>
       </c>
       <c r="J1138" s="13" t="s">
-        <v>7411</v>
+        <v>7404</v>
       </c>
       <c r="K1138" s="13" t="s">
-        <v>7411</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="1139" spans="2:11">
       <c r="B1139" s="13" t="s">
-        <v>7412</v>
-      </c>
-      <c r="C1139" s="1" t="s">
-        <v>1676</v>
+        <v>7405</v>
+      </c>
+      <c r="C1139" s="13" t="s">
+        <v>7406</v>
       </c>
       <c r="D1139" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1139" s="13" t="s">
-        <v>7413</v>
+        <v>7407</v>
       </c>
       <c r="F1139" s="13" t="s">
-        <v>7414</v>
+        <v>7408</v>
       </c>
       <c r="G1139" s="13" t="s">
-        <v>7415</v>
+        <v>7409</v>
       </c>
       <c r="H1139" s="13" t="s">
-        <v>7415</v>
+        <v>7409</v>
       </c>
       <c r="I1139" s="13" t="s">
-        <v>7415</v>
+        <v>7409</v>
       </c>
       <c r="J1139" s="13" t="s">
-        <v>7416</v>
+        <v>7410</v>
       </c>
       <c r="K1139" s="13" t="s">
-        <v>7416</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="1140" spans="2:11">
       <c r="B1140" s="13" t="s">
-        <v>7417</v>
+        <v>7411</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>1684</v>
+        <v>1660</v>
       </c>
       <c r="D1140" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1140" s="13" t="s">
-        <v>7418</v>
+        <v>7412</v>
       </c>
       <c r="F1140" s="13" t="s">
-        <v>7419</v>
+        <v>7413</v>
       </c>
       <c r="G1140" s="13" t="s">
-        <v>7420</v>
+        <v>7414</v>
       </c>
       <c r="H1140" s="13" t="s">
-        <v>7420</v>
+        <v>7414</v>
       </c>
       <c r="I1140" s="13" t="s">
-        <v>7420</v>
+        <v>7414</v>
       </c>
       <c r="J1140" s="13" t="s">
-        <v>7421</v>
+        <v>7415</v>
       </c>
       <c r="K1140" s="13" t="s">
-        <v>7421</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="1141" spans="2:11">
       <c r="B1141" s="13" t="s">
-        <v>7422</v>
+        <v>7416</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>1691</v>
+        <v>1668</v>
       </c>
       <c r="D1141" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1141" s="13" t="s">
-        <v>7423</v>
+        <v>7417</v>
       </c>
       <c r="F1141" s="13" t="s">
-        <v>7424</v>
+        <v>7418</v>
       </c>
       <c r="G1141" s="13" t="s">
-        <v>7425</v>
+        <v>7419</v>
       </c>
       <c r="H1141" s="13" t="s">
-        <v>7425</v>
+        <v>7419</v>
       </c>
       <c r="I1141" s="13" t="s">
-        <v>7425</v>
+        <v>7419</v>
       </c>
       <c r="J1141" s="13" t="s">
-        <v>7426</v>
+        <v>7420</v>
       </c>
       <c r="K1141" s="13" t="s">
-        <v>7426</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="1142" spans="2:11">
       <c r="B1142" s="13" t="s">
-        <v>7427</v>
+        <v>7421</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>1696</v>
+        <v>1676</v>
       </c>
       <c r="D1142" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1142" s="13" t="s">
-        <v>7428</v>
+        <v>7422</v>
       </c>
       <c r="F1142" s="13" t="s">
-        <v>7429</v>
+        <v>7423</v>
       </c>
       <c r="G1142" s="13" t="s">
-        <v>7430</v>
+        <v>7424</v>
       </c>
       <c r="H1142" s="13" t="s">
-        <v>7430</v>
+        <v>7424</v>
       </c>
       <c r="I1142" s="13" t="s">
-        <v>7430</v>
+        <v>7424</v>
       </c>
       <c r="J1142" s="13" t="s">
-        <v>7431</v>
+        <v>7425</v>
       </c>
       <c r="K1142" s="13" t="s">
-        <v>7431</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="1143" spans="2:11">
       <c r="B1143" s="13" t="s">
-        <v>7432</v>
+        <v>7426</v>
       </c>
       <c r="C1143" s="1" t="s">
-        <v>1704</v>
+        <v>1684</v>
       </c>
       <c r="D1143" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1143" s="13" t="s">
-        <v>7433</v>
+        <v>7427</v>
       </c>
       <c r="F1143" s="13" t="s">
-        <v>7434</v>
+        <v>7428</v>
       </c>
       <c r="G1143" s="13" t="s">
-        <v>7435</v>
+        <v>7429</v>
       </c>
       <c r="H1143" s="13" t="s">
-        <v>7435</v>
+        <v>7429</v>
       </c>
       <c r="I1143" s="13" t="s">
-        <v>7435</v>
+        <v>7429</v>
       </c>
       <c r="J1143" s="13" t="s">
-        <v>7436</v>
+        <v>7430</v>
       </c>
       <c r="K1143" s="13" t="s">
-        <v>7436</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="1144" spans="2:11">
       <c r="B1144" s="13" t="s">
-        <v>7437</v>
+        <v>7431</v>
       </c>
       <c r="C1144" s="1" t="s">
-        <v>1710</v>
+        <v>1691</v>
       </c>
       <c r="D1144" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1144" s="13" t="s">
-        <v>7438</v>
+        <v>7432</v>
       </c>
       <c r="F1144" s="13" t="s">
-        <v>7439</v>
+        <v>7433</v>
       </c>
       <c r="G1144" s="13" t="s">
-        <v>7440</v>
+        <v>7434</v>
       </c>
       <c r="H1144" s="13" t="s">
-        <v>7440</v>
+        <v>7434</v>
       </c>
       <c r="I1144" s="13" t="s">
-        <v>7440</v>
+        <v>7434</v>
       </c>
       <c r="J1144" s="13" t="s">
-        <v>7441</v>
+        <v>7435</v>
       </c>
       <c r="K1144" s="13" t="s">
-        <v>7441</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="1145" spans="2:11">
       <c r="B1145" s="13" t="s">
-        <v>7442</v>
+        <v>7436</v>
       </c>
       <c r="C1145" s="1" t="s">
-        <v>1718</v>
+        <v>1696</v>
       </c>
       <c r="D1145" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1145" s="13" t="s">
-        <v>7443</v>
+        <v>7437</v>
       </c>
       <c r="F1145" s="13" t="s">
-        <v>7444</v>
+        <v>7438</v>
       </c>
       <c r="G1145" s="13" t="s">
-        <v>7445</v>
+        <v>7439</v>
       </c>
       <c r="H1145" s="13" t="s">
-        <v>7445</v>
+        <v>7439</v>
       </c>
       <c r="I1145" s="13" t="s">
-        <v>7445</v>
+        <v>7439</v>
       </c>
       <c r="J1145" s="13" t="s">
-        <v>7446</v>
+        <v>7440</v>
       </c>
       <c r="K1145" s="13" t="s">
-        <v>7446</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="1146" spans="2:11">
       <c r="B1146" s="13" t="s">
-        <v>7447</v>
+        <v>7441</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="D1146" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1146" s="13" t="s">
-        <v>7448</v>
+        <v>7442</v>
       </c>
       <c r="F1146" s="13" t="s">
-        <v>7449</v>
+        <v>7443</v>
       </c>
       <c r="G1146" s="13" t="s">
-        <v>7450</v>
+        <v>7444</v>
       </c>
       <c r="H1146" s="13" t="s">
-        <v>7450</v>
+        <v>7444</v>
       </c>
       <c r="I1146" s="13" t="s">
-        <v>7450</v>
+        <v>7444</v>
       </c>
       <c r="J1146" s="13" t="s">
-        <v>7451</v>
+        <v>7445</v>
       </c>
       <c r="K1146" s="13" t="s">
-        <v>7451</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="1147" spans="2:11">
       <c r="B1147" s="13" t="s">
-        <v>7452</v>
+        <v>7446</v>
       </c>
       <c r="C1147" s="1" t="s">
-        <v>1733</v>
+        <v>1710</v>
       </c>
       <c r="D1147" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1147" s="13" t="s">
-        <v>7453</v>
+        <v>7447</v>
       </c>
       <c r="F1147" s="13" t="s">
-        <v>7454</v>
+        <v>7448</v>
       </c>
       <c r="G1147" s="13" t="s">
-        <v>7455</v>
+        <v>7449</v>
       </c>
       <c r="H1147" s="13" t="s">
-        <v>7455</v>
+        <v>7449</v>
       </c>
       <c r="I1147" s="13" t="s">
-        <v>7455</v>
+        <v>7449</v>
       </c>
       <c r="J1147" s="13" t="s">
-        <v>7456</v>
+        <v>7450</v>
       </c>
       <c r="K1147" s="13" t="s">
-        <v>7456</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="1148" spans="2:11">
       <c r="B1148" s="13" t="s">
-        <v>7457</v>
+        <v>7451</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>1747</v>
+        <v>1718</v>
       </c>
       <c r="D1148" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1148" s="13" t="s">
-        <v>7458</v>
+        <v>7452</v>
       </c>
       <c r="F1148" s="13" t="s">
-        <v>7459</v>
+        <v>7453</v>
       </c>
       <c r="G1148" s="13" t="s">
-        <v>7460</v>
+        <v>7454</v>
       </c>
       <c r="H1148" s="13" t="s">
-        <v>7460</v>
+        <v>7454</v>
       </c>
       <c r="I1148" s="13" t="s">
-        <v>7460</v>
+        <v>7454</v>
       </c>
       <c r="J1148" s="13" t="s">
-        <v>7461</v>
+        <v>7455</v>
       </c>
       <c r="K1148" s="13" t="s">
-        <v>7461</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="1149" spans="2:11">
       <c r="B1149" s="13" t="s">
-        <v>7462</v>
+        <v>7456</v>
       </c>
       <c r="C1149" s="1" t="s">
-        <v>1750</v>
+        <v>1725</v>
       </c>
       <c r="D1149" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1149" s="13" t="s">
-        <v>7463</v>
+        <v>7457</v>
       </c>
       <c r="F1149" s="13" t="s">
-        <v>7464</v>
+        <v>7458</v>
       </c>
       <c r="G1149" s="13" t="s">
-        <v>7465</v>
+        <v>7459</v>
       </c>
       <c r="H1149" s="13" t="s">
-        <v>7465</v>
+        <v>7459</v>
       </c>
       <c r="I1149" s="13" t="s">
-        <v>7465</v>
+        <v>7459</v>
       </c>
       <c r="J1149" s="13" t="s">
-        <v>7466</v>
+        <v>7460</v>
       </c>
       <c r="K1149" s="13" t="s">
-        <v>7466</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="1150" spans="2:11">
       <c r="B1150" s="13" t="s">
-        <v>7467</v>
+        <v>7461</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>1758</v>
+        <v>1733</v>
       </c>
       <c r="D1150" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1150" s="13" t="s">
-        <v>7468</v>
+        <v>7462</v>
       </c>
       <c r="F1150" s="13" t="s">
-        <v>7469</v>
+        <v>7463</v>
       </c>
       <c r="G1150" s="13" t="s">
-        <v>7470</v>
+        <v>7464</v>
       </c>
       <c r="H1150" s="13" t="s">
-        <v>7470</v>
+        <v>7464</v>
       </c>
       <c r="I1150" s="13" t="s">
-        <v>7470</v>
+        <v>7464</v>
       </c>
       <c r="J1150" s="13" t="s">
-        <v>7471</v>
+        <v>7465</v>
       </c>
       <c r="K1150" s="13" t="s">
-        <v>7471</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="1151" spans="2:11">
       <c r="B1151" s="13" t="s">
-        <v>7472</v>
+        <v>7466</v>
       </c>
       <c r="C1151" s="1" t="s">
-        <v>1766</v>
+        <v>1747</v>
       </c>
       <c r="D1151" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1151" s="13" t="s">
-        <v>7473</v>
+        <v>7467</v>
       </c>
       <c r="F1151" s="13" t="s">
-        <v>7474</v>
+        <v>7468</v>
       </c>
       <c r="G1151" s="13" t="s">
-        <v>7475</v>
+        <v>7469</v>
       </c>
       <c r="H1151" s="13" t="s">
-        <v>7475</v>
+        <v>7469</v>
       </c>
       <c r="I1151" s="13" t="s">
-        <v>7475</v>
+        <v>7469</v>
       </c>
       <c r="J1151" s="13" t="s">
-        <v>7476</v>
+        <v>7470</v>
       </c>
       <c r="K1151" s="13" t="s">
-        <v>7476</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="1152" spans="2:11">
       <c r="B1152" s="13" t="s">
-        <v>7477</v>
+        <v>7471</v>
       </c>
       <c r="C1152" s="1" t="s">
-        <v>1774</v>
+        <v>1750</v>
       </c>
       <c r="D1152" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1152" s="13" t="s">
-        <v>7478</v>
+        <v>7472</v>
       </c>
       <c r="F1152" s="13" t="s">
-        <v>7479</v>
+        <v>7473</v>
       </c>
       <c r="G1152" s="13" t="s">
-        <v>7480</v>
+        <v>7474</v>
       </c>
       <c r="H1152" s="13" t="s">
-        <v>7480</v>
+        <v>7474</v>
       </c>
       <c r="I1152" s="13" t="s">
-        <v>7480</v>
+        <v>7474</v>
       </c>
       <c r="J1152" s="13" t="s">
-        <v>7481</v>
+        <v>7475</v>
       </c>
       <c r="K1152" s="13" t="s">
-        <v>7481</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="1153" spans="2:11">
       <c r="B1153" s="13" t="s">
-        <v>7482</v>
+        <v>7476</v>
       </c>
       <c r="C1153" s="1" t="s">
-        <v>1782</v>
+        <v>1758</v>
       </c>
       <c r="D1153" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1153" s="13" t="s">
-        <v>7483</v>
+        <v>7477</v>
       </c>
       <c r="F1153" s="13" t="s">
-        <v>7484</v>
+        <v>7478</v>
       </c>
       <c r="G1153" s="13" t="s">
-        <v>7485</v>
+        <v>7479</v>
       </c>
       <c r="H1153" s="13" t="s">
-        <v>7485</v>
+        <v>7479</v>
       </c>
       <c r="I1153" s="13" t="s">
-        <v>7485</v>
+        <v>7479</v>
       </c>
       <c r="J1153" s="13" t="s">
-        <v>7486</v>
+        <v>7480</v>
       </c>
       <c r="K1153" s="13" t="s">
-        <v>7486</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="1154" spans="2:11">
       <c r="B1154" s="13" t="s">
-        <v>7487</v>
+        <v>7481</v>
       </c>
       <c r="C1154" s="1" t="s">
-        <v>1789</v>
+        <v>1766</v>
       </c>
       <c r="D1154" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1154" s="13" t="s">
-        <v>7488</v>
+        <v>7482</v>
       </c>
       <c r="F1154" s="13" t="s">
-        <v>7489</v>
+        <v>7483</v>
       </c>
       <c r="G1154" s="13" t="s">
-        <v>7490</v>
+        <v>7484</v>
       </c>
       <c r="H1154" s="13" t="s">
-        <v>7490</v>
+        <v>7484</v>
       </c>
       <c r="I1154" s="13" t="s">
-        <v>7490</v>
+        <v>7484</v>
       </c>
       <c r="J1154" s="13" t="s">
-        <v>7491</v>
+        <v>7485</v>
       </c>
       <c r="K1154" s="13" t="s">
-        <v>7491</v>
+        <v>7485</v>
       </c>
     </row>
     <row r="1155" spans="2:11">
       <c r="B1155" s="13" t="s">
-        <v>7492</v>
+        <v>7486</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>1796</v>
+        <v>1774</v>
       </c>
       <c r="D1155" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1155" s="13" t="s">
-        <v>7493</v>
+        <v>7487</v>
       </c>
       <c r="F1155" s="13" t="s">
-        <v>7494</v>
+        <v>7488</v>
       </c>
       <c r="G1155" s="13" t="s">
-        <v>7495</v>
+        <v>7489</v>
       </c>
       <c r="H1155" s="13" t="s">
-        <v>7495</v>
+        <v>7489</v>
       </c>
       <c r="I1155" s="13" t="s">
-        <v>7495</v>
+        <v>7489</v>
       </c>
       <c r="J1155" s="13" t="s">
-        <v>7496</v>
+        <v>7490</v>
       </c>
       <c r="K1155" s="13" t="s">
-        <v>7496</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="1156" spans="2:11">
       <c r="B1156" s="13" t="s">
-        <v>7497</v>
+        <v>7491</v>
       </c>
       <c r="C1156" s="1" t="s">
-        <v>1841</v>
+        <v>1782</v>
       </c>
       <c r="D1156" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1156" s="13" t="s">
-        <v>7498</v>
+        <v>7492</v>
       </c>
       <c r="F1156" s="13" t="s">
-        <v>7499</v>
+        <v>7493</v>
       </c>
       <c r="G1156" s="13" t="s">
-        <v>7500</v>
+        <v>7494</v>
       </c>
       <c r="H1156" s="13" t="s">
-        <v>7500</v>
+        <v>7494</v>
       </c>
       <c r="I1156" s="13" t="s">
-        <v>7500</v>
+        <v>7494</v>
       </c>
       <c r="J1156" s="13" t="s">
-        <v>7501</v>
+        <v>7495</v>
       </c>
       <c r="K1156" s="13" t="s">
-        <v>7501</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="1157" spans="2:11">
       <c r="B1157" s="13" t="s">
-        <v>7502</v>
-      </c>
-      <c r="C1157" s="13" t="s">
-        <v>7503</v>
+        <v>7496</v>
+      </c>
+      <c r="C1157" s="1" t="s">
+        <v>1789</v>
       </c>
       <c r="D1157" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1157" s="13" t="s">
-        <v>7504</v>
+        <v>7497</v>
       </c>
       <c r="F1157" s="13" t="s">
-        <v>7505</v>
+        <v>7498</v>
       </c>
       <c r="G1157" s="13" t="s">
-        <v>7506</v>
+        <v>7499</v>
       </c>
       <c r="H1157" s="13" t="s">
-        <v>7506</v>
+        <v>7499</v>
       </c>
       <c r="I1157" s="13" t="s">
-        <v>7506</v>
+        <v>7499</v>
       </c>
       <c r="J1157" s="13" t="s">
-        <v>7507</v>
+        <v>7500</v>
       </c>
       <c r="K1157" s="13" t="s">
-        <v>7507</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="1158" spans="2:11">
       <c r="B1158" s="13" t="s">
-        <v>7508</v>
-      </c>
-      <c r="C1158" s="13" t="s">
-        <v>7509</v>
+        <v>7501</v>
+      </c>
+      <c r="C1158" s="1" t="s">
+        <v>1796</v>
       </c>
       <c r="D1158" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1158" s="13" t="s">
-        <v>7510</v>
+        <v>7502</v>
       </c>
       <c r="F1158" s="13" t="s">
-        <v>7511</v>
+        <v>7503</v>
       </c>
       <c r="G1158" s="13" t="s">
-        <v>7512</v>
+        <v>7504</v>
       </c>
       <c r="H1158" s="13" t="s">
-        <v>7512</v>
+        <v>7504</v>
       </c>
       <c r="I1158" s="13" t="s">
-        <v>7512</v>
+        <v>7504</v>
       </c>
       <c r="J1158" s="13" t="s">
-        <v>7513</v>
+        <v>7505</v>
       </c>
       <c r="K1158" s="13" t="s">
-        <v>7513</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="1159" spans="2:11">
       <c r="B1159" s="13" t="s">
-        <v>7514</v>
-      </c>
-      <c r="C1159" s="13" t="s">
-        <v>7515</v>
+        <v>7506</v>
+      </c>
+      <c r="C1159" s="1" t="s">
+        <v>1841</v>
       </c>
       <c r="D1159" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1159" s="13" t="s">
-        <v>7516</v>
+        <v>7507</v>
       </c>
       <c r="F1159" s="13" t="s">
-        <v>7517</v>
+        <v>7508</v>
       </c>
       <c r="G1159" s="13" t="s">
-        <v>7518</v>
+        <v>7509</v>
       </c>
       <c r="H1159" s="13" t="s">
-        <v>7518</v>
+        <v>7509</v>
       </c>
       <c r="I1159" s="13" t="s">
-        <v>7518</v>
+        <v>7509</v>
       </c>
       <c r="J1159" s="13" t="s">
-        <v>7519</v>
+        <v>7510</v>
       </c>
       <c r="K1159" s="13" t="s">
-        <v>7519</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="1160" spans="2:11">
       <c r="B1160" s="13" t="s">
-        <v>7520</v>
+        <v>7511</v>
       </c>
       <c r="C1160" s="13" t="s">
-        <v>7521</v>
+        <v>7512</v>
       </c>
       <c r="D1160" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1160" s="13" t="s">
-        <v>7522</v>
+        <v>7513</v>
       </c>
       <c r="F1160" s="13" t="s">
-        <v>7523</v>
+        <v>7514</v>
       </c>
       <c r="G1160" s="13" t="s">
-        <v>7524</v>
+        <v>7515</v>
       </c>
       <c r="H1160" s="13" t="s">
-        <v>7524</v>
+        <v>7515</v>
       </c>
       <c r="I1160" s="13" t="s">
-        <v>7524</v>
+        <v>7515</v>
       </c>
       <c r="J1160" s="13" t="s">
-        <v>7525</v>
+        <v>7516</v>
       </c>
       <c r="K1160" s="13" t="s">
-        <v>7525</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="1161" spans="2:11">
       <c r="B1161" s="13" t="s">
-        <v>7526</v>
-      </c>
-      <c r="C1161" s="40" t="s">
-        <v>7527</v>
+        <v>7517</v>
+      </c>
+      <c r="C1161" s="13" t="s">
+        <v>7518</v>
       </c>
       <c r="D1161" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1161" s="13" t="s">
-        <v>7528</v>
+        <v>7519</v>
       </c>
       <c r="F1161" s="13" t="s">
-        <v>7529</v>
+        <v>7520</v>
       </c>
       <c r="G1161" s="13" t="s">
-        <v>7530</v>
+        <v>7521</v>
       </c>
       <c r="H1161" s="13" t="s">
-        <v>7530</v>
+        <v>7521</v>
       </c>
       <c r="I1161" s="13" t="s">
-        <v>7530</v>
+        <v>7521</v>
       </c>
       <c r="J1161" s="13" t="s">
-        <v>7531</v>
+        <v>7522</v>
       </c>
       <c r="K1161" s="13" t="s">
-        <v>7531</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="1162" spans="2:11">
       <c r="B1162" s="13" t="s">
-        <v>7532</v>
-      </c>
-      <c r="C1162" s="40" t="s">
-        <v>7533</v>
+        <v>7523</v>
+      </c>
+      <c r="C1162" s="13" t="s">
+        <v>7524</v>
       </c>
       <c r="D1162" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1162" s="13" t="s">
-        <v>7534</v>
+        <v>7525</v>
       </c>
       <c r="F1162" s="13" t="s">
-        <v>7535</v>
+        <v>7526</v>
       </c>
       <c r="G1162" s="13" t="s">
-        <v>7536</v>
+        <v>7527</v>
       </c>
       <c r="H1162" s="13" t="s">
-        <v>7536</v>
+        <v>7527</v>
       </c>
       <c r="I1162" s="13" t="s">
-        <v>7536</v>
+        <v>7527</v>
       </c>
       <c r="J1162" s="13" t="s">
-        <v>7537</v>
+        <v>7528</v>
       </c>
       <c r="K1162" s="13" t="s">
-        <v>7537</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="1163" spans="2:11">
       <c r="B1163" s="13" t="s">
-        <v>7538</v>
-      </c>
-      <c r="C1163" s="40" t="s">
-        <v>7539</v>
+        <v>7529</v>
+      </c>
+      <c r="C1163" s="13" t="s">
+        <v>7530</v>
       </c>
       <c r="D1163" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1163" s="13" t="s">
-        <v>7540</v>
+        <v>7531</v>
       </c>
       <c r="F1163" s="13" t="s">
-        <v>7541</v>
+        <v>7532</v>
       </c>
       <c r="G1163" s="13" t="s">
-        <v>7542</v>
+        <v>7533</v>
       </c>
       <c r="H1163" s="13" t="s">
-        <v>7542</v>
+        <v>7533</v>
       </c>
       <c r="I1163" s="13" t="s">
-        <v>7542</v>
+        <v>7533</v>
       </c>
       <c r="J1163" s="13" t="s">
-        <v>7543</v>
+        <v>7534</v>
       </c>
       <c r="K1163" s="13" t="s">
-        <v>7543</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="1164" spans="2:11">
       <c r="B1164" s="13" t="s">
-        <v>7544</v>
+        <v>7535</v>
       </c>
       <c r="C1164" s="40" t="s">
-        <v>7545</v>
+        <v>7536</v>
       </c>
       <c r="D1164" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1164" s="13" t="s">
-        <v>7546</v>
+        <v>7537</v>
       </c>
       <c r="F1164" s="13" t="s">
-        <v>7547</v>
+        <v>7538</v>
       </c>
       <c r="G1164" s="13" t="s">
-        <v>7548</v>
+        <v>7539</v>
       </c>
       <c r="H1164" s="13" t="s">
-        <v>7548</v>
+        <v>7539</v>
       </c>
       <c r="I1164" s="13" t="s">
-        <v>7548</v>
+        <v>7539</v>
       </c>
       <c r="J1164" s="13" t="s">
-        <v>7549</v>
+        <v>7540</v>
       </c>
       <c r="K1164" s="13" t="s">
-        <v>7549</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="1165" spans="2:11">
       <c r="B1165" s="13" t="s">
-        <v>7550</v>
-      </c>
-      <c r="C1165" s="13" t="s">
-        <v>7551</v>
+        <v>7541</v>
+      </c>
+      <c r="C1165" s="40" t="s">
+        <v>7542</v>
       </c>
       <c r="D1165" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1165" s="13" t="s">
-        <v>7552</v>
+        <v>7543</v>
       </c>
       <c r="F1165" s="13" t="s">
-        <v>7553</v>
+        <v>7544</v>
       </c>
       <c r="G1165" s="13" t="s">
-        <v>7554</v>
+        <v>7545</v>
       </c>
       <c r="H1165" s="13" t="s">
-        <v>7554</v>
+        <v>7545</v>
       </c>
       <c r="I1165" s="13" t="s">
-        <v>7554</v>
+        <v>7545</v>
       </c>
       <c r="J1165" s="13" t="s">
-        <v>7555</v>
+        <v>7546</v>
       </c>
       <c r="K1165" s="13" t="s">
-        <v>7555</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="1166" spans="2:11">
       <c r="B1166" s="13" t="s">
-        <v>7556</v>
-      </c>
-      <c r="C1166" s="13" t="s">
-        <v>7557</v>
+        <v>7547</v>
+      </c>
+      <c r="C1166" s="40" t="s">
+        <v>7548</v>
       </c>
       <c r="D1166" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1166" s="13" t="s">
-        <v>7558</v>
+        <v>7549</v>
       </c>
       <c r="F1166" s="13" t="s">
-        <v>7559</v>
+        <v>7550</v>
       </c>
       <c r="G1166" s="13" t="s">
-        <v>7560</v>
+        <v>7551</v>
       </c>
       <c r="H1166" s="13" t="s">
-        <v>7560</v>
+        <v>7551</v>
       </c>
       <c r="I1166" s="13" t="s">
-        <v>7560</v>
+        <v>7551</v>
       </c>
       <c r="J1166" s="13" t="s">
-        <v>7561</v>
+        <v>7552</v>
       </c>
       <c r="K1166" s="13" t="s">
-        <v>7561</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="1167" spans="2:11">
       <c r="B1167" s="13" t="s">
-        <v>7562</v>
-      </c>
-      <c r="C1167" s="13" t="s">
-        <v>7563</v>
+        <v>7553</v>
+      </c>
+      <c r="C1167" s="40" t="s">
+        <v>7554</v>
       </c>
       <c r="D1167" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1167" s="13" t="s">
-        <v>7564</v>
+        <v>7555</v>
       </c>
       <c r="F1167" s="13" t="s">
-        <v>7565</v>
+        <v>7556</v>
       </c>
       <c r="G1167" s="13" t="s">
-        <v>7566</v>
+        <v>7557</v>
       </c>
       <c r="H1167" s="13" t="s">
-        <v>7566</v>
+        <v>7557</v>
       </c>
       <c r="I1167" s="13" t="s">
-        <v>7566</v>
+        <v>7557</v>
       </c>
       <c r="J1167" s="13" t="s">
-        <v>7567</v>
+        <v>7558</v>
       </c>
       <c r="K1167" s="13" t="s">
-        <v>7567</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="1168" spans="2:11">
       <c r="B1168" s="13" t="s">
-        <v>7568</v>
+        <v>7559</v>
       </c>
       <c r="C1168" s="13" t="s">
-        <v>7569</v>
+        <v>7560</v>
       </c>
       <c r="D1168" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1168" s="13" t="s">
-        <v>7570</v>
+        <v>7561</v>
       </c>
       <c r="F1168" s="13" t="s">
-        <v>7571</v>
+        <v>7562</v>
       </c>
       <c r="G1168" s="13" t="s">
-        <v>7572</v>
+        <v>7563</v>
       </c>
       <c r="H1168" s="13" t="s">
-        <v>7572</v>
+        <v>7563</v>
       </c>
       <c r="I1168" s="13" t="s">
-        <v>7572</v>
+        <v>7563</v>
       </c>
       <c r="J1168" s="13" t="s">
-        <v>7573</v>
+        <v>7564</v>
       </c>
       <c r="K1168" s="13" t="s">
-        <v>7573</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="1169" spans="2:11">
       <c r="B1169" s="13" t="s">
-        <v>7574</v>
+        <v>7565</v>
       </c>
       <c r="C1169" s="13" t="s">
-        <v>7575</v>
+        <v>7566</v>
       </c>
       <c r="D1169" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1169" s="13" t="s">
-        <v>7576</v>
+        <v>7567</v>
       </c>
       <c r="F1169" s="13" t="s">
-        <v>7577</v>
+        <v>7568</v>
       </c>
       <c r="G1169" s="13" t="s">
-        <v>7578</v>
+        <v>7569</v>
       </c>
       <c r="H1169" s="13" t="s">
-        <v>7578</v>
+        <v>7569</v>
       </c>
       <c r="I1169" s="13" t="s">
-        <v>7578</v>
+        <v>7569</v>
       </c>
       <c r="J1169" s="13" t="s">
-        <v>7579</v>
+        <v>7570</v>
       </c>
       <c r="K1169" s="13" t="s">
-        <v>7579</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="1170" spans="2:11">
       <c r="B1170" s="13" t="s">
-        <v>7580</v>
+        <v>7571</v>
       </c>
       <c r="C1170" s="13" t="s">
-        <v>7581</v>
+        <v>7572</v>
       </c>
       <c r="D1170" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1170" s="13" t="s">
-        <v>7582</v>
+        <v>7573</v>
       </c>
       <c r="F1170" s="13" t="s">
-        <v>7583</v>
+        <v>7574</v>
       </c>
       <c r="G1170" s="13" t="s">
-        <v>7584</v>
+        <v>7575</v>
       </c>
       <c r="H1170" s="13" t="s">
-        <v>7584</v>
+        <v>7575</v>
       </c>
       <c r="I1170" s="13" t="s">
-        <v>7584</v>
+        <v>7575</v>
       </c>
       <c r="J1170" s="13" t="s">
-        <v>7585</v>
+        <v>7576</v>
       </c>
       <c r="K1170" s="13" t="s">
-        <v>7585</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="1171" spans="2:11">
       <c r="B1171" s="13" t="s">
-        <v>7586</v>
+        <v>7577</v>
       </c>
       <c r="C1171" s="13" t="s">
-        <v>7587</v>
+        <v>7578</v>
       </c>
       <c r="D1171" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1171" s="13" t="s">
-        <v>7588</v>
+        <v>7579</v>
       </c>
       <c r="F1171" s="13" t="s">
-        <v>7589</v>
+        <v>7580</v>
       </c>
       <c r="G1171" s="13" t="s">
-        <v>7590</v>
+        <v>7581</v>
       </c>
       <c r="H1171" s="13" t="s">
-        <v>7590</v>
+        <v>7581</v>
       </c>
       <c r="I1171" s="13" t="s">
-        <v>7590</v>
+        <v>7581</v>
       </c>
       <c r="J1171" s="13" t="s">
-        <v>7591</v>
+        <v>7582</v>
       </c>
       <c r="K1171" s="13" t="s">
-        <v>7591</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="1172" spans="2:11">
       <c r="B1172" s="13" t="s">
-        <v>7592</v>
+        <v>7583</v>
       </c>
       <c r="C1172" s="13" t="s">
-        <v>7593</v>
+        <v>7584</v>
       </c>
       <c r="D1172" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1172" s="13" t="s">
-        <v>7594</v>
+        <v>7585</v>
       </c>
       <c r="F1172" s="13" t="s">
-        <v>7595</v>
+        <v>7586</v>
       </c>
       <c r="G1172" s="13" t="s">
-        <v>7596</v>
+        <v>7587</v>
       </c>
       <c r="H1172" s="13" t="s">
-        <v>7596</v>
+        <v>7587</v>
       </c>
       <c r="I1172" s="13" t="s">
-        <v>7596</v>
+        <v>7587</v>
       </c>
       <c r="J1172" s="13" t="s">
-        <v>7597</v>
+        <v>7588</v>
       </c>
       <c r="K1172" s="13" t="s">
-        <v>7597</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="1173" spans="2:11">
       <c r="B1173" s="13" t="s">
-        <v>7598</v>
+        <v>7589</v>
       </c>
       <c r="C1173" s="13" t="s">
-        <v>7599</v>
+        <v>7590</v>
       </c>
       <c r="D1173" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1173" s="13" t="s">
-        <v>7600</v>
+        <v>7591</v>
       </c>
       <c r="F1173" s="13" t="s">
-        <v>7601</v>
+        <v>7592</v>
       </c>
       <c r="G1173" s="13" t="s">
-        <v>7602</v>
+        <v>7593</v>
       </c>
       <c r="H1173" s="13" t="s">
-        <v>7602</v>
+        <v>7593</v>
       </c>
       <c r="I1173" s="13" t="s">
-        <v>7602</v>
+        <v>7593</v>
       </c>
       <c r="J1173" s="13" t="s">
-        <v>7603</v>
+        <v>7594</v>
       </c>
       <c r="K1173" s="13" t="s">
-        <v>7603</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="1174" spans="2:11">
       <c r="B1174" s="13" t="s">
-        <v>7604</v>
+        <v>7595</v>
       </c>
       <c r="C1174" s="13" t="s">
-        <v>1800</v>
+        <v>7596</v>
       </c>
       <c r="D1174" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1174" s="13" t="s">
-        <v>7605</v>
+        <v>7597</v>
       </c>
       <c r="F1174" s="13" t="s">
-        <v>7606</v>
+        <v>7598</v>
       </c>
       <c r="G1174" s="13" t="s">
-        <v>7607</v>
+        <v>7599</v>
       </c>
       <c r="H1174" s="13" t="s">
-        <v>7607</v>
+        <v>7599</v>
       </c>
       <c r="I1174" s="13" t="s">
-        <v>7607</v>
+        <v>7599</v>
       </c>
       <c r="J1174" s="13" t="s">
-        <v>7608</v>
+        <v>7600</v>
       </c>
       <c r="K1174" s="13" t="s">
-        <v>7608</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="1175" spans="2:11">
       <c r="B1175" s="13" t="s">
-        <v>7609</v>
+        <v>7601</v>
       </c>
       <c r="C1175" s="13" t="s">
-        <v>1804</v>
+        <v>7602</v>
       </c>
       <c r="D1175" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1175" s="13" t="s">
-        <v>7610</v>
+        <v>7603</v>
       </c>
       <c r="F1175" s="13" t="s">
-        <v>7611</v>
+        <v>7604</v>
       </c>
       <c r="G1175" s="13" t="s">
-        <v>7612</v>
+        <v>7605</v>
       </c>
       <c r="H1175" s="13" t="s">
-        <v>7612</v>
+        <v>7605</v>
       </c>
       <c r="I1175" s="13" t="s">
-        <v>7612</v>
+        <v>7605</v>
       </c>
       <c r="J1175" s="13" t="s">
-        <v>7613</v>
+        <v>7606</v>
       </c>
       <c r="K1175" s="13" t="s">
-        <v>7613</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="1176" spans="2:11">
       <c r="B1176" s="13" t="s">
-        <v>7614</v>
+        <v>7607</v>
       </c>
       <c r="C1176" s="13" t="s">
-        <v>1812</v>
+        <v>7608</v>
       </c>
       <c r="D1176" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1176" s="13" t="s">
-        <v>7615</v>
+        <v>7609</v>
       </c>
       <c r="F1176" s="13" t="s">
-        <v>7616</v>
+        <v>7610</v>
       </c>
       <c r="G1176" s="13" t="s">
-        <v>7617</v>
+        <v>7611</v>
       </c>
       <c r="H1176" s="13" t="s">
-        <v>7617</v>
+        <v>7611</v>
       </c>
       <c r="I1176" s="13" t="s">
-        <v>7617</v>
+        <v>7611</v>
       </c>
       <c r="J1176" s="13" t="s">
-        <v>7618</v>
+        <v>7612</v>
       </c>
       <c r="K1176" s="13" t="s">
-        <v>7618</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="1177" spans="2:11">
       <c r="B1177" s="13" t="s">
-        <v>7619</v>
+        <v>7613</v>
       </c>
       <c r="C1177" s="13" t="s">
-        <v>1819</v>
+        <v>1800</v>
       </c>
       <c r="D1177" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1177" s="13" t="s">
-        <v>7620</v>
+        <v>7614</v>
       </c>
       <c r="F1177" s="13" t="s">
-        <v>7621</v>
+        <v>7615</v>
       </c>
       <c r="G1177" s="13" t="s">
-        <v>7622</v>
+        <v>7616</v>
       </c>
       <c r="H1177" s="13" t="s">
-        <v>7622</v>
+        <v>7616</v>
       </c>
       <c r="I1177" s="13" t="s">
-        <v>7622</v>
+        <v>7616</v>
       </c>
       <c r="J1177" s="13" t="s">
-        <v>7623</v>
+        <v>7617</v>
       </c>
       <c r="K1177" s="13" t="s">
-        <v>7623</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="1178" spans="2:11">
       <c r="B1178" s="13" t="s">
-        <v>7624</v>
+        <v>7618</v>
       </c>
       <c r="C1178" s="13" t="s">
-        <v>7625</v>
+        <v>1804</v>
       </c>
       <c r="D1178" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1178" s="13" t="s">
-        <v>7626</v>
+        <v>7619</v>
       </c>
       <c r="F1178" s="13" t="s">
-        <v>7627</v>
+        <v>7620</v>
       </c>
       <c r="G1178" s="13" t="s">
-        <v>7628</v>
+        <v>7621</v>
       </c>
       <c r="H1178" s="13" t="s">
-        <v>7628</v>
+        <v>7621</v>
       </c>
       <c r="I1178" s="13" t="s">
-        <v>7628</v>
+        <v>7621</v>
       </c>
       <c r="J1178" s="13" t="s">
-        <v>7629</v>
+        <v>7622</v>
       </c>
       <c r="K1178" s="13" t="s">
-        <v>7629</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="1179" spans="2:11">
       <c r="B1179" s="13" t="s">
-        <v>7630</v>
+        <v>7623</v>
       </c>
       <c r="C1179" s="13" t="s">
-        <v>7631</v>
+        <v>1812</v>
       </c>
       <c r="D1179" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1179" s="13" t="s">
-        <v>7632</v>
+        <v>7624</v>
       </c>
       <c r="F1179" s="13" t="s">
-        <v>7633</v>
+        <v>7625</v>
       </c>
       <c r="G1179" s="13" t="s">
-        <v>7634</v>
+        <v>7626</v>
       </c>
       <c r="H1179" s="13" t="s">
-        <v>7634</v>
+        <v>7626</v>
       </c>
       <c r="I1179" s="13" t="s">
-        <v>7634</v>
+        <v>7626</v>
       </c>
       <c r="J1179" s="13" t="s">
-        <v>7635</v>
+        <v>7627</v>
       </c>
       <c r="K1179" s="13" t="s">
-        <v>7635</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="1180" spans="2:11">
       <c r="B1180" s="13" t="s">
-        <v>7636</v>
+        <v>7628</v>
       </c>
       <c r="C1180" s="13" t="s">
-        <v>7637</v>
+        <v>1819</v>
       </c>
       <c r="D1180" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1180" s="13" t="s">
-        <v>7638</v>
+        <v>7629</v>
       </c>
       <c r="F1180" s="13" t="s">
-        <v>7639</v>
+        <v>7630</v>
       </c>
       <c r="G1180" s="13" t="s">
-        <v>7640</v>
+        <v>7631</v>
       </c>
       <c r="H1180" s="13" t="s">
-        <v>7640</v>
+        <v>7631</v>
       </c>
       <c r="I1180" s="13" t="s">
-        <v>7640</v>
+        <v>7631</v>
       </c>
       <c r="J1180" s="13" t="s">
-        <v>7641</v>
+        <v>7632</v>
       </c>
       <c r="K1180" s="13" t="s">
-        <v>7641</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="1181" spans="2:11">
       <c r="B1181" s="13" t="s">
-        <v>7642</v>
+        <v>7633</v>
       </c>
       <c r="C1181" s="13" t="s">
-        <v>7643</v>
+        <v>7634</v>
       </c>
       <c r="D1181" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1181" s="13" t="s">
-        <v>7644</v>
+        <v>7635</v>
       </c>
       <c r="F1181" s="13" t="s">
-        <v>7645</v>
+        <v>7636</v>
       </c>
       <c r="G1181" s="13" t="s">
-        <v>7646</v>
+        <v>7637</v>
       </c>
       <c r="H1181" s="13" t="s">
-        <v>7646</v>
+        <v>7637</v>
       </c>
       <c r="I1181" s="13" t="s">
-        <v>7646</v>
+        <v>7637</v>
       </c>
       <c r="J1181" s="13" t="s">
-        <v>7647</v>
+        <v>7638</v>
       </c>
       <c r="K1181" s="13" t="s">
-        <v>7647</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="1182" spans="2:11">
       <c r="B1182" s="13" t="s">
-        <v>7648</v>
+        <v>7639</v>
       </c>
       <c r="C1182" s="13" t="s">
-        <v>7649</v>
+        <v>7640</v>
       </c>
       <c r="D1182" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1182" s="13" t="s">
-        <v>7650</v>
+        <v>7641</v>
       </c>
       <c r="F1182" s="13" t="s">
-        <v>7651</v>
+        <v>7642</v>
       </c>
       <c r="G1182" s="13" t="s">
-        <v>7652</v>
+        <v>7643</v>
       </c>
       <c r="H1182" s="13" t="s">
-        <v>7652</v>
+        <v>7643</v>
       </c>
       <c r="I1182" s="13" t="s">
-        <v>7652</v>
+        <v>7643</v>
       </c>
       <c r="J1182" s="13" t="s">
-        <v>7653</v>
+        <v>7644</v>
       </c>
       <c r="K1182" s="13" t="s">
-        <v>7653</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="1183" spans="2:11">
       <c r="B1183" s="13" t="s">
-        <v>7654</v>
+        <v>7645</v>
       </c>
       <c r="C1183" s="13" t="s">
-        <v>7655</v>
+        <v>7646</v>
       </c>
       <c r="D1183" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1183" s="13" t="s">
-        <v>7656</v>
+        <v>7647</v>
       </c>
       <c r="F1183" s="13" t="s">
-        <v>7657</v>
+        <v>7648</v>
       </c>
       <c r="G1183" s="13" t="s">
-        <v>7658</v>
+        <v>7649</v>
       </c>
       <c r="H1183" s="13" t="s">
-        <v>7658</v>
+        <v>7649</v>
       </c>
       <c r="I1183" s="13" t="s">
-        <v>7658</v>
+        <v>7649</v>
       </c>
       <c r="J1183" s="13" t="s">
-        <v>7659</v>
+        <v>7650</v>
       </c>
       <c r="K1183" s="13" t="s">
-        <v>7659</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="1184" spans="2:11">
       <c r="B1184" s="13" t="s">
-        <v>7660</v>
+        <v>7651</v>
       </c>
       <c r="C1184" s="13" t="s">
-        <v>7661</v>
+        <v>7652</v>
       </c>
       <c r="D1184" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1184" s="13" t="s">
-        <v>7662</v>
+        <v>7653</v>
       </c>
       <c r="F1184" s="13" t="s">
-        <v>7663</v>
+        <v>7654</v>
       </c>
       <c r="G1184" s="13" t="s">
-        <v>7664</v>
+        <v>7655</v>
       </c>
       <c r="H1184" s="13" t="s">
-        <v>7664</v>
+        <v>7655</v>
       </c>
       <c r="I1184" s="13" t="s">
-        <v>7664</v>
+        <v>7655</v>
       </c>
       <c r="J1184" s="13" t="s">
-        <v>7665</v>
+        <v>7656</v>
       </c>
       <c r="K1184" s="13" t="s">
-        <v>7665</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="1185" spans="2:11">
       <c r="B1185" s="13" t="s">
-        <v>7666</v>
+        <v>7657</v>
       </c>
       <c r="C1185" s="13" t="s">
-        <v>7667</v>
+        <v>7658</v>
       </c>
       <c r="D1185" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1185" s="13" t="s">
-        <v>7668</v>
+        <v>7659</v>
       </c>
       <c r="F1185" s="13" t="s">
-        <v>7669</v>
+        <v>7660</v>
       </c>
       <c r="G1185" s="13" t="s">
-        <v>7670</v>
+        <v>7661</v>
       </c>
       <c r="H1185" s="13" t="s">
-        <v>7670</v>
+        <v>7661</v>
       </c>
       <c r="I1185" s="13" t="s">
-        <v>7670</v>
+        <v>7661</v>
       </c>
       <c r="J1185" s="13" t="s">
-        <v>7671</v>
+        <v>7662</v>
       </c>
       <c r="K1185" s="13" t="s">
-        <v>7671</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="1186" spans="2:11">
       <c r="B1186" s="13" t="s">
-        <v>7672</v>
+        <v>7663</v>
       </c>
       <c r="C1186" s="13" t="s">
-        <v>7673</v>
+        <v>7664</v>
       </c>
       <c r="D1186" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1186" s="13" t="s">
-        <v>7674</v>
+        <v>7665</v>
       </c>
       <c r="F1186" s="13" t="s">
-        <v>7675</v>
+        <v>7666</v>
       </c>
       <c r="G1186" s="13" t="s">
-        <v>7676</v>
+        <v>7667</v>
       </c>
       <c r="H1186" s="13" t="s">
-        <v>7676</v>
+        <v>7667</v>
       </c>
       <c r="I1186" s="13" t="s">
-        <v>7676</v>
+        <v>7667</v>
       </c>
       <c r="J1186" s="13" t="s">
-        <v>7677</v>
+        <v>7668</v>
       </c>
       <c r="K1186" s="13" t="s">
-        <v>7677</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="1187" spans="2:11">
       <c r="B1187" s="13" t="s">
-        <v>7678</v>
+        <v>7669</v>
       </c>
       <c r="C1187" s="13" t="s">
-        <v>7679</v>
+        <v>7670</v>
       </c>
       <c r="D1187" s="44" t="s">
         <v>3032</v>
       </c>
       <c r="E1187" s="13" t="s">
+        <v>7671</v>
+      </c>
+      <c r="F1187" s="13" t="s">
+        <v>7672</v>
+      </c>
+      <c r="G1187" s="13" t="s">
+        <v>7673</v>
+      </c>
+      <c r="H1187" s="13" t="s">
+        <v>7673</v>
+      </c>
+      <c r="I1187" s="13" t="s">
+        <v>7673</v>
+      </c>
+      <c r="J1187" s="13" t="s">
+        <v>7674</v>
+      </c>
+      <c r="K1187" s="13" t="s">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:11">
+      <c r="B1188" s="13" t="s">
+        <v>7675</v>
+      </c>
+      <c r="C1188" s="13" t="s">
+        <v>7676</v>
+      </c>
+      <c r="D1188" s="44" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E1188" s="13" t="s">
+        <v>7677</v>
+      </c>
+      <c r="F1188" s="13" t="s">
+        <v>7678</v>
+      </c>
+      <c r="G1188" s="13" t="s">
+        <v>7679</v>
+      </c>
+      <c r="H1188" s="13" t="s">
+        <v>7679</v>
+      </c>
+      <c r="I1188" s="13" t="s">
+        <v>7679</v>
+      </c>
+      <c r="J1188" s="13" t="s">
         <v>7680</v>
       </c>
-      <c r="F1187" s="13" t="s">
+      <c r="K1188" s="13" t="s">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:11">
+      <c r="B1189" s="13" t="s">
         <v>7681</v>
       </c>
-      <c r="G1187" s="13" t="s">
+      <c r="C1189" s="13" t="s">
         <v>7682</v>
       </c>
-      <c r="H1187" s="13" t="s">
-        <v>7682</v>
-      </c>
-      <c r="I1187" s="13" t="s">
-        <v>7682</v>
-      </c>
-      <c r="J1187" s="13" t="s">
+      <c r="D1189" s="44" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E1189" s="13" t="s">
         <v>7683</v>
       </c>
-      <c r="K1187" s="13" t="s">
-        <v>7683</v>
+      <c r="F1189" s="13" t="s">
+        <v>7684</v>
+      </c>
+      <c r="G1189" s="13" t="s">
+        <v>7685</v>
+      </c>
+      <c r="H1189" s="13" t="s">
+        <v>7685</v>
+      </c>
+      <c r="I1189" s="13" t="s">
+        <v>7685</v>
+      </c>
+      <c r="J1189" s="13" t="s">
+        <v>7686</v>
+      </c>
+      <c r="K1189" s="13" t="s">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:11">
+      <c r="B1190" s="13" t="s">
+        <v>7687</v>
+      </c>
+      <c r="C1190" s="13" t="s">
+        <v>7688</v>
+      </c>
+      <c r="D1190" s="44" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E1190" s="13" t="s">
+        <v>7689</v>
+      </c>
+      <c r="F1190" s="13" t="s">
+        <v>7690</v>
+      </c>
+      <c r="G1190" s="13" t="s">
+        <v>7691</v>
+      </c>
+      <c r="H1190" s="13" t="s">
+        <v>7691</v>
+      </c>
+      <c r="I1190" s="13" t="s">
+        <v>7691</v>
+      </c>
+      <c r="J1190" s="13" t="s">
+        <v>7692</v>
+      </c>
+      <c r="K1190" s="13" t="s">
+        <v>7692</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="19335" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9943" uniqueCount="7743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10159" uniqueCount="7795">
   <si>
     <t>##var</t>
   </si>
@@ -22997,6 +22997,196 @@
     <t>Pro</t>
   </si>
   <si>
+    <t>369001</t>
+  </si>
+  <si>
+    <t>勝率：</t>
+  </si>
+  <si>
+    <t>Rate:</t>
+  </si>
+  <si>
+    <t>369002</t>
+  </si>
+  <si>
+    <t>普通續投</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>369003</t>
+  </si>
+  <si>
+    <t>高級續投</t>
+  </si>
+  <si>
+    <t>369004</t>
+  </si>
+  <si>
+    <t>20 rounds</t>
+  </si>
+  <si>
+    <t>369005</t>
+  </si>
+  <si>
+    <t>虎：</t>
+  </si>
+  <si>
+    <t>Tiger:</t>
+  </si>
+  <si>
+    <t>369006</t>
+  </si>
+  <si>
+    <t>線上玩家</t>
+  </si>
+  <si>
+    <t>369007</t>
+  </si>
+  <si>
+    <t>369008</t>
+  </si>
+  <si>
+    <t>369009</t>
+  </si>
+  <si>
+    <t>和：</t>
+  </si>
+  <si>
+    <t>Tie:</t>
+  </si>
+  <si>
+    <t>369010</t>
+  </si>
+  <si>
+    <t>聲音</t>
+  </si>
+  <si>
+    <t>369011</t>
+  </si>
+  <si>
+    <t>龍：</t>
+  </si>
+  <si>
+    <t>Dragon:</t>
+  </si>
+  <si>
+    <t>369012</t>
+  </si>
+  <si>
+    <t>369013</t>
+  </si>
+  <si>
+    <t>369014</t>
+  </si>
+  <si>
+    <t>局數：</t>
+  </si>
+  <si>
+    <t>Round:</t>
+  </si>
+  <si>
+    <t>369015</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>369016</t>
+  </si>
+  <si>
+    <t>369017</t>
+  </si>
+  <si>
+    <t>369018</t>
+  </si>
+  <si>
+    <t>獲勝</t>
+  </si>
+  <si>
+    <t>369019</t>
+  </si>
+  <si>
+    <t>369020</t>
+  </si>
+  <si>
+    <t>續投按鈕設置</t>
+  </si>
+  <si>
+    <t>369021</t>
+  </si>
+  <si>
+    <t>369022</t>
+  </si>
+  <si>
+    <t>369023</t>
+  </si>
+  <si>
+    <t>（可自定義續投局數）</t>
+  </si>
+  <si>
+    <t>(Times can be set)</t>
+  </si>
+  <si>
+    <t>369024</t>
+  </si>
+  <si>
+    <t>Player List</t>
+  </si>
+  <si>
+    <t>369025</t>
+  </si>
+  <si>
+    <t>369026</t>
+  </si>
+  <si>
+    <t>Game Rule</t>
+  </si>
+  <si>
+    <t>369027</t>
+  </si>
+  <si>
+    <t>1.簡介
+龍虎鬥，即以牌面大小來決定輸贏的桌牌遊戲。遊戲使用八副撲克牌，不含小丑。每局洗牌後，龍和虎僅派出一張牌就可以定輸贏。
+2.遊戲規則
+每局龍和虎各派一張牌，玩家可投注龍、虎、和三種結果。如果買中則按照桌面開獎結果獲得獎勵。
+1).開牌結果
+牌面點數由A到K，A為最小，K為最大，點數大者獲勝，牌面點數大小順序為: K、Q、J、10、9、8、7、6、5、4、3、2、A，點數相同則為和。花色不計算大小。
+2).下注限紅
+每局每個玩家所有區域下注總和最大為{0}
+每局龍區域下注總和最大為{1}
+每局虎區域下注總和最大為{2}
+每局和區域下注總和最大為{3}
+3).賠付規則
+每局獲勝區域根據桌面的顯示比例進行賠付。如果本局結果為和，則龍和虎區域的下注全額退回。
+3.功能使用
+1).下注設置
+點擊設置可調整下注檔位。一共10個下注檔位，只能選擇其中5個，選擇後確認，桌面會切換為當前選擇的下注籌碼。
+2).續投設置
+續投可選擇普通續投或專業續投。普通續投點擊可按照上一局投注選擇自動下注；高級續投可設定續投次數，設定後會在每一局開始前按設定時的上一局投注自動下注；直到次數完成或金幣不足。</t>
+  </si>
+  <si>
+    <t>1.Introduction
+Dragon vs. Tiger, a table card game in which the size of the cards is used to determine winner &amp; loser. The game is played with eight decks of playing cards, without jokers. After shuffling the cards in each game, the Dragon and the Tiger only send out one card to determine the winner.
+2.Game Rules
+Each game, the Dragon and the Tiger each send one card, players can bet on the Dragon, Tiger, and Tie. If you win, you will be rewarded according to the table draw result.
+1).Opening Result
+The number of points on the card is from A to K, A is the smallest, K is the largest, the one with the largest number of points wins, the order of the number of points on the card is as follows: K, Q, J, 10, 9, 8, 7, 6, 5, 4, 3, 2, A. If the number of points is the same, then it is a draw. Suits are not counted for size.
+2).Betting Limit Red
+The total sum of all bets per game in the Dragon area is maximum {0}.
+The total sum of all bets per game in the Dragon area is maximum {1}.
+The total sum of all bets in the Tiger area in each game is maximum {2}.
+The total sum of all bets in each game is maximum {3}.
+3).Payout Rules
+The winning area of each game is paid out according to the percentage shown on the table. If the result of the game is Tie, the bets placed on the Dragon and Tiger areas will be refunded in full.
+3.Function Use
+1).Betting Settings
+Click on Settings to adjust the betting slots. There are 10 betting slots in total, you can only choose 5 of them, after choosing and confirming, the desktop will switch to the currently selected betting chips.
+2).Renewal Settings
+You can choose normal or pro rebet. Ordinary rebet can be clicked in accordance with the previous game betting options for automatic betting; advanced rebet can be set to rebet the number of times, after the setting will be set before the start of each game according to the previous game betting automatic betting; until the number of times to complete or insufficient coins.</t>
+  </si>
+  <si>
     <t>400057</t>
   </si>
   <si>
@@ -24198,7 +24388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -24281,6 +24471,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -24294,6 +24512,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24333,21 +24559,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24398,28 +24609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24488,13 +24678,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24512,7 +24738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24536,18 +24780,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -24560,31 +24792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24608,18 +24816,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -24627,12 +24823,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24700,6 +24890,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -24728,21 +24933,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -24801,148 +24991,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -24992,10 +25182,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -25016,16 +25206,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -25145,52 +25335,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -25490,10 +25680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1213"/>
+  <dimension ref="A1:N1240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="E526" sqref="E526"/>
+    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
+      <selection activeCell="F1145" sqref="F1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -55522,2858 +55712,3641 @@
         <v>7347</v>
       </c>
     </row>
-    <row r="1119" s="13" customFormat="1" spans="2:11">
-      <c r="B1119" s="13" t="s">
+    <row r="1119" s="13" customFormat="1" spans="1:11">
+      <c r="A1119" s="1"/>
+      <c r="B1119" s="14" t="s">
         <v>7348</v>
       </c>
-      <c r="E1119" s="1" t="s">
-        <v>1665</v>
+      <c r="C1119" s="1"/>
+      <c r="D1119" s="1"/>
+      <c r="E1119" s="41" t="s">
+        <v>7349</v>
       </c>
       <c r="F1119" s="39" t="s">
-        <v>1666</v>
-      </c>
-      <c r="G1119" s="17" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H1119" s="17" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I1119" s="17" t="s">
-        <v>1669</v>
-      </c>
-      <c r="J1119" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="K1119" s="1" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1120" s="13" customFormat="1" spans="2:11">
-      <c r="B1120" s="13" t="s">
-        <v>7349</v>
-      </c>
-      <c r="E1120" s="8" t="s">
-        <v>1673</v>
-      </c>
-      <c r="F1120" s="37" t="s">
-        <v>1674</v>
-      </c>
-      <c r="G1120" s="38" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H1120" s="38" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I1120" s="38" t="s">
-        <v>1677</v>
-      </c>
-      <c r="J1120" s="8" t="s">
-        <v>1678</v>
-      </c>
-      <c r="K1120" s="8" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="1121" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1121" s="13" t="s">
         <v>7350</v>
       </c>
-      <c r="E1121" s="1" t="s">
-        <v>1681</v>
+      <c r="G1119" s="39" t="s">
+        <v>7350</v>
+      </c>
+      <c r="H1119" s="39" t="s">
+        <v>7350</v>
+      </c>
+      <c r="I1119" s="39" t="s">
+        <v>7350</v>
+      </c>
+      <c r="J1119" s="39" t="s">
+        <v>7350</v>
+      </c>
+      <c r="K1119" s="39" t="s">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="1120" s="13" customFormat="1" spans="1:11">
+      <c r="A1120" s="1"/>
+      <c r="B1120" s="14" t="s">
+        <v>7351</v>
+      </c>
+      <c r="C1120" s="1"/>
+      <c r="D1120" s="1"/>
+      <c r="E1120" s="41" t="s">
+        <v>7352</v>
+      </c>
+      <c r="F1120" s="39" t="s">
+        <v>7353</v>
+      </c>
+      <c r="G1120" s="39" t="s">
+        <v>7353</v>
+      </c>
+      <c r="H1120" s="39" t="s">
+        <v>7353</v>
+      </c>
+      <c r="I1120" s="39" t="s">
+        <v>7353</v>
+      </c>
+      <c r="J1120" s="39" t="s">
+        <v>7353</v>
+      </c>
+      <c r="K1120" s="39" t="s">
+        <v>7353</v>
+      </c>
+    </row>
+    <row r="1121" s="13" customFormat="1" spans="1:11">
+      <c r="A1121" s="1"/>
+      <c r="B1121" s="14" t="s">
+        <v>7354</v>
+      </c>
+      <c r="C1121" s="1"/>
+      <c r="D1121" s="1"/>
+      <c r="E1121" s="41" t="s">
+        <v>7355</v>
       </c>
       <c r="F1121" s="39" t="s">
-        <v>1682</v>
-      </c>
-      <c r="G1121" s="17" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H1121" s="17" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I1121" s="17" t="s">
-        <v>1685</v>
-      </c>
-      <c r="J1121" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="K1121" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="1122" s="13" customFormat="1" spans="2:11">
-      <c r="B1122" s="13" t="s">
-        <v>7351</v>
-      </c>
-      <c r="E1122" s="1" t="s">
-        <v>1689</v>
+        <v>7347</v>
+      </c>
+      <c r="G1121" s="39" t="s">
+        <v>7347</v>
+      </c>
+      <c r="H1121" s="39" t="s">
+        <v>7347</v>
+      </c>
+      <c r="I1121" s="39" t="s">
+        <v>7347</v>
+      </c>
+      <c r="J1121" s="39" t="s">
+        <v>7347</v>
+      </c>
+      <c r="K1121" s="39" t="s">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="1122" s="13" customFormat="1" spans="1:11">
+      <c r="A1122" s="1"/>
+      <c r="B1122" s="14" t="s">
+        <v>7356</v>
+      </c>
+      <c r="C1122" s="1"/>
+      <c r="D1122" s="1"/>
+      <c r="E1122" s="41" t="s">
+        <v>7092</v>
       </c>
       <c r="F1122" s="39" t="s">
-        <v>1690</v>
-      </c>
-      <c r="G1122" s="17" t="s">
-        <v>1691</v>
-      </c>
-      <c r="H1122" s="17" t="s">
-        <v>1692</v>
-      </c>
-      <c r="I1122" s="17" t="s">
-        <v>1690</v>
-      </c>
-      <c r="J1122" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="K1122" s="1" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1123" s="13" customFormat="1" spans="2:11">
-      <c r="B1123" s="13" t="s">
-        <v>7352</v>
-      </c>
-      <c r="E1123" s="1" t="s">
-        <v>1696</v>
+        <v>7357</v>
+      </c>
+      <c r="G1122" s="39" t="s">
+        <v>7357</v>
+      </c>
+      <c r="H1122" s="39" t="s">
+        <v>7357</v>
+      </c>
+      <c r="I1122" s="39" t="s">
+        <v>7357</v>
+      </c>
+      <c r="J1122" s="39" t="s">
+        <v>7357</v>
+      </c>
+      <c r="K1122" s="39" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="1123" s="13" customFormat="1" spans="1:11">
+      <c r="A1123" s="1"/>
+      <c r="B1123" s="14" t="s">
+        <v>7358</v>
+      </c>
+      <c r="C1123" s="1"/>
+      <c r="D1123" s="1"/>
+      <c r="E1123" s="41" t="s">
+        <v>7359</v>
       </c>
       <c r="F1123" s="39" t="s">
-        <v>1697</v>
-      </c>
-      <c r="G1123" s="17" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H1123" s="17" t="s">
-        <v>1697</v>
-      </c>
-      <c r="I1123" s="17" t="s">
-        <v>1698</v>
-      </c>
-      <c r="J1123" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K1123" s="1" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1124" s="13" customFormat="1" spans="2:11">
-      <c r="B1124" s="13" t="s">
-        <v>7353</v>
-      </c>
-      <c r="E1124" s="1" t="s">
-        <v>1701</v>
+        <v>7360</v>
+      </c>
+      <c r="G1123" s="39" t="s">
+        <v>7360</v>
+      </c>
+      <c r="H1123" s="39" t="s">
+        <v>7360</v>
+      </c>
+      <c r="I1123" s="39" t="s">
+        <v>7360</v>
+      </c>
+      <c r="J1123" s="39" t="s">
+        <v>7360</v>
+      </c>
+      <c r="K1123" s="39" t="s">
+        <v>7360</v>
+      </c>
+    </row>
+    <row r="1124" s="13" customFormat="1" spans="1:11">
+      <c r="A1124" s="1"/>
+      <c r="B1124" s="14" t="s">
+        <v>7361</v>
+      </c>
+      <c r="C1124" s="1"/>
+      <c r="D1124" s="1"/>
+      <c r="E1124" s="14" t="s">
+        <v>7362</v>
       </c>
       <c r="F1124" s="39" t="s">
-        <v>1702</v>
-      </c>
-      <c r="G1124" s="17" t="s">
-        <v>1703</v>
-      </c>
-      <c r="H1124" s="17" t="s">
-        <v>1704</v>
-      </c>
-      <c r="I1124" s="17" t="s">
-        <v>1705</v>
-      </c>
-      <c r="J1124" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="K1124" s="1" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="1125" s="13" customFormat="1" spans="2:11">
-      <c r="B1125" s="13" t="s">
-        <v>7354</v>
-      </c>
-      <c r="E1125" s="1" t="s">
-        <v>1709</v>
+        <v>2636</v>
+      </c>
+      <c r="G1124" s="39" t="s">
+        <v>2636</v>
+      </c>
+      <c r="H1124" s="39" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I1124" s="39" t="s">
+        <v>2636</v>
+      </c>
+      <c r="J1124" s="39" t="s">
+        <v>2636</v>
+      </c>
+      <c r="K1124" s="39" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="1125" s="13" customFormat="1" ht="54" spans="1:11">
+      <c r="A1125" s="1"/>
+      <c r="B1125" s="14" t="s">
+        <v>7363</v>
+      </c>
+      <c r="C1125" s="1"/>
+      <c r="D1125" s="1"/>
+      <c r="E1125" s="14" t="s">
+        <v>7131</v>
       </c>
       <c r="F1125" s="39" t="s">
-        <v>1710</v>
-      </c>
-      <c r="G1125" s="17" t="s">
-        <v>1711</v>
-      </c>
-      <c r="H1125" s="17" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I1125" s="17" t="s">
-        <v>1713</v>
-      </c>
-      <c r="J1125" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="K1125" s="1" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="1126" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1126" s="13" t="s">
-        <v>7355</v>
-      </c>
-      <c r="E1126" s="1" t="s">
-        <v>1715</v>
+        <v>7132</v>
+      </c>
+      <c r="G1125" s="39" t="s">
+        <v>7132</v>
+      </c>
+      <c r="H1125" s="39" t="s">
+        <v>7132</v>
+      </c>
+      <c r="I1125" s="39" t="s">
+        <v>7132</v>
+      </c>
+      <c r="J1125" s="39" t="s">
+        <v>7132</v>
+      </c>
+      <c r="K1125" s="39" t="s">
+        <v>7132</v>
+      </c>
+    </row>
+    <row r="1126" s="13" customFormat="1" spans="1:11">
+      <c r="A1126" s="1"/>
+      <c r="B1126" s="14" t="s">
+        <v>7364</v>
+      </c>
+      <c r="C1126" s="1"/>
+      <c r="D1126" s="1"/>
+      <c r="E1126" s="14" t="s">
+        <v>4252</v>
       </c>
       <c r="F1126" s="39" t="s">
-        <v>1716</v>
-      </c>
-      <c r="G1126" s="17" t="s">
-        <v>1717</v>
-      </c>
-      <c r="H1126" s="17" t="s">
-        <v>1718</v>
-      </c>
-      <c r="I1126" s="17" t="s">
-        <v>1719</v>
-      </c>
-      <c r="J1126" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K1126" s="1" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1127" s="13" customFormat="1" spans="2:11">
-      <c r="B1127" s="13" t="s">
-        <v>7356</v>
-      </c>
-      <c r="E1127" s="1" t="s">
-        <v>1723</v>
+        <v>4253</v>
+      </c>
+      <c r="G1126" s="39" t="s">
+        <v>4253</v>
+      </c>
+      <c r="H1126" s="39" t="s">
+        <v>4253</v>
+      </c>
+      <c r="I1126" s="39" t="s">
+        <v>4253</v>
+      </c>
+      <c r="J1126" s="39" t="s">
+        <v>4253</v>
+      </c>
+      <c r="K1126" s="39" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="1127" s="13" customFormat="1" spans="1:11">
+      <c r="A1127" s="1"/>
+      <c r="B1127" s="14" t="s">
+        <v>7365</v>
+      </c>
+      <c r="C1127" s="1"/>
+      <c r="D1127" s="1"/>
+      <c r="E1127" s="14" t="s">
+        <v>7366</v>
       </c>
       <c r="F1127" s="39" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G1127" s="17" t="s">
-        <v>1725</v>
-      </c>
-      <c r="H1127" s="17" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I1127" s="17" t="s">
-        <v>1724</v>
-      </c>
-      <c r="J1127" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="K1127" s="1" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1128" s="13" customFormat="1" spans="2:11">
-      <c r="B1128" s="13" t="s">
-        <v>7357</v>
-      </c>
-      <c r="E1128" s="1" t="s">
-        <v>1730</v>
+        <v>7367</v>
+      </c>
+      <c r="G1127" s="39" t="s">
+        <v>7367</v>
+      </c>
+      <c r="H1127" s="39" t="s">
+        <v>7367</v>
+      </c>
+      <c r="I1127" s="39" t="s">
+        <v>7367</v>
+      </c>
+      <c r="J1127" s="39" t="s">
+        <v>7367</v>
+      </c>
+      <c r="K1127" s="39" t="s">
+        <v>7367</v>
+      </c>
+    </row>
+    <row r="1128" s="13" customFormat="1" spans="1:11">
+      <c r="A1128" s="1"/>
+      <c r="B1128" s="14" t="s">
+        <v>7368</v>
+      </c>
+      <c r="C1128" s="1"/>
+      <c r="D1128" s="1"/>
+      <c r="E1128" s="41" t="s">
+        <v>7369</v>
       </c>
       <c r="F1128" s="39" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G1128" s="17" t="s">
-        <v>1732</v>
-      </c>
-      <c r="H1128" s="17" t="s">
-        <v>1733</v>
-      </c>
-      <c r="I1128" s="17" t="s">
-        <v>1734</v>
-      </c>
-      <c r="J1128" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="K1128" s="1" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="1129" s="13" customFormat="1" spans="2:11">
-      <c r="B1129" s="13" t="s">
-        <v>7358</v>
-      </c>
-      <c r="E1129" s="1" t="s">
-        <v>1738</v>
+        <v>4261</v>
+      </c>
+      <c r="G1128" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="H1128" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="I1128" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="J1128" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="K1128" s="39" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="1129" s="13" customFormat="1" spans="1:11">
+      <c r="A1129" s="1"/>
+      <c r="B1129" s="14" t="s">
+        <v>7370</v>
+      </c>
+      <c r="C1129" s="1"/>
+      <c r="D1129" s="1"/>
+      <c r="E1129" s="41" t="s">
+        <v>7371</v>
       </c>
       <c r="F1129" s="39" t="s">
-        <v>1739</v>
-      </c>
-      <c r="G1129" s="17" t="s">
-        <v>1740</v>
-      </c>
-      <c r="H1129" s="17" t="s">
-        <v>1741</v>
-      </c>
-      <c r="I1129" s="17" t="s">
-        <v>1742</v>
-      </c>
-      <c r="J1129" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="K1129" s="1" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="1130" s="13" customFormat="1" spans="2:11">
-      <c r="B1130" s="13" t="s">
-        <v>7359</v>
-      </c>
-      <c r="E1130" s="1" t="s">
-        <v>1746</v>
+        <v>7372</v>
+      </c>
+      <c r="G1129" s="39" t="s">
+        <v>7372</v>
+      </c>
+      <c r="H1129" s="39" t="s">
+        <v>7372</v>
+      </c>
+      <c r="I1129" s="39" t="s">
+        <v>7372</v>
+      </c>
+      <c r="J1129" s="39" t="s">
+        <v>7372</v>
+      </c>
+      <c r="K1129" s="39" t="s">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="1130" s="13" customFormat="1" spans="1:11">
+      <c r="A1130" s="1"/>
+      <c r="B1130" s="14" t="s">
+        <v>7373</v>
+      </c>
+      <c r="C1130" s="1"/>
+      <c r="D1130" s="1"/>
+      <c r="E1130" s="41" t="s">
+        <v>3853</v>
       </c>
       <c r="F1130" s="39" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G1130" s="17" t="s">
-        <v>1747</v>
-      </c>
-      <c r="H1130" s="17" t="s">
-        <v>1747</v>
-      </c>
-      <c r="I1130" s="17" t="s">
-        <v>1748</v>
-      </c>
-      <c r="J1130" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="K1130" s="1" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1131" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1131" s="13" t="s">
-        <v>7360</v>
-      </c>
-      <c r="E1131" s="1" t="s">
-        <v>1752</v>
+        <v>3854</v>
+      </c>
+      <c r="G1130" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="H1130" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="I1130" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="J1130" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="K1130" s="39" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1131" s="13" customFormat="1" spans="1:11">
+      <c r="A1131" s="1"/>
+      <c r="B1131" s="14" t="s">
+        <v>7374</v>
+      </c>
+      <c r="C1131" s="1"/>
+      <c r="D1131" s="1"/>
+      <c r="E1131" s="41" t="s">
+        <v>6913</v>
       </c>
       <c r="F1131" s="39" t="s">
-        <v>1753</v>
+        <v>6916</v>
       </c>
       <c r="G1131" s="39" t="s">
-        <v>1753</v>
+        <v>6916</v>
       </c>
       <c r="H1131" s="39" t="s">
-        <v>1753</v>
+        <v>6916</v>
       </c>
       <c r="I1131" s="39" t="s">
-        <v>1753</v>
+        <v>6916</v>
       </c>
       <c r="J1131" s="39" t="s">
-        <v>1753</v>
+        <v>6916</v>
       </c>
       <c r="K1131" s="39" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="1132" s="13" customFormat="1" spans="2:11">
-      <c r="B1132" s="13" t="s">
-        <v>7361</v>
-      </c>
-      <c r="E1132" s="1" t="s">
-        <v>1755</v>
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="1132" s="13" customFormat="1" spans="1:11">
+      <c r="A1132" s="1"/>
+      <c r="B1132" s="14" t="s">
+        <v>7375</v>
+      </c>
+      <c r="C1132" s="1"/>
+      <c r="D1132" s="1"/>
+      <c r="E1132" s="41" t="s">
+        <v>7376</v>
       </c>
       <c r="F1132" s="39" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G1132" s="17" t="s">
-        <v>1757</v>
-      </c>
-      <c r="H1132" s="17" t="s">
-        <v>1758</v>
-      </c>
-      <c r="I1132" s="17" t="s">
-        <v>1759</v>
-      </c>
-      <c r="J1132" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="K1132" s="1" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="1133" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1133" s="13" t="s">
-        <v>7362</v>
-      </c>
-      <c r="E1133" s="1" t="s">
-        <v>1763</v>
+        <v>7377</v>
+      </c>
+      <c r="G1132" s="39" t="s">
+        <v>7377</v>
+      </c>
+      <c r="H1132" s="39" t="s">
+        <v>7377</v>
+      </c>
+      <c r="I1132" s="39" t="s">
+        <v>7377</v>
+      </c>
+      <c r="J1132" s="39" t="s">
+        <v>7377</v>
+      </c>
+      <c r="K1132" s="39" t="s">
+        <v>7377</v>
+      </c>
+    </row>
+    <row r="1133" s="13" customFormat="1" spans="1:11">
+      <c r="A1133" s="1"/>
+      <c r="B1133" s="14" t="s">
+        <v>7378</v>
+      </c>
+      <c r="C1133" s="1"/>
+      <c r="D1133" s="1"/>
+      <c r="E1133" s="14" t="s">
+        <v>7379</v>
       </c>
       <c r="F1133" s="39" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G1133" s="17" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H1133" s="17" t="s">
-        <v>1766</v>
-      </c>
-      <c r="I1133" s="17" t="s">
-        <v>1767</v>
-      </c>
-      <c r="J1133" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="K1133" s="1" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="1134" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1134" s="13" t="s">
-        <v>7363</v>
-      </c>
-      <c r="E1134" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F1134" s="39" t="s">
-        <v>1772</v>
-      </c>
-      <c r="G1134" s="17" t="s">
-        <v>1773</v>
-      </c>
-      <c r="H1134" s="17" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I1134" s="17" t="s">
-        <v>1775</v>
-      </c>
-      <c r="J1134" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="K1134" s="1" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="1135" s="13" customFormat="1" spans="2:11">
-      <c r="B1135" s="13" t="s">
-        <v>7364</v>
-      </c>
-      <c r="E1135" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F1135" s="39" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G1135" s="17" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H1135" s="17" t="s">
-        <v>1782</v>
-      </c>
-      <c r="I1135" s="17" t="s">
-        <v>1783</v>
-      </c>
-      <c r="J1135" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="K1135" s="1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="1136" s="13" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B1136" s="13" t="s">
-        <v>7365</v>
-      </c>
-      <c r="E1136" s="1" t="s">
-        <v>1787</v>
+        <v>4268</v>
+      </c>
+      <c r="G1133" s="39" t="s">
+        <v>4268</v>
+      </c>
+      <c r="H1133" s="39" t="s">
+        <v>4268</v>
+      </c>
+      <c r="I1133" s="39" t="s">
+        <v>4268</v>
+      </c>
+      <c r="J1133" s="39" t="s">
+        <v>4268</v>
+      </c>
+      <c r="K1133" s="39" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="1134" s="13" customFormat="1" spans="1:11">
+      <c r="A1134" s="1"/>
+      <c r="B1134" s="14" t="s">
+        <v>7380</v>
+      </c>
+      <c r="C1134" s="1"/>
+      <c r="D1134" s="1"/>
+      <c r="E1134" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="F1134" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="G1134" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="H1134" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="I1134" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="J1134" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="K1134" s="41" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1135" s="13" customFormat="1" spans="1:11">
+      <c r="A1135" s="1"/>
+      <c r="B1135" s="14" t="s">
+        <v>7381</v>
+      </c>
+      <c r="C1135" s="1"/>
+      <c r="D1135" s="1"/>
+      <c r="E1135" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="F1135" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1135" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="H1135" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="I1135" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1135" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="K1135" s="41" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1136" s="13" customFormat="1" spans="1:11">
+      <c r="A1136" s="1"/>
+      <c r="B1136" s="14" t="s">
+        <v>7382</v>
+      </c>
+      <c r="C1136" s="1"/>
+      <c r="D1136" s="1"/>
+      <c r="E1136" s="14" t="s">
+        <v>7383</v>
       </c>
       <c r="F1136" s="39" t="s">
-        <v>1788</v>
-      </c>
-      <c r="G1136" s="17" t="s">
-        <v>1789</v>
-      </c>
-      <c r="H1136" s="17" t="s">
-        <v>1789</v>
-      </c>
-      <c r="I1136" s="42" t="s">
-        <v>1790</v>
-      </c>
-      <c r="J1136" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="K1136" s="1" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1137" s="13" customFormat="1" spans="2:11">
-      <c r="B1137" s="13" t="s">
-        <v>7366</v>
-      </c>
-      <c r="E1137" s="1" t="s">
-        <v>1794</v>
+        <v>3336</v>
+      </c>
+      <c r="G1136" s="39" t="s">
+        <v>3336</v>
+      </c>
+      <c r="H1136" s="39" t="s">
+        <v>3336</v>
+      </c>
+      <c r="I1136" s="39" t="s">
+        <v>3336</v>
+      </c>
+      <c r="J1136" s="39" t="s">
+        <v>3336</v>
+      </c>
+      <c r="K1136" s="39" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1137" s="13" customFormat="1" spans="1:11">
+      <c r="A1137" s="1"/>
+      <c r="B1137" s="14" t="s">
+        <v>7384</v>
+      </c>
+      <c r="C1137" s="1"/>
+      <c r="D1137" s="1"/>
+      <c r="E1137" s="14" t="s">
+        <v>4500</v>
       </c>
       <c r="F1137" s="39" t="s">
-        <v>1795</v>
-      </c>
-      <c r="G1137" s="17" t="s">
-        <v>1796</v>
-      </c>
-      <c r="H1137" s="17" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I1137" s="17" t="s">
-        <v>1797</v>
-      </c>
-      <c r="J1137" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="K1137" s="1" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1138" s="13" customFormat="1" spans="2:11">
-      <c r="B1138" s="13" t="s">
-        <v>7367</v>
-      </c>
-      <c r="E1138" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="F1138" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="G1138" s="17" t="s">
-        <v>1802</v>
-      </c>
-      <c r="H1138" s="17" t="s">
-        <v>1803</v>
-      </c>
-      <c r="I1138" s="17" t="s">
-        <v>1802</v>
-      </c>
-      <c r="J1138" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="K1138" s="1" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="1139" s="13" customFormat="1" spans="2:11">
-      <c r="B1139" s="13" t="s">
-        <v>7368</v>
-      </c>
-      <c r="E1139" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="F1139" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G1139" s="17" t="s">
-        <v>1848</v>
-      </c>
-      <c r="H1139" s="17" t="s">
-        <v>1849</v>
-      </c>
-      <c r="I1139" s="17" t="s">
-        <v>1850</v>
-      </c>
-      <c r="J1139" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="K1139" s="1" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1140" s="13" customFormat="1" spans="2:11">
-      <c r="B1140" s="13" t="s">
-        <v>7369</v>
-      </c>
+        <v>3269</v>
+      </c>
+      <c r="G1137" s="39" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H1137" s="39" t="s">
+        <v>3269</v>
+      </c>
+      <c r="I1137" s="39" t="s">
+        <v>3269</v>
+      </c>
+      <c r="J1137" s="39" t="s">
+        <v>3269</v>
+      </c>
+      <c r="K1137" s="39" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1138" s="13" customFormat="1" spans="1:11">
+      <c r="A1138" s="1"/>
+      <c r="B1138" s="14" t="s">
+        <v>7385</v>
+      </c>
+      <c r="C1138" s="1"/>
+      <c r="D1138" s="1"/>
+      <c r="E1138" s="14" t="s">
+        <v>7386</v>
+      </c>
+      <c r="F1138" s="39" t="s">
+        <v>7122</v>
+      </c>
+      <c r="G1138" s="39" t="s">
+        <v>7122</v>
+      </c>
+      <c r="H1138" s="39" t="s">
+        <v>7122</v>
+      </c>
+      <c r="I1138" s="39" t="s">
+        <v>7122</v>
+      </c>
+      <c r="J1138" s="39" t="s">
+        <v>7122</v>
+      </c>
+      <c r="K1138" s="39" t="s">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="1139" s="13" customFormat="1" spans="1:11">
+      <c r="A1139" s="1"/>
+      <c r="B1139" s="14" t="s">
+        <v>7387</v>
+      </c>
+      <c r="C1139" s="1"/>
+      <c r="D1139" s="1"/>
+      <c r="E1139" s="14" t="s">
+        <v>5139</v>
+      </c>
+      <c r="F1139" s="39" t="s">
+        <v>5140</v>
+      </c>
+      <c r="G1139" s="39" t="s">
+        <v>5140</v>
+      </c>
+      <c r="H1139" s="39" t="s">
+        <v>5140</v>
+      </c>
+      <c r="I1139" s="39" t="s">
+        <v>5140</v>
+      </c>
+      <c r="J1139" s="39" t="s">
+        <v>5140</v>
+      </c>
+      <c r="K1139" s="39" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="1140" s="13" customFormat="1" spans="1:11">
+      <c r="A1140" s="1"/>
+      <c r="B1140" s="14" t="s">
+        <v>7388</v>
+      </c>
+      <c r="C1140" s="1"/>
+      <c r="D1140" s="1"/>
       <c r="E1140" s="14" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F1140" s="14" t="s">
-        <v>1913</v>
-      </c>
-      <c r="G1140" s="14" t="s">
-        <v>1914</v>
-      </c>
-      <c r="H1140" s="14" t="s">
-        <v>1915</v>
-      </c>
-      <c r="I1140" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="J1140" s="14" t="s">
-        <v>1917</v>
-      </c>
-      <c r="K1140" s="14" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="1141" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1141" s="13" t="s">
-        <v>7370</v>
-      </c>
+        <v>4260</v>
+      </c>
+      <c r="F1140" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="G1140" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="H1140" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="I1140" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="J1140" s="39" t="s">
+        <v>4261</v>
+      </c>
+      <c r="K1140" s="39" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="1141" s="13" customFormat="1" spans="1:11">
+      <c r="A1141" s="1"/>
+      <c r="B1141" s="14" t="s">
+        <v>7389</v>
+      </c>
+      <c r="C1141" s="1"/>
+      <c r="D1141" s="1"/>
       <c r="E1141" s="14" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F1141" s="14" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G1141" s="14" t="s">
-        <v>1921</v>
-      </c>
-      <c r="H1141" s="14" t="s">
-        <v>1922</v>
-      </c>
-      <c r="I1141" s="14" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J1141" s="14" t="s">
-        <v>1924</v>
-      </c>
-      <c r="K1141" s="14" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="1142" s="13" customFormat="1" spans="2:11">
-      <c r="B1142" s="13" t="s">
-        <v>7371</v>
-      </c>
+        <v>7390</v>
+      </c>
+      <c r="F1141" s="39" t="s">
+        <v>7391</v>
+      </c>
+      <c r="G1141" s="39" t="s">
+        <v>7391</v>
+      </c>
+      <c r="H1141" s="39" t="s">
+        <v>7391</v>
+      </c>
+      <c r="I1141" s="39" t="s">
+        <v>7391</v>
+      </c>
+      <c r="J1141" s="39" t="s">
+        <v>7391</v>
+      </c>
+      <c r="K1141" s="39" t="s">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="1142" s="13" customFormat="1" spans="1:11">
+      <c r="A1142" s="1"/>
+      <c r="B1142" s="14" t="s">
+        <v>7392</v>
+      </c>
+      <c r="C1142" s="1"/>
+      <c r="D1142" s="1"/>
       <c r="E1142" s="14" t="s">
-        <v>1927</v>
-      </c>
-      <c r="F1142" s="14" t="s">
-        <v>1928</v>
-      </c>
-      <c r="G1142" s="14" t="s">
-        <v>1929</v>
-      </c>
-      <c r="H1142" s="14" t="s">
-        <v>1930</v>
-      </c>
-      <c r="I1142" s="14" t="s">
-        <v>1931</v>
-      </c>
-      <c r="J1142" s="14" t="s">
-        <v>1932</v>
-      </c>
-      <c r="K1142" s="14" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="1143" s="13" customFormat="1" spans="2:11">
-      <c r="B1143" s="13" t="s">
-        <v>7372</v>
-      </c>
+        <v>7294</v>
+      </c>
+      <c r="F1142" s="39" t="s">
+        <v>7393</v>
+      </c>
+      <c r="G1142" s="39" t="s">
+        <v>7393</v>
+      </c>
+      <c r="H1142" s="39" t="s">
+        <v>7393</v>
+      </c>
+      <c r="I1142" s="39" t="s">
+        <v>7393</v>
+      </c>
+      <c r="J1142" s="39" t="s">
+        <v>7393</v>
+      </c>
+      <c r="K1142" s="39" t="s">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="1143" s="13" customFormat="1" spans="1:11">
+      <c r="A1143" s="1"/>
+      <c r="B1143" s="14" t="s">
+        <v>7394</v>
+      </c>
+      <c r="C1143" s="1"/>
+      <c r="D1143" s="1"/>
       <c r="E1143" s="14" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F1143" s="14" t="s">
-        <v>1936</v>
-      </c>
-      <c r="G1143" s="14" t="s">
-        <v>1937</v>
-      </c>
-      <c r="H1143" s="14" t="s">
-        <v>1938</v>
-      </c>
-      <c r="I1143" s="14" t="s">
-        <v>1939</v>
-      </c>
-      <c r="J1143" s="14" t="s">
-        <v>1940</v>
-      </c>
-      <c r="K1143" s="14" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="1144" s="13" customFormat="1" spans="2:11">
-      <c r="B1144" s="13" t="s">
-        <v>7373</v>
-      </c>
-      <c r="E1144" s="41" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F1144" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="G1144" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="H1144" s="14" t="s">
-        <v>1945</v>
-      </c>
-      <c r="I1144" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J1144" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="K1144" s="14" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="1145" s="13" customFormat="1" spans="2:11">
-      <c r="B1145" s="13" t="s">
-        <v>7374</v>
-      </c>
-      <c r="E1145" s="41" t="s">
-        <v>1947</v>
-      </c>
-      <c r="F1145" s="14" t="s">
-        <v>1948</v>
-      </c>
-      <c r="G1145" s="14" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H1145" s="14" t="s">
-        <v>1948</v>
-      </c>
-      <c r="I1145" s="14" t="s">
-        <v>1948</v>
-      </c>
-      <c r="J1145" s="14" t="s">
-        <v>1950</v>
-      </c>
-      <c r="K1145" s="14" t="s">
-        <v>1948</v>
+        <v>3853</v>
+      </c>
+      <c r="F1143" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="G1143" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="H1143" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="I1143" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="J1143" s="39" t="s">
+        <v>3854</v>
+      </c>
+      <c r="K1143" s="39" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="1144" s="13" customFormat="1" spans="1:11">
+      <c r="A1144" s="1"/>
+      <c r="B1144" s="14" t="s">
+        <v>7395</v>
+      </c>
+      <c r="C1144" s="1"/>
+      <c r="D1144" s="1"/>
+      <c r="E1144" s="14" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F1144" s="39" t="s">
+        <v>7396</v>
+      </c>
+      <c r="G1144" s="39" t="s">
+        <v>7396</v>
+      </c>
+      <c r="H1144" s="39" t="s">
+        <v>7396</v>
+      </c>
+      <c r="I1144" s="39" t="s">
+        <v>7396</v>
+      </c>
+      <c r="J1144" s="39" t="s">
+        <v>7396</v>
+      </c>
+      <c r="K1144" s="39" t="s">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="1145" s="13" customFormat="1" ht="409.5" spans="1:11">
+      <c r="A1145" s="1"/>
+      <c r="B1145" s="14" t="s">
+        <v>7397</v>
+      </c>
+      <c r="C1145" s="1"/>
+      <c r="D1145" s="1"/>
+      <c r="E1145" s="27" t="s">
+        <v>7398</v>
+      </c>
+      <c r="F1145" s="27" t="s">
+        <v>7399</v>
+      </c>
+      <c r="G1145" s="27" t="s">
+        <v>7399</v>
+      </c>
+      <c r="H1145" s="27" t="s">
+        <v>7399</v>
+      </c>
+      <c r="I1145" s="27" t="s">
+        <v>7399</v>
+      </c>
+      <c r="J1145" s="27" t="s">
+        <v>7399</v>
+      </c>
+      <c r="K1145" s="27" t="s">
+        <v>7399</v>
       </c>
     </row>
     <row r="1146" s="13" customFormat="1" spans="2:11">
       <c r="B1146" s="13" t="s">
-        <v>7375</v>
-      </c>
-      <c r="E1146" s="41" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F1146" s="14" t="s">
-        <v>1963</v>
-      </c>
-      <c r="G1146" s="14" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H1146" s="14" t="s">
-        <v>1963</v>
-      </c>
-      <c r="I1146" s="14" t="s">
-        <v>1963</v>
-      </c>
-      <c r="J1146" s="14" t="s">
-        <v>1965</v>
-      </c>
-      <c r="K1146" s="14" t="s">
-        <v>1966</v>
+        <v>7400</v>
+      </c>
+      <c r="E1146" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F1146" s="39" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G1146" s="17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H1146" s="17" t="s">
+        <v>1668</v>
+      </c>
+      <c r="I1146" s="17" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J1146" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K1146" s="1" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1147" s="13" customFormat="1" spans="2:11">
       <c r="B1147" s="13" t="s">
-        <v>7376</v>
-      </c>
-      <c r="E1147" s="41" t="s">
+        <v>7401</v>
+      </c>
+      <c r="E1147" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F1147" s="37" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G1147" s="38" t="s">
+        <v>1675</v>
+      </c>
+      <c r="H1147" s="38" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I1147" s="38" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J1147" s="8" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K1147" s="8" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1148" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1148" s="13" t="s">
+        <v>7402</v>
+      </c>
+      <c r="E1148" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F1148" s="39" t="s">
+        <v>1682</v>
+      </c>
+      <c r="G1148" s="17" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H1148" s="17" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I1148" s="17" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J1148" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K1148" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1149" s="13" customFormat="1" spans="2:11">
+      <c r="B1149" s="13" t="s">
+        <v>7403</v>
+      </c>
+      <c r="E1149" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F1149" s="39" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G1149" s="17" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H1149" s="17" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I1149" s="17" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J1149" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K1149" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1150" s="13" customFormat="1" spans="2:11">
+      <c r="B1150" s="13" t="s">
+        <v>7404</v>
+      </c>
+      <c r="E1150" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1150" s="39" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G1150" s="17" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H1150" s="17" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I1150" s="17" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J1150" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K1150" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1151" s="13" customFormat="1" spans="2:11">
+      <c r="B1151" s="13" t="s">
+        <v>7405</v>
+      </c>
+      <c r="E1151" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F1151" s="39" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G1151" s="17" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H1151" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I1151" s="17" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J1151" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K1151" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1152" s="13" customFormat="1" spans="2:11">
+      <c r="B1152" s="13" t="s">
+        <v>7406</v>
+      </c>
+      <c r="E1152" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F1152" s="39" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G1152" s="17" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H1152" s="17" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I1152" s="17" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J1152" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K1152" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1153" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1153" s="13" t="s">
+        <v>7407</v>
+      </c>
+      <c r="E1153" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F1153" s="39" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G1153" s="17" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H1153" s="17" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I1153" s="17" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J1153" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K1153" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1154" s="13" customFormat="1" spans="2:11">
+      <c r="B1154" s="13" t="s">
+        <v>7408</v>
+      </c>
+      <c r="E1154" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="F1154" s="39" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G1154" s="17" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H1154" s="17" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I1154" s="17" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J1154" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K1154" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1155" s="13" customFormat="1" spans="2:11">
+      <c r="B1155" s="13" t="s">
+        <v>7409</v>
+      </c>
+      <c r="E1155" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F1155" s="39" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G1155" s="17" t="s">
+        <v>1732</v>
+      </c>
+      <c r="H1155" s="17" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I1155" s="17" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J1155" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K1155" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1156" s="13" customFormat="1" spans="2:11">
+      <c r="B1156" s="13" t="s">
+        <v>7410</v>
+      </c>
+      <c r="E1156" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F1156" s="39" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G1156" s="17" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H1156" s="17" t="s">
+        <v>1741</v>
+      </c>
+      <c r="I1156" s="17" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J1156" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K1156" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1157" s="13" customFormat="1" spans="2:11">
+      <c r="B1157" s="13" t="s">
+        <v>7411</v>
+      </c>
+      <c r="E1157" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F1157" s="39" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G1157" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H1157" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I1157" s="17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J1157" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K1157" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1158" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1158" s="13" t="s">
+        <v>7412</v>
+      </c>
+      <c r="E1158" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F1158" s="39" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G1158" s="39" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H1158" s="39" t="s">
+        <v>1753</v>
+      </c>
+      <c r="I1158" s="39" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J1158" s="39" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K1158" s="39" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1159" s="13" customFormat="1" spans="2:11">
+      <c r="B1159" s="13" t="s">
+        <v>7413</v>
+      </c>
+      <c r="E1159" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1159" s="39" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G1159" s="17" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H1159" s="17" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I1159" s="17" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J1159" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K1159" s="1" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1160" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1160" s="13" t="s">
+        <v>7414</v>
+      </c>
+      <c r="E1160" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1160" s="39" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1160" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1160" s="17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I1160" s="17" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J1160" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="K1160" s="1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1161" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1161" s="13" t="s">
+        <v>7415</v>
+      </c>
+      <c r="E1161" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F1161" s="39" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G1161" s="17" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H1161" s="17" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I1161" s="17" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J1161" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="K1161" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1162" s="13" customFormat="1" spans="2:11">
+      <c r="B1162" s="13" t="s">
+        <v>7416</v>
+      </c>
+      <c r="E1162" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F1162" s="39" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G1162" s="17" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H1162" s="17" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I1162" s="17" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J1162" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K1162" s="1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1163" s="13" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B1163" s="13" t="s">
+        <v>7417</v>
+      </c>
+      <c r="E1163" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F1163" s="39" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G1163" s="17" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H1163" s="17" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I1163" s="42" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J1163" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K1163" s="1" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1164" s="13" customFormat="1" spans="2:11">
+      <c r="B1164" s="13" t="s">
+        <v>7418</v>
+      </c>
+      <c r="E1164" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F1164" s="39" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G1164" s="17" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H1164" s="17" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I1164" s="17" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J1164" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K1164" s="1" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1165" s="13" customFormat="1" spans="2:11">
+      <c r="B1165" s="13" t="s">
+        <v>7419</v>
+      </c>
+      <c r="E1165" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F1165" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G1165" s="17" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H1165" s="17" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I1165" s="17" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J1165" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K1165" s="1" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1166" s="13" customFormat="1" spans="2:11">
+      <c r="B1166" s="13" t="s">
+        <v>7420</v>
+      </c>
+      <c r="E1166" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F1166" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G1166" s="17" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H1166" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I1166" s="17" t="s">
+        <v>1850</v>
+      </c>
+      <c r="J1166" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K1166" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1167" s="13" customFormat="1" spans="2:11">
+      <c r="B1167" s="13" t="s">
+        <v>7421</v>
+      </c>
+      <c r="E1167" s="14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F1167" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G1167" s="14" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1167" s="14" t="s">
+        <v>1915</v>
+      </c>
+      <c r="I1167" s="14" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J1167" s="14" t="s">
+        <v>1917</v>
+      </c>
+      <c r="K1167" s="14" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1168" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1168" s="13" t="s">
+        <v>7422</v>
+      </c>
+      <c r="E1168" s="14" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F1168" s="14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G1168" s="14" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H1168" s="14" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I1168" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J1168" s="14" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K1168" s="14" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1169" s="13" customFormat="1" spans="2:11">
+      <c r="B1169" s="13" t="s">
+        <v>7423</v>
+      </c>
+      <c r="E1169" s="14" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F1169" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G1169" s="14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H1169" s="14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I1169" s="14" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J1169" s="14" t="s">
+        <v>1932</v>
+      </c>
+      <c r="K1169" s="14" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1170" s="13" customFormat="1" spans="2:11">
+      <c r="B1170" s="13" t="s">
+        <v>7424</v>
+      </c>
+      <c r="E1170" s="14" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F1170" s="14" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G1170" s="14" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H1170" s="14" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I1170" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="J1170" s="14" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K1170" s="14" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1171" s="13" customFormat="1" spans="2:11">
+      <c r="B1171" s="13" t="s">
+        <v>7425</v>
+      </c>
+      <c r="E1171" s="41" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F1171" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1171" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H1171" s="14" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I1171" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J1171" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K1171" s="14" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1172" s="13" customFormat="1" spans="2:11">
+      <c r="B1172" s="13" t="s">
+        <v>7426</v>
+      </c>
+      <c r="E1172" s="41" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F1172" s="14" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G1172" s="14" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H1172" s="14" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I1172" s="14" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J1172" s="14" t="s">
+        <v>1950</v>
+      </c>
+      <c r="K1172" s="14" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1173" s="13" customFormat="1" spans="2:11">
+      <c r="B1173" s="13" t="s">
+        <v>7427</v>
+      </c>
+      <c r="E1173" s="41" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F1173" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G1173" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H1173" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I1173" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J1173" s="14" t="s">
+        <v>1965</v>
+      </c>
+      <c r="K1173" s="14" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1174" s="13" customFormat="1" spans="2:11">
+      <c r="B1174" s="13" t="s">
+        <v>7428</v>
+      </c>
+      <c r="E1174" s="41" t="s">
         <v>1870</v>
       </c>
-      <c r="F1147" s="14" t="s">
+      <c r="F1174" s="14" t="s">
         <v>1871</v>
       </c>
-      <c r="G1147" s="14" t="s">
+      <c r="G1174" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="H1147" s="14" t="s">
+      <c r="H1174" s="14" t="s">
         <v>1873</v>
       </c>
-      <c r="I1147" s="14" t="s">
+      <c r="I1174" s="14" t="s">
         <v>1874</v>
       </c>
-      <c r="J1147" s="14" t="s">
+      <c r="J1174" s="14" t="s">
         <v>1875</v>
       </c>
-      <c r="K1147" s="14" t="s">
+      <c r="K1174" s="14" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="1148" s="13" customFormat="1" spans="2:11">
-      <c r="B1148" s="13" t="s">
-        <v>7377</v>
-      </c>
-      <c r="E1148" s="41" t="s">
-        <v>7378</v>
-      </c>
-      <c r="F1148" s="14" t="s">
-        <v>7379</v>
-      </c>
-      <c r="G1148" s="14" t="s">
-        <v>7379</v>
-      </c>
-      <c r="H1148" s="14" t="s">
-        <v>7379</v>
-      </c>
-      <c r="I1148" s="14" t="s">
-        <v>7379</v>
-      </c>
-      <c r="J1148" s="14" t="s">
-        <v>7380</v>
-      </c>
-      <c r="K1148" s="14" t="s">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="1149" s="7" customFormat="1" ht="162" spans="2:11">
-      <c r="B1149" s="7" t="s">
-        <v>7381</v>
-      </c>
-      <c r="C1149" s="7" t="s">
-        <v>7382</v>
-      </c>
-      <c r="E1149" s="7" t="s">
-        <v>7383</v>
-      </c>
-      <c r="F1149" s="7" t="s">
-        <v>7384</v>
-      </c>
-      <c r="G1149" s="7" t="s">
-        <v>7385</v>
-      </c>
-      <c r="H1149" s="7" t="s">
-        <v>7386</v>
-      </c>
-      <c r="I1149" s="7" t="s">
-        <v>7387</v>
-      </c>
-      <c r="J1149" s="7" t="s">
-        <v>7388</v>
-      </c>
-      <c r="K1149" s="7" t="s">
-        <v>7389</v>
-      </c>
-    </row>
-    <row r="1150" ht="297" spans="2:11">
-      <c r="B1150" s="14" t="s">
-        <v>7390</v>
-      </c>
-      <c r="C1150" s="14" t="s">
-        <v>7391</v>
-      </c>
-      <c r="E1150" s="27" t="s">
-        <v>7392</v>
-      </c>
-      <c r="F1150" s="14" t="s">
-        <v>7393</v>
-      </c>
-      <c r="G1150" s="14" t="s">
-        <v>7394</v>
-      </c>
-      <c r="H1150" s="14" t="s">
-        <v>7395</v>
-      </c>
-      <c r="I1150" s="14" t="s">
-        <v>7396</v>
-      </c>
-      <c r="J1150" s="14" t="s">
-        <v>7397</v>
-      </c>
-      <c r="K1150" s="14" t="s">
-        <v>7397</v>
-      </c>
-    </row>
-    <row r="1151" s="2" customFormat="1" spans="2:11">
-      <c r="B1151" s="1" t="s">
-        <v>7398</v>
-      </c>
-      <c r="C1151" s="1" t="s">
-        <v>7399</v>
-      </c>
-      <c r="D1151" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1151" s="39" t="s">
-        <v>7400</v>
-      </c>
-      <c r="F1151" s="39" t="s">
-        <v>7401</v>
-      </c>
-      <c r="G1151" s="39" t="s">
-        <v>7402</v>
-      </c>
-      <c r="H1151" s="39" t="s">
-        <v>7402</v>
-      </c>
-      <c r="I1151" s="39" t="s">
-        <v>7402</v>
-      </c>
-      <c r="J1151" s="39" t="s">
-        <v>7403</v>
-      </c>
-      <c r="K1151" s="39" t="s">
-        <v>7403</v>
-      </c>
-    </row>
-    <row r="1152" spans="2:11">
-      <c r="B1152" s="1" t="s">
-        <v>7404</v>
-      </c>
-      <c r="C1152" s="14" t="s">
-        <v>7405</v>
-      </c>
-      <c r="D1152" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1152" s="14" t="s">
-        <v>7406</v>
-      </c>
-      <c r="F1152" s="14" t="s">
-        <v>7407</v>
-      </c>
-      <c r="G1152" s="14" t="s">
-        <v>7408</v>
-      </c>
-      <c r="H1152" s="14" t="s">
-        <v>7408</v>
-      </c>
-      <c r="I1152" s="14" t="s">
-        <v>7408</v>
-      </c>
-      <c r="J1152" s="14" t="s">
-        <v>7409</v>
-      </c>
-      <c r="K1152" s="14" t="s">
-        <v>7409</v>
-      </c>
-    </row>
-    <row r="1153" spans="2:11">
-      <c r="B1153" s="1" t="s">
-        <v>7410</v>
-      </c>
-      <c r="C1153" s="14" t="s">
-        <v>7411</v>
-      </c>
-      <c r="D1153" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1153" s="14" t="s">
-        <v>7412</v>
-      </c>
-      <c r="F1153" s="14" t="s">
-        <v>7413</v>
-      </c>
-      <c r="G1153" s="14" t="s">
-        <v>7414</v>
-      </c>
-      <c r="H1153" s="14" t="s">
-        <v>7414</v>
-      </c>
-      <c r="I1153" s="14" t="s">
-        <v>7414</v>
-      </c>
-      <c r="J1153" s="14" t="s">
-        <v>7415</v>
-      </c>
-      <c r="K1153" s="14" t="s">
-        <v>7415</v>
-      </c>
-    </row>
-    <row r="1154" spans="2:11">
-      <c r="B1154" s="1" t="s">
-        <v>7416</v>
-      </c>
-      <c r="C1154" s="14" t="s">
-        <v>7417</v>
-      </c>
-      <c r="D1154" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1154" s="14" t="s">
-        <v>7418</v>
-      </c>
-      <c r="F1154" s="14" t="s">
-        <v>7418</v>
-      </c>
-      <c r="G1154" s="14" t="s">
-        <v>7418</v>
-      </c>
-      <c r="H1154" s="14" t="s">
-        <v>7418</v>
-      </c>
-      <c r="I1154" s="14" t="s">
-        <v>7418</v>
-      </c>
-      <c r="J1154" s="14" t="s">
-        <v>7418</v>
-      </c>
-      <c r="K1154" s="14" t="s">
-        <v>7418</v>
-      </c>
-    </row>
-    <row r="1155" spans="2:11">
-      <c r="B1155" s="1" t="s">
-        <v>7419</v>
-      </c>
-      <c r="C1155" s="14" t="s">
-        <v>7420</v>
-      </c>
-      <c r="D1155" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1155" s="14" t="s">
-        <v>7421</v>
-      </c>
-      <c r="F1155" s="14" t="s">
-        <v>7421</v>
-      </c>
-      <c r="G1155" s="14" t="s">
-        <v>7421</v>
-      </c>
-      <c r="H1155" s="14" t="s">
-        <v>7421</v>
-      </c>
-      <c r="I1155" s="14" t="s">
-        <v>7421</v>
-      </c>
-      <c r="J1155" s="14" t="s">
-        <v>7421</v>
-      </c>
-      <c r="K1155" s="14" t="s">
-        <v>7421</v>
-      </c>
-    </row>
-    <row r="1156" spans="2:11">
-      <c r="B1156" s="1" t="s">
-        <v>7422</v>
-      </c>
-      <c r="C1156" s="14" t="s">
-        <v>7423</v>
-      </c>
-      <c r="D1156" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1156" s="14" t="s">
-        <v>7424</v>
-      </c>
-      <c r="F1156" s="14" t="s">
-        <v>7424</v>
-      </c>
-      <c r="G1156" s="14" t="s">
-        <v>7424</v>
-      </c>
-      <c r="H1156" s="14" t="s">
-        <v>7424</v>
-      </c>
-      <c r="I1156" s="14" t="s">
-        <v>7424</v>
-      </c>
-      <c r="J1156" s="14" t="s">
-        <v>7424</v>
-      </c>
-      <c r="K1156" s="14" t="s">
-        <v>7424</v>
-      </c>
-    </row>
-    <row r="1157" spans="2:11">
-      <c r="B1157" s="14" t="s">
-        <v>7425</v>
-      </c>
-      <c r="C1157" s="14" t="s">
-        <v>7426</v>
-      </c>
-      <c r="D1157" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1157" s="14" t="s">
-        <v>7427</v>
-      </c>
-      <c r="F1157" s="14" t="s">
-        <v>7428</v>
-      </c>
-      <c r="G1157" s="14" t="s">
+    <row r="1175" s="13" customFormat="1" spans="2:11">
+      <c r="B1175" s="13" t="s">
         <v>7429</v>
       </c>
-      <c r="H1157" s="14" t="s">
-        <v>7429</v>
-      </c>
-      <c r="I1157" s="14" t="s">
-        <v>7429</v>
-      </c>
-      <c r="J1157" s="14" t="s">
+      <c r="E1175" s="41" t="s">
         <v>7430</v>
       </c>
-      <c r="K1157" s="14" t="s">
-        <v>7430</v>
-      </c>
-    </row>
-    <row r="1158" spans="2:11">
-      <c r="B1158" s="14" t="s">
+      <c r="F1175" s="14" t="s">
         <v>7431</v>
       </c>
-      <c r="C1158" s="14" t="s">
+      <c r="G1175" s="14" t="s">
+        <v>7431</v>
+      </c>
+      <c r="H1175" s="14" t="s">
+        <v>7431</v>
+      </c>
+      <c r="I1175" s="14" t="s">
+        <v>7431</v>
+      </c>
+      <c r="J1175" s="14" t="s">
         <v>7432</v>
       </c>
-      <c r="D1158" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1158" s="14" t="s">
+      <c r="K1175" s="14" t="s">
+        <v>7432</v>
+      </c>
+    </row>
+    <row r="1176" s="7" customFormat="1" ht="162" spans="2:11">
+      <c r="B1176" s="7" t="s">
         <v>7433</v>
       </c>
-      <c r="F1158" s="14" t="s">
+      <c r="C1176" s="7" t="s">
         <v>7434</v>
       </c>
-      <c r="G1158" s="14" t="s">
+      <c r="E1176" s="7" t="s">
         <v>7435</v>
       </c>
-      <c r="H1158" s="14" t="s">
-        <v>7435</v>
-      </c>
-      <c r="I1158" s="14" t="s">
-        <v>7435</v>
-      </c>
-      <c r="J1158" s="14" t="s">
+      <c r="F1176" s="7" t="s">
         <v>7436</v>
       </c>
-      <c r="K1158" s="14" t="s">
-        <v>7436</v>
-      </c>
-    </row>
-    <row r="1159" spans="2:11">
-      <c r="B1159" s="14" t="s">
+      <c r="G1176" s="7" t="s">
         <v>7437</v>
       </c>
-      <c r="C1159" s="14" t="s">
+      <c r="H1176" s="7" t="s">
         <v>7438</v>
       </c>
-      <c r="D1159" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1159" s="14" t="s">
+      <c r="I1176" s="7" t="s">
         <v>7439</v>
       </c>
-      <c r="F1159" s="14" t="s">
+      <c r="J1176" s="7" t="s">
         <v>7440</v>
       </c>
-      <c r="G1159" s="14" t="s">
+      <c r="K1176" s="7" t="s">
         <v>7441</v>
       </c>
-      <c r="H1159" s="14" t="s">
-        <v>7441</v>
-      </c>
-      <c r="I1159" s="14" t="s">
-        <v>7441</v>
-      </c>
-      <c r="J1159" s="14" t="s">
+    </row>
+    <row r="1177" ht="297" spans="2:11">
+      <c r="B1177" s="14" t="s">
         <v>7442</v>
       </c>
-      <c r="K1159" s="14" t="s">
-        <v>7442</v>
-      </c>
-    </row>
-    <row r="1160" spans="2:11">
-      <c r="B1160" s="14" t="s">
+      <c r="C1177" s="14" t="s">
         <v>7443</v>
       </c>
-      <c r="C1160" s="14" t="s">
+      <c r="E1177" s="27" t="s">
         <v>7444</v>
       </c>
-      <c r="D1160" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1160" s="14" t="s">
+      <c r="F1177" s="14" t="s">
         <v>7445</v>
       </c>
-      <c r="F1160" s="14" t="s">
+      <c r="G1177" s="14" t="s">
         <v>7446</v>
       </c>
-      <c r="G1160" s="14" t="s">
+      <c r="H1177" s="14" t="s">
         <v>7447</v>
       </c>
-      <c r="H1160" s="14" t="s">
-        <v>7447</v>
-      </c>
-      <c r="I1160" s="14" t="s">
-        <v>7447</v>
-      </c>
-      <c r="J1160" s="14" t="s">
+      <c r="I1177" s="14" t="s">
         <v>7448</v>
       </c>
-      <c r="K1160" s="14" t="s">
-        <v>7448</v>
-      </c>
-    </row>
-    <row r="1161" spans="2:11">
-      <c r="B1161" s="14" t="s">
+      <c r="J1177" s="14" t="s">
         <v>7449</v>
       </c>
-      <c r="C1161" s="14" t="s">
+      <c r="K1177" s="14" t="s">
+        <v>7449</v>
+      </c>
+    </row>
+    <row r="1178" s="2" customFormat="1" spans="2:11">
+      <c r="B1178" s="1" t="s">
         <v>7450</v>
       </c>
-      <c r="D1161" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1161" s="14" t="s">
+      <c r="C1178" s="1" t="s">
         <v>7451</v>
-      </c>
-      <c r="F1161" s="14" t="s">
-        <v>7452</v>
-      </c>
-      <c r="G1161" s="14" t="s">
-        <v>7453</v>
-      </c>
-      <c r="H1161" s="14" t="s">
-        <v>7453</v>
-      </c>
-      <c r="I1161" s="14" t="s">
-        <v>7453</v>
-      </c>
-      <c r="J1161" s="14" t="s">
-        <v>7454</v>
-      </c>
-      <c r="K1161" s="14" t="s">
-        <v>7454</v>
-      </c>
-    </row>
-    <row r="1162" spans="2:11">
-      <c r="B1162" s="14" t="s">
-        <v>7455</v>
-      </c>
-      <c r="C1162" s="14" t="s">
-        <v>7456</v>
-      </c>
-      <c r="D1162" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1162" s="14" t="s">
-        <v>7457</v>
-      </c>
-      <c r="F1162" s="14" t="s">
-        <v>7458</v>
-      </c>
-      <c r="G1162" s="14" t="s">
-        <v>7459</v>
-      </c>
-      <c r="H1162" s="14" t="s">
-        <v>7459</v>
-      </c>
-      <c r="I1162" s="14" t="s">
-        <v>7459</v>
-      </c>
-      <c r="J1162" s="14" t="s">
-        <v>7460</v>
-      </c>
-      <c r="K1162" s="14" t="s">
-        <v>7460</v>
-      </c>
-    </row>
-    <row r="1163" spans="2:11">
-      <c r="B1163" s="14" t="s">
-        <v>7461</v>
-      </c>
-      <c r="C1163" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D1163" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1163" s="14" t="s">
-        <v>7462</v>
-      </c>
-      <c r="F1163" s="14" t="s">
-        <v>7463</v>
-      </c>
-      <c r="G1163" s="14" t="s">
-        <v>7464</v>
-      </c>
-      <c r="H1163" s="14" t="s">
-        <v>7464</v>
-      </c>
-      <c r="I1163" s="14" t="s">
-        <v>7464</v>
-      </c>
-      <c r="J1163" s="14" t="s">
-        <v>7465</v>
-      </c>
-      <c r="K1163" s="14" t="s">
-        <v>7465</v>
-      </c>
-    </row>
-    <row r="1164" spans="2:11">
-      <c r="B1164" s="14" t="s">
-        <v>7466</v>
-      </c>
-      <c r="C1164" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D1164" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1164" s="14" t="s">
-        <v>7467</v>
-      </c>
-      <c r="F1164" s="14" t="s">
-        <v>7468</v>
-      </c>
-      <c r="G1164" s="14" t="s">
-        <v>7469</v>
-      </c>
-      <c r="H1164" s="14" t="s">
-        <v>7469</v>
-      </c>
-      <c r="I1164" s="14" t="s">
-        <v>7469</v>
-      </c>
-      <c r="J1164" s="14" t="s">
-        <v>7470</v>
-      </c>
-      <c r="K1164" s="14" t="s">
-        <v>7470</v>
-      </c>
-    </row>
-    <row r="1165" spans="2:11">
-      <c r="B1165" s="14" t="s">
-        <v>7471</v>
-      </c>
-      <c r="C1165" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D1165" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1165" s="14" t="s">
-        <v>7472</v>
-      </c>
-      <c r="F1165" s="14" t="s">
-        <v>7473</v>
-      </c>
-      <c r="G1165" s="14" t="s">
-        <v>7474</v>
-      </c>
-      <c r="H1165" s="14" t="s">
-        <v>7474</v>
-      </c>
-      <c r="I1165" s="14" t="s">
-        <v>7474</v>
-      </c>
-      <c r="J1165" s="14" t="s">
-        <v>7475</v>
-      </c>
-      <c r="K1165" s="14" t="s">
-        <v>7475</v>
-      </c>
-    </row>
-    <row r="1166" spans="2:11">
-      <c r="B1166" s="14" t="s">
-        <v>7476</v>
-      </c>
-      <c r="C1166" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D1166" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1166" s="14" t="s">
-        <v>7477</v>
-      </c>
-      <c r="F1166" s="14" t="s">
-        <v>7478</v>
-      </c>
-      <c r="G1166" s="14" t="s">
-        <v>7479</v>
-      </c>
-      <c r="H1166" s="14" t="s">
-        <v>7479</v>
-      </c>
-      <c r="I1166" s="14" t="s">
-        <v>7479</v>
-      </c>
-      <c r="J1166" s="14" t="s">
-        <v>7480</v>
-      </c>
-      <c r="K1166" s="14" t="s">
-        <v>7480</v>
-      </c>
-    </row>
-    <row r="1167" spans="2:11">
-      <c r="B1167" s="14" t="s">
-        <v>7481</v>
-      </c>
-      <c r="C1167" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D1167" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1167" s="14" t="s">
-        <v>7482</v>
-      </c>
-      <c r="F1167" s="14" t="s">
-        <v>7483</v>
-      </c>
-      <c r="G1167" s="14" t="s">
-        <v>7484</v>
-      </c>
-      <c r="H1167" s="14" t="s">
-        <v>7484</v>
-      </c>
-      <c r="I1167" s="14" t="s">
-        <v>7484</v>
-      </c>
-      <c r="J1167" s="14" t="s">
-        <v>7485</v>
-      </c>
-      <c r="K1167" s="14" t="s">
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="1168" spans="2:11">
-      <c r="B1168" s="14" t="s">
-        <v>7486</v>
-      </c>
-      <c r="C1168" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D1168" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1168" s="14" t="s">
-        <v>7487</v>
-      </c>
-      <c r="F1168" s="14" t="s">
-        <v>7488</v>
-      </c>
-      <c r="G1168" s="14" t="s">
-        <v>7489</v>
-      </c>
-      <c r="H1168" s="14" t="s">
-        <v>7489</v>
-      </c>
-      <c r="I1168" s="14" t="s">
-        <v>7489</v>
-      </c>
-      <c r="J1168" s="14" t="s">
-        <v>7490</v>
-      </c>
-      <c r="K1168" s="14" t="s">
-        <v>7490</v>
-      </c>
-    </row>
-    <row r="1169" spans="2:11">
-      <c r="B1169" s="14" t="s">
-        <v>7491</v>
-      </c>
-      <c r="C1169" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D1169" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1169" s="14" t="s">
-        <v>7492</v>
-      </c>
-      <c r="F1169" s="14" t="s">
-        <v>7493</v>
-      </c>
-      <c r="G1169" s="14" t="s">
-        <v>7494</v>
-      </c>
-      <c r="H1169" s="14" t="s">
-        <v>7494</v>
-      </c>
-      <c r="I1169" s="14" t="s">
-        <v>7494</v>
-      </c>
-      <c r="J1169" s="14" t="s">
-        <v>7495</v>
-      </c>
-      <c r="K1169" s="14" t="s">
-        <v>7495</v>
-      </c>
-    </row>
-    <row r="1170" spans="2:11">
-      <c r="B1170" s="14" t="s">
-        <v>7496</v>
-      </c>
-      <c r="C1170" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D1170" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1170" s="14" t="s">
-        <v>7497</v>
-      </c>
-      <c r="F1170" s="14" t="s">
-        <v>7498</v>
-      </c>
-      <c r="G1170" s="14" t="s">
-        <v>7499</v>
-      </c>
-      <c r="H1170" s="14" t="s">
-        <v>7499</v>
-      </c>
-      <c r="I1170" s="14" t="s">
-        <v>7499</v>
-      </c>
-      <c r="J1170" s="14" t="s">
-        <v>7500</v>
-      </c>
-      <c r="K1170" s="14" t="s">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="1171" spans="2:11">
-      <c r="B1171" s="14" t="s">
-        <v>7501</v>
-      </c>
-      <c r="C1171" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D1171" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1171" s="14" t="s">
-        <v>7502</v>
-      </c>
-      <c r="F1171" s="14" t="s">
-        <v>7503</v>
-      </c>
-      <c r="G1171" s="14" t="s">
-        <v>7504</v>
-      </c>
-      <c r="H1171" s="14" t="s">
-        <v>7504</v>
-      </c>
-      <c r="I1171" s="14" t="s">
-        <v>7504</v>
-      </c>
-      <c r="J1171" s="14" t="s">
-        <v>7505</v>
-      </c>
-      <c r="K1171" s="14" t="s">
-        <v>7505</v>
-      </c>
-    </row>
-    <row r="1172" spans="2:11">
-      <c r="B1172" s="14" t="s">
-        <v>7506</v>
-      </c>
-      <c r="C1172" s="1" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D1172" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1172" s="14" t="s">
-        <v>7507</v>
-      </c>
-      <c r="F1172" s="14" t="s">
-        <v>7508</v>
-      </c>
-      <c r="G1172" s="14" t="s">
-        <v>7509</v>
-      </c>
-      <c r="H1172" s="14" t="s">
-        <v>7509</v>
-      </c>
-      <c r="I1172" s="14" t="s">
-        <v>7509</v>
-      </c>
-      <c r="J1172" s="14" t="s">
-        <v>7510</v>
-      </c>
-      <c r="K1172" s="14" t="s">
-        <v>7510</v>
-      </c>
-    </row>
-    <row r="1173" spans="2:11">
-      <c r="B1173" s="14" t="s">
-        <v>7511</v>
-      </c>
-      <c r="C1173" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D1173" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1173" s="14" t="s">
-        <v>7512</v>
-      </c>
-      <c r="F1173" s="14" t="s">
-        <v>7513</v>
-      </c>
-      <c r="G1173" s="14" t="s">
-        <v>7514</v>
-      </c>
-      <c r="H1173" s="14" t="s">
-        <v>7514</v>
-      </c>
-      <c r="I1173" s="14" t="s">
-        <v>7514</v>
-      </c>
-      <c r="J1173" s="14" t="s">
-        <v>7515</v>
-      </c>
-      <c r="K1173" s="14" t="s">
-        <v>7515</v>
-      </c>
-    </row>
-    <row r="1174" spans="2:11">
-      <c r="B1174" s="14" t="s">
-        <v>7516</v>
-      </c>
-      <c r="C1174" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1174" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1174" s="14" t="s">
-        <v>7517</v>
-      </c>
-      <c r="F1174" s="14" t="s">
-        <v>7518</v>
-      </c>
-      <c r="G1174" s="14" t="s">
-        <v>7519</v>
-      </c>
-      <c r="H1174" s="14" t="s">
-        <v>7519</v>
-      </c>
-      <c r="I1174" s="14" t="s">
-        <v>7519</v>
-      </c>
-      <c r="J1174" s="14" t="s">
-        <v>7520</v>
-      </c>
-      <c r="K1174" s="14" t="s">
-        <v>7520</v>
-      </c>
-    </row>
-    <row r="1175" spans="2:11">
-      <c r="B1175" s="14" t="s">
-        <v>7521</v>
-      </c>
-      <c r="C1175" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D1175" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1175" s="14" t="s">
-        <v>7522</v>
-      </c>
-      <c r="F1175" s="14" t="s">
-        <v>7523</v>
-      </c>
-      <c r="G1175" s="14" t="s">
-        <v>7524</v>
-      </c>
-      <c r="H1175" s="14" t="s">
-        <v>7524</v>
-      </c>
-      <c r="I1175" s="14" t="s">
-        <v>7524</v>
-      </c>
-      <c r="J1175" s="14" t="s">
-        <v>7525</v>
-      </c>
-      <c r="K1175" s="14" t="s">
-        <v>7525</v>
-      </c>
-    </row>
-    <row r="1176" spans="2:11">
-      <c r="B1176" s="14" t="s">
-        <v>7526</v>
-      </c>
-      <c r="C1176" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D1176" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1176" s="14" t="s">
-        <v>7527</v>
-      </c>
-      <c r="F1176" s="14" t="s">
-        <v>7528</v>
-      </c>
-      <c r="G1176" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="H1176" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="I1176" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="J1176" s="14" t="s">
-        <v>7530</v>
-      </c>
-      <c r="K1176" s="14" t="s">
-        <v>7530</v>
-      </c>
-    </row>
-    <row r="1177" spans="2:11">
-      <c r="B1177" s="14" t="s">
-        <v>7531</v>
-      </c>
-      <c r="C1177" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1177" s="45" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E1177" s="14" t="s">
-        <v>7532</v>
-      </c>
-      <c r="F1177" s="14" t="s">
-        <v>7533</v>
-      </c>
-      <c r="G1177" s="14" t="s">
-        <v>7534</v>
-      </c>
-      <c r="H1177" s="14" t="s">
-        <v>7534</v>
-      </c>
-      <c r="I1177" s="14" t="s">
-        <v>7534</v>
-      </c>
-      <c r="J1177" s="14" t="s">
-        <v>7535</v>
-      </c>
-      <c r="K1177" s="14" t="s">
-        <v>7535</v>
-      </c>
-    </row>
-    <row r="1178" spans="2:11">
-      <c r="B1178" s="14" t="s">
-        <v>7536</v>
-      </c>
-      <c r="C1178" s="1" t="s">
-        <v>1779</v>
       </c>
       <c r="D1178" s="45" t="s">
         <v>3053</v>
       </c>
-      <c r="E1178" s="14" t="s">
-        <v>7537</v>
-      </c>
-      <c r="F1178" s="14" t="s">
-        <v>7538</v>
-      </c>
-      <c r="G1178" s="14" t="s">
-        <v>7539</v>
-      </c>
-      <c r="H1178" s="14" t="s">
-        <v>7539</v>
-      </c>
-      <c r="I1178" s="14" t="s">
-        <v>7539</v>
-      </c>
-      <c r="J1178" s="14" t="s">
-        <v>7540</v>
-      </c>
-      <c r="K1178" s="14" t="s">
-        <v>7540</v>
+      <c r="E1178" s="39" t="s">
+        <v>7452</v>
+      </c>
+      <c r="F1178" s="39" t="s">
+        <v>7453</v>
+      </c>
+      <c r="G1178" s="39" t="s">
+        <v>7454</v>
+      </c>
+      <c r="H1178" s="39" t="s">
+        <v>7454</v>
+      </c>
+      <c r="I1178" s="39" t="s">
+        <v>7454</v>
+      </c>
+      <c r="J1178" s="39" t="s">
+        <v>7455</v>
+      </c>
+      <c r="K1178" s="39" t="s">
+        <v>7455</v>
       </c>
     </row>
     <row r="1179" spans="2:11">
-      <c r="B1179" s="14" t="s">
-        <v>7541</v>
-      </c>
-      <c r="C1179" s="1" t="s">
-        <v>1787</v>
+      <c r="B1179" s="1" t="s">
+        <v>7456</v>
+      </c>
+      <c r="C1179" s="14" t="s">
+        <v>7457</v>
       </c>
       <c r="D1179" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1179" s="14" t="s">
-        <v>7542</v>
+        <v>7458</v>
       </c>
       <c r="F1179" s="14" t="s">
-        <v>7543</v>
+        <v>7459</v>
       </c>
       <c r="G1179" s="14" t="s">
-        <v>7544</v>
+        <v>7460</v>
       </c>
       <c r="H1179" s="14" t="s">
-        <v>7544</v>
+        <v>7460</v>
       </c>
       <c r="I1179" s="14" t="s">
-        <v>7544</v>
+        <v>7460</v>
       </c>
       <c r="J1179" s="14" t="s">
-        <v>7545</v>
+        <v>7461</v>
       </c>
       <c r="K1179" s="14" t="s">
-        <v>7545</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="1180" spans="2:11">
-      <c r="B1180" s="14" t="s">
-        <v>7546</v>
-      </c>
-      <c r="C1180" s="1" t="s">
-        <v>1794</v>
+      <c r="B1180" s="1" t="s">
+        <v>7462</v>
+      </c>
+      <c r="C1180" s="14" t="s">
+        <v>7463</v>
       </c>
       <c r="D1180" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1180" s="14" t="s">
-        <v>7547</v>
+        <v>7464</v>
       </c>
       <c r="F1180" s="14" t="s">
-        <v>7548</v>
+        <v>7465</v>
       </c>
       <c r="G1180" s="14" t="s">
-        <v>7549</v>
+        <v>7466</v>
       </c>
       <c r="H1180" s="14" t="s">
-        <v>7549</v>
+        <v>7466</v>
       </c>
       <c r="I1180" s="14" t="s">
-        <v>7549</v>
+        <v>7466</v>
       </c>
       <c r="J1180" s="14" t="s">
-        <v>7550</v>
+        <v>7467</v>
       </c>
       <c r="K1180" s="14" t="s">
-        <v>7550</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="1181" spans="2:11">
-      <c r="B1181" s="14" t="s">
-        <v>7551</v>
-      </c>
-      <c r="C1181" s="1" t="s">
-        <v>1801</v>
+      <c r="B1181" s="1" t="s">
+        <v>7468</v>
+      </c>
+      <c r="C1181" s="14" t="s">
+        <v>7469</v>
       </c>
       <c r="D1181" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1181" s="14" t="s">
-        <v>7552</v>
+        <v>7470</v>
       </c>
       <c r="F1181" s="14" t="s">
-        <v>7553</v>
+        <v>7470</v>
       </c>
       <c r="G1181" s="14" t="s">
-        <v>7554</v>
+        <v>7470</v>
       </c>
       <c r="H1181" s="14" t="s">
-        <v>7554</v>
+        <v>7470</v>
       </c>
       <c r="I1181" s="14" t="s">
-        <v>7554</v>
+        <v>7470</v>
       </c>
       <c r="J1181" s="14" t="s">
-        <v>7555</v>
+        <v>7470</v>
       </c>
       <c r="K1181" s="14" t="s">
-        <v>7555</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="1182" spans="2:11">
-      <c r="B1182" s="14" t="s">
-        <v>7556</v>
-      </c>
-      <c r="C1182" s="1" t="s">
-        <v>1846</v>
+      <c r="B1182" s="1" t="s">
+        <v>7471</v>
+      </c>
+      <c r="C1182" s="14" t="s">
+        <v>7472</v>
       </c>
       <c r="D1182" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1182" s="14" t="s">
-        <v>7557</v>
+        <v>7473</v>
       </c>
       <c r="F1182" s="14" t="s">
-        <v>7558</v>
+        <v>7473</v>
       </c>
       <c r="G1182" s="14" t="s">
-        <v>7559</v>
+        <v>7473</v>
       </c>
       <c r="H1182" s="14" t="s">
-        <v>7559</v>
+        <v>7473</v>
       </c>
       <c r="I1182" s="14" t="s">
-        <v>7559</v>
+        <v>7473</v>
       </c>
       <c r="J1182" s="14" t="s">
-        <v>7560</v>
+        <v>7473</v>
       </c>
       <c r="K1182" s="14" t="s">
-        <v>7560</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="1183" spans="2:11">
-      <c r="B1183" s="14" t="s">
-        <v>7561</v>
+      <c r="B1183" s="1" t="s">
+        <v>7474</v>
       </c>
       <c r="C1183" s="14" t="s">
-        <v>7562</v>
+        <v>7475</v>
       </c>
       <c r="D1183" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1183" s="14" t="s">
-        <v>7563</v>
+        <v>7476</v>
       </c>
       <c r="F1183" s="14" t="s">
-        <v>7564</v>
+        <v>7476</v>
       </c>
       <c r="G1183" s="14" t="s">
-        <v>7565</v>
+        <v>7476</v>
       </c>
       <c r="H1183" s="14" t="s">
-        <v>7565</v>
+        <v>7476</v>
       </c>
       <c r="I1183" s="14" t="s">
-        <v>7565</v>
+        <v>7476</v>
       </c>
       <c r="J1183" s="14" t="s">
-        <v>7566</v>
+        <v>7476</v>
       </c>
       <c r="K1183" s="14" t="s">
-        <v>7566</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="1184" spans="2:11">
       <c r="B1184" s="14" t="s">
-        <v>7567</v>
+        <v>7477</v>
       </c>
       <c r="C1184" s="14" t="s">
-        <v>7568</v>
+        <v>7478</v>
       </c>
       <c r="D1184" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1184" s="14" t="s">
-        <v>7569</v>
+        <v>7479</v>
       </c>
       <c r="F1184" s="14" t="s">
-        <v>7570</v>
+        <v>7480</v>
       </c>
       <c r="G1184" s="14" t="s">
-        <v>7571</v>
+        <v>7481</v>
       </c>
       <c r="H1184" s="14" t="s">
-        <v>7571</v>
+        <v>7481</v>
       </c>
       <c r="I1184" s="14" t="s">
-        <v>7571</v>
+        <v>7481</v>
       </c>
       <c r="J1184" s="14" t="s">
-        <v>7572</v>
+        <v>7482</v>
       </c>
       <c r="K1184" s="14" t="s">
-        <v>7572</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="1185" spans="2:11">
       <c r="B1185" s="14" t="s">
-        <v>7573</v>
+        <v>7483</v>
       </c>
       <c r="C1185" s="14" t="s">
-        <v>7574</v>
+        <v>7484</v>
       </c>
       <c r="D1185" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1185" s="14" t="s">
-        <v>7575</v>
+        <v>7485</v>
       </c>
       <c r="F1185" s="14" t="s">
-        <v>7576</v>
+        <v>7486</v>
       </c>
       <c r="G1185" s="14" t="s">
-        <v>7577</v>
+        <v>7487</v>
       </c>
       <c r="H1185" s="14" t="s">
-        <v>7577</v>
+        <v>7487</v>
       </c>
       <c r="I1185" s="14" t="s">
-        <v>7577</v>
+        <v>7487</v>
       </c>
       <c r="J1185" s="14" t="s">
-        <v>7578</v>
+        <v>7488</v>
       </c>
       <c r="K1185" s="14" t="s">
-        <v>7578</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="1186" spans="2:11">
       <c r="B1186" s="14" t="s">
-        <v>7579</v>
+        <v>7489</v>
       </c>
       <c r="C1186" s="14" t="s">
-        <v>7580</v>
+        <v>7490</v>
       </c>
       <c r="D1186" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1186" s="14" t="s">
-        <v>7581</v>
+        <v>7491</v>
       </c>
       <c r="F1186" s="14" t="s">
-        <v>7582</v>
+        <v>7492</v>
       </c>
       <c r="G1186" s="14" t="s">
-        <v>7583</v>
+        <v>7493</v>
       </c>
       <c r="H1186" s="14" t="s">
-        <v>7583</v>
+        <v>7493</v>
       </c>
       <c r="I1186" s="14" t="s">
-        <v>7583</v>
+        <v>7493</v>
       </c>
       <c r="J1186" s="14" t="s">
-        <v>7584</v>
+        <v>7494</v>
       </c>
       <c r="K1186" s="14" t="s">
-        <v>7584</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="1187" spans="2:11">
       <c r="B1187" s="14" t="s">
-        <v>7585</v>
-      </c>
-      <c r="C1187" s="41" t="s">
-        <v>7586</v>
+        <v>7495</v>
+      </c>
+      <c r="C1187" s="14" t="s">
+        <v>7496</v>
       </c>
       <c r="D1187" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1187" s="14" t="s">
-        <v>7587</v>
+        <v>7497</v>
       </c>
       <c r="F1187" s="14" t="s">
-        <v>7588</v>
+        <v>7498</v>
       </c>
       <c r="G1187" s="14" t="s">
-        <v>7589</v>
+        <v>7499</v>
       </c>
       <c r="H1187" s="14" t="s">
-        <v>7589</v>
+        <v>7499</v>
       </c>
       <c r="I1187" s="14" t="s">
-        <v>7589</v>
+        <v>7499</v>
       </c>
       <c r="J1187" s="14" t="s">
-        <v>7590</v>
+        <v>7500</v>
       </c>
       <c r="K1187" s="14" t="s">
-        <v>7590</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="1188" spans="2:11">
       <c r="B1188" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="C1188" s="41" t="s">
-        <v>7592</v>
+        <v>7501</v>
+      </c>
+      <c r="C1188" s="14" t="s">
+        <v>7502</v>
       </c>
       <c r="D1188" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1188" s="14" t="s">
-        <v>7593</v>
+        <v>7503</v>
       </c>
       <c r="F1188" s="14" t="s">
-        <v>7594</v>
+        <v>7504</v>
       </c>
       <c r="G1188" s="14" t="s">
-        <v>7595</v>
+        <v>7505</v>
       </c>
       <c r="H1188" s="14" t="s">
-        <v>7595</v>
+        <v>7505</v>
       </c>
       <c r="I1188" s="14" t="s">
-        <v>7595</v>
+        <v>7505</v>
       </c>
       <c r="J1188" s="14" t="s">
-        <v>7596</v>
+        <v>7506</v>
       </c>
       <c r="K1188" s="14" t="s">
-        <v>7596</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="1189" spans="2:11">
       <c r="B1189" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="C1189" s="41" t="s">
-        <v>7598</v>
+        <v>7507</v>
+      </c>
+      <c r="C1189" s="14" t="s">
+        <v>7508</v>
       </c>
       <c r="D1189" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1189" s="14" t="s">
-        <v>7599</v>
+        <v>7509</v>
       </c>
       <c r="F1189" s="14" t="s">
-        <v>7600</v>
+        <v>7510</v>
       </c>
       <c r="G1189" s="14" t="s">
-        <v>7601</v>
+        <v>7511</v>
       </c>
       <c r="H1189" s="14" t="s">
-        <v>7601</v>
+        <v>7511</v>
       </c>
       <c r="I1189" s="14" t="s">
-        <v>7601</v>
+        <v>7511</v>
       </c>
       <c r="J1189" s="14" t="s">
-        <v>7602</v>
+        <v>7512</v>
       </c>
       <c r="K1189" s="14" t="s">
-        <v>7602</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="1190" spans="2:11">
       <c r="B1190" s="14" t="s">
-        <v>7603</v>
-      </c>
-      <c r="C1190" s="41" t="s">
-        <v>7604</v>
+        <v>7513</v>
+      </c>
+      <c r="C1190" s="1" t="s">
+        <v>1665</v>
       </c>
       <c r="D1190" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1190" s="14" t="s">
-        <v>7605</v>
+        <v>7514</v>
       </c>
       <c r="F1190" s="14" t="s">
-        <v>7606</v>
+        <v>7515</v>
       </c>
       <c r="G1190" s="14" t="s">
-        <v>7607</v>
+        <v>7516</v>
       </c>
       <c r="H1190" s="14" t="s">
-        <v>7607</v>
+        <v>7516</v>
       </c>
       <c r="I1190" s="14" t="s">
-        <v>7607</v>
+        <v>7516</v>
       </c>
       <c r="J1190" s="14" t="s">
-        <v>7608</v>
+        <v>7517</v>
       </c>
       <c r="K1190" s="14" t="s">
-        <v>7608</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="1191" spans="2:11">
       <c r="B1191" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="C1191" s="14" t="s">
-        <v>7610</v>
+        <v>7518</v>
+      </c>
+      <c r="C1191" s="1" t="s">
+        <v>1673</v>
       </c>
       <c r="D1191" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1191" s="14" t="s">
-        <v>7611</v>
+        <v>7519</v>
       </c>
       <c r="F1191" s="14" t="s">
-        <v>7612</v>
+        <v>7520</v>
       </c>
       <c r="G1191" s="14" t="s">
-        <v>7613</v>
+        <v>7521</v>
       </c>
       <c r="H1191" s="14" t="s">
-        <v>7613</v>
+        <v>7521</v>
       </c>
       <c r="I1191" s="14" t="s">
-        <v>7613</v>
+        <v>7521</v>
       </c>
       <c r="J1191" s="14" t="s">
-        <v>7614</v>
+        <v>7522</v>
       </c>
       <c r="K1191" s="14" t="s">
-        <v>7614</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="1192" spans="2:11">
       <c r="B1192" s="14" t="s">
-        <v>7615</v>
-      </c>
-      <c r="C1192" s="14" t="s">
-        <v>7616</v>
+        <v>7523</v>
+      </c>
+      <c r="C1192" s="1" t="s">
+        <v>1681</v>
       </c>
       <c r="D1192" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1192" s="14" t="s">
-        <v>7617</v>
+        <v>7524</v>
       </c>
       <c r="F1192" s="14" t="s">
-        <v>7618</v>
+        <v>7525</v>
       </c>
       <c r="G1192" s="14" t="s">
-        <v>7619</v>
+        <v>7526</v>
       </c>
       <c r="H1192" s="14" t="s">
-        <v>7619</v>
+        <v>7526</v>
       </c>
       <c r="I1192" s="14" t="s">
-        <v>7619</v>
+        <v>7526</v>
       </c>
       <c r="J1192" s="14" t="s">
-        <v>7620</v>
+        <v>7527</v>
       </c>
       <c r="K1192" s="14" t="s">
-        <v>7620</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="1193" spans="2:11">
       <c r="B1193" s="14" t="s">
-        <v>7621</v>
-      </c>
-      <c r="C1193" s="14" t="s">
-        <v>7622</v>
+        <v>7528</v>
+      </c>
+      <c r="C1193" s="1" t="s">
+        <v>1689</v>
       </c>
       <c r="D1193" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1193" s="14" t="s">
-        <v>7623</v>
+        <v>7529</v>
       </c>
       <c r="F1193" s="14" t="s">
-        <v>7624</v>
+        <v>7530</v>
       </c>
       <c r="G1193" s="14" t="s">
-        <v>7625</v>
+        <v>7531</v>
       </c>
       <c r="H1193" s="14" t="s">
-        <v>7625</v>
+        <v>7531</v>
       </c>
       <c r="I1193" s="14" t="s">
-        <v>7625</v>
+        <v>7531</v>
       </c>
       <c r="J1193" s="14" t="s">
-        <v>7626</v>
+        <v>7532</v>
       </c>
       <c r="K1193" s="14" t="s">
-        <v>7626</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="1194" spans="2:11">
       <c r="B1194" s="14" t="s">
-        <v>7627</v>
-      </c>
-      <c r="C1194" s="14" t="s">
-        <v>7628</v>
+        <v>7533</v>
+      </c>
+      <c r="C1194" s="1" t="s">
+        <v>1696</v>
       </c>
       <c r="D1194" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1194" s="14" t="s">
-        <v>7629</v>
+        <v>7534</v>
       </c>
       <c r="F1194" s="14" t="s">
-        <v>7630</v>
+        <v>7535</v>
       </c>
       <c r="G1194" s="14" t="s">
-        <v>7631</v>
+        <v>7536</v>
       </c>
       <c r="H1194" s="14" t="s">
-        <v>7631</v>
+        <v>7536</v>
       </c>
       <c r="I1194" s="14" t="s">
-        <v>7631</v>
+        <v>7536</v>
       </c>
       <c r="J1194" s="14" t="s">
-        <v>7632</v>
+        <v>7537</v>
       </c>
       <c r="K1194" s="14" t="s">
-        <v>7632</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="1195" spans="2:11">
       <c r="B1195" s="14" t="s">
-        <v>7633</v>
-      </c>
-      <c r="C1195" s="14" t="s">
-        <v>7634</v>
+        <v>7538</v>
+      </c>
+      <c r="C1195" s="1" t="s">
+        <v>1701</v>
       </c>
       <c r="D1195" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1195" s="14" t="s">
-        <v>7635</v>
+        <v>7539</v>
       </c>
       <c r="F1195" s="14" t="s">
-        <v>7636</v>
+        <v>7540</v>
       </c>
       <c r="G1195" s="14" t="s">
-        <v>7637</v>
+        <v>7541</v>
       </c>
       <c r="H1195" s="14" t="s">
-        <v>7637</v>
+        <v>7541</v>
       </c>
       <c r="I1195" s="14" t="s">
-        <v>7637</v>
+        <v>7541</v>
       </c>
       <c r="J1195" s="14" t="s">
-        <v>7638</v>
+        <v>7542</v>
       </c>
       <c r="K1195" s="14" t="s">
-        <v>7638</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="1196" spans="2:11">
       <c r="B1196" s="14" t="s">
-        <v>7639</v>
-      </c>
-      <c r="C1196" s="14" t="s">
-        <v>7640</v>
+        <v>7543</v>
+      </c>
+      <c r="C1196" s="1" t="s">
+        <v>1709</v>
       </c>
       <c r="D1196" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1196" s="14" t="s">
-        <v>7641</v>
+        <v>7544</v>
       </c>
       <c r="F1196" s="14" t="s">
-        <v>7642</v>
+        <v>7545</v>
       </c>
       <c r="G1196" s="14" t="s">
-        <v>7643</v>
+        <v>7546</v>
       </c>
       <c r="H1196" s="14" t="s">
-        <v>7643</v>
+        <v>7546</v>
       </c>
       <c r="I1196" s="14" t="s">
-        <v>7643</v>
+        <v>7546</v>
       </c>
       <c r="J1196" s="14" t="s">
-        <v>7644</v>
+        <v>7547</v>
       </c>
       <c r="K1196" s="14" t="s">
-        <v>7644</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="1197" spans="2:11">
       <c r="B1197" s="14" t="s">
-        <v>7645</v>
-      </c>
-      <c r="C1197" s="14" t="s">
-        <v>7646</v>
+        <v>7548</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>1715</v>
       </c>
       <c r="D1197" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1197" s="14" t="s">
-        <v>7647</v>
+        <v>7549</v>
       </c>
       <c r="F1197" s="14" t="s">
-        <v>7648</v>
+        <v>7550</v>
       </c>
       <c r="G1197" s="14" t="s">
-        <v>7649</v>
+        <v>7551</v>
       </c>
       <c r="H1197" s="14" t="s">
-        <v>7649</v>
+        <v>7551</v>
       </c>
       <c r="I1197" s="14" t="s">
-        <v>7649</v>
+        <v>7551</v>
       </c>
       <c r="J1197" s="14" t="s">
-        <v>7650</v>
+        <v>7552</v>
       </c>
       <c r="K1197" s="14" t="s">
-        <v>7650</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="1198" spans="2:11">
       <c r="B1198" s="14" t="s">
-        <v>7651</v>
-      </c>
-      <c r="C1198" s="14" t="s">
-        <v>7652</v>
+        <v>7553</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="D1198" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1198" s="14" t="s">
-        <v>7653</v>
+        <v>7554</v>
       </c>
       <c r="F1198" s="14" t="s">
-        <v>7654</v>
+        <v>7555</v>
       </c>
       <c r="G1198" s="14" t="s">
-        <v>7655</v>
+        <v>7556</v>
       </c>
       <c r="H1198" s="14" t="s">
-        <v>7655</v>
+        <v>7556</v>
       </c>
       <c r="I1198" s="14" t="s">
-        <v>7655</v>
+        <v>7556</v>
       </c>
       <c r="J1198" s="14" t="s">
-        <v>7656</v>
+        <v>7557</v>
       </c>
       <c r="K1198" s="14" t="s">
-        <v>7656</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="1199" spans="2:11">
       <c r="B1199" s="14" t="s">
-        <v>7657</v>
-      </c>
-      <c r="C1199" s="14" t="s">
-        <v>7658</v>
+        <v>7558</v>
+      </c>
+      <c r="C1199" s="1" t="s">
+        <v>1730</v>
       </c>
       <c r="D1199" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1199" s="14" t="s">
-        <v>7659</v>
+        <v>7559</v>
       </c>
       <c r="F1199" s="14" t="s">
-        <v>7660</v>
+        <v>7560</v>
       </c>
       <c r="G1199" s="14" t="s">
-        <v>7661</v>
+        <v>7561</v>
       </c>
       <c r="H1199" s="14" t="s">
-        <v>7661</v>
+        <v>7561</v>
       </c>
       <c r="I1199" s="14" t="s">
-        <v>7661</v>
+        <v>7561</v>
       </c>
       <c r="J1199" s="14" t="s">
-        <v>7662</v>
+        <v>7562</v>
       </c>
       <c r="K1199" s="14" t="s">
-        <v>7662</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="1200" spans="2:11">
       <c r="B1200" s="14" t="s">
-        <v>7663</v>
-      </c>
-      <c r="C1200" s="14" t="s">
-        <v>1805</v>
+        <v>7563</v>
+      </c>
+      <c r="C1200" s="1" t="s">
+        <v>1738</v>
       </c>
       <c r="D1200" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1200" s="14" t="s">
-        <v>7664</v>
+        <v>7564</v>
       </c>
       <c r="F1200" s="14" t="s">
-        <v>7665</v>
+        <v>7565</v>
       </c>
       <c r="G1200" s="14" t="s">
-        <v>7666</v>
+        <v>7566</v>
       </c>
       <c r="H1200" s="14" t="s">
-        <v>7666</v>
+        <v>7566</v>
       </c>
       <c r="I1200" s="14" t="s">
-        <v>7666</v>
+        <v>7566</v>
       </c>
       <c r="J1200" s="14" t="s">
-        <v>7667</v>
+        <v>7567</v>
       </c>
       <c r="K1200" s="14" t="s">
-        <v>7667</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="1201" spans="2:11">
       <c r="B1201" s="14" t="s">
-        <v>7668</v>
-      </c>
-      <c r="C1201" s="14" t="s">
-        <v>1809</v>
+        <v>7568</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>1752</v>
       </c>
       <c r="D1201" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1201" s="14" t="s">
-        <v>7669</v>
+        <v>7569</v>
       </c>
       <c r="F1201" s="14" t="s">
-        <v>7670</v>
+        <v>7570</v>
       </c>
       <c r="G1201" s="14" t="s">
-        <v>7671</v>
+        <v>7571</v>
       </c>
       <c r="H1201" s="14" t="s">
-        <v>7671</v>
+        <v>7571</v>
       </c>
       <c r="I1201" s="14" t="s">
-        <v>7671</v>
+        <v>7571</v>
       </c>
       <c r="J1201" s="14" t="s">
-        <v>7672</v>
+        <v>7572</v>
       </c>
       <c r="K1201" s="14" t="s">
-        <v>7672</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="1202" spans="2:11">
       <c r="B1202" s="14" t="s">
-        <v>7673</v>
-      </c>
-      <c r="C1202" s="14" t="s">
-        <v>1817</v>
+        <v>7573</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>1755</v>
       </c>
       <c r="D1202" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1202" s="14" t="s">
-        <v>7674</v>
+        <v>7574</v>
       </c>
       <c r="F1202" s="14" t="s">
-        <v>7675</v>
+        <v>7575</v>
       </c>
       <c r="G1202" s="14" t="s">
-        <v>7676</v>
+        <v>7576</v>
       </c>
       <c r="H1202" s="14" t="s">
-        <v>7676</v>
+        <v>7576</v>
       </c>
       <c r="I1202" s="14" t="s">
-        <v>7676</v>
+        <v>7576</v>
       </c>
       <c r="J1202" s="14" t="s">
-        <v>7677</v>
+        <v>7577</v>
       </c>
       <c r="K1202" s="14" t="s">
-        <v>7677</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="1203" spans="2:11">
       <c r="B1203" s="14" t="s">
-        <v>7678</v>
-      </c>
-      <c r="C1203" s="14" t="s">
-        <v>1824</v>
+        <v>7578</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>1763</v>
       </c>
       <c r="D1203" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1203" s="14" t="s">
-        <v>7679</v>
+        <v>7579</v>
       </c>
       <c r="F1203" s="14" t="s">
-        <v>7680</v>
+        <v>7580</v>
       </c>
       <c r="G1203" s="14" t="s">
-        <v>7681</v>
+        <v>7581</v>
       </c>
       <c r="H1203" s="14" t="s">
-        <v>7681</v>
+        <v>7581</v>
       </c>
       <c r="I1203" s="14" t="s">
-        <v>7681</v>
+        <v>7581</v>
       </c>
       <c r="J1203" s="14" t="s">
-        <v>7682</v>
+        <v>7582</v>
       </c>
       <c r="K1203" s="14" t="s">
-        <v>7682</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="1204" spans="2:11">
       <c r="B1204" s="14" t="s">
-        <v>7683</v>
-      </c>
-      <c r="C1204" s="14" t="s">
-        <v>7684</v>
+        <v>7583</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>1771</v>
       </c>
       <c r="D1204" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1204" s="14" t="s">
-        <v>7685</v>
+        <v>7584</v>
       </c>
       <c r="F1204" s="14" t="s">
-        <v>7686</v>
+        <v>7585</v>
       </c>
       <c r="G1204" s="14" t="s">
-        <v>7687</v>
+        <v>7586</v>
       </c>
       <c r="H1204" s="14" t="s">
-        <v>7687</v>
+        <v>7586</v>
       </c>
       <c r="I1204" s="14" t="s">
-        <v>7687</v>
+        <v>7586</v>
       </c>
       <c r="J1204" s="14" t="s">
-        <v>7688</v>
+        <v>7587</v>
       </c>
       <c r="K1204" s="14" t="s">
-        <v>7688</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="1205" spans="2:11">
       <c r="B1205" s="14" t="s">
-        <v>7689</v>
-      </c>
-      <c r="C1205" s="14" t="s">
-        <v>7690</v>
+        <v>7588</v>
+      </c>
+      <c r="C1205" s="1" t="s">
+        <v>1779</v>
       </c>
       <c r="D1205" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1205" s="14" t="s">
-        <v>7691</v>
+        <v>7589</v>
       </c>
       <c r="F1205" s="14" t="s">
-        <v>7692</v>
+        <v>7590</v>
       </c>
       <c r="G1205" s="14" t="s">
-        <v>7693</v>
+        <v>7591</v>
       </c>
       <c r="H1205" s="14" t="s">
-        <v>7693</v>
+        <v>7591</v>
       </c>
       <c r="I1205" s="14" t="s">
-        <v>7693</v>
+        <v>7591</v>
       </c>
       <c r="J1205" s="14" t="s">
-        <v>7694</v>
+        <v>7592</v>
       </c>
       <c r="K1205" s="14" t="s">
-        <v>7694</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="1206" spans="2:11">
       <c r="B1206" s="14" t="s">
-        <v>7695</v>
-      </c>
-      <c r="C1206" s="14" t="s">
-        <v>7696</v>
+        <v>7593</v>
+      </c>
+      <c r="C1206" s="1" t="s">
+        <v>1787</v>
       </c>
       <c r="D1206" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1206" s="14" t="s">
-        <v>7697</v>
+        <v>7594</v>
       </c>
       <c r="F1206" s="14" t="s">
-        <v>7698</v>
+        <v>7595</v>
       </c>
       <c r="G1206" s="14" t="s">
-        <v>7699</v>
+        <v>7596</v>
       </c>
       <c r="H1206" s="14" t="s">
-        <v>7699</v>
+        <v>7596</v>
       </c>
       <c r="I1206" s="14" t="s">
-        <v>7699</v>
+        <v>7596</v>
       </c>
       <c r="J1206" s="14" t="s">
-        <v>7700</v>
+        <v>7597</v>
       </c>
       <c r="K1206" s="14" t="s">
-        <v>7700</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="1207" spans="2:11">
       <c r="B1207" s="14" t="s">
-        <v>7701</v>
-      </c>
-      <c r="C1207" s="14" t="s">
-        <v>7702</v>
+        <v>7598</v>
+      </c>
+      <c r="C1207" s="1" t="s">
+        <v>1794</v>
       </c>
       <c r="D1207" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1207" s="14" t="s">
-        <v>7703</v>
+        <v>7599</v>
       </c>
       <c r="F1207" s="14" t="s">
-        <v>7704</v>
+        <v>7600</v>
       </c>
       <c r="G1207" s="14" t="s">
-        <v>7705</v>
+        <v>7601</v>
       </c>
       <c r="H1207" s="14" t="s">
-        <v>7705</v>
+        <v>7601</v>
       </c>
       <c r="I1207" s="14" t="s">
-        <v>7705</v>
+        <v>7601</v>
       </c>
       <c r="J1207" s="14" t="s">
-        <v>7706</v>
+        <v>7602</v>
       </c>
       <c r="K1207" s="14" t="s">
-        <v>7706</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="1208" spans="2:11">
       <c r="B1208" s="14" t="s">
-        <v>7707</v>
-      </c>
-      <c r="C1208" s="14" t="s">
-        <v>7708</v>
+        <v>7603</v>
+      </c>
+      <c r="C1208" s="1" t="s">
+        <v>1801</v>
       </c>
       <c r="D1208" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1208" s="14" t="s">
-        <v>7709</v>
+        <v>7604</v>
       </c>
       <c r="F1208" s="14" t="s">
-        <v>7710</v>
+        <v>7605</v>
       </c>
       <c r="G1208" s="14" t="s">
-        <v>7711</v>
+        <v>7606</v>
       </c>
       <c r="H1208" s="14" t="s">
-        <v>7711</v>
+        <v>7606</v>
       </c>
       <c r="I1208" s="14" t="s">
-        <v>7711</v>
+        <v>7606</v>
       </c>
       <c r="J1208" s="14" t="s">
-        <v>7712</v>
+        <v>7607</v>
       </c>
       <c r="K1208" s="14" t="s">
-        <v>7712</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="1209" spans="2:11">
       <c r="B1209" s="14" t="s">
-        <v>7713</v>
-      </c>
-      <c r="C1209" s="14" t="s">
-        <v>7714</v>
+        <v>7608</v>
+      </c>
+      <c r="C1209" s="1" t="s">
+        <v>1846</v>
       </c>
       <c r="D1209" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1209" s="14" t="s">
-        <v>7715</v>
+        <v>7609</v>
       </c>
       <c r="F1209" s="14" t="s">
-        <v>7716</v>
+        <v>7610</v>
       </c>
       <c r="G1209" s="14" t="s">
-        <v>7717</v>
+        <v>7611</v>
       </c>
       <c r="H1209" s="14" t="s">
-        <v>7717</v>
+        <v>7611</v>
       </c>
       <c r="I1209" s="14" t="s">
-        <v>7717</v>
+        <v>7611</v>
       </c>
       <c r="J1209" s="14" t="s">
-        <v>7718</v>
+        <v>7612</v>
       </c>
       <c r="K1209" s="14" t="s">
-        <v>7718</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="1210" spans="2:11">
       <c r="B1210" s="14" t="s">
-        <v>7719</v>
+        <v>7613</v>
       </c>
       <c r="C1210" s="14" t="s">
-        <v>7720</v>
+        <v>7614</v>
       </c>
       <c r="D1210" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1210" s="14" t="s">
-        <v>7721</v>
+        <v>7615</v>
       </c>
       <c r="F1210" s="14" t="s">
-        <v>7722</v>
+        <v>7616</v>
       </c>
       <c r="G1210" s="14" t="s">
-        <v>7723</v>
+        <v>7617</v>
       </c>
       <c r="H1210" s="14" t="s">
-        <v>7723</v>
+        <v>7617</v>
       </c>
       <c r="I1210" s="14" t="s">
-        <v>7723</v>
+        <v>7617</v>
       </c>
       <c r="J1210" s="14" t="s">
-        <v>7724</v>
+        <v>7618</v>
       </c>
       <c r="K1210" s="14" t="s">
-        <v>7724</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="1211" spans="2:11">
       <c r="B1211" s="14" t="s">
-        <v>7725</v>
+        <v>7619</v>
       </c>
       <c r="C1211" s="14" t="s">
-        <v>7726</v>
+        <v>7620</v>
       </c>
       <c r="D1211" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1211" s="14" t="s">
-        <v>7727</v>
+        <v>7621</v>
       </c>
       <c r="F1211" s="14" t="s">
-        <v>7728</v>
+        <v>7622</v>
       </c>
       <c r="G1211" s="14" t="s">
-        <v>7729</v>
+        <v>7623</v>
       </c>
       <c r="H1211" s="14" t="s">
-        <v>7729</v>
+        <v>7623</v>
       </c>
       <c r="I1211" s="14" t="s">
-        <v>7729</v>
+        <v>7623</v>
       </c>
       <c r="J1211" s="14" t="s">
-        <v>7730</v>
+        <v>7624</v>
       </c>
       <c r="K1211" s="14" t="s">
-        <v>7730</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="1212" spans="2:11">
       <c r="B1212" s="14" t="s">
-        <v>7731</v>
+        <v>7625</v>
       </c>
       <c r="C1212" s="14" t="s">
-        <v>7732</v>
+        <v>7626</v>
       </c>
       <c r="D1212" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1212" s="14" t="s">
-        <v>7733</v>
+        <v>7627</v>
       </c>
       <c r="F1212" s="14" t="s">
-        <v>7734</v>
+        <v>7628</v>
       </c>
       <c r="G1212" s="14" t="s">
-        <v>7735</v>
+        <v>7629</v>
       </c>
       <c r="H1212" s="14" t="s">
-        <v>7735</v>
+        <v>7629</v>
       </c>
       <c r="I1212" s="14" t="s">
-        <v>7735</v>
+        <v>7629</v>
       </c>
       <c r="J1212" s="14" t="s">
-        <v>7736</v>
+        <v>7630</v>
       </c>
       <c r="K1212" s="14" t="s">
-        <v>7736</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="1213" spans="2:11">
       <c r="B1213" s="14" t="s">
-        <v>7737</v>
+        <v>7631</v>
       </c>
       <c r="C1213" s="14" t="s">
-        <v>7738</v>
+        <v>7632</v>
       </c>
       <c r="D1213" s="45" t="s">
         <v>3053</v>
       </c>
       <c r="E1213" s="14" t="s">
+        <v>7633</v>
+      </c>
+      <c r="F1213" s="14" t="s">
+        <v>7634</v>
+      </c>
+      <c r="G1213" s="14" t="s">
+        <v>7635</v>
+      </c>
+      <c r="H1213" s="14" t="s">
+        <v>7635</v>
+      </c>
+      <c r="I1213" s="14" t="s">
+        <v>7635</v>
+      </c>
+      <c r="J1213" s="14" t="s">
+        <v>7636</v>
+      </c>
+      <c r="K1213" s="14" t="s">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:11">
+      <c r="B1214" s="14" t="s">
+        <v>7637</v>
+      </c>
+      <c r="C1214" s="41" t="s">
+        <v>7638</v>
+      </c>
+      <c r="D1214" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1214" s="14" t="s">
+        <v>7639</v>
+      </c>
+      <c r="F1214" s="14" t="s">
+        <v>7640</v>
+      </c>
+      <c r="G1214" s="14" t="s">
+        <v>7641</v>
+      </c>
+      <c r="H1214" s="14" t="s">
+        <v>7641</v>
+      </c>
+      <c r="I1214" s="14" t="s">
+        <v>7641</v>
+      </c>
+      <c r="J1214" s="14" t="s">
+        <v>7642</v>
+      </c>
+      <c r="K1214" s="14" t="s">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:11">
+      <c r="B1215" s="14" t="s">
+        <v>7643</v>
+      </c>
+      <c r="C1215" s="41" t="s">
+        <v>7644</v>
+      </c>
+      <c r="D1215" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1215" s="14" t="s">
+        <v>7645</v>
+      </c>
+      <c r="F1215" s="14" t="s">
+        <v>7646</v>
+      </c>
+      <c r="G1215" s="14" t="s">
+        <v>7647</v>
+      </c>
+      <c r="H1215" s="14" t="s">
+        <v>7647</v>
+      </c>
+      <c r="I1215" s="14" t="s">
+        <v>7647</v>
+      </c>
+      <c r="J1215" s="14" t="s">
+        <v>7648</v>
+      </c>
+      <c r="K1215" s="14" t="s">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:11">
+      <c r="B1216" s="14" t="s">
+        <v>7649</v>
+      </c>
+      <c r="C1216" s="41" t="s">
+        <v>7650</v>
+      </c>
+      <c r="D1216" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1216" s="14" t="s">
+        <v>7651</v>
+      </c>
+      <c r="F1216" s="14" t="s">
+        <v>7652</v>
+      </c>
+      <c r="G1216" s="14" t="s">
+        <v>7653</v>
+      </c>
+      <c r="H1216" s="14" t="s">
+        <v>7653</v>
+      </c>
+      <c r="I1216" s="14" t="s">
+        <v>7653</v>
+      </c>
+      <c r="J1216" s="14" t="s">
+        <v>7654</v>
+      </c>
+      <c r="K1216" s="14" t="s">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="1217" spans="2:11">
+      <c r="B1217" s="14" t="s">
+        <v>7655</v>
+      </c>
+      <c r="C1217" s="41" t="s">
+        <v>7656</v>
+      </c>
+      <c r="D1217" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1217" s="14" t="s">
+        <v>7657</v>
+      </c>
+      <c r="F1217" s="14" t="s">
+        <v>7658</v>
+      </c>
+      <c r="G1217" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="H1217" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="I1217" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="J1217" s="14" t="s">
+        <v>7660</v>
+      </c>
+      <c r="K1217" s="14" t="s">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="1218" spans="2:11">
+      <c r="B1218" s="14" t="s">
+        <v>7661</v>
+      </c>
+      <c r="C1218" s="14" t="s">
+        <v>7662</v>
+      </c>
+      <c r="D1218" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1218" s="14" t="s">
+        <v>7663</v>
+      </c>
+      <c r="F1218" s="14" t="s">
+        <v>7664</v>
+      </c>
+      <c r="G1218" s="14" t="s">
+        <v>7665</v>
+      </c>
+      <c r="H1218" s="14" t="s">
+        <v>7665</v>
+      </c>
+      <c r="I1218" s="14" t="s">
+        <v>7665</v>
+      </c>
+      <c r="J1218" s="14" t="s">
+        <v>7666</v>
+      </c>
+      <c r="K1218" s="14" t="s">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="1219" spans="2:11">
+      <c r="B1219" s="14" t="s">
+        <v>7667</v>
+      </c>
+      <c r="C1219" s="14" t="s">
+        <v>7668</v>
+      </c>
+      <c r="D1219" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1219" s="14" t="s">
+        <v>7669</v>
+      </c>
+      <c r="F1219" s="14" t="s">
+        <v>7670</v>
+      </c>
+      <c r="G1219" s="14" t="s">
+        <v>7671</v>
+      </c>
+      <c r="H1219" s="14" t="s">
+        <v>7671</v>
+      </c>
+      <c r="I1219" s="14" t="s">
+        <v>7671</v>
+      </c>
+      <c r="J1219" s="14" t="s">
+        <v>7672</v>
+      </c>
+      <c r="K1219" s="14" t="s">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="1220" spans="2:11">
+      <c r="B1220" s="14" t="s">
+        <v>7673</v>
+      </c>
+      <c r="C1220" s="14" t="s">
+        <v>7674</v>
+      </c>
+      <c r="D1220" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1220" s="14" t="s">
+        <v>7675</v>
+      </c>
+      <c r="F1220" s="14" t="s">
+        <v>7676</v>
+      </c>
+      <c r="G1220" s="14" t="s">
+        <v>7677</v>
+      </c>
+      <c r="H1220" s="14" t="s">
+        <v>7677</v>
+      </c>
+      <c r="I1220" s="14" t="s">
+        <v>7677</v>
+      </c>
+      <c r="J1220" s="14" t="s">
+        <v>7678</v>
+      </c>
+      <c r="K1220" s="14" t="s">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="1221" spans="2:11">
+      <c r="B1221" s="14" t="s">
+        <v>7679</v>
+      </c>
+      <c r="C1221" s="14" t="s">
+        <v>7680</v>
+      </c>
+      <c r="D1221" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1221" s="14" t="s">
+        <v>7681</v>
+      </c>
+      <c r="F1221" s="14" t="s">
+        <v>7682</v>
+      </c>
+      <c r="G1221" s="14" t="s">
+        <v>7683</v>
+      </c>
+      <c r="H1221" s="14" t="s">
+        <v>7683</v>
+      </c>
+      <c r="I1221" s="14" t="s">
+        <v>7683</v>
+      </c>
+      <c r="J1221" s="14" t="s">
+        <v>7684</v>
+      </c>
+      <c r="K1221" s="14" t="s">
+        <v>7684</v>
+      </c>
+    </row>
+    <row r="1222" spans="2:11">
+      <c r="B1222" s="14" t="s">
+        <v>7685</v>
+      </c>
+      <c r="C1222" s="14" t="s">
+        <v>7686</v>
+      </c>
+      <c r="D1222" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1222" s="14" t="s">
+        <v>7687</v>
+      </c>
+      <c r="F1222" s="14" t="s">
+        <v>7688</v>
+      </c>
+      <c r="G1222" s="14" t="s">
+        <v>7689</v>
+      </c>
+      <c r="H1222" s="14" t="s">
+        <v>7689</v>
+      </c>
+      <c r="I1222" s="14" t="s">
+        <v>7689</v>
+      </c>
+      <c r="J1222" s="14" t="s">
+        <v>7690</v>
+      </c>
+      <c r="K1222" s="14" t="s">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="1223" spans="2:11">
+      <c r="B1223" s="14" t="s">
+        <v>7691</v>
+      </c>
+      <c r="C1223" s="14" t="s">
+        <v>7692</v>
+      </c>
+      <c r="D1223" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1223" s="14" t="s">
+        <v>7693</v>
+      </c>
+      <c r="F1223" s="14" t="s">
+        <v>7694</v>
+      </c>
+      <c r="G1223" s="14" t="s">
+        <v>7695</v>
+      </c>
+      <c r="H1223" s="14" t="s">
+        <v>7695</v>
+      </c>
+      <c r="I1223" s="14" t="s">
+        <v>7695</v>
+      </c>
+      <c r="J1223" s="14" t="s">
+        <v>7696</v>
+      </c>
+      <c r="K1223" s="14" t="s">
+        <v>7696</v>
+      </c>
+    </row>
+    <row r="1224" spans="2:11">
+      <c r="B1224" s="14" t="s">
+        <v>7697</v>
+      </c>
+      <c r="C1224" s="14" t="s">
+        <v>7698</v>
+      </c>
+      <c r="D1224" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1224" s="14" t="s">
+        <v>7699</v>
+      </c>
+      <c r="F1224" s="14" t="s">
+        <v>7700</v>
+      </c>
+      <c r="G1224" s="14" t="s">
+        <v>7701</v>
+      </c>
+      <c r="H1224" s="14" t="s">
+        <v>7701</v>
+      </c>
+      <c r="I1224" s="14" t="s">
+        <v>7701</v>
+      </c>
+      <c r="J1224" s="14" t="s">
+        <v>7702</v>
+      </c>
+      <c r="K1224" s="14" t="s">
+        <v>7702</v>
+      </c>
+    </row>
+    <row r="1225" spans="2:11">
+      <c r="B1225" s="14" t="s">
+        <v>7703</v>
+      </c>
+      <c r="C1225" s="14" t="s">
+        <v>7704</v>
+      </c>
+      <c r="D1225" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1225" s="14" t="s">
+        <v>7705</v>
+      </c>
+      <c r="F1225" s="14" t="s">
+        <v>7706</v>
+      </c>
+      <c r="G1225" s="14" t="s">
+        <v>7707</v>
+      </c>
+      <c r="H1225" s="14" t="s">
+        <v>7707</v>
+      </c>
+      <c r="I1225" s="14" t="s">
+        <v>7707</v>
+      </c>
+      <c r="J1225" s="14" t="s">
+        <v>7708</v>
+      </c>
+      <c r="K1225" s="14" t="s">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="1226" spans="2:11">
+      <c r="B1226" s="14" t="s">
+        <v>7709</v>
+      </c>
+      <c r="C1226" s="14" t="s">
+        <v>7710</v>
+      </c>
+      <c r="D1226" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1226" s="14" t="s">
+        <v>7711</v>
+      </c>
+      <c r="F1226" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="G1226" s="14" t="s">
+        <v>7713</v>
+      </c>
+      <c r="H1226" s="14" t="s">
+        <v>7713</v>
+      </c>
+      <c r="I1226" s="14" t="s">
+        <v>7713</v>
+      </c>
+      <c r="J1226" s="14" t="s">
+        <v>7714</v>
+      </c>
+      <c r="K1226" s="14" t="s">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="1227" spans="2:11">
+      <c r="B1227" s="14" t="s">
+        <v>7715</v>
+      </c>
+      <c r="C1227" s="14" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1227" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1227" s="14" t="s">
+        <v>7716</v>
+      </c>
+      <c r="F1227" s="14" t="s">
+        <v>7717</v>
+      </c>
+      <c r="G1227" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="H1227" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="I1227" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="J1227" s="14" t="s">
+        <v>7719</v>
+      </c>
+      <c r="K1227" s="14" t="s">
+        <v>7719</v>
+      </c>
+    </row>
+    <row r="1228" spans="2:11">
+      <c r="B1228" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="C1228" s="14" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D1228" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1228" s="14" t="s">
+        <v>7721</v>
+      </c>
+      <c r="F1228" s="14" t="s">
+        <v>7722</v>
+      </c>
+      <c r="G1228" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="H1228" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="I1228" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="J1228" s="14" t="s">
+        <v>7724</v>
+      </c>
+      <c r="K1228" s="14" t="s">
+        <v>7724</v>
+      </c>
+    </row>
+    <row r="1229" spans="2:11">
+      <c r="B1229" s="14" t="s">
+        <v>7725</v>
+      </c>
+      <c r="C1229" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D1229" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1229" s="14" t="s">
+        <v>7726</v>
+      </c>
+      <c r="F1229" s="14" t="s">
+        <v>7727</v>
+      </c>
+      <c r="G1229" s="14" t="s">
+        <v>7728</v>
+      </c>
+      <c r="H1229" s="14" t="s">
+        <v>7728</v>
+      </c>
+      <c r="I1229" s="14" t="s">
+        <v>7728</v>
+      </c>
+      <c r="J1229" s="14" t="s">
+        <v>7729</v>
+      </c>
+      <c r="K1229" s="14" t="s">
+        <v>7729</v>
+      </c>
+    </row>
+    <row r="1230" spans="2:11">
+      <c r="B1230" s="14" t="s">
+        <v>7730</v>
+      </c>
+      <c r="C1230" s="14" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D1230" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1230" s="14" t="s">
+        <v>7731</v>
+      </c>
+      <c r="F1230" s="14" t="s">
+        <v>7732</v>
+      </c>
+      <c r="G1230" s="14" t="s">
+        <v>7733</v>
+      </c>
+      <c r="H1230" s="14" t="s">
+        <v>7733</v>
+      </c>
+      <c r="I1230" s="14" t="s">
+        <v>7733</v>
+      </c>
+      <c r="J1230" s="14" t="s">
+        <v>7734</v>
+      </c>
+      <c r="K1230" s="14" t="s">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="1231" spans="2:11">
+      <c r="B1231" s="14" t="s">
+        <v>7735</v>
+      </c>
+      <c r="C1231" s="14" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D1231" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1231" s="14" t="s">
+        <v>7737</v>
+      </c>
+      <c r="F1231" s="14" t="s">
+        <v>7738</v>
+      </c>
+      <c r="G1231" s="14" t="s">
         <v>7739</v>
       </c>
-      <c r="F1213" s="14" t="s">
+      <c r="H1231" s="14" t="s">
+        <v>7739</v>
+      </c>
+      <c r="I1231" s="14" t="s">
+        <v>7739</v>
+      </c>
+      <c r="J1231" s="14" t="s">
         <v>7740</v>
       </c>
-      <c r="G1213" s="14" t="s">
+      <c r="K1231" s="14" t="s">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="1232" spans="2:11">
+      <c r="B1232" s="14" t="s">
         <v>7741</v>
       </c>
-      <c r="H1213" s="14" t="s">
-        <v>7741</v>
-      </c>
-      <c r="I1213" s="14" t="s">
-        <v>7741</v>
-      </c>
-      <c r="J1213" s="14" t="s">
+      <c r="C1232" s="14" t="s">
         <v>7742</v>
       </c>
-      <c r="K1213" s="14" t="s">
-        <v>7742</v>
+      <c r="D1232" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1232" s="14" t="s">
+        <v>7743</v>
+      </c>
+      <c r="F1232" s="14" t="s">
+        <v>7744</v>
+      </c>
+      <c r="G1232" s="14" t="s">
+        <v>7745</v>
+      </c>
+      <c r="H1232" s="14" t="s">
+        <v>7745</v>
+      </c>
+      <c r="I1232" s="14" t="s">
+        <v>7745</v>
+      </c>
+      <c r="J1232" s="14" t="s">
+        <v>7746</v>
+      </c>
+      <c r="K1232" s="14" t="s">
+        <v>7746</v>
+      </c>
+    </row>
+    <row r="1233" spans="2:11">
+      <c r="B1233" s="14" t="s">
+        <v>7747</v>
+      </c>
+      <c r="C1233" s="14" t="s">
+        <v>7748</v>
+      </c>
+      <c r="D1233" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1233" s="14" t="s">
+        <v>7749</v>
+      </c>
+      <c r="F1233" s="14" t="s">
+        <v>7750</v>
+      </c>
+      <c r="G1233" s="14" t="s">
+        <v>7751</v>
+      </c>
+      <c r="H1233" s="14" t="s">
+        <v>7751</v>
+      </c>
+      <c r="I1233" s="14" t="s">
+        <v>7751</v>
+      </c>
+      <c r="J1233" s="14" t="s">
+        <v>7752</v>
+      </c>
+      <c r="K1233" s="14" t="s">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="1234" spans="2:11">
+      <c r="B1234" s="14" t="s">
+        <v>7753</v>
+      </c>
+      <c r="C1234" s="14" t="s">
+        <v>7754</v>
+      </c>
+      <c r="D1234" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1234" s="14" t="s">
+        <v>7755</v>
+      </c>
+      <c r="F1234" s="14" t="s">
+        <v>7756</v>
+      </c>
+      <c r="G1234" s="14" t="s">
+        <v>7757</v>
+      </c>
+      <c r="H1234" s="14" t="s">
+        <v>7757</v>
+      </c>
+      <c r="I1234" s="14" t="s">
+        <v>7757</v>
+      </c>
+      <c r="J1234" s="14" t="s">
+        <v>7758</v>
+      </c>
+      <c r="K1234" s="14" t="s">
+        <v>7758</v>
+      </c>
+    </row>
+    <row r="1235" spans="2:11">
+      <c r="B1235" s="14" t="s">
+        <v>7759</v>
+      </c>
+      <c r="C1235" s="14" t="s">
+        <v>7760</v>
+      </c>
+      <c r="D1235" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1235" s="14" t="s">
+        <v>7761</v>
+      </c>
+      <c r="F1235" s="14" t="s">
+        <v>7762</v>
+      </c>
+      <c r="G1235" s="14" t="s">
+        <v>7763</v>
+      </c>
+      <c r="H1235" s="14" t="s">
+        <v>7763</v>
+      </c>
+      <c r="I1235" s="14" t="s">
+        <v>7763</v>
+      </c>
+      <c r="J1235" s="14" t="s">
+        <v>7764</v>
+      </c>
+      <c r="K1235" s="14" t="s">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="1236" spans="2:11">
+      <c r="B1236" s="14" t="s">
+        <v>7765</v>
+      </c>
+      <c r="C1236" s="14" t="s">
+        <v>7766</v>
+      </c>
+      <c r="D1236" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1236" s="14" t="s">
+        <v>7767</v>
+      </c>
+      <c r="F1236" s="14" t="s">
+        <v>7768</v>
+      </c>
+      <c r="G1236" s="14" t="s">
+        <v>7769</v>
+      </c>
+      <c r="H1236" s="14" t="s">
+        <v>7769</v>
+      </c>
+      <c r="I1236" s="14" t="s">
+        <v>7769</v>
+      </c>
+      <c r="J1236" s="14" t="s">
+        <v>7770</v>
+      </c>
+      <c r="K1236" s="14" t="s">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="1237" spans="2:11">
+      <c r="B1237" s="14" t="s">
+        <v>7771</v>
+      </c>
+      <c r="C1237" s="14" t="s">
+        <v>7772</v>
+      </c>
+      <c r="D1237" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1237" s="14" t="s">
+        <v>7773</v>
+      </c>
+      <c r="F1237" s="14" t="s">
+        <v>7774</v>
+      </c>
+      <c r="G1237" s="14" t="s">
+        <v>7775</v>
+      </c>
+      <c r="H1237" s="14" t="s">
+        <v>7775</v>
+      </c>
+      <c r="I1237" s="14" t="s">
+        <v>7775</v>
+      </c>
+      <c r="J1237" s="14" t="s">
+        <v>7776</v>
+      </c>
+      <c r="K1237" s="14" t="s">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="1238" spans="2:11">
+      <c r="B1238" s="14" t="s">
+        <v>7777</v>
+      </c>
+      <c r="C1238" s="14" t="s">
+        <v>7778</v>
+      </c>
+      <c r="D1238" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1238" s="14" t="s">
+        <v>7779</v>
+      </c>
+      <c r="F1238" s="14" t="s">
+        <v>7780</v>
+      </c>
+      <c r="G1238" s="14" t="s">
+        <v>7781</v>
+      </c>
+      <c r="H1238" s="14" t="s">
+        <v>7781</v>
+      </c>
+      <c r="I1238" s="14" t="s">
+        <v>7781</v>
+      </c>
+      <c r="J1238" s="14" t="s">
+        <v>7782</v>
+      </c>
+      <c r="K1238" s="14" t="s">
+        <v>7782</v>
+      </c>
+    </row>
+    <row r="1239" spans="2:11">
+      <c r="B1239" s="14" t="s">
+        <v>7783</v>
+      </c>
+      <c r="C1239" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="D1239" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1239" s="14" t="s">
+        <v>7785</v>
+      </c>
+      <c r="F1239" s="14" t="s">
+        <v>7786</v>
+      </c>
+      <c r="G1239" s="14" t="s">
+        <v>7787</v>
+      </c>
+      <c r="H1239" s="14" t="s">
+        <v>7787</v>
+      </c>
+      <c r="I1239" s="14" t="s">
+        <v>7787</v>
+      </c>
+      <c r="J1239" s="14" t="s">
+        <v>7788</v>
+      </c>
+      <c r="K1239" s="14" t="s">
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:11">
+      <c r="B1240" s="14" t="s">
+        <v>7789</v>
+      </c>
+      <c r="C1240" s="14" t="s">
+        <v>7790</v>
+      </c>
+      <c r="D1240" s="45" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E1240" s="14" t="s">
+        <v>7791</v>
+      </c>
+      <c r="F1240" s="14" t="s">
+        <v>7792</v>
+      </c>
+      <c r="G1240" s="14" t="s">
+        <v>7793</v>
+      </c>
+      <c r="H1240" s="14" t="s">
+        <v>7793</v>
+      </c>
+      <c r="I1240" s="14" t="s">
+        <v>7793</v>
+      </c>
+      <c r="J1240" s="14" t="s">
+        <v>7794</v>
+      </c>
+      <c r="K1240" s="14" t="s">
+        <v>7794</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="11955"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10327" uniqueCount="7851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10335" uniqueCount="7854">
   <si>
     <t>##var</t>
   </si>
@@ -23454,6 +23454,15 @@
     <t>Koboi Texas</t>
   </si>
   <si>
+    <t>400069</t>
+  </si>
+  <si>
+    <t>龙虎斗</t>
+  </si>
+  <si>
+    <t>Dragon VS Tiger</t>
+  </si>
+  <si>
     <t>500001</t>
   </si>
   <si>
@@ -24556,7 +24565,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -24639,34 +24648,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -24680,14 +24661,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24727,6 +24700,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24777,7 +24765,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24846,49 +24855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24906,25 +24879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24948,6 +24903,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -24960,7 +24927,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24984,6 +24975,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -24991,6 +24994,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25058,21 +25067,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -25101,6 +25095,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25159,148 +25168,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25350,10 +25359,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -25374,16 +25383,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -25503,52 +25512,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -25848,10 +25857,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1257"/>
+  <dimension ref="A1:N1258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
-      <selection activeCell="D1145" sqref="D1145"/>
+    <sheetView tabSelected="1" topLeftCell="A1170" workbookViewId="0">
+      <selection activeCell="F1192" sqref="F1192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -58000,184 +58009,178 @@
         <v>7488</v>
       </c>
     </row>
-    <row r="1193" s="7" customFormat="1" ht="162" spans="2:11">
-      <c r="B1193" s="7" t="s">
+    <row r="1193" s="13" customFormat="1" spans="2:11">
+      <c r="B1193" s="13" t="s">
         <v>7489</v>
       </c>
-      <c r="C1193" s="7" t="s">
+      <c r="E1193" s="41" t="s">
         <v>7490</v>
       </c>
-      <c r="E1193" s="7" t="s">
+      <c r="F1193" s="14" t="s">
         <v>7491</v>
       </c>
-      <c r="F1193" s="7" t="s">
+      <c r="G1193" s="14" t="s">
+        <v>7491</v>
+      </c>
+      <c r="H1193" s="14" t="s">
+        <v>7491</v>
+      </c>
+      <c r="I1193" s="14" t="s">
+        <v>7491</v>
+      </c>
+      <c r="J1193" s="14" t="s">
+        <v>7491</v>
+      </c>
+      <c r="K1193" s="14" t="s">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="1194" s="7" customFormat="1" ht="162" spans="2:11">
+      <c r="B1194" s="7" t="s">
         <v>7492</v>
       </c>
-      <c r="G1193" s="7" t="s">
+      <c r="C1194" s="7" t="s">
         <v>7493</v>
       </c>
-      <c r="H1193" s="7" t="s">
+      <c r="E1194" s="7" t="s">
         <v>7494</v>
       </c>
-      <c r="I1193" s="7" t="s">
+      <c r="F1194" s="7" t="s">
         <v>7495</v>
       </c>
-      <c r="J1193" s="7" t="s">
+      <c r="G1194" s="7" t="s">
         <v>7496</v>
       </c>
-      <c r="K1193" s="7" t="s">
+      <c r="H1194" s="7" t="s">
         <v>7497</v>
       </c>
-    </row>
-    <row r="1194" ht="297" spans="2:11">
-      <c r="B1194" s="14" t="s">
+      <c r="I1194" s="7" t="s">
         <v>7498</v>
       </c>
-      <c r="C1194" s="14" t="s">
+      <c r="J1194" s="7" t="s">
         <v>7499</v>
       </c>
-      <c r="E1194" s="27" t="s">
+      <c r="K1194" s="7" t="s">
         <v>7500</v>
       </c>
-      <c r="F1194" s="14" t="s">
+    </row>
+    <row r="1195" ht="297" spans="2:11">
+      <c r="B1195" s="14" t="s">
         <v>7501</v>
       </c>
-      <c r="G1194" s="14" t="s">
+      <c r="C1195" s="14" t="s">
         <v>7502</v>
       </c>
-      <c r="H1194" s="14" t="s">
+      <c r="E1195" s="27" t="s">
         <v>7503</v>
       </c>
-      <c r="I1194" s="14" t="s">
+      <c r="F1195" s="14" t="s">
         <v>7504</v>
       </c>
-      <c r="J1194" s="14" t="s">
+      <c r="G1195" s="14" t="s">
         <v>7505</v>
       </c>
-      <c r="K1194" s="14" t="s">
-        <v>7505</v>
-      </c>
-    </row>
-    <row r="1195" s="2" customFormat="1" spans="2:11">
-      <c r="B1195" s="1" t="s">
+      <c r="H1195" s="14" t="s">
         <v>7506</v>
       </c>
-      <c r="C1195" s="1" t="s">
+      <c r="I1195" s="14" t="s">
         <v>7507</v>
       </c>
-      <c r="D1195" s="45" t="s">
-        <v>3050</v>
-      </c>
-      <c r="E1195" s="39" t="s">
+      <c r="J1195" s="14" t="s">
         <v>7508</v>
       </c>
-      <c r="F1195" s="39" t="s">
+      <c r="K1195" s="14" t="s">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="1196" s="2" customFormat="1" spans="2:11">
+      <c r="B1196" s="1" t="s">
         <v>7509</v>
       </c>
-      <c r="G1195" s="39" t="s">
+      <c r="C1196" s="1" t="s">
         <v>7510</v>
-      </c>
-      <c r="H1195" s="39" t="s">
-        <v>7510</v>
-      </c>
-      <c r="I1195" s="39" t="s">
-        <v>7510</v>
-      </c>
-      <c r="J1195" s="39" t="s">
-        <v>7511</v>
-      </c>
-      <c r="K1195" s="39" t="s">
-        <v>7511</v>
-      </c>
-    </row>
-    <row r="1196" spans="2:11">
-      <c r="B1196" s="1" t="s">
-        <v>7512</v>
-      </c>
-      <c r="C1196" s="14" t="s">
-        <v>7513</v>
       </c>
       <c r="D1196" s="45" t="s">
         <v>3050</v>
       </c>
-      <c r="E1196" s="14" t="s">
+      <c r="E1196" s="39" t="s">
+        <v>7511</v>
+      </c>
+      <c r="F1196" s="39" t="s">
+        <v>7512</v>
+      </c>
+      <c r="G1196" s="39" t="s">
+        <v>7513</v>
+      </c>
+      <c r="H1196" s="39" t="s">
+        <v>7513</v>
+      </c>
+      <c r="I1196" s="39" t="s">
+        <v>7513</v>
+      </c>
+      <c r="J1196" s="39" t="s">
         <v>7514</v>
       </c>
-      <c r="F1196" s="14" t="s">
-        <v>7515</v>
-      </c>
-      <c r="G1196" s="14" t="s">
-        <v>7516</v>
-      </c>
-      <c r="H1196" s="14" t="s">
-        <v>7516</v>
-      </c>
-      <c r="I1196" s="14" t="s">
-        <v>7516</v>
-      </c>
-      <c r="J1196" s="14" t="s">
-        <v>7517</v>
-      </c>
-      <c r="K1196" s="14" t="s">
-        <v>7517</v>
+      <c r="K1196" s="39" t="s">
+        <v>7514</v>
       </c>
     </row>
     <row r="1197" spans="2:11">
       <c r="B1197" s="1" t="s">
-        <v>7518</v>
+        <v>7515</v>
       </c>
       <c r="C1197" s="14" t="s">
-        <v>7519</v>
+        <v>7516</v>
       </c>
       <c r="D1197" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1197" s="14" t="s">
+        <v>7517</v>
+      </c>
+      <c r="F1197" s="14" t="s">
+        <v>7518</v>
+      </c>
+      <c r="G1197" s="14" t="s">
+        <v>7519</v>
+      </c>
+      <c r="H1197" s="14" t="s">
+        <v>7519</v>
+      </c>
+      <c r="I1197" s="14" t="s">
+        <v>7519</v>
+      </c>
+      <c r="J1197" s="14" t="s">
         <v>7520</v>
       </c>
-      <c r="F1197" s="14" t="s">
-        <v>7521</v>
-      </c>
-      <c r="G1197" s="14" t="s">
-        <v>7522</v>
-      </c>
-      <c r="H1197" s="14" t="s">
-        <v>7522</v>
-      </c>
-      <c r="I1197" s="14" t="s">
-        <v>7522</v>
-      </c>
-      <c r="J1197" s="14" t="s">
-        <v>7523</v>
-      </c>
       <c r="K1197" s="14" t="s">
-        <v>7523</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="1198" spans="2:11">
       <c r="B1198" s="1" t="s">
-        <v>7524</v>
+        <v>7521</v>
       </c>
       <c r="C1198" s="14" t="s">
-        <v>7525</v>
+        <v>7522</v>
       </c>
       <c r="D1198" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1198" s="14" t="s">
-        <v>7526</v>
+        <v>7523</v>
       </c>
       <c r="F1198" s="14" t="s">
-        <v>7526</v>
+        <v>7524</v>
       </c>
       <c r="G1198" s="14" t="s">
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="H1198" s="14" t="s">
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="I1198" s="14" t="s">
-        <v>7526</v>
+        <v>7525</v>
       </c>
       <c r="J1198" s="14" t="s">
         <v>7526</v>
@@ -58251,7 +58254,7 @@
       </c>
     </row>
     <row r="1201" spans="2:11">
-      <c r="B1201" s="14" t="s">
+      <c r="B1201" s="1" t="s">
         <v>7533</v>
       </c>
       <c r="C1201" s="14" t="s">
@@ -58264,1814 +58267,1846 @@
         <v>7535</v>
       </c>
       <c r="F1201" s="14" t="s">
-        <v>7536</v>
+        <v>7535</v>
       </c>
       <c r="G1201" s="14" t="s">
-        <v>7537</v>
+        <v>7535</v>
       </c>
       <c r="H1201" s="14" t="s">
-        <v>7537</v>
+        <v>7535</v>
       </c>
       <c r="I1201" s="14" t="s">
-        <v>7537</v>
+        <v>7535</v>
       </c>
       <c r="J1201" s="14" t="s">
-        <v>7538</v>
+        <v>7535</v>
       </c>
       <c r="K1201" s="14" t="s">
-        <v>7538</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="1202" spans="2:11">
       <c r="B1202" s="14" t="s">
-        <v>7539</v>
+        <v>7536</v>
       </c>
       <c r="C1202" s="14" t="s">
-        <v>7540</v>
+        <v>7537</v>
       </c>
       <c r="D1202" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1202" s="14" t="s">
+        <v>7538</v>
+      </c>
+      <c r="F1202" s="14" t="s">
+        <v>7539</v>
+      </c>
+      <c r="G1202" s="14" t="s">
+        <v>7540</v>
+      </c>
+      <c r="H1202" s="14" t="s">
+        <v>7540</v>
+      </c>
+      <c r="I1202" s="14" t="s">
+        <v>7540</v>
+      </c>
+      <c r="J1202" s="14" t="s">
         <v>7541</v>
       </c>
-      <c r="F1202" s="14" t="s">
-        <v>7542</v>
-      </c>
-      <c r="G1202" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="H1202" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="I1202" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="J1202" s="14" t="s">
-        <v>7544</v>
-      </c>
       <c r="K1202" s="14" t="s">
-        <v>7544</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="1203" spans="2:11">
       <c r="B1203" s="14" t="s">
-        <v>7545</v>
+        <v>7542</v>
       </c>
       <c r="C1203" s="14" t="s">
-        <v>7546</v>
+        <v>7543</v>
       </c>
       <c r="D1203" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1203" s="14" t="s">
+        <v>7544</v>
+      </c>
+      <c r="F1203" s="14" t="s">
+        <v>7545</v>
+      </c>
+      <c r="G1203" s="14" t="s">
+        <v>7546</v>
+      </c>
+      <c r="H1203" s="14" t="s">
+        <v>7546</v>
+      </c>
+      <c r="I1203" s="14" t="s">
+        <v>7546</v>
+      </c>
+      <c r="J1203" s="14" t="s">
         <v>7547</v>
       </c>
-      <c r="F1203" s="14" t="s">
-        <v>7548</v>
-      </c>
-      <c r="G1203" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="H1203" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="I1203" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="J1203" s="14" t="s">
-        <v>7550</v>
-      </c>
       <c r="K1203" s="14" t="s">
-        <v>7550</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="1204" spans="2:11">
       <c r="B1204" s="14" t="s">
-        <v>7551</v>
+        <v>7548</v>
       </c>
       <c r="C1204" s="14" t="s">
-        <v>7552</v>
+        <v>7549</v>
       </c>
       <c r="D1204" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1204" s="14" t="s">
+        <v>7550</v>
+      </c>
+      <c r="F1204" s="14" t="s">
+        <v>7551</v>
+      </c>
+      <c r="G1204" s="14" t="s">
+        <v>7552</v>
+      </c>
+      <c r="H1204" s="14" t="s">
+        <v>7552</v>
+      </c>
+      <c r="I1204" s="14" t="s">
+        <v>7552</v>
+      </c>
+      <c r="J1204" s="14" t="s">
         <v>7553</v>
       </c>
-      <c r="F1204" s="14" t="s">
-        <v>7554</v>
-      </c>
-      <c r="G1204" s="14" t="s">
-        <v>7555</v>
-      </c>
-      <c r="H1204" s="14" t="s">
-        <v>7555</v>
-      </c>
-      <c r="I1204" s="14" t="s">
-        <v>7555</v>
-      </c>
-      <c r="J1204" s="14" t="s">
-        <v>7556</v>
-      </c>
       <c r="K1204" s="14" t="s">
-        <v>7556</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="1205" spans="2:11">
       <c r="B1205" s="14" t="s">
-        <v>7557</v>
+        <v>7554</v>
       </c>
       <c r="C1205" s="14" t="s">
-        <v>7558</v>
+        <v>7555</v>
       </c>
       <c r="D1205" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1205" s="14" t="s">
+        <v>7556</v>
+      </c>
+      <c r="F1205" s="14" t="s">
+        <v>7557</v>
+      </c>
+      <c r="G1205" s="14" t="s">
+        <v>7558</v>
+      </c>
+      <c r="H1205" s="14" t="s">
+        <v>7558</v>
+      </c>
+      <c r="I1205" s="14" t="s">
+        <v>7558</v>
+      </c>
+      <c r="J1205" s="14" t="s">
         <v>7559</v>
       </c>
-      <c r="F1205" s="14" t="s">
-        <v>7560</v>
-      </c>
-      <c r="G1205" s="14" t="s">
-        <v>7561</v>
-      </c>
-      <c r="H1205" s="14" t="s">
-        <v>7561</v>
-      </c>
-      <c r="I1205" s="14" t="s">
-        <v>7561</v>
-      </c>
-      <c r="J1205" s="14" t="s">
-        <v>7562</v>
-      </c>
       <c r="K1205" s="14" t="s">
-        <v>7562</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="1206" spans="2:11">
       <c r="B1206" s="14" t="s">
-        <v>7563</v>
+        <v>7560</v>
       </c>
       <c r="C1206" s="14" t="s">
-        <v>7564</v>
+        <v>7561</v>
       </c>
       <c r="D1206" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1206" s="14" t="s">
+        <v>7562</v>
+      </c>
+      <c r="F1206" s="14" t="s">
+        <v>7563</v>
+      </c>
+      <c r="G1206" s="14" t="s">
+        <v>7564</v>
+      </c>
+      <c r="H1206" s="14" t="s">
+        <v>7564</v>
+      </c>
+      <c r="I1206" s="14" t="s">
+        <v>7564</v>
+      </c>
+      <c r="J1206" s="14" t="s">
         <v>7565</v>
       </c>
-      <c r="F1206" s="14" t="s">
-        <v>7566</v>
-      </c>
-      <c r="G1206" s="14" t="s">
-        <v>7567</v>
-      </c>
-      <c r="H1206" s="14" t="s">
-        <v>7567</v>
-      </c>
-      <c r="I1206" s="14" t="s">
-        <v>7567</v>
-      </c>
-      <c r="J1206" s="14" t="s">
-        <v>7568</v>
-      </c>
       <c r="K1206" s="14" t="s">
-        <v>7568</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="1207" spans="2:11">
       <c r="B1207" s="14" t="s">
-        <v>7569</v>
-      </c>
-      <c r="C1207" s="1" t="s">
-        <v>1662</v>
+        <v>7566</v>
+      </c>
+      <c r="C1207" s="14" t="s">
+        <v>7567</v>
       </c>
       <c r="D1207" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1207" s="14" t="s">
+        <v>7568</v>
+      </c>
+      <c r="F1207" s="14" t="s">
+        <v>7569</v>
+      </c>
+      <c r="G1207" s="14" t="s">
         <v>7570</v>
       </c>
-      <c r="F1207" s="14" t="s">
+      <c r="H1207" s="14" t="s">
+        <v>7570</v>
+      </c>
+      <c r="I1207" s="14" t="s">
+        <v>7570</v>
+      </c>
+      <c r="J1207" s="14" t="s">
         <v>7571</v>
       </c>
-      <c r="G1207" s="14" t="s">
-        <v>7572</v>
-      </c>
-      <c r="H1207" s="14" t="s">
-        <v>7572</v>
-      </c>
-      <c r="I1207" s="14" t="s">
-        <v>7572</v>
-      </c>
-      <c r="J1207" s="14" t="s">
-        <v>7573</v>
-      </c>
       <c r="K1207" s="14" t="s">
-        <v>7573</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="1208" spans="2:11">
       <c r="B1208" s="14" t="s">
-        <v>7574</v>
+        <v>7572</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="D1208" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1208" s="14" t="s">
+        <v>7573</v>
+      </c>
+      <c r="F1208" s="14" t="s">
+        <v>7574</v>
+      </c>
+      <c r="G1208" s="14" t="s">
         <v>7575</v>
       </c>
-      <c r="F1208" s="14" t="s">
+      <c r="H1208" s="14" t="s">
+        <v>7575</v>
+      </c>
+      <c r="I1208" s="14" t="s">
+        <v>7575</v>
+      </c>
+      <c r="J1208" s="14" t="s">
         <v>7576</v>
       </c>
-      <c r="G1208" s="14" t="s">
-        <v>7577</v>
-      </c>
-      <c r="H1208" s="14" t="s">
-        <v>7577</v>
-      </c>
-      <c r="I1208" s="14" t="s">
-        <v>7577</v>
-      </c>
-      <c r="J1208" s="14" t="s">
-        <v>7578</v>
-      </c>
       <c r="K1208" s="14" t="s">
-        <v>7578</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="1209" spans="2:11">
       <c r="B1209" s="14" t="s">
-        <v>7579</v>
+        <v>7577</v>
       </c>
       <c r="C1209" s="1" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="D1209" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1209" s="14" t="s">
+        <v>7578</v>
+      </c>
+      <c r="F1209" s="14" t="s">
+        <v>7579</v>
+      </c>
+      <c r="G1209" s="14" t="s">
         <v>7580</v>
       </c>
-      <c r="F1209" s="14" t="s">
+      <c r="H1209" s="14" t="s">
+        <v>7580</v>
+      </c>
+      <c r="I1209" s="14" t="s">
+        <v>7580</v>
+      </c>
+      <c r="J1209" s="14" t="s">
         <v>7581</v>
       </c>
-      <c r="G1209" s="14" t="s">
-        <v>7582</v>
-      </c>
-      <c r="H1209" s="14" t="s">
-        <v>7582</v>
-      </c>
-      <c r="I1209" s="14" t="s">
-        <v>7582</v>
-      </c>
-      <c r="J1209" s="14" t="s">
-        <v>7583</v>
-      </c>
       <c r="K1209" s="14" t="s">
-        <v>7583</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="1210" spans="2:11">
       <c r="B1210" s="14" t="s">
-        <v>7584</v>
+        <v>7582</v>
       </c>
       <c r="C1210" s="1" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="D1210" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1210" s="14" t="s">
+        <v>7583</v>
+      </c>
+      <c r="F1210" s="14" t="s">
+        <v>7584</v>
+      </c>
+      <c r="G1210" s="14" t="s">
         <v>7585</v>
       </c>
-      <c r="F1210" s="14" t="s">
+      <c r="H1210" s="14" t="s">
+        <v>7585</v>
+      </c>
+      <c r="I1210" s="14" t="s">
+        <v>7585</v>
+      </c>
+      <c r="J1210" s="14" t="s">
         <v>7586</v>
       </c>
-      <c r="G1210" s="14" t="s">
-        <v>7587</v>
-      </c>
-      <c r="H1210" s="14" t="s">
-        <v>7587</v>
-      </c>
-      <c r="I1210" s="14" t="s">
-        <v>7587</v>
-      </c>
-      <c r="J1210" s="14" t="s">
-        <v>7588</v>
-      </c>
       <c r="K1210" s="14" t="s">
-        <v>7588</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="1211" spans="2:11">
       <c r="B1211" s="14" t="s">
-        <v>7589</v>
+        <v>7587</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="D1211" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1211" s="14" t="s">
+        <v>7588</v>
+      </c>
+      <c r="F1211" s="14" t="s">
+        <v>7589</v>
+      </c>
+      <c r="G1211" s="14" t="s">
         <v>7590</v>
       </c>
-      <c r="F1211" s="14" t="s">
+      <c r="H1211" s="14" t="s">
+        <v>7590</v>
+      </c>
+      <c r="I1211" s="14" t="s">
+        <v>7590</v>
+      </c>
+      <c r="J1211" s="14" t="s">
         <v>7591</v>
       </c>
-      <c r="G1211" s="14" t="s">
-        <v>7592</v>
-      </c>
-      <c r="H1211" s="14" t="s">
-        <v>7592</v>
-      </c>
-      <c r="I1211" s="14" t="s">
-        <v>7592</v>
-      </c>
-      <c r="J1211" s="14" t="s">
-        <v>7593</v>
-      </c>
       <c r="K1211" s="14" t="s">
-        <v>7593</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="1212" spans="2:11">
       <c r="B1212" s="14" t="s">
-        <v>7594</v>
+        <v>7592</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="D1212" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1212" s="14" t="s">
+        <v>7593</v>
+      </c>
+      <c r="F1212" s="14" t="s">
+        <v>7594</v>
+      </c>
+      <c r="G1212" s="14" t="s">
         <v>7595</v>
       </c>
-      <c r="F1212" s="14" t="s">
+      <c r="H1212" s="14" t="s">
+        <v>7595</v>
+      </c>
+      <c r="I1212" s="14" t="s">
+        <v>7595</v>
+      </c>
+      <c r="J1212" s="14" t="s">
         <v>7596</v>
       </c>
-      <c r="G1212" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="H1212" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="I1212" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="J1212" s="14" t="s">
-        <v>7598</v>
-      </c>
       <c r="K1212" s="14" t="s">
-        <v>7598</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="1213" spans="2:11">
       <c r="B1213" s="14" t="s">
-        <v>7599</v>
+        <v>7597</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="D1213" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1213" s="14" t="s">
+        <v>7598</v>
+      </c>
+      <c r="F1213" s="14" t="s">
+        <v>7599</v>
+      </c>
+      <c r="G1213" s="14" t="s">
         <v>7600</v>
       </c>
-      <c r="F1213" s="14" t="s">
+      <c r="H1213" s="14" t="s">
+        <v>7600</v>
+      </c>
+      <c r="I1213" s="14" t="s">
+        <v>7600</v>
+      </c>
+      <c r="J1213" s="14" t="s">
         <v>7601</v>
       </c>
-      <c r="G1213" s="14" t="s">
-        <v>7602</v>
-      </c>
-      <c r="H1213" s="14" t="s">
-        <v>7602</v>
-      </c>
-      <c r="I1213" s="14" t="s">
-        <v>7602</v>
-      </c>
-      <c r="J1213" s="14" t="s">
-        <v>7603</v>
-      </c>
       <c r="K1213" s="14" t="s">
-        <v>7603</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="1214" spans="2:11">
       <c r="B1214" s="14" t="s">
-        <v>7604</v>
+        <v>7602</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="D1214" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1214" s="14" t="s">
+        <v>7603</v>
+      </c>
+      <c r="F1214" s="14" t="s">
+        <v>7604</v>
+      </c>
+      <c r="G1214" s="14" t="s">
         <v>7605</v>
       </c>
-      <c r="F1214" s="14" t="s">
+      <c r="H1214" s="14" t="s">
+        <v>7605</v>
+      </c>
+      <c r="I1214" s="14" t="s">
+        <v>7605</v>
+      </c>
+      <c r="J1214" s="14" t="s">
         <v>7606</v>
       </c>
-      <c r="G1214" s="14" t="s">
-        <v>7607</v>
-      </c>
-      <c r="H1214" s="14" t="s">
-        <v>7607</v>
-      </c>
-      <c r="I1214" s="14" t="s">
-        <v>7607</v>
-      </c>
-      <c r="J1214" s="14" t="s">
-        <v>7608</v>
-      </c>
       <c r="K1214" s="14" t="s">
-        <v>7608</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="1215" spans="2:11">
       <c r="B1215" s="14" t="s">
-        <v>7609</v>
+        <v>7607</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="D1215" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1215" s="14" t="s">
+        <v>7608</v>
+      </c>
+      <c r="F1215" s="14" t="s">
+        <v>7609</v>
+      </c>
+      <c r="G1215" s="14" t="s">
         <v>7610</v>
       </c>
-      <c r="F1215" s="14" t="s">
+      <c r="H1215" s="14" t="s">
+        <v>7610</v>
+      </c>
+      <c r="I1215" s="14" t="s">
+        <v>7610</v>
+      </c>
+      <c r="J1215" s="14" t="s">
         <v>7611</v>
       </c>
-      <c r="G1215" s="14" t="s">
-        <v>7612</v>
-      </c>
-      <c r="H1215" s="14" t="s">
-        <v>7612</v>
-      </c>
-      <c r="I1215" s="14" t="s">
-        <v>7612</v>
-      </c>
-      <c r="J1215" s="14" t="s">
-        <v>7613</v>
-      </c>
       <c r="K1215" s="14" t="s">
-        <v>7613</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="1216" spans="2:11">
       <c r="B1216" s="14" t="s">
-        <v>7614</v>
+        <v>7612</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="D1216" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1216" s="14" t="s">
+        <v>7613</v>
+      </c>
+      <c r="F1216" s="14" t="s">
+        <v>7614</v>
+      </c>
+      <c r="G1216" s="14" t="s">
         <v>7615</v>
       </c>
-      <c r="F1216" s="14" t="s">
+      <c r="H1216" s="14" t="s">
+        <v>7615</v>
+      </c>
+      <c r="I1216" s="14" t="s">
+        <v>7615</v>
+      </c>
+      <c r="J1216" s="14" t="s">
         <v>7616</v>
       </c>
-      <c r="G1216" s="14" t="s">
-        <v>7617</v>
-      </c>
-      <c r="H1216" s="14" t="s">
-        <v>7617</v>
-      </c>
-      <c r="I1216" s="14" t="s">
-        <v>7617</v>
-      </c>
-      <c r="J1216" s="14" t="s">
-        <v>7618</v>
-      </c>
       <c r="K1216" s="14" t="s">
-        <v>7618</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="1217" spans="2:11">
       <c r="B1217" s="14" t="s">
-        <v>7619</v>
+        <v>7617</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D1217" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1217" s="14" t="s">
+        <v>7618</v>
+      </c>
+      <c r="F1217" s="14" t="s">
+        <v>7619</v>
+      </c>
+      <c r="G1217" s="14" t="s">
         <v>7620</v>
       </c>
-      <c r="F1217" s="14" t="s">
+      <c r="H1217" s="14" t="s">
+        <v>7620</v>
+      </c>
+      <c r="I1217" s="14" t="s">
+        <v>7620</v>
+      </c>
+      <c r="J1217" s="14" t="s">
         <v>7621</v>
       </c>
-      <c r="G1217" s="14" t="s">
-        <v>7622</v>
-      </c>
-      <c r="H1217" s="14" t="s">
-        <v>7622</v>
-      </c>
-      <c r="I1217" s="14" t="s">
-        <v>7622</v>
-      </c>
-      <c r="J1217" s="14" t="s">
-        <v>7623</v>
-      </c>
       <c r="K1217" s="14" t="s">
-        <v>7623</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="1218" spans="2:11">
       <c r="B1218" s="14" t="s">
-        <v>7624</v>
+        <v>7622</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="D1218" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1218" s="14" t="s">
+        <v>7623</v>
+      </c>
+      <c r="F1218" s="14" t="s">
+        <v>7624</v>
+      </c>
+      <c r="G1218" s="14" t="s">
         <v>7625</v>
       </c>
-      <c r="F1218" s="14" t="s">
+      <c r="H1218" s="14" t="s">
+        <v>7625</v>
+      </c>
+      <c r="I1218" s="14" t="s">
+        <v>7625</v>
+      </c>
+      <c r="J1218" s="14" t="s">
         <v>7626</v>
       </c>
-      <c r="G1218" s="14" t="s">
-        <v>7627</v>
-      </c>
-      <c r="H1218" s="14" t="s">
-        <v>7627</v>
-      </c>
-      <c r="I1218" s="14" t="s">
-        <v>7627</v>
-      </c>
-      <c r="J1218" s="14" t="s">
-        <v>7628</v>
-      </c>
       <c r="K1218" s="14" t="s">
-        <v>7628</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="1219" spans="2:11">
       <c r="B1219" s="14" t="s">
-        <v>7629</v>
+        <v>7627</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D1219" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1219" s="14" t="s">
+        <v>7628</v>
+      </c>
+      <c r="F1219" s="14" t="s">
+        <v>7629</v>
+      </c>
+      <c r="G1219" s="14" t="s">
         <v>7630</v>
       </c>
-      <c r="F1219" s="14" t="s">
+      <c r="H1219" s="14" t="s">
+        <v>7630</v>
+      </c>
+      <c r="I1219" s="14" t="s">
+        <v>7630</v>
+      </c>
+      <c r="J1219" s="14" t="s">
         <v>7631</v>
       </c>
-      <c r="G1219" s="14" t="s">
-        <v>7632</v>
-      </c>
-      <c r="H1219" s="14" t="s">
-        <v>7632</v>
-      </c>
-      <c r="I1219" s="14" t="s">
-        <v>7632</v>
-      </c>
-      <c r="J1219" s="14" t="s">
-        <v>7633</v>
-      </c>
       <c r="K1219" s="14" t="s">
-        <v>7633</v>
+        <v>7631</v>
       </c>
     </row>
     <row r="1220" spans="2:11">
       <c r="B1220" s="14" t="s">
-        <v>7634</v>
+        <v>7632</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="D1220" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1220" s="14" t="s">
+        <v>7633</v>
+      </c>
+      <c r="F1220" s="14" t="s">
+        <v>7634</v>
+      </c>
+      <c r="G1220" s="14" t="s">
         <v>7635</v>
       </c>
-      <c r="F1220" s="14" t="s">
+      <c r="H1220" s="14" t="s">
+        <v>7635</v>
+      </c>
+      <c r="I1220" s="14" t="s">
+        <v>7635</v>
+      </c>
+      <c r="J1220" s="14" t="s">
         <v>7636</v>
       </c>
-      <c r="G1220" s="14" t="s">
-        <v>7637</v>
-      </c>
-      <c r="H1220" s="14" t="s">
-        <v>7637</v>
-      </c>
-      <c r="I1220" s="14" t="s">
-        <v>7637</v>
-      </c>
-      <c r="J1220" s="14" t="s">
-        <v>7638</v>
-      </c>
       <c r="K1220" s="14" t="s">
-        <v>7638</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="1221" spans="2:11">
       <c r="B1221" s="14" t="s">
-        <v>7639</v>
+        <v>7637</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="D1221" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1221" s="14" t="s">
+        <v>7638</v>
+      </c>
+      <c r="F1221" s="14" t="s">
+        <v>7639</v>
+      </c>
+      <c r="G1221" s="14" t="s">
         <v>7640</v>
       </c>
-      <c r="F1221" s="14" t="s">
+      <c r="H1221" s="14" t="s">
+        <v>7640</v>
+      </c>
+      <c r="I1221" s="14" t="s">
+        <v>7640</v>
+      </c>
+      <c r="J1221" s="14" t="s">
         <v>7641</v>
       </c>
-      <c r="G1221" s="14" t="s">
-        <v>7642</v>
-      </c>
-      <c r="H1221" s="14" t="s">
-        <v>7642</v>
-      </c>
-      <c r="I1221" s="14" t="s">
-        <v>7642</v>
-      </c>
-      <c r="J1221" s="14" t="s">
-        <v>7643</v>
-      </c>
       <c r="K1221" s="14" t="s">
-        <v>7643</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="1222" spans="2:11">
       <c r="B1222" s="14" t="s">
-        <v>7644</v>
+        <v>7642</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="D1222" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1222" s="14" t="s">
+        <v>7643</v>
+      </c>
+      <c r="F1222" s="14" t="s">
+        <v>7644</v>
+      </c>
+      <c r="G1222" s="14" t="s">
         <v>7645</v>
       </c>
-      <c r="F1222" s="14" t="s">
+      <c r="H1222" s="14" t="s">
+        <v>7645</v>
+      </c>
+      <c r="I1222" s="14" t="s">
+        <v>7645</v>
+      </c>
+      <c r="J1222" s="14" t="s">
         <v>7646</v>
       </c>
-      <c r="G1222" s="14" t="s">
-        <v>7647</v>
-      </c>
-      <c r="H1222" s="14" t="s">
-        <v>7647</v>
-      </c>
-      <c r="I1222" s="14" t="s">
-        <v>7647</v>
-      </c>
-      <c r="J1222" s="14" t="s">
-        <v>7648</v>
-      </c>
       <c r="K1222" s="14" t="s">
-        <v>7648</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="1223" spans="2:11">
       <c r="B1223" s="14" t="s">
-        <v>7649</v>
+        <v>7647</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="D1223" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1223" s="14" t="s">
+        <v>7648</v>
+      </c>
+      <c r="F1223" s="14" t="s">
+        <v>7649</v>
+      </c>
+      <c r="G1223" s="14" t="s">
         <v>7650</v>
       </c>
-      <c r="F1223" s="14" t="s">
+      <c r="H1223" s="14" t="s">
+        <v>7650</v>
+      </c>
+      <c r="I1223" s="14" t="s">
+        <v>7650</v>
+      </c>
+      <c r="J1223" s="14" t="s">
         <v>7651</v>
       </c>
-      <c r="G1223" s="14" t="s">
-        <v>7652</v>
-      </c>
-      <c r="H1223" s="14" t="s">
-        <v>7652</v>
-      </c>
-      <c r="I1223" s="14" t="s">
-        <v>7652</v>
-      </c>
-      <c r="J1223" s="14" t="s">
-        <v>7653</v>
-      </c>
       <c r="K1223" s="14" t="s">
-        <v>7653</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="1224" spans="2:11">
       <c r="B1224" s="14" t="s">
-        <v>7654</v>
+        <v>7652</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="D1224" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1224" s="14" t="s">
+        <v>7653</v>
+      </c>
+      <c r="F1224" s="14" t="s">
+        <v>7654</v>
+      </c>
+      <c r="G1224" s="14" t="s">
         <v>7655</v>
       </c>
-      <c r="F1224" s="14" t="s">
+      <c r="H1224" s="14" t="s">
+        <v>7655</v>
+      </c>
+      <c r="I1224" s="14" t="s">
+        <v>7655</v>
+      </c>
+      <c r="J1224" s="14" t="s">
         <v>7656</v>
       </c>
-      <c r="G1224" s="14" t="s">
-        <v>7657</v>
-      </c>
-      <c r="H1224" s="14" t="s">
-        <v>7657</v>
-      </c>
-      <c r="I1224" s="14" t="s">
-        <v>7657</v>
-      </c>
-      <c r="J1224" s="14" t="s">
-        <v>7658</v>
-      </c>
       <c r="K1224" s="14" t="s">
-        <v>7658</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="1225" spans="2:11">
       <c r="B1225" s="14" t="s">
-        <v>7659</v>
+        <v>7657</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="D1225" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1225" s="14" t="s">
+        <v>7658</v>
+      </c>
+      <c r="F1225" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="G1225" s="14" t="s">
         <v>7660</v>
       </c>
-      <c r="F1225" s="14" t="s">
+      <c r="H1225" s="14" t="s">
+        <v>7660</v>
+      </c>
+      <c r="I1225" s="14" t="s">
+        <v>7660</v>
+      </c>
+      <c r="J1225" s="14" t="s">
         <v>7661</v>
       </c>
-      <c r="G1225" s="14" t="s">
-        <v>7662</v>
-      </c>
-      <c r="H1225" s="14" t="s">
-        <v>7662</v>
-      </c>
-      <c r="I1225" s="14" t="s">
-        <v>7662</v>
-      </c>
-      <c r="J1225" s="14" t="s">
-        <v>7663</v>
-      </c>
       <c r="K1225" s="14" t="s">
-        <v>7663</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="1226" spans="2:11">
       <c r="B1226" s="14" t="s">
-        <v>7664</v>
+        <v>7662</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>1843</v>
+        <v>1798</v>
       </c>
       <c r="D1226" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1226" s="14" t="s">
+        <v>7663</v>
+      </c>
+      <c r="F1226" s="14" t="s">
+        <v>7664</v>
+      </c>
+      <c r="G1226" s="14" t="s">
         <v>7665</v>
       </c>
-      <c r="F1226" s="14" t="s">
+      <c r="H1226" s="14" t="s">
+        <v>7665</v>
+      </c>
+      <c r="I1226" s="14" t="s">
+        <v>7665</v>
+      </c>
+      <c r="J1226" s="14" t="s">
         <v>7666</v>
       </c>
-      <c r="G1226" s="14" t="s">
-        <v>7667</v>
-      </c>
-      <c r="H1226" s="14" t="s">
-        <v>7667</v>
-      </c>
-      <c r="I1226" s="14" t="s">
-        <v>7667</v>
-      </c>
-      <c r="J1226" s="14" t="s">
-        <v>7668</v>
-      </c>
       <c r="K1226" s="14" t="s">
-        <v>7668</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="1227" spans="2:11">
       <c r="B1227" s="14" t="s">
-        <v>7669</v>
-      </c>
-      <c r="C1227" s="14" t="s">
-        <v>7670</v>
+        <v>7667</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>1843</v>
       </c>
       <c r="D1227" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1227" s="14" t="s">
+        <v>7668</v>
+      </c>
+      <c r="F1227" s="14" t="s">
+        <v>7669</v>
+      </c>
+      <c r="G1227" s="14" t="s">
+        <v>7670</v>
+      </c>
+      <c r="H1227" s="14" t="s">
+        <v>7670</v>
+      </c>
+      <c r="I1227" s="14" t="s">
+        <v>7670</v>
+      </c>
+      <c r="J1227" s="14" t="s">
         <v>7671</v>
       </c>
-      <c r="F1227" s="14" t="s">
-        <v>7672</v>
-      </c>
-      <c r="G1227" s="14" t="s">
-        <v>7673</v>
-      </c>
-      <c r="H1227" s="14" t="s">
-        <v>7673</v>
-      </c>
-      <c r="I1227" s="14" t="s">
-        <v>7673</v>
-      </c>
-      <c r="J1227" s="14" t="s">
-        <v>7674</v>
-      </c>
       <c r="K1227" s="14" t="s">
-        <v>7674</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="1228" spans="2:11">
       <c r="B1228" s="14" t="s">
-        <v>7675</v>
+        <v>7672</v>
       </c>
       <c r="C1228" s="14" t="s">
-        <v>7676</v>
+        <v>7673</v>
       </c>
       <c r="D1228" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1228" s="14" t="s">
+        <v>7674</v>
+      </c>
+      <c r="F1228" s="14" t="s">
+        <v>7675</v>
+      </c>
+      <c r="G1228" s="14" t="s">
+        <v>7676</v>
+      </c>
+      <c r="H1228" s="14" t="s">
+        <v>7676</v>
+      </c>
+      <c r="I1228" s="14" t="s">
+        <v>7676</v>
+      </c>
+      <c r="J1228" s="14" t="s">
         <v>7677</v>
       </c>
-      <c r="F1228" s="14" t="s">
-        <v>7678</v>
-      </c>
-      <c r="G1228" s="14" t="s">
-        <v>7679</v>
-      </c>
-      <c r="H1228" s="14" t="s">
-        <v>7679</v>
-      </c>
-      <c r="I1228" s="14" t="s">
-        <v>7679</v>
-      </c>
-      <c r="J1228" s="14" t="s">
-        <v>7680</v>
-      </c>
       <c r="K1228" s="14" t="s">
-        <v>7680</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="1229" spans="2:11">
       <c r="B1229" s="14" t="s">
-        <v>7681</v>
+        <v>7678</v>
       </c>
       <c r="C1229" s="14" t="s">
-        <v>7682</v>
+        <v>7679</v>
       </c>
       <c r="D1229" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1229" s="14" t="s">
+        <v>7680</v>
+      </c>
+      <c r="F1229" s="14" t="s">
+        <v>7681</v>
+      </c>
+      <c r="G1229" s="14" t="s">
+        <v>7682</v>
+      </c>
+      <c r="H1229" s="14" t="s">
+        <v>7682</v>
+      </c>
+      <c r="I1229" s="14" t="s">
+        <v>7682</v>
+      </c>
+      <c r="J1229" s="14" t="s">
         <v>7683</v>
       </c>
-      <c r="F1229" s="14" t="s">
-        <v>7684</v>
-      </c>
-      <c r="G1229" s="14" t="s">
-        <v>7685</v>
-      </c>
-      <c r="H1229" s="14" t="s">
-        <v>7685</v>
-      </c>
-      <c r="I1229" s="14" t="s">
-        <v>7685</v>
-      </c>
-      <c r="J1229" s="14" t="s">
-        <v>7686</v>
-      </c>
       <c r="K1229" s="14" t="s">
-        <v>7686</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="1230" spans="2:11">
       <c r="B1230" s="14" t="s">
-        <v>7687</v>
+        <v>7684</v>
       </c>
       <c r="C1230" s="14" t="s">
-        <v>7688</v>
+        <v>7685</v>
       </c>
       <c r="D1230" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1230" s="14" t="s">
+        <v>7686</v>
+      </c>
+      <c r="F1230" s="14" t="s">
+        <v>7687</v>
+      </c>
+      <c r="G1230" s="14" t="s">
+        <v>7688</v>
+      </c>
+      <c r="H1230" s="14" t="s">
+        <v>7688</v>
+      </c>
+      <c r="I1230" s="14" t="s">
+        <v>7688</v>
+      </c>
+      <c r="J1230" s="14" t="s">
         <v>7689</v>
       </c>
-      <c r="F1230" s="14" t="s">
-        <v>7690</v>
-      </c>
-      <c r="G1230" s="14" t="s">
-        <v>7691</v>
-      </c>
-      <c r="H1230" s="14" t="s">
-        <v>7691</v>
-      </c>
-      <c r="I1230" s="14" t="s">
-        <v>7691</v>
-      </c>
-      <c r="J1230" s="14" t="s">
-        <v>7692</v>
-      </c>
       <c r="K1230" s="14" t="s">
-        <v>7692</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="1231" spans="2:11">
       <c r="B1231" s="14" t="s">
-        <v>7693</v>
-      </c>
-      <c r="C1231" s="41" t="s">
-        <v>7694</v>
+        <v>7690</v>
+      </c>
+      <c r="C1231" s="14" t="s">
+        <v>7691</v>
       </c>
       <c r="D1231" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1231" s="14" t="s">
+        <v>7692</v>
+      </c>
+      <c r="F1231" s="14" t="s">
+        <v>7693</v>
+      </c>
+      <c r="G1231" s="14" t="s">
+        <v>7694</v>
+      </c>
+      <c r="H1231" s="14" t="s">
+        <v>7694</v>
+      </c>
+      <c r="I1231" s="14" t="s">
+        <v>7694</v>
+      </c>
+      <c r="J1231" s="14" t="s">
         <v>7695</v>
       </c>
-      <c r="F1231" s="14" t="s">
-        <v>7696</v>
-      </c>
-      <c r="G1231" s="14" t="s">
-        <v>7697</v>
-      </c>
-      <c r="H1231" s="14" t="s">
-        <v>7697</v>
-      </c>
-      <c r="I1231" s="14" t="s">
-        <v>7697</v>
-      </c>
-      <c r="J1231" s="14" t="s">
-        <v>7698</v>
-      </c>
       <c r="K1231" s="14" t="s">
-        <v>7698</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="1232" spans="2:11">
       <c r="B1232" s="14" t="s">
-        <v>7699</v>
+        <v>7696</v>
       </c>
       <c r="C1232" s="41" t="s">
-        <v>7700</v>
+        <v>7697</v>
       </c>
       <c r="D1232" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1232" s="14" t="s">
+        <v>7698</v>
+      </c>
+      <c r="F1232" s="14" t="s">
+        <v>7699</v>
+      </c>
+      <c r="G1232" s="14" t="s">
+        <v>7700</v>
+      </c>
+      <c r="H1232" s="14" t="s">
+        <v>7700</v>
+      </c>
+      <c r="I1232" s="14" t="s">
+        <v>7700</v>
+      </c>
+      <c r="J1232" s="14" t="s">
         <v>7701</v>
       </c>
-      <c r="F1232" s="14" t="s">
-        <v>7702</v>
-      </c>
-      <c r="G1232" s="14" t="s">
-        <v>7703</v>
-      </c>
-      <c r="H1232" s="14" t="s">
-        <v>7703</v>
-      </c>
-      <c r="I1232" s="14" t="s">
-        <v>7703</v>
-      </c>
-      <c r="J1232" s="14" t="s">
-        <v>7704</v>
-      </c>
       <c r="K1232" s="14" t="s">
-        <v>7704</v>
+        <v>7701</v>
       </c>
     </row>
     <row r="1233" spans="2:11">
       <c r="B1233" s="14" t="s">
-        <v>7705</v>
+        <v>7702</v>
       </c>
       <c r="C1233" s="41" t="s">
-        <v>7706</v>
+        <v>7703</v>
       </c>
       <c r="D1233" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1233" s="14" t="s">
+        <v>7704</v>
+      </c>
+      <c r="F1233" s="14" t="s">
+        <v>7705</v>
+      </c>
+      <c r="G1233" s="14" t="s">
+        <v>7706</v>
+      </c>
+      <c r="H1233" s="14" t="s">
+        <v>7706</v>
+      </c>
+      <c r="I1233" s="14" t="s">
+        <v>7706</v>
+      </c>
+      <c r="J1233" s="14" t="s">
         <v>7707</v>
       </c>
-      <c r="F1233" s="14" t="s">
-        <v>7708</v>
-      </c>
-      <c r="G1233" s="14" t="s">
-        <v>7709</v>
-      </c>
-      <c r="H1233" s="14" t="s">
-        <v>7709</v>
-      </c>
-      <c r="I1233" s="14" t="s">
-        <v>7709</v>
-      </c>
-      <c r="J1233" s="14" t="s">
-        <v>7710</v>
-      </c>
       <c r="K1233" s="14" t="s">
-        <v>7710</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="1234" spans="2:11">
       <c r="B1234" s="14" t="s">
-        <v>7711</v>
+        <v>7708</v>
       </c>
       <c r="C1234" s="41" t="s">
-        <v>7712</v>
+        <v>7709</v>
       </c>
       <c r="D1234" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1234" s="14" t="s">
+        <v>7710</v>
+      </c>
+      <c r="F1234" s="14" t="s">
+        <v>7711</v>
+      </c>
+      <c r="G1234" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="H1234" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="I1234" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="J1234" s="14" t="s">
         <v>7713</v>
       </c>
-      <c r="F1234" s="14" t="s">
-        <v>7714</v>
-      </c>
-      <c r="G1234" s="14" t="s">
-        <v>7715</v>
-      </c>
-      <c r="H1234" s="14" t="s">
-        <v>7715</v>
-      </c>
-      <c r="I1234" s="14" t="s">
-        <v>7715</v>
-      </c>
-      <c r="J1234" s="14" t="s">
-        <v>7716</v>
-      </c>
       <c r="K1234" s="14" t="s">
-        <v>7716</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="1235" spans="2:11">
       <c r="B1235" s="14" t="s">
-        <v>7717</v>
-      </c>
-      <c r="C1235" s="14" t="s">
-        <v>7718</v>
+        <v>7714</v>
+      </c>
+      <c r="C1235" s="41" t="s">
+        <v>7715</v>
       </c>
       <c r="D1235" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1235" s="14" t="s">
+        <v>7716</v>
+      </c>
+      <c r="F1235" s="14" t="s">
+        <v>7717</v>
+      </c>
+      <c r="G1235" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="H1235" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="I1235" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="J1235" s="14" t="s">
         <v>7719</v>
       </c>
-      <c r="F1235" s="14" t="s">
-        <v>7720</v>
-      </c>
-      <c r="G1235" s="14" t="s">
-        <v>7721</v>
-      </c>
-      <c r="H1235" s="14" t="s">
-        <v>7721</v>
-      </c>
-      <c r="I1235" s="14" t="s">
-        <v>7721</v>
-      </c>
-      <c r="J1235" s="14" t="s">
-        <v>7722</v>
-      </c>
       <c r="K1235" s="14" t="s">
-        <v>7722</v>
+        <v>7719</v>
       </c>
     </row>
     <row r="1236" spans="2:11">
       <c r="B1236" s="14" t="s">
-        <v>7723</v>
+        <v>7720</v>
       </c>
       <c r="C1236" s="14" t="s">
-        <v>7724</v>
+        <v>7721</v>
       </c>
       <c r="D1236" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1236" s="14" t="s">
+        <v>7722</v>
+      </c>
+      <c r="F1236" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="G1236" s="14" t="s">
+        <v>7724</v>
+      </c>
+      <c r="H1236" s="14" t="s">
+        <v>7724</v>
+      </c>
+      <c r="I1236" s="14" t="s">
+        <v>7724</v>
+      </c>
+      <c r="J1236" s="14" t="s">
         <v>7725</v>
       </c>
-      <c r="F1236" s="14" t="s">
-        <v>7726</v>
-      </c>
-      <c r="G1236" s="14" t="s">
-        <v>7727</v>
-      </c>
-      <c r="H1236" s="14" t="s">
-        <v>7727</v>
-      </c>
-      <c r="I1236" s="14" t="s">
-        <v>7727</v>
-      </c>
-      <c r="J1236" s="14" t="s">
-        <v>7728</v>
-      </c>
       <c r="K1236" s="14" t="s">
-        <v>7728</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="1237" spans="2:11">
       <c r="B1237" s="14" t="s">
-        <v>7729</v>
+        <v>7726</v>
       </c>
       <c r="C1237" s="14" t="s">
-        <v>7730</v>
+        <v>7727</v>
       </c>
       <c r="D1237" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1237" s="14" t="s">
+        <v>7728</v>
+      </c>
+      <c r="F1237" s="14" t="s">
+        <v>7729</v>
+      </c>
+      <c r="G1237" s="14" t="s">
+        <v>7730</v>
+      </c>
+      <c r="H1237" s="14" t="s">
+        <v>7730</v>
+      </c>
+      <c r="I1237" s="14" t="s">
+        <v>7730</v>
+      </c>
+      <c r="J1237" s="14" t="s">
         <v>7731</v>
       </c>
-      <c r="F1237" s="14" t="s">
-        <v>7732</v>
-      </c>
-      <c r="G1237" s="14" t="s">
-        <v>7733</v>
-      </c>
-      <c r="H1237" s="14" t="s">
-        <v>7733</v>
-      </c>
-      <c r="I1237" s="14" t="s">
-        <v>7733</v>
-      </c>
-      <c r="J1237" s="14" t="s">
-        <v>7734</v>
-      </c>
       <c r="K1237" s="14" t="s">
-        <v>7734</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="1238" spans="2:11">
       <c r="B1238" s="14" t="s">
-        <v>7735</v>
+        <v>7732</v>
       </c>
       <c r="C1238" s="14" t="s">
-        <v>7736</v>
+        <v>7733</v>
       </c>
       <c r="D1238" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1238" s="14" t="s">
+        <v>7734</v>
+      </c>
+      <c r="F1238" s="14" t="s">
+        <v>7735</v>
+      </c>
+      <c r="G1238" s="14" t="s">
+        <v>7736</v>
+      </c>
+      <c r="H1238" s="14" t="s">
+        <v>7736</v>
+      </c>
+      <c r="I1238" s="14" t="s">
+        <v>7736</v>
+      </c>
+      <c r="J1238" s="14" t="s">
         <v>7737</v>
       </c>
-      <c r="F1238" s="14" t="s">
-        <v>7738</v>
-      </c>
-      <c r="G1238" s="14" t="s">
-        <v>7739</v>
-      </c>
-      <c r="H1238" s="14" t="s">
-        <v>7739</v>
-      </c>
-      <c r="I1238" s="14" t="s">
-        <v>7739</v>
-      </c>
-      <c r="J1238" s="14" t="s">
-        <v>7740</v>
-      </c>
       <c r="K1238" s="14" t="s">
-        <v>7740</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="1239" spans="2:11">
       <c r="B1239" s="14" t="s">
-        <v>7741</v>
+        <v>7738</v>
       </c>
       <c r="C1239" s="14" t="s">
-        <v>7742</v>
+        <v>7739</v>
       </c>
       <c r="D1239" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1239" s="14" t="s">
+        <v>7740</v>
+      </c>
+      <c r="F1239" s="14" t="s">
+        <v>7741</v>
+      </c>
+      <c r="G1239" s="14" t="s">
+        <v>7742</v>
+      </c>
+      <c r="H1239" s="14" t="s">
+        <v>7742</v>
+      </c>
+      <c r="I1239" s="14" t="s">
+        <v>7742</v>
+      </c>
+      <c r="J1239" s="14" t="s">
         <v>7743</v>
       </c>
-      <c r="F1239" s="14" t="s">
-        <v>7744</v>
-      </c>
-      <c r="G1239" s="14" t="s">
-        <v>7745</v>
-      </c>
-      <c r="H1239" s="14" t="s">
-        <v>7745</v>
-      </c>
-      <c r="I1239" s="14" t="s">
-        <v>7745</v>
-      </c>
-      <c r="J1239" s="14" t="s">
-        <v>7746</v>
-      </c>
       <c r="K1239" s="14" t="s">
-        <v>7746</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="1240" spans="2:11">
       <c r="B1240" s="14" t="s">
-        <v>7747</v>
+        <v>7744</v>
       </c>
       <c r="C1240" s="14" t="s">
-        <v>7748</v>
+        <v>7745</v>
       </c>
       <c r="D1240" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1240" s="14" t="s">
+        <v>7746</v>
+      </c>
+      <c r="F1240" s="14" t="s">
+        <v>7747</v>
+      </c>
+      <c r="G1240" s="14" t="s">
+        <v>7748</v>
+      </c>
+      <c r="H1240" s="14" t="s">
+        <v>7748</v>
+      </c>
+      <c r="I1240" s="14" t="s">
+        <v>7748</v>
+      </c>
+      <c r="J1240" s="14" t="s">
         <v>7749</v>
       </c>
-      <c r="F1240" s="14" t="s">
-        <v>7750</v>
-      </c>
-      <c r="G1240" s="14" t="s">
-        <v>7751</v>
-      </c>
-      <c r="H1240" s="14" t="s">
-        <v>7751</v>
-      </c>
-      <c r="I1240" s="14" t="s">
-        <v>7751</v>
-      </c>
-      <c r="J1240" s="14" t="s">
-        <v>7752</v>
-      </c>
       <c r="K1240" s="14" t="s">
-        <v>7752</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="1241" spans="2:11">
       <c r="B1241" s="14" t="s">
-        <v>7753</v>
+        <v>7750</v>
       </c>
       <c r="C1241" s="14" t="s">
-        <v>7754</v>
+        <v>7751</v>
       </c>
       <c r="D1241" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1241" s="14" t="s">
+        <v>7752</v>
+      </c>
+      <c r="F1241" s="14" t="s">
+        <v>7753</v>
+      </c>
+      <c r="G1241" s="14" t="s">
+        <v>7754</v>
+      </c>
+      <c r="H1241" s="14" t="s">
+        <v>7754</v>
+      </c>
+      <c r="I1241" s="14" t="s">
+        <v>7754</v>
+      </c>
+      <c r="J1241" s="14" t="s">
         <v>7755</v>
       </c>
-      <c r="F1241" s="14" t="s">
-        <v>7756</v>
-      </c>
-      <c r="G1241" s="14" t="s">
-        <v>7757</v>
-      </c>
-      <c r="H1241" s="14" t="s">
-        <v>7757</v>
-      </c>
-      <c r="I1241" s="14" t="s">
-        <v>7757</v>
-      </c>
-      <c r="J1241" s="14" t="s">
-        <v>7758</v>
-      </c>
       <c r="K1241" s="14" t="s">
-        <v>7758</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="1242" spans="2:11">
       <c r="B1242" s="14" t="s">
-        <v>7759</v>
+        <v>7756</v>
       </c>
       <c r="C1242" s="14" t="s">
-        <v>7760</v>
+        <v>7757</v>
       </c>
       <c r="D1242" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1242" s="14" t="s">
+        <v>7758</v>
+      </c>
+      <c r="F1242" s="14" t="s">
+        <v>7759</v>
+      </c>
+      <c r="G1242" s="14" t="s">
+        <v>7760</v>
+      </c>
+      <c r="H1242" s="14" t="s">
+        <v>7760</v>
+      </c>
+      <c r="I1242" s="14" t="s">
+        <v>7760</v>
+      </c>
+      <c r="J1242" s="14" t="s">
         <v>7761</v>
       </c>
-      <c r="F1242" s="14" t="s">
-        <v>7762</v>
-      </c>
-      <c r="G1242" s="14" t="s">
-        <v>7763</v>
-      </c>
-      <c r="H1242" s="14" t="s">
-        <v>7763</v>
-      </c>
-      <c r="I1242" s="14" t="s">
-        <v>7763</v>
-      </c>
-      <c r="J1242" s="14" t="s">
-        <v>7764</v>
-      </c>
       <c r="K1242" s="14" t="s">
-        <v>7764</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="1243" spans="2:11">
       <c r="B1243" s="14" t="s">
-        <v>7765</v>
+        <v>7762</v>
       </c>
       <c r="C1243" s="14" t="s">
-        <v>7766</v>
+        <v>7763</v>
       </c>
       <c r="D1243" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1243" s="14" t="s">
+        <v>7764</v>
+      </c>
+      <c r="F1243" s="14" t="s">
+        <v>7765</v>
+      </c>
+      <c r="G1243" s="14" t="s">
+        <v>7766</v>
+      </c>
+      <c r="H1243" s="14" t="s">
+        <v>7766</v>
+      </c>
+      <c r="I1243" s="14" t="s">
+        <v>7766</v>
+      </c>
+      <c r="J1243" s="14" t="s">
         <v>7767</v>
       </c>
-      <c r="F1243" s="14" t="s">
-        <v>7768</v>
-      </c>
-      <c r="G1243" s="14" t="s">
-        <v>7769</v>
-      </c>
-      <c r="H1243" s="14" t="s">
-        <v>7769</v>
-      </c>
-      <c r="I1243" s="14" t="s">
-        <v>7769</v>
-      </c>
-      <c r="J1243" s="14" t="s">
-        <v>7770</v>
-      </c>
       <c r="K1243" s="14" t="s">
-        <v>7770</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="1244" spans="2:11">
       <c r="B1244" s="14" t="s">
-        <v>7771</v>
+        <v>7768</v>
       </c>
       <c r="C1244" s="14" t="s">
-        <v>1802</v>
+        <v>7769</v>
       </c>
       <c r="D1244" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1244" s="14" t="s">
+        <v>7770</v>
+      </c>
+      <c r="F1244" s="14" t="s">
+        <v>7771</v>
+      </c>
+      <c r="G1244" s="14" t="s">
         <v>7772</v>
       </c>
-      <c r="F1244" s="14" t="s">
+      <c r="H1244" s="14" t="s">
+        <v>7772</v>
+      </c>
+      <c r="I1244" s="14" t="s">
+        <v>7772</v>
+      </c>
+      <c r="J1244" s="14" t="s">
         <v>7773</v>
       </c>
-      <c r="G1244" s="14" t="s">
-        <v>7774</v>
-      </c>
-      <c r="H1244" s="14" t="s">
-        <v>7774</v>
-      </c>
-      <c r="I1244" s="14" t="s">
-        <v>7774</v>
-      </c>
-      <c r="J1244" s="14" t="s">
-        <v>7775</v>
-      </c>
       <c r="K1244" s="14" t="s">
-        <v>7775</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="1245" spans="2:11">
       <c r="B1245" s="14" t="s">
-        <v>7776</v>
+        <v>7774</v>
       </c>
       <c r="C1245" s="14" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="D1245" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1245" s="14" t="s">
+        <v>7775</v>
+      </c>
+      <c r="F1245" s="14" t="s">
+        <v>7776</v>
+      </c>
+      <c r="G1245" s="14" t="s">
         <v>7777</v>
       </c>
-      <c r="F1245" s="14" t="s">
+      <c r="H1245" s="14" t="s">
+        <v>7777</v>
+      </c>
+      <c r="I1245" s="14" t="s">
+        <v>7777</v>
+      </c>
+      <c r="J1245" s="14" t="s">
         <v>7778</v>
       </c>
-      <c r="G1245" s="14" t="s">
-        <v>7779</v>
-      </c>
-      <c r="H1245" s="14" t="s">
-        <v>7779</v>
-      </c>
-      <c r="I1245" s="14" t="s">
-        <v>7779</v>
-      </c>
-      <c r="J1245" s="14" t="s">
-        <v>7780</v>
-      </c>
       <c r="K1245" s="14" t="s">
-        <v>7780</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="1246" spans="2:11">
       <c r="B1246" s="14" t="s">
-        <v>7781</v>
+        <v>7779</v>
       </c>
       <c r="C1246" s="14" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="D1246" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1246" s="14" t="s">
+        <v>7780</v>
+      </c>
+      <c r="F1246" s="14" t="s">
+        <v>7781</v>
+      </c>
+      <c r="G1246" s="14" t="s">
         <v>7782</v>
       </c>
-      <c r="F1246" s="14" t="s">
+      <c r="H1246" s="14" t="s">
+        <v>7782</v>
+      </c>
+      <c r="I1246" s="14" t="s">
+        <v>7782</v>
+      </c>
+      <c r="J1246" s="14" t="s">
         <v>7783</v>
       </c>
-      <c r="G1246" s="14" t="s">
-        <v>7784</v>
-      </c>
-      <c r="H1246" s="14" t="s">
-        <v>7784</v>
-      </c>
-      <c r="I1246" s="14" t="s">
-        <v>7784</v>
-      </c>
-      <c r="J1246" s="14" t="s">
-        <v>7785</v>
-      </c>
       <c r="K1246" s="14" t="s">
-        <v>7785</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="1247" spans="2:11">
       <c r="B1247" s="14" t="s">
-        <v>7786</v>
+        <v>7784</v>
       </c>
       <c r="C1247" s="14" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="D1247" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1247" s="14" t="s">
+        <v>7785</v>
+      </c>
+      <c r="F1247" s="14" t="s">
+        <v>7786</v>
+      </c>
+      <c r="G1247" s="14" t="s">
         <v>7787</v>
       </c>
-      <c r="F1247" s="14" t="s">
+      <c r="H1247" s="14" t="s">
+        <v>7787</v>
+      </c>
+      <c r="I1247" s="14" t="s">
+        <v>7787</v>
+      </c>
+      <c r="J1247" s="14" t="s">
         <v>7788</v>
       </c>
-      <c r="G1247" s="14" t="s">
-        <v>7789</v>
-      </c>
-      <c r="H1247" s="14" t="s">
-        <v>7789</v>
-      </c>
-      <c r="I1247" s="14" t="s">
-        <v>7789</v>
-      </c>
-      <c r="J1247" s="14" t="s">
-        <v>7790</v>
-      </c>
       <c r="K1247" s="14" t="s">
-        <v>7790</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="1248" spans="2:11">
       <c r="B1248" s="14" t="s">
-        <v>7791</v>
+        <v>7789</v>
       </c>
       <c r="C1248" s="14" t="s">
-        <v>7792</v>
+        <v>1821</v>
       </c>
       <c r="D1248" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1248" s="14" t="s">
+        <v>7790</v>
+      </c>
+      <c r="F1248" s="14" t="s">
+        <v>7791</v>
+      </c>
+      <c r="G1248" s="14" t="s">
+        <v>7792</v>
+      </c>
+      <c r="H1248" s="14" t="s">
+        <v>7792</v>
+      </c>
+      <c r="I1248" s="14" t="s">
+        <v>7792</v>
+      </c>
+      <c r="J1248" s="14" t="s">
         <v>7793</v>
       </c>
-      <c r="F1248" s="14" t="s">
-        <v>7794</v>
-      </c>
-      <c r="G1248" s="14" t="s">
-        <v>7795</v>
-      </c>
-      <c r="H1248" s="14" t="s">
-        <v>7795</v>
-      </c>
-      <c r="I1248" s="14" t="s">
-        <v>7795</v>
-      </c>
-      <c r="J1248" s="14" t="s">
-        <v>7796</v>
-      </c>
       <c r="K1248" s="14" t="s">
-        <v>7796</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="1249" spans="2:11">
       <c r="B1249" s="14" t="s">
-        <v>7797</v>
+        <v>7794</v>
       </c>
       <c r="C1249" s="14" t="s">
-        <v>7798</v>
+        <v>7795</v>
       </c>
       <c r="D1249" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1249" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="F1249" s="14" t="s">
+        <v>7797</v>
+      </c>
+      <c r="G1249" s="14" t="s">
+        <v>7798</v>
+      </c>
+      <c r="H1249" s="14" t="s">
+        <v>7798</v>
+      </c>
+      <c r="I1249" s="14" t="s">
+        <v>7798</v>
+      </c>
+      <c r="J1249" s="14" t="s">
         <v>7799</v>
       </c>
-      <c r="F1249" s="14" t="s">
-        <v>7800</v>
-      </c>
-      <c r="G1249" s="14" t="s">
-        <v>7801</v>
-      </c>
-      <c r="H1249" s="14" t="s">
-        <v>7801</v>
-      </c>
-      <c r="I1249" s="14" t="s">
-        <v>7801</v>
-      </c>
-      <c r="J1249" s="14" t="s">
-        <v>7802</v>
-      </c>
       <c r="K1249" s="14" t="s">
-        <v>7802</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="1250" spans="2:11">
       <c r="B1250" s="14" t="s">
-        <v>7803</v>
+        <v>7800</v>
       </c>
       <c r="C1250" s="14" t="s">
-        <v>7804</v>
+        <v>7801</v>
       </c>
       <c r="D1250" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1250" s="14" t="s">
+        <v>7802</v>
+      </c>
+      <c r="F1250" s="14" t="s">
+        <v>7803</v>
+      </c>
+      <c r="G1250" s="14" t="s">
+        <v>7804</v>
+      </c>
+      <c r="H1250" s="14" t="s">
+        <v>7804</v>
+      </c>
+      <c r="I1250" s="14" t="s">
+        <v>7804</v>
+      </c>
+      <c r="J1250" s="14" t="s">
         <v>7805</v>
       </c>
-      <c r="F1250" s="14" t="s">
-        <v>7806</v>
-      </c>
-      <c r="G1250" s="14" t="s">
-        <v>7807</v>
-      </c>
-      <c r="H1250" s="14" t="s">
-        <v>7807</v>
-      </c>
-      <c r="I1250" s="14" t="s">
-        <v>7807</v>
-      </c>
-      <c r="J1250" s="14" t="s">
-        <v>7808</v>
-      </c>
       <c r="K1250" s="14" t="s">
-        <v>7808</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="1251" spans="2:11">
       <c r="B1251" s="14" t="s">
-        <v>7809</v>
+        <v>7806</v>
       </c>
       <c r="C1251" s="14" t="s">
-        <v>7810</v>
+        <v>7807</v>
       </c>
       <c r="D1251" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1251" s="14" t="s">
+        <v>7808</v>
+      </c>
+      <c r="F1251" s="14" t="s">
+        <v>7809</v>
+      </c>
+      <c r="G1251" s="14" t="s">
+        <v>7810</v>
+      </c>
+      <c r="H1251" s="14" t="s">
+        <v>7810</v>
+      </c>
+      <c r="I1251" s="14" t="s">
+        <v>7810</v>
+      </c>
+      <c r="J1251" s="14" t="s">
         <v>7811</v>
       </c>
-      <c r="F1251" s="14" t="s">
-        <v>7812</v>
-      </c>
-      <c r="G1251" s="14" t="s">
-        <v>7813</v>
-      </c>
-      <c r="H1251" s="14" t="s">
-        <v>7813</v>
-      </c>
-      <c r="I1251" s="14" t="s">
-        <v>7813</v>
-      </c>
-      <c r="J1251" s="14" t="s">
-        <v>7814</v>
-      </c>
       <c r="K1251" s="14" t="s">
-        <v>7814</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="1252" spans="2:11">
       <c r="B1252" s="14" t="s">
-        <v>7815</v>
+        <v>7812</v>
       </c>
       <c r="C1252" s="14" t="s">
-        <v>7816</v>
+        <v>7813</v>
       </c>
       <c r="D1252" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1252" s="14" t="s">
+        <v>7814</v>
+      </c>
+      <c r="F1252" s="14" t="s">
+        <v>7815</v>
+      </c>
+      <c r="G1252" s="14" t="s">
+        <v>7816</v>
+      </c>
+      <c r="H1252" s="14" t="s">
+        <v>7816</v>
+      </c>
+      <c r="I1252" s="14" t="s">
+        <v>7816</v>
+      </c>
+      <c r="J1252" s="14" t="s">
         <v>7817</v>
       </c>
-      <c r="F1252" s="14" t="s">
-        <v>7818</v>
-      </c>
-      <c r="G1252" s="14" t="s">
-        <v>7819</v>
-      </c>
-      <c r="H1252" s="14" t="s">
-        <v>7819</v>
-      </c>
-      <c r="I1252" s="14" t="s">
-        <v>7819</v>
-      </c>
-      <c r="J1252" s="14" t="s">
-        <v>7820</v>
-      </c>
       <c r="K1252" s="14" t="s">
-        <v>7820</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="1253" spans="2:11">
       <c r="B1253" s="14" t="s">
-        <v>7821</v>
+        <v>7818</v>
       </c>
       <c r="C1253" s="14" t="s">
-        <v>7822</v>
+        <v>7819</v>
       </c>
       <c r="D1253" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1253" s="14" t="s">
+        <v>7820</v>
+      </c>
+      <c r="F1253" s="14" t="s">
+        <v>7821</v>
+      </c>
+      <c r="G1253" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="H1253" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="I1253" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="J1253" s="14" t="s">
         <v>7823</v>
       </c>
-      <c r="F1253" s="14" t="s">
-        <v>7824</v>
-      </c>
-      <c r="G1253" s="14" t="s">
-        <v>7825</v>
-      </c>
-      <c r="H1253" s="14" t="s">
-        <v>7825</v>
-      </c>
-      <c r="I1253" s="14" t="s">
-        <v>7825</v>
-      </c>
-      <c r="J1253" s="14" t="s">
-        <v>7826</v>
-      </c>
       <c r="K1253" s="14" t="s">
-        <v>7826</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="1254" spans="2:11">
       <c r="B1254" s="14" t="s">
-        <v>7827</v>
+        <v>7824</v>
       </c>
       <c r="C1254" s="14" t="s">
-        <v>7828</v>
+        <v>7825</v>
       </c>
       <c r="D1254" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1254" s="14" t="s">
+        <v>7826</v>
+      </c>
+      <c r="F1254" s="14" t="s">
+        <v>7827</v>
+      </c>
+      <c r="G1254" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="H1254" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="I1254" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="J1254" s="14" t="s">
         <v>7829</v>
       </c>
-      <c r="F1254" s="14" t="s">
-        <v>7830</v>
-      </c>
-      <c r="G1254" s="14" t="s">
-        <v>7831</v>
-      </c>
-      <c r="H1254" s="14" t="s">
-        <v>7831</v>
-      </c>
-      <c r="I1254" s="14" t="s">
-        <v>7831</v>
-      </c>
-      <c r="J1254" s="14" t="s">
-        <v>7832</v>
-      </c>
       <c r="K1254" s="14" t="s">
-        <v>7832</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="1255" spans="2:11">
       <c r="B1255" s="14" t="s">
-        <v>7833</v>
+        <v>7830</v>
       </c>
       <c r="C1255" s="14" t="s">
-        <v>7834</v>
+        <v>7831</v>
       </c>
       <c r="D1255" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1255" s="14" t="s">
+        <v>7832</v>
+      </c>
+      <c r="F1255" s="14" t="s">
+        <v>7833</v>
+      </c>
+      <c r="G1255" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="H1255" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="I1255" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="J1255" s="14" t="s">
         <v>7835</v>
       </c>
-      <c r="F1255" s="14" t="s">
-        <v>7836</v>
-      </c>
-      <c r="G1255" s="14" t="s">
-        <v>7837</v>
-      </c>
-      <c r="H1255" s="14" t="s">
-        <v>7837</v>
-      </c>
-      <c r="I1255" s="14" t="s">
-        <v>7837</v>
-      </c>
-      <c r="J1255" s="14" t="s">
-        <v>7838</v>
-      </c>
       <c r="K1255" s="14" t="s">
-        <v>7838</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="1256" spans="2:11">
       <c r="B1256" s="14" t="s">
-        <v>7839</v>
+        <v>7836</v>
       </c>
       <c r="C1256" s="14" t="s">
-        <v>7840</v>
+        <v>7837</v>
       </c>
       <c r="D1256" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1256" s="14" t="s">
+        <v>7838</v>
+      </c>
+      <c r="F1256" s="14" t="s">
+        <v>7839</v>
+      </c>
+      <c r="G1256" s="14" t="s">
+        <v>7840</v>
+      </c>
+      <c r="H1256" s="14" t="s">
+        <v>7840</v>
+      </c>
+      <c r="I1256" s="14" t="s">
+        <v>7840</v>
+      </c>
+      <c r="J1256" s="14" t="s">
         <v>7841</v>
       </c>
-      <c r="F1256" s="14" t="s">
-        <v>7842</v>
-      </c>
-      <c r="G1256" s="14" t="s">
-        <v>7843</v>
-      </c>
-      <c r="H1256" s="14" t="s">
-        <v>7843</v>
-      </c>
-      <c r="I1256" s="14" t="s">
-        <v>7843</v>
-      </c>
-      <c r="J1256" s="14" t="s">
-        <v>7844</v>
-      </c>
       <c r="K1256" s="14" t="s">
-        <v>7844</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="1257" spans="2:11">
       <c r="B1257" s="14" t="s">
-        <v>7845</v>
+        <v>7842</v>
       </c>
       <c r="C1257" s="14" t="s">
-        <v>7846</v>
+        <v>7843</v>
       </c>
       <c r="D1257" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1257" s="14" t="s">
+        <v>7844</v>
+      </c>
+      <c r="F1257" s="14" t="s">
+        <v>7845</v>
+      </c>
+      <c r="G1257" s="14" t="s">
+        <v>7846</v>
+      </c>
+      <c r="H1257" s="14" t="s">
+        <v>7846</v>
+      </c>
+      <c r="I1257" s="14" t="s">
+        <v>7846</v>
+      </c>
+      <c r="J1257" s="14" t="s">
         <v>7847</v>
       </c>
-      <c r="F1257" s="14" t="s">
+      <c r="K1257" s="14" t="s">
+        <v>7847</v>
+      </c>
+    </row>
+    <row r="1258" spans="2:11">
+      <c r="B1258" s="14" t="s">
         <v>7848</v>
       </c>
-      <c r="G1257" s="14" t="s">
+      <c r="C1258" s="14" t="s">
         <v>7849</v>
       </c>
-      <c r="H1257" s="14" t="s">
-        <v>7849</v>
-      </c>
-      <c r="I1257" s="14" t="s">
-        <v>7849</v>
-      </c>
-      <c r="J1257" s="14" t="s">
+      <c r="D1258" s="45" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1258" s="14" t="s">
         <v>7850</v>
       </c>
-      <c r="K1257" s="14" t="s">
-        <v>7850</v>
+      <c r="F1258" s="14" t="s">
+        <v>7851</v>
+      </c>
+      <c r="G1258" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="H1258" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="I1258" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="J1258" s="14" t="s">
+        <v>7853</v>
+      </c>
+      <c r="K1258" s="14" t="s">
+        <v>7853</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10335" uniqueCount="7854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10345" uniqueCount="7858">
   <si>
     <t>##var</t>
   </si>
@@ -23353,6 +23353,18 @@
   </si>
   <si>
     <t>lhd_qdbkdj_yw</t>
+  </si>
+  <si>
+    <t>369045</t>
+  </si>
+  <si>
+    <t>续投不可點擊</t>
+  </si>
+  <si>
+    <t>xutou_1_zw</t>
+  </si>
+  <si>
+    <t>xutou_1_yw</t>
   </si>
   <si>
     <t>400057</t>
@@ -25857,10 +25869,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1258"/>
+  <dimension ref="A1:N1259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1170" workbookViewId="0">
-      <selection activeCell="F1192" sqref="F1192"/>
+    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
+      <selection activeCell="H1145" sqref="H1145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -57229,784 +57241,791 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="1163" s="13" customFormat="1" spans="2:11">
-      <c r="B1163" s="13" t="s">
+    <row r="1163" s="13" customFormat="1" spans="1:11">
+      <c r="A1163" s="1"/>
+      <c r="B1163" s="14" t="s">
         <v>7456</v>
       </c>
-      <c r="E1163" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F1163" s="39" t="s">
-        <v>1663</v>
-      </c>
-      <c r="G1163" s="17" t="s">
-        <v>1664</v>
-      </c>
-      <c r="H1163" s="17" t="s">
-        <v>1665</v>
-      </c>
-      <c r="I1163" s="17" t="s">
-        <v>1666</v>
-      </c>
-      <c r="J1163" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K1163" s="1" t="s">
-        <v>1668</v>
+      <c r="C1163" s="1" t="s">
+        <v>7457</v>
+      </c>
+      <c r="D1163" s="45" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1163" s="27" t="s">
+        <v>7458</v>
+      </c>
+      <c r="F1163" s="27" t="s">
+        <v>7459</v>
+      </c>
+      <c r="G1163" s="27" t="s">
+        <v>7459</v>
+      </c>
+      <c r="H1163" s="27" t="s">
+        <v>7459</v>
+      </c>
+      <c r="I1163" s="27" t="s">
+        <v>7459</v>
+      </c>
+      <c r="J1163" s="27" t="s">
+        <v>7459</v>
+      </c>
+      <c r="K1163" s="27" t="s">
+        <v>7459</v>
       </c>
     </row>
     <row r="1164" s="13" customFormat="1" spans="2:11">
       <c r="B1164" s="13" t="s">
-        <v>7457</v>
-      </c>
-      <c r="E1164" s="8" t="s">
+        <v>7460</v>
+      </c>
+      <c r="E1164" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F1164" s="39" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G1164" s="17" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H1164" s="17" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I1164" s="17" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J1164" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K1164" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1165" s="13" customFormat="1" spans="2:11">
+      <c r="B1165" s="13" t="s">
+        <v>7461</v>
+      </c>
+      <c r="E1165" s="8" t="s">
         <v>1670</v>
       </c>
-      <c r="F1164" s="37" t="s">
+      <c r="F1165" s="37" t="s">
         <v>1671</v>
       </c>
-      <c r="G1164" s="38" t="s">
+      <c r="G1165" s="38" t="s">
         <v>1672</v>
       </c>
-      <c r="H1164" s="38" t="s">
+      <c r="H1165" s="38" t="s">
         <v>1673</v>
       </c>
-      <c r="I1164" s="38" t="s">
+      <c r="I1165" s="38" t="s">
         <v>1674</v>
       </c>
-      <c r="J1164" s="8" t="s">
+      <c r="J1165" s="8" t="s">
         <v>1675</v>
       </c>
-      <c r="K1164" s="8" t="s">
+      <c r="K1165" s="8" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="1165" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1165" s="13" t="s">
-        <v>7458</v>
-      </c>
-      <c r="E1165" s="1" t="s">
+    <row r="1166" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1166" s="13" t="s">
+        <v>7462</v>
+      </c>
+      <c r="E1166" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="F1165" s="39" t="s">
+      <c r="F1166" s="39" t="s">
         <v>1679</v>
       </c>
-      <c r="G1165" s="17" t="s">
+      <c r="G1166" s="17" t="s">
         <v>1680</v>
       </c>
-      <c r="H1165" s="17" t="s">
+      <c r="H1166" s="17" t="s">
         <v>1681</v>
       </c>
-      <c r="I1165" s="17" t="s">
+      <c r="I1166" s="17" t="s">
         <v>1682</v>
       </c>
-      <c r="J1165" s="1" t="s">
+      <c r="J1166" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="K1165" s="1" t="s">
+      <c r="K1166" s="1" t="s">
         <v>1684</v>
-      </c>
-    </row>
-    <row r="1166" s="13" customFormat="1" spans="2:11">
-      <c r="B1166" s="13" t="s">
-        <v>7459</v>
-      </c>
-      <c r="E1166" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F1166" s="39" t="s">
-        <v>1687</v>
-      </c>
-      <c r="G1166" s="17" t="s">
-        <v>1688</v>
-      </c>
-      <c r="H1166" s="17" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I1166" s="17" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J1166" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="K1166" s="1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="1167" s="13" customFormat="1" spans="2:11">
       <c r="B1167" s="13" t="s">
-        <v>7460</v>
+        <v>7463</v>
       </c>
       <c r="E1167" s="1" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="F1167" s="39" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="G1167" s="17" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="H1167" s="17" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="I1167" s="17" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="J1167" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="K1167" s="1" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1168" s="13" customFormat="1" spans="2:11">
       <c r="B1168" s="13" t="s">
-        <v>7461</v>
+        <v>7464</v>
       </c>
       <c r="E1168" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="F1168" s="39" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="G1168" s="17" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="H1168" s="17" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="I1168" s="17" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="K1168" s="1" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1169" s="13" customFormat="1" spans="2:11">
       <c r="B1169" s="13" t="s">
-        <v>7462</v>
+        <v>7465</v>
       </c>
       <c r="E1169" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F1169" s="39" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1169" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H1169" s="17" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I1169" s="17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J1169" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K1169" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1170" s="13" customFormat="1" spans="2:11">
+      <c r="B1170" s="13" t="s">
+        <v>7466</v>
+      </c>
+      <c r="E1170" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="F1169" s="39" t="s">
+      <c r="F1170" s="39" t="s">
         <v>1707</v>
       </c>
-      <c r="G1169" s="17" t="s">
+      <c r="G1170" s="17" t="s">
         <v>1708</v>
       </c>
-      <c r="H1169" s="17" t="s">
+      <c r="H1170" s="17" t="s">
         <v>1709</v>
       </c>
-      <c r="I1169" s="17" t="s">
+      <c r="I1170" s="17" t="s">
         <v>1710</v>
       </c>
-      <c r="J1169" s="1" t="s">
+      <c r="J1170" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="K1169" s="1" t="s">
+      <c r="K1170" s="1" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="1170" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1170" s="13" t="s">
-        <v>7463</v>
-      </c>
-      <c r="E1170" s="1" t="s">
+    <row r="1171" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1171" s="13" t="s">
+        <v>7467</v>
+      </c>
+      <c r="E1171" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="F1170" s="39" t="s">
+      <c r="F1171" s="39" t="s">
         <v>1713</v>
       </c>
-      <c r="G1170" s="17" t="s">
+      <c r="G1171" s="17" t="s">
         <v>1714</v>
       </c>
-      <c r="H1170" s="17" t="s">
+      <c r="H1171" s="17" t="s">
         <v>1715</v>
       </c>
-      <c r="I1170" s="17" t="s">
+      <c r="I1171" s="17" t="s">
         <v>1716</v>
       </c>
-      <c r="J1170" s="1" t="s">
+      <c r="J1171" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="K1170" s="1" t="s">
+      <c r="K1171" s="1" t="s">
         <v>1718</v>
-      </c>
-    </row>
-    <row r="1171" s="13" customFormat="1" spans="2:11">
-      <c r="B1171" s="13" t="s">
-        <v>7464</v>
-      </c>
-      <c r="E1171" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1171" s="39" t="s">
-        <v>1721</v>
-      </c>
-      <c r="G1171" s="17" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H1171" s="17" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I1171" s="17" t="s">
-        <v>1721</v>
-      </c>
-      <c r="J1171" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="K1171" s="1" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="1172" s="13" customFormat="1" spans="2:11">
       <c r="B1172" s="13" t="s">
-        <v>7465</v>
+        <v>7468</v>
       </c>
       <c r="E1172" s="1" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="F1172" s="39" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="G1172" s="17" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="H1172" s="17" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="I1172" s="17" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="K1172" s="1" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1173" s="13" customFormat="1" spans="2:11">
       <c r="B1173" s="13" t="s">
-        <v>7466</v>
+        <v>7469</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="F1173" s="39" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="G1173" s="17" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="H1173" s="17" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="I1173" s="17" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="K1173" s="1" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1174" s="13" customFormat="1" spans="2:11">
       <c r="B1174" s="13" t="s">
-        <v>7467</v>
+        <v>7470</v>
       </c>
       <c r="E1174" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F1174" s="39" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G1174" s="17" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H1174" s="17" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I1174" s="17" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J1174" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K1174" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1175" s="13" customFormat="1" spans="2:11">
+      <c r="B1175" s="13" t="s">
+        <v>7471</v>
+      </c>
+      <c r="E1175" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="F1174" s="39" t="s">
+      <c r="F1175" s="39" t="s">
         <v>1744</v>
       </c>
-      <c r="G1174" s="17" t="s">
+      <c r="G1175" s="17" t="s">
         <v>1744</v>
       </c>
-      <c r="H1174" s="17" t="s">
+      <c r="H1175" s="17" t="s">
         <v>1744</v>
       </c>
-      <c r="I1174" s="17" t="s">
+      <c r="I1175" s="17" t="s">
         <v>1745</v>
       </c>
-      <c r="J1174" s="1" t="s">
+      <c r="J1175" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="K1174" s="1" t="s">
+      <c r="K1175" s="1" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="1175" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1175" s="13" t="s">
-        <v>7468</v>
-      </c>
-      <c r="E1175" s="1" t="s">
+    <row r="1176" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1176" s="13" t="s">
+        <v>7472</v>
+      </c>
+      <c r="E1176" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="F1175" s="39" t="s">
+      <c r="F1176" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="G1175" s="39" t="s">
+      <c r="G1176" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="H1175" s="39" t="s">
+      <c r="H1176" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="I1175" s="39" t="s">
+      <c r="I1176" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="J1175" s="39" t="s">
+      <c r="J1176" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="K1175" s="39" t="s">
+      <c r="K1176" s="39" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="1176" s="13" customFormat="1" spans="2:11">
-      <c r="B1176" s="13" t="s">
-        <v>7469</v>
-      </c>
-      <c r="E1176" s="1" t="s">
+    <row r="1177" s="13" customFormat="1" spans="2:11">
+      <c r="B1177" s="13" t="s">
+        <v>7473</v>
+      </c>
+      <c r="E1177" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="F1176" s="39" t="s">
+      <c r="F1177" s="39" t="s">
         <v>1753</v>
       </c>
-      <c r="G1176" s="17" t="s">
+      <c r="G1177" s="17" t="s">
         <v>1754</v>
       </c>
-      <c r="H1176" s="17" t="s">
+      <c r="H1177" s="17" t="s">
         <v>1755</v>
       </c>
-      <c r="I1176" s="17" t="s">
+      <c r="I1177" s="17" t="s">
         <v>1756</v>
       </c>
-      <c r="J1176" s="1" t="s">
+      <c r="J1177" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="K1176" s="1" t="s">
+      <c r="K1177" s="1" t="s">
         <v>1758</v>
-      </c>
-    </row>
-    <row r="1177" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1177" s="13" t="s">
-        <v>7470</v>
-      </c>
-      <c r="E1177" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F1177" s="39" t="s">
-        <v>1761</v>
-      </c>
-      <c r="G1177" s="17" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H1177" s="17" t="s">
-        <v>1763</v>
-      </c>
-      <c r="I1177" s="17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="J1177" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="K1177" s="1" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1178" s="13" customFormat="1" ht="27" spans="2:11">
       <c r="B1178" s="13" t="s">
-        <v>7471</v>
+        <v>7474</v>
       </c>
       <c r="E1178" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F1178" s="39" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G1178" s="17" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H1178" s="17" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I1178" s="17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J1178" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K1178" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1179" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1179" s="13" t="s">
+        <v>7475</v>
+      </c>
+      <c r="E1179" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="F1178" s="39" t="s">
+      <c r="F1179" s="39" t="s">
         <v>1769</v>
       </c>
-      <c r="G1178" s="17" t="s">
+      <c r="G1179" s="17" t="s">
         <v>1770</v>
       </c>
-      <c r="H1178" s="17" t="s">
+      <c r="H1179" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="I1178" s="17" t="s">
+      <c r="I1179" s="17" t="s">
         <v>1772</v>
       </c>
-      <c r="J1178" s="1" t="s">
+      <c r="J1179" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="K1178" s="1" t="s">
+      <c r="K1179" s="1" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="1179" s="13" customFormat="1" spans="2:11">
-      <c r="B1179" s="13" t="s">
-        <v>7472</v>
-      </c>
-      <c r="E1179" s="1" t="s">
+    <row r="1180" s="13" customFormat="1" spans="2:11">
+      <c r="B1180" s="13" t="s">
+        <v>7476</v>
+      </c>
+      <c r="E1180" s="1" t="s">
         <v>1776</v>
       </c>
-      <c r="F1179" s="39" t="s">
+      <c r="F1180" s="39" t="s">
         <v>1777</v>
       </c>
-      <c r="G1179" s="17" t="s">
+      <c r="G1180" s="17" t="s">
         <v>1778</v>
       </c>
-      <c r="H1179" s="17" t="s">
+      <c r="H1180" s="17" t="s">
         <v>1779</v>
       </c>
-      <c r="I1179" s="17" t="s">
+      <c r="I1180" s="17" t="s">
         <v>1780</v>
       </c>
-      <c r="J1179" s="1" t="s">
+      <c r="J1180" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="K1179" s="1" t="s">
+      <c r="K1180" s="1" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="1180" s="13" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B1180" s="13" t="s">
-        <v>7473</v>
-      </c>
-      <c r="E1180" s="1" t="s">
+    <row r="1181" s="13" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B1181" s="13" t="s">
+        <v>7477</v>
+      </c>
+      <c r="E1181" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="F1180" s="39" t="s">
+      <c r="F1181" s="39" t="s">
         <v>1785</v>
       </c>
-      <c r="G1180" s="17" t="s">
+      <c r="G1181" s="17" t="s">
         <v>1786</v>
       </c>
-      <c r="H1180" s="17" t="s">
+      <c r="H1181" s="17" t="s">
         <v>1786</v>
       </c>
-      <c r="I1180" s="42" t="s">
+      <c r="I1181" s="42" t="s">
         <v>1787</v>
       </c>
-      <c r="J1180" s="1" t="s">
+      <c r="J1181" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="K1180" s="1" t="s">
+      <c r="K1181" s="1" t="s">
         <v>1789</v>
-      </c>
-    </row>
-    <row r="1181" s="13" customFormat="1" spans="2:11">
-      <c r="B1181" s="13" t="s">
-        <v>7474</v>
-      </c>
-      <c r="E1181" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F1181" s="39" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G1181" s="17" t="s">
-        <v>1793</v>
-      </c>
-      <c r="H1181" s="17" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I1181" s="17" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J1181" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="K1181" s="1" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="1182" s="13" customFormat="1" spans="2:11">
       <c r="B1182" s="13" t="s">
-        <v>7475</v>
+        <v>7478</v>
       </c>
       <c r="E1182" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F1182" s="1" t="s">
-        <v>1799</v>
+        <v>1791</v>
+      </c>
+      <c r="F1182" s="39" t="s">
+        <v>1792</v>
       </c>
       <c r="G1182" s="17" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="H1182" s="17" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="I1182" s="17" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="J1182" s="1" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="K1182" s="1" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1183" s="13" customFormat="1" spans="2:11">
       <c r="B1183" s="13" t="s">
-        <v>7476</v>
+        <v>7479</v>
       </c>
       <c r="E1183" s="1" t="s">
-        <v>1843</v>
+        <v>1798</v>
       </c>
       <c r="F1183" s="1" t="s">
-        <v>1844</v>
+        <v>1799</v>
       </c>
       <c r="G1183" s="17" t="s">
-        <v>1845</v>
+        <v>1799</v>
       </c>
       <c r="H1183" s="17" t="s">
-        <v>1846</v>
+        <v>1800</v>
       </c>
       <c r="I1183" s="17" t="s">
-        <v>1847</v>
+        <v>1799</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>1848</v>
+        <v>1799</v>
       </c>
       <c r="K1183" s="1" t="s">
-        <v>1844</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1184" s="13" customFormat="1" spans="2:11">
       <c r="B1184" s="13" t="s">
-        <v>7477</v>
-      </c>
-      <c r="E1184" s="14" t="s">
+        <v>7480</v>
+      </c>
+      <c r="E1184" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F1184" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G1184" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H1184" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I1184" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J1184" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="K1184" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1185" s="13" customFormat="1" spans="2:11">
+      <c r="B1185" s="13" t="s">
+        <v>7481</v>
+      </c>
+      <c r="E1185" s="14" t="s">
         <v>1909</v>
       </c>
-      <c r="F1184" s="14" t="s">
+      <c r="F1185" s="14" t="s">
         <v>1910</v>
       </c>
-      <c r="G1184" s="14" t="s">
+      <c r="G1185" s="14" t="s">
         <v>1911</v>
       </c>
-      <c r="H1184" s="14" t="s">
+      <c r="H1185" s="14" t="s">
         <v>1912</v>
       </c>
-      <c r="I1184" s="14" t="s">
+      <c r="I1185" s="14" t="s">
         <v>1913</v>
       </c>
-      <c r="J1184" s="14" t="s">
+      <c r="J1185" s="14" t="s">
         <v>1914</v>
       </c>
-      <c r="K1184" s="14" t="s">
+      <c r="K1185" s="14" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="1185" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1185" s="13" t="s">
-        <v>7478</v>
-      </c>
-      <c r="E1185" s="14" t="s">
+    <row r="1186" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1186" s="13" t="s">
+        <v>7482</v>
+      </c>
+      <c r="E1186" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="F1185" s="14" t="s">
+      <c r="F1186" s="14" t="s">
         <v>1917</v>
       </c>
-      <c r="G1185" s="14" t="s">
+      <c r="G1186" s="14" t="s">
         <v>1918</v>
       </c>
-      <c r="H1185" s="14" t="s">
+      <c r="H1186" s="14" t="s">
         <v>1919</v>
       </c>
-      <c r="I1185" s="14" t="s">
+      <c r="I1186" s="14" t="s">
         <v>1920</v>
       </c>
-      <c r="J1185" s="14" t="s">
+      <c r="J1186" s="14" t="s">
         <v>1921</v>
       </c>
-      <c r="K1185" s="14" t="s">
+      <c r="K1186" s="14" t="s">
         <v>1922</v>
-      </c>
-    </row>
-    <row r="1186" s="13" customFormat="1" spans="2:11">
-      <c r="B1186" s="13" t="s">
-        <v>7479</v>
-      </c>
-      <c r="E1186" s="14" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F1186" s="14" t="s">
-        <v>1925</v>
-      </c>
-      <c r="G1186" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="H1186" s="14" t="s">
-        <v>1927</v>
-      </c>
-      <c r="I1186" s="14" t="s">
-        <v>1928</v>
-      </c>
-      <c r="J1186" s="14" t="s">
-        <v>1929</v>
-      </c>
-      <c r="K1186" s="14" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="1187" s="13" customFormat="1" spans="2:11">
       <c r="B1187" s="13" t="s">
-        <v>7480</v>
+        <v>7483</v>
       </c>
       <c r="E1187" s="14" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="F1187" s="14" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="G1187" s="14" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="H1187" s="14" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="I1187" s="14" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="J1187" s="14" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="K1187" s="14" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1188" s="13" customFormat="1" spans="2:11">
       <c r="B1188" s="13" t="s">
-        <v>7481</v>
-      </c>
-      <c r="E1188" s="41" t="s">
-        <v>1940</v>
+        <v>7484</v>
+      </c>
+      <c r="E1188" s="14" t="s">
+        <v>1932</v>
       </c>
       <c r="F1188" s="14" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="G1188" s="14" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="H1188" s="14" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="I1188" s="14" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="J1188" s="14" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="K1188" s="14" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1189" s="13" customFormat="1" spans="2:11">
       <c r="B1189" s="13" t="s">
-        <v>7482</v>
+        <v>7485</v>
       </c>
       <c r="E1189" s="41" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="F1189" s="14" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="G1189" s="14" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="H1189" s="14" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="I1189" s="14" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="J1189" s="14" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="K1189" s="14" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1190" s="13" customFormat="1" spans="2:11">
       <c r="B1190" s="13" t="s">
-        <v>7483</v>
+        <v>7486</v>
       </c>
       <c r="E1190" s="41" t="s">
-        <v>1959</v>
+        <v>1944</v>
       </c>
       <c r="F1190" s="14" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="G1190" s="14" t="s">
-        <v>1961</v>
+        <v>1946</v>
       </c>
       <c r="H1190" s="14" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="I1190" s="14" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="J1190" s="14" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="K1190" s="14" t="s">
-        <v>1963</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1191" s="13" customFormat="1" spans="2:11">
       <c r="B1191" s="13" t="s">
-        <v>7484</v>
+        <v>7487</v>
       </c>
       <c r="E1191" s="41" t="s">
-        <v>1867</v>
+        <v>1959</v>
       </c>
       <c r="F1191" s="14" t="s">
-        <v>1868</v>
+        <v>1960</v>
       </c>
       <c r="G1191" s="14" t="s">
-        <v>1869</v>
+        <v>1961</v>
       </c>
       <c r="H1191" s="14" t="s">
-        <v>1870</v>
+        <v>1960</v>
       </c>
       <c r="I1191" s="14" t="s">
-        <v>1871</v>
+        <v>1960</v>
       </c>
       <c r="J1191" s="14" t="s">
-        <v>1872</v>
+        <v>1962</v>
       </c>
       <c r="K1191" s="14" t="s">
-        <v>1872</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1192" s="13" customFormat="1" spans="2:11">
       <c r="B1192" s="13" t="s">
-        <v>7485</v>
+        <v>7488</v>
       </c>
       <c r="E1192" s="41" t="s">
-        <v>7486</v>
+        <v>1867</v>
       </c>
       <c r="F1192" s="14" t="s">
-        <v>7487</v>
+        <v>1868</v>
       </c>
       <c r="G1192" s="14" t="s">
-        <v>7487</v>
+        <v>1869</v>
       </c>
       <c r="H1192" s="14" t="s">
-        <v>7487</v>
+        <v>1870</v>
       </c>
       <c r="I1192" s="14" t="s">
-        <v>7487</v>
+        <v>1871</v>
       </c>
       <c r="J1192" s="14" t="s">
-        <v>7488</v>
+        <v>1872</v>
       </c>
       <c r="K1192" s="14" t="s">
-        <v>7488</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1193" s="13" customFormat="1" spans="2:11">
@@ -58029,181 +58048,175 @@
         <v>7491</v>
       </c>
       <c r="J1193" s="14" t="s">
-        <v>7491</v>
+        <v>7492</v>
       </c>
       <c r="K1193" s="14" t="s">
-        <v>7491</v>
-      </c>
-    </row>
-    <row r="1194" s="7" customFormat="1" ht="162" spans="2:11">
-      <c r="B1194" s="7" t="s">
         <v>7492</v>
       </c>
-      <c r="C1194" s="7" t="s">
+    </row>
+    <row r="1194" s="13" customFormat="1" spans="2:11">
+      <c r="B1194" s="13" t="s">
         <v>7493</v>
       </c>
-      <c r="E1194" s="7" t="s">
+      <c r="E1194" s="41" t="s">
         <v>7494</v>
       </c>
-      <c r="F1194" s="7" t="s">
+      <c r="F1194" s="14" t="s">
         <v>7495</v>
       </c>
-      <c r="G1194" s="7" t="s">
+      <c r="G1194" s="14" t="s">
+        <v>7495</v>
+      </c>
+      <c r="H1194" s="14" t="s">
+        <v>7495</v>
+      </c>
+      <c r="I1194" s="14" t="s">
+        <v>7495</v>
+      </c>
+      <c r="J1194" s="14" t="s">
+        <v>7495</v>
+      </c>
+      <c r="K1194" s="14" t="s">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="1195" s="7" customFormat="1" ht="162" spans="2:11">
+      <c r="B1195" s="7" t="s">
         <v>7496</v>
       </c>
-      <c r="H1194" s="7" t="s">
+      <c r="C1195" s="7" t="s">
         <v>7497</v>
       </c>
-      <c r="I1194" s="7" t="s">
+      <c r="E1195" s="7" t="s">
         <v>7498</v>
       </c>
-      <c r="J1194" s="7" t="s">
+      <c r="F1195" s="7" t="s">
         <v>7499</v>
       </c>
-      <c r="K1194" s="7" t="s">
+      <c r="G1195" s="7" t="s">
         <v>7500</v>
       </c>
-    </row>
-    <row r="1195" ht="297" spans="2:11">
-      <c r="B1195" s="14" t="s">
+      <c r="H1195" s="7" t="s">
         <v>7501</v>
       </c>
-      <c r="C1195" s="14" t="s">
+      <c r="I1195" s="7" t="s">
         <v>7502</v>
       </c>
-      <c r="E1195" s="27" t="s">
+      <c r="J1195" s="7" t="s">
         <v>7503</v>
       </c>
-      <c r="F1195" s="14" t="s">
+      <c r="K1195" s="7" t="s">
         <v>7504</v>
       </c>
-      <c r="G1195" s="14" t="s">
+    </row>
+    <row r="1196" ht="297" spans="2:11">
+      <c r="B1196" s="14" t="s">
         <v>7505</v>
       </c>
-      <c r="H1195" s="14" t="s">
+      <c r="C1196" s="14" t="s">
         <v>7506</v>
       </c>
-      <c r="I1195" s="14" t="s">
+      <c r="E1196" s="27" t="s">
         <v>7507</v>
       </c>
-      <c r="J1195" s="14" t="s">
+      <c r="F1196" s="14" t="s">
         <v>7508</v>
       </c>
-      <c r="K1195" s="14" t="s">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="1196" s="2" customFormat="1" spans="2:11">
-      <c r="B1196" s="1" t="s">
+      <c r="G1196" s="14" t="s">
         <v>7509</v>
       </c>
-      <c r="C1196" s="1" t="s">
+      <c r="H1196" s="14" t="s">
         <v>7510</v>
       </c>
-      <c r="D1196" s="45" t="s">
-        <v>3050</v>
-      </c>
-      <c r="E1196" s="39" t="s">
+      <c r="I1196" s="14" t="s">
         <v>7511</v>
       </c>
-      <c r="F1196" s="39" t="s">
+      <c r="J1196" s="14" t="s">
         <v>7512</v>
       </c>
-      <c r="G1196" s="39" t="s">
+      <c r="K1196" s="14" t="s">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="1197" s="2" customFormat="1" spans="2:11">
+      <c r="B1197" s="1" t="s">
         <v>7513</v>
       </c>
-      <c r="H1196" s="39" t="s">
-        <v>7513</v>
-      </c>
-      <c r="I1196" s="39" t="s">
-        <v>7513</v>
-      </c>
-      <c r="J1196" s="39" t="s">
+      <c r="C1197" s="1" t="s">
         <v>7514</v>
-      </c>
-      <c r="K1196" s="39" t="s">
-        <v>7514</v>
-      </c>
-    </row>
-    <row r="1197" spans="2:11">
-      <c r="B1197" s="1" t="s">
-        <v>7515</v>
-      </c>
-      <c r="C1197" s="14" t="s">
-        <v>7516</v>
       </c>
       <c r="D1197" s="45" t="s">
         <v>3050</v>
       </c>
-      <c r="E1197" s="14" t="s">
+      <c r="E1197" s="39" t="s">
+        <v>7515</v>
+      </c>
+      <c r="F1197" s="39" t="s">
+        <v>7516</v>
+      </c>
+      <c r="G1197" s="39" t="s">
         <v>7517</v>
       </c>
-      <c r="F1197" s="14" t="s">
+      <c r="H1197" s="39" t="s">
+        <v>7517</v>
+      </c>
+      <c r="I1197" s="39" t="s">
+        <v>7517</v>
+      </c>
+      <c r="J1197" s="39" t="s">
         <v>7518</v>
       </c>
-      <c r="G1197" s="14" t="s">
-        <v>7519</v>
-      </c>
-      <c r="H1197" s="14" t="s">
-        <v>7519</v>
-      </c>
-      <c r="I1197" s="14" t="s">
-        <v>7519</v>
-      </c>
-      <c r="J1197" s="14" t="s">
-        <v>7520</v>
-      </c>
-      <c r="K1197" s="14" t="s">
-        <v>7520</v>
+      <c r="K1197" s="39" t="s">
+        <v>7518</v>
       </c>
     </row>
     <row r="1198" spans="2:11">
       <c r="B1198" s="1" t="s">
-        <v>7521</v>
+        <v>7519</v>
       </c>
       <c r="C1198" s="14" t="s">
-        <v>7522</v>
+        <v>7520</v>
       </c>
       <c r="D1198" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1198" s="14" t="s">
+        <v>7521</v>
+      </c>
+      <c r="F1198" s="14" t="s">
+        <v>7522</v>
+      </c>
+      <c r="G1198" s="14" t="s">
         <v>7523</v>
       </c>
-      <c r="F1198" s="14" t="s">
+      <c r="H1198" s="14" t="s">
+        <v>7523</v>
+      </c>
+      <c r="I1198" s="14" t="s">
+        <v>7523</v>
+      </c>
+      <c r="J1198" s="14" t="s">
         <v>7524</v>
       </c>
-      <c r="G1198" s="14" t="s">
-        <v>7525</v>
-      </c>
-      <c r="H1198" s="14" t="s">
-        <v>7525</v>
-      </c>
-      <c r="I1198" s="14" t="s">
-        <v>7525</v>
-      </c>
-      <c r="J1198" s="14" t="s">
-        <v>7526</v>
-      </c>
       <c r="K1198" s="14" t="s">
-        <v>7526</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="1199" spans="2:11">
       <c r="B1199" s="1" t="s">
-        <v>7527</v>
+        <v>7525</v>
       </c>
       <c r="C1199" s="14" t="s">
-        <v>7528</v>
+        <v>7526</v>
       </c>
       <c r="D1199" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1199" s="14" t="s">
-        <v>7529</v>
+        <v>7527</v>
       </c>
       <c r="F1199" s="14" t="s">
-        <v>7529</v>
+        <v>7528</v>
       </c>
       <c r="G1199" s="14" t="s">
         <v>7529</v>
@@ -58215,1898 +58228,1930 @@
         <v>7529</v>
       </c>
       <c r="J1199" s="14" t="s">
-        <v>7529</v>
+        <v>7530</v>
       </c>
       <c r="K1199" s="14" t="s">
-        <v>7529</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="1200" spans="2:11">
       <c r="B1200" s="1" t="s">
-        <v>7530</v>
+        <v>7531</v>
       </c>
       <c r="C1200" s="14" t="s">
-        <v>7531</v>
+        <v>7532</v>
       </c>
       <c r="D1200" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1200" s="14" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="F1200" s="14" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="G1200" s="14" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="H1200" s="14" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="I1200" s="14" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="J1200" s="14" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
       <c r="K1200" s="14" t="s">
-        <v>7532</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="1201" spans="2:11">
       <c r="B1201" s="1" t="s">
-        <v>7533</v>
+        <v>7534</v>
       </c>
       <c r="C1201" s="14" t="s">
-        <v>7534</v>
+        <v>7535</v>
       </c>
       <c r="D1201" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1201" s="14" t="s">
-        <v>7535</v>
+        <v>7536</v>
       </c>
       <c r="F1201" s="14" t="s">
-        <v>7535</v>
+        <v>7536</v>
       </c>
       <c r="G1201" s="14" t="s">
-        <v>7535</v>
+        <v>7536</v>
       </c>
       <c r="H1201" s="14" t="s">
-        <v>7535</v>
+        <v>7536</v>
       </c>
       <c r="I1201" s="14" t="s">
-        <v>7535</v>
+        <v>7536</v>
       </c>
       <c r="J1201" s="14" t="s">
-        <v>7535</v>
+        <v>7536</v>
       </c>
       <c r="K1201" s="14" t="s">
-        <v>7535</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="1202" spans="2:11">
-      <c r="B1202" s="14" t="s">
-        <v>7536</v>
+      <c r="B1202" s="1" t="s">
+        <v>7537</v>
       </c>
       <c r="C1202" s="14" t="s">
-        <v>7537</v>
+        <v>7538</v>
       </c>
       <c r="D1202" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1202" s="14" t="s">
-        <v>7538</v>
+        <v>7539</v>
       </c>
       <c r="F1202" s="14" t="s">
         <v>7539</v>
       </c>
       <c r="G1202" s="14" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="H1202" s="14" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="I1202" s="14" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="J1202" s="14" t="s">
-        <v>7541</v>
+        <v>7539</v>
       </c>
       <c r="K1202" s="14" t="s">
-        <v>7541</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="1203" spans="2:11">
       <c r="B1203" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="C1203" s="14" t="s">
-        <v>7543</v>
+        <v>7541</v>
       </c>
       <c r="D1203" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1203" s="14" t="s">
+        <v>7542</v>
+      </c>
+      <c r="F1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+      <c r="G1203" s="14" t="s">
         <v>7544</v>
       </c>
-      <c r="F1203" s="14" t="s">
+      <c r="H1203" s="14" t="s">
+        <v>7544</v>
+      </c>
+      <c r="I1203" s="14" t="s">
+        <v>7544</v>
+      </c>
+      <c r="J1203" s="14" t="s">
         <v>7545</v>
       </c>
-      <c r="G1203" s="14" t="s">
-        <v>7546</v>
-      </c>
-      <c r="H1203" s="14" t="s">
-        <v>7546</v>
-      </c>
-      <c r="I1203" s="14" t="s">
-        <v>7546</v>
-      </c>
-      <c r="J1203" s="14" t="s">
-        <v>7547</v>
-      </c>
       <c r="K1203" s="14" t="s">
-        <v>7547</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="1204" spans="2:11">
       <c r="B1204" s="14" t="s">
-        <v>7548</v>
+        <v>7546</v>
       </c>
       <c r="C1204" s="14" t="s">
-        <v>7549</v>
+        <v>7547</v>
       </c>
       <c r="D1204" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1204" s="14" t="s">
+        <v>7548</v>
+      </c>
+      <c r="F1204" s="14" t="s">
+        <v>7549</v>
+      </c>
+      <c r="G1204" s="14" t="s">
         <v>7550</v>
       </c>
-      <c r="F1204" s="14" t="s">
+      <c r="H1204" s="14" t="s">
+        <v>7550</v>
+      </c>
+      <c r="I1204" s="14" t="s">
+        <v>7550</v>
+      </c>
+      <c r="J1204" s="14" t="s">
         <v>7551</v>
       </c>
-      <c r="G1204" s="14" t="s">
-        <v>7552</v>
-      </c>
-      <c r="H1204" s="14" t="s">
-        <v>7552</v>
-      </c>
-      <c r="I1204" s="14" t="s">
-        <v>7552</v>
-      </c>
-      <c r="J1204" s="14" t="s">
-        <v>7553</v>
-      </c>
       <c r="K1204" s="14" t="s">
-        <v>7553</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="1205" spans="2:11">
       <c r="B1205" s="14" t="s">
-        <v>7554</v>
+        <v>7552</v>
       </c>
       <c r="C1205" s="14" t="s">
-        <v>7555</v>
+        <v>7553</v>
       </c>
       <c r="D1205" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1205" s="14" t="s">
+        <v>7554</v>
+      </c>
+      <c r="F1205" s="14" t="s">
+        <v>7555</v>
+      </c>
+      <c r="G1205" s="14" t="s">
         <v>7556</v>
       </c>
-      <c r="F1205" s="14" t="s">
+      <c r="H1205" s="14" t="s">
+        <v>7556</v>
+      </c>
+      <c r="I1205" s="14" t="s">
+        <v>7556</v>
+      </c>
+      <c r="J1205" s="14" t="s">
         <v>7557</v>
       </c>
-      <c r="G1205" s="14" t="s">
-        <v>7558</v>
-      </c>
-      <c r="H1205" s="14" t="s">
-        <v>7558</v>
-      </c>
-      <c r="I1205" s="14" t="s">
-        <v>7558</v>
-      </c>
-      <c r="J1205" s="14" t="s">
-        <v>7559</v>
-      </c>
       <c r="K1205" s="14" t="s">
-        <v>7559</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="1206" spans="2:11">
       <c r="B1206" s="14" t="s">
-        <v>7560</v>
+        <v>7558</v>
       </c>
       <c r="C1206" s="14" t="s">
-        <v>7561</v>
+        <v>7559</v>
       </c>
       <c r="D1206" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1206" s="14" t="s">
+        <v>7560</v>
+      </c>
+      <c r="F1206" s="14" t="s">
+        <v>7561</v>
+      </c>
+      <c r="G1206" s="14" t="s">
         <v>7562</v>
       </c>
-      <c r="F1206" s="14" t="s">
+      <c r="H1206" s="14" t="s">
+        <v>7562</v>
+      </c>
+      <c r="I1206" s="14" t="s">
+        <v>7562</v>
+      </c>
+      <c r="J1206" s="14" t="s">
         <v>7563</v>
       </c>
-      <c r="G1206" s="14" t="s">
-        <v>7564</v>
-      </c>
-      <c r="H1206" s="14" t="s">
-        <v>7564</v>
-      </c>
-      <c r="I1206" s="14" t="s">
-        <v>7564</v>
-      </c>
-      <c r="J1206" s="14" t="s">
-        <v>7565</v>
-      </c>
       <c r="K1206" s="14" t="s">
-        <v>7565</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="1207" spans="2:11">
       <c r="B1207" s="14" t="s">
-        <v>7566</v>
+        <v>7564</v>
       </c>
       <c r="C1207" s="14" t="s">
-        <v>7567</v>
+        <v>7565</v>
       </c>
       <c r="D1207" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1207" s="14" t="s">
+        <v>7566</v>
+      </c>
+      <c r="F1207" s="14" t="s">
+        <v>7567</v>
+      </c>
+      <c r="G1207" s="14" t="s">
         <v>7568</v>
       </c>
-      <c r="F1207" s="14" t="s">
+      <c r="H1207" s="14" t="s">
+        <v>7568</v>
+      </c>
+      <c r="I1207" s="14" t="s">
+        <v>7568</v>
+      </c>
+      <c r="J1207" s="14" t="s">
         <v>7569</v>
       </c>
-      <c r="G1207" s="14" t="s">
-        <v>7570</v>
-      </c>
-      <c r="H1207" s="14" t="s">
-        <v>7570</v>
-      </c>
-      <c r="I1207" s="14" t="s">
-        <v>7570</v>
-      </c>
-      <c r="J1207" s="14" t="s">
-        <v>7571</v>
-      </c>
       <c r="K1207" s="14" t="s">
-        <v>7571</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="1208" spans="2:11">
       <c r="B1208" s="14" t="s">
-        <v>7572</v>
-      </c>
-      <c r="C1208" s="1" t="s">
-        <v>1662</v>
+        <v>7570</v>
+      </c>
+      <c r="C1208" s="14" t="s">
+        <v>7571</v>
       </c>
       <c r="D1208" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1208" s="14" t="s">
+        <v>7572</v>
+      </c>
+      <c r="F1208" s="14" t="s">
         <v>7573</v>
       </c>
-      <c r="F1208" s="14" t="s">
+      <c r="G1208" s="14" t="s">
         <v>7574</v>
       </c>
-      <c r="G1208" s="14" t="s">
+      <c r="H1208" s="14" t="s">
+        <v>7574</v>
+      </c>
+      <c r="I1208" s="14" t="s">
+        <v>7574</v>
+      </c>
+      <c r="J1208" s="14" t="s">
         <v>7575</v>
       </c>
-      <c r="H1208" s="14" t="s">
+      <c r="K1208" s="14" t="s">
         <v>7575</v>
-      </c>
-      <c r="I1208" s="14" t="s">
-        <v>7575</v>
-      </c>
-      <c r="J1208" s="14" t="s">
-        <v>7576</v>
-      </c>
-      <c r="K1208" s="14" t="s">
-        <v>7576</v>
       </c>
     </row>
     <row r="1209" spans="2:11">
       <c r="B1209" s="14" t="s">
-        <v>7577</v>
+        <v>7576</v>
       </c>
       <c r="C1209" s="1" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="D1209" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1209" s="14" t="s">
+        <v>7577</v>
+      </c>
+      <c r="F1209" s="14" t="s">
         <v>7578</v>
       </c>
-      <c r="F1209" s="14" t="s">
+      <c r="G1209" s="14" t="s">
         <v>7579</v>
       </c>
-      <c r="G1209" s="14" t="s">
+      <c r="H1209" s="14" t="s">
+        <v>7579</v>
+      </c>
+      <c r="I1209" s="14" t="s">
+        <v>7579</v>
+      </c>
+      <c r="J1209" s="14" t="s">
         <v>7580</v>
       </c>
-      <c r="H1209" s="14" t="s">
+      <c r="K1209" s="14" t="s">
         <v>7580</v>
-      </c>
-      <c r="I1209" s="14" t="s">
-        <v>7580</v>
-      </c>
-      <c r="J1209" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="K1209" s="14" t="s">
-        <v>7581</v>
       </c>
     </row>
     <row r="1210" spans="2:11">
       <c r="B1210" s="14" t="s">
-        <v>7582</v>
+        <v>7581</v>
       </c>
       <c r="C1210" s="1" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="D1210" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1210" s="14" t="s">
+        <v>7582</v>
+      </c>
+      <c r="F1210" s="14" t="s">
         <v>7583</v>
       </c>
-      <c r="F1210" s="14" t="s">
+      <c r="G1210" s="14" t="s">
         <v>7584</v>
       </c>
-      <c r="G1210" s="14" t="s">
+      <c r="H1210" s="14" t="s">
+        <v>7584</v>
+      </c>
+      <c r="I1210" s="14" t="s">
+        <v>7584</v>
+      </c>
+      <c r="J1210" s="14" t="s">
         <v>7585</v>
       </c>
-      <c r="H1210" s="14" t="s">
+      <c r="K1210" s="14" t="s">
         <v>7585</v>
-      </c>
-      <c r="I1210" s="14" t="s">
-        <v>7585</v>
-      </c>
-      <c r="J1210" s="14" t="s">
-        <v>7586</v>
-      </c>
-      <c r="K1210" s="14" t="s">
-        <v>7586</v>
       </c>
     </row>
     <row r="1211" spans="2:11">
       <c r="B1211" s="14" t="s">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="D1211" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1211" s="14" t="s">
+        <v>7587</v>
+      </c>
+      <c r="F1211" s="14" t="s">
         <v>7588</v>
       </c>
-      <c r="F1211" s="14" t="s">
+      <c r="G1211" s="14" t="s">
         <v>7589</v>
       </c>
-      <c r="G1211" s="14" t="s">
+      <c r="H1211" s="14" t="s">
+        <v>7589</v>
+      </c>
+      <c r="I1211" s="14" t="s">
+        <v>7589</v>
+      </c>
+      <c r="J1211" s="14" t="s">
         <v>7590</v>
       </c>
-      <c r="H1211" s="14" t="s">
+      <c r="K1211" s="14" t="s">
         <v>7590</v>
-      </c>
-      <c r="I1211" s="14" t="s">
-        <v>7590</v>
-      </c>
-      <c r="J1211" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="K1211" s="14" t="s">
-        <v>7591</v>
       </c>
     </row>
     <row r="1212" spans="2:11">
       <c r="B1212" s="14" t="s">
-        <v>7592</v>
+        <v>7591</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="D1212" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1212" s="14" t="s">
+        <v>7592</v>
+      </c>
+      <c r="F1212" s="14" t="s">
         <v>7593</v>
       </c>
-      <c r="F1212" s="14" t="s">
+      <c r="G1212" s="14" t="s">
         <v>7594</v>
       </c>
-      <c r="G1212" s="14" t="s">
+      <c r="H1212" s="14" t="s">
+        <v>7594</v>
+      </c>
+      <c r="I1212" s="14" t="s">
+        <v>7594</v>
+      </c>
+      <c r="J1212" s="14" t="s">
         <v>7595</v>
       </c>
-      <c r="H1212" s="14" t="s">
+      <c r="K1212" s="14" t="s">
         <v>7595</v>
-      </c>
-      <c r="I1212" s="14" t="s">
-        <v>7595</v>
-      </c>
-      <c r="J1212" s="14" t="s">
-        <v>7596</v>
-      </c>
-      <c r="K1212" s="14" t="s">
-        <v>7596</v>
       </c>
     </row>
     <row r="1213" spans="2:11">
       <c r="B1213" s="14" t="s">
-        <v>7597</v>
+        <v>7596</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="D1213" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1213" s="14" t="s">
+        <v>7597</v>
+      </c>
+      <c r="F1213" s="14" t="s">
         <v>7598</v>
       </c>
-      <c r="F1213" s="14" t="s">
+      <c r="G1213" s="14" t="s">
         <v>7599</v>
       </c>
-      <c r="G1213" s="14" t="s">
+      <c r="H1213" s="14" t="s">
+        <v>7599</v>
+      </c>
+      <c r="I1213" s="14" t="s">
+        <v>7599</v>
+      </c>
+      <c r="J1213" s="14" t="s">
         <v>7600</v>
       </c>
-      <c r="H1213" s="14" t="s">
+      <c r="K1213" s="14" t="s">
         <v>7600</v>
-      </c>
-      <c r="I1213" s="14" t="s">
-        <v>7600</v>
-      </c>
-      <c r="J1213" s="14" t="s">
-        <v>7601</v>
-      </c>
-      <c r="K1213" s="14" t="s">
-        <v>7601</v>
       </c>
     </row>
     <row r="1214" spans="2:11">
       <c r="B1214" s="14" t="s">
-        <v>7602</v>
+        <v>7601</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="D1214" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1214" s="14" t="s">
+        <v>7602</v>
+      </c>
+      <c r="F1214" s="14" t="s">
         <v>7603</v>
       </c>
-      <c r="F1214" s="14" t="s">
+      <c r="G1214" s="14" t="s">
         <v>7604</v>
       </c>
-      <c r="G1214" s="14" t="s">
+      <c r="H1214" s="14" t="s">
+        <v>7604</v>
+      </c>
+      <c r="I1214" s="14" t="s">
+        <v>7604</v>
+      </c>
+      <c r="J1214" s="14" t="s">
         <v>7605</v>
       </c>
-      <c r="H1214" s="14" t="s">
+      <c r="K1214" s="14" t="s">
         <v>7605</v>
-      </c>
-      <c r="I1214" s="14" t="s">
-        <v>7605</v>
-      </c>
-      <c r="J1214" s="14" t="s">
-        <v>7606</v>
-      </c>
-      <c r="K1214" s="14" t="s">
-        <v>7606</v>
       </c>
     </row>
     <row r="1215" spans="2:11">
       <c r="B1215" s="14" t="s">
-        <v>7607</v>
+        <v>7606</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="D1215" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1215" s="14" t="s">
+        <v>7607</v>
+      </c>
+      <c r="F1215" s="14" t="s">
         <v>7608</v>
       </c>
-      <c r="F1215" s="14" t="s">
+      <c r="G1215" s="14" t="s">
         <v>7609</v>
       </c>
-      <c r="G1215" s="14" t="s">
+      <c r="H1215" s="14" t="s">
+        <v>7609</v>
+      </c>
+      <c r="I1215" s="14" t="s">
+        <v>7609</v>
+      </c>
+      <c r="J1215" s="14" t="s">
         <v>7610</v>
       </c>
-      <c r="H1215" s="14" t="s">
+      <c r="K1215" s="14" t="s">
         <v>7610</v>
-      </c>
-      <c r="I1215" s="14" t="s">
-        <v>7610</v>
-      </c>
-      <c r="J1215" s="14" t="s">
-        <v>7611</v>
-      </c>
-      <c r="K1215" s="14" t="s">
-        <v>7611</v>
       </c>
     </row>
     <row r="1216" spans="2:11">
       <c r="B1216" s="14" t="s">
-        <v>7612</v>
+        <v>7611</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="D1216" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1216" s="14" t="s">
+        <v>7612</v>
+      </c>
+      <c r="F1216" s="14" t="s">
         <v>7613</v>
       </c>
-      <c r="F1216" s="14" t="s">
+      <c r="G1216" s="14" t="s">
         <v>7614</v>
       </c>
-      <c r="G1216" s="14" t="s">
+      <c r="H1216" s="14" t="s">
+        <v>7614</v>
+      </c>
+      <c r="I1216" s="14" t="s">
+        <v>7614</v>
+      </c>
+      <c r="J1216" s="14" t="s">
         <v>7615</v>
       </c>
-      <c r="H1216" s="14" t="s">
+      <c r="K1216" s="14" t="s">
         <v>7615</v>
-      </c>
-      <c r="I1216" s="14" t="s">
-        <v>7615</v>
-      </c>
-      <c r="J1216" s="14" t="s">
-        <v>7616</v>
-      </c>
-      <c r="K1216" s="14" t="s">
-        <v>7616</v>
       </c>
     </row>
     <row r="1217" spans="2:11">
       <c r="B1217" s="14" t="s">
-        <v>7617</v>
+        <v>7616</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="D1217" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1217" s="14" t="s">
+        <v>7617</v>
+      </c>
+      <c r="F1217" s="14" t="s">
         <v>7618</v>
       </c>
-      <c r="F1217" s="14" t="s">
+      <c r="G1217" s="14" t="s">
         <v>7619</v>
       </c>
-      <c r="G1217" s="14" t="s">
+      <c r="H1217" s="14" t="s">
+        <v>7619</v>
+      </c>
+      <c r="I1217" s="14" t="s">
+        <v>7619</v>
+      </c>
+      <c r="J1217" s="14" t="s">
         <v>7620</v>
       </c>
-      <c r="H1217" s="14" t="s">
+      <c r="K1217" s="14" t="s">
         <v>7620</v>
-      </c>
-      <c r="I1217" s="14" t="s">
-        <v>7620</v>
-      </c>
-      <c r="J1217" s="14" t="s">
-        <v>7621</v>
-      </c>
-      <c r="K1217" s="14" t="s">
-        <v>7621</v>
       </c>
     </row>
     <row r="1218" spans="2:11">
       <c r="B1218" s="14" t="s">
-        <v>7622</v>
+        <v>7621</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D1218" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1218" s="14" t="s">
+        <v>7622</v>
+      </c>
+      <c r="F1218" s="14" t="s">
         <v>7623</v>
       </c>
-      <c r="F1218" s="14" t="s">
+      <c r="G1218" s="14" t="s">
         <v>7624</v>
       </c>
-      <c r="G1218" s="14" t="s">
+      <c r="H1218" s="14" t="s">
+        <v>7624</v>
+      </c>
+      <c r="I1218" s="14" t="s">
+        <v>7624</v>
+      </c>
+      <c r="J1218" s="14" t="s">
         <v>7625</v>
       </c>
-      <c r="H1218" s="14" t="s">
+      <c r="K1218" s="14" t="s">
         <v>7625</v>
-      </c>
-      <c r="I1218" s="14" t="s">
-        <v>7625</v>
-      </c>
-      <c r="J1218" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="K1218" s="14" t="s">
-        <v>7626</v>
       </c>
     </row>
     <row r="1219" spans="2:11">
       <c r="B1219" s="14" t="s">
-        <v>7627</v>
+        <v>7626</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="D1219" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1219" s="14" t="s">
+        <v>7627</v>
+      </c>
+      <c r="F1219" s="14" t="s">
         <v>7628</v>
       </c>
-      <c r="F1219" s="14" t="s">
+      <c r="G1219" s="14" t="s">
         <v>7629</v>
       </c>
-      <c r="G1219" s="14" t="s">
+      <c r="H1219" s="14" t="s">
+        <v>7629</v>
+      </c>
+      <c r="I1219" s="14" t="s">
+        <v>7629</v>
+      </c>
+      <c r="J1219" s="14" t="s">
         <v>7630</v>
       </c>
-      <c r="H1219" s="14" t="s">
+      <c r="K1219" s="14" t="s">
         <v>7630</v>
-      </c>
-      <c r="I1219" s="14" t="s">
-        <v>7630</v>
-      </c>
-      <c r="J1219" s="14" t="s">
-        <v>7631</v>
-      </c>
-      <c r="K1219" s="14" t="s">
-        <v>7631</v>
       </c>
     </row>
     <row r="1220" spans="2:11">
       <c r="B1220" s="14" t="s">
-        <v>7632</v>
+        <v>7631</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D1220" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1220" s="14" t="s">
+        <v>7632</v>
+      </c>
+      <c r="F1220" s="14" t="s">
         <v>7633</v>
       </c>
-      <c r="F1220" s="14" t="s">
+      <c r="G1220" s="14" t="s">
         <v>7634</v>
       </c>
-      <c r="G1220" s="14" t="s">
+      <c r="H1220" s="14" t="s">
+        <v>7634</v>
+      </c>
+      <c r="I1220" s="14" t="s">
+        <v>7634</v>
+      </c>
+      <c r="J1220" s="14" t="s">
         <v>7635</v>
       </c>
-      <c r="H1220" s="14" t="s">
+      <c r="K1220" s="14" t="s">
         <v>7635</v>
-      </c>
-      <c r="I1220" s="14" t="s">
-        <v>7635</v>
-      </c>
-      <c r="J1220" s="14" t="s">
-        <v>7636</v>
-      </c>
-      <c r="K1220" s="14" t="s">
-        <v>7636</v>
       </c>
     </row>
     <row r="1221" spans="2:11">
       <c r="B1221" s="14" t="s">
-        <v>7637</v>
+        <v>7636</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="D1221" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1221" s="14" t="s">
+        <v>7637</v>
+      </c>
+      <c r="F1221" s="14" t="s">
         <v>7638</v>
       </c>
-      <c r="F1221" s="14" t="s">
+      <c r="G1221" s="14" t="s">
         <v>7639</v>
       </c>
-      <c r="G1221" s="14" t="s">
+      <c r="H1221" s="14" t="s">
+        <v>7639</v>
+      </c>
+      <c r="I1221" s="14" t="s">
+        <v>7639</v>
+      </c>
+      <c r="J1221" s="14" t="s">
         <v>7640</v>
       </c>
-      <c r="H1221" s="14" t="s">
+      <c r="K1221" s="14" t="s">
         <v>7640</v>
-      </c>
-      <c r="I1221" s="14" t="s">
-        <v>7640</v>
-      </c>
-      <c r="J1221" s="14" t="s">
-        <v>7641</v>
-      </c>
-      <c r="K1221" s="14" t="s">
-        <v>7641</v>
       </c>
     </row>
     <row r="1222" spans="2:11">
       <c r="B1222" s="14" t="s">
-        <v>7642</v>
+        <v>7641</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="D1222" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1222" s="14" t="s">
+        <v>7642</v>
+      </c>
+      <c r="F1222" s="14" t="s">
         <v>7643</v>
       </c>
-      <c r="F1222" s="14" t="s">
+      <c r="G1222" s="14" t="s">
         <v>7644</v>
       </c>
-      <c r="G1222" s="14" t="s">
+      <c r="H1222" s="14" t="s">
+        <v>7644</v>
+      </c>
+      <c r="I1222" s="14" t="s">
+        <v>7644</v>
+      </c>
+      <c r="J1222" s="14" t="s">
         <v>7645</v>
       </c>
-      <c r="H1222" s="14" t="s">
+      <c r="K1222" s="14" t="s">
         <v>7645</v>
-      </c>
-      <c r="I1222" s="14" t="s">
-        <v>7645</v>
-      </c>
-      <c r="J1222" s="14" t="s">
-        <v>7646</v>
-      </c>
-      <c r="K1222" s="14" t="s">
-        <v>7646</v>
       </c>
     </row>
     <row r="1223" spans="2:11">
       <c r="B1223" s="14" t="s">
-        <v>7647</v>
+        <v>7646</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="D1223" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1223" s="14" t="s">
+        <v>7647</v>
+      </c>
+      <c r="F1223" s="14" t="s">
         <v>7648</v>
       </c>
-      <c r="F1223" s="14" t="s">
+      <c r="G1223" s="14" t="s">
         <v>7649</v>
       </c>
-      <c r="G1223" s="14" t="s">
+      <c r="H1223" s="14" t="s">
+        <v>7649</v>
+      </c>
+      <c r="I1223" s="14" t="s">
+        <v>7649</v>
+      </c>
+      <c r="J1223" s="14" t="s">
         <v>7650</v>
       </c>
-      <c r="H1223" s="14" t="s">
+      <c r="K1223" s="14" t="s">
         <v>7650</v>
-      </c>
-      <c r="I1223" s="14" t="s">
-        <v>7650</v>
-      </c>
-      <c r="J1223" s="14" t="s">
-        <v>7651</v>
-      </c>
-      <c r="K1223" s="14" t="s">
-        <v>7651</v>
       </c>
     </row>
     <row r="1224" spans="2:11">
       <c r="B1224" s="14" t="s">
-        <v>7652</v>
+        <v>7651</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="D1224" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1224" s="14" t="s">
+        <v>7652</v>
+      </c>
+      <c r="F1224" s="14" t="s">
         <v>7653</v>
       </c>
-      <c r="F1224" s="14" t="s">
+      <c r="G1224" s="14" t="s">
         <v>7654</v>
       </c>
-      <c r="G1224" s="14" t="s">
+      <c r="H1224" s="14" t="s">
+        <v>7654</v>
+      </c>
+      <c r="I1224" s="14" t="s">
+        <v>7654</v>
+      </c>
+      <c r="J1224" s="14" t="s">
         <v>7655</v>
       </c>
-      <c r="H1224" s="14" t="s">
+      <c r="K1224" s="14" t="s">
         <v>7655</v>
-      </c>
-      <c r="I1224" s="14" t="s">
-        <v>7655</v>
-      </c>
-      <c r="J1224" s="14" t="s">
-        <v>7656</v>
-      </c>
-      <c r="K1224" s="14" t="s">
-        <v>7656</v>
       </c>
     </row>
     <row r="1225" spans="2:11">
       <c r="B1225" s="14" t="s">
-        <v>7657</v>
+        <v>7656</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="D1225" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1225" s="14" t="s">
+        <v>7657</v>
+      </c>
+      <c r="F1225" s="14" t="s">
         <v>7658</v>
       </c>
-      <c r="F1225" s="14" t="s">
+      <c r="G1225" s="14" t="s">
         <v>7659</v>
       </c>
-      <c r="G1225" s="14" t="s">
+      <c r="H1225" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="I1225" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="J1225" s="14" t="s">
         <v>7660</v>
       </c>
-      <c r="H1225" s="14" t="s">
+      <c r="K1225" s="14" t="s">
         <v>7660</v>
-      </c>
-      <c r="I1225" s="14" t="s">
-        <v>7660</v>
-      </c>
-      <c r="J1225" s="14" t="s">
-        <v>7661</v>
-      </c>
-      <c r="K1225" s="14" t="s">
-        <v>7661</v>
       </c>
     </row>
     <row r="1226" spans="2:11">
       <c r="B1226" s="14" t="s">
-        <v>7662</v>
+        <v>7661</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="D1226" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1226" s="14" t="s">
+        <v>7662</v>
+      </c>
+      <c r="F1226" s="14" t="s">
         <v>7663</v>
       </c>
-      <c r="F1226" s="14" t="s">
+      <c r="G1226" s="14" t="s">
         <v>7664</v>
       </c>
-      <c r="G1226" s="14" t="s">
+      <c r="H1226" s="14" t="s">
+        <v>7664</v>
+      </c>
+      <c r="I1226" s="14" t="s">
+        <v>7664</v>
+      </c>
+      <c r="J1226" s="14" t="s">
         <v>7665</v>
       </c>
-      <c r="H1226" s="14" t="s">
+      <c r="K1226" s="14" t="s">
         <v>7665</v>
-      </c>
-      <c r="I1226" s="14" t="s">
-        <v>7665</v>
-      </c>
-      <c r="J1226" s="14" t="s">
-        <v>7666</v>
-      </c>
-      <c r="K1226" s="14" t="s">
-        <v>7666</v>
       </c>
     </row>
     <row r="1227" spans="2:11">
       <c r="B1227" s="14" t="s">
-        <v>7667</v>
+        <v>7666</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>1843</v>
+        <v>1798</v>
       </c>
       <c r="D1227" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1227" s="14" t="s">
+        <v>7667</v>
+      </c>
+      <c r="F1227" s="14" t="s">
         <v>7668</v>
       </c>
-      <c r="F1227" s="14" t="s">
+      <c r="G1227" s="14" t="s">
         <v>7669</v>
       </c>
-      <c r="G1227" s="14" t="s">
+      <c r="H1227" s="14" t="s">
+        <v>7669</v>
+      </c>
+      <c r="I1227" s="14" t="s">
+        <v>7669</v>
+      </c>
+      <c r="J1227" s="14" t="s">
         <v>7670</v>
       </c>
-      <c r="H1227" s="14" t="s">
+      <c r="K1227" s="14" t="s">
         <v>7670</v>
-      </c>
-      <c r="I1227" s="14" t="s">
-        <v>7670</v>
-      </c>
-      <c r="J1227" s="14" t="s">
-        <v>7671</v>
-      </c>
-      <c r="K1227" s="14" t="s">
-        <v>7671</v>
       </c>
     </row>
     <row r="1228" spans="2:11">
       <c r="B1228" s="14" t="s">
-        <v>7672</v>
-      </c>
-      <c r="C1228" s="14" t="s">
-        <v>7673</v>
+        <v>7671</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>1843</v>
       </c>
       <c r="D1228" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1228" s="14" t="s">
+        <v>7672</v>
+      </c>
+      <c r="F1228" s="14" t="s">
+        <v>7673</v>
+      </c>
+      <c r="G1228" s="14" t="s">
         <v>7674</v>
       </c>
-      <c r="F1228" s="14" t="s">
+      <c r="H1228" s="14" t="s">
+        <v>7674</v>
+      </c>
+      <c r="I1228" s="14" t="s">
+        <v>7674</v>
+      </c>
+      <c r="J1228" s="14" t="s">
         <v>7675</v>
       </c>
-      <c r="G1228" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="H1228" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="I1228" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="J1228" s="14" t="s">
-        <v>7677</v>
-      </c>
       <c r="K1228" s="14" t="s">
-        <v>7677</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="1229" spans="2:11">
       <c r="B1229" s="14" t="s">
-        <v>7678</v>
+        <v>7676</v>
       </c>
       <c r="C1229" s="14" t="s">
-        <v>7679</v>
+        <v>7677</v>
       </c>
       <c r="D1229" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1229" s="14" t="s">
+        <v>7678</v>
+      </c>
+      <c r="F1229" s="14" t="s">
+        <v>7679</v>
+      </c>
+      <c r="G1229" s="14" t="s">
         <v>7680</v>
       </c>
-      <c r="F1229" s="14" t="s">
+      <c r="H1229" s="14" t="s">
+        <v>7680</v>
+      </c>
+      <c r="I1229" s="14" t="s">
+        <v>7680</v>
+      </c>
+      <c r="J1229" s="14" t="s">
         <v>7681</v>
       </c>
-      <c r="G1229" s="14" t="s">
-        <v>7682</v>
-      </c>
-      <c r="H1229" s="14" t="s">
-        <v>7682</v>
-      </c>
-      <c r="I1229" s="14" t="s">
-        <v>7682</v>
-      </c>
-      <c r="J1229" s="14" t="s">
-        <v>7683</v>
-      </c>
       <c r="K1229" s="14" t="s">
-        <v>7683</v>
+        <v>7681</v>
       </c>
     </row>
     <row r="1230" spans="2:11">
       <c r="B1230" s="14" t="s">
-        <v>7684</v>
+        <v>7682</v>
       </c>
       <c r="C1230" s="14" t="s">
-        <v>7685</v>
+        <v>7683</v>
       </c>
       <c r="D1230" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1230" s="14" t="s">
+        <v>7684</v>
+      </c>
+      <c r="F1230" s="14" t="s">
+        <v>7685</v>
+      </c>
+      <c r="G1230" s="14" t="s">
         <v>7686</v>
       </c>
-      <c r="F1230" s="14" t="s">
+      <c r="H1230" s="14" t="s">
+        <v>7686</v>
+      </c>
+      <c r="I1230" s="14" t="s">
+        <v>7686</v>
+      </c>
+      <c r="J1230" s="14" t="s">
         <v>7687</v>
       </c>
-      <c r="G1230" s="14" t="s">
-        <v>7688</v>
-      </c>
-      <c r="H1230" s="14" t="s">
-        <v>7688</v>
-      </c>
-      <c r="I1230" s="14" t="s">
-        <v>7688</v>
-      </c>
-      <c r="J1230" s="14" t="s">
-        <v>7689</v>
-      </c>
       <c r="K1230" s="14" t="s">
-        <v>7689</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="1231" spans="2:11">
       <c r="B1231" s="14" t="s">
-        <v>7690</v>
+        <v>7688</v>
       </c>
       <c r="C1231" s="14" t="s">
-        <v>7691</v>
+        <v>7689</v>
       </c>
       <c r="D1231" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1231" s="14" t="s">
+        <v>7690</v>
+      </c>
+      <c r="F1231" s="14" t="s">
+        <v>7691</v>
+      </c>
+      <c r="G1231" s="14" t="s">
         <v>7692</v>
       </c>
-      <c r="F1231" s="14" t="s">
+      <c r="H1231" s="14" t="s">
+        <v>7692</v>
+      </c>
+      <c r="I1231" s="14" t="s">
+        <v>7692</v>
+      </c>
+      <c r="J1231" s="14" t="s">
         <v>7693</v>
       </c>
-      <c r="G1231" s="14" t="s">
-        <v>7694</v>
-      </c>
-      <c r="H1231" s="14" t="s">
-        <v>7694</v>
-      </c>
-      <c r="I1231" s="14" t="s">
-        <v>7694</v>
-      </c>
-      <c r="J1231" s="14" t="s">
-        <v>7695</v>
-      </c>
       <c r="K1231" s="14" t="s">
-        <v>7695</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="1232" spans="2:11">
       <c r="B1232" s="14" t="s">
-        <v>7696</v>
-      </c>
-      <c r="C1232" s="41" t="s">
-        <v>7697</v>
+        <v>7694</v>
+      </c>
+      <c r="C1232" s="14" t="s">
+        <v>7695</v>
       </c>
       <c r="D1232" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1232" s="14" t="s">
+        <v>7696</v>
+      </c>
+      <c r="F1232" s="14" t="s">
+        <v>7697</v>
+      </c>
+      <c r="G1232" s="14" t="s">
         <v>7698</v>
       </c>
-      <c r="F1232" s="14" t="s">
+      <c r="H1232" s="14" t="s">
+        <v>7698</v>
+      </c>
+      <c r="I1232" s="14" t="s">
+        <v>7698</v>
+      </c>
+      <c r="J1232" s="14" t="s">
         <v>7699</v>
       </c>
-      <c r="G1232" s="14" t="s">
-        <v>7700</v>
-      </c>
-      <c r="H1232" s="14" t="s">
-        <v>7700</v>
-      </c>
-      <c r="I1232" s="14" t="s">
-        <v>7700</v>
-      </c>
-      <c r="J1232" s="14" t="s">
-        <v>7701</v>
-      </c>
       <c r="K1232" s="14" t="s">
-        <v>7701</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="1233" spans="2:11">
       <c r="B1233" s="14" t="s">
-        <v>7702</v>
+        <v>7700</v>
       </c>
       <c r="C1233" s="41" t="s">
-        <v>7703</v>
+        <v>7701</v>
       </c>
       <c r="D1233" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1233" s="14" t="s">
+        <v>7702</v>
+      </c>
+      <c r="F1233" s="14" t="s">
+        <v>7703</v>
+      </c>
+      <c r="G1233" s="14" t="s">
         <v>7704</v>
       </c>
-      <c r="F1233" s="14" t="s">
+      <c r="H1233" s="14" t="s">
+        <v>7704</v>
+      </c>
+      <c r="I1233" s="14" t="s">
+        <v>7704</v>
+      </c>
+      <c r="J1233" s="14" t="s">
         <v>7705</v>
       </c>
-      <c r="G1233" s="14" t="s">
-        <v>7706</v>
-      </c>
-      <c r="H1233" s="14" t="s">
-        <v>7706</v>
-      </c>
-      <c r="I1233" s="14" t="s">
-        <v>7706</v>
-      </c>
-      <c r="J1233" s="14" t="s">
-        <v>7707</v>
-      </c>
       <c r="K1233" s="14" t="s">
-        <v>7707</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="1234" spans="2:11">
       <c r="B1234" s="14" t="s">
-        <v>7708</v>
+        <v>7706</v>
       </c>
       <c r="C1234" s="41" t="s">
-        <v>7709</v>
+        <v>7707</v>
       </c>
       <c r="D1234" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1234" s="14" t="s">
+        <v>7708</v>
+      </c>
+      <c r="F1234" s="14" t="s">
+        <v>7709</v>
+      </c>
+      <c r="G1234" s="14" t="s">
         <v>7710</v>
       </c>
-      <c r="F1234" s="14" t="s">
+      <c r="H1234" s="14" t="s">
+        <v>7710</v>
+      </c>
+      <c r="I1234" s="14" t="s">
+        <v>7710</v>
+      </c>
+      <c r="J1234" s="14" t="s">
         <v>7711</v>
       </c>
-      <c r="G1234" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="H1234" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="I1234" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="J1234" s="14" t="s">
-        <v>7713</v>
-      </c>
       <c r="K1234" s="14" t="s">
-        <v>7713</v>
+        <v>7711</v>
       </c>
     </row>
     <row r="1235" spans="2:11">
       <c r="B1235" s="14" t="s">
-        <v>7714</v>
+        <v>7712</v>
       </c>
       <c r="C1235" s="41" t="s">
-        <v>7715</v>
+        <v>7713</v>
       </c>
       <c r="D1235" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1235" s="14" t="s">
+        <v>7714</v>
+      </c>
+      <c r="F1235" s="14" t="s">
+        <v>7715</v>
+      </c>
+      <c r="G1235" s="14" t="s">
         <v>7716</v>
       </c>
-      <c r="F1235" s="14" t="s">
+      <c r="H1235" s="14" t="s">
+        <v>7716</v>
+      </c>
+      <c r="I1235" s="14" t="s">
+        <v>7716</v>
+      </c>
+      <c r="J1235" s="14" t="s">
         <v>7717</v>
       </c>
-      <c r="G1235" s="14" t="s">
-        <v>7718</v>
-      </c>
-      <c r="H1235" s="14" t="s">
-        <v>7718</v>
-      </c>
-      <c r="I1235" s="14" t="s">
-        <v>7718</v>
-      </c>
-      <c r="J1235" s="14" t="s">
-        <v>7719</v>
-      </c>
       <c r="K1235" s="14" t="s">
-        <v>7719</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="1236" spans="2:11">
       <c r="B1236" s="14" t="s">
-        <v>7720</v>
-      </c>
-      <c r="C1236" s="14" t="s">
-        <v>7721</v>
+        <v>7718</v>
+      </c>
+      <c r="C1236" s="41" t="s">
+        <v>7719</v>
       </c>
       <c r="D1236" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1236" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="F1236" s="14" t="s">
+        <v>7721</v>
+      </c>
+      <c r="G1236" s="14" t="s">
         <v>7722</v>
       </c>
-      <c r="F1236" s="14" t="s">
+      <c r="H1236" s="14" t="s">
+        <v>7722</v>
+      </c>
+      <c r="I1236" s="14" t="s">
+        <v>7722</v>
+      </c>
+      <c r="J1236" s="14" t="s">
         <v>7723</v>
       </c>
-      <c r="G1236" s="14" t="s">
-        <v>7724</v>
-      </c>
-      <c r="H1236" s="14" t="s">
-        <v>7724</v>
-      </c>
-      <c r="I1236" s="14" t="s">
-        <v>7724</v>
-      </c>
-      <c r="J1236" s="14" t="s">
-        <v>7725</v>
-      </c>
       <c r="K1236" s="14" t="s">
-        <v>7725</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="1237" spans="2:11">
       <c r="B1237" s="14" t="s">
-        <v>7726</v>
+        <v>7724</v>
       </c>
       <c r="C1237" s="14" t="s">
-        <v>7727</v>
+        <v>7725</v>
       </c>
       <c r="D1237" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1237" s="14" t="s">
+        <v>7726</v>
+      </c>
+      <c r="F1237" s="14" t="s">
+        <v>7727</v>
+      </c>
+      <c r="G1237" s="14" t="s">
         <v>7728</v>
       </c>
-      <c r="F1237" s="14" t="s">
+      <c r="H1237" s="14" t="s">
+        <v>7728</v>
+      </c>
+      <c r="I1237" s="14" t="s">
+        <v>7728</v>
+      </c>
+      <c r="J1237" s="14" t="s">
         <v>7729</v>
       </c>
-      <c r="G1237" s="14" t="s">
-        <v>7730</v>
-      </c>
-      <c r="H1237" s="14" t="s">
-        <v>7730</v>
-      </c>
-      <c r="I1237" s="14" t="s">
-        <v>7730</v>
-      </c>
-      <c r="J1237" s="14" t="s">
-        <v>7731</v>
-      </c>
       <c r="K1237" s="14" t="s">
-        <v>7731</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="1238" spans="2:11">
       <c r="B1238" s="14" t="s">
-        <v>7732</v>
+        <v>7730</v>
       </c>
       <c r="C1238" s="14" t="s">
-        <v>7733</v>
+        <v>7731</v>
       </c>
       <c r="D1238" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1238" s="14" t="s">
+        <v>7732</v>
+      </c>
+      <c r="F1238" s="14" t="s">
+        <v>7733</v>
+      </c>
+      <c r="G1238" s="14" t="s">
         <v>7734</v>
       </c>
-      <c r="F1238" s="14" t="s">
+      <c r="H1238" s="14" t="s">
+        <v>7734</v>
+      </c>
+      <c r="I1238" s="14" t="s">
+        <v>7734</v>
+      </c>
+      <c r="J1238" s="14" t="s">
         <v>7735</v>
       </c>
-      <c r="G1238" s="14" t="s">
-        <v>7736</v>
-      </c>
-      <c r="H1238" s="14" t="s">
-        <v>7736</v>
-      </c>
-      <c r="I1238" s="14" t="s">
-        <v>7736</v>
-      </c>
-      <c r="J1238" s="14" t="s">
-        <v>7737</v>
-      </c>
       <c r="K1238" s="14" t="s">
-        <v>7737</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="1239" spans="2:11">
       <c r="B1239" s="14" t="s">
-        <v>7738</v>
+        <v>7736</v>
       </c>
       <c r="C1239" s="14" t="s">
-        <v>7739</v>
+        <v>7737</v>
       </c>
       <c r="D1239" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1239" s="14" t="s">
+        <v>7738</v>
+      </c>
+      <c r="F1239" s="14" t="s">
+        <v>7739</v>
+      </c>
+      <c r="G1239" s="14" t="s">
         <v>7740</v>
       </c>
-      <c r="F1239" s="14" t="s">
+      <c r="H1239" s="14" t="s">
+        <v>7740</v>
+      </c>
+      <c r="I1239" s="14" t="s">
+        <v>7740</v>
+      </c>
+      <c r="J1239" s="14" t="s">
         <v>7741</v>
       </c>
-      <c r="G1239" s="14" t="s">
-        <v>7742</v>
-      </c>
-      <c r="H1239" s="14" t="s">
-        <v>7742</v>
-      </c>
-      <c r="I1239" s="14" t="s">
-        <v>7742</v>
-      </c>
-      <c r="J1239" s="14" t="s">
-        <v>7743</v>
-      </c>
       <c r="K1239" s="14" t="s">
-        <v>7743</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="1240" spans="2:11">
       <c r="B1240" s="14" t="s">
-        <v>7744</v>
+        <v>7742</v>
       </c>
       <c r="C1240" s="14" t="s">
-        <v>7745</v>
+        <v>7743</v>
       </c>
       <c r="D1240" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1240" s="14" t="s">
+        <v>7744</v>
+      </c>
+      <c r="F1240" s="14" t="s">
+        <v>7745</v>
+      </c>
+      <c r="G1240" s="14" t="s">
         <v>7746</v>
       </c>
-      <c r="F1240" s="14" t="s">
+      <c r="H1240" s="14" t="s">
+        <v>7746</v>
+      </c>
+      <c r="I1240" s="14" t="s">
+        <v>7746</v>
+      </c>
+      <c r="J1240" s="14" t="s">
         <v>7747</v>
       </c>
-      <c r="G1240" s="14" t="s">
-        <v>7748</v>
-      </c>
-      <c r="H1240" s="14" t="s">
-        <v>7748</v>
-      </c>
-      <c r="I1240" s="14" t="s">
-        <v>7748</v>
-      </c>
-      <c r="J1240" s="14" t="s">
-        <v>7749</v>
-      </c>
       <c r="K1240" s="14" t="s">
-        <v>7749</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="1241" spans="2:11">
       <c r="B1241" s="14" t="s">
-        <v>7750</v>
+        <v>7748</v>
       </c>
       <c r="C1241" s="14" t="s">
-        <v>7751</v>
+        <v>7749</v>
       </c>
       <c r="D1241" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1241" s="14" t="s">
+        <v>7750</v>
+      </c>
+      <c r="F1241" s="14" t="s">
+        <v>7751</v>
+      </c>
+      <c r="G1241" s="14" t="s">
         <v>7752</v>
       </c>
-      <c r="F1241" s="14" t="s">
+      <c r="H1241" s="14" t="s">
+        <v>7752</v>
+      </c>
+      <c r="I1241" s="14" t="s">
+        <v>7752</v>
+      </c>
+      <c r="J1241" s="14" t="s">
         <v>7753</v>
       </c>
-      <c r="G1241" s="14" t="s">
-        <v>7754</v>
-      </c>
-      <c r="H1241" s="14" t="s">
-        <v>7754</v>
-      </c>
-      <c r="I1241" s="14" t="s">
-        <v>7754</v>
-      </c>
-      <c r="J1241" s="14" t="s">
-        <v>7755</v>
-      </c>
       <c r="K1241" s="14" t="s">
-        <v>7755</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="1242" spans="2:11">
       <c r="B1242" s="14" t="s">
-        <v>7756</v>
+        <v>7754</v>
       </c>
       <c r="C1242" s="14" t="s">
-        <v>7757</v>
+        <v>7755</v>
       </c>
       <c r="D1242" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1242" s="14" t="s">
+        <v>7756</v>
+      </c>
+      <c r="F1242" s="14" t="s">
+        <v>7757</v>
+      </c>
+      <c r="G1242" s="14" t="s">
         <v>7758</v>
       </c>
-      <c r="F1242" s="14" t="s">
+      <c r="H1242" s="14" t="s">
+        <v>7758</v>
+      </c>
+      <c r="I1242" s="14" t="s">
+        <v>7758</v>
+      </c>
+      <c r="J1242" s="14" t="s">
         <v>7759</v>
       </c>
-      <c r="G1242" s="14" t="s">
-        <v>7760</v>
-      </c>
-      <c r="H1242" s="14" t="s">
-        <v>7760</v>
-      </c>
-      <c r="I1242" s="14" t="s">
-        <v>7760</v>
-      </c>
-      <c r="J1242" s="14" t="s">
-        <v>7761</v>
-      </c>
       <c r="K1242" s="14" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="1243" spans="2:11">
       <c r="B1243" s="14" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="C1243" s="14" t="s">
-        <v>7763</v>
+        <v>7761</v>
       </c>
       <c r="D1243" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1243" s="14" t="s">
+        <v>7762</v>
+      </c>
+      <c r="F1243" s="14" t="s">
+        <v>7763</v>
+      </c>
+      <c r="G1243" s="14" t="s">
         <v>7764</v>
       </c>
-      <c r="F1243" s="14" t="s">
+      <c r="H1243" s="14" t="s">
+        <v>7764</v>
+      </c>
+      <c r="I1243" s="14" t="s">
+        <v>7764</v>
+      </c>
+      <c r="J1243" s="14" t="s">
         <v>7765</v>
       </c>
-      <c r="G1243" s="14" t="s">
-        <v>7766</v>
-      </c>
-      <c r="H1243" s="14" t="s">
-        <v>7766</v>
-      </c>
-      <c r="I1243" s="14" t="s">
-        <v>7766</v>
-      </c>
-      <c r="J1243" s="14" t="s">
-        <v>7767</v>
-      </c>
       <c r="K1243" s="14" t="s">
-        <v>7767</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="1244" spans="2:11">
       <c r="B1244" s="14" t="s">
-        <v>7768</v>
+        <v>7766</v>
       </c>
       <c r="C1244" s="14" t="s">
-        <v>7769</v>
+        <v>7767</v>
       </c>
       <c r="D1244" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1244" s="14" t="s">
+        <v>7768</v>
+      </c>
+      <c r="F1244" s="14" t="s">
+        <v>7769</v>
+      </c>
+      <c r="G1244" s="14" t="s">
         <v>7770</v>
       </c>
-      <c r="F1244" s="14" t="s">
+      <c r="H1244" s="14" t="s">
+        <v>7770</v>
+      </c>
+      <c r="I1244" s="14" t="s">
+        <v>7770</v>
+      </c>
+      <c r="J1244" s="14" t="s">
         <v>7771</v>
       </c>
-      <c r="G1244" s="14" t="s">
-        <v>7772</v>
-      </c>
-      <c r="H1244" s="14" t="s">
-        <v>7772</v>
-      </c>
-      <c r="I1244" s="14" t="s">
-        <v>7772</v>
-      </c>
-      <c r="J1244" s="14" t="s">
-        <v>7773</v>
-      </c>
       <c r="K1244" s="14" t="s">
-        <v>7773</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="1245" spans="2:11">
       <c r="B1245" s="14" t="s">
-        <v>7774</v>
+        <v>7772</v>
       </c>
       <c r="C1245" s="14" t="s">
-        <v>1802</v>
+        <v>7773</v>
       </c>
       <c r="D1245" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1245" s="14" t="s">
+        <v>7774</v>
+      </c>
+      <c r="F1245" s="14" t="s">
         <v>7775</v>
       </c>
-      <c r="F1245" s="14" t="s">
+      <c r="G1245" s="14" t="s">
         <v>7776</v>
       </c>
-      <c r="G1245" s="14" t="s">
+      <c r="H1245" s="14" t="s">
+        <v>7776</v>
+      </c>
+      <c r="I1245" s="14" t="s">
+        <v>7776</v>
+      </c>
+      <c r="J1245" s="14" t="s">
         <v>7777</v>
       </c>
-      <c r="H1245" s="14" t="s">
+      <c r="K1245" s="14" t="s">
         <v>7777</v>
-      </c>
-      <c r="I1245" s="14" t="s">
-        <v>7777</v>
-      </c>
-      <c r="J1245" s="14" t="s">
-        <v>7778</v>
-      </c>
-      <c r="K1245" s="14" t="s">
-        <v>7778</v>
       </c>
     </row>
     <row r="1246" spans="2:11">
       <c r="B1246" s="14" t="s">
-        <v>7779</v>
+        <v>7778</v>
       </c>
       <c r="C1246" s="14" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="D1246" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1246" s="14" t="s">
+        <v>7779</v>
+      </c>
+      <c r="F1246" s="14" t="s">
         <v>7780</v>
       </c>
-      <c r="F1246" s="14" t="s">
+      <c r="G1246" s="14" t="s">
         <v>7781</v>
       </c>
-      <c r="G1246" s="14" t="s">
+      <c r="H1246" s="14" t="s">
+        <v>7781</v>
+      </c>
+      <c r="I1246" s="14" t="s">
+        <v>7781</v>
+      </c>
+      <c r="J1246" s="14" t="s">
         <v>7782</v>
       </c>
-      <c r="H1246" s="14" t="s">
+      <c r="K1246" s="14" t="s">
         <v>7782</v>
-      </c>
-      <c r="I1246" s="14" t="s">
-        <v>7782</v>
-      </c>
-      <c r="J1246" s="14" t="s">
-        <v>7783</v>
-      </c>
-      <c r="K1246" s="14" t="s">
-        <v>7783</v>
       </c>
     </row>
     <row r="1247" spans="2:11">
       <c r="B1247" s="14" t="s">
-        <v>7784</v>
+        <v>7783</v>
       </c>
       <c r="C1247" s="14" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="D1247" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1247" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="F1247" s="14" t="s">
         <v>7785</v>
       </c>
-      <c r="F1247" s="14" t="s">
+      <c r="G1247" s="14" t="s">
         <v>7786</v>
       </c>
-      <c r="G1247" s="14" t="s">
+      <c r="H1247" s="14" t="s">
+        <v>7786</v>
+      </c>
+      <c r="I1247" s="14" t="s">
+        <v>7786</v>
+      </c>
+      <c r="J1247" s="14" t="s">
         <v>7787</v>
       </c>
-      <c r="H1247" s="14" t="s">
+      <c r="K1247" s="14" t="s">
         <v>7787</v>
-      </c>
-      <c r="I1247" s="14" t="s">
-        <v>7787</v>
-      </c>
-      <c r="J1247" s="14" t="s">
-        <v>7788</v>
-      </c>
-      <c r="K1247" s="14" t="s">
-        <v>7788</v>
       </c>
     </row>
     <row r="1248" spans="2:11">
       <c r="B1248" s="14" t="s">
-        <v>7789</v>
+        <v>7788</v>
       </c>
       <c r="C1248" s="14" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="D1248" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1248" s="14" t="s">
+        <v>7789</v>
+      </c>
+      <c r="F1248" s="14" t="s">
         <v>7790</v>
       </c>
-      <c r="F1248" s="14" t="s">
+      <c r="G1248" s="14" t="s">
         <v>7791</v>
       </c>
-      <c r="G1248" s="14" t="s">
+      <c r="H1248" s="14" t="s">
+        <v>7791</v>
+      </c>
+      <c r="I1248" s="14" t="s">
+        <v>7791</v>
+      </c>
+      <c r="J1248" s="14" t="s">
         <v>7792</v>
       </c>
-      <c r="H1248" s="14" t="s">
+      <c r="K1248" s="14" t="s">
         <v>7792</v>
-      </c>
-      <c r="I1248" s="14" t="s">
-        <v>7792</v>
-      </c>
-      <c r="J1248" s="14" t="s">
-        <v>7793</v>
-      </c>
-      <c r="K1248" s="14" t="s">
-        <v>7793</v>
       </c>
     </row>
     <row r="1249" spans="2:11">
       <c r="B1249" s="14" t="s">
-        <v>7794</v>
+        <v>7793</v>
       </c>
       <c r="C1249" s="14" t="s">
-        <v>7795</v>
+        <v>1821</v>
       </c>
       <c r="D1249" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1249" s="14" t="s">
+        <v>7794</v>
+      </c>
+      <c r="F1249" s="14" t="s">
+        <v>7795</v>
+      </c>
+      <c r="G1249" s="14" t="s">
         <v>7796</v>
       </c>
-      <c r="F1249" s="14" t="s">
+      <c r="H1249" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="I1249" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="J1249" s="14" t="s">
         <v>7797</v>
       </c>
-      <c r="G1249" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="H1249" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="I1249" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="J1249" s="14" t="s">
-        <v>7799</v>
-      </c>
       <c r="K1249" s="14" t="s">
-        <v>7799</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="1250" spans="2:11">
       <c r="B1250" s="14" t="s">
-        <v>7800</v>
+        <v>7798</v>
       </c>
       <c r="C1250" s="14" t="s">
-        <v>7801</v>
+        <v>7799</v>
       </c>
       <c r="D1250" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1250" s="14" t="s">
+        <v>7800</v>
+      </c>
+      <c r="F1250" s="14" t="s">
+        <v>7801</v>
+      </c>
+      <c r="G1250" s="14" t="s">
         <v>7802</v>
       </c>
-      <c r="F1250" s="14" t="s">
+      <c r="H1250" s="14" t="s">
+        <v>7802</v>
+      </c>
+      <c r="I1250" s="14" t="s">
+        <v>7802</v>
+      </c>
+      <c r="J1250" s="14" t="s">
         <v>7803</v>
       </c>
-      <c r="G1250" s="14" t="s">
-        <v>7804</v>
-      </c>
-      <c r="H1250" s="14" t="s">
-        <v>7804</v>
-      </c>
-      <c r="I1250" s="14" t="s">
-        <v>7804</v>
-      </c>
-      <c r="J1250" s="14" t="s">
-        <v>7805</v>
-      </c>
       <c r="K1250" s="14" t="s">
-        <v>7805</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="1251" spans="2:11">
       <c r="B1251" s="14" t="s">
-        <v>7806</v>
+        <v>7804</v>
       </c>
       <c r="C1251" s="14" t="s">
-        <v>7807</v>
+        <v>7805</v>
       </c>
       <c r="D1251" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1251" s="14" t="s">
+        <v>7806</v>
+      </c>
+      <c r="F1251" s="14" t="s">
+        <v>7807</v>
+      </c>
+      <c r="G1251" s="14" t="s">
         <v>7808</v>
       </c>
-      <c r="F1251" s="14" t="s">
+      <c r="H1251" s="14" t="s">
+        <v>7808</v>
+      </c>
+      <c r="I1251" s="14" t="s">
+        <v>7808</v>
+      </c>
+      <c r="J1251" s="14" t="s">
         <v>7809</v>
       </c>
-      <c r="G1251" s="14" t="s">
-        <v>7810</v>
-      </c>
-      <c r="H1251" s="14" t="s">
-        <v>7810</v>
-      </c>
-      <c r="I1251" s="14" t="s">
-        <v>7810</v>
-      </c>
-      <c r="J1251" s="14" t="s">
-        <v>7811</v>
-      </c>
       <c r="K1251" s="14" t="s">
-        <v>7811</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="1252" spans="2:11">
       <c r="B1252" s="14" t="s">
-        <v>7812</v>
+        <v>7810</v>
       </c>
       <c r="C1252" s="14" t="s">
-        <v>7813</v>
+        <v>7811</v>
       </c>
       <c r="D1252" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1252" s="14" t="s">
+        <v>7812</v>
+      </c>
+      <c r="F1252" s="14" t="s">
+        <v>7813</v>
+      </c>
+      <c r="G1252" s="14" t="s">
         <v>7814</v>
       </c>
-      <c r="F1252" s="14" t="s">
+      <c r="H1252" s="14" t="s">
+        <v>7814</v>
+      </c>
+      <c r="I1252" s="14" t="s">
+        <v>7814</v>
+      </c>
+      <c r="J1252" s="14" t="s">
         <v>7815</v>
       </c>
-      <c r="G1252" s="14" t="s">
-        <v>7816</v>
-      </c>
-      <c r="H1252" s="14" t="s">
-        <v>7816</v>
-      </c>
-      <c r="I1252" s="14" t="s">
-        <v>7816</v>
-      </c>
-      <c r="J1252" s="14" t="s">
-        <v>7817</v>
-      </c>
       <c r="K1252" s="14" t="s">
-        <v>7817</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="1253" spans="2:11">
       <c r="B1253" s="14" t="s">
-        <v>7818</v>
+        <v>7816</v>
       </c>
       <c r="C1253" s="14" t="s">
-        <v>7819</v>
+        <v>7817</v>
       </c>
       <c r="D1253" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1253" s="14" t="s">
+        <v>7818</v>
+      </c>
+      <c r="F1253" s="14" t="s">
+        <v>7819</v>
+      </c>
+      <c r="G1253" s="14" t="s">
         <v>7820</v>
       </c>
-      <c r="F1253" s="14" t="s">
+      <c r="H1253" s="14" t="s">
+        <v>7820</v>
+      </c>
+      <c r="I1253" s="14" t="s">
+        <v>7820</v>
+      </c>
+      <c r="J1253" s="14" t="s">
         <v>7821</v>
       </c>
-      <c r="G1253" s="14" t="s">
-        <v>7822</v>
-      </c>
-      <c r="H1253" s="14" t="s">
-        <v>7822</v>
-      </c>
-      <c r="I1253" s="14" t="s">
-        <v>7822</v>
-      </c>
-      <c r="J1253" s="14" t="s">
-        <v>7823</v>
-      </c>
       <c r="K1253" s="14" t="s">
-        <v>7823</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="1254" spans="2:11">
       <c r="B1254" s="14" t="s">
-        <v>7824</v>
+        <v>7822</v>
       </c>
       <c r="C1254" s="14" t="s">
-        <v>7825</v>
+        <v>7823</v>
       </c>
       <c r="D1254" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1254" s="14" t="s">
+        <v>7824</v>
+      </c>
+      <c r="F1254" s="14" t="s">
+        <v>7825</v>
+      </c>
+      <c r="G1254" s="14" t="s">
         <v>7826</v>
       </c>
-      <c r="F1254" s="14" t="s">
+      <c r="H1254" s="14" t="s">
+        <v>7826</v>
+      </c>
+      <c r="I1254" s="14" t="s">
+        <v>7826</v>
+      </c>
+      <c r="J1254" s="14" t="s">
         <v>7827</v>
       </c>
-      <c r="G1254" s="14" t="s">
-        <v>7828</v>
-      </c>
-      <c r="H1254" s="14" t="s">
-        <v>7828</v>
-      </c>
-      <c r="I1254" s="14" t="s">
-        <v>7828</v>
-      </c>
-      <c r="J1254" s="14" t="s">
-        <v>7829</v>
-      </c>
       <c r="K1254" s="14" t="s">
-        <v>7829</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="1255" spans="2:11">
       <c r="B1255" s="14" t="s">
-        <v>7830</v>
+        <v>7828</v>
       </c>
       <c r="C1255" s="14" t="s">
-        <v>7831</v>
+        <v>7829</v>
       </c>
       <c r="D1255" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1255" s="14" t="s">
+        <v>7830</v>
+      </c>
+      <c r="F1255" s="14" t="s">
+        <v>7831</v>
+      </c>
+      <c r="G1255" s="14" t="s">
         <v>7832</v>
       </c>
-      <c r="F1255" s="14" t="s">
+      <c r="H1255" s="14" t="s">
+        <v>7832</v>
+      </c>
+      <c r="I1255" s="14" t="s">
+        <v>7832</v>
+      </c>
+      <c r="J1255" s="14" t="s">
         <v>7833</v>
       </c>
-      <c r="G1255" s="14" t="s">
-        <v>7834</v>
-      </c>
-      <c r="H1255" s="14" t="s">
-        <v>7834</v>
-      </c>
-      <c r="I1255" s="14" t="s">
-        <v>7834</v>
-      </c>
-      <c r="J1255" s="14" t="s">
-        <v>7835</v>
-      </c>
       <c r="K1255" s="14" t="s">
-        <v>7835</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="1256" spans="2:11">
       <c r="B1256" s="14" t="s">
-        <v>7836</v>
+        <v>7834</v>
       </c>
       <c r="C1256" s="14" t="s">
-        <v>7837</v>
+        <v>7835</v>
       </c>
       <c r="D1256" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1256" s="14" t="s">
+        <v>7836</v>
+      </c>
+      <c r="F1256" s="14" t="s">
+        <v>7837</v>
+      </c>
+      <c r="G1256" s="14" t="s">
         <v>7838</v>
       </c>
-      <c r="F1256" s="14" t="s">
+      <c r="H1256" s="14" t="s">
+        <v>7838</v>
+      </c>
+      <c r="I1256" s="14" t="s">
+        <v>7838</v>
+      </c>
+      <c r="J1256" s="14" t="s">
         <v>7839</v>
       </c>
-      <c r="G1256" s="14" t="s">
-        <v>7840</v>
-      </c>
-      <c r="H1256" s="14" t="s">
-        <v>7840</v>
-      </c>
-      <c r="I1256" s="14" t="s">
-        <v>7840</v>
-      </c>
-      <c r="J1256" s="14" t="s">
-        <v>7841</v>
-      </c>
       <c r="K1256" s="14" t="s">
-        <v>7841</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="1257" spans="2:11">
       <c r="B1257" s="14" t="s">
-        <v>7842</v>
+        <v>7840</v>
       </c>
       <c r="C1257" s="14" t="s">
-        <v>7843</v>
+        <v>7841</v>
       </c>
       <c r="D1257" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1257" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="F1257" s="14" t="s">
+        <v>7843</v>
+      </c>
+      <c r="G1257" s="14" t="s">
         <v>7844</v>
       </c>
-      <c r="F1257" s="14" t="s">
+      <c r="H1257" s="14" t="s">
+        <v>7844</v>
+      </c>
+      <c r="I1257" s="14" t="s">
+        <v>7844</v>
+      </c>
+      <c r="J1257" s="14" t="s">
         <v>7845</v>
       </c>
-      <c r="G1257" s="14" t="s">
-        <v>7846</v>
-      </c>
-      <c r="H1257" s="14" t="s">
-        <v>7846</v>
-      </c>
-      <c r="I1257" s="14" t="s">
-        <v>7846</v>
-      </c>
-      <c r="J1257" s="14" t="s">
-        <v>7847</v>
-      </c>
       <c r="K1257" s="14" t="s">
-        <v>7847</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="1258" spans="2:11">
       <c r="B1258" s="14" t="s">
-        <v>7848</v>
+        <v>7846</v>
       </c>
       <c r="C1258" s="14" t="s">
-        <v>7849</v>
+        <v>7847</v>
       </c>
       <c r="D1258" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1258" s="14" t="s">
+        <v>7848</v>
+      </c>
+      <c r="F1258" s="14" t="s">
+        <v>7849</v>
+      </c>
+      <c r="G1258" s="14" t="s">
         <v>7850</v>
       </c>
-      <c r="F1258" s="14" t="s">
+      <c r="H1258" s="14" t="s">
+        <v>7850</v>
+      </c>
+      <c r="I1258" s="14" t="s">
+        <v>7850</v>
+      </c>
+      <c r="J1258" s="14" t="s">
         <v>7851</v>
       </c>
-      <c r="G1258" s="14" t="s">
+      <c r="K1258" s="14" t="s">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="1259" spans="2:11">
+      <c r="B1259" s="14" t="s">
         <v>7852</v>
       </c>
-      <c r="H1258" s="14" t="s">
-        <v>7852</v>
-      </c>
-      <c r="I1258" s="14" t="s">
-        <v>7852</v>
-      </c>
-      <c r="J1258" s="14" t="s">
+      <c r="C1259" s="14" t="s">
         <v>7853</v>
       </c>
-      <c r="K1258" s="14" t="s">
-        <v>7853</v>
+      <c r="D1259" s="45" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1259" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="F1259" s="14" t="s">
+        <v>7855</v>
+      </c>
+      <c r="G1259" s="14" t="s">
+        <v>7856</v>
+      </c>
+      <c r="H1259" s="14" t="s">
+        <v>7856</v>
+      </c>
+      <c r="I1259" s="14" t="s">
+        <v>7856</v>
+      </c>
+      <c r="J1259" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="K1259" s="14" t="s">
+        <v>7857</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11775"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10345" uniqueCount="7858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10353" uniqueCount="7861">
   <si>
     <t>##var</t>
   </si>
@@ -23358,7 +23358,7 @@
     <t>369045</t>
   </si>
   <si>
-    <t>续投不可點擊</t>
+    <t>續投不可點擊</t>
   </si>
   <si>
     <t>xutou_1_zw</t>
@@ -23367,6 +23367,15 @@
     <t>xutou_1_yw</t>
   </si>
   <si>
+    <t>369046</t>
+  </si>
+  <si>
+    <t>下注已達到限紅</t>
+  </si>
+  <si>
+    <t>The bets have reached the limit</t>
+  </si>
+  <si>
     <t>400057</t>
   </si>
   <si>
@@ -23469,7 +23478,7 @@
     <t>400069</t>
   </si>
   <si>
-    <t>龙虎斗</t>
+    <t>龍虎鬥</t>
   </si>
   <si>
     <t>Dragon VS Tiger</t>
@@ -24577,7 +24586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -24660,6 +24669,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -24673,6 +24710,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24712,21 +24757,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24777,28 +24807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24867,13 +24876,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24891,7 +24936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24915,18 +24978,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -24939,31 +24990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24987,18 +25014,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -25006,12 +25021,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25079,6 +25088,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -25107,21 +25131,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25180,148 +25189,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25371,10 +25380,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -25395,16 +25404,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -25524,52 +25533,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -25869,10 +25878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1259"/>
+  <dimension ref="A1:N1260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
-      <selection activeCell="H1145" sqref="H1145"/>
+      <selection activeCell="A1164" sqref="$A1164:$XFD1164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -57274,804 +57283,807 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="1164" s="13" customFormat="1" spans="2:11">
-      <c r="B1164" s="13" t="s">
+    <row r="1164" s="13" customFormat="1" ht="27" spans="1:11">
+      <c r="A1164" s="1"/>
+      <c r="B1164" s="14" t="s">
         <v>7460</v>
       </c>
-      <c r="E1164" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F1164" s="39" t="s">
-        <v>1663</v>
-      </c>
-      <c r="G1164" s="17" t="s">
-        <v>1664</v>
-      </c>
-      <c r="H1164" s="17" t="s">
-        <v>1665</v>
-      </c>
-      <c r="I1164" s="17" t="s">
-        <v>1666</v>
-      </c>
-      <c r="J1164" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K1164" s="1" t="s">
-        <v>1668</v>
+      <c r="C1164" s="1"/>
+      <c r="D1164" s="45"/>
+      <c r="E1164" s="27" t="s">
+        <v>7461</v>
+      </c>
+      <c r="F1164" s="27" t="s">
+        <v>7462</v>
+      </c>
+      <c r="G1164" s="27" t="s">
+        <v>7462</v>
+      </c>
+      <c r="H1164" s="27" t="s">
+        <v>7462</v>
+      </c>
+      <c r="I1164" s="27" t="s">
+        <v>7462</v>
+      </c>
+      <c r="J1164" s="27" t="s">
+        <v>7462</v>
+      </c>
+      <c r="K1164" s="27" t="s">
+        <v>7462</v>
       </c>
     </row>
     <row r="1165" s="13" customFormat="1" spans="2:11">
       <c r="B1165" s="13" t="s">
-        <v>7461</v>
-      </c>
-      <c r="E1165" s="8" t="s">
+        <v>7463</v>
+      </c>
+      <c r="E1165" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F1165" s="39" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G1165" s="17" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H1165" s="17" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I1165" s="17" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J1165" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K1165" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1166" s="13" customFormat="1" spans="2:11">
+      <c r="B1166" s="13" t="s">
+        <v>7464</v>
+      </c>
+      <c r="E1166" s="8" t="s">
         <v>1670</v>
       </c>
-      <c r="F1165" s="37" t="s">
+      <c r="F1166" s="37" t="s">
         <v>1671</v>
       </c>
-      <c r="G1165" s="38" t="s">
+      <c r="G1166" s="38" t="s">
         <v>1672</v>
       </c>
-      <c r="H1165" s="38" t="s">
+      <c r="H1166" s="38" t="s">
         <v>1673</v>
       </c>
-      <c r="I1165" s="38" t="s">
+      <c r="I1166" s="38" t="s">
         <v>1674</v>
       </c>
-      <c r="J1165" s="8" t="s">
+      <c r="J1166" s="8" t="s">
         <v>1675</v>
       </c>
-      <c r="K1165" s="8" t="s">
+      <c r="K1166" s="8" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="1166" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1166" s="13" t="s">
-        <v>7462</v>
-      </c>
-      <c r="E1166" s="1" t="s">
+    <row r="1167" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1167" s="13" t="s">
+        <v>7465</v>
+      </c>
+      <c r="E1167" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="F1166" s="39" t="s">
+      <c r="F1167" s="39" t="s">
         <v>1679</v>
       </c>
-      <c r="G1166" s="17" t="s">
+      <c r="G1167" s="17" t="s">
         <v>1680</v>
       </c>
-      <c r="H1166" s="17" t="s">
+      <c r="H1167" s="17" t="s">
         <v>1681</v>
       </c>
-      <c r="I1166" s="17" t="s">
+      <c r="I1167" s="17" t="s">
         <v>1682</v>
       </c>
-      <c r="J1166" s="1" t="s">
+      <c r="J1167" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="K1166" s="1" t="s">
+      <c r="K1167" s="1" t="s">
         <v>1684</v>
-      </c>
-    </row>
-    <row r="1167" s="13" customFormat="1" spans="2:11">
-      <c r="B1167" s="13" t="s">
-        <v>7463</v>
-      </c>
-      <c r="E1167" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F1167" s="39" t="s">
-        <v>1687</v>
-      </c>
-      <c r="G1167" s="17" t="s">
-        <v>1688</v>
-      </c>
-      <c r="H1167" s="17" t="s">
-        <v>1689</v>
-      </c>
-      <c r="I1167" s="17" t="s">
-        <v>1687</v>
-      </c>
-      <c r="J1167" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="K1167" s="1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="1168" s="13" customFormat="1" spans="2:11">
       <c r="B1168" s="13" t="s">
-        <v>7464</v>
+        <v>7466</v>
       </c>
       <c r="E1168" s="1" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="F1168" s="39" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="G1168" s="17" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="H1168" s="17" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
       <c r="I1168" s="17" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="J1168" s="1" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="K1168" s="1" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1169" s="13" customFormat="1" spans="2:11">
       <c r="B1169" s="13" t="s">
-        <v>7465</v>
+        <v>7467</v>
       </c>
       <c r="E1169" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="F1169" s="39" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="G1169" s="17" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="H1169" s="17" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="I1169" s="17" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="K1169" s="1" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1170" s="13" customFormat="1" spans="2:11">
       <c r="B1170" s="13" t="s">
-        <v>7466</v>
+        <v>7468</v>
       </c>
       <c r="E1170" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F1170" s="39" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G1170" s="17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H1170" s="17" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I1170" s="17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J1170" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K1170" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1171" s="13" customFormat="1" spans="2:11">
+      <c r="B1171" s="13" t="s">
+        <v>7469</v>
+      </c>
+      <c r="E1171" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="F1170" s="39" t="s">
+      <c r="F1171" s="39" t="s">
         <v>1707</v>
       </c>
-      <c r="G1170" s="17" t="s">
+      <c r="G1171" s="17" t="s">
         <v>1708</v>
       </c>
-      <c r="H1170" s="17" t="s">
+      <c r="H1171" s="17" t="s">
         <v>1709</v>
       </c>
-      <c r="I1170" s="17" t="s">
+      <c r="I1171" s="17" t="s">
         <v>1710</v>
       </c>
-      <c r="J1170" s="1" t="s">
+      <c r="J1171" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="K1170" s="1" t="s">
+      <c r="K1171" s="1" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="1171" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1171" s="13" t="s">
-        <v>7467</v>
-      </c>
-      <c r="E1171" s="1" t="s">
+    <row r="1172" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1172" s="13" t="s">
+        <v>7470</v>
+      </c>
+      <c r="E1172" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="F1171" s="39" t="s">
+      <c r="F1172" s="39" t="s">
         <v>1713</v>
       </c>
-      <c r="G1171" s="17" t="s">
+      <c r="G1172" s="17" t="s">
         <v>1714</v>
       </c>
-      <c r="H1171" s="17" t="s">
+      <c r="H1172" s="17" t="s">
         <v>1715</v>
       </c>
-      <c r="I1171" s="17" t="s">
+      <c r="I1172" s="17" t="s">
         <v>1716</v>
       </c>
-      <c r="J1171" s="1" t="s">
+      <c r="J1172" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="K1171" s="1" t="s">
+      <c r="K1172" s="1" t="s">
         <v>1718</v>
-      </c>
-    </row>
-    <row r="1172" s="13" customFormat="1" spans="2:11">
-      <c r="B1172" s="13" t="s">
-        <v>7468</v>
-      </c>
-      <c r="E1172" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F1172" s="39" t="s">
-        <v>1721</v>
-      </c>
-      <c r="G1172" s="17" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H1172" s="17" t="s">
-        <v>1723</v>
-      </c>
-      <c r="I1172" s="17" t="s">
-        <v>1721</v>
-      </c>
-      <c r="J1172" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="K1172" s="1" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="1173" s="13" customFormat="1" spans="2:11">
       <c r="B1173" s="13" t="s">
-        <v>7469</v>
+        <v>7471</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="F1173" s="39" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="G1173" s="17" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="H1173" s="17" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="I1173" s="17" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="K1173" s="1" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1174" s="13" customFormat="1" spans="2:11">
       <c r="B1174" s="13" t="s">
-        <v>7470</v>
+        <v>7472</v>
       </c>
       <c r="E1174" s="1" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="F1174" s="39" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="G1174" s="17" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="H1174" s="17" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="I1174" s="17" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="K1174" s="1" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1175" s="13" customFormat="1" spans="2:11">
       <c r="B1175" s="13" t="s">
-        <v>7471</v>
+        <v>7473</v>
       </c>
       <c r="E1175" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F1175" s="39" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G1175" s="17" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H1175" s="17" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I1175" s="17" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J1175" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K1175" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1176" s="13" customFormat="1" spans="2:11">
+      <c r="B1176" s="13" t="s">
+        <v>7474</v>
+      </c>
+      <c r="E1176" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="F1175" s="39" t="s">
+      <c r="F1176" s="39" t="s">
         <v>1744</v>
       </c>
-      <c r="G1175" s="17" t="s">
+      <c r="G1176" s="17" t="s">
         <v>1744</v>
       </c>
-      <c r="H1175" s="17" t="s">
+      <c r="H1176" s="17" t="s">
         <v>1744</v>
       </c>
-      <c r="I1175" s="17" t="s">
+      <c r="I1176" s="17" t="s">
         <v>1745</v>
       </c>
-      <c r="J1175" s="1" t="s">
+      <c r="J1176" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="K1175" s="1" t="s">
+      <c r="K1176" s="1" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="1176" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1176" s="13" t="s">
-        <v>7472</v>
-      </c>
-      <c r="E1176" s="1" t="s">
+    <row r="1177" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1177" s="13" t="s">
+        <v>7475</v>
+      </c>
+      <c r="E1177" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="F1176" s="39" t="s">
+      <c r="F1177" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="G1176" s="39" t="s">
+      <c r="G1177" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="H1176" s="39" t="s">
+      <c r="H1177" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="I1176" s="39" t="s">
+      <c r="I1177" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="J1176" s="39" t="s">
+      <c r="J1177" s="39" t="s">
         <v>1750</v>
       </c>
-      <c r="K1176" s="39" t="s">
+      <c r="K1177" s="39" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="1177" s="13" customFormat="1" spans="2:11">
-      <c r="B1177" s="13" t="s">
-        <v>7473</v>
-      </c>
-      <c r="E1177" s="1" t="s">
+    <row r="1178" s="13" customFormat="1" spans="2:11">
+      <c r="B1178" s="13" t="s">
+        <v>7476</v>
+      </c>
+      <c r="E1178" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="F1177" s="39" t="s">
+      <c r="F1178" s="39" t="s">
         <v>1753</v>
       </c>
-      <c r="G1177" s="17" t="s">
+      <c r="G1178" s="17" t="s">
         <v>1754</v>
       </c>
-      <c r="H1177" s="17" t="s">
+      <c r="H1178" s="17" t="s">
         <v>1755</v>
       </c>
-      <c r="I1177" s="17" t="s">
+      <c r="I1178" s="17" t="s">
         <v>1756</v>
       </c>
-      <c r="J1177" s="1" t="s">
+      <c r="J1178" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="K1177" s="1" t="s">
+      <c r="K1178" s="1" t="s">
         <v>1758</v>
-      </c>
-    </row>
-    <row r="1178" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1178" s="13" t="s">
-        <v>7474</v>
-      </c>
-      <c r="E1178" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F1178" s="39" t="s">
-        <v>1761</v>
-      </c>
-      <c r="G1178" s="17" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H1178" s="17" t="s">
-        <v>1763</v>
-      </c>
-      <c r="I1178" s="17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="J1178" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="K1178" s="1" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1179" s="13" customFormat="1" ht="27" spans="2:11">
       <c r="B1179" s="13" t="s">
-        <v>7475</v>
+        <v>7477</v>
       </c>
       <c r="E1179" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F1179" s="39" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G1179" s="17" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H1179" s="17" t="s">
+        <v>1763</v>
+      </c>
+      <c r="I1179" s="17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J1179" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K1179" s="1" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1180" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1180" s="13" t="s">
+        <v>7478</v>
+      </c>
+      <c r="E1180" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="F1179" s="39" t="s">
+      <c r="F1180" s="39" t="s">
         <v>1769</v>
       </c>
-      <c r="G1179" s="17" t="s">
+      <c r="G1180" s="17" t="s">
         <v>1770</v>
       </c>
-      <c r="H1179" s="17" t="s">
+      <c r="H1180" s="17" t="s">
         <v>1771</v>
       </c>
-      <c r="I1179" s="17" t="s">
+      <c r="I1180" s="17" t="s">
         <v>1772</v>
       </c>
-      <c r="J1179" s="1" t="s">
+      <c r="J1180" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="K1179" s="1" t="s">
+      <c r="K1180" s="1" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="1180" s="13" customFormat="1" spans="2:11">
-      <c r="B1180" s="13" t="s">
-        <v>7476</v>
-      </c>
-      <c r="E1180" s="1" t="s">
+    <row r="1181" s="13" customFormat="1" spans="2:11">
+      <c r="B1181" s="13" t="s">
+        <v>7479</v>
+      </c>
+      <c r="E1181" s="1" t="s">
         <v>1776</v>
       </c>
-      <c r="F1180" s="39" t="s">
+      <c r="F1181" s="39" t="s">
         <v>1777</v>
       </c>
-      <c r="G1180" s="17" t="s">
+      <c r="G1181" s="17" t="s">
         <v>1778</v>
       </c>
-      <c r="H1180" s="17" t="s">
+      <c r="H1181" s="17" t="s">
         <v>1779</v>
       </c>
-      <c r="I1180" s="17" t="s">
+      <c r="I1181" s="17" t="s">
         <v>1780</v>
       </c>
-      <c r="J1180" s="1" t="s">
+      <c r="J1181" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="K1180" s="1" t="s">
+      <c r="K1181" s="1" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="1181" s="13" customFormat="1" ht="15.75" spans="2:11">
-      <c r="B1181" s="13" t="s">
-        <v>7477</v>
-      </c>
-      <c r="E1181" s="1" t="s">
+    <row r="1182" s="13" customFormat="1" ht="15.75" spans="2:11">
+      <c r="B1182" s="13" t="s">
+        <v>7480</v>
+      </c>
+      <c r="E1182" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="F1181" s="39" t="s">
+      <c r="F1182" s="39" t="s">
         <v>1785</v>
       </c>
-      <c r="G1181" s="17" t="s">
+      <c r="G1182" s="17" t="s">
         <v>1786</v>
       </c>
-      <c r="H1181" s="17" t="s">
+      <c r="H1182" s="17" t="s">
         <v>1786</v>
       </c>
-      <c r="I1181" s="42" t="s">
+      <c r="I1182" s="42" t="s">
         <v>1787</v>
       </c>
-      <c r="J1181" s="1" t="s">
+      <c r="J1182" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="K1181" s="1" t="s">
+      <c r="K1182" s="1" t="s">
         <v>1789</v>
-      </c>
-    </row>
-    <row r="1182" s="13" customFormat="1" spans="2:11">
-      <c r="B1182" s="13" t="s">
-        <v>7478</v>
-      </c>
-      <c r="E1182" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F1182" s="39" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G1182" s="17" t="s">
-        <v>1793</v>
-      </c>
-      <c r="H1182" s="17" t="s">
-        <v>1793</v>
-      </c>
-      <c r="I1182" s="17" t="s">
-        <v>1794</v>
-      </c>
-      <c r="J1182" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="K1182" s="1" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="1183" s="13" customFormat="1" spans="2:11">
       <c r="B1183" s="13" t="s">
-        <v>7479</v>
+        <v>7481</v>
       </c>
       <c r="E1183" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F1183" s="1" t="s">
-        <v>1799</v>
+        <v>1791</v>
+      </c>
+      <c r="F1183" s="39" t="s">
+        <v>1792</v>
       </c>
       <c r="G1183" s="17" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="H1183" s="17" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="I1183" s="17" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
       <c r="J1183" s="1" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="K1183" s="1" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1184" s="13" customFormat="1" spans="2:11">
       <c r="B1184" s="13" t="s">
-        <v>7480</v>
+        <v>7482</v>
       </c>
       <c r="E1184" s="1" t="s">
-        <v>1843</v>
+        <v>1798</v>
       </c>
       <c r="F1184" s="1" t="s">
-        <v>1844</v>
+        <v>1799</v>
       </c>
       <c r="G1184" s="17" t="s">
-        <v>1845</v>
+        <v>1799</v>
       </c>
       <c r="H1184" s="17" t="s">
-        <v>1846</v>
+        <v>1800</v>
       </c>
       <c r="I1184" s="17" t="s">
-        <v>1847</v>
+        <v>1799</v>
       </c>
       <c r="J1184" s="1" t="s">
-        <v>1848</v>
+        <v>1799</v>
       </c>
       <c r="K1184" s="1" t="s">
-        <v>1844</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1185" s="13" customFormat="1" spans="2:11">
       <c r="B1185" s="13" t="s">
-        <v>7481</v>
-      </c>
-      <c r="E1185" s="14" t="s">
+        <v>7483</v>
+      </c>
+      <c r="E1185" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F1185" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G1185" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H1185" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I1185" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J1185" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="K1185" s="1" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1186" s="13" customFormat="1" spans="2:11">
+      <c r="B1186" s="13" t="s">
+        <v>7484</v>
+      </c>
+      <c r="E1186" s="14" t="s">
         <v>1909</v>
       </c>
-      <c r="F1185" s="14" t="s">
+      <c r="F1186" s="14" t="s">
         <v>1910</v>
       </c>
-      <c r="G1185" s="14" t="s">
+      <c r="G1186" s="14" t="s">
         <v>1911</v>
       </c>
-      <c r="H1185" s="14" t="s">
+      <c r="H1186" s="14" t="s">
         <v>1912</v>
       </c>
-      <c r="I1185" s="14" t="s">
+      <c r="I1186" s="14" t="s">
         <v>1913</v>
       </c>
-      <c r="J1185" s="14" t="s">
+      <c r="J1186" s="14" t="s">
         <v>1914</v>
       </c>
-      <c r="K1185" s="14" t="s">
+      <c r="K1186" s="14" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="1186" s="13" customFormat="1" ht="27" spans="2:11">
-      <c r="B1186" s="13" t="s">
-        <v>7482</v>
-      </c>
-      <c r="E1186" s="14" t="s">
+    <row r="1187" s="13" customFormat="1" ht="27" spans="2:11">
+      <c r="B1187" s="13" t="s">
+        <v>7485</v>
+      </c>
+      <c r="E1187" s="14" t="s">
         <v>1916</v>
       </c>
-      <c r="F1186" s="14" t="s">
+      <c r="F1187" s="14" t="s">
         <v>1917</v>
       </c>
-      <c r="G1186" s="14" t="s">
+      <c r="G1187" s="14" t="s">
         <v>1918</v>
       </c>
-      <c r="H1186" s="14" t="s">
+      <c r="H1187" s="14" t="s">
         <v>1919</v>
       </c>
-      <c r="I1186" s="14" t="s">
+      <c r="I1187" s="14" t="s">
         <v>1920</v>
       </c>
-      <c r="J1186" s="14" t="s">
+      <c r="J1187" s="14" t="s">
         <v>1921</v>
       </c>
-      <c r="K1186" s="14" t="s">
+      <c r="K1187" s="14" t="s">
         <v>1922</v>
-      </c>
-    </row>
-    <row r="1187" s="13" customFormat="1" spans="2:11">
-      <c r="B1187" s="13" t="s">
-        <v>7483</v>
-      </c>
-      <c r="E1187" s="14" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F1187" s="14" t="s">
-        <v>1925</v>
-      </c>
-      <c r="G1187" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="H1187" s="14" t="s">
-        <v>1927</v>
-      </c>
-      <c r="I1187" s="14" t="s">
-        <v>1928</v>
-      </c>
-      <c r="J1187" s="14" t="s">
-        <v>1929</v>
-      </c>
-      <c r="K1187" s="14" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="1188" s="13" customFormat="1" spans="2:11">
       <c r="B1188" s="13" t="s">
-        <v>7484</v>
+        <v>7486</v>
       </c>
       <c r="E1188" s="14" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="F1188" s="14" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="G1188" s="14" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="H1188" s="14" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="I1188" s="14" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="J1188" s="14" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="K1188" s="14" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1189" s="13" customFormat="1" spans="2:11">
       <c r="B1189" s="13" t="s">
-        <v>7485</v>
-      </c>
-      <c r="E1189" s="41" t="s">
-        <v>1940</v>
+        <v>7487</v>
+      </c>
+      <c r="E1189" s="14" t="s">
+        <v>1932</v>
       </c>
       <c r="F1189" s="14" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="G1189" s="14" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="H1189" s="14" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="I1189" s="14" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="J1189" s="14" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="K1189" s="14" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1190" s="13" customFormat="1" spans="2:11">
       <c r="B1190" s="13" t="s">
-        <v>7486</v>
+        <v>7488</v>
       </c>
       <c r="E1190" s="41" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="F1190" s="14" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="G1190" s="14" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="H1190" s="14" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="I1190" s="14" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="J1190" s="14" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="K1190" s="14" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1191" s="13" customFormat="1" spans="2:11">
       <c r="B1191" s="13" t="s">
-        <v>7487</v>
+        <v>7489</v>
       </c>
       <c r="E1191" s="41" t="s">
-        <v>1959</v>
+        <v>1944</v>
       </c>
       <c r="F1191" s="14" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="G1191" s="14" t="s">
-        <v>1961</v>
+        <v>1946</v>
       </c>
       <c r="H1191" s="14" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="I1191" s="14" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="J1191" s="14" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="K1191" s="14" t="s">
-        <v>1963</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1192" s="13" customFormat="1" spans="2:11">
       <c r="B1192" s="13" t="s">
-        <v>7488</v>
+        <v>7490</v>
       </c>
       <c r="E1192" s="41" t="s">
-        <v>1867</v>
+        <v>1959</v>
       </c>
       <c r="F1192" s="14" t="s">
-        <v>1868</v>
+        <v>1960</v>
       </c>
       <c r="G1192" s="14" t="s">
-        <v>1869</v>
+        <v>1961</v>
       </c>
       <c r="H1192" s="14" t="s">
-        <v>1870</v>
+        <v>1960</v>
       </c>
       <c r="I1192" s="14" t="s">
-        <v>1871</v>
+        <v>1960</v>
       </c>
       <c r="J1192" s="14" t="s">
-        <v>1872</v>
+        <v>1962</v>
       </c>
       <c r="K1192" s="14" t="s">
-        <v>1872</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1193" s="13" customFormat="1" spans="2:11">
       <c r="B1193" s="13" t="s">
-        <v>7489</v>
+        <v>7491</v>
       </c>
       <c r="E1193" s="41" t="s">
-        <v>7490</v>
+        <v>1867</v>
       </c>
       <c r="F1193" s="14" t="s">
-        <v>7491</v>
+        <v>1868</v>
       </c>
       <c r="G1193" s="14" t="s">
-        <v>7491</v>
+        <v>1869</v>
       </c>
       <c r="H1193" s="14" t="s">
-        <v>7491</v>
+        <v>1870</v>
       </c>
       <c r="I1193" s="14" t="s">
-        <v>7491</v>
+        <v>1871</v>
       </c>
       <c r="J1193" s="14" t="s">
-        <v>7492</v>
+        <v>1872</v>
       </c>
       <c r="K1193" s="14" t="s">
-        <v>7492</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1194" s="13" customFormat="1" spans="2:11">
       <c r="B1194" s="13" t="s">
+        <v>7492</v>
+      </c>
+      <c r="E1194" s="41" t="s">
         <v>7493</v>
       </c>
-      <c r="E1194" s="41" t="s">
+      <c r="F1194" s="14" t="s">
         <v>7494</v>
       </c>
-      <c r="F1194" s="14" t="s">
-        <v>7495</v>
-      </c>
       <c r="G1194" s="14" t="s">
-        <v>7495</v>
+        <v>7494</v>
       </c>
       <c r="H1194" s="14" t="s">
-        <v>7495</v>
+        <v>7494</v>
       </c>
       <c r="I1194" s="14" t="s">
-        <v>7495</v>
+        <v>7494</v>
       </c>
       <c r="J1194" s="14" t="s">
         <v>7495</v>
@@ -58080,184 +58092,178 @@
         <v>7495</v>
       </c>
     </row>
-    <row r="1195" s="7" customFormat="1" ht="162" spans="2:11">
-      <c r="B1195" s="7" t="s">
+    <row r="1195" s="13" customFormat="1" spans="2:11">
+      <c r="B1195" s="13" t="s">
         <v>7496</v>
       </c>
-      <c r="C1195" s="7" t="s">
+      <c r="E1195" s="41" t="s">
         <v>7497</v>
       </c>
-      <c r="E1195" s="7" t="s">
+      <c r="F1195" s="14" t="s">
         <v>7498</v>
       </c>
-      <c r="F1195" s="7" t="s">
+      <c r="G1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="H1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="I1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="J1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="K1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="1196" s="7" customFormat="1" ht="162" spans="2:11">
+      <c r="B1196" s="7" t="s">
         <v>7499</v>
       </c>
-      <c r="G1195" s="7" t="s">
+      <c r="C1196" s="7" t="s">
         <v>7500</v>
       </c>
-      <c r="H1195" s="7" t="s">
+      <c r="E1196" s="7" t="s">
         <v>7501</v>
       </c>
-      <c r="I1195" s="7" t="s">
+      <c r="F1196" s="7" t="s">
         <v>7502</v>
       </c>
-      <c r="J1195" s="7" t="s">
+      <c r="G1196" s="7" t="s">
         <v>7503</v>
       </c>
-      <c r="K1195" s="7" t="s">
+      <c r="H1196" s="7" t="s">
         <v>7504</v>
       </c>
-    </row>
-    <row r="1196" ht="297" spans="2:11">
-      <c r="B1196" s="14" t="s">
+      <c r="I1196" s="7" t="s">
         <v>7505</v>
       </c>
-      <c r="C1196" s="14" t="s">
+      <c r="J1196" s="7" t="s">
         <v>7506</v>
       </c>
-      <c r="E1196" s="27" t="s">
+      <c r="K1196" s="7" t="s">
         <v>7507</v>
       </c>
-      <c r="F1196" s="14" t="s">
+    </row>
+    <row r="1197" ht="297" spans="2:11">
+      <c r="B1197" s="14" t="s">
         <v>7508</v>
       </c>
-      <c r="G1196" s="14" t="s">
+      <c r="C1197" s="14" t="s">
         <v>7509</v>
       </c>
-      <c r="H1196" s="14" t="s">
+      <c r="E1197" s="27" t="s">
         <v>7510</v>
       </c>
-      <c r="I1196" s="14" t="s">
+      <c r="F1197" s="14" t="s">
         <v>7511</v>
       </c>
-      <c r="J1196" s="14" t="s">
+      <c r="G1197" s="14" t="s">
         <v>7512</v>
       </c>
-      <c r="K1196" s="14" t="s">
-        <v>7512</v>
-      </c>
-    </row>
-    <row r="1197" s="2" customFormat="1" spans="2:11">
-      <c r="B1197" s="1" t="s">
+      <c r="H1197" s="14" t="s">
         <v>7513</v>
       </c>
-      <c r="C1197" s="1" t="s">
+      <c r="I1197" s="14" t="s">
         <v>7514</v>
       </c>
-      <c r="D1197" s="45" t="s">
-        <v>3050</v>
-      </c>
-      <c r="E1197" s="39" t="s">
+      <c r="J1197" s="14" t="s">
         <v>7515</v>
       </c>
-      <c r="F1197" s="39" t="s">
+      <c r="K1197" s="14" t="s">
+        <v>7515</v>
+      </c>
+    </row>
+    <row r="1198" s="2" customFormat="1" spans="2:11">
+      <c r="B1198" s="1" t="s">
         <v>7516</v>
       </c>
-      <c r="G1197" s="39" t="s">
+      <c r="C1198" s="1" t="s">
         <v>7517</v>
-      </c>
-      <c r="H1197" s="39" t="s">
-        <v>7517</v>
-      </c>
-      <c r="I1197" s="39" t="s">
-        <v>7517</v>
-      </c>
-      <c r="J1197" s="39" t="s">
-        <v>7518</v>
-      </c>
-      <c r="K1197" s="39" t="s">
-        <v>7518</v>
-      </c>
-    </row>
-    <row r="1198" spans="2:11">
-      <c r="B1198" s="1" t="s">
-        <v>7519</v>
-      </c>
-      <c r="C1198" s="14" t="s">
-        <v>7520</v>
       </c>
       <c r="D1198" s="45" t="s">
         <v>3050</v>
       </c>
-      <c r="E1198" s="14" t="s">
+      <c r="E1198" s="39" t="s">
+        <v>7518</v>
+      </c>
+      <c r="F1198" s="39" t="s">
+        <v>7519</v>
+      </c>
+      <c r="G1198" s="39" t="s">
+        <v>7520</v>
+      </c>
+      <c r="H1198" s="39" t="s">
+        <v>7520</v>
+      </c>
+      <c r="I1198" s="39" t="s">
+        <v>7520</v>
+      </c>
+      <c r="J1198" s="39" t="s">
         <v>7521</v>
       </c>
-      <c r="F1198" s="14" t="s">
-        <v>7522</v>
-      </c>
-      <c r="G1198" s="14" t="s">
-        <v>7523</v>
-      </c>
-      <c r="H1198" s="14" t="s">
-        <v>7523</v>
-      </c>
-      <c r="I1198" s="14" t="s">
-        <v>7523</v>
-      </c>
-      <c r="J1198" s="14" t="s">
-        <v>7524</v>
-      </c>
-      <c r="K1198" s="14" t="s">
-        <v>7524</v>
+      <c r="K1198" s="39" t="s">
+        <v>7521</v>
       </c>
     </row>
     <row r="1199" spans="2:11">
       <c r="B1199" s="1" t="s">
-        <v>7525</v>
+        <v>7522</v>
       </c>
       <c r="C1199" s="14" t="s">
-        <v>7526</v>
+        <v>7523</v>
       </c>
       <c r="D1199" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1199" s="14" t="s">
+        <v>7524</v>
+      </c>
+      <c r="F1199" s="14" t="s">
+        <v>7525</v>
+      </c>
+      <c r="G1199" s="14" t="s">
+        <v>7526</v>
+      </c>
+      <c r="H1199" s="14" t="s">
+        <v>7526</v>
+      </c>
+      <c r="I1199" s="14" t="s">
+        <v>7526</v>
+      </c>
+      <c r="J1199" s="14" t="s">
         <v>7527</v>
       </c>
-      <c r="F1199" s="14" t="s">
-        <v>7528</v>
-      </c>
-      <c r="G1199" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="H1199" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="I1199" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="J1199" s="14" t="s">
-        <v>7530</v>
-      </c>
       <c r="K1199" s="14" t="s">
-        <v>7530</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="1200" spans="2:11">
       <c r="B1200" s="1" t="s">
-        <v>7531</v>
+        <v>7528</v>
       </c>
       <c r="C1200" s="14" t="s">
-        <v>7532</v>
+        <v>7529</v>
       </c>
       <c r="D1200" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1200" s="14" t="s">
-        <v>7533</v>
+        <v>7530</v>
       </c>
       <c r="F1200" s="14" t="s">
-        <v>7533</v>
+        <v>7531</v>
       </c>
       <c r="G1200" s="14" t="s">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="H1200" s="14" t="s">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="I1200" s="14" t="s">
-        <v>7533</v>
+        <v>7532</v>
       </c>
       <c r="J1200" s="14" t="s">
         <v>7533</v>
@@ -58331,7 +58337,7 @@
       </c>
     </row>
     <row r="1203" spans="2:11">
-      <c r="B1203" s="14" t="s">
+      <c r="B1203" s="1" t="s">
         <v>7540</v>
       </c>
       <c r="C1203" s="14" t="s">
@@ -58344,1814 +58350,1846 @@
         <v>7542</v>
       </c>
       <c r="F1203" s="14" t="s">
-        <v>7543</v>
+        <v>7542</v>
       </c>
       <c r="G1203" s="14" t="s">
-        <v>7544</v>
+        <v>7542</v>
       </c>
       <c r="H1203" s="14" t="s">
-        <v>7544</v>
+        <v>7542</v>
       </c>
       <c r="I1203" s="14" t="s">
-        <v>7544</v>
+        <v>7542</v>
       </c>
       <c r="J1203" s="14" t="s">
-        <v>7545</v>
+        <v>7542</v>
       </c>
       <c r="K1203" s="14" t="s">
-        <v>7545</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="1204" spans="2:11">
       <c r="B1204" s="14" t="s">
-        <v>7546</v>
+        <v>7543</v>
       </c>
       <c r="C1204" s="14" t="s">
-        <v>7547</v>
+        <v>7544</v>
       </c>
       <c r="D1204" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1204" s="14" t="s">
+        <v>7545</v>
+      </c>
+      <c r="F1204" s="14" t="s">
+        <v>7546</v>
+      </c>
+      <c r="G1204" s="14" t="s">
+        <v>7547</v>
+      </c>
+      <c r="H1204" s="14" t="s">
+        <v>7547</v>
+      </c>
+      <c r="I1204" s="14" t="s">
+        <v>7547</v>
+      </c>
+      <c r="J1204" s="14" t="s">
         <v>7548</v>
       </c>
-      <c r="F1204" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="G1204" s="14" t="s">
-        <v>7550</v>
-      </c>
-      <c r="H1204" s="14" t="s">
-        <v>7550</v>
-      </c>
-      <c r="I1204" s="14" t="s">
-        <v>7550</v>
-      </c>
-      <c r="J1204" s="14" t="s">
-        <v>7551</v>
-      </c>
       <c r="K1204" s="14" t="s">
-        <v>7551</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="1205" spans="2:11">
       <c r="B1205" s="14" t="s">
-        <v>7552</v>
+        <v>7549</v>
       </c>
       <c r="C1205" s="14" t="s">
-        <v>7553</v>
+        <v>7550</v>
       </c>
       <c r="D1205" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1205" s="14" t="s">
+        <v>7551</v>
+      </c>
+      <c r="F1205" s="14" t="s">
+        <v>7552</v>
+      </c>
+      <c r="G1205" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="H1205" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="I1205" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="J1205" s="14" t="s">
         <v>7554</v>
       </c>
-      <c r="F1205" s="14" t="s">
-        <v>7555</v>
-      </c>
-      <c r="G1205" s="14" t="s">
-        <v>7556</v>
-      </c>
-      <c r="H1205" s="14" t="s">
-        <v>7556</v>
-      </c>
-      <c r="I1205" s="14" t="s">
-        <v>7556</v>
-      </c>
-      <c r="J1205" s="14" t="s">
-        <v>7557</v>
-      </c>
       <c r="K1205" s="14" t="s">
-        <v>7557</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="1206" spans="2:11">
       <c r="B1206" s="14" t="s">
-        <v>7558</v>
+        <v>7555</v>
       </c>
       <c r="C1206" s="14" t="s">
-        <v>7559</v>
+        <v>7556</v>
       </c>
       <c r="D1206" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1206" s="14" t="s">
+        <v>7557</v>
+      </c>
+      <c r="F1206" s="14" t="s">
+        <v>7558</v>
+      </c>
+      <c r="G1206" s="14" t="s">
+        <v>7559</v>
+      </c>
+      <c r="H1206" s="14" t="s">
+        <v>7559</v>
+      </c>
+      <c r="I1206" s="14" t="s">
+        <v>7559</v>
+      </c>
+      <c r="J1206" s="14" t="s">
         <v>7560</v>
       </c>
-      <c r="F1206" s="14" t="s">
-        <v>7561</v>
-      </c>
-      <c r="G1206" s="14" t="s">
-        <v>7562</v>
-      </c>
-      <c r="H1206" s="14" t="s">
-        <v>7562</v>
-      </c>
-      <c r="I1206" s="14" t="s">
-        <v>7562</v>
-      </c>
-      <c r="J1206" s="14" t="s">
-        <v>7563</v>
-      </c>
       <c r="K1206" s="14" t="s">
-        <v>7563</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="1207" spans="2:11">
       <c r="B1207" s="14" t="s">
-        <v>7564</v>
+        <v>7561</v>
       </c>
       <c r="C1207" s="14" t="s">
-        <v>7565</v>
+        <v>7562</v>
       </c>
       <c r="D1207" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1207" s="14" t="s">
+        <v>7563</v>
+      </c>
+      <c r="F1207" s="14" t="s">
+        <v>7564</v>
+      </c>
+      <c r="G1207" s="14" t="s">
+        <v>7565</v>
+      </c>
+      <c r="H1207" s="14" t="s">
+        <v>7565</v>
+      </c>
+      <c r="I1207" s="14" t="s">
+        <v>7565</v>
+      </c>
+      <c r="J1207" s="14" t="s">
         <v>7566</v>
       </c>
-      <c r="F1207" s="14" t="s">
-        <v>7567</v>
-      </c>
-      <c r="G1207" s="14" t="s">
-        <v>7568</v>
-      </c>
-      <c r="H1207" s="14" t="s">
-        <v>7568</v>
-      </c>
-      <c r="I1207" s="14" t="s">
-        <v>7568</v>
-      </c>
-      <c r="J1207" s="14" t="s">
-        <v>7569</v>
-      </c>
       <c r="K1207" s="14" t="s">
-        <v>7569</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="1208" spans="2:11">
       <c r="B1208" s="14" t="s">
-        <v>7570</v>
+        <v>7567</v>
       </c>
       <c r="C1208" s="14" t="s">
-        <v>7571</v>
+        <v>7568</v>
       </c>
       <c r="D1208" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1208" s="14" t="s">
+        <v>7569</v>
+      </c>
+      <c r="F1208" s="14" t="s">
+        <v>7570</v>
+      </c>
+      <c r="G1208" s="14" t="s">
+        <v>7571</v>
+      </c>
+      <c r="H1208" s="14" t="s">
+        <v>7571</v>
+      </c>
+      <c r="I1208" s="14" t="s">
+        <v>7571</v>
+      </c>
+      <c r="J1208" s="14" t="s">
         <v>7572</v>
       </c>
-      <c r="F1208" s="14" t="s">
-        <v>7573</v>
-      </c>
-      <c r="G1208" s="14" t="s">
-        <v>7574</v>
-      </c>
-      <c r="H1208" s="14" t="s">
-        <v>7574</v>
-      </c>
-      <c r="I1208" s="14" t="s">
-        <v>7574</v>
-      </c>
-      <c r="J1208" s="14" t="s">
-        <v>7575</v>
-      </c>
       <c r="K1208" s="14" t="s">
-        <v>7575</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="1209" spans="2:11">
       <c r="B1209" s="14" t="s">
-        <v>7576</v>
-      </c>
-      <c r="C1209" s="1" t="s">
-        <v>1662</v>
+        <v>7573</v>
+      </c>
+      <c r="C1209" s="14" t="s">
+        <v>7574</v>
       </c>
       <c r="D1209" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1209" s="14" t="s">
+        <v>7575</v>
+      </c>
+      <c r="F1209" s="14" t="s">
+        <v>7576</v>
+      </c>
+      <c r="G1209" s="14" t="s">
         <v>7577</v>
       </c>
-      <c r="F1209" s="14" t="s">
+      <c r="H1209" s="14" t="s">
+        <v>7577</v>
+      </c>
+      <c r="I1209" s="14" t="s">
+        <v>7577</v>
+      </c>
+      <c r="J1209" s="14" t="s">
         <v>7578</v>
       </c>
-      <c r="G1209" s="14" t="s">
-        <v>7579</v>
-      </c>
-      <c r="H1209" s="14" t="s">
-        <v>7579</v>
-      </c>
-      <c r="I1209" s="14" t="s">
-        <v>7579</v>
-      </c>
-      <c r="J1209" s="14" t="s">
-        <v>7580</v>
-      </c>
       <c r="K1209" s="14" t="s">
-        <v>7580</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="1210" spans="2:11">
       <c r="B1210" s="14" t="s">
-        <v>7581</v>
+        <v>7579</v>
       </c>
       <c r="C1210" s="1" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="D1210" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1210" s="14" t="s">
+        <v>7580</v>
+      </c>
+      <c r="F1210" s="14" t="s">
+        <v>7581</v>
+      </c>
+      <c r="G1210" s="14" t="s">
         <v>7582</v>
       </c>
-      <c r="F1210" s="14" t="s">
+      <c r="H1210" s="14" t="s">
+        <v>7582</v>
+      </c>
+      <c r="I1210" s="14" t="s">
+        <v>7582</v>
+      </c>
+      <c r="J1210" s="14" t="s">
         <v>7583</v>
       </c>
-      <c r="G1210" s="14" t="s">
-        <v>7584</v>
-      </c>
-      <c r="H1210" s="14" t="s">
-        <v>7584</v>
-      </c>
-      <c r="I1210" s="14" t="s">
-        <v>7584</v>
-      </c>
-      <c r="J1210" s="14" t="s">
-        <v>7585</v>
-      </c>
       <c r="K1210" s="14" t="s">
-        <v>7585</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="1211" spans="2:11">
       <c r="B1211" s="14" t="s">
-        <v>7586</v>
+        <v>7584</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="D1211" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1211" s="14" t="s">
+        <v>7585</v>
+      </c>
+      <c r="F1211" s="14" t="s">
+        <v>7586</v>
+      </c>
+      <c r="G1211" s="14" t="s">
         <v>7587</v>
       </c>
-      <c r="F1211" s="14" t="s">
+      <c r="H1211" s="14" t="s">
+        <v>7587</v>
+      </c>
+      <c r="I1211" s="14" t="s">
+        <v>7587</v>
+      </c>
+      <c r="J1211" s="14" t="s">
         <v>7588</v>
       </c>
-      <c r="G1211" s="14" t="s">
-        <v>7589</v>
-      </c>
-      <c r="H1211" s="14" t="s">
-        <v>7589</v>
-      </c>
-      <c r="I1211" s="14" t="s">
-        <v>7589</v>
-      </c>
-      <c r="J1211" s="14" t="s">
-        <v>7590</v>
-      </c>
       <c r="K1211" s="14" t="s">
-        <v>7590</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="1212" spans="2:11">
       <c r="B1212" s="14" t="s">
-        <v>7591</v>
+        <v>7589</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="D1212" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1212" s="14" t="s">
+        <v>7590</v>
+      </c>
+      <c r="F1212" s="14" t="s">
+        <v>7591</v>
+      </c>
+      <c r="G1212" s="14" t="s">
         <v>7592</v>
       </c>
-      <c r="F1212" s="14" t="s">
+      <c r="H1212" s="14" t="s">
+        <v>7592</v>
+      </c>
+      <c r="I1212" s="14" t="s">
+        <v>7592</v>
+      </c>
+      <c r="J1212" s="14" t="s">
         <v>7593</v>
       </c>
-      <c r="G1212" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="H1212" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="I1212" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="J1212" s="14" t="s">
-        <v>7595</v>
-      </c>
       <c r="K1212" s="14" t="s">
-        <v>7595</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="1213" spans="2:11">
       <c r="B1213" s="14" t="s">
-        <v>7596</v>
+        <v>7594</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="D1213" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1213" s="14" t="s">
+        <v>7595</v>
+      </c>
+      <c r="F1213" s="14" t="s">
+        <v>7596</v>
+      </c>
+      <c r="G1213" s="14" t="s">
         <v>7597</v>
       </c>
-      <c r="F1213" s="14" t="s">
+      <c r="H1213" s="14" t="s">
+        <v>7597</v>
+      </c>
+      <c r="I1213" s="14" t="s">
+        <v>7597</v>
+      </c>
+      <c r="J1213" s="14" t="s">
         <v>7598</v>
       </c>
-      <c r="G1213" s="14" t="s">
-        <v>7599</v>
-      </c>
-      <c r="H1213" s="14" t="s">
-        <v>7599</v>
-      </c>
-      <c r="I1213" s="14" t="s">
-        <v>7599</v>
-      </c>
-      <c r="J1213" s="14" t="s">
-        <v>7600</v>
-      </c>
       <c r="K1213" s="14" t="s">
-        <v>7600</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="1214" spans="2:11">
       <c r="B1214" s="14" t="s">
-        <v>7601</v>
+        <v>7599</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="D1214" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1214" s="14" t="s">
+        <v>7600</v>
+      </c>
+      <c r="F1214" s="14" t="s">
+        <v>7601</v>
+      </c>
+      <c r="G1214" s="14" t="s">
         <v>7602</v>
       </c>
-      <c r="F1214" s="14" t="s">
+      <c r="H1214" s="14" t="s">
+        <v>7602</v>
+      </c>
+      <c r="I1214" s="14" t="s">
+        <v>7602</v>
+      </c>
+      <c r="J1214" s="14" t="s">
         <v>7603</v>
       </c>
-      <c r="G1214" s="14" t="s">
-        <v>7604</v>
-      </c>
-      <c r="H1214" s="14" t="s">
-        <v>7604</v>
-      </c>
-      <c r="I1214" s="14" t="s">
-        <v>7604</v>
-      </c>
-      <c r="J1214" s="14" t="s">
-        <v>7605</v>
-      </c>
       <c r="K1214" s="14" t="s">
-        <v>7605</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="1215" spans="2:11">
       <c r="B1215" s="14" t="s">
-        <v>7606</v>
+        <v>7604</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="D1215" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1215" s="14" t="s">
+        <v>7605</v>
+      </c>
+      <c r="F1215" s="14" t="s">
+        <v>7606</v>
+      </c>
+      <c r="G1215" s="14" t="s">
         <v>7607</v>
       </c>
-      <c r="F1215" s="14" t="s">
+      <c r="H1215" s="14" t="s">
+        <v>7607</v>
+      </c>
+      <c r="I1215" s="14" t="s">
+        <v>7607</v>
+      </c>
+      <c r="J1215" s="14" t="s">
         <v>7608</v>
       </c>
-      <c r="G1215" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="H1215" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="I1215" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="J1215" s="14" t="s">
-        <v>7610</v>
-      </c>
       <c r="K1215" s="14" t="s">
-        <v>7610</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="1216" spans="2:11">
       <c r="B1216" s="14" t="s">
-        <v>7611</v>
+        <v>7609</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="D1216" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1216" s="14" t="s">
+        <v>7610</v>
+      </c>
+      <c r="F1216" s="14" t="s">
+        <v>7611</v>
+      </c>
+      <c r="G1216" s="14" t="s">
         <v>7612</v>
       </c>
-      <c r="F1216" s="14" t="s">
+      <c r="H1216" s="14" t="s">
+        <v>7612</v>
+      </c>
+      <c r="I1216" s="14" t="s">
+        <v>7612</v>
+      </c>
+      <c r="J1216" s="14" t="s">
         <v>7613</v>
       </c>
-      <c r="G1216" s="14" t="s">
-        <v>7614</v>
-      </c>
-      <c r="H1216" s="14" t="s">
-        <v>7614</v>
-      </c>
-      <c r="I1216" s="14" t="s">
-        <v>7614</v>
-      </c>
-      <c r="J1216" s="14" t="s">
-        <v>7615</v>
-      </c>
       <c r="K1216" s="14" t="s">
-        <v>7615</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="1217" spans="2:11">
       <c r="B1217" s="14" t="s">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="D1217" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1217" s="14" t="s">
+        <v>7615</v>
+      </c>
+      <c r="F1217" s="14" t="s">
+        <v>7616</v>
+      </c>
+      <c r="G1217" s="14" t="s">
         <v>7617</v>
       </c>
-      <c r="F1217" s="14" t="s">
+      <c r="H1217" s="14" t="s">
+        <v>7617</v>
+      </c>
+      <c r="I1217" s="14" t="s">
+        <v>7617</v>
+      </c>
+      <c r="J1217" s="14" t="s">
         <v>7618</v>
       </c>
-      <c r="G1217" s="14" t="s">
-        <v>7619</v>
-      </c>
-      <c r="H1217" s="14" t="s">
-        <v>7619</v>
-      </c>
-      <c r="I1217" s="14" t="s">
-        <v>7619</v>
-      </c>
-      <c r="J1217" s="14" t="s">
-        <v>7620</v>
-      </c>
       <c r="K1217" s="14" t="s">
-        <v>7620</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="1218" spans="2:11">
       <c r="B1218" s="14" t="s">
-        <v>7621</v>
+        <v>7619</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="D1218" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1218" s="14" t="s">
+        <v>7620</v>
+      </c>
+      <c r="F1218" s="14" t="s">
+        <v>7621</v>
+      </c>
+      <c r="G1218" s="14" t="s">
         <v>7622</v>
       </c>
-      <c r="F1218" s="14" t="s">
+      <c r="H1218" s="14" t="s">
+        <v>7622</v>
+      </c>
+      <c r="I1218" s="14" t="s">
+        <v>7622</v>
+      </c>
+      <c r="J1218" s="14" t="s">
         <v>7623</v>
       </c>
-      <c r="G1218" s="14" t="s">
-        <v>7624</v>
-      </c>
-      <c r="H1218" s="14" t="s">
-        <v>7624</v>
-      </c>
-      <c r="I1218" s="14" t="s">
-        <v>7624</v>
-      </c>
-      <c r="J1218" s="14" t="s">
-        <v>7625</v>
-      </c>
       <c r="K1218" s="14" t="s">
-        <v>7625</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="1219" spans="2:11">
       <c r="B1219" s="14" t="s">
-        <v>7626</v>
+        <v>7624</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D1219" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1219" s="14" t="s">
+        <v>7625</v>
+      </c>
+      <c r="F1219" s="14" t="s">
+        <v>7626</v>
+      </c>
+      <c r="G1219" s="14" t="s">
         <v>7627</v>
       </c>
-      <c r="F1219" s="14" t="s">
+      <c r="H1219" s="14" t="s">
+        <v>7627</v>
+      </c>
+      <c r="I1219" s="14" t="s">
+        <v>7627</v>
+      </c>
+      <c r="J1219" s="14" t="s">
         <v>7628</v>
       </c>
-      <c r="G1219" s="14" t="s">
-        <v>7629</v>
-      </c>
-      <c r="H1219" s="14" t="s">
-        <v>7629</v>
-      </c>
-      <c r="I1219" s="14" t="s">
-        <v>7629</v>
-      </c>
-      <c r="J1219" s="14" t="s">
-        <v>7630</v>
-      </c>
       <c r="K1219" s="14" t="s">
-        <v>7630</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="1220" spans="2:11">
       <c r="B1220" s="14" t="s">
-        <v>7631</v>
+        <v>7629</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>1749</v>
+        <v>1735</v>
       </c>
       <c r="D1220" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1220" s="14" t="s">
+        <v>7630</v>
+      </c>
+      <c r="F1220" s="14" t="s">
+        <v>7631</v>
+      </c>
+      <c r="G1220" s="14" t="s">
         <v>7632</v>
       </c>
-      <c r="F1220" s="14" t="s">
+      <c r="H1220" s="14" t="s">
+        <v>7632</v>
+      </c>
+      <c r="I1220" s="14" t="s">
+        <v>7632</v>
+      </c>
+      <c r="J1220" s="14" t="s">
         <v>7633</v>
       </c>
-      <c r="G1220" s="14" t="s">
-        <v>7634</v>
-      </c>
-      <c r="H1220" s="14" t="s">
-        <v>7634</v>
-      </c>
-      <c r="I1220" s="14" t="s">
-        <v>7634</v>
-      </c>
-      <c r="J1220" s="14" t="s">
-        <v>7635</v>
-      </c>
       <c r="K1220" s="14" t="s">
-        <v>7635</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="1221" spans="2:11">
       <c r="B1221" s="14" t="s">
-        <v>7636</v>
+        <v>7634</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D1221" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1221" s="14" t="s">
+        <v>7635</v>
+      </c>
+      <c r="F1221" s="14" t="s">
+        <v>7636</v>
+      </c>
+      <c r="G1221" s="14" t="s">
         <v>7637</v>
       </c>
-      <c r="F1221" s="14" t="s">
+      <c r="H1221" s="14" t="s">
+        <v>7637</v>
+      </c>
+      <c r="I1221" s="14" t="s">
+        <v>7637</v>
+      </c>
+      <c r="J1221" s="14" t="s">
         <v>7638</v>
       </c>
-      <c r="G1221" s="14" t="s">
-        <v>7639</v>
-      </c>
-      <c r="H1221" s="14" t="s">
-        <v>7639</v>
-      </c>
-      <c r="I1221" s="14" t="s">
-        <v>7639</v>
-      </c>
-      <c r="J1221" s="14" t="s">
-        <v>7640</v>
-      </c>
       <c r="K1221" s="14" t="s">
-        <v>7640</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="1222" spans="2:11">
       <c r="B1222" s="14" t="s">
-        <v>7641</v>
+        <v>7639</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="D1222" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1222" s="14" t="s">
+        <v>7640</v>
+      </c>
+      <c r="F1222" s="14" t="s">
+        <v>7641</v>
+      </c>
+      <c r="G1222" s="14" t="s">
         <v>7642</v>
       </c>
-      <c r="F1222" s="14" t="s">
+      <c r="H1222" s="14" t="s">
+        <v>7642</v>
+      </c>
+      <c r="I1222" s="14" t="s">
+        <v>7642</v>
+      </c>
+      <c r="J1222" s="14" t="s">
         <v>7643</v>
       </c>
-      <c r="G1222" s="14" t="s">
-        <v>7644</v>
-      </c>
-      <c r="H1222" s="14" t="s">
-        <v>7644</v>
-      </c>
-      <c r="I1222" s="14" t="s">
-        <v>7644</v>
-      </c>
-      <c r="J1222" s="14" t="s">
-        <v>7645</v>
-      </c>
       <c r="K1222" s="14" t="s">
-        <v>7645</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="1223" spans="2:11">
       <c r="B1223" s="14" t="s">
-        <v>7646</v>
+        <v>7644</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="D1223" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1223" s="14" t="s">
+        <v>7645</v>
+      </c>
+      <c r="F1223" s="14" t="s">
+        <v>7646</v>
+      </c>
+      <c r="G1223" s="14" t="s">
         <v>7647</v>
       </c>
-      <c r="F1223" s="14" t="s">
+      <c r="H1223" s="14" t="s">
+        <v>7647</v>
+      </c>
+      <c r="I1223" s="14" t="s">
+        <v>7647</v>
+      </c>
+      <c r="J1223" s="14" t="s">
         <v>7648</v>
       </c>
-      <c r="G1223" s="14" t="s">
-        <v>7649</v>
-      </c>
-      <c r="H1223" s="14" t="s">
-        <v>7649</v>
-      </c>
-      <c r="I1223" s="14" t="s">
-        <v>7649</v>
-      </c>
-      <c r="J1223" s="14" t="s">
-        <v>7650</v>
-      </c>
       <c r="K1223" s="14" t="s">
-        <v>7650</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="1224" spans="2:11">
       <c r="B1224" s="14" t="s">
-        <v>7651</v>
+        <v>7649</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="D1224" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1224" s="14" t="s">
+        <v>7650</v>
+      </c>
+      <c r="F1224" s="14" t="s">
+        <v>7651</v>
+      </c>
+      <c r="G1224" s="14" t="s">
         <v>7652</v>
       </c>
-      <c r="F1224" s="14" t="s">
+      <c r="H1224" s="14" t="s">
+        <v>7652</v>
+      </c>
+      <c r="I1224" s="14" t="s">
+        <v>7652</v>
+      </c>
+      <c r="J1224" s="14" t="s">
         <v>7653</v>
       </c>
-      <c r="G1224" s="14" t="s">
-        <v>7654</v>
-      </c>
-      <c r="H1224" s="14" t="s">
-        <v>7654</v>
-      </c>
-      <c r="I1224" s="14" t="s">
-        <v>7654</v>
-      </c>
-      <c r="J1224" s="14" t="s">
-        <v>7655</v>
-      </c>
       <c r="K1224" s="14" t="s">
-        <v>7655</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="1225" spans="2:11">
       <c r="B1225" s="14" t="s">
-        <v>7656</v>
+        <v>7654</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="D1225" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1225" s="14" t="s">
+        <v>7655</v>
+      </c>
+      <c r="F1225" s="14" t="s">
+        <v>7656</v>
+      </c>
+      <c r="G1225" s="14" t="s">
         <v>7657</v>
       </c>
-      <c r="F1225" s="14" t="s">
+      <c r="H1225" s="14" t="s">
+        <v>7657</v>
+      </c>
+      <c r="I1225" s="14" t="s">
+        <v>7657</v>
+      </c>
+      <c r="J1225" s="14" t="s">
         <v>7658</v>
       </c>
-      <c r="G1225" s="14" t="s">
-        <v>7659</v>
-      </c>
-      <c r="H1225" s="14" t="s">
-        <v>7659</v>
-      </c>
-      <c r="I1225" s="14" t="s">
-        <v>7659</v>
-      </c>
-      <c r="J1225" s="14" t="s">
-        <v>7660</v>
-      </c>
       <c r="K1225" s="14" t="s">
-        <v>7660</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="1226" spans="2:11">
       <c r="B1226" s="14" t="s">
-        <v>7661</v>
+        <v>7659</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="D1226" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1226" s="14" t="s">
+        <v>7660</v>
+      </c>
+      <c r="F1226" s="14" t="s">
+        <v>7661</v>
+      </c>
+      <c r="G1226" s="14" t="s">
         <v>7662</v>
       </c>
-      <c r="F1226" s="14" t="s">
+      <c r="H1226" s="14" t="s">
+        <v>7662</v>
+      </c>
+      <c r="I1226" s="14" t="s">
+        <v>7662</v>
+      </c>
+      <c r="J1226" s="14" t="s">
         <v>7663</v>
       </c>
-      <c r="G1226" s="14" t="s">
-        <v>7664</v>
-      </c>
-      <c r="H1226" s="14" t="s">
-        <v>7664</v>
-      </c>
-      <c r="I1226" s="14" t="s">
-        <v>7664</v>
-      </c>
-      <c r="J1226" s="14" t="s">
-        <v>7665</v>
-      </c>
       <c r="K1226" s="14" t="s">
-        <v>7665</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="1227" spans="2:11">
       <c r="B1227" s="14" t="s">
-        <v>7666</v>
+        <v>7664</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="D1227" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1227" s="14" t="s">
+        <v>7665</v>
+      </c>
+      <c r="F1227" s="14" t="s">
+        <v>7666</v>
+      </c>
+      <c r="G1227" s="14" t="s">
         <v>7667</v>
       </c>
-      <c r="F1227" s="14" t="s">
+      <c r="H1227" s="14" t="s">
+        <v>7667</v>
+      </c>
+      <c r="I1227" s="14" t="s">
+        <v>7667</v>
+      </c>
+      <c r="J1227" s="14" t="s">
         <v>7668</v>
       </c>
-      <c r="G1227" s="14" t="s">
-        <v>7669</v>
-      </c>
-      <c r="H1227" s="14" t="s">
-        <v>7669</v>
-      </c>
-      <c r="I1227" s="14" t="s">
-        <v>7669</v>
-      </c>
-      <c r="J1227" s="14" t="s">
-        <v>7670</v>
-      </c>
       <c r="K1227" s="14" t="s">
-        <v>7670</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="1228" spans="2:11">
       <c r="B1228" s="14" t="s">
-        <v>7671</v>
+        <v>7669</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>1843</v>
+        <v>1798</v>
       </c>
       <c r="D1228" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1228" s="14" t="s">
+        <v>7670</v>
+      </c>
+      <c r="F1228" s="14" t="s">
+        <v>7671</v>
+      </c>
+      <c r="G1228" s="14" t="s">
         <v>7672</v>
       </c>
-      <c r="F1228" s="14" t="s">
+      <c r="H1228" s="14" t="s">
+        <v>7672</v>
+      </c>
+      <c r="I1228" s="14" t="s">
+        <v>7672</v>
+      </c>
+      <c r="J1228" s="14" t="s">
         <v>7673</v>
       </c>
-      <c r="G1228" s="14" t="s">
-        <v>7674</v>
-      </c>
-      <c r="H1228" s="14" t="s">
-        <v>7674</v>
-      </c>
-      <c r="I1228" s="14" t="s">
-        <v>7674</v>
-      </c>
-      <c r="J1228" s="14" t="s">
-        <v>7675</v>
-      </c>
       <c r="K1228" s="14" t="s">
-        <v>7675</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="1229" spans="2:11">
       <c r="B1229" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="C1229" s="14" t="s">
-        <v>7677</v>
+        <v>7674</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>1843</v>
       </c>
       <c r="D1229" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1229" s="14" t="s">
+        <v>7675</v>
+      </c>
+      <c r="F1229" s="14" t="s">
+        <v>7676</v>
+      </c>
+      <c r="G1229" s="14" t="s">
+        <v>7677</v>
+      </c>
+      <c r="H1229" s="14" t="s">
+        <v>7677</v>
+      </c>
+      <c r="I1229" s="14" t="s">
+        <v>7677</v>
+      </c>
+      <c r="J1229" s="14" t="s">
         <v>7678</v>
       </c>
-      <c r="F1229" s="14" t="s">
-        <v>7679</v>
-      </c>
-      <c r="G1229" s="14" t="s">
-        <v>7680</v>
-      </c>
-      <c r="H1229" s="14" t="s">
-        <v>7680</v>
-      </c>
-      <c r="I1229" s="14" t="s">
-        <v>7680</v>
-      </c>
-      <c r="J1229" s="14" t="s">
-        <v>7681</v>
-      </c>
       <c r="K1229" s="14" t="s">
-        <v>7681</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="1230" spans="2:11">
       <c r="B1230" s="14" t="s">
-        <v>7682</v>
+        <v>7679</v>
       </c>
       <c r="C1230" s="14" t="s">
-        <v>7683</v>
+        <v>7680</v>
       </c>
       <c r="D1230" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1230" s="14" t="s">
+        <v>7681</v>
+      </c>
+      <c r="F1230" s="14" t="s">
+        <v>7682</v>
+      </c>
+      <c r="G1230" s="14" t="s">
+        <v>7683</v>
+      </c>
+      <c r="H1230" s="14" t="s">
+        <v>7683</v>
+      </c>
+      <c r="I1230" s="14" t="s">
+        <v>7683</v>
+      </c>
+      <c r="J1230" s="14" t="s">
         <v>7684</v>
       </c>
-      <c r="F1230" s="14" t="s">
-        <v>7685</v>
-      </c>
-      <c r="G1230" s="14" t="s">
-        <v>7686</v>
-      </c>
-      <c r="H1230" s="14" t="s">
-        <v>7686</v>
-      </c>
-      <c r="I1230" s="14" t="s">
-        <v>7686</v>
-      </c>
-      <c r="J1230" s="14" t="s">
-        <v>7687</v>
-      </c>
       <c r="K1230" s="14" t="s">
-        <v>7687</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="1231" spans="2:11">
       <c r="B1231" s="14" t="s">
-        <v>7688</v>
+        <v>7685</v>
       </c>
       <c r="C1231" s="14" t="s">
-        <v>7689</v>
+        <v>7686</v>
       </c>
       <c r="D1231" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1231" s="14" t="s">
+        <v>7687</v>
+      </c>
+      <c r="F1231" s="14" t="s">
+        <v>7688</v>
+      </c>
+      <c r="G1231" s="14" t="s">
+        <v>7689</v>
+      </c>
+      <c r="H1231" s="14" t="s">
+        <v>7689</v>
+      </c>
+      <c r="I1231" s="14" t="s">
+        <v>7689</v>
+      </c>
+      <c r="J1231" s="14" t="s">
         <v>7690</v>
       </c>
-      <c r="F1231" s="14" t="s">
-        <v>7691</v>
-      </c>
-      <c r="G1231" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="H1231" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="I1231" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="J1231" s="14" t="s">
-        <v>7693</v>
-      </c>
       <c r="K1231" s="14" t="s">
-        <v>7693</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="1232" spans="2:11">
       <c r="B1232" s="14" t="s">
-        <v>7694</v>
+        <v>7691</v>
       </c>
       <c r="C1232" s="14" t="s">
-        <v>7695</v>
+        <v>7692</v>
       </c>
       <c r="D1232" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1232" s="14" t="s">
+        <v>7693</v>
+      </c>
+      <c r="F1232" s="14" t="s">
+        <v>7694</v>
+      </c>
+      <c r="G1232" s="14" t="s">
+        <v>7695</v>
+      </c>
+      <c r="H1232" s="14" t="s">
+        <v>7695</v>
+      </c>
+      <c r="I1232" s="14" t="s">
+        <v>7695</v>
+      </c>
+      <c r="J1232" s="14" t="s">
         <v>7696</v>
       </c>
-      <c r="F1232" s="14" t="s">
-        <v>7697</v>
-      </c>
-      <c r="G1232" s="14" t="s">
-        <v>7698</v>
-      </c>
-      <c r="H1232" s="14" t="s">
-        <v>7698</v>
-      </c>
-      <c r="I1232" s="14" t="s">
-        <v>7698</v>
-      </c>
-      <c r="J1232" s="14" t="s">
-        <v>7699</v>
-      </c>
       <c r="K1232" s="14" t="s">
-        <v>7699</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="1233" spans="2:11">
       <c r="B1233" s="14" t="s">
-        <v>7700</v>
-      </c>
-      <c r="C1233" s="41" t="s">
-        <v>7701</v>
+        <v>7697</v>
+      </c>
+      <c r="C1233" s="14" t="s">
+        <v>7698</v>
       </c>
       <c r="D1233" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1233" s="14" t="s">
+        <v>7699</v>
+      </c>
+      <c r="F1233" s="14" t="s">
+        <v>7700</v>
+      </c>
+      <c r="G1233" s="14" t="s">
+        <v>7701</v>
+      </c>
+      <c r="H1233" s="14" t="s">
+        <v>7701</v>
+      </c>
+      <c r="I1233" s="14" t="s">
+        <v>7701</v>
+      </c>
+      <c r="J1233" s="14" t="s">
         <v>7702</v>
       </c>
-      <c r="F1233" s="14" t="s">
-        <v>7703</v>
-      </c>
-      <c r="G1233" s="14" t="s">
-        <v>7704</v>
-      </c>
-      <c r="H1233" s="14" t="s">
-        <v>7704</v>
-      </c>
-      <c r="I1233" s="14" t="s">
-        <v>7704</v>
-      </c>
-      <c r="J1233" s="14" t="s">
-        <v>7705</v>
-      </c>
       <c r="K1233" s="14" t="s">
-        <v>7705</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="1234" spans="2:11">
       <c r="B1234" s="14" t="s">
-        <v>7706</v>
+        <v>7703</v>
       </c>
       <c r="C1234" s="41" t="s">
-        <v>7707</v>
+        <v>7704</v>
       </c>
       <c r="D1234" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1234" s="14" t="s">
+        <v>7705</v>
+      </c>
+      <c r="F1234" s="14" t="s">
+        <v>7706</v>
+      </c>
+      <c r="G1234" s="14" t="s">
+        <v>7707</v>
+      </c>
+      <c r="H1234" s="14" t="s">
+        <v>7707</v>
+      </c>
+      <c r="I1234" s="14" t="s">
+        <v>7707</v>
+      </c>
+      <c r="J1234" s="14" t="s">
         <v>7708</v>
       </c>
-      <c r="F1234" s="14" t="s">
-        <v>7709</v>
-      </c>
-      <c r="G1234" s="14" t="s">
-        <v>7710</v>
-      </c>
-      <c r="H1234" s="14" t="s">
-        <v>7710</v>
-      </c>
-      <c r="I1234" s="14" t="s">
-        <v>7710</v>
-      </c>
-      <c r="J1234" s="14" t="s">
-        <v>7711</v>
-      </c>
       <c r="K1234" s="14" t="s">
-        <v>7711</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="1235" spans="2:11">
       <c r="B1235" s="14" t="s">
-        <v>7712</v>
+        <v>7709</v>
       </c>
       <c r="C1235" s="41" t="s">
-        <v>7713</v>
+        <v>7710</v>
       </c>
       <c r="D1235" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1235" s="14" t="s">
+        <v>7711</v>
+      </c>
+      <c r="F1235" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="G1235" s="14" t="s">
+        <v>7713</v>
+      </c>
+      <c r="H1235" s="14" t="s">
+        <v>7713</v>
+      </c>
+      <c r="I1235" s="14" t="s">
+        <v>7713</v>
+      </c>
+      <c r="J1235" s="14" t="s">
         <v>7714</v>
       </c>
-      <c r="F1235" s="14" t="s">
-        <v>7715</v>
-      </c>
-      <c r="G1235" s="14" t="s">
-        <v>7716</v>
-      </c>
-      <c r="H1235" s="14" t="s">
-        <v>7716</v>
-      </c>
-      <c r="I1235" s="14" t="s">
-        <v>7716</v>
-      </c>
-      <c r="J1235" s="14" t="s">
-        <v>7717</v>
-      </c>
       <c r="K1235" s="14" t="s">
-        <v>7717</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="1236" spans="2:11">
       <c r="B1236" s="14" t="s">
-        <v>7718</v>
+        <v>7715</v>
       </c>
       <c r="C1236" s="41" t="s">
-        <v>7719</v>
+        <v>7716</v>
       </c>
       <c r="D1236" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1236" s="14" t="s">
+        <v>7717</v>
+      </c>
+      <c r="F1236" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="G1236" s="14" t="s">
+        <v>7719</v>
+      </c>
+      <c r="H1236" s="14" t="s">
+        <v>7719</v>
+      </c>
+      <c r="I1236" s="14" t="s">
+        <v>7719</v>
+      </c>
+      <c r="J1236" s="14" t="s">
         <v>7720</v>
       </c>
-      <c r="F1236" s="14" t="s">
-        <v>7721</v>
-      </c>
-      <c r="G1236" s="14" t="s">
-        <v>7722</v>
-      </c>
-      <c r="H1236" s="14" t="s">
-        <v>7722</v>
-      </c>
-      <c r="I1236" s="14" t="s">
-        <v>7722</v>
-      </c>
-      <c r="J1236" s="14" t="s">
-        <v>7723</v>
-      </c>
       <c r="K1236" s="14" t="s">
-        <v>7723</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="1237" spans="2:11">
       <c r="B1237" s="14" t="s">
-        <v>7724</v>
-      </c>
-      <c r="C1237" s="14" t="s">
-        <v>7725</v>
+        <v>7721</v>
+      </c>
+      <c r="C1237" s="41" t="s">
+        <v>7722</v>
       </c>
       <c r="D1237" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1237" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="F1237" s="14" t="s">
+        <v>7724</v>
+      </c>
+      <c r="G1237" s="14" t="s">
+        <v>7725</v>
+      </c>
+      <c r="H1237" s="14" t="s">
+        <v>7725</v>
+      </c>
+      <c r="I1237" s="14" t="s">
+        <v>7725</v>
+      </c>
+      <c r="J1237" s="14" t="s">
         <v>7726</v>
       </c>
-      <c r="F1237" s="14" t="s">
-        <v>7727</v>
-      </c>
-      <c r="G1237" s="14" t="s">
-        <v>7728</v>
-      </c>
-      <c r="H1237" s="14" t="s">
-        <v>7728</v>
-      </c>
-      <c r="I1237" s="14" t="s">
-        <v>7728</v>
-      </c>
-      <c r="J1237" s="14" t="s">
-        <v>7729</v>
-      </c>
       <c r="K1237" s="14" t="s">
-        <v>7729</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="1238" spans="2:11">
       <c r="B1238" s="14" t="s">
-        <v>7730</v>
+        <v>7727</v>
       </c>
       <c r="C1238" s="14" t="s">
-        <v>7731</v>
+        <v>7728</v>
       </c>
       <c r="D1238" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1238" s="14" t="s">
+        <v>7729</v>
+      </c>
+      <c r="F1238" s="14" t="s">
+        <v>7730</v>
+      </c>
+      <c r="G1238" s="14" t="s">
+        <v>7731</v>
+      </c>
+      <c r="H1238" s="14" t="s">
+        <v>7731</v>
+      </c>
+      <c r="I1238" s="14" t="s">
+        <v>7731</v>
+      </c>
+      <c r="J1238" s="14" t="s">
         <v>7732</v>
       </c>
-      <c r="F1238" s="14" t="s">
-        <v>7733</v>
-      </c>
-      <c r="G1238" s="14" t="s">
-        <v>7734</v>
-      </c>
-      <c r="H1238" s="14" t="s">
-        <v>7734</v>
-      </c>
-      <c r="I1238" s="14" t="s">
-        <v>7734</v>
-      </c>
-      <c r="J1238" s="14" t="s">
-        <v>7735</v>
-      </c>
       <c r="K1238" s="14" t="s">
-        <v>7735</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="1239" spans="2:11">
       <c r="B1239" s="14" t="s">
-        <v>7736</v>
+        <v>7733</v>
       </c>
       <c r="C1239" s="14" t="s">
-        <v>7737</v>
+        <v>7734</v>
       </c>
       <c r="D1239" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1239" s="14" t="s">
+        <v>7735</v>
+      </c>
+      <c r="F1239" s="14" t="s">
+        <v>7736</v>
+      </c>
+      <c r="G1239" s="14" t="s">
+        <v>7737</v>
+      </c>
+      <c r="H1239" s="14" t="s">
+        <v>7737</v>
+      </c>
+      <c r="I1239" s="14" t="s">
+        <v>7737</v>
+      </c>
+      <c r="J1239" s="14" t="s">
         <v>7738</v>
       </c>
-      <c r="F1239" s="14" t="s">
-        <v>7739</v>
-      </c>
-      <c r="G1239" s="14" t="s">
-        <v>7740</v>
-      </c>
-      <c r="H1239" s="14" t="s">
-        <v>7740</v>
-      </c>
-      <c r="I1239" s="14" t="s">
-        <v>7740</v>
-      </c>
-      <c r="J1239" s="14" t="s">
-        <v>7741</v>
-      </c>
       <c r="K1239" s="14" t="s">
-        <v>7741</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="1240" spans="2:11">
       <c r="B1240" s="14" t="s">
-        <v>7742</v>
+        <v>7739</v>
       </c>
       <c r="C1240" s="14" t="s">
-        <v>7743</v>
+        <v>7740</v>
       </c>
       <c r="D1240" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1240" s="14" t="s">
+        <v>7741</v>
+      </c>
+      <c r="F1240" s="14" t="s">
+        <v>7742</v>
+      </c>
+      <c r="G1240" s="14" t="s">
+        <v>7743</v>
+      </c>
+      <c r="H1240" s="14" t="s">
+        <v>7743</v>
+      </c>
+      <c r="I1240" s="14" t="s">
+        <v>7743</v>
+      </c>
+      <c r="J1240" s="14" t="s">
         <v>7744</v>
       </c>
-      <c r="F1240" s="14" t="s">
-        <v>7745</v>
-      </c>
-      <c r="G1240" s="14" t="s">
-        <v>7746</v>
-      </c>
-      <c r="H1240" s="14" t="s">
-        <v>7746</v>
-      </c>
-      <c r="I1240" s="14" t="s">
-        <v>7746</v>
-      </c>
-      <c r="J1240" s="14" t="s">
-        <v>7747</v>
-      </c>
       <c r="K1240" s="14" t="s">
-        <v>7747</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="1241" spans="2:11">
       <c r="B1241" s="14" t="s">
-        <v>7748</v>
+        <v>7745</v>
       </c>
       <c r="C1241" s="14" t="s">
-        <v>7749</v>
+        <v>7746</v>
       </c>
       <c r="D1241" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1241" s="14" t="s">
+        <v>7747</v>
+      </c>
+      <c r="F1241" s="14" t="s">
+        <v>7748</v>
+      </c>
+      <c r="G1241" s="14" t="s">
+        <v>7749</v>
+      </c>
+      <c r="H1241" s="14" t="s">
+        <v>7749</v>
+      </c>
+      <c r="I1241" s="14" t="s">
+        <v>7749</v>
+      </c>
+      <c r="J1241" s="14" t="s">
         <v>7750</v>
       </c>
-      <c r="F1241" s="14" t="s">
-        <v>7751</v>
-      </c>
-      <c r="G1241" s="14" t="s">
-        <v>7752</v>
-      </c>
-      <c r="H1241" s="14" t="s">
-        <v>7752</v>
-      </c>
-      <c r="I1241" s="14" t="s">
-        <v>7752</v>
-      </c>
-      <c r="J1241" s="14" t="s">
-        <v>7753</v>
-      </c>
       <c r="K1241" s="14" t="s">
-        <v>7753</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="1242" spans="2:11">
       <c r="B1242" s="14" t="s">
-        <v>7754</v>
+        <v>7751</v>
       </c>
       <c r="C1242" s="14" t="s">
-        <v>7755</v>
+        <v>7752</v>
       </c>
       <c r="D1242" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1242" s="14" t="s">
+        <v>7753</v>
+      </c>
+      <c r="F1242" s="14" t="s">
+        <v>7754</v>
+      </c>
+      <c r="G1242" s="14" t="s">
+        <v>7755</v>
+      </c>
+      <c r="H1242" s="14" t="s">
+        <v>7755</v>
+      </c>
+      <c r="I1242" s="14" t="s">
+        <v>7755</v>
+      </c>
+      <c r="J1242" s="14" t="s">
         <v>7756</v>
       </c>
-      <c r="F1242" s="14" t="s">
-        <v>7757</v>
-      </c>
-      <c r="G1242" s="14" t="s">
-        <v>7758</v>
-      </c>
-      <c r="H1242" s="14" t="s">
-        <v>7758</v>
-      </c>
-      <c r="I1242" s="14" t="s">
-        <v>7758</v>
-      </c>
-      <c r="J1242" s="14" t="s">
-        <v>7759</v>
-      </c>
       <c r="K1242" s="14" t="s">
-        <v>7759</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="1243" spans="2:11">
       <c r="B1243" s="14" t="s">
-        <v>7760</v>
+        <v>7757</v>
       </c>
       <c r="C1243" s="14" t="s">
-        <v>7761</v>
+        <v>7758</v>
       </c>
       <c r="D1243" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1243" s="14" t="s">
+        <v>7759</v>
+      </c>
+      <c r="F1243" s="14" t="s">
+        <v>7760</v>
+      </c>
+      <c r="G1243" s="14" t="s">
+        <v>7761</v>
+      </c>
+      <c r="H1243" s="14" t="s">
+        <v>7761</v>
+      </c>
+      <c r="I1243" s="14" t="s">
+        <v>7761</v>
+      </c>
+      <c r="J1243" s="14" t="s">
         <v>7762</v>
       </c>
-      <c r="F1243" s="14" t="s">
-        <v>7763</v>
-      </c>
-      <c r="G1243" s="14" t="s">
-        <v>7764</v>
-      </c>
-      <c r="H1243" s="14" t="s">
-        <v>7764</v>
-      </c>
-      <c r="I1243" s="14" t="s">
-        <v>7764</v>
-      </c>
-      <c r="J1243" s="14" t="s">
-        <v>7765</v>
-      </c>
       <c r="K1243" s="14" t="s">
-        <v>7765</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="1244" spans="2:11">
       <c r="B1244" s="14" t="s">
-        <v>7766</v>
+        <v>7763</v>
       </c>
       <c r="C1244" s="14" t="s">
-        <v>7767</v>
+        <v>7764</v>
       </c>
       <c r="D1244" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1244" s="14" t="s">
+        <v>7765</v>
+      </c>
+      <c r="F1244" s="14" t="s">
+        <v>7766</v>
+      </c>
+      <c r="G1244" s="14" t="s">
+        <v>7767</v>
+      </c>
+      <c r="H1244" s="14" t="s">
+        <v>7767</v>
+      </c>
+      <c r="I1244" s="14" t="s">
+        <v>7767</v>
+      </c>
+      <c r="J1244" s="14" t="s">
         <v>7768</v>
       </c>
-      <c r="F1244" s="14" t="s">
-        <v>7769</v>
-      </c>
-      <c r="G1244" s="14" t="s">
-        <v>7770</v>
-      </c>
-      <c r="H1244" s="14" t="s">
-        <v>7770</v>
-      </c>
-      <c r="I1244" s="14" t="s">
-        <v>7770</v>
-      </c>
-      <c r="J1244" s="14" t="s">
-        <v>7771</v>
-      </c>
       <c r="K1244" s="14" t="s">
-        <v>7771</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="1245" spans="2:11">
       <c r="B1245" s="14" t="s">
-        <v>7772</v>
+        <v>7769</v>
       </c>
       <c r="C1245" s="14" t="s">
-        <v>7773</v>
+        <v>7770</v>
       </c>
       <c r="D1245" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1245" s="14" t="s">
+        <v>7771</v>
+      </c>
+      <c r="F1245" s="14" t="s">
+        <v>7772</v>
+      </c>
+      <c r="G1245" s="14" t="s">
+        <v>7773</v>
+      </c>
+      <c r="H1245" s="14" t="s">
+        <v>7773</v>
+      </c>
+      <c r="I1245" s="14" t="s">
+        <v>7773</v>
+      </c>
+      <c r="J1245" s="14" t="s">
         <v>7774</v>
       </c>
-      <c r="F1245" s="14" t="s">
-        <v>7775</v>
-      </c>
-      <c r="G1245" s="14" t="s">
-        <v>7776</v>
-      </c>
-      <c r="H1245" s="14" t="s">
-        <v>7776</v>
-      </c>
-      <c r="I1245" s="14" t="s">
-        <v>7776</v>
-      </c>
-      <c r="J1245" s="14" t="s">
-        <v>7777</v>
-      </c>
       <c r="K1245" s="14" t="s">
-        <v>7777</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="1246" spans="2:11">
       <c r="B1246" s="14" t="s">
-        <v>7778</v>
+        <v>7775</v>
       </c>
       <c r="C1246" s="14" t="s">
-        <v>1802</v>
+        <v>7776</v>
       </c>
       <c r="D1246" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1246" s="14" t="s">
+        <v>7777</v>
+      </c>
+      <c r="F1246" s="14" t="s">
+        <v>7778</v>
+      </c>
+      <c r="G1246" s="14" t="s">
         <v>7779</v>
       </c>
-      <c r="F1246" s="14" t="s">
+      <c r="H1246" s="14" t="s">
+        <v>7779</v>
+      </c>
+      <c r="I1246" s="14" t="s">
+        <v>7779</v>
+      </c>
+      <c r="J1246" s="14" t="s">
         <v>7780</v>
       </c>
-      <c r="G1246" s="14" t="s">
-        <v>7781</v>
-      </c>
-      <c r="H1246" s="14" t="s">
-        <v>7781</v>
-      </c>
-      <c r="I1246" s="14" t="s">
-        <v>7781</v>
-      </c>
-      <c r="J1246" s="14" t="s">
-        <v>7782</v>
-      </c>
       <c r="K1246" s="14" t="s">
-        <v>7782</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="1247" spans="2:11">
       <c r="B1247" s="14" t="s">
-        <v>7783</v>
+        <v>7781</v>
       </c>
       <c r="C1247" s="14" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="D1247" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1247" s="14" t="s">
+        <v>7782</v>
+      </c>
+      <c r="F1247" s="14" t="s">
+        <v>7783</v>
+      </c>
+      <c r="G1247" s="14" t="s">
         <v>7784</v>
       </c>
-      <c r="F1247" s="14" t="s">
+      <c r="H1247" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="I1247" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="J1247" s="14" t="s">
         <v>7785</v>
       </c>
-      <c r="G1247" s="14" t="s">
-        <v>7786</v>
-      </c>
-      <c r="H1247" s="14" t="s">
-        <v>7786</v>
-      </c>
-      <c r="I1247" s="14" t="s">
-        <v>7786</v>
-      </c>
-      <c r="J1247" s="14" t="s">
-        <v>7787</v>
-      </c>
       <c r="K1247" s="14" t="s">
-        <v>7787</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="1248" spans="2:11">
       <c r="B1248" s="14" t="s">
-        <v>7788</v>
+        <v>7786</v>
       </c>
       <c r="C1248" s="14" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="D1248" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1248" s="14" t="s">
+        <v>7787</v>
+      </c>
+      <c r="F1248" s="14" t="s">
+        <v>7788</v>
+      </c>
+      <c r="G1248" s="14" t="s">
         <v>7789</v>
       </c>
-      <c r="F1248" s="14" t="s">
+      <c r="H1248" s="14" t="s">
+        <v>7789</v>
+      </c>
+      <c r="I1248" s="14" t="s">
+        <v>7789</v>
+      </c>
+      <c r="J1248" s="14" t="s">
         <v>7790</v>
       </c>
-      <c r="G1248" s="14" t="s">
-        <v>7791</v>
-      </c>
-      <c r="H1248" s="14" t="s">
-        <v>7791</v>
-      </c>
-      <c r="I1248" s="14" t="s">
-        <v>7791</v>
-      </c>
-      <c r="J1248" s="14" t="s">
-        <v>7792</v>
-      </c>
       <c r="K1248" s="14" t="s">
-        <v>7792</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="1249" spans="2:11">
       <c r="B1249" s="14" t="s">
-        <v>7793</v>
+        <v>7791</v>
       </c>
       <c r="C1249" s="14" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="D1249" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1249" s="14" t="s">
+        <v>7792</v>
+      </c>
+      <c r="F1249" s="14" t="s">
+        <v>7793</v>
+      </c>
+      <c r="G1249" s="14" t="s">
         <v>7794</v>
       </c>
-      <c r="F1249" s="14" t="s">
+      <c r="H1249" s="14" t="s">
+        <v>7794</v>
+      </c>
+      <c r="I1249" s="14" t="s">
+        <v>7794</v>
+      </c>
+      <c r="J1249" s="14" t="s">
         <v>7795</v>
       </c>
-      <c r="G1249" s="14" t="s">
-        <v>7796</v>
-      </c>
-      <c r="H1249" s="14" t="s">
-        <v>7796</v>
-      </c>
-      <c r="I1249" s="14" t="s">
-        <v>7796</v>
-      </c>
-      <c r="J1249" s="14" t="s">
-        <v>7797</v>
-      </c>
       <c r="K1249" s="14" t="s">
-        <v>7797</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="1250" spans="2:11">
       <c r="B1250" s="14" t="s">
-        <v>7798</v>
+        <v>7796</v>
       </c>
       <c r="C1250" s="14" t="s">
-        <v>7799</v>
+        <v>1821</v>
       </c>
       <c r="D1250" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1250" s="14" t="s">
+        <v>7797</v>
+      </c>
+      <c r="F1250" s="14" t="s">
+        <v>7798</v>
+      </c>
+      <c r="G1250" s="14" t="s">
+        <v>7799</v>
+      </c>
+      <c r="H1250" s="14" t="s">
+        <v>7799</v>
+      </c>
+      <c r="I1250" s="14" t="s">
+        <v>7799</v>
+      </c>
+      <c r="J1250" s="14" t="s">
         <v>7800</v>
       </c>
-      <c r="F1250" s="14" t="s">
-        <v>7801</v>
-      </c>
-      <c r="G1250" s="14" t="s">
-        <v>7802</v>
-      </c>
-      <c r="H1250" s="14" t="s">
-        <v>7802</v>
-      </c>
-      <c r="I1250" s="14" t="s">
-        <v>7802</v>
-      </c>
-      <c r="J1250" s="14" t="s">
-        <v>7803</v>
-      </c>
       <c r="K1250" s="14" t="s">
-        <v>7803</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="1251" spans="2:11">
       <c r="B1251" s="14" t="s">
-        <v>7804</v>
+        <v>7801</v>
       </c>
       <c r="C1251" s="14" t="s">
-        <v>7805</v>
+        <v>7802</v>
       </c>
       <c r="D1251" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1251" s="14" t="s">
+        <v>7803</v>
+      </c>
+      <c r="F1251" s="14" t="s">
+        <v>7804</v>
+      </c>
+      <c r="G1251" s="14" t="s">
+        <v>7805</v>
+      </c>
+      <c r="H1251" s="14" t="s">
+        <v>7805</v>
+      </c>
+      <c r="I1251" s="14" t="s">
+        <v>7805</v>
+      </c>
+      <c r="J1251" s="14" t="s">
         <v>7806</v>
       </c>
-      <c r="F1251" s="14" t="s">
-        <v>7807</v>
-      </c>
-      <c r="G1251" s="14" t="s">
-        <v>7808</v>
-      </c>
-      <c r="H1251" s="14" t="s">
-        <v>7808</v>
-      </c>
-      <c r="I1251" s="14" t="s">
-        <v>7808</v>
-      </c>
-      <c r="J1251" s="14" t="s">
-        <v>7809</v>
-      </c>
       <c r="K1251" s="14" t="s">
-        <v>7809</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="1252" spans="2:11">
       <c r="B1252" s="14" t="s">
-        <v>7810</v>
+        <v>7807</v>
       </c>
       <c r="C1252" s="14" t="s">
-        <v>7811</v>
+        <v>7808</v>
       </c>
       <c r="D1252" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1252" s="14" t="s">
+        <v>7809</v>
+      </c>
+      <c r="F1252" s="14" t="s">
+        <v>7810</v>
+      </c>
+      <c r="G1252" s="14" t="s">
+        <v>7811</v>
+      </c>
+      <c r="H1252" s="14" t="s">
+        <v>7811</v>
+      </c>
+      <c r="I1252" s="14" t="s">
+        <v>7811</v>
+      </c>
+      <c r="J1252" s="14" t="s">
         <v>7812</v>
       </c>
-      <c r="F1252" s="14" t="s">
-        <v>7813</v>
-      </c>
-      <c r="G1252" s="14" t="s">
-        <v>7814</v>
-      </c>
-      <c r="H1252" s="14" t="s">
-        <v>7814</v>
-      </c>
-      <c r="I1252" s="14" t="s">
-        <v>7814</v>
-      </c>
-      <c r="J1252" s="14" t="s">
-        <v>7815</v>
-      </c>
       <c r="K1252" s="14" t="s">
-        <v>7815</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="1253" spans="2:11">
       <c r="B1253" s="14" t="s">
-        <v>7816</v>
+        <v>7813</v>
       </c>
       <c r="C1253" s="14" t="s">
-        <v>7817</v>
+        <v>7814</v>
       </c>
       <c r="D1253" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1253" s="14" t="s">
+        <v>7815</v>
+      </c>
+      <c r="F1253" s="14" t="s">
+        <v>7816</v>
+      </c>
+      <c r="G1253" s="14" t="s">
+        <v>7817</v>
+      </c>
+      <c r="H1253" s="14" t="s">
+        <v>7817</v>
+      </c>
+      <c r="I1253" s="14" t="s">
+        <v>7817</v>
+      </c>
+      <c r="J1253" s="14" t="s">
         <v>7818</v>
       </c>
-      <c r="F1253" s="14" t="s">
-        <v>7819</v>
-      </c>
-      <c r="G1253" s="14" t="s">
-        <v>7820</v>
-      </c>
-      <c r="H1253" s="14" t="s">
-        <v>7820</v>
-      </c>
-      <c r="I1253" s="14" t="s">
-        <v>7820</v>
-      </c>
-      <c r="J1253" s="14" t="s">
-        <v>7821</v>
-      </c>
       <c r="K1253" s="14" t="s">
-        <v>7821</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="1254" spans="2:11">
       <c r="B1254" s="14" t="s">
-        <v>7822</v>
+        <v>7819</v>
       </c>
       <c r="C1254" s="14" t="s">
-        <v>7823</v>
+        <v>7820</v>
       </c>
       <c r="D1254" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1254" s="14" t="s">
+        <v>7821</v>
+      </c>
+      <c r="F1254" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="G1254" s="14" t="s">
+        <v>7823</v>
+      </c>
+      <c r="H1254" s="14" t="s">
+        <v>7823</v>
+      </c>
+      <c r="I1254" s="14" t="s">
+        <v>7823</v>
+      </c>
+      <c r="J1254" s="14" t="s">
         <v>7824</v>
       </c>
-      <c r="F1254" s="14" t="s">
-        <v>7825</v>
-      </c>
-      <c r="G1254" s="14" t="s">
-        <v>7826</v>
-      </c>
-      <c r="H1254" s="14" t="s">
-        <v>7826</v>
-      </c>
-      <c r="I1254" s="14" t="s">
-        <v>7826</v>
-      </c>
-      <c r="J1254" s="14" t="s">
-        <v>7827</v>
-      </c>
       <c r="K1254" s="14" t="s">
-        <v>7827</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="1255" spans="2:11">
       <c r="B1255" s="14" t="s">
-        <v>7828</v>
+        <v>7825</v>
       </c>
       <c r="C1255" s="14" t="s">
-        <v>7829</v>
+        <v>7826</v>
       </c>
       <c r="D1255" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1255" s="14" t="s">
+        <v>7827</v>
+      </c>
+      <c r="F1255" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="G1255" s="14" t="s">
+        <v>7829</v>
+      </c>
+      <c r="H1255" s="14" t="s">
+        <v>7829</v>
+      </c>
+      <c r="I1255" s="14" t="s">
+        <v>7829</v>
+      </c>
+      <c r="J1255" s="14" t="s">
         <v>7830</v>
       </c>
-      <c r="F1255" s="14" t="s">
-        <v>7831</v>
-      </c>
-      <c r="G1255" s="14" t="s">
-        <v>7832</v>
-      </c>
-      <c r="H1255" s="14" t="s">
-        <v>7832</v>
-      </c>
-      <c r="I1255" s="14" t="s">
-        <v>7832</v>
-      </c>
-      <c r="J1255" s="14" t="s">
-        <v>7833</v>
-      </c>
       <c r="K1255" s="14" t="s">
-        <v>7833</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="1256" spans="2:11">
       <c r="B1256" s="14" t="s">
-        <v>7834</v>
+        <v>7831</v>
       </c>
       <c r="C1256" s="14" t="s">
-        <v>7835</v>
+        <v>7832</v>
       </c>
       <c r="D1256" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1256" s="14" t="s">
+        <v>7833</v>
+      </c>
+      <c r="F1256" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="G1256" s="14" t="s">
+        <v>7835</v>
+      </c>
+      <c r="H1256" s="14" t="s">
+        <v>7835</v>
+      </c>
+      <c r="I1256" s="14" t="s">
+        <v>7835</v>
+      </c>
+      <c r="J1256" s="14" t="s">
         <v>7836</v>
       </c>
-      <c r="F1256" s="14" t="s">
-        <v>7837</v>
-      </c>
-      <c r="G1256" s="14" t="s">
-        <v>7838</v>
-      </c>
-      <c r="H1256" s="14" t="s">
-        <v>7838</v>
-      </c>
-      <c r="I1256" s="14" t="s">
-        <v>7838</v>
-      </c>
-      <c r="J1256" s="14" t="s">
-        <v>7839</v>
-      </c>
       <c r="K1256" s="14" t="s">
-        <v>7839</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="1257" spans="2:11">
       <c r="B1257" s="14" t="s">
-        <v>7840</v>
+        <v>7837</v>
       </c>
       <c r="C1257" s="14" t="s">
-        <v>7841</v>
+        <v>7838</v>
       </c>
       <c r="D1257" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1257" s="14" t="s">
+        <v>7839</v>
+      </c>
+      <c r="F1257" s="14" t="s">
+        <v>7840</v>
+      </c>
+      <c r="G1257" s="14" t="s">
+        <v>7841</v>
+      </c>
+      <c r="H1257" s="14" t="s">
+        <v>7841</v>
+      </c>
+      <c r="I1257" s="14" t="s">
+        <v>7841</v>
+      </c>
+      <c r="J1257" s="14" t="s">
         <v>7842</v>
       </c>
-      <c r="F1257" s="14" t="s">
-        <v>7843</v>
-      </c>
-      <c r="G1257" s="14" t="s">
-        <v>7844</v>
-      </c>
-      <c r="H1257" s="14" t="s">
-        <v>7844</v>
-      </c>
-      <c r="I1257" s="14" t="s">
-        <v>7844</v>
-      </c>
-      <c r="J1257" s="14" t="s">
-        <v>7845</v>
-      </c>
       <c r="K1257" s="14" t="s">
-        <v>7845</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="1258" spans="2:11">
       <c r="B1258" s="14" t="s">
-        <v>7846</v>
+        <v>7843</v>
       </c>
       <c r="C1258" s="14" t="s">
-        <v>7847</v>
+        <v>7844</v>
       </c>
       <c r="D1258" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1258" s="14" t="s">
+        <v>7845</v>
+      </c>
+      <c r="F1258" s="14" t="s">
+        <v>7846</v>
+      </c>
+      <c r="G1258" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="H1258" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="I1258" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="J1258" s="14" t="s">
         <v>7848</v>
       </c>
-      <c r="F1258" s="14" t="s">
-        <v>7849</v>
-      </c>
-      <c r="G1258" s="14" t="s">
-        <v>7850</v>
-      </c>
-      <c r="H1258" s="14" t="s">
-        <v>7850</v>
-      </c>
-      <c r="I1258" s="14" t="s">
-        <v>7850</v>
-      </c>
-      <c r="J1258" s="14" t="s">
-        <v>7851</v>
-      </c>
       <c r="K1258" s="14" t="s">
-        <v>7851</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="1259" spans="2:11">
       <c r="B1259" s="14" t="s">
-        <v>7852</v>
+        <v>7849</v>
       </c>
       <c r="C1259" s="14" t="s">
-        <v>7853</v>
+        <v>7850</v>
       </c>
       <c r="D1259" s="45" t="s">
         <v>3050</v>
       </c>
       <c r="E1259" s="14" t="s">
+        <v>7851</v>
+      </c>
+      <c r="F1259" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="G1259" s="14" t="s">
+        <v>7853</v>
+      </c>
+      <c r="H1259" s="14" t="s">
+        <v>7853</v>
+      </c>
+      <c r="I1259" s="14" t="s">
+        <v>7853</v>
+      </c>
+      <c r="J1259" s="14" t="s">
         <v>7854</v>
       </c>
-      <c r="F1259" s="14" t="s">
+      <c r="K1259" s="14" t="s">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:11">
+      <c r="B1260" s="14" t="s">
         <v>7855</v>
       </c>
-      <c r="G1259" s="14" t="s">
+      <c r="C1260" s="14" t="s">
         <v>7856</v>
       </c>
-      <c r="H1259" s="14" t="s">
-        <v>7856</v>
-      </c>
-      <c r="I1259" s="14" t="s">
-        <v>7856</v>
-      </c>
-      <c r="J1259" s="14" t="s">
+      <c r="D1260" s="45" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1260" s="14" t="s">
         <v>7857</v>
       </c>
-      <c r="K1259" s="14" t="s">
-        <v>7857</v>
+      <c r="F1260" s="14" t="s">
+        <v>7858</v>
+      </c>
+      <c r="G1260" s="14" t="s">
+        <v>7859</v>
+      </c>
+      <c r="H1260" s="14" t="s">
+        <v>7859</v>
+      </c>
+      <c r="I1260" s="14" t="s">
+        <v>7859</v>
+      </c>
+      <c r="J1260" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="K1260" s="14" t="s">
+        <v>7860</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="11775"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10373" uniqueCount="7864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10381" uniqueCount="7865">
   <si>
     <t>##var</t>
   </si>
@@ -84,7 +84,7 @@
     <t>類型(默認文本，可以添加Audio,Texture)</t>
   </si>
   <si>
-    <t>子游戏图片需要填写图集名字</t>
+    <t>子遊戲圖片需要填寫圖集名字</t>
   </si>
   <si>
     <t>中文</t>
@@ -23385,6 +23385,9 @@
     <t>The bets have reached the limit</t>
   </si>
   <si>
+    <t>369047</t>
+  </si>
+  <si>
     <t>400057</t>
   </si>
   <si>
@@ -24595,7 +24598,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -24678,6 +24681,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -24691,6 +24722,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24730,21 +24769,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -24795,28 +24819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24885,13 +24888,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24909,7 +24948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24933,18 +24990,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -24957,31 +25002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25005,18 +25026,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -25024,12 +25033,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25097,6 +25100,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -25125,21 +25143,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25198,148 +25201,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25389,10 +25392,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -25413,16 +25416,16 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -25542,52 +25545,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -25887,10 +25890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1260"/>
+  <dimension ref="A1:O1261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
-      <selection activeCell="E1146" sqref="E1146"/>
+      <selection activeCell="G1168" sqref="G1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -57864,112 +57867,115 @@
         <v>7465</v>
       </c>
     </row>
-    <row r="1165" s="13" customFormat="1" spans="2:12">
-      <c r="B1165" s="13" t="s">
+    <row r="1165" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1165" s="1"/>
+      <c r="B1165" s="14" t="s">
         <v>7466</v>
       </c>
-      <c r="E1165" s="1"/>
-      <c r="F1165" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="G1165" s="39" t="s">
-        <v>1665</v>
+      <c r="C1165" s="1"/>
+      <c r="D1165" s="45"/>
+      <c r="E1165" s="27"/>
+      <c r="F1165" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="G1165" s="1" t="s">
+        <v>917</v>
       </c>
       <c r="H1165" s="17" t="s">
-        <v>1666</v>
+        <v>918</v>
       </c>
       <c r="I1165" s="17" t="s">
-        <v>1667</v>
+        <v>919</v>
       </c>
       <c r="J1165" s="17" t="s">
-        <v>1668</v>
+        <v>920</v>
       </c>
       <c r="K1165" s="1" t="s">
-        <v>1669</v>
+        <v>921</v>
       </c>
       <c r="L1165" s="1" t="s">
-        <v>1670</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1166" s="13" customFormat="1" spans="2:12">
       <c r="B1166" s="13" t="s">
         <v>7467</v>
       </c>
-      <c r="E1166" s="8"/>
-      <c r="F1166" s="8" t="s">
-        <v>1672</v>
-      </c>
-      <c r="G1166" s="37" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H1166" s="38" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I1166" s="38" t="s">
-        <v>1675</v>
-      </c>
-      <c r="J1166" s="38" t="s">
-        <v>1676</v>
-      </c>
-      <c r="K1166" s="8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="L1166" s="8" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1167" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="E1166" s="1"/>
+      <c r="F1166" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G1166" s="39" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H1166" s="17" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I1166" s="17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J1166" s="17" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K1166" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L1166" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1167" s="13" customFormat="1" spans="2:12">
       <c r="B1167" s="13" t="s">
         <v>7468</v>
       </c>
-      <c r="E1167" s="1"/>
-      <c r="F1167" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G1167" s="39" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H1167" s="17" t="s">
-        <v>1682</v>
-      </c>
-      <c r="I1167" s="17" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J1167" s="17" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K1167" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="L1167" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="1168" s="13" customFormat="1" spans="2:12">
+      <c r="E1167" s="8"/>
+      <c r="F1167" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G1167" s="37" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H1167" s="38" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I1167" s="38" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J1167" s="38" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K1167" s="8" t="s">
+        <v>1677</v>
+      </c>
+      <c r="L1167" s="8" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1168" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1168" s="13" t="s">
         <v>7469</v>
       </c>
       <c r="E1168" s="1"/>
       <c r="F1168" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="G1168" s="39" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="H1168" s="17" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="I1168" s="17" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="J1168" s="17" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="K1168" s="1" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="L1168" s="1" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1169" s="13" customFormat="1" spans="2:12">
@@ -57978,25 +57984,25 @@
       </c>
       <c r="E1169" s="1"/>
       <c r="F1169" s="1" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="G1169" s="39" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="H1169" s="17" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="I1169" s="17" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
       <c r="J1169" s="17" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="K1169" s="1" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="L1169" s="1" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1170" s="13" customFormat="1" spans="2:12">
@@ -58005,25 +58011,25 @@
       </c>
       <c r="E1170" s="1"/>
       <c r="F1170" s="1" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="G1170" s="39" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="H1170" s="17" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="I1170" s="17" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="J1170" s="17" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="K1170" s="1" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="L1170" s="1" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1171" s="13" customFormat="1" spans="2:12">
@@ -58032,79 +58038,79 @@
       </c>
       <c r="E1171" s="1"/>
       <c r="F1171" s="1" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="G1171" s="39" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="H1171" s="17" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="I1171" s="17" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="J1171" s="17" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="K1171" s="1" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="L1171" s="1" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1172" s="13" customFormat="1" ht="27" spans="2:12">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1172" s="13" customFormat="1" spans="2:12">
       <c r="B1172" s="13" t="s">
         <v>7473</v>
       </c>
       <c r="E1172" s="1"/>
       <c r="F1172" s="1" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="G1172" s="39" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="H1172" s="17" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="I1172" s="17" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="J1172" s="17" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="K1172" s="1" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="L1172" s="1" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1173" s="13" customFormat="1" spans="2:12">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1173" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1173" s="13" t="s">
         <v>7474</v>
       </c>
       <c r="E1173" s="1"/>
       <c r="F1173" s="1" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="G1173" s="39" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="H1173" s="17" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="I1173" s="17" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="J1173" s="17" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="K1173" s="1" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="L1173" s="1" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1174" s="13" customFormat="1" spans="2:12">
@@ -58113,25 +58119,25 @@
       </c>
       <c r="E1174" s="1"/>
       <c r="F1174" s="1" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="G1174" s="39" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="H1174" s="17" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="I1174" s="17" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="J1174" s="17" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="K1174" s="1" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="L1174" s="1" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1175" s="13" customFormat="1" spans="2:12">
@@ -58140,25 +58146,25 @@
       </c>
       <c r="E1175" s="1"/>
       <c r="F1175" s="1" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="G1175" s="39" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="H1175" s="17" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="I1175" s="17" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="J1175" s="17" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="K1175" s="1" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="L1175" s="1" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1176" s="13" customFormat="1" spans="2:12">
@@ -58167,106 +58173,106 @@
       </c>
       <c r="E1176" s="1"/>
       <c r="F1176" s="1" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="G1176" s="39" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="H1176" s="17" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="I1176" s="17" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="J1176" s="17" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="K1176" s="1" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="L1176" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1177" s="13" customFormat="1" ht="27" spans="2:12">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1177" s="13" customFormat="1" spans="2:12">
       <c r="B1177" s="13" t="s">
         <v>7478</v>
       </c>
       <c r="E1177" s="1"/>
       <c r="F1177" s="1" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="G1177" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="H1177" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I1177" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="J1177" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="K1177" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="L1177" s="39" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1178" s="13" customFormat="1" spans="2:12">
+        <v>1746</v>
+      </c>
+      <c r="H1177" s="17" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I1177" s="17" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J1177" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K1177" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L1177" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1178" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1178" s="13" t="s">
         <v>7479</v>
       </c>
       <c r="E1178" s="1"/>
       <c r="F1178" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="G1178" s="39" t="s">
-        <v>1755</v>
-      </c>
-      <c r="H1178" s="17" t="s">
-        <v>1756</v>
-      </c>
-      <c r="I1178" s="17" t="s">
-        <v>1757</v>
-      </c>
-      <c r="J1178" s="17" t="s">
-        <v>1758</v>
-      </c>
-      <c r="K1178" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="L1178" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1179" s="13" customFormat="1" ht="27" spans="2:12">
+        <v>1752</v>
+      </c>
+      <c r="H1178" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I1178" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J1178" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K1178" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L1178" s="39" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1179" s="13" customFormat="1" spans="2:12">
       <c r="B1179" s="13" t="s">
         <v>7480</v>
       </c>
       <c r="E1179" s="1"/>
       <c r="F1179" s="1" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="G1179" s="39" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="H1179" s="17" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="I1179" s="17" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="J1179" s="17" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="K1179" s="1" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="L1179" s="1" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1180" s="13" customFormat="1" ht="27" spans="2:12">
@@ -58275,106 +58281,106 @@
       </c>
       <c r="E1180" s="1"/>
       <c r="F1180" s="1" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="G1180" s="39" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="H1180" s="17" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="I1180" s="17" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="J1180" s="17" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="K1180" s="1" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="L1180" s="1" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="1181" s="13" customFormat="1" spans="2:12">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1181" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1181" s="13" t="s">
         <v>7482</v>
       </c>
       <c r="E1181" s="1"/>
       <c r="F1181" s="1" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="G1181" s="39" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="H1181" s="17" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="I1181" s="17" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="J1181" s="17" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="K1181" s="1" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="L1181" s="1" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1182" s="13" customFormat="1" ht="15.75" spans="2:12">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1182" s="13" customFormat="1" spans="2:12">
       <c r="B1182" s="13" t="s">
         <v>7483</v>
       </c>
       <c r="E1182" s="1"/>
       <c r="F1182" s="1" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="G1182" s="39" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="H1182" s="17" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="I1182" s="17" t="s">
-        <v>1788</v>
-      </c>
-      <c r="J1182" s="42" t="s">
-        <v>1789</v>
+        <v>1781</v>
+      </c>
+      <c r="J1182" s="17" t="s">
+        <v>1782</v>
       </c>
       <c r="K1182" s="1" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="L1182" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1183" s="13" customFormat="1" spans="2:12">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1183" s="13" customFormat="1" ht="15.75" spans="2:12">
       <c r="B1183" s="13" t="s">
         <v>7484</v>
       </c>
       <c r="E1183" s="1"/>
       <c r="F1183" s="1" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="G1183" s="39" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="H1183" s="17" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="I1183" s="17" t="s">
-        <v>1795</v>
-      </c>
-      <c r="J1183" s="17" t="s">
-        <v>1796</v>
+        <v>1788</v>
+      </c>
+      <c r="J1183" s="42" t="s">
+        <v>1789</v>
       </c>
       <c r="K1183" s="1" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="L1183" s="1" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1184" s="13" customFormat="1" spans="2:12">
@@ -58383,25 +58389,25 @@
       </c>
       <c r="E1184" s="1"/>
       <c r="F1184" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G1184" s="1" t="s">
-        <v>1801</v>
+        <v>1793</v>
+      </c>
+      <c r="G1184" s="39" t="s">
+        <v>1794</v>
       </c>
       <c r="H1184" s="17" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="I1184" s="17" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="J1184" s="17" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
       <c r="K1184" s="1" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="L1184" s="1" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1185" s="13" customFormat="1" spans="2:12">
@@ -58410,106 +58416,106 @@
       </c>
       <c r="E1185" s="1"/>
       <c r="F1185" s="1" t="s">
-        <v>1845</v>
+        <v>1800</v>
       </c>
       <c r="G1185" s="1" t="s">
-        <v>1846</v>
+        <v>1801</v>
       </c>
       <c r="H1185" s="17" t="s">
-        <v>1847</v>
+        <v>1801</v>
       </c>
       <c r="I1185" s="17" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="J1185" s="17" t="s">
-        <v>1849</v>
+        <v>1801</v>
       </c>
       <c r="K1185" s="1" t="s">
-        <v>1850</v>
+        <v>1801</v>
       </c>
       <c r="L1185" s="1" t="s">
-        <v>1846</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1186" s="13" customFormat="1" spans="2:12">
       <c r="B1186" s="13" t="s">
         <v>7487</v>
       </c>
-      <c r="E1186" s="14"/>
-      <c r="F1186" s="14" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G1186" s="14" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H1186" s="14" t="s">
-        <v>1913</v>
-      </c>
-      <c r="I1186" s="14" t="s">
-        <v>1914</v>
-      </c>
-      <c r="J1186" s="14" t="s">
-        <v>1915</v>
-      </c>
-      <c r="K1186" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="L1186" s="14" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1187" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="E1186" s="1"/>
+      <c r="F1186" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G1186" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H1186" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I1186" s="17" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J1186" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K1186" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="L1186" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1187" s="13" customFormat="1" spans="2:12">
       <c r="B1187" s="13" t="s">
         <v>7488</v>
       </c>
       <c r="E1187" s="14"/>
       <c r="F1187" s="14" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="G1187" s="14" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="H1187" s="14" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="I1187" s="14" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="J1187" s="14" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="K1187" s="14" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="L1187" s="14" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1188" s="13" customFormat="1" spans="2:12">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1188" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1188" s="13" t="s">
         <v>7489</v>
       </c>
       <c r="E1188" s="14"/>
       <c r="F1188" s="14" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="G1188" s="14" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="H1188" s="14" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="I1188" s="14" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="J1188" s="14" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
       <c r="K1188" s="14" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="L1188" s="14" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1189" s="13" customFormat="1" spans="2:12">
@@ -58518,52 +58524,52 @@
       </c>
       <c r="E1189" s="14"/>
       <c r="F1189" s="14" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="G1189" s="14" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="H1189" s="14" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="I1189" s="14" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="J1189" s="14" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
       <c r="K1189" s="14" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="L1189" s="14" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1190" s="13" customFormat="1" spans="2:12">
       <c r="B1190" s="13" t="s">
         <v>7491</v>
       </c>
-      <c r="E1190" s="41"/>
-      <c r="F1190" s="41" t="s">
-        <v>1942</v>
+      <c r="E1190" s="14"/>
+      <c r="F1190" s="14" t="s">
+        <v>1934</v>
       </c>
       <c r="G1190" s="14" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
       <c r="H1190" s="14" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="I1190" s="14" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="J1190" s="14" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="K1190" s="14" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="L1190" s="14" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1191" s="13" customFormat="1" spans="2:12">
@@ -58572,25 +58578,25 @@
       </c>
       <c r="E1191" s="41"/>
       <c r="F1191" s="41" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="G1191" s="14" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="H1191" s="14" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="I1191" s="14" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="J1191" s="14" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="K1191" s="14" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="L1191" s="14" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1192" s="13" customFormat="1" spans="2:12">
@@ -58599,25 +58605,25 @@
       </c>
       <c r="E1192" s="41"/>
       <c r="F1192" s="41" t="s">
-        <v>1961</v>
+        <v>1946</v>
       </c>
       <c r="G1192" s="14" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="H1192" s="14" t="s">
-        <v>1963</v>
+        <v>1948</v>
       </c>
       <c r="I1192" s="14" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="J1192" s="14" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="K1192" s="14" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="L1192" s="14" t="s">
-        <v>1965</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1193" s="13" customFormat="1" spans="2:12">
@@ -58626,25 +58632,25 @@
       </c>
       <c r="E1193" s="41"/>
       <c r="F1193" s="41" t="s">
-        <v>1869</v>
+        <v>1961</v>
       </c>
       <c r="G1193" s="14" t="s">
-        <v>1870</v>
+        <v>1962</v>
       </c>
       <c r="H1193" s="14" t="s">
-        <v>1871</v>
+        <v>1963</v>
       </c>
       <c r="I1193" s="14" t="s">
-        <v>1872</v>
+        <v>1962</v>
       </c>
       <c r="J1193" s="14" t="s">
-        <v>1873</v>
+        <v>1962</v>
       </c>
       <c r="K1193" s="14" t="s">
-        <v>1874</v>
+        <v>1964</v>
       </c>
       <c r="L1193" s="14" t="s">
-        <v>1874</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1194" s="13" customFormat="1" spans="2:12">
@@ -58653,2128 +58659,2155 @@
       </c>
       <c r="E1194" s="41"/>
       <c r="F1194" s="41" t="s">
-        <v>7496</v>
+        <v>1869</v>
       </c>
       <c r="G1194" s="14" t="s">
-        <v>7497</v>
+        <v>1870</v>
       </c>
       <c r="H1194" s="14" t="s">
-        <v>7497</v>
+        <v>1871</v>
       </c>
       <c r="I1194" s="14" t="s">
-        <v>7497</v>
+        <v>1872</v>
       </c>
       <c r="J1194" s="14" t="s">
-        <v>7497</v>
+        <v>1873</v>
       </c>
       <c r="K1194" s="14" t="s">
-        <v>7498</v>
+        <v>1874</v>
       </c>
       <c r="L1194" s="14" t="s">
-        <v>7498</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1195" s="13" customFormat="1" spans="2:12">
       <c r="B1195" s="13" t="s">
-        <v>7499</v>
+        <v>7496</v>
       </c>
       <c r="E1195" s="41"/>
       <c r="F1195" s="41" t="s">
+        <v>7497</v>
+      </c>
+      <c r="G1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="H1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="I1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="J1195" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="K1195" s="14" t="s">
+        <v>7499</v>
+      </c>
+      <c r="L1195" s="14" t="s">
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="1196" s="13" customFormat="1" spans="2:12">
+      <c r="B1196" s="13" t="s">
         <v>7500</v>
       </c>
-      <c r="G1195" s="14" t="s">
+      <c r="E1196" s="41"/>
+      <c r="F1196" s="41" t="s">
         <v>7501</v>
       </c>
-      <c r="H1195" s="14" t="s">
-        <v>7501</v>
-      </c>
-      <c r="I1195" s="14" t="s">
-        <v>7501</v>
-      </c>
-      <c r="J1195" s="14" t="s">
-        <v>7501</v>
-      </c>
-      <c r="K1195" s="14" t="s">
-        <v>7501</v>
-      </c>
-      <c r="L1195" s="14" t="s">
-        <v>7501</v>
-      </c>
-    </row>
-    <row r="1196" s="7" customFormat="1" ht="162" spans="2:12">
-      <c r="B1196" s="7" t="s">
+      <c r="G1196" s="14" t="s">
         <v>7502</v>
       </c>
-      <c r="C1196" s="7" t="s">
+      <c r="H1196" s="14" t="s">
+        <v>7502</v>
+      </c>
+      <c r="I1196" s="14" t="s">
+        <v>7502</v>
+      </c>
+      <c r="J1196" s="14" t="s">
+        <v>7502</v>
+      </c>
+      <c r="K1196" s="14" t="s">
+        <v>7502</v>
+      </c>
+      <c r="L1196" s="14" t="s">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="1197" s="7" customFormat="1" ht="162" spans="2:12">
+      <c r="B1197" s="7" t="s">
         <v>7503</v>
       </c>
-      <c r="F1196" s="7" t="s">
+      <c r="C1197" s="7" t="s">
         <v>7504</v>
       </c>
-      <c r="G1196" s="7" t="s">
+      <c r="F1197" s="7" t="s">
         <v>7505</v>
       </c>
-      <c r="H1196" s="7" t="s">
+      <c r="G1197" s="7" t="s">
         <v>7506</v>
       </c>
-      <c r="I1196" s="7" t="s">
+      <c r="H1197" s="7" t="s">
         <v>7507</v>
       </c>
-      <c r="J1196" s="7" t="s">
+      <c r="I1197" s="7" t="s">
         <v>7508</v>
       </c>
-      <c r="K1196" s="7" t="s">
+      <c r="J1197" s="7" t="s">
         <v>7509</v>
       </c>
-      <c r="L1196" s="7" t="s">
+      <c r="K1197" s="7" t="s">
         <v>7510</v>
       </c>
-    </row>
-    <row r="1197" ht="297" spans="2:12">
-      <c r="B1197" s="14" t="s">
+      <c r="L1197" s="7" t="s">
         <v>7511</v>
       </c>
-      <c r="C1197" s="14" t="s">
+    </row>
+    <row r="1198" ht="297" spans="2:12">
+      <c r="B1198" s="14" t="s">
         <v>7512</v>
       </c>
-      <c r="E1197" s="27"/>
-      <c r="F1197" s="27" t="s">
+      <c r="C1198" s="14" t="s">
         <v>7513</v>
       </c>
-      <c r="G1197" s="14" t="s">
+      <c r="E1198" s="27"/>
+      <c r="F1198" s="27" t="s">
         <v>7514</v>
       </c>
-      <c r="H1197" s="14" t="s">
+      <c r="G1198" s="14" t="s">
         <v>7515</v>
       </c>
-      <c r="I1197" s="14" t="s">
+      <c r="H1198" s="14" t="s">
         <v>7516</v>
       </c>
-      <c r="J1197" s="14" t="s">
+      <c r="I1198" s="14" t="s">
         <v>7517</v>
       </c>
-      <c r="K1197" s="14" t="s">
+      <c r="J1198" s="14" t="s">
         <v>7518</v>
       </c>
-      <c r="L1197" s="14" t="s">
-        <v>7518</v>
-      </c>
-    </row>
-    <row r="1198" s="2" customFormat="1" spans="2:12">
-      <c r="B1198" s="1" t="s">
+      <c r="K1198" s="14" t="s">
         <v>7519</v>
       </c>
-      <c r="C1198" s="1" t="s">
+      <c r="L1198" s="14" t="s">
+        <v>7519</v>
+      </c>
+    </row>
+    <row r="1199" s="2" customFormat="1" spans="2:12">
+      <c r="B1199" s="1" t="s">
         <v>7520</v>
       </c>
-      <c r="D1198" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1198" s="39"/>
-      <c r="F1198" s="39" t="s">
+      <c r="C1199" s="1" t="s">
         <v>7521</v>
-      </c>
-      <c r="G1198" s="39" t="s">
-        <v>7522</v>
-      </c>
-      <c r="H1198" s="39" t="s">
-        <v>7523</v>
-      </c>
-      <c r="I1198" s="39" t="s">
-        <v>7523</v>
-      </c>
-      <c r="J1198" s="39" t="s">
-        <v>7523</v>
-      </c>
-      <c r="K1198" s="39" t="s">
-        <v>7524</v>
-      </c>
-      <c r="L1198" s="39" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="1199" spans="2:12">
-      <c r="B1199" s="1" t="s">
-        <v>7525</v>
-      </c>
-      <c r="C1199" s="14" t="s">
-        <v>7526</v>
       </c>
       <c r="D1199" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="F1199" s="14" t="s">
-        <v>7527</v>
-      </c>
-      <c r="G1199" s="14" t="s">
-        <v>7528</v>
-      </c>
-      <c r="H1199" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="I1199" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="J1199" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="K1199" s="14" t="s">
-        <v>7530</v>
-      </c>
-      <c r="L1199" s="14" t="s">
-        <v>7530</v>
+      <c r="E1199" s="39"/>
+      <c r="F1199" s="39" t="s">
+        <v>7522</v>
+      </c>
+      <c r="G1199" s="39" t="s">
+        <v>7523</v>
+      </c>
+      <c r="H1199" s="39" t="s">
+        <v>7524</v>
+      </c>
+      <c r="I1199" s="39" t="s">
+        <v>7524</v>
+      </c>
+      <c r="J1199" s="39" t="s">
+        <v>7524</v>
+      </c>
+      <c r="K1199" s="39" t="s">
+        <v>7525</v>
+      </c>
+      <c r="L1199" s="39" t="s">
+        <v>7525</v>
       </c>
     </row>
     <row r="1200" spans="2:12">
       <c r="B1200" s="1" t="s">
-        <v>7531</v>
+        <v>7526</v>
       </c>
       <c r="C1200" s="14" t="s">
-        <v>7532</v>
+        <v>7527</v>
       </c>
       <c r="D1200" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1200" s="14" t="s">
-        <v>7533</v>
+        <v>7528</v>
       </c>
       <c r="G1200" s="14" t="s">
-        <v>7534</v>
+        <v>7529</v>
       </c>
       <c r="H1200" s="14" t="s">
-        <v>7535</v>
+        <v>7530</v>
       </c>
       <c r="I1200" s="14" t="s">
-        <v>7535</v>
+        <v>7530</v>
       </c>
       <c r="J1200" s="14" t="s">
-        <v>7535</v>
+        <v>7530</v>
       </c>
       <c r="K1200" s="14" t="s">
-        <v>7536</v>
+        <v>7531</v>
       </c>
       <c r="L1200" s="14" t="s">
-        <v>7536</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="1201" spans="2:12">
       <c r="B1201" s="1" t="s">
-        <v>7537</v>
+        <v>7532</v>
       </c>
       <c r="C1201" s="14" t="s">
-        <v>7538</v>
+        <v>7533</v>
       </c>
       <c r="D1201" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1201" s="14" t="s">
-        <v>7539</v>
+        <v>7534</v>
       </c>
       <c r="G1201" s="14" t="s">
-        <v>7539</v>
+        <v>7535</v>
       </c>
       <c r="H1201" s="14" t="s">
-        <v>7539</v>
+        <v>7536</v>
       </c>
       <c r="I1201" s="14" t="s">
-        <v>7539</v>
+        <v>7536</v>
       </c>
       <c r="J1201" s="14" t="s">
-        <v>7539</v>
+        <v>7536</v>
       </c>
       <c r="K1201" s="14" t="s">
-        <v>7539</v>
+        <v>7537</v>
       </c>
       <c r="L1201" s="14" t="s">
-        <v>7539</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="1202" spans="2:12">
       <c r="B1202" s="1" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="C1202" s="14" t="s">
-        <v>7541</v>
+        <v>7539</v>
       </c>
       <c r="D1202" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1202" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="G1202" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="H1202" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="I1202" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="J1202" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="K1202" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
       <c r="L1202" s="14" t="s">
-        <v>7542</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="1203" spans="2:12">
       <c r="B1203" s="1" t="s">
-        <v>7543</v>
+        <v>7541</v>
       </c>
       <c r="C1203" s="14" t="s">
-        <v>7544</v>
+        <v>7542</v>
       </c>
       <c r="D1203" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+      <c r="G1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+      <c r="H1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+      <c r="I1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+      <c r="J1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+      <c r="K1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+      <c r="L1203" s="14" t="s">
+        <v>7543</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:12">
+      <c r="B1204" s="1" t="s">
+        <v>7544</v>
+      </c>
+      <c r="C1204" s="14" t="s">
         <v>7545</v>
-      </c>
-      <c r="G1203" s="14" t="s">
-        <v>7545</v>
-      </c>
-      <c r="H1203" s="14" t="s">
-        <v>7545</v>
-      </c>
-      <c r="I1203" s="14" t="s">
-        <v>7545</v>
-      </c>
-      <c r="J1203" s="14" t="s">
-        <v>7545</v>
-      </c>
-      <c r="K1203" s="14" t="s">
-        <v>7545</v>
-      </c>
-      <c r="L1203" s="14" t="s">
-        <v>7545</v>
-      </c>
-    </row>
-    <row r="1204" spans="2:12">
-      <c r="B1204" s="14" t="s">
-        <v>7546</v>
-      </c>
-      <c r="C1204" s="14" t="s">
-        <v>7547</v>
       </c>
       <c r="D1204" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1204" s="14" t="s">
-        <v>7548</v>
+        <v>7546</v>
       </c>
       <c r="G1204" s="14" t="s">
-        <v>7549</v>
+        <v>7546</v>
       </c>
       <c r="H1204" s="14" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
       <c r="I1204" s="14" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
       <c r="J1204" s="14" t="s">
-        <v>7550</v>
+        <v>7546</v>
       </c>
       <c r="K1204" s="14" t="s">
-        <v>7551</v>
+        <v>7546</v>
       </c>
       <c r="L1204" s="14" t="s">
-        <v>7551</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="1205" spans="2:12">
       <c r="B1205" s="14" t="s">
-        <v>7552</v>
+        <v>7547</v>
       </c>
       <c r="C1205" s="14" t="s">
-        <v>7553</v>
+        <v>7548</v>
       </c>
       <c r="D1205" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1205" s="14" t="s">
-        <v>7554</v>
+        <v>7549</v>
       </c>
       <c r="G1205" s="14" t="s">
-        <v>7555</v>
+        <v>7550</v>
       </c>
       <c r="H1205" s="14" t="s">
-        <v>7556</v>
+        <v>7551</v>
       </c>
       <c r="I1205" s="14" t="s">
-        <v>7556</v>
+        <v>7551</v>
       </c>
       <c r="J1205" s="14" t="s">
-        <v>7556</v>
+        <v>7551</v>
       </c>
       <c r="K1205" s="14" t="s">
-        <v>7557</v>
+        <v>7552</v>
       </c>
       <c r="L1205" s="14" t="s">
-        <v>7557</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="1206" spans="2:12">
       <c r="B1206" s="14" t="s">
-        <v>7558</v>
+        <v>7553</v>
       </c>
       <c r="C1206" s="14" t="s">
-        <v>7559</v>
+        <v>7554</v>
       </c>
       <c r="D1206" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1206" s="14" t="s">
-        <v>7560</v>
+        <v>7555</v>
       </c>
       <c r="G1206" s="14" t="s">
-        <v>7561</v>
+        <v>7556</v>
       </c>
       <c r="H1206" s="14" t="s">
-        <v>7562</v>
+        <v>7557</v>
       </c>
       <c r="I1206" s="14" t="s">
-        <v>7562</v>
+        <v>7557</v>
       </c>
       <c r="J1206" s="14" t="s">
-        <v>7562</v>
+        <v>7557</v>
       </c>
       <c r="K1206" s="14" t="s">
-        <v>7563</v>
+        <v>7558</v>
       </c>
       <c r="L1206" s="14" t="s">
-        <v>7563</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="1207" spans="2:12">
       <c r="B1207" s="14" t="s">
-        <v>7564</v>
+        <v>7559</v>
       </c>
       <c r="C1207" s="14" t="s">
-        <v>7565</v>
+        <v>7560</v>
       </c>
       <c r="D1207" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1207" s="14" t="s">
-        <v>7566</v>
+        <v>7561</v>
       </c>
       <c r="G1207" s="14" t="s">
-        <v>7567</v>
+        <v>7562</v>
       </c>
       <c r="H1207" s="14" t="s">
-        <v>7568</v>
+        <v>7563</v>
       </c>
       <c r="I1207" s="14" t="s">
-        <v>7568</v>
+        <v>7563</v>
       </c>
       <c r="J1207" s="14" t="s">
-        <v>7568</v>
+        <v>7563</v>
       </c>
       <c r="K1207" s="14" t="s">
-        <v>7569</v>
+        <v>7564</v>
       </c>
       <c r="L1207" s="14" t="s">
-        <v>7569</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="1208" spans="2:12">
       <c r="B1208" s="14" t="s">
-        <v>7570</v>
+        <v>7565</v>
       </c>
       <c r="C1208" s="14" t="s">
-        <v>7571</v>
+        <v>7566</v>
       </c>
       <c r="D1208" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1208" s="14" t="s">
-        <v>7572</v>
+        <v>7567</v>
       </c>
       <c r="G1208" s="14" t="s">
-        <v>7573</v>
+        <v>7568</v>
       </c>
       <c r="H1208" s="14" t="s">
-        <v>7574</v>
+        <v>7569</v>
       </c>
       <c r="I1208" s="14" t="s">
-        <v>7574</v>
+        <v>7569</v>
       </c>
       <c r="J1208" s="14" t="s">
-        <v>7574</v>
+        <v>7569</v>
       </c>
       <c r="K1208" s="14" t="s">
-        <v>7575</v>
+        <v>7570</v>
       </c>
       <c r="L1208" s="14" t="s">
-        <v>7575</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="1209" spans="2:12">
       <c r="B1209" s="14" t="s">
-        <v>7576</v>
+        <v>7571</v>
       </c>
       <c r="C1209" s="14" t="s">
-        <v>7577</v>
+        <v>7572</v>
       </c>
       <c r="D1209" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1209" s="14" t="s">
-        <v>7578</v>
+        <v>7573</v>
       </c>
       <c r="G1209" s="14" t="s">
-        <v>7579</v>
+        <v>7574</v>
       </c>
       <c r="H1209" s="14" t="s">
-        <v>7580</v>
+        <v>7575</v>
       </c>
       <c r="I1209" s="14" t="s">
-        <v>7580</v>
+        <v>7575</v>
       </c>
       <c r="J1209" s="14" t="s">
-        <v>7580</v>
+        <v>7575</v>
       </c>
       <c r="K1209" s="14" t="s">
-        <v>7581</v>
+        <v>7576</v>
       </c>
       <c r="L1209" s="14" t="s">
-        <v>7581</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="1210" spans="2:12">
       <c r="B1210" s="14" t="s">
-        <v>7582</v>
-      </c>
-      <c r="C1210" s="1" t="s">
-        <v>1664</v>
+        <v>7577</v>
+      </c>
+      <c r="C1210" s="14" t="s">
+        <v>7578</v>
       </c>
       <c r="D1210" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1210" s="14" t="s">
-        <v>7583</v>
+        <v>7579</v>
       </c>
       <c r="G1210" s="14" t="s">
-        <v>7584</v>
+        <v>7580</v>
       </c>
       <c r="H1210" s="14" t="s">
-        <v>7585</v>
+        <v>7581</v>
       </c>
       <c r="I1210" s="14" t="s">
-        <v>7585</v>
+        <v>7581</v>
       </c>
       <c r="J1210" s="14" t="s">
-        <v>7585</v>
+        <v>7581</v>
       </c>
       <c r="K1210" s="14" t="s">
-        <v>7586</v>
+        <v>7582</v>
       </c>
       <c r="L1210" s="14" t="s">
-        <v>7586</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="1211" spans="2:12">
       <c r="B1211" s="14" t="s">
-        <v>7587</v>
+        <v>7583</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="D1211" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1211" s="14" t="s">
-        <v>7588</v>
+        <v>7584</v>
       </c>
       <c r="G1211" s="14" t="s">
-        <v>7589</v>
+        <v>7585</v>
       </c>
       <c r="H1211" s="14" t="s">
-        <v>7590</v>
+        <v>7586</v>
       </c>
       <c r="I1211" s="14" t="s">
-        <v>7590</v>
+        <v>7586</v>
       </c>
       <c r="J1211" s="14" t="s">
-        <v>7590</v>
+        <v>7586</v>
       </c>
       <c r="K1211" s="14" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="L1211" s="14" t="s">
-        <v>7591</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="1212" spans="2:12">
       <c r="B1212" s="14" t="s">
-        <v>7592</v>
+        <v>7588</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="D1212" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1212" s="14" t="s">
-        <v>7593</v>
+        <v>7589</v>
       </c>
       <c r="G1212" s="14" t="s">
-        <v>7594</v>
+        <v>7590</v>
       </c>
       <c r="H1212" s="14" t="s">
-        <v>7595</v>
+        <v>7591</v>
       </c>
       <c r="I1212" s="14" t="s">
-        <v>7595</v>
+        <v>7591</v>
       </c>
       <c r="J1212" s="14" t="s">
-        <v>7595</v>
+        <v>7591</v>
       </c>
       <c r="K1212" s="14" t="s">
-        <v>7596</v>
+        <v>7592</v>
       </c>
       <c r="L1212" s="14" t="s">
-        <v>7596</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="1213" spans="2:12">
       <c r="B1213" s="14" t="s">
-        <v>7597</v>
+        <v>7593</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="D1213" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1213" s="14" t="s">
-        <v>7598</v>
+        <v>7594</v>
       </c>
       <c r="G1213" s="14" t="s">
-        <v>7599</v>
+        <v>7595</v>
       </c>
       <c r="H1213" s="14" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
       <c r="I1213" s="14" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
       <c r="J1213" s="14" t="s">
-        <v>7600</v>
+        <v>7596</v>
       </c>
       <c r="K1213" s="14" t="s">
-        <v>7601</v>
+        <v>7597</v>
       </c>
       <c r="L1213" s="14" t="s">
-        <v>7601</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="1214" spans="2:12">
       <c r="B1214" s="14" t="s">
-        <v>7602</v>
+        <v>7598</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="D1214" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1214" s="14" t="s">
-        <v>7603</v>
+        <v>7599</v>
       </c>
       <c r="G1214" s="14" t="s">
-        <v>7604</v>
+        <v>7600</v>
       </c>
       <c r="H1214" s="14" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="I1214" s="14" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="J1214" s="14" t="s">
-        <v>7605</v>
+        <v>7601</v>
       </c>
       <c r="K1214" s="14" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
       <c r="L1214" s="14" t="s">
-        <v>7606</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="1215" spans="2:12">
       <c r="B1215" s="14" t="s">
-        <v>7607</v>
+        <v>7603</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="D1215" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1215" s="14" t="s">
-        <v>7608</v>
+        <v>7604</v>
       </c>
       <c r="G1215" s="14" t="s">
-        <v>7609</v>
+        <v>7605</v>
       </c>
       <c r="H1215" s="14" t="s">
-        <v>7610</v>
+        <v>7606</v>
       </c>
       <c r="I1215" s="14" t="s">
-        <v>7610</v>
+        <v>7606</v>
       </c>
       <c r="J1215" s="14" t="s">
-        <v>7610</v>
+        <v>7606</v>
       </c>
       <c r="K1215" s="14" t="s">
-        <v>7611</v>
+        <v>7607</v>
       </c>
       <c r="L1215" s="14" t="s">
-        <v>7611</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="1216" spans="2:12">
       <c r="B1216" s="14" t="s">
-        <v>7612</v>
+        <v>7608</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="D1216" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1216" s="14" t="s">
-        <v>7613</v>
+        <v>7609</v>
       </c>
       <c r="G1216" s="14" t="s">
-        <v>7614</v>
+        <v>7610</v>
       </c>
       <c r="H1216" s="14" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="I1216" s="14" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="J1216" s="14" t="s">
-        <v>7615</v>
+        <v>7611</v>
       </c>
       <c r="K1216" s="14" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
       <c r="L1216" s="14" t="s">
-        <v>7616</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="1217" spans="2:12">
       <c r="B1217" s="14" t="s">
-        <v>7617</v>
+        <v>7613</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="D1217" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1217" s="14" t="s">
-        <v>7618</v>
+        <v>7614</v>
       </c>
       <c r="G1217" s="14" t="s">
-        <v>7619</v>
+        <v>7615</v>
       </c>
       <c r="H1217" s="14" t="s">
-        <v>7620</v>
+        <v>7616</v>
       </c>
       <c r="I1217" s="14" t="s">
-        <v>7620</v>
+        <v>7616</v>
       </c>
       <c r="J1217" s="14" t="s">
-        <v>7620</v>
+        <v>7616</v>
       </c>
       <c r="K1217" s="14" t="s">
-        <v>7621</v>
+        <v>7617</v>
       </c>
       <c r="L1217" s="14" t="s">
-        <v>7621</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="1218" spans="2:12">
       <c r="B1218" s="14" t="s">
-        <v>7622</v>
+        <v>7618</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="D1218" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1218" s="14" t="s">
-        <v>7623</v>
+        <v>7619</v>
       </c>
       <c r="G1218" s="14" t="s">
-        <v>7624</v>
+        <v>7620</v>
       </c>
       <c r="H1218" s="14" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
       <c r="I1218" s="14" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
       <c r="J1218" s="14" t="s">
-        <v>7625</v>
+        <v>7621</v>
       </c>
       <c r="K1218" s="14" t="s">
-        <v>7626</v>
+        <v>7622</v>
       </c>
       <c r="L1218" s="14" t="s">
-        <v>7626</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="1219" spans="2:12">
       <c r="B1219" s="14" t="s">
-        <v>7627</v>
+        <v>7623</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="D1219" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1219" s="14" t="s">
-        <v>7628</v>
+        <v>7624</v>
       </c>
       <c r="G1219" s="14" t="s">
-        <v>7629</v>
+        <v>7625</v>
       </c>
       <c r="H1219" s="14" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="I1219" s="14" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="J1219" s="14" t="s">
-        <v>7630</v>
+        <v>7626</v>
       </c>
       <c r="K1219" s="14" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
       <c r="L1219" s="14" t="s">
-        <v>7631</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="1220" spans="2:12">
       <c r="B1220" s="14" t="s">
-        <v>7632</v>
+        <v>7628</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="D1220" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1220" s="14" t="s">
-        <v>7633</v>
+        <v>7629</v>
       </c>
       <c r="G1220" s="14" t="s">
-        <v>7634</v>
+        <v>7630</v>
       </c>
       <c r="H1220" s="14" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="I1220" s="14" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="J1220" s="14" t="s">
-        <v>7635</v>
+        <v>7631</v>
       </c>
       <c r="K1220" s="14" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
       <c r="L1220" s="14" t="s">
-        <v>7636</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="1221" spans="2:12">
       <c r="B1221" s="14" t="s">
-        <v>7637</v>
+        <v>7633</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="D1221" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1221" s="14" t="s">
-        <v>7638</v>
+        <v>7634</v>
       </c>
       <c r="G1221" s="14" t="s">
-        <v>7639</v>
+        <v>7635</v>
       </c>
       <c r="H1221" s="14" t="s">
-        <v>7640</v>
+        <v>7636</v>
       </c>
       <c r="I1221" s="14" t="s">
-        <v>7640</v>
+        <v>7636</v>
       </c>
       <c r="J1221" s="14" t="s">
-        <v>7640</v>
+        <v>7636</v>
       </c>
       <c r="K1221" s="14" t="s">
-        <v>7641</v>
+        <v>7637</v>
       </c>
       <c r="L1221" s="14" t="s">
-        <v>7641</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="1222" spans="2:12">
       <c r="B1222" s="14" t="s">
-        <v>7642</v>
+        <v>7638</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D1222" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1222" s="14" t="s">
-        <v>7643</v>
+        <v>7639</v>
       </c>
       <c r="G1222" s="14" t="s">
-        <v>7644</v>
+        <v>7640</v>
       </c>
       <c r="H1222" s="14" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="I1222" s="14" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="J1222" s="14" t="s">
-        <v>7645</v>
+        <v>7641</v>
       </c>
       <c r="K1222" s="14" t="s">
-        <v>7646</v>
+        <v>7642</v>
       </c>
       <c r="L1222" s="14" t="s">
-        <v>7646</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="1223" spans="2:12">
       <c r="B1223" s="14" t="s">
-        <v>7647</v>
+        <v>7643</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="D1223" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1223" s="14" t="s">
-        <v>7648</v>
+        <v>7644</v>
       </c>
       <c r="G1223" s="14" t="s">
-        <v>7649</v>
+        <v>7645</v>
       </c>
       <c r="H1223" s="14" t="s">
-        <v>7650</v>
+        <v>7646</v>
       </c>
       <c r="I1223" s="14" t="s">
-        <v>7650</v>
+        <v>7646</v>
       </c>
       <c r="J1223" s="14" t="s">
-        <v>7650</v>
+        <v>7646</v>
       </c>
       <c r="K1223" s="14" t="s">
-        <v>7651</v>
+        <v>7647</v>
       </c>
       <c r="L1223" s="14" t="s">
-        <v>7651</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="1224" spans="2:12">
       <c r="B1224" s="14" t="s">
-        <v>7652</v>
+        <v>7648</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="D1224" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1224" s="14" t="s">
-        <v>7653</v>
+        <v>7649</v>
       </c>
       <c r="G1224" s="14" t="s">
-        <v>7654</v>
+        <v>7650</v>
       </c>
       <c r="H1224" s="14" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
       <c r="I1224" s="14" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
       <c r="J1224" s="14" t="s">
-        <v>7655</v>
+        <v>7651</v>
       </c>
       <c r="K1224" s="14" t="s">
-        <v>7656</v>
+        <v>7652</v>
       </c>
       <c r="L1224" s="14" t="s">
-        <v>7656</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="1225" spans="2:12">
       <c r="B1225" s="14" t="s">
-        <v>7657</v>
+        <v>7653</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="D1225" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1225" s="14" t="s">
-        <v>7658</v>
+        <v>7654</v>
       </c>
       <c r="G1225" s="14" t="s">
-        <v>7659</v>
+        <v>7655</v>
       </c>
       <c r="H1225" s="14" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
       <c r="I1225" s="14" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
       <c r="J1225" s="14" t="s">
-        <v>7660</v>
+        <v>7656</v>
       </c>
       <c r="K1225" s="14" t="s">
-        <v>7661</v>
+        <v>7657</v>
       </c>
       <c r="L1225" s="14" t="s">
-        <v>7661</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="1226" spans="2:12">
       <c r="B1226" s="14" t="s">
-        <v>7662</v>
+        <v>7658</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="D1226" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1226" s="14" t="s">
-        <v>7663</v>
+        <v>7659</v>
       </c>
       <c r="G1226" s="14" t="s">
-        <v>7664</v>
+        <v>7660</v>
       </c>
       <c r="H1226" s="14" t="s">
-        <v>7665</v>
+        <v>7661</v>
       </c>
       <c r="I1226" s="14" t="s">
-        <v>7665</v>
+        <v>7661</v>
       </c>
       <c r="J1226" s="14" t="s">
-        <v>7665</v>
+        <v>7661</v>
       </c>
       <c r="K1226" s="14" t="s">
-        <v>7666</v>
+        <v>7662</v>
       </c>
       <c r="L1226" s="14" t="s">
-        <v>7666</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="1227" spans="2:12">
       <c r="B1227" s="14" t="s">
-        <v>7667</v>
+        <v>7663</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="D1227" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1227" s="14" t="s">
-        <v>7668</v>
+        <v>7664</v>
       </c>
       <c r="G1227" s="14" t="s">
-        <v>7669</v>
+        <v>7665</v>
       </c>
       <c r="H1227" s="14" t="s">
-        <v>7670</v>
+        <v>7666</v>
       </c>
       <c r="I1227" s="14" t="s">
-        <v>7670</v>
+        <v>7666</v>
       </c>
       <c r="J1227" s="14" t="s">
-        <v>7670</v>
+        <v>7666</v>
       </c>
       <c r="K1227" s="14" t="s">
-        <v>7671</v>
+        <v>7667</v>
       </c>
       <c r="L1227" s="14" t="s">
-        <v>7671</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="1228" spans="2:12">
       <c r="B1228" s="14" t="s">
-        <v>7672</v>
+        <v>7668</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="D1228" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1228" s="14" t="s">
-        <v>7673</v>
+        <v>7669</v>
       </c>
       <c r="G1228" s="14" t="s">
-        <v>7674</v>
+        <v>7670</v>
       </c>
       <c r="H1228" s="14" t="s">
-        <v>7675</v>
+        <v>7671</v>
       </c>
       <c r="I1228" s="14" t="s">
-        <v>7675</v>
+        <v>7671</v>
       </c>
       <c r="J1228" s="14" t="s">
-        <v>7675</v>
+        <v>7671</v>
       </c>
       <c r="K1228" s="14" t="s">
-        <v>7676</v>
+        <v>7672</v>
       </c>
       <c r="L1228" s="14" t="s">
-        <v>7676</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="1229" spans="2:12">
       <c r="B1229" s="14" t="s">
-        <v>7677</v>
+        <v>7673</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>1845</v>
+        <v>1800</v>
       </c>
       <c r="D1229" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1229" s="14" t="s">
-        <v>7678</v>
+        <v>7674</v>
       </c>
       <c r="G1229" s="14" t="s">
-        <v>7679</v>
+        <v>7675</v>
       </c>
       <c r="H1229" s="14" t="s">
-        <v>7680</v>
+        <v>7676</v>
       </c>
       <c r="I1229" s="14" t="s">
-        <v>7680</v>
+        <v>7676</v>
       </c>
       <c r="J1229" s="14" t="s">
-        <v>7680</v>
+        <v>7676</v>
       </c>
       <c r="K1229" s="14" t="s">
-        <v>7681</v>
+        <v>7677</v>
       </c>
       <c r="L1229" s="14" t="s">
-        <v>7681</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="1230" spans="2:12">
       <c r="B1230" s="14" t="s">
-        <v>7682</v>
-      </c>
-      <c r="C1230" s="14" t="s">
-        <v>7683</v>
+        <v>7678</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>1845</v>
       </c>
       <c r="D1230" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1230" s="14" t="s">
-        <v>7684</v>
+        <v>7679</v>
       </c>
       <c r="G1230" s="14" t="s">
-        <v>7685</v>
+        <v>7680</v>
       </c>
       <c r="H1230" s="14" t="s">
-        <v>7686</v>
+        <v>7681</v>
       </c>
       <c r="I1230" s="14" t="s">
-        <v>7686</v>
+        <v>7681</v>
       </c>
       <c r="J1230" s="14" t="s">
-        <v>7686</v>
+        <v>7681</v>
       </c>
       <c r="K1230" s="14" t="s">
-        <v>7687</v>
+        <v>7682</v>
       </c>
       <c r="L1230" s="14" t="s">
-        <v>7687</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="1231" spans="2:12">
       <c r="B1231" s="14" t="s">
-        <v>7688</v>
+        <v>7683</v>
       </c>
       <c r="C1231" s="14" t="s">
-        <v>7689</v>
+        <v>7684</v>
       </c>
       <c r="D1231" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1231" s="14" t="s">
-        <v>7690</v>
+        <v>7685</v>
       </c>
       <c r="G1231" s="14" t="s">
-        <v>7691</v>
+        <v>7686</v>
       </c>
       <c r="H1231" s="14" t="s">
-        <v>7692</v>
+        <v>7687</v>
       </c>
       <c r="I1231" s="14" t="s">
-        <v>7692</v>
+        <v>7687</v>
       </c>
       <c r="J1231" s="14" t="s">
-        <v>7692</v>
+        <v>7687</v>
       </c>
       <c r="K1231" s="14" t="s">
-        <v>7693</v>
+        <v>7688</v>
       </c>
       <c r="L1231" s="14" t="s">
-        <v>7693</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="1232" spans="2:12">
       <c r="B1232" s="14" t="s">
-        <v>7694</v>
+        <v>7689</v>
       </c>
       <c r="C1232" s="14" t="s">
-        <v>7695</v>
+        <v>7690</v>
       </c>
       <c r="D1232" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1232" s="14" t="s">
-        <v>7696</v>
+        <v>7691</v>
       </c>
       <c r="G1232" s="14" t="s">
-        <v>7697</v>
+        <v>7692</v>
       </c>
       <c r="H1232" s="14" t="s">
-        <v>7698</v>
+        <v>7693</v>
       </c>
       <c r="I1232" s="14" t="s">
-        <v>7698</v>
+        <v>7693</v>
       </c>
       <c r="J1232" s="14" t="s">
-        <v>7698</v>
+        <v>7693</v>
       </c>
       <c r="K1232" s="14" t="s">
-        <v>7699</v>
+        <v>7694</v>
       </c>
       <c r="L1232" s="14" t="s">
-        <v>7699</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="1233" spans="2:12">
       <c r="B1233" s="14" t="s">
-        <v>7700</v>
+        <v>7695</v>
       </c>
       <c r="C1233" s="14" t="s">
-        <v>7701</v>
+        <v>7696</v>
       </c>
       <c r="D1233" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1233" s="14" t="s">
-        <v>7702</v>
+        <v>7697</v>
       </c>
       <c r="G1233" s="14" t="s">
-        <v>7703</v>
+        <v>7698</v>
       </c>
       <c r="H1233" s="14" t="s">
-        <v>7704</v>
+        <v>7699</v>
       </c>
       <c r="I1233" s="14" t="s">
-        <v>7704</v>
+        <v>7699</v>
       </c>
       <c r="J1233" s="14" t="s">
-        <v>7704</v>
+        <v>7699</v>
       </c>
       <c r="K1233" s="14" t="s">
-        <v>7705</v>
+        <v>7700</v>
       </c>
       <c r="L1233" s="14" t="s">
-        <v>7705</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="1234" spans="2:12">
       <c r="B1234" s="14" t="s">
-        <v>7706</v>
-      </c>
-      <c r="C1234" s="41" t="s">
-        <v>7707</v>
+        <v>7701</v>
+      </c>
+      <c r="C1234" s="14" t="s">
+        <v>7702</v>
       </c>
       <c r="D1234" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1234" s="14" t="s">
-        <v>7708</v>
+        <v>7703</v>
       </c>
       <c r="G1234" s="14" t="s">
-        <v>7709</v>
+        <v>7704</v>
       </c>
       <c r="H1234" s="14" t="s">
-        <v>7710</v>
+        <v>7705</v>
       </c>
       <c r="I1234" s="14" t="s">
-        <v>7710</v>
+        <v>7705</v>
       </c>
       <c r="J1234" s="14" t="s">
-        <v>7710</v>
+        <v>7705</v>
       </c>
       <c r="K1234" s="14" t="s">
-        <v>7711</v>
+        <v>7706</v>
       </c>
       <c r="L1234" s="14" t="s">
-        <v>7711</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="1235" spans="2:12">
       <c r="B1235" s="14" t="s">
-        <v>7712</v>
+        <v>7707</v>
       </c>
       <c r="C1235" s="41" t="s">
-        <v>7713</v>
+        <v>7708</v>
       </c>
       <c r="D1235" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1235" s="14" t="s">
-        <v>7714</v>
+        <v>7709</v>
       </c>
       <c r="G1235" s="14" t="s">
-        <v>7715</v>
+        <v>7710</v>
       </c>
       <c r="H1235" s="14" t="s">
-        <v>7716</v>
+        <v>7711</v>
       </c>
       <c r="I1235" s="14" t="s">
-        <v>7716</v>
+        <v>7711</v>
       </c>
       <c r="J1235" s="14" t="s">
-        <v>7716</v>
+        <v>7711</v>
       </c>
       <c r="K1235" s="14" t="s">
-        <v>7717</v>
+        <v>7712</v>
       </c>
       <c r="L1235" s="14" t="s">
-        <v>7717</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="1236" spans="2:12">
       <c r="B1236" s="14" t="s">
-        <v>7718</v>
+        <v>7713</v>
       </c>
       <c r="C1236" s="41" t="s">
-        <v>7719</v>
+        <v>7714</v>
       </c>
       <c r="D1236" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1236" s="14" t="s">
-        <v>7720</v>
+        <v>7715</v>
       </c>
       <c r="G1236" s="14" t="s">
-        <v>7721</v>
+        <v>7716</v>
       </c>
       <c r="H1236" s="14" t="s">
-        <v>7722</v>
+        <v>7717</v>
       </c>
       <c r="I1236" s="14" t="s">
-        <v>7722</v>
+        <v>7717</v>
       </c>
       <c r="J1236" s="14" t="s">
-        <v>7722</v>
+        <v>7717</v>
       </c>
       <c r="K1236" s="14" t="s">
-        <v>7723</v>
+        <v>7718</v>
       </c>
       <c r="L1236" s="14" t="s">
-        <v>7723</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="1237" spans="2:12">
       <c r="B1237" s="14" t="s">
-        <v>7724</v>
+        <v>7719</v>
       </c>
       <c r="C1237" s="41" t="s">
-        <v>7725</v>
+        <v>7720</v>
       </c>
       <c r="D1237" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1237" s="14" t="s">
-        <v>7726</v>
+        <v>7721</v>
       </c>
       <c r="G1237" s="14" t="s">
-        <v>7727</v>
+        <v>7722</v>
       </c>
       <c r="H1237" s="14" t="s">
-        <v>7728</v>
+        <v>7723</v>
       </c>
       <c r="I1237" s="14" t="s">
-        <v>7728</v>
+        <v>7723</v>
       </c>
       <c r="J1237" s="14" t="s">
-        <v>7728</v>
+        <v>7723</v>
       </c>
       <c r="K1237" s="14" t="s">
-        <v>7729</v>
+        <v>7724</v>
       </c>
       <c r="L1237" s="14" t="s">
-        <v>7729</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="1238" spans="2:12">
       <c r="B1238" s="14" t="s">
-        <v>7730</v>
-      </c>
-      <c r="C1238" s="14" t="s">
-        <v>7731</v>
+        <v>7725</v>
+      </c>
+      <c r="C1238" s="41" t="s">
+        <v>7726</v>
       </c>
       <c r="D1238" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1238" s="14" t="s">
-        <v>7732</v>
+        <v>7727</v>
       </c>
       <c r="G1238" s="14" t="s">
-        <v>7733</v>
+        <v>7728</v>
       </c>
       <c r="H1238" s="14" t="s">
-        <v>7734</v>
+        <v>7729</v>
       </c>
       <c r="I1238" s="14" t="s">
-        <v>7734</v>
+        <v>7729</v>
       </c>
       <c r="J1238" s="14" t="s">
-        <v>7734</v>
+        <v>7729</v>
       </c>
       <c r="K1238" s="14" t="s">
-        <v>7735</v>
+        <v>7730</v>
       </c>
       <c r="L1238" s="14" t="s">
-        <v>7735</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="1239" spans="2:12">
       <c r="B1239" s="14" t="s">
-        <v>7736</v>
+        <v>7731</v>
       </c>
       <c r="C1239" s="14" t="s">
-        <v>7737</v>
+        <v>7732</v>
       </c>
       <c r="D1239" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1239" s="14" t="s">
-        <v>7738</v>
+        <v>7733</v>
       </c>
       <c r="G1239" s="14" t="s">
-        <v>7739</v>
+        <v>7734</v>
       </c>
       <c r="H1239" s="14" t="s">
-        <v>7740</v>
+        <v>7735</v>
       </c>
       <c r="I1239" s="14" t="s">
-        <v>7740</v>
+        <v>7735</v>
       </c>
       <c r="J1239" s="14" t="s">
-        <v>7740</v>
+        <v>7735</v>
       </c>
       <c r="K1239" s="14" t="s">
-        <v>7741</v>
+        <v>7736</v>
       </c>
       <c r="L1239" s="14" t="s">
-        <v>7741</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="1240" spans="2:12">
       <c r="B1240" s="14" t="s">
-        <v>7742</v>
+        <v>7737</v>
       </c>
       <c r="C1240" s="14" t="s">
-        <v>7743</v>
+        <v>7738</v>
       </c>
       <c r="D1240" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1240" s="14" t="s">
-        <v>7744</v>
+        <v>7739</v>
       </c>
       <c r="G1240" s="14" t="s">
-        <v>7745</v>
+        <v>7740</v>
       </c>
       <c r="H1240" s="14" t="s">
-        <v>7746</v>
+        <v>7741</v>
       </c>
       <c r="I1240" s="14" t="s">
-        <v>7746</v>
+        <v>7741</v>
       </c>
       <c r="J1240" s="14" t="s">
-        <v>7746</v>
+        <v>7741</v>
       </c>
       <c r="K1240" s="14" t="s">
-        <v>7747</v>
+        <v>7742</v>
       </c>
       <c r="L1240" s="14" t="s">
-        <v>7747</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="1241" spans="2:12">
       <c r="B1241" s="14" t="s">
-        <v>7748</v>
+        <v>7743</v>
       </c>
       <c r="C1241" s="14" t="s">
-        <v>7749</v>
+        <v>7744</v>
       </c>
       <c r="D1241" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1241" s="14" t="s">
-        <v>7750</v>
+        <v>7745</v>
       </c>
       <c r="G1241" s="14" t="s">
-        <v>7751</v>
+        <v>7746</v>
       </c>
       <c r="H1241" s="14" t="s">
-        <v>7752</v>
+        <v>7747</v>
       </c>
       <c r="I1241" s="14" t="s">
-        <v>7752</v>
+        <v>7747</v>
       </c>
       <c r="J1241" s="14" t="s">
-        <v>7752</v>
+        <v>7747</v>
       </c>
       <c r="K1241" s="14" t="s">
-        <v>7753</v>
+        <v>7748</v>
       </c>
       <c r="L1241" s="14" t="s">
-        <v>7753</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="1242" spans="2:12">
       <c r="B1242" s="14" t="s">
-        <v>7754</v>
+        <v>7749</v>
       </c>
       <c r="C1242" s="14" t="s">
-        <v>7755</v>
+        <v>7750</v>
       </c>
       <c r="D1242" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1242" s="14" t="s">
-        <v>7756</v>
+        <v>7751</v>
       </c>
       <c r="G1242" s="14" t="s">
-        <v>7757</v>
+        <v>7752</v>
       </c>
       <c r="H1242" s="14" t="s">
-        <v>7758</v>
+        <v>7753</v>
       </c>
       <c r="I1242" s="14" t="s">
-        <v>7758</v>
+        <v>7753</v>
       </c>
       <c r="J1242" s="14" t="s">
-        <v>7758</v>
+        <v>7753</v>
       </c>
       <c r="K1242" s="14" t="s">
-        <v>7759</v>
+        <v>7754</v>
       </c>
       <c r="L1242" s="14" t="s">
-        <v>7759</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="1243" spans="2:12">
       <c r="B1243" s="14" t="s">
-        <v>7760</v>
+        <v>7755</v>
       </c>
       <c r="C1243" s="14" t="s">
-        <v>7761</v>
+        <v>7756</v>
       </c>
       <c r="D1243" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1243" s="14" t="s">
-        <v>7762</v>
+        <v>7757</v>
       </c>
       <c r="G1243" s="14" t="s">
-        <v>7763</v>
+        <v>7758</v>
       </c>
       <c r="H1243" s="14" t="s">
-        <v>7764</v>
+        <v>7759</v>
       </c>
       <c r="I1243" s="14" t="s">
-        <v>7764</v>
+        <v>7759</v>
       </c>
       <c r="J1243" s="14" t="s">
-        <v>7764</v>
+        <v>7759</v>
       </c>
       <c r="K1243" s="14" t="s">
-        <v>7765</v>
+        <v>7760</v>
       </c>
       <c r="L1243" s="14" t="s">
-        <v>7765</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="1244" spans="2:12">
       <c r="B1244" s="14" t="s">
-        <v>7766</v>
+        <v>7761</v>
       </c>
       <c r="C1244" s="14" t="s">
-        <v>7767</v>
+        <v>7762</v>
       </c>
       <c r="D1244" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1244" s="14" t="s">
-        <v>7768</v>
+        <v>7763</v>
       </c>
       <c r="G1244" s="14" t="s">
-        <v>7769</v>
+        <v>7764</v>
       </c>
       <c r="H1244" s="14" t="s">
-        <v>7770</v>
+        <v>7765</v>
       </c>
       <c r="I1244" s="14" t="s">
-        <v>7770</v>
+        <v>7765</v>
       </c>
       <c r="J1244" s="14" t="s">
-        <v>7770</v>
+        <v>7765</v>
       </c>
       <c r="K1244" s="14" t="s">
-        <v>7771</v>
+        <v>7766</v>
       </c>
       <c r="L1244" s="14" t="s">
-        <v>7771</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="1245" spans="2:12">
       <c r="B1245" s="14" t="s">
-        <v>7772</v>
+        <v>7767</v>
       </c>
       <c r="C1245" s="14" t="s">
-        <v>7773</v>
+        <v>7768</v>
       </c>
       <c r="D1245" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1245" s="14" t="s">
-        <v>7774</v>
+        <v>7769</v>
       </c>
       <c r="G1245" s="14" t="s">
-        <v>7775</v>
+        <v>7770</v>
       </c>
       <c r="H1245" s="14" t="s">
-        <v>7776</v>
+        <v>7771</v>
       </c>
       <c r="I1245" s="14" t="s">
-        <v>7776</v>
+        <v>7771</v>
       </c>
       <c r="J1245" s="14" t="s">
-        <v>7776</v>
+        <v>7771</v>
       </c>
       <c r="K1245" s="14" t="s">
-        <v>7777</v>
+        <v>7772</v>
       </c>
       <c r="L1245" s="14" t="s">
-        <v>7777</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="1246" spans="2:12">
       <c r="B1246" s="14" t="s">
-        <v>7778</v>
+        <v>7773</v>
       </c>
       <c r="C1246" s="14" t="s">
-        <v>7779</v>
+        <v>7774</v>
       </c>
       <c r="D1246" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1246" s="14" t="s">
-        <v>7780</v>
+        <v>7775</v>
       </c>
       <c r="G1246" s="14" t="s">
-        <v>7781</v>
+        <v>7776</v>
       </c>
       <c r="H1246" s="14" t="s">
-        <v>7782</v>
+        <v>7777</v>
       </c>
       <c r="I1246" s="14" t="s">
-        <v>7782</v>
+        <v>7777</v>
       </c>
       <c r="J1246" s="14" t="s">
-        <v>7782</v>
+        <v>7777</v>
       </c>
       <c r="K1246" s="14" t="s">
-        <v>7783</v>
+        <v>7778</v>
       </c>
       <c r="L1246" s="14" t="s">
-        <v>7783</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="1247" spans="2:12">
       <c r="B1247" s="14" t="s">
-        <v>7784</v>
+        <v>7779</v>
       </c>
       <c r="C1247" s="14" t="s">
-        <v>1804</v>
+        <v>7780</v>
       </c>
       <c r="D1247" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1247" s="14" t="s">
-        <v>7785</v>
+        <v>7781</v>
       </c>
       <c r="G1247" s="14" t="s">
-        <v>7786</v>
+        <v>7782</v>
       </c>
       <c r="H1247" s="14" t="s">
-        <v>7787</v>
+        <v>7783</v>
       </c>
       <c r="I1247" s="14" t="s">
-        <v>7787</v>
+        <v>7783</v>
       </c>
       <c r="J1247" s="14" t="s">
-        <v>7787</v>
+        <v>7783</v>
       </c>
       <c r="K1247" s="14" t="s">
-        <v>7788</v>
+        <v>7784</v>
       </c>
       <c r="L1247" s="14" t="s">
-        <v>7788</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="1248" spans="2:12">
       <c r="B1248" s="14" t="s">
-        <v>7789</v>
+        <v>7785</v>
       </c>
       <c r="C1248" s="14" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="D1248" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1248" s="14" t="s">
-        <v>7790</v>
+        <v>7786</v>
       </c>
       <c r="G1248" s="14" t="s">
-        <v>7791</v>
+        <v>7787</v>
       </c>
       <c r="H1248" s="14" t="s">
-        <v>7792</v>
+        <v>7788</v>
       </c>
       <c r="I1248" s="14" t="s">
-        <v>7792</v>
+        <v>7788</v>
       </c>
       <c r="J1248" s="14" t="s">
-        <v>7792</v>
+        <v>7788</v>
       </c>
       <c r="K1248" s="14" t="s">
-        <v>7793</v>
+        <v>7789</v>
       </c>
       <c r="L1248" s="14" t="s">
-        <v>7793</v>
+        <v>7789</v>
       </c>
     </row>
     <row r="1249" spans="2:12">
       <c r="B1249" s="14" t="s">
-        <v>7794</v>
+        <v>7790</v>
       </c>
       <c r="C1249" s="14" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="D1249" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1249" s="14" t="s">
-        <v>7795</v>
+        <v>7791</v>
       </c>
       <c r="G1249" s="14" t="s">
-        <v>7796</v>
+        <v>7792</v>
       </c>
       <c r="H1249" s="14" t="s">
-        <v>7797</v>
+        <v>7793</v>
       </c>
       <c r="I1249" s="14" t="s">
-        <v>7797</v>
+        <v>7793</v>
       </c>
       <c r="J1249" s="14" t="s">
-        <v>7797</v>
+        <v>7793</v>
       </c>
       <c r="K1249" s="14" t="s">
-        <v>7798</v>
+        <v>7794</v>
       </c>
       <c r="L1249" s="14" t="s">
-        <v>7798</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="1250" spans="2:12">
       <c r="B1250" s="14" t="s">
-        <v>7799</v>
+        <v>7795</v>
       </c>
       <c r="C1250" s="14" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="D1250" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1250" s="14" t="s">
-        <v>7800</v>
+        <v>7796</v>
       </c>
       <c r="G1250" s="14" t="s">
-        <v>7801</v>
+        <v>7797</v>
       </c>
       <c r="H1250" s="14" t="s">
-        <v>7802</v>
+        <v>7798</v>
       </c>
       <c r="I1250" s="14" t="s">
-        <v>7802</v>
+        <v>7798</v>
       </c>
       <c r="J1250" s="14" t="s">
-        <v>7802</v>
+        <v>7798</v>
       </c>
       <c r="K1250" s="14" t="s">
-        <v>7803</v>
+        <v>7799</v>
       </c>
       <c r="L1250" s="14" t="s">
-        <v>7803</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="1251" spans="2:12">
       <c r="B1251" s="14" t="s">
-        <v>7804</v>
+        <v>7800</v>
       </c>
       <c r="C1251" s="14" t="s">
-        <v>7805</v>
+        <v>1823</v>
       </c>
       <c r="D1251" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1251" s="14" t="s">
-        <v>7806</v>
+        <v>7801</v>
       </c>
       <c r="G1251" s="14" t="s">
-        <v>7807</v>
+        <v>7802</v>
       </c>
       <c r="H1251" s="14" t="s">
-        <v>7808</v>
+        <v>7803</v>
       </c>
       <c r="I1251" s="14" t="s">
-        <v>7808</v>
+        <v>7803</v>
       </c>
       <c r="J1251" s="14" t="s">
-        <v>7808</v>
+        <v>7803</v>
       </c>
       <c r="K1251" s="14" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
       <c r="L1251" s="14" t="s">
-        <v>7809</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="1252" spans="2:12">
       <c r="B1252" s="14" t="s">
-        <v>7810</v>
+        <v>7805</v>
       </c>
       <c r="C1252" s="14" t="s">
-        <v>7811</v>
+        <v>7806</v>
       </c>
       <c r="D1252" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1252" s="14" t="s">
-        <v>7812</v>
+        <v>7807</v>
       </c>
       <c r="G1252" s="14" t="s">
-        <v>7813</v>
+        <v>7808</v>
       </c>
       <c r="H1252" s="14" t="s">
-        <v>7814</v>
+        <v>7809</v>
       </c>
       <c r="I1252" s="14" t="s">
-        <v>7814</v>
+        <v>7809</v>
       </c>
       <c r="J1252" s="14" t="s">
-        <v>7814</v>
+        <v>7809</v>
       </c>
       <c r="K1252" s="14" t="s">
-        <v>7815</v>
+        <v>7810</v>
       </c>
       <c r="L1252" s="14" t="s">
-        <v>7815</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="1253" spans="2:12">
       <c r="B1253" s="14" t="s">
-        <v>7816</v>
+        <v>7811</v>
       </c>
       <c r="C1253" s="14" t="s">
-        <v>7817</v>
+        <v>7812</v>
       </c>
       <c r="D1253" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1253" s="14" t="s">
-        <v>7818</v>
+        <v>7813</v>
       </c>
       <c r="G1253" s="14" t="s">
-        <v>7819</v>
+        <v>7814</v>
       </c>
       <c r="H1253" s="14" t="s">
-        <v>7820</v>
+        <v>7815</v>
       </c>
       <c r="I1253" s="14" t="s">
-        <v>7820</v>
+        <v>7815</v>
       </c>
       <c r="J1253" s="14" t="s">
-        <v>7820</v>
+        <v>7815</v>
       </c>
       <c r="K1253" s="14" t="s">
-        <v>7821</v>
+        <v>7816</v>
       </c>
       <c r="L1253" s="14" t="s">
-        <v>7821</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="1254" spans="2:12">
       <c r="B1254" s="14" t="s">
-        <v>7822</v>
+        <v>7817</v>
       </c>
       <c r="C1254" s="14" t="s">
-        <v>7823</v>
+        <v>7818</v>
       </c>
       <c r="D1254" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1254" s="14" t="s">
-        <v>7824</v>
+        <v>7819</v>
       </c>
       <c r="G1254" s="14" t="s">
-        <v>7825</v>
+        <v>7820</v>
       </c>
       <c r="H1254" s="14" t="s">
-        <v>7826</v>
+        <v>7821</v>
       </c>
       <c r="I1254" s="14" t="s">
-        <v>7826</v>
+        <v>7821</v>
       </c>
       <c r="J1254" s="14" t="s">
-        <v>7826</v>
+        <v>7821</v>
       </c>
       <c r="K1254" s="14" t="s">
-        <v>7827</v>
+        <v>7822</v>
       </c>
       <c r="L1254" s="14" t="s">
-        <v>7827</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="1255" spans="2:12">
       <c r="B1255" s="14" t="s">
-        <v>7828</v>
+        <v>7823</v>
       </c>
       <c r="C1255" s="14" t="s">
-        <v>7829</v>
+        <v>7824</v>
       </c>
       <c r="D1255" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1255" s="14" t="s">
-        <v>7830</v>
+        <v>7825</v>
       </c>
       <c r="G1255" s="14" t="s">
-        <v>7831</v>
+        <v>7826</v>
       </c>
       <c r="H1255" s="14" t="s">
-        <v>7832</v>
+        <v>7827</v>
       </c>
       <c r="I1255" s="14" t="s">
-        <v>7832</v>
+        <v>7827</v>
       </c>
       <c r="J1255" s="14" t="s">
-        <v>7832</v>
+        <v>7827</v>
       </c>
       <c r="K1255" s="14" t="s">
-        <v>7833</v>
+        <v>7828</v>
       </c>
       <c r="L1255" s="14" t="s">
-        <v>7833</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="1256" spans="2:12">
       <c r="B1256" s="14" t="s">
-        <v>7834</v>
+        <v>7829</v>
       </c>
       <c r="C1256" s="14" t="s">
-        <v>7835</v>
+        <v>7830</v>
       </c>
       <c r="D1256" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1256" s="14" t="s">
-        <v>7836</v>
+        <v>7831</v>
       </c>
       <c r="G1256" s="14" t="s">
-        <v>7837</v>
+        <v>7832</v>
       </c>
       <c r="H1256" s="14" t="s">
-        <v>7838</v>
+        <v>7833</v>
       </c>
       <c r="I1256" s="14" t="s">
-        <v>7838</v>
+        <v>7833</v>
       </c>
       <c r="J1256" s="14" t="s">
-        <v>7838</v>
+        <v>7833</v>
       </c>
       <c r="K1256" s="14" t="s">
-        <v>7839</v>
+        <v>7834</v>
       </c>
       <c r="L1256" s="14" t="s">
-        <v>7839</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="1257" spans="2:12">
       <c r="B1257" s="14" t="s">
-        <v>7840</v>
+        <v>7835</v>
       </c>
       <c r="C1257" s="14" t="s">
-        <v>7841</v>
+        <v>7836</v>
       </c>
       <c r="D1257" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1257" s="14" t="s">
-        <v>7842</v>
+        <v>7837</v>
       </c>
       <c r="G1257" s="14" t="s">
-        <v>7843</v>
+        <v>7838</v>
       </c>
       <c r="H1257" s="14" t="s">
-        <v>7844</v>
+        <v>7839</v>
       </c>
       <c r="I1257" s="14" t="s">
-        <v>7844</v>
+        <v>7839</v>
       </c>
       <c r="J1257" s="14" t="s">
-        <v>7844</v>
+        <v>7839</v>
       </c>
       <c r="K1257" s="14" t="s">
-        <v>7845</v>
+        <v>7840</v>
       </c>
       <c r="L1257" s="14" t="s">
-        <v>7845</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="1258" spans="2:12">
       <c r="B1258" s="14" t="s">
-        <v>7846</v>
+        <v>7841</v>
       </c>
       <c r="C1258" s="14" t="s">
-        <v>7847</v>
+        <v>7842</v>
       </c>
       <c r="D1258" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1258" s="14" t="s">
-        <v>7848</v>
+        <v>7843</v>
       </c>
       <c r="G1258" s="14" t="s">
-        <v>7849</v>
+        <v>7844</v>
       </c>
       <c r="H1258" s="14" t="s">
-        <v>7850</v>
+        <v>7845</v>
       </c>
       <c r="I1258" s="14" t="s">
-        <v>7850</v>
+        <v>7845</v>
       </c>
       <c r="J1258" s="14" t="s">
-        <v>7850</v>
+        <v>7845</v>
       </c>
       <c r="K1258" s="14" t="s">
-        <v>7851</v>
+        <v>7846</v>
       </c>
       <c r="L1258" s="14" t="s">
-        <v>7851</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="1259" spans="2:12">
       <c r="B1259" s="14" t="s">
-        <v>7852</v>
+        <v>7847</v>
       </c>
       <c r="C1259" s="14" t="s">
-        <v>7853</v>
+        <v>7848</v>
       </c>
       <c r="D1259" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1259" s="14" t="s">
-        <v>7854</v>
+        <v>7849</v>
       </c>
       <c r="G1259" s="14" t="s">
-        <v>7855</v>
+        <v>7850</v>
       </c>
       <c r="H1259" s="14" t="s">
-        <v>7856</v>
+        <v>7851</v>
       </c>
       <c r="I1259" s="14" t="s">
-        <v>7856</v>
+        <v>7851</v>
       </c>
       <c r="J1259" s="14" t="s">
-        <v>7856</v>
+        <v>7851</v>
       </c>
       <c r="K1259" s="14" t="s">
-        <v>7857</v>
+        <v>7852</v>
       </c>
       <c r="L1259" s="14" t="s">
-        <v>7857</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="1260" spans="2:12">
       <c r="B1260" s="14" t="s">
-        <v>7858</v>
+        <v>7853</v>
       </c>
       <c r="C1260" s="14" t="s">
-        <v>7859</v>
+        <v>7854</v>
       </c>
       <c r="D1260" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1260" s="14" t="s">
+        <v>7855</v>
+      </c>
+      <c r="G1260" s="14" t="s">
+        <v>7856</v>
+      </c>
+      <c r="H1260" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="I1260" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="J1260" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="K1260" s="14" t="s">
+        <v>7858</v>
+      </c>
+      <c r="L1260" s="14" t="s">
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="1261" spans="2:12">
+      <c r="B1261" s="14" t="s">
+        <v>7859</v>
+      </c>
+      <c r="C1261" s="14" t="s">
         <v>7860</v>
       </c>
-      <c r="G1260" s="14" t="s">
+      <c r="D1261" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1261" s="14" t="s">
         <v>7861</v>
       </c>
-      <c r="H1260" s="14" t="s">
+      <c r="G1261" s="14" t="s">
         <v>7862</v>
       </c>
-      <c r="I1260" s="14" t="s">
-        <v>7862</v>
-      </c>
-      <c r="J1260" s="14" t="s">
-        <v>7862</v>
-      </c>
-      <c r="K1260" s="14" t="s">
+      <c r="H1261" s="14" t="s">
         <v>7863</v>
       </c>
-      <c r="L1260" s="14" t="s">
+      <c r="I1261" s="14" t="s">
         <v>7863</v>
+      </c>
+      <c r="J1261" s="14" t="s">
+        <v>7863</v>
+      </c>
+      <c r="K1261" s="14" t="s">
+        <v>7864</v>
+      </c>
+      <c r="L1261" s="14" t="s">
+        <v>7864</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10381" uniqueCount="7865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10389" uniqueCount="7868">
   <si>
     <t>##var</t>
   </si>
@@ -23494,6 +23494,15 @@
   </si>
   <si>
     <t>Dragon VS Tiger</t>
+  </si>
+  <si>
+    <t>400071</t>
+  </si>
+  <si>
+    <t>奥林匹斯之门</t>
+  </si>
+  <si>
+    <t>Olympus</t>
   </si>
   <si>
     <t>500001</t>
@@ -25890,10 +25899,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1261"/>
+  <dimension ref="A1:O1262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
-      <selection activeCell="G1168" sqref="G1168"/>
+    <sheetView tabSelected="1" topLeftCell="A1169" workbookViewId="0">
+      <selection activeCell="F1187" sqref="F1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -58734,186 +58743,181 @@
         <v>7502</v>
       </c>
     </row>
-    <row r="1197" s="7" customFormat="1" ht="162" spans="2:12">
-      <c r="B1197" s="7" t="s">
+    <row r="1197" s="13" customFormat="1" spans="2:12">
+      <c r="B1197" s="13" t="s">
         <v>7503</v>
       </c>
-      <c r="C1197" s="7" t="s">
+      <c r="E1197" s="41"/>
+      <c r="F1197" s="41" t="s">
         <v>7504</v>
       </c>
-      <c r="F1197" s="7" t="s">
+      <c r="G1197" s="14" t="s">
         <v>7505</v>
       </c>
-      <c r="G1197" s="7" t="s">
+      <c r="H1197" s="14" t="s">
+        <v>7505</v>
+      </c>
+      <c r="I1197" s="14" t="s">
+        <v>7505</v>
+      </c>
+      <c r="J1197" s="14" t="s">
+        <v>7505</v>
+      </c>
+      <c r="K1197" s="14" t="s">
+        <v>7505</v>
+      </c>
+      <c r="L1197" s="14" t="s">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="1198" s="7" customFormat="1" ht="162" spans="2:12">
+      <c r="B1198" s="7" t="s">
         <v>7506</v>
       </c>
-      <c r="H1197" s="7" t="s">
+      <c r="C1198" s="7" t="s">
         <v>7507</v>
       </c>
-      <c r="I1197" s="7" t="s">
+      <c r="F1198" s="7" t="s">
         <v>7508</v>
       </c>
-      <c r="J1197" s="7" t="s">
+      <c r="G1198" s="7" t="s">
         <v>7509</v>
       </c>
-      <c r="K1197" s="7" t="s">
+      <c r="H1198" s="7" t="s">
         <v>7510</v>
       </c>
-      <c r="L1197" s="7" t="s">
+      <c r="I1198" s="7" t="s">
         <v>7511</v>
       </c>
-    </row>
-    <row r="1198" ht="297" spans="2:12">
-      <c r="B1198" s="14" t="s">
+      <c r="J1198" s="7" t="s">
         <v>7512</v>
       </c>
-      <c r="C1198" s="14" t="s">
+      <c r="K1198" s="7" t="s">
         <v>7513</v>
       </c>
-      <c r="E1198" s="27"/>
-      <c r="F1198" s="27" t="s">
+      <c r="L1198" s="7" t="s">
         <v>7514</v>
       </c>
-      <c r="G1198" s="14" t="s">
+    </row>
+    <row r="1199" ht="297" spans="2:12">
+      <c r="B1199" s="14" t="s">
         <v>7515</v>
       </c>
-      <c r="H1198" s="14" t="s">
+      <c r="C1199" s="14" t="s">
         <v>7516</v>
       </c>
-      <c r="I1198" s="14" t="s">
+      <c r="E1199" s="27"/>
+      <c r="F1199" s="27" t="s">
         <v>7517</v>
       </c>
-      <c r="J1198" s="14" t="s">
+      <c r="G1199" s="14" t="s">
         <v>7518</v>
       </c>
-      <c r="K1198" s="14" t="s">
+      <c r="H1199" s="14" t="s">
         <v>7519</v>
       </c>
-      <c r="L1198" s="14" t="s">
-        <v>7519</v>
-      </c>
-    </row>
-    <row r="1199" s="2" customFormat="1" spans="2:12">
-      <c r="B1199" s="1" t="s">
+      <c r="I1199" s="14" t="s">
         <v>7520</v>
       </c>
-      <c r="C1199" s="1" t="s">
+      <c r="J1199" s="14" t="s">
         <v>7521</v>
       </c>
-      <c r="D1199" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1199" s="39"/>
-      <c r="F1199" s="39" t="s">
+      <c r="K1199" s="14" t="s">
         <v>7522</v>
       </c>
-      <c r="G1199" s="39" t="s">
+      <c r="L1199" s="14" t="s">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="1200" s="2" customFormat="1" spans="2:12">
+      <c r="B1200" s="1" t="s">
         <v>7523</v>
       </c>
-      <c r="H1199" s="39" t="s">
+      <c r="C1200" s="1" t="s">
         <v>7524</v>
-      </c>
-      <c r="I1199" s="39" t="s">
-        <v>7524</v>
-      </c>
-      <c r="J1199" s="39" t="s">
-        <v>7524</v>
-      </c>
-      <c r="K1199" s="39" t="s">
-        <v>7525</v>
-      </c>
-      <c r="L1199" s="39" t="s">
-        <v>7525</v>
-      </c>
-    </row>
-    <row r="1200" spans="2:12">
-      <c r="B1200" s="1" t="s">
-        <v>7526</v>
-      </c>
-      <c r="C1200" s="14" t="s">
-        <v>7527</v>
       </c>
       <c r="D1200" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="F1200" s="14" t="s">
+      <c r="E1200" s="39"/>
+      <c r="F1200" s="39" t="s">
+        <v>7525</v>
+      </c>
+      <c r="G1200" s="39" t="s">
+        <v>7526</v>
+      </c>
+      <c r="H1200" s="39" t="s">
+        <v>7527</v>
+      </c>
+      <c r="I1200" s="39" t="s">
+        <v>7527</v>
+      </c>
+      <c r="J1200" s="39" t="s">
+        <v>7527</v>
+      </c>
+      <c r="K1200" s="39" t="s">
         <v>7528</v>
       </c>
-      <c r="G1200" s="14" t="s">
-        <v>7529</v>
-      </c>
-      <c r="H1200" s="14" t="s">
-        <v>7530</v>
-      </c>
-      <c r="I1200" s="14" t="s">
-        <v>7530</v>
-      </c>
-      <c r="J1200" s="14" t="s">
-        <v>7530</v>
-      </c>
-      <c r="K1200" s="14" t="s">
-        <v>7531</v>
-      </c>
-      <c r="L1200" s="14" t="s">
-        <v>7531</v>
+      <c r="L1200" s="39" t="s">
+        <v>7528</v>
       </c>
     </row>
     <row r="1201" spans="2:12">
       <c r="B1201" s="1" t="s">
-        <v>7532</v>
+        <v>7529</v>
       </c>
       <c r="C1201" s="14" t="s">
-        <v>7533</v>
+        <v>7530</v>
       </c>
       <c r="D1201" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1201" s="14" t="s">
+        <v>7531</v>
+      </c>
+      <c r="G1201" s="14" t="s">
+        <v>7532</v>
+      </c>
+      <c r="H1201" s="14" t="s">
+        <v>7533</v>
+      </c>
+      <c r="I1201" s="14" t="s">
+        <v>7533</v>
+      </c>
+      <c r="J1201" s="14" t="s">
+        <v>7533</v>
+      </c>
+      <c r="K1201" s="14" t="s">
         <v>7534</v>
       </c>
-      <c r="G1201" s="14" t="s">
-        <v>7535</v>
-      </c>
-      <c r="H1201" s="14" t="s">
-        <v>7536</v>
-      </c>
-      <c r="I1201" s="14" t="s">
-        <v>7536</v>
-      </c>
-      <c r="J1201" s="14" t="s">
-        <v>7536</v>
-      </c>
-      <c r="K1201" s="14" t="s">
-        <v>7537</v>
-      </c>
       <c r="L1201" s="14" t="s">
-        <v>7537</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="1202" spans="2:12">
       <c r="B1202" s="1" t="s">
-        <v>7538</v>
+        <v>7535</v>
       </c>
       <c r="C1202" s="14" t="s">
-        <v>7539</v>
+        <v>7536</v>
       </c>
       <c r="D1202" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1202" s="14" t="s">
-        <v>7540</v>
+        <v>7537</v>
       </c>
       <c r="G1202" s="14" t="s">
-        <v>7540</v>
+        <v>7538</v>
       </c>
       <c r="H1202" s="14" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="I1202" s="14" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="J1202" s="14" t="s">
-        <v>7540</v>
+        <v>7539</v>
       </c>
       <c r="K1202" s="14" t="s">
         <v>7540</v>
@@ -58987,7 +58991,7 @@
       </c>
     </row>
     <row r="1205" spans="2:12">
-      <c r="B1205" s="14" t="s">
+      <c r="B1205" s="1" t="s">
         <v>7547</v>
       </c>
       <c r="C1205" s="14" t="s">
@@ -59000,1814 +59004,1846 @@
         <v>7549</v>
       </c>
       <c r="G1205" s="14" t="s">
-        <v>7550</v>
+        <v>7549</v>
       </c>
       <c r="H1205" s="14" t="s">
-        <v>7551</v>
+        <v>7549</v>
       </c>
       <c r="I1205" s="14" t="s">
-        <v>7551</v>
+        <v>7549</v>
       </c>
       <c r="J1205" s="14" t="s">
-        <v>7551</v>
+        <v>7549</v>
       </c>
       <c r="K1205" s="14" t="s">
-        <v>7552</v>
+        <v>7549</v>
       </c>
       <c r="L1205" s="14" t="s">
-        <v>7552</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="1206" spans="2:12">
       <c r="B1206" s="14" t="s">
-        <v>7553</v>
+        <v>7550</v>
       </c>
       <c r="C1206" s="14" t="s">
-        <v>7554</v>
+        <v>7551</v>
       </c>
       <c r="D1206" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1206" s="14" t="s">
+        <v>7552</v>
+      </c>
+      <c r="G1206" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="H1206" s="14" t="s">
+        <v>7554</v>
+      </c>
+      <c r="I1206" s="14" t="s">
+        <v>7554</v>
+      </c>
+      <c r="J1206" s="14" t="s">
+        <v>7554</v>
+      </c>
+      <c r="K1206" s="14" t="s">
         <v>7555</v>
       </c>
-      <c r="G1206" s="14" t="s">
-        <v>7556</v>
-      </c>
-      <c r="H1206" s="14" t="s">
-        <v>7557</v>
-      </c>
-      <c r="I1206" s="14" t="s">
-        <v>7557</v>
-      </c>
-      <c r="J1206" s="14" t="s">
-        <v>7557</v>
-      </c>
-      <c r="K1206" s="14" t="s">
-        <v>7558</v>
-      </c>
       <c r="L1206" s="14" t="s">
-        <v>7558</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="1207" spans="2:12">
       <c r="B1207" s="14" t="s">
-        <v>7559</v>
+        <v>7556</v>
       </c>
       <c r="C1207" s="14" t="s">
-        <v>7560</v>
+        <v>7557</v>
       </c>
       <c r="D1207" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1207" s="14" t="s">
+        <v>7558</v>
+      </c>
+      <c r="G1207" s="14" t="s">
+        <v>7559</v>
+      </c>
+      <c r="H1207" s="14" t="s">
+        <v>7560</v>
+      </c>
+      <c r="I1207" s="14" t="s">
+        <v>7560</v>
+      </c>
+      <c r="J1207" s="14" t="s">
+        <v>7560</v>
+      </c>
+      <c r="K1207" s="14" t="s">
         <v>7561</v>
       </c>
-      <c r="G1207" s="14" t="s">
-        <v>7562</v>
-      </c>
-      <c r="H1207" s="14" t="s">
-        <v>7563</v>
-      </c>
-      <c r="I1207" s="14" t="s">
-        <v>7563</v>
-      </c>
-      <c r="J1207" s="14" t="s">
-        <v>7563</v>
-      </c>
-      <c r="K1207" s="14" t="s">
-        <v>7564</v>
-      </c>
       <c r="L1207" s="14" t="s">
-        <v>7564</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="1208" spans="2:12">
       <c r="B1208" s="14" t="s">
-        <v>7565</v>
+        <v>7562</v>
       </c>
       <c r="C1208" s="14" t="s">
-        <v>7566</v>
+        <v>7563</v>
       </c>
       <c r="D1208" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1208" s="14" t="s">
+        <v>7564</v>
+      </c>
+      <c r="G1208" s="14" t="s">
+        <v>7565</v>
+      </c>
+      <c r="H1208" s="14" t="s">
+        <v>7566</v>
+      </c>
+      <c r="I1208" s="14" t="s">
+        <v>7566</v>
+      </c>
+      <c r="J1208" s="14" t="s">
+        <v>7566</v>
+      </c>
+      <c r="K1208" s="14" t="s">
         <v>7567</v>
       </c>
-      <c r="G1208" s="14" t="s">
-        <v>7568</v>
-      </c>
-      <c r="H1208" s="14" t="s">
-        <v>7569</v>
-      </c>
-      <c r="I1208" s="14" t="s">
-        <v>7569</v>
-      </c>
-      <c r="J1208" s="14" t="s">
-        <v>7569</v>
-      </c>
-      <c r="K1208" s="14" t="s">
-        <v>7570</v>
-      </c>
       <c r="L1208" s="14" t="s">
-        <v>7570</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="1209" spans="2:12">
       <c r="B1209" s="14" t="s">
-        <v>7571</v>
+        <v>7568</v>
       </c>
       <c r="C1209" s="14" t="s">
-        <v>7572</v>
+        <v>7569</v>
       </c>
       <c r="D1209" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1209" s="14" t="s">
+        <v>7570</v>
+      </c>
+      <c r="G1209" s="14" t="s">
+        <v>7571</v>
+      </c>
+      <c r="H1209" s="14" t="s">
+        <v>7572</v>
+      </c>
+      <c r="I1209" s="14" t="s">
+        <v>7572</v>
+      </c>
+      <c r="J1209" s="14" t="s">
+        <v>7572</v>
+      </c>
+      <c r="K1209" s="14" t="s">
         <v>7573</v>
       </c>
-      <c r="G1209" s="14" t="s">
-        <v>7574</v>
-      </c>
-      <c r="H1209" s="14" t="s">
-        <v>7575</v>
-      </c>
-      <c r="I1209" s="14" t="s">
-        <v>7575</v>
-      </c>
-      <c r="J1209" s="14" t="s">
-        <v>7575</v>
-      </c>
-      <c r="K1209" s="14" t="s">
-        <v>7576</v>
-      </c>
       <c r="L1209" s="14" t="s">
-        <v>7576</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="1210" spans="2:12">
       <c r="B1210" s="14" t="s">
-        <v>7577</v>
+        <v>7574</v>
       </c>
       <c r="C1210" s="14" t="s">
-        <v>7578</v>
+        <v>7575</v>
       </c>
       <c r="D1210" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1210" s="14" t="s">
+        <v>7576</v>
+      </c>
+      <c r="G1210" s="14" t="s">
+        <v>7577</v>
+      </c>
+      <c r="H1210" s="14" t="s">
+        <v>7578</v>
+      </c>
+      <c r="I1210" s="14" t="s">
+        <v>7578</v>
+      </c>
+      <c r="J1210" s="14" t="s">
+        <v>7578</v>
+      </c>
+      <c r="K1210" s="14" t="s">
         <v>7579</v>
       </c>
-      <c r="G1210" s="14" t="s">
-        <v>7580</v>
-      </c>
-      <c r="H1210" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="I1210" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="J1210" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="K1210" s="14" t="s">
-        <v>7582</v>
-      </c>
       <c r="L1210" s="14" t="s">
-        <v>7582</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="1211" spans="2:12">
       <c r="B1211" s="14" t="s">
-        <v>7583</v>
-      </c>
-      <c r="C1211" s="1" t="s">
-        <v>1664</v>
+        <v>7580</v>
+      </c>
+      <c r="C1211" s="14" t="s">
+        <v>7581</v>
       </c>
       <c r="D1211" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1211" s="14" t="s">
+        <v>7582</v>
+      </c>
+      <c r="G1211" s="14" t="s">
+        <v>7583</v>
+      </c>
+      <c r="H1211" s="14" t="s">
         <v>7584</v>
       </c>
-      <c r="G1211" s="14" t="s">
+      <c r="I1211" s="14" t="s">
+        <v>7584</v>
+      </c>
+      <c r="J1211" s="14" t="s">
+        <v>7584</v>
+      </c>
+      <c r="K1211" s="14" t="s">
         <v>7585</v>
       </c>
-      <c r="H1211" s="14" t="s">
-        <v>7586</v>
-      </c>
-      <c r="I1211" s="14" t="s">
-        <v>7586</v>
-      </c>
-      <c r="J1211" s="14" t="s">
-        <v>7586</v>
-      </c>
-      <c r="K1211" s="14" t="s">
-        <v>7587</v>
-      </c>
       <c r="L1211" s="14" t="s">
-        <v>7587</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="1212" spans="2:12">
       <c r="B1212" s="14" t="s">
-        <v>7588</v>
+        <v>7586</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="D1212" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1212" s="14" t="s">
+        <v>7587</v>
+      </c>
+      <c r="G1212" s="14" t="s">
+        <v>7588</v>
+      </c>
+      <c r="H1212" s="14" t="s">
         <v>7589</v>
       </c>
-      <c r="G1212" s="14" t="s">
+      <c r="I1212" s="14" t="s">
+        <v>7589</v>
+      </c>
+      <c r="J1212" s="14" t="s">
+        <v>7589</v>
+      </c>
+      <c r="K1212" s="14" t="s">
         <v>7590</v>
       </c>
-      <c r="H1212" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="I1212" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="J1212" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="K1212" s="14" t="s">
-        <v>7592</v>
-      </c>
       <c r="L1212" s="14" t="s">
-        <v>7592</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="1213" spans="2:12">
       <c r="B1213" s="14" t="s">
-        <v>7593</v>
+        <v>7591</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="D1213" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1213" s="14" t="s">
+        <v>7592</v>
+      </c>
+      <c r="G1213" s="14" t="s">
+        <v>7593</v>
+      </c>
+      <c r="H1213" s="14" t="s">
         <v>7594</v>
       </c>
-      <c r="G1213" s="14" t="s">
+      <c r="I1213" s="14" t="s">
+        <v>7594</v>
+      </c>
+      <c r="J1213" s="14" t="s">
+        <v>7594</v>
+      </c>
+      <c r="K1213" s="14" t="s">
         <v>7595</v>
       </c>
-      <c r="H1213" s="14" t="s">
-        <v>7596</v>
-      </c>
-      <c r="I1213" s="14" t="s">
-        <v>7596</v>
-      </c>
-      <c r="J1213" s="14" t="s">
-        <v>7596</v>
-      </c>
-      <c r="K1213" s="14" t="s">
-        <v>7597</v>
-      </c>
       <c r="L1213" s="14" t="s">
-        <v>7597</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="1214" spans="2:12">
       <c r="B1214" s="14" t="s">
-        <v>7598</v>
+        <v>7596</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="D1214" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1214" s="14" t="s">
+        <v>7597</v>
+      </c>
+      <c r="G1214" s="14" t="s">
+        <v>7598</v>
+      </c>
+      <c r="H1214" s="14" t="s">
         <v>7599</v>
       </c>
-      <c r="G1214" s="14" t="s">
+      <c r="I1214" s="14" t="s">
+        <v>7599</v>
+      </c>
+      <c r="J1214" s="14" t="s">
+        <v>7599</v>
+      </c>
+      <c r="K1214" s="14" t="s">
         <v>7600</v>
       </c>
-      <c r="H1214" s="14" t="s">
-        <v>7601</v>
-      </c>
-      <c r="I1214" s="14" t="s">
-        <v>7601</v>
-      </c>
-      <c r="J1214" s="14" t="s">
-        <v>7601</v>
-      </c>
-      <c r="K1214" s="14" t="s">
-        <v>7602</v>
-      </c>
       <c r="L1214" s="14" t="s">
-        <v>7602</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="1215" spans="2:12">
       <c r="B1215" s="14" t="s">
-        <v>7603</v>
+        <v>7601</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="D1215" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1215" s="14" t="s">
+        <v>7602</v>
+      </c>
+      <c r="G1215" s="14" t="s">
+        <v>7603</v>
+      </c>
+      <c r="H1215" s="14" t="s">
         <v>7604</v>
       </c>
-      <c r="G1215" s="14" t="s">
+      <c r="I1215" s="14" t="s">
+        <v>7604</v>
+      </c>
+      <c r="J1215" s="14" t="s">
+        <v>7604</v>
+      </c>
+      <c r="K1215" s="14" t="s">
         <v>7605</v>
       </c>
-      <c r="H1215" s="14" t="s">
-        <v>7606</v>
-      </c>
-      <c r="I1215" s="14" t="s">
-        <v>7606</v>
-      </c>
-      <c r="J1215" s="14" t="s">
-        <v>7606</v>
-      </c>
-      <c r="K1215" s="14" t="s">
-        <v>7607</v>
-      </c>
       <c r="L1215" s="14" t="s">
-        <v>7607</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="1216" spans="2:12">
       <c r="B1216" s="14" t="s">
-        <v>7608</v>
+        <v>7606</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="D1216" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1216" s="14" t="s">
+        <v>7607</v>
+      </c>
+      <c r="G1216" s="14" t="s">
+        <v>7608</v>
+      </c>
+      <c r="H1216" s="14" t="s">
         <v>7609</v>
       </c>
-      <c r="G1216" s="14" t="s">
+      <c r="I1216" s="14" t="s">
+        <v>7609</v>
+      </c>
+      <c r="J1216" s="14" t="s">
+        <v>7609</v>
+      </c>
+      <c r="K1216" s="14" t="s">
         <v>7610</v>
       </c>
-      <c r="H1216" s="14" t="s">
-        <v>7611</v>
-      </c>
-      <c r="I1216" s="14" t="s">
-        <v>7611</v>
-      </c>
-      <c r="J1216" s="14" t="s">
-        <v>7611</v>
-      </c>
-      <c r="K1216" s="14" t="s">
-        <v>7612</v>
-      </c>
       <c r="L1216" s="14" t="s">
-        <v>7612</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="1217" spans="2:12">
       <c r="B1217" s="14" t="s">
-        <v>7613</v>
+        <v>7611</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="D1217" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1217" s="14" t="s">
+        <v>7612</v>
+      </c>
+      <c r="G1217" s="14" t="s">
+        <v>7613</v>
+      </c>
+      <c r="H1217" s="14" t="s">
         <v>7614</v>
       </c>
-      <c r="G1217" s="14" t="s">
+      <c r="I1217" s="14" t="s">
+        <v>7614</v>
+      </c>
+      <c r="J1217" s="14" t="s">
+        <v>7614</v>
+      </c>
+      <c r="K1217" s="14" t="s">
         <v>7615</v>
       </c>
-      <c r="H1217" s="14" t="s">
-        <v>7616</v>
-      </c>
-      <c r="I1217" s="14" t="s">
-        <v>7616</v>
-      </c>
-      <c r="J1217" s="14" t="s">
-        <v>7616</v>
-      </c>
-      <c r="K1217" s="14" t="s">
-        <v>7617</v>
-      </c>
       <c r="L1217" s="14" t="s">
-        <v>7617</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="1218" spans="2:12">
       <c r="B1218" s="14" t="s">
-        <v>7618</v>
+        <v>7616</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="D1218" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1218" s="14" t="s">
+        <v>7617</v>
+      </c>
+      <c r="G1218" s="14" t="s">
+        <v>7618</v>
+      </c>
+      <c r="H1218" s="14" t="s">
         <v>7619</v>
       </c>
-      <c r="G1218" s="14" t="s">
+      <c r="I1218" s="14" t="s">
+        <v>7619</v>
+      </c>
+      <c r="J1218" s="14" t="s">
+        <v>7619</v>
+      </c>
+      <c r="K1218" s="14" t="s">
         <v>7620</v>
       </c>
-      <c r="H1218" s="14" t="s">
-        <v>7621</v>
-      </c>
-      <c r="I1218" s="14" t="s">
-        <v>7621</v>
-      </c>
-      <c r="J1218" s="14" t="s">
-        <v>7621</v>
-      </c>
-      <c r="K1218" s="14" t="s">
-        <v>7622</v>
-      </c>
       <c r="L1218" s="14" t="s">
-        <v>7622</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="1219" spans="2:12">
       <c r="B1219" s="14" t="s">
-        <v>7623</v>
+        <v>7621</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="D1219" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1219" s="14" t="s">
+        <v>7622</v>
+      </c>
+      <c r="G1219" s="14" t="s">
+        <v>7623</v>
+      </c>
+      <c r="H1219" s="14" t="s">
         <v>7624</v>
       </c>
-      <c r="G1219" s="14" t="s">
+      <c r="I1219" s="14" t="s">
+        <v>7624</v>
+      </c>
+      <c r="J1219" s="14" t="s">
+        <v>7624</v>
+      </c>
+      <c r="K1219" s="14" t="s">
         <v>7625</v>
       </c>
-      <c r="H1219" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="I1219" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="J1219" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="K1219" s="14" t="s">
-        <v>7627</v>
-      </c>
       <c r="L1219" s="14" t="s">
-        <v>7627</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="1220" spans="2:12">
       <c r="B1220" s="14" t="s">
-        <v>7628</v>
+        <v>7626</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="D1220" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1220" s="14" t="s">
+        <v>7627</v>
+      </c>
+      <c r="G1220" s="14" t="s">
+        <v>7628</v>
+      </c>
+      <c r="H1220" s="14" t="s">
         <v>7629</v>
       </c>
-      <c r="G1220" s="14" t="s">
+      <c r="I1220" s="14" t="s">
+        <v>7629</v>
+      </c>
+      <c r="J1220" s="14" t="s">
+        <v>7629</v>
+      </c>
+      <c r="K1220" s="14" t="s">
         <v>7630</v>
       </c>
-      <c r="H1220" s="14" t="s">
-        <v>7631</v>
-      </c>
-      <c r="I1220" s="14" t="s">
-        <v>7631</v>
-      </c>
-      <c r="J1220" s="14" t="s">
-        <v>7631</v>
-      </c>
-      <c r="K1220" s="14" t="s">
-        <v>7632</v>
-      </c>
       <c r="L1220" s="14" t="s">
-        <v>7632</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="1221" spans="2:12">
       <c r="B1221" s="14" t="s">
-        <v>7633</v>
+        <v>7631</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="D1221" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1221" s="14" t="s">
+        <v>7632</v>
+      </c>
+      <c r="G1221" s="14" t="s">
+        <v>7633</v>
+      </c>
+      <c r="H1221" s="14" t="s">
         <v>7634</v>
       </c>
-      <c r="G1221" s="14" t="s">
+      <c r="I1221" s="14" t="s">
+        <v>7634</v>
+      </c>
+      <c r="J1221" s="14" t="s">
+        <v>7634</v>
+      </c>
+      <c r="K1221" s="14" t="s">
         <v>7635</v>
       </c>
-      <c r="H1221" s="14" t="s">
-        <v>7636</v>
-      </c>
-      <c r="I1221" s="14" t="s">
-        <v>7636</v>
-      </c>
-      <c r="J1221" s="14" t="s">
-        <v>7636</v>
-      </c>
-      <c r="K1221" s="14" t="s">
-        <v>7637</v>
-      </c>
       <c r="L1221" s="14" t="s">
-        <v>7637</v>
+        <v>7635</v>
       </c>
     </row>
     <row r="1222" spans="2:12">
       <c r="B1222" s="14" t="s">
-        <v>7638</v>
+        <v>7636</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>1751</v>
+        <v>1737</v>
       </c>
       <c r="D1222" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1222" s="14" t="s">
+        <v>7637</v>
+      </c>
+      <c r="G1222" s="14" t="s">
+        <v>7638</v>
+      </c>
+      <c r="H1222" s="14" t="s">
         <v>7639</v>
       </c>
-      <c r="G1222" s="14" t="s">
+      <c r="I1222" s="14" t="s">
+        <v>7639</v>
+      </c>
+      <c r="J1222" s="14" t="s">
+        <v>7639</v>
+      </c>
+      <c r="K1222" s="14" t="s">
         <v>7640</v>
       </c>
-      <c r="H1222" s="14" t="s">
-        <v>7641</v>
-      </c>
-      <c r="I1222" s="14" t="s">
-        <v>7641</v>
-      </c>
-      <c r="J1222" s="14" t="s">
-        <v>7641</v>
-      </c>
-      <c r="K1222" s="14" t="s">
-        <v>7642</v>
-      </c>
       <c r="L1222" s="14" t="s">
-        <v>7642</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="1223" spans="2:12">
       <c r="B1223" s="14" t="s">
-        <v>7643</v>
+        <v>7641</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D1223" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1223" s="14" t="s">
+        <v>7642</v>
+      </c>
+      <c r="G1223" s="14" t="s">
+        <v>7643</v>
+      </c>
+      <c r="H1223" s="14" t="s">
         <v>7644</v>
       </c>
-      <c r="G1223" s="14" t="s">
+      <c r="I1223" s="14" t="s">
+        <v>7644</v>
+      </c>
+      <c r="J1223" s="14" t="s">
+        <v>7644</v>
+      </c>
+      <c r="K1223" s="14" t="s">
         <v>7645</v>
       </c>
-      <c r="H1223" s="14" t="s">
-        <v>7646</v>
-      </c>
-      <c r="I1223" s="14" t="s">
-        <v>7646</v>
-      </c>
-      <c r="J1223" s="14" t="s">
-        <v>7646</v>
-      </c>
-      <c r="K1223" s="14" t="s">
-        <v>7647</v>
-      </c>
       <c r="L1223" s="14" t="s">
-        <v>7647</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="1224" spans="2:12">
       <c r="B1224" s="14" t="s">
-        <v>7648</v>
+        <v>7646</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="D1224" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1224" s="14" t="s">
+        <v>7647</v>
+      </c>
+      <c r="G1224" s="14" t="s">
+        <v>7648</v>
+      </c>
+      <c r="H1224" s="14" t="s">
         <v>7649</v>
       </c>
-      <c r="G1224" s="14" t="s">
+      <c r="I1224" s="14" t="s">
+        <v>7649</v>
+      </c>
+      <c r="J1224" s="14" t="s">
+        <v>7649</v>
+      </c>
+      <c r="K1224" s="14" t="s">
         <v>7650</v>
       </c>
-      <c r="H1224" s="14" t="s">
-        <v>7651</v>
-      </c>
-      <c r="I1224" s="14" t="s">
-        <v>7651</v>
-      </c>
-      <c r="J1224" s="14" t="s">
-        <v>7651</v>
-      </c>
-      <c r="K1224" s="14" t="s">
-        <v>7652</v>
-      </c>
       <c r="L1224" s="14" t="s">
-        <v>7652</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="1225" spans="2:12">
       <c r="B1225" s="14" t="s">
-        <v>7653</v>
+        <v>7651</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="D1225" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1225" s="14" t="s">
+        <v>7652</v>
+      </c>
+      <c r="G1225" s="14" t="s">
+        <v>7653</v>
+      </c>
+      <c r="H1225" s="14" t="s">
         <v>7654</v>
       </c>
-      <c r="G1225" s="14" t="s">
+      <c r="I1225" s="14" t="s">
+        <v>7654</v>
+      </c>
+      <c r="J1225" s="14" t="s">
+        <v>7654</v>
+      </c>
+      <c r="K1225" s="14" t="s">
         <v>7655</v>
       </c>
-      <c r="H1225" s="14" t="s">
-        <v>7656</v>
-      </c>
-      <c r="I1225" s="14" t="s">
-        <v>7656</v>
-      </c>
-      <c r="J1225" s="14" t="s">
-        <v>7656</v>
-      </c>
-      <c r="K1225" s="14" t="s">
-        <v>7657</v>
-      </c>
       <c r="L1225" s="14" t="s">
-        <v>7657</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="1226" spans="2:12">
       <c r="B1226" s="14" t="s">
-        <v>7658</v>
+        <v>7656</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="D1226" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1226" s="14" t="s">
+        <v>7657</v>
+      </c>
+      <c r="G1226" s="14" t="s">
+        <v>7658</v>
+      </c>
+      <c r="H1226" s="14" t="s">
         <v>7659</v>
       </c>
-      <c r="G1226" s="14" t="s">
+      <c r="I1226" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="J1226" s="14" t="s">
+        <v>7659</v>
+      </c>
+      <c r="K1226" s="14" t="s">
         <v>7660</v>
       </c>
-      <c r="H1226" s="14" t="s">
-        <v>7661</v>
-      </c>
-      <c r="I1226" s="14" t="s">
-        <v>7661</v>
-      </c>
-      <c r="J1226" s="14" t="s">
-        <v>7661</v>
-      </c>
-      <c r="K1226" s="14" t="s">
-        <v>7662</v>
-      </c>
       <c r="L1226" s="14" t="s">
-        <v>7662</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="1227" spans="2:12">
       <c r="B1227" s="14" t="s">
-        <v>7663</v>
+        <v>7661</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="D1227" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1227" s="14" t="s">
+        <v>7662</v>
+      </c>
+      <c r="G1227" s="14" t="s">
+        <v>7663</v>
+      </c>
+      <c r="H1227" s="14" t="s">
         <v>7664</v>
       </c>
-      <c r="G1227" s="14" t="s">
+      <c r="I1227" s="14" t="s">
+        <v>7664</v>
+      </c>
+      <c r="J1227" s="14" t="s">
+        <v>7664</v>
+      </c>
+      <c r="K1227" s="14" t="s">
         <v>7665</v>
       </c>
-      <c r="H1227" s="14" t="s">
-        <v>7666</v>
-      </c>
-      <c r="I1227" s="14" t="s">
-        <v>7666</v>
-      </c>
-      <c r="J1227" s="14" t="s">
-        <v>7666</v>
-      </c>
-      <c r="K1227" s="14" t="s">
-        <v>7667</v>
-      </c>
       <c r="L1227" s="14" t="s">
-        <v>7667</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="1228" spans="2:12">
       <c r="B1228" s="14" t="s">
-        <v>7668</v>
+        <v>7666</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="D1228" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1228" s="14" t="s">
+        <v>7667</v>
+      </c>
+      <c r="G1228" s="14" t="s">
+        <v>7668</v>
+      </c>
+      <c r="H1228" s="14" t="s">
         <v>7669</v>
       </c>
-      <c r="G1228" s="14" t="s">
+      <c r="I1228" s="14" t="s">
+        <v>7669</v>
+      </c>
+      <c r="J1228" s="14" t="s">
+        <v>7669</v>
+      </c>
+      <c r="K1228" s="14" t="s">
         <v>7670</v>
       </c>
-      <c r="H1228" s="14" t="s">
-        <v>7671</v>
-      </c>
-      <c r="I1228" s="14" t="s">
-        <v>7671</v>
-      </c>
-      <c r="J1228" s="14" t="s">
-        <v>7671</v>
-      </c>
-      <c r="K1228" s="14" t="s">
-        <v>7672</v>
-      </c>
       <c r="L1228" s="14" t="s">
-        <v>7672</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="1229" spans="2:12">
       <c r="B1229" s="14" t="s">
-        <v>7673</v>
+        <v>7671</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="D1229" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1229" s="14" t="s">
+        <v>7672</v>
+      </c>
+      <c r="G1229" s="14" t="s">
+        <v>7673</v>
+      </c>
+      <c r="H1229" s="14" t="s">
         <v>7674</v>
       </c>
-      <c r="G1229" s="14" t="s">
+      <c r="I1229" s="14" t="s">
+        <v>7674</v>
+      </c>
+      <c r="J1229" s="14" t="s">
+        <v>7674</v>
+      </c>
+      <c r="K1229" s="14" t="s">
         <v>7675</v>
       </c>
-      <c r="H1229" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="I1229" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="J1229" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="K1229" s="14" t="s">
-        <v>7677</v>
-      </c>
       <c r="L1229" s="14" t="s">
-        <v>7677</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="1230" spans="2:12">
       <c r="B1230" s="14" t="s">
-        <v>7678</v>
+        <v>7676</v>
       </c>
       <c r="C1230" s="1" t="s">
-        <v>1845</v>
+        <v>1800</v>
       </c>
       <c r="D1230" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1230" s="14" t="s">
+        <v>7677</v>
+      </c>
+      <c r="G1230" s="14" t="s">
+        <v>7678</v>
+      </c>
+      <c r="H1230" s="14" t="s">
         <v>7679</v>
       </c>
-      <c r="G1230" s="14" t="s">
+      <c r="I1230" s="14" t="s">
+        <v>7679</v>
+      </c>
+      <c r="J1230" s="14" t="s">
+        <v>7679</v>
+      </c>
+      <c r="K1230" s="14" t="s">
         <v>7680</v>
       </c>
-      <c r="H1230" s="14" t="s">
-        <v>7681</v>
-      </c>
-      <c r="I1230" s="14" t="s">
-        <v>7681</v>
-      </c>
-      <c r="J1230" s="14" t="s">
-        <v>7681</v>
-      </c>
-      <c r="K1230" s="14" t="s">
-        <v>7682</v>
-      </c>
       <c r="L1230" s="14" t="s">
-        <v>7682</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="1231" spans="2:12">
       <c r="B1231" s="14" t="s">
-        <v>7683</v>
-      </c>
-      <c r="C1231" s="14" t="s">
-        <v>7684</v>
+        <v>7681</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>1845</v>
       </c>
       <c r="D1231" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1231" s="14" t="s">
+        <v>7682</v>
+      </c>
+      <c r="G1231" s="14" t="s">
+        <v>7683</v>
+      </c>
+      <c r="H1231" s="14" t="s">
+        <v>7684</v>
+      </c>
+      <c r="I1231" s="14" t="s">
+        <v>7684</v>
+      </c>
+      <c r="J1231" s="14" t="s">
+        <v>7684</v>
+      </c>
+      <c r="K1231" s="14" t="s">
         <v>7685</v>
       </c>
-      <c r="G1231" s="14" t="s">
-        <v>7686</v>
-      </c>
-      <c r="H1231" s="14" t="s">
-        <v>7687</v>
-      </c>
-      <c r="I1231" s="14" t="s">
-        <v>7687</v>
-      </c>
-      <c r="J1231" s="14" t="s">
-        <v>7687</v>
-      </c>
-      <c r="K1231" s="14" t="s">
-        <v>7688</v>
-      </c>
       <c r="L1231" s="14" t="s">
-        <v>7688</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="1232" spans="2:12">
       <c r="B1232" s="14" t="s">
-        <v>7689</v>
+        <v>7686</v>
       </c>
       <c r="C1232" s="14" t="s">
-        <v>7690</v>
+        <v>7687</v>
       </c>
       <c r="D1232" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1232" s="14" t="s">
+        <v>7688</v>
+      </c>
+      <c r="G1232" s="14" t="s">
+        <v>7689</v>
+      </c>
+      <c r="H1232" s="14" t="s">
+        <v>7690</v>
+      </c>
+      <c r="I1232" s="14" t="s">
+        <v>7690</v>
+      </c>
+      <c r="J1232" s="14" t="s">
+        <v>7690</v>
+      </c>
+      <c r="K1232" s="14" t="s">
         <v>7691</v>
       </c>
-      <c r="G1232" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="H1232" s="14" t="s">
-        <v>7693</v>
-      </c>
-      <c r="I1232" s="14" t="s">
-        <v>7693</v>
-      </c>
-      <c r="J1232" s="14" t="s">
-        <v>7693</v>
-      </c>
-      <c r="K1232" s="14" t="s">
-        <v>7694</v>
-      </c>
       <c r="L1232" s="14" t="s">
-        <v>7694</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="1233" spans="2:12">
       <c r="B1233" s="14" t="s">
-        <v>7695</v>
+        <v>7692</v>
       </c>
       <c r="C1233" s="14" t="s">
-        <v>7696</v>
+        <v>7693</v>
       </c>
       <c r="D1233" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1233" s="14" t="s">
+        <v>7694</v>
+      </c>
+      <c r="G1233" s="14" t="s">
+        <v>7695</v>
+      </c>
+      <c r="H1233" s="14" t="s">
+        <v>7696</v>
+      </c>
+      <c r="I1233" s="14" t="s">
+        <v>7696</v>
+      </c>
+      <c r="J1233" s="14" t="s">
+        <v>7696</v>
+      </c>
+      <c r="K1233" s="14" t="s">
         <v>7697</v>
       </c>
-      <c r="G1233" s="14" t="s">
-        <v>7698</v>
-      </c>
-      <c r="H1233" s="14" t="s">
-        <v>7699</v>
-      </c>
-      <c r="I1233" s="14" t="s">
-        <v>7699</v>
-      </c>
-      <c r="J1233" s="14" t="s">
-        <v>7699</v>
-      </c>
-      <c r="K1233" s="14" t="s">
-        <v>7700</v>
-      </c>
       <c r="L1233" s="14" t="s">
-        <v>7700</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="1234" spans="2:12">
       <c r="B1234" s="14" t="s">
-        <v>7701</v>
+        <v>7698</v>
       </c>
       <c r="C1234" s="14" t="s">
-        <v>7702</v>
+        <v>7699</v>
       </c>
       <c r="D1234" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1234" s="14" t="s">
+        <v>7700</v>
+      </c>
+      <c r="G1234" s="14" t="s">
+        <v>7701</v>
+      </c>
+      <c r="H1234" s="14" t="s">
+        <v>7702</v>
+      </c>
+      <c r="I1234" s="14" t="s">
+        <v>7702</v>
+      </c>
+      <c r="J1234" s="14" t="s">
+        <v>7702</v>
+      </c>
+      <c r="K1234" s="14" t="s">
         <v>7703</v>
       </c>
-      <c r="G1234" s="14" t="s">
-        <v>7704</v>
-      </c>
-      <c r="H1234" s="14" t="s">
-        <v>7705</v>
-      </c>
-      <c r="I1234" s="14" t="s">
-        <v>7705</v>
-      </c>
-      <c r="J1234" s="14" t="s">
-        <v>7705</v>
-      </c>
-      <c r="K1234" s="14" t="s">
-        <v>7706</v>
-      </c>
       <c r="L1234" s="14" t="s">
-        <v>7706</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="1235" spans="2:12">
       <c r="B1235" s="14" t="s">
-        <v>7707</v>
-      </c>
-      <c r="C1235" s="41" t="s">
-        <v>7708</v>
+        <v>7704</v>
+      </c>
+      <c r="C1235" s="14" t="s">
+        <v>7705</v>
       </c>
       <c r="D1235" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1235" s="14" t="s">
+        <v>7706</v>
+      </c>
+      <c r="G1235" s="14" t="s">
+        <v>7707</v>
+      </c>
+      <c r="H1235" s="14" t="s">
+        <v>7708</v>
+      </c>
+      <c r="I1235" s="14" t="s">
+        <v>7708</v>
+      </c>
+      <c r="J1235" s="14" t="s">
+        <v>7708</v>
+      </c>
+      <c r="K1235" s="14" t="s">
         <v>7709</v>
       </c>
-      <c r="G1235" s="14" t="s">
-        <v>7710</v>
-      </c>
-      <c r="H1235" s="14" t="s">
-        <v>7711</v>
-      </c>
-      <c r="I1235" s="14" t="s">
-        <v>7711</v>
-      </c>
-      <c r="J1235" s="14" t="s">
-        <v>7711</v>
-      </c>
-      <c r="K1235" s="14" t="s">
-        <v>7712</v>
-      </c>
       <c r="L1235" s="14" t="s">
-        <v>7712</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="1236" spans="2:12">
       <c r="B1236" s="14" t="s">
-        <v>7713</v>
+        <v>7710</v>
       </c>
       <c r="C1236" s="41" t="s">
-        <v>7714</v>
+        <v>7711</v>
       </c>
       <c r="D1236" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1236" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="G1236" s="14" t="s">
+        <v>7713</v>
+      </c>
+      <c r="H1236" s="14" t="s">
+        <v>7714</v>
+      </c>
+      <c r="I1236" s="14" t="s">
+        <v>7714</v>
+      </c>
+      <c r="J1236" s="14" t="s">
+        <v>7714</v>
+      </c>
+      <c r="K1236" s="14" t="s">
         <v>7715</v>
       </c>
-      <c r="G1236" s="14" t="s">
-        <v>7716</v>
-      </c>
-      <c r="H1236" s="14" t="s">
-        <v>7717</v>
-      </c>
-      <c r="I1236" s="14" t="s">
-        <v>7717</v>
-      </c>
-      <c r="J1236" s="14" t="s">
-        <v>7717</v>
-      </c>
-      <c r="K1236" s="14" t="s">
-        <v>7718</v>
-      </c>
       <c r="L1236" s="14" t="s">
-        <v>7718</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="1237" spans="2:12">
       <c r="B1237" s="14" t="s">
-        <v>7719</v>
+        <v>7716</v>
       </c>
       <c r="C1237" s="41" t="s">
-        <v>7720</v>
+        <v>7717</v>
       </c>
       <c r="D1237" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1237" s="14" t="s">
+        <v>7718</v>
+      </c>
+      <c r="G1237" s="14" t="s">
+        <v>7719</v>
+      </c>
+      <c r="H1237" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="I1237" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="J1237" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="K1237" s="14" t="s">
         <v>7721</v>
       </c>
-      <c r="G1237" s="14" t="s">
-        <v>7722</v>
-      </c>
-      <c r="H1237" s="14" t="s">
-        <v>7723</v>
-      </c>
-      <c r="I1237" s="14" t="s">
-        <v>7723</v>
-      </c>
-      <c r="J1237" s="14" t="s">
-        <v>7723</v>
-      </c>
-      <c r="K1237" s="14" t="s">
-        <v>7724</v>
-      </c>
       <c r="L1237" s="14" t="s">
-        <v>7724</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="1238" spans="2:12">
       <c r="B1238" s="14" t="s">
-        <v>7725</v>
+        <v>7722</v>
       </c>
       <c r="C1238" s="41" t="s">
-        <v>7726</v>
+        <v>7723</v>
       </c>
       <c r="D1238" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1238" s="14" t="s">
+        <v>7724</v>
+      </c>
+      <c r="G1238" s="14" t="s">
+        <v>7725</v>
+      </c>
+      <c r="H1238" s="14" t="s">
+        <v>7726</v>
+      </c>
+      <c r="I1238" s="14" t="s">
+        <v>7726</v>
+      </c>
+      <c r="J1238" s="14" t="s">
+        <v>7726</v>
+      </c>
+      <c r="K1238" s="14" t="s">
         <v>7727</v>
       </c>
-      <c r="G1238" s="14" t="s">
-        <v>7728</v>
-      </c>
-      <c r="H1238" s="14" t="s">
-        <v>7729</v>
-      </c>
-      <c r="I1238" s="14" t="s">
-        <v>7729</v>
-      </c>
-      <c r="J1238" s="14" t="s">
-        <v>7729</v>
-      </c>
-      <c r="K1238" s="14" t="s">
-        <v>7730</v>
-      </c>
       <c r="L1238" s="14" t="s">
-        <v>7730</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="1239" spans="2:12">
       <c r="B1239" s="14" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C1239" s="14" t="s">
-        <v>7732</v>
+        <v>7728</v>
+      </c>
+      <c r="C1239" s="41" t="s">
+        <v>7729</v>
       </c>
       <c r="D1239" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1239" s="14" t="s">
+        <v>7730</v>
+      </c>
+      <c r="G1239" s="14" t="s">
+        <v>7731</v>
+      </c>
+      <c r="H1239" s="14" t="s">
+        <v>7732</v>
+      </c>
+      <c r="I1239" s="14" t="s">
+        <v>7732</v>
+      </c>
+      <c r="J1239" s="14" t="s">
+        <v>7732</v>
+      </c>
+      <c r="K1239" s="14" t="s">
         <v>7733</v>
       </c>
-      <c r="G1239" s="14" t="s">
-        <v>7734</v>
-      </c>
-      <c r="H1239" s="14" t="s">
-        <v>7735</v>
-      </c>
-      <c r="I1239" s="14" t="s">
-        <v>7735</v>
-      </c>
-      <c r="J1239" s="14" t="s">
-        <v>7735</v>
-      </c>
-      <c r="K1239" s="14" t="s">
-        <v>7736</v>
-      </c>
       <c r="L1239" s="14" t="s">
-        <v>7736</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="1240" spans="2:12">
       <c r="B1240" s="14" t="s">
-        <v>7737</v>
+        <v>7734</v>
       </c>
       <c r="C1240" s="14" t="s">
-        <v>7738</v>
+        <v>7735</v>
       </c>
       <c r="D1240" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1240" s="14" t="s">
+        <v>7736</v>
+      </c>
+      <c r="G1240" s="14" t="s">
+        <v>7737</v>
+      </c>
+      <c r="H1240" s="14" t="s">
+        <v>7738</v>
+      </c>
+      <c r="I1240" s="14" t="s">
+        <v>7738</v>
+      </c>
+      <c r="J1240" s="14" t="s">
+        <v>7738</v>
+      </c>
+      <c r="K1240" s="14" t="s">
         <v>7739</v>
       </c>
-      <c r="G1240" s="14" t="s">
-        <v>7740</v>
-      </c>
-      <c r="H1240" s="14" t="s">
-        <v>7741</v>
-      </c>
-      <c r="I1240" s="14" t="s">
-        <v>7741</v>
-      </c>
-      <c r="J1240" s="14" t="s">
-        <v>7741</v>
-      </c>
-      <c r="K1240" s="14" t="s">
-        <v>7742</v>
-      </c>
       <c r="L1240" s="14" t="s">
-        <v>7742</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="1241" spans="2:12">
       <c r="B1241" s="14" t="s">
-        <v>7743</v>
+        <v>7740</v>
       </c>
       <c r="C1241" s="14" t="s">
-        <v>7744</v>
+        <v>7741</v>
       </c>
       <c r="D1241" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1241" s="14" t="s">
+        <v>7742</v>
+      </c>
+      <c r="G1241" s="14" t="s">
+        <v>7743</v>
+      </c>
+      <c r="H1241" s="14" t="s">
+        <v>7744</v>
+      </c>
+      <c r="I1241" s="14" t="s">
+        <v>7744</v>
+      </c>
+      <c r="J1241" s="14" t="s">
+        <v>7744</v>
+      </c>
+      <c r="K1241" s="14" t="s">
         <v>7745</v>
       </c>
-      <c r="G1241" s="14" t="s">
-        <v>7746</v>
-      </c>
-      <c r="H1241" s="14" t="s">
-        <v>7747</v>
-      </c>
-      <c r="I1241" s="14" t="s">
-        <v>7747</v>
-      </c>
-      <c r="J1241" s="14" t="s">
-        <v>7747</v>
-      </c>
-      <c r="K1241" s="14" t="s">
-        <v>7748</v>
-      </c>
       <c r="L1241" s="14" t="s">
-        <v>7748</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="1242" spans="2:12">
       <c r="B1242" s="14" t="s">
-        <v>7749</v>
+        <v>7746</v>
       </c>
       <c r="C1242" s="14" t="s">
-        <v>7750</v>
+        <v>7747</v>
       </c>
       <c r="D1242" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1242" s="14" t="s">
+        <v>7748</v>
+      </c>
+      <c r="G1242" s="14" t="s">
+        <v>7749</v>
+      </c>
+      <c r="H1242" s="14" t="s">
+        <v>7750</v>
+      </c>
+      <c r="I1242" s="14" t="s">
+        <v>7750</v>
+      </c>
+      <c r="J1242" s="14" t="s">
+        <v>7750</v>
+      </c>
+      <c r="K1242" s="14" t="s">
         <v>7751</v>
       </c>
-      <c r="G1242" s="14" t="s">
-        <v>7752</v>
-      </c>
-      <c r="H1242" s="14" t="s">
-        <v>7753</v>
-      </c>
-      <c r="I1242" s="14" t="s">
-        <v>7753</v>
-      </c>
-      <c r="J1242" s="14" t="s">
-        <v>7753</v>
-      </c>
-      <c r="K1242" s="14" t="s">
-        <v>7754</v>
-      </c>
       <c r="L1242" s="14" t="s">
-        <v>7754</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="1243" spans="2:12">
       <c r="B1243" s="14" t="s">
-        <v>7755</v>
+        <v>7752</v>
       </c>
       <c r="C1243" s="14" t="s">
-        <v>7756</v>
+        <v>7753</v>
       </c>
       <c r="D1243" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1243" s="14" t="s">
+        <v>7754</v>
+      </c>
+      <c r="G1243" s="14" t="s">
+        <v>7755</v>
+      </c>
+      <c r="H1243" s="14" t="s">
+        <v>7756</v>
+      </c>
+      <c r="I1243" s="14" t="s">
+        <v>7756</v>
+      </c>
+      <c r="J1243" s="14" t="s">
+        <v>7756</v>
+      </c>
+      <c r="K1243" s="14" t="s">
         <v>7757</v>
       </c>
-      <c r="G1243" s="14" t="s">
-        <v>7758</v>
-      </c>
-      <c r="H1243" s="14" t="s">
-        <v>7759</v>
-      </c>
-      <c r="I1243" s="14" t="s">
-        <v>7759</v>
-      </c>
-      <c r="J1243" s="14" t="s">
-        <v>7759</v>
-      </c>
-      <c r="K1243" s="14" t="s">
-        <v>7760</v>
-      </c>
       <c r="L1243" s="14" t="s">
-        <v>7760</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="1244" spans="2:12">
       <c r="B1244" s="14" t="s">
-        <v>7761</v>
+        <v>7758</v>
       </c>
       <c r="C1244" s="14" t="s">
-        <v>7762</v>
+        <v>7759</v>
       </c>
       <c r="D1244" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1244" s="14" t="s">
+        <v>7760</v>
+      </c>
+      <c r="G1244" s="14" t="s">
+        <v>7761</v>
+      </c>
+      <c r="H1244" s="14" t="s">
+        <v>7762</v>
+      </c>
+      <c r="I1244" s="14" t="s">
+        <v>7762</v>
+      </c>
+      <c r="J1244" s="14" t="s">
+        <v>7762</v>
+      </c>
+      <c r="K1244" s="14" t="s">
         <v>7763</v>
       </c>
-      <c r="G1244" s="14" t="s">
-        <v>7764</v>
-      </c>
-      <c r="H1244" s="14" t="s">
-        <v>7765</v>
-      </c>
-      <c r="I1244" s="14" t="s">
-        <v>7765</v>
-      </c>
-      <c r="J1244" s="14" t="s">
-        <v>7765</v>
-      </c>
-      <c r="K1244" s="14" t="s">
-        <v>7766</v>
-      </c>
       <c r="L1244" s="14" t="s">
-        <v>7766</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="1245" spans="2:12">
       <c r="B1245" s="14" t="s">
-        <v>7767</v>
+        <v>7764</v>
       </c>
       <c r="C1245" s="14" t="s">
-        <v>7768</v>
+        <v>7765</v>
       </c>
       <c r="D1245" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1245" s="14" t="s">
+        <v>7766</v>
+      </c>
+      <c r="G1245" s="14" t="s">
+        <v>7767</v>
+      </c>
+      <c r="H1245" s="14" t="s">
+        <v>7768</v>
+      </c>
+      <c r="I1245" s="14" t="s">
+        <v>7768</v>
+      </c>
+      <c r="J1245" s="14" t="s">
+        <v>7768</v>
+      </c>
+      <c r="K1245" s="14" t="s">
         <v>7769</v>
       </c>
-      <c r="G1245" s="14" t="s">
-        <v>7770</v>
-      </c>
-      <c r="H1245" s="14" t="s">
-        <v>7771</v>
-      </c>
-      <c r="I1245" s="14" t="s">
-        <v>7771</v>
-      </c>
-      <c r="J1245" s="14" t="s">
-        <v>7771</v>
-      </c>
-      <c r="K1245" s="14" t="s">
-        <v>7772</v>
-      </c>
       <c r="L1245" s="14" t="s">
-        <v>7772</v>
+        <v>7769</v>
       </c>
     </row>
     <row r="1246" spans="2:12">
       <c r="B1246" s="14" t="s">
-        <v>7773</v>
+        <v>7770</v>
       </c>
       <c r="C1246" s="14" t="s">
-        <v>7774</v>
+        <v>7771</v>
       </c>
       <c r="D1246" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1246" s="14" t="s">
+        <v>7772</v>
+      </c>
+      <c r="G1246" s="14" t="s">
+        <v>7773</v>
+      </c>
+      <c r="H1246" s="14" t="s">
+        <v>7774</v>
+      </c>
+      <c r="I1246" s="14" t="s">
+        <v>7774</v>
+      </c>
+      <c r="J1246" s="14" t="s">
+        <v>7774</v>
+      </c>
+      <c r="K1246" s="14" t="s">
         <v>7775</v>
       </c>
-      <c r="G1246" s="14" t="s">
-        <v>7776</v>
-      </c>
-      <c r="H1246" s="14" t="s">
-        <v>7777</v>
-      </c>
-      <c r="I1246" s="14" t="s">
-        <v>7777</v>
-      </c>
-      <c r="J1246" s="14" t="s">
-        <v>7777</v>
-      </c>
-      <c r="K1246" s="14" t="s">
-        <v>7778</v>
-      </c>
       <c r="L1246" s="14" t="s">
-        <v>7778</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="1247" spans="2:12">
       <c r="B1247" s="14" t="s">
-        <v>7779</v>
+        <v>7776</v>
       </c>
       <c r="C1247" s="14" t="s">
-        <v>7780</v>
+        <v>7777</v>
       </c>
       <c r="D1247" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1247" s="14" t="s">
+        <v>7778</v>
+      </c>
+      <c r="G1247" s="14" t="s">
+        <v>7779</v>
+      </c>
+      <c r="H1247" s="14" t="s">
+        <v>7780</v>
+      </c>
+      <c r="I1247" s="14" t="s">
+        <v>7780</v>
+      </c>
+      <c r="J1247" s="14" t="s">
+        <v>7780</v>
+      </c>
+      <c r="K1247" s="14" t="s">
         <v>7781</v>
       </c>
-      <c r="G1247" s="14" t="s">
-        <v>7782</v>
-      </c>
-      <c r="H1247" s="14" t="s">
-        <v>7783</v>
-      </c>
-      <c r="I1247" s="14" t="s">
-        <v>7783</v>
-      </c>
-      <c r="J1247" s="14" t="s">
-        <v>7783</v>
-      </c>
-      <c r="K1247" s="14" t="s">
-        <v>7784</v>
-      </c>
       <c r="L1247" s="14" t="s">
-        <v>7784</v>
+        <v>7781</v>
       </c>
     </row>
     <row r="1248" spans="2:12">
       <c r="B1248" s="14" t="s">
-        <v>7785</v>
+        <v>7782</v>
       </c>
       <c r="C1248" s="14" t="s">
-        <v>1804</v>
+        <v>7783</v>
       </c>
       <c r="D1248" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1248" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="G1248" s="14" t="s">
+        <v>7785</v>
+      </c>
+      <c r="H1248" s="14" t="s">
         <v>7786</v>
       </c>
-      <c r="G1248" s="14" t="s">
+      <c r="I1248" s="14" t="s">
+        <v>7786</v>
+      </c>
+      <c r="J1248" s="14" t="s">
+        <v>7786</v>
+      </c>
+      <c r="K1248" s="14" t="s">
         <v>7787</v>
       </c>
-      <c r="H1248" s="14" t="s">
-        <v>7788</v>
-      </c>
-      <c r="I1248" s="14" t="s">
-        <v>7788</v>
-      </c>
-      <c r="J1248" s="14" t="s">
-        <v>7788</v>
-      </c>
-      <c r="K1248" s="14" t="s">
-        <v>7789</v>
-      </c>
       <c r="L1248" s="14" t="s">
-        <v>7789</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="1249" spans="2:12">
       <c r="B1249" s="14" t="s">
-        <v>7790</v>
+        <v>7788</v>
       </c>
       <c r="C1249" s="14" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="D1249" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1249" s="14" t="s">
+        <v>7789</v>
+      </c>
+      <c r="G1249" s="14" t="s">
+        <v>7790</v>
+      </c>
+      <c r="H1249" s="14" t="s">
         <v>7791</v>
       </c>
-      <c r="G1249" s="14" t="s">
+      <c r="I1249" s="14" t="s">
+        <v>7791</v>
+      </c>
+      <c r="J1249" s="14" t="s">
+        <v>7791</v>
+      </c>
+      <c r="K1249" s="14" t="s">
         <v>7792</v>
       </c>
-      <c r="H1249" s="14" t="s">
-        <v>7793</v>
-      </c>
-      <c r="I1249" s="14" t="s">
-        <v>7793</v>
-      </c>
-      <c r="J1249" s="14" t="s">
-        <v>7793</v>
-      </c>
-      <c r="K1249" s="14" t="s">
-        <v>7794</v>
-      </c>
       <c r="L1249" s="14" t="s">
-        <v>7794</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="1250" spans="2:12">
       <c r="B1250" s="14" t="s">
-        <v>7795</v>
+        <v>7793</v>
       </c>
       <c r="C1250" s="14" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="D1250" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1250" s="14" t="s">
+        <v>7794</v>
+      </c>
+      <c r="G1250" s="14" t="s">
+        <v>7795</v>
+      </c>
+      <c r="H1250" s="14" t="s">
         <v>7796</v>
       </c>
-      <c r="G1250" s="14" t="s">
+      <c r="I1250" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="J1250" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="K1250" s="14" t="s">
         <v>7797</v>
       </c>
-      <c r="H1250" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="I1250" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="J1250" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="K1250" s="14" t="s">
-        <v>7799</v>
-      </c>
       <c r="L1250" s="14" t="s">
-        <v>7799</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="1251" spans="2:12">
       <c r="B1251" s="14" t="s">
-        <v>7800</v>
+        <v>7798</v>
       </c>
       <c r="C1251" s="14" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="D1251" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1251" s="14" t="s">
+        <v>7799</v>
+      </c>
+      <c r="G1251" s="14" t="s">
+        <v>7800</v>
+      </c>
+      <c r="H1251" s="14" t="s">
         <v>7801</v>
       </c>
-      <c r="G1251" s="14" t="s">
+      <c r="I1251" s="14" t="s">
+        <v>7801</v>
+      </c>
+      <c r="J1251" s="14" t="s">
+        <v>7801</v>
+      </c>
+      <c r="K1251" s="14" t="s">
         <v>7802</v>
       </c>
-      <c r="H1251" s="14" t="s">
-        <v>7803</v>
-      </c>
-      <c r="I1251" s="14" t="s">
-        <v>7803</v>
-      </c>
-      <c r="J1251" s="14" t="s">
-        <v>7803</v>
-      </c>
-      <c r="K1251" s="14" t="s">
-        <v>7804</v>
-      </c>
       <c r="L1251" s="14" t="s">
-        <v>7804</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="1252" spans="2:12">
       <c r="B1252" s="14" t="s">
-        <v>7805</v>
+        <v>7803</v>
       </c>
       <c r="C1252" s="14" t="s">
-        <v>7806</v>
+        <v>1823</v>
       </c>
       <c r="D1252" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1252" s="14" t="s">
+        <v>7804</v>
+      </c>
+      <c r="G1252" s="14" t="s">
+        <v>7805</v>
+      </c>
+      <c r="H1252" s="14" t="s">
+        <v>7806</v>
+      </c>
+      <c r="I1252" s="14" t="s">
+        <v>7806</v>
+      </c>
+      <c r="J1252" s="14" t="s">
+        <v>7806</v>
+      </c>
+      <c r="K1252" s="14" t="s">
         <v>7807</v>
       </c>
-      <c r="G1252" s="14" t="s">
-        <v>7808</v>
-      </c>
-      <c r="H1252" s="14" t="s">
-        <v>7809</v>
-      </c>
-      <c r="I1252" s="14" t="s">
-        <v>7809</v>
-      </c>
-      <c r="J1252" s="14" t="s">
-        <v>7809</v>
-      </c>
-      <c r="K1252" s="14" t="s">
-        <v>7810</v>
-      </c>
       <c r="L1252" s="14" t="s">
-        <v>7810</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="1253" spans="2:12">
       <c r="B1253" s="14" t="s">
-        <v>7811</v>
+        <v>7808</v>
       </c>
       <c r="C1253" s="14" t="s">
-        <v>7812</v>
+        <v>7809</v>
       </c>
       <c r="D1253" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1253" s="14" t="s">
+        <v>7810</v>
+      </c>
+      <c r="G1253" s="14" t="s">
+        <v>7811</v>
+      </c>
+      <c r="H1253" s="14" t="s">
+        <v>7812</v>
+      </c>
+      <c r="I1253" s="14" t="s">
+        <v>7812</v>
+      </c>
+      <c r="J1253" s="14" t="s">
+        <v>7812</v>
+      </c>
+      <c r="K1253" s="14" t="s">
         <v>7813</v>
       </c>
-      <c r="G1253" s="14" t="s">
-        <v>7814</v>
-      </c>
-      <c r="H1253" s="14" t="s">
-        <v>7815</v>
-      </c>
-      <c r="I1253" s="14" t="s">
-        <v>7815</v>
-      </c>
-      <c r="J1253" s="14" t="s">
-        <v>7815</v>
-      </c>
-      <c r="K1253" s="14" t="s">
-        <v>7816</v>
-      </c>
       <c r="L1253" s="14" t="s">
-        <v>7816</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="1254" spans="2:12">
       <c r="B1254" s="14" t="s">
-        <v>7817</v>
+        <v>7814</v>
       </c>
       <c r="C1254" s="14" t="s">
-        <v>7818</v>
+        <v>7815</v>
       </c>
       <c r="D1254" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1254" s="14" t="s">
+        <v>7816</v>
+      </c>
+      <c r="G1254" s="14" t="s">
+        <v>7817</v>
+      </c>
+      <c r="H1254" s="14" t="s">
+        <v>7818</v>
+      </c>
+      <c r="I1254" s="14" t="s">
+        <v>7818</v>
+      </c>
+      <c r="J1254" s="14" t="s">
+        <v>7818</v>
+      </c>
+      <c r="K1254" s="14" t="s">
         <v>7819</v>
       </c>
-      <c r="G1254" s="14" t="s">
-        <v>7820</v>
-      </c>
-      <c r="H1254" s="14" t="s">
-        <v>7821</v>
-      </c>
-      <c r="I1254" s="14" t="s">
-        <v>7821</v>
-      </c>
-      <c r="J1254" s="14" t="s">
-        <v>7821</v>
-      </c>
-      <c r="K1254" s="14" t="s">
-        <v>7822</v>
-      </c>
       <c r="L1254" s="14" t="s">
-        <v>7822</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="1255" spans="2:12">
       <c r="B1255" s="14" t="s">
-        <v>7823</v>
+        <v>7820</v>
       </c>
       <c r="C1255" s="14" t="s">
-        <v>7824</v>
+        <v>7821</v>
       </c>
       <c r="D1255" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1255" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="G1255" s="14" t="s">
+        <v>7823</v>
+      </c>
+      <c r="H1255" s="14" t="s">
+        <v>7824</v>
+      </c>
+      <c r="I1255" s="14" t="s">
+        <v>7824</v>
+      </c>
+      <c r="J1255" s="14" t="s">
+        <v>7824</v>
+      </c>
+      <c r="K1255" s="14" t="s">
         <v>7825</v>
       </c>
-      <c r="G1255" s="14" t="s">
-        <v>7826</v>
-      </c>
-      <c r="H1255" s="14" t="s">
-        <v>7827</v>
-      </c>
-      <c r="I1255" s="14" t="s">
-        <v>7827</v>
-      </c>
-      <c r="J1255" s="14" t="s">
-        <v>7827</v>
-      </c>
-      <c r="K1255" s="14" t="s">
-        <v>7828</v>
-      </c>
       <c r="L1255" s="14" t="s">
-        <v>7828</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="1256" spans="2:12">
       <c r="B1256" s="14" t="s">
-        <v>7829</v>
+        <v>7826</v>
       </c>
       <c r="C1256" s="14" t="s">
-        <v>7830</v>
+        <v>7827</v>
       </c>
       <c r="D1256" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1256" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="G1256" s="14" t="s">
+        <v>7829</v>
+      </c>
+      <c r="H1256" s="14" t="s">
+        <v>7830</v>
+      </c>
+      <c r="I1256" s="14" t="s">
+        <v>7830</v>
+      </c>
+      <c r="J1256" s="14" t="s">
+        <v>7830</v>
+      </c>
+      <c r="K1256" s="14" t="s">
         <v>7831</v>
       </c>
-      <c r="G1256" s="14" t="s">
-        <v>7832</v>
-      </c>
-      <c r="H1256" s="14" t="s">
-        <v>7833</v>
-      </c>
-      <c r="I1256" s="14" t="s">
-        <v>7833</v>
-      </c>
-      <c r="J1256" s="14" t="s">
-        <v>7833</v>
-      </c>
-      <c r="K1256" s="14" t="s">
-        <v>7834</v>
-      </c>
       <c r="L1256" s="14" t="s">
-        <v>7834</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="1257" spans="2:12">
       <c r="B1257" s="14" t="s">
-        <v>7835</v>
+        <v>7832</v>
       </c>
       <c r="C1257" s="14" t="s">
-        <v>7836</v>
+        <v>7833</v>
       </c>
       <c r="D1257" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1257" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="G1257" s="14" t="s">
+        <v>7835</v>
+      </c>
+      <c r="H1257" s="14" t="s">
+        <v>7836</v>
+      </c>
+      <c r="I1257" s="14" t="s">
+        <v>7836</v>
+      </c>
+      <c r="J1257" s="14" t="s">
+        <v>7836</v>
+      </c>
+      <c r="K1257" s="14" t="s">
         <v>7837</v>
       </c>
-      <c r="G1257" s="14" t="s">
-        <v>7838</v>
-      </c>
-      <c r="H1257" s="14" t="s">
-        <v>7839</v>
-      </c>
-      <c r="I1257" s="14" t="s">
-        <v>7839</v>
-      </c>
-      <c r="J1257" s="14" t="s">
-        <v>7839</v>
-      </c>
-      <c r="K1257" s="14" t="s">
-        <v>7840</v>
-      </c>
       <c r="L1257" s="14" t="s">
-        <v>7840</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="1258" spans="2:12">
       <c r="B1258" s="14" t="s">
-        <v>7841</v>
+        <v>7838</v>
       </c>
       <c r="C1258" s="14" t="s">
-        <v>7842</v>
+        <v>7839</v>
       </c>
       <c r="D1258" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1258" s="14" t="s">
+        <v>7840</v>
+      </c>
+      <c r="G1258" s="14" t="s">
+        <v>7841</v>
+      </c>
+      <c r="H1258" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="I1258" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="J1258" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="K1258" s="14" t="s">
         <v>7843</v>
       </c>
-      <c r="G1258" s="14" t="s">
-        <v>7844</v>
-      </c>
-      <c r="H1258" s="14" t="s">
-        <v>7845</v>
-      </c>
-      <c r="I1258" s="14" t="s">
-        <v>7845</v>
-      </c>
-      <c r="J1258" s="14" t="s">
-        <v>7845</v>
-      </c>
-      <c r="K1258" s="14" t="s">
-        <v>7846</v>
-      </c>
       <c r="L1258" s="14" t="s">
-        <v>7846</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="1259" spans="2:12">
       <c r="B1259" s="14" t="s">
-        <v>7847</v>
+        <v>7844</v>
       </c>
       <c r="C1259" s="14" t="s">
-        <v>7848</v>
+        <v>7845</v>
       </c>
       <c r="D1259" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1259" s="14" t="s">
+        <v>7846</v>
+      </c>
+      <c r="G1259" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="H1259" s="14" t="s">
+        <v>7848</v>
+      </c>
+      <c r="I1259" s="14" t="s">
+        <v>7848</v>
+      </c>
+      <c r="J1259" s="14" t="s">
+        <v>7848</v>
+      </c>
+      <c r="K1259" s="14" t="s">
         <v>7849</v>
       </c>
-      <c r="G1259" s="14" t="s">
-        <v>7850</v>
-      </c>
-      <c r="H1259" s="14" t="s">
-        <v>7851</v>
-      </c>
-      <c r="I1259" s="14" t="s">
-        <v>7851</v>
-      </c>
-      <c r="J1259" s="14" t="s">
-        <v>7851</v>
-      </c>
-      <c r="K1259" s="14" t="s">
-        <v>7852</v>
-      </c>
       <c r="L1259" s="14" t="s">
-        <v>7852</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="1260" spans="2:12">
       <c r="B1260" s="14" t="s">
-        <v>7853</v>
+        <v>7850</v>
       </c>
       <c r="C1260" s="14" t="s">
-        <v>7854</v>
+        <v>7851</v>
       </c>
       <c r="D1260" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1260" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="G1260" s="14" t="s">
+        <v>7853</v>
+      </c>
+      <c r="H1260" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="I1260" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="J1260" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="K1260" s="14" t="s">
         <v>7855</v>
       </c>
-      <c r="G1260" s="14" t="s">
-        <v>7856</v>
-      </c>
-      <c r="H1260" s="14" t="s">
-        <v>7857</v>
-      </c>
-      <c r="I1260" s="14" t="s">
-        <v>7857</v>
-      </c>
-      <c r="J1260" s="14" t="s">
-        <v>7857</v>
-      </c>
-      <c r="K1260" s="14" t="s">
-        <v>7858</v>
-      </c>
       <c r="L1260" s="14" t="s">
-        <v>7858</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="1261" spans="2:12">
       <c r="B1261" s="14" t="s">
-        <v>7859</v>
+        <v>7856</v>
       </c>
       <c r="C1261" s="14" t="s">
-        <v>7860</v>
+        <v>7857</v>
       </c>
       <c r="D1261" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1261" s="14" t="s">
+        <v>7858</v>
+      </c>
+      <c r="G1261" s="14" t="s">
+        <v>7859</v>
+      </c>
+      <c r="H1261" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="I1261" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="J1261" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="K1261" s="14" t="s">
         <v>7861</v>
       </c>
-      <c r="G1261" s="14" t="s">
+      <c r="L1261" s="14" t="s">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="1262" spans="2:12">
+      <c r="B1262" s="14" t="s">
         <v>7862</v>
       </c>
-      <c r="H1261" s="14" t="s">
+      <c r="C1262" s="14" t="s">
         <v>7863</v>
       </c>
-      <c r="I1261" s="14" t="s">
-        <v>7863</v>
-      </c>
-      <c r="J1261" s="14" t="s">
-        <v>7863</v>
-      </c>
-      <c r="K1261" s="14" t="s">
+      <c r="D1262" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1262" s="14" t="s">
         <v>7864</v>
       </c>
-      <c r="L1261" s="14" t="s">
-        <v>7864</v>
+      <c r="G1262" s="14" t="s">
+        <v>7865</v>
+      </c>
+      <c r="H1262" s="14" t="s">
+        <v>7866</v>
+      </c>
+      <c r="I1262" s="14" t="s">
+        <v>7866</v>
+      </c>
+      <c r="J1262" s="14" t="s">
+        <v>7866</v>
+      </c>
+      <c r="K1262" s="14" t="s">
+        <v>7867</v>
+      </c>
+      <c r="L1262" s="14" t="s">
+        <v>7867</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="19605" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10389" uniqueCount="7868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10518" uniqueCount="7916">
   <si>
     <t>##var</t>
   </si>
@@ -23386,6 +23386,150 @@
   </si>
   <si>
     <t>369047</t>
+  </si>
+  <si>
+    <t>371001</t>
+  </si>
+  <si>
+    <t>宙斯规则</t>
+  </si>
+  <si>
+    <t>GAME RULES</t>
+  </si>
+  <si>
+    <t>371002</t>
+  </si>
+  <si>
+    <t>符號在螢幕上的任何地方支付。旋轉結束時螢幕上相同符號的總數決定了獲勝的價值。</t>
+  </si>
+  <si>
+    <t>Symbols pay anywhere on the screen.The total number of the same symbol on the screen at the end of a spin determines the value of the win.</t>
+  </si>
+  <si>
+    <t>371003</t>
+  </si>
+  <si>
+    <t>這是 SCATTER 符號。</t>
+  </si>
+  <si>
+    <t>This is the SCATTER symbol.</t>
+  </si>
+  <si>
+    <t>371004</t>
+  </si>
+  <si>
+    <t>所有卷軸上都會出現 SCATTER 符號。</t>
+  </si>
+  <si>
+    <t>SCATTER symbol is present on all reels.</t>
+  </si>
+  <si>
+    <t>371005</t>
+  </si>
+  <si>
+    <t>SCATTER任何位置都可以中獎。</t>
+  </si>
+  <si>
+    <t>SCATTER payson any position.</t>
+  </si>
+  <si>
+    <t>371006</t>
+  </si>
+  <si>
+    <t>滾輪遊戲意味著在每次旋轉後，獲勝組合將被支付並且所有獲勝符號都會消失。剩餘的符號落到螢幕底部，空位置被來自上方的符號替換。</t>
+  </si>
+  <si>
+    <t>The TUMBLE FEATURE means that after every spin， winning combinations are paid and all winning symbols disappear.The remaining symbols fall to the bottom of the screen and the empty positions are replaced with symbols coming from above.</t>
+  </si>
+  <si>
+    <t>371007</t>
+  </si>
+  <si>
+    <t>滾輪將繼續，直到翻滾不再出現獲勝組合為止。可能翻滾的次數沒有限制。</t>
+  </si>
+  <si>
+    <t>Tumbling will continue until no more winning combinations appear as a result of a tumble.There's nolimit to the number of possible tumbles.</t>
+  </si>
+  <si>
+    <t>371008</t>
+  </si>
+  <si>
+    <t>在完成基礎旋轉導致的所有翻滾之後，所有獲勝都將添加到玩家的餘額中。</t>
+  </si>
+  <si>
+    <t>All wins are added to the player's balance after all of the tumbles resulted from a base spin have been played.</t>
+  </si>
+  <si>
+    <t>371009</t>
+  </si>
+  <si>
+    <t>這些是乘數符號。它們出現在所有卷軸上，並且可以在基礎遊戲和免費旋轉中的旋轉和翻滾期間隨機擊中</t>
+  </si>
+  <si>
+    <t>These are the multiplier symbols.They are present on all reels and can hit randomly during spins and tumbles in both base game and FREE SPINS</t>
+  </si>
+  <si>
+    <t>371010</t>
+  </si>
+  <si>
+    <t>每當滾輪的倍數符號命中時，它會取一個隨機乘數值 2x，3x，4x，5x，6x，8x，10x，12x，15x，20x，25x，50x，100x，250x 或 500x。</t>
+  </si>
+  <si>
+    <t>Whenever a MULTIPLIER symbol hits， it takes a random multiplier value of 2x， 3x， 4x， 5x， 6x， 8x， 10x， 12x， 15x， 20x，25x， 50x， 100x， 250xor500x.</t>
+  </si>
+  <si>
+    <t>371011</t>
+  </si>
+  <si>
+    <t>當翻滾序列結束時，螢幕上所有倍數 符號的值相加，序列的總贏額乘以最終值。</t>
+  </si>
+  <si>
+    <t>When the tumbling sequence ends， the values of all MULTIPLIER symbols on the screen are added together and the total win of the sequence is multiplied by the final value.</t>
+  </si>
+  <si>
+    <t>371012</t>
+  </si>
+  <si>
+    <t>當 4 個或更多 SCATTER 符號擊中螢幕上的任意位置時，將授予免費遊戲旋轉15次。</t>
+  </si>
+  <si>
+    <t>The FREE SPINS FEATURE is awarded when 4or more SCATTER symbols hit anywhere on the screen.The round starts with 15 free spins.</t>
+  </si>
+  <si>
+    <t>371013</t>
+  </si>
+  <si>
+    <t>每當免費遊戲期間擊中 3 個或更多 SCATTER 符號時，將獲得 5 次額外的免費旋轉。免費遊戲期間將使用特殊卷軸。</t>
+  </si>
+  <si>
+    <t>Whenever 3or more SCATTER symbols hit during the FREE SPINS ROUND， 5 additional free spins are awarded.Special reels are in play during the FREE SPINS ROUND.</t>
+  </si>
+  <si>
+    <t>371014</t>
+  </si>
+  <si>
+    <t>購買免費旋轉</t>
+  </si>
+  <si>
+    <t>BUY FREE SPINS</t>
+  </si>
+  <si>
+    <t>371015</t>
+  </si>
+  <si>
+    <t>可以通過以 100 倍當前總下注購買基礎遊戲來立即從基礎遊戲中觸發免費遊戲。</t>
+  </si>
+  <si>
+    <t>The FREE SPINS ROUND can be instantly triggered from the base game by buying it for 100x current totalbet.</t>
+  </si>
+  <si>
+    <t>371016</t>
+  </si>
+  <si>
+    <t>在免費旋轉回合中，每當倍數獎勵符號命中並且旋轉導致獲勝時，獎勵倍數值就會添加到總乘數中。在該回合的整個持續時間內，每當任何新的 獎勵倍數符號命中並導致獲勝時，總乘數 乘數值也用於乘以獲勝。</t>
+  </si>
+  <si>
+    <t>During the FREE SPINS round， whenever a MULTIPLIER symbol hits and the spin results in a win， the MULTIPLIER value gets added to the total multiplier.For the whole duration of the round， whenever any new MULTIPLIER symbol hits and results in a win the total multiplier value is also used to multiply the win.</t>
   </si>
   <si>
     <t>400057</t>
@@ -25899,10 +26043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1262"/>
+  <dimension ref="A1:O1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1169" workbookViewId="0">
-      <selection activeCell="F1187" sqref="F1187"/>
+    <sheetView tabSelected="1" topLeftCell="A1177" workbookViewId="0">
+      <selection activeCell="D1181" sqref="D1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -57906,2944 +58050,3426 @@
         <v>921</v>
       </c>
     </row>
-    <row r="1166" s="13" customFormat="1" spans="2:12">
-      <c r="B1166" s="13" t="s">
+    <row r="1166" s="13" customFormat="1" spans="1:12">
+      <c r="A1166" s="1"/>
+      <c r="B1166" s="14" t="s">
         <v>7467</v>
       </c>
-      <c r="E1166" s="1"/>
-      <c r="F1166" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="G1166" s="39" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H1166" s="17" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I1166" s="17" t="s">
-        <v>1667</v>
-      </c>
-      <c r="J1166" s="17" t="s">
-        <v>1668</v>
+      <c r="C1166" s="1" t="s">
+        <v>7468</v>
+      </c>
+      <c r="D1166" s="45"/>
+      <c r="E1166" s="27"/>
+      <c r="F1166" s="31" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G1166" s="1" t="s">
+        <v>7469</v>
+      </c>
+      <c r="H1166" s="1" t="s">
+        <v>7469</v>
+      </c>
+      <c r="I1166" s="1" t="s">
+        <v>7469</v>
+      </c>
+      <c r="J1166" s="1" t="s">
+        <v>7469</v>
       </c>
       <c r="K1166" s="1" t="s">
-        <v>1669</v>
+        <v>7469</v>
       </c>
       <c r="L1166" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="1167" s="13" customFormat="1" spans="2:12">
-      <c r="B1167" s="13" t="s">
-        <v>7468</v>
-      </c>
-      <c r="E1167" s="8"/>
-      <c r="F1167" s="8" t="s">
-        <v>1672</v>
-      </c>
-      <c r="G1167" s="37" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H1167" s="38" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I1167" s="38" t="s">
-        <v>1675</v>
-      </c>
-      <c r="J1167" s="38" t="s">
-        <v>1676</v>
-      </c>
-      <c r="K1167" s="8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="L1167" s="8" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1168" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1168" s="13" t="s">
         <v>7469</v>
       </c>
-      <c r="E1168" s="1"/>
-      <c r="F1168" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G1168" s="39" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H1168" s="17" t="s">
-        <v>1682</v>
-      </c>
-      <c r="I1168" s="17" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J1168" s="17" t="s">
-        <v>1684</v>
+    </row>
+    <row r="1167" s="13" customFormat="1" ht="94.5" spans="1:12">
+      <c r="A1167" s="1"/>
+      <c r="B1167" s="14" t="s">
+        <v>7470</v>
+      </c>
+      <c r="C1167" s="1"/>
+      <c r="D1167" s="45"/>
+      <c r="E1167" s="27"/>
+      <c r="F1167" s="35" t="s">
+        <v>7471</v>
+      </c>
+      <c r="G1167" s="1" t="s">
+        <v>7472</v>
+      </c>
+      <c r="H1167" s="1" t="s">
+        <v>7472</v>
+      </c>
+      <c r="I1167" s="1" t="s">
+        <v>7472</v>
+      </c>
+      <c r="J1167" s="1" t="s">
+        <v>7472</v>
+      </c>
+      <c r="K1167" s="1" t="s">
+        <v>7472</v>
+      </c>
+      <c r="L1167" s="1" t="s">
+        <v>7472</v>
+      </c>
+    </row>
+    <row r="1168" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1168" s="1"/>
+      <c r="B1168" s="14" t="s">
+        <v>7473</v>
+      </c>
+      <c r="C1168" s="1"/>
+      <c r="D1168" s="45"/>
+      <c r="E1168" s="27"/>
+      <c r="F1168" s="31" t="s">
+        <v>7474</v>
+      </c>
+      <c r="G1168" s="1" t="s">
+        <v>7475</v>
+      </c>
+      <c r="H1168" s="1" t="s">
+        <v>7475</v>
+      </c>
+      <c r="I1168" s="1" t="s">
+        <v>7475</v>
+      </c>
+      <c r="J1168" s="1" t="s">
+        <v>7475</v>
       </c>
       <c r="K1168" s="1" t="s">
-        <v>1685</v>
+        <v>7475</v>
       </c>
       <c r="L1168" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="1169" s="13" customFormat="1" spans="2:12">
-      <c r="B1169" s="13" t="s">
-        <v>7470</v>
-      </c>
-      <c r="E1169" s="1"/>
-      <c r="F1169" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G1169" s="39" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H1169" s="17" t="s">
-        <v>1690</v>
-      </c>
-      <c r="I1169" s="17" t="s">
-        <v>1691</v>
-      </c>
-      <c r="J1169" s="17" t="s">
-        <v>1689</v>
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="1169" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1169" s="1"/>
+      <c r="B1169" s="14" t="s">
+        <v>7476</v>
+      </c>
+      <c r="C1169" s="1"/>
+      <c r="D1169" s="45"/>
+      <c r="E1169" s="27"/>
+      <c r="F1169" s="31" t="s">
+        <v>7477</v>
+      </c>
+      <c r="G1169" s="1" t="s">
+        <v>7478</v>
+      </c>
+      <c r="H1169" s="1" t="s">
+        <v>7478</v>
+      </c>
+      <c r="I1169" s="1" t="s">
+        <v>7478</v>
+      </c>
+      <c r="J1169" s="1" t="s">
+        <v>7478</v>
       </c>
       <c r="K1169" s="1" t="s">
-        <v>1692</v>
+        <v>7478</v>
       </c>
       <c r="L1169" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="1170" s="13" customFormat="1" spans="2:12">
-      <c r="B1170" s="13" t="s">
-        <v>7471</v>
-      </c>
-      <c r="E1170" s="1"/>
-      <c r="F1170" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="G1170" s="39" t="s">
-        <v>1696</v>
-      </c>
-      <c r="H1170" s="17" t="s">
-        <v>1696</v>
-      </c>
-      <c r="I1170" s="17" t="s">
-        <v>1696</v>
-      </c>
-      <c r="J1170" s="17" t="s">
-        <v>1697</v>
+        <v>7478</v>
+      </c>
+    </row>
+    <row r="1170" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1170" s="1"/>
+      <c r="B1170" s="14" t="s">
+        <v>7479</v>
+      </c>
+      <c r="C1170" s="1"/>
+      <c r="D1170" s="45"/>
+      <c r="E1170" s="27"/>
+      <c r="F1170" s="31" t="s">
+        <v>7480</v>
+      </c>
+      <c r="G1170" s="1" t="s">
+        <v>7481</v>
+      </c>
+      <c r="H1170" s="1" t="s">
+        <v>7481</v>
+      </c>
+      <c r="I1170" s="1" t="s">
+        <v>7481</v>
+      </c>
+      <c r="J1170" s="1" t="s">
+        <v>7481</v>
       </c>
       <c r="K1170" s="1" t="s">
-        <v>1696</v>
+        <v>7481</v>
       </c>
       <c r="L1170" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1171" s="13" customFormat="1" spans="2:12">
-      <c r="B1171" s="13" t="s">
-        <v>7472</v>
-      </c>
-      <c r="E1171" s="1"/>
-      <c r="F1171" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G1171" s="39" t="s">
-        <v>1701</v>
-      </c>
-      <c r="H1171" s="17" t="s">
-        <v>1702</v>
-      </c>
-      <c r="I1171" s="17" t="s">
-        <v>1703</v>
-      </c>
-      <c r="J1171" s="17" t="s">
-        <v>1704</v>
+        <v>7481</v>
+      </c>
+    </row>
+    <row r="1171" s="13" customFormat="1" ht="162" spans="1:12">
+      <c r="A1171" s="1"/>
+      <c r="B1171" s="14" t="s">
+        <v>7482</v>
+      </c>
+      <c r="C1171" s="1"/>
+      <c r="D1171" s="45"/>
+      <c r="E1171" s="27"/>
+      <c r="F1171" s="35" t="s">
+        <v>7483</v>
+      </c>
+      <c r="G1171" s="1" t="s">
+        <v>7484</v>
+      </c>
+      <c r="H1171" s="1" t="s">
+        <v>7484</v>
+      </c>
+      <c r="I1171" s="1" t="s">
+        <v>7484</v>
+      </c>
+      <c r="J1171" s="1" t="s">
+        <v>7484</v>
       </c>
       <c r="K1171" s="1" t="s">
-        <v>1705</v>
+        <v>7484</v>
       </c>
       <c r="L1171" s="1" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1172" s="13" customFormat="1" spans="2:12">
-      <c r="B1172" s="13" t="s">
-        <v>7473</v>
-      </c>
-      <c r="E1172" s="1"/>
-      <c r="F1172" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="G1172" s="39" t="s">
-        <v>1709</v>
-      </c>
-      <c r="H1172" s="17" t="s">
-        <v>1710</v>
-      </c>
-      <c r="I1172" s="17" t="s">
-        <v>1711</v>
-      </c>
-      <c r="J1172" s="17" t="s">
-        <v>1712</v>
+        <v>7484</v>
+      </c>
+    </row>
+    <row r="1172" s="13" customFormat="1" ht="94.5" spans="1:12">
+      <c r="A1172" s="1"/>
+      <c r="B1172" s="14" t="s">
+        <v>7485</v>
+      </c>
+      <c r="C1172" s="1"/>
+      <c r="D1172" s="45"/>
+      <c r="E1172" s="27"/>
+      <c r="F1172" s="35" t="s">
+        <v>7486</v>
+      </c>
+      <c r="G1172" s="1" t="s">
+        <v>7487</v>
+      </c>
+      <c r="H1172" s="1" t="s">
+        <v>7487</v>
+      </c>
+      <c r="I1172" s="1" t="s">
+        <v>7487</v>
+      </c>
+      <c r="J1172" s="1" t="s">
+        <v>7487</v>
       </c>
       <c r="K1172" s="1" t="s">
-        <v>1709</v>
+        <v>7487</v>
       </c>
       <c r="L1172" s="1" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1173" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1173" s="13" t="s">
-        <v>7474</v>
-      </c>
-      <c r="E1173" s="1"/>
-      <c r="F1173" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="G1173" s="39" t="s">
-        <v>1715</v>
-      </c>
-      <c r="H1173" s="17" t="s">
-        <v>1716</v>
-      </c>
-      <c r="I1173" s="17" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J1173" s="17" t="s">
-        <v>1718</v>
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="1173" s="13" customFormat="1" ht="81" spans="1:12">
+      <c r="A1173" s="1"/>
+      <c r="B1173" s="14" t="s">
+        <v>7488</v>
+      </c>
+      <c r="C1173" s="1"/>
+      <c r="D1173" s="45"/>
+      <c r="E1173" s="27"/>
+      <c r="F1173" s="35" t="s">
+        <v>7489</v>
+      </c>
+      <c r="G1173" s="1" t="s">
+        <v>7490</v>
+      </c>
+      <c r="H1173" s="1" t="s">
+        <v>7490</v>
+      </c>
+      <c r="I1173" s="1" t="s">
+        <v>7490</v>
+      </c>
+      <c r="J1173" s="1" t="s">
+        <v>7490</v>
       </c>
       <c r="K1173" s="1" t="s">
-        <v>1719</v>
+        <v>7490</v>
       </c>
       <c r="L1173" s="1" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1174" s="13" customFormat="1" spans="2:12">
-      <c r="B1174" s="13" t="s">
-        <v>7475</v>
-      </c>
-      <c r="E1174" s="1"/>
-      <c r="F1174" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="G1174" s="39" t="s">
-        <v>1723</v>
-      </c>
-      <c r="H1174" s="17" t="s">
-        <v>1724</v>
-      </c>
-      <c r="I1174" s="17" t="s">
-        <v>1725</v>
-      </c>
-      <c r="J1174" s="17" t="s">
-        <v>1723</v>
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="1174" s="13" customFormat="1" ht="108" spans="1:12">
+      <c r="A1174" s="1"/>
+      <c r="B1174" s="14" t="s">
+        <v>7491</v>
+      </c>
+      <c r="C1174" s="1"/>
+      <c r="D1174" s="45"/>
+      <c r="E1174" s="27"/>
+      <c r="F1174" s="35" t="s">
+        <v>7492</v>
+      </c>
+      <c r="G1174" s="1" t="s">
+        <v>7493</v>
+      </c>
+      <c r="H1174" s="1" t="s">
+        <v>7493</v>
+      </c>
+      <c r="I1174" s="1" t="s">
+        <v>7493</v>
+      </c>
+      <c r="J1174" s="1" t="s">
+        <v>7493</v>
       </c>
       <c r="K1174" s="1" t="s">
-        <v>1726</v>
+        <v>7493</v>
       </c>
       <c r="L1174" s="1" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1175" s="13" customFormat="1" spans="2:12">
-      <c r="B1175" s="13" t="s">
-        <v>7476</v>
-      </c>
-      <c r="E1175" s="1"/>
-      <c r="F1175" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G1175" s="39" t="s">
-        <v>1730</v>
-      </c>
-      <c r="H1175" s="17" t="s">
-        <v>1731</v>
-      </c>
-      <c r="I1175" s="17" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J1175" s="17" t="s">
-        <v>1733</v>
+        <v>7493</v>
+      </c>
+    </row>
+    <row r="1175" s="13" customFormat="1" ht="108" spans="1:12">
+      <c r="A1175" s="1"/>
+      <c r="B1175" s="14" t="s">
+        <v>7494</v>
+      </c>
+      <c r="C1175" s="1"/>
+      <c r="D1175" s="45"/>
+      <c r="E1175" s="27"/>
+      <c r="F1175" s="35" t="s">
+        <v>7495</v>
+      </c>
+      <c r="G1175" s="1" t="s">
+        <v>7496</v>
+      </c>
+      <c r="H1175" s="1" t="s">
+        <v>7496</v>
+      </c>
+      <c r="I1175" s="1" t="s">
+        <v>7496</v>
+      </c>
+      <c r="J1175" s="1" t="s">
+        <v>7496</v>
       </c>
       <c r="K1175" s="1" t="s">
-        <v>1734</v>
+        <v>7496</v>
       </c>
       <c r="L1175" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1176" s="13" customFormat="1" spans="2:12">
-      <c r="B1176" s="13" t="s">
-        <v>7477</v>
-      </c>
-      <c r="E1176" s="1"/>
-      <c r="F1176" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="G1176" s="39" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H1176" s="17" t="s">
-        <v>1739</v>
-      </c>
-      <c r="I1176" s="17" t="s">
-        <v>1740</v>
-      </c>
-      <c r="J1176" s="17" t="s">
-        <v>1741</v>
+        <v>7496</v>
+      </c>
+    </row>
+    <row r="1176" s="13" customFormat="1" ht="121.5" spans="1:12">
+      <c r="A1176" s="1"/>
+      <c r="B1176" s="14" t="s">
+        <v>7497</v>
+      </c>
+      <c r="C1176" s="1"/>
+      <c r="D1176" s="45"/>
+      <c r="E1176" s="27"/>
+      <c r="F1176" s="35" t="s">
+        <v>7498</v>
+      </c>
+      <c r="G1176" s="1" t="s">
+        <v>7499</v>
+      </c>
+      <c r="H1176" s="1" t="s">
+        <v>7499</v>
+      </c>
+      <c r="I1176" s="1" t="s">
+        <v>7499</v>
+      </c>
+      <c r="J1176" s="1" t="s">
+        <v>7499</v>
       </c>
       <c r="K1176" s="1" t="s">
-        <v>1742</v>
+        <v>7499</v>
       </c>
       <c r="L1176" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="1177" s="13" customFormat="1" spans="2:12">
-      <c r="B1177" s="13" t="s">
-        <v>7478</v>
-      </c>
-      <c r="E1177" s="1"/>
-      <c r="F1177" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="G1177" s="39" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H1177" s="17" t="s">
-        <v>1746</v>
-      </c>
-      <c r="I1177" s="17" t="s">
-        <v>1746</v>
-      </c>
-      <c r="J1177" s="17" t="s">
-        <v>1747</v>
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="1177" s="13" customFormat="1" ht="94.5" spans="1:12">
+      <c r="A1177" s="1"/>
+      <c r="B1177" s="14" t="s">
+        <v>7500</v>
+      </c>
+      <c r="C1177" s="1"/>
+      <c r="D1177" s="45"/>
+      <c r="E1177" s="27"/>
+      <c r="F1177" s="35" t="s">
+        <v>7501</v>
+      </c>
+      <c r="G1177" s="1" t="s">
+        <v>7502</v>
+      </c>
+      <c r="H1177" s="1" t="s">
+        <v>7502</v>
+      </c>
+      <c r="I1177" s="1" t="s">
+        <v>7502</v>
+      </c>
+      <c r="J1177" s="1" t="s">
+        <v>7502</v>
       </c>
       <c r="K1177" s="1" t="s">
-        <v>1748</v>
+        <v>7502</v>
       </c>
       <c r="L1177" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1178" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1178" s="13" t="s">
-        <v>7479</v>
-      </c>
-      <c r="E1178" s="1"/>
-      <c r="F1178" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G1178" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="H1178" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I1178" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="J1178" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="K1178" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="L1178" s="39" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1179" s="13" customFormat="1" spans="2:12">
-      <c r="B1179" s="13" t="s">
-        <v>7480</v>
-      </c>
-      <c r="E1179" s="1"/>
-      <c r="F1179" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G1179" s="39" t="s">
-        <v>1755</v>
-      </c>
-      <c r="H1179" s="17" t="s">
-        <v>1756</v>
-      </c>
-      <c r="I1179" s="17" t="s">
-        <v>1757</v>
-      </c>
-      <c r="J1179" s="17" t="s">
-        <v>1758</v>
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="1178" s="13" customFormat="1" ht="108" spans="1:12">
+      <c r="A1178" s="1"/>
+      <c r="B1178" s="14" t="s">
+        <v>7503</v>
+      </c>
+      <c r="C1178" s="1"/>
+      <c r="D1178" s="45"/>
+      <c r="E1178" s="27"/>
+      <c r="F1178" s="35" t="s">
+        <v>7504</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>7505</v>
+      </c>
+      <c r="H1178" s="1" t="s">
+        <v>7505</v>
+      </c>
+      <c r="I1178" s="1" t="s">
+        <v>7505</v>
+      </c>
+      <c r="J1178" s="1" t="s">
+        <v>7505</v>
+      </c>
+      <c r="K1178" s="1" t="s">
+        <v>7505</v>
+      </c>
+      <c r="L1178" s="1" t="s">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="1179" s="13" customFormat="1" spans="1:12">
+      <c r="A1179" s="1"/>
+      <c r="B1179" s="14" t="s">
+        <v>7506</v>
+      </c>
+      <c r="C1179" s="1"/>
+      <c r="D1179" s="45"/>
+      <c r="E1179" s="27"/>
+      <c r="F1179" s="35" t="s">
+        <v>7507</v>
+      </c>
+      <c r="G1179" s="1" t="s">
+        <v>7508</v>
+      </c>
+      <c r="H1179" s="1" t="s">
+        <v>7508</v>
+      </c>
+      <c r="I1179" s="1" t="s">
+        <v>7508</v>
+      </c>
+      <c r="J1179" s="1" t="s">
+        <v>7508</v>
       </c>
       <c r="K1179" s="1" t="s">
-        <v>1759</v>
+        <v>7508</v>
       </c>
       <c r="L1179" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1180" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1180" s="13" t="s">
-        <v>7481</v>
-      </c>
-      <c r="E1180" s="1"/>
-      <c r="F1180" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="G1180" s="39" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H1180" s="17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="I1180" s="17" t="s">
-        <v>1765</v>
-      </c>
-      <c r="J1180" s="17" t="s">
-        <v>1766</v>
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="1180" s="13" customFormat="1" ht="81" spans="1:12">
+      <c r="A1180" s="1"/>
+      <c r="B1180" s="14" t="s">
+        <v>7509</v>
+      </c>
+      <c r="C1180" s="1"/>
+      <c r="D1180" s="45"/>
+      <c r="E1180" s="27"/>
+      <c r="F1180" s="35" t="s">
+        <v>7510</v>
+      </c>
+      <c r="G1180" s="1" t="s">
+        <v>7511</v>
+      </c>
+      <c r="H1180" s="1" t="s">
+        <v>7511</v>
+      </c>
+      <c r="I1180" s="1" t="s">
+        <v>7511</v>
+      </c>
+      <c r="J1180" s="1" t="s">
+        <v>7511</v>
       </c>
       <c r="K1180" s="1" t="s">
-        <v>1767</v>
+        <v>7511</v>
       </c>
       <c r="L1180" s="1" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="1181" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1181" s="13" t="s">
-        <v>7482</v>
-      </c>
-      <c r="E1181" s="1"/>
-      <c r="F1181" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G1181" s="39" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H1181" s="17" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I1181" s="17" t="s">
-        <v>1773</v>
-      </c>
-      <c r="J1181" s="17" t="s">
-        <v>1774</v>
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="1181" s="13" customFormat="1" ht="216" spans="1:12">
+      <c r="A1181" s="1"/>
+      <c r="B1181" s="14" t="s">
+        <v>7512</v>
+      </c>
+      <c r="C1181" s="1"/>
+      <c r="D1181" s="45"/>
+      <c r="E1181" s="27"/>
+      <c r="F1181" s="35" t="s">
+        <v>7513</v>
+      </c>
+      <c r="G1181" s="1" t="s">
+        <v>7514</v>
+      </c>
+      <c r="H1181" s="1" t="s">
+        <v>7514</v>
+      </c>
+      <c r="I1181" s="1" t="s">
+        <v>7514</v>
+      </c>
+      <c r="J1181" s="1" t="s">
+        <v>7514</v>
       </c>
       <c r="K1181" s="1" t="s">
-        <v>1775</v>
+        <v>7514</v>
       </c>
       <c r="L1181" s="1" t="s">
-        <v>1776</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="1182" s="13" customFormat="1" spans="2:12">
       <c r="B1182" s="13" t="s">
-        <v>7483</v>
+        <v>7515</v>
       </c>
       <c r="E1182" s="1"/>
       <c r="F1182" s="1" t="s">
-        <v>1778</v>
+        <v>1664</v>
       </c>
       <c r="G1182" s="39" t="s">
-        <v>1779</v>
+        <v>1665</v>
       </c>
       <c r="H1182" s="17" t="s">
-        <v>1780</v>
+        <v>1666</v>
       </c>
       <c r="I1182" s="17" t="s">
-        <v>1781</v>
+        <v>1667</v>
       </c>
       <c r="J1182" s="17" t="s">
-        <v>1782</v>
+        <v>1668</v>
       </c>
       <c r="K1182" s="1" t="s">
-        <v>1783</v>
+        <v>1669</v>
       </c>
       <c r="L1182" s="1" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1183" s="13" customFormat="1" ht="15.75" spans="2:12">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1183" s="13" customFormat="1" spans="2:12">
       <c r="B1183" s="13" t="s">
-        <v>7484</v>
-      </c>
-      <c r="E1183" s="1"/>
-      <c r="F1183" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="G1183" s="39" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H1183" s="17" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I1183" s="17" t="s">
-        <v>1788</v>
-      </c>
-      <c r="J1183" s="42" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K1183" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="L1183" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1184" s="13" customFormat="1" spans="2:12">
+        <v>7516</v>
+      </c>
+      <c r="E1183" s="8"/>
+      <c r="F1183" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G1183" s="37" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H1183" s="38" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I1183" s="38" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J1183" s="38" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K1183" s="8" t="s">
+        <v>1677</v>
+      </c>
+      <c r="L1183" s="8" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1184" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1184" s="13" t="s">
-        <v>7485</v>
+        <v>7517</v>
       </c>
       <c r="E1184" s="1"/>
       <c r="F1184" s="1" t="s">
-        <v>1793</v>
+        <v>1680</v>
       </c>
       <c r="G1184" s="39" t="s">
-        <v>1794</v>
+        <v>1681</v>
       </c>
       <c r="H1184" s="17" t="s">
-        <v>1795</v>
+        <v>1682</v>
       </c>
       <c r="I1184" s="17" t="s">
-        <v>1795</v>
+        <v>1683</v>
       </c>
       <c r="J1184" s="17" t="s">
-        <v>1796</v>
+        <v>1684</v>
       </c>
       <c r="K1184" s="1" t="s">
-        <v>1797</v>
+        <v>1685</v>
       </c>
       <c r="L1184" s="1" t="s">
-        <v>1798</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1185" s="13" customFormat="1" spans="2:12">
       <c r="B1185" s="13" t="s">
-        <v>7486</v>
+        <v>7518</v>
       </c>
       <c r="E1185" s="1"/>
       <c r="F1185" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G1185" s="1" t="s">
-        <v>1801</v>
+        <v>1688</v>
+      </c>
+      <c r="G1185" s="39" t="s">
+        <v>1689</v>
       </c>
       <c r="H1185" s="17" t="s">
-        <v>1801</v>
+        <v>1690</v>
       </c>
       <c r="I1185" s="17" t="s">
-        <v>1802</v>
+        <v>1691</v>
       </c>
       <c r="J1185" s="17" t="s">
-        <v>1801</v>
+        <v>1689</v>
       </c>
       <c r="K1185" s="1" t="s">
-        <v>1801</v>
+        <v>1692</v>
       </c>
       <c r="L1185" s="1" t="s">
-        <v>1801</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1186" s="13" customFormat="1" spans="2:12">
       <c r="B1186" s="13" t="s">
-        <v>7487</v>
+        <v>7519</v>
       </c>
       <c r="E1186" s="1"/>
       <c r="F1186" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G1186" s="1" t="s">
-        <v>1846</v>
+        <v>1695</v>
+      </c>
+      <c r="G1186" s="39" t="s">
+        <v>1696</v>
       </c>
       <c r="H1186" s="17" t="s">
-        <v>1847</v>
+        <v>1696</v>
       </c>
       <c r="I1186" s="17" t="s">
-        <v>1848</v>
+        <v>1696</v>
       </c>
       <c r="J1186" s="17" t="s">
-        <v>1849</v>
+        <v>1697</v>
       </c>
       <c r="K1186" s="1" t="s">
-        <v>1850</v>
+        <v>1696</v>
       </c>
       <c r="L1186" s="1" t="s">
-        <v>1846</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1187" s="13" customFormat="1" spans="2:12">
       <c r="B1187" s="13" t="s">
-        <v>7488</v>
-      </c>
-      <c r="E1187" s="14"/>
-      <c r="F1187" s="14" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G1187" s="14" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H1187" s="14" t="s">
-        <v>1913</v>
-      </c>
-      <c r="I1187" s="14" t="s">
-        <v>1914</v>
-      </c>
-      <c r="J1187" s="14" t="s">
-        <v>1915</v>
-      </c>
-      <c r="K1187" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="L1187" s="14" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1188" s="13" customFormat="1" ht="27" spans="2:12">
+        <v>7520</v>
+      </c>
+      <c r="E1187" s="1"/>
+      <c r="F1187" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G1187" s="39" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H1187" s="17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I1187" s="17" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J1187" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K1187" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L1187" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1188" s="13" customFormat="1" spans="2:12">
       <c r="B1188" s="13" t="s">
-        <v>7489</v>
-      </c>
-      <c r="E1188" s="14"/>
-      <c r="F1188" s="14" t="s">
-        <v>1918</v>
-      </c>
-      <c r="G1188" s="14" t="s">
-        <v>1919</v>
-      </c>
-      <c r="H1188" s="14" t="s">
-        <v>1920</v>
-      </c>
-      <c r="I1188" s="14" t="s">
-        <v>1921</v>
-      </c>
-      <c r="J1188" s="14" t="s">
-        <v>1922</v>
-      </c>
-      <c r="K1188" s="14" t="s">
-        <v>1923</v>
-      </c>
-      <c r="L1188" s="14" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1189" s="13" customFormat="1" spans="2:12">
+        <v>7521</v>
+      </c>
+      <c r="E1188" s="1"/>
+      <c r="F1188" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G1188" s="39" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H1188" s="17" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I1188" s="17" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J1188" s="17" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K1188" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L1188" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1189" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1189" s="13" t="s">
-        <v>7490</v>
-      </c>
-      <c r="E1189" s="14"/>
-      <c r="F1189" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="G1189" s="14" t="s">
-        <v>1927</v>
-      </c>
-      <c r="H1189" s="14" t="s">
-        <v>1928</v>
-      </c>
-      <c r="I1189" s="14" t="s">
-        <v>1929</v>
-      </c>
-      <c r="J1189" s="14" t="s">
-        <v>1930</v>
-      </c>
-      <c r="K1189" s="14" t="s">
-        <v>1931</v>
-      </c>
-      <c r="L1189" s="14" t="s">
-        <v>1932</v>
+        <v>7522</v>
+      </c>
+      <c r="E1189" s="1"/>
+      <c r="F1189" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G1189" s="39" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H1189" s="17" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I1189" s="17" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J1189" s="17" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K1189" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="L1189" s="1" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="1190" s="13" customFormat="1" spans="2:12">
       <c r="B1190" s="13" t="s">
-        <v>7491</v>
-      </c>
-      <c r="E1190" s="14"/>
-      <c r="F1190" s="14" t="s">
-        <v>1934</v>
-      </c>
-      <c r="G1190" s="14" t="s">
-        <v>1935</v>
-      </c>
-      <c r="H1190" s="14" t="s">
-        <v>1936</v>
-      </c>
-      <c r="I1190" s="14" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J1190" s="14" t="s">
-        <v>1938</v>
-      </c>
-      <c r="K1190" s="14" t="s">
-        <v>1939</v>
-      </c>
-      <c r="L1190" s="14" t="s">
-        <v>1940</v>
+        <v>7523</v>
+      </c>
+      <c r="E1190" s="1"/>
+      <c r="F1190" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="G1190" s="39" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H1190" s="17" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I1190" s="17" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J1190" s="17" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K1190" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="L1190" s="1" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="1191" s="13" customFormat="1" spans="2:12">
       <c r="B1191" s="13" t="s">
-        <v>7492</v>
-      </c>
-      <c r="E1191" s="41"/>
-      <c r="F1191" s="41" t="s">
-        <v>1942</v>
-      </c>
-      <c r="G1191" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="H1191" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="I1191" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J1191" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="K1191" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="L1191" s="14" t="s">
-        <v>1943</v>
+        <v>7524</v>
+      </c>
+      <c r="E1191" s="1"/>
+      <c r="F1191" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G1191" s="39" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H1191" s="17" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I1191" s="17" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J1191" s="17" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K1191" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L1191" s="1" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="1192" s="13" customFormat="1" spans="2:12">
       <c r="B1192" s="13" t="s">
-        <v>7493</v>
-      </c>
-      <c r="E1192" s="41"/>
-      <c r="F1192" s="41" t="s">
-        <v>1946</v>
-      </c>
-      <c r="G1192" s="14" t="s">
-        <v>1947</v>
-      </c>
-      <c r="H1192" s="14" t="s">
-        <v>1948</v>
-      </c>
-      <c r="I1192" s="14" t="s">
-        <v>1947</v>
-      </c>
-      <c r="J1192" s="14" t="s">
-        <v>1947</v>
-      </c>
-      <c r="K1192" s="14" t="s">
-        <v>1949</v>
-      </c>
-      <c r="L1192" s="14" t="s">
-        <v>1947</v>
+        <v>7525</v>
+      </c>
+      <c r="E1192" s="1"/>
+      <c r="F1192" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G1192" s="39" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H1192" s="17" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I1192" s="17" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J1192" s="17" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K1192" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="L1192" s="1" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="1193" s="13" customFormat="1" spans="2:12">
       <c r="B1193" s="13" t="s">
-        <v>7494</v>
-      </c>
-      <c r="E1193" s="41"/>
-      <c r="F1193" s="41" t="s">
-        <v>1961</v>
-      </c>
-      <c r="G1193" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H1193" s="14" t="s">
-        <v>1963</v>
-      </c>
-      <c r="I1193" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="J1193" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K1193" s="14" t="s">
-        <v>1964</v>
-      </c>
-      <c r="L1193" s="14" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="1194" s="13" customFormat="1" spans="2:12">
+        <v>7526</v>
+      </c>
+      <c r="E1193" s="1"/>
+      <c r="F1193" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G1193" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H1193" s="17" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I1193" s="17" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J1193" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K1193" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L1193" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1194" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1194" s="13" t="s">
-        <v>7495</v>
-      </c>
-      <c r="E1194" s="41"/>
-      <c r="F1194" s="41" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G1194" s="14" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H1194" s="14" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I1194" s="14" t="s">
-        <v>1872</v>
-      </c>
-      <c r="J1194" s="14" t="s">
-        <v>1873</v>
-      </c>
-      <c r="K1194" s="14" t="s">
-        <v>1874</v>
-      </c>
-      <c r="L1194" s="14" t="s">
-        <v>1874</v>
+        <v>7527</v>
+      </c>
+      <c r="E1194" s="1"/>
+      <c r="F1194" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G1194" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H1194" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I1194" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J1194" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K1194" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L1194" s="39" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="1195" s="13" customFormat="1" spans="2:12">
       <c r="B1195" s="13" t="s">
-        <v>7496</v>
-      </c>
-      <c r="E1195" s="41"/>
-      <c r="F1195" s="41" t="s">
-        <v>7497</v>
-      </c>
-      <c r="G1195" s="14" t="s">
-        <v>7498</v>
-      </c>
-      <c r="H1195" s="14" t="s">
-        <v>7498</v>
-      </c>
-      <c r="I1195" s="14" t="s">
-        <v>7498</v>
-      </c>
-      <c r="J1195" s="14" t="s">
-        <v>7498</v>
-      </c>
-      <c r="K1195" s="14" t="s">
-        <v>7499</v>
-      </c>
-      <c r="L1195" s="14" t="s">
-        <v>7499</v>
-      </c>
-    </row>
-    <row r="1196" s="13" customFormat="1" spans="2:12">
+        <v>7528</v>
+      </c>
+      <c r="E1195" s="1"/>
+      <c r="F1195" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G1195" s="39" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H1195" s="17" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I1195" s="17" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J1195" s="17" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K1195" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L1195" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1196" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1196" s="13" t="s">
-        <v>7500</v>
-      </c>
-      <c r="E1196" s="41"/>
-      <c r="F1196" s="41" t="s">
-        <v>7501</v>
-      </c>
-      <c r="G1196" s="14" t="s">
-        <v>7502</v>
-      </c>
-      <c r="H1196" s="14" t="s">
-        <v>7502</v>
-      </c>
-      <c r="I1196" s="14" t="s">
-        <v>7502</v>
-      </c>
-      <c r="J1196" s="14" t="s">
-        <v>7502</v>
-      </c>
-      <c r="K1196" s="14" t="s">
-        <v>7502</v>
-      </c>
-      <c r="L1196" s="14" t="s">
-        <v>7502</v>
-      </c>
-    </row>
-    <row r="1197" s="13" customFormat="1" spans="2:12">
+        <v>7529</v>
+      </c>
+      <c r="E1196" s="1"/>
+      <c r="F1196" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G1196" s="39" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H1196" s="17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I1196" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J1196" s="17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K1196" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="L1196" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1197" s="13" customFormat="1" ht="27" spans="2:12">
       <c r="B1197" s="13" t="s">
-        <v>7503</v>
-      </c>
-      <c r="E1197" s="41"/>
-      <c r="F1197" s="41" t="s">
-        <v>7504</v>
-      </c>
-      <c r="G1197" s="14" t="s">
-        <v>7505</v>
-      </c>
-      <c r="H1197" s="14" t="s">
-        <v>7505</v>
-      </c>
-      <c r="I1197" s="14" t="s">
-        <v>7505</v>
-      </c>
-      <c r="J1197" s="14" t="s">
-        <v>7505</v>
-      </c>
-      <c r="K1197" s="14" t="s">
-        <v>7505</v>
-      </c>
-      <c r="L1197" s="14" t="s">
-        <v>7505</v>
-      </c>
-    </row>
-    <row r="1198" s="7" customFormat="1" ht="162" spans="2:12">
-      <c r="B1198" s="7" t="s">
-        <v>7506</v>
-      </c>
-      <c r="C1198" s="7" t="s">
-        <v>7507</v>
-      </c>
-      <c r="F1198" s="7" t="s">
-        <v>7508</v>
-      </c>
-      <c r="G1198" s="7" t="s">
-        <v>7509</v>
-      </c>
-      <c r="H1198" s="7" t="s">
-        <v>7510</v>
-      </c>
-      <c r="I1198" s="7" t="s">
-        <v>7511</v>
-      </c>
-      <c r="J1198" s="7" t="s">
-        <v>7512</v>
-      </c>
-      <c r="K1198" s="7" t="s">
-        <v>7513</v>
-      </c>
-      <c r="L1198" s="7" t="s">
-        <v>7514</v>
-      </c>
-    </row>
-    <row r="1199" ht="297" spans="2:12">
-      <c r="B1199" s="14" t="s">
-        <v>7515</v>
-      </c>
-      <c r="C1199" s="14" t="s">
-        <v>7516</v>
-      </c>
-      <c r="E1199" s="27"/>
-      <c r="F1199" s="27" t="s">
-        <v>7517</v>
-      </c>
-      <c r="G1199" s="14" t="s">
-        <v>7518</v>
-      </c>
-      <c r="H1199" s="14" t="s">
-        <v>7519</v>
-      </c>
-      <c r="I1199" s="14" t="s">
-        <v>7520</v>
-      </c>
-      <c r="J1199" s="14" t="s">
-        <v>7521</v>
-      </c>
-      <c r="K1199" s="14" t="s">
-        <v>7522</v>
-      </c>
-      <c r="L1199" s="14" t="s">
-        <v>7522</v>
-      </c>
-    </row>
-    <row r="1200" s="2" customFormat="1" spans="2:12">
-      <c r="B1200" s="1" t="s">
-        <v>7523</v>
-      </c>
-      <c r="C1200" s="1" t="s">
-        <v>7524</v>
-      </c>
-      <c r="D1200" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E1200" s="39"/>
-      <c r="F1200" s="39" t="s">
-        <v>7525</v>
+        <v>7530</v>
+      </c>
+      <c r="E1197" s="1"/>
+      <c r="F1197" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G1197" s="39" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H1197" s="17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I1197" s="17" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J1197" s="17" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K1197" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L1197" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1198" s="13" customFormat="1" spans="2:12">
+      <c r="B1198" s="13" t="s">
+        <v>7531</v>
+      </c>
+      <c r="E1198" s="1"/>
+      <c r="F1198" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G1198" s="39" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H1198" s="17" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I1198" s="17" t="s">
+        <v>1781</v>
+      </c>
+      <c r="J1198" s="17" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1198" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L1198" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1199" s="13" customFormat="1" ht="15.75" spans="2:12">
+      <c r="B1199" s="13" t="s">
+        <v>7532</v>
+      </c>
+      <c r="E1199" s="1"/>
+      <c r="F1199" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G1199" s="39" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H1199" s="17" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I1199" s="17" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J1199" s="42" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K1199" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L1199" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1200" s="13" customFormat="1" spans="2:12">
+      <c r="B1200" s="13" t="s">
+        <v>7533</v>
+      </c>
+      <c r="E1200" s="1"/>
+      <c r="F1200" s="1" t="s">
+        <v>1793</v>
       </c>
       <c r="G1200" s="39" t="s">
-        <v>7526</v>
-      </c>
-      <c r="H1200" s="39" t="s">
-        <v>7527</v>
-      </c>
-      <c r="I1200" s="39" t="s">
-        <v>7527</v>
-      </c>
-      <c r="J1200" s="39" t="s">
-        <v>7527</v>
-      </c>
-      <c r="K1200" s="39" t="s">
-        <v>7528</v>
-      </c>
-      <c r="L1200" s="39" t="s">
-        <v>7528</v>
-      </c>
-    </row>
-    <row r="1201" spans="2:12">
-      <c r="B1201" s="1" t="s">
-        <v>7529</v>
-      </c>
-      <c r="C1201" s="14" t="s">
-        <v>7530</v>
-      </c>
-      <c r="D1201" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1201" s="14" t="s">
-        <v>7531</v>
-      </c>
-      <c r="G1201" s="14" t="s">
-        <v>7532</v>
-      </c>
-      <c r="H1201" s="14" t="s">
-        <v>7533</v>
-      </c>
-      <c r="I1201" s="14" t="s">
-        <v>7533</v>
-      </c>
-      <c r="J1201" s="14" t="s">
-        <v>7533</v>
-      </c>
-      <c r="K1201" s="14" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H1200" s="17" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I1200" s="17" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J1200" s="17" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K1200" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L1200" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1201" s="13" customFormat="1" spans="2:12">
+      <c r="B1201" s="13" t="s">
         <v>7534</v>
       </c>
-      <c r="L1201" s="14" t="s">
-        <v>7534</v>
-      </c>
-    </row>
-    <row r="1202" spans="2:12">
-      <c r="B1202" s="1" t="s">
+      <c r="E1201" s="1"/>
+      <c r="F1201" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G1201" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1201" s="17" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I1201" s="17" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J1201" s="17" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K1201" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L1201" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1202" s="13" customFormat="1" spans="2:12">
+      <c r="B1202" s="13" t="s">
         <v>7535</v>
       </c>
-      <c r="C1202" s="14" t="s">
+      <c r="E1202" s="1"/>
+      <c r="F1202" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G1202" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H1202" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I1202" s="17" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J1202" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K1202" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="L1202" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1203" s="13" customFormat="1" spans="2:12">
+      <c r="B1203" s="13" t="s">
         <v>7536</v>
       </c>
-      <c r="D1202" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1202" s="14" t="s">
+      <c r="E1203" s="14"/>
+      <c r="F1203" s="14" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G1203" s="14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H1203" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I1203" s="14" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J1203" s="14" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K1203" s="14" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L1203" s="14" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1204" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="B1204" s="13" t="s">
         <v>7537</v>
       </c>
-      <c r="G1202" s="14" t="s">
+      <c r="E1204" s="14"/>
+      <c r="F1204" s="14" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G1204" s="14" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H1204" s="14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I1204" s="14" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J1204" s="14" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K1204" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="L1204" s="14" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1205" s="13" customFormat="1" spans="2:12">
+      <c r="B1205" s="13" t="s">
         <v>7538</v>
       </c>
-      <c r="H1202" s="14" t="s">
+      <c r="E1205" s="14"/>
+      <c r="F1205" s="14" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G1205" s="14" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H1205" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="I1205" s="14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J1205" s="14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K1205" s="14" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L1205" s="14" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1206" s="13" customFormat="1" spans="2:12">
+      <c r="B1206" s="13" t="s">
         <v>7539</v>
       </c>
-      <c r="I1202" s="14" t="s">
-        <v>7539</v>
-      </c>
-      <c r="J1202" s="14" t="s">
-        <v>7539</v>
-      </c>
-      <c r="K1202" s="14" t="s">
+      <c r="E1206" s="14"/>
+      <c r="F1206" s="14" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G1206" s="14" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H1206" s="14" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I1206" s="14" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J1206" s="14" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K1206" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L1206" s="14" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1207" s="13" customFormat="1" spans="2:12">
+      <c r="B1207" s="13" t="s">
         <v>7540</v>
       </c>
-      <c r="L1202" s="14" t="s">
-        <v>7540</v>
-      </c>
-    </row>
-    <row r="1203" spans="2:12">
-      <c r="B1203" s="1" t="s">
+      <c r="E1207" s="41"/>
+      <c r="F1207" s="41" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1207" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H1207" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I1207" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J1207" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K1207" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L1207" s="14" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1208" s="13" customFormat="1" spans="2:12">
+      <c r="B1208" s="13" t="s">
         <v>7541</v>
       </c>
-      <c r="C1203" s="14" t="s">
+      <c r="E1208" s="41"/>
+      <c r="F1208" s="41" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G1208" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H1208" s="14" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I1208" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="J1208" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K1208" s="14" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L1208" s="14" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1209" s="13" customFormat="1" spans="2:12">
+      <c r="B1209" s="13" t="s">
         <v>7542</v>
       </c>
-      <c r="D1203" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1203" s="14" t="s">
+      <c r="E1209" s="41"/>
+      <c r="F1209" s="41" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G1209" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H1209" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I1209" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="J1209" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K1209" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L1209" s="14" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1210" s="13" customFormat="1" spans="2:12">
+      <c r="B1210" s="13" t="s">
         <v>7543</v>
       </c>
-      <c r="G1203" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="H1203" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="I1203" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="J1203" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="K1203" s="14" t="s">
-        <v>7543</v>
-      </c>
-      <c r="L1203" s="14" t="s">
-        <v>7543</v>
-      </c>
-    </row>
-    <row r="1204" spans="2:12">
-      <c r="B1204" s="1" t="s">
+      <c r="E1210" s="41"/>
+      <c r="F1210" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G1210" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H1210" s="14" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I1210" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J1210" s="14" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K1210" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="L1210" s="14" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1211" s="13" customFormat="1" spans="2:12">
+      <c r="B1211" s="13" t="s">
         <v>7544</v>
       </c>
-      <c r="C1204" s="14" t="s">
+      <c r="E1211" s="41"/>
+      <c r="F1211" s="41" t="s">
         <v>7545</v>
       </c>
-      <c r="D1204" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1204" s="14" t="s">
+      <c r="G1211" s="14" t="s">
         <v>7546</v>
       </c>
-      <c r="G1204" s="14" t="s">
+      <c r="H1211" s="14" t="s">
         <v>7546</v>
       </c>
-      <c r="H1204" s="14" t="s">
+      <c r="I1211" s="14" t="s">
         <v>7546</v>
       </c>
-      <c r="I1204" s="14" t="s">
+      <c r="J1211" s="14" t="s">
         <v>7546</v>
       </c>
-      <c r="J1204" s="14" t="s">
-        <v>7546</v>
-      </c>
-      <c r="K1204" s="14" t="s">
-        <v>7546</v>
-      </c>
-      <c r="L1204" s="14" t="s">
-        <v>7546</v>
-      </c>
-    </row>
-    <row r="1205" spans="2:12">
-      <c r="B1205" s="1" t="s">
+      <c r="K1211" s="14" t="s">
         <v>7547</v>
       </c>
-      <c r="C1205" s="14" t="s">
+      <c r="L1211" s="14" t="s">
+        <v>7547</v>
+      </c>
+    </row>
+    <row r="1212" s="13" customFormat="1" spans="2:12">
+      <c r="B1212" s="13" t="s">
         <v>7548</v>
       </c>
-      <c r="D1205" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1205" s="14" t="s">
+      <c r="E1212" s="41"/>
+      <c r="F1212" s="41" t="s">
         <v>7549</v>
       </c>
-      <c r="G1205" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="H1205" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="I1205" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="J1205" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="K1205" s="14" t="s">
-        <v>7549</v>
-      </c>
-      <c r="L1205" s="14" t="s">
-        <v>7549</v>
-      </c>
-    </row>
-    <row r="1206" spans="2:12">
-      <c r="B1206" s="14" t="s">
+      <c r="G1212" s="14" t="s">
         <v>7550</v>
       </c>
-      <c r="C1206" s="14" t="s">
+      <c r="H1212" s="14" t="s">
+        <v>7550</v>
+      </c>
+      <c r="I1212" s="14" t="s">
+        <v>7550</v>
+      </c>
+      <c r="J1212" s="14" t="s">
+        <v>7550</v>
+      </c>
+      <c r="K1212" s="14" t="s">
+        <v>7550</v>
+      </c>
+      <c r="L1212" s="14" t="s">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="1213" s="13" customFormat="1" spans="2:12">
+      <c r="B1213" s="13" t="s">
         <v>7551</v>
       </c>
-      <c r="D1206" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1206" s="14" t="s">
+      <c r="E1213" s="41"/>
+      <c r="F1213" s="41" t="s">
         <v>7552</v>
       </c>
-      <c r="G1206" s="14" t="s">
+      <c r="G1213" s="14" t="s">
         <v>7553</v>
       </c>
-      <c r="H1206" s="14" t="s">
+      <c r="H1213" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="I1213" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="J1213" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="K1213" s="14" t="s">
+        <v>7553</v>
+      </c>
+      <c r="L1213" s="14" t="s">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="1214" s="7" customFormat="1" ht="162" spans="2:12">
+      <c r="B1214" s="7" t="s">
         <v>7554</v>
       </c>
-      <c r="I1206" s="14" t="s">
-        <v>7554</v>
-      </c>
-      <c r="J1206" s="14" t="s">
-        <v>7554</v>
-      </c>
-      <c r="K1206" s="14" t="s">
+      <c r="C1214" s="7" t="s">
         <v>7555</v>
       </c>
-      <c r="L1206" s="14" t="s">
-        <v>7555</v>
-      </c>
-    </row>
-    <row r="1207" spans="2:12">
-      <c r="B1207" s="14" t="s">
+      <c r="F1214" s="7" t="s">
         <v>7556</v>
       </c>
-      <c r="C1207" s="14" t="s">
+      <c r="G1214" s="7" t="s">
         <v>7557</v>
       </c>
-      <c r="D1207" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1207" s="14" t="s">
+      <c r="H1214" s="7" t="s">
         <v>7558</v>
       </c>
-      <c r="G1207" s="14" t="s">
+      <c r="I1214" s="7" t="s">
         <v>7559</v>
       </c>
-      <c r="H1207" s="14" t="s">
+      <c r="J1214" s="7" t="s">
         <v>7560</v>
       </c>
-      <c r="I1207" s="14" t="s">
-        <v>7560</v>
-      </c>
-      <c r="J1207" s="14" t="s">
-        <v>7560</v>
-      </c>
-      <c r="K1207" s="14" t="s">
+      <c r="K1214" s="7" t="s">
         <v>7561</v>
       </c>
-      <c r="L1207" s="14" t="s">
-        <v>7561</v>
-      </c>
-    </row>
-    <row r="1208" spans="2:12">
-      <c r="B1208" s="14" t="s">
+      <c r="L1214" s="7" t="s">
         <v>7562</v>
       </c>
-      <c r="C1208" s="14" t="s">
+    </row>
+    <row r="1215" ht="297" spans="2:12">
+      <c r="B1215" s="14" t="s">
         <v>7563</v>
       </c>
-      <c r="D1208" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1208" s="14" t="s">
+      <c r="C1215" s="14" t="s">
         <v>7564</v>
       </c>
-      <c r="G1208" s="14" t="s">
+      <c r="E1215" s="27"/>
+      <c r="F1215" s="27" t="s">
         <v>7565</v>
       </c>
-      <c r="H1208" s="14" t="s">
+      <c r="G1215" s="14" t="s">
         <v>7566</v>
       </c>
-      <c r="I1208" s="14" t="s">
-        <v>7566</v>
-      </c>
-      <c r="J1208" s="14" t="s">
-        <v>7566</v>
-      </c>
-      <c r="K1208" s="14" t="s">
+      <c r="H1215" s="14" t="s">
         <v>7567</v>
       </c>
-      <c r="L1208" s="14" t="s">
-        <v>7567</v>
-      </c>
-    </row>
-    <row r="1209" spans="2:12">
-      <c r="B1209" s="14" t="s">
+      <c r="I1215" s="14" t="s">
         <v>7568</v>
       </c>
-      <c r="C1209" s="14" t="s">
+      <c r="J1215" s="14" t="s">
         <v>7569</v>
       </c>
-      <c r="D1209" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1209" s="14" t="s">
+      <c r="K1215" s="14" t="s">
         <v>7570</v>
       </c>
-      <c r="G1209" s="14" t="s">
+      <c r="L1215" s="14" t="s">
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="1216" s="2" customFormat="1" spans="2:12">
+      <c r="B1216" s="1" t="s">
         <v>7571</v>
       </c>
-      <c r="H1209" s="14" t="s">
+      <c r="C1216" s="1" t="s">
         <v>7572</v>
-      </c>
-      <c r="I1209" s="14" t="s">
-        <v>7572</v>
-      </c>
-      <c r="J1209" s="14" t="s">
-        <v>7572</v>
-      </c>
-      <c r="K1209" s="14" t="s">
-        <v>7573</v>
-      </c>
-      <c r="L1209" s="14" t="s">
-        <v>7573</v>
-      </c>
-    </row>
-    <row r="1210" spans="2:12">
-      <c r="B1210" s="14" t="s">
-        <v>7574</v>
-      </c>
-      <c r="C1210" s="14" t="s">
-        <v>7575</v>
-      </c>
-      <c r="D1210" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1210" s="14" t="s">
-        <v>7576</v>
-      </c>
-      <c r="G1210" s="14" t="s">
-        <v>7577</v>
-      </c>
-      <c r="H1210" s="14" t="s">
-        <v>7578</v>
-      </c>
-      <c r="I1210" s="14" t="s">
-        <v>7578</v>
-      </c>
-      <c r="J1210" s="14" t="s">
-        <v>7578</v>
-      </c>
-      <c r="K1210" s="14" t="s">
-        <v>7579</v>
-      </c>
-      <c r="L1210" s="14" t="s">
-        <v>7579</v>
-      </c>
-    </row>
-    <row r="1211" spans="2:12">
-      <c r="B1211" s="14" t="s">
-        <v>7580</v>
-      </c>
-      <c r="C1211" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="D1211" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1211" s="14" t="s">
-        <v>7582</v>
-      </c>
-      <c r="G1211" s="14" t="s">
-        <v>7583</v>
-      </c>
-      <c r="H1211" s="14" t="s">
-        <v>7584</v>
-      </c>
-      <c r="I1211" s="14" t="s">
-        <v>7584</v>
-      </c>
-      <c r="J1211" s="14" t="s">
-        <v>7584</v>
-      </c>
-      <c r="K1211" s="14" t="s">
-        <v>7585</v>
-      </c>
-      <c r="L1211" s="14" t="s">
-        <v>7585</v>
-      </c>
-    </row>
-    <row r="1212" spans="2:12">
-      <c r="B1212" s="14" t="s">
-        <v>7586</v>
-      </c>
-      <c r="C1212" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D1212" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1212" s="14" t="s">
-        <v>7587</v>
-      </c>
-      <c r="G1212" s="14" t="s">
-        <v>7588</v>
-      </c>
-      <c r="H1212" s="14" t="s">
-        <v>7589</v>
-      </c>
-      <c r="I1212" s="14" t="s">
-        <v>7589</v>
-      </c>
-      <c r="J1212" s="14" t="s">
-        <v>7589</v>
-      </c>
-      <c r="K1212" s="14" t="s">
-        <v>7590</v>
-      </c>
-      <c r="L1212" s="14" t="s">
-        <v>7590</v>
-      </c>
-    </row>
-    <row r="1213" spans="2:12">
-      <c r="B1213" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="C1213" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D1213" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1213" s="14" t="s">
-        <v>7592</v>
-      </c>
-      <c r="G1213" s="14" t="s">
-        <v>7593</v>
-      </c>
-      <c r="H1213" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="I1213" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="J1213" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="K1213" s="14" t="s">
-        <v>7595</v>
-      </c>
-      <c r="L1213" s="14" t="s">
-        <v>7595</v>
-      </c>
-    </row>
-    <row r="1214" spans="2:12">
-      <c r="B1214" s="14" t="s">
-        <v>7596</v>
-      </c>
-      <c r="C1214" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D1214" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1214" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="G1214" s="14" t="s">
-        <v>7598</v>
-      </c>
-      <c r="H1214" s="14" t="s">
-        <v>7599</v>
-      </c>
-      <c r="I1214" s="14" t="s">
-        <v>7599</v>
-      </c>
-      <c r="J1214" s="14" t="s">
-        <v>7599</v>
-      </c>
-      <c r="K1214" s="14" t="s">
-        <v>7600</v>
-      </c>
-      <c r="L1214" s="14" t="s">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="1215" spans="2:12">
-      <c r="B1215" s="14" t="s">
-        <v>7601</v>
-      </c>
-      <c r="C1215" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D1215" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1215" s="14" t="s">
-        <v>7602</v>
-      </c>
-      <c r="G1215" s="14" t="s">
-        <v>7603</v>
-      </c>
-      <c r="H1215" s="14" t="s">
-        <v>7604</v>
-      </c>
-      <c r="I1215" s="14" t="s">
-        <v>7604</v>
-      </c>
-      <c r="J1215" s="14" t="s">
-        <v>7604</v>
-      </c>
-      <c r="K1215" s="14" t="s">
-        <v>7605</v>
-      </c>
-      <c r="L1215" s="14" t="s">
-        <v>7605</v>
-      </c>
-    </row>
-    <row r="1216" spans="2:12">
-      <c r="B1216" s="14" t="s">
-        <v>7606</v>
-      </c>
-      <c r="C1216" s="1" t="s">
-        <v>1695</v>
       </c>
       <c r="D1216" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="F1216" s="14" t="s">
-        <v>7607</v>
-      </c>
-      <c r="G1216" s="14" t="s">
-        <v>7608</v>
-      </c>
-      <c r="H1216" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="I1216" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="J1216" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="K1216" s="14" t="s">
-        <v>7610</v>
-      </c>
-      <c r="L1216" s="14" t="s">
-        <v>7610</v>
+      <c r="E1216" s="39"/>
+      <c r="F1216" s="39" t="s">
+        <v>7573</v>
+      </c>
+      <c r="G1216" s="39" t="s">
+        <v>7574</v>
+      </c>
+      <c r="H1216" s="39" t="s">
+        <v>7575</v>
+      </c>
+      <c r="I1216" s="39" t="s">
+        <v>7575</v>
+      </c>
+      <c r="J1216" s="39" t="s">
+        <v>7575</v>
+      </c>
+      <c r="K1216" s="39" t="s">
+        <v>7576</v>
+      </c>
+      <c r="L1216" s="39" t="s">
+        <v>7576</v>
       </c>
     </row>
     <row r="1217" spans="2:12">
-      <c r="B1217" s="14" t="s">
-        <v>7611</v>
-      </c>
-      <c r="C1217" s="1" t="s">
-        <v>1700</v>
+      <c r="B1217" s="1" t="s">
+        <v>7577</v>
+      </c>
+      <c r="C1217" s="14" t="s">
+        <v>7578</v>
       </c>
       <c r="D1217" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1217" s="14" t="s">
-        <v>7612</v>
+        <v>7579</v>
       </c>
       <c r="G1217" s="14" t="s">
-        <v>7613</v>
+        <v>7580</v>
       </c>
       <c r="H1217" s="14" t="s">
-        <v>7614</v>
+        <v>7581</v>
       </c>
       <c r="I1217" s="14" t="s">
-        <v>7614</v>
+        <v>7581</v>
       </c>
       <c r="J1217" s="14" t="s">
-        <v>7614</v>
+        <v>7581</v>
       </c>
       <c r="K1217" s="14" t="s">
-        <v>7615</v>
+        <v>7582</v>
       </c>
       <c r="L1217" s="14" t="s">
-        <v>7615</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="1218" spans="2:12">
-      <c r="B1218" s="14" t="s">
-        <v>7616</v>
-      </c>
-      <c r="C1218" s="1" t="s">
-        <v>1708</v>
+      <c r="B1218" s="1" t="s">
+        <v>7583</v>
+      </c>
+      <c r="C1218" s="14" t="s">
+        <v>7584</v>
       </c>
       <c r="D1218" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1218" s="14" t="s">
-        <v>7617</v>
+        <v>7585</v>
       </c>
       <c r="G1218" s="14" t="s">
-        <v>7618</v>
+        <v>7586</v>
       </c>
       <c r="H1218" s="14" t="s">
-        <v>7619</v>
+        <v>7587</v>
       </c>
       <c r="I1218" s="14" t="s">
-        <v>7619</v>
+        <v>7587</v>
       </c>
       <c r="J1218" s="14" t="s">
-        <v>7619</v>
+        <v>7587</v>
       </c>
       <c r="K1218" s="14" t="s">
-        <v>7620</v>
+        <v>7588</v>
       </c>
       <c r="L1218" s="14" t="s">
-        <v>7620</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="1219" spans="2:12">
-      <c r="B1219" s="14" t="s">
-        <v>7621</v>
-      </c>
-      <c r="C1219" s="1" t="s">
-        <v>1714</v>
+      <c r="B1219" s="1" t="s">
+        <v>7589</v>
+      </c>
+      <c r="C1219" s="14" t="s">
+        <v>7590</v>
       </c>
       <c r="D1219" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1219" s="14" t="s">
-        <v>7622</v>
+        <v>7591</v>
       </c>
       <c r="G1219" s="14" t="s">
-        <v>7623</v>
+        <v>7591</v>
       </c>
       <c r="H1219" s="14" t="s">
-        <v>7624</v>
+        <v>7591</v>
       </c>
       <c r="I1219" s="14" t="s">
-        <v>7624</v>
+        <v>7591</v>
       </c>
       <c r="J1219" s="14" t="s">
-        <v>7624</v>
+        <v>7591</v>
       </c>
       <c r="K1219" s="14" t="s">
-        <v>7625</v>
+        <v>7591</v>
       </c>
       <c r="L1219" s="14" t="s">
-        <v>7625</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="1220" spans="2:12">
-      <c r="B1220" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="C1220" s="1" t="s">
-        <v>1722</v>
+      <c r="B1220" s="1" t="s">
+        <v>7592</v>
+      </c>
+      <c r="C1220" s="14" t="s">
+        <v>7593</v>
       </c>
       <c r="D1220" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1220" s="14" t="s">
-        <v>7627</v>
+        <v>7594</v>
       </c>
       <c r="G1220" s="14" t="s">
-        <v>7628</v>
+        <v>7594</v>
       </c>
       <c r="H1220" s="14" t="s">
-        <v>7629</v>
+        <v>7594</v>
       </c>
       <c r="I1220" s="14" t="s">
-        <v>7629</v>
+        <v>7594</v>
       </c>
       <c r="J1220" s="14" t="s">
-        <v>7629</v>
+        <v>7594</v>
       </c>
       <c r="K1220" s="14" t="s">
-        <v>7630</v>
+        <v>7594</v>
       </c>
       <c r="L1220" s="14" t="s">
-        <v>7630</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="1221" spans="2:12">
-      <c r="B1221" s="14" t="s">
-        <v>7631</v>
-      </c>
-      <c r="C1221" s="1" t="s">
-        <v>1729</v>
+      <c r="B1221" s="1" t="s">
+        <v>7595</v>
+      </c>
+      <c r="C1221" s="14" t="s">
+        <v>7596</v>
       </c>
       <c r="D1221" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1221" s="14" t="s">
-        <v>7632</v>
+        <v>7597</v>
       </c>
       <c r="G1221" s="14" t="s">
-        <v>7633</v>
+        <v>7597</v>
       </c>
       <c r="H1221" s="14" t="s">
-        <v>7634</v>
+        <v>7597</v>
       </c>
       <c r="I1221" s="14" t="s">
-        <v>7634</v>
+        <v>7597</v>
       </c>
       <c r="J1221" s="14" t="s">
-        <v>7634</v>
+        <v>7597</v>
       </c>
       <c r="K1221" s="14" t="s">
-        <v>7635</v>
+        <v>7597</v>
       </c>
       <c r="L1221" s="14" t="s">
-        <v>7635</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="1222" spans="2:12">
       <c r="B1222" s="14" t="s">
-        <v>7636</v>
-      </c>
-      <c r="C1222" s="1" t="s">
-        <v>1737</v>
+        <v>7598</v>
+      </c>
+      <c r="C1222" s="14" t="s">
+        <v>7599</v>
       </c>
       <c r="D1222" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1222" s="14" t="s">
-        <v>7637</v>
+        <v>7600</v>
       </c>
       <c r="G1222" s="14" t="s">
-        <v>7638</v>
+        <v>7601</v>
       </c>
       <c r="H1222" s="14" t="s">
-        <v>7639</v>
+        <v>7602</v>
       </c>
       <c r="I1222" s="14" t="s">
-        <v>7639</v>
+        <v>7602</v>
       </c>
       <c r="J1222" s="14" t="s">
-        <v>7639</v>
+        <v>7602</v>
       </c>
       <c r="K1222" s="14" t="s">
-        <v>7640</v>
+        <v>7603</v>
       </c>
       <c r="L1222" s="14" t="s">
-        <v>7640</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="1223" spans="2:12">
       <c r="B1223" s="14" t="s">
-        <v>7641</v>
-      </c>
-      <c r="C1223" s="1" t="s">
-        <v>1751</v>
+        <v>7604</v>
+      </c>
+      <c r="C1223" s="14" t="s">
+        <v>7605</v>
       </c>
       <c r="D1223" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1223" s="14" t="s">
-        <v>7642</v>
+        <v>7606</v>
       </c>
       <c r="G1223" s="14" t="s">
-        <v>7643</v>
+        <v>7607</v>
       </c>
       <c r="H1223" s="14" t="s">
-        <v>7644</v>
+        <v>7608</v>
       </c>
       <c r="I1223" s="14" t="s">
-        <v>7644</v>
+        <v>7608</v>
       </c>
       <c r="J1223" s="14" t="s">
-        <v>7644</v>
+        <v>7608</v>
       </c>
       <c r="K1223" s="14" t="s">
-        <v>7645</v>
+        <v>7609</v>
       </c>
       <c r="L1223" s="14" t="s">
-        <v>7645</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="1224" spans="2:12">
       <c r="B1224" s="14" t="s">
-        <v>7646</v>
-      </c>
-      <c r="C1224" s="1" t="s">
-        <v>1754</v>
+        <v>7610</v>
+      </c>
+      <c r="C1224" s="14" t="s">
+        <v>7611</v>
       </c>
       <c r="D1224" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1224" s="14" t="s">
-        <v>7647</v>
+        <v>7612</v>
       </c>
       <c r="G1224" s="14" t="s">
-        <v>7648</v>
+        <v>7613</v>
       </c>
       <c r="H1224" s="14" t="s">
-        <v>7649</v>
+        <v>7614</v>
       </c>
       <c r="I1224" s="14" t="s">
-        <v>7649</v>
+        <v>7614</v>
       </c>
       <c r="J1224" s="14" t="s">
-        <v>7649</v>
+        <v>7614</v>
       </c>
       <c r="K1224" s="14" t="s">
-        <v>7650</v>
+        <v>7615</v>
       </c>
       <c r="L1224" s="14" t="s">
-        <v>7650</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="1225" spans="2:12">
       <c r="B1225" s="14" t="s">
-        <v>7651</v>
-      </c>
-      <c r="C1225" s="1" t="s">
-        <v>1762</v>
+        <v>7616</v>
+      </c>
+      <c r="C1225" s="14" t="s">
+        <v>7617</v>
       </c>
       <c r="D1225" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1225" s="14" t="s">
-        <v>7652</v>
+        <v>7618</v>
       </c>
       <c r="G1225" s="14" t="s">
-        <v>7653</v>
+        <v>7619</v>
       </c>
       <c r="H1225" s="14" t="s">
-        <v>7654</v>
+        <v>7620</v>
       </c>
       <c r="I1225" s="14" t="s">
-        <v>7654</v>
+        <v>7620</v>
       </c>
       <c r="J1225" s="14" t="s">
-        <v>7654</v>
+        <v>7620</v>
       </c>
       <c r="K1225" s="14" t="s">
-        <v>7655</v>
+        <v>7621</v>
       </c>
       <c r="L1225" s="14" t="s">
-        <v>7655</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="1226" spans="2:12">
       <c r="B1226" s="14" t="s">
-        <v>7656</v>
-      </c>
-      <c r="C1226" s="1" t="s">
-        <v>1770</v>
+        <v>7622</v>
+      </c>
+      <c r="C1226" s="14" t="s">
+        <v>7623</v>
       </c>
       <c r="D1226" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1226" s="14" t="s">
-        <v>7657</v>
+        <v>7624</v>
       </c>
       <c r="G1226" s="14" t="s">
-        <v>7658</v>
+        <v>7625</v>
       </c>
       <c r="H1226" s="14" t="s">
-        <v>7659</v>
+        <v>7626</v>
       </c>
       <c r="I1226" s="14" t="s">
-        <v>7659</v>
+        <v>7626</v>
       </c>
       <c r="J1226" s="14" t="s">
-        <v>7659</v>
+        <v>7626</v>
       </c>
       <c r="K1226" s="14" t="s">
-        <v>7660</v>
+        <v>7627</v>
       </c>
       <c r="L1226" s="14" t="s">
-        <v>7660</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="1227" spans="2:12">
       <c r="B1227" s="14" t="s">
-        <v>7661</v>
-      </c>
-      <c r="C1227" s="1" t="s">
-        <v>1778</v>
+        <v>7628</v>
+      </c>
+      <c r="C1227" s="14" t="s">
+        <v>7629</v>
       </c>
       <c r="D1227" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1227" s="14" t="s">
-        <v>7662</v>
+        <v>7630</v>
       </c>
       <c r="G1227" s="14" t="s">
-        <v>7663</v>
+        <v>7631</v>
       </c>
       <c r="H1227" s="14" t="s">
-        <v>7664</v>
+        <v>7632</v>
       </c>
       <c r="I1227" s="14" t="s">
-        <v>7664</v>
+        <v>7632</v>
       </c>
       <c r="J1227" s="14" t="s">
-        <v>7664</v>
+        <v>7632</v>
       </c>
       <c r="K1227" s="14" t="s">
-        <v>7665</v>
+        <v>7633</v>
       </c>
       <c r="L1227" s="14" t="s">
-        <v>7665</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="1228" spans="2:12">
       <c r="B1228" s="14" t="s">
-        <v>7666</v>
+        <v>7634</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>1786</v>
+        <v>1664</v>
       </c>
       <c r="D1228" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1228" s="14" t="s">
-        <v>7667</v>
+        <v>7635</v>
       </c>
       <c r="G1228" s="14" t="s">
-        <v>7668</v>
+        <v>7636</v>
       </c>
       <c r="H1228" s="14" t="s">
-        <v>7669</v>
+        <v>7637</v>
       </c>
       <c r="I1228" s="14" t="s">
-        <v>7669</v>
+        <v>7637</v>
       </c>
       <c r="J1228" s="14" t="s">
-        <v>7669</v>
+        <v>7637</v>
       </c>
       <c r="K1228" s="14" t="s">
-        <v>7670</v>
+        <v>7638</v>
       </c>
       <c r="L1228" s="14" t="s">
-        <v>7670</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="1229" spans="2:12">
       <c r="B1229" s="14" t="s">
-        <v>7671</v>
+        <v>7639</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>1793</v>
+        <v>1672</v>
       </c>
       <c r="D1229" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1229" s="14" t="s">
-        <v>7672</v>
+        <v>7640</v>
       </c>
       <c r="G1229" s="14" t="s">
-        <v>7673</v>
+        <v>7641</v>
       </c>
       <c r="H1229" s="14" t="s">
-        <v>7674</v>
+        <v>7642</v>
       </c>
       <c r="I1229" s="14" t="s">
-        <v>7674</v>
+        <v>7642</v>
       </c>
       <c r="J1229" s="14" t="s">
-        <v>7674</v>
+        <v>7642</v>
       </c>
       <c r="K1229" s="14" t="s">
-        <v>7675</v>
+        <v>7643</v>
       </c>
       <c r="L1229" s="14" t="s">
-        <v>7675</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="1230" spans="2:12">
       <c r="B1230" s="14" t="s">
-        <v>7676</v>
+        <v>7644</v>
       </c>
       <c r="C1230" s="1" t="s">
-        <v>1800</v>
+        <v>1680</v>
       </c>
       <c r="D1230" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1230" s="14" t="s">
-        <v>7677</v>
+        <v>7645</v>
       </c>
       <c r="G1230" s="14" t="s">
-        <v>7678</v>
+        <v>7646</v>
       </c>
       <c r="H1230" s="14" t="s">
-        <v>7679</v>
+        <v>7647</v>
       </c>
       <c r="I1230" s="14" t="s">
-        <v>7679</v>
+        <v>7647</v>
       </c>
       <c r="J1230" s="14" t="s">
-        <v>7679</v>
+        <v>7647</v>
       </c>
       <c r="K1230" s="14" t="s">
-        <v>7680</v>
+        <v>7648</v>
       </c>
       <c r="L1230" s="14" t="s">
-        <v>7680</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="1231" spans="2:12">
       <c r="B1231" s="14" t="s">
-        <v>7681</v>
+        <v>7649</v>
       </c>
       <c r="C1231" s="1" t="s">
-        <v>1845</v>
+        <v>1688</v>
       </c>
       <c r="D1231" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1231" s="14" t="s">
-        <v>7682</v>
+        <v>7650</v>
       </c>
       <c r="G1231" s="14" t="s">
-        <v>7683</v>
+        <v>7651</v>
       </c>
       <c r="H1231" s="14" t="s">
-        <v>7684</v>
+        <v>7652</v>
       </c>
       <c r="I1231" s="14" t="s">
-        <v>7684</v>
+        <v>7652</v>
       </c>
       <c r="J1231" s="14" t="s">
-        <v>7684</v>
+        <v>7652</v>
       </c>
       <c r="K1231" s="14" t="s">
-        <v>7685</v>
+        <v>7653</v>
       </c>
       <c r="L1231" s="14" t="s">
-        <v>7685</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="1232" spans="2:12">
       <c r="B1232" s="14" t="s">
-        <v>7686</v>
-      </c>
-      <c r="C1232" s="14" t="s">
-        <v>7687</v>
+        <v>7654</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>1695</v>
       </c>
       <c r="D1232" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1232" s="14" t="s">
-        <v>7688</v>
+        <v>7655</v>
       </c>
       <c r="G1232" s="14" t="s">
-        <v>7689</v>
+        <v>7656</v>
       </c>
       <c r="H1232" s="14" t="s">
-        <v>7690</v>
+        <v>7657</v>
       </c>
       <c r="I1232" s="14" t="s">
-        <v>7690</v>
+        <v>7657</v>
       </c>
       <c r="J1232" s="14" t="s">
-        <v>7690</v>
+        <v>7657</v>
       </c>
       <c r="K1232" s="14" t="s">
-        <v>7691</v>
+        <v>7658</v>
       </c>
       <c r="L1232" s="14" t="s">
-        <v>7691</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="1233" spans="2:12">
       <c r="B1233" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="C1233" s="14" t="s">
-        <v>7693</v>
+        <v>7659</v>
+      </c>
+      <c r="C1233" s="1" t="s">
+        <v>1700</v>
       </c>
       <c r="D1233" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1233" s="14" t="s">
-        <v>7694</v>
+        <v>7660</v>
       </c>
       <c r="G1233" s="14" t="s">
-        <v>7695</v>
+        <v>7661</v>
       </c>
       <c r="H1233" s="14" t="s">
-        <v>7696</v>
+        <v>7662</v>
       </c>
       <c r="I1233" s="14" t="s">
-        <v>7696</v>
+        <v>7662</v>
       </c>
       <c r="J1233" s="14" t="s">
-        <v>7696</v>
+        <v>7662</v>
       </c>
       <c r="K1233" s="14" t="s">
-        <v>7697</v>
+        <v>7663</v>
       </c>
       <c r="L1233" s="14" t="s">
-        <v>7697</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="1234" spans="2:12">
       <c r="B1234" s="14" t="s">
-        <v>7698</v>
-      </c>
-      <c r="C1234" s="14" t="s">
-        <v>7699</v>
+        <v>7664</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>1708</v>
       </c>
       <c r="D1234" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1234" s="14" t="s">
-        <v>7700</v>
+        <v>7665</v>
       </c>
       <c r="G1234" s="14" t="s">
-        <v>7701</v>
+        <v>7666</v>
       </c>
       <c r="H1234" s="14" t="s">
-        <v>7702</v>
+        <v>7667</v>
       </c>
       <c r="I1234" s="14" t="s">
-        <v>7702</v>
+        <v>7667</v>
       </c>
       <c r="J1234" s="14" t="s">
-        <v>7702</v>
+        <v>7667</v>
       </c>
       <c r="K1234" s="14" t="s">
-        <v>7703</v>
+        <v>7668</v>
       </c>
       <c r="L1234" s="14" t="s">
-        <v>7703</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="1235" spans="2:12">
       <c r="B1235" s="14" t="s">
-        <v>7704</v>
-      </c>
-      <c r="C1235" s="14" t="s">
-        <v>7705</v>
+        <v>7669</v>
+      </c>
+      <c r="C1235" s="1" t="s">
+        <v>1714</v>
       </c>
       <c r="D1235" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1235" s="14" t="s">
-        <v>7706</v>
+        <v>7670</v>
       </c>
       <c r="G1235" s="14" t="s">
-        <v>7707</v>
+        <v>7671</v>
       </c>
       <c r="H1235" s="14" t="s">
-        <v>7708</v>
+        <v>7672</v>
       </c>
       <c r="I1235" s="14" t="s">
-        <v>7708</v>
+        <v>7672</v>
       </c>
       <c r="J1235" s="14" t="s">
-        <v>7708</v>
+        <v>7672</v>
       </c>
       <c r="K1235" s="14" t="s">
-        <v>7709</v>
+        <v>7673</v>
       </c>
       <c r="L1235" s="14" t="s">
-        <v>7709</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="1236" spans="2:12">
       <c r="B1236" s="14" t="s">
-        <v>7710</v>
-      </c>
-      <c r="C1236" s="41" t="s">
-        <v>7711</v>
+        <v>7674</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>1722</v>
       </c>
       <c r="D1236" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1236" s="14" t="s">
-        <v>7712</v>
+        <v>7675</v>
       </c>
       <c r="G1236" s="14" t="s">
-        <v>7713</v>
+        <v>7676</v>
       </c>
       <c r="H1236" s="14" t="s">
-        <v>7714</v>
+        <v>7677</v>
       </c>
       <c r="I1236" s="14" t="s">
-        <v>7714</v>
+        <v>7677</v>
       </c>
       <c r="J1236" s="14" t="s">
-        <v>7714</v>
+        <v>7677</v>
       </c>
       <c r="K1236" s="14" t="s">
-        <v>7715</v>
+        <v>7678</v>
       </c>
       <c r="L1236" s="14" t="s">
-        <v>7715</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="1237" spans="2:12">
       <c r="B1237" s="14" t="s">
-        <v>7716</v>
-      </c>
-      <c r="C1237" s="41" t="s">
-        <v>7717</v>
+        <v>7679</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>1729</v>
       </c>
       <c r="D1237" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1237" s="14" t="s">
-        <v>7718</v>
+        <v>7680</v>
       </c>
       <c r="G1237" s="14" t="s">
-        <v>7719</v>
+        <v>7681</v>
       </c>
       <c r="H1237" s="14" t="s">
-        <v>7720</v>
+        <v>7682</v>
       </c>
       <c r="I1237" s="14" t="s">
-        <v>7720</v>
+        <v>7682</v>
       </c>
       <c r="J1237" s="14" t="s">
-        <v>7720</v>
+        <v>7682</v>
       </c>
       <c r="K1237" s="14" t="s">
-        <v>7721</v>
+        <v>7683</v>
       </c>
       <c r="L1237" s="14" t="s">
-        <v>7721</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="1238" spans="2:12">
       <c r="B1238" s="14" t="s">
-        <v>7722</v>
-      </c>
-      <c r="C1238" s="41" t="s">
-        <v>7723</v>
+        <v>7684</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>1737</v>
       </c>
       <c r="D1238" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1238" s="14" t="s">
-        <v>7724</v>
+        <v>7685</v>
       </c>
       <c r="G1238" s="14" t="s">
-        <v>7725</v>
+        <v>7686</v>
       </c>
       <c r="H1238" s="14" t="s">
-        <v>7726</v>
+        <v>7687</v>
       </c>
       <c r="I1238" s="14" t="s">
-        <v>7726</v>
+        <v>7687</v>
       </c>
       <c r="J1238" s="14" t="s">
-        <v>7726</v>
+        <v>7687</v>
       </c>
       <c r="K1238" s="14" t="s">
-        <v>7727</v>
+        <v>7688</v>
       </c>
       <c r="L1238" s="14" t="s">
-        <v>7727</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="1239" spans="2:12">
       <c r="B1239" s="14" t="s">
-        <v>7728</v>
-      </c>
-      <c r="C1239" s="41" t="s">
-        <v>7729</v>
+        <v>7689</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>1751</v>
       </c>
       <c r="D1239" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1239" s="14" t="s">
-        <v>7730</v>
+        <v>7690</v>
       </c>
       <c r="G1239" s="14" t="s">
-        <v>7731</v>
+        <v>7691</v>
       </c>
       <c r="H1239" s="14" t="s">
-        <v>7732</v>
+        <v>7692</v>
       </c>
       <c r="I1239" s="14" t="s">
-        <v>7732</v>
+        <v>7692</v>
       </c>
       <c r="J1239" s="14" t="s">
-        <v>7732</v>
+        <v>7692</v>
       </c>
       <c r="K1239" s="14" t="s">
-        <v>7733</v>
+        <v>7693</v>
       </c>
       <c r="L1239" s="14" t="s">
-        <v>7733</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="1240" spans="2:12">
       <c r="B1240" s="14" t="s">
-        <v>7734</v>
-      </c>
-      <c r="C1240" s="14" t="s">
-        <v>7735</v>
+        <v>7694</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>1754</v>
       </c>
       <c r="D1240" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1240" s="14" t="s">
-        <v>7736</v>
+        <v>7695</v>
       </c>
       <c r="G1240" s="14" t="s">
-        <v>7737</v>
+        <v>7696</v>
       </c>
       <c r="H1240" s="14" t="s">
-        <v>7738</v>
+        <v>7697</v>
       </c>
       <c r="I1240" s="14" t="s">
-        <v>7738</v>
+        <v>7697</v>
       </c>
       <c r="J1240" s="14" t="s">
-        <v>7738</v>
+        <v>7697</v>
       </c>
       <c r="K1240" s="14" t="s">
-        <v>7739</v>
+        <v>7698</v>
       </c>
       <c r="L1240" s="14" t="s">
-        <v>7739</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="1241" spans="2:12">
       <c r="B1241" s="14" t="s">
-        <v>7740</v>
-      </c>
-      <c r="C1241" s="14" t="s">
-        <v>7741</v>
+        <v>7699</v>
+      </c>
+      <c r="C1241" s="1" t="s">
+        <v>1762</v>
       </c>
       <c r="D1241" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1241" s="14" t="s">
-        <v>7742</v>
+        <v>7700</v>
       </c>
       <c r="G1241" s="14" t="s">
-        <v>7743</v>
+        <v>7701</v>
       </c>
       <c r="H1241" s="14" t="s">
-        <v>7744</v>
+        <v>7702</v>
       </c>
       <c r="I1241" s="14" t="s">
-        <v>7744</v>
+        <v>7702</v>
       </c>
       <c r="J1241" s="14" t="s">
-        <v>7744</v>
+        <v>7702</v>
       </c>
       <c r="K1241" s="14" t="s">
-        <v>7745</v>
+        <v>7703</v>
       </c>
       <c r="L1241" s="14" t="s">
-        <v>7745</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="1242" spans="2:12">
       <c r="B1242" s="14" t="s">
-        <v>7746</v>
-      </c>
-      <c r="C1242" s="14" t="s">
-        <v>7747</v>
+        <v>7704</v>
+      </c>
+      <c r="C1242" s="1" t="s">
+        <v>1770</v>
       </c>
       <c r="D1242" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1242" s="14" t="s">
-        <v>7748</v>
+        <v>7705</v>
       </c>
       <c r="G1242" s="14" t="s">
-        <v>7749</v>
+        <v>7706</v>
       </c>
       <c r="H1242" s="14" t="s">
-        <v>7750</v>
+        <v>7707</v>
       </c>
       <c r="I1242" s="14" t="s">
-        <v>7750</v>
+        <v>7707</v>
       </c>
       <c r="J1242" s="14" t="s">
-        <v>7750</v>
+        <v>7707</v>
       </c>
       <c r="K1242" s="14" t="s">
-        <v>7751</v>
+        <v>7708</v>
       </c>
       <c r="L1242" s="14" t="s">
-        <v>7751</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="1243" spans="2:12">
       <c r="B1243" s="14" t="s">
-        <v>7752</v>
-      </c>
-      <c r="C1243" s="14" t="s">
-        <v>7753</v>
+        <v>7709</v>
+      </c>
+      <c r="C1243" s="1" t="s">
+        <v>1778</v>
       </c>
       <c r="D1243" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1243" s="14" t="s">
-        <v>7754</v>
+        <v>7710</v>
       </c>
       <c r="G1243" s="14" t="s">
-        <v>7755</v>
+        <v>7711</v>
       </c>
       <c r="H1243" s="14" t="s">
-        <v>7756</v>
+        <v>7712</v>
       </c>
       <c r="I1243" s="14" t="s">
-        <v>7756</v>
+        <v>7712</v>
       </c>
       <c r="J1243" s="14" t="s">
-        <v>7756</v>
+        <v>7712</v>
       </c>
       <c r="K1243" s="14" t="s">
-        <v>7757</v>
+        <v>7713</v>
       </c>
       <c r="L1243" s="14" t="s">
-        <v>7757</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="1244" spans="2:12">
       <c r="B1244" s="14" t="s">
-        <v>7758</v>
-      </c>
-      <c r="C1244" s="14" t="s">
-        <v>7759</v>
+        <v>7714</v>
+      </c>
+      <c r="C1244" s="1" t="s">
+        <v>1786</v>
       </c>
       <c r="D1244" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1244" s="14" t="s">
-        <v>7760</v>
+        <v>7715</v>
       </c>
       <c r="G1244" s="14" t="s">
-        <v>7761</v>
+        <v>7716</v>
       </c>
       <c r="H1244" s="14" t="s">
-        <v>7762</v>
+        <v>7717</v>
       </c>
       <c r="I1244" s="14" t="s">
-        <v>7762</v>
+        <v>7717</v>
       </c>
       <c r="J1244" s="14" t="s">
-        <v>7762</v>
+        <v>7717</v>
       </c>
       <c r="K1244" s="14" t="s">
-        <v>7763</v>
+        <v>7718</v>
       </c>
       <c r="L1244" s="14" t="s">
-        <v>7763</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="1245" spans="2:12">
       <c r="B1245" s="14" t="s">
-        <v>7764</v>
-      </c>
-      <c r="C1245" s="14" t="s">
-        <v>7765</v>
+        <v>7719</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>1793</v>
       </c>
       <c r="D1245" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1245" s="14" t="s">
-        <v>7766</v>
+        <v>7720</v>
       </c>
       <c r="G1245" s="14" t="s">
-        <v>7767</v>
+        <v>7721</v>
       </c>
       <c r="H1245" s="14" t="s">
-        <v>7768</v>
+        <v>7722</v>
       </c>
       <c r="I1245" s="14" t="s">
-        <v>7768</v>
+        <v>7722</v>
       </c>
       <c r="J1245" s="14" t="s">
-        <v>7768</v>
+        <v>7722</v>
       </c>
       <c r="K1245" s="14" t="s">
-        <v>7769</v>
+        <v>7723</v>
       </c>
       <c r="L1245" s="14" t="s">
-        <v>7769</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="1246" spans="2:12">
       <c r="B1246" s="14" t="s">
-        <v>7770</v>
-      </c>
-      <c r="C1246" s="14" t="s">
-        <v>7771</v>
+        <v>7724</v>
+      </c>
+      <c r="C1246" s="1" t="s">
+        <v>1800</v>
       </c>
       <c r="D1246" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1246" s="14" t="s">
-        <v>7772</v>
+        <v>7725</v>
       </c>
       <c r="G1246" s="14" t="s">
-        <v>7773</v>
+        <v>7726</v>
       </c>
       <c r="H1246" s="14" t="s">
-        <v>7774</v>
+        <v>7727</v>
       </c>
       <c r="I1246" s="14" t="s">
-        <v>7774</v>
+        <v>7727</v>
       </c>
       <c r="J1246" s="14" t="s">
-        <v>7774</v>
+        <v>7727</v>
       </c>
       <c r="K1246" s="14" t="s">
-        <v>7775</v>
+        <v>7728</v>
       </c>
       <c r="L1246" s="14" t="s">
-        <v>7775</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="1247" spans="2:12">
       <c r="B1247" s="14" t="s">
-        <v>7776</v>
-      </c>
-      <c r="C1247" s="14" t="s">
-        <v>7777</v>
+        <v>7729</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>1845</v>
       </c>
       <c r="D1247" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1247" s="14" t="s">
-        <v>7778</v>
+        <v>7730</v>
       </c>
       <c r="G1247" s="14" t="s">
-        <v>7779</v>
+        <v>7731</v>
       </c>
       <c r="H1247" s="14" t="s">
-        <v>7780</v>
+        <v>7732</v>
       </c>
       <c r="I1247" s="14" t="s">
-        <v>7780</v>
+        <v>7732</v>
       </c>
       <c r="J1247" s="14" t="s">
-        <v>7780</v>
+        <v>7732</v>
       </c>
       <c r="K1247" s="14" t="s">
-        <v>7781</v>
+        <v>7733</v>
       </c>
       <c r="L1247" s="14" t="s">
-        <v>7781</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="1248" spans="2:12">
       <c r="B1248" s="14" t="s">
-        <v>7782</v>
+        <v>7734</v>
       </c>
       <c r="C1248" s="14" t="s">
-        <v>7783</v>
+        <v>7735</v>
       </c>
       <c r="D1248" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1248" s="14" t="s">
-        <v>7784</v>
+        <v>7736</v>
       </c>
       <c r="G1248" s="14" t="s">
-        <v>7785</v>
+        <v>7737</v>
       </c>
       <c r="H1248" s="14" t="s">
-        <v>7786</v>
+        <v>7738</v>
       </c>
       <c r="I1248" s="14" t="s">
-        <v>7786</v>
+        <v>7738</v>
       </c>
       <c r="J1248" s="14" t="s">
-        <v>7786</v>
+        <v>7738</v>
       </c>
       <c r="K1248" s="14" t="s">
-        <v>7787</v>
+        <v>7739</v>
       </c>
       <c r="L1248" s="14" t="s">
-        <v>7787</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="1249" spans="2:12">
       <c r="B1249" s="14" t="s">
-        <v>7788</v>
+        <v>7740</v>
       </c>
       <c r="C1249" s="14" t="s">
-        <v>1804</v>
+        <v>7741</v>
       </c>
       <c r="D1249" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1249" s="14" t="s">
-        <v>7789</v>
+        <v>7742</v>
       </c>
       <c r="G1249" s="14" t="s">
-        <v>7790</v>
+        <v>7743</v>
       </c>
       <c r="H1249" s="14" t="s">
-        <v>7791</v>
+        <v>7744</v>
       </c>
       <c r="I1249" s="14" t="s">
-        <v>7791</v>
+        <v>7744</v>
       </c>
       <c r="J1249" s="14" t="s">
-        <v>7791</v>
+        <v>7744</v>
       </c>
       <c r="K1249" s="14" t="s">
-        <v>7792</v>
+        <v>7745</v>
       </c>
       <c r="L1249" s="14" t="s">
-        <v>7792</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="1250" spans="2:12">
       <c r="B1250" s="14" t="s">
-        <v>7793</v>
+        <v>7746</v>
       </c>
       <c r="C1250" s="14" t="s">
-        <v>1808</v>
+        <v>7747</v>
       </c>
       <c r="D1250" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1250" s="14" t="s">
-        <v>7794</v>
+        <v>7748</v>
       </c>
       <c r="G1250" s="14" t="s">
-        <v>7795</v>
+        <v>7749</v>
       </c>
       <c r="H1250" s="14" t="s">
-        <v>7796</v>
+        <v>7750</v>
       </c>
       <c r="I1250" s="14" t="s">
-        <v>7796</v>
+        <v>7750</v>
       </c>
       <c r="J1250" s="14" t="s">
-        <v>7796</v>
+        <v>7750</v>
       </c>
       <c r="K1250" s="14" t="s">
-        <v>7797</v>
+        <v>7751</v>
       </c>
       <c r="L1250" s="14" t="s">
-        <v>7797</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="1251" spans="2:12">
       <c r="B1251" s="14" t="s">
-        <v>7798</v>
+        <v>7752</v>
       </c>
       <c r="C1251" s="14" t="s">
-        <v>1816</v>
+        <v>7753</v>
       </c>
       <c r="D1251" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1251" s="14" t="s">
-        <v>7799</v>
+        <v>7754</v>
       </c>
       <c r="G1251" s="14" t="s">
-        <v>7800</v>
+        <v>7755</v>
       </c>
       <c r="H1251" s="14" t="s">
-        <v>7801</v>
+        <v>7756</v>
       </c>
       <c r="I1251" s="14" t="s">
-        <v>7801</v>
+        <v>7756</v>
       </c>
       <c r="J1251" s="14" t="s">
-        <v>7801</v>
+        <v>7756</v>
       </c>
       <c r="K1251" s="14" t="s">
-        <v>7802</v>
+        <v>7757</v>
       </c>
       <c r="L1251" s="14" t="s">
-        <v>7802</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="1252" spans="2:12">
       <c r="B1252" s="14" t="s">
-        <v>7803</v>
-      </c>
-      <c r="C1252" s="14" t="s">
-        <v>1823</v>
+        <v>7758</v>
+      </c>
+      <c r="C1252" s="41" t="s">
+        <v>7759</v>
       </c>
       <c r="D1252" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1252" s="14" t="s">
-        <v>7804</v>
+        <v>7760</v>
       </c>
       <c r="G1252" s="14" t="s">
-        <v>7805</v>
+        <v>7761</v>
       </c>
       <c r="H1252" s="14" t="s">
-        <v>7806</v>
+        <v>7762</v>
       </c>
       <c r="I1252" s="14" t="s">
-        <v>7806</v>
+        <v>7762</v>
       </c>
       <c r="J1252" s="14" t="s">
-        <v>7806</v>
+        <v>7762</v>
       </c>
       <c r="K1252" s="14" t="s">
-        <v>7807</v>
+        <v>7763</v>
       </c>
       <c r="L1252" s="14" t="s">
-        <v>7807</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="1253" spans="2:12">
       <c r="B1253" s="14" t="s">
-        <v>7808</v>
-      </c>
-      <c r="C1253" s="14" t="s">
-        <v>7809</v>
+        <v>7764</v>
+      </c>
+      <c r="C1253" s="41" t="s">
+        <v>7765</v>
       </c>
       <c r="D1253" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1253" s="14" t="s">
-        <v>7810</v>
+        <v>7766</v>
       </c>
       <c r="G1253" s="14" t="s">
-        <v>7811</v>
+        <v>7767</v>
       </c>
       <c r="H1253" s="14" t="s">
-        <v>7812</v>
+        <v>7768</v>
       </c>
       <c r="I1253" s="14" t="s">
-        <v>7812</v>
+        <v>7768</v>
       </c>
       <c r="J1253" s="14" t="s">
-        <v>7812</v>
+        <v>7768</v>
       </c>
       <c r="K1253" s="14" t="s">
-        <v>7813</v>
+        <v>7769</v>
       </c>
       <c r="L1253" s="14" t="s">
-        <v>7813</v>
+        <v>7769</v>
       </c>
     </row>
     <row r="1254" spans="2:12">
       <c r="B1254" s="14" t="s">
-        <v>7814</v>
-      </c>
-      <c r="C1254" s="14" t="s">
-        <v>7815</v>
+        <v>7770</v>
+      </c>
+      <c r="C1254" s="41" t="s">
+        <v>7771</v>
       </c>
       <c r="D1254" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1254" s="14" t="s">
-        <v>7816</v>
+        <v>7772</v>
       </c>
       <c r="G1254" s="14" t="s">
-        <v>7817</v>
+        <v>7773</v>
       </c>
       <c r="H1254" s="14" t="s">
-        <v>7818</v>
+        <v>7774</v>
       </c>
       <c r="I1254" s="14" t="s">
-        <v>7818</v>
+        <v>7774</v>
       </c>
       <c r="J1254" s="14" t="s">
-        <v>7818</v>
+        <v>7774</v>
       </c>
       <c r="K1254" s="14" t="s">
-        <v>7819</v>
+        <v>7775</v>
       </c>
       <c r="L1254" s="14" t="s">
-        <v>7819</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="1255" spans="2:12">
       <c r="B1255" s="14" t="s">
-        <v>7820</v>
-      </c>
-      <c r="C1255" s="14" t="s">
-        <v>7821</v>
+        <v>7776</v>
+      </c>
+      <c r="C1255" s="41" t="s">
+        <v>7777</v>
       </c>
       <c r="D1255" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1255" s="14" t="s">
-        <v>7822</v>
+        <v>7778</v>
       </c>
       <c r="G1255" s="14" t="s">
-        <v>7823</v>
+        <v>7779</v>
       </c>
       <c r="H1255" s="14" t="s">
-        <v>7824</v>
+        <v>7780</v>
       </c>
       <c r="I1255" s="14" t="s">
-        <v>7824</v>
+        <v>7780</v>
       </c>
       <c r="J1255" s="14" t="s">
-        <v>7824</v>
+        <v>7780</v>
       </c>
       <c r="K1255" s="14" t="s">
-        <v>7825</v>
+        <v>7781</v>
       </c>
       <c r="L1255" s="14" t="s">
-        <v>7825</v>
+        <v>7781</v>
       </c>
     </row>
     <row r="1256" spans="2:12">
       <c r="B1256" s="14" t="s">
-        <v>7826</v>
+        <v>7782</v>
       </c>
       <c r="C1256" s="14" t="s">
-        <v>7827</v>
+        <v>7783</v>
       </c>
       <c r="D1256" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1256" s="14" t="s">
-        <v>7828</v>
+        <v>7784</v>
       </c>
       <c r="G1256" s="14" t="s">
-        <v>7829</v>
+        <v>7785</v>
       </c>
       <c r="H1256" s="14" t="s">
-        <v>7830</v>
+        <v>7786</v>
       </c>
       <c r="I1256" s="14" t="s">
-        <v>7830</v>
+        <v>7786</v>
       </c>
       <c r="J1256" s="14" t="s">
-        <v>7830</v>
+        <v>7786</v>
       </c>
       <c r="K1256" s="14" t="s">
-        <v>7831</v>
+        <v>7787</v>
       </c>
       <c r="L1256" s="14" t="s">
-        <v>7831</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="1257" spans="2:12">
       <c r="B1257" s="14" t="s">
-        <v>7832</v>
+        <v>7788</v>
       </c>
       <c r="C1257" s="14" t="s">
-        <v>7833</v>
+        <v>7789</v>
       </c>
       <c r="D1257" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1257" s="14" t="s">
-        <v>7834</v>
+        <v>7790</v>
       </c>
       <c r="G1257" s="14" t="s">
-        <v>7835</v>
+        <v>7791</v>
       </c>
       <c r="H1257" s="14" t="s">
-        <v>7836</v>
+        <v>7792</v>
       </c>
       <c r="I1257" s="14" t="s">
-        <v>7836</v>
+        <v>7792</v>
       </c>
       <c r="J1257" s="14" t="s">
-        <v>7836</v>
+        <v>7792</v>
       </c>
       <c r="K1257" s="14" t="s">
-        <v>7837</v>
+        <v>7793</v>
       </c>
       <c r="L1257" s="14" t="s">
-        <v>7837</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="1258" spans="2:12">
       <c r="B1258" s="14" t="s">
-        <v>7838</v>
+        <v>7794</v>
       </c>
       <c r="C1258" s="14" t="s">
-        <v>7839</v>
+        <v>7795</v>
       </c>
       <c r="D1258" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1258" s="14" t="s">
-        <v>7840</v>
+        <v>7796</v>
       </c>
       <c r="G1258" s="14" t="s">
-        <v>7841</v>
+        <v>7797</v>
       </c>
       <c r="H1258" s="14" t="s">
-        <v>7842</v>
+        <v>7798</v>
       </c>
       <c r="I1258" s="14" t="s">
-        <v>7842</v>
+        <v>7798</v>
       </c>
       <c r="J1258" s="14" t="s">
-        <v>7842</v>
+        <v>7798</v>
       </c>
       <c r="K1258" s="14" t="s">
-        <v>7843</v>
+        <v>7799</v>
       </c>
       <c r="L1258" s="14" t="s">
-        <v>7843</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="1259" spans="2:12">
       <c r="B1259" s="14" t="s">
-        <v>7844</v>
+        <v>7800</v>
       </c>
       <c r="C1259" s="14" t="s">
-        <v>7845</v>
+        <v>7801</v>
       </c>
       <c r="D1259" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1259" s="14" t="s">
-        <v>7846</v>
+        <v>7802</v>
       </c>
       <c r="G1259" s="14" t="s">
-        <v>7847</v>
+        <v>7803</v>
       </c>
       <c r="H1259" s="14" t="s">
-        <v>7848</v>
+        <v>7804</v>
       </c>
       <c r="I1259" s="14" t="s">
-        <v>7848</v>
+        <v>7804</v>
       </c>
       <c r="J1259" s="14" t="s">
-        <v>7848</v>
+        <v>7804</v>
       </c>
       <c r="K1259" s="14" t="s">
-        <v>7849</v>
+        <v>7805</v>
       </c>
       <c r="L1259" s="14" t="s">
-        <v>7849</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="1260" spans="2:12">
       <c r="B1260" s="14" t="s">
-        <v>7850</v>
+        <v>7806</v>
       </c>
       <c r="C1260" s="14" t="s">
-        <v>7851</v>
+        <v>7807</v>
       </c>
       <c r="D1260" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1260" s="14" t="s">
-        <v>7852</v>
+        <v>7808</v>
       </c>
       <c r="G1260" s="14" t="s">
-        <v>7853</v>
+        <v>7809</v>
       </c>
       <c r="H1260" s="14" t="s">
-        <v>7854</v>
+        <v>7810</v>
       </c>
       <c r="I1260" s="14" t="s">
-        <v>7854</v>
+        <v>7810</v>
       </c>
       <c r="J1260" s="14" t="s">
-        <v>7854</v>
+        <v>7810</v>
       </c>
       <c r="K1260" s="14" t="s">
-        <v>7855</v>
+        <v>7811</v>
       </c>
       <c r="L1260" s="14" t="s">
-        <v>7855</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="1261" spans="2:12">
       <c r="B1261" s="14" t="s">
-        <v>7856</v>
+        <v>7812</v>
       </c>
       <c r="C1261" s="14" t="s">
-        <v>7857</v>
+        <v>7813</v>
       </c>
       <c r="D1261" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1261" s="14" t="s">
-        <v>7858</v>
+        <v>7814</v>
       </c>
       <c r="G1261" s="14" t="s">
-        <v>7859</v>
+        <v>7815</v>
       </c>
       <c r="H1261" s="14" t="s">
-        <v>7860</v>
+        <v>7816</v>
       </c>
       <c r="I1261" s="14" t="s">
-        <v>7860</v>
+        <v>7816</v>
       </c>
       <c r="J1261" s="14" t="s">
-        <v>7860</v>
+        <v>7816</v>
       </c>
       <c r="K1261" s="14" t="s">
-        <v>7861</v>
+        <v>7817</v>
       </c>
       <c r="L1261" s="14" t="s">
-        <v>7861</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="1262" spans="2:12">
       <c r="B1262" s="14" t="s">
-        <v>7862</v>
+        <v>7818</v>
       </c>
       <c r="C1262" s="14" t="s">
-        <v>7863</v>
+        <v>7819</v>
       </c>
       <c r="D1262" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1262" s="14" t="s">
+        <v>7820</v>
+      </c>
+      <c r="G1262" s="14" t="s">
+        <v>7821</v>
+      </c>
+      <c r="H1262" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="I1262" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="J1262" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="K1262" s="14" t="s">
+        <v>7823</v>
+      </c>
+      <c r="L1262" s="14" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="1263" spans="2:12">
+      <c r="B1263" s="14" t="s">
+        <v>7824</v>
+      </c>
+      <c r="C1263" s="14" t="s">
+        <v>7825</v>
+      </c>
+      <c r="D1263" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1263" s="14" t="s">
+        <v>7826</v>
+      </c>
+      <c r="G1263" s="14" t="s">
+        <v>7827</v>
+      </c>
+      <c r="H1263" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="I1263" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="J1263" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="K1263" s="14" t="s">
+        <v>7829</v>
+      </c>
+      <c r="L1263" s="14" t="s">
+        <v>7829</v>
+      </c>
+    </row>
+    <row r="1264" spans="2:12">
+      <c r="B1264" s="14" t="s">
+        <v>7830</v>
+      </c>
+      <c r="C1264" s="14" t="s">
+        <v>7831</v>
+      </c>
+      <c r="D1264" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1264" s="14" t="s">
+        <v>7832</v>
+      </c>
+      <c r="G1264" s="14" t="s">
+        <v>7833</v>
+      </c>
+      <c r="H1264" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="I1264" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="J1264" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="K1264" s="14" t="s">
+        <v>7835</v>
+      </c>
+      <c r="L1264" s="14" t="s">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="1265" spans="2:12">
+      <c r="B1265" s="14" t="s">
+        <v>7836</v>
+      </c>
+      <c r="C1265" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D1265" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1265" s="14" t="s">
+        <v>7837</v>
+      </c>
+      <c r="G1265" s="14" t="s">
+        <v>7838</v>
+      </c>
+      <c r="H1265" s="14" t="s">
+        <v>7839</v>
+      </c>
+      <c r="I1265" s="14" t="s">
+        <v>7839</v>
+      </c>
+      <c r="J1265" s="14" t="s">
+        <v>7839</v>
+      </c>
+      <c r="K1265" s="14" t="s">
+        <v>7840</v>
+      </c>
+      <c r="L1265" s="14" t="s">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:12">
+      <c r="B1266" s="14" t="s">
+        <v>7841</v>
+      </c>
+      <c r="C1266" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D1266" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1266" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="G1266" s="14" t="s">
+        <v>7843</v>
+      </c>
+      <c r="H1266" s="14" t="s">
+        <v>7844</v>
+      </c>
+      <c r="I1266" s="14" t="s">
+        <v>7844</v>
+      </c>
+      <c r="J1266" s="14" t="s">
+        <v>7844</v>
+      </c>
+      <c r="K1266" s="14" t="s">
+        <v>7845</v>
+      </c>
+      <c r="L1266" s="14" t="s">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="1267" spans="2:12">
+      <c r="B1267" s="14" t="s">
+        <v>7846</v>
+      </c>
+      <c r="C1267" s="14" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D1267" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1267" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="G1267" s="14" t="s">
+        <v>7848</v>
+      </c>
+      <c r="H1267" s="14" t="s">
+        <v>7849</v>
+      </c>
+      <c r="I1267" s="14" t="s">
+        <v>7849</v>
+      </c>
+      <c r="J1267" s="14" t="s">
+        <v>7849</v>
+      </c>
+      <c r="K1267" s="14" t="s">
+        <v>7850</v>
+      </c>
+      <c r="L1267" s="14" t="s">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="1268" spans="2:12">
+      <c r="B1268" s="14" t="s">
+        <v>7851</v>
+      </c>
+      <c r="C1268" s="14" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1268" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1268" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="G1268" s="14" t="s">
+        <v>7853</v>
+      </c>
+      <c r="H1268" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="I1268" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="J1268" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="K1268" s="14" t="s">
+        <v>7855</v>
+      </c>
+      <c r="L1268" s="14" t="s">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="1269" spans="2:12">
+      <c r="B1269" s="14" t="s">
+        <v>7856</v>
+      </c>
+      <c r="C1269" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="D1269" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1269" s="14" t="s">
+        <v>7858</v>
+      </c>
+      <c r="G1269" s="14" t="s">
+        <v>7859</v>
+      </c>
+      <c r="H1269" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="I1269" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="J1269" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="K1269" s="14" t="s">
+        <v>7861</v>
+      </c>
+      <c r="L1269" s="14" t="s">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="1270" spans="2:12">
+      <c r="B1270" s="14" t="s">
+        <v>7862</v>
+      </c>
+      <c r="C1270" s="14" t="s">
+        <v>7863</v>
+      </c>
+      <c r="D1270" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1270" s="14" t="s">
         <v>7864</v>
       </c>
-      <c r="G1262" s="14" t="s">
+      <c r="G1270" s="14" t="s">
         <v>7865</v>
       </c>
-      <c r="H1262" s="14" t="s">
+      <c r="H1270" s="14" t="s">
         <v>7866</v>
       </c>
-      <c r="I1262" s="14" t="s">
+      <c r="I1270" s="14" t="s">
         <v>7866</v>
       </c>
-      <c r="J1262" s="14" t="s">
+      <c r="J1270" s="14" t="s">
         <v>7866</v>
       </c>
-      <c r="K1262" s="14" t="s">
+      <c r="K1270" s="14" t="s">
         <v>7867</v>
       </c>
-      <c r="L1262" s="14" t="s">
+      <c r="L1270" s="14" t="s">
         <v>7867</v>
+      </c>
+    </row>
+    <row r="1271" spans="2:12">
+      <c r="B1271" s="14" t="s">
+        <v>7868</v>
+      </c>
+      <c r="C1271" s="14" t="s">
+        <v>7869</v>
+      </c>
+      <c r="D1271" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1271" s="14" t="s">
+        <v>7870</v>
+      </c>
+      <c r="G1271" s="14" t="s">
+        <v>7871</v>
+      </c>
+      <c r="H1271" s="14" t="s">
+        <v>7872</v>
+      </c>
+      <c r="I1271" s="14" t="s">
+        <v>7872</v>
+      </c>
+      <c r="J1271" s="14" t="s">
+        <v>7872</v>
+      </c>
+      <c r="K1271" s="14" t="s">
+        <v>7873</v>
+      </c>
+      <c r="L1271" s="14" t="s">
+        <v>7873</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:12">
+      <c r="B1272" s="14" t="s">
+        <v>7874</v>
+      </c>
+      <c r="C1272" s="14" t="s">
+        <v>7875</v>
+      </c>
+      <c r="D1272" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1272" s="14" t="s">
+        <v>7876</v>
+      </c>
+      <c r="G1272" s="14" t="s">
+        <v>7877</v>
+      </c>
+      <c r="H1272" s="14" t="s">
+        <v>7878</v>
+      </c>
+      <c r="I1272" s="14" t="s">
+        <v>7878</v>
+      </c>
+      <c r="J1272" s="14" t="s">
+        <v>7878</v>
+      </c>
+      <c r="K1272" s="14" t="s">
+        <v>7879</v>
+      </c>
+      <c r="L1272" s="14" t="s">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="1273" spans="2:12">
+      <c r="B1273" s="14" t="s">
+        <v>7880</v>
+      </c>
+      <c r="C1273" s="14" t="s">
+        <v>7881</v>
+      </c>
+      <c r="D1273" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1273" s="14" t="s">
+        <v>7882</v>
+      </c>
+      <c r="G1273" s="14" t="s">
+        <v>7883</v>
+      </c>
+      <c r="H1273" s="14" t="s">
+        <v>7884</v>
+      </c>
+      <c r="I1273" s="14" t="s">
+        <v>7884</v>
+      </c>
+      <c r="J1273" s="14" t="s">
+        <v>7884</v>
+      </c>
+      <c r="K1273" s="14" t="s">
+        <v>7885</v>
+      </c>
+      <c r="L1273" s="14" t="s">
+        <v>7885</v>
+      </c>
+    </row>
+    <row r="1274" spans="2:12">
+      <c r="B1274" s="14" t="s">
+        <v>7886</v>
+      </c>
+      <c r="C1274" s="14" t="s">
+        <v>7887</v>
+      </c>
+      <c r="D1274" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1274" s="14" t="s">
+        <v>7888</v>
+      </c>
+      <c r="G1274" s="14" t="s">
+        <v>7889</v>
+      </c>
+      <c r="H1274" s="14" t="s">
+        <v>7890</v>
+      </c>
+      <c r="I1274" s="14" t="s">
+        <v>7890</v>
+      </c>
+      <c r="J1274" s="14" t="s">
+        <v>7890</v>
+      </c>
+      <c r="K1274" s="14" t="s">
+        <v>7891</v>
+      </c>
+      <c r="L1274" s="14" t="s">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="1275" spans="2:12">
+      <c r="B1275" s="14" t="s">
+        <v>7892</v>
+      </c>
+      <c r="C1275" s="14" t="s">
+        <v>7893</v>
+      </c>
+      <c r="D1275" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1275" s="14" t="s">
+        <v>7894</v>
+      </c>
+      <c r="G1275" s="14" t="s">
+        <v>7895</v>
+      </c>
+      <c r="H1275" s="14" t="s">
+        <v>7896</v>
+      </c>
+      <c r="I1275" s="14" t="s">
+        <v>7896</v>
+      </c>
+      <c r="J1275" s="14" t="s">
+        <v>7896</v>
+      </c>
+      <c r="K1275" s="14" t="s">
+        <v>7897</v>
+      </c>
+      <c r="L1275" s="14" t="s">
+        <v>7897</v>
+      </c>
+    </row>
+    <row r="1276" spans="2:12">
+      <c r="B1276" s="14" t="s">
+        <v>7898</v>
+      </c>
+      <c r="C1276" s="14" t="s">
+        <v>7899</v>
+      </c>
+      <c r="D1276" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1276" s="14" t="s">
+        <v>7900</v>
+      </c>
+      <c r="G1276" s="14" t="s">
+        <v>7901</v>
+      </c>
+      <c r="H1276" s="14" t="s">
+        <v>7902</v>
+      </c>
+      <c r="I1276" s="14" t="s">
+        <v>7902</v>
+      </c>
+      <c r="J1276" s="14" t="s">
+        <v>7902</v>
+      </c>
+      <c r="K1276" s="14" t="s">
+        <v>7903</v>
+      </c>
+      <c r="L1276" s="14" t="s">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="1277" spans="2:12">
+      <c r="B1277" s="14" t="s">
+        <v>7904</v>
+      </c>
+      <c r="C1277" s="14" t="s">
+        <v>7905</v>
+      </c>
+      <c r="D1277" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1277" s="14" t="s">
+        <v>7906</v>
+      </c>
+      <c r="G1277" s="14" t="s">
+        <v>7907</v>
+      </c>
+      <c r="H1277" s="14" t="s">
+        <v>7908</v>
+      </c>
+      <c r="I1277" s="14" t="s">
+        <v>7908</v>
+      </c>
+      <c r="J1277" s="14" t="s">
+        <v>7908</v>
+      </c>
+      <c r="K1277" s="14" t="s">
+        <v>7909</v>
+      </c>
+      <c r="L1277" s="14" t="s">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:12">
+      <c r="B1278" s="14" t="s">
+        <v>7910</v>
+      </c>
+      <c r="C1278" s="14" t="s">
+        <v>7911</v>
+      </c>
+      <c r="D1278" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1278" s="14" t="s">
+        <v>7912</v>
+      </c>
+      <c r="G1278" s="14" t="s">
+        <v>7913</v>
+      </c>
+      <c r="H1278" s="14" t="s">
+        <v>7914</v>
+      </c>
+      <c r="I1278" s="14" t="s">
+        <v>7914</v>
+      </c>
+      <c r="J1278" s="14" t="s">
+        <v>7914</v>
+      </c>
+      <c r="K1278" s="14" t="s">
+        <v>7915</v>
+      </c>
+      <c r="L1278" s="14" t="s">
+        <v>7915</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19605" windowHeight="11520"/>
+    <workbookView windowWidth="27870" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10518" uniqueCount="7916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11050" uniqueCount="8086">
   <si>
     <t>##var</t>
   </si>
@@ -23388,10 +23388,578 @@
     <t>369047</t>
   </si>
   <si>
+    <t>370001</t>
+  </si>
+  <si>
+    <t>No.{0}</t>
+  </si>
+  <si>
+    <t>370002</t>
+  </si>
+  <si>
+    <t>370003</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>370004</t>
+  </si>
+  <si>
+    <t>走勢圖</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>370005</t>
+  </si>
+  <si>
+    <t>Bet button setup, please choose 5 different bet buttons</t>
+  </si>
+  <si>
+    <t>370006</t>
+  </si>
+  <si>
+    <t>Rebet Button Setting</t>
+  </si>
+  <si>
+    <t>370007</t>
+  </si>
+  <si>
+    <t>370008</t>
+  </si>
+  <si>
+    <t>370009</t>
+  </si>
+  <si>
+    <t>（可自定義局數）</t>
+  </si>
+  <si>
+    <t>(Number of rebet can be set)</t>
+  </si>
+  <si>
+    <t>370010</t>
+  </si>
+  <si>
+    <t>下注倒計時:</t>
+  </si>
+  <si>
+    <t>Countdown:</t>
+  </si>
+  <si>
+    <t>370011</t>
+  </si>
+  <si>
+    <t>單牌</t>
+  </si>
+  <si>
+    <t>370012</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>370013</t>
+  </si>
+  <si>
+    <t>金花</t>
+  </si>
+  <si>
+    <t>370014</t>
+  </si>
+  <si>
+    <t>370015</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>370016</t>
+  </si>
+  <si>
+    <t>3 Kind</t>
+  </si>
+  <si>
+    <t>370017</t>
+  </si>
+  <si>
+    <t>紅黑規則</t>
+  </si>
+  <si>
+    <t>1.簡介
+這是一個以雙方手牌大小來決定輸贏的桌牌遊戲。遊戲使用52張撲克牌，不含小丑。每局洗牌後，紅方和黑方各派3張牌，根據三張牌組合的牌型和點數，花色決定勝負結果。
+2.遊戲規則
+每局紅方和黑方各派3張牌，玩家可投注紅、黑、幸運一擊三種結果。如果買中則按照桌面開獎結果獲得獎勵。
+1).開牌結果
+首先比較雙方手牌的牌型
+三條&gt;同花順&gt;同花&gt;順子&gt;對子&gt;高牌。
+高牌：三張牌無法組成任何的牌型。
+對子：只有兩張相同點數的牌。
+順子：花色不相同，但點數連續的牌。(A.K.Q最大；A.3.2最小；不含A.K.2)
+同花：花色完全相同，但點數不連續的牌。(A.K.J最大；5.3.2最小)
+同花順：花色完全相同且點數連續的牌。(A.K.Q最大；A.3.2最小；不含A.K.2)
+三條：三張相同點數的牌。(A.A.A最大；2.2.2最小)
+如果牌型相同則比較牌型的點數大小：
+點數：A&gt;K&gt;Q&gt;J&gt;10&gt;9&gt;8&gt;7&gt;6&gt;5&gt;4&gt;3&gt;2
+順子：A.K.Q&gt;K.Q.J&gt;Q.J.10&gt;J.10.9&gt;10.9.8&gt;9.8.7&gt;8.7.6&gt;7.6.5&gt;6.5.4&gt;5.4.3&gt;4.3.2&gt;A.3.2.
+如果點數相同則比較花色:
+黑桃&gt;愛心&gt;梅花&gt;方塊
+2).下注限紅
+每局個人所有區域下注總和最大為{0}
+每局個人可在紅區域下注總和最大為{1}
+每局個人可在黑區域下注總和最大為{2}
+每局個人可在幸運一擊區域下注總和最大為{3}
+3).賠付規則
+每局獲勝區域根據桌面的顯示比例進行賠付。幸運一擊只根據本局紅和黑中的贏家手牌開獎。如果贏家手牌符合幸運一擊區域上開獎牌型的一種，則本局下注幸運一擊的玩家視為投注成功，根據對應牌型的顯示比例進行賠付。
+3.功能使用
+1).下注設置
+點擊設置可調整下注檔位。一共10個下注檔位，只能選擇其中5個，選擇後確認，桌面會切換為當前選擇的下注籌碼。
+2).續投設置
+續投可選擇普通續投或專業續投。普通續投點擊可按照上一局投注選擇自動下注；高級續投可設定續投次數，設定後會在每一局開始前按設定時的上一局投注自動下注；直到次數完成或金幣不足。</t>
+  </si>
+  <si>
+    <t>1. Introduction
+This is a table card game where the size of both players' hands determines the winner. The game uses 52 playing cards, excluding the joker. After shuffling the cards in each game, the red side and the black side will each be dealt 3 cards, and the winner will be decided according to the combination of the three cards, the number of points, and the suit.
+2. Game Rules
+Each game the red side and black side each sent 3 cards, players can bet on red, black, Lucky Shot three kinds of results. Players can bet on Red, Black and Lucky Shot. If they win, they will be rewarded according to the table draw result.
+1). Opening Result
+First compare the suits of both hands
+Three of a Kind &gt; Straight Flush &gt; Flush &gt; Straight &gt; Pair &gt; High Card.
+High Card: Three cards cannot form any kind of hand.
+Pair: Only two cards with the same number of points.
+Straight: Cards with different suits but consecutive points. (A.K.Q is the largest; A.3.2 is the smallest; without A.K.2)
+Flush: A hand with exactly the same suit, but with non-consecutive points. (A.K.J is largest; 5.3.2 is smallest)
+Straight Flush: A hand with identical suits and consecutive points. (A.K.Q is the largest; A.3.2 is the smallest; without A.K.2)
+Three of a Kind: Three cards with the same number of points. (A.A.A is the largest; 2.2.2 is the smallest)
+If the cards are the same then compare the point size of the cards:
+Points : A&gt;K&gt;Q&gt;J&gt;10&gt;9&gt;8&gt;7&gt;6&gt;5&gt;4&gt;3&gt;2
+Courses: A.K.Q&gt;K.Q.J&gt;Q.J.10&gt;J.10.9&gt;10.9.8&gt;9.8.7&gt;8.7.6&gt;7.6.5&gt;6.5.4&gt;5.4.3&gt;4.3.2&gt;A.3.2.
+If points are equal then compare suits :.
+Spades &gt; Hearts &gt; Clubs &gt; Diamonds.
+2). Red Limit
+The maximum sum of all bets per hand is {0}.
+The maximum sum of all bets a player can place in red is {1} per hand.
+The maximum sum of bets an individual can place in the black area in a game is {2}.
+The maximum sum of bets an individual can place in the Lucky Strike area per game is {3}.
+3). Payout Rules
+Each winning area pays out according to the percentage shown on the table. Lucky Shoot only pays out based on the winning hand in the red and black of the hand. If the winner's hand matches one of the drawing hands on the Lucky Shoot area, the player who bets on the Lucky Shoot in this game is considered to have placed a successful bet, and the payout is based on the percentage of the corresponding hand shown on the table.
+3. Function Use
+1). Betting Settings
+Click Settings to adjust the betting level. There are a total of 10 betting positions, you can only choose 5 of them, after selecting and confirming, the desktop will be switched to the currently selected betting chips.
+2). Renewal Setting
+You can choose either Normal Renewal or Professional Renewal. Normal Renewal can be set to automatically place bets according to the previous game; Advanced Renewal can be set for a certain number of times, and will automatically place bets according to the previous game before the start of each game until the number of times is completed or until the amount of coins is insufficient.</t>
+  </si>
+  <si>
+    <t>370018</t>
+  </si>
+  <si>
+    <t>近20局勝負</t>
+  </si>
+  <si>
+    <t>Last 20 win&amp;lose</t>
+  </si>
+  <si>
+    <t>370019</t>
+  </si>
+  <si>
+    <t>{0}局</t>
+  </si>
+  <si>
+    <t>{0}rounds</t>
+  </si>
+  <si>
+    <t>370020</t>
+  </si>
+  <si>
+    <t>370021</t>
+  </si>
+  <si>
+    <t>370022</t>
+  </si>
+  <si>
+    <t>大厅规则</t>
+  </si>
+  <si>
+    <t>module70Atlas</t>
+  </si>
+  <si>
+    <t>guize_zw</t>
+  </si>
+  <si>
+    <t>guize_yw</t>
+  </si>
+  <si>
+    <t>370023</t>
+  </si>
+  <si>
+    <t>大厅音量</t>
+  </si>
+  <si>
+    <t>shengyin_zw</t>
+  </si>
+  <si>
+    <t>shengyin_yw</t>
+  </si>
+  <si>
+    <t>370024</t>
+  </si>
+  <si>
+    <t>大厅设置</t>
+  </si>
+  <si>
+    <t>shezhi_zw</t>
+  </si>
+  <si>
+    <t>shezhi_yw</t>
+  </si>
+  <si>
+    <t>370025</t>
+  </si>
+  <si>
+    <t>大厅退出</t>
+  </si>
+  <si>
+    <t>tuichu_zw</t>
+  </si>
+  <si>
+    <t>tuichu_yw</t>
+  </si>
+  <si>
+    <t>370026</t>
+  </si>
+  <si>
+    <t>大厅在线玩家</t>
+  </si>
+  <si>
+    <t>370027</t>
+  </si>
+  <si>
+    <t>大厅续投可点</t>
+  </si>
+  <si>
+    <t>xt_zw</t>
+  </si>
+  <si>
+    <t>xt_yw</t>
+  </si>
+  <si>
+    <t>370028</t>
+  </si>
+  <si>
+    <t>大厅续投不可点</t>
+  </si>
+  <si>
+    <t>xt_zw_1</t>
+  </si>
+  <si>
+    <t>xt_yw_1</t>
+  </si>
+  <si>
+    <t>370029</t>
+  </si>
+  <si>
+    <t>dengdai_zw</t>
+  </si>
+  <si>
+    <t>dengdai_yw</t>
+  </si>
+  <si>
+    <t>370030</t>
+  </si>
+  <si>
+    <t>开始下注</t>
+  </si>
+  <si>
+    <t>ksxz_zw</t>
+  </si>
+  <si>
+    <t>ksxz_yw</t>
+  </si>
+  <si>
+    <t>370031</t>
+  </si>
+  <si>
+    <t>tzxz_zw</t>
+  </si>
+  <si>
+    <t>tzxz_yw</t>
+  </si>
+  <si>
+    <t>370032</t>
+  </si>
+  <si>
+    <t>下注区豹子</t>
+  </si>
+  <si>
+    <t>baozi_zw</t>
+  </si>
+  <si>
+    <t>baozi_yw</t>
+  </si>
+  <si>
+    <t>370033</t>
+  </si>
+  <si>
+    <t>下注区顺金</t>
+  </si>
+  <si>
+    <t>shunjin_zw</t>
+  </si>
+  <si>
+    <t>shunjin_yw_suoxie</t>
+  </si>
+  <si>
+    <t>370034</t>
+  </si>
+  <si>
+    <t>下注区金花</t>
+  </si>
+  <si>
+    <t>jinhua_zw</t>
+  </si>
+  <si>
+    <t>jinhua_yw</t>
+  </si>
+  <si>
+    <t>370035</t>
+  </si>
+  <si>
+    <t>下注区顺子</t>
+  </si>
+  <si>
+    <t>shunzi_zw</t>
+  </si>
+  <si>
+    <t>shunzi_yw</t>
+  </si>
+  <si>
+    <t>370036</t>
+  </si>
+  <si>
+    <t>下注区对子</t>
+  </si>
+  <si>
+    <t>duizi_zw</t>
+  </si>
+  <si>
+    <t>duizi_yw</t>
+  </si>
+  <si>
+    <t>370037</t>
+  </si>
+  <si>
+    <t>下注区幸运</t>
+  </si>
+  <si>
+    <t>xingyun_zw</t>
+  </si>
+  <si>
+    <t>xingyun_yw</t>
+  </si>
+  <si>
+    <t>370038</t>
+  </si>
+  <si>
+    <t>下注去一击</t>
+  </si>
+  <si>
+    <t>yiji_zw</t>
+  </si>
+  <si>
+    <t>yiji_yw</t>
+  </si>
+  <si>
+    <t>370039</t>
+  </si>
+  <si>
+    <t>牌型豹子</t>
+  </si>
+  <si>
+    <t>spxs_baozi_zw</t>
+  </si>
+  <si>
+    <t>spxs_baozi_yw</t>
+  </si>
+  <si>
+    <t>370040</t>
+  </si>
+  <si>
+    <t>牌型顺金</t>
+  </si>
+  <si>
+    <t>spxs_shunjin_zw</t>
+  </si>
+  <si>
+    <t>spxs_shunjin_yw</t>
+  </si>
+  <si>
+    <t>370041</t>
+  </si>
+  <si>
+    <t>牌型金花</t>
+  </si>
+  <si>
+    <t>spxs_jinhua_zw</t>
+  </si>
+  <si>
+    <t>spxs_jinhua_yw</t>
+  </si>
+  <si>
+    <t>370042</t>
+  </si>
+  <si>
+    <t>牌型顺子</t>
+  </si>
+  <si>
+    <t>spxs_shunzi_zw</t>
+  </si>
+  <si>
+    <t>spxs_shunzi_yw</t>
+  </si>
+  <si>
+    <t>370043</t>
+  </si>
+  <si>
+    <t>牌型对子</t>
+  </si>
+  <si>
+    <t>spxs_duizi_zw</t>
+  </si>
+  <si>
+    <t>spxs_duizi_yw</t>
+  </si>
+  <si>
+    <t>370044</t>
+  </si>
+  <si>
+    <t>牌型高牌</t>
+  </si>
+  <si>
+    <t>spxs_gaopai_zw</t>
+  </si>
+  <si>
+    <t>spxs_gaopai_yw</t>
+  </si>
+  <si>
+    <t>370045</t>
+  </si>
+  <si>
+    <t>游戏规则</t>
+  </si>
+  <si>
+    <t>yxgz_zw</t>
+  </si>
+  <si>
+    <t>yxgz_yw</t>
+  </si>
+  <si>
+    <t>370046</t>
+  </si>
+  <si>
+    <t>游戏走势</t>
+  </si>
+  <si>
+    <t>hhzs_zw</t>
+  </si>
+  <si>
+    <t>hhzs_yw</t>
+  </si>
+  <si>
+    <t>370047</t>
+  </si>
+  <si>
+    <t>wjlb_zw</t>
+  </si>
+  <si>
+    <t>wjlb_yw</t>
+  </si>
+  <si>
+    <t>370048</t>
+  </si>
+  <si>
+    <t>玩家胜局</t>
+  </si>
+  <si>
+    <t>hs_zw</t>
+  </si>
+  <si>
+    <t>hs_yw</t>
+  </si>
+  <si>
+    <t>370049</t>
+  </si>
+  <si>
+    <t>玩家下注</t>
+  </si>
+  <si>
+    <t>xz_zw</t>
+  </si>
+  <si>
+    <t>xz_yw</t>
+  </si>
+  <si>
+    <t>370050</t>
+  </si>
+  <si>
+    <t>音量设置</t>
+  </si>
+  <si>
+    <t>sz_zw</t>
+  </si>
+  <si>
+    <t>sz_yw</t>
+  </si>
+  <si>
+    <t>370051</t>
+  </si>
+  <si>
+    <t>高级设置</t>
+  </si>
+  <si>
+    <t>gjsz_zw</t>
+  </si>
+  <si>
+    <t>gjsz_yw</t>
+  </si>
+  <si>
+    <t>370052</t>
+  </si>
+  <si>
+    <t>qkqb_zw</t>
+  </si>
+  <si>
+    <t>qkqb_yw</t>
+  </si>
+  <si>
+    <t>370053</t>
+  </si>
+  <si>
+    <t>确定可点击</t>
+  </si>
+  <si>
+    <t>qd_zw</t>
+  </si>
+  <si>
+    <t>qd_yw</t>
+  </si>
+  <si>
+    <t>370054</t>
+  </si>
+  <si>
+    <t>确定不可点击</t>
+  </si>
+  <si>
+    <t>qd_zw_1</t>
+  </si>
+  <si>
+    <t>qd_yw_1</t>
+  </si>
+  <si>
     <t>371001</t>
   </si>
   <si>
-    <t>宙斯规则</t>
+    <t>宙斯規則</t>
   </si>
   <si>
     <t>GAME RULES</t>
@@ -23643,7 +24211,7 @@
     <t>400071</t>
   </si>
   <si>
-    <t>奥林匹斯之门</t>
+    <t>奧林匹斯之門</t>
   </si>
   <si>
     <t>Olympus</t>
@@ -26043,10 +26611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O1278"/>
+  <dimension ref="A1:O1332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1177" workbookViewId="0">
-      <selection activeCell="D1181" sqref="D1181"/>
+    <sheetView tabSelected="1" topLeftCell="A1240" workbookViewId="0">
+      <selection activeCell="E1314" sqref="E1314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -58055,3421 +58623,5241 @@
       <c r="B1166" s="14" t="s">
         <v>7467</v>
       </c>
-      <c r="C1166" s="1" t="s">
-        <v>7468</v>
-      </c>
+      <c r="C1166" s="1"/>
       <c r="D1166" s="45"/>
       <c r="E1166" s="27"/>
-      <c r="F1166" s="31" t="s">
-        <v>3393</v>
-      </c>
-      <c r="G1166" s="1" t="s">
-        <v>7469</v>
-      </c>
-      <c r="H1166" s="1" t="s">
-        <v>7469</v>
-      </c>
-      <c r="I1166" s="1" t="s">
-        <v>7469</v>
-      </c>
-      <c r="J1166" s="1" t="s">
-        <v>7469</v>
-      </c>
-      <c r="K1166" s="1" t="s">
-        <v>7469</v>
-      </c>
-      <c r="L1166" s="1" t="s">
-        <v>7469</v>
-      </c>
-    </row>
-    <row r="1167" s="13" customFormat="1" ht="94.5" spans="1:12">
+      <c r="F1166" s="14" t="s">
+        <v>7468</v>
+      </c>
+      <c r="G1166" s="14" t="s">
+        <v>7468</v>
+      </c>
+      <c r="H1166" s="14" t="s">
+        <v>7468</v>
+      </c>
+      <c r="I1166" s="14" t="s">
+        <v>7468</v>
+      </c>
+      <c r="J1166" s="14" t="s">
+        <v>7468</v>
+      </c>
+      <c r="K1166" s="14" t="s">
+        <v>7468</v>
+      </c>
+      <c r="L1166" s="14" t="s">
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="1167" s="13" customFormat="1" spans="1:12">
       <c r="A1167" s="1"/>
       <c r="B1167" s="14" t="s">
-        <v>7470</v>
+        <v>7469</v>
       </c>
       <c r="C1167" s="1"/>
       <c r="D1167" s="45"/>
       <c r="E1167" s="27"/>
-      <c r="F1167" s="35" t="s">
-        <v>7471</v>
-      </c>
-      <c r="G1167" s="1" t="s">
-        <v>7472</v>
-      </c>
-      <c r="H1167" s="1" t="s">
-        <v>7472</v>
-      </c>
-      <c r="I1167" s="1" t="s">
-        <v>7472</v>
-      </c>
-      <c r="J1167" s="1" t="s">
-        <v>7472</v>
-      </c>
-      <c r="K1167" s="1" t="s">
-        <v>7472</v>
-      </c>
-      <c r="L1167" s="1" t="s">
-        <v>7472</v>
-      </c>
-    </row>
-    <row r="1168" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="F1167" s="14" t="s">
+        <v>7091</v>
+      </c>
+      <c r="G1167" s="39" t="s">
+        <v>7356</v>
+      </c>
+      <c r="H1167" s="39" t="s">
+        <v>7356</v>
+      </c>
+      <c r="I1167" s="39" t="s">
+        <v>7356</v>
+      </c>
+      <c r="J1167" s="39" t="s">
+        <v>7356</v>
+      </c>
+      <c r="K1167" s="39" t="s">
+        <v>7356</v>
+      </c>
+      <c r="L1167" s="39" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="1168" s="13" customFormat="1" spans="1:12">
       <c r="A1168" s="1"/>
       <c r="B1168" s="14" t="s">
-        <v>7473</v>
+        <v>7470</v>
       </c>
       <c r="C1168" s="1"/>
       <c r="D1168" s="45"/>
       <c r="E1168" s="27"/>
-      <c r="F1168" s="31" t="s">
-        <v>7474</v>
-      </c>
-      <c r="G1168" s="1" t="s">
-        <v>7475</v>
-      </c>
-      <c r="H1168" s="1" t="s">
-        <v>7475</v>
-      </c>
-      <c r="I1168" s="1" t="s">
-        <v>7475</v>
-      </c>
-      <c r="J1168" s="1" t="s">
-        <v>7475</v>
-      </c>
-      <c r="K1168" s="1" t="s">
-        <v>7475</v>
-      </c>
-      <c r="L1168" s="1" t="s">
-        <v>7475</v>
-      </c>
-    </row>
-    <row r="1169" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="F1168" s="14" t="s">
+        <v>7422</v>
+      </c>
+      <c r="G1168" s="14" t="s">
+        <v>7471</v>
+      </c>
+      <c r="H1168" s="14" t="s">
+        <v>7471</v>
+      </c>
+      <c r="I1168" s="14" t="s">
+        <v>7471</v>
+      </c>
+      <c r="J1168" s="14" t="s">
+        <v>7471</v>
+      </c>
+      <c r="K1168" s="14" t="s">
+        <v>7471</v>
+      </c>
+      <c r="L1168" s="14" t="s">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="1169" s="13" customFormat="1" spans="1:12">
       <c r="A1169" s="1"/>
       <c r="B1169" s="14" t="s">
-        <v>7476</v>
+        <v>7472</v>
       </c>
       <c r="C1169" s="1"/>
       <c r="D1169" s="45"/>
       <c r="E1169" s="27"/>
-      <c r="F1169" s="31" t="s">
-        <v>7477</v>
+      <c r="F1169" s="14" t="s">
+        <v>7473</v>
       </c>
       <c r="G1169" s="1" t="s">
-        <v>7478</v>
+        <v>7474</v>
       </c>
       <c r="H1169" s="1" t="s">
-        <v>7478</v>
+        <v>7474</v>
       </c>
       <c r="I1169" s="1" t="s">
-        <v>7478</v>
+        <v>7474</v>
       </c>
       <c r="J1169" s="1" t="s">
-        <v>7478</v>
+        <v>7474</v>
       </c>
       <c r="K1169" s="1" t="s">
-        <v>7478</v>
+        <v>7474</v>
       </c>
       <c r="L1169" s="1" t="s">
-        <v>7478</v>
-      </c>
-    </row>
-    <row r="1170" s="13" customFormat="1" ht="27" spans="1:12">
+        <v>7474</v>
+      </c>
+    </row>
+    <row r="1170" s="13" customFormat="1" ht="40.5" spans="1:12">
       <c r="A1170" s="1"/>
       <c r="B1170" s="14" t="s">
-        <v>7479</v>
+        <v>7475</v>
       </c>
       <c r="C1170" s="1"/>
       <c r="D1170" s="45"/>
       <c r="E1170" s="27"/>
-      <c r="F1170" s="31" t="s">
-        <v>7480</v>
+      <c r="F1170" s="14" t="s">
+        <v>7130</v>
       </c>
       <c r="G1170" s="1" t="s">
-        <v>7481</v>
+        <v>7476</v>
       </c>
       <c r="H1170" s="1" t="s">
-        <v>7481</v>
+        <v>7476</v>
       </c>
       <c r="I1170" s="1" t="s">
-        <v>7481</v>
+        <v>7476</v>
       </c>
       <c r="J1170" s="1" t="s">
-        <v>7481</v>
+        <v>7476</v>
       </c>
       <c r="K1170" s="1" t="s">
-        <v>7481</v>
+        <v>7476</v>
       </c>
       <c r="L1170" s="1" t="s">
-        <v>7481</v>
-      </c>
-    </row>
-    <row r="1171" s="13" customFormat="1" ht="162" spans="1:12">
+        <v>7476</v>
+      </c>
+    </row>
+    <row r="1171" s="13" customFormat="1" spans="1:12">
       <c r="A1171" s="1"/>
       <c r="B1171" s="14" t="s">
-        <v>7482</v>
+        <v>7477</v>
       </c>
       <c r="C1171" s="1"/>
       <c r="D1171" s="45"/>
       <c r="E1171" s="27"/>
-      <c r="F1171" s="35" t="s">
-        <v>7483</v>
+      <c r="F1171" s="14" t="s">
+        <v>7385</v>
       </c>
       <c r="G1171" s="1" t="s">
-        <v>7484</v>
+        <v>7478</v>
       </c>
       <c r="H1171" s="1" t="s">
-        <v>7484</v>
+        <v>7478</v>
       </c>
       <c r="I1171" s="1" t="s">
-        <v>7484</v>
+        <v>7478</v>
       </c>
       <c r="J1171" s="1" t="s">
-        <v>7484</v>
+        <v>7478</v>
       </c>
       <c r="K1171" s="1" t="s">
-        <v>7484</v>
+        <v>7478</v>
       </c>
       <c r="L1171" s="1" t="s">
-        <v>7484</v>
-      </c>
-    </row>
-    <row r="1172" s="13" customFormat="1" ht="94.5" spans="1:12">
+        <v>7478</v>
+      </c>
+    </row>
+    <row r="1172" s="13" customFormat="1" spans="1:12">
       <c r="A1172" s="1"/>
       <c r="B1172" s="14" t="s">
-        <v>7485</v>
+        <v>7479</v>
       </c>
       <c r="C1172" s="1"/>
       <c r="D1172" s="45"/>
       <c r="E1172" s="27"/>
-      <c r="F1172" s="35" t="s">
-        <v>7486</v>
+      <c r="F1172" s="14" t="s">
+        <v>7351</v>
       </c>
       <c r="G1172" s="1" t="s">
-        <v>7487</v>
+        <v>7352</v>
       </c>
       <c r="H1172" s="1" t="s">
-        <v>7487</v>
+        <v>7352</v>
       </c>
       <c r="I1172" s="1" t="s">
-        <v>7487</v>
+        <v>7352</v>
       </c>
       <c r="J1172" s="1" t="s">
-        <v>7487</v>
+        <v>7352</v>
       </c>
       <c r="K1172" s="1" t="s">
-        <v>7487</v>
+        <v>7352</v>
       </c>
       <c r="L1172" s="1" t="s">
-        <v>7487</v>
-      </c>
-    </row>
-    <row r="1173" s="13" customFormat="1" ht="81" spans="1:12">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="1173" s="13" customFormat="1" spans="1:12">
       <c r="A1173" s="1"/>
       <c r="B1173" s="14" t="s">
-        <v>7488</v>
+        <v>7480</v>
       </c>
       <c r="C1173" s="1"/>
       <c r="D1173" s="45"/>
       <c r="E1173" s="27"/>
-      <c r="F1173" s="35" t="s">
-        <v>7489</v>
+      <c r="F1173" s="14" t="s">
+        <v>7354</v>
       </c>
       <c r="G1173" s="1" t="s">
-        <v>7490</v>
+        <v>7346</v>
       </c>
       <c r="H1173" s="1" t="s">
-        <v>7490</v>
+        <v>7346</v>
       </c>
       <c r="I1173" s="1" t="s">
-        <v>7490</v>
+        <v>7346</v>
       </c>
       <c r="J1173" s="1" t="s">
-        <v>7490</v>
+        <v>7346</v>
       </c>
       <c r="K1173" s="1" t="s">
-        <v>7490</v>
+        <v>7346</v>
       </c>
       <c r="L1173" s="1" t="s">
-        <v>7490</v>
-      </c>
-    </row>
-    <row r="1174" s="13" customFormat="1" ht="108" spans="1:12">
+        <v>7346</v>
+      </c>
+    </row>
+    <row r="1174" s="13" customFormat="1" ht="27" spans="1:12">
       <c r="A1174" s="1"/>
       <c r="B1174" s="14" t="s">
-        <v>7491</v>
+        <v>7481</v>
       </c>
       <c r="C1174" s="1"/>
       <c r="D1174" s="45"/>
       <c r="E1174" s="27"/>
-      <c r="F1174" s="35" t="s">
-        <v>7492</v>
+      <c r="F1174" s="14" t="s">
+        <v>7482</v>
       </c>
       <c r="G1174" s="1" t="s">
-        <v>7493</v>
+        <v>7483</v>
       </c>
       <c r="H1174" s="1" t="s">
-        <v>7493</v>
+        <v>7483</v>
       </c>
       <c r="I1174" s="1" t="s">
-        <v>7493</v>
+        <v>7483</v>
       </c>
       <c r="J1174" s="1" t="s">
-        <v>7493</v>
+        <v>7483</v>
       </c>
       <c r="K1174" s="1" t="s">
-        <v>7493</v>
+        <v>7483</v>
       </c>
       <c r="L1174" s="1" t="s">
-        <v>7493</v>
-      </c>
-    </row>
-    <row r="1175" s="13" customFormat="1" ht="108" spans="1:12">
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="1175" s="13" customFormat="1" spans="1:12">
       <c r="A1175" s="1"/>
       <c r="B1175" s="14" t="s">
-        <v>7494</v>
+        <v>7484</v>
       </c>
       <c r="C1175" s="1"/>
       <c r="D1175" s="45"/>
       <c r="E1175" s="27"/>
-      <c r="F1175" s="35" t="s">
-        <v>7495</v>
+      <c r="F1175" s="14" t="s">
+        <v>7485</v>
       </c>
       <c r="G1175" s="1" t="s">
-        <v>7496</v>
+        <v>7486</v>
       </c>
       <c r="H1175" s="1" t="s">
-        <v>7496</v>
+        <v>7486</v>
       </c>
       <c r="I1175" s="1" t="s">
-        <v>7496</v>
+        <v>7486</v>
       </c>
       <c r="J1175" s="1" t="s">
-        <v>7496</v>
+        <v>7486</v>
       </c>
       <c r="K1175" s="1" t="s">
-        <v>7496</v>
+        <v>7486</v>
       </c>
       <c r="L1175" s="1" t="s">
-        <v>7496</v>
-      </c>
-    </row>
-    <row r="1176" s="13" customFormat="1" ht="121.5" spans="1:12">
+        <v>7486</v>
+      </c>
+    </row>
+    <row r="1176" s="13" customFormat="1" spans="1:12">
       <c r="A1176" s="1"/>
       <c r="B1176" s="14" t="s">
-        <v>7497</v>
+        <v>7487</v>
       </c>
       <c r="C1176" s="1"/>
       <c r="D1176" s="45"/>
       <c r="E1176" s="27"/>
-      <c r="F1176" s="35" t="s">
-        <v>7498</v>
+      <c r="F1176" s="14" t="s">
+        <v>7488</v>
       </c>
       <c r="G1176" s="1" t="s">
-        <v>7499</v>
+        <v>5169</v>
       </c>
       <c r="H1176" s="1" t="s">
-        <v>7499</v>
+        <v>5169</v>
       </c>
       <c r="I1176" s="1" t="s">
-        <v>7499</v>
+        <v>5169</v>
       </c>
       <c r="J1176" s="1" t="s">
-        <v>7499</v>
+        <v>5169</v>
       </c>
       <c r="K1176" s="1" t="s">
-        <v>7499</v>
+        <v>5169</v>
       </c>
       <c r="L1176" s="1" t="s">
-        <v>7499</v>
-      </c>
-    </row>
-    <row r="1177" s="13" customFormat="1" ht="94.5" spans="1:12">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="1177" s="13" customFormat="1" spans="1:12">
       <c r="A1177" s="1"/>
       <c r="B1177" s="14" t="s">
-        <v>7500</v>
+        <v>7489</v>
       </c>
       <c r="C1177" s="1"/>
       <c r="D1177" s="45"/>
       <c r="E1177" s="27"/>
-      <c r="F1177" s="35" t="s">
-        <v>7501</v>
+      <c r="F1177" s="14" t="s">
+        <v>6889</v>
       </c>
       <c r="G1177" s="1" t="s">
-        <v>7502</v>
+        <v>7490</v>
       </c>
       <c r="H1177" s="1" t="s">
-        <v>7502</v>
+        <v>7490</v>
       </c>
       <c r="I1177" s="1" t="s">
-        <v>7502</v>
+        <v>7490</v>
       </c>
       <c r="J1177" s="1" t="s">
-        <v>7502</v>
+        <v>7490</v>
       </c>
       <c r="K1177" s="1" t="s">
-        <v>7502</v>
+        <v>7490</v>
       </c>
       <c r="L1177" s="1" t="s">
-        <v>7502</v>
-      </c>
-    </row>
-    <row r="1178" s="13" customFormat="1" ht="108" spans="1:12">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="1178" s="13" customFormat="1" spans="1:12">
       <c r="A1178" s="1"/>
       <c r="B1178" s="14" t="s">
-        <v>7503</v>
+        <v>7491</v>
       </c>
       <c r="C1178" s="1"/>
       <c r="D1178" s="45"/>
       <c r="E1178" s="27"/>
-      <c r="F1178" s="35" t="s">
-        <v>7504</v>
+      <c r="F1178" s="14" t="s">
+        <v>7492</v>
       </c>
       <c r="G1178" s="1" t="s">
-        <v>7505</v>
+        <v>6948</v>
       </c>
       <c r="H1178" s="1" t="s">
-        <v>7505</v>
+        <v>6948</v>
       </c>
       <c r="I1178" s="1" t="s">
-        <v>7505</v>
+        <v>6948</v>
       </c>
       <c r="J1178" s="1" t="s">
-        <v>7505</v>
+        <v>6948</v>
       </c>
       <c r="K1178" s="1" t="s">
-        <v>7505</v>
+        <v>6948</v>
       </c>
       <c r="L1178" s="1" t="s">
-        <v>7505</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="1179" s="13" customFormat="1" spans="1:12">
       <c r="A1179" s="1"/>
       <c r="B1179" s="14" t="s">
-        <v>7506</v>
+        <v>7493</v>
       </c>
       <c r="C1179" s="1"/>
       <c r="D1179" s="45"/>
       <c r="E1179" s="27"/>
-      <c r="F1179" s="35" t="s">
-        <v>7507</v>
+      <c r="F1179" s="14" t="s">
+        <v>6951</v>
       </c>
       <c r="G1179" s="1" t="s">
-        <v>7508</v>
+        <v>6953</v>
       </c>
       <c r="H1179" s="1" t="s">
-        <v>7508</v>
+        <v>6953</v>
       </c>
       <c r="I1179" s="1" t="s">
-        <v>7508</v>
+        <v>6953</v>
       </c>
       <c r="J1179" s="1" t="s">
-        <v>7508</v>
+        <v>6953</v>
       </c>
       <c r="K1179" s="1" t="s">
-        <v>7508</v>
+        <v>6953</v>
       </c>
       <c r="L1179" s="1" t="s">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="1180" s="13" customFormat="1" ht="81" spans="1:12">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="1180" s="13" customFormat="1" spans="1:12">
       <c r="A1180" s="1"/>
       <c r="B1180" s="14" t="s">
-        <v>7509</v>
+        <v>7494</v>
       </c>
       <c r="C1180" s="1"/>
       <c r="D1180" s="45"/>
       <c r="E1180" s="27"/>
-      <c r="F1180" s="35" t="s">
-        <v>7510</v>
+      <c r="F1180" s="14" t="s">
+        <v>6935</v>
       </c>
       <c r="G1180" s="1" t="s">
-        <v>7511</v>
+        <v>7495</v>
       </c>
       <c r="H1180" s="1" t="s">
-        <v>7511</v>
+        <v>7495</v>
       </c>
       <c r="I1180" s="1" t="s">
-        <v>7511</v>
+        <v>7495</v>
       </c>
       <c r="J1180" s="1" t="s">
-        <v>7511</v>
+        <v>7495</v>
       </c>
       <c r="K1180" s="1" t="s">
-        <v>7511</v>
+        <v>7495</v>
       </c>
       <c r="L1180" s="1" t="s">
-        <v>7511</v>
-      </c>
-    </row>
-    <row r="1181" s="13" customFormat="1" ht="216" spans="1:12">
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="1181" s="13" customFormat="1" spans="1:12">
       <c r="A1181" s="1"/>
       <c r="B1181" s="14" t="s">
-        <v>7512</v>
+        <v>7496</v>
       </c>
       <c r="C1181" s="1"/>
       <c r="D1181" s="45"/>
       <c r="E1181" s="27"/>
-      <c r="F1181" s="35" t="s">
+      <c r="F1181" s="14" t="s">
+        <v>6956</v>
+      </c>
+      <c r="G1181" s="1" t="s">
+        <v>7497</v>
+      </c>
+      <c r="H1181" s="1" t="s">
+        <v>7497</v>
+      </c>
+      <c r="I1181" s="1" t="s">
+        <v>7497</v>
+      </c>
+      <c r="J1181" s="1" t="s">
+        <v>7497</v>
+      </c>
+      <c r="K1181" s="1" t="s">
+        <v>7497</v>
+      </c>
+      <c r="L1181" s="1" t="s">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="1182" s="13" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A1182" s="1"/>
+      <c r="B1182" s="14" t="s">
+        <v>7498</v>
+      </c>
+      <c r="C1182" s="1" t="s">
+        <v>7499</v>
+      </c>
+      <c r="D1182" s="45"/>
+      <c r="E1182" s="27"/>
+      <c r="F1182" s="14" t="s">
+        <v>7500</v>
+      </c>
+      <c r="G1182" s="1" t="s">
+        <v>7501</v>
+      </c>
+      <c r="H1182" s="1" t="s">
+        <v>7501</v>
+      </c>
+      <c r="I1182" s="1" t="s">
+        <v>7501</v>
+      </c>
+      <c r="J1182" s="1" t="s">
+        <v>7501</v>
+      </c>
+      <c r="K1182" s="1" t="s">
+        <v>7501</v>
+      </c>
+      <c r="L1182" s="1" t="s">
+        <v>7501</v>
+      </c>
+    </row>
+    <row r="1183" s="13" customFormat="1" spans="1:12">
+      <c r="A1183" s="1"/>
+      <c r="B1183" s="14" t="s">
+        <v>7502</v>
+      </c>
+      <c r="C1183" s="1"/>
+      <c r="D1183" s="45"/>
+      <c r="E1183" s="27"/>
+      <c r="F1183" s="14" t="s">
+        <v>7503</v>
+      </c>
+      <c r="G1183" s="39" t="s">
+        <v>7504</v>
+      </c>
+      <c r="H1183" s="39" t="s">
+        <v>7504</v>
+      </c>
+      <c r="I1183" s="39" t="s">
+        <v>7504</v>
+      </c>
+      <c r="J1183" s="39" t="s">
+        <v>7504</v>
+      </c>
+      <c r="K1183" s="39" t="s">
+        <v>7504</v>
+      </c>
+      <c r="L1183" s="39" t="s">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="1184" s="13" customFormat="1" spans="1:12">
+      <c r="A1184" s="1"/>
+      <c r="B1184" s="14" t="s">
+        <v>7505</v>
+      </c>
+      <c r="C1184" s="1"/>
+      <c r="D1184" s="45"/>
+      <c r="E1184" s="27"/>
+      <c r="F1184" s="14" t="s">
+        <v>7506</v>
+      </c>
+      <c r="G1184" s="1" t="s">
+        <v>7507</v>
+      </c>
+      <c r="H1184" s="1" t="s">
+        <v>7507</v>
+      </c>
+      <c r="I1184" s="1" t="s">
+        <v>7507</v>
+      </c>
+      <c r="J1184" s="1" t="s">
+        <v>7507</v>
+      </c>
+      <c r="K1184" s="1" t="s">
+        <v>7507</v>
+      </c>
+      <c r="L1184" s="1" t="s">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="1185" s="13" customFormat="1" spans="1:12">
+      <c r="A1185" s="1"/>
+      <c r="B1185" s="14" t="s">
+        <v>7508</v>
+      </c>
+      <c r="C1185" s="1"/>
+      <c r="D1185" s="45"/>
+      <c r="E1185" s="27"/>
+      <c r="F1185" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="G1185" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="H1185" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="I1185" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="J1185" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="K1185" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="L1185" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1186" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1186" s="1"/>
+      <c r="B1186" s="14" t="s">
+        <v>7509</v>
+      </c>
+      <c r="C1186" s="1"/>
+      <c r="D1186" s="45"/>
+      <c r="E1186" s="27"/>
+      <c r="F1186" s="31" t="s">
+        <v>7464</v>
+      </c>
+      <c r="G1186" s="27" t="s">
+        <v>7465</v>
+      </c>
+      <c r="H1186" s="27" t="s">
+        <v>7465</v>
+      </c>
+      <c r="I1186" s="27" t="s">
+        <v>7465</v>
+      </c>
+      <c r="J1186" s="27" t="s">
+        <v>7465</v>
+      </c>
+      <c r="K1186" s="27" t="s">
+        <v>7465</v>
+      </c>
+      <c r="L1186" s="27" t="s">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="1187" s="13" customFormat="1" spans="1:12">
+      <c r="A1187" s="1"/>
+      <c r="B1187" s="14" t="s">
+        <v>7510</v>
+      </c>
+      <c r="C1187" s="1" t="s">
+        <v>7511</v>
+      </c>
+      <c r="D1187" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1187" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1187" s="31" t="s">
         <v>7513</v>
       </c>
-      <c r="G1181" s="1" t="s">
+      <c r="G1187" s="27" t="s">
         <v>7514</v>
       </c>
-      <c r="H1181" s="1" t="s">
+      <c r="H1187" s="27" t="s">
         <v>7514</v>
       </c>
-      <c r="I1181" s="1" t="s">
+      <c r="I1187" s="27" t="s">
         <v>7514</v>
       </c>
-      <c r="J1181" s="1" t="s">
+      <c r="J1187" s="27" t="s">
         <v>7514</v>
       </c>
-      <c r="K1181" s="1" t="s">
+      <c r="K1187" s="27" t="s">
         <v>7514</v>
       </c>
-      <c r="L1181" s="1" t="s">
+      <c r="L1187" s="27" t="s">
         <v>7514</v>
       </c>
     </row>
-    <row r="1182" s="13" customFormat="1" spans="2:12">
-      <c r="B1182" s="13" t="s">
+    <row r="1188" s="13" customFormat="1" spans="1:12">
+      <c r="A1188" s="1"/>
+      <c r="B1188" s="14" t="s">
         <v>7515</v>
       </c>
-      <c r="E1182" s="1"/>
-      <c r="F1182" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="G1182" s="39" t="s">
-        <v>1665</v>
-      </c>
-      <c r="H1182" s="17" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I1182" s="17" t="s">
-        <v>1667</v>
-      </c>
-      <c r="J1182" s="17" t="s">
-        <v>1668</v>
-      </c>
-      <c r="K1182" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="L1182" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="1183" s="13" customFormat="1" spans="2:12">
-      <c r="B1183" s="13" t="s">
+      <c r="C1188" s="1" t="s">
         <v>7516</v>
       </c>
-      <c r="E1183" s="8"/>
-      <c r="F1183" s="8" t="s">
-        <v>1672</v>
-      </c>
-      <c r="G1183" s="37" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H1183" s="38" t="s">
-        <v>1674</v>
-      </c>
-      <c r="I1183" s="38" t="s">
-        <v>1675</v>
-      </c>
-      <c r="J1183" s="38" t="s">
-        <v>1676</v>
-      </c>
-      <c r="K1183" s="8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="L1183" s="8" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1184" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1184" s="13" t="s">
+      <c r="D1188" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1188" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1188" s="31" t="s">
         <v>7517</v>
       </c>
-      <c r="E1184" s="1"/>
-      <c r="F1184" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="G1184" s="39" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H1184" s="17" t="s">
-        <v>1682</v>
-      </c>
-      <c r="I1184" s="17" t="s">
-        <v>1683</v>
-      </c>
-      <c r="J1184" s="17" t="s">
-        <v>1684</v>
-      </c>
-      <c r="K1184" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="L1184" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="1185" s="13" customFormat="1" spans="2:12">
-      <c r="B1185" s="13" t="s">
+      <c r="G1188" s="27" t="s">
         <v>7518</v>
       </c>
-      <c r="E1185" s="1"/>
-      <c r="F1185" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G1185" s="39" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H1185" s="17" t="s">
-        <v>1690</v>
-      </c>
-      <c r="I1185" s="17" t="s">
-        <v>1691</v>
-      </c>
-      <c r="J1185" s="17" t="s">
-        <v>1689</v>
-      </c>
-      <c r="K1185" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="L1185" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="1186" s="13" customFormat="1" spans="2:12">
-      <c r="B1186" s="13" t="s">
+      <c r="H1188" s="27" t="s">
+        <v>7518</v>
+      </c>
+      <c r="I1188" s="27" t="s">
+        <v>7518</v>
+      </c>
+      <c r="J1188" s="27" t="s">
+        <v>7518</v>
+      </c>
+      <c r="K1188" s="27" t="s">
+        <v>7518</v>
+      </c>
+      <c r="L1188" s="27" t="s">
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="1189" s="13" customFormat="1" spans="1:12">
+      <c r="A1189" s="1"/>
+      <c r="B1189" s="14" t="s">
         <v>7519</v>
       </c>
-      <c r="E1186" s="1"/>
-      <c r="F1186" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="G1186" s="39" t="s">
-        <v>1696</v>
-      </c>
-      <c r="H1186" s="17" t="s">
-        <v>1696</v>
-      </c>
-      <c r="I1186" s="17" t="s">
-        <v>1696</v>
-      </c>
-      <c r="J1186" s="17" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K1186" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="L1186" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="1187" s="13" customFormat="1" spans="2:12">
-      <c r="B1187" s="13" t="s">
+      <c r="C1189" s="1" t="s">
         <v>7520</v>
       </c>
-      <c r="E1187" s="1"/>
-      <c r="F1187" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G1187" s="39" t="s">
-        <v>1701</v>
-      </c>
-      <c r="H1187" s="17" t="s">
-        <v>1702</v>
-      </c>
-      <c r="I1187" s="17" t="s">
-        <v>1703</v>
-      </c>
-      <c r="J1187" s="17" t="s">
-        <v>1704</v>
-      </c>
-      <c r="K1187" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="L1187" s="1" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="1188" s="13" customFormat="1" spans="2:12">
-      <c r="B1188" s="13" t="s">
+      <c r="D1189" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1189" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1189" s="31" t="s">
         <v>7521</v>
       </c>
-      <c r="E1188" s="1"/>
-      <c r="F1188" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="G1188" s="39" t="s">
-        <v>1709</v>
-      </c>
-      <c r="H1188" s="17" t="s">
-        <v>1710</v>
-      </c>
-      <c r="I1188" s="17" t="s">
-        <v>1711</v>
-      </c>
-      <c r="J1188" s="17" t="s">
-        <v>1712</v>
-      </c>
-      <c r="K1188" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="L1188" s="1" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="1189" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1189" s="13" t="s">
+      <c r="G1189" s="27" t="s">
         <v>7522</v>
       </c>
-      <c r="E1189" s="1"/>
-      <c r="F1189" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="G1189" s="39" t="s">
-        <v>1715</v>
-      </c>
-      <c r="H1189" s="17" t="s">
-        <v>1716</v>
-      </c>
-      <c r="I1189" s="17" t="s">
-        <v>1717</v>
-      </c>
-      <c r="J1189" s="17" t="s">
-        <v>1718</v>
-      </c>
-      <c r="K1189" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="L1189" s="1" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="1190" s="13" customFormat="1" spans="2:12">
-      <c r="B1190" s="13" t="s">
+      <c r="H1189" s="27" t="s">
+        <v>7522</v>
+      </c>
+      <c r="I1189" s="27" t="s">
+        <v>7522</v>
+      </c>
+      <c r="J1189" s="27" t="s">
+        <v>7522</v>
+      </c>
+      <c r="K1189" s="27" t="s">
+        <v>7522</v>
+      </c>
+      <c r="L1189" s="27" t="s">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="1190" s="13" customFormat="1" spans="1:12">
+      <c r="A1190" s="1"/>
+      <c r="B1190" s="14" t="s">
         <v>7523</v>
       </c>
-      <c r="E1190" s="1"/>
-      <c r="F1190" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="G1190" s="39" t="s">
-        <v>1723</v>
-      </c>
-      <c r="H1190" s="17" t="s">
-        <v>1724</v>
-      </c>
-      <c r="I1190" s="17" t="s">
-        <v>1725</v>
-      </c>
-      <c r="J1190" s="17" t="s">
-        <v>1723</v>
-      </c>
-      <c r="K1190" s="1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="L1190" s="1" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1191" s="13" customFormat="1" spans="2:12">
-      <c r="B1191" s="13" t="s">
+      <c r="C1190" s="1" t="s">
         <v>7524</v>
       </c>
-      <c r="E1191" s="1"/>
-      <c r="F1191" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="G1191" s="39" t="s">
-        <v>1730</v>
-      </c>
-      <c r="H1191" s="17" t="s">
-        <v>1731</v>
-      </c>
-      <c r="I1191" s="17" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J1191" s="17" t="s">
-        <v>1733</v>
-      </c>
-      <c r="K1191" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="L1191" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1192" s="13" customFormat="1" spans="2:12">
-      <c r="B1192" s="13" t="s">
+      <c r="D1190" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1190" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1190" s="31" t="s">
         <v>7525</v>
       </c>
-      <c r="E1192" s="1"/>
-      <c r="F1192" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="G1192" s="39" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H1192" s="17" t="s">
-        <v>1739</v>
-      </c>
-      <c r="I1192" s="17" t="s">
-        <v>1740</v>
-      </c>
-      <c r="J1192" s="17" t="s">
-        <v>1741</v>
-      </c>
-      <c r="K1192" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="L1192" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="1193" s="13" customFormat="1" spans="2:12">
-      <c r="B1193" s="13" t="s">
+      <c r="G1190" s="27" t="s">
         <v>7526</v>
       </c>
-      <c r="E1193" s="1"/>
-      <c r="F1193" s="1" t="s">
-        <v>1745</v>
-      </c>
-      <c r="G1193" s="39" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H1193" s="17" t="s">
-        <v>1746</v>
-      </c>
-      <c r="I1193" s="17" t="s">
-        <v>1746</v>
-      </c>
-      <c r="J1193" s="17" t="s">
-        <v>1747</v>
-      </c>
-      <c r="K1193" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="L1193" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="1194" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1194" s="13" t="s">
+      <c r="H1190" s="27" t="s">
+        <v>7526</v>
+      </c>
+      <c r="I1190" s="27" t="s">
+        <v>7526</v>
+      </c>
+      <c r="J1190" s="27" t="s">
+        <v>7526</v>
+      </c>
+      <c r="K1190" s="27" t="s">
+        <v>7526</v>
+      </c>
+      <c r="L1190" s="27" t="s">
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="1191" s="13" customFormat="1" spans="1:12">
+      <c r="A1191" s="1"/>
+      <c r="B1191" s="14" t="s">
         <v>7527</v>
       </c>
-      <c r="E1194" s="1"/>
-      <c r="F1194" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G1194" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="H1194" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I1194" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="J1194" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="K1194" s="39" t="s">
-        <v>1752</v>
-      </c>
-      <c r="L1194" s="39" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="1195" s="13" customFormat="1" spans="2:12">
-      <c r="B1195" s="13" t="s">
+      <c r="C1191" s="1" t="s">
         <v>7528</v>
       </c>
-      <c r="E1195" s="1"/>
-      <c r="F1195" s="1" t="s">
-        <v>1754</v>
-      </c>
-      <c r="G1195" s="39" t="s">
-        <v>1755</v>
-      </c>
-      <c r="H1195" s="17" t="s">
-        <v>1756</v>
-      </c>
-      <c r="I1195" s="17" t="s">
-        <v>1757</v>
-      </c>
-      <c r="J1195" s="17" t="s">
-        <v>1758</v>
-      </c>
-      <c r="K1195" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="L1195" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="1196" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1196" s="13" t="s">
+      <c r="D1191" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1191" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1191" s="31" t="s">
+        <v>7441</v>
+      </c>
+      <c r="G1191" s="27" t="s">
+        <v>7442</v>
+      </c>
+      <c r="H1191" s="27" t="s">
+        <v>7442</v>
+      </c>
+      <c r="I1191" s="27" t="s">
+        <v>7442</v>
+      </c>
+      <c r="J1191" s="27" t="s">
+        <v>7442</v>
+      </c>
+      <c r="K1191" s="27" t="s">
+        <v>7442</v>
+      </c>
+      <c r="L1191" s="27" t="s">
+        <v>7442</v>
+      </c>
+    </row>
+    <row r="1192" s="13" customFormat="1" spans="1:12">
+      <c r="A1192" s="1"/>
+      <c r="B1192" s="14" t="s">
         <v>7529</v>
       </c>
-      <c r="E1196" s="1"/>
-      <c r="F1196" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="G1196" s="39" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H1196" s="17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="I1196" s="17" t="s">
-        <v>1765</v>
-      </c>
-      <c r="J1196" s="17" t="s">
-        <v>1766</v>
-      </c>
-      <c r="K1196" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="L1196" s="1" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="1197" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1197" s="13" t="s">
+      <c r="C1192" s="1" t="s">
         <v>7530</v>
       </c>
-      <c r="E1197" s="1"/>
-      <c r="F1197" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="G1197" s="39" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H1197" s="17" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I1197" s="17" t="s">
-        <v>1773</v>
-      </c>
-      <c r="J1197" s="17" t="s">
-        <v>1774</v>
-      </c>
-      <c r="K1197" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="L1197" s="1" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="1198" s="13" customFormat="1" spans="2:12">
-      <c r="B1198" s="13" t="s">
+      <c r="D1192" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1192" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1192" s="31" t="s">
         <v>7531</v>
       </c>
-      <c r="E1198" s="1"/>
-      <c r="F1198" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="G1198" s="39" t="s">
-        <v>1779</v>
-      </c>
-      <c r="H1198" s="17" t="s">
-        <v>1780</v>
-      </c>
-      <c r="I1198" s="17" t="s">
-        <v>1781</v>
-      </c>
-      <c r="J1198" s="17" t="s">
-        <v>1782</v>
-      </c>
-      <c r="K1198" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="L1198" s="1" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1199" s="13" customFormat="1" ht="15.75" spans="2:12">
-      <c r="B1199" s="13" t="s">
+      <c r="G1192" s="27" t="s">
         <v>7532</v>
       </c>
-      <c r="E1199" s="1"/>
-      <c r="F1199" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="G1199" s="39" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H1199" s="17" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I1199" s="17" t="s">
-        <v>1788</v>
-      </c>
-      <c r="J1199" s="42" t="s">
-        <v>1789</v>
-      </c>
-      <c r="K1199" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="L1199" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1200" s="13" customFormat="1" spans="2:12">
-      <c r="B1200" s="13" t="s">
+      <c r="H1192" s="27" t="s">
+        <v>7532</v>
+      </c>
+      <c r="I1192" s="27" t="s">
+        <v>7532</v>
+      </c>
+      <c r="J1192" s="27" t="s">
+        <v>7532</v>
+      </c>
+      <c r="K1192" s="27" t="s">
+        <v>7532</v>
+      </c>
+      <c r="L1192" s="27" t="s">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="1193" s="13" customFormat="1" spans="1:12">
+      <c r="A1193" s="1"/>
+      <c r="B1193" s="14" t="s">
         <v>7533</v>
       </c>
-      <c r="E1200" s="1"/>
-      <c r="F1200" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G1200" s="39" t="s">
-        <v>1794</v>
-      </c>
-      <c r="H1200" s="17" t="s">
-        <v>1795</v>
-      </c>
-      <c r="I1200" s="17" t="s">
-        <v>1795</v>
-      </c>
-      <c r="J1200" s="17" t="s">
-        <v>1796</v>
-      </c>
-      <c r="K1200" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L1200" s="1" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="1201" s="13" customFormat="1" spans="2:12">
-      <c r="B1201" s="13" t="s">
+      <c r="C1193" s="1" t="s">
         <v>7534</v>
       </c>
-      <c r="E1201" s="1"/>
-      <c r="F1201" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="G1201" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="H1201" s="17" t="s">
-        <v>1801</v>
-      </c>
-      <c r="I1201" s="17" t="s">
-        <v>1802</v>
-      </c>
-      <c r="J1201" s="17" t="s">
-        <v>1801</v>
-      </c>
-      <c r="K1201" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="L1201" s="1" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1202" s="13" customFormat="1" spans="2:12">
-      <c r="B1202" s="13" t="s">
+      <c r="D1193" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1193" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1193" s="31" t="s">
         <v>7535</v>
       </c>
-      <c r="E1202" s="1"/>
-      <c r="F1202" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G1202" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="H1202" s="17" t="s">
-        <v>1847</v>
-      </c>
-      <c r="I1202" s="17" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J1202" s="17" t="s">
-        <v>1849</v>
-      </c>
-      <c r="K1202" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="L1202" s="1" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1203" s="13" customFormat="1" spans="2:12">
-      <c r="B1203" s="13" t="s">
+      <c r="G1193" s="27" t="s">
         <v>7536</v>
       </c>
-      <c r="E1203" s="14"/>
-      <c r="F1203" s="14" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G1203" s="14" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H1203" s="14" t="s">
-        <v>1913</v>
-      </c>
-      <c r="I1203" s="14" t="s">
-        <v>1914</v>
-      </c>
-      <c r="J1203" s="14" t="s">
-        <v>1915</v>
-      </c>
-      <c r="K1203" s="14" t="s">
-        <v>1916</v>
-      </c>
-      <c r="L1203" s="14" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1204" s="13" customFormat="1" ht="27" spans="2:12">
-      <c r="B1204" s="13" t="s">
+      <c r="H1193" s="27" t="s">
+        <v>7536</v>
+      </c>
+      <c r="I1193" s="27" t="s">
+        <v>7536</v>
+      </c>
+      <c r="J1193" s="27" t="s">
+        <v>7536</v>
+      </c>
+      <c r="K1193" s="27" t="s">
+        <v>7536</v>
+      </c>
+      <c r="L1193" s="27" t="s">
+        <v>7536</v>
+      </c>
+    </row>
+    <row r="1194" s="13" customFormat="1" spans="1:12">
+      <c r="A1194" s="1"/>
+      <c r="B1194" s="14" t="s">
         <v>7537</v>
       </c>
-      <c r="E1204" s="14"/>
-      <c r="F1204" s="14" t="s">
-        <v>1918</v>
-      </c>
-      <c r="G1204" s="14" t="s">
-        <v>1919</v>
-      </c>
-      <c r="H1204" s="14" t="s">
-        <v>1920</v>
-      </c>
-      <c r="I1204" s="14" t="s">
-        <v>1921</v>
-      </c>
-      <c r="J1204" s="14" t="s">
-        <v>1922</v>
-      </c>
-      <c r="K1204" s="14" t="s">
-        <v>1923</v>
-      </c>
-      <c r="L1204" s="14" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1205" s="13" customFormat="1" spans="2:12">
-      <c r="B1205" s="13" t="s">
+      <c r="C1194" s="1" t="s">
+        <v>7407</v>
+      </c>
+      <c r="D1194" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1194" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1194" s="31" t="s">
         <v>7538</v>
       </c>
-      <c r="E1205" s="14"/>
-      <c r="F1205" s="14" t="s">
-        <v>1926</v>
-      </c>
-      <c r="G1205" s="14" t="s">
-        <v>1927</v>
-      </c>
-      <c r="H1205" s="14" t="s">
-        <v>1928</v>
-      </c>
-      <c r="I1205" s="14" t="s">
-        <v>1929</v>
-      </c>
-      <c r="J1205" s="14" t="s">
-        <v>1930</v>
-      </c>
-      <c r="K1205" s="14" t="s">
-        <v>1931</v>
-      </c>
-      <c r="L1205" s="14" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="1206" s="13" customFormat="1" spans="2:12">
-      <c r="B1206" s="13" t="s">
+      <c r="G1194" s="27" t="s">
         <v>7539</v>
       </c>
-      <c r="E1206" s="14"/>
-      <c r="F1206" s="14" t="s">
-        <v>1934</v>
-      </c>
-      <c r="G1206" s="14" t="s">
-        <v>1935</v>
-      </c>
-      <c r="H1206" s="14" t="s">
-        <v>1936</v>
-      </c>
-      <c r="I1206" s="14" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J1206" s="14" t="s">
-        <v>1938</v>
-      </c>
-      <c r="K1206" s="14" t="s">
-        <v>1939</v>
-      </c>
-      <c r="L1206" s="14" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="1207" s="13" customFormat="1" spans="2:12">
-      <c r="B1207" s="13" t="s">
+      <c r="H1194" s="27" t="s">
+        <v>7539</v>
+      </c>
+      <c r="I1194" s="27" t="s">
+        <v>7539</v>
+      </c>
+      <c r="J1194" s="27" t="s">
+        <v>7539</v>
+      </c>
+      <c r="K1194" s="27" t="s">
+        <v>7539</v>
+      </c>
+      <c r="L1194" s="27" t="s">
+        <v>7539</v>
+      </c>
+    </row>
+    <row r="1195" s="13" customFormat="1" spans="1:12">
+      <c r="A1195" s="1"/>
+      <c r="B1195" s="14" t="s">
         <v>7540</v>
       </c>
-      <c r="E1207" s="41"/>
-      <c r="F1207" s="41" t="s">
-        <v>1942</v>
-      </c>
-      <c r="G1207" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="H1207" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="I1207" s="14" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J1207" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="K1207" s="14" t="s">
-        <v>1943</v>
-      </c>
-      <c r="L1207" s="14" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="1208" s="13" customFormat="1" spans="2:12">
-      <c r="B1208" s="13" t="s">
+      <c r="C1195" s="1" t="s">
         <v>7541</v>
       </c>
-      <c r="E1208" s="41"/>
-      <c r="F1208" s="41" t="s">
-        <v>1946</v>
-      </c>
-      <c r="G1208" s="14" t="s">
-        <v>1947</v>
-      </c>
-      <c r="H1208" s="14" t="s">
-        <v>1948</v>
-      </c>
-      <c r="I1208" s="14" t="s">
-        <v>1947</v>
-      </c>
-      <c r="J1208" s="14" t="s">
-        <v>1947</v>
-      </c>
-      <c r="K1208" s="14" t="s">
-        <v>1949</v>
-      </c>
-      <c r="L1208" s="14" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="1209" s="13" customFormat="1" spans="2:12">
-      <c r="B1209" s="13" t="s">
+      <c r="D1195" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1195" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1195" s="31" t="s">
         <v>7542</v>
       </c>
-      <c r="E1209" s="41"/>
-      <c r="F1209" s="41" t="s">
-        <v>1961</v>
-      </c>
-      <c r="G1209" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="H1209" s="14" t="s">
-        <v>1963</v>
-      </c>
-      <c r="I1209" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="J1209" s="14" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K1209" s="14" t="s">
-        <v>1964</v>
-      </c>
-      <c r="L1209" s="14" t="s">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="1210" s="13" customFormat="1" spans="2:12">
-      <c r="B1210" s="13" t="s">
+      <c r="G1195" s="27" t="s">
         <v>7543</v>
       </c>
-      <c r="E1210" s="41"/>
-      <c r="F1210" s="41" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G1210" s="14" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H1210" s="14" t="s">
-        <v>1871</v>
-      </c>
-      <c r="I1210" s="14" t="s">
-        <v>1872</v>
-      </c>
-      <c r="J1210" s="14" t="s">
-        <v>1873</v>
-      </c>
-      <c r="K1210" s="14" t="s">
-        <v>1874</v>
-      </c>
-      <c r="L1210" s="14" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1211" s="13" customFormat="1" spans="2:12">
-      <c r="B1211" s="13" t="s">
+      <c r="H1195" s="27" t="s">
+        <v>7543</v>
+      </c>
+      <c r="I1195" s="27" t="s">
+        <v>7543</v>
+      </c>
+      <c r="J1195" s="27" t="s">
+        <v>7543</v>
+      </c>
+      <c r="K1195" s="27" t="s">
+        <v>7543</v>
+      </c>
+      <c r="L1195" s="27" t="s">
+        <v>7543</v>
+      </c>
+    </row>
+    <row r="1196" s="13" customFormat="1" spans="1:12">
+      <c r="A1196" s="1"/>
+      <c r="B1196" s="14" t="s">
         <v>7544</v>
       </c>
-      <c r="E1211" s="41"/>
-      <c r="F1211" s="41" t="s">
+      <c r="C1196" s="1" t="s">
+        <v>7335</v>
+      </c>
+      <c r="D1196" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1196" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1196" s="31" t="s">
         <v>7545</v>
       </c>
-      <c r="G1211" s="14" t="s">
+      <c r="G1196" s="27" t="s">
         <v>7546</v>
       </c>
-      <c r="H1211" s="14" t="s">
+      <c r="H1196" s="27" t="s">
         <v>7546</v>
       </c>
-      <c r="I1211" s="14" t="s">
+      <c r="I1196" s="27" t="s">
         <v>7546</v>
       </c>
-      <c r="J1211" s="14" t="s">
+      <c r="J1196" s="27" t="s">
         <v>7546</v>
       </c>
-      <c r="K1211" s="14" t="s">
+      <c r="K1196" s="27" t="s">
+        <v>7546</v>
+      </c>
+      <c r="L1196" s="27" t="s">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="1197" s="13" customFormat="1" spans="1:12">
+      <c r="A1197" s="1"/>
+      <c r="B1197" s="14" t="s">
         <v>7547</v>
       </c>
-      <c r="L1211" s="14" t="s">
-        <v>7547</v>
-      </c>
-    </row>
-    <row r="1212" s="13" customFormat="1" spans="2:12">
-      <c r="B1212" s="13" t="s">
+      <c r="C1197" s="1" t="s">
         <v>7548</v>
       </c>
-      <c r="E1212" s="41"/>
-      <c r="F1212" s="41" t="s">
+      <c r="D1197" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1197" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1197" s="31" t="s">
         <v>7549</v>
       </c>
-      <c r="G1212" s="14" t="s">
+      <c r="G1197" s="27" t="s">
         <v>7550</v>
       </c>
-      <c r="H1212" s="14" t="s">
+      <c r="H1197" s="27" t="s">
         <v>7550</v>
       </c>
-      <c r="I1212" s="14" t="s">
+      <c r="I1197" s="27" t="s">
         <v>7550</v>
       </c>
-      <c r="J1212" s="14" t="s">
+      <c r="J1197" s="27" t="s">
         <v>7550</v>
       </c>
-      <c r="K1212" s="14" t="s">
+      <c r="K1197" s="27" t="s">
         <v>7550</v>
       </c>
-      <c r="L1212" s="14" t="s">
+      <c r="L1197" s="27" t="s">
         <v>7550</v>
       </c>
     </row>
-    <row r="1213" s="13" customFormat="1" spans="2:12">
-      <c r="B1213" s="13" t="s">
+    <row r="1198" s="13" customFormat="1" spans="1:12">
+      <c r="A1198" s="1"/>
+      <c r="B1198" s="14" t="s">
         <v>7551</v>
       </c>
-      <c r="E1213" s="41"/>
-      <c r="F1213" s="41" t="s">
+      <c r="C1198" s="1" t="s">
         <v>7552</v>
       </c>
-      <c r="G1213" s="14" t="s">
+      <c r="D1198" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1198" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1198" s="31" t="s">
         <v>7553</v>
       </c>
-      <c r="H1213" s="14" t="s">
-        <v>7553</v>
-      </c>
-      <c r="I1213" s="14" t="s">
-        <v>7553</v>
-      </c>
-      <c r="J1213" s="14" t="s">
-        <v>7553</v>
-      </c>
-      <c r="K1213" s="14" t="s">
-        <v>7553</v>
-      </c>
-      <c r="L1213" s="14" t="s">
-        <v>7553</v>
-      </c>
-    </row>
-    <row r="1214" s="7" customFormat="1" ht="162" spans="2:12">
-      <c r="B1214" s="7" t="s">
+      <c r="G1198" s="27" t="s">
         <v>7554</v>
       </c>
-      <c r="C1214" s="7" t="s">
+      <c r="H1198" s="27" t="s">
+        <v>7554</v>
+      </c>
+      <c r="I1198" s="27" t="s">
+        <v>7554</v>
+      </c>
+      <c r="J1198" s="27" t="s">
+        <v>7554</v>
+      </c>
+      <c r="K1198" s="27" t="s">
+        <v>7554</v>
+      </c>
+      <c r="L1198" s="27" t="s">
+        <v>7554</v>
+      </c>
+    </row>
+    <row r="1199" s="13" customFormat="1" spans="1:12">
+      <c r="A1199" s="1"/>
+      <c r="B1199" s="14" t="s">
         <v>7555</v>
       </c>
-      <c r="F1214" s="7" t="s">
+      <c r="C1199" s="1" t="s">
         <v>7556</v>
       </c>
-      <c r="G1214" s="7" t="s">
+      <c r="D1199" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1199" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1199" s="31" t="s">
         <v>7557</v>
       </c>
-      <c r="H1214" s="7" t="s">
+      <c r="G1199" s="27" t="s">
         <v>7558</v>
       </c>
-      <c r="I1214" s="7" t="s">
+      <c r="H1199" s="27" t="s">
+        <v>7558</v>
+      </c>
+      <c r="I1199" s="27" t="s">
+        <v>7558</v>
+      </c>
+      <c r="J1199" s="27" t="s">
+        <v>7558</v>
+      </c>
+      <c r="K1199" s="27" t="s">
+        <v>7558</v>
+      </c>
+      <c r="L1199" s="27" t="s">
+        <v>7558</v>
+      </c>
+    </row>
+    <row r="1200" s="13" customFormat="1" spans="1:12">
+      <c r="A1200" s="1"/>
+      <c r="B1200" s="14" t="s">
         <v>7559</v>
       </c>
-      <c r="J1214" s="7" t="s">
+      <c r="C1200" s="1" t="s">
         <v>7560</v>
       </c>
-      <c r="K1214" s="7" t="s">
+      <c r="D1200" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1200" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1200" s="31" t="s">
         <v>7561</v>
       </c>
-      <c r="L1214" s="7" t="s">
+      <c r="G1200" s="27" t="s">
         <v>7562</v>
       </c>
-    </row>
-    <row r="1215" ht="297" spans="2:12">
+      <c r="H1200" s="27" t="s">
+        <v>7562</v>
+      </c>
+      <c r="I1200" s="27" t="s">
+        <v>7562</v>
+      </c>
+      <c r="J1200" s="27" t="s">
+        <v>7562</v>
+      </c>
+      <c r="K1200" s="27" t="s">
+        <v>7562</v>
+      </c>
+      <c r="L1200" s="27" t="s">
+        <v>7562</v>
+      </c>
+    </row>
+    <row r="1201" s="13" customFormat="1" spans="1:12">
+      <c r="A1201" s="1"/>
+      <c r="B1201" s="14" t="s">
+        <v>7563</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>7564</v>
+      </c>
+      <c r="D1201" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1201" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1201" s="31" t="s">
+        <v>7565</v>
+      </c>
+      <c r="G1201" s="27" t="s">
+        <v>7566</v>
+      </c>
+      <c r="H1201" s="27" t="s">
+        <v>7566</v>
+      </c>
+      <c r="I1201" s="27" t="s">
+        <v>7566</v>
+      </c>
+      <c r="J1201" s="27" t="s">
+        <v>7566</v>
+      </c>
+      <c r="K1201" s="27" t="s">
+        <v>7566</v>
+      </c>
+      <c r="L1201" s="27" t="s">
+        <v>7566</v>
+      </c>
+    </row>
+    <row r="1202" s="13" customFormat="1" spans="1:12">
+      <c r="A1202" s="1"/>
+      <c r="B1202" s="14" t="s">
+        <v>7567</v>
+      </c>
+      <c r="C1202" s="1" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D1202" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1202" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1202" s="31" t="s">
+        <v>7569</v>
+      </c>
+      <c r="G1202" s="27" t="s">
+        <v>7570</v>
+      </c>
+      <c r="H1202" s="27" t="s">
+        <v>7570</v>
+      </c>
+      <c r="I1202" s="27" t="s">
+        <v>7570</v>
+      </c>
+      <c r="J1202" s="27" t="s">
+        <v>7570</v>
+      </c>
+      <c r="K1202" s="27" t="s">
+        <v>7570</v>
+      </c>
+      <c r="L1202" s="27" t="s">
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="1203" s="13" customFormat="1" spans="1:12">
+      <c r="A1203" s="1"/>
+      <c r="B1203" s="14" t="s">
+        <v>7571</v>
+      </c>
+      <c r="C1203" s="1" t="s">
+        <v>7572</v>
+      </c>
+      <c r="D1203" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1203" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1203" s="31" t="s">
+        <v>7573</v>
+      </c>
+      <c r="G1203" s="27" t="s">
+        <v>7574</v>
+      </c>
+      <c r="H1203" s="27" t="s">
+        <v>7574</v>
+      </c>
+      <c r="I1203" s="27" t="s">
+        <v>7574</v>
+      </c>
+      <c r="J1203" s="27" t="s">
+        <v>7574</v>
+      </c>
+      <c r="K1203" s="27" t="s">
+        <v>7574</v>
+      </c>
+      <c r="L1203" s="27" t="s">
+        <v>7574</v>
+      </c>
+    </row>
+    <row r="1204" s="13" customFormat="1" spans="1:12">
+      <c r="A1204" s="1"/>
+      <c r="B1204" s="14" t="s">
+        <v>7575</v>
+      </c>
+      <c r="C1204" s="1" t="s">
+        <v>7576</v>
+      </c>
+      <c r="D1204" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1204" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1204" s="31" t="s">
+        <v>7577</v>
+      </c>
+      <c r="G1204" s="27" t="s">
+        <v>7578</v>
+      </c>
+      <c r="H1204" s="27" t="s">
+        <v>7578</v>
+      </c>
+      <c r="I1204" s="27" t="s">
+        <v>7578</v>
+      </c>
+      <c r="J1204" s="27" t="s">
+        <v>7578</v>
+      </c>
+      <c r="K1204" s="27" t="s">
+        <v>7578</v>
+      </c>
+      <c r="L1204" s="27" t="s">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="1205" s="13" customFormat="1" spans="1:12">
+      <c r="A1205" s="1"/>
+      <c r="B1205" s="14" t="s">
+        <v>7579</v>
+      </c>
+      <c r="C1205" s="1" t="s">
+        <v>7580</v>
+      </c>
+      <c r="D1205" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1205" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1205" s="31" t="s">
+        <v>7581</v>
+      </c>
+      <c r="G1205" s="27" t="s">
+        <v>7582</v>
+      </c>
+      <c r="H1205" s="27" t="s">
+        <v>7582</v>
+      </c>
+      <c r="I1205" s="27" t="s">
+        <v>7582</v>
+      </c>
+      <c r="J1205" s="27" t="s">
+        <v>7582</v>
+      </c>
+      <c r="K1205" s="27" t="s">
+        <v>7582</v>
+      </c>
+      <c r="L1205" s="27" t="s">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="1206" s="13" customFormat="1" spans="1:12">
+      <c r="A1206" s="1"/>
+      <c r="B1206" s="14" t="s">
+        <v>7583</v>
+      </c>
+      <c r="C1206" s="1" t="s">
+        <v>7584</v>
+      </c>
+      <c r="D1206" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1206" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1206" s="31" t="s">
+        <v>7585</v>
+      </c>
+      <c r="G1206" s="27" t="s">
+        <v>7586</v>
+      </c>
+      <c r="H1206" s="27" t="s">
+        <v>7586</v>
+      </c>
+      <c r="I1206" s="27" t="s">
+        <v>7586</v>
+      </c>
+      <c r="J1206" s="27" t="s">
+        <v>7586</v>
+      </c>
+      <c r="K1206" s="27" t="s">
+        <v>7586</v>
+      </c>
+      <c r="L1206" s="27" t="s">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="1207" s="13" customFormat="1" spans="1:12">
+      <c r="A1207" s="1"/>
+      <c r="B1207" s="14" t="s">
+        <v>7587</v>
+      </c>
+      <c r="C1207" s="1" t="s">
+        <v>7588</v>
+      </c>
+      <c r="D1207" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1207" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1207" s="31" t="s">
+        <v>7589</v>
+      </c>
+      <c r="G1207" s="27" t="s">
+        <v>7590</v>
+      </c>
+      <c r="H1207" s="27" t="s">
+        <v>7590</v>
+      </c>
+      <c r="I1207" s="27" t="s">
+        <v>7590</v>
+      </c>
+      <c r="J1207" s="27" t="s">
+        <v>7590</v>
+      </c>
+      <c r="K1207" s="27" t="s">
+        <v>7590</v>
+      </c>
+      <c r="L1207" s="27" t="s">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="1208" s="13" customFormat="1" spans="1:12">
+      <c r="A1208" s="1"/>
+      <c r="B1208" s="14" t="s">
+        <v>7591</v>
+      </c>
+      <c r="C1208" s="1" t="s">
+        <v>7592</v>
+      </c>
+      <c r="D1208" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1208" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1208" s="31" t="s">
+        <v>7593</v>
+      </c>
+      <c r="G1208" s="27" t="s">
+        <v>7594</v>
+      </c>
+      <c r="H1208" s="27" t="s">
+        <v>7594</v>
+      </c>
+      <c r="I1208" s="27" t="s">
+        <v>7594</v>
+      </c>
+      <c r="J1208" s="27" t="s">
+        <v>7594</v>
+      </c>
+      <c r="K1208" s="27" t="s">
+        <v>7594</v>
+      </c>
+      <c r="L1208" s="27" t="s">
+        <v>7594</v>
+      </c>
+    </row>
+    <row r="1209" s="13" customFormat="1" spans="1:12">
+      <c r="A1209" s="1"/>
+      <c r="B1209" s="14" t="s">
+        <v>7595</v>
+      </c>
+      <c r="C1209" s="1" t="s">
+        <v>7596</v>
+      </c>
+      <c r="D1209" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1209" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1209" s="31" t="s">
+        <v>7597</v>
+      </c>
+      <c r="G1209" s="27" t="s">
+        <v>7598</v>
+      </c>
+      <c r="H1209" s="27" t="s">
+        <v>7598</v>
+      </c>
+      <c r="I1209" s="27" t="s">
+        <v>7598</v>
+      </c>
+      <c r="J1209" s="27" t="s">
+        <v>7598</v>
+      </c>
+      <c r="K1209" s="27" t="s">
+        <v>7598</v>
+      </c>
+      <c r="L1209" s="27" t="s">
+        <v>7598</v>
+      </c>
+    </row>
+    <row r="1210" s="13" customFormat="1" spans="1:12">
+      <c r="A1210" s="1"/>
+      <c r="B1210" s="14" t="s">
+        <v>7599</v>
+      </c>
+      <c r="C1210" s="1" t="s">
+        <v>7600</v>
+      </c>
+      <c r="D1210" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1210" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1210" s="31" t="s">
+        <v>7601</v>
+      </c>
+      <c r="G1210" s="27" t="s">
+        <v>7602</v>
+      </c>
+      <c r="H1210" s="27" t="s">
+        <v>7602</v>
+      </c>
+      <c r="I1210" s="27" t="s">
+        <v>7602</v>
+      </c>
+      <c r="J1210" s="27" t="s">
+        <v>7602</v>
+      </c>
+      <c r="K1210" s="27" t="s">
+        <v>7602</v>
+      </c>
+      <c r="L1210" s="27" t="s">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="1211" s="13" customFormat="1" spans="1:12">
+      <c r="A1211" s="1"/>
+      <c r="B1211" s="14" t="s">
+        <v>7603</v>
+      </c>
+      <c r="C1211" s="1" t="s">
+        <v>7604</v>
+      </c>
+      <c r="D1211" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1211" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1211" s="31" t="s">
+        <v>7605</v>
+      </c>
+      <c r="G1211" s="27" t="s">
+        <v>7606</v>
+      </c>
+      <c r="H1211" s="27" t="s">
+        <v>7606</v>
+      </c>
+      <c r="I1211" s="27" t="s">
+        <v>7606</v>
+      </c>
+      <c r="J1211" s="27" t="s">
+        <v>7606</v>
+      </c>
+      <c r="K1211" s="27" t="s">
+        <v>7606</v>
+      </c>
+      <c r="L1211" s="27" t="s">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="1212" s="13" customFormat="1" spans="1:12">
+      <c r="A1212" s="1"/>
+      <c r="B1212" s="14" t="s">
+        <v>7607</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>7293</v>
+      </c>
+      <c r="D1212" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1212" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1212" s="31" t="s">
+        <v>7608</v>
+      </c>
+      <c r="G1212" s="27" t="s">
+        <v>7609</v>
+      </c>
+      <c r="H1212" s="27" t="s">
+        <v>7609</v>
+      </c>
+      <c r="I1212" s="27" t="s">
+        <v>7609</v>
+      </c>
+      <c r="J1212" s="27" t="s">
+        <v>7609</v>
+      </c>
+      <c r="K1212" s="27" t="s">
+        <v>7609</v>
+      </c>
+      <c r="L1212" s="27" t="s">
+        <v>7609</v>
+      </c>
+    </row>
+    <row r="1213" s="13" customFormat="1" spans="1:12">
+      <c r="A1213" s="1"/>
+      <c r="B1213" s="14" t="s">
+        <v>7610</v>
+      </c>
+      <c r="C1213" s="1" t="s">
+        <v>7611</v>
+      </c>
+      <c r="D1213" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1213" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1213" s="31" t="s">
+        <v>7612</v>
+      </c>
+      <c r="G1213" s="27" t="s">
+        <v>7613</v>
+      </c>
+      <c r="H1213" s="27" t="s">
+        <v>7613</v>
+      </c>
+      <c r="I1213" s="27" t="s">
+        <v>7613</v>
+      </c>
+      <c r="J1213" s="27" t="s">
+        <v>7613</v>
+      </c>
+      <c r="K1213" s="27" t="s">
+        <v>7613</v>
+      </c>
+      <c r="L1213" s="27" t="s">
+        <v>7613</v>
+      </c>
+    </row>
+    <row r="1214" s="13" customFormat="1" spans="1:12">
+      <c r="A1214" s="1"/>
+      <c r="B1214" s="14" t="s">
+        <v>7614</v>
+      </c>
+      <c r="C1214" s="1" t="s">
+        <v>7615</v>
+      </c>
+      <c r="D1214" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1214" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1214" s="31" t="s">
+        <v>7616</v>
+      </c>
+      <c r="G1214" s="27" t="s">
+        <v>7617</v>
+      </c>
+      <c r="H1214" s="27" t="s">
+        <v>7617</v>
+      </c>
+      <c r="I1214" s="27" t="s">
+        <v>7617</v>
+      </c>
+      <c r="J1214" s="27" t="s">
+        <v>7617</v>
+      </c>
+      <c r="K1214" s="27" t="s">
+        <v>7617</v>
+      </c>
+      <c r="L1214" s="27" t="s">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="1215" s="13" customFormat="1" spans="1:12">
+      <c r="A1215" s="1"/>
       <c r="B1215" s="14" t="s">
-        <v>7563</v>
-      </c>
-      <c r="C1215" s="14" t="s">
-        <v>7564</v>
-      </c>
-      <c r="E1215" s="27"/>
-      <c r="F1215" s="27" t="s">
-        <v>7565</v>
-      </c>
-      <c r="G1215" s="14" t="s">
-        <v>7566</v>
-      </c>
-      <c r="H1215" s="14" t="s">
-        <v>7567</v>
-      </c>
-      <c r="I1215" s="14" t="s">
-        <v>7568</v>
-      </c>
-      <c r="J1215" s="14" t="s">
-        <v>7569</v>
-      </c>
-      <c r="K1215" s="14" t="s">
-        <v>7570</v>
-      </c>
-      <c r="L1215" s="14" t="s">
-        <v>7570</v>
-      </c>
-    </row>
-    <row r="1216" s="2" customFormat="1" spans="2:12">
-      <c r="B1216" s="1" t="s">
-        <v>7571</v>
+        <v>7618</v>
+      </c>
+      <c r="C1215" s="1" t="s">
+        <v>7619</v>
+      </c>
+      <c r="D1215" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E1215" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1215" s="31" t="s">
+        <v>7620</v>
+      </c>
+      <c r="G1215" s="27" t="s">
+        <v>7621</v>
+      </c>
+      <c r="H1215" s="27" t="s">
+        <v>7621</v>
+      </c>
+      <c r="I1215" s="27" t="s">
+        <v>7621</v>
+      </c>
+      <c r="J1215" s="27" t="s">
+        <v>7621</v>
+      </c>
+      <c r="K1215" s="27" t="s">
+        <v>7621</v>
+      </c>
+      <c r="L1215" s="27" t="s">
+        <v>7621</v>
+      </c>
+    </row>
+    <row r="1216" s="13" customFormat="1" spans="1:12">
+      <c r="A1216" s="1"/>
+      <c r="B1216" s="14" t="s">
+        <v>7622</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>7572</v>
+        <v>7623</v>
       </c>
       <c r="D1216" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="E1216" s="39"/>
-      <c r="F1216" s="39" t="s">
-        <v>7573</v>
-      </c>
-      <c r="G1216" s="39" t="s">
-        <v>7574</v>
-      </c>
-      <c r="H1216" s="39" t="s">
-        <v>7575</v>
-      </c>
-      <c r="I1216" s="39" t="s">
-        <v>7575</v>
-      </c>
-      <c r="J1216" s="39" t="s">
-        <v>7575</v>
-      </c>
-      <c r="K1216" s="39" t="s">
-        <v>7576</v>
-      </c>
-      <c r="L1216" s="39" t="s">
-        <v>7576</v>
-      </c>
-    </row>
-    <row r="1217" spans="2:12">
-      <c r="B1217" s="1" t="s">
-        <v>7577</v>
-      </c>
-      <c r="C1217" s="14" t="s">
-        <v>7578</v>
+      <c r="E1216" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1216" s="31" t="s">
+        <v>7624</v>
+      </c>
+      <c r="G1216" s="27" t="s">
+        <v>7625</v>
+      </c>
+      <c r="H1216" s="27" t="s">
+        <v>7625</v>
+      </c>
+      <c r="I1216" s="27" t="s">
+        <v>7625</v>
+      </c>
+      <c r="J1216" s="27" t="s">
+        <v>7625</v>
+      </c>
+      <c r="K1216" s="27" t="s">
+        <v>7625</v>
+      </c>
+      <c r="L1216" s="27" t="s">
+        <v>7625</v>
+      </c>
+    </row>
+    <row r="1217" s="13" customFormat="1" spans="1:12">
+      <c r="A1217" s="1"/>
+      <c r="B1217" s="14" t="s">
+        <v>7626</v>
+      </c>
+      <c r="C1217" s="1" t="s">
+        <v>7448</v>
       </c>
       <c r="D1217" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="F1217" s="14" t="s">
-        <v>7579</v>
-      </c>
-      <c r="G1217" s="14" t="s">
-        <v>7580</v>
-      </c>
-      <c r="H1217" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="I1217" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="J1217" s="14" t="s">
-        <v>7581</v>
-      </c>
-      <c r="K1217" s="14" t="s">
-        <v>7582</v>
-      </c>
-      <c r="L1217" s="14" t="s">
-        <v>7582</v>
-      </c>
-    </row>
-    <row r="1218" spans="2:12">
-      <c r="B1218" s="1" t="s">
-        <v>7583</v>
-      </c>
-      <c r="C1218" s="14" t="s">
-        <v>7584</v>
+      <c r="E1217" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1217" s="31" t="s">
+        <v>7627</v>
+      </c>
+      <c r="G1217" s="27" t="s">
+        <v>7628</v>
+      </c>
+      <c r="H1217" s="27" t="s">
+        <v>7628</v>
+      </c>
+      <c r="I1217" s="27" t="s">
+        <v>7628</v>
+      </c>
+      <c r="J1217" s="27" t="s">
+        <v>7628</v>
+      </c>
+      <c r="K1217" s="27" t="s">
+        <v>7628</v>
+      </c>
+      <c r="L1217" s="27" t="s">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="1218" s="13" customFormat="1" spans="1:12">
+      <c r="A1218" s="1"/>
+      <c r="B1218" s="14" t="s">
+        <v>7629</v>
+      </c>
+      <c r="C1218" s="1" t="s">
+        <v>7630</v>
       </c>
       <c r="D1218" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="F1218" s="14" t="s">
-        <v>7585</v>
-      </c>
-      <c r="G1218" s="14" t="s">
-        <v>7586</v>
-      </c>
-      <c r="H1218" s="14" t="s">
-        <v>7587</v>
-      </c>
-      <c r="I1218" s="14" t="s">
-        <v>7587</v>
-      </c>
-      <c r="J1218" s="14" t="s">
-        <v>7587</v>
-      </c>
-      <c r="K1218" s="14" t="s">
-        <v>7588</v>
-      </c>
-      <c r="L1218" s="14" t="s">
-        <v>7588</v>
-      </c>
-    </row>
-    <row r="1219" spans="2:12">
-      <c r="B1219" s="1" t="s">
-        <v>7589</v>
-      </c>
-      <c r="C1219" s="14" t="s">
-        <v>7590</v>
+      <c r="E1218" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1218" s="31" t="s">
+        <v>7631</v>
+      </c>
+      <c r="G1218" s="27" t="s">
+        <v>7632</v>
+      </c>
+      <c r="H1218" s="27" t="s">
+        <v>7632</v>
+      </c>
+      <c r="I1218" s="27" t="s">
+        <v>7632</v>
+      </c>
+      <c r="J1218" s="27" t="s">
+        <v>7632</v>
+      </c>
+      <c r="K1218" s="27" t="s">
+        <v>7632</v>
+      </c>
+      <c r="L1218" s="27" t="s">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="1219" s="13" customFormat="1" spans="1:12">
+      <c r="A1219" s="1"/>
+      <c r="B1219" s="14" t="s">
+        <v>7633</v>
+      </c>
+      <c r="C1219" s="1" t="s">
+        <v>7634</v>
       </c>
       <c r="D1219" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="F1219" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="G1219" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="H1219" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="I1219" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="J1219" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="K1219" s="14" t="s">
-        <v>7591</v>
-      </c>
-      <c r="L1219" s="14" t="s">
-        <v>7591</v>
-      </c>
-    </row>
-    <row r="1220" spans="2:12">
-      <c r="B1220" s="1" t="s">
-        <v>7592</v>
-      </c>
-      <c r="C1220" s="14" t="s">
-        <v>7593</v>
-      </c>
-      <c r="D1220" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1220" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="G1220" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="H1220" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="I1220" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="J1220" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="K1220" s="14" t="s">
-        <v>7594</v>
-      </c>
-      <c r="L1220" s="14" t="s">
-        <v>7594</v>
-      </c>
-    </row>
-    <row r="1221" spans="2:12">
-      <c r="B1221" s="1" t="s">
-        <v>7595</v>
-      </c>
-      <c r="C1221" s="14" t="s">
-        <v>7596</v>
-      </c>
-      <c r="D1221" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1221" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="G1221" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="H1221" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="I1221" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="J1221" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="K1221" s="14" t="s">
-        <v>7597</v>
-      </c>
-      <c r="L1221" s="14" t="s">
-        <v>7597</v>
-      </c>
-    </row>
-    <row r="1222" spans="2:12">
+      <c r="E1219" s="27" t="s">
+        <v>7512</v>
+      </c>
+      <c r="F1219" s="31" t="s">
+        <v>7635</v>
+      </c>
+      <c r="G1219" s="27" t="s">
+        <v>7636</v>
+      </c>
+      <c r="H1219" s="27" t="s">
+        <v>7636</v>
+      </c>
+      <c r="I1219" s="27" t="s">
+        <v>7636</v>
+      </c>
+      <c r="J1219" s="27" t="s">
+        <v>7636</v>
+      </c>
+      <c r="K1219" s="27" t="s">
+        <v>7636</v>
+      </c>
+      <c r="L1219" s="27" t="s">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="1220" s="13" customFormat="1" spans="1:12">
+      <c r="A1220" s="1"/>
+      <c r="B1220" s="14" t="s">
+        <v>7637</v>
+      </c>
+      <c r="C1220" s="1" t="s">
+        <v>7638</v>
+      </c>
+      <c r="D1220" s="45"/>
+      <c r="E1220" s="27"/>
+      <c r="F1220" s="31" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G1220" s="1" t="s">
+        <v>7639</v>
+      </c>
+      <c r="H1220" s="1" t="s">
+        <v>7639</v>
+      </c>
+      <c r="I1220" s="1" t="s">
+        <v>7639</v>
+      </c>
+      <c r="J1220" s="1" t="s">
+        <v>7639</v>
+      </c>
+      <c r="K1220" s="1" t="s">
+        <v>7639</v>
+      </c>
+      <c r="L1220" s="1" t="s">
+        <v>7639</v>
+      </c>
+    </row>
+    <row r="1221" s="13" customFormat="1" ht="94.5" spans="1:12">
+      <c r="A1221" s="1"/>
+      <c r="B1221" s="14" t="s">
+        <v>7640</v>
+      </c>
+      <c r="C1221" s="1"/>
+      <c r="D1221" s="45"/>
+      <c r="E1221" s="27"/>
+      <c r="F1221" s="35" t="s">
+        <v>7641</v>
+      </c>
+      <c r="G1221" s="1" t="s">
+        <v>7642</v>
+      </c>
+      <c r="H1221" s="1" t="s">
+        <v>7642</v>
+      </c>
+      <c r="I1221" s="1" t="s">
+        <v>7642</v>
+      </c>
+      <c r="J1221" s="1" t="s">
+        <v>7642</v>
+      </c>
+      <c r="K1221" s="1" t="s">
+        <v>7642</v>
+      </c>
+      <c r="L1221" s="1" t="s">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="1222" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1222" s="1"/>
       <c r="B1222" s="14" t="s">
-        <v>7598</v>
-      </c>
-      <c r="C1222" s="14" t="s">
-        <v>7599</v>
-      </c>
-      <c r="D1222" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1222" s="14" t="s">
-        <v>7600</v>
-      </c>
-      <c r="G1222" s="14" t="s">
-        <v>7601</v>
-      </c>
-      <c r="H1222" s="14" t="s">
-        <v>7602</v>
-      </c>
-      <c r="I1222" s="14" t="s">
-        <v>7602</v>
-      </c>
-      <c r="J1222" s="14" t="s">
-        <v>7602</v>
-      </c>
-      <c r="K1222" s="14" t="s">
-        <v>7603</v>
-      </c>
-      <c r="L1222" s="14" t="s">
-        <v>7603</v>
-      </c>
-    </row>
-    <row r="1223" spans="2:12">
+        <v>7643</v>
+      </c>
+      <c r="C1222" s="1"/>
+      <c r="D1222" s="45"/>
+      <c r="E1222" s="27"/>
+      <c r="F1222" s="31" t="s">
+        <v>7644</v>
+      </c>
+      <c r="G1222" s="1" t="s">
+        <v>7645</v>
+      </c>
+      <c r="H1222" s="1" t="s">
+        <v>7645</v>
+      </c>
+      <c r="I1222" s="1" t="s">
+        <v>7645</v>
+      </c>
+      <c r="J1222" s="1" t="s">
+        <v>7645</v>
+      </c>
+      <c r="K1222" s="1" t="s">
+        <v>7645</v>
+      </c>
+      <c r="L1222" s="1" t="s">
+        <v>7645</v>
+      </c>
+    </row>
+    <row r="1223" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1223" s="1"/>
       <c r="B1223" s="14" t="s">
-        <v>7604</v>
-      </c>
-      <c r="C1223" s="14" t="s">
-        <v>7605</v>
-      </c>
-      <c r="D1223" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1223" s="14" t="s">
-        <v>7606</v>
-      </c>
-      <c r="G1223" s="14" t="s">
-        <v>7607</v>
-      </c>
-      <c r="H1223" s="14" t="s">
-        <v>7608</v>
-      </c>
-      <c r="I1223" s="14" t="s">
-        <v>7608</v>
-      </c>
-      <c r="J1223" s="14" t="s">
-        <v>7608</v>
-      </c>
-      <c r="K1223" s="14" t="s">
-        <v>7609</v>
-      </c>
-      <c r="L1223" s="14" t="s">
-        <v>7609</v>
-      </c>
-    </row>
-    <row r="1224" spans="2:12">
+        <v>7646</v>
+      </c>
+      <c r="C1223" s="1"/>
+      <c r="D1223" s="45"/>
+      <c r="E1223" s="27"/>
+      <c r="F1223" s="31" t="s">
+        <v>7647</v>
+      </c>
+      <c r="G1223" s="1" t="s">
+        <v>7648</v>
+      </c>
+      <c r="H1223" s="1" t="s">
+        <v>7648</v>
+      </c>
+      <c r="I1223" s="1" t="s">
+        <v>7648</v>
+      </c>
+      <c r="J1223" s="1" t="s">
+        <v>7648</v>
+      </c>
+      <c r="K1223" s="1" t="s">
+        <v>7648</v>
+      </c>
+      <c r="L1223" s="1" t="s">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="1224" s="13" customFormat="1" ht="27" spans="1:12">
+      <c r="A1224" s="1"/>
       <c r="B1224" s="14" t="s">
-        <v>7610</v>
-      </c>
-      <c r="C1224" s="14" t="s">
-        <v>7611</v>
-      </c>
-      <c r="D1224" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1224" s="14" t="s">
-        <v>7612</v>
-      </c>
-      <c r="G1224" s="14" t="s">
-        <v>7613</v>
-      </c>
-      <c r="H1224" s="14" t="s">
-        <v>7614</v>
-      </c>
-      <c r="I1224" s="14" t="s">
-        <v>7614</v>
-      </c>
-      <c r="J1224" s="14" t="s">
-        <v>7614</v>
-      </c>
-      <c r="K1224" s="14" t="s">
-        <v>7615</v>
-      </c>
-      <c r="L1224" s="14" t="s">
-        <v>7615</v>
-      </c>
-    </row>
-    <row r="1225" spans="2:12">
+        <v>7649</v>
+      </c>
+      <c r="C1224" s="1"/>
+      <c r="D1224" s="45"/>
+      <c r="E1224" s="27"/>
+      <c r="F1224" s="31" t="s">
+        <v>7650</v>
+      </c>
+      <c r="G1224" s="1" t="s">
+        <v>7651</v>
+      </c>
+      <c r="H1224" s="1" t="s">
+        <v>7651</v>
+      </c>
+      <c r="I1224" s="1" t="s">
+        <v>7651</v>
+      </c>
+      <c r="J1224" s="1" t="s">
+        <v>7651</v>
+      </c>
+      <c r="K1224" s="1" t="s">
+        <v>7651</v>
+      </c>
+      <c r="L1224" s="1" t="s">
+        <v>7651</v>
+      </c>
+    </row>
+    <row r="1225" s="13" customFormat="1" ht="162" spans="1:12">
+      <c r="A1225" s="1"/>
       <c r="B1225" s="14" t="s">
-        <v>7616</v>
-      </c>
-      <c r="C1225" s="14" t="s">
-        <v>7617</v>
-      </c>
-      <c r="D1225" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1225" s="14" t="s">
-        <v>7618</v>
-      </c>
-      <c r="G1225" s="14" t="s">
-        <v>7619</v>
-      </c>
-      <c r="H1225" s="14" t="s">
-        <v>7620</v>
-      </c>
-      <c r="I1225" s="14" t="s">
-        <v>7620</v>
-      </c>
-      <c r="J1225" s="14" t="s">
-        <v>7620</v>
-      </c>
-      <c r="K1225" s="14" t="s">
-        <v>7621</v>
-      </c>
-      <c r="L1225" s="14" t="s">
-        <v>7621</v>
-      </c>
-    </row>
-    <row r="1226" spans="2:12">
+        <v>7652</v>
+      </c>
+      <c r="C1225" s="1"/>
+      <c r="D1225" s="45"/>
+      <c r="E1225" s="27"/>
+      <c r="F1225" s="35" t="s">
+        <v>7653</v>
+      </c>
+      <c r="G1225" s="1" t="s">
+        <v>7654</v>
+      </c>
+      <c r="H1225" s="1" t="s">
+        <v>7654</v>
+      </c>
+      <c r="I1225" s="1" t="s">
+        <v>7654</v>
+      </c>
+      <c r="J1225" s="1" t="s">
+        <v>7654</v>
+      </c>
+      <c r="K1225" s="1" t="s">
+        <v>7654</v>
+      </c>
+      <c r="L1225" s="1" t="s">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="1226" s="13" customFormat="1" ht="94.5" spans="1:12">
+      <c r="A1226" s="1"/>
       <c r="B1226" s="14" t="s">
-        <v>7622</v>
-      </c>
-      <c r="C1226" s="14" t="s">
-        <v>7623</v>
-      </c>
-      <c r="D1226" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1226" s="14" t="s">
-        <v>7624</v>
-      </c>
-      <c r="G1226" s="14" t="s">
-        <v>7625</v>
-      </c>
-      <c r="H1226" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="I1226" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="J1226" s="14" t="s">
-        <v>7626</v>
-      </c>
-      <c r="K1226" s="14" t="s">
-        <v>7627</v>
-      </c>
-      <c r="L1226" s="14" t="s">
-        <v>7627</v>
-      </c>
-    </row>
-    <row r="1227" spans="2:12">
+        <v>7655</v>
+      </c>
+      <c r="C1226" s="1"/>
+      <c r="D1226" s="45"/>
+      <c r="E1226" s="27"/>
+      <c r="F1226" s="35" t="s">
+        <v>7656</v>
+      </c>
+      <c r="G1226" s="1" t="s">
+        <v>7657</v>
+      </c>
+      <c r="H1226" s="1" t="s">
+        <v>7657</v>
+      </c>
+      <c r="I1226" s="1" t="s">
+        <v>7657</v>
+      </c>
+      <c r="J1226" s="1" t="s">
+        <v>7657</v>
+      </c>
+      <c r="K1226" s="1" t="s">
+        <v>7657</v>
+      </c>
+      <c r="L1226" s="1" t="s">
+        <v>7657</v>
+      </c>
+    </row>
+    <row r="1227" s="13" customFormat="1" ht="81" spans="1:12">
+      <c r="A1227" s="1"/>
       <c r="B1227" s="14" t="s">
-        <v>7628</v>
-      </c>
-      <c r="C1227" s="14" t="s">
-        <v>7629</v>
-      </c>
-      <c r="D1227" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1227" s="14" t="s">
-        <v>7630</v>
-      </c>
-      <c r="G1227" s="14" t="s">
-        <v>7631</v>
-      </c>
-      <c r="H1227" s="14" t="s">
-        <v>7632</v>
-      </c>
-      <c r="I1227" s="14" t="s">
-        <v>7632</v>
-      </c>
-      <c r="J1227" s="14" t="s">
-        <v>7632</v>
-      </c>
-      <c r="K1227" s="14" t="s">
-        <v>7633</v>
-      </c>
-      <c r="L1227" s="14" t="s">
-        <v>7633</v>
-      </c>
-    </row>
-    <row r="1228" spans="2:12">
+        <v>7658</v>
+      </c>
+      <c r="C1227" s="1"/>
+      <c r="D1227" s="45"/>
+      <c r="E1227" s="27"/>
+      <c r="F1227" s="35" t="s">
+        <v>7659</v>
+      </c>
+      <c r="G1227" s="1" t="s">
+        <v>7660</v>
+      </c>
+      <c r="H1227" s="1" t="s">
+        <v>7660</v>
+      </c>
+      <c r="I1227" s="1" t="s">
+        <v>7660</v>
+      </c>
+      <c r="J1227" s="1" t="s">
+        <v>7660</v>
+      </c>
+      <c r="K1227" s="1" t="s">
+        <v>7660</v>
+      </c>
+      <c r="L1227" s="1" t="s">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="1228" s="13" customFormat="1" ht="108" spans="1:12">
+      <c r="A1228" s="1"/>
       <c r="B1228" s="14" t="s">
-        <v>7634</v>
-      </c>
-      <c r="C1228" s="1" t="s">
+        <v>7661</v>
+      </c>
+      <c r="C1228" s="1"/>
+      <c r="D1228" s="45"/>
+      <c r="E1228" s="27"/>
+      <c r="F1228" s="35" t="s">
+        <v>7662</v>
+      </c>
+      <c r="G1228" s="1" t="s">
+        <v>7663</v>
+      </c>
+      <c r="H1228" s="1" t="s">
+        <v>7663</v>
+      </c>
+      <c r="I1228" s="1" t="s">
+        <v>7663</v>
+      </c>
+      <c r="J1228" s="1" t="s">
+        <v>7663</v>
+      </c>
+      <c r="K1228" s="1" t="s">
+        <v>7663</v>
+      </c>
+      <c r="L1228" s="1" t="s">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="1229" s="13" customFormat="1" ht="108" spans="1:12">
+      <c r="A1229" s="1"/>
+      <c r="B1229" s="14" t="s">
+        <v>7664</v>
+      </c>
+      <c r="C1229" s="1"/>
+      <c r="D1229" s="45"/>
+      <c r="E1229" s="27"/>
+      <c r="F1229" s="35" t="s">
+        <v>7665</v>
+      </c>
+      <c r="G1229" s="1" t="s">
+        <v>7666</v>
+      </c>
+      <c r="H1229" s="1" t="s">
+        <v>7666</v>
+      </c>
+      <c r="I1229" s="1" t="s">
+        <v>7666</v>
+      </c>
+      <c r="J1229" s="1" t="s">
+        <v>7666</v>
+      </c>
+      <c r="K1229" s="1" t="s">
+        <v>7666</v>
+      </c>
+      <c r="L1229" s="1" t="s">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="1230" s="13" customFormat="1" ht="121.5" spans="1:12">
+      <c r="A1230" s="1"/>
+      <c r="B1230" s="14" t="s">
+        <v>7667</v>
+      </c>
+      <c r="C1230" s="1"/>
+      <c r="D1230" s="45"/>
+      <c r="E1230" s="27"/>
+      <c r="F1230" s="35" t="s">
+        <v>7668</v>
+      </c>
+      <c r="G1230" s="1" t="s">
+        <v>7669</v>
+      </c>
+      <c r="H1230" s="1" t="s">
+        <v>7669</v>
+      </c>
+      <c r="I1230" s="1" t="s">
+        <v>7669</v>
+      </c>
+      <c r="J1230" s="1" t="s">
+        <v>7669</v>
+      </c>
+      <c r="K1230" s="1" t="s">
+        <v>7669</v>
+      </c>
+      <c r="L1230" s="1" t="s">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="1231" s="13" customFormat="1" ht="94.5" spans="1:12">
+      <c r="A1231" s="1"/>
+      <c r="B1231" s="14" t="s">
+        <v>7670</v>
+      </c>
+      <c r="C1231" s="1"/>
+      <c r="D1231" s="45"/>
+      <c r="E1231" s="27"/>
+      <c r="F1231" s="35" t="s">
+        <v>7671</v>
+      </c>
+      <c r="G1231" s="1" t="s">
+        <v>7672</v>
+      </c>
+      <c r="H1231" s="1" t="s">
+        <v>7672</v>
+      </c>
+      <c r="I1231" s="1" t="s">
+        <v>7672</v>
+      </c>
+      <c r="J1231" s="1" t="s">
+        <v>7672</v>
+      </c>
+      <c r="K1231" s="1" t="s">
+        <v>7672</v>
+      </c>
+      <c r="L1231" s="1" t="s">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="1232" s="13" customFormat="1" ht="108" spans="1:12">
+      <c r="A1232" s="1"/>
+      <c r="B1232" s="14" t="s">
+        <v>7673</v>
+      </c>
+      <c r="C1232" s="1"/>
+      <c r="D1232" s="45"/>
+      <c r="E1232" s="27"/>
+      <c r="F1232" s="35" t="s">
+        <v>7674</v>
+      </c>
+      <c r="G1232" s="1" t="s">
+        <v>7675</v>
+      </c>
+      <c r="H1232" s="1" t="s">
+        <v>7675</v>
+      </c>
+      <c r="I1232" s="1" t="s">
+        <v>7675</v>
+      </c>
+      <c r="J1232" s="1" t="s">
+        <v>7675</v>
+      </c>
+      <c r="K1232" s="1" t="s">
+        <v>7675</v>
+      </c>
+      <c r="L1232" s="1" t="s">
+        <v>7675</v>
+      </c>
+    </row>
+    <row r="1233" s="13" customFormat="1" spans="1:12">
+      <c r="A1233" s="1"/>
+      <c r="B1233" s="14" t="s">
+        <v>7676</v>
+      </c>
+      <c r="C1233" s="1"/>
+      <c r="D1233" s="45"/>
+      <c r="E1233" s="27"/>
+      <c r="F1233" s="35" t="s">
+        <v>7677</v>
+      </c>
+      <c r="G1233" s="1" t="s">
+        <v>7678</v>
+      </c>
+      <c r="H1233" s="1" t="s">
+        <v>7678</v>
+      </c>
+      <c r="I1233" s="1" t="s">
+        <v>7678</v>
+      </c>
+      <c r="J1233" s="1" t="s">
+        <v>7678</v>
+      </c>
+      <c r="K1233" s="1" t="s">
+        <v>7678</v>
+      </c>
+      <c r="L1233" s="1" t="s">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="1234" s="13" customFormat="1" ht="81" spans="1:12">
+      <c r="A1234" s="1"/>
+      <c r="B1234" s="14" t="s">
+        <v>7679</v>
+      </c>
+      <c r="C1234" s="1"/>
+      <c r="D1234" s="45"/>
+      <c r="E1234" s="27"/>
+      <c r="F1234" s="35" t="s">
+        <v>7680</v>
+      </c>
+      <c r="G1234" s="1" t="s">
+        <v>7681</v>
+      </c>
+      <c r="H1234" s="1" t="s">
+        <v>7681</v>
+      </c>
+      <c r="I1234" s="1" t="s">
+        <v>7681</v>
+      </c>
+      <c r="J1234" s="1" t="s">
+        <v>7681</v>
+      </c>
+      <c r="K1234" s="1" t="s">
+        <v>7681</v>
+      </c>
+      <c r="L1234" s="1" t="s">
+        <v>7681</v>
+      </c>
+    </row>
+    <row r="1235" s="13" customFormat="1" ht="216" spans="1:12">
+      <c r="A1235" s="1"/>
+      <c r="B1235" s="14" t="s">
+        <v>7682</v>
+      </c>
+      <c r="C1235" s="1"/>
+      <c r="D1235" s="45"/>
+      <c r="E1235" s="27"/>
+      <c r="F1235" s="35" t="s">
+        <v>7683</v>
+      </c>
+      <c r="G1235" s="1" t="s">
+        <v>7684</v>
+      </c>
+      <c r="H1235" s="1" t="s">
+        <v>7684</v>
+      </c>
+      <c r="I1235" s="1" t="s">
+        <v>7684</v>
+      </c>
+      <c r="J1235" s="1" t="s">
+        <v>7684</v>
+      </c>
+      <c r="K1235" s="1" t="s">
+        <v>7684</v>
+      </c>
+      <c r="L1235" s="1" t="s">
+        <v>7684</v>
+      </c>
+    </row>
+    <row r="1236" s="13" customFormat="1" spans="2:12">
+      <c r="B1236" s="13" t="s">
+        <v>7685</v>
+      </c>
+      <c r="E1236" s="1"/>
+      <c r="F1236" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="D1228" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1228" s="14" t="s">
-        <v>7635</v>
-      </c>
-      <c r="G1228" s="14" t="s">
-        <v>7636</v>
-      </c>
-      <c r="H1228" s="14" t="s">
-        <v>7637</v>
-      </c>
-      <c r="I1228" s="14" t="s">
-        <v>7637</v>
-      </c>
-      <c r="J1228" s="14" t="s">
-        <v>7637</v>
-      </c>
-      <c r="K1228" s="14" t="s">
-        <v>7638</v>
-      </c>
-      <c r="L1228" s="14" t="s">
-        <v>7638</v>
-      </c>
-    </row>
-    <row r="1229" spans="2:12">
-      <c r="B1229" s="14" t="s">
-        <v>7639</v>
-      </c>
-      <c r="C1229" s="1" t="s">
+      <c r="G1236" s="39" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H1236" s="17" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I1236" s="17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J1236" s="17" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K1236" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L1236" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1237" s="13" customFormat="1" spans="2:12">
+      <c r="B1237" s="13" t="s">
+        <v>7686</v>
+      </c>
+      <c r="E1237" s="8"/>
+      <c r="F1237" s="8" t="s">
         <v>1672</v>
       </c>
-      <c r="D1229" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1229" s="14" t="s">
-        <v>7640</v>
-      </c>
-      <c r="G1229" s="14" t="s">
-        <v>7641</v>
-      </c>
-      <c r="H1229" s="14" t="s">
-        <v>7642</v>
-      </c>
-      <c r="I1229" s="14" t="s">
-        <v>7642</v>
-      </c>
-      <c r="J1229" s="14" t="s">
-        <v>7642</v>
-      </c>
-      <c r="K1229" s="14" t="s">
-        <v>7643</v>
-      </c>
-      <c r="L1229" s="14" t="s">
-        <v>7643</v>
-      </c>
-    </row>
-    <row r="1230" spans="2:12">
-      <c r="B1230" s="14" t="s">
-        <v>7644</v>
-      </c>
-      <c r="C1230" s="1" t="s">
+      <c r="G1237" s="37" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H1237" s="38" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I1237" s="38" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J1237" s="38" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K1237" s="8" t="s">
+        <v>1677</v>
+      </c>
+      <c r="L1237" s="8" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1238" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="B1238" s="13" t="s">
+        <v>7687</v>
+      </c>
+      <c r="E1238" s="1"/>
+      <c r="F1238" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="D1230" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1230" s="14" t="s">
-        <v>7645</v>
-      </c>
-      <c r="G1230" s="14" t="s">
-        <v>7646</v>
-      </c>
-      <c r="H1230" s="14" t="s">
-        <v>7647</v>
-      </c>
-      <c r="I1230" s="14" t="s">
-        <v>7647</v>
-      </c>
-      <c r="J1230" s="14" t="s">
-        <v>7647</v>
-      </c>
-      <c r="K1230" s="14" t="s">
-        <v>7648</v>
-      </c>
-      <c r="L1230" s="14" t="s">
-        <v>7648</v>
-      </c>
-    </row>
-    <row r="1231" spans="2:12">
-      <c r="B1231" s="14" t="s">
-        <v>7649</v>
-      </c>
-      <c r="C1231" s="1" t="s">
+      <c r="G1238" s="39" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H1238" s="17" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I1238" s="17" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J1238" s="17" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K1238" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="L1238" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1239" s="13" customFormat="1" spans="2:12">
+      <c r="B1239" s="13" t="s">
+        <v>7688</v>
+      </c>
+      <c r="E1239" s="1"/>
+      <c r="F1239" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="D1231" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1231" s="14" t="s">
-        <v>7650</v>
-      </c>
-      <c r="G1231" s="14" t="s">
-        <v>7651</v>
-      </c>
-      <c r="H1231" s="14" t="s">
-        <v>7652</v>
-      </c>
-      <c r="I1231" s="14" t="s">
-        <v>7652</v>
-      </c>
-      <c r="J1231" s="14" t="s">
-        <v>7652</v>
-      </c>
-      <c r="K1231" s="14" t="s">
-        <v>7653</v>
-      </c>
-      <c r="L1231" s="14" t="s">
-        <v>7653</v>
-      </c>
-    </row>
-    <row r="1232" spans="2:12">
-      <c r="B1232" s="14" t="s">
-        <v>7654</v>
-      </c>
-      <c r="C1232" s="1" t="s">
+      <c r="G1239" s="39" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H1239" s="17" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I1239" s="17" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J1239" s="17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K1239" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L1239" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1240" s="13" customFormat="1" spans="2:12">
+      <c r="B1240" s="13" t="s">
+        <v>7689</v>
+      </c>
+      <c r="E1240" s="1"/>
+      <c r="F1240" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D1232" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1232" s="14" t="s">
-        <v>7655</v>
-      </c>
-      <c r="G1232" s="14" t="s">
-        <v>7656</v>
-      </c>
-      <c r="H1232" s="14" t="s">
-        <v>7657</v>
-      </c>
-      <c r="I1232" s="14" t="s">
-        <v>7657</v>
-      </c>
-      <c r="J1232" s="14" t="s">
-        <v>7657</v>
-      </c>
-      <c r="K1232" s="14" t="s">
-        <v>7658</v>
-      </c>
-      <c r="L1232" s="14" t="s">
-        <v>7658</v>
-      </c>
-    </row>
-    <row r="1233" spans="2:12">
-      <c r="B1233" s="14" t="s">
-        <v>7659</v>
-      </c>
-      <c r="C1233" s="1" t="s">
+      <c r="G1240" s="39" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H1240" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I1240" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J1240" s="17" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K1240" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L1240" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1241" s="13" customFormat="1" spans="2:12">
+      <c r="B1241" s="13" t="s">
+        <v>7690</v>
+      </c>
+      <c r="E1241" s="1"/>
+      <c r="F1241" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="D1233" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1233" s="14" t="s">
-        <v>7660</v>
-      </c>
-      <c r="G1233" s="14" t="s">
-        <v>7661</v>
-      </c>
-      <c r="H1233" s="14" t="s">
-        <v>7662</v>
-      </c>
-      <c r="I1233" s="14" t="s">
-        <v>7662</v>
-      </c>
-      <c r="J1233" s="14" t="s">
-        <v>7662</v>
-      </c>
-      <c r="K1233" s="14" t="s">
-        <v>7663</v>
-      </c>
-      <c r="L1233" s="14" t="s">
-        <v>7663</v>
-      </c>
-    </row>
-    <row r="1234" spans="2:12">
-      <c r="B1234" s="14" t="s">
-        <v>7664</v>
-      </c>
-      <c r="C1234" s="1" t="s">
+      <c r="G1241" s="39" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H1241" s="17" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I1241" s="17" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J1241" s="17" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K1241" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L1241" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1242" s="13" customFormat="1" spans="2:12">
+      <c r="B1242" s="13" t="s">
+        <v>7691</v>
+      </c>
+      <c r="E1242" s="1"/>
+      <c r="F1242" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="D1234" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1234" s="14" t="s">
-        <v>7665</v>
-      </c>
-      <c r="G1234" s="14" t="s">
-        <v>7666</v>
-      </c>
-      <c r="H1234" s="14" t="s">
-        <v>7667</v>
-      </c>
-      <c r="I1234" s="14" t="s">
-        <v>7667</v>
-      </c>
-      <c r="J1234" s="14" t="s">
-        <v>7667</v>
-      </c>
-      <c r="K1234" s="14" t="s">
-        <v>7668</v>
-      </c>
-      <c r="L1234" s="14" t="s">
-        <v>7668</v>
-      </c>
-    </row>
-    <row r="1235" spans="2:12">
-      <c r="B1235" s="14" t="s">
-        <v>7669</v>
-      </c>
-      <c r="C1235" s="1" t="s">
+      <c r="G1242" s="39" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H1242" s="17" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I1242" s="17" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J1242" s="17" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K1242" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L1242" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1243" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="B1243" s="13" t="s">
+        <v>7692</v>
+      </c>
+      <c r="E1243" s="1"/>
+      <c r="F1243" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="D1235" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1235" s="14" t="s">
-        <v>7670</v>
-      </c>
-      <c r="G1235" s="14" t="s">
-        <v>7671</v>
-      </c>
-      <c r="H1235" s="14" t="s">
-        <v>7672</v>
-      </c>
-      <c r="I1235" s="14" t="s">
-        <v>7672</v>
-      </c>
-      <c r="J1235" s="14" t="s">
-        <v>7672</v>
-      </c>
-      <c r="K1235" s="14" t="s">
-        <v>7673</v>
-      </c>
-      <c r="L1235" s="14" t="s">
-        <v>7673</v>
-      </c>
-    </row>
-    <row r="1236" spans="2:12">
-      <c r="B1236" s="14" t="s">
-        <v>7674</v>
-      </c>
-      <c r="C1236" s="1" t="s">
+      <c r="G1243" s="39" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H1243" s="17" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I1243" s="17" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J1243" s="17" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K1243" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="L1243" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1244" s="13" customFormat="1" spans="2:12">
+      <c r="B1244" s="13" t="s">
+        <v>7693</v>
+      </c>
+      <c r="E1244" s="1"/>
+      <c r="F1244" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="D1236" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1236" s="14" t="s">
-        <v>7675</v>
-      </c>
-      <c r="G1236" s="14" t="s">
-        <v>7676</v>
-      </c>
-      <c r="H1236" s="14" t="s">
-        <v>7677</v>
-      </c>
-      <c r="I1236" s="14" t="s">
-        <v>7677</v>
-      </c>
-      <c r="J1236" s="14" t="s">
-        <v>7677</v>
-      </c>
-      <c r="K1236" s="14" t="s">
-        <v>7678</v>
-      </c>
-      <c r="L1236" s="14" t="s">
-        <v>7678</v>
-      </c>
-    </row>
-    <row r="1237" spans="2:12">
-      <c r="B1237" s="14" t="s">
-        <v>7679</v>
-      </c>
-      <c r="C1237" s="1" t="s">
+      <c r="G1244" s="39" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H1244" s="17" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I1244" s="17" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J1244" s="17" t="s">
+        <v>1723</v>
+      </c>
+      <c r="K1244" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="L1244" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1245" s="13" customFormat="1" spans="2:12">
+      <c r="B1245" s="13" t="s">
+        <v>7694</v>
+      </c>
+      <c r="E1245" s="1"/>
+      <c r="F1245" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="D1237" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1237" s="14" t="s">
-        <v>7680</v>
-      </c>
-      <c r="G1237" s="14" t="s">
-        <v>7681</v>
-      </c>
-      <c r="H1237" s="14" t="s">
-        <v>7682</v>
-      </c>
-      <c r="I1237" s="14" t="s">
-        <v>7682</v>
-      </c>
-      <c r="J1237" s="14" t="s">
-        <v>7682</v>
-      </c>
-      <c r="K1237" s="14" t="s">
-        <v>7683</v>
-      </c>
-      <c r="L1237" s="14" t="s">
-        <v>7683</v>
-      </c>
-    </row>
-    <row r="1238" spans="2:12">
-      <c r="B1238" s="14" t="s">
-        <v>7684</v>
-      </c>
-      <c r="C1238" s="1" t="s">
+      <c r="G1245" s="39" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H1245" s="17" t="s">
+        <v>1731</v>
+      </c>
+      <c r="I1245" s="17" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J1245" s="17" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K1245" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L1245" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1246" s="13" customFormat="1" spans="2:12">
+      <c r="B1246" s="13" t="s">
+        <v>7695</v>
+      </c>
+      <c r="E1246" s="1"/>
+      <c r="F1246" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="D1238" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1238" s="14" t="s">
-        <v>7685</v>
-      </c>
-      <c r="G1238" s="14" t="s">
-        <v>7686</v>
-      </c>
-      <c r="H1238" s="14" t="s">
-        <v>7687</v>
-      </c>
-      <c r="I1238" s="14" t="s">
-        <v>7687</v>
-      </c>
-      <c r="J1238" s="14" t="s">
-        <v>7687</v>
-      </c>
-      <c r="K1238" s="14" t="s">
-        <v>7688</v>
-      </c>
-      <c r="L1238" s="14" t="s">
-        <v>7688</v>
-      </c>
-    </row>
-    <row r="1239" spans="2:12">
-      <c r="B1239" s="14" t="s">
-        <v>7689</v>
-      </c>
-      <c r="C1239" s="1" t="s">
+      <c r="G1246" s="39" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H1246" s="17" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I1246" s="17" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J1246" s="17" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K1246" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="L1246" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1247" s="13" customFormat="1" spans="2:12">
+      <c r="B1247" s="13" t="s">
+        <v>7696</v>
+      </c>
+      <c r="E1247" s="1"/>
+      <c r="F1247" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G1247" s="39" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H1247" s="17" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I1247" s="17" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J1247" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="K1247" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L1247" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1248" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="B1248" s="13" t="s">
+        <v>7697</v>
+      </c>
+      <c r="E1248" s="1"/>
+      <c r="F1248" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="D1239" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1239" s="14" t="s">
-        <v>7690</v>
-      </c>
-      <c r="G1239" s="14" t="s">
-        <v>7691</v>
-      </c>
-      <c r="H1239" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="I1239" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="J1239" s="14" t="s">
-        <v>7692</v>
-      </c>
-      <c r="K1239" s="14" t="s">
-        <v>7693</v>
-      </c>
-      <c r="L1239" s="14" t="s">
-        <v>7693</v>
-      </c>
-    </row>
-    <row r="1240" spans="2:12">
-      <c r="B1240" s="14" t="s">
-        <v>7694</v>
-      </c>
-      <c r="C1240" s="1" t="s">
+      <c r="G1248" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H1248" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I1248" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J1248" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K1248" s="39" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L1248" s="39" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1249" s="13" customFormat="1" spans="2:12">
+      <c r="B1249" s="13" t="s">
+        <v>7698</v>
+      </c>
+      <c r="E1249" s="1"/>
+      <c r="F1249" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="D1240" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1240" s="14" t="s">
-        <v>7695</v>
-      </c>
-      <c r="G1240" s="14" t="s">
-        <v>7696</v>
-      </c>
-      <c r="H1240" s="14" t="s">
-        <v>7697</v>
-      </c>
-      <c r="I1240" s="14" t="s">
-        <v>7697</v>
-      </c>
-      <c r="J1240" s="14" t="s">
-        <v>7697</v>
-      </c>
-      <c r="K1240" s="14" t="s">
-        <v>7698</v>
-      </c>
-      <c r="L1240" s="14" t="s">
-        <v>7698</v>
-      </c>
-    </row>
-    <row r="1241" spans="2:12">
-      <c r="B1241" s="14" t="s">
+      <c r="G1249" s="39" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H1249" s="17" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I1249" s="17" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J1249" s="17" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K1249" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L1249" s="1" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1250" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="B1250" s="13" t="s">
         <v>7699</v>
       </c>
-      <c r="C1241" s="1" t="s">
+      <c r="E1250" s="1"/>
+      <c r="F1250" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="D1241" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1241" s="14" t="s">
+      <c r="G1250" s="39" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H1250" s="17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I1250" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J1250" s="17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K1250" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="L1250" s="1" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1251" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="B1251" s="13" t="s">
         <v>7700</v>
       </c>
-      <c r="G1241" s="14" t="s">
+      <c r="E1251" s="1"/>
+      <c r="F1251" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G1251" s="39" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H1251" s="17" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I1251" s="17" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J1251" s="17" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K1251" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L1251" s="1" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1252" s="13" customFormat="1" spans="2:12">
+      <c r="B1252" s="13" t="s">
         <v>7701</v>
       </c>
-      <c r="H1241" s="14" t="s">
+      <c r="E1252" s="1"/>
+      <c r="F1252" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G1252" s="39" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H1252" s="17" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I1252" s="17" t="s">
+        <v>1781</v>
+      </c>
+      <c r="J1252" s="17" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K1252" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L1252" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1253" s="13" customFormat="1" ht="15.75" spans="2:12">
+      <c r="B1253" s="13" t="s">
         <v>7702</v>
       </c>
-      <c r="I1241" s="14" t="s">
-        <v>7702</v>
-      </c>
-      <c r="J1241" s="14" t="s">
-        <v>7702</v>
-      </c>
-      <c r="K1241" s="14" t="s">
+      <c r="E1253" s="1"/>
+      <c r="F1253" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G1253" s="39" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H1253" s="17" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I1253" s="17" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J1253" s="42" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K1253" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L1253" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1254" s="13" customFormat="1" spans="2:12">
+      <c r="B1254" s="13" t="s">
         <v>7703</v>
       </c>
-      <c r="L1241" s="14" t="s">
-        <v>7703</v>
-      </c>
-    </row>
-    <row r="1242" spans="2:12">
-      <c r="B1242" s="14" t="s">
+      <c r="E1254" s="1"/>
+      <c r="F1254" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G1254" s="39" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H1254" s="17" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I1254" s="17" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J1254" s="17" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K1254" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L1254" s="1" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1255" s="13" customFormat="1" spans="2:12">
+      <c r="B1255" s="13" t="s">
         <v>7704</v>
       </c>
-      <c r="C1242" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D1242" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1242" s="14" t="s">
+      <c r="E1255" s="1"/>
+      <c r="F1255" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G1255" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1255" s="17" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I1255" s="17" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J1255" s="17" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K1255" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L1255" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1256" s="13" customFormat="1" spans="2:12">
+      <c r="B1256" s="13" t="s">
         <v>7705</v>
       </c>
-      <c r="G1242" s="14" t="s">
+      <c r="E1256" s="1"/>
+      <c r="F1256" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G1256" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H1256" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I1256" s="17" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J1256" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K1256" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="L1256" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1257" s="13" customFormat="1" spans="2:12">
+      <c r="B1257" s="13" t="s">
         <v>7706</v>
       </c>
-      <c r="H1242" s="14" t="s">
+      <c r="E1257" s="14"/>
+      <c r="F1257" s="14" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G1257" s="14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H1257" s="14" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I1257" s="14" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J1257" s="14" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K1257" s="14" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L1257" s="14" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1258" s="13" customFormat="1" ht="27" spans="2:12">
+      <c r="B1258" s="13" t="s">
         <v>7707</v>
       </c>
-      <c r="I1242" s="14" t="s">
-        <v>7707</v>
-      </c>
-      <c r="J1242" s="14" t="s">
-        <v>7707</v>
-      </c>
-      <c r="K1242" s="14" t="s">
+      <c r="E1258" s="14"/>
+      <c r="F1258" s="14" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G1258" s="14" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H1258" s="14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I1258" s="14" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J1258" s="14" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K1258" s="14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="L1258" s="14" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1259" s="13" customFormat="1" spans="2:12">
+      <c r="B1259" s="13" t="s">
         <v>7708</v>
       </c>
-      <c r="L1242" s="14" t="s">
-        <v>7708</v>
-      </c>
-    </row>
-    <row r="1243" spans="2:12">
-      <c r="B1243" s="14" t="s">
+      <c r="E1259" s="14"/>
+      <c r="F1259" s="14" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G1259" s="14" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H1259" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="I1259" s="14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J1259" s="14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K1259" s="14" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L1259" s="14" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1260" s="13" customFormat="1" spans="2:12">
+      <c r="B1260" s="13" t="s">
         <v>7709</v>
       </c>
-      <c r="C1243" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D1243" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1243" s="14" t="s">
+      <c r="E1260" s="14"/>
+      <c r="F1260" s="14" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G1260" s="14" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H1260" s="14" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I1260" s="14" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J1260" s="14" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K1260" s="14" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L1260" s="14" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1261" s="13" customFormat="1" spans="2:12">
+      <c r="B1261" s="13" t="s">
         <v>7710</v>
       </c>
-      <c r="G1243" s="14" t="s">
+      <c r="E1261" s="41"/>
+      <c r="F1261" s="41" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1261" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H1261" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I1261" s="14" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J1261" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K1261" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="L1261" s="14" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1262" s="13" customFormat="1" spans="2:12">
+      <c r="B1262" s="13" t="s">
         <v>7711</v>
       </c>
-      <c r="H1243" s="14" t="s">
+      <c r="E1262" s="41"/>
+      <c r="F1262" s="41" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G1262" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H1262" s="14" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I1262" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="J1262" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K1262" s="14" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L1262" s="14" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1263" s="13" customFormat="1" spans="2:12">
+      <c r="B1263" s="13" t="s">
         <v>7712</v>
       </c>
-      <c r="I1243" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="J1243" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="K1243" s="14" t="s">
+      <c r="E1263" s="41"/>
+      <c r="F1263" s="41" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G1263" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H1263" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="I1263" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="J1263" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="K1263" s="14" t="s">
+        <v>1964</v>
+      </c>
+      <c r="L1263" s="14" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1264" s="13" customFormat="1" spans="2:12">
+      <c r="B1264" s="13" t="s">
         <v>7713</v>
       </c>
-      <c r="L1243" s="14" t="s">
-        <v>7713</v>
-      </c>
-    </row>
-    <row r="1244" spans="2:12">
-      <c r="B1244" s="14" t="s">
+      <c r="E1264" s="41"/>
+      <c r="F1264" s="41" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G1264" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H1264" s="14" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I1264" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J1264" s="14" t="s">
+        <v>1873</v>
+      </c>
+      <c r="K1264" s="14" t="s">
+        <v>1874</v>
+      </c>
+      <c r="L1264" s="14" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1265" s="13" customFormat="1" spans="2:12">
+      <c r="B1265" s="13" t="s">
         <v>7714</v>
       </c>
-      <c r="C1244" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D1244" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1244" s="14" t="s">
+      <c r="E1265" s="41"/>
+      <c r="F1265" s="41" t="s">
         <v>7715</v>
       </c>
-      <c r="G1244" s="14" t="s">
+      <c r="G1265" s="14" t="s">
         <v>7716</v>
       </c>
-      <c r="H1244" s="14" t="s">
+      <c r="H1265" s="14" t="s">
+        <v>7716</v>
+      </c>
+      <c r="I1265" s="14" t="s">
+        <v>7716</v>
+      </c>
+      <c r="J1265" s="14" t="s">
+        <v>7716</v>
+      </c>
+      <c r="K1265" s="14" t="s">
         <v>7717</v>
       </c>
-      <c r="I1244" s="14" t="s">
+      <c r="L1265" s="14" t="s">
         <v>7717</v>
       </c>
-      <c r="J1244" s="14" t="s">
-        <v>7717</v>
-      </c>
-      <c r="K1244" s="14" t="s">
+    </row>
+    <row r="1266" s="13" customFormat="1" spans="2:12">
+      <c r="B1266" s="13" t="s">
         <v>7718</v>
       </c>
-      <c r="L1244" s="14" t="s">
-        <v>7718</v>
-      </c>
-    </row>
-    <row r="1245" spans="2:12">
-      <c r="B1245" s="14" t="s">
+      <c r="E1266" s="41"/>
+      <c r="F1266" s="41" t="s">
         <v>7719</v>
       </c>
-      <c r="C1245" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D1245" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1245" s="14" t="s">
+      <c r="G1266" s="14" t="s">
         <v>7720</v>
       </c>
-      <c r="G1245" s="14" t="s">
+      <c r="H1266" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="I1266" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="J1266" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="K1266" s="14" t="s">
+        <v>7720</v>
+      </c>
+      <c r="L1266" s="14" t="s">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="1267" s="13" customFormat="1" spans="2:12">
+      <c r="B1267" s="13" t="s">
         <v>7721</v>
       </c>
-      <c r="H1245" s="14" t="s">
+      <c r="E1267" s="41"/>
+      <c r="F1267" s="41" t="s">
         <v>7722</v>
       </c>
-      <c r="I1245" s="14" t="s">
-        <v>7722</v>
-      </c>
-      <c r="J1245" s="14" t="s">
-        <v>7722</v>
-      </c>
-      <c r="K1245" s="14" t="s">
+      <c r="G1267" s="14" t="s">
         <v>7723</v>
       </c>
-      <c r="L1245" s="14" t="s">
+      <c r="H1267" s="14" t="s">
         <v>7723</v>
       </c>
-    </row>
-    <row r="1246" spans="2:12">
-      <c r="B1246" s="14" t="s">
+      <c r="I1267" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="J1267" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="K1267" s="14" t="s">
+        <v>7723</v>
+      </c>
+      <c r="L1267" s="14" t="s">
+        <v>7723</v>
+      </c>
+    </row>
+    <row r="1268" s="7" customFormat="1" ht="162" spans="2:12">
+      <c r="B1268" s="7" t="s">
         <v>7724</v>
       </c>
-      <c r="C1246" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D1246" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1246" s="14" t="s">
+      <c r="C1268" s="7" t="s">
         <v>7725</v>
       </c>
-      <c r="G1246" s="14" t="s">
+      <c r="F1268" s="7" t="s">
         <v>7726</v>
       </c>
-      <c r="H1246" s="14" t="s">
+      <c r="G1268" s="7" t="s">
         <v>7727</v>
       </c>
-      <c r="I1246" s="14" t="s">
-        <v>7727</v>
-      </c>
-      <c r="J1246" s="14" t="s">
-        <v>7727</v>
-      </c>
-      <c r="K1246" s="14" t="s">
+      <c r="H1268" s="7" t="s">
         <v>7728</v>
       </c>
-      <c r="L1246" s="14" t="s">
-        <v>7728</v>
-      </c>
-    </row>
-    <row r="1247" spans="2:12">
-      <c r="B1247" s="14" t="s">
+      <c r="I1268" s="7" t="s">
         <v>7729</v>
       </c>
-      <c r="C1247" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D1247" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1247" s="14" t="s">
+      <c r="J1268" s="7" t="s">
         <v>7730</v>
       </c>
-      <c r="G1247" s="14" t="s">
+      <c r="K1268" s="7" t="s">
         <v>7731</v>
       </c>
-      <c r="H1247" s="14" t="s">
+      <c r="L1268" s="7" t="s">
         <v>7732</v>
       </c>
-      <c r="I1247" s="14" t="s">
-        <v>7732</v>
-      </c>
-      <c r="J1247" s="14" t="s">
-        <v>7732</v>
-      </c>
-      <c r="K1247" s="14" t="s">
+    </row>
+    <row r="1269" ht="297" spans="2:12">
+      <c r="B1269" s="14" t="s">
         <v>7733</v>
       </c>
-      <c r="L1247" s="14" t="s">
-        <v>7733</v>
-      </c>
-    </row>
-    <row r="1248" spans="2:12">
-      <c r="B1248" s="14" t="s">
+      <c r="C1269" s="14" t="s">
         <v>7734</v>
       </c>
-      <c r="C1248" s="14" t="s">
+      <c r="E1269" s="27"/>
+      <c r="F1269" s="27" t="s">
         <v>7735</v>
       </c>
-      <c r="D1248" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1248" s="14" t="s">
+      <c r="G1269" s="14" t="s">
         <v>7736</v>
       </c>
-      <c r="G1248" s="14" t="s">
+      <c r="H1269" s="14" t="s">
         <v>7737</v>
       </c>
-      <c r="H1248" s="14" t="s">
+      <c r="I1269" s="14" t="s">
         <v>7738</v>
       </c>
-      <c r="I1248" s="14" t="s">
-        <v>7738</v>
-      </c>
-      <c r="J1248" s="14" t="s">
-        <v>7738</v>
-      </c>
-      <c r="K1248" s="14" t="s">
+      <c r="J1269" s="14" t="s">
         <v>7739</v>
       </c>
-      <c r="L1248" s="14" t="s">
-        <v>7739</v>
-      </c>
-    </row>
-    <row r="1249" spans="2:12">
-      <c r="B1249" s="14" t="s">
+      <c r="K1269" s="14" t="s">
         <v>7740</v>
       </c>
-      <c r="C1249" s="14" t="s">
+      <c r="L1269" s="14" t="s">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="1270" s="2" customFormat="1" spans="2:12">
+      <c r="B1270" s="1" t="s">
         <v>7741</v>
       </c>
-      <c r="D1249" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1249" s="14" t="s">
+      <c r="C1270" s="1" t="s">
         <v>7742</v>
-      </c>
-      <c r="G1249" s="14" t="s">
-        <v>7743</v>
-      </c>
-      <c r="H1249" s="14" t="s">
-        <v>7744</v>
-      </c>
-      <c r="I1249" s="14" t="s">
-        <v>7744</v>
-      </c>
-      <c r="J1249" s="14" t="s">
-        <v>7744</v>
-      </c>
-      <c r="K1249" s="14" t="s">
-        <v>7745</v>
-      </c>
-      <c r="L1249" s="14" t="s">
-        <v>7745</v>
-      </c>
-    </row>
-    <row r="1250" spans="2:12">
-      <c r="B1250" s="14" t="s">
-        <v>7746</v>
-      </c>
-      <c r="C1250" s="14" t="s">
-        <v>7747</v>
-      </c>
-      <c r="D1250" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1250" s="14" t="s">
-        <v>7748</v>
-      </c>
-      <c r="G1250" s="14" t="s">
-        <v>7749</v>
-      </c>
-      <c r="H1250" s="14" t="s">
-        <v>7750</v>
-      </c>
-      <c r="I1250" s="14" t="s">
-        <v>7750</v>
-      </c>
-      <c r="J1250" s="14" t="s">
-        <v>7750</v>
-      </c>
-      <c r="K1250" s="14" t="s">
-        <v>7751</v>
-      </c>
-      <c r="L1250" s="14" t="s">
-        <v>7751</v>
-      </c>
-    </row>
-    <row r="1251" spans="2:12">
-      <c r="B1251" s="14" t="s">
-        <v>7752</v>
-      </c>
-      <c r="C1251" s="14" t="s">
-        <v>7753</v>
-      </c>
-      <c r="D1251" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1251" s="14" t="s">
-        <v>7754</v>
-      </c>
-      <c r="G1251" s="14" t="s">
-        <v>7755</v>
-      </c>
-      <c r="H1251" s="14" t="s">
-        <v>7756</v>
-      </c>
-      <c r="I1251" s="14" t="s">
-        <v>7756</v>
-      </c>
-      <c r="J1251" s="14" t="s">
-        <v>7756</v>
-      </c>
-      <c r="K1251" s="14" t="s">
-        <v>7757</v>
-      </c>
-      <c r="L1251" s="14" t="s">
-        <v>7757</v>
-      </c>
-    </row>
-    <row r="1252" spans="2:12">
-      <c r="B1252" s="14" t="s">
-        <v>7758</v>
-      </c>
-      <c r="C1252" s="41" t="s">
-        <v>7759</v>
-      </c>
-      <c r="D1252" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1252" s="14" t="s">
-        <v>7760</v>
-      </c>
-      <c r="G1252" s="14" t="s">
-        <v>7761</v>
-      </c>
-      <c r="H1252" s="14" t="s">
-        <v>7762</v>
-      </c>
-      <c r="I1252" s="14" t="s">
-        <v>7762</v>
-      </c>
-      <c r="J1252" s="14" t="s">
-        <v>7762</v>
-      </c>
-      <c r="K1252" s="14" t="s">
-        <v>7763</v>
-      </c>
-      <c r="L1252" s="14" t="s">
-        <v>7763</v>
-      </c>
-    </row>
-    <row r="1253" spans="2:12">
-      <c r="B1253" s="14" t="s">
-        <v>7764</v>
-      </c>
-      <c r="C1253" s="41" t="s">
-        <v>7765</v>
-      </c>
-      <c r="D1253" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1253" s="14" t="s">
-        <v>7766</v>
-      </c>
-      <c r="G1253" s="14" t="s">
-        <v>7767</v>
-      </c>
-      <c r="H1253" s="14" t="s">
-        <v>7768</v>
-      </c>
-      <c r="I1253" s="14" t="s">
-        <v>7768</v>
-      </c>
-      <c r="J1253" s="14" t="s">
-        <v>7768</v>
-      </c>
-      <c r="K1253" s="14" t="s">
-        <v>7769</v>
-      </c>
-      <c r="L1253" s="14" t="s">
-        <v>7769</v>
-      </c>
-    </row>
-    <row r="1254" spans="2:12">
-      <c r="B1254" s="14" t="s">
-        <v>7770</v>
-      </c>
-      <c r="C1254" s="41" t="s">
-        <v>7771</v>
-      </c>
-      <c r="D1254" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1254" s="14" t="s">
-        <v>7772</v>
-      </c>
-      <c r="G1254" s="14" t="s">
-        <v>7773</v>
-      </c>
-      <c r="H1254" s="14" t="s">
-        <v>7774</v>
-      </c>
-      <c r="I1254" s="14" t="s">
-        <v>7774</v>
-      </c>
-      <c r="J1254" s="14" t="s">
-        <v>7774</v>
-      </c>
-      <c r="K1254" s="14" t="s">
-        <v>7775</v>
-      </c>
-      <c r="L1254" s="14" t="s">
-        <v>7775</v>
-      </c>
-    </row>
-    <row r="1255" spans="2:12">
-      <c r="B1255" s="14" t="s">
-        <v>7776</v>
-      </c>
-      <c r="C1255" s="41" t="s">
-        <v>7777</v>
-      </c>
-      <c r="D1255" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1255" s="14" t="s">
-        <v>7778</v>
-      </c>
-      <c r="G1255" s="14" t="s">
-        <v>7779</v>
-      </c>
-      <c r="H1255" s="14" t="s">
-        <v>7780</v>
-      </c>
-      <c r="I1255" s="14" t="s">
-        <v>7780</v>
-      </c>
-      <c r="J1255" s="14" t="s">
-        <v>7780</v>
-      </c>
-      <c r="K1255" s="14" t="s">
-        <v>7781</v>
-      </c>
-      <c r="L1255" s="14" t="s">
-        <v>7781</v>
-      </c>
-    </row>
-    <row r="1256" spans="2:12">
-      <c r="B1256" s="14" t="s">
-        <v>7782</v>
-      </c>
-      <c r="C1256" s="14" t="s">
-        <v>7783</v>
-      </c>
-      <c r="D1256" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1256" s="14" t="s">
-        <v>7784</v>
-      </c>
-      <c r="G1256" s="14" t="s">
-        <v>7785</v>
-      </c>
-      <c r="H1256" s="14" t="s">
-        <v>7786</v>
-      </c>
-      <c r="I1256" s="14" t="s">
-        <v>7786</v>
-      </c>
-      <c r="J1256" s="14" t="s">
-        <v>7786</v>
-      </c>
-      <c r="K1256" s="14" t="s">
-        <v>7787</v>
-      </c>
-      <c r="L1256" s="14" t="s">
-        <v>7787</v>
-      </c>
-    </row>
-    <row r="1257" spans="2:12">
-      <c r="B1257" s="14" t="s">
-        <v>7788</v>
-      </c>
-      <c r="C1257" s="14" t="s">
-        <v>7789</v>
-      </c>
-      <c r="D1257" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1257" s="14" t="s">
-        <v>7790</v>
-      </c>
-      <c r="G1257" s="14" t="s">
-        <v>7791</v>
-      </c>
-      <c r="H1257" s="14" t="s">
-        <v>7792</v>
-      </c>
-      <c r="I1257" s="14" t="s">
-        <v>7792</v>
-      </c>
-      <c r="J1257" s="14" t="s">
-        <v>7792</v>
-      </c>
-      <c r="K1257" s="14" t="s">
-        <v>7793</v>
-      </c>
-      <c r="L1257" s="14" t="s">
-        <v>7793</v>
-      </c>
-    </row>
-    <row r="1258" spans="2:12">
-      <c r="B1258" s="14" t="s">
-        <v>7794</v>
-      </c>
-      <c r="C1258" s="14" t="s">
-        <v>7795</v>
-      </c>
-      <c r="D1258" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1258" s="14" t="s">
-        <v>7796</v>
-      </c>
-      <c r="G1258" s="14" t="s">
-        <v>7797</v>
-      </c>
-      <c r="H1258" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="I1258" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="J1258" s="14" t="s">
-        <v>7798</v>
-      </c>
-      <c r="K1258" s="14" t="s">
-        <v>7799</v>
-      </c>
-      <c r="L1258" s="14" t="s">
-        <v>7799</v>
-      </c>
-    </row>
-    <row r="1259" spans="2:12">
-      <c r="B1259" s="14" t="s">
-        <v>7800</v>
-      </c>
-      <c r="C1259" s="14" t="s">
-        <v>7801</v>
-      </c>
-      <c r="D1259" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1259" s="14" t="s">
-        <v>7802</v>
-      </c>
-      <c r="G1259" s="14" t="s">
-        <v>7803</v>
-      </c>
-      <c r="H1259" s="14" t="s">
-        <v>7804</v>
-      </c>
-      <c r="I1259" s="14" t="s">
-        <v>7804</v>
-      </c>
-      <c r="J1259" s="14" t="s">
-        <v>7804</v>
-      </c>
-      <c r="K1259" s="14" t="s">
-        <v>7805</v>
-      </c>
-      <c r="L1259" s="14" t="s">
-        <v>7805</v>
-      </c>
-    </row>
-    <row r="1260" spans="2:12">
-      <c r="B1260" s="14" t="s">
-        <v>7806</v>
-      </c>
-      <c r="C1260" s="14" t="s">
-        <v>7807</v>
-      </c>
-      <c r="D1260" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1260" s="14" t="s">
-        <v>7808</v>
-      </c>
-      <c r="G1260" s="14" t="s">
-        <v>7809</v>
-      </c>
-      <c r="H1260" s="14" t="s">
-        <v>7810</v>
-      </c>
-      <c r="I1260" s="14" t="s">
-        <v>7810</v>
-      </c>
-      <c r="J1260" s="14" t="s">
-        <v>7810</v>
-      </c>
-      <c r="K1260" s="14" t="s">
-        <v>7811</v>
-      </c>
-      <c r="L1260" s="14" t="s">
-        <v>7811</v>
-      </c>
-    </row>
-    <row r="1261" spans="2:12">
-      <c r="B1261" s="14" t="s">
-        <v>7812</v>
-      </c>
-      <c r="C1261" s="14" t="s">
-        <v>7813</v>
-      </c>
-      <c r="D1261" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1261" s="14" t="s">
-        <v>7814</v>
-      </c>
-      <c r="G1261" s="14" t="s">
-        <v>7815</v>
-      </c>
-      <c r="H1261" s="14" t="s">
-        <v>7816</v>
-      </c>
-      <c r="I1261" s="14" t="s">
-        <v>7816</v>
-      </c>
-      <c r="J1261" s="14" t="s">
-        <v>7816</v>
-      </c>
-      <c r="K1261" s="14" t="s">
-        <v>7817</v>
-      </c>
-      <c r="L1261" s="14" t="s">
-        <v>7817</v>
-      </c>
-    </row>
-    <row r="1262" spans="2:12">
-      <c r="B1262" s="14" t="s">
-        <v>7818</v>
-      </c>
-      <c r="C1262" s="14" t="s">
-        <v>7819</v>
-      </c>
-      <c r="D1262" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1262" s="14" t="s">
-        <v>7820</v>
-      </c>
-      <c r="G1262" s="14" t="s">
-        <v>7821</v>
-      </c>
-      <c r="H1262" s="14" t="s">
-        <v>7822</v>
-      </c>
-      <c r="I1262" s="14" t="s">
-        <v>7822</v>
-      </c>
-      <c r="J1262" s="14" t="s">
-        <v>7822</v>
-      </c>
-      <c r="K1262" s="14" t="s">
-        <v>7823</v>
-      </c>
-      <c r="L1262" s="14" t="s">
-        <v>7823</v>
-      </c>
-    </row>
-    <row r="1263" spans="2:12">
-      <c r="B1263" s="14" t="s">
-        <v>7824</v>
-      </c>
-      <c r="C1263" s="14" t="s">
-        <v>7825</v>
-      </c>
-      <c r="D1263" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1263" s="14" t="s">
-        <v>7826</v>
-      </c>
-      <c r="G1263" s="14" t="s">
-        <v>7827</v>
-      </c>
-      <c r="H1263" s="14" t="s">
-        <v>7828</v>
-      </c>
-      <c r="I1263" s="14" t="s">
-        <v>7828</v>
-      </c>
-      <c r="J1263" s="14" t="s">
-        <v>7828</v>
-      </c>
-      <c r="K1263" s="14" t="s">
-        <v>7829</v>
-      </c>
-      <c r="L1263" s="14" t="s">
-        <v>7829</v>
-      </c>
-    </row>
-    <row r="1264" spans="2:12">
-      <c r="B1264" s="14" t="s">
-        <v>7830</v>
-      </c>
-      <c r="C1264" s="14" t="s">
-        <v>7831</v>
-      </c>
-      <c r="D1264" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1264" s="14" t="s">
-        <v>7832</v>
-      </c>
-      <c r="G1264" s="14" t="s">
-        <v>7833</v>
-      </c>
-      <c r="H1264" s="14" t="s">
-        <v>7834</v>
-      </c>
-      <c r="I1264" s="14" t="s">
-        <v>7834</v>
-      </c>
-      <c r="J1264" s="14" t="s">
-        <v>7834</v>
-      </c>
-      <c r="K1264" s="14" t="s">
-        <v>7835</v>
-      </c>
-      <c r="L1264" s="14" t="s">
-        <v>7835</v>
-      </c>
-    </row>
-    <row r="1265" spans="2:12">
-      <c r="B1265" s="14" t="s">
-        <v>7836</v>
-      </c>
-      <c r="C1265" s="14" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D1265" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1265" s="14" t="s">
-        <v>7837</v>
-      </c>
-      <c r="G1265" s="14" t="s">
-        <v>7838</v>
-      </c>
-      <c r="H1265" s="14" t="s">
-        <v>7839</v>
-      </c>
-      <c r="I1265" s="14" t="s">
-        <v>7839</v>
-      </c>
-      <c r="J1265" s="14" t="s">
-        <v>7839</v>
-      </c>
-      <c r="K1265" s="14" t="s">
-        <v>7840</v>
-      </c>
-      <c r="L1265" s="14" t="s">
-        <v>7840</v>
-      </c>
-    </row>
-    <row r="1266" spans="2:12">
-      <c r="B1266" s="14" t="s">
-        <v>7841</v>
-      </c>
-      <c r="C1266" s="14" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D1266" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1266" s="14" t="s">
-        <v>7842</v>
-      </c>
-      <c r="G1266" s="14" t="s">
-        <v>7843</v>
-      </c>
-      <c r="H1266" s="14" t="s">
-        <v>7844</v>
-      </c>
-      <c r="I1266" s="14" t="s">
-        <v>7844</v>
-      </c>
-      <c r="J1266" s="14" t="s">
-        <v>7844</v>
-      </c>
-      <c r="K1266" s="14" t="s">
-        <v>7845</v>
-      </c>
-      <c r="L1266" s="14" t="s">
-        <v>7845</v>
-      </c>
-    </row>
-    <row r="1267" spans="2:12">
-      <c r="B1267" s="14" t="s">
-        <v>7846</v>
-      </c>
-      <c r="C1267" s="14" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D1267" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1267" s="14" t="s">
-        <v>7847</v>
-      </c>
-      <c r="G1267" s="14" t="s">
-        <v>7848</v>
-      </c>
-      <c r="H1267" s="14" t="s">
-        <v>7849</v>
-      </c>
-      <c r="I1267" s="14" t="s">
-        <v>7849</v>
-      </c>
-      <c r="J1267" s="14" t="s">
-        <v>7849</v>
-      </c>
-      <c r="K1267" s="14" t="s">
-        <v>7850</v>
-      </c>
-      <c r="L1267" s="14" t="s">
-        <v>7850</v>
-      </c>
-    </row>
-    <row r="1268" spans="2:12">
-      <c r="B1268" s="14" t="s">
-        <v>7851</v>
-      </c>
-      <c r="C1268" s="14" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D1268" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1268" s="14" t="s">
-        <v>7852</v>
-      </c>
-      <c r="G1268" s="14" t="s">
-        <v>7853</v>
-      </c>
-      <c r="H1268" s="14" t="s">
-        <v>7854</v>
-      </c>
-      <c r="I1268" s="14" t="s">
-        <v>7854</v>
-      </c>
-      <c r="J1268" s="14" t="s">
-        <v>7854</v>
-      </c>
-      <c r="K1268" s="14" t="s">
-        <v>7855</v>
-      </c>
-      <c r="L1268" s="14" t="s">
-        <v>7855</v>
-      </c>
-    </row>
-    <row r="1269" spans="2:12">
-      <c r="B1269" s="14" t="s">
-        <v>7856</v>
-      </c>
-      <c r="C1269" s="14" t="s">
-        <v>7857</v>
-      </c>
-      <c r="D1269" s="45" t="s">
-        <v>3052</v>
-      </c>
-      <c r="F1269" s="14" t="s">
-        <v>7858</v>
-      </c>
-      <c r="G1269" s="14" t="s">
-        <v>7859</v>
-      </c>
-      <c r="H1269" s="14" t="s">
-        <v>7860</v>
-      </c>
-      <c r="I1269" s="14" t="s">
-        <v>7860</v>
-      </c>
-      <c r="J1269" s="14" t="s">
-        <v>7860</v>
-      </c>
-      <c r="K1269" s="14" t="s">
-        <v>7861</v>
-      </c>
-      <c r="L1269" s="14" t="s">
-        <v>7861</v>
-      </c>
-    </row>
-    <row r="1270" spans="2:12">
-      <c r="B1270" s="14" t="s">
-        <v>7862</v>
-      </c>
-      <c r="C1270" s="14" t="s">
-        <v>7863</v>
       </c>
       <c r="D1270" s="45" t="s">
         <v>3052</v>
       </c>
-      <c r="F1270" s="14" t="s">
-        <v>7864</v>
-      </c>
-      <c r="G1270" s="14" t="s">
-        <v>7865</v>
-      </c>
-      <c r="H1270" s="14" t="s">
-        <v>7866</v>
-      </c>
-      <c r="I1270" s="14" t="s">
-        <v>7866</v>
-      </c>
-      <c r="J1270" s="14" t="s">
-        <v>7866</v>
-      </c>
-      <c r="K1270" s="14" t="s">
-        <v>7867</v>
-      </c>
-      <c r="L1270" s="14" t="s">
-        <v>7867</v>
+      <c r="E1270" s="39"/>
+      <c r="F1270" s="39" t="s">
+        <v>7743</v>
+      </c>
+      <c r="G1270" s="39" t="s">
+        <v>7744</v>
+      </c>
+      <c r="H1270" s="39" t="s">
+        <v>7745</v>
+      </c>
+      <c r="I1270" s="39" t="s">
+        <v>7745</v>
+      </c>
+      <c r="J1270" s="39" t="s">
+        <v>7745</v>
+      </c>
+      <c r="K1270" s="39" t="s">
+        <v>7746</v>
+      </c>
+      <c r="L1270" s="39" t="s">
+        <v>7746</v>
       </c>
     </row>
     <row r="1271" spans="2:12">
-      <c r="B1271" s="14" t="s">
-        <v>7868</v>
+      <c r="B1271" s="1" t="s">
+        <v>7747</v>
       </c>
       <c r="C1271" s="14" t="s">
-        <v>7869</v>
+        <v>7748</v>
       </c>
       <c r="D1271" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1271" s="14" t="s">
-        <v>7870</v>
+        <v>7749</v>
       </c>
       <c r="G1271" s="14" t="s">
-        <v>7871</v>
+        <v>7750</v>
       </c>
       <c r="H1271" s="14" t="s">
-        <v>7872</v>
+        <v>7751</v>
       </c>
       <c r="I1271" s="14" t="s">
-        <v>7872</v>
+        <v>7751</v>
       </c>
       <c r="J1271" s="14" t="s">
-        <v>7872</v>
+        <v>7751</v>
       </c>
       <c r="K1271" s="14" t="s">
-        <v>7873</v>
+        <v>7752</v>
       </c>
       <c r="L1271" s="14" t="s">
-        <v>7873</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="1272" spans="2:12">
-      <c r="B1272" s="14" t="s">
-        <v>7874</v>
+      <c r="B1272" s="1" t="s">
+        <v>7753</v>
       </c>
       <c r="C1272" s="14" t="s">
-        <v>7875</v>
+        <v>7754</v>
       </c>
       <c r="D1272" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1272" s="14" t="s">
-        <v>7876</v>
+        <v>7755</v>
       </c>
       <c r="G1272" s="14" t="s">
-        <v>7877</v>
+        <v>7756</v>
       </c>
       <c r="H1272" s="14" t="s">
-        <v>7878</v>
+        <v>7757</v>
       </c>
       <c r="I1272" s="14" t="s">
-        <v>7878</v>
+        <v>7757</v>
       </c>
       <c r="J1272" s="14" t="s">
-        <v>7878</v>
+        <v>7757</v>
       </c>
       <c r="K1272" s="14" t="s">
-        <v>7879</v>
+        <v>7758</v>
       </c>
       <c r="L1272" s="14" t="s">
-        <v>7879</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="1273" spans="2:12">
-      <c r="B1273" s="14" t="s">
-        <v>7880</v>
+      <c r="B1273" s="1" t="s">
+        <v>7759</v>
       </c>
       <c r="C1273" s="14" t="s">
-        <v>7881</v>
+        <v>7760</v>
       </c>
       <c r="D1273" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1273" s="14" t="s">
-        <v>7882</v>
+        <v>7761</v>
       </c>
       <c r="G1273" s="14" t="s">
-        <v>7883</v>
+        <v>7761</v>
       </c>
       <c r="H1273" s="14" t="s">
-        <v>7884</v>
+        <v>7761</v>
       </c>
       <c r="I1273" s="14" t="s">
-        <v>7884</v>
+        <v>7761</v>
       </c>
       <c r="J1273" s="14" t="s">
-        <v>7884</v>
+        <v>7761</v>
       </c>
       <c r="K1273" s="14" t="s">
-        <v>7885</v>
+        <v>7761</v>
       </c>
       <c r="L1273" s="14" t="s">
-        <v>7885</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="1274" spans="2:12">
-      <c r="B1274" s="14" t="s">
-        <v>7886</v>
+      <c r="B1274" s="1" t="s">
+        <v>7762</v>
       </c>
       <c r="C1274" s="14" t="s">
-        <v>7887</v>
+        <v>7763</v>
       </c>
       <c r="D1274" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1274" s="14" t="s">
-        <v>7888</v>
+        <v>7764</v>
       </c>
       <c r="G1274" s="14" t="s">
-        <v>7889</v>
+        <v>7764</v>
       </c>
       <c r="H1274" s="14" t="s">
-        <v>7890</v>
+        <v>7764</v>
       </c>
       <c r="I1274" s="14" t="s">
-        <v>7890</v>
+        <v>7764</v>
       </c>
       <c r="J1274" s="14" t="s">
-        <v>7890</v>
+        <v>7764</v>
       </c>
       <c r="K1274" s="14" t="s">
-        <v>7891</v>
+        <v>7764</v>
       </c>
       <c r="L1274" s="14" t="s">
-        <v>7891</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="1275" spans="2:12">
-      <c r="B1275" s="14" t="s">
-        <v>7892</v>
+      <c r="B1275" s="1" t="s">
+        <v>7765</v>
       </c>
       <c r="C1275" s="14" t="s">
-        <v>7893</v>
+        <v>7766</v>
       </c>
       <c r="D1275" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1275" s="14" t="s">
-        <v>7894</v>
+        <v>7767</v>
       </c>
       <c r="G1275" s="14" t="s">
-        <v>7895</v>
+        <v>7767</v>
       </c>
       <c r="H1275" s="14" t="s">
-        <v>7896</v>
+        <v>7767</v>
       </c>
       <c r="I1275" s="14" t="s">
-        <v>7896</v>
+        <v>7767</v>
       </c>
       <c r="J1275" s="14" t="s">
-        <v>7896</v>
+        <v>7767</v>
       </c>
       <c r="K1275" s="14" t="s">
-        <v>7897</v>
+        <v>7767</v>
       </c>
       <c r="L1275" s="14" t="s">
-        <v>7897</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="1276" spans="2:12">
       <c r="B1276" s="14" t="s">
-        <v>7898</v>
+        <v>7768</v>
       </c>
       <c r="C1276" s="14" t="s">
-        <v>7899</v>
+        <v>7769</v>
       </c>
       <c r="D1276" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1276" s="14" t="s">
-        <v>7900</v>
+        <v>7770</v>
       </c>
       <c r="G1276" s="14" t="s">
-        <v>7901</v>
+        <v>7771</v>
       </c>
       <c r="H1276" s="14" t="s">
-        <v>7902</v>
+        <v>7772</v>
       </c>
       <c r="I1276" s="14" t="s">
-        <v>7902</v>
+        <v>7772</v>
       </c>
       <c r="J1276" s="14" t="s">
-        <v>7902</v>
+        <v>7772</v>
       </c>
       <c r="K1276" s="14" t="s">
-        <v>7903</v>
+        <v>7773</v>
       </c>
       <c r="L1276" s="14" t="s">
-        <v>7903</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="1277" spans="2:12">
       <c r="B1277" s="14" t="s">
-        <v>7904</v>
+        <v>7774</v>
       </c>
       <c r="C1277" s="14" t="s">
-        <v>7905</v>
+        <v>7775</v>
       </c>
       <c r="D1277" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1277" s="14" t="s">
-        <v>7906</v>
+        <v>7776</v>
       </c>
       <c r="G1277" s="14" t="s">
-        <v>7907</v>
+        <v>7777</v>
       </c>
       <c r="H1277" s="14" t="s">
-        <v>7908</v>
+        <v>7778</v>
       </c>
       <c r="I1277" s="14" t="s">
-        <v>7908</v>
+        <v>7778</v>
       </c>
       <c r="J1277" s="14" t="s">
-        <v>7908</v>
+        <v>7778</v>
       </c>
       <c r="K1277" s="14" t="s">
-        <v>7909</v>
+        <v>7779</v>
       </c>
       <c r="L1277" s="14" t="s">
-        <v>7909</v>
+        <v>7779</v>
       </c>
     </row>
     <row r="1278" spans="2:12">
       <c r="B1278" s="14" t="s">
-        <v>7910</v>
+        <v>7780</v>
       </c>
       <c r="C1278" s="14" t="s">
-        <v>7911</v>
+        <v>7781</v>
       </c>
       <c r="D1278" s="45" t="s">
         <v>3052</v>
       </c>
       <c r="F1278" s="14" t="s">
+        <v>7782</v>
+      </c>
+      <c r="G1278" s="14" t="s">
+        <v>7783</v>
+      </c>
+      <c r="H1278" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="I1278" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="J1278" s="14" t="s">
+        <v>7784</v>
+      </c>
+      <c r="K1278" s="14" t="s">
+        <v>7785</v>
+      </c>
+      <c r="L1278" s="14" t="s">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="1279" spans="2:12">
+      <c r="B1279" s="14" t="s">
+        <v>7786</v>
+      </c>
+      <c r="C1279" s="14" t="s">
+        <v>7787</v>
+      </c>
+      <c r="D1279" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1279" s="14" t="s">
+        <v>7788</v>
+      </c>
+      <c r="G1279" s="14" t="s">
+        <v>7789</v>
+      </c>
+      <c r="H1279" s="14" t="s">
+        <v>7790</v>
+      </c>
+      <c r="I1279" s="14" t="s">
+        <v>7790</v>
+      </c>
+      <c r="J1279" s="14" t="s">
+        <v>7790</v>
+      </c>
+      <c r="K1279" s="14" t="s">
+        <v>7791</v>
+      </c>
+      <c r="L1279" s="14" t="s">
+        <v>7791</v>
+      </c>
+    </row>
+    <row r="1280" spans="2:12">
+      <c r="B1280" s="14" t="s">
+        <v>7792</v>
+      </c>
+      <c r="C1280" s="14" t="s">
+        <v>7793</v>
+      </c>
+      <c r="D1280" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1280" s="14" t="s">
+        <v>7794</v>
+      </c>
+      <c r="G1280" s="14" t="s">
+        <v>7795</v>
+      </c>
+      <c r="H1280" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="I1280" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="J1280" s="14" t="s">
+        <v>7796</v>
+      </c>
+      <c r="K1280" s="14" t="s">
+        <v>7797</v>
+      </c>
+      <c r="L1280" s="14" t="s">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="1281" spans="2:12">
+      <c r="B1281" s="14" t="s">
+        <v>7798</v>
+      </c>
+      <c r="C1281" s="14" t="s">
+        <v>7799</v>
+      </c>
+      <c r="D1281" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1281" s="14" t="s">
+        <v>7800</v>
+      </c>
+      <c r="G1281" s="14" t="s">
+        <v>7801</v>
+      </c>
+      <c r="H1281" s="14" t="s">
+        <v>7802</v>
+      </c>
+      <c r="I1281" s="14" t="s">
+        <v>7802</v>
+      </c>
+      <c r="J1281" s="14" t="s">
+        <v>7802</v>
+      </c>
+      <c r="K1281" s="14" t="s">
+        <v>7803</v>
+      </c>
+      <c r="L1281" s="14" t="s">
+        <v>7803</v>
+      </c>
+    </row>
+    <row r="1282" spans="2:12">
+      <c r="B1282" s="14" t="s">
+        <v>7804</v>
+      </c>
+      <c r="C1282" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D1282" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1282" s="14" t="s">
+        <v>7805</v>
+      </c>
+      <c r="G1282" s="14" t="s">
+        <v>7806</v>
+      </c>
+      <c r="H1282" s="14" t="s">
+        <v>7807</v>
+      </c>
+      <c r="I1282" s="14" t="s">
+        <v>7807</v>
+      </c>
+      <c r="J1282" s="14" t="s">
+        <v>7807</v>
+      </c>
+      <c r="K1282" s="14" t="s">
+        <v>7808</v>
+      </c>
+      <c r="L1282" s="14" t="s">
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="1283" spans="2:12">
+      <c r="B1283" s="14" t="s">
+        <v>7809</v>
+      </c>
+      <c r="C1283" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1283" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1283" s="14" t="s">
+        <v>7810</v>
+      </c>
+      <c r="G1283" s="14" t="s">
+        <v>7811</v>
+      </c>
+      <c r="H1283" s="14" t="s">
+        <v>7812</v>
+      </c>
+      <c r="I1283" s="14" t="s">
+        <v>7812</v>
+      </c>
+      <c r="J1283" s="14" t="s">
+        <v>7812</v>
+      </c>
+      <c r="K1283" s="14" t="s">
+        <v>7813</v>
+      </c>
+      <c r="L1283" s="14" t="s">
+        <v>7813</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:12">
+      <c r="B1284" s="14" t="s">
+        <v>7814</v>
+      </c>
+      <c r="C1284" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D1284" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1284" s="14" t="s">
+        <v>7815</v>
+      </c>
+      <c r="G1284" s="14" t="s">
+        <v>7816</v>
+      </c>
+      <c r="H1284" s="14" t="s">
+        <v>7817</v>
+      </c>
+      <c r="I1284" s="14" t="s">
+        <v>7817</v>
+      </c>
+      <c r="J1284" s="14" t="s">
+        <v>7817</v>
+      </c>
+      <c r="K1284" s="14" t="s">
+        <v>7818</v>
+      </c>
+      <c r="L1284" s="14" t="s">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="1285" spans="2:12">
+      <c r="B1285" s="14" t="s">
+        <v>7819</v>
+      </c>
+      <c r="C1285" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1285" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1285" s="14" t="s">
+        <v>7820</v>
+      </c>
+      <c r="G1285" s="14" t="s">
+        <v>7821</v>
+      </c>
+      <c r="H1285" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="I1285" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="J1285" s="14" t="s">
+        <v>7822</v>
+      </c>
+      <c r="K1285" s="14" t="s">
+        <v>7823</v>
+      </c>
+      <c r="L1285" s="14" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="1286" spans="2:12">
+      <c r="B1286" s="14" t="s">
+        <v>7824</v>
+      </c>
+      <c r="C1286" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D1286" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1286" s="14" t="s">
+        <v>7825</v>
+      </c>
+      <c r="G1286" s="14" t="s">
+        <v>7826</v>
+      </c>
+      <c r="H1286" s="14" t="s">
+        <v>7827</v>
+      </c>
+      <c r="I1286" s="14" t="s">
+        <v>7827</v>
+      </c>
+      <c r="J1286" s="14" t="s">
+        <v>7827</v>
+      </c>
+      <c r="K1286" s="14" t="s">
+        <v>7828</v>
+      </c>
+      <c r="L1286" s="14" t="s">
+        <v>7828</v>
+      </c>
+    </row>
+    <row r="1287" spans="2:12">
+      <c r="B1287" s="14" t="s">
+        <v>7829</v>
+      </c>
+      <c r="C1287" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D1287" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1287" s="14" t="s">
+        <v>7830</v>
+      </c>
+      <c r="G1287" s="14" t="s">
+        <v>7831</v>
+      </c>
+      <c r="H1287" s="14" t="s">
+        <v>7832</v>
+      </c>
+      <c r="I1287" s="14" t="s">
+        <v>7832</v>
+      </c>
+      <c r="J1287" s="14" t="s">
+        <v>7832</v>
+      </c>
+      <c r="K1287" s="14" t="s">
+        <v>7833</v>
+      </c>
+      <c r="L1287" s="14" t="s">
+        <v>7833</v>
+      </c>
+    </row>
+    <row r="1288" spans="2:12">
+      <c r="B1288" s="14" t="s">
+        <v>7834</v>
+      </c>
+      <c r="C1288" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D1288" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1288" s="14" t="s">
+        <v>7835</v>
+      </c>
+      <c r="G1288" s="14" t="s">
+        <v>7836</v>
+      </c>
+      <c r="H1288" s="14" t="s">
+        <v>7837</v>
+      </c>
+      <c r="I1288" s="14" t="s">
+        <v>7837</v>
+      </c>
+      <c r="J1288" s="14" t="s">
+        <v>7837</v>
+      </c>
+      <c r="K1288" s="14" t="s">
+        <v>7838</v>
+      </c>
+      <c r="L1288" s="14" t="s">
+        <v>7838</v>
+      </c>
+    </row>
+    <row r="1289" spans="2:12">
+      <c r="B1289" s="14" t="s">
+        <v>7839</v>
+      </c>
+      <c r="C1289" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D1289" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1289" s="14" t="s">
+        <v>7840</v>
+      </c>
+      <c r="G1289" s="14" t="s">
+        <v>7841</v>
+      </c>
+      <c r="H1289" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="I1289" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="J1289" s="14" t="s">
+        <v>7842</v>
+      </c>
+      <c r="K1289" s="14" t="s">
+        <v>7843</v>
+      </c>
+      <c r="L1289" s="14" t="s">
+        <v>7843</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:12">
+      <c r="B1290" s="14" t="s">
+        <v>7844</v>
+      </c>
+      <c r="C1290" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D1290" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1290" s="14" t="s">
+        <v>7845</v>
+      </c>
+      <c r="G1290" s="14" t="s">
+        <v>7846</v>
+      </c>
+      <c r="H1290" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="I1290" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="J1290" s="14" t="s">
+        <v>7847</v>
+      </c>
+      <c r="K1290" s="14" t="s">
+        <v>7848</v>
+      </c>
+      <c r="L1290" s="14" t="s">
+        <v>7848</v>
+      </c>
+    </row>
+    <row r="1291" spans="2:12">
+      <c r="B1291" s="14" t="s">
+        <v>7849</v>
+      </c>
+      <c r="C1291" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D1291" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1291" s="14" t="s">
+        <v>7850</v>
+      </c>
+      <c r="G1291" s="14" t="s">
+        <v>7851</v>
+      </c>
+      <c r="H1291" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="I1291" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="J1291" s="14" t="s">
+        <v>7852</v>
+      </c>
+      <c r="K1291" s="14" t="s">
+        <v>7853</v>
+      </c>
+      <c r="L1291" s="14" t="s">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="1292" spans="2:12">
+      <c r="B1292" s="14" t="s">
+        <v>7854</v>
+      </c>
+      <c r="C1292" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D1292" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1292" s="14" t="s">
+        <v>7855</v>
+      </c>
+      <c r="G1292" s="14" t="s">
+        <v>7856</v>
+      </c>
+      <c r="H1292" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="I1292" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="J1292" s="14" t="s">
+        <v>7857</v>
+      </c>
+      <c r="K1292" s="14" t="s">
+        <v>7858</v>
+      </c>
+      <c r="L1292" s="14" t="s">
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="1293" spans="2:12">
+      <c r="B1293" s="14" t="s">
+        <v>7859</v>
+      </c>
+      <c r="C1293" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1293" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1293" s="14" t="s">
+        <v>7860</v>
+      </c>
+      <c r="G1293" s="14" t="s">
+        <v>7861</v>
+      </c>
+      <c r="H1293" s="14" t="s">
+        <v>7862</v>
+      </c>
+      <c r="I1293" s="14" t="s">
+        <v>7862</v>
+      </c>
+      <c r="J1293" s="14" t="s">
+        <v>7862</v>
+      </c>
+      <c r="K1293" s="14" t="s">
+        <v>7863</v>
+      </c>
+      <c r="L1293" s="14" t="s">
+        <v>7863</v>
+      </c>
+    </row>
+    <row r="1294" spans="2:12">
+      <c r="B1294" s="14" t="s">
+        <v>7864</v>
+      </c>
+      <c r="C1294" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1294" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1294" s="14" t="s">
+        <v>7865</v>
+      </c>
+      <c r="G1294" s="14" t="s">
+        <v>7866</v>
+      </c>
+      <c r="H1294" s="14" t="s">
+        <v>7867</v>
+      </c>
+      <c r="I1294" s="14" t="s">
+        <v>7867</v>
+      </c>
+      <c r="J1294" s="14" t="s">
+        <v>7867</v>
+      </c>
+      <c r="K1294" s="14" t="s">
+        <v>7868</v>
+      </c>
+      <c r="L1294" s="14" t="s">
+        <v>7868</v>
+      </c>
+    </row>
+    <row r="1295" spans="2:12">
+      <c r="B1295" s="14" t="s">
+        <v>7869</v>
+      </c>
+      <c r="C1295" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1295" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1295" s="14" t="s">
+        <v>7870</v>
+      </c>
+      <c r="G1295" s="14" t="s">
+        <v>7871</v>
+      </c>
+      <c r="H1295" s="14" t="s">
+        <v>7872</v>
+      </c>
+      <c r="I1295" s="14" t="s">
+        <v>7872</v>
+      </c>
+      <c r="J1295" s="14" t="s">
+        <v>7872</v>
+      </c>
+      <c r="K1295" s="14" t="s">
+        <v>7873</v>
+      </c>
+      <c r="L1295" s="14" t="s">
+        <v>7873</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:12">
+      <c r="B1296" s="14" t="s">
+        <v>7874</v>
+      </c>
+      <c r="C1296" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1296" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1296" s="14" t="s">
+        <v>7875</v>
+      </c>
+      <c r="G1296" s="14" t="s">
+        <v>7876</v>
+      </c>
+      <c r="H1296" s="14" t="s">
+        <v>7877</v>
+      </c>
+      <c r="I1296" s="14" t="s">
+        <v>7877</v>
+      </c>
+      <c r="J1296" s="14" t="s">
+        <v>7877</v>
+      </c>
+      <c r="K1296" s="14" t="s">
+        <v>7878</v>
+      </c>
+      <c r="L1296" s="14" t="s">
+        <v>7878</v>
+      </c>
+    </row>
+    <row r="1297" spans="2:12">
+      <c r="B1297" s="14" t="s">
+        <v>7879</v>
+      </c>
+      <c r="C1297" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1297" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1297" s="14" t="s">
+        <v>7880</v>
+      </c>
+      <c r="G1297" s="14" t="s">
+        <v>7881</v>
+      </c>
+      <c r="H1297" s="14" t="s">
+        <v>7882</v>
+      </c>
+      <c r="I1297" s="14" t="s">
+        <v>7882</v>
+      </c>
+      <c r="J1297" s="14" t="s">
+        <v>7882</v>
+      </c>
+      <c r="K1297" s="14" t="s">
+        <v>7883</v>
+      </c>
+      <c r="L1297" s="14" t="s">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="1298" spans="2:12">
+      <c r="B1298" s="14" t="s">
+        <v>7884</v>
+      </c>
+      <c r="C1298" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D1298" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1298" s="14" t="s">
+        <v>7885</v>
+      </c>
+      <c r="G1298" s="14" t="s">
+        <v>7886</v>
+      </c>
+      <c r="H1298" s="14" t="s">
+        <v>7887</v>
+      </c>
+      <c r="I1298" s="14" t="s">
+        <v>7887</v>
+      </c>
+      <c r="J1298" s="14" t="s">
+        <v>7887</v>
+      </c>
+      <c r="K1298" s="14" t="s">
+        <v>7888</v>
+      </c>
+      <c r="L1298" s="14" t="s">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="1299" spans="2:12">
+      <c r="B1299" s="14" t="s">
+        <v>7889</v>
+      </c>
+      <c r="C1299" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D1299" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1299" s="14" t="s">
+        <v>7890</v>
+      </c>
+      <c r="G1299" s="14" t="s">
+        <v>7891</v>
+      </c>
+      <c r="H1299" s="14" t="s">
+        <v>7892</v>
+      </c>
+      <c r="I1299" s="14" t="s">
+        <v>7892</v>
+      </c>
+      <c r="J1299" s="14" t="s">
+        <v>7892</v>
+      </c>
+      <c r="K1299" s="14" t="s">
+        <v>7893</v>
+      </c>
+      <c r="L1299" s="14" t="s">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="1300" spans="2:12">
+      <c r="B1300" s="14" t="s">
+        <v>7894</v>
+      </c>
+      <c r="C1300" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D1300" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1300" s="14" t="s">
+        <v>7895</v>
+      </c>
+      <c r="G1300" s="14" t="s">
+        <v>7896</v>
+      </c>
+      <c r="H1300" s="14" t="s">
+        <v>7897</v>
+      </c>
+      <c r="I1300" s="14" t="s">
+        <v>7897</v>
+      </c>
+      <c r="J1300" s="14" t="s">
+        <v>7897</v>
+      </c>
+      <c r="K1300" s="14" t="s">
+        <v>7898</v>
+      </c>
+      <c r="L1300" s="14" t="s">
+        <v>7898</v>
+      </c>
+    </row>
+    <row r="1301" spans="2:12">
+      <c r="B1301" s="14" t="s">
+        <v>7899</v>
+      </c>
+      <c r="C1301" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D1301" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1301" s="14" t="s">
+        <v>7900</v>
+      </c>
+      <c r="G1301" s="14" t="s">
+        <v>7901</v>
+      </c>
+      <c r="H1301" s="14" t="s">
+        <v>7902</v>
+      </c>
+      <c r="I1301" s="14" t="s">
+        <v>7902</v>
+      </c>
+      <c r="J1301" s="14" t="s">
+        <v>7902</v>
+      </c>
+      <c r="K1301" s="14" t="s">
+        <v>7903</v>
+      </c>
+      <c r="L1301" s="14" t="s">
+        <v>7903</v>
+      </c>
+    </row>
+    <row r="1302" spans="2:12">
+      <c r="B1302" s="14" t="s">
+        <v>7904</v>
+      </c>
+      <c r="C1302" s="14" t="s">
+        <v>7905</v>
+      </c>
+      <c r="D1302" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1302" s="14" t="s">
+        <v>7906</v>
+      </c>
+      <c r="G1302" s="14" t="s">
+        <v>7907</v>
+      </c>
+      <c r="H1302" s="14" t="s">
+        <v>7908</v>
+      </c>
+      <c r="I1302" s="14" t="s">
+        <v>7908</v>
+      </c>
+      <c r="J1302" s="14" t="s">
+        <v>7908</v>
+      </c>
+      <c r="K1302" s="14" t="s">
+        <v>7909</v>
+      </c>
+      <c r="L1302" s="14" t="s">
+        <v>7909</v>
+      </c>
+    </row>
+    <row r="1303" spans="2:12">
+      <c r="B1303" s="14" t="s">
+        <v>7910</v>
+      </c>
+      <c r="C1303" s="14" t="s">
+        <v>7911</v>
+      </c>
+      <c r="D1303" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1303" s="14" t="s">
         <v>7912</v>
       </c>
-      <c r="G1278" s="14" t="s">
+      <c r="G1303" s="14" t="s">
         <v>7913</v>
       </c>
-      <c r="H1278" s="14" t="s">
+      <c r="H1303" s="14" t="s">
         <v>7914</v>
       </c>
-      <c r="I1278" s="14" t="s">
+      <c r="I1303" s="14" t="s">
         <v>7914</v>
       </c>
-      <c r="J1278" s="14" t="s">
+      <c r="J1303" s="14" t="s">
         <v>7914</v>
       </c>
-      <c r="K1278" s="14" t="s">
+      <c r="K1303" s="14" t="s">
         <v>7915</v>
       </c>
-      <c r="L1278" s="14" t="s">
+      <c r="L1303" s="14" t="s">
         <v>7915</v>
+      </c>
+    </row>
+    <row r="1304" spans="2:12">
+      <c r="B1304" s="14" t="s">
+        <v>7916</v>
+      </c>
+      <c r="C1304" s="14" t="s">
+        <v>7917</v>
+      </c>
+      <c r="D1304" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1304" s="14" t="s">
+        <v>7918</v>
+      </c>
+      <c r="G1304" s="14" t="s">
+        <v>7919</v>
+      </c>
+      <c r="H1304" s="14" t="s">
+        <v>7920</v>
+      </c>
+      <c r="I1304" s="14" t="s">
+        <v>7920</v>
+      </c>
+      <c r="J1304" s="14" t="s">
+        <v>7920</v>
+      </c>
+      <c r="K1304" s="14" t="s">
+        <v>7921</v>
+      </c>
+      <c r="L1304" s="14" t="s">
+        <v>7921</v>
+      </c>
+    </row>
+    <row r="1305" spans="2:12">
+      <c r="B1305" s="14" t="s">
+        <v>7922</v>
+      </c>
+      <c r="C1305" s="14" t="s">
+        <v>7923</v>
+      </c>
+      <c r="D1305" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1305" s="14" t="s">
+        <v>7924</v>
+      </c>
+      <c r="G1305" s="14" t="s">
+        <v>7925</v>
+      </c>
+      <c r="H1305" s="14" t="s">
+        <v>7926</v>
+      </c>
+      <c r="I1305" s="14" t="s">
+        <v>7926</v>
+      </c>
+      <c r="J1305" s="14" t="s">
+        <v>7926</v>
+      </c>
+      <c r="K1305" s="14" t="s">
+        <v>7927</v>
+      </c>
+      <c r="L1305" s="14" t="s">
+        <v>7927</v>
+      </c>
+    </row>
+    <row r="1306" spans="2:12">
+      <c r="B1306" s="14" t="s">
+        <v>7928</v>
+      </c>
+      <c r="C1306" s="41" t="s">
+        <v>7929</v>
+      </c>
+      <c r="D1306" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1306" s="14" t="s">
+        <v>7930</v>
+      </c>
+      <c r="G1306" s="14" t="s">
+        <v>7931</v>
+      </c>
+      <c r="H1306" s="14" t="s">
+        <v>7932</v>
+      </c>
+      <c r="I1306" s="14" t="s">
+        <v>7932</v>
+      </c>
+      <c r="J1306" s="14" t="s">
+        <v>7932</v>
+      </c>
+      <c r="K1306" s="14" t="s">
+        <v>7933</v>
+      </c>
+      <c r="L1306" s="14" t="s">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="1307" spans="2:12">
+      <c r="B1307" s="14" t="s">
+        <v>7934</v>
+      </c>
+      <c r="C1307" s="41" t="s">
+        <v>7935</v>
+      </c>
+      <c r="D1307" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1307" s="14" t="s">
+        <v>7936</v>
+      </c>
+      <c r="G1307" s="14" t="s">
+        <v>7937</v>
+      </c>
+      <c r="H1307" s="14" t="s">
+        <v>7938</v>
+      </c>
+      <c r="I1307" s="14" t="s">
+        <v>7938</v>
+      </c>
+      <c r="J1307" s="14" t="s">
+        <v>7938</v>
+      </c>
+      <c r="K1307" s="14" t="s">
+        <v>7939</v>
+      </c>
+      <c r="L1307" s="14" t="s">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="1308" spans="2:12">
+      <c r="B1308" s="14" t="s">
+        <v>7940</v>
+      </c>
+      <c r="C1308" s="41" t="s">
+        <v>7941</v>
+      </c>
+      <c r="D1308" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1308" s="14" t="s">
+        <v>7942</v>
+      </c>
+      <c r="G1308" s="14" t="s">
+        <v>7943</v>
+      </c>
+      <c r="H1308" s="14" t="s">
+        <v>7944</v>
+      </c>
+      <c r="I1308" s="14" t="s">
+        <v>7944</v>
+      </c>
+      <c r="J1308" s="14" t="s">
+        <v>7944</v>
+      </c>
+      <c r="K1308" s="14" t="s">
+        <v>7945</v>
+      </c>
+      <c r="L1308" s="14" t="s">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="1309" spans="2:12">
+      <c r="B1309" s="14" t="s">
+        <v>7946</v>
+      </c>
+      <c r="C1309" s="41" t="s">
+        <v>7947</v>
+      </c>
+      <c r="D1309" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1309" s="14" t="s">
+        <v>7948</v>
+      </c>
+      <c r="G1309" s="14" t="s">
+        <v>7949</v>
+      </c>
+      <c r="H1309" s="14" t="s">
+        <v>7950</v>
+      </c>
+      <c r="I1309" s="14" t="s">
+        <v>7950</v>
+      </c>
+      <c r="J1309" s="14" t="s">
+        <v>7950</v>
+      </c>
+      <c r="K1309" s="14" t="s">
+        <v>7951</v>
+      </c>
+      <c r="L1309" s="14" t="s">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="1310" spans="2:12">
+      <c r="B1310" s="14" t="s">
+        <v>7952</v>
+      </c>
+      <c r="C1310" s="14" t="s">
+        <v>7953</v>
+      </c>
+      <c r="D1310" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1310" s="14" t="s">
+        <v>7954</v>
+      </c>
+      <c r="G1310" s="14" t="s">
+        <v>7955</v>
+      </c>
+      <c r="H1310" s="14" t="s">
+        <v>7956</v>
+      </c>
+      <c r="I1310" s="14" t="s">
+        <v>7956</v>
+      </c>
+      <c r="J1310" s="14" t="s">
+        <v>7956</v>
+      </c>
+      <c r="K1310" s="14" t="s">
+        <v>7957</v>
+      </c>
+      <c r="L1310" s="14" t="s">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="1311" spans="2:12">
+      <c r="B1311" s="14" t="s">
+        <v>7958</v>
+      </c>
+      <c r="C1311" s="14" t="s">
+        <v>7959</v>
+      </c>
+      <c r="D1311" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1311" s="14" t="s">
+        <v>7960</v>
+      </c>
+      <c r="G1311" s="14" t="s">
+        <v>7961</v>
+      </c>
+      <c r="H1311" s="14" t="s">
+        <v>7962</v>
+      </c>
+      <c r="I1311" s="14" t="s">
+        <v>7962</v>
+      </c>
+      <c r="J1311" s="14" t="s">
+        <v>7962</v>
+      </c>
+      <c r="K1311" s="14" t="s">
+        <v>7963</v>
+      </c>
+      <c r="L1311" s="14" t="s">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="1312" spans="2:12">
+      <c r="B1312" s="14" t="s">
+        <v>7964</v>
+      </c>
+      <c r="C1312" s="14" t="s">
+        <v>7965</v>
+      </c>
+      <c r="D1312" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1312" s="14" t="s">
+        <v>7966</v>
+      </c>
+      <c r="G1312" s="14" t="s">
+        <v>7967</v>
+      </c>
+      <c r="H1312" s="14" t="s">
+        <v>7968</v>
+      </c>
+      <c r="I1312" s="14" t="s">
+        <v>7968</v>
+      </c>
+      <c r="J1312" s="14" t="s">
+        <v>7968</v>
+      </c>
+      <c r="K1312" s="14" t="s">
+        <v>7969</v>
+      </c>
+      <c r="L1312" s="14" t="s">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="1313" spans="2:12">
+      <c r="B1313" s="14" t="s">
+        <v>7970</v>
+      </c>
+      <c r="C1313" s="14" t="s">
+        <v>7971</v>
+      </c>
+      <c r="D1313" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1313" s="14" t="s">
+        <v>7972</v>
+      </c>
+      <c r="G1313" s="14" t="s">
+        <v>7973</v>
+      </c>
+      <c r="H1313" s="14" t="s">
+        <v>7974</v>
+      </c>
+      <c r="I1313" s="14" t="s">
+        <v>7974</v>
+      </c>
+      <c r="J1313" s="14" t="s">
+        <v>7974</v>
+      </c>
+      <c r="K1313" s="14" t="s">
+        <v>7975</v>
+      </c>
+      <c r="L1313" s="14" t="s">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="1314" spans="2:12">
+      <c r="B1314" s="14" t="s">
+        <v>7976</v>
+      </c>
+      <c r="C1314" s="14" t="s">
+        <v>7977</v>
+      </c>
+      <c r="D1314" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1314" s="14" t="s">
+        <v>7978</v>
+      </c>
+      <c r="G1314" s="14" t="s">
+        <v>7979</v>
+      </c>
+      <c r="H1314" s="14" t="s">
+        <v>7980</v>
+      </c>
+      <c r="I1314" s="14" t="s">
+        <v>7980</v>
+      </c>
+      <c r="J1314" s="14" t="s">
+        <v>7980</v>
+      </c>
+      <c r="K1314" s="14" t="s">
+        <v>7981</v>
+      </c>
+      <c r="L1314" s="14" t="s">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="1315" spans="2:12">
+      <c r="B1315" s="14" t="s">
+        <v>7982</v>
+      </c>
+      <c r="C1315" s="14" t="s">
+        <v>7983</v>
+      </c>
+      <c r="D1315" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1315" s="14" t="s">
+        <v>7984</v>
+      </c>
+      <c r="G1315" s="14" t="s">
+        <v>7985</v>
+      </c>
+      <c r="H1315" s="14" t="s">
+        <v>7986</v>
+      </c>
+      <c r="I1315" s="14" t="s">
+        <v>7986</v>
+      </c>
+      <c r="J1315" s="14" t="s">
+        <v>7986</v>
+      </c>
+      <c r="K1315" s="14" t="s">
+        <v>7987</v>
+      </c>
+      <c r="L1315" s="14" t="s">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="1316" spans="2:12">
+      <c r="B1316" s="14" t="s">
+        <v>7988</v>
+      </c>
+      <c r="C1316" s="14" t="s">
+        <v>7989</v>
+      </c>
+      <c r="D1316" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1316" s="14" t="s">
+        <v>7990</v>
+      </c>
+      <c r="G1316" s="14" t="s">
+        <v>7991</v>
+      </c>
+      <c r="H1316" s="14" t="s">
+        <v>7992</v>
+      </c>
+      <c r="I1316" s="14" t="s">
+        <v>7992</v>
+      </c>
+      <c r="J1316" s="14" t="s">
+        <v>7992</v>
+      </c>
+      <c r="K1316" s="14" t="s">
+        <v>7993</v>
+      </c>
+      <c r="L1316" s="14" t="s">
+        <v>7993</v>
+      </c>
+    </row>
+    <row r="1317" spans="2:12">
+      <c r="B1317" s="14" t="s">
+        <v>7994</v>
+      </c>
+      <c r="C1317" s="14" t="s">
+        <v>7995</v>
+      </c>
+      <c r="D1317" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1317" s="14" t="s">
+        <v>7996</v>
+      </c>
+      <c r="G1317" s="14" t="s">
+        <v>7997</v>
+      </c>
+      <c r="H1317" s="14" t="s">
+        <v>7998</v>
+      </c>
+      <c r="I1317" s="14" t="s">
+        <v>7998</v>
+      </c>
+      <c r="J1317" s="14" t="s">
+        <v>7998</v>
+      </c>
+      <c r="K1317" s="14" t="s">
+        <v>7999</v>
+      </c>
+      <c r="L1317" s="14" t="s">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="1318" spans="2:12">
+      <c r="B1318" s="14" t="s">
+        <v>8000</v>
+      </c>
+      <c r="C1318" s="14" t="s">
+        <v>8001</v>
+      </c>
+      <c r="D1318" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1318" s="14" t="s">
+        <v>8002</v>
+      </c>
+      <c r="G1318" s="14" t="s">
+        <v>8003</v>
+      </c>
+      <c r="H1318" s="14" t="s">
+        <v>8004</v>
+      </c>
+      <c r="I1318" s="14" t="s">
+        <v>8004</v>
+      </c>
+      <c r="J1318" s="14" t="s">
+        <v>8004</v>
+      </c>
+      <c r="K1318" s="14" t="s">
+        <v>8005</v>
+      </c>
+      <c r="L1318" s="14" t="s">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="1319" spans="2:12">
+      <c r="B1319" s="14" t="s">
+        <v>8006</v>
+      </c>
+      <c r="C1319" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D1319" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1319" s="14" t="s">
+        <v>8007</v>
+      </c>
+      <c r="G1319" s="14" t="s">
+        <v>8008</v>
+      </c>
+      <c r="H1319" s="14" t="s">
+        <v>8009</v>
+      </c>
+      <c r="I1319" s="14" t="s">
+        <v>8009</v>
+      </c>
+      <c r="J1319" s="14" t="s">
+        <v>8009</v>
+      </c>
+      <c r="K1319" s="14" t="s">
+        <v>8010</v>
+      </c>
+      <c r="L1319" s="14" t="s">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="1320" spans="2:12">
+      <c r="B1320" s="14" t="s">
+        <v>8011</v>
+      </c>
+      <c r="C1320" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D1320" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1320" s="14" t="s">
+        <v>8012</v>
+      </c>
+      <c r="G1320" s="14" t="s">
+        <v>8013</v>
+      </c>
+      <c r="H1320" s="14" t="s">
+        <v>8014</v>
+      </c>
+      <c r="I1320" s="14" t="s">
+        <v>8014</v>
+      </c>
+      <c r="J1320" s="14" t="s">
+        <v>8014</v>
+      </c>
+      <c r="K1320" s="14" t="s">
+        <v>8015</v>
+      </c>
+      <c r="L1320" s="14" t="s">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="1321" spans="2:12">
+      <c r="B1321" s="14" t="s">
+        <v>8016</v>
+      </c>
+      <c r="C1321" s="14" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D1321" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1321" s="14" t="s">
+        <v>8017</v>
+      </c>
+      <c r="G1321" s="14" t="s">
+        <v>8018</v>
+      </c>
+      <c r="H1321" s="14" t="s">
+        <v>8019</v>
+      </c>
+      <c r="I1321" s="14" t="s">
+        <v>8019</v>
+      </c>
+      <c r="J1321" s="14" t="s">
+        <v>8019</v>
+      </c>
+      <c r="K1321" s="14" t="s">
+        <v>8020</v>
+      </c>
+      <c r="L1321" s="14" t="s">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="1322" spans="2:12">
+      <c r="B1322" s="14" t="s">
+        <v>8021</v>
+      </c>
+      <c r="C1322" s="14" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1322" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1322" s="14" t="s">
+        <v>8022</v>
+      </c>
+      <c r="G1322" s="14" t="s">
+        <v>8023</v>
+      </c>
+      <c r="H1322" s="14" t="s">
+        <v>8024</v>
+      </c>
+      <c r="I1322" s="14" t="s">
+        <v>8024</v>
+      </c>
+      <c r="J1322" s="14" t="s">
+        <v>8024</v>
+      </c>
+      <c r="K1322" s="14" t="s">
+        <v>8025</v>
+      </c>
+      <c r="L1322" s="14" t="s">
+        <v>8025</v>
+      </c>
+    </row>
+    <row r="1323" spans="2:12">
+      <c r="B1323" s="14" t="s">
+        <v>8026</v>
+      </c>
+      <c r="C1323" s="14" t="s">
+        <v>8027</v>
+      </c>
+      <c r="D1323" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1323" s="14" t="s">
+        <v>8028</v>
+      </c>
+      <c r="G1323" s="14" t="s">
+        <v>8029</v>
+      </c>
+      <c r="H1323" s="14" t="s">
+        <v>8030</v>
+      </c>
+      <c r="I1323" s="14" t="s">
+        <v>8030</v>
+      </c>
+      <c r="J1323" s="14" t="s">
+        <v>8030</v>
+      </c>
+      <c r="K1323" s="14" t="s">
+        <v>8031</v>
+      </c>
+      <c r="L1323" s="14" t="s">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="1324" spans="2:12">
+      <c r="B1324" s="14" t="s">
+        <v>8032</v>
+      </c>
+      <c r="C1324" s="14" t="s">
+        <v>8033</v>
+      </c>
+      <c r="D1324" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1324" s="14" t="s">
+        <v>8034</v>
+      </c>
+      <c r="G1324" s="14" t="s">
+        <v>8035</v>
+      </c>
+      <c r="H1324" s="14" t="s">
+        <v>8036</v>
+      </c>
+      <c r="I1324" s="14" t="s">
+        <v>8036</v>
+      </c>
+      <c r="J1324" s="14" t="s">
+        <v>8036</v>
+      </c>
+      <c r="K1324" s="14" t="s">
+        <v>8037</v>
+      </c>
+      <c r="L1324" s="14" t="s">
+        <v>8037</v>
+      </c>
+    </row>
+    <row r="1325" spans="2:12">
+      <c r="B1325" s="14" t="s">
+        <v>8038</v>
+      </c>
+      <c r="C1325" s="14" t="s">
+        <v>8039</v>
+      </c>
+      <c r="D1325" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1325" s="14" t="s">
+        <v>8040</v>
+      </c>
+      <c r="G1325" s="14" t="s">
+        <v>8041</v>
+      </c>
+      <c r="H1325" s="14" t="s">
+        <v>8042</v>
+      </c>
+      <c r="I1325" s="14" t="s">
+        <v>8042</v>
+      </c>
+      <c r="J1325" s="14" t="s">
+        <v>8042</v>
+      </c>
+      <c r="K1325" s="14" t="s">
+        <v>8043</v>
+      </c>
+      <c r="L1325" s="14" t="s">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="1326" spans="2:12">
+      <c r="B1326" s="14" t="s">
+        <v>8044</v>
+      </c>
+      <c r="C1326" s="14" t="s">
+        <v>8045</v>
+      </c>
+      <c r="D1326" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1326" s="14" t="s">
+        <v>8046</v>
+      </c>
+      <c r="G1326" s="14" t="s">
+        <v>8047</v>
+      </c>
+      <c r="H1326" s="14" t="s">
+        <v>8048</v>
+      </c>
+      <c r="I1326" s="14" t="s">
+        <v>8048</v>
+      </c>
+      <c r="J1326" s="14" t="s">
+        <v>8048</v>
+      </c>
+      <c r="K1326" s="14" t="s">
+        <v>8049</v>
+      </c>
+      <c r="L1326" s="14" t="s">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="1327" spans="2:12">
+      <c r="B1327" s="14" t="s">
+        <v>8050</v>
+      </c>
+      <c r="C1327" s="14" t="s">
+        <v>8051</v>
+      </c>
+      <c r="D1327" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1327" s="14" t="s">
+        <v>8052</v>
+      </c>
+      <c r="G1327" s="14" t="s">
+        <v>8053</v>
+      </c>
+      <c r="H1327" s="14" t="s">
+        <v>8054</v>
+      </c>
+      <c r="I1327" s="14" t="s">
+        <v>8054</v>
+      </c>
+      <c r="J1327" s="14" t="s">
+        <v>8054</v>
+      </c>
+      <c r="K1327" s="14" t="s">
+        <v>8055</v>
+      </c>
+      <c r="L1327" s="14" t="s">
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="1328" spans="2:12">
+      <c r="B1328" s="14" t="s">
+        <v>8056</v>
+      </c>
+      <c r="C1328" s="14" t="s">
+        <v>8057</v>
+      </c>
+      <c r="D1328" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1328" s="14" t="s">
+        <v>8058</v>
+      </c>
+      <c r="G1328" s="14" t="s">
+        <v>8059</v>
+      </c>
+      <c r="H1328" s="14" t="s">
+        <v>8060</v>
+      </c>
+      <c r="I1328" s="14" t="s">
+        <v>8060</v>
+      </c>
+      <c r="J1328" s="14" t="s">
+        <v>8060</v>
+      </c>
+      <c r="K1328" s="14" t="s">
+        <v>8061</v>
+      </c>
+      <c r="L1328" s="14" t="s">
+        <v>8061</v>
+      </c>
+    </row>
+    <row r="1329" spans="2:12">
+      <c r="B1329" s="14" t="s">
+        <v>8062</v>
+      </c>
+      <c r="C1329" s="14" t="s">
+        <v>8063</v>
+      </c>
+      <c r="D1329" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1329" s="14" t="s">
+        <v>8064</v>
+      </c>
+      <c r="G1329" s="14" t="s">
+        <v>8065</v>
+      </c>
+      <c r="H1329" s="14" t="s">
+        <v>8066</v>
+      </c>
+      <c r="I1329" s="14" t="s">
+        <v>8066</v>
+      </c>
+      <c r="J1329" s="14" t="s">
+        <v>8066</v>
+      </c>
+      <c r="K1329" s="14" t="s">
+        <v>8067</v>
+      </c>
+      <c r="L1329" s="14" t="s">
+        <v>8067</v>
+      </c>
+    </row>
+    <row r="1330" spans="2:12">
+      <c r="B1330" s="14" t="s">
+        <v>8068</v>
+      </c>
+      <c r="C1330" s="14" t="s">
+        <v>8069</v>
+      </c>
+      <c r="D1330" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1330" s="14" t="s">
+        <v>8070</v>
+      </c>
+      <c r="G1330" s="14" t="s">
+        <v>8071</v>
+      </c>
+      <c r="H1330" s="14" t="s">
+        <v>8072</v>
+      </c>
+      <c r="I1330" s="14" t="s">
+        <v>8072</v>
+      </c>
+      <c r="J1330" s="14" t="s">
+        <v>8072</v>
+      </c>
+      <c r="K1330" s="14" t="s">
+        <v>8073</v>
+      </c>
+      <c r="L1330" s="14" t="s">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="1331" spans="2:12">
+      <c r="B1331" s="14" t="s">
+        <v>8074</v>
+      </c>
+      <c r="C1331" s="14" t="s">
+        <v>8075</v>
+      </c>
+      <c r="D1331" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1331" s="14" t="s">
+        <v>8076</v>
+      </c>
+      <c r="G1331" s="14" t="s">
+        <v>8077</v>
+      </c>
+      <c r="H1331" s="14" t="s">
+        <v>8078</v>
+      </c>
+      <c r="I1331" s="14" t="s">
+        <v>8078</v>
+      </c>
+      <c r="J1331" s="14" t="s">
+        <v>8078</v>
+      </c>
+      <c r="K1331" s="14" t="s">
+        <v>8079</v>
+      </c>
+      <c r="L1331" s="14" t="s">
+        <v>8079</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:12">
+      <c r="B1332" s="14" t="s">
+        <v>8080</v>
+      </c>
+      <c r="C1332" s="14" t="s">
+        <v>8081</v>
+      </c>
+      <c r="D1332" s="45" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F1332" s="14" t="s">
+        <v>8082</v>
+      </c>
+      <c r="G1332" s="14" t="s">
+        <v>8083</v>
+      </c>
+      <c r="H1332" s="14" t="s">
+        <v>8084</v>
+      </c>
+      <c r="I1332" s="14" t="s">
+        <v>8084</v>
+      </c>
+      <c r="J1332" s="14" t="s">
+        <v>8084</v>
+      </c>
+      <c r="K1332" s="14" t="s">
+        <v>8085</v>
+      </c>
+      <c r="L1332" s="14" t="s">
+        <v>8085</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25755" windowHeight="10035"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17200" uniqueCount="8433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17200" uniqueCount="8440">
   <si>
     <t>##var</t>
   </si>
@@ -24578,6 +24578,38 @@
 If the cards are the same then compare the point size of the cards:
 Points : A&gt;K&gt;Q&gt;J&gt;10&gt;9&gt;8&gt;7&gt;6&gt;5&gt;4&gt;3&gt;2
 Courses: A.K.Q&gt;K.Q.J&gt;Q.J.10&gt;J.10.9&gt;10.9.8&gt;9.8.7&gt;8.7.6&gt;7.6.5&gt;6.5.4&gt;5.4.3&gt;4.3.2&gt;A.3.2.
+If points are equal then compare suits:
+Spades &gt; Hearts &gt; Clubs &gt; Diamonds.
+2). Red Limit
+The maximum sum of all bets per hand is {0}.
+The maximum sum of all bets a player can place in red is {1} per hand.
+The maximum sum of bets an individual can place in the black area in a game is {2}.
+The maximum sum of bets an individual can place in the Lucky Strike area per game is {3}.
+3). Payout Rules
+Each winning area pays out according to the percentage shown on the table. Lucky Shoot only pays out based on the winning hand in the red and black of the hand. If the winner's hand matches one of the drawing hands on the Lucky Shoot area, the player who bets on the Lucky Shoot in this game is considered to have placed a successful bet, and the payout is based on the percentage of the corresponding hand shown on the table.
+3. Function Use
+1). Betting Settings
+Click Settings to adjust the betting level. There are a total of 10 betting positions, you can only choose 5 of them, after selecting and confirming, the desktop will be switched to the currently selected betting chips.
+2). Renewal Setting
+You can choose either Normal Renewal or Professional Renewal. Normal Renewal can be set to automatically place bets according to the previous game; Advanced Renewal can be set for a certain number of times, and will automatically place bets according to the previous game before the start of each game until the number of times is completed or until the amount of coins is insufficient.</t>
+  </si>
+  <si>
+    <t>1. Introduction
+This is a table card game where the size of both players' hands determines the winner. The game uses 52 playing cards, excluding the joker. After shuffling the cards in each game, the red side and the black side will each be dealt 3 cards, and the winner will be decided according to the combination of the three cards, the number of points, and the suit.
+2. Game Rules
+Each game the red side and black side each sent 3 cards, players can bet on red, black, Lucky Shot three kinds of results. Players can bet on Red, Black and Lucky Shot. If they win, they will be rewarded according to the table draw result.
+1). Opening Result
+First compare the suits of both hands
+Three of a Kind &gt; Straight Flush &gt; Flush &gt; Straight &gt; Pair &gt; High Card.
+High Card: Three cards cannot form any kind of hand.
+Pair: Only two cards with the same number of points.
+Straight: Cards with different suits but consecutive points. (A.K.Q is the largest; A.3.2 is the smallest; without A.K.2)
+Flush: A hand with exactly the same suit, but with non-consecutive points. (A.K.J is largest; 5.3.2 is smallest)
+Straight Flush: A hand with identical suits and consecutive points. (A.K.Q is the largest; A.3.2 is the smallest; without A.K.2)
+Three of a Kind: Three cards with the same number of points. (A.A.A is the largest; 2.2.2 is the smallest)
+If the cards are the same then compare the point size of the cards:
+Points : A&gt;K&gt;Q&gt;J&gt;10&gt;9&gt;8&gt;7&gt;6&gt;5&gt;4&gt;3&gt;2
+Courses: A.K.Q&gt;K.Q.J&gt;Q.J.10&gt;J.10.9&gt;10.9.8&gt;9.8.7&gt;8.7.6&gt;7.6.5&gt;6.5.4&gt;5.4.3&gt;4.3.2&gt;A.3.2.
 If points are equal then compare suits :.
 Spades &gt; Hearts &gt; Clubs &gt; Diamonds.
 2). Red Limit
@@ -25035,6 +25067,9 @@
     <t>滚轮游戏意味着在每次旋转后，获胜组合将被支付并且所有获胜符号都会消失。剩余的符号落到荧幕底部，空位置被来自上方的符号替换。</t>
   </si>
   <si>
+    <t>The TUMBLE FEATURE means that after every spin,winning combinations are paid and all winning symbols disappear.The remaining symbols fall to the bottom of the screen and the empty positions are replaced with symbols coming from above.</t>
+  </si>
+  <si>
     <t>The TUMBLE FEATURE means that after every spin， winning combinations are paid and all winning symbols disappear.The remaining symbols fall to the bottom of the screen and the empty positions are replaced with symbols coming from above.</t>
   </si>
   <si>
@@ -25062,6 +25097,9 @@
     <t>这些是乘数符号。它们出现在所有卷轴上，并且可以在基础游戏和免费旋转中的旋转和翻滚期间随机击中</t>
   </si>
   <si>
+    <t>These are the multiplier symbols.They are present on all reels and can hit randomly during spins and tumbles in both base game and FREE SPINS.</t>
+  </si>
+  <si>
     <t>These are the multiplier symbols.They are present on all reels and can hit randomly during spins and tumbles in both base game and FREE SPINS</t>
   </si>
   <si>
@@ -25071,6 +25109,9 @@
     <t>每当滚轮的倍数符号命中时，它会取一个随机乘数值 2x，3x，4x，5x，6x，8x，10x，12x，15x，20x，25x，50x，100x，250x 或 500x。</t>
   </si>
   <si>
+    <t>Whenever a MULTIPLIER symbol hits,it takes a random multiplier value of 2x,3x,4x,5x,6x,8x,10x,12x,15x,20x,25x,50x,100x,250xor500x.</t>
+  </si>
+  <si>
     <t>Whenever a MULTIPLIER symbol hits， it takes a random multiplier value of 2x， 3x， 4x， 5x， 6x， 8x， 10x， 12x， 15x， 20x，25x， 50x， 100x， 250xor500x.</t>
   </si>
   <si>
@@ -25080,6 +25121,9 @@
     <t>当翻滚序列结束时，荧幕上所有倍数 符号的值相加，序列的总赢额乘以最终值。</t>
   </si>
   <si>
+    <t>When the tumbling sequence ends,the values of all MULTIPLIER symbols on the screen are added together and the total win of the sequence is multiplied by the final value.</t>
+  </si>
+  <si>
     <t>When the tumbling sequence ends， the values of all MULTIPLIER symbols on the screen are added together and the total win of the sequence is multiplied by the final value.</t>
   </si>
   <si>
@@ -25098,6 +25142,9 @@
     <t>每当免费游戏期间击中 3 个或更多 SCATTER 符号时，将获得 5 次额外的免费旋转。免费游戏期间将使用特殊卷轴。</t>
   </si>
   <si>
+    <t>Whenever 3or more SCATTER symbols hit during the FREE SPINS ROUND,5 additional free spins are awarded.Special reels are in play during the FREE SPINS ROUND.</t>
+  </si>
+  <si>
     <t>Whenever 3or more SCATTER symbols hit during the FREE SPINS ROUND， 5 additional free spins are awarded.Special reels are in play during the FREE SPINS ROUND.</t>
   </si>
   <si>
@@ -25123,6 +25170,9 @@
   </si>
   <si>
     <t>在免费旋转回合中，每当倍数奖励符号命中并且旋转导致获胜时，奖励倍数值就会添加到总乘数中。在该回合的整个持续时间内，每当任何新的 奖励倍数符号命中并导致获胜时，总乘数 乘数值也用于乘以获胜。</t>
+  </si>
+  <si>
+    <t>During the FREE SPINS round,whenever a MULTIPLIER symbol hits and the spin results in a win,the MULTIPLIER value gets added to the total multiplier.For the whole duration of the round,whenever any new MULTIPLIER symbol hits and results in a win the total multiplier value is also used to multiply the win.</t>
   </si>
   <si>
     <t>During the FREE SPINS round， whenever a MULTIPLIER symbol hits and the spin results in a win， the MULTIPLIER value gets added to the total multiplier.For the whole duration of the round， whenever any new MULTIPLIER symbol hits and results in a win the total multiplier value is also used to multiply the win.</t>
@@ -27614,8 +27664,8 @@
   <sheetPr/>
   <dimension ref="A1:P1447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
-      <selection activeCell="E641" sqref="E641"/>
+    <sheetView tabSelected="1" topLeftCell="A1249" workbookViewId="0">
+      <selection activeCell="D1260" sqref="D1260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -77801,121 +77851,121 @@
         <v>7853</v>
       </c>
       <c r="H1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="I1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="J1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="K1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="L1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="M1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="N1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="O1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
       <c r="P1297" s="1" t="s">
-        <v>7853</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="1298" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1298" s="1"/>
       <c r="B1298" s="13" t="s">
-        <v>7854</v>
+        <v>7855</v>
       </c>
       <c r="C1298" s="1"/>
       <c r="D1298" s="42"/>
       <c r="E1298" s="24"/>
       <c r="F1298" s="13" t="s">
-        <v>7855</v>
+        <v>7856</v>
       </c>
       <c r="G1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="H1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="I1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="J1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="K1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="L1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="M1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="N1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="O1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="P1298" s="37" t="s">
-        <v>7856</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="1299" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1299" s="1"/>
       <c r="B1299" s="13" t="s">
-        <v>7857</v>
+        <v>7858</v>
       </c>
       <c r="C1299" s="1"/>
       <c r="D1299" s="42"/>
       <c r="E1299" s="24"/>
       <c r="F1299" s="13" t="s">
-        <v>7858</v>
+        <v>7859</v>
       </c>
       <c r="G1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="H1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="I1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="J1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="K1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="L1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="M1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="N1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="O1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
       <c r="P1299" s="1" t="s">
-        <v>7859</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="1300" s="12" customFormat="1" ht="40.5" spans="1:16">
       <c r="A1300" s="1"/>
       <c r="B1300" s="13" t="s">
-        <v>7860</v>
+        <v>7861</v>
       </c>
       <c r="C1300" s="1"/>
       <c r="D1300" s="42"/>
@@ -77957,7 +78007,7 @@
     <row r="1301" s="12" customFormat="1" ht="67.5" spans="1:16">
       <c r="A1301" s="1"/>
       <c r="B1301" s="13" t="s">
-        <v>7861</v>
+        <v>7862</v>
       </c>
       <c r="C1301" s="1"/>
       <c r="D1301" s="42"/>
@@ -77999,208 +78049,208 @@
     <row r="1302" s="12" customFormat="1" spans="1:16">
       <c r="A1302" s="1"/>
       <c r="B1302" s="13" t="s">
-        <v>7862</v>
+        <v>7863</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>7863</v>
+        <v>7864</v>
       </c>
       <c r="D1302" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1302" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1302" s="28" t="s">
-        <v>7865</v>
+        <v>7866</v>
       </c>
       <c r="G1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="H1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="I1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="J1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="K1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="L1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="M1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="N1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="O1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
       <c r="P1302" s="24" t="s">
-        <v>7866</v>
+        <v>7867</v>
       </c>
     </row>
     <row r="1303" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1303" s="1"/>
       <c r="B1303" s="13" t="s">
-        <v>7867</v>
+        <v>7868</v>
       </c>
       <c r="C1303" s="1" t="s">
-        <v>7868</v>
+        <v>7869</v>
       </c>
       <c r="D1303" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1303" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1303" s="28" t="s">
-        <v>7869</v>
+        <v>7870</v>
       </c>
       <c r="G1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="H1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="I1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="J1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="K1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="L1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="M1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="N1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="O1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
       <c r="P1303" s="24" t="s">
-        <v>7870</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="1304" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1304" s="1"/>
       <c r="B1304" s="13" t="s">
-        <v>7871</v>
+        <v>7872</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>7872</v>
+        <v>7873</v>
       </c>
       <c r="D1304" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1304" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1304" s="28" t="s">
-        <v>7873</v>
+        <v>7874</v>
       </c>
       <c r="G1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="H1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="I1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="J1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="K1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="L1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="M1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="N1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="O1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
       <c r="P1304" s="24" t="s">
-        <v>7874</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="1305" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1305" s="1"/>
       <c r="B1305" s="13" t="s">
-        <v>7875</v>
+        <v>7876</v>
       </c>
       <c r="C1305" s="1" t="s">
-        <v>7876</v>
+        <v>7877</v>
       </c>
       <c r="D1305" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1305" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1305" s="28" t="s">
-        <v>7877</v>
+        <v>7878</v>
       </c>
       <c r="G1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="H1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="I1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="J1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="K1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="L1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="M1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="N1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="O1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
       <c r="P1305" s="24" t="s">
-        <v>7878</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="1306" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1306" s="1"/>
       <c r="B1306" s="13" t="s">
-        <v>7879</v>
+        <v>7880</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>7880</v>
+        <v>7881</v>
       </c>
       <c r="D1306" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1306" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1306" s="28" t="s">
         <v>7793</v>
@@ -78239,103 +78289,103 @@
     <row r="1307" s="12" customFormat="1" spans="1:16">
       <c r="A1307" s="1"/>
       <c r="B1307" s="13" t="s">
-        <v>7881</v>
+        <v>7882</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>7882</v>
+        <v>7883</v>
       </c>
       <c r="D1307" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1307" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1307" s="28" t="s">
-        <v>7883</v>
+        <v>7884</v>
       </c>
       <c r="G1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="H1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="I1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="J1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="K1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="L1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="M1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="N1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="O1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
       <c r="P1307" s="24" t="s">
-        <v>7884</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="1308" s="12" customFormat="1" spans="1:16">
       <c r="A1308" s="1"/>
       <c r="B1308" s="13" t="s">
-        <v>7885</v>
+        <v>7886</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>7886</v>
+        <v>7887</v>
       </c>
       <c r="D1308" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1308" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1308" s="28" t="s">
-        <v>7887</v>
+        <v>7888</v>
       </c>
       <c r="G1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="H1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="I1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="J1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="K1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="L1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="M1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="N1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="O1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
       <c r="P1308" s="24" t="s">
-        <v>7888</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="1309" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1309" s="1"/>
       <c r="B1309" s="13" t="s">
-        <v>7889</v>
+        <v>7890</v>
       </c>
       <c r="C1309" s="1" t="s">
         <v>7759</v>
@@ -78344,46 +78394,46 @@
         <v>3055</v>
       </c>
       <c r="E1309" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1309" s="28" t="s">
-        <v>7890</v>
+        <v>7891</v>
       </c>
       <c r="G1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="H1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="I1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="J1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="K1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="L1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="M1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="N1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="O1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
       <c r="P1309" s="24" t="s">
-        <v>7891</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="1310" s="12" customFormat="1" spans="1:16">
       <c r="A1310" s="1"/>
       <c r="B1310" s="13" t="s">
-        <v>7892</v>
+        <v>7893</v>
       </c>
       <c r="C1310" s="1" t="s">
         <v>7682</v>
@@ -78392,46 +78442,46 @@
         <v>3055</v>
       </c>
       <c r="E1310" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1310" s="28" t="s">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="G1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="H1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="I1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="J1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="K1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="L1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="M1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="N1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="O1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
       <c r="P1310" s="24" t="s">
-        <v>7894</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="1311" s="12" customFormat="1" spans="1:16">
       <c r="A1311" s="1"/>
       <c r="B1311" s="13" t="s">
-        <v>7895</v>
+        <v>7896</v>
       </c>
       <c r="C1311" s="1" t="s">
         <v>7687</v>
@@ -78440,670 +78490,670 @@
         <v>3055</v>
       </c>
       <c r="E1311" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1311" s="28" t="s">
-        <v>7896</v>
+        <v>7897</v>
       </c>
       <c r="G1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="H1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="I1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="J1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="K1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="L1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="M1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="N1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="O1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
       <c r="P1311" s="24" t="s">
-        <v>7897</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="1312" s="12" customFormat="1" spans="1:16">
       <c r="A1312" s="1"/>
       <c r="B1312" s="13" t="s">
-        <v>7898</v>
+        <v>7899</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>7899</v>
+        <v>7900</v>
       </c>
       <c r="D1312" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1312" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1312" s="28" t="s">
-        <v>7900</v>
+        <v>7901</v>
       </c>
       <c r="G1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="H1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="I1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="J1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="K1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="L1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="M1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="N1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="O1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
       <c r="P1312" s="24" t="s">
-        <v>7901</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="1313" s="12" customFormat="1" ht="40.5" spans="1:16">
       <c r="A1313" s="1"/>
       <c r="B1313" s="13" t="s">
-        <v>7902</v>
+        <v>7903</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>7903</v>
+        <v>7904</v>
       </c>
       <c r="D1313" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1313" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1313" s="28" t="s">
-        <v>7904</v>
+        <v>7905</v>
       </c>
       <c r="G1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="H1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="I1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="J1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="K1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="L1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="M1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="N1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="O1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
       <c r="P1313" s="24" t="s">
-        <v>7905</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="1314" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1314" s="1"/>
       <c r="B1314" s="13" t="s">
-        <v>7906</v>
+        <v>7907</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>7907</v>
+        <v>7908</v>
       </c>
       <c r="D1314" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1314" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1314" s="28" t="s">
-        <v>7908</v>
+        <v>7909</v>
       </c>
       <c r="G1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="H1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="I1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="J1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="K1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="L1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="M1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="N1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="O1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
       <c r="P1314" s="24" t="s">
-        <v>7909</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="1315" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1315" s="1"/>
       <c r="B1315" s="13" t="s">
-        <v>7910</v>
+        <v>7911</v>
       </c>
       <c r="C1315" s="1" t="s">
-        <v>7911</v>
+        <v>7912</v>
       </c>
       <c r="D1315" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1315" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1315" s="28" t="s">
-        <v>7912</v>
+        <v>7913</v>
       </c>
       <c r="G1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="H1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="I1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="J1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="K1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="L1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="M1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="N1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="O1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
       <c r="P1315" s="24" t="s">
-        <v>7913</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="1316" s="12" customFormat="1" spans="1:16">
       <c r="A1316" s="1"/>
       <c r="B1316" s="13" t="s">
-        <v>7914</v>
+        <v>7915</v>
       </c>
       <c r="C1316" s="1" t="s">
-        <v>7915</v>
+        <v>7916</v>
       </c>
       <c r="D1316" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1316" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1316" s="28" t="s">
-        <v>7916</v>
+        <v>7917</v>
       </c>
       <c r="G1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="H1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="I1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="J1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="K1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="L1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="M1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="N1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="O1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="P1316" s="24" t="s">
-        <v>7917</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="1317" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1317" s="1"/>
       <c r="B1317" s="13" t="s">
-        <v>7918</v>
+        <v>7919</v>
       </c>
       <c r="C1317" s="1" t="s">
-        <v>7919</v>
+        <v>7920</v>
       </c>
       <c r="D1317" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1317" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1317" s="28" t="s">
-        <v>7920</v>
+        <v>7921</v>
       </c>
       <c r="G1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="H1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="I1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="J1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="K1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="L1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="M1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="N1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="O1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
       <c r="P1317" s="24" t="s">
-        <v>7921</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="1318" s="12" customFormat="1" spans="1:16">
       <c r="A1318" s="1"/>
       <c r="B1318" s="13" t="s">
-        <v>7922</v>
+        <v>7923</v>
       </c>
       <c r="C1318" s="1" t="s">
-        <v>7923</v>
+        <v>7924</v>
       </c>
       <c r="D1318" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1318" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1318" s="28" t="s">
-        <v>7924</v>
+        <v>7925</v>
       </c>
       <c r="G1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="H1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="I1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="J1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="K1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="L1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="M1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="N1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="O1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
       <c r="P1318" s="24" t="s">
-        <v>7925</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="1319" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1319" s="1"/>
       <c r="B1319" s="13" t="s">
-        <v>7926</v>
+        <v>7927</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>7927</v>
+        <v>7928</v>
       </c>
       <c r="D1319" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1319" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1319" s="28" t="s">
-        <v>7928</v>
+        <v>7929</v>
       </c>
       <c r="G1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="H1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="I1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="J1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="K1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="L1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="M1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="N1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="O1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
       <c r="P1319" s="24" t="s">
-        <v>7929</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="1320" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1320" s="1"/>
       <c r="B1320" s="13" t="s">
-        <v>7930</v>
+        <v>7931</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>7931</v>
+        <v>7932</v>
       </c>
       <c r="D1320" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1320" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1320" s="28" t="s">
-        <v>7932</v>
+        <v>7933</v>
       </c>
       <c r="G1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="H1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="I1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="J1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="K1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="L1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="M1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="N1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="O1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
       <c r="P1320" s="24" t="s">
-        <v>7933</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="1321" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1321" s="1"/>
       <c r="B1321" s="13" t="s">
-        <v>7934</v>
+        <v>7935</v>
       </c>
       <c r="C1321" s="1" t="s">
-        <v>7935</v>
+        <v>7936</v>
       </c>
       <c r="D1321" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1321" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1321" s="28" t="s">
-        <v>7936</v>
+        <v>7937</v>
       </c>
       <c r="G1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="H1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="I1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="J1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="K1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="L1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="M1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="N1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="O1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
       <c r="P1321" s="24" t="s">
-        <v>7937</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="1322" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1322" s="1"/>
       <c r="B1322" s="13" t="s">
-        <v>7938</v>
+        <v>7939</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>7939</v>
+        <v>7940</v>
       </c>
       <c r="D1322" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1322" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1322" s="28" t="s">
-        <v>7940</v>
+        <v>7941</v>
       </c>
       <c r="G1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="H1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="I1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="J1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="K1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="L1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="M1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="N1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="O1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="P1322" s="24" t="s">
-        <v>7941</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="1323" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1323" s="1"/>
       <c r="B1323" s="13" t="s">
-        <v>7942</v>
+        <v>7943</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>7943</v>
+        <v>7944</v>
       </c>
       <c r="D1323" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1323" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1323" s="28" t="s">
-        <v>7944</v>
+        <v>7945</v>
       </c>
       <c r="G1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="H1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="I1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="J1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="K1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="L1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="M1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="N1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="O1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
       <c r="P1323" s="24" t="s">
-        <v>7945</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="1324" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1324" s="1"/>
       <c r="B1324" s="13" t="s">
-        <v>7946</v>
+        <v>7947</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>7947</v>
+        <v>7948</v>
       </c>
       <c r="D1324" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1324" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1324" s="28" t="s">
-        <v>7948</v>
+        <v>7949</v>
       </c>
       <c r="G1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="H1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="I1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="J1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="K1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="L1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="M1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="N1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="O1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="P1324" s="24" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="1325" s="12" customFormat="1" spans="1:16">
       <c r="A1325" s="1"/>
       <c r="B1325" s="13" t="s">
-        <v>7950</v>
+        <v>7951</v>
       </c>
       <c r="C1325" s="1" t="s">
         <v>3748</v>
@@ -79112,94 +79162,94 @@
         <v>3055</v>
       </c>
       <c r="E1325" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1325" s="28" t="s">
-        <v>7951</v>
+        <v>7952</v>
       </c>
       <c r="G1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="H1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="I1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="J1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="K1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="L1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="M1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="N1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="O1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
       <c r="P1325" s="24" t="s">
-        <v>7952</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="1326" s="12" customFormat="1" spans="1:16">
       <c r="A1326" s="1"/>
       <c r="B1326" s="13" t="s">
-        <v>7953</v>
+        <v>7954</v>
       </c>
       <c r="C1326" s="1" t="s">
-        <v>7954</v>
+        <v>7955</v>
       </c>
       <c r="D1326" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1326" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1326" s="28" t="s">
-        <v>7955</v>
+        <v>7956</v>
       </c>
       <c r="G1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="H1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="I1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="J1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="K1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="L1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="M1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="N1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="O1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
       <c r="P1326" s="24" t="s">
-        <v>7956</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="1327" s="12" customFormat="1" spans="1:16">
       <c r="A1327" s="1"/>
       <c r="B1327" s="13" t="s">
-        <v>7957</v>
+        <v>7958</v>
       </c>
       <c r="C1327" s="1" t="s">
         <v>7645</v>
@@ -79208,190 +79258,190 @@
         <v>3055</v>
       </c>
       <c r="E1327" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1327" s="28" t="s">
-        <v>7958</v>
+        <v>7959</v>
       </c>
       <c r="G1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="H1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="I1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="J1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="K1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="L1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="M1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="N1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="O1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
       <c r="P1327" s="24" t="s">
-        <v>7959</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="1328" s="12" customFormat="1" spans="1:16">
       <c r="A1328" s="1"/>
       <c r="B1328" s="13" t="s">
-        <v>7960</v>
+        <v>7961</v>
       </c>
       <c r="C1328" s="1" t="s">
-        <v>7961</v>
+        <v>7962</v>
       </c>
       <c r="D1328" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1328" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1328" s="28" t="s">
-        <v>7962</v>
+        <v>7963</v>
       </c>
       <c r="G1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="H1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="I1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="J1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="K1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="L1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="M1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="N1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="O1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="P1328" s="24" t="s">
-        <v>7963</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="1329" s="12" customFormat="1" spans="1:16">
       <c r="A1329" s="1"/>
       <c r="B1329" s="13" t="s">
-        <v>7964</v>
+        <v>7965</v>
       </c>
       <c r="C1329" s="1" t="s">
-        <v>7965</v>
+        <v>7966</v>
       </c>
       <c r="D1329" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1329" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1329" s="28" t="s">
-        <v>7966</v>
+        <v>7967</v>
       </c>
       <c r="G1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="H1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="I1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="J1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="K1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="L1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="M1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="N1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="O1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
       <c r="P1329" s="24" t="s">
-        <v>7967</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="1330" s="12" customFormat="1" spans="1:16">
       <c r="A1330" s="1"/>
       <c r="B1330" s="13" t="s">
-        <v>7968</v>
+        <v>7969</v>
       </c>
       <c r="C1330" s="1" t="s">
-        <v>7969</v>
+        <v>7970</v>
       </c>
       <c r="D1330" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1330" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1330" s="28" t="s">
-        <v>7970</v>
+        <v>7971</v>
       </c>
       <c r="G1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="H1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="I1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="J1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="K1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="L1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="M1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="N1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="O1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="P1330" s="24" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="1331" s="12" customFormat="1" spans="1:16">
       <c r="A1331" s="1"/>
       <c r="B1331" s="13" t="s">
-        <v>7972</v>
+        <v>7973</v>
       </c>
       <c r="C1331" s="1" t="s">
         <v>7796</v>
@@ -79400,46 +79450,46 @@
         <v>3055</v>
       </c>
       <c r="E1331" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1331" s="28" t="s">
-        <v>7973</v>
+        <v>7974</v>
       </c>
       <c r="G1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="H1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="I1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="J1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="K1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="L1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="M1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="N1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="O1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
       <c r="P1331" s="24" t="s">
-        <v>7974</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="1332" s="12" customFormat="1" spans="1:16">
       <c r="A1332" s="1"/>
       <c r="B1332" s="13" t="s">
-        <v>7975</v>
+        <v>7976</v>
       </c>
       <c r="C1332" s="1" t="s">
         <v>7800</v>
@@ -79448,46 +79498,46 @@
         <v>3055</v>
       </c>
       <c r="E1332" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1332" s="28" t="s">
-        <v>7976</v>
+        <v>7977</v>
       </c>
       <c r="G1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="H1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="I1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="J1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="K1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="L1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="M1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="N1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="O1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
       <c r="P1332" s="24" t="s">
-        <v>7977</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="1333" s="12" customFormat="1" spans="1:16">
       <c r="A1333" s="1"/>
       <c r="B1333" s="13" t="s">
-        <v>7978</v>
+        <v>7979</v>
       </c>
       <c r="C1333" s="1" t="s">
         <v>7804</v>
@@ -79496,46 +79546,46 @@
         <v>3055</v>
       </c>
       <c r="E1333" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1333" s="28" t="s">
-        <v>7979</v>
+        <v>7980</v>
       </c>
       <c r="G1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="H1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="I1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="J1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="K1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="L1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="M1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="N1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="O1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="P1333" s="24" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="1334" s="12" customFormat="1" spans="1:16">
       <c r="A1334" s="1"/>
       <c r="B1334" s="13" t="s">
-        <v>7981</v>
+        <v>7982</v>
       </c>
       <c r="C1334" s="1" t="s">
         <v>7808</v>
@@ -79544,49 +79594,49 @@
         <v>3055</v>
       </c>
       <c r="E1334" s="24" t="s">
-        <v>7864</v>
+        <v>7865</v>
       </c>
       <c r="F1334" s="28" t="s">
-        <v>7982</v>
+        <v>7983</v>
       </c>
       <c r="G1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="H1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="I1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="J1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="K1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="L1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="M1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="N1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="O1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="P1334" s="24" t="s">
-        <v>7983</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="1335" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1335" s="1"/>
       <c r="B1335" s="13" t="s">
-        <v>7984</v>
+        <v>7985</v>
       </c>
       <c r="C1335" s="1" t="s">
-        <v>7985</v>
+        <v>7986</v>
       </c>
       <c r="D1335" s="42"/>
       <c r="E1335" s="24"/>
@@ -79594,669 +79644,669 @@
         <v>3748</v>
       </c>
       <c r="G1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="H1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="I1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="J1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="K1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="L1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="M1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="N1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="O1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
       <c r="P1335" s="1" t="s">
-        <v>7986</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="1336" s="12" customFormat="1" ht="256.5" spans="1:16">
       <c r="A1336" s="1"/>
       <c r="B1336" s="13" t="s">
-        <v>7987</v>
+        <v>7988</v>
       </c>
       <c r="C1336" s="1"/>
       <c r="D1336" s="42"/>
       <c r="E1336" s="24"/>
       <c r="F1336" s="33" t="s">
-        <v>7988</v>
+        <v>7989</v>
       </c>
       <c r="G1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="H1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="I1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="J1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="K1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="L1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="M1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="N1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="O1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="P1336" s="1" t="s">
-        <v>7989</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="1337" s="12" customFormat="1" ht="54" spans="1:16">
       <c r="A1337" s="1"/>
       <c r="B1337" s="13" t="s">
-        <v>7990</v>
+        <v>7991</v>
       </c>
       <c r="C1337" s="1"/>
       <c r="D1337" s="42"/>
       <c r="E1337" s="24"/>
       <c r="F1337" s="28" t="s">
-        <v>7991</v>
+        <v>7992</v>
       </c>
       <c r="G1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="H1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="I1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="J1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="K1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="L1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="M1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="N1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="O1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
       <c r="P1337" s="1" t="s">
-        <v>7992</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="1338" s="12" customFormat="1" ht="81" spans="1:16">
       <c r="A1338" s="1"/>
       <c r="B1338" s="13" t="s">
-        <v>7993</v>
+        <v>7994</v>
       </c>
       <c r="C1338" s="1"/>
       <c r="D1338" s="42"/>
       <c r="E1338" s="24"/>
       <c r="F1338" s="28" t="s">
-        <v>7994</v>
+        <v>7995</v>
       </c>
       <c r="G1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="H1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="I1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="J1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="K1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="L1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="M1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="N1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="O1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="P1338" s="1" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="1339" s="12" customFormat="1" ht="67.5" spans="1:16">
       <c r="A1339" s="1"/>
       <c r="B1339" s="13" t="s">
-        <v>7996</v>
+        <v>7997</v>
       </c>
       <c r="C1339" s="1"/>
       <c r="D1339" s="42"/>
       <c r="E1339" s="24"/>
       <c r="F1339" s="28" t="s">
-        <v>7997</v>
+        <v>7998</v>
       </c>
       <c r="G1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="H1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="I1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="J1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="K1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="L1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="M1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="N1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="O1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
       <c r="P1339" s="1" t="s">
-        <v>7998</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="1340" s="12" customFormat="1" ht="409.5" spans="1:16">
       <c r="A1340" s="1"/>
       <c r="B1340" s="13" t="s">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="C1340" s="1"/>
       <c r="D1340" s="42"/>
       <c r="E1340" s="24"/>
       <c r="F1340" s="33" t="s">
-        <v>8000</v>
+        <v>8001</v>
       </c>
       <c r="G1340" s="1" t="s">
-        <v>8001</v>
+        <v>8002</v>
       </c>
       <c r="H1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="I1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="J1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="K1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="L1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="M1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="N1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="O1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="P1340" s="1" t="s">
-        <v>8001</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="1341" s="12" customFormat="1" ht="270" spans="1:16">
       <c r="A1341" s="1"/>
       <c r="B1341" s="13" t="s">
-        <v>8002</v>
+        <v>8004</v>
       </c>
       <c r="C1341" s="1"/>
       <c r="D1341" s="42"/>
       <c r="E1341" s="24"/>
       <c r="F1341" s="33" t="s">
-        <v>8003</v>
+        <v>8005</v>
       </c>
       <c r="G1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="H1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="I1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="J1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="K1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="L1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="M1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="N1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="O1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="P1341" s="1" t="s">
-        <v>8004</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="1342" s="12" customFormat="1" ht="229.5" spans="1:16">
       <c r="A1342" s="1"/>
       <c r="B1342" s="13" t="s">
-        <v>8005</v>
+        <v>8007</v>
       </c>
       <c r="C1342" s="1"/>
       <c r="D1342" s="42"/>
       <c r="E1342" s="24"/>
       <c r="F1342" s="33" t="s">
-        <v>8006</v>
+        <v>8008</v>
       </c>
       <c r="G1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="H1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="I1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="J1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="K1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="L1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="M1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="N1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="O1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
       <c r="P1342" s="1" t="s">
-        <v>8007</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="1343" s="12" customFormat="1" ht="283.5" spans="1:16">
       <c r="A1343" s="1"/>
       <c r="B1343" s="13" t="s">
-        <v>8008</v>
+        <v>8010</v>
       </c>
       <c r="C1343" s="1"/>
       <c r="D1343" s="42"/>
       <c r="E1343" s="24"/>
       <c r="F1343" s="33" t="s">
-        <v>8009</v>
+        <v>8011</v>
       </c>
       <c r="G1343" s="1" t="s">
-        <v>8010</v>
+        <v>8012</v>
       </c>
       <c r="H1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="I1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="J1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="K1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="L1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="M1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="N1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="O1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
       <c r="P1343" s="1" t="s">
-        <v>8010</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="1344" s="12" customFormat="1" ht="337.5" spans="1:16">
       <c r="A1344" s="1"/>
       <c r="B1344" s="13" t="s">
-        <v>8011</v>
+        <v>8014</v>
       </c>
       <c r="C1344" s="1"/>
       <c r="D1344" s="42"/>
       <c r="E1344" s="24"/>
       <c r="F1344" s="33" t="s">
-        <v>8012</v>
+        <v>8015</v>
       </c>
       <c r="G1344" s="1" t="s">
-        <v>8013</v>
+        <v>8016</v>
       </c>
       <c r="H1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="I1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="J1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="K1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="L1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="M1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="N1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="O1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
       <c r="P1344" s="1" t="s">
-        <v>8013</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="1345" s="12" customFormat="1" ht="351" spans="1:16">
       <c r="A1345" s="1"/>
       <c r="B1345" s="13" t="s">
-        <v>8014</v>
+        <v>8018</v>
       </c>
       <c r="C1345" s="1"/>
       <c r="D1345" s="42"/>
       <c r="E1345" s="24"/>
       <c r="F1345" s="33" t="s">
-        <v>8015</v>
+        <v>8019</v>
       </c>
       <c r="G1345" s="1" t="s">
-        <v>8016</v>
+        <v>8020</v>
       </c>
       <c r="H1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="I1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="J1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="K1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="L1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="M1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="N1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="O1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
       <c r="P1345" s="1" t="s">
-        <v>8016</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="1346" s="12" customFormat="1" ht="243" spans="1:16">
       <c r="A1346" s="1"/>
       <c r="B1346" s="13" t="s">
-        <v>8017</v>
+        <v>8022</v>
       </c>
       <c r="C1346" s="1"/>
       <c r="D1346" s="42"/>
       <c r="E1346" s="24"/>
       <c r="F1346" s="33" t="s">
-        <v>8018</v>
+        <v>8023</v>
       </c>
       <c r="G1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="H1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="I1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="J1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="K1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="L1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="M1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="N1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="O1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
       <c r="P1346" s="1" t="s">
-        <v>8019</v>
+        <v>8024</v>
       </c>
     </row>
     <row r="1347" s="12" customFormat="1" ht="310.5" spans="1:16">
       <c r="A1347" s="1"/>
       <c r="B1347" s="13" t="s">
-        <v>8020</v>
+        <v>8025</v>
       </c>
       <c r="C1347" s="1"/>
       <c r="D1347" s="42"/>
       <c r="E1347" s="24"/>
       <c r="F1347" s="33" t="s">
-        <v>8021</v>
+        <v>8026</v>
       </c>
       <c r="G1347" s="1" t="s">
-        <v>8022</v>
+        <v>8027</v>
       </c>
       <c r="H1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="I1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="J1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="K1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="L1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="M1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="N1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="O1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
       <c r="P1347" s="1" t="s">
-        <v>8022</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="1348" s="12" customFormat="1" ht="27" spans="1:16">
       <c r="A1348" s="1"/>
       <c r="B1348" s="13" t="s">
-        <v>8023</v>
+        <v>8029</v>
       </c>
       <c r="C1348" s="1"/>
       <c r="D1348" s="42"/>
       <c r="E1348" s="24"/>
       <c r="F1348" s="33" t="s">
-        <v>8024</v>
+        <v>8030</v>
       </c>
       <c r="G1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="H1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="I1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="J1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="K1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="L1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="M1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="N1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="O1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
       <c r="P1348" s="1" t="s">
-        <v>8025</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="1349" s="12" customFormat="1" ht="216" spans="1:16">
       <c r="A1349" s="1"/>
       <c r="B1349" s="13" t="s">
-        <v>8026</v>
+        <v>8032</v>
       </c>
       <c r="C1349" s="1"/>
       <c r="D1349" s="42"/>
       <c r="E1349" s="24"/>
       <c r="F1349" s="33" t="s">
-        <v>8027</v>
+        <v>8033</v>
       </c>
       <c r="G1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="H1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="I1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="J1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="K1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="L1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="M1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="N1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="O1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
       <c r="P1349" s="1" t="s">
-        <v>8028</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="1350" s="12" customFormat="1" ht="409.5" spans="1:16">
       <c r="A1350" s="1"/>
       <c r="B1350" s="13" t="s">
-        <v>8029</v>
+        <v>8035</v>
       </c>
       <c r="C1350" s="1"/>
       <c r="D1350" s="42"/>
       <c r="E1350" s="24"/>
       <c r="F1350" s="33" t="s">
-        <v>8030</v>
+        <v>8036</v>
       </c>
       <c r="G1350" s="1" t="s">
-        <v>8031</v>
+        <v>8037</v>
       </c>
       <c r="H1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="I1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="J1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="K1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="L1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="M1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="N1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="O1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
       <c r="P1350" s="1" t="s">
-        <v>8031</v>
+        <v>8038</v>
       </c>
     </row>
     <row r="1351" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1351" s="12" t="s">
-        <v>8032</v>
+        <v>8039</v>
       </c>
       <c r="E1351" s="1"/>
       <c r="F1351" s="1" t="s">
@@ -80295,7 +80345,7 @@
     </row>
     <row r="1352" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1352" s="12" t="s">
-        <v>8033</v>
+        <v>8040</v>
       </c>
       <c r="E1352" s="9"/>
       <c r="F1352" s="9" t="s">
@@ -80334,7 +80384,7 @@
     </row>
     <row r="1353" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1353" s="12" t="s">
-        <v>8034</v>
+        <v>8041</v>
       </c>
       <c r="E1353" s="1"/>
       <c r="F1353" s="1" t="s">
@@ -80373,7 +80423,7 @@
     </row>
     <row r="1354" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1354" s="12" t="s">
-        <v>8035</v>
+        <v>8042</v>
       </c>
       <c r="E1354" s="1"/>
       <c r="F1354" s="1" t="s">
@@ -80412,7 +80462,7 @@
     </row>
     <row r="1355" s="12" customFormat="1" spans="2:16">
       <c r="B1355" s="12" t="s">
-        <v>8036</v>
+        <v>8043</v>
       </c>
       <c r="E1355" s="1"/>
       <c r="F1355" s="1" t="s">
@@ -80451,7 +80501,7 @@
     </row>
     <row r="1356" s="12" customFormat="1" spans="2:16">
       <c r="B1356" s="12" t="s">
-        <v>8037</v>
+        <v>8044</v>
       </c>
       <c r="E1356" s="1"/>
       <c r="F1356" s="1" t="s">
@@ -80490,7 +80540,7 @@
     </row>
     <row r="1357" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1357" s="12" t="s">
-        <v>8038</v>
+        <v>8045</v>
       </c>
       <c r="E1357" s="1"/>
       <c r="F1357" s="1" t="s">
@@ -80529,7 +80579,7 @@
     </row>
     <row r="1358" s="12" customFormat="1" ht="40.5" spans="2:16">
       <c r="B1358" s="12" t="s">
-        <v>8039</v>
+        <v>8046</v>
       </c>
       <c r="E1358" s="1"/>
       <c r="F1358" s="1" t="s">
@@ -80568,7 +80618,7 @@
     </row>
     <row r="1359" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1359" s="12" t="s">
-        <v>8040</v>
+        <v>8047</v>
       </c>
       <c r="E1359" s="1"/>
       <c r="F1359" s="1" t="s">
@@ -80607,7 +80657,7 @@
     </row>
     <row r="1360" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1360" s="12" t="s">
-        <v>8041</v>
+        <v>8048</v>
       </c>
       <c r="E1360" s="1"/>
       <c r="F1360" s="1" t="s">
@@ -80646,7 +80696,7 @@
     </row>
     <row r="1361" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1361" s="12" t="s">
-        <v>8042</v>
+        <v>8049</v>
       </c>
       <c r="E1361" s="1"/>
       <c r="F1361" s="1" t="s">
@@ -80685,7 +80735,7 @@
     </row>
     <row r="1362" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1362" s="12" t="s">
-        <v>8043</v>
+        <v>8050</v>
       </c>
       <c r="E1362" s="1"/>
       <c r="F1362" s="1" t="s">
@@ -80724,7 +80774,7 @@
     </row>
     <row r="1363" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1363" s="12" t="s">
-        <v>8044</v>
+        <v>8051</v>
       </c>
       <c r="E1363" s="1"/>
       <c r="F1363" s="1" t="s">
@@ -80763,7 +80813,7 @@
     </row>
     <row r="1364" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1364" s="12" t="s">
-        <v>8045</v>
+        <v>8052</v>
       </c>
       <c r="E1364" s="1"/>
       <c r="F1364" s="1" t="s">
@@ -80802,7 +80852,7 @@
     </row>
     <row r="1365" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1365" s="12" t="s">
-        <v>8046</v>
+        <v>8053</v>
       </c>
       <c r="E1365" s="1"/>
       <c r="F1365" s="1" t="s">
@@ -80841,7 +80891,7 @@
     </row>
     <row r="1366" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1366" s="12" t="s">
-        <v>8047</v>
+        <v>8054</v>
       </c>
       <c r="E1366" s="1"/>
       <c r="F1366" s="1" t="s">
@@ -80880,7 +80930,7 @@
     </row>
     <row r="1367" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1367" s="12" t="s">
-        <v>8048</v>
+        <v>8055</v>
       </c>
       <c r="E1367" s="1"/>
       <c r="F1367" s="1" t="s">
@@ -80919,7 +80969,7 @@
     </row>
     <row r="1368" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1368" s="12" t="s">
-        <v>8049</v>
+        <v>8056</v>
       </c>
       <c r="E1368" s="1"/>
       <c r="F1368" s="1" t="s">
@@ -80958,7 +81008,7 @@
     </row>
     <row r="1369" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1369" s="12" t="s">
-        <v>8050</v>
+        <v>8057</v>
       </c>
       <c r="E1369" s="1"/>
       <c r="F1369" s="1" t="s">
@@ -80997,7 +81047,7 @@
     </row>
     <row r="1370" s="12" customFormat="1" spans="2:16">
       <c r="B1370" s="12" t="s">
-        <v>8051</v>
+        <v>8058</v>
       </c>
       <c r="E1370" s="1"/>
       <c r="F1370" s="1" t="s">
@@ -81036,7 +81086,7 @@
     </row>
     <row r="1371" s="12" customFormat="1" spans="2:16">
       <c r="B1371" s="12" t="s">
-        <v>8052</v>
+        <v>8059</v>
       </c>
       <c r="E1371" s="1"/>
       <c r="F1371" s="1" t="s">
@@ -81075,7 +81125,7 @@
     </row>
     <row r="1372" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1372" s="12" t="s">
-        <v>8053</v>
+        <v>8060</v>
       </c>
       <c r="E1372" s="13"/>
       <c r="F1372" s="13" t="s">
@@ -81114,7 +81164,7 @@
     </row>
     <row r="1373" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1373" s="12" t="s">
-        <v>8054</v>
+        <v>8061</v>
       </c>
       <c r="E1373" s="13"/>
       <c r="F1373" s="13" t="s">
@@ -81153,7 +81203,7 @@
     </row>
     <row r="1374" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1374" s="12" t="s">
-        <v>8055</v>
+        <v>8062</v>
       </c>
       <c r="E1374" s="13"/>
       <c r="F1374" s="13" t="s">
@@ -81192,7 +81242,7 @@
     </row>
     <row r="1375" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1375" s="12" t="s">
-        <v>8056</v>
+        <v>8063</v>
       </c>
       <c r="E1375" s="13"/>
       <c r="F1375" s="13" t="s">
@@ -81231,7 +81281,7 @@
     </row>
     <row r="1376" s="12" customFormat="1" spans="2:16">
       <c r="B1376" s="12" t="s">
-        <v>8057</v>
+        <v>8064</v>
       </c>
       <c r="E1376" s="39"/>
       <c r="F1376" s="39" t="s">
@@ -81270,7 +81320,7 @@
     </row>
     <row r="1377" s="12" customFormat="1" spans="2:16">
       <c r="B1377" s="12" t="s">
-        <v>8058</v>
+        <v>8065</v>
       </c>
       <c r="E1377" s="39"/>
       <c r="F1377" s="39" t="s">
@@ -81309,7 +81359,7 @@
     </row>
     <row r="1378" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1378" s="12" t="s">
-        <v>8059</v>
+        <v>8066</v>
       </c>
       <c r="E1378" s="39"/>
       <c r="F1378" s="39" t="s">
@@ -81348,7 +81398,7 @@
     </row>
     <row r="1379" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1379" s="12" t="s">
-        <v>8060</v>
+        <v>8067</v>
       </c>
       <c r="E1379" s="39"/>
       <c r="F1379" s="39" t="s">
@@ -81387,736 +81437,736 @@
     </row>
     <row r="1380" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1380" s="12" t="s">
-        <v>8061</v>
+        <v>8068</v>
       </c>
       <c r="E1380" s="39"/>
       <c r="F1380" s="39" t="s">
-        <v>8062</v>
+        <v>8069</v>
       </c>
       <c r="G1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
       <c r="H1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
       <c r="I1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
       <c r="J1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
       <c r="K1380" s="13" t="s">
-        <v>8064</v>
+        <v>8071</v>
       </c>
       <c r="L1380" s="13" t="s">
-        <v>8064</v>
+        <v>8071</v>
       </c>
       <c r="M1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
       <c r="N1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
       <c r="O1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
       <c r="P1380" s="13" t="s">
-        <v>8063</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="1381" s="12" customFormat="1" ht="27" spans="2:16">
       <c r="B1381" s="12" t="s">
-        <v>8065</v>
+        <v>8072</v>
       </c>
       <c r="E1381" s="39"/>
       <c r="F1381" s="39" t="s">
-        <v>8066</v>
+        <v>8073</v>
       </c>
       <c r="G1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="H1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="I1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="J1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="K1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="L1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="M1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="N1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="O1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
       <c r="P1381" s="13" t="s">
-        <v>8067</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="1382" s="12" customFormat="1" spans="2:16">
       <c r="B1382" s="12" t="s">
-        <v>8068</v>
+        <v>8075</v>
       </c>
       <c r="E1382" s="39"/>
       <c r="F1382" s="39" t="s">
-        <v>8069</v>
+        <v>8076</v>
       </c>
       <c r="G1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="H1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="I1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="J1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="K1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="L1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="M1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="N1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="O1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
       <c r="P1382" s="13" t="s">
-        <v>8070</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="1383" s="8" customFormat="1" ht="364.5" spans="2:16">
       <c r="B1383" s="8" t="s">
-        <v>8071</v>
+        <v>8078</v>
       </c>
       <c r="C1383" s="8" t="s">
-        <v>8072</v>
+        <v>8079</v>
       </c>
       <c r="F1383" s="8" t="s">
-        <v>8073</v>
+        <v>8080</v>
       </c>
       <c r="G1383" s="8" t="s">
-        <v>8074</v>
+        <v>8081</v>
       </c>
       <c r="H1383" s="8" t="s">
-        <v>8075</v>
+        <v>8082</v>
       </c>
       <c r="I1383" s="8" t="s">
-        <v>8076</v>
+        <v>8083</v>
       </c>
       <c r="J1383" s="8" t="s">
-        <v>8077</v>
+        <v>8084</v>
       </c>
       <c r="K1383" s="8" t="s">
-        <v>8078</v>
+        <v>8085</v>
       </c>
       <c r="L1383" s="8" t="s">
-        <v>8079</v>
+        <v>8086</v>
       </c>
       <c r="M1383" s="8" t="s">
-        <v>8074</v>
+        <v>8081</v>
       </c>
       <c r="N1383" s="8" t="s">
-        <v>8074</v>
+        <v>8081</v>
       </c>
       <c r="O1383" s="8" t="s">
-        <v>8074</v>
+        <v>8081</v>
       </c>
       <c r="P1383" s="8" t="s">
-        <v>8074</v>
+        <v>8081</v>
       </c>
     </row>
     <row r="1384" ht="409.5" spans="2:16">
       <c r="B1384" s="13" t="s">
-        <v>8080</v>
+        <v>8087</v>
       </c>
       <c r="C1384" s="13" t="s">
-        <v>8081</v>
+        <v>8088</v>
       </c>
       <c r="E1384" s="24"/>
       <c r="F1384" s="24" t="s">
-        <v>8082</v>
+        <v>8089</v>
       </c>
       <c r="G1384" s="13" t="s">
-        <v>8083</v>
+        <v>8090</v>
       </c>
       <c r="H1384" s="13" t="s">
-        <v>8084</v>
+        <v>8091</v>
       </c>
       <c r="I1384" s="13" t="s">
-        <v>8085</v>
+        <v>8092</v>
       </c>
       <c r="J1384" s="13" t="s">
-        <v>8086</v>
+        <v>8093</v>
       </c>
       <c r="K1384" s="13" t="s">
-        <v>8087</v>
+        <v>8094</v>
       </c>
       <c r="L1384" s="13" t="s">
-        <v>8087</v>
+        <v>8094</v>
       </c>
       <c r="M1384" s="13" t="s">
-        <v>8083</v>
+        <v>8090</v>
       </c>
       <c r="N1384" s="13" t="s">
-        <v>8083</v>
+        <v>8090</v>
       </c>
       <c r="O1384" s="13" t="s">
-        <v>8083</v>
+        <v>8090</v>
       </c>
       <c r="P1384" s="13" t="s">
-        <v>8083</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="1385" s="2" customFormat="1" spans="2:16">
       <c r="B1385" s="1" t="s">
-        <v>8088</v>
+        <v>8095</v>
       </c>
       <c r="C1385" s="1" t="s">
-        <v>8089</v>
+        <v>8096</v>
       </c>
       <c r="D1385" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="E1385" s="37"/>
       <c r="F1385" s="37" t="s">
-        <v>8090</v>
+        <v>8097</v>
       </c>
       <c r="G1385" s="37" t="s">
-        <v>8091</v>
+        <v>8098</v>
       </c>
       <c r="H1385" s="37" t="s">
-        <v>8092</v>
+        <v>8099</v>
       </c>
       <c r="I1385" s="37" t="s">
-        <v>8092</v>
+        <v>8099</v>
       </c>
       <c r="J1385" s="37" t="s">
-        <v>8092</v>
+        <v>8099</v>
       </c>
       <c r="K1385" s="37" t="s">
-        <v>8093</v>
+        <v>8100</v>
       </c>
       <c r="L1385" s="37" t="s">
-        <v>8093</v>
+        <v>8100</v>
       </c>
       <c r="M1385" s="37" t="s">
-        <v>8091</v>
+        <v>8098</v>
       </c>
       <c r="N1385" s="37" t="s">
-        <v>8091</v>
+        <v>8098</v>
       </c>
       <c r="O1385" s="37" t="s">
-        <v>8091</v>
+        <v>8098</v>
       </c>
       <c r="P1385" s="37" t="s">
-        <v>8091</v>
+        <v>8098</v>
       </c>
     </row>
     <row r="1386" spans="2:16">
       <c r="B1386" s="1" t="s">
-        <v>8094</v>
+        <v>8101</v>
       </c>
       <c r="C1386" s="13" t="s">
-        <v>8095</v>
+        <v>8102</v>
       </c>
       <c r="D1386" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1386" s="13" t="s">
-        <v>8096</v>
+        <v>8103</v>
       </c>
       <c r="G1386" s="13" t="s">
-        <v>8097</v>
+        <v>8104</v>
       </c>
       <c r="H1386" s="13" t="s">
-        <v>8098</v>
+        <v>8105</v>
       </c>
       <c r="I1386" s="13" t="s">
-        <v>8098</v>
+        <v>8105</v>
       </c>
       <c r="J1386" s="13" t="s">
-        <v>8098</v>
+        <v>8105</v>
       </c>
       <c r="K1386" s="13" t="s">
-        <v>8099</v>
+        <v>8106</v>
       </c>
       <c r="L1386" s="13" t="s">
-        <v>8099</v>
+        <v>8106</v>
       </c>
       <c r="M1386" s="13" t="s">
-        <v>8097</v>
+        <v>8104</v>
       </c>
       <c r="N1386" s="13" t="s">
-        <v>8097</v>
+        <v>8104</v>
       </c>
       <c r="O1386" s="13" t="s">
-        <v>8097</v>
+        <v>8104</v>
       </c>
       <c r="P1386" s="13" t="s">
-        <v>8097</v>
+        <v>8104</v>
       </c>
     </row>
     <row r="1387" spans="2:16">
       <c r="B1387" s="1" t="s">
-        <v>8100</v>
+        <v>8107</v>
       </c>
       <c r="C1387" s="13" t="s">
-        <v>8101</v>
+        <v>8108</v>
       </c>
       <c r="D1387" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1387" s="13" t="s">
-        <v>8102</v>
+        <v>8109</v>
       </c>
       <c r="G1387" s="13" t="s">
-        <v>8103</v>
+        <v>8110</v>
       </c>
       <c r="H1387" s="13" t="s">
-        <v>8104</v>
+        <v>8111</v>
       </c>
       <c r="I1387" s="13" t="s">
-        <v>8104</v>
+        <v>8111</v>
       </c>
       <c r="J1387" s="13" t="s">
-        <v>8104</v>
+        <v>8111</v>
       </c>
       <c r="K1387" s="13" t="s">
-        <v>8105</v>
+        <v>8112</v>
       </c>
       <c r="L1387" s="13" t="s">
-        <v>8105</v>
+        <v>8112</v>
       </c>
       <c r="M1387" s="13" t="s">
-        <v>8103</v>
+        <v>8110</v>
       </c>
       <c r="N1387" s="13" t="s">
-        <v>8103</v>
+        <v>8110</v>
       </c>
       <c r="O1387" s="13" t="s">
-        <v>8103</v>
+        <v>8110</v>
       </c>
       <c r="P1387" s="13" t="s">
-        <v>8103</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="1388" spans="2:16">
       <c r="B1388" s="1" t="s">
-        <v>8106</v>
+        <v>8113</v>
       </c>
       <c r="C1388" s="13" t="s">
-        <v>8107</v>
+        <v>8114</v>
       </c>
       <c r="D1388" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="G1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="H1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="I1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="J1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="K1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="L1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="M1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="N1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="O1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
       <c r="P1388" s="13" t="s">
-        <v>8108</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="1389" spans="2:16">
       <c r="B1389" s="1" t="s">
-        <v>8109</v>
+        <v>8116</v>
       </c>
       <c r="C1389" s="13" t="s">
-        <v>8110</v>
+        <v>8117</v>
       </c>
       <c r="D1389" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="G1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="H1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="I1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="J1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="K1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="L1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="M1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="N1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="O1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
       <c r="P1389" s="13" t="s">
-        <v>8111</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="1390" spans="2:16">
       <c r="B1390" s="1" t="s">
-        <v>8112</v>
+        <v>8119</v>
       </c>
       <c r="C1390" s="13" t="s">
-        <v>8113</v>
+        <v>8120</v>
       </c>
       <c r="D1390" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="G1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="H1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="I1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="J1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="K1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="L1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="M1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="N1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="O1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
       <c r="P1390" s="13" t="s">
-        <v>8114</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="1391" spans="2:16">
       <c r="B1391" s="13" t="s">
-        <v>8115</v>
+        <v>8122</v>
       </c>
       <c r="C1391" s="13" t="s">
-        <v>8116</v>
+        <v>8123</v>
       </c>
       <c r="D1391" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1391" s="13" t="s">
-        <v>8117</v>
+        <v>8124</v>
       </c>
       <c r="G1391" s="13" t="s">
-        <v>8118</v>
+        <v>8125</v>
       </c>
       <c r="H1391" s="13" t="s">
-        <v>8119</v>
+        <v>8126</v>
       </c>
       <c r="I1391" s="13" t="s">
-        <v>8119</v>
+        <v>8126</v>
       </c>
       <c r="J1391" s="13" t="s">
-        <v>8119</v>
+        <v>8126</v>
       </c>
       <c r="K1391" s="13" t="s">
-        <v>8120</v>
+        <v>8127</v>
       </c>
       <c r="L1391" s="13" t="s">
-        <v>8120</v>
+        <v>8127</v>
       </c>
       <c r="M1391" s="13" t="s">
-        <v>8118</v>
+        <v>8125</v>
       </c>
       <c r="N1391" s="13" t="s">
-        <v>8118</v>
+        <v>8125</v>
       </c>
       <c r="O1391" s="13" t="s">
-        <v>8118</v>
+        <v>8125</v>
       </c>
       <c r="P1391" s="13" t="s">
-        <v>8118</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="1392" spans="2:16">
       <c r="B1392" s="13" t="s">
-        <v>8121</v>
+        <v>8128</v>
       </c>
       <c r="C1392" s="13" t="s">
-        <v>8122</v>
+        <v>8129</v>
       </c>
       <c r="D1392" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1392" s="13" t="s">
-        <v>8123</v>
+        <v>8130</v>
       </c>
       <c r="G1392" s="13" t="s">
-        <v>8124</v>
+        <v>8131</v>
       </c>
       <c r="H1392" s="13" t="s">
-        <v>8125</v>
+        <v>8132</v>
       </c>
       <c r="I1392" s="13" t="s">
-        <v>8125</v>
+        <v>8132</v>
       </c>
       <c r="J1392" s="13" t="s">
-        <v>8125</v>
+        <v>8132</v>
       </c>
       <c r="K1392" s="13" t="s">
-        <v>8126</v>
+        <v>8133</v>
       </c>
       <c r="L1392" s="13" t="s">
-        <v>8126</v>
+        <v>8133</v>
       </c>
       <c r="M1392" s="13" t="s">
-        <v>8124</v>
+        <v>8131</v>
       </c>
       <c r="N1392" s="13" t="s">
-        <v>8124</v>
+        <v>8131</v>
       </c>
       <c r="O1392" s="13" t="s">
-        <v>8124</v>
+        <v>8131</v>
       </c>
       <c r="P1392" s="13" t="s">
-        <v>8124</v>
+        <v>8131</v>
       </c>
     </row>
     <row r="1393" ht="27" spans="2:16">
       <c r="B1393" s="13" t="s">
-        <v>8127</v>
+        <v>8134</v>
       </c>
       <c r="C1393" s="13" t="s">
-        <v>8128</v>
+        <v>8135</v>
       </c>
       <c r="D1393" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1393" s="13" t="s">
-        <v>8129</v>
+        <v>8136</v>
       </c>
       <c r="G1393" s="13" t="s">
-        <v>8130</v>
+        <v>8137</v>
       </c>
       <c r="H1393" s="13" t="s">
-        <v>8131</v>
+        <v>8138</v>
       </c>
       <c r="I1393" s="13" t="s">
-        <v>8131</v>
+        <v>8138</v>
       </c>
       <c r="J1393" s="13" t="s">
-        <v>8131</v>
+        <v>8138</v>
       </c>
       <c r="K1393" s="13" t="s">
-        <v>8132</v>
+        <v>8139</v>
       </c>
       <c r="L1393" s="13" t="s">
-        <v>8132</v>
+        <v>8139</v>
       </c>
       <c r="M1393" s="13" t="s">
-        <v>8130</v>
+        <v>8137</v>
       </c>
       <c r="N1393" s="13" t="s">
-        <v>8130</v>
+        <v>8137</v>
       </c>
       <c r="O1393" s="13" t="s">
-        <v>8130</v>
+        <v>8137</v>
       </c>
       <c r="P1393" s="13" t="s">
-        <v>8130</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="1394" ht="27" spans="2:16">
       <c r="B1394" s="13" t="s">
-        <v>8133</v>
+        <v>8140</v>
       </c>
       <c r="C1394" s="13" t="s">
-        <v>8134</v>
+        <v>8141</v>
       </c>
       <c r="D1394" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1394" s="13" t="s">
-        <v>8135</v>
+        <v>8142</v>
       </c>
       <c r="G1394" s="13" t="s">
-        <v>8136</v>
+        <v>8143</v>
       </c>
       <c r="H1394" s="13" t="s">
-        <v>8137</v>
+        <v>8144</v>
       </c>
       <c r="I1394" s="13" t="s">
-        <v>8137</v>
+        <v>8144</v>
       </c>
       <c r="J1394" s="13" t="s">
-        <v>8137</v>
+        <v>8144</v>
       </c>
       <c r="K1394" s="13" t="s">
-        <v>8138</v>
+        <v>8145</v>
       </c>
       <c r="L1394" s="13" t="s">
-        <v>8138</v>
+        <v>8145</v>
       </c>
       <c r="M1394" s="13" t="s">
-        <v>8136</v>
+        <v>8143</v>
       </c>
       <c r="N1394" s="13" t="s">
-        <v>8136</v>
+        <v>8143</v>
       </c>
       <c r="O1394" s="13" t="s">
-        <v>8136</v>
+        <v>8143</v>
       </c>
       <c r="P1394" s="13" t="s">
-        <v>8136</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="1395" spans="2:16">
       <c r="B1395" s="13" t="s">
-        <v>8139</v>
+        <v>8146</v>
       </c>
       <c r="C1395" s="13" t="s">
-        <v>8140</v>
+        <v>8147</v>
       </c>
       <c r="D1395" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1395" s="13" t="s">
-        <v>8141</v>
+        <v>8148</v>
       </c>
       <c r="G1395" s="13" t="s">
-        <v>8142</v>
+        <v>8149</v>
       </c>
       <c r="H1395" s="13" t="s">
-        <v>8143</v>
+        <v>8150</v>
       </c>
       <c r="I1395" s="13" t="s">
-        <v>8143</v>
+        <v>8150</v>
       </c>
       <c r="J1395" s="13" t="s">
-        <v>8143</v>
+        <v>8150</v>
       </c>
       <c r="K1395" s="13" t="s">
-        <v>8144</v>
+        <v>8151</v>
       </c>
       <c r="L1395" s="13" t="s">
-        <v>8144</v>
+        <v>8151</v>
       </c>
       <c r="M1395" s="13" t="s">
-        <v>8142</v>
+        <v>8149</v>
       </c>
       <c r="N1395" s="13" t="s">
-        <v>8142</v>
+        <v>8149</v>
       </c>
       <c r="O1395" s="13" t="s">
-        <v>8142</v>
+        <v>8149</v>
       </c>
       <c r="P1395" s="13" t="s">
-        <v>8142</v>
+        <v>8149</v>
       </c>
     </row>
     <row r="1396" spans="2:16">
       <c r="B1396" s="13" t="s">
-        <v>8145</v>
+        <v>8152</v>
       </c>
       <c r="C1396" s="13" t="s">
-        <v>8146</v>
+        <v>8153</v>
       </c>
       <c r="D1396" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1396" s="13" t="s">
-        <v>8147</v>
+        <v>8154</v>
       </c>
       <c r="G1396" s="13" t="s">
-        <v>8148</v>
+        <v>8155</v>
       </c>
       <c r="H1396" s="13" t="s">
-        <v>8149</v>
+        <v>8156</v>
       </c>
       <c r="I1396" s="13" t="s">
-        <v>8149</v>
+        <v>8156</v>
       </c>
       <c r="J1396" s="13" t="s">
-        <v>8149</v>
+        <v>8156</v>
       </c>
       <c r="K1396" s="13" t="s">
-        <v>8150</v>
+        <v>8157</v>
       </c>
       <c r="L1396" s="13" t="s">
-        <v>8150</v>
+        <v>8157</v>
       </c>
       <c r="M1396" s="13" t="s">
-        <v>8148</v>
+        <v>8155</v>
       </c>
       <c r="N1396" s="13" t="s">
-        <v>8148</v>
+        <v>8155</v>
       </c>
       <c r="O1396" s="13" t="s">
-        <v>8148</v>
+        <v>8155</v>
       </c>
       <c r="P1396" s="13" t="s">
-        <v>8148</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="1397" spans="2:16">
       <c r="B1397" s="13" t="s">
-        <v>8151</v>
+        <v>8158</v>
       </c>
       <c r="C1397" s="1" t="s">
         <v>1675</v>
@@ -82125,42 +82175,42 @@
         <v>3055</v>
       </c>
       <c r="F1397" s="13" t="s">
-        <v>8152</v>
+        <v>8159</v>
       </c>
       <c r="G1397" s="13" t="s">
-        <v>8153</v>
+        <v>8160</v>
       </c>
       <c r="H1397" s="13" t="s">
-        <v>8154</v>
+        <v>8161</v>
       </c>
       <c r="I1397" s="13" t="s">
-        <v>8154</v>
+        <v>8161</v>
       </c>
       <c r="J1397" s="13" t="s">
-        <v>8154</v>
+        <v>8161</v>
       </c>
       <c r="K1397" s="13" t="s">
-        <v>8155</v>
+        <v>8162</v>
       </c>
       <c r="L1397" s="13" t="s">
-        <v>8155</v>
+        <v>8162</v>
       </c>
       <c r="M1397" s="13" t="s">
-        <v>8153</v>
+        <v>8160</v>
       </c>
       <c r="N1397" s="13" t="s">
-        <v>8153</v>
+        <v>8160</v>
       </c>
       <c r="O1397" s="13" t="s">
-        <v>8153</v>
+        <v>8160</v>
       </c>
       <c r="P1397" s="13" t="s">
-        <v>8153</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="1398" spans="2:16">
       <c r="B1398" s="13" t="s">
-        <v>8156</v>
+        <v>8163</v>
       </c>
       <c r="C1398" s="1" t="s">
         <v>1683</v>
@@ -82169,42 +82219,42 @@
         <v>3055</v>
       </c>
       <c r="F1398" s="13" t="s">
-        <v>8157</v>
+        <v>8164</v>
       </c>
       <c r="G1398" s="13" t="s">
-        <v>8158</v>
+        <v>8165</v>
       </c>
       <c r="H1398" s="13" t="s">
-        <v>8159</v>
+        <v>8166</v>
       </c>
       <c r="I1398" s="13" t="s">
-        <v>8159</v>
+        <v>8166</v>
       </c>
       <c r="J1398" s="13" t="s">
-        <v>8159</v>
+        <v>8166</v>
       </c>
       <c r="K1398" s="13" t="s">
-        <v>8160</v>
+        <v>8167</v>
       </c>
       <c r="L1398" s="13" t="s">
-        <v>8160</v>
+        <v>8167</v>
       </c>
       <c r="M1398" s="13" t="s">
-        <v>8158</v>
+        <v>8165</v>
       </c>
       <c r="N1398" s="13" t="s">
-        <v>8158</v>
+        <v>8165</v>
       </c>
       <c r="O1398" s="13" t="s">
-        <v>8158</v>
+        <v>8165</v>
       </c>
       <c r="P1398" s="13" t="s">
-        <v>8158</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="1399" spans="2:16">
       <c r="B1399" s="13" t="s">
-        <v>8161</v>
+        <v>8168</v>
       </c>
       <c r="C1399" s="1" t="s">
         <v>1691</v>
@@ -82213,42 +82263,42 @@
         <v>3055</v>
       </c>
       <c r="F1399" s="13" t="s">
-        <v>8162</v>
+        <v>8169</v>
       </c>
       <c r="G1399" s="13" t="s">
-        <v>8163</v>
+        <v>8170</v>
       </c>
       <c r="H1399" s="13" t="s">
-        <v>8164</v>
+        <v>8171</v>
       </c>
       <c r="I1399" s="13" t="s">
-        <v>8164</v>
+        <v>8171</v>
       </c>
       <c r="J1399" s="13" t="s">
-        <v>8164</v>
+        <v>8171</v>
       </c>
       <c r="K1399" s="13" t="s">
-        <v>8165</v>
+        <v>8172</v>
       </c>
       <c r="L1399" s="13" t="s">
-        <v>8165</v>
+        <v>8172</v>
       </c>
       <c r="M1399" s="13" t="s">
-        <v>8163</v>
+        <v>8170</v>
       </c>
       <c r="N1399" s="13" t="s">
-        <v>8163</v>
+        <v>8170</v>
       </c>
       <c r="O1399" s="13" t="s">
-        <v>8163</v>
+        <v>8170</v>
       </c>
       <c r="P1399" s="13" t="s">
-        <v>8163</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="1400" spans="2:16">
       <c r="B1400" s="13" t="s">
-        <v>8166</v>
+        <v>8173</v>
       </c>
       <c r="C1400" s="1" t="s">
         <v>1699</v>
@@ -82257,42 +82307,42 @@
         <v>3055</v>
       </c>
       <c r="F1400" s="13" t="s">
-        <v>8167</v>
+        <v>8174</v>
       </c>
       <c r="G1400" s="13" t="s">
-        <v>8168</v>
+        <v>8175</v>
       </c>
       <c r="H1400" s="13" t="s">
-        <v>8169</v>
+        <v>8176</v>
       </c>
       <c r="I1400" s="13" t="s">
-        <v>8169</v>
+        <v>8176</v>
       </c>
       <c r="J1400" s="13" t="s">
-        <v>8169</v>
+        <v>8176</v>
       </c>
       <c r="K1400" s="13" t="s">
-        <v>8170</v>
+        <v>8177</v>
       </c>
       <c r="L1400" s="13" t="s">
-        <v>8170</v>
+        <v>8177</v>
       </c>
       <c r="M1400" s="13" t="s">
-        <v>8168</v>
+        <v>8175</v>
       </c>
       <c r="N1400" s="13" t="s">
-        <v>8168</v>
+        <v>8175</v>
       </c>
       <c r="O1400" s="13" t="s">
-        <v>8168</v>
+        <v>8175</v>
       </c>
       <c r="P1400" s="13" t="s">
-        <v>8168</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="1401" spans="2:16">
       <c r="B1401" s="13" t="s">
-        <v>8171</v>
+        <v>8178</v>
       </c>
       <c r="C1401" s="1" t="s">
         <v>1706</v>
@@ -82301,42 +82351,42 @@
         <v>3055</v>
       </c>
       <c r="F1401" s="13" t="s">
-        <v>8172</v>
+        <v>8179</v>
       </c>
       <c r="G1401" s="13" t="s">
-        <v>8173</v>
+        <v>8180</v>
       </c>
       <c r="H1401" s="13" t="s">
-        <v>8174</v>
+        <v>8181</v>
       </c>
       <c r="I1401" s="13" t="s">
-        <v>8174</v>
+        <v>8181</v>
       </c>
       <c r="J1401" s="13" t="s">
-        <v>8174</v>
+        <v>8181</v>
       </c>
       <c r="K1401" s="13" t="s">
-        <v>8175</v>
+        <v>8182</v>
       </c>
       <c r="L1401" s="13" t="s">
-        <v>8175</v>
+        <v>8182</v>
       </c>
       <c r="M1401" s="13" t="s">
-        <v>8173</v>
+        <v>8180</v>
       </c>
       <c r="N1401" s="13" t="s">
-        <v>8173</v>
+        <v>8180</v>
       </c>
       <c r="O1401" s="13" t="s">
-        <v>8173</v>
+        <v>8180</v>
       </c>
       <c r="P1401" s="13" t="s">
-        <v>8173</v>
+        <v>8180</v>
       </c>
     </row>
     <row r="1402" spans="2:16">
       <c r="B1402" s="13" t="s">
-        <v>8176</v>
+        <v>8183</v>
       </c>
       <c r="C1402" s="1" t="s">
         <v>1711</v>
@@ -82345,42 +82395,42 @@
         <v>3055</v>
       </c>
       <c r="F1402" s="13" t="s">
-        <v>8177</v>
+        <v>8184</v>
       </c>
       <c r="G1402" s="13" t="s">
-        <v>8178</v>
+        <v>8185</v>
       </c>
       <c r="H1402" s="13" t="s">
-        <v>8179</v>
+        <v>8186</v>
       </c>
       <c r="I1402" s="13" t="s">
-        <v>8179</v>
+        <v>8186</v>
       </c>
       <c r="J1402" s="13" t="s">
-        <v>8179</v>
+        <v>8186</v>
       </c>
       <c r="K1402" s="13" t="s">
-        <v>8180</v>
+        <v>8187</v>
       </c>
       <c r="L1402" s="13" t="s">
-        <v>8180</v>
+        <v>8187</v>
       </c>
       <c r="M1402" s="13" t="s">
-        <v>8178</v>
+        <v>8185</v>
       </c>
       <c r="N1402" s="13" t="s">
-        <v>8178</v>
+        <v>8185</v>
       </c>
       <c r="O1402" s="13" t="s">
-        <v>8178</v>
+        <v>8185</v>
       </c>
       <c r="P1402" s="13" t="s">
-        <v>8178</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="1403" spans="2:16">
       <c r="B1403" s="13" t="s">
-        <v>8181</v>
+        <v>8188</v>
       </c>
       <c r="C1403" s="1" t="s">
         <v>1719</v>
@@ -82389,42 +82439,42 @@
         <v>3055</v>
       </c>
       <c r="F1403" s="13" t="s">
-        <v>8182</v>
+        <v>8189</v>
       </c>
       <c r="G1403" s="13" t="s">
-        <v>8183</v>
+        <v>8190</v>
       </c>
       <c r="H1403" s="13" t="s">
-        <v>8184</v>
+        <v>8191</v>
       </c>
       <c r="I1403" s="13" t="s">
-        <v>8184</v>
+        <v>8191</v>
       </c>
       <c r="J1403" s="13" t="s">
-        <v>8184</v>
+        <v>8191</v>
       </c>
       <c r="K1403" s="13" t="s">
-        <v>8185</v>
+        <v>8192</v>
       </c>
       <c r="L1403" s="13" t="s">
-        <v>8185</v>
+        <v>8192</v>
       </c>
       <c r="M1403" s="13" t="s">
-        <v>8183</v>
+        <v>8190</v>
       </c>
       <c r="N1403" s="13" t="s">
-        <v>8183</v>
+        <v>8190</v>
       </c>
       <c r="O1403" s="13" t="s">
-        <v>8183</v>
+        <v>8190</v>
       </c>
       <c r="P1403" s="13" t="s">
-        <v>8183</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="1404" spans="2:16">
       <c r="B1404" s="13" t="s">
-        <v>8186</v>
+        <v>8193</v>
       </c>
       <c r="C1404" s="1" t="s">
         <v>1725</v>
@@ -82433,42 +82483,42 @@
         <v>3055</v>
       </c>
       <c r="F1404" s="13" t="s">
-        <v>8187</v>
+        <v>8194</v>
       </c>
       <c r="G1404" s="13" t="s">
-        <v>8188</v>
+        <v>8195</v>
       </c>
       <c r="H1404" s="13" t="s">
-        <v>8189</v>
+        <v>8196</v>
       </c>
       <c r="I1404" s="13" t="s">
-        <v>8189</v>
+        <v>8196</v>
       </c>
       <c r="J1404" s="13" t="s">
-        <v>8189</v>
+        <v>8196</v>
       </c>
       <c r="K1404" s="13" t="s">
-        <v>8190</v>
+        <v>8197</v>
       </c>
       <c r="L1404" s="13" t="s">
-        <v>8190</v>
+        <v>8197</v>
       </c>
       <c r="M1404" s="13" t="s">
-        <v>8188</v>
+        <v>8195</v>
       </c>
       <c r="N1404" s="13" t="s">
-        <v>8188</v>
+        <v>8195</v>
       </c>
       <c r="O1404" s="13" t="s">
-        <v>8188</v>
+        <v>8195</v>
       </c>
       <c r="P1404" s="13" t="s">
-        <v>8188</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="1405" spans="2:16">
       <c r="B1405" s="13" t="s">
-        <v>8191</v>
+        <v>8198</v>
       </c>
       <c r="C1405" s="1" t="s">
         <v>1733</v>
@@ -82477,42 +82527,42 @@
         <v>3055</v>
       </c>
       <c r="F1405" s="13" t="s">
-        <v>8192</v>
+        <v>8199</v>
       </c>
       <c r="G1405" s="13" t="s">
-        <v>8193</v>
+        <v>8200</v>
       </c>
       <c r="H1405" s="13" t="s">
-        <v>8194</v>
+        <v>8201</v>
       </c>
       <c r="I1405" s="13" t="s">
-        <v>8194</v>
+        <v>8201</v>
       </c>
       <c r="J1405" s="13" t="s">
-        <v>8194</v>
+        <v>8201</v>
       </c>
       <c r="K1405" s="13" t="s">
-        <v>8195</v>
+        <v>8202</v>
       </c>
       <c r="L1405" s="13" t="s">
-        <v>8195</v>
+        <v>8202</v>
       </c>
       <c r="M1405" s="13" t="s">
-        <v>8193</v>
+        <v>8200</v>
       </c>
       <c r="N1405" s="13" t="s">
-        <v>8193</v>
+        <v>8200</v>
       </c>
       <c r="O1405" s="13" t="s">
-        <v>8193</v>
+        <v>8200</v>
       </c>
       <c r="P1405" s="13" t="s">
-        <v>8193</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="1406" spans="2:16">
       <c r="B1406" s="13" t="s">
-        <v>8196</v>
+        <v>8203</v>
       </c>
       <c r="C1406" s="1" t="s">
         <v>1740</v>
@@ -82521,42 +82571,42 @@
         <v>3055</v>
       </c>
       <c r="F1406" s="13" t="s">
-        <v>8197</v>
+        <v>8204</v>
       </c>
       <c r="G1406" s="13" t="s">
-        <v>8198</v>
+        <v>8205</v>
       </c>
       <c r="H1406" s="13" t="s">
-        <v>8199</v>
+        <v>8206</v>
       </c>
       <c r="I1406" s="13" t="s">
-        <v>8199</v>
+        <v>8206</v>
       </c>
       <c r="J1406" s="13" t="s">
-        <v>8199</v>
+        <v>8206</v>
       </c>
       <c r="K1406" s="13" t="s">
-        <v>8200</v>
+        <v>8207</v>
       </c>
       <c r="L1406" s="13" t="s">
-        <v>8200</v>
+        <v>8207</v>
       </c>
       <c r="M1406" s="13" t="s">
-        <v>8198</v>
+        <v>8205</v>
       </c>
       <c r="N1406" s="13" t="s">
-        <v>8198</v>
+        <v>8205</v>
       </c>
       <c r="O1406" s="13" t="s">
-        <v>8198</v>
+        <v>8205</v>
       </c>
       <c r="P1406" s="13" t="s">
-        <v>8198</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="1407" spans="2:16">
       <c r="B1407" s="13" t="s">
-        <v>8201</v>
+        <v>8208</v>
       </c>
       <c r="C1407" s="1" t="s">
         <v>1748</v>
@@ -82565,42 +82615,42 @@
         <v>3055</v>
       </c>
       <c r="F1407" s="13" t="s">
-        <v>8202</v>
+        <v>8209</v>
       </c>
       <c r="G1407" s="13" t="s">
-        <v>8203</v>
+        <v>8210</v>
       </c>
       <c r="H1407" s="13" t="s">
-        <v>8204</v>
+        <v>8211</v>
       </c>
       <c r="I1407" s="13" t="s">
-        <v>8204</v>
+        <v>8211</v>
       </c>
       <c r="J1407" s="13" t="s">
-        <v>8204</v>
+        <v>8211</v>
       </c>
       <c r="K1407" s="13" t="s">
-        <v>8205</v>
+        <v>8212</v>
       </c>
       <c r="L1407" s="13" t="s">
-        <v>8205</v>
+        <v>8212</v>
       </c>
       <c r="M1407" s="13" t="s">
-        <v>8203</v>
+        <v>8210</v>
       </c>
       <c r="N1407" s="13" t="s">
-        <v>8203</v>
+        <v>8210</v>
       </c>
       <c r="O1407" s="13" t="s">
-        <v>8203</v>
+        <v>8210</v>
       </c>
       <c r="P1407" s="13" t="s">
-        <v>8203</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="1408" spans="2:16">
       <c r="B1408" s="13" t="s">
-        <v>8206</v>
+        <v>8213</v>
       </c>
       <c r="C1408" s="1" t="s">
         <v>1762</v>
@@ -82609,42 +82659,42 @@
         <v>3055</v>
       </c>
       <c r="F1408" s="13" t="s">
-        <v>8207</v>
+        <v>8214</v>
       </c>
       <c r="G1408" s="13" t="s">
-        <v>8208</v>
+        <v>8215</v>
       </c>
       <c r="H1408" s="13" t="s">
-        <v>8209</v>
+        <v>8216</v>
       </c>
       <c r="I1408" s="13" t="s">
-        <v>8209</v>
+        <v>8216</v>
       </c>
       <c r="J1408" s="13" t="s">
-        <v>8209</v>
+        <v>8216</v>
       </c>
       <c r="K1408" s="13" t="s">
-        <v>8210</v>
+        <v>8217</v>
       </c>
       <c r="L1408" s="13" t="s">
-        <v>8210</v>
+        <v>8217</v>
       </c>
       <c r="M1408" s="13" t="s">
-        <v>8208</v>
+        <v>8215</v>
       </c>
       <c r="N1408" s="13" t="s">
-        <v>8208</v>
+        <v>8215</v>
       </c>
       <c r="O1408" s="13" t="s">
-        <v>8208</v>
+        <v>8215</v>
       </c>
       <c r="P1408" s="13" t="s">
-        <v>8208</v>
+        <v>8215</v>
       </c>
     </row>
     <row r="1409" spans="2:16">
       <c r="B1409" s="13" t="s">
-        <v>8211</v>
+        <v>8218</v>
       </c>
       <c r="C1409" s="1" t="s">
         <v>1765</v>
@@ -82653,42 +82703,42 @@
         <v>3055</v>
       </c>
       <c r="F1409" s="13" t="s">
-        <v>8212</v>
+        <v>8219</v>
       </c>
       <c r="G1409" s="13" t="s">
-        <v>8213</v>
+        <v>8220</v>
       </c>
       <c r="H1409" s="13" t="s">
-        <v>8214</v>
+        <v>8221</v>
       </c>
       <c r="I1409" s="13" t="s">
-        <v>8214</v>
+        <v>8221</v>
       </c>
       <c r="J1409" s="13" t="s">
-        <v>8214</v>
+        <v>8221</v>
       </c>
       <c r="K1409" s="13" t="s">
-        <v>8215</v>
+        <v>8222</v>
       </c>
       <c r="L1409" s="13" t="s">
-        <v>8215</v>
+        <v>8222</v>
       </c>
       <c r="M1409" s="13" t="s">
-        <v>8213</v>
+        <v>8220</v>
       </c>
       <c r="N1409" s="13" t="s">
-        <v>8213</v>
+        <v>8220</v>
       </c>
       <c r="O1409" s="13" t="s">
-        <v>8213</v>
+        <v>8220</v>
       </c>
       <c r="P1409" s="13" t="s">
-        <v>8213</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="1410" spans="2:16">
       <c r="B1410" s="13" t="s">
-        <v>8216</v>
+        <v>8223</v>
       </c>
       <c r="C1410" s="1" t="s">
         <v>1773</v>
@@ -82697,42 +82747,42 @@
         <v>3055</v>
       </c>
       <c r="F1410" s="13" t="s">
-        <v>8217</v>
+        <v>8224</v>
       </c>
       <c r="G1410" s="13" t="s">
-        <v>8218</v>
+        <v>8225</v>
       </c>
       <c r="H1410" s="13" t="s">
-        <v>8219</v>
+        <v>8226</v>
       </c>
       <c r="I1410" s="13" t="s">
-        <v>8219</v>
+        <v>8226</v>
       </c>
       <c r="J1410" s="13" t="s">
-        <v>8219</v>
+        <v>8226</v>
       </c>
       <c r="K1410" s="13" t="s">
-        <v>8220</v>
+        <v>8227</v>
       </c>
       <c r="L1410" s="13" t="s">
-        <v>8220</v>
+        <v>8227</v>
       </c>
       <c r="M1410" s="13" t="s">
-        <v>8218</v>
+        <v>8225</v>
       </c>
       <c r="N1410" s="13" t="s">
-        <v>8218</v>
+        <v>8225</v>
       </c>
       <c r="O1410" s="13" t="s">
-        <v>8218</v>
+        <v>8225</v>
       </c>
       <c r="P1410" s="13" t="s">
-        <v>8218</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="1411" spans="2:16">
       <c r="B1411" s="13" t="s">
-        <v>8221</v>
+        <v>8228</v>
       </c>
       <c r="C1411" s="1" t="s">
         <v>1781</v>
@@ -82741,42 +82791,42 @@
         <v>3055</v>
       </c>
       <c r="F1411" s="13" t="s">
-        <v>8222</v>
+        <v>8229</v>
       </c>
       <c r="G1411" s="13" t="s">
-        <v>8223</v>
+        <v>8230</v>
       </c>
       <c r="H1411" s="13" t="s">
-        <v>8224</v>
+        <v>8231</v>
       </c>
       <c r="I1411" s="13" t="s">
-        <v>8224</v>
+        <v>8231</v>
       </c>
       <c r="J1411" s="13" t="s">
-        <v>8224</v>
+        <v>8231</v>
       </c>
       <c r="K1411" s="13" t="s">
-        <v>8225</v>
+        <v>8232</v>
       </c>
       <c r="L1411" s="13" t="s">
-        <v>8225</v>
+        <v>8232</v>
       </c>
       <c r="M1411" s="13" t="s">
-        <v>8223</v>
+        <v>8230</v>
       </c>
       <c r="N1411" s="13" t="s">
-        <v>8223</v>
+        <v>8230</v>
       </c>
       <c r="O1411" s="13" t="s">
-        <v>8223</v>
+        <v>8230</v>
       </c>
       <c r="P1411" s="13" t="s">
-        <v>8223</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="1412" spans="2:16">
       <c r="B1412" s="13" t="s">
-        <v>8226</v>
+        <v>8233</v>
       </c>
       <c r="C1412" s="1" t="s">
         <v>1789</v>
@@ -82785,42 +82835,42 @@
         <v>3055</v>
       </c>
       <c r="F1412" s="13" t="s">
-        <v>8227</v>
+        <v>8234</v>
       </c>
       <c r="G1412" s="13" t="s">
-        <v>8228</v>
+        <v>8235</v>
       </c>
       <c r="H1412" s="13" t="s">
-        <v>8229</v>
+        <v>8236</v>
       </c>
       <c r="I1412" s="13" t="s">
-        <v>8229</v>
+        <v>8236</v>
       </c>
       <c r="J1412" s="13" t="s">
-        <v>8229</v>
+        <v>8236</v>
       </c>
       <c r="K1412" s="13" t="s">
-        <v>8230</v>
+        <v>8237</v>
       </c>
       <c r="L1412" s="13" t="s">
-        <v>8230</v>
+        <v>8237</v>
       </c>
       <c r="M1412" s="13" t="s">
-        <v>8228</v>
+        <v>8235</v>
       </c>
       <c r="N1412" s="13" t="s">
-        <v>8228</v>
+        <v>8235</v>
       </c>
       <c r="O1412" s="13" t="s">
-        <v>8228</v>
+        <v>8235</v>
       </c>
       <c r="P1412" s="13" t="s">
-        <v>8228</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="1413" spans="2:16">
       <c r="B1413" s="13" t="s">
-        <v>8231</v>
+        <v>8238</v>
       </c>
       <c r="C1413" s="1" t="s">
         <v>1797</v>
@@ -82829,42 +82879,42 @@
         <v>3055</v>
       </c>
       <c r="F1413" s="13" t="s">
-        <v>8232</v>
+        <v>8239</v>
       </c>
       <c r="G1413" s="13" t="s">
-        <v>8233</v>
+        <v>8240</v>
       </c>
       <c r="H1413" s="13" t="s">
-        <v>8234</v>
+        <v>8241</v>
       </c>
       <c r="I1413" s="13" t="s">
-        <v>8234</v>
+        <v>8241</v>
       </c>
       <c r="J1413" s="13" t="s">
-        <v>8234</v>
+        <v>8241</v>
       </c>
       <c r="K1413" s="13" t="s">
-        <v>8235</v>
+        <v>8242</v>
       </c>
       <c r="L1413" s="13" t="s">
-        <v>8235</v>
+        <v>8242</v>
       </c>
       <c r="M1413" s="13" t="s">
-        <v>8233</v>
+        <v>8240</v>
       </c>
       <c r="N1413" s="13" t="s">
-        <v>8233</v>
+        <v>8240</v>
       </c>
       <c r="O1413" s="13" t="s">
-        <v>8233</v>
+        <v>8240</v>
       </c>
       <c r="P1413" s="13" t="s">
-        <v>8233</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="1414" spans="2:16">
       <c r="B1414" s="13" t="s">
-        <v>8236</v>
+        <v>8243</v>
       </c>
       <c r="C1414" s="1" t="s">
         <v>1804</v>
@@ -82873,42 +82923,42 @@
         <v>3055</v>
       </c>
       <c r="F1414" s="13" t="s">
-        <v>8237</v>
+        <v>8244</v>
       </c>
       <c r="G1414" s="13" t="s">
-        <v>8238</v>
+        <v>8245</v>
       </c>
       <c r="H1414" s="13" t="s">
-        <v>8239</v>
+        <v>8246</v>
       </c>
       <c r="I1414" s="13" t="s">
-        <v>8239</v>
+        <v>8246</v>
       </c>
       <c r="J1414" s="13" t="s">
-        <v>8239</v>
+        <v>8246</v>
       </c>
       <c r="K1414" s="13" t="s">
-        <v>8240</v>
+        <v>8247</v>
       </c>
       <c r="L1414" s="13" t="s">
-        <v>8240</v>
+        <v>8247</v>
       </c>
       <c r="M1414" s="13" t="s">
-        <v>8238</v>
+        <v>8245</v>
       </c>
       <c r="N1414" s="13" t="s">
-        <v>8238</v>
+        <v>8245</v>
       </c>
       <c r="O1414" s="13" t="s">
-        <v>8238</v>
+        <v>8245</v>
       </c>
       <c r="P1414" s="13" t="s">
-        <v>8238</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="1415" spans="2:16">
       <c r="B1415" s="13" t="s">
-        <v>8241</v>
+        <v>8248</v>
       </c>
       <c r="C1415" s="1" t="s">
         <v>1811</v>
@@ -82917,42 +82967,42 @@
         <v>3055</v>
       </c>
       <c r="F1415" s="13" t="s">
-        <v>8242</v>
+        <v>8249</v>
       </c>
       <c r="G1415" s="13" t="s">
-        <v>8243</v>
+        <v>8250</v>
       </c>
       <c r="H1415" s="13" t="s">
-        <v>8244</v>
+        <v>8251</v>
       </c>
       <c r="I1415" s="13" t="s">
-        <v>8244</v>
+        <v>8251</v>
       </c>
       <c r="J1415" s="13" t="s">
-        <v>8244</v>
+        <v>8251</v>
       </c>
       <c r="K1415" s="13" t="s">
-        <v>8245</v>
+        <v>8252</v>
       </c>
       <c r="L1415" s="13" t="s">
-        <v>8245</v>
+        <v>8252</v>
       </c>
       <c r="M1415" s="13" t="s">
-        <v>8243</v>
+        <v>8250</v>
       </c>
       <c r="N1415" s="13" t="s">
-        <v>8243</v>
+        <v>8250</v>
       </c>
       <c r="O1415" s="13" t="s">
-        <v>8243</v>
+        <v>8250</v>
       </c>
       <c r="P1415" s="13" t="s">
-        <v>8243</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="1416" spans="2:16">
       <c r="B1416" s="13" t="s">
-        <v>8246</v>
+        <v>8253</v>
       </c>
       <c r="C1416" s="1" t="s">
         <v>1856</v>
@@ -82961,790 +83011,790 @@
         <v>3055</v>
       </c>
       <c r="F1416" s="13" t="s">
-        <v>8247</v>
+        <v>8254</v>
       </c>
       <c r="G1416" s="13" t="s">
-        <v>8248</v>
+        <v>8255</v>
       </c>
       <c r="H1416" s="13" t="s">
-        <v>8249</v>
+        <v>8256</v>
       </c>
       <c r="I1416" s="13" t="s">
-        <v>8249</v>
+        <v>8256</v>
       </c>
       <c r="J1416" s="13" t="s">
-        <v>8249</v>
+        <v>8256</v>
       </c>
       <c r="K1416" s="13" t="s">
-        <v>8250</v>
+        <v>8257</v>
       </c>
       <c r="L1416" s="13" t="s">
-        <v>8250</v>
+        <v>8257</v>
       </c>
       <c r="M1416" s="13" t="s">
-        <v>8248</v>
+        <v>8255</v>
       </c>
       <c r="N1416" s="13" t="s">
-        <v>8248</v>
+        <v>8255</v>
       </c>
       <c r="O1416" s="13" t="s">
-        <v>8248</v>
+        <v>8255</v>
       </c>
       <c r="P1416" s="13" t="s">
-        <v>8248</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="1417" ht="27" spans="2:16">
       <c r="B1417" s="13" t="s">
-        <v>8251</v>
+        <v>8258</v>
       </c>
       <c r="C1417" s="13" t="s">
-        <v>8252</v>
+        <v>8259</v>
       </c>
       <c r="D1417" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1417" s="13" t="s">
-        <v>8253</v>
+        <v>8260</v>
       </c>
       <c r="G1417" s="13" t="s">
-        <v>8254</v>
+        <v>8261</v>
       </c>
       <c r="H1417" s="13" t="s">
-        <v>8255</v>
+        <v>8262</v>
       </c>
       <c r="I1417" s="13" t="s">
-        <v>8255</v>
+        <v>8262</v>
       </c>
       <c r="J1417" s="13" t="s">
-        <v>8255</v>
+        <v>8262</v>
       </c>
       <c r="K1417" s="13" t="s">
-        <v>8256</v>
+        <v>8263</v>
       </c>
       <c r="L1417" s="13" t="s">
-        <v>8256</v>
+        <v>8263</v>
       </c>
       <c r="M1417" s="13" t="s">
-        <v>8254</v>
+        <v>8261</v>
       </c>
       <c r="N1417" s="13" t="s">
-        <v>8254</v>
+        <v>8261</v>
       </c>
       <c r="O1417" s="13" t="s">
-        <v>8254</v>
+        <v>8261</v>
       </c>
       <c r="P1417" s="13" t="s">
-        <v>8254</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="1418" ht="27" spans="2:16">
       <c r="B1418" s="13" t="s">
-        <v>8257</v>
+        <v>8264</v>
       </c>
       <c r="C1418" s="13" t="s">
-        <v>8258</v>
+        <v>8265</v>
       </c>
       <c r="D1418" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1418" s="13" t="s">
-        <v>8259</v>
+        <v>8266</v>
       </c>
       <c r="G1418" s="13" t="s">
-        <v>8260</v>
+        <v>8267</v>
       </c>
       <c r="H1418" s="13" t="s">
-        <v>8261</v>
+        <v>8268</v>
       </c>
       <c r="I1418" s="13" t="s">
-        <v>8261</v>
+        <v>8268</v>
       </c>
       <c r="J1418" s="13" t="s">
-        <v>8261</v>
+        <v>8268</v>
       </c>
       <c r="K1418" s="13" t="s">
-        <v>8262</v>
+        <v>8269</v>
       </c>
       <c r="L1418" s="13" t="s">
-        <v>8262</v>
+        <v>8269</v>
       </c>
       <c r="M1418" s="13" t="s">
-        <v>8260</v>
+        <v>8267</v>
       </c>
       <c r="N1418" s="13" t="s">
-        <v>8260</v>
+        <v>8267</v>
       </c>
       <c r="O1418" s="13" t="s">
-        <v>8260</v>
+        <v>8267</v>
       </c>
       <c r="P1418" s="13" t="s">
-        <v>8260</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="1419" ht="27" spans="2:16">
       <c r="B1419" s="13" t="s">
-        <v>8263</v>
+        <v>8270</v>
       </c>
       <c r="C1419" s="13" t="s">
-        <v>8264</v>
+        <v>8271</v>
       </c>
       <c r="D1419" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1419" s="13" t="s">
-        <v>8265</v>
+        <v>8272</v>
       </c>
       <c r="G1419" s="13" t="s">
-        <v>8266</v>
+        <v>8273</v>
       </c>
       <c r="H1419" s="13" t="s">
-        <v>8267</v>
+        <v>8274</v>
       </c>
       <c r="I1419" s="13" t="s">
-        <v>8267</v>
+        <v>8274</v>
       </c>
       <c r="J1419" s="13" t="s">
-        <v>8267</v>
+        <v>8274</v>
       </c>
       <c r="K1419" s="13" t="s">
-        <v>8268</v>
+        <v>8275</v>
       </c>
       <c r="L1419" s="13" t="s">
-        <v>8268</v>
+        <v>8275</v>
       </c>
       <c r="M1419" s="13" t="s">
-        <v>8266</v>
+        <v>8273</v>
       </c>
       <c r="N1419" s="13" t="s">
-        <v>8266</v>
+        <v>8273</v>
       </c>
       <c r="O1419" s="13" t="s">
-        <v>8266</v>
+        <v>8273</v>
       </c>
       <c r="P1419" s="13" t="s">
-        <v>8266</v>
+        <v>8273</v>
       </c>
     </row>
     <row r="1420" ht="27" spans="2:16">
       <c r="B1420" s="13" t="s">
-        <v>8269</v>
+        <v>8276</v>
       </c>
       <c r="C1420" s="13" t="s">
-        <v>8270</v>
+        <v>8277</v>
       </c>
       <c r="D1420" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1420" s="13" t="s">
-        <v>8271</v>
+        <v>8278</v>
       </c>
       <c r="G1420" s="13" t="s">
-        <v>8272</v>
+        <v>8279</v>
       </c>
       <c r="H1420" s="13" t="s">
-        <v>8273</v>
+        <v>8280</v>
       </c>
       <c r="I1420" s="13" t="s">
-        <v>8273</v>
+        <v>8280</v>
       </c>
       <c r="J1420" s="13" t="s">
-        <v>8273</v>
+        <v>8280</v>
       </c>
       <c r="K1420" s="13" t="s">
-        <v>8274</v>
+        <v>8281</v>
       </c>
       <c r="L1420" s="13" t="s">
-        <v>8274</v>
+        <v>8281</v>
       </c>
       <c r="M1420" s="13" t="s">
-        <v>8272</v>
+        <v>8279</v>
       </c>
       <c r="N1420" s="13" t="s">
-        <v>8272</v>
+        <v>8279</v>
       </c>
       <c r="O1420" s="13" t="s">
-        <v>8272</v>
+        <v>8279</v>
       </c>
       <c r="P1420" s="13" t="s">
-        <v>8272</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="1421" spans="2:16">
       <c r="B1421" s="13" t="s">
-        <v>8275</v>
+        <v>8282</v>
       </c>
       <c r="C1421" s="39" t="s">
-        <v>8276</v>
+        <v>8283</v>
       </c>
       <c r="D1421" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1421" s="13" t="s">
-        <v>8277</v>
+        <v>8284</v>
       </c>
       <c r="G1421" s="13" t="s">
-        <v>8278</v>
+        <v>8285</v>
       </c>
       <c r="H1421" s="13" t="s">
-        <v>8279</v>
+        <v>8286</v>
       </c>
       <c r="I1421" s="13" t="s">
-        <v>8279</v>
+        <v>8286</v>
       </c>
       <c r="J1421" s="13" t="s">
-        <v>8279</v>
+        <v>8286</v>
       </c>
       <c r="K1421" s="13" t="s">
-        <v>8280</v>
+        <v>8287</v>
       </c>
       <c r="L1421" s="13" t="s">
-        <v>8280</v>
+        <v>8287</v>
       </c>
       <c r="M1421" s="13" t="s">
-        <v>8278</v>
+        <v>8285</v>
       </c>
       <c r="N1421" s="13" t="s">
-        <v>8278</v>
+        <v>8285</v>
       </c>
       <c r="O1421" s="13" t="s">
-        <v>8278</v>
+        <v>8285</v>
       </c>
       <c r="P1421" s="13" t="s">
-        <v>8278</v>
+        <v>8285</v>
       </c>
     </row>
     <row r="1422" ht="27" spans="2:16">
       <c r="B1422" s="13" t="s">
-        <v>8281</v>
+        <v>8288</v>
       </c>
       <c r="C1422" s="39" t="s">
-        <v>8282</v>
+        <v>8289</v>
       </c>
       <c r="D1422" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1422" s="13" t="s">
-        <v>8283</v>
+        <v>8290</v>
       </c>
       <c r="G1422" s="13" t="s">
-        <v>8284</v>
+        <v>8291</v>
       </c>
       <c r="H1422" s="13" t="s">
-        <v>8285</v>
+        <v>8292</v>
       </c>
       <c r="I1422" s="13" t="s">
-        <v>8285</v>
+        <v>8292</v>
       </c>
       <c r="J1422" s="13" t="s">
-        <v>8285</v>
+        <v>8292</v>
       </c>
       <c r="K1422" s="13" t="s">
-        <v>8286</v>
+        <v>8293</v>
       </c>
       <c r="L1422" s="13" t="s">
-        <v>8286</v>
+        <v>8293</v>
       </c>
       <c r="M1422" s="13" t="s">
-        <v>8284</v>
+        <v>8291</v>
       </c>
       <c r="N1422" s="13" t="s">
-        <v>8284</v>
+        <v>8291</v>
       </c>
       <c r="O1422" s="13" t="s">
-        <v>8284</v>
+        <v>8291</v>
       </c>
       <c r="P1422" s="13" t="s">
-        <v>8284</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="1423" ht="27" spans="2:16">
       <c r="B1423" s="13" t="s">
-        <v>8287</v>
+        <v>8294</v>
       </c>
       <c r="C1423" s="39" t="s">
-        <v>8288</v>
+        <v>8295</v>
       </c>
       <c r="D1423" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1423" s="13" t="s">
-        <v>8289</v>
+        <v>8296</v>
       </c>
       <c r="G1423" s="13" t="s">
-        <v>8290</v>
+        <v>8297</v>
       </c>
       <c r="H1423" s="13" t="s">
-        <v>8291</v>
+        <v>8298</v>
       </c>
       <c r="I1423" s="13" t="s">
-        <v>8291</v>
+        <v>8298</v>
       </c>
       <c r="J1423" s="13" t="s">
-        <v>8291</v>
+        <v>8298</v>
       </c>
       <c r="K1423" s="13" t="s">
-        <v>8292</v>
+        <v>8299</v>
       </c>
       <c r="L1423" s="13" t="s">
-        <v>8292</v>
+        <v>8299</v>
       </c>
       <c r="M1423" s="13" t="s">
-        <v>8290</v>
+        <v>8297</v>
       </c>
       <c r="N1423" s="13" t="s">
-        <v>8290</v>
+        <v>8297</v>
       </c>
       <c r="O1423" s="13" t="s">
-        <v>8290</v>
+        <v>8297</v>
       </c>
       <c r="P1423" s="13" t="s">
-        <v>8290</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="1424" ht="27" spans="2:16">
       <c r="B1424" s="13" t="s">
-        <v>8293</v>
+        <v>8300</v>
       </c>
       <c r="C1424" s="39" t="s">
-        <v>8294</v>
+        <v>8301</v>
       </c>
       <c r="D1424" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1424" s="13" t="s">
-        <v>8295</v>
+        <v>8302</v>
       </c>
       <c r="G1424" s="13" t="s">
-        <v>8296</v>
+        <v>8303</v>
       </c>
       <c r="H1424" s="13" t="s">
-        <v>8297</v>
+        <v>8304</v>
       </c>
       <c r="I1424" s="13" t="s">
-        <v>8297</v>
+        <v>8304</v>
       </c>
       <c r="J1424" s="13" t="s">
-        <v>8297</v>
+        <v>8304</v>
       </c>
       <c r="K1424" s="13" t="s">
-        <v>8298</v>
+        <v>8305</v>
       </c>
       <c r="L1424" s="13" t="s">
-        <v>8298</v>
+        <v>8305</v>
       </c>
       <c r="M1424" s="13" t="s">
-        <v>8296</v>
+        <v>8303</v>
       </c>
       <c r="N1424" s="13" t="s">
-        <v>8296</v>
+        <v>8303</v>
       </c>
       <c r="O1424" s="13" t="s">
-        <v>8296</v>
+        <v>8303</v>
       </c>
       <c r="P1424" s="13" t="s">
-        <v>8296</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="1425" spans="2:16">
       <c r="B1425" s="13" t="s">
-        <v>8299</v>
+        <v>8306</v>
       </c>
       <c r="C1425" s="13" t="s">
-        <v>8300</v>
+        <v>8307</v>
       </c>
       <c r="D1425" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1425" s="13" t="s">
-        <v>8301</v>
+        <v>8308</v>
       </c>
       <c r="G1425" s="13" t="s">
-        <v>8302</v>
+        <v>8309</v>
       </c>
       <c r="H1425" s="13" t="s">
-        <v>8303</v>
+        <v>8310</v>
       </c>
       <c r="I1425" s="13" t="s">
-        <v>8303</v>
+        <v>8310</v>
       </c>
       <c r="J1425" s="13" t="s">
-        <v>8303</v>
+        <v>8310</v>
       </c>
       <c r="K1425" s="13" t="s">
-        <v>8304</v>
+        <v>8311</v>
       </c>
       <c r="L1425" s="13" t="s">
-        <v>8304</v>
+        <v>8311</v>
       </c>
       <c r="M1425" s="13" t="s">
-        <v>8302</v>
+        <v>8309</v>
       </c>
       <c r="N1425" s="13" t="s">
-        <v>8302</v>
+        <v>8309</v>
       </c>
       <c r="O1425" s="13" t="s">
-        <v>8302</v>
+        <v>8309</v>
       </c>
       <c r="P1425" s="13" t="s">
-        <v>8302</v>
+        <v>8309</v>
       </c>
     </row>
     <row r="1426" spans="2:16">
       <c r="B1426" s="13" t="s">
-        <v>8305</v>
+        <v>8312</v>
       </c>
       <c r="C1426" s="13" t="s">
-        <v>8306</v>
+        <v>8313</v>
       </c>
       <c r="D1426" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1426" s="13" t="s">
-        <v>8307</v>
+        <v>8314</v>
       </c>
       <c r="G1426" s="13" t="s">
-        <v>8308</v>
+        <v>8315</v>
       </c>
       <c r="H1426" s="13" t="s">
-        <v>8309</v>
+        <v>8316</v>
       </c>
       <c r="I1426" s="13" t="s">
-        <v>8309</v>
+        <v>8316</v>
       </c>
       <c r="J1426" s="13" t="s">
-        <v>8309</v>
+        <v>8316</v>
       </c>
       <c r="K1426" s="13" t="s">
-        <v>8310</v>
+        <v>8317</v>
       </c>
       <c r="L1426" s="13" t="s">
-        <v>8310</v>
+        <v>8317</v>
       </c>
       <c r="M1426" s="13" t="s">
-        <v>8308</v>
+        <v>8315</v>
       </c>
       <c r="N1426" s="13" t="s">
-        <v>8308</v>
+        <v>8315</v>
       </c>
       <c r="O1426" s="13" t="s">
-        <v>8308</v>
+        <v>8315</v>
       </c>
       <c r="P1426" s="13" t="s">
-        <v>8308</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="1427" ht="27" spans="2:16">
       <c r="B1427" s="13" t="s">
-        <v>8311</v>
+        <v>8318</v>
       </c>
       <c r="C1427" s="13" t="s">
-        <v>8312</v>
+        <v>8319</v>
       </c>
       <c r="D1427" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1427" s="13" t="s">
-        <v>8313</v>
+        <v>8320</v>
       </c>
       <c r="G1427" s="13" t="s">
-        <v>8314</v>
+        <v>8321</v>
       </c>
       <c r="H1427" s="13" t="s">
-        <v>8315</v>
+        <v>8322</v>
       </c>
       <c r="I1427" s="13" t="s">
-        <v>8315</v>
+        <v>8322</v>
       </c>
       <c r="J1427" s="13" t="s">
-        <v>8315</v>
+        <v>8322</v>
       </c>
       <c r="K1427" s="13" t="s">
-        <v>8316</v>
+        <v>8323</v>
       </c>
       <c r="L1427" s="13" t="s">
-        <v>8316</v>
+        <v>8323</v>
       </c>
       <c r="M1427" s="13" t="s">
-        <v>8314</v>
+        <v>8321</v>
       </c>
       <c r="N1427" s="13" t="s">
-        <v>8314</v>
+        <v>8321</v>
       </c>
       <c r="O1427" s="13" t="s">
-        <v>8314</v>
+        <v>8321</v>
       </c>
       <c r="P1427" s="13" t="s">
-        <v>8314</v>
+        <v>8321</v>
       </c>
     </row>
     <row r="1428" ht="27" spans="2:16">
       <c r="B1428" s="13" t="s">
-        <v>8317</v>
+        <v>8324</v>
       </c>
       <c r="C1428" s="13" t="s">
-        <v>8318</v>
+        <v>8325</v>
       </c>
       <c r="D1428" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1428" s="13" t="s">
-        <v>8319</v>
+        <v>8326</v>
       </c>
       <c r="G1428" s="13" t="s">
-        <v>8320</v>
+        <v>8327</v>
       </c>
       <c r="H1428" s="13" t="s">
-        <v>8321</v>
+        <v>8328</v>
       </c>
       <c r="I1428" s="13" t="s">
-        <v>8321</v>
+        <v>8328</v>
       </c>
       <c r="J1428" s="13" t="s">
-        <v>8321</v>
+        <v>8328</v>
       </c>
       <c r="K1428" s="13" t="s">
-        <v>8322</v>
+        <v>8329</v>
       </c>
       <c r="L1428" s="13" t="s">
-        <v>8322</v>
+        <v>8329</v>
       </c>
       <c r="M1428" s="13" t="s">
-        <v>8320</v>
+        <v>8327</v>
       </c>
       <c r="N1428" s="13" t="s">
-        <v>8320</v>
+        <v>8327</v>
       </c>
       <c r="O1428" s="13" t="s">
-        <v>8320</v>
+        <v>8327</v>
       </c>
       <c r="P1428" s="13" t="s">
-        <v>8320</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="1429" spans="2:16">
       <c r="B1429" s="13" t="s">
-        <v>8323</v>
+        <v>8330</v>
       </c>
       <c r="C1429" s="13" t="s">
-        <v>8324</v>
+        <v>8331</v>
       </c>
       <c r="D1429" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1429" s="13" t="s">
-        <v>8325</v>
+        <v>8332</v>
       </c>
       <c r="G1429" s="13" t="s">
-        <v>8326</v>
+        <v>8333</v>
       </c>
       <c r="H1429" s="13" t="s">
-        <v>8327</v>
+        <v>8334</v>
       </c>
       <c r="I1429" s="13" t="s">
-        <v>8327</v>
+        <v>8334</v>
       </c>
       <c r="J1429" s="13" t="s">
-        <v>8327</v>
+        <v>8334</v>
       </c>
       <c r="K1429" s="13" t="s">
-        <v>8328</v>
+        <v>8335</v>
       </c>
       <c r="L1429" s="13" t="s">
-        <v>8328</v>
+        <v>8335</v>
       </c>
       <c r="M1429" s="13" t="s">
-        <v>8326</v>
+        <v>8333</v>
       </c>
       <c r="N1429" s="13" t="s">
-        <v>8326</v>
+        <v>8333</v>
       </c>
       <c r="O1429" s="13" t="s">
-        <v>8326</v>
+        <v>8333</v>
       </c>
       <c r="P1429" s="13" t="s">
-        <v>8326</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="1430" spans="2:16">
       <c r="B1430" s="13" t="s">
-        <v>8329</v>
+        <v>8336</v>
       </c>
       <c r="C1430" s="13" t="s">
-        <v>8330</v>
+        <v>8337</v>
       </c>
       <c r="D1430" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1430" s="13" t="s">
-        <v>8331</v>
+        <v>8338</v>
       </c>
       <c r="G1430" s="13" t="s">
-        <v>8332</v>
+        <v>8339</v>
       </c>
       <c r="H1430" s="13" t="s">
-        <v>8333</v>
+        <v>8340</v>
       </c>
       <c r="I1430" s="13" t="s">
-        <v>8333</v>
+        <v>8340</v>
       </c>
       <c r="J1430" s="13" t="s">
-        <v>8333</v>
+        <v>8340</v>
       </c>
       <c r="K1430" s="13" t="s">
-        <v>8334</v>
+        <v>8341</v>
       </c>
       <c r="L1430" s="13" t="s">
-        <v>8334</v>
+        <v>8341</v>
       </c>
       <c r="M1430" s="13" t="s">
-        <v>8332</v>
+        <v>8339</v>
       </c>
       <c r="N1430" s="13" t="s">
-        <v>8332</v>
+        <v>8339</v>
       </c>
       <c r="O1430" s="13" t="s">
-        <v>8332</v>
+        <v>8339</v>
       </c>
       <c r="P1430" s="13" t="s">
-        <v>8332</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="1431" spans="2:16">
       <c r="B1431" s="13" t="s">
-        <v>8335</v>
+        <v>8342</v>
       </c>
       <c r="C1431" s="13" t="s">
-        <v>8336</v>
+        <v>8343</v>
       </c>
       <c r="D1431" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1431" s="13" t="s">
-        <v>8337</v>
+        <v>8344</v>
       </c>
       <c r="G1431" s="13" t="s">
-        <v>8338</v>
+        <v>8345</v>
       </c>
       <c r="H1431" s="13" t="s">
-        <v>8339</v>
+        <v>8346</v>
       </c>
       <c r="I1431" s="13" t="s">
-        <v>8339</v>
+        <v>8346</v>
       </c>
       <c r="J1431" s="13" t="s">
-        <v>8339</v>
+        <v>8346</v>
       </c>
       <c r="K1431" s="13" t="s">
-        <v>8340</v>
+        <v>8347</v>
       </c>
       <c r="L1431" s="13" t="s">
-        <v>8340</v>
+        <v>8347</v>
       </c>
       <c r="M1431" s="13" t="s">
-        <v>8338</v>
+        <v>8345</v>
       </c>
       <c r="N1431" s="13" t="s">
-        <v>8338</v>
+        <v>8345</v>
       </c>
       <c r="O1431" s="13" t="s">
-        <v>8338</v>
+        <v>8345</v>
       </c>
       <c r="P1431" s="13" t="s">
-        <v>8338</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="1432" spans="2:16">
       <c r="B1432" s="13" t="s">
-        <v>8341</v>
+        <v>8348</v>
       </c>
       <c r="C1432" s="13" t="s">
-        <v>8342</v>
+        <v>8349</v>
       </c>
       <c r="D1432" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1432" s="13" t="s">
-        <v>8343</v>
+        <v>8350</v>
       </c>
       <c r="G1432" s="13" t="s">
-        <v>8344</v>
+        <v>8351</v>
       </c>
       <c r="H1432" s="13" t="s">
-        <v>8345</v>
+        <v>8352</v>
       </c>
       <c r="I1432" s="13" t="s">
-        <v>8345</v>
+        <v>8352</v>
       </c>
       <c r="J1432" s="13" t="s">
-        <v>8345</v>
+        <v>8352</v>
       </c>
       <c r="K1432" s="13" t="s">
-        <v>8346</v>
+        <v>8353</v>
       </c>
       <c r="L1432" s="13" t="s">
-        <v>8346</v>
+        <v>8353</v>
       </c>
       <c r="M1432" s="13" t="s">
-        <v>8344</v>
+        <v>8351</v>
       </c>
       <c r="N1432" s="13" t="s">
-        <v>8344</v>
+        <v>8351</v>
       </c>
       <c r="O1432" s="13" t="s">
-        <v>8344</v>
+        <v>8351</v>
       </c>
       <c r="P1432" s="13" t="s">
-        <v>8344</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="1433" spans="2:16">
       <c r="B1433" s="13" t="s">
-        <v>8347</v>
+        <v>8354</v>
       </c>
       <c r="C1433" s="13" t="s">
-        <v>8348</v>
+        <v>8355</v>
       </c>
       <c r="D1433" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1433" s="13" t="s">
-        <v>8349</v>
+        <v>8356</v>
       </c>
       <c r="G1433" s="13" t="s">
-        <v>8350</v>
+        <v>8357</v>
       </c>
       <c r="H1433" s="13" t="s">
-        <v>8351</v>
+        <v>8358</v>
       </c>
       <c r="I1433" s="13" t="s">
-        <v>8351</v>
+        <v>8358</v>
       </c>
       <c r="J1433" s="13" t="s">
-        <v>8351</v>
+        <v>8358</v>
       </c>
       <c r="K1433" s="13" t="s">
-        <v>8352</v>
+        <v>8359</v>
       </c>
       <c r="L1433" s="13" t="s">
-        <v>8352</v>
+        <v>8359</v>
       </c>
       <c r="M1433" s="13" t="s">
-        <v>8350</v>
+        <v>8357</v>
       </c>
       <c r="N1433" s="13" t="s">
-        <v>8350</v>
+        <v>8357</v>
       </c>
       <c r="O1433" s="13" t="s">
-        <v>8350</v>
+        <v>8357</v>
       </c>
       <c r="P1433" s="13" t="s">
-        <v>8350</v>
+        <v>8357</v>
       </c>
     </row>
     <row r="1434" spans="2:16">
       <c r="B1434" s="13" t="s">
-        <v>8353</v>
+        <v>8360</v>
       </c>
       <c r="C1434" s="13" t="s">
         <v>1815</v>
@@ -83753,42 +83803,42 @@
         <v>3055</v>
       </c>
       <c r="F1434" s="13" t="s">
-        <v>8354</v>
+        <v>8361</v>
       </c>
       <c r="G1434" s="13" t="s">
-        <v>8355</v>
+        <v>8362</v>
       </c>
       <c r="H1434" s="13" t="s">
-        <v>8356</v>
+        <v>8363</v>
       </c>
       <c r="I1434" s="13" t="s">
-        <v>8356</v>
+        <v>8363</v>
       </c>
       <c r="J1434" s="13" t="s">
-        <v>8356</v>
+        <v>8363</v>
       </c>
       <c r="K1434" s="13" t="s">
-        <v>8357</v>
+        <v>8364</v>
       </c>
       <c r="L1434" s="13" t="s">
-        <v>8357</v>
+        <v>8364</v>
       </c>
       <c r="M1434" s="13" t="s">
-        <v>8355</v>
+        <v>8362</v>
       </c>
       <c r="N1434" s="13" t="s">
-        <v>8355</v>
+        <v>8362</v>
       </c>
       <c r="O1434" s="13" t="s">
-        <v>8355</v>
+        <v>8362</v>
       </c>
       <c r="P1434" s="13" t="s">
-        <v>8355</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="1435" spans="2:16">
       <c r="B1435" s="13" t="s">
-        <v>8358</v>
+        <v>8365</v>
       </c>
       <c r="C1435" s="13" t="s">
         <v>1819</v>
@@ -83797,42 +83847,42 @@
         <v>3055</v>
       </c>
       <c r="F1435" s="13" t="s">
-        <v>8359</v>
+        <v>8366</v>
       </c>
       <c r="G1435" s="13" t="s">
-        <v>8360</v>
+        <v>8367</v>
       </c>
       <c r="H1435" s="13" t="s">
-        <v>8361</v>
+        <v>8368</v>
       </c>
       <c r="I1435" s="13" t="s">
-        <v>8361</v>
+        <v>8368</v>
       </c>
       <c r="J1435" s="13" t="s">
-        <v>8361</v>
+        <v>8368</v>
       </c>
       <c r="K1435" s="13" t="s">
-        <v>8362</v>
+        <v>8369</v>
       </c>
       <c r="L1435" s="13" t="s">
-        <v>8362</v>
+        <v>8369</v>
       </c>
       <c r="M1435" s="13" t="s">
-        <v>8360</v>
+        <v>8367</v>
       </c>
       <c r="N1435" s="13" t="s">
-        <v>8360</v>
+        <v>8367</v>
       </c>
       <c r="O1435" s="13" t="s">
-        <v>8360</v>
+        <v>8367</v>
       </c>
       <c r="P1435" s="13" t="s">
-        <v>8360</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="1436" spans="2:16">
       <c r="B1436" s="13" t="s">
-        <v>8363</v>
+        <v>8370</v>
       </c>
       <c r="C1436" s="13" t="s">
         <v>1827</v>
@@ -83841,42 +83891,42 @@
         <v>3055</v>
       </c>
       <c r="F1436" s="13" t="s">
-        <v>8364</v>
+        <v>8371</v>
       </c>
       <c r="G1436" s="13" t="s">
-        <v>8365</v>
+        <v>8372</v>
       </c>
       <c r="H1436" s="13" t="s">
-        <v>8366</v>
+        <v>8373</v>
       </c>
       <c r="I1436" s="13" t="s">
-        <v>8366</v>
+        <v>8373</v>
       </c>
       <c r="J1436" s="13" t="s">
-        <v>8366</v>
+        <v>8373</v>
       </c>
       <c r="K1436" s="13" t="s">
-        <v>8367</v>
+        <v>8374</v>
       </c>
       <c r="L1436" s="13" t="s">
-        <v>8367</v>
+        <v>8374</v>
       </c>
       <c r="M1436" s="13" t="s">
-        <v>8365</v>
+        <v>8372</v>
       </c>
       <c r="N1436" s="13" t="s">
-        <v>8365</v>
+        <v>8372</v>
       </c>
       <c r="O1436" s="13" t="s">
-        <v>8365</v>
+        <v>8372</v>
       </c>
       <c r="P1436" s="13" t="s">
-        <v>8365</v>
+        <v>8372</v>
       </c>
     </row>
     <row r="1437" spans="2:16">
       <c r="B1437" s="13" t="s">
-        <v>8368</v>
+        <v>8375</v>
       </c>
       <c r="C1437" s="13" t="s">
         <v>1834</v>
@@ -83885,477 +83935,477 @@
         <v>3055</v>
       </c>
       <c r="F1437" s="13" t="s">
-        <v>8369</v>
+        <v>8376</v>
       </c>
       <c r="G1437" s="13" t="s">
-        <v>8370</v>
+        <v>8377</v>
       </c>
       <c r="H1437" s="13" t="s">
-        <v>8371</v>
+        <v>8378</v>
       </c>
       <c r="I1437" s="13" t="s">
-        <v>8371</v>
+        <v>8378</v>
       </c>
       <c r="J1437" s="13" t="s">
-        <v>8371</v>
+        <v>8378</v>
       </c>
       <c r="K1437" s="13" t="s">
-        <v>8372</v>
+        <v>8379</v>
       </c>
       <c r="L1437" s="13" t="s">
-        <v>8372</v>
+        <v>8379</v>
       </c>
       <c r="M1437" s="13" t="s">
-        <v>8370</v>
+        <v>8377</v>
       </c>
       <c r="N1437" s="13" t="s">
-        <v>8370</v>
+        <v>8377</v>
       </c>
       <c r="O1437" s="13" t="s">
-        <v>8370</v>
+        <v>8377</v>
       </c>
       <c r="P1437" s="13" t="s">
-        <v>8370</v>
+        <v>8377</v>
       </c>
     </row>
     <row r="1438" spans="2:16">
       <c r="B1438" s="13" t="s">
-        <v>8373</v>
+        <v>8380</v>
       </c>
       <c r="C1438" s="13" t="s">
-        <v>8374</v>
+        <v>8381</v>
       </c>
       <c r="D1438" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1438" s="13" t="s">
-        <v>8375</v>
+        <v>8382</v>
       </c>
       <c r="G1438" s="13" t="s">
-        <v>8376</v>
+        <v>8383</v>
       </c>
       <c r="H1438" s="13" t="s">
-        <v>8377</v>
+        <v>8384</v>
       </c>
       <c r="I1438" s="13" t="s">
-        <v>8377</v>
+        <v>8384</v>
       </c>
       <c r="J1438" s="13" t="s">
-        <v>8377</v>
+        <v>8384</v>
       </c>
       <c r="K1438" s="13" t="s">
-        <v>8378</v>
+        <v>8385</v>
       </c>
       <c r="L1438" s="13" t="s">
-        <v>8378</v>
+        <v>8385</v>
       </c>
       <c r="M1438" s="13" t="s">
-        <v>8376</v>
+        <v>8383</v>
       </c>
       <c r="N1438" s="13" t="s">
-        <v>8376</v>
+        <v>8383</v>
       </c>
       <c r="O1438" s="13" t="s">
-        <v>8376</v>
+        <v>8383</v>
       </c>
       <c r="P1438" s="13" t="s">
-        <v>8376</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="1439" spans="2:16">
       <c r="B1439" s="13" t="s">
-        <v>8379</v>
+        <v>8386</v>
       </c>
       <c r="C1439" s="13" t="s">
-        <v>8380</v>
+        <v>8387</v>
       </c>
       <c r="D1439" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1439" s="13" t="s">
-        <v>8381</v>
+        <v>8388</v>
       </c>
       <c r="G1439" s="13" t="s">
-        <v>8382</v>
+        <v>8389</v>
       </c>
       <c r="H1439" s="13" t="s">
-        <v>8383</v>
+        <v>8390</v>
       </c>
       <c r="I1439" s="13" t="s">
-        <v>8383</v>
+        <v>8390</v>
       </c>
       <c r="J1439" s="13" t="s">
-        <v>8383</v>
+        <v>8390</v>
       </c>
       <c r="K1439" s="13" t="s">
-        <v>8384</v>
+        <v>8391</v>
       </c>
       <c r="L1439" s="13" t="s">
-        <v>8384</v>
+        <v>8391</v>
       </c>
       <c r="M1439" s="13" t="s">
-        <v>8382</v>
+        <v>8389</v>
       </c>
       <c r="N1439" s="13" t="s">
-        <v>8382</v>
+        <v>8389</v>
       </c>
       <c r="O1439" s="13" t="s">
-        <v>8382</v>
+        <v>8389</v>
       </c>
       <c r="P1439" s="13" t="s">
-        <v>8382</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="1440" spans="2:16">
       <c r="B1440" s="13" t="s">
-        <v>8385</v>
+        <v>8392</v>
       </c>
       <c r="C1440" s="13" t="s">
-        <v>8386</v>
+        <v>8393</v>
       </c>
       <c r="D1440" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1440" s="13" t="s">
-        <v>8387</v>
+        <v>8394</v>
       </c>
       <c r="G1440" s="13" t="s">
-        <v>8388</v>
+        <v>8395</v>
       </c>
       <c r="H1440" s="13" t="s">
-        <v>8389</v>
+        <v>8396</v>
       </c>
       <c r="I1440" s="13" t="s">
-        <v>8389</v>
+        <v>8396</v>
       </c>
       <c r="J1440" s="13" t="s">
-        <v>8389</v>
+        <v>8396</v>
       </c>
       <c r="K1440" s="13" t="s">
-        <v>8390</v>
+        <v>8397</v>
       </c>
       <c r="L1440" s="13" t="s">
-        <v>8390</v>
+        <v>8397</v>
       </c>
       <c r="M1440" s="13" t="s">
-        <v>8388</v>
+        <v>8395</v>
       </c>
       <c r="N1440" s="13" t="s">
-        <v>8388</v>
+        <v>8395</v>
       </c>
       <c r="O1440" s="13" t="s">
-        <v>8388</v>
+        <v>8395</v>
       </c>
       <c r="P1440" s="13" t="s">
-        <v>8388</v>
+        <v>8395</v>
       </c>
     </row>
     <row r="1441" ht="27" spans="2:16">
       <c r="B1441" s="13" t="s">
-        <v>8391</v>
+        <v>8398</v>
       </c>
       <c r="C1441" s="13" t="s">
-        <v>8392</v>
+        <v>8399</v>
       </c>
       <c r="D1441" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1441" s="13" t="s">
-        <v>8393</v>
+        <v>8400</v>
       </c>
       <c r="G1441" s="13" t="s">
-        <v>8394</v>
+        <v>8401</v>
       </c>
       <c r="H1441" s="13" t="s">
-        <v>8395</v>
+        <v>8402</v>
       </c>
       <c r="I1441" s="13" t="s">
-        <v>8395</v>
+        <v>8402</v>
       </c>
       <c r="J1441" s="13" t="s">
-        <v>8395</v>
+        <v>8402</v>
       </c>
       <c r="K1441" s="13" t="s">
-        <v>8396</v>
+        <v>8403</v>
       </c>
       <c r="L1441" s="13" t="s">
-        <v>8396</v>
+        <v>8403</v>
       </c>
       <c r="M1441" s="13" t="s">
-        <v>8394</v>
+        <v>8401</v>
       </c>
       <c r="N1441" s="13" t="s">
-        <v>8394</v>
+        <v>8401</v>
       </c>
       <c r="O1441" s="13" t="s">
-        <v>8394</v>
+        <v>8401</v>
       </c>
       <c r="P1441" s="13" t="s">
-        <v>8394</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="1442" ht="27" spans="2:16">
       <c r="B1442" s="13" t="s">
-        <v>8397</v>
+        <v>8404</v>
       </c>
       <c r="C1442" s="13" t="s">
-        <v>8398</v>
+        <v>8405</v>
       </c>
       <c r="D1442" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1442" s="13" t="s">
-        <v>8399</v>
+        <v>8406</v>
       </c>
       <c r="G1442" s="13" t="s">
-        <v>8400</v>
+        <v>8407</v>
       </c>
       <c r="H1442" s="13" t="s">
-        <v>8401</v>
+        <v>8408</v>
       </c>
       <c r="I1442" s="13" t="s">
-        <v>8401</v>
+        <v>8408</v>
       </c>
       <c r="J1442" s="13" t="s">
-        <v>8401</v>
+        <v>8408</v>
       </c>
       <c r="K1442" s="13" t="s">
-        <v>8402</v>
+        <v>8409</v>
       </c>
       <c r="L1442" s="13" t="s">
-        <v>8402</v>
+        <v>8409</v>
       </c>
       <c r="M1442" s="13" t="s">
-        <v>8400</v>
+        <v>8407</v>
       </c>
       <c r="N1442" s="13" t="s">
-        <v>8400</v>
+        <v>8407</v>
       </c>
       <c r="O1442" s="13" t="s">
-        <v>8400</v>
+        <v>8407</v>
       </c>
       <c r="P1442" s="13" t="s">
-        <v>8400</v>
+        <v>8407</v>
       </c>
     </row>
     <row r="1443" spans="2:16">
       <c r="B1443" s="13" t="s">
-        <v>8403</v>
+        <v>8410</v>
       </c>
       <c r="C1443" s="13" t="s">
-        <v>8404</v>
+        <v>8411</v>
       </c>
       <c r="D1443" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1443" s="13" t="s">
-        <v>8405</v>
+        <v>8412</v>
       </c>
       <c r="G1443" s="13" t="s">
-        <v>8406</v>
+        <v>8413</v>
       </c>
       <c r="H1443" s="13" t="s">
-        <v>8407</v>
+        <v>8414</v>
       </c>
       <c r="I1443" s="13" t="s">
-        <v>8407</v>
+        <v>8414</v>
       </c>
       <c r="J1443" s="13" t="s">
-        <v>8407</v>
+        <v>8414</v>
       </c>
       <c r="K1443" s="13" t="s">
-        <v>8408</v>
+        <v>8415</v>
       </c>
       <c r="L1443" s="13" t="s">
-        <v>8408</v>
+        <v>8415</v>
       </c>
       <c r="M1443" s="13" t="s">
-        <v>8406</v>
+        <v>8413</v>
       </c>
       <c r="N1443" s="13" t="s">
-        <v>8406</v>
+        <v>8413</v>
       </c>
       <c r="O1443" s="13" t="s">
-        <v>8406</v>
+        <v>8413</v>
       </c>
       <c r="P1443" s="13" t="s">
-        <v>8406</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="1444" ht="27" spans="2:16">
       <c r="B1444" s="13" t="s">
-        <v>8409</v>
+        <v>8416</v>
       </c>
       <c r="C1444" s="13" t="s">
-        <v>8410</v>
+        <v>8417</v>
       </c>
       <c r="D1444" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1444" s="13" t="s">
-        <v>8411</v>
+        <v>8418</v>
       </c>
       <c r="G1444" s="13" t="s">
-        <v>8412</v>
+        <v>8419</v>
       </c>
       <c r="H1444" s="13" t="s">
-        <v>8413</v>
+        <v>8420</v>
       </c>
       <c r="I1444" s="13" t="s">
-        <v>8413</v>
+        <v>8420</v>
       </c>
       <c r="J1444" s="13" t="s">
-        <v>8413</v>
+        <v>8420</v>
       </c>
       <c r="K1444" s="13" t="s">
-        <v>8414</v>
+        <v>8421</v>
       </c>
       <c r="L1444" s="13" t="s">
-        <v>8414</v>
+        <v>8421</v>
       </c>
       <c r="M1444" s="13" t="s">
-        <v>8412</v>
+        <v>8419</v>
       </c>
       <c r="N1444" s="13" t="s">
-        <v>8412</v>
+        <v>8419</v>
       </c>
       <c r="O1444" s="13" t="s">
-        <v>8412</v>
+        <v>8419</v>
       </c>
       <c r="P1444" s="13" t="s">
-        <v>8412</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="1445" ht="27" spans="2:16">
       <c r="B1445" s="13" t="s">
-        <v>8415</v>
+        <v>8422</v>
       </c>
       <c r="C1445" s="13" t="s">
-        <v>8416</v>
+        <v>8423</v>
       </c>
       <c r="D1445" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1445" s="13" t="s">
-        <v>8417</v>
+        <v>8424</v>
       </c>
       <c r="G1445" s="13" t="s">
-        <v>8418</v>
+        <v>8425</v>
       </c>
       <c r="H1445" s="13" t="s">
-        <v>8419</v>
+        <v>8426</v>
       </c>
       <c r="I1445" s="13" t="s">
-        <v>8419</v>
+        <v>8426</v>
       </c>
       <c r="J1445" s="13" t="s">
-        <v>8419</v>
+        <v>8426</v>
       </c>
       <c r="K1445" s="13" t="s">
-        <v>8420</v>
+        <v>8427</v>
       </c>
       <c r="L1445" s="13" t="s">
-        <v>8420</v>
+        <v>8427</v>
       </c>
       <c r="M1445" s="13" t="s">
-        <v>8418</v>
+        <v>8425</v>
       </c>
       <c r="N1445" s="13" t="s">
-        <v>8418</v>
+        <v>8425</v>
       </c>
       <c r="O1445" s="13" t="s">
-        <v>8418</v>
+        <v>8425</v>
       </c>
       <c r="P1445" s="13" t="s">
-        <v>8418</v>
+        <v>8425</v>
       </c>
     </row>
     <row r="1446" ht="27" spans="2:16">
       <c r="B1446" s="13" t="s">
-        <v>8421</v>
+        <v>8428</v>
       </c>
       <c r="C1446" s="13" t="s">
-        <v>8422</v>
+        <v>8429</v>
       </c>
       <c r="D1446" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1446" s="13" t="s">
-        <v>8423</v>
+        <v>8430</v>
       </c>
       <c r="G1446" s="13" t="s">
-        <v>8424</v>
+        <v>8431</v>
       </c>
       <c r="H1446" s="13" t="s">
-        <v>8425</v>
+        <v>8432</v>
       </c>
       <c r="I1446" s="13" t="s">
-        <v>8425</v>
+        <v>8432</v>
       </c>
       <c r="J1446" s="13" t="s">
-        <v>8425</v>
+        <v>8432</v>
       </c>
       <c r="K1446" s="13" t="s">
-        <v>8426</v>
+        <v>8433</v>
       </c>
       <c r="L1446" s="13" t="s">
-        <v>8426</v>
+        <v>8433</v>
       </c>
       <c r="M1446" s="13" t="s">
-        <v>8424</v>
+        <v>8431</v>
       </c>
       <c r="N1446" s="13" t="s">
-        <v>8424</v>
+        <v>8431</v>
       </c>
       <c r="O1446" s="13" t="s">
-        <v>8424</v>
+        <v>8431</v>
       </c>
       <c r="P1446" s="13" t="s">
-        <v>8424</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="1447" ht="27" spans="2:16">
       <c r="B1447" s="13" t="s">
-        <v>8427</v>
+        <v>8434</v>
       </c>
       <c r="C1447" s="13" t="s">
-        <v>8428</v>
+        <v>8435</v>
       </c>
       <c r="D1447" s="42" t="s">
         <v>3055</v>
       </c>
       <c r="F1447" s="13" t="s">
-        <v>8429</v>
+        <v>8436</v>
       </c>
       <c r="G1447" s="13" t="s">
-        <v>8430</v>
+        <v>8437</v>
       </c>
       <c r="H1447" s="13" t="s">
-        <v>8431</v>
+        <v>8438</v>
       </c>
       <c r="I1447" s="13" t="s">
-        <v>8431</v>
+        <v>8438</v>
       </c>
       <c r="J1447" s="13" t="s">
-        <v>8431</v>
+        <v>8438</v>
       </c>
       <c r="K1447" s="13" t="s">
-        <v>8432</v>
+        <v>8439</v>
       </c>
       <c r="L1447" s="13" t="s">
-        <v>8432</v>
+        <v>8439</v>
       </c>
       <c r="M1447" s="13" t="s">
-        <v>8430</v>
+        <v>8437</v>
       </c>
       <c r="N1447" s="13" t="s">
-        <v>8430</v>
+        <v>8437</v>
       </c>
       <c r="O1447" s="13" t="s">
-        <v>8430</v>
+        <v>8437</v>
       </c>
       <c r="P1447" s="13" t="s">
-        <v>8430</v>
+        <v>8437</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25755" windowHeight="10590"/>
+    <workbookView windowWidth="25755" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -4882,7 +4882,7 @@
     <t>货币单位</t>
   </si>
   <si>
-    <t>PHP</t>
+    <t>INR</t>
   </si>
   <si>
     <t>205006</t>
@@ -10575,16 +10575,16 @@
     <t>217007</t>
   </si>
   <si>
-    <t>累计充值达到{0}PHP</t>
-  </si>
-  <si>
-    <t>Recharge up to {0}PHP</t>
-  </si>
-  <si>
-    <t>Recarga de até {0}PHP</t>
-  </si>
-  <si>
-    <t>Isi ulang hingga {0}PHP</t>
+    <t>累计充值达到{0}INR</t>
+  </si>
+  <si>
+    <t>Recharge up to {0}INR</t>
+  </si>
+  <si>
+    <t>Recarga de até {0}INR</t>
+  </si>
+  <si>
+    <t>Isi ulang hingga {0}INR</t>
   </si>
   <si>
     <t>217008</t>
@@ -28300,8 +28300,8 @@
   <sheetPr/>
   <dimension ref="A1:P1540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
-      <selection activeCell="G681" sqref="G681"/>
+    <sheetView tabSelected="1" topLeftCell="F268" workbookViewId="0">
+      <selection activeCell="I278" sqref="I278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/LubanConfig/Datas/Localization.xlsx
+++ b/LubanConfig/Datas/Localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24780" windowHeight="9165"/>
+    <workbookView windowWidth="24045" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Module" sheetId="2" r:id="rId1"/>
@@ -10261,7 +10261,8 @@
     <t>224001</t>
   </si>
   <si>
-    <t>VIP{0}+{1}%</t>
+    <t>VIP{0}
++{1}%</t>
   </si>
   <si>
     <t>224002</t>
@@ -25489,7 +25490,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -25572,34 +25573,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -25613,14 +25586,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -25660,6 +25625,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -25710,7 +25690,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -25761,49 +25762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25821,25 +25786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25863,6 +25810,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -25875,7 +25834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25899,7 +25882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25912,6 +25907,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25979,21 +25980,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -26022,6 +26008,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26080,152 +26081,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -26265,10 +26266,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -26286,10 +26287,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -26343,6 +26344,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -26385,52 +26389,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -26733,7 +26737,7 @@
   <dimension ref="A1:P1478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="E631" sqref="E631"/>
+      <selection activeCell="H623" sqref="H623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49212,7 +49216,7 @@
       <c r="O621"/>
       <c r="P621"/>
     </row>
-    <row r="622" s="2" customFormat="1" spans="2:16">
+    <row r="622" s="2" customFormat="1" ht="27" spans="2:16">
       <c r="B622" s="1" t="s">
         <v>3264</v>
       </c>
@@ -49222,7 +49226,7 @@
       <c r="F622" s="22" t="s">
         <v>3265</v>
       </c>
-      <c r="G622" t="s">
+      <c r="G622" s="39" t="s">
         <v>3265</v>
       </c>
       <c r="H622" s="1"/>
@@ -49740,7 +49744,7 @@
       <c r="F638" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="G638" s="39" t="s">
+      <c r="G638" s="40" t="s">
         <v>3355</v>
       </c>
       <c r="H638" s="1" t="s">
@@ -49758,16 +49762,16 @@
       <c r="L638" s="1" t="s">
         <v>3360</v>
       </c>
-      <c r="M638" s="39" t="s">
+      <c r="M638" s="40" t="s">
         <v>3355</v>
       </c>
-      <c r="N638" s="39" t="s">
+      <c r="N638" s="40" t="s">
         <v>3355</v>
       </c>
-      <c r="O638" s="39" t="s">
+      <c r="O638" s="40" t="s">
         <v>3355</v>
       </c>
-      <c r="P638" s="39" t="s">
+      <c r="P638" s="40" t="s">
         <v>3355</v>
       </c>
     </row>
@@ -49780,7 +49784,7 @@
       <c r="F639" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="G639" s="39" t="s">
+      <c r="G639" s="40" t="s">
         <v>3363</v>
       </c>
       <c r="H639" s="1" t="s">
@@ -49798,16 +49802,16 @@
       <c r="L639" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="M639" s="39" t="s">
+      <c r="M639" s="40" t="s">
         <v>3363</v>
       </c>
-      <c r="N639" s="39" t="s">
+      <c r="N639" s="40" t="s">
         <v>3363</v>
       </c>
-      <c r="O639" s="39" t="s">
+      <c r="O639" s="40" t="s">
         <v>3363</v>
       </c>
-      <c r="P639" s="39" t="s">
+      <c r="P639" s="40" t="s">
         <v>3363</v>
       </c>
     </row>
@@ -49820,7 +49824,7 @@
       <c r="F640" s="1" t="s">
         <v>3370</v>
       </c>
-      <c r="G640" s="40" t="s">
+      <c r="G640" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="H640" s="1" t="s">
@@ -49838,16 +49842,16 @@
       <c r="L640" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="M640" s="40" t="s">
+      <c r="M640" s="41" t="s">
         <v>3371</v>
       </c>
-      <c r="N640" s="40" t="s">
+      <c r="N640" s="41" t="s">
         <v>3371</v>
       </c>
-      <c r="O640" s="40" t="s">
+      <c r="O640" s="41" t="s">
         <v>3371</v>
       </c>
-      <c r="P640" s="40" t="s">
+      <c r="P640" s="41" t="s">
         <v>3371</v>
       </c>
     </row>
@@ -49856,8 +49860,8 @@
         <v>3376</v>
       </c>
       <c r="C641" s="1"/>
-      <c r="E641" s="41"/>
-      <c r="F641" s="41" t="s">
+      <c r="E641" s="42"/>
+      <c r="F641" s="42" t="s">
         <v>3377</v>
       </c>
       <c r="G641" s="1" t="s">
@@ -49896,8 +49900,8 @@
         <v>3383</v>
       </c>
       <c r="C642" s="1"/>
-      <c r="E642" s="41"/>
-      <c r="F642" s="41" t="s">
+      <c r="E642" s="42"/>
+      <c r="F642" s="42" t="s">
         <v>3384</v>
       </c>
       <c r="G642" s="1" t="s">
@@ -51464,7 +51468,7 @@
       </c>
     </row>
     <row r="681" s="1" customFormat="1" ht="40.5" spans="2:16">
-      <c r="B681" s="42" t="s">
+      <c r="B681" s="43" t="s">
         <v>3685</v>
       </c>
       <c r="F681" s="1" t="s">
@@ -51502,7 +51506,7 @@
       </c>
     </row>
     <row r="682" s="1" customFormat="1" ht="40.5" spans="2:16">
-      <c r="B682" s="42" t="s">
+      <c r="B682" s="43" t="s">
         <v>3693</v>
       </c>
       <c r="F682" s="1" t="s">
@@ -52609,7 +52613,7 @@
       </c>
     </row>
     <row r="710" s="1" customFormat="1" ht="54" spans="2:16">
-      <c r="B710" s="42" t="s">
+      <c r="B710" s="43" t="s">
         <v>3899</v>
       </c>
       <c r="F710" s="1" t="s">
@@ -52647,7 +52651,7 @@
       </c>
     </row>
     <row r="711" s="1" customFormat="1" ht="54" spans="2:16">
-      <c r="B711" s="42" t="s">
+      <c r="B711" s="43" t="s">
         <v>3906</v>
       </c>
       <c r="D711" s="2"/>
@@ -52686,7 +52690,7 @@
       </c>
     </row>
     <row r="712" s="1" customFormat="1" ht="40.5" spans="2:16">
-      <c r="B712" s="42" t="s">
+      <c r="B712" s="43" t="s">
         <v>3914</v>
       </c>
       <c r="D712" s="2"/>
@@ -52725,7 +52729,7 @@
       </c>
     </row>
     <row r="713" s="1" customFormat="1" ht="27" spans="2:16">
-      <c r="B713" s="42" t="s">
+      <c r="B713" s="43" t="s">
         <v>3922</v>
       </c>
       <c r="D713" s="2"/>
@@ -52964,13 +52968,13 @@
       </c>
     </row>
     <row r="719" s="9" customFormat="1" spans="2:16">
-      <c r="B719" s="43" t="s">
+      <c r="B719" s="44" t="s">
         <v>3960</v>
       </c>
       <c r="F719" s="9" t="s">
         <v>3961</v>
       </c>
-      <c r="G719" s="43" t="s">
+      <c r="G719" s="44" t="s">
         <v>3962</v>
       </c>
       <c r="H719" s="9" t="s">
@@ -52988,16 +52992,16 @@
       <c r="L719" s="9" t="s">
         <v>3964</v>
       </c>
-      <c r="M719" s="43" t="s">
+      <c r="M719" s="44" t="s">
         <v>3962</v>
       </c>
-      <c r="N719" s="43" t="s">
+      <c r="N719" s="44" t="s">
         <v>3962</v>
       </c>
-      <c r="O719" s="43" t="s">
+      <c r="O719" s="44" t="s">
         <v>3962</v>
       </c>
-      <c r="P719" s="43" t="s">
+      <c r="P719" s="44" t="s">
         <v>3962</v>
       </c>
     </row>
@@ -55942,7 +55946,7 @@
       </c>
     </row>
     <row r="793" s="2" customFormat="1" ht="40.5" spans="2:16">
-      <c r="B793" s="42" t="s">
+      <c r="B793" s="43" t="s">
         <v>4478</v>
       </c>
       <c r="C793" s="1"/>
@@ -55982,7 +55986,7 @@
       </c>
     </row>
     <row r="794" s="2" customFormat="1" ht="40.5" spans="2:16">
-      <c r="B794" s="42" t="s">
+      <c r="B794" s="43" t="s">
         <v>4486</v>
       </c>
       <c r="C794" s="1"/>
@@ -56022,7 +56026,7 @@
       </c>
     </row>
     <row r="795" s="2" customFormat="1" ht="54" spans="2:16">
-      <c r="B795" s="42" t="s">
+      <c r="B795" s="43" t="s">
         <v>4494</v>
       </c>
       <c r="C795" s="1"/>
@@ -56062,11 +56066,11 @@
       </c>
     </row>
     <row r="796" s="2" customFormat="1" ht="27" spans="2:16">
-      <c r="B796" s="42" t="s">
+      <c r="B796" s="43" t="s">
         <v>4502</v>
       </c>
       <c r="C796" s="6"/>
-      <c r="D796" s="44"/>
+      <c r="D796" s="45"/>
       <c r="E796" s="6"/>
       <c r="F796" s="6" t="s">
         <v>4503</v>
@@ -56103,7 +56107,7 @@
       </c>
     </row>
     <row r="797" s="2" customFormat="1" spans="2:16">
-      <c r="B797" s="42" t="s">
+      <c r="B797" s="43" t="s">
         <v>4510</v>
       </c>
       <c r="C797" s="1"/>
@@ -56143,7 +56147,7 @@
       </c>
     </row>
     <row r="798" s="2" customFormat="1" ht="256.5" spans="2:16">
-      <c r="B798" s="42" t="s">
+      <c r="B798" s="43" t="s">
         <v>4518</v>
       </c>
       <c r="C798" s="1"/>
@@ -56183,7 +56187,7 @@
       </c>
     </row>
     <row r="799" s="2" customFormat="1" ht="40.5" spans="2:16">
-      <c r="B799" s="42" t="s">
+      <c r="B799" s="43" t="s">
         <v>4526</v>
       </c>
       <c r="C799" s="1"/>
@@ -56223,7 +56227,7 @@
       </c>
     </row>
     <row r="800" s="2" customFormat="1" ht="54" spans="2:16">
-      <c r="B800" s="42" t="s">
+      <c r="B800" s="43" t="s">
         <v>4533</v>
       </c>
       <c r="C800" s="1"/>
@@ -56263,7 +56267,7 @@
       </c>
     </row>
     <row r="801" s="2" customFormat="1" ht="81" spans="2:16">
-      <c r="B801" s="42" t="s">
+      <c r="B801" s="43" t="s">
         <v>4541</v>
       </c>
       <c r="C801" s="1"/>
@@ -56303,7 +56307,7 @@
       </c>
     </row>
     <row r="802" s="2" customFormat="1" ht="27" spans="2:16">
-      <c r="B802" s="42" t="s">
+      <c r="B802" s="43" t="s">
         <v>4549</v>
       </c>
       <c r="C802" s="1"/>
@@ -64677,7 +64681,7 @@
       <c r="F1020" s="6" t="s">
         <v>6120</v>
       </c>
-      <c r="G1020" s="45" t="s">
+      <c r="G1020" s="46" t="s">
         <v>6121</v>
       </c>
       <c r="H1020" s="1" t="s">
@@ -64695,16 +64699,16 @@
       <c r="L1020" s="1" t="s">
         <v>5466</v>
       </c>
-      <c r="M1020" s="45" t="s">
+      <c r="M1020" s="46" t="s">
         <v>6121</v>
       </c>
-      <c r="N1020" s="45" t="s">
+      <c r="N1020" s="46" t="s">
         <v>6121</v>
       </c>
-      <c r="O1020" s="45" t="s">
+      <c r="O1020" s="46" t="s">
         <v>6121</v>
       </c>
-      <c r="P1020" s="45" t="s">
+      <c r="P1020" s="46" t="s">
         <v>6121</v>
       </c>
     </row>
@@ -64716,7 +64720,7 @@
       <c r="F1021" s="6" t="s">
         <v>6126</v>
       </c>
-      <c r="G1021" s="46" t="s">
+      <c r="G1021" s="47" t="s">
         <v>6127</v>
       </c>
       <c r="H1021" s="1" t="s">
@@ -64734,16 +64738,16 @@
       <c r="L1021" s="1" t="s">
         <v>6130</v>
       </c>
-      <c r="M1021" s="46" t="s">
+      <c r="M1021" s="47" t="s">
         <v>6127</v>
       </c>
-      <c r="N1021" s="46" t="s">
+      <c r="N1021" s="47" t="s">
         <v>6127</v>
       </c>
-      <c r="O1021" s="46" t="s">
+      <c r="O1021" s="47" t="s">
         <v>6127</v>
       </c>
-      <c r="P1021" s="46" t="s">
+      <c r="P1021" s="47" t="s">
         <v>6127</v>
       </c>
     </row>
@@ -64755,7 +64759,7 @@
       <c r="F1022" s="6" t="s">
         <v>6132</v>
       </c>
-      <c r="G1022" s="46" t="s">
+      <c r="G1022" s="47" t="s">
         <v>6133</v>
       </c>
       <c r="H1022" s="1" t="s">
@@ -64773,16 +64777,16 @@
       <c r="L1022" s="1" t="s">
         <v>6135</v>
       </c>
-      <c r="M1022" s="46" t="s">
+      <c r="M1022" s="47" t="s">
         <v>6133</v>
       </c>
-      <c r="N1022" s="46" t="s">
+      <c r="N1022" s="47" t="s">
         <v>6133</v>
       </c>
-      <c r="O1022" s="46" t="s">
+      <c r="O1022" s="47" t="s">
         <v>6133</v>
       </c>
-      <c r="P1022" s="46" t="s">
+      <c r="P1022" s="47" t="s">
         <v>6133</v>
       </c>
     </row>
@@ -64796,7 +64800,7 @@
       <c r="F1023" s="6" t="s">
         <v>6137</v>
       </c>
-      <c r="G1023" s="41" t="s">
+      <c r="G1023" s="42" t="s">
         <v>6138</v>
       </c>
       <c r="H1023" s="1" t="s">
@@ -64814,16 +64818,16 @@
       <c r="L1023" s="1" t="s">
         <v>6142</v>
       </c>
-      <c r="M1023" s="41" t="s">
+      <c r="M1023" s="42" t="s">
         <v>6138</v>
       </c>
-      <c r="N1023" s="41" t="s">
+      <c r="N1023" s="42" t="s">
         <v>6138</v>
       </c>
-      <c r="O1023" s="41" t="s">
+      <c r="O1023" s="42" t="s">
         <v>6138</v>
       </c>
-      <c r="P1023" s="41" t="s">
+      <c r="P1023" s="42" t="s">
         <v>6138</v>
       </c>
     </row>
@@ -64837,7 +64841,7 @@
       <c r="F1024" s="6" t="s">
         <v>6073</v>
       </c>
-      <c r="G1024" s="46" t="s">
+      <c r="G1024" s="47" t="s">
         <v>6144</v>
       </c>
       <c r="H1024" s="1" t="s">
@@ -64855,16 +64859,16 @@
       <c r="L1024" s="1" t="s">
         <v>6149</v>
       </c>
-      <c r="M1024" s="46" t="s">
+      <c r="M1024" s="47" t="s">
         <v>6144</v>
       </c>
-      <c r="N1024" s="46" t="s">
+      <c r="N1024" s="47" t="s">
         <v>6144</v>
       </c>
-      <c r="O1024" s="46" t="s">
+      <c r="O1024" s="47" t="s">
         <v>6144</v>
       </c>
-      <c r="P1024" s="46" t="s">
+      <c r="P1024" s="47" t="s">
         <v>6144</v>
       </c>
     </row>
@@ -64878,7 +64882,7 @@
       <c r="F1025" s="6" t="s">
         <v>6151</v>
       </c>
-      <c r="G1025" s="46" t="s">
+      <c r="G1025" s="47" t="s">
         <v>6152</v>
       </c>
       <c r="H1025" s="1" t="s">
@@ -64896,16 +64900,16 @@
       <c r="L1025" s="1" t="s">
         <v>6157</v>
       </c>
-      <c r="M1025" s="46" t="s">
+      <c r="M1025" s="47" t="s">
         <v>6152</v>
       </c>
-      <c r="N1025" s="46" t="s">
+      <c r="N1025" s="47" t="s">
         <v>6152</v>
       </c>
-      <c r="O1025" s="46" t="s">
+      <c r="O1025" s="47" t="s">
         <v>6152</v>
       </c>
-      <c r="P1025" s="46" t="s">
+      <c r="P1025" s="47" t="s">
         <v>6152</v>
       </c>
     </row>
@@ -64919,7 +64923,7 @@
       <c r="F1026" s="6" t="s">
         <v>6159</v>
       </c>
-      <c r="G1026" s="46" t="s">
+      <c r="G1026" s="47" t="s">
         <v>6160</v>
       </c>
       <c r="H1026" s="1" t="s">
@@ -64937,16 +64941,16 @@
       <c r="L1026" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="M1026" s="46" t="s">
+      <c r="M1026" s="47" t="s">
         <v>6160</v>
       </c>
-      <c r="N1026" s="46" t="s">
+      <c r="N1026" s="47" t="s">
         <v>6160</v>
       </c>
-      <c r="O1026" s="46" t="s">
+      <c r="O1026" s="47" t="s">
         <v>6160</v>
       </c>
-      <c r="P1026" s="46" t="s">
+      <c r="P1026" s="47" t="s">
         <v>6160</v>
       </c>
     </row>
@@ -64960,7 +64964,7 @@
       <c r="F1027" s="6" t="s">
         <v>6167</v>
       </c>
-      <c r="G1027" s="46" t="s">
+      <c r="G1027" s="47" t="s">
         <v>6168</v>
       </c>
       <c r="H1027" s="1" t="s">
@@ -64978,16 +64982,16 @@
       <c r="L1027" s="1" t="s">
         <v>6168</v>
       </c>
-      <c r="M1027" s="46" t="s">
+      <c r="M1027" s="47" t="s">
         <v>6168</v>
       </c>
-      <c r="N1027" s="46" t="s">
+      <c r="N1027" s="47" t="s">
         <v>6168</v>
       </c>
-      <c r="O1027" s="46" t="s">
+      <c r="O1027" s="47" t="s">
         <v>6168</v>
       </c>
-      <c r="P1027" s="46" t="s">
+      <c r="P1027" s="47" t="s">
         <v>6168</v>
       </c>
     </row>
@@ -65001,7 +65005,7 @@
       <c r="F1028" s="6" t="s">
         <v>6173</v>
       </c>
-      <c r="G1028" s="46" t="s">
+      <c r="G1028" s="47" t="s">
         <v>6174</v>
       </c>
       <c r="H1028" s="1" t="s">
@@ -65019,16 +65023,16 @@
       <c r="L1028" s="1" t="s">
         <v>6179</v>
       </c>
-      <c r="M1028" s="46" t="s">
+      <c r="M1028" s="47" t="s">
         <v>6174</v>
       </c>
-      <c r="N1028" s="46" t="s">
+      <c r="N1028" s="47" t="s">
         <v>6174</v>
       </c>
-      <c r="O1028" s="46" t="s">
+      <c r="O1028" s="47" t="s">
         <v>6174</v>
       </c>
-      <c r="P1028" s="46" t="s">
+      <c r="P1028" s="47" t="s">
         <v>6174</v>
       </c>
     </row>
@@ -65042,7 +65046,7 @@
       <c r="F1029" s="6" t="s">
         <v>1073</v>
       </c>
-      <c r="G1029" s="46" t="s">
+      <c r="G1029" s="47" t="s">
         <v>6181</v>
       </c>
       <c r="H1029" s="1" t="s">
@@ -65060,16 +65064,16 @@
       <c r="L1029" s="1" t="s">
         <v>6181</v>
       </c>
-      <c r="M1029" s="46" t="s">
+      <c r="M1029" s="47" t="s">
         <v>6181</v>
       </c>
-      <c r="N1029" s="46" t="s">
+      <c r="N1029" s="47" t="s">
         <v>6181</v>
       </c>
-      <c r="O1029" s="46" t="s">
+      <c r="O1029" s="47" t="s">
         <v>6181</v>
       </c>
-      <c r="P1029" s="46" t="s">
+      <c r="P1029" s="47" t="s">
         <v>6181</v>
       </c>
     </row>
@@ -65083,7 +65087,7 @@
       <c r="F1030" s="6" t="s">
         <v>6187</v>
       </c>
-      <c r="G1030" s="46" t="s">
+      <c r="G1030" s="47" t="s">
         <v>6188</v>
       </c>
       <c r="H1030" s="1" t="s">
@@ -65101,16 +65105,16 @@
       <c r="L1030" s="1" t="s">
         <v>6191</v>
       </c>
-      <c r="M1030" s="46" t="s">
+      <c r="M1030" s="47" t="s">
         <v>6188</v>
       </c>
-      <c r="N1030" s="46" t="s">
+      <c r="N1030" s="47" t="s">
         <v>6188</v>
       </c>
-      <c r="O1030" s="46" t="s">
+      <c r="O1030" s="47" t="s">
         <v>6188</v>
       </c>
-      <c r="P1030" s="46" t="s">
+      <c r="P1030" s="47" t="s">
         <v>6188</v>
       </c>
     </row>
@@ -65124,7 +65128,7 @@
       <c r="F1031" s="6" t="s">
         <v>6193</v>
       </c>
-      <c r="G1031" s="46" t="s">
+      <c r="G1031" s="47" t="s">
         <v>6194</v>
       </c>
       <c r="H1031" s="1" t="s">
@@ -65142,16 +65146,16 @@
       <c r="L1031" s="1" t="s">
         <v>6199</v>
       </c>
-      <c r="M1031" s="46" t="s">
+      <c r="M1031" s="47" t="s">
         <v>6194</v>
       </c>
-      <c r="N1031" s="46" t="s">
+      <c r="N1031" s="47" t="s">
         <v>6194</v>
       </c>
-      <c r="O1031" s="46" t="s">
+      <c r="O1031" s="47" t="s">
         <v>6194</v>
       </c>
-      <c r="P1031" s="46" t="s">
+      <c r="P1031" s="47" t="s">
         <v>6194</v>
       </c>
     </row>
@@ -65165,7 +65169,7 @@
       <c r="F1032" s="6" t="s">
         <v>6201</v>
       </c>
-      <c r="G1032" s="46" t="s">
+      <c r="G1032" s="47" t="s">
         <v>6202</v>
       </c>
       <c r="H1032" s="1" t="s">
@@ -65183,16 +65187,16 @@
       <c r="L1032" s="1" t="s">
         <v>6207</v>
       </c>
-      <c r="M1032" s="46" t="s">
+      <c r="M1032" s="47" t="s">
         <v>6202</v>
       </c>
-      <c r="N1032" s="46" t="s">
+      <c r="N1032" s="47" t="s">
         <v>6202</v>
       </c>
-      <c r="O1032" s="46" t="s">
+      <c r="O1032" s="47" t="s">
         <v>6202</v>
       </c>
-      <c r="P1032" s="46" t="s">
+      <c r="P1032" s="47" t="s">
         <v>6202</v>
       </c>
     </row>
@@ -65206,7 +65210,7 @@
       <c r="F1033" s="6" t="s">
         <v>6209</v>
       </c>
-      <c r="G1033" s="47" t="s">
+      <c r="G1033" s="48" t="s">
         <v>6210</v>
       </c>
       <c r="H1033" s="1" t="s">
@@ -65224,16 +65228,16 @@
       <c r="L1033" s="1" t="s">
         <v>6215</v>
       </c>
-      <c r="M1033" s="47" t="s">
+      <c r="M1033" s="48" t="s">
         <v>6210</v>
       </c>
-      <c r="N1033" s="47" t="s">
+      <c r="N1033" s="48" t="s">
         <v>6210</v>
       </c>
-      <c r="O1033" s="47" t="s">
+      <c r="O1033" s="48" t="s">
         <v>6210</v>
       </c>
-      <c r="P1033" s="47" t="s">
+      <c r="P1033" s="48" t="s">
         <v>6210</v>
       </c>
     </row>
@@ -65246,7 +65250,7 @@
       <c r="F1034" s="1" t="s">
         <v>6217</v>
       </c>
-      <c r="G1034" s="47" t="s">
+      <c r="G1034" s="48" t="s">
         <v>6218</v>
       </c>
       <c r="H1034" s="1" t="s">
@@ -65264,16 +65268,16 @@
       <c r="L1034" s="1" t="s">
         <v>6223</v>
       </c>
-      <c r="M1034" s="47" t="s">
+      <c r="M1034" s="48" t="s">
         <v>6218</v>
       </c>
-      <c r="N1034" s="47" t="s">
+      <c r="N1034" s="48" t="s">
         <v>6218</v>
       </c>
-      <c r="O1034" s="47" t="s">
+      <c r="O1034" s="48" t="s">
         <v>6218</v>
       </c>
-      <c r="P1034" s="47" t="s">
+      <c r="P1034" s="48" t="s">
         <v>6218</v>
       </c>
     </row>
@@ -65286,7 +65290,7 @@
       <c r="F1035" s="1" t="s">
         <v>6225</v>
       </c>
-      <c r="G1035" s="47" t="s">
+      <c r="G1035" s="48" t="s">
         <v>6226</v>
       </c>
       <c r="H1035" s="1" t="s">
@@ -65304,16 +65308,16 @@
       <c r="L1035" s="1" t="s">
         <v>6231</v>
       </c>
-      <c r="M1035" s="47" t="s">
+      <c r="M1035" s="48" t="s">
         <v>6226</v>
       </c>
-      <c r="N1035" s="47" t="s">
+      <c r="N1035" s="48" t="s">
         <v>6226</v>
       </c>
-      <c r="O1035" s="47" t="s">
+      <c r="O1035" s="48" t="s">
         <v>6226</v>
       </c>
-      <c r="P1035" s="47" t="s">
+      <c r="P1035" s="48" t="s">
         <v>6226</v>
       </c>
     </row>
@@ -65326,7 +65330,7 @@
       <c r="F1036" s="1" t="s">
         <v>6233</v>
       </c>
-      <c r="G1036" s="47" t="s">
+      <c r="G1036" s="48" t="s">
         <v>6234</v>
       </c>
       <c r="H1036" s="1" t="s">
@@ -65344,16 +65348,16 @@
       <c r="L1036" s="1" t="s">
         <v>6238</v>
       </c>
-      <c r="M1036" s="47" t="s">
+      <c r="M1036" s="48" t="s">
         <v>6234</v>
       </c>
-      <c r="N1036" s="47" t="s">
+      <c r="N1036" s="48" t="s">
         <v>6234</v>
       </c>
-      <c r="O1036" s="47" t="s">
+      <c r="O1036" s="48" t="s">
         <v>6234</v>
       </c>
-      <c r="P1036" s="47" t="s">
+      <c r="P1036" s="48" t="s">
         <v>6234</v>
       </c>
     </row>
@@ -65366,7 +65370,7 @@
       <c r="F1037" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="G1037" s="47" t="s">
+      <c r="G1037" s="48" t="s">
         <v>6241</v>
       </c>
       <c r="H1037" s="1" t="s">
@@ -65384,16 +65388,16 @@
       <c r="L1037" s="1" t="s">
         <v>6245</v>
       </c>
-      <c r="M1037" s="47" t="s">
+      <c r="M1037" s="48" t="s">
         <v>6241</v>
       </c>
-      <c r="N1037" s="47" t="s">
+      <c r="N1037" s="48" t="s">
         <v>6241</v>
       </c>
-      <c r="O1037" s="47" t="s">
+      <c r="O1037" s="48" t="s">
         <v>6241</v>
       </c>
-      <c r="P1037" s="47" t="s">
+      <c r="P1037" s="48" t="s">
         <v>6241</v>
       </c>
     </row>
@@ -65406,7 +65410,7 @@
       <c r="F1038" s="1" t="s">
         <v>6247</v>
       </c>
-      <c r="G1038" s="47" t="s">
+      <c r="G1038" s="48" t="s">
         <v>6248</v>
       </c>
       <c r="H1038" s="1" t="s">
@@ -65424,16 +65428,16 @@
       <c r="L1038" s="1" t="s">
         <v>6253</v>
       </c>
-      <c r="M1038" s="47" t="s">
+      <c r="M1038" s="48" t="s">
         <v>6248</v>
       </c>
-      <c r="N1038" s="47" t="s">
+      <c r="N1038" s="48" t="s">
         <v>6248</v>
       </c>
-      <c r="O1038" s="47" t="s">
+      <c r="O1038" s="48" t="s">
         <v>6248</v>
       </c>
-      <c r="P1038" s="47" t="s">
+      <c r="P1038" s="48" t="s">
         <v>6248</v>
       </c>
     </row>
@@ -65446,7 +65450,7 @@
       <c r="F1039" s="1" t="s">
         <v>6255</v>
       </c>
-      <c r="G1039" s="47" t="s">
+      <c r="G1039" s="48" t="s">
         <v>6256</v>
       </c>
       <c r="H1039" s="1" t="s">
@@ -65464,16 +65468,16 @@
       <c r="L1039" s="1" t="s">
         <v>6261</v>
       </c>
-      <c r="M1039" s="47" t="s">
+      <c r="M1039" s="48" t="s">
         <v>6256</v>
       </c>
-      <c r="N1039" s="47" t="s">
+      <c r="N1039" s="48" t="s">
         <v>6256</v>
       </c>
-      <c r="O1039" s="47" t="s">
+      <c r="O1039" s="48" t="s">
         <v>6256</v>
       </c>
-      <c r="P1039" s="47" t="s">
+      <c r="P1039" s="48" t="s">
         <v>6256</v>
       </c>
     </row>
@@ -65486,7 +65490,7 @@
       <c r="F1040" s="1" t="s">
         <v>6263</v>
       </c>
-      <c r="G1040" s="47" t="s">
+      <c r="G1040" s="48" t="s">
         <v>6264</v>
       </c>
       <c r="H1040" s="1" t="s">
@@ -65504,16 +65508,16 @@
       <c r="L1040" s="1" t="s">
         <v>6268</v>
       </c>
-      <c r="M1040" s="47" t="s">
+      <c r="M1040" s="48" t="s">
         <v>6264</v>
       </c>
-      <c r="N1040" s="47" t="s">
+      <c r="N1040" s="48" t="s">
         <v>6264</v>
       </c>
-      <c r="O1040" s="47" t="s">
+      <c r="O1040" s="48" t="s">
         <v>6264</v>
       </c>
-      <c r="P1040" s="47" t="s">
+      <c r="P1040" s="48" t="s">
         <v>6264</v>
       </c>
     </row>
@@ -65526,7 +65530,7 @@
       <c r="F1041" s="1" t="s">
         <v>6270</v>
       </c>
-      <c r="G1041" s="47" t="s">
+      <c r="G1041" s="48" t="s">
         <v>6271</v>
       </c>
       <c r="H1041" s="1" t="s">
@@ -65544,16 +65548,16 @@
       <c r="L1041" s="1" t="s">
         <v>6276</v>
       </c>
-      <c r="M1041" s="47" t="s">
+      <c r="M1041" s="48" t="s">
         <v>6271</v>
       </c>
-      <c r="N1041" s="47" t="s">
+      <c r="N1041" s="48" t="s">
         <v>6271</v>
       </c>
-      <c r="O1041" s="47" t="s">
+      <c r="O1041" s="48" t="s">
         <v>6271</v>
       </c>
-      <c r="P1041" s="47" t="s">
+      <c r="P1041" s="48" t="s">
         <v>6271</v>
       </c>
     </row>
@@ -65566,7 +65570,7 @@
       <c r="F1042" s="1" t="s">
         <v>6278</v>
       </c>
-      <c r="G1042" s="47" t="s">
+      <c r="G1042" s="48" t="s">
         <v>3106</v>
       </c>
       <c r="H1042" s="1" t="s">
@@ -65584,16 +65588,16 @@
       <c r="L1042" s="1" t="s">
         <v>6282</v>
       </c>
-      <c r="M1042" s="47" t="s">
+      <c r="M1042" s="48" t="s">
         <v>3106</v>
       </c>
-      <c r="N1042" s="47" t="s">
+      <c r="N1042" s="48" t="s">
         <v>3106</v>
       </c>
-      <c r="O1042" s="47" t="s">
+      <c r="O1042" s="48" t="s">
         <v>3106</v>
       </c>
-      <c r="P1042" s="47" t="s">
+      <c r="P1042" s="48" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -65606,7 +65610,7 @@
       <c r="F1043" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="G1043" s="47" t="s">
+      <c r="G1043" s="48" t="s">
         <v>6285</v>
       </c>
       <c r="H1043" s="1" t="s">
@@ -65624,16 +65628,16 @@
       <c r="L1043" s="1" t="s">
         <v>6289</v>
       </c>
-      <c r="M1043" s="47" t="s">
+      <c r="M1043" s="48" t="s">
         <v>6285</v>
       </c>
-      <c r="N1043" s="47" t="s">
+      <c r="N1043" s="48" t="s">
         <v>6285</v>
       </c>
-      <c r="O1043" s="47" t="s">
+      <c r="O1043" s="48" t="s">
         <v>6285</v>
       </c>
-      <c r="P1043" s="47" t="s">
+      <c r="P1043" s="48" t="s">
         <v>6285</v>
       </c>
     </row>
@@ -73736,7 +73740,7 @@
       <c r="C1248" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="D1248" s="48" t="s">
+      <c r="D1248" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1248" s="22" t="s">
@@ -73784,7 +73788,7 @@
       <c r="C1249" s="1" t="s">
         <v>7359</v>
       </c>
-      <c r="D1249" s="48" t="s">
+      <c r="D1249" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1249" s="22" t="s">
@@ -73832,7 +73836,7 @@
       <c r="C1250" s="1" t="s">
         <v>7363</v>
       </c>
-      <c r="D1250" s="48" t="s">
+      <c r="D1250" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1250" s="22" t="s">
@@ -73880,7 +73884,7 @@
       <c r="C1251" s="1" t="s">
         <v>7333</v>
       </c>
-      <c r="D1251" s="48" t="s">
+      <c r="D1251" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1251" s="22" t="s">
@@ -73928,7 +73932,7 @@
       <c r="C1252" s="1" t="s">
         <v>7370</v>
       </c>
-      <c r="D1252" s="48" t="s">
+      <c r="D1252" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1252" s="22" t="s">
@@ -73976,7 +73980,7 @@
       <c r="C1253" s="1" t="s">
         <v>7374</v>
       </c>
-      <c r="D1253" s="48" t="s">
+      <c r="D1253" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1253" s="22" t="s">
@@ -74024,7 +74028,7 @@
       <c r="C1254" s="1" t="s">
         <v>7244</v>
       </c>
-      <c r="D1254" s="48" t="s">
+      <c r="D1254" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1254" s="22" t="s">
@@ -74072,7 +74076,7 @@
       <c r="C1255" s="1" t="s">
         <v>4453</v>
       </c>
-      <c r="D1255" s="48" t="s">
+      <c r="D1255" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1255" s="22" t="s">
@@ -74120,7 +74124,7 @@
       <c r="C1256" s="1" t="s">
         <v>7281</v>
       </c>
-      <c r="D1256" s="48" t="s">
+      <c r="D1256" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1256" s="22" t="s">
@@ -74168,7 +74172,7 @@
       <c r="C1257" s="1" t="s">
         <v>7286</v>
       </c>
-      <c r="D1257" s="48" t="s">
+      <c r="D1257" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1257" s="22" t="s">
@@ -74216,7 +74220,7 @@
       <c r="C1258" s="1" t="s">
         <v>6863</v>
       </c>
-      <c r="D1258" s="48" t="s">
+      <c r="D1258" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1258" s="22" t="s">
@@ -74264,7 +74268,7 @@
       <c r="C1259" s="1" t="s">
         <v>7312</v>
       </c>
-      <c r="D1259" s="48" t="s">
+      <c r="D1259" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1259" s="22" t="s">
@@ -74312,7 +74316,7 @@
       <c r="C1260" s="1" t="s">
         <v>7396</v>
       </c>
-      <c r="D1260" s="48" t="s">
+      <c r="D1260" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1260" s="22" t="s">
@@ -74360,7 +74364,7 @@
       <c r="C1261" s="1" t="s">
         <v>7400</v>
       </c>
-      <c r="D1261" s="48" t="s">
+      <c r="D1261" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1261" s="22" t="s">
@@ -74408,7 +74412,7 @@
       <c r="C1262" s="1" t="s">
         <v>7404</v>
       </c>
-      <c r="D1262" s="48" t="s">
+      <c r="D1262" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1262" s="22" t="s">
@@ -74456,7 +74460,7 @@
       <c r="C1263" s="1" t="s">
         <v>7408</v>
       </c>
-      <c r="D1263" s="48" t="s">
+      <c r="D1263" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1263" s="22" t="s">
@@ -74504,7 +74508,7 @@
       <c r="C1264" s="1" t="s">
         <v>7412</v>
       </c>
-      <c r="D1264" s="48" t="s">
+      <c r="D1264" s="49" t="s">
         <v>7354</v>
       </c>
       <c r="E1264" s="22" t="s">
@@ -74550,7 +74554,7 @@
         <v>7415</v>
       </c>
       <c r="C1265" s="1"/>
-      <c r="D1265" s="48"/>
+      <c r="D1265" s="49"/>
       <c r="E1265" s="22"/>
       <c r="F1265" s="22" t="s">
         <v>7416</v>
@@ -74592,7 +74596,7 @@
         <v>7418</v>
       </c>
       <c r="C1266" s="1"/>
-      <c r="D1266" s="48"/>
+      <c r="D1266" s="49"/>
       <c r="E1266" s="22"/>
       <c r="F1266" s="28" t="s">
         <v>952</v>
@@ -74634,7 +74638,7 @@
         <v>7419</v>
       </c>
       <c r="C1267" s="1"/>
-      <c r="D1267" s="48"/>
+      <c r="D1267" s="49"/>
       <c r="E1267" s="22"/>
       <c r="F1267" s="12" t="s">
         <v>7420</v>
@@ -74676,7 +74680,7 @@
         <v>7421</v>
       </c>
       <c r="C1268" s="1"/>
-      <c r="D1268" s="48"/>
+      <c r="D1268" s="49"/>
       <c r="E1268" s="22"/>
       <c r="F1268" s="12" t="s">
         <v>7042</v>
@@ -74718,7 +74722,7 @@
         <v>7422</v>
       </c>
       <c r="C1269" s="1"/>
-      <c r="D1269" s="48"/>
+      <c r="D1269" s="49"/>
       <c r="E1269" s="22"/>
       <c r="F1269" s="12" t="s">
         <v>7374</v>
@@ -74760,7 +74764,7 @@
         <v>7424</v>
       </c>
       <c r="C1270" s="1"/>
-      <c r="D1270" s="48"/>
+      <c r="D1270" s="49"/>
       <c r="E1270" s="22"/>
       <c r="F1270" s="12" t="s">
         <v>7425</v>
@@ -74802,7 +74806,7 @@
         <v>7427</v>
       </c>
       <c r="C1271" s="1"/>
-      <c r="D1271" s="48"/>
+      <c r="D1271" s="49"/>
       <c r="E1271" s="22"/>
       <c r="F1271" s="12" t="s">
         <v>7081</v>
@@ -74844,7 +74848,7 @@
         <v>7429</v>
       </c>
       <c r="C1272" s="1"/>
-      <c r="D1272" s="48"/>
+      <c r="D1272" s="49"/>
       <c r="E1272" s="22"/>
       <c r="F1272" s="12" t="s">
         <v>7336</v>
@@ -74886,7 +74890,7 @@
         <v>7431</v>
       </c>
       <c r="C1273" s="1"/>
-      <c r="D1273" s="48"/>
+      <c r="D1273" s="49"/>
       <c r="E1273" s="22"/>
       <c r="F1273" s="12" t="s">
         <v>7302</v>
@@ -74928,7 +74932,7 @@
         <v>7432</v>
       </c>
       <c r="C1274" s="1"/>
-      <c r="D1274" s="48"/>
+      <c r="D1274" s="49"/>
       <c r="E1274" s="22"/>
       <c r="F1274" s="12" t="s">
         <v>7305</v>
@@ -74970,7 +74974,7 @@
         <v>7433</v>
       </c>
       <c r="C1275" s="1"/>
-      <c r="D1275" s="48"/>
+      <c r="D1275" s="49"/>
       <c r="E1275" s="22"/>
       <c r="F1275" s="12" t="s">
         <v>7434</v>
@@ -75012,7 +75016,7 @@
         <v>7436</v>
       </c>
       <c r="C1276" s="1"/>
-      <c r="D1276" s="48"/>
+      <c r="D1276" s="49"/>
       <c r="E1276" s="22"/>
       <c r="F1276" s="12" t="s">
         <v>7437</v>
@@ -75054,7 +75058,7 @@
         <v>7439</v>
       </c>
       <c r="C1277" s="1"/>
-      <c r="D1277" s="48"/>
+      <c r="D1277" s="49"/>
       <c r="E1277" s="22"/>
       <c r="F1277" s="12" t="s">
         <v>7440</v>
@@ -75096,7 +75100,7 @@
         <v>7441</v>
       </c>
       <c r="C1278" s="1"/>
-      <c r="D1278" s="48"/>
+      <c r="D1278" s="49"/>
       <c r="E1278" s="22"/>
       <c r="F1278" s="12" t="s">
         <v>6840</v>
@@ -75138,7 +75142,7 @@
